--- a/Data/National Accounts/PSA-16IAC_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-16IAC_2018PSNA_Qrt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2021\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2021\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -455,7 +455,7 @@
     <definedName name="x0713t6a">#REF!</definedName>
     <definedName name="x0713t8a">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -465,7 +465,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -612,13 +612,13 @@
     <t>2021 - 2021</t>
   </si>
   <si>
-    <t>As of August 2021</t>
+    <t>As of November 2021</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2021</t>
+    <t>Q1 2000 to Q3 2021</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2021</t>
+    <t>Q1 2001 to Q3 2021</t>
   </si>
 </sst>
 </file>
@@ -23646,10 +23646,10 @@
   </sheetPr>
   <dimension ref="A1:EY132"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="57" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BW1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="BX18" sqref="BX18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -23657,8 +23657,8 @@
     <col min="1" max="1" width="47.6328125" style="1" customWidth="1"/>
     <col min="2" max="77" width="11.1796875" style="11" bestFit="1" customWidth="1"/>
     <col min="78" max="81" width="9.90625" style="11" customWidth="1"/>
-    <col min="82" max="87" width="9.90625" style="35" customWidth="1"/>
-    <col min="88" max="16384" width="7.81640625" style="11"/>
+    <col min="82" max="88" width="9.90625" style="35" customWidth="1"/>
+    <col min="89" max="16384" width="7.81640625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -23671,6 +23671,7 @@
       <c r="CG1" s="22"/>
       <c r="CH1" s="22"/>
       <c r="CI1" s="22"/>
+      <c r="CJ1" s="22"/>
     </row>
     <row r="2" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -23682,6 +23683,7 @@
       <c r="CG2" s="22"/>
       <c r="CH2" s="22"/>
       <c r="CI2" s="22"/>
+      <c r="CJ2" s="22"/>
     </row>
     <row r="3" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -23693,6 +23695,7 @@
       <c r="CG3" s="22"/>
       <c r="CH3" s="22"/>
       <c r="CI3" s="22"/>
+      <c r="CJ3" s="22"/>
     </row>
     <row r="4" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD4" s="22"/>
@@ -23701,6 +23704,7 @@
       <c r="CG4" s="22"/>
       <c r="CH4" s="22"/>
       <c r="CI4" s="22"/>
+      <c r="CJ4" s="22"/>
     </row>
     <row r="5" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -23712,6 +23716,7 @@
       <c r="CG5" s="22"/>
       <c r="CH5" s="22"/>
       <c r="CI5" s="22"/>
+      <c r="CJ5" s="22"/>
     </row>
     <row r="6" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -23723,6 +23728,7 @@
       <c r="CG6" s="22"/>
       <c r="CH6" s="22"/>
       <c r="CI6" s="22"/>
+      <c r="CJ6" s="22"/>
     </row>
     <row r="7" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -23814,6 +23820,7 @@
       <c r="CG7" s="23"/>
       <c r="CH7" s="23"/>
       <c r="CI7" s="23"/>
+      <c r="CJ7" s="23"/>
     </row>
     <row r="8" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
@@ -23902,6 +23909,7 @@
       <c r="CG8" s="23"/>
       <c r="CH8" s="23"/>
       <c r="CI8" s="23"/>
+      <c r="CJ8" s="23"/>
     </row>
     <row r="9" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
@@ -24035,6 +24043,7 @@
         <v>2021</v>
       </c>
       <c r="CI9" s="37"/>
+      <c r="CJ9" s="37"/>
     </row>
     <row r="10" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -24297,6 +24306,9 @@
       </c>
       <c r="CI10" s="24" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ10" s="24" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24307,6 +24319,7 @@
       <c r="CG11" s="22"/>
       <c r="CH11" s="22"/>
       <c r="CI11" s="22"/>
+      <c r="CJ11" s="22"/>
     </row>
     <row r="12" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -24568,9 +24581,11 @@
         <v>12111.015099207638</v>
       </c>
       <c r="CI12" s="25">
-        <v>14089.374778431185</v>
-      </c>
-      <c r="CJ12" s="10"/>
+        <v>14602.312737594973</v>
+      </c>
+      <c r="CJ12" s="25">
+        <v>10741.613009789255</v>
+      </c>
       <c r="CK12" s="10"/>
       <c r="CL12" s="10"/>
       <c r="CM12" s="10"/>
@@ -24899,9 +24914,11 @@
         <v>132619.42299883647</v>
       </c>
       <c r="CI13" s="26">
-        <v>159481.63993915461</v>
-      </c>
-      <c r="CJ13" s="10"/>
+        <v>156103.14559338172</v>
+      </c>
+      <c r="CJ13" s="26">
+        <v>130325.25341322902</v>
+      </c>
       <c r="CK13" s="10"/>
       <c r="CL13" s="10"/>
       <c r="CM13" s="10"/>
@@ -25057,7 +25074,7 @@
       <c r="CG14" s="27"/>
       <c r="CH14" s="27"/>
       <c r="CI14" s="27"/>
-      <c r="CJ14" s="10"/>
+      <c r="CJ14" s="27"/>
       <c r="CK14" s="10"/>
       <c r="CL14" s="10"/>
       <c r="CM14" s="10"/>
@@ -25386,9 +25403,11 @@
         <v>144730.43809804411</v>
       </c>
       <c r="CI15" s="28">
-        <v>173571.01471758581</v>
-      </c>
-      <c r="CJ15" s="10"/>
+        <v>170705.45833097669</v>
+      </c>
+      <c r="CJ15" s="28">
+        <v>141066.86642301828</v>
+      </c>
       <c r="CK15" s="10"/>
       <c r="CL15" s="10"/>
       <c r="CM15" s="10"/>
@@ -25545,6 +25564,7 @@
       <c r="CG16" s="29"/>
       <c r="CH16" s="29"/>
       <c r="CI16" s="29"/>
+      <c r="CJ16" s="29"/>
     </row>
     <row r="17" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
@@ -25556,6 +25576,7 @@
       <c r="CG17" s="22"/>
       <c r="CH17" s="22"/>
       <c r="CI17" s="22"/>
+      <c r="CJ17" s="22"/>
     </row>
     <row r="18" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
@@ -25644,7 +25665,7 @@
       <c r="CG18" s="30"/>
       <c r="CH18" s="30"/>
       <c r="CI18" s="30"/>
-      <c r="CJ18" s="10"/>
+      <c r="CJ18" s="30"/>
       <c r="CK18" s="10"/>
       <c r="CL18" s="10"/>
       <c r="CM18" s="10"/>
@@ -25800,7 +25821,7 @@
       <c r="CG19" s="30"/>
       <c r="CH19" s="30"/>
       <c r="CI19" s="30"/>
-      <c r="CJ19" s="10"/>
+      <c r="CJ19" s="30"/>
       <c r="CK19" s="10"/>
       <c r="CL19" s="10"/>
       <c r="CM19" s="10"/>
@@ -25879,6 +25900,7 @@
       <c r="CG20" s="22"/>
       <c r="CH20" s="22"/>
       <c r="CI20" s="22"/>
+      <c r="CJ20" s="22"/>
     </row>
     <row r="21" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -25890,6 +25912,7 @@
       <c r="CG21" s="22"/>
       <c r="CH21" s="22"/>
       <c r="CI21" s="22"/>
+      <c r="CJ21" s="22"/>
     </row>
     <row r="22" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -25901,6 +25924,7 @@
       <c r="CG22" s="22"/>
       <c r="CH22" s="22"/>
       <c r="CI22" s="22"/>
+      <c r="CJ22" s="22"/>
     </row>
     <row r="23" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD23" s="22"/>
@@ -25909,6 +25933,7 @@
       <c r="CG23" s="22"/>
       <c r="CH23" s="22"/>
       <c r="CI23" s="22"/>
+      <c r="CJ23" s="22"/>
     </row>
     <row r="24" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -25920,6 +25945,7 @@
       <c r="CG24" s="22"/>
       <c r="CH24" s="22"/>
       <c r="CI24" s="22"/>
+      <c r="CJ24" s="22"/>
     </row>
     <row r="25" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -25931,6 +25957,7 @@
       <c r="CG25" s="22"/>
       <c r="CH25" s="22"/>
       <c r="CI25" s="22"/>
+      <c r="CJ25" s="22"/>
     </row>
     <row r="26" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -26022,6 +26049,7 @@
       <c r="CG26" s="23"/>
       <c r="CH26" s="23"/>
       <c r="CI26" s="23"/>
+      <c r="CJ26" s="23"/>
     </row>
     <row r="27" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
@@ -26110,6 +26138,7 @@
       <c r="CG27" s="23"/>
       <c r="CH27" s="23"/>
       <c r="CI27" s="23"/>
+      <c r="CJ27" s="23"/>
     </row>
     <row r="28" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
@@ -26245,6 +26274,7 @@
       <c r="CI28" s="37">
         <v>0</v>
       </c>
+      <c r="CJ28" s="37"/>
     </row>
     <row r="29" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
@@ -26507,6 +26537,9 @@
       </c>
       <c r="CI29" s="24" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ29" s="24" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26517,6 +26550,7 @@
       <c r="CG30" s="22"/>
       <c r="CH30" s="22"/>
       <c r="CI30" s="22"/>
+      <c r="CJ30" s="22"/>
     </row>
     <row r="31" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -26778,9 +26812,11 @@
         <v>11749.683202911434</v>
       </c>
       <c r="CI31" s="25">
-        <v>14626.393503765041</v>
-      </c>
-      <c r="CJ31" s="10"/>
+        <v>15158.88217354142</v>
+      </c>
+      <c r="CJ31" s="25">
+        <v>10288.587242574466</v>
+      </c>
       <c r="CK31" s="10"/>
       <c r="CL31" s="10"/>
       <c r="CM31" s="10"/>
@@ -27109,9 +27145,11 @@
         <v>134948.13850335067</v>
       </c>
       <c r="CI32" s="26">
-        <v>163087.21535565989</v>
-      </c>
-      <c r="CJ32" s="10"/>
+        <v>159632.33970253047</v>
+      </c>
+      <c r="CJ32" s="26">
+        <v>124737.50323104241</v>
+      </c>
       <c r="CK32" s="10"/>
       <c r="CL32" s="10"/>
       <c r="CM32" s="10"/>
@@ -27267,7 +27305,7 @@
       <c r="CG33" s="30"/>
       <c r="CH33" s="30"/>
       <c r="CI33" s="30"/>
-      <c r="CJ33" s="10"/>
+      <c r="CJ33" s="30"/>
       <c r="CK33" s="10"/>
       <c r="CL33" s="10"/>
       <c r="CM33" s="10"/>
@@ -27596,9 +27634,11 @@
         <v>146697.8217062621</v>
       </c>
       <c r="CI34" s="28">
-        <v>177713.60885942494</v>
-      </c>
-      <c r="CJ34" s="10"/>
+        <v>174791.22187607188</v>
+      </c>
+      <c r="CJ34" s="28">
+        <v>135026.09047361687</v>
+      </c>
       <c r="CK34" s="10"/>
       <c r="CL34" s="10"/>
       <c r="CM34" s="10"/>
@@ -27755,6 +27795,7 @@
       <c r="CG35" s="29"/>
       <c r="CH35" s="29"/>
       <c r="CI35" s="29"/>
+      <c r="CJ35" s="29"/>
     </row>
     <row r="36" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
@@ -27766,6 +27807,7 @@
       <c r="CG36" s="22"/>
       <c r="CH36" s="22"/>
       <c r="CI36" s="22"/>
+      <c r="CJ36" s="22"/>
     </row>
     <row r="37" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="10"/>
@@ -27854,7 +27896,7 @@
       <c r="CG37" s="30"/>
       <c r="CH37" s="30"/>
       <c r="CI37" s="30"/>
-      <c r="CJ37" s="10"/>
+      <c r="CJ37" s="30"/>
       <c r="CK37" s="10"/>
       <c r="CL37" s="10"/>
       <c r="CM37" s="10"/>
@@ -28010,7 +28052,7 @@
       <c r="CG38" s="30"/>
       <c r="CH38" s="30"/>
       <c r="CI38" s="30"/>
-      <c r="CJ38" s="10"/>
+      <c r="CJ38" s="30"/>
       <c r="CK38" s="10"/>
       <c r="CL38" s="10"/>
       <c r="CM38" s="10"/>
@@ -28089,6 +28131,7 @@
       <c r="CG39" s="22"/>
       <c r="CH39" s="22"/>
       <c r="CI39" s="22"/>
+      <c r="CJ39" s="22"/>
     </row>
     <row r="40" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -28100,6 +28143,7 @@
       <c r="CG40" s="22"/>
       <c r="CH40" s="22"/>
       <c r="CI40" s="22"/>
+      <c r="CJ40" s="22"/>
     </row>
     <row r="41" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -28111,6 +28155,7 @@
       <c r="CG41" s="22"/>
       <c r="CH41" s="22"/>
       <c r="CI41" s="22"/>
+      <c r="CJ41" s="22"/>
     </row>
     <row r="42" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD42" s="22"/>
@@ -28119,6 +28164,7 @@
       <c r="CG42" s="22"/>
       <c r="CH42" s="22"/>
       <c r="CI42" s="22"/>
+      <c r="CJ42" s="22"/>
     </row>
     <row r="43" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -28130,6 +28176,7 @@
       <c r="CG43" s="22"/>
       <c r="CH43" s="22"/>
       <c r="CI43" s="22"/>
+      <c r="CJ43" s="22"/>
     </row>
     <row r="44" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
@@ -28141,6 +28188,7 @@
       <c r="CG44" s="22"/>
       <c r="CH44" s="22"/>
       <c r="CI44" s="22"/>
+      <c r="CJ44" s="22"/>
     </row>
     <row r="45" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -28152,6 +28200,7 @@
       <c r="CG45" s="22"/>
       <c r="CH45" s="22"/>
       <c r="CI45" s="22"/>
+      <c r="CJ45" s="22"/>
     </row>
     <row r="46" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD46" s="22"/>
@@ -28160,6 +28209,7 @@
       <c r="CG46" s="22"/>
       <c r="CH46" s="22"/>
       <c r="CI46" s="22"/>
+      <c r="CJ46" s="22"/>
     </row>
     <row r="47" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
@@ -28293,6 +28343,7 @@
       <c r="CG47" s="31"/>
       <c r="CH47" s="31"/>
       <c r="CI47" s="31"/>
+      <c r="CJ47" s="31"/>
     </row>
     <row r="48" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
@@ -28544,10 +28595,13 @@
       <c r="CE48" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="CF48" s="32"/>
+      <c r="CF48" s="36" t="s">
+        <v>10</v>
+      </c>
       <c r="CG48" s="32"/>
       <c r="CH48" s="32"/>
       <c r="CI48" s="32"/>
+      <c r="CJ48" s="32"/>
     </row>
     <row r="49" spans="1:151" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
@@ -28557,6 +28611,7 @@
       <c r="CG49" s="22"/>
       <c r="CH49" s="22"/>
       <c r="CI49" s="22"/>
+      <c r="CJ49" s="22"/>
     </row>
     <row r="50" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -28806,13 +28861,15 @@
         <v>6.29310368268861</v>
       </c>
       <c r="CE50" s="34">
-        <v>16.358671844339298</v>
-      </c>
-      <c r="CF50" s="33"/>
+        <v>20.594827146149669</v>
+      </c>
+      <c r="CF50" s="34">
+        <v>4.8500211896529635</v>
+      </c>
       <c r="CG50" s="33"/>
       <c r="CH50" s="33"/>
       <c r="CI50" s="33"/>
-      <c r="CJ50" s="10"/>
+      <c r="CJ50" s="33"/>
       <c r="CK50" s="10"/>
       <c r="CL50" s="10"/>
       <c r="CM50" s="10"/>
@@ -29125,13 +29182,15 @@
         <v>6.3264270329272563</v>
       </c>
       <c r="CE51" s="34">
-        <v>10.327181363109261</v>
-      </c>
-      <c r="CF51" s="33"/>
+        <v>7.9899859432318863</v>
+      </c>
+      <c r="CF51" s="34">
+        <v>7.622961589045957</v>
+      </c>
       <c r="CG51" s="33"/>
       <c r="CH51" s="33"/>
       <c r="CI51" s="33"/>
-      <c r="CJ51" s="10"/>
+      <c r="CJ51" s="33"/>
       <c r="CK51" s="10"/>
       <c r="CL51" s="10"/>
       <c r="CM51" s="10"/>
@@ -29284,7 +29343,7 @@
       <c r="CG52" s="33"/>
       <c r="CH52" s="33"/>
       <c r="CI52" s="33"/>
-      <c r="CJ52" s="10"/>
+      <c r="CJ52" s="33"/>
       <c r="CK52" s="10"/>
       <c r="CL52" s="10"/>
       <c r="CM52" s="10"/>
@@ -29597,13 +29656,15 @@
         <v>6.3236377403871558</v>
       </c>
       <c r="CE53" s="34">
-        <v>10.79336191457682</v>
-      </c>
-      <c r="CF53" s="33"/>
+        <v>8.9642280217734367</v>
+      </c>
+      <c r="CF53" s="34">
+        <v>7.4066659661163214</v>
+      </c>
       <c r="CG53" s="33"/>
       <c r="CH53" s="33"/>
       <c r="CI53" s="33"/>
-      <c r="CJ53" s="10"/>
+      <c r="CJ53" s="33"/>
       <c r="CK53" s="10"/>
       <c r="CL53" s="10"/>
       <c r="CM53" s="10"/>
@@ -29756,6 +29817,7 @@
       <c r="CG54" s="29"/>
       <c r="CH54" s="29"/>
       <c r="CI54" s="29"/>
+      <c r="CJ54" s="29"/>
     </row>
     <row r="55" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
@@ -29767,6 +29829,7 @@
       <c r="CG55" s="22"/>
       <c r="CH55" s="22"/>
       <c r="CI55" s="22"/>
+      <c r="CJ55" s="22"/>
     </row>
     <row r="56" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="10"/>
@@ -29855,7 +29918,7 @@
       <c r="CG56" s="33"/>
       <c r="CH56" s="33"/>
       <c r="CI56" s="33"/>
-      <c r="CJ56" s="10"/>
+      <c r="CJ56" s="33"/>
       <c r="CK56" s="10"/>
       <c r="CL56" s="10"/>
       <c r="CM56" s="10"/>
@@ -30007,7 +30070,7 @@
       <c r="CG57" s="33"/>
       <c r="CH57" s="33"/>
       <c r="CI57" s="33"/>
-      <c r="CJ57" s="10"/>
+      <c r="CJ57" s="33"/>
       <c r="CK57" s="10"/>
       <c r="CL57" s="10"/>
       <c r="CM57" s="10"/>
@@ -30082,6 +30145,7 @@
       <c r="CG58" s="22"/>
       <c r="CH58" s="22"/>
       <c r="CI58" s="22"/>
+      <c r="CJ58" s="22"/>
     </row>
     <row r="59" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -30093,6 +30157,7 @@
       <c r="CG59" s="22"/>
       <c r="CH59" s="22"/>
       <c r="CI59" s="22"/>
+      <c r="CJ59" s="22"/>
     </row>
     <row r="60" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -30104,6 +30169,7 @@
       <c r="CG60" s="22"/>
       <c r="CH60" s="22"/>
       <c r="CI60" s="22"/>
+      <c r="CJ60" s="22"/>
     </row>
     <row r="61" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD61" s="22"/>
@@ -30112,6 +30178,7 @@
       <c r="CG61" s="22"/>
       <c r="CH61" s="22"/>
       <c r="CI61" s="22"/>
+      <c r="CJ61" s="22"/>
     </row>
     <row r="62" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -30123,6 +30190,7 @@
       <c r="CG62" s="22"/>
       <c r="CH62" s="22"/>
       <c r="CI62" s="22"/>
+      <c r="CJ62" s="22"/>
     </row>
     <row r="63" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -30134,6 +30202,7 @@
       <c r="CG63" s="22"/>
       <c r="CH63" s="22"/>
       <c r="CI63" s="22"/>
+      <c r="CJ63" s="22"/>
     </row>
     <row r="64" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
@@ -30145,6 +30214,7 @@
       <c r="CG64" s="22"/>
       <c r="CH64" s="22"/>
       <c r="CI64" s="22"/>
+      <c r="CJ64" s="22"/>
     </row>
     <row r="65" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD65" s="22"/>
@@ -30153,6 +30223,7 @@
       <c r="CG65" s="22"/>
       <c r="CH65" s="22"/>
       <c r="CI65" s="22"/>
+      <c r="CJ65" s="22"/>
     </row>
     <row r="66" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
@@ -30282,10 +30353,11 @@
       <c r="CE66" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="CF66" s="31"/>
+      <c r="CF66" s="37"/>
       <c r="CG66" s="31"/>
       <c r="CH66" s="31"/>
       <c r="CI66" s="31"/>
+      <c r="CJ66" s="31"/>
     </row>
     <row r="67" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
@@ -30537,10 +30609,13 @@
       <c r="CE67" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="CF67" s="32"/>
+      <c r="CF67" s="36" t="s">
+        <v>10</v>
+      </c>
       <c r="CG67" s="32"/>
       <c r="CH67" s="32"/>
       <c r="CI67" s="32"/>
+      <c r="CJ67" s="32"/>
     </row>
     <row r="68" spans="1:151" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
@@ -30550,6 +30625,7 @@
       <c r="CG68" s="22"/>
       <c r="CH68" s="22"/>
       <c r="CI68" s="22"/>
+      <c r="CJ68" s="22"/>
     </row>
     <row r="69" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
@@ -30799,13 +30875,15 @@
         <v>5.6548144020245132</v>
       </c>
       <c r="CE69" s="34">
-        <v>15.250945305152726</v>
-      </c>
-      <c r="CF69" s="33"/>
+        <v>19.44677270034849</v>
+      </c>
+      <c r="CF69" s="34">
+        <v>4.5962757109052603</v>
+      </c>
       <c r="CG69" s="33"/>
       <c r="CH69" s="33"/>
       <c r="CI69" s="33"/>
-      <c r="CJ69" s="10"/>
+      <c r="CJ69" s="33"/>
       <c r="CK69" s="10"/>
       <c r="CL69" s="10"/>
       <c r="CM69" s="10"/>
@@ -31118,13 +31196,15 @@
         <v>6.5733627413461022</v>
       </c>
       <c r="CE70" s="34">
-        <v>14.069166892995582</v>
-      </c>
-      <c r="CF70" s="33"/>
+        <v>11.652700423739077</v>
+      </c>
+      <c r="CF70" s="34">
+        <v>8.8440367352710325</v>
+      </c>
       <c r="CG70" s="33"/>
       <c r="CH70" s="33"/>
       <c r="CI70" s="33"/>
-      <c r="CJ70" s="10"/>
+      <c r="CJ70" s="33"/>
       <c r="CK70" s="10"/>
       <c r="CL70" s="10"/>
       <c r="CM70" s="10"/>
@@ -31276,7 +31356,7 @@
       <c r="CG71" s="33"/>
       <c r="CH71" s="33"/>
       <c r="CI71" s="33"/>
-      <c r="CJ71" s="10"/>
+      <c r="CJ71" s="33"/>
       <c r="CK71" s="10"/>
       <c r="CL71" s="10"/>
       <c r="CM71" s="10"/>
@@ -31589,13 +31669,15 @@
         <v>6.4992041316309042</v>
       </c>
       <c r="CE72" s="34">
-        <v>14.165514972699754</v>
-      </c>
-      <c r="CF72" s="33"/>
+        <v>12.288135873567697</v>
+      </c>
+      <c r="CF72" s="34">
+        <v>8.5082645452757504</v>
+      </c>
       <c r="CG72" s="33"/>
       <c r="CH72" s="33"/>
       <c r="CI72" s="33"/>
-      <c r="CJ72" s="10"/>
+      <c r="CJ72" s="33"/>
       <c r="CK72" s="10"/>
       <c r="CL72" s="10"/>
       <c r="CM72" s="10"/>
@@ -31748,6 +31830,7 @@
       <c r="CG73" s="29"/>
       <c r="CH73" s="29"/>
       <c r="CI73" s="29"/>
+      <c r="CJ73" s="29"/>
     </row>
     <row r="74" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
@@ -31759,6 +31842,7 @@
       <c r="CG74" s="22"/>
       <c r="CH74" s="22"/>
       <c r="CI74" s="22"/>
+      <c r="CJ74" s="22"/>
     </row>
     <row r="75" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="10"/>
@@ -31847,7 +31931,7 @@
       <c r="CG75" s="30"/>
       <c r="CH75" s="30"/>
       <c r="CI75" s="30"/>
-      <c r="CJ75" s="10"/>
+      <c r="CJ75" s="30"/>
       <c r="CK75" s="10"/>
       <c r="CL75" s="10"/>
       <c r="CM75" s="10"/>
@@ -31999,7 +32083,7 @@
       <c r="CG76" s="30"/>
       <c r="CH76" s="30"/>
       <c r="CI76" s="30"/>
-      <c r="CJ76" s="10"/>
+      <c r="CJ76" s="30"/>
       <c r="CK76" s="10"/>
       <c r="CL76" s="10"/>
       <c r="CM76" s="10"/>
@@ -32074,6 +32158,7 @@
       <c r="CG77" s="22"/>
       <c r="CH77" s="22"/>
       <c r="CI77" s="22"/>
+      <c r="CJ77" s="22"/>
     </row>
     <row r="78" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
@@ -32085,6 +32170,7 @@
       <c r="CG78" s="22"/>
       <c r="CH78" s="22"/>
       <c r="CI78" s="22"/>
+      <c r="CJ78" s="22"/>
     </row>
     <row r="79" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD79" s="22"/>
@@ -32093,6 +32179,7 @@
       <c r="CG79" s="22"/>
       <c r="CH79" s="22"/>
       <c r="CI79" s="22"/>
+      <c r="CJ79" s="22"/>
     </row>
     <row r="80" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
@@ -32104,6 +32191,7 @@
       <c r="CG80" s="22"/>
       <c r="CH80" s="22"/>
       <c r="CI80" s="22"/>
+      <c r="CJ80" s="22"/>
     </row>
     <row r="81" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
@@ -32115,6 +32203,7 @@
       <c r="CG81" s="22"/>
       <c r="CH81" s="22"/>
       <c r="CI81" s="22"/>
+      <c r="CJ81" s="22"/>
     </row>
     <row r="82" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -32126,6 +32215,7 @@
       <c r="CG82" s="22"/>
       <c r="CH82" s="22"/>
       <c r="CI82" s="22"/>
+      <c r="CJ82" s="22"/>
     </row>
     <row r="83" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD83" s="22"/>
@@ -32134,6 +32224,7 @@
       <c r="CG83" s="22"/>
       <c r="CH83" s="22"/>
       <c r="CI83" s="22"/>
+      <c r="CJ83" s="22"/>
     </row>
     <row r="84" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
@@ -32269,6 +32360,7 @@
       <c r="CI84" s="37">
         <v>0</v>
       </c>
+      <c r="CJ84" s="37"/>
     </row>
     <row r="85" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
@@ -32531,6 +32623,9 @@
       </c>
       <c r="CI85" s="24" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ85" s="24" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:155" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -32541,6 +32636,7 @@
       <c r="CG86" s="22"/>
       <c r="CH86" s="22"/>
       <c r="CI86" s="22"/>
+      <c r="CJ86" s="22"/>
     </row>
     <row r="87" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
@@ -32802,9 +32898,11 @@
         <v>103.07524798801954</v>
       </c>
       <c r="CI87" s="34">
-        <v>96.328426927693286</v>
-      </c>
-      <c r="CJ87" s="10"/>
+        <v>96.3284269276933</v>
+      </c>
+      <c r="CJ87" s="34">
+        <v>104.40318730389102</v>
+      </c>
       <c r="CK87" s="10"/>
       <c r="CL87" s="10"/>
       <c r="CM87" s="10"/>
@@ -33133,9 +33231,11 @@
         <v>98.274362632681758</v>
       </c>
       <c r="CI88" s="34">
-        <v>97.789173474669823</v>
-      </c>
-      <c r="CJ88" s="10"/>
+        <v>97.789173474669795</v>
+      </c>
+      <c r="CJ88" s="34">
+        <v>104.47960720508955</v>
+      </c>
       <c r="CK88" s="10"/>
       <c r="CL88" s="10"/>
       <c r="CM88" s="10"/>
@@ -33291,7 +33391,7 @@
       <c r="CG89" s="33"/>
       <c r="CH89" s="33"/>
       <c r="CI89" s="33"/>
-      <c r="CJ89" s="10"/>
+      <c r="CJ89" s="33"/>
       <c r="CK89" s="10"/>
       <c r="CL89" s="10"/>
       <c r="CM89" s="10"/>
@@ -33620,9 +33720,11 @@
         <v>98.658886965508358</v>
       </c>
       <c r="CI90" s="34">
-        <v>97.668949402115842</v>
-      </c>
-      <c r="CJ90" s="10"/>
+        <v>97.662489282218061</v>
+      </c>
+      <c r="CJ90" s="34">
+        <v>104.47378423548574</v>
+      </c>
       <c r="CK90" s="10"/>
       <c r="CL90" s="10"/>
       <c r="CM90" s="10"/>
@@ -33779,6 +33881,7 @@
       <c r="CG91" s="29"/>
       <c r="CH91" s="29"/>
       <c r="CI91" s="29"/>
+      <c r="CJ91" s="29"/>
     </row>
     <row r="92" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
@@ -33790,6 +33893,7 @@
       <c r="CG92" s="22"/>
       <c r="CH92" s="22"/>
       <c r="CI92" s="22"/>
+      <c r="CJ92" s="22"/>
     </row>
     <row r="95" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
@@ -33801,6 +33905,7 @@
       <c r="CG95" s="22"/>
       <c r="CH95" s="22"/>
       <c r="CI95" s="22"/>
+      <c r="CJ95" s="22"/>
     </row>
     <row r="96" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
@@ -33812,6 +33917,7 @@
       <c r="CG96" s="22"/>
       <c r="CH96" s="22"/>
       <c r="CI96" s="22"/>
+      <c r="CJ96" s="22"/>
     </row>
     <row r="97" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
@@ -33823,6 +33929,7 @@
       <c r="CG97" s="22"/>
       <c r="CH97" s="22"/>
       <c r="CI97" s="22"/>
+      <c r="CJ97" s="22"/>
     </row>
     <row r="98" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD98" s="22"/>
@@ -33831,6 +33938,7 @@
       <c r="CG98" s="22"/>
       <c r="CH98" s="22"/>
       <c r="CI98" s="22"/>
+      <c r="CJ98" s="22"/>
     </row>
     <row r="99" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
@@ -33842,6 +33950,7 @@
       <c r="CG99" s="22"/>
       <c r="CH99" s="22"/>
       <c r="CI99" s="22"/>
+      <c r="CJ99" s="22"/>
     </row>
     <row r="100" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
@@ -33853,6 +33962,7 @@
       <c r="CG100" s="22"/>
       <c r="CH100" s="22"/>
       <c r="CI100" s="22"/>
+      <c r="CJ100" s="22"/>
     </row>
     <row r="101" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
@@ -33864,6 +33974,7 @@
       <c r="CG101" s="22"/>
       <c r="CH101" s="22"/>
       <c r="CI101" s="22"/>
+      <c r="CJ101" s="22"/>
     </row>
     <row r="102" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD102" s="22"/>
@@ -33872,6 +33983,7 @@
       <c r="CG102" s="22"/>
       <c r="CH102" s="22"/>
       <c r="CI102" s="22"/>
+      <c r="CJ102" s="22"/>
     </row>
     <row r="103" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
@@ -34007,6 +34119,7 @@
       <c r="CI103" s="37">
         <v>0</v>
       </c>
+      <c r="CJ103" s="37"/>
     </row>
     <row r="104" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
@@ -34269,6 +34382,9 @@
       </c>
       <c r="CI104" s="24" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ104" s="24" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -34279,6 +34395,7 @@
       <c r="CG105" s="22"/>
       <c r="CH105" s="22"/>
       <c r="CI105" s="22"/>
+      <c r="CJ105" s="22"/>
     </row>
     <row r="106" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
@@ -34540,9 +34657,11 @@
         <v>8.367980680748941</v>
       </c>
       <c r="CI106" s="34">
-        <v>8.1173546178523797</v>
-      </c>
-      <c r="CJ106" s="10"/>
+        <v>8.5540983166940698</v>
+      </c>
+      <c r="CJ106" s="34">
+        <v>7.6145542055058479</v>
+      </c>
       <c r="CK106" s="10"/>
       <c r="CL106" s="10"/>
       <c r="CM106" s="10"/>
@@ -34871,9 +34990,11 @@
         <v>91.632019319251057</v>
       </c>
       <c r="CI107" s="34">
-        <v>91.882645382147615</v>
-      </c>
-      <c r="CJ107" s="10"/>
+        <v>91.445901683305934</v>
+      </c>
+      <c r="CJ107" s="34">
+        <v>92.385445794494146</v>
+      </c>
       <c r="CK107" s="10"/>
       <c r="CL107" s="10"/>
       <c r="CM107" s="10"/>
@@ -35029,7 +35150,7 @@
       <c r="CG108" s="33"/>
       <c r="CH108" s="33"/>
       <c r="CI108" s="33"/>
-      <c r="CJ108" s="10"/>
+      <c r="CJ108" s="33"/>
       <c r="CK108" s="10"/>
       <c r="CL108" s="10"/>
       <c r="CM108" s="10"/>
@@ -35360,7 +35481,9 @@
       <c r="CI109" s="34">
         <v>100</v>
       </c>
-      <c r="CJ109" s="10"/>
+      <c r="CJ109" s="34">
+        <v>100</v>
+      </c>
       <c r="CK109" s="10"/>
       <c r="CL109" s="10"/>
       <c r="CM109" s="10"/>
@@ -35517,6 +35640,7 @@
       <c r="CG110" s="29"/>
       <c r="CH110" s="29"/>
       <c r="CI110" s="29"/>
+      <c r="CJ110" s="29"/>
     </row>
     <row r="111" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
@@ -35528,6 +35652,7 @@
       <c r="CG111" s="22"/>
       <c r="CH111" s="22"/>
       <c r="CI111" s="22"/>
+      <c r="CJ111" s="22"/>
     </row>
     <row r="112" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="10"/>
@@ -35616,7 +35741,7 @@
       <c r="CG112" s="30"/>
       <c r="CH112" s="30"/>
       <c r="CI112" s="30"/>
-      <c r="CJ112" s="10"/>
+      <c r="CJ112" s="30"/>
       <c r="CK112" s="10"/>
       <c r="CL112" s="10"/>
       <c r="CM112" s="10"/>
@@ -35772,7 +35897,7 @@
       <c r="CG113" s="30"/>
       <c r="CH113" s="30"/>
       <c r="CI113" s="30"/>
-      <c r="CJ113" s="10"/>
+      <c r="CJ113" s="30"/>
       <c r="CK113" s="10"/>
       <c r="CL113" s="10"/>
       <c r="CM113" s="10"/>
@@ -35851,6 +35976,7 @@
       <c r="CG114" s="22"/>
       <c r="CH114" s="22"/>
       <c r="CI114" s="22"/>
+      <c r="CJ114" s="22"/>
     </row>
     <row r="115" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
@@ -35862,6 +35988,7 @@
       <c r="CG115" s="22"/>
       <c r="CH115" s="22"/>
       <c r="CI115" s="22"/>
+      <c r="CJ115" s="22"/>
     </row>
     <row r="116" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
@@ -35873,6 +36000,7 @@
       <c r="CG116" s="22"/>
       <c r="CH116" s="22"/>
       <c r="CI116" s="22"/>
+      <c r="CJ116" s="22"/>
     </row>
     <row r="117" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD117" s="22"/>
@@ -35881,6 +36009,7 @@
       <c r="CG117" s="22"/>
       <c r="CH117" s="22"/>
       <c r="CI117" s="22"/>
+      <c r="CJ117" s="22"/>
     </row>
     <row r="118" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
@@ -35892,6 +36021,7 @@
       <c r="CG118" s="22"/>
       <c r="CH118" s="22"/>
       <c r="CI118" s="22"/>
+      <c r="CJ118" s="22"/>
     </row>
     <row r="119" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
@@ -35903,6 +36033,7 @@
       <c r="CG119" s="22"/>
       <c r="CH119" s="22"/>
       <c r="CI119" s="22"/>
+      <c r="CJ119" s="22"/>
     </row>
     <row r="120" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
@@ -35914,6 +36045,7 @@
       <c r="CG120" s="22"/>
       <c r="CH120" s="22"/>
       <c r="CI120" s="22"/>
+      <c r="CJ120" s="22"/>
     </row>
     <row r="121" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD121" s="22"/>
@@ -35922,6 +36054,7 @@
       <c r="CG121" s="22"/>
       <c r="CH121" s="22"/>
       <c r="CI121" s="22"/>
+      <c r="CJ121" s="22"/>
     </row>
     <row r="122" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
@@ -36057,6 +36190,7 @@
       <c r="CI122" s="37">
         <v>0</v>
       </c>
+      <c r="CJ122" s="37"/>
     </row>
     <row r="123" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
@@ -36319,6 +36453,9 @@
       </c>
       <c r="CI123" s="24" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ123" s="24" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -36329,6 +36466,7 @@
       <c r="CG124" s="22"/>
       <c r="CH124" s="22"/>
       <c r="CI124" s="22"/>
+      <c r="CJ124" s="22"/>
     </row>
     <row r="125" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
@@ -36590,9 +36728,11 @@
         <v>8.0094462659699293</v>
       </c>
       <c r="CI125" s="34">
-        <v>8.2303170801819761</v>
-      </c>
-      <c r="CJ125" s="10"/>
+        <v>8.6725649096321131</v>
+      </c>
+      <c r="CJ125" s="34">
+        <v>7.6197031303256031</v>
+      </c>
       <c r="CK125" s="10"/>
       <c r="CL125" s="10"/>
       <c r="CM125" s="10"/>
@@ -36921,9 +37061,11 @@
         <v>91.990553734030073</v>
       </c>
       <c r="CI126" s="34">
-        <v>91.769682919818024</v>
-      </c>
-      <c r="CJ126" s="10"/>
+        <v>91.327435090367885</v>
+      </c>
+      <c r="CJ126" s="34">
+        <v>92.38029686967441</v>
+      </c>
       <c r="CK126" s="10"/>
       <c r="CL126" s="10"/>
       <c r="CM126" s="10"/>
@@ -37079,7 +37221,7 @@
       <c r="CG127" s="33"/>
       <c r="CH127" s="33"/>
       <c r="CI127" s="33"/>
-      <c r="CJ127" s="10"/>
+      <c r="CJ127" s="33"/>
       <c r="CK127" s="10"/>
       <c r="CL127" s="10"/>
       <c r="CM127" s="10"/>
@@ -37410,7 +37552,9 @@
       <c r="CI128" s="34">
         <v>100</v>
       </c>
-      <c r="CJ128" s="10"/>
+      <c r="CJ128" s="34">
+        <v>100</v>
+      </c>
       <c r="CK128" s="10"/>
       <c r="CL128" s="10"/>
       <c r="CM128" s="10"/>
@@ -37567,6 +37711,7 @@
       <c r="CG129" s="29"/>
       <c r="CH129" s="29"/>
       <c r="CI129" s="29"/>
+      <c r="CJ129" s="29"/>
     </row>
     <row r="130" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="s">
@@ -37578,6 +37723,7 @@
       <c r="CG130" s="22"/>
       <c r="CH130" s="22"/>
       <c r="CI130" s="22"/>
+      <c r="CJ130" s="22"/>
     </row>
     <row r="131" spans="1:155" s="21" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
@@ -37667,7 +37813,7 @@
       <c r="CG131" s="35"/>
       <c r="CH131" s="35"/>
       <c r="CI131" s="35"/>
-      <c r="CJ131" s="20"/>
+      <c r="CJ131" s="35"/>
       <c r="CK131" s="20"/>
       <c r="CL131" s="20"/>
       <c r="CM131" s="20"/>
@@ -37824,7 +37970,7 @@
       <c r="CG132" s="35"/>
       <c r="CH132" s="35"/>
       <c r="CI132" s="35"/>
-      <c r="CJ132" s="20"/>
+      <c r="CJ132" s="35"/>
       <c r="CK132" s="20"/>
       <c r="CL132" s="20"/>
       <c r="CM132" s="20"/>
@@ -38037,16 +38183,16 @@
     <mergeCell ref="BR47:BU47"/>
     <mergeCell ref="BR9:BU9"/>
     <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="CH9:CI9"/>
-    <mergeCell ref="CH28:CI28"/>
     <mergeCell ref="CD47:CE47"/>
-    <mergeCell ref="CD66:CE66"/>
-    <mergeCell ref="CH84:CI84"/>
-    <mergeCell ref="CH103:CI103"/>
-    <mergeCell ref="CH122:CI122"/>
     <mergeCell ref="CD9:CG9"/>
     <mergeCell ref="CD122:CG122"/>
     <mergeCell ref="CD103:CG103"/>
+    <mergeCell ref="CH9:CJ9"/>
+    <mergeCell ref="CH28:CJ28"/>
+    <mergeCell ref="CD66:CF66"/>
+    <mergeCell ref="CH84:CJ84"/>
+    <mergeCell ref="CH103:CJ103"/>
+    <mergeCell ref="CH122:CJ122"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>

--- a/Data/National Accounts/PSA-16IAC_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-16IAC_2018PSNA_Qrt.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2021\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11424" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="IAC" sheetId="10" r:id="rId1"/>
@@ -320,7 +320,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IAC!$A$1:$CI$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IAC!$A$1:$CK$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -465,7 +465,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="50">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -609,16 +609,13 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>2021 - 2021</t>
+    <t>As of January 2022</t>
   </si>
   <si>
-    <t>As of November 2021</t>
+    <t>Q1 2000 to Q4 2021</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2021</t>
-  </si>
-  <si>
-    <t>Q1 2001 to Q3 2021</t>
+    <t>Q1 2001 to Q4 2021</t>
   </si>
 </sst>
 </file>
@@ -23647,9 +23644,9 @@
   <dimension ref="A1:EY132"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BW1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="BX18" sqref="BX18"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -23657,8 +23654,8 @@
     <col min="1" max="1" width="47.6328125" style="1" customWidth="1"/>
     <col min="2" max="77" width="11.1796875" style="11" bestFit="1" customWidth="1"/>
     <col min="78" max="81" width="9.90625" style="11" customWidth="1"/>
-    <col min="82" max="88" width="9.90625" style="35" customWidth="1"/>
-    <col min="89" max="16384" width="7.81640625" style="11"/>
+    <col min="82" max="89" width="9.08984375" style="35" customWidth="1"/>
+    <col min="90" max="16384" width="7.81640625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -23672,6 +23669,7 @@
       <c r="CH1" s="22"/>
       <c r="CI1" s="22"/>
       <c r="CJ1" s="22"/>
+      <c r="CK1" s="22"/>
     </row>
     <row r="2" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -23684,10 +23682,11 @@
       <c r="CH2" s="22"/>
       <c r="CI2" s="22"/>
       <c r="CJ2" s="22"/>
+      <c r="CK2" s="22"/>
     </row>
     <row r="3" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD3" s="22"/>
       <c r="CE3" s="22"/>
@@ -23696,6 +23695,7 @@
       <c r="CH3" s="22"/>
       <c r="CI3" s="22"/>
       <c r="CJ3" s="22"/>
+      <c r="CK3" s="22"/>
     </row>
     <row r="4" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD4" s="22"/>
@@ -23705,6 +23705,7 @@
       <c r="CH4" s="22"/>
       <c r="CI4" s="22"/>
       <c r="CJ4" s="22"/>
+      <c r="CK4" s="22"/>
     </row>
     <row r="5" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -23717,10 +23718,11 @@
       <c r="CH5" s="22"/>
       <c r="CI5" s="22"/>
       <c r="CJ5" s="22"/>
+      <c r="CK5" s="22"/>
     </row>
     <row r="6" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="CD6" s="22"/>
       <c r="CE6" s="22"/>
@@ -23729,6 +23731,7 @@
       <c r="CH6" s="22"/>
       <c r="CI6" s="22"/>
       <c r="CJ6" s="22"/>
+      <c r="CK6" s="22"/>
     </row>
     <row r="7" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -23821,6 +23824,7 @@
       <c r="CH7" s="23"/>
       <c r="CI7" s="23"/>
       <c r="CJ7" s="23"/>
+      <c r="CK7" s="23"/>
     </row>
     <row r="8" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
@@ -23910,6 +23914,7 @@
       <c r="CH8" s="23"/>
       <c r="CI8" s="23"/>
       <c r="CJ8" s="23"/>
+      <c r="CK8" s="23"/>
     </row>
     <row r="9" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
@@ -24044,6 +24049,7 @@
       </c>
       <c r="CI9" s="37"/>
       <c r="CJ9" s="37"/>
+      <c r="CK9" s="37"/>
     </row>
     <row r="10" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -24309,6 +24315,9 @@
       </c>
       <c r="CJ10" s="24" t="s">
         <v>10</v>
+      </c>
+      <c r="CK10" s="24" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24320,6 +24329,7 @@
       <c r="CH11" s="22"/>
       <c r="CI11" s="22"/>
       <c r="CJ11" s="22"/>
+      <c r="CK11" s="22"/>
     </row>
     <row r="12" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -24584,9 +24594,11 @@
         <v>14602.312737594973</v>
       </c>
       <c r="CJ12" s="25">
-        <v>10741.613009789255</v>
-      </c>
-      <c r="CK12" s="10"/>
+        <v>11146.157035293794</v>
+      </c>
+      <c r="CK12" s="25">
+        <v>13384.067436021065</v>
+      </c>
       <c r="CL12" s="10"/>
       <c r="CM12" s="10"/>
       <c r="CN12" s="10"/>
@@ -24917,9 +24929,11 @@
         <v>156103.14559338172</v>
       </c>
       <c r="CJ13" s="26">
-        <v>130325.25341322902</v>
-      </c>
-      <c r="CK13" s="10"/>
+        <v>129666.72481763884</v>
+      </c>
+      <c r="CK13" s="26">
+        <v>169119.99133339027</v>
+      </c>
       <c r="CL13" s="10"/>
       <c r="CM13" s="10"/>
       <c r="CN13" s="10"/>
@@ -25075,7 +25089,7 @@
       <c r="CH14" s="27"/>
       <c r="CI14" s="27"/>
       <c r="CJ14" s="27"/>
-      <c r="CK14" s="10"/>
+      <c r="CK14" s="27"/>
       <c r="CL14" s="10"/>
       <c r="CM14" s="10"/>
       <c r="CN14" s="10"/>
@@ -25406,9 +25420,11 @@
         <v>170705.45833097669</v>
       </c>
       <c r="CJ15" s="28">
-        <v>141066.86642301828</v>
-      </c>
-      <c r="CK15" s="10"/>
+        <v>140812.88185293262</v>
+      </c>
+      <c r="CK15" s="28">
+        <v>182504.05876941132</v>
+      </c>
       <c r="CL15" s="10"/>
       <c r="CM15" s="10"/>
       <c r="CN15" s="10"/>
@@ -25565,6 +25581,7 @@
       <c r="CH16" s="29"/>
       <c r="CI16" s="29"/>
       <c r="CJ16" s="29"/>
+      <c r="CK16" s="29"/>
     </row>
     <row r="17" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
@@ -25577,6 +25594,7 @@
       <c r="CH17" s="22"/>
       <c r="CI17" s="22"/>
       <c r="CJ17" s="22"/>
+      <c r="CK17" s="22"/>
     </row>
     <row r="18" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
@@ -25666,7 +25684,7 @@
       <c r="CH18" s="30"/>
       <c r="CI18" s="30"/>
       <c r="CJ18" s="30"/>
-      <c r="CK18" s="10"/>
+      <c r="CK18" s="30"/>
       <c r="CL18" s="10"/>
       <c r="CM18" s="10"/>
       <c r="CN18" s="10"/>
@@ -25822,7 +25840,7 @@
       <c r="CH19" s="30"/>
       <c r="CI19" s="30"/>
       <c r="CJ19" s="30"/>
-      <c r="CK19" s="10"/>
+      <c r="CK19" s="30"/>
       <c r="CL19" s="10"/>
       <c r="CM19" s="10"/>
       <c r="CN19" s="10"/>
@@ -25901,6 +25919,7 @@
       <c r="CH20" s="22"/>
       <c r="CI20" s="22"/>
       <c r="CJ20" s="22"/>
+      <c r="CK20" s="22"/>
     </row>
     <row r="21" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -25913,10 +25932,11 @@
       <c r="CH21" s="22"/>
       <c r="CI21" s="22"/>
       <c r="CJ21" s="22"/>
+      <c r="CK21" s="22"/>
     </row>
     <row r="22" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD22" s="22"/>
       <c r="CE22" s="22"/>
@@ -25925,6 +25945,7 @@
       <c r="CH22" s="22"/>
       <c r="CI22" s="22"/>
       <c r="CJ22" s="22"/>
+      <c r="CK22" s="22"/>
     </row>
     <row r="23" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD23" s="22"/>
@@ -25934,6 +25955,7 @@
       <c r="CH23" s="22"/>
       <c r="CI23" s="22"/>
       <c r="CJ23" s="22"/>
+      <c r="CK23" s="22"/>
     </row>
     <row r="24" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -25946,10 +25968,11 @@
       <c r="CH24" s="22"/>
       <c r="CI24" s="22"/>
       <c r="CJ24" s="22"/>
+      <c r="CK24" s="22"/>
     </row>
     <row r="25" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="CD25" s="22"/>
       <c r="CE25" s="22"/>
@@ -25958,6 +25981,7 @@
       <c r="CH25" s="22"/>
       <c r="CI25" s="22"/>
       <c r="CJ25" s="22"/>
+      <c r="CK25" s="22"/>
     </row>
     <row r="26" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -26050,6 +26074,7 @@
       <c r="CH26" s="23"/>
       <c r="CI26" s="23"/>
       <c r="CJ26" s="23"/>
+      <c r="CK26" s="23"/>
     </row>
     <row r="27" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
@@ -26139,6 +26164,7 @@
       <c r="CH27" s="23"/>
       <c r="CI27" s="23"/>
       <c r="CJ27" s="23"/>
+      <c r="CK27" s="23"/>
     </row>
     <row r="28" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
@@ -26271,10 +26297,9 @@
       <c r="CH28" s="37">
         <v>2021</v>
       </c>
-      <c r="CI28" s="37">
-        <v>0</v>
-      </c>
+      <c r="CI28" s="37"/>
       <c r="CJ28" s="37"/>
+      <c r="CK28" s="37"/>
     </row>
     <row r="29" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
@@ -26540,6 +26565,9 @@
       </c>
       <c r="CJ29" s="24" t="s">
         <v>10</v>
+      </c>
+      <c r="CK29" s="24" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26551,6 +26579,7 @@
       <c r="CH30" s="22"/>
       <c r="CI30" s="22"/>
       <c r="CJ30" s="22"/>
+      <c r="CK30" s="22"/>
     </row>
     <row r="31" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -26815,9 +26844,11 @@
         <v>15158.88217354142</v>
       </c>
       <c r="CJ31" s="25">
-        <v>10288.587242574466</v>
-      </c>
-      <c r="CK31" s="10"/>
+        <v>10482.385219489888</v>
+      </c>
+      <c r="CK31" s="25">
+        <v>12548.111364122909</v>
+      </c>
       <c r="CL31" s="10"/>
       <c r="CM31" s="10"/>
       <c r="CN31" s="10"/>
@@ -27148,9 +27179,11 @@
         <v>159632.33970253047</v>
       </c>
       <c r="CJ32" s="26">
-        <v>124737.50323104241</v>
-      </c>
-      <c r="CK32" s="10"/>
+        <v>124617.58590255863</v>
+      </c>
+      <c r="CK32" s="26">
+        <v>168804.31811630636</v>
+      </c>
       <c r="CL32" s="10"/>
       <c r="CM32" s="10"/>
       <c r="CN32" s="10"/>
@@ -27306,7 +27339,7 @@
       <c r="CH33" s="30"/>
       <c r="CI33" s="30"/>
       <c r="CJ33" s="30"/>
-      <c r="CK33" s="10"/>
+      <c r="CK33" s="30"/>
       <c r="CL33" s="10"/>
       <c r="CM33" s="10"/>
       <c r="CN33" s="10"/>
@@ -27637,9 +27670,11 @@
         <v>174791.22187607188</v>
       </c>
       <c r="CJ34" s="28">
-        <v>135026.09047361687</v>
-      </c>
-      <c r="CK34" s="10"/>
+        <v>135099.9711220485</v>
+      </c>
+      <c r="CK34" s="28">
+        <v>181352.42948042927</v>
+      </c>
       <c r="CL34" s="10"/>
       <c r="CM34" s="10"/>
       <c r="CN34" s="10"/>
@@ -27796,6 +27831,7 @@
       <c r="CH35" s="29"/>
       <c r="CI35" s="29"/>
       <c r="CJ35" s="29"/>
+      <c r="CK35" s="29"/>
     </row>
     <row r="36" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
@@ -27808,6 +27844,7 @@
       <c r="CH36" s="22"/>
       <c r="CI36" s="22"/>
       <c r="CJ36" s="22"/>
+      <c r="CK36" s="22"/>
     </row>
     <row r="37" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="10"/>
@@ -27897,7 +27934,7 @@
       <c r="CH37" s="30"/>
       <c r="CI37" s="30"/>
       <c r="CJ37" s="30"/>
-      <c r="CK37" s="10"/>
+      <c r="CK37" s="30"/>
       <c r="CL37" s="10"/>
       <c r="CM37" s="10"/>
       <c r="CN37" s="10"/>
@@ -28053,7 +28090,7 @@
       <c r="CH38" s="30"/>
       <c r="CI38" s="30"/>
       <c r="CJ38" s="30"/>
-      <c r="CK38" s="10"/>
+      <c r="CK38" s="30"/>
       <c r="CL38" s="10"/>
       <c r="CM38" s="10"/>
       <c r="CN38" s="10"/>
@@ -28132,6 +28169,7 @@
       <c r="CH39" s="22"/>
       <c r="CI39" s="22"/>
       <c r="CJ39" s="22"/>
+      <c r="CK39" s="22"/>
     </row>
     <row r="40" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -28144,10 +28182,11 @@
       <c r="CH40" s="22"/>
       <c r="CI40" s="22"/>
       <c r="CJ40" s="22"/>
+      <c r="CK40" s="22"/>
     </row>
     <row r="41" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD41" s="22"/>
       <c r="CE41" s="22"/>
@@ -28156,6 +28195,7 @@
       <c r="CH41" s="22"/>
       <c r="CI41" s="22"/>
       <c r="CJ41" s="22"/>
+      <c r="CK41" s="22"/>
     </row>
     <row r="42" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD42" s="22"/>
@@ -28165,6 +28205,7 @@
       <c r="CH42" s="22"/>
       <c r="CI42" s="22"/>
       <c r="CJ42" s="22"/>
+      <c r="CK42" s="22"/>
     </row>
     <row r="43" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -28177,10 +28218,11 @@
       <c r="CH43" s="22"/>
       <c r="CI43" s="22"/>
       <c r="CJ43" s="22"/>
+      <c r="CK43" s="22"/>
     </row>
     <row r="44" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="CD44" s="22"/>
       <c r="CE44" s="22"/>
@@ -28189,6 +28231,7 @@
       <c r="CH44" s="22"/>
       <c r="CI44" s="22"/>
       <c r="CJ44" s="22"/>
+      <c r="CK44" s="22"/>
     </row>
     <row r="45" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -28201,6 +28244,7 @@
       <c r="CH45" s="22"/>
       <c r="CI45" s="22"/>
       <c r="CJ45" s="22"/>
+      <c r="CK45" s="22"/>
     </row>
     <row r="46" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD46" s="22"/>
@@ -28210,6 +28254,7 @@
       <c r="CH46" s="22"/>
       <c r="CI46" s="22"/>
       <c r="CJ46" s="22"/>
+      <c r="CK46" s="22"/>
     </row>
     <row r="47" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
@@ -28336,14 +28381,13 @@
       <c r="CD47" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="CF47" s="31"/>
-      <c r="CG47" s="31"/>
+      <c r="CE47" s="37"/>
+      <c r="CF47" s="37"/>
+      <c r="CG47" s="37"/>
       <c r="CH47" s="31"/>
       <c r="CI47" s="31"/>
       <c r="CJ47" s="31"/>
+      <c r="CK47" s="31"/>
     </row>
     <row r="48" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
@@ -28598,10 +28642,13 @@
       <c r="CF48" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="CG48" s="32"/>
+      <c r="CG48" s="36" t="s">
+        <v>9</v>
+      </c>
       <c r="CH48" s="32"/>
       <c r="CI48" s="32"/>
       <c r="CJ48" s="32"/>
+      <c r="CK48" s="32"/>
     </row>
     <row r="49" spans="1:151" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
@@ -28612,6 +28659,7 @@
       <c r="CH49" s="22"/>
       <c r="CI49" s="22"/>
       <c r="CJ49" s="22"/>
+      <c r="CK49" s="22"/>
     </row>
     <row r="50" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -28864,13 +28912,15 @@
         <v>20.594827146149669</v>
       </c>
       <c r="CF50" s="34">
-        <v>4.8500211896529635</v>
-      </c>
-      <c r="CG50" s="33"/>
+        <v>8.7988182285746461</v>
+      </c>
+      <c r="CG50" s="34">
+        <v>7.1191807480788611</v>
+      </c>
       <c r="CH50" s="33"/>
       <c r="CI50" s="33"/>
       <c r="CJ50" s="33"/>
-      <c r="CK50" s="10"/>
+      <c r="CK50" s="33"/>
       <c r="CL50" s="10"/>
       <c r="CM50" s="10"/>
       <c r="CN50" s="10"/>
@@ -29185,13 +29235,15 @@
         <v>7.9899859432318863</v>
       </c>
       <c r="CF51" s="34">
-        <v>7.622961589045957</v>
-      </c>
-      <c r="CG51" s="33"/>
+        <v>7.0791468187514397</v>
+      </c>
+      <c r="CG51" s="34">
+        <v>8.2711395553647833</v>
+      </c>
       <c r="CH51" s="33"/>
       <c r="CI51" s="33"/>
       <c r="CJ51" s="33"/>
-      <c r="CK51" s="10"/>
+      <c r="CK51" s="33"/>
       <c r="CL51" s="10"/>
       <c r="CM51" s="10"/>
       <c r="CN51" s="10"/>
@@ -29344,7 +29396,7 @@
       <c r="CH52" s="33"/>
       <c r="CI52" s="33"/>
       <c r="CJ52" s="33"/>
-      <c r="CK52" s="10"/>
+      <c r="CK52" s="33"/>
       <c r="CL52" s="10"/>
       <c r="CM52" s="10"/>
       <c r="CN52" s="10"/>
@@ -29659,13 +29711,15 @@
         <v>8.9642280217734367</v>
       </c>
       <c r="CF53" s="34">
-        <v>7.4066659661163214</v>
-      </c>
-      <c r="CG53" s="33"/>
+        <v>7.2132850782334685</v>
+      </c>
+      <c r="CG53" s="34">
+        <v>8.1858186153790342</v>
+      </c>
       <c r="CH53" s="33"/>
       <c r="CI53" s="33"/>
       <c r="CJ53" s="33"/>
-      <c r="CK53" s="10"/>
+      <c r="CK53" s="33"/>
       <c r="CL53" s="10"/>
       <c r="CM53" s="10"/>
       <c r="CN53" s="10"/>
@@ -29818,6 +29872,7 @@
       <c r="CH54" s="29"/>
       <c r="CI54" s="29"/>
       <c r="CJ54" s="29"/>
+      <c r="CK54" s="29"/>
     </row>
     <row r="55" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
@@ -29830,6 +29885,7 @@
       <c r="CH55" s="22"/>
       <c r="CI55" s="22"/>
       <c r="CJ55" s="22"/>
+      <c r="CK55" s="22"/>
     </row>
     <row r="56" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="10"/>
@@ -29912,14 +29968,14 @@
       <c r="CA56" s="10"/>
       <c r="CB56" s="10"/>
       <c r="CC56" s="10"/>
-      <c r="CD56" s="33"/>
-      <c r="CE56" s="33"/>
-      <c r="CF56" s="33"/>
-      <c r="CG56" s="33"/>
+      <c r="CD56" s="30"/>
+      <c r="CE56" s="30"/>
+      <c r="CF56" s="30"/>
+      <c r="CG56" s="30"/>
       <c r="CH56" s="33"/>
       <c r="CI56" s="33"/>
       <c r="CJ56" s="33"/>
-      <c r="CK56" s="10"/>
+      <c r="CK56" s="33"/>
       <c r="CL56" s="10"/>
       <c r="CM56" s="10"/>
       <c r="CN56" s="10"/>
@@ -30064,14 +30120,14 @@
       <c r="CA57" s="10"/>
       <c r="CB57" s="10"/>
       <c r="CC57" s="10"/>
-      <c r="CD57" s="33"/>
-      <c r="CE57" s="33"/>
-      <c r="CF57" s="33"/>
-      <c r="CG57" s="33"/>
+      <c r="CD57" s="30"/>
+      <c r="CE57" s="30"/>
+      <c r="CF57" s="30"/>
+      <c r="CG57" s="30"/>
       <c r="CH57" s="33"/>
       <c r="CI57" s="33"/>
       <c r="CJ57" s="33"/>
-      <c r="CK57" s="10"/>
+      <c r="CK57" s="33"/>
       <c r="CL57" s="10"/>
       <c r="CM57" s="10"/>
       <c r="CN57" s="10"/>
@@ -30146,6 +30202,7 @@
       <c r="CH58" s="22"/>
       <c r="CI58" s="22"/>
       <c r="CJ58" s="22"/>
+      <c r="CK58" s="22"/>
     </row>
     <row r="59" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -30158,10 +30215,11 @@
       <c r="CH59" s="22"/>
       <c r="CI59" s="22"/>
       <c r="CJ59" s="22"/>
+      <c r="CK59" s="22"/>
     </row>
     <row r="60" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD60" s="22"/>
       <c r="CE60" s="22"/>
@@ -30170,6 +30228,7 @@
       <c r="CH60" s="22"/>
       <c r="CI60" s="22"/>
       <c r="CJ60" s="22"/>
+      <c r="CK60" s="22"/>
     </row>
     <row r="61" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD61" s="22"/>
@@ -30179,6 +30238,7 @@
       <c r="CH61" s="22"/>
       <c r="CI61" s="22"/>
       <c r="CJ61" s="22"/>
+      <c r="CK61" s="22"/>
     </row>
     <row r="62" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -30191,10 +30251,11 @@
       <c r="CH62" s="22"/>
       <c r="CI62" s="22"/>
       <c r="CJ62" s="22"/>
+      <c r="CK62" s="22"/>
     </row>
     <row r="63" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="CD63" s="22"/>
       <c r="CE63" s="22"/>
@@ -30203,6 +30264,7 @@
       <c r="CH63" s="22"/>
       <c r="CI63" s="22"/>
       <c r="CJ63" s="22"/>
+      <c r="CK63" s="22"/>
     </row>
     <row r="64" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
@@ -30215,6 +30277,7 @@
       <c r="CH64" s="22"/>
       <c r="CI64" s="22"/>
       <c r="CJ64" s="22"/>
+      <c r="CK64" s="22"/>
     </row>
     <row r="65" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD65" s="22"/>
@@ -30224,6 +30287,7 @@
       <c r="CH65" s="22"/>
       <c r="CI65" s="22"/>
       <c r="CJ65" s="22"/>
+      <c r="CK65" s="22"/>
     </row>
     <row r="66" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
@@ -30350,14 +30414,13 @@
       <c r="CD66" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="37" t="s">
-        <v>47</v>
-      </c>
+      <c r="CE66" s="37"/>
       <c r="CF66" s="37"/>
-      <c r="CG66" s="31"/>
+      <c r="CG66" s="37"/>
       <c r="CH66" s="31"/>
       <c r="CI66" s="31"/>
       <c r="CJ66" s="31"/>
+      <c r="CK66" s="31"/>
     </row>
     <row r="67" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
@@ -30612,10 +30675,13 @@
       <c r="CF67" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="CG67" s="32"/>
+      <c r="CG67" s="36" t="s">
+        <v>9</v>
+      </c>
       <c r="CH67" s="32"/>
       <c r="CI67" s="32"/>
       <c r="CJ67" s="32"/>
+      <c r="CK67" s="32"/>
     </row>
     <row r="68" spans="1:151" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
@@ -30626,6 +30692,7 @@
       <c r="CH68" s="22"/>
       <c r="CI68" s="22"/>
       <c r="CJ68" s="22"/>
+      <c r="CK68" s="22"/>
     </row>
     <row r="69" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
@@ -30878,13 +30945,15 @@
         <v>19.44677270034849</v>
       </c>
       <c r="CF69" s="34">
-        <v>4.5962757109052603</v>
-      </c>
-      <c r="CG69" s="33"/>
+        <v>6.5664729933641439</v>
+      </c>
+      <c r="CG69" s="34">
+        <v>4.8928066446055567</v>
+      </c>
       <c r="CH69" s="33"/>
       <c r="CI69" s="33"/>
       <c r="CJ69" s="33"/>
-      <c r="CK69" s="10"/>
+      <c r="CK69" s="33"/>
       <c r="CL69" s="10"/>
       <c r="CM69" s="10"/>
       <c r="CN69" s="10"/>
@@ -31199,13 +31268,15 @@
         <v>11.652700423739077</v>
       </c>
       <c r="CF70" s="34">
-        <v>8.8440367352710325</v>
-      </c>
-      <c r="CG70" s="33"/>
+        <v>8.7393987092676468</v>
+      </c>
+      <c r="CG70" s="34">
+        <v>8.7862185813122551</v>
+      </c>
       <c r="CH70" s="33"/>
       <c r="CI70" s="33"/>
       <c r="CJ70" s="33"/>
-      <c r="CK70" s="10"/>
+      <c r="CK70" s="33"/>
       <c r="CL70" s="10"/>
       <c r="CM70" s="10"/>
       <c r="CN70" s="10"/>
@@ -31357,7 +31428,7 @@
       <c r="CH71" s="33"/>
       <c r="CI71" s="33"/>
       <c r="CJ71" s="33"/>
-      <c r="CK71" s="10"/>
+      <c r="CK71" s="33"/>
       <c r="CL71" s="10"/>
       <c r="CM71" s="10"/>
       <c r="CN71" s="10"/>
@@ -31672,13 +31743,15 @@
         <v>12.288135873567697</v>
       </c>
       <c r="CF72" s="34">
-        <v>8.5082645452757504</v>
-      </c>
-      <c r="CG72" s="33"/>
+        <v>8.5676357446985918</v>
+      </c>
+      <c r="CG72" s="34">
+        <v>8.5075425838246304</v>
+      </c>
       <c r="CH72" s="33"/>
       <c r="CI72" s="33"/>
       <c r="CJ72" s="33"/>
-      <c r="CK72" s="10"/>
+      <c r="CK72" s="33"/>
       <c r="CL72" s="10"/>
       <c r="CM72" s="10"/>
       <c r="CN72" s="10"/>
@@ -31831,6 +31904,7 @@
       <c r="CH73" s="29"/>
       <c r="CI73" s="29"/>
       <c r="CJ73" s="29"/>
+      <c r="CK73" s="29"/>
     </row>
     <row r="74" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
@@ -31843,6 +31917,7 @@
       <c r="CH74" s="22"/>
       <c r="CI74" s="22"/>
       <c r="CJ74" s="22"/>
+      <c r="CK74" s="22"/>
     </row>
     <row r="75" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="10"/>
@@ -31932,7 +32007,7 @@
       <c r="CH75" s="30"/>
       <c r="CI75" s="30"/>
       <c r="CJ75" s="30"/>
-      <c r="CK75" s="10"/>
+      <c r="CK75" s="30"/>
       <c r="CL75" s="10"/>
       <c r="CM75" s="10"/>
       <c r="CN75" s="10"/>
@@ -32084,7 +32159,7 @@
       <c r="CH76" s="30"/>
       <c r="CI76" s="30"/>
       <c r="CJ76" s="30"/>
-      <c r="CK76" s="10"/>
+      <c r="CK76" s="30"/>
       <c r="CL76" s="10"/>
       <c r="CM76" s="10"/>
       <c r="CN76" s="10"/>
@@ -32159,10 +32234,11 @@
       <c r="CH77" s="22"/>
       <c r="CI77" s="22"/>
       <c r="CJ77" s="22"/>
+      <c r="CK77" s="22"/>
     </row>
     <row r="78" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD78" s="22"/>
       <c r="CE78" s="22"/>
@@ -32171,6 +32247,7 @@
       <c r="CH78" s="22"/>
       <c r="CI78" s="22"/>
       <c r="CJ78" s="22"/>
+      <c r="CK78" s="22"/>
     </row>
     <row r="79" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD79" s="22"/>
@@ -32180,6 +32257,7 @@
       <c r="CH79" s="22"/>
       <c r="CI79" s="22"/>
       <c r="CJ79" s="22"/>
+      <c r="CK79" s="22"/>
     </row>
     <row r="80" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
@@ -32192,10 +32270,11 @@
       <c r="CH80" s="22"/>
       <c r="CI80" s="22"/>
       <c r="CJ80" s="22"/>
+      <c r="CK80" s="22"/>
     </row>
     <row r="81" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="CD81" s="22"/>
       <c r="CE81" s="22"/>
@@ -32204,6 +32283,7 @@
       <c r="CH81" s="22"/>
       <c r="CI81" s="22"/>
       <c r="CJ81" s="22"/>
+      <c r="CK81" s="22"/>
     </row>
     <row r="82" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -32216,6 +32296,7 @@
       <c r="CH82" s="22"/>
       <c r="CI82" s="22"/>
       <c r="CJ82" s="22"/>
+      <c r="CK82" s="22"/>
     </row>
     <row r="83" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD83" s="22"/>
@@ -32225,6 +32306,7 @@
       <c r="CH83" s="22"/>
       <c r="CI83" s="22"/>
       <c r="CJ83" s="22"/>
+      <c r="CK83" s="22"/>
     </row>
     <row r="84" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
@@ -32357,10 +32439,9 @@
       <c r="CH84" s="37">
         <v>2021</v>
       </c>
-      <c r="CI84" s="37">
-        <v>0</v>
-      </c>
+      <c r="CI84" s="37"/>
       <c r="CJ84" s="37"/>
+      <c r="CK84" s="37"/>
     </row>
     <row r="85" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
@@ -32626,6 +32707,9 @@
       </c>
       <c r="CJ85" s="24" t="s">
         <v>10</v>
+      </c>
+      <c r="CK85" s="24" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:155" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -32637,6 +32721,7 @@
       <c r="CH86" s="22"/>
       <c r="CI86" s="22"/>
       <c r="CJ86" s="22"/>
+      <c r="CK86" s="22"/>
     </row>
     <row r="87" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
@@ -32901,9 +32986,11 @@
         <v>96.3284269276933</v>
       </c>
       <c r="CJ87" s="34">
-        <v>104.40318730389102</v>
-      </c>
-      <c r="CK87" s="10"/>
+        <v>106.33225932748356</v>
+      </c>
+      <c r="CK87" s="34">
+        <v>106.66200711517664</v>
+      </c>
       <c r="CL87" s="10"/>
       <c r="CM87" s="10"/>
       <c r="CN87" s="10"/>
@@ -33234,9 +33321,11 @@
         <v>97.789173474669795</v>
       </c>
       <c r="CJ88" s="34">
-        <v>104.47960720508955</v>
-      </c>
-      <c r="CK88" s="10"/>
+        <v>104.05170656975191</v>
+      </c>
+      <c r="CK88" s="34">
+        <v>100.18700541586053</v>
+      </c>
       <c r="CL88" s="10"/>
       <c r="CM88" s="10"/>
       <c r="CN88" s="10"/>
@@ -33392,7 +33481,7 @@
       <c r="CH89" s="33"/>
       <c r="CI89" s="33"/>
       <c r="CJ89" s="33"/>
-      <c r="CK89" s="10"/>
+      <c r="CK89" s="33"/>
       <c r="CL89" s="10"/>
       <c r="CM89" s="10"/>
       <c r="CN89" s="10"/>
@@ -33723,9 +33812,11 @@
         <v>97.662489282218061</v>
       </c>
       <c r="CJ90" s="34">
-        <v>104.47378423548574</v>
-      </c>
-      <c r="CK90" s="10"/>
+        <v>104.22865429462091</v>
+      </c>
+      <c r="CK90" s="34">
+        <v>100.63502280740404</v>
+      </c>
       <c r="CL90" s="10"/>
       <c r="CM90" s="10"/>
       <c r="CN90" s="10"/>
@@ -33882,6 +33973,7 @@
       <c r="CH91" s="29"/>
       <c r="CI91" s="29"/>
       <c r="CJ91" s="29"/>
+      <c r="CK91" s="29"/>
     </row>
     <row r="92" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
@@ -33894,6 +33986,7 @@
       <c r="CH92" s="22"/>
       <c r="CI92" s="22"/>
       <c r="CJ92" s="22"/>
+      <c r="CK92" s="22"/>
     </row>
     <row r="95" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
@@ -33906,6 +33999,7 @@
       <c r="CH95" s="22"/>
       <c r="CI95" s="22"/>
       <c r="CJ95" s="22"/>
+      <c r="CK95" s="22"/>
     </row>
     <row r="96" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
@@ -33918,10 +34012,11 @@
       <c r="CH96" s="22"/>
       <c r="CI96" s="22"/>
       <c r="CJ96" s="22"/>
+      <c r="CK96" s="22"/>
     </row>
     <row r="97" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD97" s="22"/>
       <c r="CE97" s="22"/>
@@ -33930,6 +34025,7 @@
       <c r="CH97" s="22"/>
       <c r="CI97" s="22"/>
       <c r="CJ97" s="22"/>
+      <c r="CK97" s="22"/>
     </row>
     <row r="98" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD98" s="22"/>
@@ -33939,6 +34035,7 @@
       <c r="CH98" s="22"/>
       <c r="CI98" s="22"/>
       <c r="CJ98" s="22"/>
+      <c r="CK98" s="22"/>
     </row>
     <row r="99" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
@@ -33951,10 +34048,11 @@
       <c r="CH99" s="22"/>
       <c r="CI99" s="22"/>
       <c r="CJ99" s="22"/>
+      <c r="CK99" s="22"/>
     </row>
     <row r="100" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="CD100" s="22"/>
       <c r="CE100" s="22"/>
@@ -33963,6 +34061,7 @@
       <c r="CH100" s="22"/>
       <c r="CI100" s="22"/>
       <c r="CJ100" s="22"/>
+      <c r="CK100" s="22"/>
     </row>
     <row r="101" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
@@ -33975,6 +34074,7 @@
       <c r="CH101" s="22"/>
       <c r="CI101" s="22"/>
       <c r="CJ101" s="22"/>
+      <c r="CK101" s="22"/>
     </row>
     <row r="102" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD102" s="22"/>
@@ -33984,6 +34084,7 @@
       <c r="CH102" s="22"/>
       <c r="CI102" s="22"/>
       <c r="CJ102" s="22"/>
+      <c r="CK102" s="22"/>
     </row>
     <row r="103" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
@@ -34116,10 +34217,9 @@
       <c r="CH103" s="37">
         <v>2021</v>
       </c>
-      <c r="CI103" s="37">
-        <v>0</v>
-      </c>
+      <c r="CI103" s="37"/>
       <c r="CJ103" s="37"/>
+      <c r="CK103" s="37"/>
     </row>
     <row r="104" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
@@ -34385,6 +34485,9 @@
       </c>
       <c r="CJ104" s="24" t="s">
         <v>10</v>
+      </c>
+      <c r="CK104" s="24" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -34396,6 +34499,7 @@
       <c r="CH105" s="22"/>
       <c r="CI105" s="22"/>
       <c r="CJ105" s="22"/>
+      <c r="CK105" s="22"/>
     </row>
     <row r="106" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
@@ -34660,9 +34764,11 @@
         <v>8.5540983166940698</v>
       </c>
       <c r="CJ106" s="34">
-        <v>7.6145542055058479</v>
-      </c>
-      <c r="CK106" s="10"/>
+        <v>7.9155805126799619</v>
+      </c>
+      <c r="CK106" s="34">
+        <v>7.3335724839585366</v>
+      </c>
       <c r="CL106" s="10"/>
       <c r="CM106" s="10"/>
       <c r="CN106" s="10"/>
@@ -34993,9 +35099,11 @@
         <v>91.445901683305934</v>
       </c>
       <c r="CJ107" s="34">
-        <v>92.385445794494146</v>
-      </c>
-      <c r="CK107" s="10"/>
+        <v>92.084419487320048</v>
+      </c>
+      <c r="CK107" s="34">
+        <v>92.666427516041466</v>
+      </c>
       <c r="CL107" s="10"/>
       <c r="CM107" s="10"/>
       <c r="CN107" s="10"/>
@@ -35151,7 +35259,7 @@
       <c r="CH108" s="33"/>
       <c r="CI108" s="33"/>
       <c r="CJ108" s="33"/>
-      <c r="CK108" s="10"/>
+      <c r="CK108" s="33"/>
       <c r="CL108" s="10"/>
       <c r="CM108" s="10"/>
       <c r="CN108" s="10"/>
@@ -35484,7 +35592,9 @@
       <c r="CJ109" s="34">
         <v>100</v>
       </c>
-      <c r="CK109" s="10"/>
+      <c r="CK109" s="34">
+        <v>100</v>
+      </c>
       <c r="CL109" s="10"/>
       <c r="CM109" s="10"/>
       <c r="CN109" s="10"/>
@@ -35641,6 +35751,7 @@
       <c r="CH110" s="29"/>
       <c r="CI110" s="29"/>
       <c r="CJ110" s="29"/>
+      <c r="CK110" s="29"/>
     </row>
     <row r="111" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
@@ -35653,6 +35764,7 @@
       <c r="CH111" s="22"/>
       <c r="CI111" s="22"/>
       <c r="CJ111" s="22"/>
+      <c r="CK111" s="22"/>
     </row>
     <row r="112" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="10"/>
@@ -35742,7 +35854,7 @@
       <c r="CH112" s="30"/>
       <c r="CI112" s="30"/>
       <c r="CJ112" s="30"/>
-      <c r="CK112" s="10"/>
+      <c r="CK112" s="30"/>
       <c r="CL112" s="10"/>
       <c r="CM112" s="10"/>
       <c r="CN112" s="10"/>
@@ -35898,7 +36010,7 @@
       <c r="CH113" s="30"/>
       <c r="CI113" s="30"/>
       <c r="CJ113" s="30"/>
-      <c r="CK113" s="10"/>
+      <c r="CK113" s="30"/>
       <c r="CL113" s="10"/>
       <c r="CM113" s="10"/>
       <c r="CN113" s="10"/>
@@ -35977,6 +36089,7 @@
       <c r="CH114" s="22"/>
       <c r="CI114" s="22"/>
       <c r="CJ114" s="22"/>
+      <c r="CK114" s="22"/>
     </row>
     <row r="115" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
@@ -35989,10 +36102,11 @@
       <c r="CH115" s="22"/>
       <c r="CI115" s="22"/>
       <c r="CJ115" s="22"/>
+      <c r="CK115" s="22"/>
     </row>
     <row r="116" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD116" s="22"/>
       <c r="CE116" s="22"/>
@@ -36001,6 +36115,7 @@
       <c r="CH116" s="22"/>
       <c r="CI116" s="22"/>
       <c r="CJ116" s="22"/>
+      <c r="CK116" s="22"/>
     </row>
     <row r="117" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD117" s="22"/>
@@ -36010,6 +36125,7 @@
       <c r="CH117" s="22"/>
       <c r="CI117" s="22"/>
       <c r="CJ117" s="22"/>
+      <c r="CK117" s="22"/>
     </row>
     <row r="118" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
@@ -36022,10 +36138,11 @@
       <c r="CH118" s="22"/>
       <c r="CI118" s="22"/>
       <c r="CJ118" s="22"/>
+      <c r="CK118" s="22"/>
     </row>
     <row r="119" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="CD119" s="22"/>
       <c r="CE119" s="22"/>
@@ -36034,6 +36151,7 @@
       <c r="CH119" s="22"/>
       <c r="CI119" s="22"/>
       <c r="CJ119" s="22"/>
+      <c r="CK119" s="22"/>
     </row>
     <row r="120" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
@@ -36046,6 +36164,7 @@
       <c r="CH120" s="22"/>
       <c r="CI120" s="22"/>
       <c r="CJ120" s="22"/>
+      <c r="CK120" s="22"/>
     </row>
     <row r="121" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD121" s="22"/>
@@ -36055,6 +36174,7 @@
       <c r="CH121" s="22"/>
       <c r="CI121" s="22"/>
       <c r="CJ121" s="22"/>
+      <c r="CK121" s="22"/>
     </row>
     <row r="122" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
@@ -36187,10 +36307,9 @@
       <c r="CH122" s="37">
         <v>2021</v>
       </c>
-      <c r="CI122" s="37">
-        <v>0</v>
-      </c>
+      <c r="CI122" s="37"/>
       <c r="CJ122" s="37"/>
+      <c r="CK122" s="37"/>
     </row>
     <row r="123" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
@@ -36456,6 +36575,9 @@
       </c>
       <c r="CJ123" s="24" t="s">
         <v>10</v>
+      </c>
+      <c r="CK123" s="24" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -36467,6 +36589,7 @@
       <c r="CH124" s="22"/>
       <c r="CI124" s="22"/>
       <c r="CJ124" s="22"/>
+      <c r="CK124" s="22"/>
     </row>
     <row r="125" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
@@ -36731,9 +36854,11 @@
         <v>8.6725649096321131</v>
       </c>
       <c r="CJ125" s="34">
-        <v>7.6197031303256031</v>
-      </c>
-      <c r="CK125" s="10"/>
+        <v>7.7589840563475505</v>
+      </c>
+      <c r="CK125" s="34">
+        <v>6.9191856982963902</v>
+      </c>
       <c r="CL125" s="10"/>
       <c r="CM125" s="10"/>
       <c r="CN125" s="10"/>
@@ -37064,9 +37189,11 @@
         <v>91.327435090367885</v>
       </c>
       <c r="CJ126" s="34">
-        <v>92.38029686967441</v>
-      </c>
-      <c r="CK126" s="10"/>
+        <v>92.241015943652457</v>
+      </c>
+      <c r="CK126" s="34">
+        <v>93.080814301703612</v>
+      </c>
       <c r="CL126" s="10"/>
       <c r="CM126" s="10"/>
       <c r="CN126" s="10"/>
@@ -37222,7 +37349,7 @@
       <c r="CH127" s="33"/>
       <c r="CI127" s="33"/>
       <c r="CJ127" s="33"/>
-      <c r="CK127" s="10"/>
+      <c r="CK127" s="33"/>
       <c r="CL127" s="10"/>
       <c r="CM127" s="10"/>
       <c r="CN127" s="10"/>
@@ -37555,7 +37682,9 @@
       <c r="CJ128" s="34">
         <v>100</v>
       </c>
-      <c r="CK128" s="10"/>
+      <c r="CK128" s="34">
+        <v>100</v>
+      </c>
       <c r="CL128" s="10"/>
       <c r="CM128" s="10"/>
       <c r="CN128" s="10"/>
@@ -37712,6 +37841,7 @@
       <c r="CH129" s="29"/>
       <c r="CI129" s="29"/>
       <c r="CJ129" s="29"/>
+      <c r="CK129" s="29"/>
     </row>
     <row r="130" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="s">
@@ -37724,6 +37854,7 @@
       <c r="CH130" s="22"/>
       <c r="CI130" s="22"/>
       <c r="CJ130" s="22"/>
+      <c r="CK130" s="22"/>
     </row>
     <row r="131" spans="1:155" s="21" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
@@ -37814,7 +37945,7 @@
       <c r="CH131" s="35"/>
       <c r="CI131" s="35"/>
       <c r="CJ131" s="35"/>
-      <c r="CK131" s="20"/>
+      <c r="CK131" s="35"/>
       <c r="CL131" s="20"/>
       <c r="CM131" s="20"/>
       <c r="CN131" s="20"/>
@@ -37971,7 +38102,7 @@
       <c r="CH132" s="35"/>
       <c r="CI132" s="35"/>
       <c r="CJ132" s="35"/>
-      <c r="CK132" s="20"/>
+      <c r="CK132" s="35"/>
       <c r="CL132" s="20"/>
       <c r="CM132" s="20"/>
       <c r="CN132" s="20"/>
@@ -38183,25 +38314,25 @@
     <mergeCell ref="BR47:BU47"/>
     <mergeCell ref="BR9:BU9"/>
     <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="CD47:CE47"/>
     <mergeCell ref="CD9:CG9"/>
     <mergeCell ref="CD122:CG122"/>
     <mergeCell ref="CD103:CG103"/>
-    <mergeCell ref="CH9:CJ9"/>
-    <mergeCell ref="CH28:CJ28"/>
-    <mergeCell ref="CD66:CF66"/>
-    <mergeCell ref="CH84:CJ84"/>
-    <mergeCell ref="CH103:CJ103"/>
-    <mergeCell ref="CH122:CJ122"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH28:CK28"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="CH84:CK84"/>
+    <mergeCell ref="CH103:CK103"/>
+    <mergeCell ref="CH122:CK122"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="86" man="1"/>
-    <brk id="76" max="86" man="1"/>
-    <brk id="94" max="86" man="1"/>
+    <brk id="38" max="88" man="1"/>
+    <brk id="76" max="88" man="1"/>
+    <brk id="94" max="88" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-16IAC_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-16IAC_2018PSNA_Qrt.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Desktop\PSA\NAP\NAP\Q1 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5661D8F-53FD-478E-B5ED-25ECAA472DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11424" windowHeight="9180"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAC" sheetId="10" r:id="rId1"/>
@@ -465,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -609,24 +610,27 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of January 2022</t>
+    <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2021</t>
+    <t>As of May 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2021</t>
+    <t>Q1 2000 to Q1 2022</t>
+  </si>
+  <si>
+    <t>Q1 2001 to Q1 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -711,14 +715,14 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -729,50 +733,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -782,14 +786,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23384,7 +23398,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -23436,7 +23450,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -23637,31 +23651,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EY132"/>
+  <dimension ref="A1:EY150"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BV1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="CI44" sqref="CI44:CL58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.6328125" style="1" customWidth="1"/>
-    <col min="2" max="77" width="11.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="78" max="81" width="9.90625" style="11" customWidth="1"/>
-    <col min="82" max="89" width="9.08984375" style="35" customWidth="1"/>
-    <col min="90" max="16384" width="7.81640625" style="11"/>
+    <col min="1" max="1" width="47.6640625" style="1" customWidth="1"/>
+    <col min="2" max="77" width="11.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="9.77734375" style="33" bestFit="1" customWidth="1"/>
+    <col min="79" max="90" width="11.21875" style="33" bestFit="1" customWidth="1"/>
+    <col min="91" max="16384" width="7.77734375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="BZ1" s="22"/>
+      <c r="CA1" s="22"/>
+      <c r="CB1" s="22"/>
+      <c r="CC1" s="22"/>
       <c r="CD1" s="22"/>
       <c r="CE1" s="22"/>
       <c r="CF1" s="22"/>
@@ -23670,11 +23688,16 @@
       <c r="CI1" s="22"/>
       <c r="CJ1" s="22"/>
       <c r="CK1" s="22"/>
+      <c r="CL1" s="22"/>
     </row>
-    <row r="2" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="BZ2" s="22"/>
+      <c r="CA2" s="22"/>
+      <c r="CB2" s="22"/>
+      <c r="CC2" s="22"/>
       <c r="CD2" s="22"/>
       <c r="CE2" s="22"/>
       <c r="CF2" s="22"/>
@@ -23683,11 +23706,16 @@
       <c r="CI2" s="22"/>
       <c r="CJ2" s="22"/>
       <c r="CK2" s="22"/>
+      <c r="CL2" s="22"/>
     </row>
-    <row r="3" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="BZ3" s="22"/>
+      <c r="CA3" s="22"/>
+      <c r="CB3" s="22"/>
+      <c r="CC3" s="22"/>
       <c r="CD3" s="22"/>
       <c r="CE3" s="22"/>
       <c r="CF3" s="22"/>
@@ -23696,8 +23724,13 @@
       <c r="CI3" s="22"/>
       <c r="CJ3" s="22"/>
       <c r="CK3" s="22"/>
+      <c r="CL3" s="22"/>
     </row>
-    <row r="4" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ4" s="22"/>
+      <c r="CA4" s="22"/>
+      <c r="CB4" s="22"/>
+      <c r="CC4" s="22"/>
       <c r="CD4" s="22"/>
       <c r="CE4" s="22"/>
       <c r="CF4" s="22"/>
@@ -23706,11 +23739,16 @@
       <c r="CI4" s="22"/>
       <c r="CJ4" s="22"/>
       <c r="CK4" s="22"/>
+      <c r="CL4" s="22"/>
     </row>
-    <row r="5" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="BZ5" s="22"/>
+      <c r="CA5" s="22"/>
+      <c r="CB5" s="22"/>
+      <c r="CC5" s="22"/>
       <c r="CD5" s="22"/>
       <c r="CE5" s="22"/>
       <c r="CF5" s="22"/>
@@ -23719,11 +23757,16 @@
       <c r="CI5" s="22"/>
       <c r="CJ5" s="22"/>
       <c r="CK5" s="22"/>
+      <c r="CL5" s="22"/>
     </row>
-    <row r="6" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="BZ6" s="22"/>
+      <c r="CA6" s="22"/>
+      <c r="CB6" s="22"/>
+      <c r="CC6" s="22"/>
       <c r="CD6" s="22"/>
       <c r="CE6" s="22"/>
       <c r="CF6" s="22"/>
@@ -23732,8 +23775,9 @@
       <c r="CI6" s="22"/>
       <c r="CJ6" s="22"/>
       <c r="CK6" s="22"/>
+      <c r="CL6" s="22"/>
     </row>
-    <row r="7" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -23813,10 +23857,10 @@
       <c r="BW7" s="4"/>
       <c r="BX7" s="4"/>
       <c r="BY7" s="4"/>
-      <c r="BZ7" s="4"/>
-      <c r="CA7" s="4"/>
-      <c r="CB7" s="4"/>
-      <c r="CC7" s="4"/>
+      <c r="BZ7" s="23"/>
+      <c r="CA7" s="23"/>
+      <c r="CB7" s="23"/>
+      <c r="CC7" s="23"/>
       <c r="CD7" s="23"/>
       <c r="CE7" s="23"/>
       <c r="CF7" s="23"/>
@@ -23825,8 +23869,9 @@
       <c r="CI7" s="23"/>
       <c r="CJ7" s="23"/>
       <c r="CK7" s="23"/>
+      <c r="CL7" s="23"/>
     </row>
-    <row r="8" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -23903,10 +23948,10 @@
       <c r="BW8" s="4"/>
       <c r="BX8" s="4"/>
       <c r="BY8" s="4"/>
-      <c r="BZ8" s="4"/>
-      <c r="CA8" s="4"/>
-      <c r="CB8" s="4"/>
-      <c r="CC8" s="4"/>
+      <c r="BZ8" s="23"/>
+      <c r="CA8" s="23"/>
+      <c r="CB8" s="23"/>
+      <c r="CC8" s="23"/>
       <c r="CD8" s="23"/>
       <c r="CE8" s="23"/>
       <c r="CF8" s="23"/>
@@ -23915,8 +23960,9 @@
       <c r="CI8" s="23"/>
       <c r="CJ8" s="23"/>
       <c r="CK8" s="23"/>
+      <c r="CL8" s="23"/>
     </row>
-    <row r="9" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="38">
         <v>2000</v>
@@ -24032,12 +24078,12 @@
       <c r="BW9" s="38"/>
       <c r="BX9" s="38"/>
       <c r="BY9" s="38"/>
-      <c r="BZ9" s="38">
+      <c r="BZ9" s="37">
         <v>2019</v>
       </c>
-      <c r="CA9" s="38"/>
-      <c r="CB9" s="38"/>
-      <c r="CC9" s="38"/>
+      <c r="CA9" s="37"/>
+      <c r="CB9" s="37"/>
+      <c r="CC9" s="37"/>
       <c r="CD9" s="37">
         <v>2020</v>
       </c>
@@ -24050,8 +24096,11 @@
       <c r="CI9" s="37"/>
       <c r="CJ9" s="37"/>
       <c r="CK9" s="37"/>
+      <c r="CL9" s="35">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="10" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -24283,16 +24332,16 @@
       <c r="BY10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BZ10" s="7" t="s">
+      <c r="BZ10" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CA10" s="7" t="s">
+      <c r="CA10" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CB10" s="7" t="s">
+      <c r="CB10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CC10" s="7" t="s">
+      <c r="CC10" s="24" t="s">
         <v>9</v>
       </c>
       <c r="CD10" s="24" t="s">
@@ -24319,9 +24368,16 @@
       <c r="CK10" s="24" t="s">
         <v>9</v>
       </c>
+      <c r="CL10" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:155" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
+      <c r="BZ11" s="22"/>
+      <c r="CA11" s="22"/>
+      <c r="CB11" s="22"/>
+      <c r="CC11" s="22"/>
       <c r="CD11" s="22"/>
       <c r="CE11" s="22"/>
       <c r="CF11" s="22"/>
@@ -24330,8 +24386,9 @@
       <c r="CI11" s="22"/>
       <c r="CJ11" s="22"/>
       <c r="CK11" s="22"/>
+      <c r="CL11" s="22"/>
     </row>
-    <row r="12" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -24563,16 +24620,16 @@
       <c r="BY12" s="9">
         <v>14133.490973262298</v>
       </c>
-      <c r="BZ12" s="9">
+      <c r="BZ12" s="25">
         <v>12149.221617435302</v>
       </c>
-      <c r="CA12" s="9">
+      <c r="CA12" s="25">
         <v>13384.2341281628</v>
       </c>
-      <c r="CB12" s="9">
+      <c r="CB12" s="25">
         <v>12099.398970275899</v>
       </c>
-      <c r="CC12" s="9">
+      <c r="CC12" s="25">
         <v>14681.98380856662</v>
       </c>
       <c r="CD12" s="25">
@@ -24585,21 +24642,23 @@
         <v>10244.740905068393</v>
       </c>
       <c r="CG12" s="25">
-        <v>12494.557316954742</v>
+        <v>12909.246363876082</v>
       </c>
       <c r="CH12" s="25">
-        <v>12111.015099207638</v>
+        <v>12113.544674658446</v>
       </c>
       <c r="CI12" s="25">
-        <v>14602.312737594973</v>
+        <v>14605.254957948833</v>
       </c>
       <c r="CJ12" s="25">
-        <v>11146.157035293794</v>
+        <v>11165.172496488034</v>
       </c>
       <c r="CK12" s="25">
-        <v>13384.067436021065</v>
-      </c>
-      <c r="CL12" s="10"/>
+        <v>13588.692210501686</v>
+      </c>
+      <c r="CL12" s="25">
+        <v>13437.841987627886</v>
+      </c>
       <c r="CM12" s="10"/>
       <c r="CN12" s="10"/>
       <c r="CO12" s="10"/>
@@ -24666,7 +24725,7 @@
       <c r="EX12" s="10"/>
       <c r="EY12" s="10"/>
     </row>
-    <row r="13" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
@@ -24898,16 +24957,16 @@
       <c r="BY13" s="13">
         <v>133883.95079916096</v>
       </c>
-      <c r="BZ13" s="13">
+      <c r="BZ13" s="26">
         <v>117780.357425159</v>
       </c>
-      <c r="CA13" s="13">
+      <c r="CA13" s="26">
         <v>127018.55505566399</v>
       </c>
-      <c r="CB13" s="13">
+      <c r="CB13" s="26">
         <v>114646.946753232</v>
       </c>
-      <c r="CC13" s="13">
+      <c r="CC13" s="26">
         <v>151072.99259984598</v>
       </c>
       <c r="CD13" s="26">
@@ -24920,21 +24979,23 @@
         <v>121094.282752477</v>
       </c>
       <c r="CG13" s="26">
-        <v>156200.4353403062</v>
+        <v>156006.63750067563</v>
       </c>
       <c r="CH13" s="26">
-        <v>132619.42299883647</v>
+        <v>132765.03266022948</v>
       </c>
       <c r="CI13" s="26">
-        <v>156103.14559338172</v>
+        <v>156621.19254735979</v>
       </c>
       <c r="CJ13" s="26">
-        <v>129666.72481763884</v>
+        <v>129862.37479275418</v>
       </c>
       <c r="CK13" s="26">
-        <v>169119.99133339027</v>
-      </c>
-      <c r="CL13" s="10"/>
+        <v>169470.95456995119</v>
+      </c>
+      <c r="CL13" s="26">
+        <v>143794.43233360819</v>
+      </c>
       <c r="CM13" s="10"/>
       <c r="CN13" s="10"/>
       <c r="CO13" s="10"/>
@@ -25001,7 +25062,7 @@
       <c r="EX13" s="10"/>
       <c r="EY13" s="10"/>
     </row>
-    <row r="14" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -25078,10 +25139,10 @@
       <c r="BW14" s="14"/>
       <c r="BX14" s="14"/>
       <c r="BY14" s="14"/>
-      <c r="BZ14" s="14"/>
-      <c r="CA14" s="14"/>
-      <c r="CB14" s="14"/>
-      <c r="CC14" s="14"/>
+      <c r="BZ14" s="27"/>
+      <c r="CA14" s="27"/>
+      <c r="CB14" s="27"/>
+      <c r="CC14" s="27"/>
       <c r="CD14" s="27"/>
       <c r="CE14" s="27"/>
       <c r="CF14" s="27"/>
@@ -25090,7 +25151,7 @@
       <c r="CI14" s="27"/>
       <c r="CJ14" s="27"/>
       <c r="CK14" s="27"/>
-      <c r="CL14" s="10"/>
+      <c r="CL14" s="27"/>
       <c r="CM14" s="10"/>
       <c r="CN14" s="10"/>
       <c r="CO14" s="10"/>
@@ -25157,7 +25218,7 @@
       <c r="EX14" s="10"/>
       <c r="EY14" s="10"/>
     </row>
-    <row r="15" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>11</v>
       </c>
@@ -25389,16 +25450,16 @@
       <c r="BY15" s="15">
         <v>148017.44177242325</v>
       </c>
-      <c r="BZ15" s="15">
+      <c r="BZ15" s="28">
         <v>129929.5790425943</v>
       </c>
-      <c r="CA15" s="15">
+      <c r="CA15" s="28">
         <v>140402.7891838268</v>
       </c>
-      <c r="CB15" s="15">
+      <c r="CB15" s="28">
         <v>126746.3457235079</v>
       </c>
-      <c r="CC15" s="15">
+      <c r="CC15" s="28">
         <v>165754.97640841259</v>
       </c>
       <c r="CD15" s="28">
@@ -25411,21 +25472,23 @@
         <v>131339.02365754539</v>
       </c>
       <c r="CG15" s="28">
-        <v>168694.99265726094</v>
+        <v>168915.88386455172</v>
       </c>
       <c r="CH15" s="28">
-        <v>144730.43809804411</v>
+        <v>144878.57733488793</v>
       </c>
       <c r="CI15" s="28">
-        <v>170705.45833097669</v>
+        <v>171226.44750530864</v>
       </c>
       <c r="CJ15" s="28">
-        <v>140812.88185293262</v>
+        <v>141027.54728924221</v>
       </c>
       <c r="CK15" s="28">
-        <v>182504.05876941132</v>
-      </c>
-      <c r="CL15" s="10"/>
+        <v>183059.64678045287</v>
+      </c>
+      <c r="CL15" s="28">
+        <v>157232.27432123607</v>
+      </c>
       <c r="CM15" s="10"/>
       <c r="CN15" s="10"/>
       <c r="CO15" s="10"/>
@@ -25492,7 +25555,7 @@
       <c r="EX15" s="10"/>
       <c r="EY15" s="10"/>
     </row>
-    <row r="16" spans="1:155" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:155" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -25570,10 +25633,10 @@
       <c r="BW16" s="16"/>
       <c r="BX16" s="16"/>
       <c r="BY16" s="16"/>
-      <c r="BZ16" s="16"/>
-      <c r="CA16" s="16"/>
-      <c r="CB16" s="16"/>
-      <c r="CC16" s="16"/>
+      <c r="BZ16" s="29"/>
+      <c r="CA16" s="29"/>
+      <c r="CB16" s="29"/>
+      <c r="CC16" s="29"/>
       <c r="CD16" s="29"/>
       <c r="CE16" s="29"/>
       <c r="CF16" s="29"/>
@@ -25582,11 +25645,16 @@
       <c r="CI16" s="29"/>
       <c r="CJ16" s="29"/>
       <c r="CK16" s="29"/>
+      <c r="CL16" s="29"/>
     </row>
-    <row r="17" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="BZ17" s="22"/>
+      <c r="CA17" s="22"/>
+      <c r="CB17" s="22"/>
+      <c r="CC17" s="22"/>
       <c r="CD17" s="22"/>
       <c r="CE17" s="22"/>
       <c r="CF17" s="22"/>
@@ -25595,8 +25663,9 @@
       <c r="CI17" s="22"/>
       <c r="CJ17" s="22"/>
       <c r="CK17" s="22"/>
+      <c r="CL17" s="22"/>
     </row>
-    <row r="18" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -25673,10 +25742,10 @@
       <c r="BW18" s="10"/>
       <c r="BX18" s="10"/>
       <c r="BY18" s="10"/>
-      <c r="BZ18" s="10"/>
-      <c r="CA18" s="10"/>
-      <c r="CB18" s="10"/>
-      <c r="CC18" s="10"/>
+      <c r="BZ18" s="30"/>
+      <c r="CA18" s="30"/>
+      <c r="CB18" s="30"/>
+      <c r="CC18" s="30"/>
       <c r="CD18" s="30"/>
       <c r="CE18" s="30"/>
       <c r="CF18" s="30"/>
@@ -25685,7 +25754,7 @@
       <c r="CI18" s="30"/>
       <c r="CJ18" s="30"/>
       <c r="CK18" s="30"/>
-      <c r="CL18" s="10"/>
+      <c r="CL18" s="30"/>
       <c r="CM18" s="10"/>
       <c r="CN18" s="10"/>
       <c r="CO18" s="10"/>
@@ -25752,7 +25821,7 @@
       <c r="EX18" s="10"/>
       <c r="EY18" s="10"/>
     </row>
-    <row r="19" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -25829,10 +25898,10 @@
       <c r="BW19" s="10"/>
       <c r="BX19" s="10"/>
       <c r="BY19" s="10"/>
-      <c r="BZ19" s="10"/>
-      <c r="CA19" s="10"/>
-      <c r="CB19" s="10"/>
-      <c r="CC19" s="10"/>
+      <c r="BZ19" s="30"/>
+      <c r="CA19" s="30"/>
+      <c r="CB19" s="30"/>
+      <c r="CC19" s="30"/>
       <c r="CD19" s="30"/>
       <c r="CE19" s="30"/>
       <c r="CF19" s="30"/>
@@ -25841,7 +25910,7 @@
       <c r="CI19" s="30"/>
       <c r="CJ19" s="30"/>
       <c r="CK19" s="30"/>
-      <c r="CL19" s="10"/>
+      <c r="CL19" s="30"/>
       <c r="CM19" s="10"/>
       <c r="CN19" s="10"/>
       <c r="CO19" s="10"/>
@@ -25908,10 +25977,14 @@
       <c r="EX19" s="10"/>
       <c r="EY19" s="10"/>
     </row>
-    <row r="20" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="BZ20" s="22"/>
+      <c r="CA20" s="22"/>
+      <c r="CB20" s="22"/>
+      <c r="CC20" s="22"/>
       <c r="CD20" s="22"/>
       <c r="CE20" s="22"/>
       <c r="CF20" s="22"/>
@@ -25920,11 +25993,16 @@
       <c r="CI20" s="22"/>
       <c r="CJ20" s="22"/>
       <c r="CK20" s="22"/>
+      <c r="CL20" s="22"/>
     </row>
-    <row r="21" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="BZ21" s="22"/>
+      <c r="CA21" s="22"/>
+      <c r="CB21" s="22"/>
+      <c r="CC21" s="22"/>
       <c r="CD21" s="22"/>
       <c r="CE21" s="22"/>
       <c r="CF21" s="22"/>
@@ -25933,11 +26011,16 @@
       <c r="CI21" s="22"/>
       <c r="CJ21" s="22"/>
       <c r="CK21" s="22"/>
+      <c r="CL21" s="22"/>
     </row>
-    <row r="22" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="BZ22" s="22"/>
+      <c r="CA22" s="22"/>
+      <c r="CB22" s="22"/>
+      <c r="CC22" s="22"/>
       <c r="CD22" s="22"/>
       <c r="CE22" s="22"/>
       <c r="CF22" s="22"/>
@@ -25946,8 +26029,13 @@
       <c r="CI22" s="22"/>
       <c r="CJ22" s="22"/>
       <c r="CK22" s="22"/>
+      <c r="CL22" s="22"/>
     </row>
-    <row r="23" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ23" s="22"/>
+      <c r="CA23" s="22"/>
+      <c r="CB23" s="22"/>
+      <c r="CC23" s="22"/>
       <c r="CD23" s="22"/>
       <c r="CE23" s="22"/>
       <c r="CF23" s="22"/>
@@ -25956,11 +26044,16 @@
       <c r="CI23" s="22"/>
       <c r="CJ23" s="22"/>
       <c r="CK23" s="22"/>
+      <c r="CL23" s="22"/>
     </row>
-    <row r="24" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="BZ24" s="22"/>
+      <c r="CA24" s="22"/>
+      <c r="CB24" s="22"/>
+      <c r="CC24" s="22"/>
       <c r="CD24" s="22"/>
       <c r="CE24" s="22"/>
       <c r="CF24" s="22"/>
@@ -25969,11 +26062,16 @@
       <c r="CI24" s="22"/>
       <c r="CJ24" s="22"/>
       <c r="CK24" s="22"/>
+      <c r="CL24" s="22"/>
     </row>
-    <row r="25" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="BZ25" s="22"/>
+      <c r="CA25" s="22"/>
+      <c r="CB25" s="22"/>
+      <c r="CC25" s="22"/>
       <c r="CD25" s="22"/>
       <c r="CE25" s="22"/>
       <c r="CF25" s="22"/>
@@ -25982,8 +26080,9 @@
       <c r="CI25" s="22"/>
       <c r="CJ25" s="22"/>
       <c r="CK25" s="22"/>
+      <c r="CL25" s="22"/>
     </row>
-    <row r="26" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -26063,10 +26162,10 @@
       <c r="BW26" s="4"/>
       <c r="BX26" s="4"/>
       <c r="BY26" s="4"/>
-      <c r="BZ26" s="4"/>
-      <c r="CA26" s="4"/>
-      <c r="CB26" s="4"/>
-      <c r="CC26" s="4"/>
+      <c r="BZ26" s="23"/>
+      <c r="CA26" s="23"/>
+      <c r="CB26" s="23"/>
+      <c r="CC26" s="23"/>
       <c r="CD26" s="23"/>
       <c r="CE26" s="23"/>
       <c r="CF26" s="23"/>
@@ -26075,8 +26174,9 @@
       <c r="CI26" s="23"/>
       <c r="CJ26" s="23"/>
       <c r="CK26" s="23"/>
+      <c r="CL26" s="23"/>
     </row>
-    <row r="27" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -26153,10 +26253,10 @@
       <c r="BW27" s="4"/>
       <c r="BX27" s="4"/>
       <c r="BY27" s="4"/>
-      <c r="BZ27" s="4"/>
-      <c r="CA27" s="4"/>
-      <c r="CB27" s="4"/>
-      <c r="CC27" s="4"/>
+      <c r="BZ27" s="23"/>
+      <c r="CA27" s="23"/>
+      <c r="CB27" s="23"/>
+      <c r="CC27" s="23"/>
       <c r="CD27" s="23"/>
       <c r="CE27" s="23"/>
       <c r="CF27" s="23"/>
@@ -26165,8 +26265,9 @@
       <c r="CI27" s="23"/>
       <c r="CJ27" s="23"/>
       <c r="CK27" s="23"/>
+      <c r="CL27" s="23"/>
     </row>
-    <row r="28" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="38">
         <v>2000</v>
@@ -26282,12 +26383,12 @@
       <c r="BW28" s="39"/>
       <c r="BX28" s="39"/>
       <c r="BY28" s="39"/>
-      <c r="BZ28" s="38">
+      <c r="BZ28" s="37">
         <v>2019</v>
       </c>
-      <c r="CA28" s="39"/>
-      <c r="CB28" s="39"/>
-      <c r="CC28" s="39"/>
+      <c r="CA28" s="40"/>
+      <c r="CB28" s="40"/>
+      <c r="CC28" s="40"/>
       <c r="CD28" s="37">
         <v>2020</v>
       </c>
@@ -26300,8 +26401,11 @@
       <c r="CI28" s="37"/>
       <c r="CJ28" s="37"/>
       <c r="CK28" s="37"/>
+      <c r="CL28" s="35">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="29" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>4</v>
       </c>
@@ -26533,16 +26637,16 @@
       <c r="BY29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BZ29" s="7" t="s">
+      <c r="BZ29" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CA29" s="7" t="s">
+      <c r="CA29" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CB29" s="7" t="s">
+      <c r="CB29" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CC29" s="7" t="s">
+      <c r="CC29" s="24" t="s">
         <v>9</v>
       </c>
       <c r="CD29" s="24" t="s">
@@ -26569,9 +26673,16 @@
       <c r="CK29" s="24" t="s">
         <v>9</v>
       </c>
+      <c r="CL29" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:155" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
+      <c r="BZ30" s="22"/>
+      <c r="CA30" s="22"/>
+      <c r="CB30" s="22"/>
+      <c r="CC30" s="22"/>
       <c r="CD30" s="22"/>
       <c r="CE30" s="22"/>
       <c r="CF30" s="22"/>
@@ -26580,8 +26691,9 @@
       <c r="CI30" s="22"/>
       <c r="CJ30" s="22"/>
       <c r="CK30" s="22"/>
+      <c r="CL30" s="22"/>
     </row>
-    <row r="31" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
@@ -26813,16 +26925,16 @@
       <c r="BY31" s="9">
         <v>13478.542764865451</v>
       </c>
-      <c r="BZ31" s="9">
+      <c r="BZ31" s="25">
         <v>12133.33386001138</v>
       </c>
-      <c r="CA31" s="9">
+      <c r="CA31" s="25">
         <v>14494.388640013192</v>
       </c>
-      <c r="CB31" s="9">
+      <c r="CB31" s="25">
         <v>11886.103007050217</v>
       </c>
-      <c r="CC31" s="9">
+      <c r="CC31" s="25">
         <v>14230.028474379236</v>
       </c>
       <c r="CD31" s="25">
@@ -26835,21 +26947,23 @@
         <v>9836.4756992029033</v>
       </c>
       <c r="CG31" s="25">
-        <v>11962.794938491843</v>
+        <v>12359.835018081292</v>
       </c>
       <c r="CH31" s="25">
-        <v>11749.683202911434</v>
+        <v>11752.137308528625</v>
       </c>
       <c r="CI31" s="25">
-        <v>15158.88217354142</v>
+        <v>15161.936536093632</v>
       </c>
       <c r="CJ31" s="25">
-        <v>10482.385219489888</v>
+        <v>10497.799914721076</v>
       </c>
       <c r="CK31" s="25">
-        <v>12548.111364122909</v>
-      </c>
-      <c r="CL31" s="10"/>
+        <v>12731.158125827416</v>
+      </c>
+      <c r="CL31" s="25">
+        <v>12772.565345081272</v>
+      </c>
       <c r="CM31" s="10"/>
       <c r="CN31" s="10"/>
       <c r="CO31" s="10"/>
@@ -26916,7 +27030,7 @@
       <c r="EX31" s="10"/>
       <c r="EY31" s="10"/>
     </row>
-    <row r="32" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>12</v>
       </c>
@@ -27148,16 +27262,16 @@
       <c r="BY32" s="13">
         <v>135053.40863118207</v>
       </c>
-      <c r="BZ32" s="13">
+      <c r="BZ32" s="26">
         <v>119377.97941870878</v>
       </c>
-      <c r="CA32" s="13">
+      <c r="CA32" s="26">
         <v>126151.95504350016</v>
       </c>
-      <c r="CB32" s="13">
+      <c r="CB32" s="26">
         <v>108922.83925501075</v>
       </c>
-      <c r="CC32" s="13">
+      <c r="CC32" s="26">
         <v>149810.51456454353</v>
       </c>
       <c r="CD32" s="26">
@@ -27170,21 +27284,23 @@
         <v>114602.05535598358</v>
       </c>
       <c r="CG32" s="26">
-        <v>155170.6827553102</v>
+        <v>154978.16252944485</v>
       </c>
       <c r="CH32" s="26">
-        <v>134948.13850335067</v>
+        <v>135096.28078563506</v>
       </c>
       <c r="CI32" s="26">
-        <v>159632.33970253047</v>
+        <v>160162.09878251256</v>
       </c>
       <c r="CJ32" s="26">
         <v>124617.58590255863</v>
       </c>
       <c r="CK32" s="26">
-        <v>168804.31811630636</v>
-      </c>
-      <c r="CL32" s="10"/>
+        <v>169104.13256901762</v>
+      </c>
+      <c r="CL32" s="26">
+        <v>145362.38685189161</v>
+      </c>
       <c r="CM32" s="10"/>
       <c r="CN32" s="10"/>
       <c r="CO32" s="10"/>
@@ -27251,7 +27367,7 @@
       <c r="EX32" s="10"/>
       <c r="EY32" s="10"/>
     </row>
-    <row r="33" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -27328,10 +27444,10 @@
       <c r="BW33" s="10"/>
       <c r="BX33" s="10"/>
       <c r="BY33" s="10"/>
-      <c r="BZ33" s="10"/>
-      <c r="CA33" s="10"/>
-      <c r="CB33" s="10"/>
-      <c r="CC33" s="10"/>
+      <c r="BZ33" s="30"/>
+      <c r="CA33" s="30"/>
+      <c r="CB33" s="30"/>
+      <c r="CC33" s="30"/>
       <c r="CD33" s="30"/>
       <c r="CE33" s="30"/>
       <c r="CF33" s="30"/>
@@ -27340,7 +27456,7 @@
       <c r="CI33" s="30"/>
       <c r="CJ33" s="30"/>
       <c r="CK33" s="30"/>
-      <c r="CL33" s="10"/>
+      <c r="CL33" s="30"/>
       <c r="CM33" s="10"/>
       <c r="CN33" s="10"/>
       <c r="CO33" s="10"/>
@@ -27407,7 +27523,7 @@
       <c r="EX33" s="10"/>
       <c r="EY33" s="10"/>
     </row>
-    <row r="34" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>11</v>
       </c>
@@ -27639,16 +27755,16 @@
       <c r="BY34" s="15">
         <v>148531.95139604752</v>
       </c>
-      <c r="BZ34" s="15">
+      <c r="BZ34" s="28">
         <v>131511.31327872016</v>
       </c>
-      <c r="CA34" s="15">
+      <c r="CA34" s="28">
         <v>140646.34368351335</v>
       </c>
-      <c r="CB34" s="15">
+      <c r="CB34" s="28">
         <v>120808.94226206097</v>
       </c>
-      <c r="CC34" s="15">
+      <c r="CC34" s="28">
         <v>164040.54303892277</v>
       </c>
       <c r="CD34" s="28">
@@ -27661,21 +27777,23 @@
         <v>124438.53105518648</v>
       </c>
       <c r="CG34" s="28">
-        <v>167133.47769380204</v>
+        <v>167337.99754752615</v>
       </c>
       <c r="CH34" s="28">
-        <v>146697.8217062621</v>
+        <v>146848.41809416367</v>
       </c>
       <c r="CI34" s="28">
-        <v>174791.22187607188</v>
+        <v>175324.03531860618</v>
       </c>
       <c r="CJ34" s="28">
-        <v>135099.9711220485</v>
+        <v>135115.38581727969</v>
       </c>
       <c r="CK34" s="28">
-        <v>181352.42948042927</v>
-      </c>
-      <c r="CL34" s="10"/>
+        <v>181835.29069484503</v>
+      </c>
+      <c r="CL34" s="28">
+        <v>158134.95219697288</v>
+      </c>
       <c r="CM34" s="10"/>
       <c r="CN34" s="10"/>
       <c r="CO34" s="10"/>
@@ -27742,7 +27860,7 @@
       <c r="EX34" s="10"/>
       <c r="EY34" s="10"/>
     </row>
-    <row r="35" spans="1:155" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:155" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -27820,10 +27938,10 @@
       <c r="BW35" s="16"/>
       <c r="BX35" s="16"/>
       <c r="BY35" s="16"/>
-      <c r="BZ35" s="16"/>
-      <c r="CA35" s="16"/>
-      <c r="CB35" s="16"/>
-      <c r="CC35" s="16"/>
+      <c r="BZ35" s="29"/>
+      <c r="CA35" s="29"/>
+      <c r="CB35" s="29"/>
+      <c r="CC35" s="29"/>
       <c r="CD35" s="29"/>
       <c r="CE35" s="29"/>
       <c r="CF35" s="29"/>
@@ -27832,11 +27950,16 @@
       <c r="CI35" s="29"/>
       <c r="CJ35" s="29"/>
       <c r="CK35" s="29"/>
+      <c r="CL35" s="29"/>
     </row>
-    <row r="36" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="BZ36" s="22"/>
+      <c r="CA36" s="22"/>
+      <c r="CB36" s="22"/>
+      <c r="CC36" s="22"/>
       <c r="CD36" s="22"/>
       <c r="CE36" s="22"/>
       <c r="CF36" s="22"/>
@@ -27845,8 +27968,9 @@
       <c r="CI36" s="22"/>
       <c r="CJ36" s="22"/>
       <c r="CK36" s="22"/>
+      <c r="CL36" s="22"/>
     </row>
-    <row r="37" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -27923,10 +28047,10 @@
       <c r="BW37" s="10"/>
       <c r="BX37" s="10"/>
       <c r="BY37" s="10"/>
-      <c r="BZ37" s="10"/>
-      <c r="CA37" s="10"/>
-      <c r="CB37" s="10"/>
-      <c r="CC37" s="10"/>
+      <c r="BZ37" s="30"/>
+      <c r="CA37" s="30"/>
+      <c r="CB37" s="30"/>
+      <c r="CC37" s="30"/>
       <c r="CD37" s="30"/>
       <c r="CE37" s="30"/>
       <c r="CF37" s="30"/>
@@ -27935,7 +28059,7 @@
       <c r="CI37" s="30"/>
       <c r="CJ37" s="30"/>
       <c r="CK37" s="30"/>
-      <c r="CL37" s="10"/>
+      <c r="CL37" s="30"/>
       <c r="CM37" s="10"/>
       <c r="CN37" s="10"/>
       <c r="CO37" s="10"/>
@@ -28002,7 +28126,7 @@
       <c r="EX37" s="10"/>
       <c r="EY37" s="10"/>
     </row>
-    <row r="38" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -28079,10 +28203,10 @@
       <c r="BW38" s="10"/>
       <c r="BX38" s="10"/>
       <c r="BY38" s="10"/>
-      <c r="BZ38" s="10"/>
-      <c r="CA38" s="10"/>
-      <c r="CB38" s="10"/>
-      <c r="CC38" s="10"/>
+      <c r="BZ38" s="30"/>
+      <c r="CA38" s="30"/>
+      <c r="CB38" s="30"/>
+      <c r="CC38" s="30"/>
       <c r="CD38" s="30"/>
       <c r="CE38" s="30"/>
       <c r="CF38" s="30"/>
@@ -28091,7 +28215,7 @@
       <c r="CI38" s="30"/>
       <c r="CJ38" s="30"/>
       <c r="CK38" s="30"/>
-      <c r="CL38" s="10"/>
+      <c r="CL38" s="30"/>
       <c r="CM38" s="10"/>
       <c r="CN38" s="10"/>
       <c r="CO38" s="10"/>
@@ -28158,10 +28282,14 @@
       <c r="EX38" s="10"/>
       <c r="EY38" s="10"/>
     </row>
-    <row r="39" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="BZ39" s="22"/>
+      <c r="CA39" s="22"/>
+      <c r="CB39" s="22"/>
+      <c r="CC39" s="22"/>
       <c r="CD39" s="22"/>
       <c r="CE39" s="22"/>
       <c r="CF39" s="22"/>
@@ -28170,11 +28298,16 @@
       <c r="CI39" s="22"/>
       <c r="CJ39" s="22"/>
       <c r="CK39" s="22"/>
+      <c r="CL39" s="22"/>
     </row>
-    <row r="40" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="BZ40" s="22"/>
+      <c r="CA40" s="22"/>
+      <c r="CB40" s="22"/>
+      <c r="CC40" s="22"/>
       <c r="CD40" s="22"/>
       <c r="CE40" s="22"/>
       <c r="CF40" s="22"/>
@@ -28183,11 +28316,16 @@
       <c r="CI40" s="22"/>
       <c r="CJ40" s="22"/>
       <c r="CK40" s="22"/>
+      <c r="CL40" s="22"/>
     </row>
-    <row r="41" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="BZ41" s="22"/>
+      <c r="CA41" s="22"/>
+      <c r="CB41" s="22"/>
+      <c r="CC41" s="22"/>
       <c r="CD41" s="22"/>
       <c r="CE41" s="22"/>
       <c r="CF41" s="22"/>
@@ -28196,8 +28334,13 @@
       <c r="CI41" s="22"/>
       <c r="CJ41" s="22"/>
       <c r="CK41" s="22"/>
+      <c r="CL41" s="22"/>
     </row>
-    <row r="42" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ42" s="22"/>
+      <c r="CA42" s="22"/>
+      <c r="CB42" s="22"/>
+      <c r="CC42" s="22"/>
       <c r="CD42" s="22"/>
       <c r="CE42" s="22"/>
       <c r="CF42" s="22"/>
@@ -28206,11 +28349,16 @@
       <c r="CI42" s="22"/>
       <c r="CJ42" s="22"/>
       <c r="CK42" s="22"/>
+      <c r="CL42" s="22"/>
     </row>
-    <row r="43" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="BZ43" s="22"/>
+      <c r="CA43" s="22"/>
+      <c r="CB43" s="22"/>
+      <c r="CC43" s="22"/>
       <c r="CD43" s="22"/>
       <c r="CE43" s="22"/>
       <c r="CF43" s="22"/>
@@ -28219,44 +28367,60 @@
       <c r="CI43" s="22"/>
       <c r="CJ43" s="22"/>
       <c r="CK43" s="22"/>
+      <c r="CL43" s="22"/>
     </row>
-    <row r="44" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="BZ44" s="22"/>
+      <c r="CA44" s="22"/>
+      <c r="CB44" s="22"/>
+      <c r="CC44" s="22"/>
       <c r="CD44" s="22"/>
       <c r="CE44" s="22"/>
       <c r="CF44" s="22"/>
       <c r="CG44" s="22"/>
       <c r="CH44" s="22"/>
-      <c r="CI44" s="22"/>
-      <c r="CJ44" s="22"/>
-      <c r="CK44" s="22"/>
+      <c r="CI44" s="42"/>
+      <c r="CJ44" s="42"/>
+      <c r="CK44" s="42"/>
+      <c r="CL44" s="42"/>
     </row>
-    <row r="45" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="BZ45" s="22"/>
+      <c r="CA45" s="22"/>
+      <c r="CB45" s="22"/>
+      <c r="CC45" s="22"/>
       <c r="CD45" s="22"/>
       <c r="CE45" s="22"/>
       <c r="CF45" s="22"/>
       <c r="CG45" s="22"/>
       <c r="CH45" s="22"/>
-      <c r="CI45" s="22"/>
-      <c r="CJ45" s="22"/>
-      <c r="CK45" s="22"/>
+      <c r="CI45" s="42"/>
+      <c r="CJ45" s="42"/>
+      <c r="CK45" s="42"/>
+      <c r="CL45" s="42"/>
     </row>
-    <row r="46" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ46" s="22"/>
+      <c r="CA46" s="22"/>
+      <c r="CB46" s="22"/>
+      <c r="CC46" s="22"/>
       <c r="CD46" s="22"/>
       <c r="CE46" s="22"/>
       <c r="CF46" s="22"/>
       <c r="CG46" s="22"/>
       <c r="CH46" s="22"/>
-      <c r="CI46" s="22"/>
-      <c r="CJ46" s="22"/>
-      <c r="CK46" s="22"/>
+      <c r="CI46" s="42"/>
+      <c r="CJ46" s="42"/>
+      <c r="CK46" s="42"/>
+      <c r="CL46" s="42"/>
     </row>
-    <row r="47" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="38" t="s">
         <v>29</v>
@@ -28372,24 +28536,27 @@
       <c r="BW47" s="38"/>
       <c r="BX47" s="38"/>
       <c r="BY47" s="38"/>
-      <c r="BZ47" s="38" t="s">
+      <c r="BZ47" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="CA47" s="38"/>
-      <c r="CB47" s="38"/>
-      <c r="CC47" s="38"/>
+      <c r="CA47" s="37"/>
+      <c r="CB47" s="37"/>
+      <c r="CC47" s="37"/>
       <c r="CD47" s="37" t="s">
         <v>46</v>
       </c>
       <c r="CE47" s="37"/>
       <c r="CF47" s="37"/>
       <c r="CG47" s="37"/>
-      <c r="CH47" s="31"/>
-      <c r="CI47" s="31"/>
-      <c r="CJ47" s="31"/>
-      <c r="CK47" s="31"/>
+      <c r="CH47" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="CI47" s="43"/>
+      <c r="CJ47" s="43"/>
+      <c r="CK47" s="43"/>
+      <c r="CL47" s="44"/>
     </row>
-    <row r="48" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>4</v>
       </c>
@@ -28621,47 +28788,55 @@
       <c r="BY48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ48" s="6" t="s">
+      <c r="BZ48" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="CA48" s="6" t="s">
+      <c r="CA48" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="CB48" s="6" t="s">
+      <c r="CB48" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="CC48" s="6" t="s">
+      <c r="CC48" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="CD48" s="36" t="s">
+      <c r="CD48" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="CE48" s="36" t="s">
+      <c r="CE48" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="CF48" s="36" t="s">
+      <c r="CF48" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="CG48" s="36" t="s">
+      <c r="CG48" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="CH48" s="32"/>
-      <c r="CI48" s="32"/>
-      <c r="CJ48" s="32"/>
-      <c r="CK48" s="32"/>
+      <c r="CH48" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI48" s="43"/>
+      <c r="CJ48" s="43"/>
+      <c r="CK48" s="43"/>
+      <c r="CL48" s="43"/>
     </row>
-    <row r="49" spans="1:151" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:151" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
+      <c r="BZ49" s="22"/>
+      <c r="CA49" s="22"/>
+      <c r="CB49" s="22"/>
+      <c r="CC49" s="22"/>
       <c r="CD49" s="22"/>
       <c r="CE49" s="22"/>
       <c r="CF49" s="22"/>
       <c r="CG49" s="22"/>
       <c r="CH49" s="22"/>
-      <c r="CI49" s="22"/>
-      <c r="CJ49" s="22"/>
-      <c r="CK49" s="22"/>
+      <c r="CI49" s="42"/>
+      <c r="CJ49" s="42"/>
+      <c r="CK49" s="42"/>
+      <c r="CL49" s="42"/>
     </row>
-    <row r="50" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>27</v>
       </c>
@@ -28893,35 +29068,37 @@
       <c r="BY50" s="18">
         <v>3.8808022472434942</v>
       </c>
-      <c r="BZ50" s="18">
+      <c r="BZ50" s="32">
         <v>-6.2163776770954655</v>
       </c>
-      <c r="CA50" s="18">
+      <c r="CA50" s="32">
         <v>-9.5310726600998095</v>
       </c>
-      <c r="CB50" s="18">
+      <c r="CB50" s="32">
         <v>-15.328514001098483</v>
       </c>
-      <c r="CC50" s="18">
-        <v>-14.898712055080466</v>
-      </c>
-      <c r="CD50" s="34">
-        <v>6.29310368268861</v>
-      </c>
-      <c r="CE50" s="34">
-        <v>20.594827146149669</v>
-      </c>
-      <c r="CF50" s="34">
-        <v>8.7988182285746461</v>
-      </c>
-      <c r="CG50" s="34">
-        <v>7.1191807480788611</v>
-      </c>
-      <c r="CH50" s="33"/>
-      <c r="CI50" s="33"/>
-      <c r="CJ50" s="33"/>
-      <c r="CK50" s="33"/>
-      <c r="CL50" s="10"/>
+      <c r="CC50" s="32">
+        <v>-12.07423647788103</v>
+      </c>
+      <c r="CD50" s="32">
+        <v>6.3153046644777788</v>
+      </c>
+      <c r="CE50" s="32">
+        <v>20.619125800847414</v>
+      </c>
+      <c r="CF50" s="32">
+        <v>8.9844301573724863</v>
+      </c>
+      <c r="CG50" s="32">
+        <v>5.263249514912772</v>
+      </c>
+      <c r="CH50" s="32">
+        <v>10.932368258317254</v>
+      </c>
+      <c r="CI50" s="45"/>
+      <c r="CJ50" s="45"/>
+      <c r="CK50" s="45"/>
+      <c r="CL50" s="45"/>
       <c r="CM50" s="10"/>
       <c r="CN50" s="10"/>
       <c r="CO50" s="10"/>
@@ -28984,7 +29161,7 @@
       <c r="ET50" s="10"/>
       <c r="EU50" s="10"/>
     </row>
-    <row r="51" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>12</v>
       </c>
@@ -29216,35 +29393,37 @@
       <c r="BY51" s="18">
         <v>12.838762001033473</v>
       </c>
-      <c r="BZ51" s="18">
+      <c r="BZ51" s="32">
         <v>5.8992893969007127</v>
       </c>
-      <c r="CA51" s="18">
+      <c r="CA51" s="32">
         <v>13.804910585115266</v>
       </c>
-      <c r="CB51" s="18">
+      <c r="CB51" s="32">
         <v>5.6236438752462732</v>
       </c>
-      <c r="CC51" s="18">
-        <v>3.3940167942800485</v>
-      </c>
-      <c r="CD51" s="34">
-        <v>6.3264270329272563</v>
-      </c>
-      <c r="CE51" s="34">
-        <v>7.9899859432318863</v>
-      </c>
-      <c r="CF51" s="34">
-        <v>7.0791468187514397</v>
-      </c>
-      <c r="CG51" s="34">
-        <v>8.2711395553647833</v>
-      </c>
-      <c r="CH51" s="33"/>
-      <c r="CI51" s="33"/>
-      <c r="CJ51" s="33"/>
-      <c r="CK51" s="33"/>
-      <c r="CL51" s="10"/>
+      <c r="CC51" s="32">
+        <v>3.2657358644490699</v>
+      </c>
+      <c r="CD51" s="32">
+        <v>6.4431682665060634</v>
+      </c>
+      <c r="CE51" s="32">
+        <v>8.3483636239978409</v>
+      </c>
+      <c r="CF51" s="32">
+        <v>7.2407151196391482</v>
+      </c>
+      <c r="CG51" s="32">
+        <v>8.6306052646107929</v>
+      </c>
+      <c r="CH51" s="32">
+        <v>8.3074582609450971</v>
+      </c>
+      <c r="CI51" s="45"/>
+      <c r="CJ51" s="45"/>
+      <c r="CK51" s="45"/>
+      <c r="CL51" s="45"/>
       <c r="CM51" s="10"/>
       <c r="CN51" s="10"/>
       <c r="CO51" s="10"/>
@@ -29307,7 +29486,7 @@
       <c r="ET51" s="10"/>
       <c r="EU51" s="10"/>
     </row>
-    <row r="52" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
@@ -29385,19 +29564,19 @@
       <c r="BW52" s="19"/>
       <c r="BX52" s="19"/>
       <c r="BY52" s="19"/>
-      <c r="BZ52" s="19"/>
-      <c r="CA52" s="19"/>
-      <c r="CB52" s="19"/>
-      <c r="CC52" s="19"/>
-      <c r="CD52" s="33"/>
-      <c r="CE52" s="33"/>
-      <c r="CF52" s="33"/>
-      <c r="CG52" s="33"/>
-      <c r="CH52" s="33"/>
-      <c r="CI52" s="33"/>
-      <c r="CJ52" s="33"/>
-      <c r="CK52" s="33"/>
-      <c r="CL52" s="10"/>
+      <c r="BZ52" s="31"/>
+      <c r="CA52" s="31"/>
+      <c r="CB52" s="31"/>
+      <c r="CC52" s="31"/>
+      <c r="CD52" s="31"/>
+      <c r="CE52" s="31"/>
+      <c r="CF52" s="31"/>
+      <c r="CG52" s="31"/>
+      <c r="CH52" s="31"/>
+      <c r="CI52" s="45"/>
+      <c r="CJ52" s="45"/>
+      <c r="CK52" s="45"/>
+      <c r="CL52" s="45"/>
       <c r="CM52" s="10"/>
       <c r="CN52" s="10"/>
       <c r="CO52" s="10"/>
@@ -29460,7 +29639,7 @@
       <c r="ET52" s="10"/>
       <c r="EU52" s="10"/>
     </row>
-    <row r="53" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
         <v>11</v>
       </c>
@@ -29692,35 +29871,37 @@
       <c r="BY53" s="18">
         <v>11.983408457538928</v>
       </c>
-      <c r="BZ53" s="18">
+      <c r="BZ53" s="32">
         <v>4.7663993697823628</v>
       </c>
-      <c r="CA53" s="18">
+      <c r="CA53" s="32">
         <v>11.580351762740946</v>
       </c>
-      <c r="CB53" s="18">
+      <c r="CB53" s="32">
         <v>3.623519011787721</v>
       </c>
-      <c r="CC53" s="18">
-        <v>1.7737122061447224</v>
-      </c>
-      <c r="CD53" s="34">
-        <v>6.3236377403871558</v>
-      </c>
-      <c r="CE53" s="34">
-        <v>8.9642280217734367</v>
-      </c>
-      <c r="CF53" s="34">
-        <v>7.2132850782334685</v>
-      </c>
-      <c r="CG53" s="34">
-        <v>8.1858186153790342</v>
-      </c>
-      <c r="CH53" s="33"/>
-      <c r="CI53" s="33"/>
-      <c r="CJ53" s="33"/>
-      <c r="CK53" s="33"/>
-      <c r="CL53" s="10"/>
+      <c r="CC53" s="32">
+        <v>1.9069759017978498</v>
+      </c>
+      <c r="CD53" s="32">
+        <v>6.4324655913928268</v>
+      </c>
+      <c r="CE53" s="32">
+        <v>9.2967843661564871</v>
+      </c>
+      <c r="CF53" s="32">
+        <v>7.3767288364795291</v>
+      </c>
+      <c r="CG53" s="32">
+        <v>8.3732580929112572</v>
+      </c>
+      <c r="CH53" s="32">
+        <v>8.526931457776854</v>
+      </c>
+      <c r="CI53" s="45"/>
+      <c r="CJ53" s="45"/>
+      <c r="CK53" s="45"/>
+      <c r="CL53" s="45"/>
       <c r="CM53" s="10"/>
       <c r="CN53" s="10"/>
       <c r="CO53" s="10"/>
@@ -29783,7 +29964,7 @@
       <c r="ET53" s="10"/>
       <c r="EU53" s="10"/>
     </row>
-    <row r="54" spans="1:151" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:151" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
@@ -29861,33 +30042,39 @@
       <c r="BW54" s="16"/>
       <c r="BX54" s="16"/>
       <c r="BY54" s="16"/>
-      <c r="BZ54" s="16"/>
-      <c r="CA54" s="16"/>
-      <c r="CB54" s="16"/>
-      <c r="CC54" s="16"/>
+      <c r="BZ54" s="29"/>
+      <c r="CA54" s="29"/>
+      <c r="CB54" s="29"/>
+      <c r="CC54" s="29"/>
       <c r="CD54" s="29"/>
       <c r="CE54" s="29"/>
       <c r="CF54" s="29"/>
       <c r="CG54" s="29"/>
       <c r="CH54" s="29"/>
-      <c r="CI54" s="29"/>
-      <c r="CJ54" s="29"/>
-      <c r="CK54" s="29"/>
+      <c r="CI54" s="46"/>
+      <c r="CJ54" s="46"/>
+      <c r="CK54" s="46"/>
+      <c r="CL54" s="46"/>
     </row>
-    <row r="55" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="BZ55" s="22"/>
+      <c r="CA55" s="22"/>
+      <c r="CB55" s="22"/>
+      <c r="CC55" s="22"/>
       <c r="CD55" s="22"/>
       <c r="CE55" s="22"/>
       <c r="CF55" s="22"/>
       <c r="CG55" s="22"/>
       <c r="CH55" s="22"/>
-      <c r="CI55" s="22"/>
-      <c r="CJ55" s="22"/>
-      <c r="CK55" s="22"/>
+      <c r="CI55" s="42"/>
+      <c r="CJ55" s="42"/>
+      <c r="CK55" s="42"/>
+      <c r="CL55" s="42"/>
     </row>
-    <row r="56" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -29964,19 +30151,19 @@
       <c r="BW56" s="10"/>
       <c r="BX56" s="10"/>
       <c r="BY56" s="10"/>
-      <c r="BZ56" s="10"/>
-      <c r="CA56" s="10"/>
-      <c r="CB56" s="10"/>
-      <c r="CC56" s="10"/>
+      <c r="BZ56" s="30"/>
+      <c r="CA56" s="30"/>
+      <c r="CB56" s="30"/>
+      <c r="CC56" s="30"/>
       <c r="CD56" s="30"/>
       <c r="CE56" s="30"/>
       <c r="CF56" s="30"/>
       <c r="CG56" s="30"/>
-      <c r="CH56" s="33"/>
-      <c r="CI56" s="33"/>
-      <c r="CJ56" s="33"/>
-      <c r="CK56" s="33"/>
-      <c r="CL56" s="10"/>
+      <c r="CH56" s="30"/>
+      <c r="CI56" s="45"/>
+      <c r="CJ56" s="45"/>
+      <c r="CK56" s="45"/>
+      <c r="CL56" s="45"/>
       <c r="CM56" s="10"/>
       <c r="CN56" s="10"/>
       <c r="CO56" s="10"/>
@@ -30039,7 +30226,7 @@
       <c r="ET56" s="10"/>
       <c r="EU56" s="10"/>
     </row>
-    <row r="57" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -30116,19 +30303,19 @@
       <c r="BW57" s="10"/>
       <c r="BX57" s="10"/>
       <c r="BY57" s="10"/>
-      <c r="BZ57" s="10"/>
-      <c r="CA57" s="10"/>
-      <c r="CB57" s="10"/>
-      <c r="CC57" s="10"/>
+      <c r="BZ57" s="30"/>
+      <c r="CA57" s="30"/>
+      <c r="CB57" s="30"/>
+      <c r="CC57" s="30"/>
       <c r="CD57" s="30"/>
       <c r="CE57" s="30"/>
       <c r="CF57" s="30"/>
       <c r="CG57" s="30"/>
-      <c r="CH57" s="33"/>
-      <c r="CI57" s="33"/>
-      <c r="CJ57" s="33"/>
-      <c r="CK57" s="33"/>
-      <c r="CL57" s="10"/>
+      <c r="CH57" s="30"/>
+      <c r="CI57" s="45"/>
+      <c r="CJ57" s="45"/>
+      <c r="CK57" s="45"/>
+      <c r="CL57" s="45"/>
       <c r="CM57" s="10"/>
       <c r="CN57" s="10"/>
       <c r="CO57" s="10"/>
@@ -30191,23 +30378,32 @@
       <c r="ET57" s="10"/>
       <c r="EU57" s="10"/>
     </row>
-    <row r="58" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="BZ58" s="22"/>
+      <c r="CA58" s="22"/>
+      <c r="CB58" s="22"/>
+      <c r="CC58" s="22"/>
       <c r="CD58" s="22"/>
       <c r="CE58" s="22"/>
       <c r="CF58" s="22"/>
       <c r="CG58" s="22"/>
       <c r="CH58" s="22"/>
-      <c r="CI58" s="22"/>
-      <c r="CJ58" s="22"/>
-      <c r="CK58" s="22"/>
+      <c r="CI58" s="42"/>
+      <c r="CJ58" s="42"/>
+      <c r="CK58" s="42"/>
+      <c r="CL58" s="42"/>
     </row>
-    <row r="59" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="BZ59" s="22"/>
+      <c r="CA59" s="22"/>
+      <c r="CB59" s="22"/>
+      <c r="CC59" s="22"/>
       <c r="CD59" s="22"/>
       <c r="CE59" s="22"/>
       <c r="CF59" s="22"/>
@@ -30216,11 +30412,16 @@
       <c r="CI59" s="22"/>
       <c r="CJ59" s="22"/>
       <c r="CK59" s="22"/>
+      <c r="CL59" s="22"/>
     </row>
-    <row r="60" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="BZ60" s="22"/>
+      <c r="CA60" s="22"/>
+      <c r="CB60" s="22"/>
+      <c r="CC60" s="22"/>
       <c r="CD60" s="22"/>
       <c r="CE60" s="22"/>
       <c r="CF60" s="22"/>
@@ -30229,8 +30430,13 @@
       <c r="CI60" s="22"/>
       <c r="CJ60" s="22"/>
       <c r="CK60" s="22"/>
+      <c r="CL60" s="22"/>
     </row>
-    <row r="61" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ61" s="22"/>
+      <c r="CA61" s="22"/>
+      <c r="CB61" s="22"/>
+      <c r="CC61" s="22"/>
       <c r="CD61" s="22"/>
       <c r="CE61" s="22"/>
       <c r="CF61" s="22"/>
@@ -30239,11 +30445,16 @@
       <c r="CI61" s="22"/>
       <c r="CJ61" s="22"/>
       <c r="CK61" s="22"/>
+      <c r="CL61" s="22"/>
     </row>
-    <row r="62" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="BZ62" s="22"/>
+      <c r="CA62" s="22"/>
+      <c r="CB62" s="22"/>
+      <c r="CC62" s="22"/>
       <c r="CD62" s="22"/>
       <c r="CE62" s="22"/>
       <c r="CF62" s="22"/>
@@ -30252,177 +30463,196 @@
       <c r="CI62" s="22"/>
       <c r="CJ62" s="22"/>
       <c r="CK62" s="22"/>
+      <c r="CL62" s="22"/>
     </row>
-    <row r="63" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="BZ63" s="22"/>
+      <c r="CA63" s="22"/>
+      <c r="CB63" s="22"/>
+      <c r="CC63" s="22"/>
       <c r="CD63" s="22"/>
       <c r="CE63" s="22"/>
       <c r="CF63" s="22"/>
       <c r="CG63" s="22"/>
       <c r="CH63" s="22"/>
-      <c r="CI63" s="22"/>
-      <c r="CJ63" s="22"/>
-      <c r="CK63" s="22"/>
+      <c r="CI63" s="42"/>
+      <c r="CJ63" s="42"/>
+      <c r="CK63" s="42"/>
+      <c r="CL63" s="42"/>
     </row>
-    <row r="64" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="BZ64" s="22"/>
+      <c r="CA64" s="22"/>
+      <c r="CB64" s="22"/>
+      <c r="CC64" s="22"/>
       <c r="CD64" s="22"/>
       <c r="CE64" s="22"/>
       <c r="CF64" s="22"/>
       <c r="CG64" s="22"/>
       <c r="CH64" s="22"/>
-      <c r="CI64" s="22"/>
-      <c r="CJ64" s="22"/>
-      <c r="CK64" s="22"/>
+      <c r="CI64" s="42"/>
+      <c r="CJ64" s="42"/>
+      <c r="CK64" s="42"/>
+      <c r="CL64" s="42"/>
     </row>
-    <row r="65" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ65" s="22"/>
+      <c r="CA65" s="22"/>
+      <c r="CB65" s="22"/>
+      <c r="CC65" s="22"/>
       <c r="CD65" s="22"/>
       <c r="CE65" s="22"/>
       <c r="CF65" s="22"/>
       <c r="CG65" s="22"/>
       <c r="CH65" s="22"/>
-      <c r="CI65" s="22"/>
-      <c r="CJ65" s="22"/>
-      <c r="CK65" s="22"/>
+      <c r="CI65" s="42"/>
+      <c r="CJ65" s="42"/>
+      <c r="CK65" s="42"/>
+      <c r="CL65" s="42"/>
     </row>
-    <row r="66" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
       <c r="F66" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="40"/>
-      <c r="H66" s="40"/>
-      <c r="I66" s="40"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="41"/>
       <c r="J66" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="40"/>
-      <c r="L66" s="40"/>
-      <c r="M66" s="40"/>
+      <c r="K66" s="41"/>
+      <c r="L66" s="41"/>
+      <c r="M66" s="41"/>
       <c r="N66" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="40"/>
-      <c r="P66" s="40"/>
-      <c r="Q66" s="40"/>
+      <c r="O66" s="41"/>
+      <c r="P66" s="41"/>
+      <c r="Q66" s="41"/>
       <c r="R66" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="40"/>
-      <c r="T66" s="40"/>
-      <c r="U66" s="40"/>
+      <c r="S66" s="41"/>
+      <c r="T66" s="41"/>
+      <c r="U66" s="41"/>
       <c r="V66" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="40"/>
-      <c r="X66" s="40"/>
-      <c r="Y66" s="40"/>
+      <c r="W66" s="41"/>
+      <c r="X66" s="41"/>
+      <c r="Y66" s="41"/>
       <c r="Z66" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="40"/>
-      <c r="AB66" s="40"/>
-      <c r="AC66" s="40"/>
+      <c r="AA66" s="41"/>
+      <c r="AB66" s="41"/>
+      <c r="AC66" s="41"/>
       <c r="AD66" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="40"/>
-      <c r="AF66" s="40"/>
-      <c r="AG66" s="40"/>
+      <c r="AE66" s="41"/>
+      <c r="AF66" s="41"/>
+      <c r="AG66" s="41"/>
       <c r="AH66" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="40"/>
-      <c r="AJ66" s="40"/>
-      <c r="AK66" s="40"/>
+      <c r="AI66" s="41"/>
+      <c r="AJ66" s="41"/>
+      <c r="AK66" s="41"/>
       <c r="AL66" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="40"/>
-      <c r="AN66" s="40"/>
-      <c r="AO66" s="40"/>
+      <c r="AM66" s="41"/>
+      <c r="AN66" s="41"/>
+      <c r="AO66" s="41"/>
       <c r="AP66" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="40"/>
-      <c r="AR66" s="40"/>
-      <c r="AS66" s="40"/>
+      <c r="AQ66" s="41"/>
+      <c r="AR66" s="41"/>
+      <c r="AS66" s="41"/>
       <c r="AT66" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="40"/>
-      <c r="AV66" s="40"/>
-      <c r="AW66" s="40"/>
+      <c r="AU66" s="41"/>
+      <c r="AV66" s="41"/>
+      <c r="AW66" s="41"/>
       <c r="AX66" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="40"/>
-      <c r="AZ66" s="40"/>
-      <c r="BA66" s="40"/>
+      <c r="AY66" s="41"/>
+      <c r="AZ66" s="41"/>
+      <c r="BA66" s="41"/>
       <c r="BB66" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="40"/>
-      <c r="BD66" s="40"/>
-      <c r="BE66" s="40"/>
+      <c r="BC66" s="41"/>
+      <c r="BD66" s="41"/>
+      <c r="BE66" s="41"/>
       <c r="BF66" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="40"/>
-      <c r="BH66" s="40"/>
-      <c r="BI66" s="40"/>
+      <c r="BG66" s="41"/>
+      <c r="BH66" s="41"/>
+      <c r="BI66" s="41"/>
       <c r="BJ66" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="40"/>
-      <c r="BL66" s="40"/>
-      <c r="BM66" s="40"/>
+      <c r="BK66" s="41"/>
+      <c r="BL66" s="41"/>
+      <c r="BM66" s="41"/>
       <c r="BN66" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="40"/>
-      <c r="BP66" s="40"/>
-      <c r="BQ66" s="40"/>
+      <c r="BO66" s="41"/>
+      <c r="BP66" s="41"/>
+      <c r="BQ66" s="41"/>
       <c r="BR66" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="BS66" s="40"/>
-      <c r="BT66" s="40"/>
-      <c r="BU66" s="40"/>
+      <c r="BS66" s="41"/>
+      <c r="BT66" s="41"/>
+      <c r="BU66" s="41"/>
       <c r="BV66" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="BW66" s="40"/>
-      <c r="BX66" s="40"/>
-      <c r="BY66" s="40"/>
-      <c r="BZ66" s="38" t="s">
+      <c r="BW66" s="41"/>
+      <c r="BX66" s="41"/>
+      <c r="BY66" s="41"/>
+      <c r="BZ66" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="CA66" s="38"/>
-      <c r="CB66" s="38"/>
-      <c r="CC66" s="38"/>
+      <c r="CA66" s="37"/>
+      <c r="CB66" s="37"/>
+      <c r="CC66" s="37"/>
       <c r="CD66" s="37" t="s">
         <v>46</v>
       </c>
       <c r="CE66" s="37"/>
       <c r="CF66" s="37"/>
       <c r="CG66" s="37"/>
-      <c r="CH66" s="31"/>
-      <c r="CI66" s="31"/>
-      <c r="CJ66" s="31"/>
-      <c r="CK66" s="31"/>
+      <c r="CH66" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="CI66" s="43"/>
+      <c r="CJ66" s="43"/>
+      <c r="CK66" s="43"/>
+      <c r="CL66" s="44"/>
     </row>
-    <row r="67" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>4</v>
       </c>
@@ -30654,47 +30884,55 @@
       <c r="BY67" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ67" s="6" t="s">
+      <c r="BZ67" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="CA67" s="6" t="s">
+      <c r="CA67" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="CB67" s="6" t="s">
+      <c r="CB67" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="CC67" s="6" t="s">
+      <c r="CC67" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="CD67" s="36" t="s">
+      <c r="CD67" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="CE67" s="36" t="s">
+      <c r="CE67" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="CF67" s="36" t="s">
+      <c r="CF67" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="CG67" s="36" t="s">
+      <c r="CG67" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="CH67" s="32"/>
-      <c r="CI67" s="32"/>
-      <c r="CJ67" s="32"/>
-      <c r="CK67" s="32"/>
+      <c r="CH67" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI67" s="43"/>
+      <c r="CJ67" s="43"/>
+      <c r="CK67" s="43"/>
+      <c r="CL67" s="43"/>
     </row>
-    <row r="68" spans="1:151" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:151" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
+      <c r="BZ68" s="22"/>
+      <c r="CA68" s="22"/>
+      <c r="CB68" s="22"/>
+      <c r="CC68" s="22"/>
       <c r="CD68" s="22"/>
       <c r="CE68" s="22"/>
       <c r="CF68" s="22"/>
       <c r="CG68" s="22"/>
       <c r="CH68" s="22"/>
-      <c r="CI68" s="22"/>
-      <c r="CJ68" s="22"/>
-      <c r="CK68" s="22"/>
+      <c r="CI68" s="42"/>
+      <c r="CJ68" s="42"/>
+      <c r="CK68" s="42"/>
+      <c r="CL68" s="42"/>
     </row>
-    <row r="69" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>27</v>
       </c>
@@ -30926,35 +31164,37 @@
       <c r="BY69" s="18">
         <v>5.5754225261849939</v>
       </c>
-      <c r="BZ69" s="18">
+      <c r="BZ69" s="32">
         <v>-8.3448826064213222</v>
       </c>
-      <c r="CA69" s="18">
+      <c r="CA69" s="32">
         <v>-12.442600320934602</v>
       </c>
-      <c r="CB69" s="18">
+      <c r="CB69" s="32">
         <v>-17.243896562494712</v>
       </c>
-      <c r="CC69" s="18">
-        <v>-15.932740682630993</v>
-      </c>
-      <c r="CD69" s="34">
-        <v>5.6548144020245132</v>
-      </c>
-      <c r="CE69" s="34">
-        <v>19.44677270034849</v>
-      </c>
-      <c r="CF69" s="34">
-        <v>6.5664729933641439</v>
-      </c>
-      <c r="CG69" s="34">
-        <v>4.8928066446055567</v>
-      </c>
-      <c r="CH69" s="33"/>
-      <c r="CI69" s="33"/>
-      <c r="CJ69" s="33"/>
-      <c r="CK69" s="33"/>
-      <c r="CL69" s="10"/>
+      <c r="CC69" s="32">
+        <v>-13.142584076097776</v>
+      </c>
+      <c r="CD69" s="32">
+        <v>5.6768820670865807</v>
+      </c>
+      <c r="CE69" s="32">
+        <v>19.470840025718644</v>
+      </c>
+      <c r="CF69" s="32">
+        <v>6.7231825273737371</v>
+      </c>
+      <c r="CG69" s="32">
+        <v>3.0042723645009204</v>
+      </c>
+      <c r="CH69" s="32">
+        <v>8.6829145181286549</v>
+      </c>
+      <c r="CI69" s="45"/>
+      <c r="CJ69" s="45"/>
+      <c r="CK69" s="45"/>
+      <c r="CL69" s="45"/>
       <c r="CM69" s="10"/>
       <c r="CN69" s="10"/>
       <c r="CO69" s="10"/>
@@ -31017,7 +31257,7 @@
       <c r="ET69" s="10"/>
       <c r="EU69" s="10"/>
     </row>
-    <row r="70" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>12</v>
       </c>
@@ -31249,35 +31489,37 @@
       <c r="BY70" s="18">
         <v>10.926866698834445</v>
       </c>
-      <c r="BZ70" s="18">
+      <c r="BZ70" s="32">
         <v>6.0703507584485976</v>
       </c>
-      <c r="CA70" s="18">
+      <c r="CA70" s="32">
         <v>13.333333333333357</v>
       </c>
-      <c r="CB70" s="18">
+      <c r="CB70" s="32">
         <v>5.2139809610329877</v>
       </c>
-      <c r="CC70" s="18">
-        <v>3.5779652759001266</v>
-      </c>
-      <c r="CD70" s="34">
-        <v>6.5733627413461022</v>
-      </c>
-      <c r="CE70" s="34">
-        <v>11.652700423739077</v>
-      </c>
-      <c r="CF70" s="34">
+      <c r="CC70" s="32">
+        <v>3.4494561212356842</v>
+      </c>
+      <c r="CD70" s="32">
+        <v>6.6903559904736909</v>
+      </c>
+      <c r="CE70" s="32">
+        <v>12.023233311775527</v>
+      </c>
+      <c r="CF70" s="32">
         <v>8.7393987092676468</v>
       </c>
-      <c r="CG70" s="34">
-        <v>8.7862185813122551</v>
-      </c>
-      <c r="CH70" s="33"/>
-      <c r="CI70" s="33"/>
-      <c r="CJ70" s="33"/>
-      <c r="CK70" s="33"/>
-      <c r="CL70" s="10"/>
+      <c r="CG70" s="32">
+        <v>9.1148132156289705</v>
+      </c>
+      <c r="CH70" s="32">
+        <v>7.5991033998533055</v>
+      </c>
+      <c r="CI70" s="45"/>
+      <c r="CJ70" s="45"/>
+      <c r="CK70" s="45"/>
+      <c r="CL70" s="45"/>
       <c r="CM70" s="10"/>
       <c r="CN70" s="10"/>
       <c r="CO70" s="10"/>
@@ -31340,7 +31582,7 @@
       <c r="ET70" s="10"/>
       <c r="EU70" s="10"/>
     </row>
-    <row r="71" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
@@ -31417,19 +31659,19 @@
       <c r="BW71" s="19"/>
       <c r="BX71" s="19"/>
       <c r="BY71" s="19"/>
-      <c r="BZ71" s="19"/>
-      <c r="CA71" s="19"/>
-      <c r="CB71" s="19"/>
-      <c r="CC71" s="19"/>
-      <c r="CD71" s="33"/>
-      <c r="CE71" s="33"/>
-      <c r="CF71" s="33"/>
-      <c r="CG71" s="33"/>
-      <c r="CH71" s="33"/>
-      <c r="CI71" s="33"/>
-      <c r="CJ71" s="33"/>
-      <c r="CK71" s="33"/>
-      <c r="CL71" s="10"/>
+      <c r="BZ71" s="31"/>
+      <c r="CA71" s="31"/>
+      <c r="CB71" s="31"/>
+      <c r="CC71" s="31"/>
+      <c r="CD71" s="31"/>
+      <c r="CE71" s="31"/>
+      <c r="CF71" s="31"/>
+      <c r="CG71" s="31"/>
+      <c r="CH71" s="31"/>
+      <c r="CI71" s="45"/>
+      <c r="CJ71" s="45"/>
+      <c r="CK71" s="45"/>
+      <c r="CL71" s="45"/>
       <c r="CM71" s="10"/>
       <c r="CN71" s="10"/>
       <c r="CO71" s="10"/>
@@ -31492,7 +31734,7 @@
       <c r="ET71" s="10"/>
       <c r="EU71" s="10"/>
     </row>
-    <row r="72" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
         <v>11</v>
       </c>
@@ -31724,35 +31966,37 @@
       <c r="BY72" s="18">
         <v>10.441249506998631</v>
       </c>
-      <c r="BZ72" s="18">
+      <c r="BZ72" s="32">
         <v>4.7403903563708383</v>
       </c>
-      <c r="CA72" s="18">
+      <c r="CA72" s="32">
         <v>10.676979885675593</v>
       </c>
-      <c r="CB72" s="18">
+      <c r="CB72" s="32">
         <v>3.0044040823171514</v>
       </c>
-      <c r="CC72" s="18">
-        <v>1.8854696513321016</v>
-      </c>
-      <c r="CD72" s="34">
-        <v>6.4992041316309042</v>
-      </c>
-      <c r="CE72" s="34">
-        <v>12.288135873567697</v>
-      </c>
-      <c r="CF72" s="34">
-        <v>8.5676357446985918</v>
-      </c>
-      <c r="CG72" s="34">
-        <v>8.5075425838246304</v>
-      </c>
-      <c r="CH72" s="33"/>
-      <c r="CI72" s="33"/>
-      <c r="CJ72" s="33"/>
-      <c r="CK72" s="33"/>
-      <c r="CL72" s="10"/>
+      <c r="CC72" s="32">
+        <v>2.010146057502979</v>
+      </c>
+      <c r="CD72" s="32">
+        <v>6.6085336040802503</v>
+      </c>
+      <c r="CE72" s="32">
+        <v>12.630422102752419</v>
+      </c>
+      <c r="CF72" s="32">
+        <v>8.5800231419946584</v>
+      </c>
+      <c r="CG72" s="32">
+        <v>8.6634795203650299</v>
+      </c>
+      <c r="CH72" s="32">
+        <v>7.6858397586359644</v>
+      </c>
+      <c r="CI72" s="45"/>
+      <c r="CJ72" s="45"/>
+      <c r="CK72" s="45"/>
+      <c r="CL72" s="45"/>
       <c r="CM72" s="10"/>
       <c r="CN72" s="10"/>
       <c r="CO72" s="10"/>
@@ -31815,7 +32059,7 @@
       <c r="ET72" s="10"/>
       <c r="EU72" s="10"/>
     </row>
-    <row r="73" spans="1:151" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:151" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
@@ -31893,33 +32137,39 @@
       <c r="BW73" s="16"/>
       <c r="BX73" s="16"/>
       <c r="BY73" s="16"/>
-      <c r="BZ73" s="16"/>
-      <c r="CA73" s="16"/>
-      <c r="CB73" s="16"/>
-      <c r="CC73" s="16"/>
+      <c r="BZ73" s="29"/>
+      <c r="CA73" s="29"/>
+      <c r="CB73" s="29"/>
+      <c r="CC73" s="29"/>
       <c r="CD73" s="29"/>
       <c r="CE73" s="29"/>
       <c r="CF73" s="29"/>
       <c r="CG73" s="29"/>
       <c r="CH73" s="29"/>
-      <c r="CI73" s="29"/>
-      <c r="CJ73" s="29"/>
-      <c r="CK73" s="29"/>
+      <c r="CI73" s="46"/>
+      <c r="CJ73" s="46"/>
+      <c r="CK73" s="46"/>
+      <c r="CL73" s="46"/>
     </row>
-    <row r="74" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="BZ74" s="22"/>
+      <c r="CA74" s="22"/>
+      <c r="CB74" s="22"/>
+      <c r="CC74" s="22"/>
       <c r="CD74" s="22"/>
       <c r="CE74" s="22"/>
       <c r="CF74" s="22"/>
       <c r="CG74" s="22"/>
       <c r="CH74" s="22"/>
-      <c r="CI74" s="22"/>
-      <c r="CJ74" s="22"/>
-      <c r="CK74" s="22"/>
+      <c r="CI74" s="42"/>
+      <c r="CJ74" s="42"/>
+      <c r="CK74" s="42"/>
+      <c r="CL74" s="42"/>
     </row>
-    <row r="75" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
@@ -31996,10 +32246,10 @@
       <c r="BW75" s="10"/>
       <c r="BX75" s="10"/>
       <c r="BY75" s="10"/>
-      <c r="BZ75" s="10"/>
-      <c r="CA75" s="10"/>
-      <c r="CB75" s="10"/>
-      <c r="CC75" s="10"/>
+      <c r="BZ75" s="30"/>
+      <c r="CA75" s="30"/>
+      <c r="CB75" s="30"/>
+      <c r="CC75" s="30"/>
       <c r="CD75" s="30"/>
       <c r="CE75" s="30"/>
       <c r="CF75" s="30"/>
@@ -32008,7 +32258,7 @@
       <c r="CI75" s="30"/>
       <c r="CJ75" s="30"/>
       <c r="CK75" s="30"/>
-      <c r="CL75" s="10"/>
+      <c r="CL75" s="30"/>
       <c r="CM75" s="10"/>
       <c r="CN75" s="10"/>
       <c r="CO75" s="10"/>
@@ -32071,7 +32321,7 @@
       <c r="ET75" s="10"/>
       <c r="EU75" s="10"/>
     </row>
-    <row r="76" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
@@ -32148,10 +32398,10 @@
       <c r="BW76" s="10"/>
       <c r="BX76" s="10"/>
       <c r="BY76" s="10"/>
-      <c r="BZ76" s="10"/>
-      <c r="CA76" s="10"/>
-      <c r="CB76" s="10"/>
-      <c r="CC76" s="10"/>
+      <c r="BZ76" s="30"/>
+      <c r="CA76" s="30"/>
+      <c r="CB76" s="30"/>
+      <c r="CC76" s="30"/>
       <c r="CD76" s="30"/>
       <c r="CE76" s="30"/>
       <c r="CF76" s="30"/>
@@ -32160,7 +32410,7 @@
       <c r="CI76" s="30"/>
       <c r="CJ76" s="30"/>
       <c r="CK76" s="30"/>
-      <c r="CL76" s="10"/>
+      <c r="CL76" s="30"/>
       <c r="CM76" s="10"/>
       <c r="CN76" s="10"/>
       <c r="CO76" s="10"/>
@@ -32223,10 +32473,14 @@
       <c r="ET76" s="10"/>
       <c r="EU76" s="10"/>
     </row>
-    <row r="77" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="BZ77" s="22"/>
+      <c r="CA77" s="22"/>
+      <c r="CB77" s="22"/>
+      <c r="CC77" s="22"/>
       <c r="CD77" s="22"/>
       <c r="CE77" s="22"/>
       <c r="CF77" s="22"/>
@@ -32235,11 +32489,16 @@
       <c r="CI77" s="22"/>
       <c r="CJ77" s="22"/>
       <c r="CK77" s="22"/>
+      <c r="CL77" s="22"/>
     </row>
-    <row r="78" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="BZ78" s="22"/>
+      <c r="CA78" s="22"/>
+      <c r="CB78" s="22"/>
+      <c r="CC78" s="22"/>
       <c r="CD78" s="22"/>
       <c r="CE78" s="22"/>
       <c r="CF78" s="22"/>
@@ -32248,8 +32507,13 @@
       <c r="CI78" s="22"/>
       <c r="CJ78" s="22"/>
       <c r="CK78" s="22"/>
+      <c r="CL78" s="22"/>
     </row>
-    <row r="79" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ79" s="22"/>
+      <c r="CA79" s="22"/>
+      <c r="CB79" s="22"/>
+      <c r="CC79" s="22"/>
       <c r="CD79" s="22"/>
       <c r="CE79" s="22"/>
       <c r="CF79" s="22"/>
@@ -32258,11 +32522,16 @@
       <c r="CI79" s="22"/>
       <c r="CJ79" s="22"/>
       <c r="CK79" s="22"/>
+      <c r="CL79" s="22"/>
     </row>
-    <row r="80" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="BZ80" s="22"/>
+      <c r="CA80" s="22"/>
+      <c r="CB80" s="22"/>
+      <c r="CC80" s="22"/>
       <c r="CD80" s="22"/>
       <c r="CE80" s="22"/>
       <c r="CF80" s="22"/>
@@ -32271,11 +32540,16 @@
       <c r="CI80" s="22"/>
       <c r="CJ80" s="22"/>
       <c r="CK80" s="22"/>
+      <c r="CL80" s="22"/>
     </row>
-    <row r="81" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="BZ81" s="22"/>
+      <c r="CA81" s="22"/>
+      <c r="CB81" s="22"/>
+      <c r="CC81" s="22"/>
       <c r="CD81" s="22"/>
       <c r="CE81" s="22"/>
       <c r="CF81" s="22"/>
@@ -32284,11 +32558,16 @@
       <c r="CI81" s="22"/>
       <c r="CJ81" s="22"/>
       <c r="CK81" s="22"/>
+      <c r="CL81" s="22"/>
     </row>
-    <row r="82" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="BZ82" s="22"/>
+      <c r="CA82" s="22"/>
+      <c r="CB82" s="22"/>
+      <c r="CC82" s="22"/>
       <c r="CD82" s="22"/>
       <c r="CE82" s="22"/>
       <c r="CF82" s="22"/>
@@ -32297,8 +32576,13 @@
       <c r="CI82" s="22"/>
       <c r="CJ82" s="22"/>
       <c r="CK82" s="22"/>
+      <c r="CL82" s="22"/>
     </row>
-    <row r="83" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ83" s="22"/>
+      <c r="CA83" s="22"/>
+      <c r="CB83" s="22"/>
+      <c r="CC83" s="22"/>
       <c r="CD83" s="22"/>
       <c r="CE83" s="22"/>
       <c r="CF83" s="22"/>
@@ -32307,8 +32591,9 @@
       <c r="CI83" s="22"/>
       <c r="CJ83" s="22"/>
       <c r="CK83" s="22"/>
+      <c r="CL83" s="22"/>
     </row>
-    <row r="84" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="38">
         <v>2000</v>
@@ -32424,12 +32709,12 @@
       <c r="BW84" s="39"/>
       <c r="BX84" s="39"/>
       <c r="BY84" s="39"/>
-      <c r="BZ84" s="38">
+      <c r="BZ84" s="37">
         <v>2019</v>
       </c>
-      <c r="CA84" s="39"/>
-      <c r="CB84" s="39"/>
-      <c r="CC84" s="39"/>
+      <c r="CA84" s="40"/>
+      <c r="CB84" s="40"/>
+      <c r="CC84" s="40"/>
       <c r="CD84" s="37">
         <v>2020</v>
       </c>
@@ -32442,8 +32727,11 @@
       <c r="CI84" s="37"/>
       <c r="CJ84" s="37"/>
       <c r="CK84" s="37"/>
+      <c r="CL84" s="35">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="85" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>4</v>
       </c>
@@ -32675,16 +32963,16 @@
       <c r="BY85" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BZ85" s="7" t="s">
+      <c r="BZ85" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CA85" s="7" t="s">
+      <c r="CA85" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CB85" s="7" t="s">
+      <c r="CB85" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CC85" s="7" t="s">
+      <c r="CC85" s="24" t="s">
         <v>9</v>
       </c>
       <c r="CD85" s="24" t="s">
@@ -32711,9 +32999,16 @@
       <c r="CK85" s="24" t="s">
         <v>9</v>
       </c>
+      <c r="CL85" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="86" spans="1:155" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
+      <c r="BZ86" s="22"/>
+      <c r="CA86" s="22"/>
+      <c r="CB86" s="22"/>
+      <c r="CC86" s="22"/>
       <c r="CD86" s="22"/>
       <c r="CE86" s="22"/>
       <c r="CF86" s="22"/>
@@ -32722,8 +33017,9 @@
       <c r="CI86" s="22"/>
       <c r="CJ86" s="22"/>
       <c r="CK86" s="22"/>
+      <c r="CL86" s="22"/>
     </row>
-    <row r="87" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>27</v>
       </c>
@@ -32955,43 +33251,45 @@
       <c r="BY87" s="18">
         <v>104.85919152999314</v>
       </c>
-      <c r="BZ87" s="18">
+      <c r="BZ87" s="32">
         <v>100.13094305000774</v>
       </c>
-      <c r="CA87" s="18">
+      <c r="CA87" s="32">
         <v>92.340797950003207</v>
       </c>
-      <c r="CB87" s="18">
+      <c r="CB87" s="32">
         <v>101.79449869397199</v>
       </c>
-      <c r="CC87" s="18">
+      <c r="CC87" s="32">
         <v>103.17606767267624</v>
       </c>
-      <c r="CD87" s="34">
+      <c r="CD87" s="32">
         <v>102.45628190637279</v>
       </c>
-      <c r="CE87" s="34">
+      <c r="CE87" s="32">
         <v>95.411386940087979</v>
       </c>
-      <c r="CF87" s="34">
+      <c r="CF87" s="32">
         <v>104.15052319906178</v>
       </c>
-      <c r="CG87" s="34">
-        <v>104.44513494711747</v>
-      </c>
-      <c r="CH87" s="34">
+      <c r="CG87" s="32">
+        <v>104.44513494711742</v>
+      </c>
+      <c r="CH87" s="32">
         <v>103.07524798801954</v>
       </c>
-      <c r="CI87" s="34">
-        <v>96.3284269276933</v>
-      </c>
-      <c r="CJ87" s="34">
-        <v>106.33225932748356</v>
-      </c>
-      <c r="CK87" s="34">
-        <v>106.66200711517664</v>
-      </c>
-      <c r="CL87" s="10"/>
+      <c r="CI87" s="32">
+        <v>96.328426933989633</v>
+      </c>
+      <c r="CJ87" s="32">
+        <v>106.35726139942048</v>
+      </c>
+      <c r="CK87" s="32">
+        <v>106.73571152128423</v>
+      </c>
+      <c r="CL87" s="32">
+        <v>105.20863761172936</v>
+      </c>
       <c r="CM87" s="10"/>
       <c r="CN87" s="10"/>
       <c r="CO87" s="10"/>
@@ -33058,7 +33356,7 @@
       <c r="EX87" s="10"/>
       <c r="EY87" s="10"/>
     </row>
-    <row r="88" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>12</v>
       </c>
@@ -33290,43 +33588,45 @@
       <c r="BY88" s="18">
         <v>99.134077515055694</v>
       </c>
-      <c r="BZ88" s="18">
+      <c r="BZ88" s="32">
         <v>98.661711312815697</v>
       </c>
-      <c r="CA88" s="18">
+      <c r="CA88" s="32">
         <v>100.68694933175233</v>
       </c>
-      <c r="CB88" s="18">
+      <c r="CB88" s="32">
         <v>105.25519490436706</v>
       </c>
-      <c r="CC88" s="18">
+      <c r="CC88" s="32">
         <v>100.84271657364781</v>
       </c>
-      <c r="CD88" s="34">
+      <c r="CD88" s="32">
         <v>98.502597983321323</v>
       </c>
-      <c r="CE88" s="34">
+      <c r="CE88" s="32">
         <v>101.10590528636563</v>
       </c>
-      <c r="CF88" s="34">
+      <c r="CF88" s="32">
         <v>105.66501828987873</v>
       </c>
-      <c r="CG88" s="34">
-        <v>100.66362573568088</v>
-      </c>
-      <c r="CH88" s="34">
-        <v>98.274362632681758</v>
-      </c>
-      <c r="CI88" s="34">
-        <v>97.789173474669795</v>
-      </c>
-      <c r="CJ88" s="34">
-        <v>104.05170656975191</v>
-      </c>
-      <c r="CK88" s="34">
-        <v>100.18700541586053</v>
-      </c>
-      <c r="CL88" s="10"/>
+      <c r="CG88" s="32">
+        <v>100.66362573568091</v>
+      </c>
+      <c r="CH88" s="32">
+        <v>98.27438023323181</v>
+      </c>
+      <c r="CI88" s="32">
+        <v>97.789173429875547</v>
+      </c>
+      <c r="CJ88" s="32">
+        <v>104.20870686284727</v>
+      </c>
+      <c r="CK88" s="32">
+        <v>100.21692077855275</v>
+      </c>
+      <c r="CL88" s="32">
+        <v>98.921347845037104</v>
+      </c>
       <c r="CM88" s="10"/>
       <c r="CN88" s="10"/>
       <c r="CO88" s="10"/>
@@ -33393,7 +33693,7 @@
       <c r="EX88" s="10"/>
       <c r="EY88" s="10"/>
     </row>
-    <row r="89" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
       <c r="D89" s="19"/>
@@ -33470,19 +33770,19 @@
       <c r="BW89" s="19"/>
       <c r="BX89" s="19"/>
       <c r="BY89" s="19"/>
-      <c r="BZ89" s="19"/>
-      <c r="CA89" s="19"/>
-      <c r="CB89" s="19"/>
-      <c r="CC89" s="19"/>
-      <c r="CD89" s="33"/>
-      <c r="CE89" s="33"/>
-      <c r="CF89" s="33"/>
-      <c r="CG89" s="33"/>
-      <c r="CH89" s="33"/>
-      <c r="CI89" s="33"/>
-      <c r="CJ89" s="33"/>
-      <c r="CK89" s="33"/>
-      <c r="CL89" s="10"/>
+      <c r="BZ89" s="31"/>
+      <c r="CA89" s="31"/>
+      <c r="CB89" s="31"/>
+      <c r="CC89" s="31"/>
+      <c r="CD89" s="31"/>
+      <c r="CE89" s="31"/>
+      <c r="CF89" s="31"/>
+      <c r="CG89" s="31"/>
+      <c r="CH89" s="31"/>
+      <c r="CI89" s="31"/>
+      <c r="CJ89" s="31"/>
+      <c r="CK89" s="31"/>
+      <c r="CL89" s="31"/>
       <c r="CM89" s="10"/>
       <c r="CN89" s="10"/>
       <c r="CO89" s="10"/>
@@ -33549,7 +33849,7 @@
       <c r="EX89" s="10"/>
       <c r="EY89" s="10"/>
     </row>
-    <row r="90" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
         <v>11</v>
       </c>
@@ -33781,43 +34081,45 @@
       <c r="BY90" s="18">
         <v>99.653603403989237</v>
       </c>
-      <c r="BZ90" s="18">
+      <c r="BZ90" s="32">
         <v>98.797263751162163</v>
       </c>
-      <c r="CA90" s="18">
+      <c r="CA90" s="32">
         <v>99.826831972088371</v>
       </c>
-      <c r="CB90" s="18">
+      <c r="CB90" s="32">
         <v>104.91470527783233</v>
       </c>
-      <c r="CC90" s="18">
+      <c r="CC90" s="32">
         <v>101.04512783104053</v>
       </c>
-      <c r="CD90" s="34">
+      <c r="CD90" s="32">
         <v>98.8217969742023</v>
       </c>
-      <c r="CE90" s="34">
+      <c r="CE90" s="32">
         <v>100.64164235698743</v>
       </c>
-      <c r="CF90" s="34">
+      <c r="CF90" s="32">
         <v>105.54530220169399</v>
       </c>
-      <c r="CG90" s="34">
-        <v>100.93429215080398</v>
-      </c>
-      <c r="CH90" s="34">
-        <v>98.658886965508358</v>
-      </c>
-      <c r="CI90" s="34">
-        <v>97.662489282218061</v>
-      </c>
-      <c r="CJ90" s="34">
-        <v>104.22865429462091</v>
-      </c>
-      <c r="CK90" s="34">
-        <v>100.63502280740404</v>
-      </c>
-      <c r="CL90" s="10"/>
+      <c r="CG90" s="32">
+        <v>100.94293366727867</v>
+      </c>
+      <c r="CH90" s="32">
+        <v>98.658589050640899</v>
+      </c>
+      <c r="CI90" s="32">
+        <v>97.662848789755927</v>
+      </c>
+      <c r="CJ90" s="32">
+        <v>104.3756389667996</v>
+      </c>
+      <c r="CK90" s="32">
+        <v>100.67333248729069</v>
+      </c>
+      <c r="CL90" s="32">
+        <v>99.429172448471462</v>
+      </c>
       <c r="CM90" s="10"/>
       <c r="CN90" s="10"/>
       <c r="CO90" s="10"/>
@@ -33884,7 +34186,7 @@
       <c r="EX90" s="10"/>
       <c r="EY90" s="10"/>
     </row>
-    <row r="91" spans="1:155" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:155" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="16"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
@@ -33962,10 +34264,10 @@
       <c r="BW91" s="16"/>
       <c r="BX91" s="16"/>
       <c r="BY91" s="16"/>
-      <c r="BZ91" s="16"/>
-      <c r="CA91" s="16"/>
-      <c r="CB91" s="16"/>
-      <c r="CC91" s="16"/>
+      <c r="BZ91" s="29"/>
+      <c r="CA91" s="29"/>
+      <c r="CB91" s="29"/>
+      <c r="CC91" s="29"/>
       <c r="CD91" s="29"/>
       <c r="CE91" s="29"/>
       <c r="CF91" s="29"/>
@@ -33974,11 +34276,16 @@
       <c r="CI91" s="29"/>
       <c r="CJ91" s="29"/>
       <c r="CK91" s="29"/>
+      <c r="CL91" s="29"/>
     </row>
-    <row r="92" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="BZ92" s="22"/>
+      <c r="CA92" s="22"/>
+      <c r="CB92" s="22"/>
+      <c r="CC92" s="22"/>
       <c r="CD92" s="22"/>
       <c r="CE92" s="22"/>
       <c r="CF92" s="22"/>
@@ -33987,11 +34294,16 @@
       <c r="CI92" s="22"/>
       <c r="CJ92" s="22"/>
       <c r="CK92" s="22"/>
+      <c r="CL92" s="22"/>
     </row>
-    <row r="95" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="BZ95" s="22"/>
+      <c r="CA95" s="22"/>
+      <c r="CB95" s="22"/>
+      <c r="CC95" s="22"/>
       <c r="CD95" s="22"/>
       <c r="CE95" s="22"/>
       <c r="CF95" s="22"/>
@@ -34000,11 +34312,16 @@
       <c r="CI95" s="22"/>
       <c r="CJ95" s="22"/>
       <c r="CK95" s="22"/>
+      <c r="CL95" s="22"/>
     </row>
-    <row r="96" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="BZ96" s="22"/>
+      <c r="CA96" s="22"/>
+      <c r="CB96" s="22"/>
+      <c r="CC96" s="22"/>
       <c r="CD96" s="22"/>
       <c r="CE96" s="22"/>
       <c r="CF96" s="22"/>
@@ -34013,11 +34330,16 @@
       <c r="CI96" s="22"/>
       <c r="CJ96" s="22"/>
       <c r="CK96" s="22"/>
+      <c r="CL96" s="22"/>
     </row>
-    <row r="97" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="BZ97" s="22"/>
+      <c r="CA97" s="22"/>
+      <c r="CB97" s="22"/>
+      <c r="CC97" s="22"/>
       <c r="CD97" s="22"/>
       <c r="CE97" s="22"/>
       <c r="CF97" s="22"/>
@@ -34026,8 +34348,13 @@
       <c r="CI97" s="22"/>
       <c r="CJ97" s="22"/>
       <c r="CK97" s="22"/>
+      <c r="CL97" s="22"/>
     </row>
-    <row r="98" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ98" s="22"/>
+      <c r="CA98" s="22"/>
+      <c r="CB98" s="22"/>
+      <c r="CC98" s="22"/>
       <c r="CD98" s="22"/>
       <c r="CE98" s="22"/>
       <c r="CF98" s="22"/>
@@ -34036,11 +34363,16 @@
       <c r="CI98" s="22"/>
       <c r="CJ98" s="22"/>
       <c r="CK98" s="22"/>
+      <c r="CL98" s="22"/>
     </row>
-    <row r="99" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="BZ99" s="22"/>
+      <c r="CA99" s="22"/>
+      <c r="CB99" s="22"/>
+      <c r="CC99" s="22"/>
       <c r="CD99" s="22"/>
       <c r="CE99" s="22"/>
       <c r="CF99" s="22"/>
@@ -34049,11 +34381,16 @@
       <c r="CI99" s="22"/>
       <c r="CJ99" s="22"/>
       <c r="CK99" s="22"/>
+      <c r="CL99" s="22"/>
     </row>
-    <row r="100" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="BZ100" s="22"/>
+      <c r="CA100" s="22"/>
+      <c r="CB100" s="22"/>
+      <c r="CC100" s="22"/>
       <c r="CD100" s="22"/>
       <c r="CE100" s="22"/>
       <c r="CF100" s="22"/>
@@ -34062,11 +34399,16 @@
       <c r="CI100" s="22"/>
       <c r="CJ100" s="22"/>
       <c r="CK100" s="22"/>
+      <c r="CL100" s="22"/>
     </row>
-    <row r="101" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="BZ101" s="22"/>
+      <c r="CA101" s="22"/>
+      <c r="CB101" s="22"/>
+      <c r="CC101" s="22"/>
       <c r="CD101" s="22"/>
       <c r="CE101" s="22"/>
       <c r="CF101" s="22"/>
@@ -34075,8 +34417,13 @@
       <c r="CI101" s="22"/>
       <c r="CJ101" s="22"/>
       <c r="CK101" s="22"/>
+      <c r="CL101" s="22"/>
     </row>
-    <row r="102" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ102" s="22"/>
+      <c r="CA102" s="22"/>
+      <c r="CB102" s="22"/>
+      <c r="CC102" s="22"/>
       <c r="CD102" s="22"/>
       <c r="CE102" s="22"/>
       <c r="CF102" s="22"/>
@@ -34085,8 +34432,9 @@
       <c r="CI102" s="22"/>
       <c r="CJ102" s="22"/>
       <c r="CK102" s="22"/>
+      <c r="CL102" s="22"/>
     </row>
-    <row r="103" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="38">
         <v>2000</v>
@@ -34202,12 +34550,12 @@
       <c r="BW103" s="39"/>
       <c r="BX103" s="39"/>
       <c r="BY103" s="39"/>
-      <c r="BZ103" s="38">
+      <c r="BZ103" s="37">
         <v>2019</v>
       </c>
-      <c r="CA103" s="39"/>
-      <c r="CB103" s="39"/>
-      <c r="CC103" s="39"/>
+      <c r="CA103" s="40"/>
+      <c r="CB103" s="40"/>
+      <c r="CC103" s="40"/>
       <c r="CD103" s="37">
         <v>2020</v>
       </c>
@@ -34220,8 +34568,11 @@
       <c r="CI103" s="37"/>
       <c r="CJ103" s="37"/>
       <c r="CK103" s="37"/>
+      <c r="CL103" s="35">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="104" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>4</v>
       </c>
@@ -34453,16 +34804,16 @@
       <c r="BY104" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BZ104" s="7" t="s">
+      <c r="BZ104" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CA104" s="7" t="s">
+      <c r="CA104" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CB104" s="7" t="s">
+      <c r="CB104" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CC104" s="7" t="s">
+      <c r="CC104" s="24" t="s">
         <v>9</v>
       </c>
       <c r="CD104" s="24" t="s">
@@ -34489,9 +34840,16 @@
       <c r="CK104" s="24" t="s">
         <v>9</v>
       </c>
+      <c r="CL104" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="105" spans="1:155" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
+      <c r="BZ105" s="22"/>
+      <c r="CA105" s="22"/>
+      <c r="CB105" s="22"/>
+      <c r="CC105" s="22"/>
       <c r="CD105" s="22"/>
       <c r="CE105" s="22"/>
       <c r="CF105" s="22"/>
@@ -34500,8 +34858,9 @@
       <c r="CI105" s="22"/>
       <c r="CJ105" s="22"/>
       <c r="CK105" s="22"/>
+      <c r="CL105" s="22"/>
     </row>
-    <row r="106" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>27</v>
       </c>
@@ -34733,43 +35092,45 @@
       <c r="BY106" s="18">
         <v>9.5485307704429427</v>
       </c>
-      <c r="BZ106" s="18">
+      <c r="BZ106" s="32">
         <v>9.3506203182975529</v>
       </c>
-      <c r="CA106" s="18">
+      <c r="CA106" s="32">
         <v>9.532740913457971</v>
       </c>
-      <c r="CB106" s="18">
+      <c r="CB106" s="32">
         <v>9.5461521207642974</v>
       </c>
-      <c r="CC106" s="18">
+      <c r="CC106" s="32">
         <v>8.8576428452988889</v>
       </c>
-      <c r="CD106" s="34">
+      <c r="CD106" s="32">
         <v>8.3703844905547893</v>
       </c>
-      <c r="CE106" s="34">
+      <c r="CE106" s="32">
         <v>7.7291102907035487</v>
       </c>
-      <c r="CF106" s="34">
+      <c r="CF106" s="32">
         <v>7.8002261778499493</v>
       </c>
-      <c r="CG106" s="34">
-        <v>7.4065964378326523</v>
-      </c>
-      <c r="CH106" s="34">
-        <v>8.367980680748941</v>
-      </c>
-      <c r="CI106" s="34">
-        <v>8.5540983166940698</v>
-      </c>
-      <c r="CJ106" s="34">
-        <v>7.9155805126799619</v>
-      </c>
-      <c r="CK106" s="34">
-        <v>7.3335724839585366</v>
-      </c>
-      <c r="CL106" s="10"/>
+      <c r="CG106" s="32">
+        <v>7.6424111626042208</v>
+      </c>
+      <c r="CH106" s="32">
+        <v>8.3611703658974346</v>
+      </c>
+      <c r="CI106" s="32">
+        <v>8.5297891597593409</v>
+      </c>
+      <c r="CJ106" s="32">
+        <v>7.9170153002722827</v>
+      </c>
+      <c r="CK106" s="32">
+        <v>7.4230953951303524</v>
+      </c>
+      <c r="CL106" s="32">
+        <v>8.546490881492609</v>
+      </c>
       <c r="CM106" s="10"/>
       <c r="CN106" s="10"/>
       <c r="CO106" s="10"/>
@@ -34836,7 +35197,7 @@
       <c r="EX106" s="10"/>
       <c r="EY106" s="10"/>
     </row>
-    <row r="107" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>12</v>
       </c>
@@ -35068,43 +35429,45 @@
       <c r="BY107" s="18">
         <v>90.451469229557063</v>
       </c>
-      <c r="BZ107" s="18">
+      <c r="BZ107" s="32">
         <v>90.649379681702456</v>
       </c>
-      <c r="CA107" s="18">
+      <c r="CA107" s="32">
         <v>90.467259086542029</v>
       </c>
-      <c r="CB107" s="18">
+      <c r="CB107" s="32">
         <v>90.45384787923571</v>
       </c>
-      <c r="CC107" s="18">
+      <c r="CC107" s="32">
         <v>91.142357154701116</v>
       </c>
-      <c r="CD107" s="34">
+      <c r="CD107" s="32">
         <v>91.629615509445216</v>
       </c>
-      <c r="CE107" s="34">
+      <c r="CE107" s="32">
         <v>92.270889709296455</v>
       </c>
-      <c r="CF107" s="34">
+      <c r="CF107" s="32">
         <v>92.19977382215005</v>
       </c>
-      <c r="CG107" s="34">
-        <v>92.593403562167353</v>
-      </c>
-      <c r="CH107" s="34">
-        <v>91.632019319251057</v>
-      </c>
-      <c r="CI107" s="34">
-        <v>91.445901683305934</v>
-      </c>
-      <c r="CJ107" s="34">
-        <v>92.084419487320048</v>
-      </c>
-      <c r="CK107" s="34">
-        <v>92.666427516041466</v>
-      </c>
-      <c r="CL107" s="10"/>
+      <c r="CG107" s="32">
+        <v>92.357588837395781</v>
+      </c>
+      <c r="CH107" s="32">
+        <v>91.638829634102564</v>
+      </c>
+      <c r="CI107" s="32">
+        <v>91.470210840240654</v>
+      </c>
+      <c r="CJ107" s="32">
+        <v>92.082984699727717</v>
+      </c>
+      <c r="CK107" s="32">
+        <v>92.576904604869654</v>
+      </c>
+      <c r="CL107" s="32">
+        <v>91.453509118507398</v>
+      </c>
       <c r="CM107" s="10"/>
       <c r="CN107" s="10"/>
       <c r="CO107" s="10"/>
@@ -35171,7 +35534,7 @@
       <c r="EX107" s="10"/>
       <c r="EY107" s="10"/>
     </row>
-    <row r="108" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="19"/>
       <c r="C108" s="19"/>
       <c r="D108" s="19"/>
@@ -35248,19 +35611,19 @@
       <c r="BW108" s="19"/>
       <c r="BX108" s="19"/>
       <c r="BY108" s="19"/>
-      <c r="BZ108" s="19"/>
-      <c r="CA108" s="19"/>
-      <c r="CB108" s="19"/>
-      <c r="CC108" s="19"/>
-      <c r="CD108" s="33"/>
-      <c r="CE108" s="33"/>
-      <c r="CF108" s="33"/>
-      <c r="CG108" s="33"/>
-      <c r="CH108" s="33"/>
-      <c r="CI108" s="33"/>
-      <c r="CJ108" s="33"/>
-      <c r="CK108" s="33"/>
-      <c r="CL108" s="10"/>
+      <c r="BZ108" s="31"/>
+      <c r="CA108" s="31"/>
+      <c r="CB108" s="31"/>
+      <c r="CC108" s="31"/>
+      <c r="CD108" s="31"/>
+      <c r="CE108" s="31"/>
+      <c r="CF108" s="31"/>
+      <c r="CG108" s="31"/>
+      <c r="CH108" s="31"/>
+      <c r="CI108" s="31"/>
+      <c r="CJ108" s="31"/>
+      <c r="CK108" s="31"/>
+      <c r="CL108" s="31"/>
       <c r="CM108" s="10"/>
       <c r="CN108" s="10"/>
       <c r="CO108" s="10"/>
@@ -35327,7 +35690,7 @@
       <c r="EX108" s="10"/>
       <c r="EY108" s="10"/>
     </row>
-    <row r="109" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
         <v>11</v>
       </c>
@@ -35559,43 +35922,45 @@
       <c r="BY109" s="18">
         <v>100</v>
       </c>
-      <c r="BZ109" s="18">
+      <c r="BZ109" s="32">
         <v>100</v>
       </c>
-      <c r="CA109" s="18">
+      <c r="CA109" s="32">
         <v>100</v>
       </c>
-      <c r="CB109" s="18">
+      <c r="CB109" s="32">
         <v>100</v>
       </c>
-      <c r="CC109" s="18">
+      <c r="CC109" s="32">
         <v>100</v>
       </c>
-      <c r="CD109" s="34">
+      <c r="CD109" s="32">
         <v>100</v>
       </c>
-      <c r="CE109" s="34">
+      <c r="CE109" s="32">
         <v>100</v>
       </c>
-      <c r="CF109" s="34">
+      <c r="CF109" s="32">
         <v>100</v>
       </c>
-      <c r="CG109" s="34">
+      <c r="CG109" s="32">
         <v>100</v>
       </c>
-      <c r="CH109" s="34">
+      <c r="CH109" s="32">
         <v>100</v>
       </c>
-      <c r="CI109" s="34">
+      <c r="CI109" s="32">
         <v>100</v>
       </c>
-      <c r="CJ109" s="34">
+      <c r="CJ109" s="32">
         <v>100</v>
       </c>
-      <c r="CK109" s="34">
+      <c r="CK109" s="32">
         <v>100</v>
       </c>
-      <c r="CL109" s="10"/>
+      <c r="CL109" s="32">
+        <v>100</v>
+      </c>
       <c r="CM109" s="10"/>
       <c r="CN109" s="10"/>
       <c r="CO109" s="10"/>
@@ -35662,7 +36027,7 @@
       <c r="EX109" s="10"/>
       <c r="EY109" s="10"/>
     </row>
-    <row r="110" spans="1:155" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:155" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="16"/>
       <c r="B110" s="16"/>
       <c r="C110" s="16"/>
@@ -35740,10 +36105,10 @@
       <c r="BW110" s="16"/>
       <c r="BX110" s="16"/>
       <c r="BY110" s="16"/>
-      <c r="BZ110" s="16"/>
-      <c r="CA110" s="16"/>
-      <c r="CB110" s="16"/>
-      <c r="CC110" s="16"/>
+      <c r="BZ110" s="29"/>
+      <c r="CA110" s="29"/>
+      <c r="CB110" s="29"/>
+      <c r="CC110" s="29"/>
       <c r="CD110" s="29"/>
       <c r="CE110" s="29"/>
       <c r="CF110" s="29"/>
@@ -35752,11 +36117,16 @@
       <c r="CI110" s="29"/>
       <c r="CJ110" s="29"/>
       <c r="CK110" s="29"/>
+      <c r="CL110" s="29"/>
     </row>
-    <row r="111" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="BZ111" s="22"/>
+      <c r="CA111" s="22"/>
+      <c r="CB111" s="22"/>
+      <c r="CC111" s="22"/>
       <c r="CD111" s="22"/>
       <c r="CE111" s="22"/>
       <c r="CF111" s="22"/>
@@ -35765,8 +36135,9 @@
       <c r="CI111" s="22"/>
       <c r="CJ111" s="22"/>
       <c r="CK111" s="22"/>
+      <c r="CL111" s="22"/>
     </row>
-    <row r="112" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
@@ -35843,10 +36214,10 @@
       <c r="BW112" s="10"/>
       <c r="BX112" s="10"/>
       <c r="BY112" s="10"/>
-      <c r="BZ112" s="10"/>
-      <c r="CA112" s="10"/>
-      <c r="CB112" s="10"/>
-      <c r="CC112" s="10"/>
+      <c r="BZ112" s="30"/>
+      <c r="CA112" s="30"/>
+      <c r="CB112" s="30"/>
+      <c r="CC112" s="30"/>
       <c r="CD112" s="30"/>
       <c r="CE112" s="30"/>
       <c r="CF112" s="30"/>
@@ -35855,7 +36226,7 @@
       <c r="CI112" s="30"/>
       <c r="CJ112" s="30"/>
       <c r="CK112" s="30"/>
-      <c r="CL112" s="10"/>
+      <c r="CL112" s="30"/>
       <c r="CM112" s="10"/>
       <c r="CN112" s="10"/>
       <c r="CO112" s="10"/>
@@ -35922,7 +36293,7 @@
       <c r="EX112" s="10"/>
       <c r="EY112" s="10"/>
     </row>
-    <row r="113" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
       <c r="D113" s="10"/>
@@ -35999,10 +36370,10 @@
       <c r="BW113" s="10"/>
       <c r="BX113" s="10"/>
       <c r="BY113" s="10"/>
-      <c r="BZ113" s="10"/>
-      <c r="CA113" s="10"/>
-      <c r="CB113" s="10"/>
-      <c r="CC113" s="10"/>
+      <c r="BZ113" s="30"/>
+      <c r="CA113" s="30"/>
+      <c r="CB113" s="30"/>
+      <c r="CC113" s="30"/>
       <c r="CD113" s="30"/>
       <c r="CE113" s="30"/>
       <c r="CF113" s="30"/>
@@ -36011,7 +36382,7 @@
       <c r="CI113" s="30"/>
       <c r="CJ113" s="30"/>
       <c r="CK113" s="30"/>
-      <c r="CL113" s="10"/>
+      <c r="CL113" s="30"/>
       <c r="CM113" s="10"/>
       <c r="CN113" s="10"/>
       <c r="CO113" s="10"/>
@@ -36078,10 +36449,14 @@
       <c r="EX113" s="10"/>
       <c r="EY113" s="10"/>
     </row>
-    <row r="114" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="BZ114" s="22"/>
+      <c r="CA114" s="22"/>
+      <c r="CB114" s="22"/>
+      <c r="CC114" s="22"/>
       <c r="CD114" s="22"/>
       <c r="CE114" s="22"/>
       <c r="CF114" s="22"/>
@@ -36090,11 +36465,16 @@
       <c r="CI114" s="22"/>
       <c r="CJ114" s="22"/>
       <c r="CK114" s="22"/>
+      <c r="CL114" s="22"/>
     </row>
-    <row r="115" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="BZ115" s="22"/>
+      <c r="CA115" s="22"/>
+      <c r="CB115" s="22"/>
+      <c r="CC115" s="22"/>
       <c r="CD115" s="22"/>
       <c r="CE115" s="22"/>
       <c r="CF115" s="22"/>
@@ -36103,11 +36483,16 @@
       <c r="CI115" s="22"/>
       <c r="CJ115" s="22"/>
       <c r="CK115" s="22"/>
+      <c r="CL115" s="22"/>
     </row>
-    <row r="116" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="BZ116" s="22"/>
+      <c r="CA116" s="22"/>
+      <c r="CB116" s="22"/>
+      <c r="CC116" s="22"/>
       <c r="CD116" s="22"/>
       <c r="CE116" s="22"/>
       <c r="CF116" s="22"/>
@@ -36116,8 +36501,13 @@
       <c r="CI116" s="22"/>
       <c r="CJ116" s="22"/>
       <c r="CK116" s="22"/>
+      <c r="CL116" s="22"/>
     </row>
-    <row r="117" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ117" s="22"/>
+      <c r="CA117" s="22"/>
+      <c r="CB117" s="22"/>
+      <c r="CC117" s="22"/>
       <c r="CD117" s="22"/>
       <c r="CE117" s="22"/>
       <c r="CF117" s="22"/>
@@ -36126,11 +36516,16 @@
       <c r="CI117" s="22"/>
       <c r="CJ117" s="22"/>
       <c r="CK117" s="22"/>
+      <c r="CL117" s="22"/>
     </row>
-    <row r="118" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="BZ118" s="22"/>
+      <c r="CA118" s="22"/>
+      <c r="CB118" s="22"/>
+      <c r="CC118" s="22"/>
       <c r="CD118" s="22"/>
       <c r="CE118" s="22"/>
       <c r="CF118" s="22"/>
@@ -36139,11 +36534,16 @@
       <c r="CI118" s="22"/>
       <c r="CJ118" s="22"/>
       <c r="CK118" s="22"/>
+      <c r="CL118" s="22"/>
     </row>
-    <row r="119" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="BZ119" s="22"/>
+      <c r="CA119" s="22"/>
+      <c r="CB119" s="22"/>
+      <c r="CC119" s="22"/>
       <c r="CD119" s="22"/>
       <c r="CE119" s="22"/>
       <c r="CF119" s="22"/>
@@ -36152,11 +36552,16 @@
       <c r="CI119" s="22"/>
       <c r="CJ119" s="22"/>
       <c r="CK119" s="22"/>
+      <c r="CL119" s="22"/>
     </row>
-    <row r="120" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="BZ120" s="22"/>
+      <c r="CA120" s="22"/>
+      <c r="CB120" s="22"/>
+      <c r="CC120" s="22"/>
       <c r="CD120" s="22"/>
       <c r="CE120" s="22"/>
       <c r="CF120" s="22"/>
@@ -36165,8 +36570,13 @@
       <c r="CI120" s="22"/>
       <c r="CJ120" s="22"/>
       <c r="CK120" s="22"/>
+      <c r="CL120" s="22"/>
     </row>
-    <row r="121" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ121" s="22"/>
+      <c r="CA121" s="22"/>
+      <c r="CB121" s="22"/>
+      <c r="CC121" s="22"/>
       <c r="CD121" s="22"/>
       <c r="CE121" s="22"/>
       <c r="CF121" s="22"/>
@@ -36175,8 +36585,9 @@
       <c r="CI121" s="22"/>
       <c r="CJ121" s="22"/>
       <c r="CK121" s="22"/>
+      <c r="CL121" s="22"/>
     </row>
-    <row r="122" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
       <c r="B122" s="38">
         <v>2000</v>
@@ -36292,12 +36703,12 @@
       <c r="BW122" s="39"/>
       <c r="BX122" s="39"/>
       <c r="BY122" s="39"/>
-      <c r="BZ122" s="38">
+      <c r="BZ122" s="37">
         <v>2019</v>
       </c>
-      <c r="CA122" s="39"/>
-      <c r="CB122" s="39"/>
-      <c r="CC122" s="39"/>
+      <c r="CA122" s="40"/>
+      <c r="CB122" s="40"/>
+      <c r="CC122" s="40"/>
       <c r="CD122" s="37">
         <v>2020</v>
       </c>
@@ -36310,8 +36721,11 @@
       <c r="CI122" s="37"/>
       <c r="CJ122" s="37"/>
       <c r="CK122" s="37"/>
+      <c r="CL122" s="35">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="123" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>4</v>
       </c>
@@ -36543,16 +36957,16 @@
       <c r="BY123" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BZ123" s="7" t="s">
+      <c r="BZ123" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CA123" s="7" t="s">
+      <c r="CA123" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CB123" s="7" t="s">
+      <c r="CB123" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CC123" s="7" t="s">
+      <c r="CC123" s="24" t="s">
         <v>9</v>
       </c>
       <c r="CD123" s="24" t="s">
@@ -36579,9 +36993,16 @@
       <c r="CK123" s="24" t="s">
         <v>9</v>
       </c>
+      <c r="CL123" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="124" spans="1:155" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8"/>
+      <c r="BZ124" s="22"/>
+      <c r="CA124" s="22"/>
+      <c r="CB124" s="22"/>
+      <c r="CC124" s="22"/>
       <c r="CD124" s="22"/>
       <c r="CE124" s="22"/>
       <c r="CF124" s="22"/>
@@ -36590,8 +37011,9 @@
       <c r="CI124" s="22"/>
       <c r="CJ124" s="22"/>
       <c r="CK124" s="22"/>
+      <c r="CL124" s="22"/>
     </row>
-    <row r="125" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>27</v>
       </c>
@@ -36823,43 +37245,45 @@
       <c r="BY125" s="18">
         <v>9.0745072950170105</v>
       </c>
-      <c r="BZ125" s="18">
+      <c r="BZ125" s="32">
         <v>9.226076112780083</v>
       </c>
-      <c r="CA125" s="18">
+      <c r="CA125" s="32">
         <v>10.305556661059674</v>
       </c>
-      <c r="CB125" s="18">
+      <c r="CB125" s="32">
         <v>9.8387609265435536</v>
       </c>
-      <c r="CC125" s="18">
+      <c r="CC125" s="32">
         <v>8.6747021259267605</v>
       </c>
-      <c r="CD125" s="34">
+      <c r="CD125" s="32">
         <v>8.0734574916305508</v>
       </c>
-      <c r="CE125" s="34">
+      <c r="CE125" s="32">
         <v>8.1528041731868814</v>
       </c>
-      <c r="CF125" s="34">
+      <c r="CF125" s="32">
         <v>7.9046864470302891</v>
       </c>
-      <c r="CG125" s="34">
-        <v>7.1576294010996158</v>
-      </c>
-      <c r="CH125" s="34">
-        <v>8.0094462659699293</v>
-      </c>
-      <c r="CI125" s="34">
-        <v>8.6725649096321131</v>
-      </c>
-      <c r="CJ125" s="34">
-        <v>7.7589840563475505</v>
-      </c>
-      <c r="CK125" s="34">
-        <v>6.9191856982963902</v>
-      </c>
-      <c r="CL125" s="10"/>
+      <c r="CG125" s="32">
+        <v>7.3861497085089347</v>
+      </c>
+      <c r="CH125" s="32">
+        <v>8.0029035797939585</v>
+      </c>
+      <c r="CI125" s="32">
+        <v>8.6479509261469634</v>
+      </c>
+      <c r="CJ125" s="32">
+        <v>7.7695074111822793</v>
+      </c>
+      <c r="CK125" s="32">
+        <v>7.0014781383624669</v>
+      </c>
+      <c r="CL125" s="32">
+        <v>8.0770033238267054</v>
+      </c>
       <c r="CM125" s="10"/>
       <c r="CN125" s="10"/>
       <c r="CO125" s="10"/>
@@ -36926,7 +37350,7 @@
       <c r="EX125" s="10"/>
       <c r="EY125" s="10"/>
     </row>
-    <row r="126" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>12</v>
       </c>
@@ -37158,43 +37582,45 @@
       <c r="BY126" s="18">
         <v>90.925492704982986</v>
       </c>
-      <c r="BZ126" s="18">
+      <c r="BZ126" s="32">
         <v>90.773923887219922</v>
       </c>
-      <c r="CA126" s="18">
+      <c r="CA126" s="32">
         <v>89.694443338940332</v>
       </c>
-      <c r="CB126" s="18">
+      <c r="CB126" s="32">
         <v>90.161239073456443</v>
       </c>
-      <c r="CC126" s="18">
+      <c r="CC126" s="32">
         <v>91.325297874073229</v>
       </c>
-      <c r="CD126" s="34">
+      <c r="CD126" s="32">
         <v>91.926542508369437</v>
       </c>
-      <c r="CE126" s="34">
+      <c r="CE126" s="32">
         <v>91.84719582681312</v>
       </c>
-      <c r="CF126" s="34">
+      <c r="CF126" s="32">
         <v>92.095313552969714</v>
       </c>
-      <c r="CG126" s="34">
-        <v>92.842370598900388</v>
-      </c>
-      <c r="CH126" s="34">
-        <v>91.990553734030073</v>
-      </c>
-      <c r="CI126" s="34">
-        <v>91.327435090367885</v>
-      </c>
-      <c r="CJ126" s="34">
-        <v>92.241015943652457</v>
-      </c>
-      <c r="CK126" s="34">
-        <v>93.080814301703612</v>
-      </c>
-      <c r="CL126" s="10"/>
+      <c r="CG126" s="32">
+        <v>92.613850291491062</v>
+      </c>
+      <c r="CH126" s="32">
+        <v>91.997096420206049</v>
+      </c>
+      <c r="CI126" s="32">
+        <v>91.352049073853053</v>
+      </c>
+      <c r="CJ126" s="32">
+        <v>92.230492588817725</v>
+      </c>
+      <c r="CK126" s="32">
+        <v>92.998521861637542</v>
+      </c>
+      <c r="CL126" s="32">
+        <v>91.922996676173298</v>
+      </c>
       <c r="CM126" s="10"/>
       <c r="CN126" s="10"/>
       <c r="CO126" s="10"/>
@@ -37261,7 +37687,7 @@
       <c r="EX126" s="10"/>
       <c r="EY126" s="10"/>
     </row>
-    <row r="127" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="19"/>
       <c r="C127" s="19"/>
       <c r="D127" s="19"/>
@@ -37338,19 +37764,19 @@
       <c r="BW127" s="19"/>
       <c r="BX127" s="19"/>
       <c r="BY127" s="19"/>
-      <c r="BZ127" s="19"/>
-      <c r="CA127" s="19"/>
-      <c r="CB127" s="19"/>
-      <c r="CC127" s="19"/>
-      <c r="CD127" s="33"/>
-      <c r="CE127" s="33"/>
-      <c r="CF127" s="33"/>
-      <c r="CG127" s="33"/>
-      <c r="CH127" s="33"/>
-      <c r="CI127" s="33"/>
-      <c r="CJ127" s="33"/>
-      <c r="CK127" s="33"/>
-      <c r="CL127" s="10"/>
+      <c r="BZ127" s="31"/>
+      <c r="CA127" s="31"/>
+      <c r="CB127" s="31"/>
+      <c r="CC127" s="31"/>
+      <c r="CD127" s="31"/>
+      <c r="CE127" s="31"/>
+      <c r="CF127" s="31"/>
+      <c r="CG127" s="31"/>
+      <c r="CH127" s="31"/>
+      <c r="CI127" s="31"/>
+      <c r="CJ127" s="31"/>
+      <c r="CK127" s="31"/>
+      <c r="CL127" s="31"/>
       <c r="CM127" s="10"/>
       <c r="CN127" s="10"/>
       <c r="CO127" s="10"/>
@@ -37417,7 +37843,7 @@
       <c r="EX127" s="10"/>
       <c r="EY127" s="10"/>
     </row>
-    <row r="128" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="12" t="s">
         <v>11</v>
       </c>
@@ -37649,43 +38075,45 @@
       <c r="BY128" s="18">
         <v>100</v>
       </c>
-      <c r="BZ128" s="18">
+      <c r="BZ128" s="32">
         <v>100</v>
       </c>
-      <c r="CA128" s="18">
+      <c r="CA128" s="32">
         <v>100</v>
       </c>
-      <c r="CB128" s="18">
+      <c r="CB128" s="32">
         <v>100</v>
       </c>
-      <c r="CC128" s="18">
+      <c r="CC128" s="32">
         <v>100</v>
       </c>
-      <c r="CD128" s="34">
+      <c r="CD128" s="32">
         <v>100</v>
       </c>
-      <c r="CE128" s="34">
+      <c r="CE128" s="32">
         <v>100</v>
       </c>
-      <c r="CF128" s="34">
+      <c r="CF128" s="32">
         <v>100</v>
       </c>
-      <c r="CG128" s="34">
+      <c r="CG128" s="32">
         <v>100</v>
       </c>
-      <c r="CH128" s="34">
+      <c r="CH128" s="32">
         <v>100</v>
       </c>
-      <c r="CI128" s="34">
+      <c r="CI128" s="32">
         <v>100</v>
       </c>
-      <c r="CJ128" s="34">
+      <c r="CJ128" s="32">
         <v>100</v>
       </c>
-      <c r="CK128" s="34">
+      <c r="CK128" s="32">
         <v>100</v>
       </c>
-      <c r="CL128" s="10"/>
+      <c r="CL128" s="32">
+        <v>100</v>
+      </c>
       <c r="CM128" s="10"/>
       <c r="CN128" s="10"/>
       <c r="CO128" s="10"/>
@@ -37752,7 +38180,7 @@
       <c r="EX128" s="10"/>
       <c r="EY128" s="10"/>
     </row>
-    <row r="129" spans="1:155" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:155" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="16"/>
       <c r="B129" s="16"/>
       <c r="C129" s="16"/>
@@ -37830,10 +38258,10 @@
       <c r="BW129" s="16"/>
       <c r="BX129" s="16"/>
       <c r="BY129" s="16"/>
-      <c r="BZ129" s="16"/>
-      <c r="CA129" s="16"/>
-      <c r="CB129" s="16"/>
-      <c r="CC129" s="16"/>
+      <c r="BZ129" s="29"/>
+      <c r="CA129" s="29"/>
+      <c r="CB129" s="29"/>
+      <c r="CC129" s="29"/>
       <c r="CD129" s="29"/>
       <c r="CE129" s="29"/>
       <c r="CF129" s="29"/>
@@ -37842,11 +38270,16 @@
       <c r="CI129" s="29"/>
       <c r="CJ129" s="29"/>
       <c r="CK129" s="29"/>
+      <c r="CL129" s="29"/>
     </row>
-    <row r="130" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="BZ130" s="22"/>
+      <c r="CA130" s="22"/>
+      <c r="CB130" s="22"/>
+      <c r="CC130" s="22"/>
       <c r="CD130" s="22"/>
       <c r="CE130" s="22"/>
       <c r="CF130" s="22"/>
@@ -37855,8 +38288,9 @@
       <c r="CI130" s="22"/>
       <c r="CJ130" s="22"/>
       <c r="CK130" s="22"/>
+      <c r="CL130" s="22"/>
     </row>
-    <row r="131" spans="1:155" s="21" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:155" s="21" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="20"/>
       <c r="C131" s="20"/>
@@ -37934,19 +38368,19 @@
       <c r="BW131" s="11"/>
       <c r="BX131" s="11"/>
       <c r="BY131" s="11"/>
-      <c r="BZ131" s="11"/>
-      <c r="CA131" s="11"/>
-      <c r="CB131" s="11"/>
-      <c r="CC131" s="11"/>
-      <c r="CD131" s="35"/>
-      <c r="CE131" s="35"/>
-      <c r="CF131" s="35"/>
-      <c r="CG131" s="35"/>
-      <c r="CH131" s="35"/>
-      <c r="CI131" s="35"/>
-      <c r="CJ131" s="35"/>
-      <c r="CK131" s="35"/>
-      <c r="CL131" s="20"/>
+      <c r="BZ131" s="33"/>
+      <c r="CA131" s="33"/>
+      <c r="CB131" s="33"/>
+      <c r="CC131" s="33"/>
+      <c r="CD131" s="36"/>
+      <c r="CE131" s="36"/>
+      <c r="CF131" s="36"/>
+      <c r="CG131" s="36"/>
+      <c r="CH131" s="36"/>
+      <c r="CI131" s="36"/>
+      <c r="CJ131" s="36"/>
+      <c r="CK131" s="36"/>
+      <c r="CL131" s="36"/>
       <c r="CM131" s="20"/>
       <c r="CN131" s="20"/>
       <c r="CO131" s="20"/>
@@ -38013,7 +38447,7 @@
       <c r="EX131" s="20"/>
       <c r="EY131" s="20"/>
     </row>
-    <row r="132" spans="1:155" s="21" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:155" s="21" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="20"/>
       <c r="C132" s="20"/>
@@ -38091,19 +38525,19 @@
       <c r="BW132" s="11"/>
       <c r="BX132" s="11"/>
       <c r="BY132" s="11"/>
-      <c r="BZ132" s="11"/>
-      <c r="CA132" s="11"/>
-      <c r="CB132" s="11"/>
-      <c r="CC132" s="11"/>
-      <c r="CD132" s="35"/>
-      <c r="CE132" s="35"/>
-      <c r="CF132" s="35"/>
-      <c r="CG132" s="35"/>
-      <c r="CH132" s="35"/>
-      <c r="CI132" s="35"/>
-      <c r="CJ132" s="35"/>
-      <c r="CK132" s="35"/>
-      <c r="CL132" s="20"/>
+      <c r="BZ132" s="33"/>
+      <c r="CA132" s="33"/>
+      <c r="CB132" s="33"/>
+      <c r="CC132" s="33"/>
+      <c r="CD132" s="36"/>
+      <c r="CE132" s="36"/>
+      <c r="CF132" s="36"/>
+      <c r="CG132" s="36"/>
+      <c r="CH132" s="36"/>
+      <c r="CI132" s="36"/>
+      <c r="CJ132" s="36"/>
+      <c r="CK132" s="36"/>
+      <c r="CL132" s="36"/>
       <c r="CM132" s="20"/>
       <c r="CN132" s="20"/>
       <c r="CO132" s="20"/>
@@ -38169,6 +38603,217 @@
       <c r="EW132" s="20"/>
       <c r="EX132" s="20"/>
       <c r="EY132" s="20"/>
+    </row>
+    <row r="133" spans="1:155" x14ac:dyDescent="0.2">
+      <c r="CD133" s="22"/>
+      <c r="CE133" s="22"/>
+      <c r="CF133" s="22"/>
+      <c r="CG133" s="22"/>
+      <c r="CH133" s="22"/>
+      <c r="CI133" s="22"/>
+      <c r="CJ133" s="22"/>
+      <c r="CK133" s="22"/>
+      <c r="CL133" s="22"/>
+    </row>
+    <row r="134" spans="1:155" x14ac:dyDescent="0.2">
+      <c r="CD134" s="22"/>
+      <c r="CE134" s="22"/>
+      <c r="CF134" s="22"/>
+      <c r="CG134" s="22"/>
+      <c r="CH134" s="22"/>
+      <c r="CI134" s="22"/>
+      <c r="CJ134" s="22"/>
+      <c r="CK134" s="22"/>
+      <c r="CL134" s="22"/>
+    </row>
+    <row r="135" spans="1:155" x14ac:dyDescent="0.2">
+      <c r="CD135" s="22"/>
+      <c r="CE135" s="22"/>
+      <c r="CF135" s="22"/>
+      <c r="CG135" s="22"/>
+      <c r="CH135" s="22"/>
+      <c r="CI135" s="22"/>
+      <c r="CJ135" s="22"/>
+      <c r="CK135" s="22"/>
+      <c r="CL135" s="22"/>
+    </row>
+    <row r="136" spans="1:155" x14ac:dyDescent="0.2">
+      <c r="CD136" s="22"/>
+      <c r="CE136" s="22"/>
+      <c r="CF136" s="22"/>
+      <c r="CG136" s="22"/>
+      <c r="CH136" s="22"/>
+      <c r="CI136" s="22"/>
+      <c r="CJ136" s="22"/>
+      <c r="CK136" s="22"/>
+      <c r="CL136" s="22"/>
+    </row>
+    <row r="137" spans="1:155" x14ac:dyDescent="0.2">
+      <c r="CD137" s="22"/>
+      <c r="CE137" s="22"/>
+      <c r="CF137" s="22"/>
+      <c r="CG137" s="22"/>
+      <c r="CH137" s="22"/>
+      <c r="CI137" s="22"/>
+      <c r="CJ137" s="22"/>
+      <c r="CK137" s="22"/>
+      <c r="CL137" s="22"/>
+    </row>
+    <row r="138" spans="1:155" x14ac:dyDescent="0.2">
+      <c r="CC138" s="11"/>
+      <c r="CD138" s="11"/>
+      <c r="CE138" s="11"/>
+      <c r="CF138" s="11"/>
+      <c r="CG138" s="11"/>
+      <c r="CH138" s="11"/>
+      <c r="CI138" s="11"/>
+      <c r="CJ138" s="11"/>
+      <c r="CK138" s="11"/>
+      <c r="CL138" s="11"/>
+    </row>
+    <row r="139" spans="1:155" x14ac:dyDescent="0.2">
+      <c r="CC139" s="11"/>
+      <c r="CD139" s="11"/>
+      <c r="CE139" s="11"/>
+      <c r="CF139" s="11"/>
+      <c r="CG139" s="11"/>
+      <c r="CH139" s="11"/>
+      <c r="CI139" s="11"/>
+      <c r="CJ139" s="11"/>
+      <c r="CK139" s="11"/>
+      <c r="CL139" s="11"/>
+    </row>
+    <row r="140" spans="1:155" x14ac:dyDescent="0.2">
+      <c r="CC140" s="11"/>
+      <c r="CD140" s="11"/>
+      <c r="CE140" s="11"/>
+      <c r="CF140" s="11"/>
+      <c r="CG140" s="11"/>
+      <c r="CH140" s="11"/>
+      <c r="CI140" s="11"/>
+      <c r="CJ140" s="11"/>
+      <c r="CK140" s="11"/>
+      <c r="CL140" s="11"/>
+    </row>
+    <row r="141" spans="1:155" x14ac:dyDescent="0.2">
+      <c r="CC141" s="11"/>
+      <c r="CD141" s="11"/>
+      <c r="CE141" s="11"/>
+      <c r="CF141" s="11"/>
+      <c r="CG141" s="11"/>
+      <c r="CH141" s="11"/>
+      <c r="CI141" s="11"/>
+      <c r="CJ141" s="11"/>
+      <c r="CK141" s="11"/>
+      <c r="CL141" s="11"/>
+    </row>
+    <row r="142" spans="1:155" x14ac:dyDescent="0.2">
+      <c r="CC142" s="11"/>
+      <c r="CD142" s="11"/>
+      <c r="CE142" s="11"/>
+      <c r="CF142" s="11"/>
+      <c r="CG142" s="11"/>
+      <c r="CH142" s="11"/>
+      <c r="CI142" s="11"/>
+      <c r="CJ142" s="11"/>
+      <c r="CK142" s="11"/>
+      <c r="CL142" s="11"/>
+    </row>
+    <row r="143" spans="1:155" x14ac:dyDescent="0.2">
+      <c r="CC143" s="11"/>
+      <c r="CD143" s="11"/>
+      <c r="CE143" s="11"/>
+      <c r="CF143" s="11"/>
+      <c r="CG143" s="11"/>
+      <c r="CH143" s="11"/>
+      <c r="CI143" s="11"/>
+      <c r="CJ143" s="11"/>
+      <c r="CK143" s="11"/>
+      <c r="CL143" s="11"/>
+    </row>
+    <row r="144" spans="1:155" x14ac:dyDescent="0.2">
+      <c r="CC144" s="11"/>
+      <c r="CD144" s="11"/>
+      <c r="CE144" s="11"/>
+      <c r="CF144" s="11"/>
+      <c r="CG144" s="11"/>
+      <c r="CH144" s="11"/>
+      <c r="CI144" s="11"/>
+      <c r="CJ144" s="11"/>
+      <c r="CK144" s="11"/>
+      <c r="CL144" s="11"/>
+    </row>
+    <row r="145" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC145" s="11"/>
+      <c r="CD145" s="11"/>
+      <c r="CE145" s="11"/>
+      <c r="CF145" s="11"/>
+      <c r="CG145" s="11"/>
+      <c r="CH145" s="11"/>
+      <c r="CI145" s="11"/>
+      <c r="CJ145" s="11"/>
+      <c r="CK145" s="11"/>
+      <c r="CL145" s="11"/>
+    </row>
+    <row r="146" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC146" s="11"/>
+      <c r="CD146" s="11"/>
+      <c r="CE146" s="11"/>
+      <c r="CF146" s="11"/>
+      <c r="CG146" s="11"/>
+      <c r="CH146" s="11"/>
+      <c r="CI146" s="11"/>
+      <c r="CJ146" s="11"/>
+      <c r="CK146" s="11"/>
+      <c r="CL146" s="11"/>
+    </row>
+    <row r="147" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC147" s="11"/>
+      <c r="CD147" s="11"/>
+      <c r="CE147" s="11"/>
+      <c r="CF147" s="11"/>
+      <c r="CG147" s="11"/>
+      <c r="CH147" s="11"/>
+      <c r="CI147" s="11"/>
+      <c r="CJ147" s="11"/>
+      <c r="CK147" s="11"/>
+      <c r="CL147" s="11"/>
+    </row>
+    <row r="148" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC148" s="11"/>
+      <c r="CD148" s="11"/>
+      <c r="CE148" s="11"/>
+      <c r="CF148" s="11"/>
+      <c r="CG148" s="11"/>
+      <c r="CH148" s="11"/>
+      <c r="CI148" s="11"/>
+      <c r="CJ148" s="11"/>
+      <c r="CK148" s="11"/>
+      <c r="CL148" s="11"/>
+    </row>
+    <row r="149" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC149" s="11"/>
+      <c r="CD149" s="11"/>
+      <c r="CE149" s="11"/>
+      <c r="CF149" s="11"/>
+      <c r="CG149" s="11"/>
+      <c r="CH149" s="11"/>
+      <c r="CI149" s="11"/>
+      <c r="CJ149" s="11"/>
+      <c r="CK149" s="11"/>
+      <c r="CL149" s="11"/>
+    </row>
+    <row r="150" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC150" s="11"/>
+      <c r="CD150" s="11"/>
+      <c r="CE150" s="11"/>
+      <c r="CF150" s="11"/>
+      <c r="CG150" s="11"/>
+      <c r="CH150" s="11"/>
+      <c r="CI150" s="11"/>
+      <c r="CJ150" s="11"/>
+      <c r="CK150" s="11"/>
+      <c r="CL150" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="152">

--- a/Data/National Accounts/PSA-16IAC_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-16IAC_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Desktop\PSA\NAP\NAP\Q1 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5661D8F-53FD-478E-B5ED-25ECAA472DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012D64B9-0E17-4162-88D8-7128182324A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAC" sheetId="10" r:id="rId1"/>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IAC!$A$1:$CK$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IAC!$A$1:$CM$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -613,13 +613,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of May 2022</t>
+    <t>As of August 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2022</t>
+    <t>Q1 2000 to Q2 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2022</t>
+    <t>Q1 2001 to Q2 2022</t>
   </si>
 </sst>
 </file>
@@ -627,10 +627,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -712,98 +712,79 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2 2" xfId="4" xr:uid="{153A680C-275D-47FB-9C4E-2B6FB08CFC9A}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{C596C309-E0DC-4C73-9C96-02A0A558D262}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23655,129 +23636,48 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EY150"/>
+  <dimension ref="A1:EY132"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BV1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CE1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CI44" sqref="CI44:CL58"/>
+      <selection pane="topRight" activeCell="CH1" sqref="CH1:CM1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" style="1" customWidth="1"/>
-    <col min="2" max="77" width="11.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="9.77734375" style="33" bestFit="1" customWidth="1"/>
-    <col min="79" max="90" width="11.21875" style="33" bestFit="1" customWidth="1"/>
-    <col min="91" max="16384" width="7.77734375" style="11"/>
+    <col min="1" max="1" width="47.6328125" style="1" customWidth="1"/>
+    <col min="2" max="91" width="11.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="92" max="16384" width="7.81640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BZ1" s="22"/>
-      <c r="CA1" s="22"/>
-      <c r="CB1" s="22"/>
-      <c r="CC1" s="22"/>
-      <c r="CD1" s="22"/>
-      <c r="CE1" s="22"/>
-      <c r="CF1" s="22"/>
-      <c r="CG1" s="22"/>
-      <c r="CH1" s="22"/>
-      <c r="CI1" s="22"/>
-      <c r="CJ1" s="22"/>
-      <c r="CK1" s="22"/>
-      <c r="CL1" s="22"/>
     </row>
-    <row r="2" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="BZ2" s="22"/>
-      <c r="CA2" s="22"/>
-      <c r="CB2" s="22"/>
-      <c r="CC2" s="22"/>
-      <c r="CD2" s="22"/>
-      <c r="CE2" s="22"/>
-      <c r="CF2" s="22"/>
-      <c r="CG2" s="22"/>
-      <c r="CH2" s="22"/>
-      <c r="CI2" s="22"/>
-      <c r="CJ2" s="22"/>
-      <c r="CK2" s="22"/>
-      <c r="CL2" s="22"/>
     </row>
-    <row r="3" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="BZ3" s="22"/>
-      <c r="CA3" s="22"/>
-      <c r="CB3" s="22"/>
-      <c r="CC3" s="22"/>
-      <c r="CD3" s="22"/>
-      <c r="CE3" s="22"/>
-      <c r="CF3" s="22"/>
-      <c r="CG3" s="22"/>
-      <c r="CH3" s="22"/>
-      <c r="CI3" s="22"/>
-      <c r="CJ3" s="22"/>
-      <c r="CK3" s="22"/>
-      <c r="CL3" s="22"/>
     </row>
-    <row r="4" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="BZ4" s="22"/>
-      <c r="CA4" s="22"/>
-      <c r="CB4" s="22"/>
-      <c r="CC4" s="22"/>
-      <c r="CD4" s="22"/>
-      <c r="CE4" s="22"/>
-      <c r="CF4" s="22"/>
-      <c r="CG4" s="22"/>
-      <c r="CH4" s="22"/>
-      <c r="CI4" s="22"/>
-      <c r="CJ4" s="22"/>
-      <c r="CK4" s="22"/>
-      <c r="CL4" s="22"/>
-    </row>
-    <row r="5" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="BZ5" s="22"/>
-      <c r="CA5" s="22"/>
-      <c r="CB5" s="22"/>
-      <c r="CC5" s="22"/>
-      <c r="CD5" s="22"/>
-      <c r="CE5" s="22"/>
-      <c r="CF5" s="22"/>
-      <c r="CG5" s="22"/>
-      <c r="CH5" s="22"/>
-      <c r="CI5" s="22"/>
-      <c r="CJ5" s="22"/>
-      <c r="CK5" s="22"/>
-      <c r="CL5" s="22"/>
     </row>
-    <row r="6" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="BZ6" s="22"/>
-      <c r="CA6" s="22"/>
-      <c r="CB6" s="22"/>
-      <c r="CC6" s="22"/>
-      <c r="CD6" s="22"/>
-      <c r="CE6" s="22"/>
-      <c r="CF6" s="22"/>
-      <c r="CG6" s="22"/>
-      <c r="CH6" s="22"/>
-      <c r="CI6" s="22"/>
-      <c r="CJ6" s="22"/>
-      <c r="CK6" s="22"/>
-      <c r="CL6" s="22"/>
     </row>
-    <row r="7" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -23857,21 +23757,22 @@
       <c r="BW7" s="4"/>
       <c r="BX7" s="4"/>
       <c r="BY7" s="4"/>
-      <c r="BZ7" s="23"/>
-      <c r="CA7" s="23"/>
-      <c r="CB7" s="23"/>
-      <c r="CC7" s="23"/>
-      <c r="CD7" s="23"/>
-      <c r="CE7" s="23"/>
-      <c r="CF7" s="23"/>
-      <c r="CG7" s="23"/>
-      <c r="CH7" s="23"/>
-      <c r="CI7" s="23"/>
-      <c r="CJ7" s="23"/>
-      <c r="CK7" s="23"/>
-      <c r="CL7" s="23"/>
+      <c r="BZ7" s="4"/>
+      <c r="CA7" s="4"/>
+      <c r="CB7" s="4"/>
+      <c r="CC7" s="4"/>
+      <c r="CD7" s="4"/>
+      <c r="CE7" s="4"/>
+      <c r="CF7" s="4"/>
+      <c r="CG7" s="4"/>
+      <c r="CH7" s="4"/>
+      <c r="CI7" s="4"/>
+      <c r="CJ7" s="4"/>
+      <c r="CK7" s="4"/>
+      <c r="CL7" s="4"/>
+      <c r="CM7" s="4"/>
     </row>
-    <row r="8" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -23948,159 +23849,161 @@
       <c r="BW8" s="4"/>
       <c r="BX8" s="4"/>
       <c r="BY8" s="4"/>
-      <c r="BZ8" s="23"/>
-      <c r="CA8" s="23"/>
-      <c r="CB8" s="23"/>
-      <c r="CC8" s="23"/>
-      <c r="CD8" s="23"/>
-      <c r="CE8" s="23"/>
-      <c r="CF8" s="23"/>
-      <c r="CG8" s="23"/>
-      <c r="CH8" s="23"/>
-      <c r="CI8" s="23"/>
-      <c r="CJ8" s="23"/>
-      <c r="CK8" s="23"/>
-      <c r="CL8" s="23"/>
+      <c r="BZ8" s="4"/>
+      <c r="CA8" s="4"/>
+      <c r="CB8" s="4"/>
+      <c r="CC8" s="4"/>
+      <c r="CD8" s="4"/>
+      <c r="CE8" s="4"/>
+      <c r="CF8" s="4"/>
+      <c r="CG8" s="4"/>
+      <c r="CH8" s="4"/>
+      <c r="CI8" s="4"/>
+      <c r="CJ8" s="4"/>
+      <c r="CK8" s="4"/>
+      <c r="CL8" s="4"/>
+      <c r="CM8" s="4"/>
     </row>
-    <row r="9" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="38">
+      <c r="B9" s="29">
         <v>2000</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38">
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29">
         <v>2001</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38">
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29">
         <v>2002</v>
       </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38">
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29">
         <v>2003</v>
       </c>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38">
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29">
         <v>2004</v>
       </c>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38">
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29">
         <v>2005</v>
       </c>
-      <c r="W9" s="38"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="38">
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29">
         <v>2006</v>
       </c>
-      <c r="AA9" s="38"/>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="38"/>
-      <c r="AD9" s="38">
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29">
         <v>2007</v>
       </c>
-      <c r="AE9" s="38"/>
-      <c r="AF9" s="38"/>
-      <c r="AG9" s="38"/>
-      <c r="AH9" s="38">
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="29">
         <v>2008</v>
       </c>
-      <c r="AI9" s="38"/>
-      <c r="AJ9" s="38"/>
-      <c r="AK9" s="38"/>
-      <c r="AL9" s="38">
+      <c r="AI9" s="29"/>
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="29"/>
+      <c r="AL9" s="29">
         <v>2009</v>
       </c>
-      <c r="AM9" s="38"/>
-      <c r="AN9" s="38"/>
-      <c r="AO9" s="38"/>
-      <c r="AP9" s="38">
+      <c r="AM9" s="29"/>
+      <c r="AN9" s="29"/>
+      <c r="AO9" s="29"/>
+      <c r="AP9" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="38"/>
-      <c r="AR9" s="38"/>
-      <c r="AS9" s="38"/>
-      <c r="AT9" s="38">
+      <c r="AQ9" s="29"/>
+      <c r="AR9" s="29"/>
+      <c r="AS9" s="29"/>
+      <c r="AT9" s="29">
         <v>2011</v>
       </c>
-      <c r="AU9" s="38"/>
-      <c r="AV9" s="38"/>
-      <c r="AW9" s="38"/>
-      <c r="AX9" s="38">
+      <c r="AU9" s="29"/>
+      <c r="AV9" s="29"/>
+      <c r="AW9" s="29"/>
+      <c r="AX9" s="29">
         <v>2012</v>
       </c>
-      <c r="AY9" s="38"/>
-      <c r="AZ9" s="38"/>
-      <c r="BA9" s="38"/>
-      <c r="BB9" s="38">
+      <c r="AY9" s="29"/>
+      <c r="AZ9" s="29"/>
+      <c r="BA9" s="29"/>
+      <c r="BB9" s="29">
         <v>2013</v>
       </c>
-      <c r="BC9" s="38"/>
-      <c r="BD9" s="38"/>
-      <c r="BE9" s="38"/>
-      <c r="BF9" s="38">
+      <c r="BC9" s="29"/>
+      <c r="BD9" s="29"/>
+      <c r="BE9" s="29"/>
+      <c r="BF9" s="29">
         <v>2014</v>
       </c>
-      <c r="BG9" s="38"/>
-      <c r="BH9" s="38"/>
-      <c r="BI9" s="38"/>
-      <c r="BJ9" s="38">
+      <c r="BG9" s="29"/>
+      <c r="BH9" s="29"/>
+      <c r="BI9" s="29"/>
+      <c r="BJ9" s="29">
         <v>2015</v>
       </c>
-      <c r="BK9" s="38"/>
-      <c r="BL9" s="38"/>
-      <c r="BM9" s="38"/>
-      <c r="BN9" s="38">
+      <c r="BK9" s="29"/>
+      <c r="BL9" s="29"/>
+      <c r="BM9" s="29"/>
+      <c r="BN9" s="29">
         <v>2016</v>
       </c>
-      <c r="BO9" s="38"/>
-      <c r="BP9" s="38"/>
-      <c r="BQ9" s="38"/>
-      <c r="BR9" s="38">
+      <c r="BO9" s="29"/>
+      <c r="BP9" s="29"/>
+      <c r="BQ9" s="29"/>
+      <c r="BR9" s="29">
         <v>2017</v>
       </c>
-      <c r="BS9" s="38"/>
-      <c r="BT9" s="38"/>
-      <c r="BU9" s="38"/>
-      <c r="BV9" s="38">
+      <c r="BS9" s="29"/>
+      <c r="BT9" s="29"/>
+      <c r="BU9" s="29"/>
+      <c r="BV9" s="29">
         <v>2018</v>
       </c>
-      <c r="BW9" s="38"/>
-      <c r="BX9" s="38"/>
-      <c r="BY9" s="38"/>
-      <c r="BZ9" s="37">
+      <c r="BW9" s="29"/>
+      <c r="BX9" s="29"/>
+      <c r="BY9" s="29"/>
+      <c r="BZ9" s="29">
         <v>2019</v>
       </c>
-      <c r="CA9" s="37"/>
-      <c r="CB9" s="37"/>
-      <c r="CC9" s="37"/>
-      <c r="CD9" s="37">
+      <c r="CA9" s="29"/>
+      <c r="CB9" s="29"/>
+      <c r="CC9" s="29"/>
+      <c r="CD9" s="29">
         <v>2020</v>
       </c>
-      <c r="CE9" s="37"/>
-      <c r="CF9" s="37"/>
-      <c r="CG9" s="37"/>
-      <c r="CH9" s="37">
+      <c r="CE9" s="29"/>
+      <c r="CF9" s="29"/>
+      <c r="CG9" s="29"/>
+      <c r="CH9" s="29">
         <v>2021</v>
       </c>
-      <c r="CI9" s="37"/>
-      <c r="CJ9" s="37"/>
-      <c r="CK9" s="37"/>
-      <c r="CL9" s="35">
+      <c r="CI9" s="29"/>
+      <c r="CJ9" s="29"/>
+      <c r="CK9" s="29"/>
+      <c r="CL9" s="29">
         <v>2022</v>
       </c>
+      <c r="CM9" s="29"/>
     </row>
-    <row r="10" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -24332,63 +24235,53 @@
       <c r="BY10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BZ10" s="24" t="s">
+      <c r="BZ10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CA10" s="24" t="s">
+      <c r="CA10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CB10" s="24" t="s">
+      <c r="CB10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CC10" s="24" t="s">
+      <c r="CC10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CD10" s="24" t="s">
+      <c r="CD10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CE10" s="24" t="s">
+      <c r="CE10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CF10" s="24" t="s">
+      <c r="CF10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CG10" s="24" t="s">
+      <c r="CG10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CH10" s="24" t="s">
+      <c r="CH10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CI10" s="24" t="s">
+      <c r="CI10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CJ10" s="24" t="s">
+      <c r="CJ10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CK10" s="24" t="s">
+      <c r="CK10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="24" t="s">
+      <c r="CL10" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="CM10" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:155" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="BZ11" s="22"/>
-      <c r="CA11" s="22"/>
-      <c r="CB11" s="22"/>
-      <c r="CC11" s="22"/>
-      <c r="CD11" s="22"/>
-      <c r="CE11" s="22"/>
-      <c r="CF11" s="22"/>
-      <c r="CG11" s="22"/>
-      <c r="CH11" s="22"/>
-      <c r="CI11" s="22"/>
-      <c r="CJ11" s="22"/>
-      <c r="CK11" s="22"/>
-      <c r="CL11" s="22"/>
     </row>
-    <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -24620,46 +24513,48 @@
       <c r="BY12" s="9">
         <v>14133.490973262298</v>
       </c>
-      <c r="BZ12" s="25">
+      <c r="BZ12" s="9">
         <v>12149.221617435302</v>
       </c>
-      <c r="CA12" s="25">
+      <c r="CA12" s="9">
         <v>13384.2341281628</v>
       </c>
-      <c r="CB12" s="25">
+      <c r="CB12" s="9">
         <v>12099.398970275899</v>
       </c>
-      <c r="CC12" s="25">
+      <c r="CC12" s="9">
         <v>14681.98380856662</v>
       </c>
-      <c r="CD12" s="25">
+      <c r="CD12" s="9">
         <v>11393.980116868197</v>
       </c>
-      <c r="CE12" s="25">
+      <c r="CE12" s="9">
         <v>12108.573048409726</v>
       </c>
-      <c r="CF12" s="25">
+      <c r="CF12" s="9">
         <v>10244.740905068393</v>
       </c>
-      <c r="CG12" s="25">
+      <c r="CG12" s="9">
         <v>12909.246363876082</v>
       </c>
-      <c r="CH12" s="25">
+      <c r="CH12" s="23">
         <v>12113.544674658446</v>
       </c>
-      <c r="CI12" s="25">
+      <c r="CI12" s="23">
         <v>14605.254957948833</v>
       </c>
-      <c r="CJ12" s="25">
+      <c r="CJ12" s="23">
         <v>11165.172496488034</v>
       </c>
-      <c r="CK12" s="25">
+      <c r="CK12" s="23">
         <v>13588.692210501686</v>
       </c>
-      <c r="CL12" s="25">
-        <v>13437.841987627886</v>
-      </c>
-      <c r="CM12" s="10"/>
+      <c r="CL12" s="23">
+        <v>13674.517426510189</v>
+      </c>
+      <c r="CM12" s="23">
+        <v>17730.940947453673</v>
+      </c>
       <c r="CN12" s="10"/>
       <c r="CO12" s="10"/>
       <c r="CP12" s="10"/>
@@ -24725,7 +24620,7 @@
       <c r="EX12" s="10"/>
       <c r="EY12" s="10"/>
     </row>
-    <row r="13" spans="1:155" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
@@ -24957,46 +24852,48 @@
       <c r="BY13" s="13">
         <v>133883.95079916096</v>
       </c>
-      <c r="BZ13" s="26">
+      <c r="BZ13" s="13">
         <v>117780.357425159</v>
       </c>
-      <c r="CA13" s="26">
+      <c r="CA13" s="13">
         <v>127018.55505566399</v>
       </c>
-      <c r="CB13" s="26">
+      <c r="CB13" s="13">
         <v>114646.946753232</v>
       </c>
-      <c r="CC13" s="26">
+      <c r="CC13" s="13">
         <v>151072.99259984598</v>
       </c>
-      <c r="CD13" s="26">
+      <c r="CD13" s="13">
         <v>124728.56156237319</v>
       </c>
-      <c r="CE13" s="26">
+      <c r="CE13" s="13">
         <v>144553.35300760382</v>
       </c>
-      <c r="CF13" s="26">
+      <c r="CF13" s="13">
         <v>121094.282752477</v>
       </c>
-      <c r="CG13" s="26">
+      <c r="CG13" s="13">
         <v>156006.63750067563</v>
       </c>
-      <c r="CH13" s="26">
+      <c r="CH13" s="24">
         <v>132765.03266022948</v>
       </c>
-      <c r="CI13" s="26">
+      <c r="CI13" s="24">
         <v>156621.19254735979</v>
       </c>
-      <c r="CJ13" s="26">
+      <c r="CJ13" s="24">
         <v>129862.37479275418</v>
       </c>
-      <c r="CK13" s="26">
+      <c r="CK13" s="24">
         <v>169470.95456995119</v>
       </c>
-      <c r="CL13" s="26">
-        <v>143794.43233360819</v>
-      </c>
-      <c r="CM13" s="10"/>
+      <c r="CL13" s="24">
+        <v>143166.42879095653</v>
+      </c>
+      <c r="CM13" s="24">
+        <v>172907.46953728941</v>
+      </c>
       <c r="CN13" s="10"/>
       <c r="CO13" s="10"/>
       <c r="CP13" s="10"/>
@@ -25062,7 +24959,7 @@
       <c r="EX13" s="10"/>
       <c r="EY13" s="10"/>
     </row>
-    <row r="14" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -25139,20 +25036,20 @@
       <c r="BW14" s="14"/>
       <c r="BX14" s="14"/>
       <c r="BY14" s="14"/>
-      <c r="BZ14" s="27"/>
-      <c r="CA14" s="27"/>
-      <c r="CB14" s="27"/>
-      <c r="CC14" s="27"/>
-      <c r="CD14" s="27"/>
-      <c r="CE14" s="27"/>
-      <c r="CF14" s="27"/>
-      <c r="CG14" s="27"/>
-      <c r="CH14" s="27"/>
-      <c r="CI14" s="27"/>
-      <c r="CJ14" s="27"/>
-      <c r="CK14" s="27"/>
-      <c r="CL14" s="27"/>
-      <c r="CM14" s="10"/>
+      <c r="BZ14" s="14"/>
+      <c r="CA14" s="14"/>
+      <c r="CB14" s="14"/>
+      <c r="CC14" s="14"/>
+      <c r="CD14" s="14"/>
+      <c r="CE14" s="14"/>
+      <c r="CF14" s="14"/>
+      <c r="CG14" s="14"/>
+      <c r="CH14" s="25"/>
+      <c r="CI14" s="25"/>
+      <c r="CJ14" s="25"/>
+      <c r="CK14" s="25"/>
+      <c r="CL14" s="25"/>
+      <c r="CM14" s="25"/>
       <c r="CN14" s="10"/>
       <c r="CO14" s="10"/>
       <c r="CP14" s="10"/>
@@ -25218,7 +25115,7 @@
       <c r="EX14" s="10"/>
       <c r="EY14" s="10"/>
     </row>
-    <row r="15" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>11</v>
       </c>
@@ -25450,46 +25347,48 @@
       <c r="BY15" s="15">
         <v>148017.44177242325</v>
       </c>
-      <c r="BZ15" s="28">
+      <c r="BZ15" s="15">
         <v>129929.5790425943</v>
       </c>
-      <c r="CA15" s="28">
+      <c r="CA15" s="15">
         <v>140402.7891838268</v>
       </c>
-      <c r="CB15" s="28">
+      <c r="CB15" s="15">
         <v>126746.3457235079</v>
       </c>
-      <c r="CC15" s="28">
+      <c r="CC15" s="15">
         <v>165754.97640841259</v>
       </c>
-      <c r="CD15" s="28">
+      <c r="CD15" s="15">
         <v>136122.54167924137</v>
       </c>
-      <c r="CE15" s="28">
+      <c r="CE15" s="15">
         <v>156661.92605601353</v>
       </c>
-      <c r="CF15" s="28">
+      <c r="CF15" s="15">
         <v>131339.02365754539</v>
       </c>
-      <c r="CG15" s="28">
+      <c r="CG15" s="15">
         <v>168915.88386455172</v>
       </c>
-      <c r="CH15" s="28">
+      <c r="CH15" s="26">
         <v>144878.57733488793</v>
       </c>
-      <c r="CI15" s="28">
+      <c r="CI15" s="26">
         <v>171226.44750530864</v>
       </c>
-      <c r="CJ15" s="28">
+      <c r="CJ15" s="26">
         <v>141027.54728924221</v>
       </c>
-      <c r="CK15" s="28">
+      <c r="CK15" s="26">
         <v>183059.64678045287</v>
       </c>
-      <c r="CL15" s="28">
-        <v>157232.27432123607</v>
-      </c>
-      <c r="CM15" s="10"/>
+      <c r="CL15" s="26">
+        <v>156840.94621746673</v>
+      </c>
+      <c r="CM15" s="26">
+        <v>190638.41048474307</v>
+      </c>
       <c r="CN15" s="10"/>
       <c r="CO15" s="10"/>
       <c r="CP15" s="10"/>
@@ -25555,7 +25454,7 @@
       <c r="EX15" s="10"/>
       <c r="EY15" s="10"/>
     </row>
-    <row r="16" spans="1:155" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:155" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -25633,39 +25532,27 @@
       <c r="BW16" s="16"/>
       <c r="BX16" s="16"/>
       <c r="BY16" s="16"/>
-      <c r="BZ16" s="29"/>
-      <c r="CA16" s="29"/>
-      <c r="CB16" s="29"/>
-      <c r="CC16" s="29"/>
-      <c r="CD16" s="29"/>
-      <c r="CE16" s="29"/>
-      <c r="CF16" s="29"/>
-      <c r="CG16" s="29"/>
-      <c r="CH16" s="29"/>
-      <c r="CI16" s="29"/>
-      <c r="CJ16" s="29"/>
-      <c r="CK16" s="29"/>
-      <c r="CL16" s="29"/>
+      <c r="BZ16" s="16"/>
+      <c r="CA16" s="16"/>
+      <c r="CB16" s="16"/>
+      <c r="CC16" s="16"/>
+      <c r="CD16" s="16"/>
+      <c r="CE16" s="16"/>
+      <c r="CF16" s="16"/>
+      <c r="CG16" s="16"/>
+      <c r="CH16" s="16"/>
+      <c r="CI16" s="16"/>
+      <c r="CJ16" s="16"/>
+      <c r="CK16" s="16"/>
+      <c r="CL16" s="16"/>
+      <c r="CM16" s="16"/>
     </row>
-    <row r="17" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="BZ17" s="22"/>
-      <c r="CA17" s="22"/>
-      <c r="CB17" s="22"/>
-      <c r="CC17" s="22"/>
-      <c r="CD17" s="22"/>
-      <c r="CE17" s="22"/>
-      <c r="CF17" s="22"/>
-      <c r="CG17" s="22"/>
-      <c r="CH17" s="22"/>
-      <c r="CI17" s="22"/>
-      <c r="CJ17" s="22"/>
-      <c r="CK17" s="22"/>
-      <c r="CL17" s="22"/>
     </row>
-    <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -25742,19 +25629,19 @@
       <c r="BW18" s="10"/>
       <c r="BX18" s="10"/>
       <c r="BY18" s="10"/>
-      <c r="BZ18" s="30"/>
-      <c r="CA18" s="30"/>
-      <c r="CB18" s="30"/>
-      <c r="CC18" s="30"/>
-      <c r="CD18" s="30"/>
-      <c r="CE18" s="30"/>
-      <c r="CF18" s="30"/>
-      <c r="CG18" s="30"/>
-      <c r="CH18" s="30"/>
-      <c r="CI18" s="30"/>
-      <c r="CJ18" s="30"/>
-      <c r="CK18" s="30"/>
-      <c r="CL18" s="30"/>
+      <c r="BZ18" s="10"/>
+      <c r="CA18" s="10"/>
+      <c r="CB18" s="10"/>
+      <c r="CC18" s="10"/>
+      <c r="CD18" s="10"/>
+      <c r="CE18" s="10"/>
+      <c r="CF18" s="10"/>
+      <c r="CG18" s="10"/>
+      <c r="CH18" s="10"/>
+      <c r="CI18" s="10"/>
+      <c r="CJ18" s="10"/>
+      <c r="CK18" s="10"/>
+      <c r="CL18" s="10"/>
       <c r="CM18" s="10"/>
       <c r="CN18" s="10"/>
       <c r="CO18" s="10"/>
@@ -25821,7 +25708,7 @@
       <c r="EX18" s="10"/>
       <c r="EY18" s="10"/>
     </row>
-    <row r="19" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -25898,19 +25785,19 @@
       <c r="BW19" s="10"/>
       <c r="BX19" s="10"/>
       <c r="BY19" s="10"/>
-      <c r="BZ19" s="30"/>
-      <c r="CA19" s="30"/>
-      <c r="CB19" s="30"/>
-      <c r="CC19" s="30"/>
-      <c r="CD19" s="30"/>
-      <c r="CE19" s="30"/>
-      <c r="CF19" s="30"/>
-      <c r="CG19" s="30"/>
-      <c r="CH19" s="30"/>
-      <c r="CI19" s="30"/>
-      <c r="CJ19" s="30"/>
-      <c r="CK19" s="30"/>
-      <c r="CL19" s="30"/>
+      <c r="BZ19" s="10"/>
+      <c r="CA19" s="10"/>
+      <c r="CB19" s="10"/>
+      <c r="CC19" s="10"/>
+      <c r="CD19" s="10"/>
+      <c r="CE19" s="10"/>
+      <c r="CF19" s="10"/>
+      <c r="CG19" s="10"/>
+      <c r="CH19" s="10"/>
+      <c r="CI19" s="10"/>
+      <c r="CJ19" s="10"/>
+      <c r="CK19" s="10"/>
+      <c r="CL19" s="10"/>
       <c r="CM19" s="10"/>
       <c r="CN19" s="10"/>
       <c r="CO19" s="10"/>
@@ -25977,112 +25864,33 @@
       <c r="EX19" s="10"/>
       <c r="EY19" s="10"/>
     </row>
-    <row r="20" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BZ20" s="22"/>
-      <c r="CA20" s="22"/>
-      <c r="CB20" s="22"/>
-      <c r="CC20" s="22"/>
-      <c r="CD20" s="22"/>
-      <c r="CE20" s="22"/>
-      <c r="CF20" s="22"/>
-      <c r="CG20" s="22"/>
-      <c r="CH20" s="22"/>
-      <c r="CI20" s="22"/>
-      <c r="CJ20" s="22"/>
-      <c r="CK20" s="22"/>
-      <c r="CL20" s="22"/>
     </row>
-    <row r="21" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="BZ21" s="22"/>
-      <c r="CA21" s="22"/>
-      <c r="CB21" s="22"/>
-      <c r="CC21" s="22"/>
-      <c r="CD21" s="22"/>
-      <c r="CE21" s="22"/>
-      <c r="CF21" s="22"/>
-      <c r="CG21" s="22"/>
-      <c r="CH21" s="22"/>
-      <c r="CI21" s="22"/>
-      <c r="CJ21" s="22"/>
-      <c r="CK21" s="22"/>
-      <c r="CL21" s="22"/>
     </row>
-    <row r="22" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BZ22" s="22"/>
-      <c r="CA22" s="22"/>
-      <c r="CB22" s="22"/>
-      <c r="CC22" s="22"/>
-      <c r="CD22" s="22"/>
-      <c r="CE22" s="22"/>
-      <c r="CF22" s="22"/>
-      <c r="CG22" s="22"/>
-      <c r="CH22" s="22"/>
-      <c r="CI22" s="22"/>
-      <c r="CJ22" s="22"/>
-      <c r="CK22" s="22"/>
-      <c r="CL22" s="22"/>
     </row>
-    <row r="23" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="BZ23" s="22"/>
-      <c r="CA23" s="22"/>
-      <c r="CB23" s="22"/>
-      <c r="CC23" s="22"/>
-      <c r="CD23" s="22"/>
-      <c r="CE23" s="22"/>
-      <c r="CF23" s="22"/>
-      <c r="CG23" s="22"/>
-      <c r="CH23" s="22"/>
-      <c r="CI23" s="22"/>
-      <c r="CJ23" s="22"/>
-      <c r="CK23" s="22"/>
-      <c r="CL23" s="22"/>
-    </row>
-    <row r="24" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="BZ24" s="22"/>
-      <c r="CA24" s="22"/>
-      <c r="CB24" s="22"/>
-      <c r="CC24" s="22"/>
-      <c r="CD24" s="22"/>
-      <c r="CE24" s="22"/>
-      <c r="CF24" s="22"/>
-      <c r="CG24" s="22"/>
-      <c r="CH24" s="22"/>
-      <c r="CI24" s="22"/>
-      <c r="CJ24" s="22"/>
-      <c r="CK24" s="22"/>
-      <c r="CL24" s="22"/>
     </row>
-    <row r="25" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BZ25" s="22"/>
-      <c r="CA25" s="22"/>
-      <c r="CB25" s="22"/>
-      <c r="CC25" s="22"/>
-      <c r="CD25" s="22"/>
-      <c r="CE25" s="22"/>
-      <c r="CF25" s="22"/>
-      <c r="CG25" s="22"/>
-      <c r="CH25" s="22"/>
-      <c r="CI25" s="22"/>
-      <c r="CJ25" s="22"/>
-      <c r="CK25" s="22"/>
-      <c r="CL25" s="22"/>
     </row>
-    <row r="26" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -26162,21 +25970,22 @@
       <c r="BW26" s="4"/>
       <c r="BX26" s="4"/>
       <c r="BY26" s="4"/>
-      <c r="BZ26" s="23"/>
-      <c r="CA26" s="23"/>
-      <c r="CB26" s="23"/>
-      <c r="CC26" s="23"/>
-      <c r="CD26" s="23"/>
-      <c r="CE26" s="23"/>
-      <c r="CF26" s="23"/>
-      <c r="CG26" s="23"/>
-      <c r="CH26" s="23"/>
-      <c r="CI26" s="23"/>
-      <c r="CJ26" s="23"/>
-      <c r="CK26" s="23"/>
-      <c r="CL26" s="23"/>
+      <c r="BZ26" s="4"/>
+      <c r="CA26" s="4"/>
+      <c r="CB26" s="4"/>
+      <c r="CC26" s="4"/>
+      <c r="CD26" s="4"/>
+      <c r="CE26" s="4"/>
+      <c r="CF26" s="4"/>
+      <c r="CG26" s="4"/>
+      <c r="CH26" s="4"/>
+      <c r="CI26" s="4"/>
+      <c r="CJ26" s="4"/>
+      <c r="CK26" s="4"/>
+      <c r="CL26" s="4"/>
+      <c r="CM26" s="4"/>
     </row>
-    <row r="27" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -26253,159 +26062,161 @@
       <c r="BW27" s="4"/>
       <c r="BX27" s="4"/>
       <c r="BY27" s="4"/>
-      <c r="BZ27" s="23"/>
-      <c r="CA27" s="23"/>
-      <c r="CB27" s="23"/>
-      <c r="CC27" s="23"/>
-      <c r="CD27" s="23"/>
-      <c r="CE27" s="23"/>
-      <c r="CF27" s="23"/>
-      <c r="CG27" s="23"/>
-      <c r="CH27" s="23"/>
-      <c r="CI27" s="23"/>
-      <c r="CJ27" s="23"/>
-      <c r="CK27" s="23"/>
-      <c r="CL27" s="23"/>
+      <c r="BZ27" s="4"/>
+      <c r="CA27" s="4"/>
+      <c r="CB27" s="4"/>
+      <c r="CC27" s="4"/>
+      <c r="CD27" s="4"/>
+      <c r="CE27" s="4"/>
+      <c r="CF27" s="4"/>
+      <c r="CG27" s="4"/>
+      <c r="CH27" s="4"/>
+      <c r="CI27" s="4"/>
+      <c r="CJ27" s="4"/>
+      <c r="CK27" s="4"/>
+      <c r="CL27" s="4"/>
+      <c r="CM27" s="4"/>
     </row>
-    <row r="28" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="38">
+      <c r="B28" s="29">
         <v>2000</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="38">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="29">
         <v>2001</v>
       </c>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="38">
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="29">
         <v>2002</v>
       </c>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="38">
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="29">
         <v>2003</v>
       </c>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="38">
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="29">
         <v>2004</v>
       </c>
-      <c r="S28" s="39"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="38">
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="29">
         <v>2005</v>
       </c>
-      <c r="W28" s="39"/>
-      <c r="X28" s="39"/>
-      <c r="Y28" s="39"/>
-      <c r="Z28" s="38">
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="29">
         <v>2006</v>
       </c>
-      <c r="AA28" s="39"/>
-      <c r="AB28" s="39"/>
-      <c r="AC28" s="39"/>
-      <c r="AD28" s="38">
+      <c r="AA28" s="30"/>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="29">
         <v>2007</v>
       </c>
-      <c r="AE28" s="39"/>
-      <c r="AF28" s="39"/>
-      <c r="AG28" s="39"/>
-      <c r="AH28" s="38">
+      <c r="AE28" s="30"/>
+      <c r="AF28" s="30"/>
+      <c r="AG28" s="30"/>
+      <c r="AH28" s="29">
         <v>2008</v>
       </c>
-      <c r="AI28" s="39"/>
-      <c r="AJ28" s="39"/>
-      <c r="AK28" s="39"/>
-      <c r="AL28" s="38">
+      <c r="AI28" s="30"/>
+      <c r="AJ28" s="30"/>
+      <c r="AK28" s="30"/>
+      <c r="AL28" s="29">
         <v>2009</v>
       </c>
-      <c r="AM28" s="39"/>
-      <c r="AN28" s="39"/>
-      <c r="AO28" s="39"/>
-      <c r="AP28" s="38">
+      <c r="AM28" s="30"/>
+      <c r="AN28" s="30"/>
+      <c r="AO28" s="30"/>
+      <c r="AP28" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="39"/>
-      <c r="AR28" s="39"/>
-      <c r="AS28" s="39"/>
-      <c r="AT28" s="38">
+      <c r="AQ28" s="30"/>
+      <c r="AR28" s="30"/>
+      <c r="AS28" s="30"/>
+      <c r="AT28" s="29">
         <v>2011</v>
       </c>
-      <c r="AU28" s="39"/>
-      <c r="AV28" s="39"/>
-      <c r="AW28" s="39"/>
-      <c r="AX28" s="38">
+      <c r="AU28" s="30"/>
+      <c r="AV28" s="30"/>
+      <c r="AW28" s="30"/>
+      <c r="AX28" s="29">
         <v>2012</v>
       </c>
-      <c r="AY28" s="39"/>
-      <c r="AZ28" s="39"/>
-      <c r="BA28" s="39"/>
-      <c r="BB28" s="38">
+      <c r="AY28" s="30"/>
+      <c r="AZ28" s="30"/>
+      <c r="BA28" s="30"/>
+      <c r="BB28" s="29">
         <v>2013</v>
       </c>
-      <c r="BC28" s="39"/>
-      <c r="BD28" s="39"/>
-      <c r="BE28" s="39"/>
-      <c r="BF28" s="38">
+      <c r="BC28" s="30"/>
+      <c r="BD28" s="30"/>
+      <c r="BE28" s="30"/>
+      <c r="BF28" s="29">
         <v>2014</v>
       </c>
-      <c r="BG28" s="39"/>
-      <c r="BH28" s="39"/>
-      <c r="BI28" s="39"/>
-      <c r="BJ28" s="38">
+      <c r="BG28" s="30"/>
+      <c r="BH28" s="30"/>
+      <c r="BI28" s="30"/>
+      <c r="BJ28" s="29">
         <v>2015</v>
       </c>
-      <c r="BK28" s="39"/>
-      <c r="BL28" s="39"/>
-      <c r="BM28" s="39"/>
-      <c r="BN28" s="38">
+      <c r="BK28" s="30"/>
+      <c r="BL28" s="30"/>
+      <c r="BM28" s="30"/>
+      <c r="BN28" s="29">
         <v>2016</v>
       </c>
-      <c r="BO28" s="39"/>
-      <c r="BP28" s="39"/>
-      <c r="BQ28" s="39"/>
-      <c r="BR28" s="38">
+      <c r="BO28" s="30"/>
+      <c r="BP28" s="30"/>
+      <c r="BQ28" s="30"/>
+      <c r="BR28" s="29">
         <v>2017</v>
       </c>
-      <c r="BS28" s="39"/>
-      <c r="BT28" s="39"/>
-      <c r="BU28" s="39"/>
-      <c r="BV28" s="38">
+      <c r="BS28" s="30"/>
+      <c r="BT28" s="30"/>
+      <c r="BU28" s="30"/>
+      <c r="BV28" s="29">
         <v>2018</v>
       </c>
-      <c r="BW28" s="39"/>
-      <c r="BX28" s="39"/>
-      <c r="BY28" s="39"/>
-      <c r="BZ28" s="37">
+      <c r="BW28" s="30"/>
+      <c r="BX28" s="30"/>
+      <c r="BY28" s="30"/>
+      <c r="BZ28" s="29">
         <v>2019</v>
       </c>
-      <c r="CA28" s="40"/>
-      <c r="CB28" s="40"/>
-      <c r="CC28" s="40"/>
-      <c r="CD28" s="37">
+      <c r="CA28" s="30"/>
+      <c r="CB28" s="30"/>
+      <c r="CC28" s="30"/>
+      <c r="CD28" s="29">
         <v>2020</v>
       </c>
-      <c r="CE28" s="37"/>
-      <c r="CF28" s="37"/>
-      <c r="CG28" s="37"/>
-      <c r="CH28" s="37">
+      <c r="CE28" s="30"/>
+      <c r="CF28" s="30"/>
+      <c r="CG28" s="30"/>
+      <c r="CH28" s="29">
         <v>2021</v>
       </c>
-      <c r="CI28" s="37"/>
-      <c r="CJ28" s="37"/>
-      <c r="CK28" s="37"/>
-      <c r="CL28" s="35">
+      <c r="CI28" s="29"/>
+      <c r="CJ28" s="29"/>
+      <c r="CK28" s="29"/>
+      <c r="CL28" s="29">
         <v>2022</v>
       </c>
+      <c r="CM28" s="29"/>
     </row>
-    <row r="29" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>4</v>
       </c>
@@ -26637,63 +26448,53 @@
       <c r="BY29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BZ29" s="24" t="s">
+      <c r="BZ29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CA29" s="24" t="s">
+      <c r="CA29" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CB29" s="24" t="s">
+      <c r="CB29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CC29" s="24" t="s">
+      <c r="CC29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CD29" s="24" t="s">
+      <c r="CD29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CE29" s="24" t="s">
+      <c r="CE29" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CF29" s="24" t="s">
+      <c r="CF29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CG29" s="24" t="s">
+      <c r="CG29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CH29" s="24" t="s">
+      <c r="CH29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CI29" s="24" t="s">
+      <c r="CI29" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CJ29" s="24" t="s">
+      <c r="CJ29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CK29" s="24" t="s">
+      <c r="CK29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL29" s="24" t="s">
+      <c r="CL29" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="CM29" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="30" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:155" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-      <c r="BZ30" s="22"/>
-      <c r="CA30" s="22"/>
-      <c r="CB30" s="22"/>
-      <c r="CC30" s="22"/>
-      <c r="CD30" s="22"/>
-      <c r="CE30" s="22"/>
-      <c r="CF30" s="22"/>
-      <c r="CG30" s="22"/>
-      <c r="CH30" s="22"/>
-      <c r="CI30" s="22"/>
-      <c r="CJ30" s="22"/>
-      <c r="CK30" s="22"/>
-      <c r="CL30" s="22"/>
     </row>
-    <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
@@ -26925,46 +26726,48 @@
       <c r="BY31" s="9">
         <v>13478.542764865451</v>
       </c>
-      <c r="BZ31" s="25">
+      <c r="BZ31" s="9">
         <v>12133.33386001138</v>
       </c>
-      <c r="CA31" s="25">
+      <c r="CA31" s="9">
         <v>14494.388640013192</v>
       </c>
-      <c r="CB31" s="25">
+      <c r="CB31" s="9">
         <v>11886.103007050217</v>
       </c>
-      <c r="CC31" s="25">
+      <c r="CC31" s="9">
         <v>14230.028474379236</v>
       </c>
-      <c r="CD31" s="25">
+      <c r="CD31" s="9">
         <v>11120.821393148262</v>
       </c>
-      <c r="CE31" s="25">
+      <c r="CE31" s="9">
         <v>12690.909792573402</v>
       </c>
-      <c r="CF31" s="25">
+      <c r="CF31" s="9">
         <v>9836.4756992029033</v>
       </c>
-      <c r="CG31" s="25">
+      <c r="CG31" s="9">
         <v>12359.835018081292</v>
       </c>
-      <c r="CH31" s="25">
+      <c r="CH31" s="23">
         <v>11752.137308528625</v>
       </c>
-      <c r="CI31" s="25">
+      <c r="CI31" s="23">
         <v>15161.936536093632</v>
       </c>
-      <c r="CJ31" s="25">
+      <c r="CJ31" s="23">
         <v>10497.799914721076</v>
       </c>
-      <c r="CK31" s="25">
+      <c r="CK31" s="23">
         <v>12731.158125827416</v>
       </c>
-      <c r="CL31" s="25">
-        <v>12772.565345081272</v>
-      </c>
-      <c r="CM31" s="10"/>
+      <c r="CL31" s="23">
+        <v>12997.523527465259</v>
+      </c>
+      <c r="CM31" s="23">
+        <v>18395.463258659925</v>
+      </c>
       <c r="CN31" s="10"/>
       <c r="CO31" s="10"/>
       <c r="CP31" s="10"/>
@@ -27030,7 +26833,7 @@
       <c r="EX31" s="10"/>
       <c r="EY31" s="10"/>
     </row>
-    <row r="32" spans="1:155" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>12</v>
       </c>
@@ -27262,46 +27065,48 @@
       <c r="BY32" s="13">
         <v>135053.40863118207</v>
       </c>
-      <c r="BZ32" s="26">
+      <c r="BZ32" s="13">
         <v>119377.97941870878</v>
       </c>
-      <c r="CA32" s="26">
+      <c r="CA32" s="13">
         <v>126151.95504350016</v>
       </c>
-      <c r="CB32" s="26">
+      <c r="CB32" s="13">
         <v>108922.83925501075</v>
       </c>
-      <c r="CC32" s="26">
+      <c r="CC32" s="13">
         <v>149810.51456454353</v>
       </c>
-      <c r="CD32" s="26">
+      <c r="CD32" s="13">
         <v>126624.64149777297</v>
       </c>
-      <c r="CE32" s="26">
+      <c r="CE32" s="13">
         <v>142972.21571596686</v>
       </c>
-      <c r="CF32" s="26">
+      <c r="CF32" s="13">
         <v>114602.05535598358</v>
       </c>
-      <c r="CG32" s="26">
+      <c r="CG32" s="13">
         <v>154978.16252944485</v>
       </c>
-      <c r="CH32" s="26">
+      <c r="CH32" s="24">
         <v>135096.28078563506</v>
       </c>
-      <c r="CI32" s="26">
+      <c r="CI32" s="24">
         <v>160162.09878251256</v>
       </c>
-      <c r="CJ32" s="26">
+      <c r="CJ32" s="24">
         <v>124617.58590255863</v>
       </c>
-      <c r="CK32" s="26">
+      <c r="CK32" s="24">
         <v>169104.13256901762</v>
       </c>
-      <c r="CL32" s="26">
-        <v>145362.38685189161</v>
-      </c>
-      <c r="CM32" s="10"/>
+      <c r="CL32" s="24">
+        <v>144727.53547114064</v>
+      </c>
+      <c r="CM32" s="24">
+        <v>175718.69670166302</v>
+      </c>
       <c r="CN32" s="10"/>
       <c r="CO32" s="10"/>
       <c r="CP32" s="10"/>
@@ -27367,7 +27172,7 @@
       <c r="EX32" s="10"/>
       <c r="EY32" s="10"/>
     </row>
-    <row r="33" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -27444,19 +27249,19 @@
       <c r="BW33" s="10"/>
       <c r="BX33" s="10"/>
       <c r="BY33" s="10"/>
-      <c r="BZ33" s="30"/>
-      <c r="CA33" s="30"/>
-      <c r="CB33" s="30"/>
-      <c r="CC33" s="30"/>
-      <c r="CD33" s="30"/>
-      <c r="CE33" s="30"/>
-      <c r="CF33" s="30"/>
-      <c r="CG33" s="30"/>
-      <c r="CH33" s="30"/>
-      <c r="CI33" s="30"/>
-      <c r="CJ33" s="30"/>
-      <c r="CK33" s="30"/>
-      <c r="CL33" s="30"/>
+      <c r="BZ33" s="10"/>
+      <c r="CA33" s="10"/>
+      <c r="CB33" s="10"/>
+      <c r="CC33" s="10"/>
+      <c r="CD33" s="10"/>
+      <c r="CE33" s="10"/>
+      <c r="CF33" s="10"/>
+      <c r="CG33" s="10"/>
+      <c r="CH33" s="10"/>
+      <c r="CI33" s="10"/>
+      <c r="CJ33" s="10"/>
+      <c r="CK33" s="10"/>
+      <c r="CL33" s="10"/>
       <c r="CM33" s="10"/>
       <c r="CN33" s="10"/>
       <c r="CO33" s="10"/>
@@ -27523,7 +27328,7 @@
       <c r="EX33" s="10"/>
       <c r="EY33" s="10"/>
     </row>
-    <row r="34" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>11</v>
       </c>
@@ -27755,46 +27560,48 @@
       <c r="BY34" s="15">
         <v>148531.95139604752</v>
       </c>
-      <c r="BZ34" s="28">
+      <c r="BZ34" s="15">
         <v>131511.31327872016</v>
       </c>
-      <c r="CA34" s="28">
+      <c r="CA34" s="15">
         <v>140646.34368351335</v>
       </c>
-      <c r="CB34" s="28">
+      <c r="CB34" s="15">
         <v>120808.94226206097</v>
       </c>
-      <c r="CC34" s="28">
+      <c r="CC34" s="15">
         <v>164040.54303892277</v>
       </c>
-      <c r="CD34" s="28">
+      <c r="CD34" s="15">
         <v>137745.46289092125</v>
       </c>
-      <c r="CE34" s="28">
+      <c r="CE34" s="15">
         <v>155663.12550854025</v>
       </c>
-      <c r="CF34" s="28">
+      <c r="CF34" s="15">
         <v>124438.53105518648</v>
       </c>
-      <c r="CG34" s="28">
+      <c r="CG34" s="15">
         <v>167337.99754752615</v>
       </c>
-      <c r="CH34" s="28">
+      <c r="CH34" s="26">
         <v>146848.41809416367</v>
       </c>
-      <c r="CI34" s="28">
+      <c r="CI34" s="26">
         <v>175324.03531860618</v>
       </c>
-      <c r="CJ34" s="28">
+      <c r="CJ34" s="26">
         <v>135115.38581727969</v>
       </c>
-      <c r="CK34" s="28">
+      <c r="CK34" s="26">
         <v>181835.29069484503</v>
       </c>
-      <c r="CL34" s="28">
-        <v>158134.95219697288</v>
-      </c>
-      <c r="CM34" s="10"/>
+      <c r="CL34" s="26">
+        <v>157725.05899860591</v>
+      </c>
+      <c r="CM34" s="26">
+        <v>194114.15996032296</v>
+      </c>
       <c r="CN34" s="10"/>
       <c r="CO34" s="10"/>
       <c r="CP34" s="10"/>
@@ -27860,7 +27667,7 @@
       <c r="EX34" s="10"/>
       <c r="EY34" s="10"/>
     </row>
-    <row r="35" spans="1:155" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:155" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -27938,39 +27745,27 @@
       <c r="BW35" s="16"/>
       <c r="BX35" s="16"/>
       <c r="BY35" s="16"/>
-      <c r="BZ35" s="29"/>
-      <c r="CA35" s="29"/>
-      <c r="CB35" s="29"/>
-      <c r="CC35" s="29"/>
-      <c r="CD35" s="29"/>
-      <c r="CE35" s="29"/>
-      <c r="CF35" s="29"/>
-      <c r="CG35" s="29"/>
-      <c r="CH35" s="29"/>
-      <c r="CI35" s="29"/>
-      <c r="CJ35" s="29"/>
-      <c r="CK35" s="29"/>
-      <c r="CL35" s="29"/>
+      <c r="BZ35" s="16"/>
+      <c r="CA35" s="16"/>
+      <c r="CB35" s="16"/>
+      <c r="CC35" s="16"/>
+      <c r="CD35" s="16"/>
+      <c r="CE35" s="16"/>
+      <c r="CF35" s="16"/>
+      <c r="CG35" s="16"/>
+      <c r="CH35" s="16"/>
+      <c r="CI35" s="16"/>
+      <c r="CJ35" s="16"/>
+      <c r="CK35" s="16"/>
+      <c r="CL35" s="16"/>
+      <c r="CM35" s="16"/>
     </row>
-    <row r="36" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="BZ36" s="22"/>
-      <c r="CA36" s="22"/>
-      <c r="CB36" s="22"/>
-      <c r="CC36" s="22"/>
-      <c r="CD36" s="22"/>
-      <c r="CE36" s="22"/>
-      <c r="CF36" s="22"/>
-      <c r="CG36" s="22"/>
-      <c r="CH36" s="22"/>
-      <c r="CI36" s="22"/>
-      <c r="CJ36" s="22"/>
-      <c r="CK36" s="22"/>
-      <c r="CL36" s="22"/>
     </row>
-    <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -28047,19 +27842,19 @@
       <c r="BW37" s="10"/>
       <c r="BX37" s="10"/>
       <c r="BY37" s="10"/>
-      <c r="BZ37" s="30"/>
-      <c r="CA37" s="30"/>
-      <c r="CB37" s="30"/>
-      <c r="CC37" s="30"/>
-      <c r="CD37" s="30"/>
-      <c r="CE37" s="30"/>
-      <c r="CF37" s="30"/>
-      <c r="CG37" s="30"/>
-      <c r="CH37" s="30"/>
-      <c r="CI37" s="30"/>
-      <c r="CJ37" s="30"/>
-      <c r="CK37" s="30"/>
-      <c r="CL37" s="30"/>
+      <c r="BZ37" s="10"/>
+      <c r="CA37" s="10"/>
+      <c r="CB37" s="10"/>
+      <c r="CC37" s="10"/>
+      <c r="CD37" s="10"/>
+      <c r="CE37" s="10"/>
+      <c r="CF37" s="10"/>
+      <c r="CG37" s="10"/>
+      <c r="CH37" s="10"/>
+      <c r="CI37" s="10"/>
+      <c r="CJ37" s="10"/>
+      <c r="CK37" s="10"/>
+      <c r="CL37" s="10"/>
       <c r="CM37" s="10"/>
       <c r="CN37" s="10"/>
       <c r="CO37" s="10"/>
@@ -28126,7 +27921,7 @@
       <c r="EX37" s="10"/>
       <c r="EY37" s="10"/>
     </row>
-    <row r="38" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -28203,19 +27998,19 @@
       <c r="BW38" s="10"/>
       <c r="BX38" s="10"/>
       <c r="BY38" s="10"/>
-      <c r="BZ38" s="30"/>
-      <c r="CA38" s="30"/>
-      <c r="CB38" s="30"/>
-      <c r="CC38" s="30"/>
-      <c r="CD38" s="30"/>
-      <c r="CE38" s="30"/>
-      <c r="CF38" s="30"/>
-      <c r="CG38" s="30"/>
-      <c r="CH38" s="30"/>
-      <c r="CI38" s="30"/>
-      <c r="CJ38" s="30"/>
-      <c r="CK38" s="30"/>
-      <c r="CL38" s="30"/>
+      <c r="BZ38" s="10"/>
+      <c r="CA38" s="10"/>
+      <c r="CB38" s="10"/>
+      <c r="CC38" s="10"/>
+      <c r="CD38" s="10"/>
+      <c r="CE38" s="10"/>
+      <c r="CF38" s="10"/>
+      <c r="CG38" s="10"/>
+      <c r="CH38" s="10"/>
+      <c r="CI38" s="10"/>
+      <c r="CJ38" s="10"/>
+      <c r="CK38" s="10"/>
+      <c r="CL38" s="10"/>
       <c r="CM38" s="10"/>
       <c r="CN38" s="10"/>
       <c r="CO38" s="10"/>
@@ -28282,281 +28077,176 @@
       <c r="EX38" s="10"/>
       <c r="EY38" s="10"/>
     </row>
-    <row r="39" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BZ39" s="22"/>
-      <c r="CA39" s="22"/>
-      <c r="CB39" s="22"/>
-      <c r="CC39" s="22"/>
-      <c r="CD39" s="22"/>
-      <c r="CE39" s="22"/>
-      <c r="CF39" s="22"/>
-      <c r="CG39" s="22"/>
-      <c r="CH39" s="22"/>
-      <c r="CI39" s="22"/>
-      <c r="CJ39" s="22"/>
-      <c r="CK39" s="22"/>
-      <c r="CL39" s="22"/>
     </row>
-    <row r="40" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BZ40" s="22"/>
-      <c r="CA40" s="22"/>
-      <c r="CB40" s="22"/>
-      <c r="CC40" s="22"/>
-      <c r="CD40" s="22"/>
-      <c r="CE40" s="22"/>
-      <c r="CF40" s="22"/>
-      <c r="CG40" s="22"/>
-      <c r="CH40" s="22"/>
-      <c r="CI40" s="22"/>
-      <c r="CJ40" s="22"/>
-      <c r="CK40" s="22"/>
-      <c r="CL40" s="22"/>
     </row>
-    <row r="41" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BZ41" s="22"/>
-      <c r="CA41" s="22"/>
-      <c r="CB41" s="22"/>
-      <c r="CC41" s="22"/>
-      <c r="CD41" s="22"/>
-      <c r="CE41" s="22"/>
-      <c r="CF41" s="22"/>
-      <c r="CG41" s="22"/>
-      <c r="CH41" s="22"/>
-      <c r="CI41" s="22"/>
-      <c r="CJ41" s="22"/>
-      <c r="CK41" s="22"/>
-      <c r="CL41" s="22"/>
     </row>
-    <row r="42" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="BZ42" s="22"/>
-      <c r="CA42" s="22"/>
-      <c r="CB42" s="22"/>
-      <c r="CC42" s="22"/>
-      <c r="CD42" s="22"/>
-      <c r="CE42" s="22"/>
-      <c r="CF42" s="22"/>
-      <c r="CG42" s="22"/>
-      <c r="CH42" s="22"/>
-      <c r="CI42" s="22"/>
-      <c r="CJ42" s="22"/>
-      <c r="CK42" s="22"/>
-      <c r="CL42" s="22"/>
-    </row>
-    <row r="43" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="BZ43" s="22"/>
-      <c r="CA43" s="22"/>
-      <c r="CB43" s="22"/>
-      <c r="CC43" s="22"/>
-      <c r="CD43" s="22"/>
-      <c r="CE43" s="22"/>
-      <c r="CF43" s="22"/>
-      <c r="CG43" s="22"/>
-      <c r="CH43" s="22"/>
-      <c r="CI43" s="22"/>
-      <c r="CJ43" s="22"/>
-      <c r="CK43" s="22"/>
-      <c r="CL43" s="22"/>
     </row>
-    <row r="44" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="BZ44" s="22"/>
-      <c r="CA44" s="22"/>
-      <c r="CB44" s="22"/>
-      <c r="CC44" s="22"/>
-      <c r="CD44" s="22"/>
-      <c r="CE44" s="22"/>
-      <c r="CF44" s="22"/>
-      <c r="CG44" s="22"/>
-      <c r="CH44" s="22"/>
-      <c r="CI44" s="42"/>
-      <c r="CJ44" s="42"/>
-      <c r="CK44" s="42"/>
-      <c r="CL44" s="42"/>
     </row>
-    <row r="45" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BZ45" s="22"/>
-      <c r="CA45" s="22"/>
-      <c r="CB45" s="22"/>
-      <c r="CC45" s="22"/>
-      <c r="CD45" s="22"/>
-      <c r="CE45" s="22"/>
-      <c r="CF45" s="22"/>
-      <c r="CG45" s="22"/>
-      <c r="CH45" s="22"/>
-      <c r="CI45" s="42"/>
-      <c r="CJ45" s="42"/>
-      <c r="CK45" s="42"/>
-      <c r="CL45" s="42"/>
     </row>
-    <row r="46" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="BZ46" s="22"/>
-      <c r="CA46" s="22"/>
-      <c r="CB46" s="22"/>
-      <c r="CC46" s="22"/>
-      <c r="CD46" s="22"/>
-      <c r="CE46" s="22"/>
-      <c r="CF46" s="22"/>
-      <c r="CG46" s="22"/>
-      <c r="CH46" s="22"/>
-      <c r="CI46" s="42"/>
-      <c r="CJ46" s="42"/>
-      <c r="CK46" s="42"/>
-      <c r="CL46" s="42"/>
+    <row r="46" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="29"/>
+      <c r="V47" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="W47" s="29"/>
+      <c r="X47" s="29"/>
+      <c r="Y47" s="29"/>
+      <c r="Z47" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA47" s="29"/>
+      <c r="AB47" s="29"/>
+      <c r="AC47" s="29"/>
+      <c r="AD47" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE47" s="29"/>
+      <c r="AF47" s="29"/>
+      <c r="AG47" s="29"/>
+      <c r="AH47" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI47" s="29"/>
+      <c r="AJ47" s="29"/>
+      <c r="AK47" s="29"/>
+      <c r="AL47" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM47" s="29"/>
+      <c r="AN47" s="29"/>
+      <c r="AO47" s="29"/>
+      <c r="AP47" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ47" s="29"/>
+      <c r="AR47" s="29"/>
+      <c r="AS47" s="29"/>
+      <c r="AT47" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU47" s="29"/>
+      <c r="AV47" s="29"/>
+      <c r="AW47" s="29"/>
+      <c r="AX47" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AY47" s="29"/>
+      <c r="AZ47" s="29"/>
+      <c r="BA47" s="29"/>
+      <c r="BB47" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC47" s="29"/>
+      <c r="BD47" s="29"/>
+      <c r="BE47" s="29"/>
+      <c r="BF47" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG47" s="29"/>
+      <c r="BH47" s="29"/>
+      <c r="BI47" s="29"/>
+      <c r="BJ47" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="BK47" s="29"/>
+      <c r="BL47" s="29"/>
+      <c r="BM47" s="29"/>
+      <c r="BN47" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="BO47" s="29"/>
+      <c r="BP47" s="29"/>
+      <c r="BQ47" s="29"/>
+      <c r="BR47" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="BS47" s="29"/>
+      <c r="BT47" s="29"/>
+      <c r="BU47" s="29"/>
+      <c r="BV47" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="BW47" s="29"/>
+      <c r="BX47" s="29"/>
+      <c r="BY47" s="29"/>
+      <c r="BZ47" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="CA47" s="29"/>
+      <c r="CB47" s="29"/>
+      <c r="CC47" s="29"/>
+      <c r="CD47" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="CE47" s="29"/>
+      <c r="CF47" s="29"/>
+      <c r="CG47" s="29"/>
+      <c r="CH47" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="CI47" s="29"/>
+      <c r="CJ47" s="27"/>
+      <c r="CK47" s="27"/>
+      <c r="CL47" s="22"/>
+      <c r="CM47" s="22"/>
     </row>
-    <row r="47" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="5"/>
-      <c r="B47" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="O47" s="38"/>
-      <c r="P47" s="38"/>
-      <c r="Q47" s="38"/>
-      <c r="R47" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="S47" s="38"/>
-      <c r="T47" s="38"/>
-      <c r="U47" s="38"/>
-      <c r="V47" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="W47" s="38"/>
-      <c r="X47" s="38"/>
-      <c r="Y47" s="38"/>
-      <c r="Z47" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA47" s="38"/>
-      <c r="AB47" s="38"/>
-      <c r="AC47" s="38"/>
-      <c r="AD47" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE47" s="38"/>
-      <c r="AF47" s="38"/>
-      <c r="AG47" s="38"/>
-      <c r="AH47" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI47" s="38"/>
-      <c r="AJ47" s="38"/>
-      <c r="AK47" s="38"/>
-      <c r="AL47" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM47" s="38"/>
-      <c r="AN47" s="38"/>
-      <c r="AO47" s="38"/>
-      <c r="AP47" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ47" s="38"/>
-      <c r="AR47" s="38"/>
-      <c r="AS47" s="38"/>
-      <c r="AT47" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="AU47" s="38"/>
-      <c r="AV47" s="38"/>
-      <c r="AW47" s="38"/>
-      <c r="AX47" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="AY47" s="38"/>
-      <c r="AZ47" s="38"/>
-      <c r="BA47" s="38"/>
-      <c r="BB47" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="BC47" s="38"/>
-      <c r="BD47" s="38"/>
-      <c r="BE47" s="38"/>
-      <c r="BF47" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="BG47" s="38"/>
-      <c r="BH47" s="38"/>
-      <c r="BI47" s="38"/>
-      <c r="BJ47" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="BK47" s="38"/>
-      <c r="BL47" s="38"/>
-      <c r="BM47" s="38"/>
-      <c r="BN47" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="BO47" s="38"/>
-      <c r="BP47" s="38"/>
-      <c r="BQ47" s="38"/>
-      <c r="BR47" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="BS47" s="38"/>
-      <c r="BT47" s="38"/>
-      <c r="BU47" s="38"/>
-      <c r="BV47" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="BW47" s="38"/>
-      <c r="BX47" s="38"/>
-      <c r="BY47" s="38"/>
-      <c r="BZ47" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="CA47" s="37"/>
-      <c r="CB47" s="37"/>
-      <c r="CC47" s="37"/>
-      <c r="CD47" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="CE47" s="37"/>
-      <c r="CF47" s="37"/>
-      <c r="CG47" s="37"/>
-      <c r="CH47" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="CI47" s="43"/>
-      <c r="CJ47" s="43"/>
-      <c r="CK47" s="43"/>
-      <c r="CL47" s="44"/>
-    </row>
-    <row r="48" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>4</v>
       </c>
@@ -28788,55 +28478,45 @@
       <c r="BY48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ48" s="34" t="s">
+      <c r="BZ48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA48" s="34" t="s">
+      <c r="CA48" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB48" s="34" t="s">
+      <c r="CB48" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC48" s="34" t="s">
+      <c r="CC48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CD48" s="34" t="s">
+      <c r="CD48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CE48" s="34" t="s">
+      <c r="CE48" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CF48" s="34" t="s">
+      <c r="CF48" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CG48" s="34" t="s">
+      <c r="CG48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CH48" s="34" t="s">
+      <c r="CH48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CI48" s="43"/>
-      <c r="CJ48" s="43"/>
-      <c r="CK48" s="43"/>
-      <c r="CL48" s="43"/>
+      <c r="CI48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ48" s="6"/>
+      <c r="CK48" s="6"/>
+      <c r="CL48" s="6"/>
+      <c r="CM48" s="28"/>
     </row>
-    <row r="49" spans="1:151" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:151" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
-      <c r="BZ49" s="22"/>
-      <c r="CA49" s="22"/>
-      <c r="CB49" s="22"/>
-      <c r="CC49" s="22"/>
-      <c r="CD49" s="22"/>
-      <c r="CE49" s="22"/>
-      <c r="CF49" s="22"/>
-      <c r="CG49" s="22"/>
-      <c r="CH49" s="22"/>
-      <c r="CI49" s="42"/>
-      <c r="CJ49" s="42"/>
-      <c r="CK49" s="42"/>
-      <c r="CL49" s="42"/>
     </row>
-    <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>27</v>
       </c>
@@ -29068,38 +28748,40 @@
       <c r="BY50" s="18">
         <v>3.8808022472434942</v>
       </c>
-      <c r="BZ50" s="32">
+      <c r="BZ50" s="18">
         <v>-6.2163776770954655</v>
       </c>
-      <c r="CA50" s="32">
+      <c r="CA50" s="18">
         <v>-9.5310726600998095</v>
       </c>
-      <c r="CB50" s="32">
+      <c r="CB50" s="18">
         <v>-15.328514001098483</v>
       </c>
-      <c r="CC50" s="32">
+      <c r="CC50" s="18">
         <v>-12.07423647788103</v>
       </c>
-      <c r="CD50" s="32">
+      <c r="CD50" s="18">
         <v>6.3153046644777788</v>
       </c>
-      <c r="CE50" s="32">
+      <c r="CE50" s="18">
         <v>20.619125800847414</v>
       </c>
-      <c r="CF50" s="32">
+      <c r="CF50" s="18">
         <v>8.9844301573724863</v>
       </c>
-      <c r="CG50" s="32">
+      <c r="CG50" s="18">
         <v>5.263249514912772</v>
       </c>
-      <c r="CH50" s="32">
-        <v>10.932368258317254</v>
-      </c>
-      <c r="CI50" s="45"/>
-      <c r="CJ50" s="45"/>
-      <c r="CK50" s="45"/>
-      <c r="CL50" s="45"/>
-      <c r="CM50" s="10"/>
+      <c r="CH50" s="18">
+        <v>12.886176538542855</v>
+      </c>
+      <c r="CI50" s="18">
+        <v>21.401105276862722</v>
+      </c>
+      <c r="CJ50" s="18"/>
+      <c r="CK50" s="18"/>
+      <c r="CL50" s="18"/>
+      <c r="CM50" s="19"/>
       <c r="CN50" s="10"/>
       <c r="CO50" s="10"/>
       <c r="CP50" s="10"/>
@@ -29161,7 +28843,7 @@
       <c r="ET50" s="10"/>
       <c r="EU50" s="10"/>
     </row>
-    <row r="51" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>12</v>
       </c>
@@ -29393,38 +29075,40 @@
       <c r="BY51" s="18">
         <v>12.838762001033473</v>
       </c>
-      <c r="BZ51" s="32">
+      <c r="BZ51" s="18">
         <v>5.8992893969007127</v>
       </c>
-      <c r="CA51" s="32">
+      <c r="CA51" s="18">
         <v>13.804910585115266</v>
       </c>
-      <c r="CB51" s="32">
+      <c r="CB51" s="18">
         <v>5.6236438752462732</v>
       </c>
-      <c r="CC51" s="32">
+      <c r="CC51" s="18">
         <v>3.2657358644490699</v>
       </c>
-      <c r="CD51" s="32">
+      <c r="CD51" s="18">
         <v>6.4431682665060634</v>
       </c>
-      <c r="CE51" s="32">
+      <c r="CE51" s="18">
         <v>8.3483636239978409</v>
       </c>
-      <c r="CF51" s="32">
+      <c r="CF51" s="18">
         <v>7.2407151196391482</v>
       </c>
-      <c r="CG51" s="32">
+      <c r="CG51" s="18">
         <v>8.6306052646107929</v>
       </c>
-      <c r="CH51" s="32">
-        <v>8.3074582609450971</v>
-      </c>
-      <c r="CI51" s="45"/>
-      <c r="CJ51" s="45"/>
-      <c r="CK51" s="45"/>
-      <c r="CL51" s="45"/>
-      <c r="CM51" s="10"/>
+      <c r="CH51" s="18">
+        <v>7.8344394772576607</v>
+      </c>
+      <c r="CI51" s="18">
+        <v>10.39851422725242</v>
+      </c>
+      <c r="CJ51" s="18"/>
+      <c r="CK51" s="18"/>
+      <c r="CL51" s="18"/>
+      <c r="CM51" s="19"/>
       <c r="CN51" s="10"/>
       <c r="CO51" s="10"/>
       <c r="CP51" s="10"/>
@@ -29486,7 +29170,7 @@
       <c r="ET51" s="10"/>
       <c r="EU51" s="10"/>
     </row>
-    <row r="52" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
@@ -29564,20 +29248,20 @@
       <c r="BW52" s="19"/>
       <c r="BX52" s="19"/>
       <c r="BY52" s="19"/>
-      <c r="BZ52" s="31"/>
-      <c r="CA52" s="31"/>
-      <c r="CB52" s="31"/>
-      <c r="CC52" s="31"/>
-      <c r="CD52" s="31"/>
-      <c r="CE52" s="31"/>
-      <c r="CF52" s="31"/>
-      <c r="CG52" s="31"/>
-      <c r="CH52" s="31"/>
-      <c r="CI52" s="45"/>
-      <c r="CJ52" s="45"/>
-      <c r="CK52" s="45"/>
-      <c r="CL52" s="45"/>
-      <c r="CM52" s="10"/>
+      <c r="BZ52" s="19"/>
+      <c r="CA52" s="19"/>
+      <c r="CB52" s="19"/>
+      <c r="CC52" s="19"/>
+      <c r="CD52" s="19"/>
+      <c r="CE52" s="19"/>
+      <c r="CF52" s="19"/>
+      <c r="CG52" s="19"/>
+      <c r="CH52" s="19"/>
+      <c r="CI52" s="19"/>
+      <c r="CJ52" s="19"/>
+      <c r="CK52" s="19"/>
+      <c r="CL52" s="19"/>
+      <c r="CM52" s="19"/>
       <c r="CN52" s="10"/>
       <c r="CO52" s="10"/>
       <c r="CP52" s="10"/>
@@ -29639,7 +29323,7 @@
       <c r="ET52" s="10"/>
       <c r="EU52" s="10"/>
     </row>
-    <row r="53" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>11</v>
       </c>
@@ -29871,38 +29555,40 @@
       <c r="BY53" s="18">
         <v>11.983408457538928</v>
       </c>
-      <c r="BZ53" s="32">
+      <c r="BZ53" s="18">
         <v>4.7663993697823628</v>
       </c>
-      <c r="CA53" s="32">
+      <c r="CA53" s="18">
         <v>11.580351762740946</v>
       </c>
-      <c r="CB53" s="32">
+      <c r="CB53" s="18">
         <v>3.623519011787721</v>
       </c>
-      <c r="CC53" s="32">
+      <c r="CC53" s="18">
         <v>1.9069759017978498</v>
       </c>
-      <c r="CD53" s="32">
+      <c r="CD53" s="18">
         <v>6.4324655913928268</v>
       </c>
-      <c r="CE53" s="32">
+      <c r="CE53" s="18">
         <v>9.2967843661564871</v>
       </c>
-      <c r="CF53" s="32">
+      <c r="CF53" s="18">
         <v>7.3767288364795291</v>
       </c>
-      <c r="CG53" s="32">
+      <c r="CG53" s="18">
         <v>8.3732580929112572</v>
       </c>
-      <c r="CH53" s="32">
-        <v>8.526931457776854</v>
-      </c>
-      <c r="CI53" s="45"/>
-      <c r="CJ53" s="45"/>
-      <c r="CK53" s="45"/>
-      <c r="CL53" s="45"/>
-      <c r="CM53" s="10"/>
+      <c r="CH53" s="18">
+        <v>8.2568238193888988</v>
+      </c>
+      <c r="CI53" s="18">
+        <v>11.337012045894724</v>
+      </c>
+      <c r="CJ53" s="18"/>
+      <c r="CK53" s="18"/>
+      <c r="CL53" s="18"/>
+      <c r="CM53" s="19"/>
       <c r="CN53" s="10"/>
       <c r="CO53" s="10"/>
       <c r="CP53" s="10"/>
@@ -29964,7 +29650,7 @@
       <c r="ET53" s="10"/>
       <c r="EU53" s="10"/>
     </row>
-    <row r="54" spans="1:151" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:151" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
@@ -30042,39 +29728,27 @@
       <c r="BW54" s="16"/>
       <c r="BX54" s="16"/>
       <c r="BY54" s="16"/>
-      <c r="BZ54" s="29"/>
-      <c r="CA54" s="29"/>
-      <c r="CB54" s="29"/>
-      <c r="CC54" s="29"/>
-      <c r="CD54" s="29"/>
-      <c r="CE54" s="29"/>
-      <c r="CF54" s="29"/>
-      <c r="CG54" s="29"/>
-      <c r="CH54" s="29"/>
-      <c r="CI54" s="46"/>
-      <c r="CJ54" s="46"/>
-      <c r="CK54" s="46"/>
-      <c r="CL54" s="46"/>
+      <c r="BZ54" s="16"/>
+      <c r="CA54" s="16"/>
+      <c r="CB54" s="16"/>
+      <c r="CC54" s="16"/>
+      <c r="CD54" s="16"/>
+      <c r="CE54" s="16"/>
+      <c r="CF54" s="16"/>
+      <c r="CG54" s="16"/>
+      <c r="CH54" s="16"/>
+      <c r="CI54" s="16"/>
+      <c r="CJ54" s="16"/>
+      <c r="CK54" s="16"/>
+      <c r="CL54" s="16"/>
+      <c r="CM54" s="16"/>
     </row>
-    <row r="55" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="BZ55" s="22"/>
-      <c r="CA55" s="22"/>
-      <c r="CB55" s="22"/>
-      <c r="CC55" s="22"/>
-      <c r="CD55" s="22"/>
-      <c r="CE55" s="22"/>
-      <c r="CF55" s="22"/>
-      <c r="CG55" s="22"/>
-      <c r="CH55" s="22"/>
-      <c r="CI55" s="42"/>
-      <c r="CJ55" s="42"/>
-      <c r="CK55" s="42"/>
-      <c r="CL55" s="42"/>
     </row>
-    <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -30151,20 +29825,20 @@
       <c r="BW56" s="10"/>
       <c r="BX56" s="10"/>
       <c r="BY56" s="10"/>
-      <c r="BZ56" s="30"/>
-      <c r="CA56" s="30"/>
-      <c r="CB56" s="30"/>
-      <c r="CC56" s="30"/>
-      <c r="CD56" s="30"/>
-      <c r="CE56" s="30"/>
-      <c r="CF56" s="30"/>
-      <c r="CG56" s="30"/>
-      <c r="CH56" s="30"/>
-      <c r="CI56" s="45"/>
-      <c r="CJ56" s="45"/>
-      <c r="CK56" s="45"/>
-      <c r="CL56" s="45"/>
-      <c r="CM56" s="10"/>
+      <c r="BZ56" s="10"/>
+      <c r="CA56" s="10"/>
+      <c r="CB56" s="10"/>
+      <c r="CC56" s="10"/>
+      <c r="CD56" s="10"/>
+      <c r="CE56" s="10"/>
+      <c r="CF56" s="10"/>
+      <c r="CG56" s="10"/>
+      <c r="CH56" s="10"/>
+      <c r="CI56" s="10"/>
+      <c r="CJ56" s="10"/>
+      <c r="CK56" s="10"/>
+      <c r="CL56" s="10"/>
+      <c r="CM56" s="19"/>
       <c r="CN56" s="10"/>
       <c r="CO56" s="10"/>
       <c r="CP56" s="10"/>
@@ -30226,7 +29900,7 @@
       <c r="ET56" s="10"/>
       <c r="EU56" s="10"/>
     </row>
-    <row r="57" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -30303,20 +29977,20 @@
       <c r="BW57" s="10"/>
       <c r="BX57" s="10"/>
       <c r="BY57" s="10"/>
-      <c r="BZ57" s="30"/>
-      <c r="CA57" s="30"/>
-      <c r="CB57" s="30"/>
-      <c r="CC57" s="30"/>
-      <c r="CD57" s="30"/>
-      <c r="CE57" s="30"/>
-      <c r="CF57" s="30"/>
-      <c r="CG57" s="30"/>
-      <c r="CH57" s="30"/>
-      <c r="CI57" s="45"/>
-      <c r="CJ57" s="45"/>
-      <c r="CK57" s="45"/>
-      <c r="CL57" s="45"/>
-      <c r="CM57" s="10"/>
+      <c r="BZ57" s="10"/>
+      <c r="CA57" s="10"/>
+      <c r="CB57" s="10"/>
+      <c r="CC57" s="10"/>
+      <c r="CD57" s="10"/>
+      <c r="CE57" s="10"/>
+      <c r="CF57" s="10"/>
+      <c r="CG57" s="10"/>
+      <c r="CH57" s="10"/>
+      <c r="CI57" s="10"/>
+      <c r="CJ57" s="10"/>
+      <c r="CK57" s="10"/>
+      <c r="CL57" s="10"/>
+      <c r="CM57" s="19"/>
       <c r="CN57" s="10"/>
       <c r="CO57" s="10"/>
       <c r="CP57" s="10"/>
@@ -30378,281 +30052,176 @@
       <c r="ET57" s="10"/>
       <c r="EU57" s="10"/>
     </row>
-    <row r="58" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BZ58" s="22"/>
-      <c r="CA58" s="22"/>
-      <c r="CB58" s="22"/>
-      <c r="CC58" s="22"/>
-      <c r="CD58" s="22"/>
-      <c r="CE58" s="22"/>
-      <c r="CF58" s="22"/>
-      <c r="CG58" s="22"/>
-      <c r="CH58" s="22"/>
-      <c r="CI58" s="42"/>
-      <c r="CJ58" s="42"/>
-      <c r="CK58" s="42"/>
-      <c r="CL58" s="42"/>
     </row>
-    <row r="59" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BZ59" s="22"/>
-      <c r="CA59" s="22"/>
-      <c r="CB59" s="22"/>
-      <c r="CC59" s="22"/>
-      <c r="CD59" s="22"/>
-      <c r="CE59" s="22"/>
-      <c r="CF59" s="22"/>
-      <c r="CG59" s="22"/>
-      <c r="CH59" s="22"/>
-      <c r="CI59" s="22"/>
-      <c r="CJ59" s="22"/>
-      <c r="CK59" s="22"/>
-      <c r="CL59" s="22"/>
     </row>
-    <row r="60" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BZ60" s="22"/>
-      <c r="CA60" s="22"/>
-      <c r="CB60" s="22"/>
-      <c r="CC60" s="22"/>
-      <c r="CD60" s="22"/>
-      <c r="CE60" s="22"/>
-      <c r="CF60" s="22"/>
-      <c r="CG60" s="22"/>
-      <c r="CH60" s="22"/>
-      <c r="CI60" s="22"/>
-      <c r="CJ60" s="22"/>
-      <c r="CK60" s="22"/>
-      <c r="CL60" s="22"/>
     </row>
-    <row r="61" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="BZ61" s="22"/>
-      <c r="CA61" s="22"/>
-      <c r="CB61" s="22"/>
-      <c r="CC61" s="22"/>
-      <c r="CD61" s="22"/>
-      <c r="CE61" s="22"/>
-      <c r="CF61" s="22"/>
-      <c r="CG61" s="22"/>
-      <c r="CH61" s="22"/>
-      <c r="CI61" s="22"/>
-      <c r="CJ61" s="22"/>
-      <c r="CK61" s="22"/>
-      <c r="CL61" s="22"/>
-    </row>
-    <row r="62" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="BZ62" s="22"/>
-      <c r="CA62" s="22"/>
-      <c r="CB62" s="22"/>
-      <c r="CC62" s="22"/>
-      <c r="CD62" s="22"/>
-      <c r="CE62" s="22"/>
-      <c r="CF62" s="22"/>
-      <c r="CG62" s="22"/>
-      <c r="CH62" s="22"/>
-      <c r="CI62" s="22"/>
-      <c r="CJ62" s="22"/>
-      <c r="CK62" s="22"/>
-      <c r="CL62" s="22"/>
     </row>
-    <row r="63" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BZ63" s="22"/>
-      <c r="CA63" s="22"/>
-      <c r="CB63" s="22"/>
-      <c r="CC63" s="22"/>
-      <c r="CD63" s="22"/>
-      <c r="CE63" s="22"/>
-      <c r="CF63" s="22"/>
-      <c r="CG63" s="22"/>
-      <c r="CH63" s="22"/>
-      <c r="CI63" s="42"/>
-      <c r="CJ63" s="42"/>
-      <c r="CK63" s="42"/>
-      <c r="CL63" s="42"/>
     </row>
-    <row r="64" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="BZ64" s="22"/>
-      <c r="CA64" s="22"/>
-      <c r="CB64" s="22"/>
-      <c r="CC64" s="22"/>
-      <c r="CD64" s="22"/>
-      <c r="CE64" s="22"/>
-      <c r="CF64" s="22"/>
-      <c r="CG64" s="22"/>
-      <c r="CH64" s="22"/>
-      <c r="CI64" s="42"/>
-      <c r="CJ64" s="42"/>
-      <c r="CK64" s="42"/>
-      <c r="CL64" s="42"/>
     </row>
-    <row r="65" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="BZ65" s="22"/>
-      <c r="CA65" s="22"/>
-      <c r="CB65" s="22"/>
-      <c r="CC65" s="22"/>
-      <c r="CD65" s="22"/>
-      <c r="CE65" s="22"/>
-      <c r="CF65" s="22"/>
-      <c r="CG65" s="22"/>
-      <c r="CH65" s="22"/>
-      <c r="CI65" s="42"/>
-      <c r="CJ65" s="42"/>
-      <c r="CK65" s="42"/>
-      <c r="CL65" s="42"/>
+    <row r="65" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="B66" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="O66" s="31"/>
+      <c r="P66" s="31"/>
+      <c r="Q66" s="31"/>
+      <c r="R66" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="S66" s="31"/>
+      <c r="T66" s="31"/>
+      <c r="U66" s="31"/>
+      <c r="V66" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="W66" s="31"/>
+      <c r="X66" s="31"/>
+      <c r="Y66" s="31"/>
+      <c r="Z66" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA66" s="31"/>
+      <c r="AB66" s="31"/>
+      <c r="AC66" s="31"/>
+      <c r="AD66" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE66" s="31"/>
+      <c r="AF66" s="31"/>
+      <c r="AG66" s="31"/>
+      <c r="AH66" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI66" s="31"/>
+      <c r="AJ66" s="31"/>
+      <c r="AK66" s="31"/>
+      <c r="AL66" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM66" s="31"/>
+      <c r="AN66" s="31"/>
+      <c r="AO66" s="31"/>
+      <c r="AP66" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ66" s="31"/>
+      <c r="AR66" s="31"/>
+      <c r="AS66" s="31"/>
+      <c r="AT66" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU66" s="31"/>
+      <c r="AV66" s="31"/>
+      <c r="AW66" s="31"/>
+      <c r="AX66" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AY66" s="31"/>
+      <c r="AZ66" s="31"/>
+      <c r="BA66" s="31"/>
+      <c r="BB66" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC66" s="31"/>
+      <c r="BD66" s="31"/>
+      <c r="BE66" s="31"/>
+      <c r="BF66" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG66" s="31"/>
+      <c r="BH66" s="31"/>
+      <c r="BI66" s="31"/>
+      <c r="BJ66" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="BK66" s="31"/>
+      <c r="BL66" s="31"/>
+      <c r="BM66" s="31"/>
+      <c r="BN66" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="BO66" s="31"/>
+      <c r="BP66" s="31"/>
+      <c r="BQ66" s="31"/>
+      <c r="BR66" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="BS66" s="31"/>
+      <c r="BT66" s="31"/>
+      <c r="BU66" s="31"/>
+      <c r="BV66" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="BW66" s="31"/>
+      <c r="BX66" s="31"/>
+      <c r="BY66" s="31"/>
+      <c r="BZ66" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="CA66" s="31"/>
+      <c r="CB66" s="31"/>
+      <c r="CC66" s="31"/>
+      <c r="CD66" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="CE66" s="31"/>
+      <c r="CF66" s="31"/>
+      <c r="CG66" s="31"/>
+      <c r="CH66" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="CI66" s="29"/>
+      <c r="CJ66" s="27"/>
+      <c r="CK66" s="27"/>
+      <c r="CL66" s="22"/>
+      <c r="CM66" s="22"/>
     </row>
-    <row r="66" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="5"/>
-      <c r="B66" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G66" s="41"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="41"/>
-      <c r="J66" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="K66" s="41"/>
-      <c r="L66" s="41"/>
-      <c r="M66" s="41"/>
-      <c r="N66" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="O66" s="41"/>
-      <c r="P66" s="41"/>
-      <c r="Q66" s="41"/>
-      <c r="R66" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="S66" s="41"/>
-      <c r="T66" s="41"/>
-      <c r="U66" s="41"/>
-      <c r="V66" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="W66" s="41"/>
-      <c r="X66" s="41"/>
-      <c r="Y66" s="41"/>
-      <c r="Z66" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA66" s="41"/>
-      <c r="AB66" s="41"/>
-      <c r="AC66" s="41"/>
-      <c r="AD66" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE66" s="41"/>
-      <c r="AF66" s="41"/>
-      <c r="AG66" s="41"/>
-      <c r="AH66" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI66" s="41"/>
-      <c r="AJ66" s="41"/>
-      <c r="AK66" s="41"/>
-      <c r="AL66" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM66" s="41"/>
-      <c r="AN66" s="41"/>
-      <c r="AO66" s="41"/>
-      <c r="AP66" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ66" s="41"/>
-      <c r="AR66" s="41"/>
-      <c r="AS66" s="41"/>
-      <c r="AT66" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="AU66" s="41"/>
-      <c r="AV66" s="41"/>
-      <c r="AW66" s="41"/>
-      <c r="AX66" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="AY66" s="41"/>
-      <c r="AZ66" s="41"/>
-      <c r="BA66" s="41"/>
-      <c r="BB66" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="BC66" s="41"/>
-      <c r="BD66" s="41"/>
-      <c r="BE66" s="41"/>
-      <c r="BF66" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="BG66" s="41"/>
-      <c r="BH66" s="41"/>
-      <c r="BI66" s="41"/>
-      <c r="BJ66" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="BK66" s="41"/>
-      <c r="BL66" s="41"/>
-      <c r="BM66" s="41"/>
-      <c r="BN66" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="BO66" s="41"/>
-      <c r="BP66" s="41"/>
-      <c r="BQ66" s="41"/>
-      <c r="BR66" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="BS66" s="41"/>
-      <c r="BT66" s="41"/>
-      <c r="BU66" s="41"/>
-      <c r="BV66" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="BW66" s="41"/>
-      <c r="BX66" s="41"/>
-      <c r="BY66" s="41"/>
-      <c r="BZ66" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="CA66" s="37"/>
-      <c r="CB66" s="37"/>
-      <c r="CC66" s="37"/>
-      <c r="CD66" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="CE66" s="37"/>
-      <c r="CF66" s="37"/>
-      <c r="CG66" s="37"/>
-      <c r="CH66" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="CI66" s="43"/>
-      <c r="CJ66" s="43"/>
-      <c r="CK66" s="43"/>
-      <c r="CL66" s="44"/>
-    </row>
-    <row r="67" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>4</v>
       </c>
@@ -30884,55 +30453,45 @@
       <c r="BY67" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ67" s="34" t="s">
+      <c r="BZ67" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA67" s="34" t="s">
+      <c r="CA67" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB67" s="34" t="s">
+      <c r="CB67" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC67" s="34" t="s">
+      <c r="CC67" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CD67" s="34" t="s">
+      <c r="CD67" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CE67" s="34" t="s">
+      <c r="CE67" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CF67" s="34" t="s">
+      <c r="CF67" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CG67" s="34" t="s">
+      <c r="CG67" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CH67" s="34" t="s">
+      <c r="CH67" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CI67" s="43"/>
-      <c r="CJ67" s="43"/>
-      <c r="CK67" s="43"/>
-      <c r="CL67" s="43"/>
+      <c r="CI67" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ67" s="6"/>
+      <c r="CK67" s="6"/>
+      <c r="CL67" s="6"/>
+      <c r="CM67" s="28"/>
     </row>
-    <row r="68" spans="1:151" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:151" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
-      <c r="BZ68" s="22"/>
-      <c r="CA68" s="22"/>
-      <c r="CB68" s="22"/>
-      <c r="CC68" s="22"/>
-      <c r="CD68" s="22"/>
-      <c r="CE68" s="22"/>
-      <c r="CF68" s="22"/>
-      <c r="CG68" s="22"/>
-      <c r="CH68" s="22"/>
-      <c r="CI68" s="42"/>
-      <c r="CJ68" s="42"/>
-      <c r="CK68" s="42"/>
-      <c r="CL68" s="42"/>
     </row>
-    <row r="69" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>27</v>
       </c>
@@ -31164,38 +30723,40 @@
       <c r="BY69" s="18">
         <v>5.5754225261849939</v>
       </c>
-      <c r="BZ69" s="32">
+      <c r="BZ69" s="18">
         <v>-8.3448826064213222</v>
       </c>
-      <c r="CA69" s="32">
+      <c r="CA69" s="18">
         <v>-12.442600320934602</v>
       </c>
-      <c r="CB69" s="32">
+      <c r="CB69" s="18">
         <v>-17.243896562494712</v>
       </c>
-      <c r="CC69" s="32">
+      <c r="CC69" s="18">
         <v>-13.142584076097776</v>
       </c>
-      <c r="CD69" s="32">
+      <c r="CD69" s="18">
         <v>5.6768820670865807</v>
       </c>
-      <c r="CE69" s="32">
+      <c r="CE69" s="18">
         <v>19.470840025718644</v>
       </c>
-      <c r="CF69" s="32">
+      <c r="CF69" s="18">
         <v>6.7231825273737371</v>
       </c>
-      <c r="CG69" s="32">
+      <c r="CG69" s="18">
         <v>3.0042723645009204</v>
       </c>
-      <c r="CH69" s="32">
-        <v>8.6829145181286549</v>
-      </c>
-      <c r="CI69" s="45"/>
-      <c r="CJ69" s="45"/>
-      <c r="CK69" s="45"/>
-      <c r="CL69" s="45"/>
-      <c r="CM69" s="10"/>
+      <c r="CH69" s="18">
+        <v>10.597104052152687</v>
+      </c>
+      <c r="CI69" s="18">
+        <v>21.326607685428229</v>
+      </c>
+      <c r="CJ69" s="18"/>
+      <c r="CK69" s="18"/>
+      <c r="CL69" s="18"/>
+      <c r="CM69" s="19"/>
       <c r="CN69" s="10"/>
       <c r="CO69" s="10"/>
       <c r="CP69" s="10"/>
@@ -31257,7 +30818,7 @@
       <c r="ET69" s="10"/>
       <c r="EU69" s="10"/>
     </row>
-    <row r="70" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>12</v>
       </c>
@@ -31489,38 +31050,40 @@
       <c r="BY70" s="18">
         <v>10.926866698834445</v>
       </c>
-      <c r="BZ70" s="32">
+      <c r="BZ70" s="18">
         <v>6.0703507584485976</v>
       </c>
-      <c r="CA70" s="32">
+      <c r="CA70" s="18">
         <v>13.333333333333357</v>
       </c>
-      <c r="CB70" s="32">
+      <c r="CB70" s="18">
         <v>5.2139809610329877</v>
       </c>
-      <c r="CC70" s="32">
+      <c r="CC70" s="18">
         <v>3.4494561212356842</v>
       </c>
-      <c r="CD70" s="32">
+      <c r="CD70" s="18">
         <v>6.6903559904736909</v>
       </c>
-      <c r="CE70" s="32">
+      <c r="CE70" s="18">
         <v>12.023233311775527</v>
       </c>
-      <c r="CF70" s="32">
+      <c r="CF70" s="18">
         <v>8.7393987092676468</v>
       </c>
-      <c r="CG70" s="32">
+      <c r="CG70" s="18">
         <v>9.1148132156289705</v>
       </c>
-      <c r="CH70" s="32">
-        <v>7.5991033998533055</v>
-      </c>
-      <c r="CI70" s="45"/>
-      <c r="CJ70" s="45"/>
-      <c r="CK70" s="45"/>
-      <c r="CL70" s="45"/>
-      <c r="CM70" s="10"/>
+      <c r="CH70" s="18">
+        <v>7.1291782641951897</v>
+      </c>
+      <c r="CI70" s="18">
+        <v>9.713033256560351</v>
+      </c>
+      <c r="CJ70" s="18"/>
+      <c r="CK70" s="18"/>
+      <c r="CL70" s="18"/>
+      <c r="CM70" s="19"/>
       <c r="CN70" s="10"/>
       <c r="CO70" s="10"/>
       <c r="CP70" s="10"/>
@@ -31582,7 +31145,7 @@
       <c r="ET70" s="10"/>
       <c r="EU70" s="10"/>
     </row>
-    <row r="71" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
@@ -31659,20 +31222,20 @@
       <c r="BW71" s="19"/>
       <c r="BX71" s="19"/>
       <c r="BY71" s="19"/>
-      <c r="BZ71" s="31"/>
-      <c r="CA71" s="31"/>
-      <c r="CB71" s="31"/>
-      <c r="CC71" s="31"/>
-      <c r="CD71" s="31"/>
-      <c r="CE71" s="31"/>
-      <c r="CF71" s="31"/>
-      <c r="CG71" s="31"/>
-      <c r="CH71" s="31"/>
-      <c r="CI71" s="45"/>
-      <c r="CJ71" s="45"/>
-      <c r="CK71" s="45"/>
-      <c r="CL71" s="45"/>
-      <c r="CM71" s="10"/>
+      <c r="BZ71" s="19"/>
+      <c r="CA71" s="19"/>
+      <c r="CB71" s="19"/>
+      <c r="CC71" s="19"/>
+      <c r="CD71" s="19"/>
+      <c r="CE71" s="19"/>
+      <c r="CF71" s="19"/>
+      <c r="CG71" s="19"/>
+      <c r="CH71" s="19"/>
+      <c r="CI71" s="19"/>
+      <c r="CJ71" s="19"/>
+      <c r="CK71" s="19"/>
+      <c r="CL71" s="19"/>
+      <c r="CM71" s="19"/>
       <c r="CN71" s="10"/>
       <c r="CO71" s="10"/>
       <c r="CP71" s="10"/>
@@ -31734,7 +31297,7 @@
       <c r="ET71" s="10"/>
       <c r="EU71" s="10"/>
     </row>
-    <row r="72" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>11</v>
       </c>
@@ -31966,38 +31529,40 @@
       <c r="BY72" s="18">
         <v>10.441249506998631</v>
       </c>
-      <c r="BZ72" s="32">
+      <c r="BZ72" s="18">
         <v>4.7403903563708383</v>
       </c>
-      <c r="CA72" s="32">
+      <c r="CA72" s="18">
         <v>10.676979885675593</v>
       </c>
-      <c r="CB72" s="32">
+      <c r="CB72" s="18">
         <v>3.0044040823171514</v>
       </c>
-      <c r="CC72" s="32">
+      <c r="CC72" s="18">
         <v>2.010146057502979</v>
       </c>
-      <c r="CD72" s="32">
+      <c r="CD72" s="18">
         <v>6.6085336040802503</v>
       </c>
-      <c r="CE72" s="32">
+      <c r="CE72" s="18">
         <v>12.630422102752419</v>
       </c>
-      <c r="CF72" s="32">
+      <c r="CF72" s="18">
         <v>8.5800231419946584</v>
       </c>
-      <c r="CG72" s="32">
+      <c r="CG72" s="18">
         <v>8.6634795203650299</v>
       </c>
-      <c r="CH72" s="32">
-        <v>7.6858397586359644</v>
-      </c>
-      <c r="CI72" s="45"/>
-      <c r="CJ72" s="45"/>
-      <c r="CK72" s="45"/>
-      <c r="CL72" s="45"/>
-      <c r="CM72" s="10"/>
+      <c r="CH72" s="18">
+        <v>7.4067130212242489</v>
+      </c>
+      <c r="CI72" s="18">
+        <v>10.717369473940394</v>
+      </c>
+      <c r="CJ72" s="18"/>
+      <c r="CK72" s="18"/>
+      <c r="CL72" s="18"/>
+      <c r="CM72" s="19"/>
       <c r="CN72" s="10"/>
       <c r="CO72" s="10"/>
       <c r="CP72" s="10"/>
@@ -32059,7 +31624,7 @@
       <c r="ET72" s="10"/>
       <c r="EU72" s="10"/>
     </row>
-    <row r="73" spans="1:151" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:151" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
@@ -32137,39 +31702,27 @@
       <c r="BW73" s="16"/>
       <c r="BX73" s="16"/>
       <c r="BY73" s="16"/>
-      <c r="BZ73" s="29"/>
-      <c r="CA73" s="29"/>
-      <c r="CB73" s="29"/>
-      <c r="CC73" s="29"/>
-      <c r="CD73" s="29"/>
-      <c r="CE73" s="29"/>
-      <c r="CF73" s="29"/>
-      <c r="CG73" s="29"/>
-      <c r="CH73" s="29"/>
-      <c r="CI73" s="46"/>
-      <c r="CJ73" s="46"/>
-      <c r="CK73" s="46"/>
-      <c r="CL73" s="46"/>
+      <c r="BZ73" s="16"/>
+      <c r="CA73" s="16"/>
+      <c r="CB73" s="16"/>
+      <c r="CC73" s="16"/>
+      <c r="CD73" s="16"/>
+      <c r="CE73" s="16"/>
+      <c r="CF73" s="16"/>
+      <c r="CG73" s="16"/>
+      <c r="CH73" s="16"/>
+      <c r="CI73" s="16"/>
+      <c r="CJ73" s="16"/>
+      <c r="CK73" s="16"/>
+      <c r="CL73" s="16"/>
+      <c r="CM73" s="16"/>
     </row>
-    <row r="74" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="BZ74" s="22"/>
-      <c r="CA74" s="22"/>
-      <c r="CB74" s="22"/>
-      <c r="CC74" s="22"/>
-      <c r="CD74" s="22"/>
-      <c r="CE74" s="22"/>
-      <c r="CF74" s="22"/>
-      <c r="CG74" s="22"/>
-      <c r="CH74" s="22"/>
-      <c r="CI74" s="42"/>
-      <c r="CJ74" s="42"/>
-      <c r="CK74" s="42"/>
-      <c r="CL74" s="42"/>
     </row>
-    <row r="75" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
@@ -32246,19 +31799,19 @@
       <c r="BW75" s="10"/>
       <c r="BX75" s="10"/>
       <c r="BY75" s="10"/>
-      <c r="BZ75" s="30"/>
-      <c r="CA75" s="30"/>
-      <c r="CB75" s="30"/>
-      <c r="CC75" s="30"/>
-      <c r="CD75" s="30"/>
-      <c r="CE75" s="30"/>
-      <c r="CF75" s="30"/>
-      <c r="CG75" s="30"/>
-      <c r="CH75" s="30"/>
-      <c r="CI75" s="30"/>
-      <c r="CJ75" s="30"/>
-      <c r="CK75" s="30"/>
-      <c r="CL75" s="30"/>
+      <c r="BZ75" s="10"/>
+      <c r="CA75" s="10"/>
+      <c r="CB75" s="10"/>
+      <c r="CC75" s="10"/>
+      <c r="CD75" s="10"/>
+      <c r="CE75" s="10"/>
+      <c r="CF75" s="10"/>
+      <c r="CG75" s="10"/>
+      <c r="CH75" s="10"/>
+      <c r="CI75" s="10"/>
+      <c r="CJ75" s="10"/>
+      <c r="CK75" s="10"/>
+      <c r="CL75" s="10"/>
       <c r="CM75" s="10"/>
       <c r="CN75" s="10"/>
       <c r="CO75" s="10"/>
@@ -32321,7 +31874,7 @@
       <c r="ET75" s="10"/>
       <c r="EU75" s="10"/>
     </row>
-    <row r="76" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
@@ -32398,19 +31951,19 @@
       <c r="BW76" s="10"/>
       <c r="BX76" s="10"/>
       <c r="BY76" s="10"/>
-      <c r="BZ76" s="30"/>
-      <c r="CA76" s="30"/>
-      <c r="CB76" s="30"/>
-      <c r="CC76" s="30"/>
-      <c r="CD76" s="30"/>
-      <c r="CE76" s="30"/>
-      <c r="CF76" s="30"/>
-      <c r="CG76" s="30"/>
-      <c r="CH76" s="30"/>
-      <c r="CI76" s="30"/>
-      <c r="CJ76" s="30"/>
-      <c r="CK76" s="30"/>
-      <c r="CL76" s="30"/>
+      <c r="BZ76" s="10"/>
+      <c r="CA76" s="10"/>
+      <c r="CB76" s="10"/>
+      <c r="CC76" s="10"/>
+      <c r="CD76" s="10"/>
+      <c r="CE76" s="10"/>
+      <c r="CF76" s="10"/>
+      <c r="CG76" s="10"/>
+      <c r="CH76" s="10"/>
+      <c r="CI76" s="10"/>
+      <c r="CJ76" s="10"/>
+      <c r="CK76" s="10"/>
+      <c r="CL76" s="10"/>
       <c r="CM76" s="10"/>
       <c r="CN76" s="10"/>
       <c r="CO76" s="10"/>
@@ -32473,265 +32026,173 @@
       <c r="ET76" s="10"/>
       <c r="EU76" s="10"/>
     </row>
-    <row r="77" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BZ77" s="22"/>
-      <c r="CA77" s="22"/>
-      <c r="CB77" s="22"/>
-      <c r="CC77" s="22"/>
-      <c r="CD77" s="22"/>
-      <c r="CE77" s="22"/>
-      <c r="CF77" s="22"/>
-      <c r="CG77" s="22"/>
-      <c r="CH77" s="22"/>
-      <c r="CI77" s="22"/>
-      <c r="CJ77" s="22"/>
-      <c r="CK77" s="22"/>
-      <c r="CL77" s="22"/>
     </row>
-    <row r="78" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BZ78" s="22"/>
-      <c r="CA78" s="22"/>
-      <c r="CB78" s="22"/>
-      <c r="CC78" s="22"/>
-      <c r="CD78" s="22"/>
-      <c r="CE78" s="22"/>
-      <c r="CF78" s="22"/>
-      <c r="CG78" s="22"/>
-      <c r="CH78" s="22"/>
-      <c r="CI78" s="22"/>
-      <c r="CJ78" s="22"/>
-      <c r="CK78" s="22"/>
-      <c r="CL78" s="22"/>
     </row>
-    <row r="79" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="BZ79" s="22"/>
-      <c r="CA79" s="22"/>
-      <c r="CB79" s="22"/>
-      <c r="CC79" s="22"/>
-      <c r="CD79" s="22"/>
-      <c r="CE79" s="22"/>
-      <c r="CF79" s="22"/>
-      <c r="CG79" s="22"/>
-      <c r="CH79" s="22"/>
-      <c r="CI79" s="22"/>
-      <c r="CJ79" s="22"/>
-      <c r="CK79" s="22"/>
-      <c r="CL79" s="22"/>
-    </row>
-    <row r="80" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="BZ80" s="22"/>
-      <c r="CA80" s="22"/>
-      <c r="CB80" s="22"/>
-      <c r="CC80" s="22"/>
-      <c r="CD80" s="22"/>
-      <c r="CE80" s="22"/>
-      <c r="CF80" s="22"/>
-      <c r="CG80" s="22"/>
-      <c r="CH80" s="22"/>
-      <c r="CI80" s="22"/>
-      <c r="CJ80" s="22"/>
-      <c r="CK80" s="22"/>
-      <c r="CL80" s="22"/>
     </row>
-    <row r="81" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BZ81" s="22"/>
-      <c r="CA81" s="22"/>
-      <c r="CB81" s="22"/>
-      <c r="CC81" s="22"/>
-      <c r="CD81" s="22"/>
-      <c r="CE81" s="22"/>
-      <c r="CF81" s="22"/>
-      <c r="CG81" s="22"/>
-      <c r="CH81" s="22"/>
-      <c r="CI81" s="22"/>
-      <c r="CJ81" s="22"/>
-      <c r="CK81" s="22"/>
-      <c r="CL81" s="22"/>
     </row>
-    <row r="82" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="BZ82" s="22"/>
-      <c r="CA82" s="22"/>
-      <c r="CB82" s="22"/>
-      <c r="CC82" s="22"/>
-      <c r="CD82" s="22"/>
-      <c r="CE82" s="22"/>
-      <c r="CF82" s="22"/>
-      <c r="CG82" s="22"/>
-      <c r="CH82" s="22"/>
-      <c r="CI82" s="22"/>
-      <c r="CJ82" s="22"/>
-      <c r="CK82" s="22"/>
-      <c r="CL82" s="22"/>
     </row>
-    <row r="83" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="BZ83" s="22"/>
-      <c r="CA83" s="22"/>
-      <c r="CB83" s="22"/>
-      <c r="CC83" s="22"/>
-      <c r="CD83" s="22"/>
-      <c r="CE83" s="22"/>
-      <c r="CF83" s="22"/>
-      <c r="CG83" s="22"/>
-      <c r="CH83" s="22"/>
-      <c r="CI83" s="22"/>
-      <c r="CJ83" s="22"/>
-      <c r="CK83" s="22"/>
-      <c r="CL83" s="22"/>
+    <row r="83" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="5"/>
+      <c r="B84" s="29">
+        <v>2000</v>
+      </c>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="29">
+        <v>2001</v>
+      </c>
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="29">
+        <v>2002</v>
+      </c>
+      <c r="K84" s="30"/>
+      <c r="L84" s="30"/>
+      <c r="M84" s="30"/>
+      <c r="N84" s="29">
+        <v>2003</v>
+      </c>
+      <c r="O84" s="30"/>
+      <c r="P84" s="30"/>
+      <c r="Q84" s="30"/>
+      <c r="R84" s="29">
+        <v>2004</v>
+      </c>
+      <c r="S84" s="30"/>
+      <c r="T84" s="30"/>
+      <c r="U84" s="30"/>
+      <c r="V84" s="29">
+        <v>2005</v>
+      </c>
+      <c r="W84" s="30"/>
+      <c r="X84" s="30"/>
+      <c r="Y84" s="30"/>
+      <c r="Z84" s="29">
+        <v>2006</v>
+      </c>
+      <c r="AA84" s="30"/>
+      <c r="AB84" s="30"/>
+      <c r="AC84" s="30"/>
+      <c r="AD84" s="29">
+        <v>2007</v>
+      </c>
+      <c r="AE84" s="30"/>
+      <c r="AF84" s="30"/>
+      <c r="AG84" s="30"/>
+      <c r="AH84" s="29">
+        <v>2008</v>
+      </c>
+      <c r="AI84" s="30"/>
+      <c r="AJ84" s="30"/>
+      <c r="AK84" s="30"/>
+      <c r="AL84" s="29">
+        <v>2009</v>
+      </c>
+      <c r="AM84" s="30"/>
+      <c r="AN84" s="30"/>
+      <c r="AO84" s="30"/>
+      <c r="AP84" s="29">
+        <v>2010</v>
+      </c>
+      <c r="AQ84" s="30"/>
+      <c r="AR84" s="30"/>
+      <c r="AS84" s="30"/>
+      <c r="AT84" s="29">
+        <v>2011</v>
+      </c>
+      <c r="AU84" s="30"/>
+      <c r="AV84" s="30"/>
+      <c r="AW84" s="30"/>
+      <c r="AX84" s="29">
+        <v>2012</v>
+      </c>
+      <c r="AY84" s="30"/>
+      <c r="AZ84" s="30"/>
+      <c r="BA84" s="30"/>
+      <c r="BB84" s="29">
+        <v>2013</v>
+      </c>
+      <c r="BC84" s="30"/>
+      <c r="BD84" s="30"/>
+      <c r="BE84" s="30"/>
+      <c r="BF84" s="29">
+        <v>2014</v>
+      </c>
+      <c r="BG84" s="30"/>
+      <c r="BH84" s="30"/>
+      <c r="BI84" s="30"/>
+      <c r="BJ84" s="29">
+        <v>2015</v>
+      </c>
+      <c r="BK84" s="30"/>
+      <c r="BL84" s="30"/>
+      <c r="BM84" s="30"/>
+      <c r="BN84" s="29">
+        <v>2016</v>
+      </c>
+      <c r="BO84" s="30"/>
+      <c r="BP84" s="30"/>
+      <c r="BQ84" s="30"/>
+      <c r="BR84" s="29">
+        <v>2017</v>
+      </c>
+      <c r="BS84" s="30"/>
+      <c r="BT84" s="30"/>
+      <c r="BU84" s="30"/>
+      <c r="BV84" s="29">
+        <v>2018</v>
+      </c>
+      <c r="BW84" s="30"/>
+      <c r="BX84" s="30"/>
+      <c r="BY84" s="30"/>
+      <c r="BZ84" s="29">
+        <v>2019</v>
+      </c>
+      <c r="CA84" s="30"/>
+      <c r="CB84" s="30"/>
+      <c r="CC84" s="30"/>
+      <c r="CD84" s="29">
+        <v>2020</v>
+      </c>
+      <c r="CE84" s="30"/>
+      <c r="CF84" s="30"/>
+      <c r="CG84" s="30"/>
+      <c r="CH84" s="29">
+        <v>2021</v>
+      </c>
+      <c r="CI84" s="29"/>
+      <c r="CJ84" s="29"/>
+      <c r="CK84" s="29"/>
+      <c r="CL84" s="29">
+        <v>2022</v>
+      </c>
+      <c r="CM84" s="29"/>
     </row>
-    <row r="84" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="5"/>
-      <c r="B84" s="38">
-        <v>2000</v>
-      </c>
-      <c r="C84" s="39"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="39"/>
-      <c r="F84" s="38">
-        <v>2001</v>
-      </c>
-      <c r="G84" s="39"/>
-      <c r="H84" s="39"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="38">
-        <v>2002</v>
-      </c>
-      <c r="K84" s="39"/>
-      <c r="L84" s="39"/>
-      <c r="M84" s="39"/>
-      <c r="N84" s="38">
-        <v>2003</v>
-      </c>
-      <c r="O84" s="39"/>
-      <c r="P84" s="39"/>
-      <c r="Q84" s="39"/>
-      <c r="R84" s="38">
-        <v>2004</v>
-      </c>
-      <c r="S84" s="39"/>
-      <c r="T84" s="39"/>
-      <c r="U84" s="39"/>
-      <c r="V84" s="38">
-        <v>2005</v>
-      </c>
-      <c r="W84" s="39"/>
-      <c r="X84" s="39"/>
-      <c r="Y84" s="39"/>
-      <c r="Z84" s="38">
-        <v>2006</v>
-      </c>
-      <c r="AA84" s="39"/>
-      <c r="AB84" s="39"/>
-      <c r="AC84" s="39"/>
-      <c r="AD84" s="38">
-        <v>2007</v>
-      </c>
-      <c r="AE84" s="39"/>
-      <c r="AF84" s="39"/>
-      <c r="AG84" s="39"/>
-      <c r="AH84" s="38">
-        <v>2008</v>
-      </c>
-      <c r="AI84" s="39"/>
-      <c r="AJ84" s="39"/>
-      <c r="AK84" s="39"/>
-      <c r="AL84" s="38">
-        <v>2009</v>
-      </c>
-      <c r="AM84" s="39"/>
-      <c r="AN84" s="39"/>
-      <c r="AO84" s="39"/>
-      <c r="AP84" s="38">
-        <v>2010</v>
-      </c>
-      <c r="AQ84" s="39"/>
-      <c r="AR84" s="39"/>
-      <c r="AS84" s="39"/>
-      <c r="AT84" s="38">
-        <v>2011</v>
-      </c>
-      <c r="AU84" s="39"/>
-      <c r="AV84" s="39"/>
-      <c r="AW84" s="39"/>
-      <c r="AX84" s="38">
-        <v>2012</v>
-      </c>
-      <c r="AY84" s="39"/>
-      <c r="AZ84" s="39"/>
-      <c r="BA84" s="39"/>
-      <c r="BB84" s="38">
-        <v>2013</v>
-      </c>
-      <c r="BC84" s="39"/>
-      <c r="BD84" s="39"/>
-      <c r="BE84" s="39"/>
-      <c r="BF84" s="38">
-        <v>2014</v>
-      </c>
-      <c r="BG84" s="39"/>
-      <c r="BH84" s="39"/>
-      <c r="BI84" s="39"/>
-      <c r="BJ84" s="38">
-        <v>2015</v>
-      </c>
-      <c r="BK84" s="39"/>
-      <c r="BL84" s="39"/>
-      <c r="BM84" s="39"/>
-      <c r="BN84" s="38">
-        <v>2016</v>
-      </c>
-      <c r="BO84" s="39"/>
-      <c r="BP84" s="39"/>
-      <c r="BQ84" s="39"/>
-      <c r="BR84" s="38">
-        <v>2017</v>
-      </c>
-      <c r="BS84" s="39"/>
-      <c r="BT84" s="39"/>
-      <c r="BU84" s="39"/>
-      <c r="BV84" s="38">
-        <v>2018</v>
-      </c>
-      <c r="BW84" s="39"/>
-      <c r="BX84" s="39"/>
-      <c r="BY84" s="39"/>
-      <c r="BZ84" s="37">
-        <v>2019</v>
-      </c>
-      <c r="CA84" s="40"/>
-      <c r="CB84" s="40"/>
-      <c r="CC84" s="40"/>
-      <c r="CD84" s="37">
-        <v>2020</v>
-      </c>
-      <c r="CE84" s="37"/>
-      <c r="CF84" s="37"/>
-      <c r="CG84" s="37"/>
-      <c r="CH84" s="37">
-        <v>2021</v>
-      </c>
-      <c r="CI84" s="37"/>
-      <c r="CJ84" s="37"/>
-      <c r="CK84" s="37"/>
-      <c r="CL84" s="35">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="85" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>4</v>
       </c>
@@ -32963,63 +32424,53 @@
       <c r="BY85" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BZ85" s="24" t="s">
+      <c r="BZ85" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CA85" s="24" t="s">
+      <c r="CA85" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CB85" s="24" t="s">
+      <c r="CB85" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CC85" s="24" t="s">
+      <c r="CC85" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CD85" s="24" t="s">
+      <c r="CD85" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CE85" s="24" t="s">
+      <c r="CE85" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CF85" s="24" t="s">
+      <c r="CF85" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CG85" s="24" t="s">
+      <c r="CG85" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CH85" s="24" t="s">
+      <c r="CH85" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CI85" s="24" t="s">
+      <c r="CI85" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CJ85" s="24" t="s">
+      <c r="CJ85" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CK85" s="24" t="s">
+      <c r="CK85" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL85" s="24" t="s">
+      <c r="CL85" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="CM85" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="86" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:155" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
-      <c r="BZ86" s="22"/>
-      <c r="CA86" s="22"/>
-      <c r="CB86" s="22"/>
-      <c r="CC86" s="22"/>
-      <c r="CD86" s="22"/>
-      <c r="CE86" s="22"/>
-      <c r="CF86" s="22"/>
-      <c r="CG86" s="22"/>
-      <c r="CH86" s="22"/>
-      <c r="CI86" s="22"/>
-      <c r="CJ86" s="22"/>
-      <c r="CK86" s="22"/>
-      <c r="CL86" s="22"/>
     </row>
-    <row r="87" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>27</v>
       </c>
@@ -33251,46 +32702,48 @@
       <c r="BY87" s="18">
         <v>104.85919152999314</v>
       </c>
-      <c r="BZ87" s="32">
+      <c r="BZ87" s="18">
         <v>100.13094305000774</v>
       </c>
-      <c r="CA87" s="32">
+      <c r="CA87" s="18">
         <v>92.340797950003207</v>
       </c>
-      <c r="CB87" s="32">
+      <c r="CB87" s="18">
         <v>101.79449869397199</v>
       </c>
-      <c r="CC87" s="32">
+      <c r="CC87" s="18">
         <v>103.17606767267624</v>
       </c>
-      <c r="CD87" s="32">
+      <c r="CD87" s="18">
         <v>102.45628190637279</v>
       </c>
-      <c r="CE87" s="32">
+      <c r="CE87" s="18">
         <v>95.411386940087979</v>
       </c>
-      <c r="CF87" s="32">
+      <c r="CF87" s="18">
         <v>104.15052319906178</v>
       </c>
-      <c r="CG87" s="32">
+      <c r="CG87" s="18">
         <v>104.44513494711742</v>
       </c>
-      <c r="CH87" s="32">
+      <c r="CH87" s="18">
         <v>103.07524798801954</v>
       </c>
-      <c r="CI87" s="32">
+      <c r="CI87" s="18">
         <v>96.328426933989633</v>
       </c>
-      <c r="CJ87" s="32">
+      <c r="CJ87" s="18">
         <v>106.35726139942048</v>
       </c>
-      <c r="CK87" s="32">
+      <c r="CK87" s="18">
         <v>106.73571152128423</v>
       </c>
-      <c r="CL87" s="32">
-        <v>105.20863761172936</v>
-      </c>
-      <c r="CM87" s="10"/>
+      <c r="CL87" s="18">
+        <v>105.20863761172939</v>
+      </c>
+      <c r="CM87" s="18">
+        <v>96.387575013130373</v>
+      </c>
       <c r="CN87" s="10"/>
       <c r="CO87" s="10"/>
       <c r="CP87" s="10"/>
@@ -33356,7 +32809,7 @@
       <c r="EX87" s="10"/>
       <c r="EY87" s="10"/>
     </row>
-    <row r="88" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>12</v>
       </c>
@@ -33588,46 +33041,48 @@
       <c r="BY88" s="18">
         <v>99.134077515055694</v>
       </c>
-      <c r="BZ88" s="32">
+      <c r="BZ88" s="18">
         <v>98.661711312815697</v>
       </c>
-      <c r="CA88" s="32">
+      <c r="CA88" s="18">
         <v>100.68694933175233</v>
       </c>
-      <c r="CB88" s="32">
+      <c r="CB88" s="18">
         <v>105.25519490436706</v>
       </c>
-      <c r="CC88" s="32">
+      <c r="CC88" s="18">
         <v>100.84271657364781</v>
       </c>
-      <c r="CD88" s="32">
+      <c r="CD88" s="18">
         <v>98.502597983321323</v>
       </c>
-      <c r="CE88" s="32">
+      <c r="CE88" s="18">
         <v>101.10590528636563</v>
       </c>
-      <c r="CF88" s="32">
+      <c r="CF88" s="18">
         <v>105.66501828987873</v>
       </c>
-      <c r="CG88" s="32">
+      <c r="CG88" s="18">
         <v>100.66362573568091</v>
       </c>
-      <c r="CH88" s="32">
+      <c r="CH88" s="18">
         <v>98.27438023323181</v>
       </c>
-      <c r="CI88" s="32">
+      <c r="CI88" s="18">
         <v>97.789173429875547</v>
       </c>
-      <c r="CJ88" s="32">
+      <c r="CJ88" s="18">
         <v>104.20870686284727</v>
       </c>
-      <c r="CK88" s="32">
+      <c r="CK88" s="18">
         <v>100.21692077855275</v>
       </c>
-      <c r="CL88" s="32">
-        <v>98.921347845037104</v>
-      </c>
-      <c r="CM88" s="10"/>
+      <c r="CL88" s="18">
+        <v>98.921347845037133</v>
+      </c>
+      <c r="CM88" s="18">
+        <v>98.400154783103957</v>
+      </c>
       <c r="CN88" s="10"/>
       <c r="CO88" s="10"/>
       <c r="CP88" s="10"/>
@@ -33693,7 +33148,7 @@
       <c r="EX88" s="10"/>
       <c r="EY88" s="10"/>
     </row>
-    <row r="89" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
       <c r="D89" s="19"/>
@@ -33770,20 +33225,20 @@
       <c r="BW89" s="19"/>
       <c r="BX89" s="19"/>
       <c r="BY89" s="19"/>
-      <c r="BZ89" s="31"/>
-      <c r="CA89" s="31"/>
-      <c r="CB89" s="31"/>
-      <c r="CC89" s="31"/>
-      <c r="CD89" s="31"/>
-      <c r="CE89" s="31"/>
-      <c r="CF89" s="31"/>
-      <c r="CG89" s="31"/>
-      <c r="CH89" s="31"/>
-      <c r="CI89" s="31"/>
-      <c r="CJ89" s="31"/>
-      <c r="CK89" s="31"/>
-      <c r="CL89" s="31"/>
-      <c r="CM89" s="10"/>
+      <c r="BZ89" s="19"/>
+      <c r="CA89" s="19"/>
+      <c r="CB89" s="19"/>
+      <c r="CC89" s="19"/>
+      <c r="CD89" s="19"/>
+      <c r="CE89" s="19"/>
+      <c r="CF89" s="19"/>
+      <c r="CG89" s="19"/>
+      <c r="CH89" s="19"/>
+      <c r="CI89" s="19"/>
+      <c r="CJ89" s="19"/>
+      <c r="CK89" s="19"/>
+      <c r="CL89" s="19"/>
+      <c r="CM89" s="19"/>
       <c r="CN89" s="10"/>
       <c r="CO89" s="10"/>
       <c r="CP89" s="10"/>
@@ -33849,7 +33304,7 @@
       <c r="EX89" s="10"/>
       <c r="EY89" s="10"/>
     </row>
-    <row r="90" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
         <v>11</v>
       </c>
@@ -34081,46 +33536,48 @@
       <c r="BY90" s="18">
         <v>99.653603403989237</v>
       </c>
-      <c r="BZ90" s="32">
+      <c r="BZ90" s="18">
         <v>98.797263751162163</v>
       </c>
-      <c r="CA90" s="32">
+      <c r="CA90" s="18">
         <v>99.826831972088371</v>
       </c>
-      <c r="CB90" s="32">
+      <c r="CB90" s="18">
         <v>104.91470527783233</v>
       </c>
-      <c r="CC90" s="32">
+      <c r="CC90" s="18">
         <v>101.04512783104053</v>
       </c>
-      <c r="CD90" s="32">
+      <c r="CD90" s="18">
         <v>98.8217969742023</v>
       </c>
-      <c r="CE90" s="32">
+      <c r="CE90" s="18">
         <v>100.64164235698743</v>
       </c>
-      <c r="CF90" s="32">
+      <c r="CF90" s="18">
         <v>105.54530220169399</v>
       </c>
-      <c r="CG90" s="32">
+      <c r="CG90" s="18">
         <v>100.94293366727867</v>
       </c>
-      <c r="CH90" s="32">
+      <c r="CH90" s="18">
         <v>98.658589050640899</v>
       </c>
-      <c r="CI90" s="32">
+      <c r="CI90" s="18">
         <v>97.662848789755927</v>
       </c>
-      <c r="CJ90" s="32">
+      <c r="CJ90" s="18">
         <v>104.3756389667996</v>
       </c>
-      <c r="CK90" s="32">
+      <c r="CK90" s="18">
         <v>100.67333248729069</v>
       </c>
-      <c r="CL90" s="32">
-        <v>99.429172448471462</v>
-      </c>
-      <c r="CM90" s="10"/>
+      <c r="CL90" s="18">
+        <v>99.439459533727614</v>
+      </c>
+      <c r="CM90" s="18">
+        <v>98.209430225857645</v>
+      </c>
       <c r="CN90" s="10"/>
       <c r="CO90" s="10"/>
       <c r="CP90" s="10"/>
@@ -34186,7 +33643,7 @@
       <c r="EX90" s="10"/>
       <c r="EY90" s="10"/>
     </row>
-    <row r="91" spans="1:155" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:155" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="16"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
@@ -34264,315 +33721,198 @@
       <c r="BW91" s="16"/>
       <c r="BX91" s="16"/>
       <c r="BY91" s="16"/>
-      <c r="BZ91" s="29"/>
-      <c r="CA91" s="29"/>
-      <c r="CB91" s="29"/>
-      <c r="CC91" s="29"/>
-      <c r="CD91" s="29"/>
-      <c r="CE91" s="29"/>
-      <c r="CF91" s="29"/>
-      <c r="CG91" s="29"/>
-      <c r="CH91" s="29"/>
-      <c r="CI91" s="29"/>
-      <c r="CJ91" s="29"/>
-      <c r="CK91" s="29"/>
-      <c r="CL91" s="29"/>
+      <c r="BZ91" s="16"/>
+      <c r="CA91" s="16"/>
+      <c r="CB91" s="16"/>
+      <c r="CC91" s="16"/>
+      <c r="CD91" s="16"/>
+      <c r="CE91" s="16"/>
+      <c r="CF91" s="16"/>
+      <c r="CG91" s="16"/>
+      <c r="CH91" s="16"/>
+      <c r="CI91" s="16"/>
+      <c r="CJ91" s="16"/>
+      <c r="CK91" s="16"/>
+      <c r="CL91" s="16"/>
+      <c r="CM91" s="16"/>
     </row>
-    <row r="92" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="BZ92" s="22"/>
-      <c r="CA92" s="22"/>
-      <c r="CB92" s="22"/>
-      <c r="CC92" s="22"/>
-      <c r="CD92" s="22"/>
-      <c r="CE92" s="22"/>
-      <c r="CF92" s="22"/>
-      <c r="CG92" s="22"/>
-      <c r="CH92" s="22"/>
-      <c r="CI92" s="22"/>
-      <c r="CJ92" s="22"/>
-      <c r="CK92" s="22"/>
-      <c r="CL92" s="22"/>
     </row>
-    <row r="95" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BZ95" s="22"/>
-      <c r="CA95" s="22"/>
-      <c r="CB95" s="22"/>
-      <c r="CC95" s="22"/>
-      <c r="CD95" s="22"/>
-      <c r="CE95" s="22"/>
-      <c r="CF95" s="22"/>
-      <c r="CG95" s="22"/>
-      <c r="CH95" s="22"/>
-      <c r="CI95" s="22"/>
-      <c r="CJ95" s="22"/>
-      <c r="CK95" s="22"/>
-      <c r="CL95" s="22"/>
     </row>
-    <row r="96" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BZ96" s="22"/>
-      <c r="CA96" s="22"/>
-      <c r="CB96" s="22"/>
-      <c r="CC96" s="22"/>
-      <c r="CD96" s="22"/>
-      <c r="CE96" s="22"/>
-      <c r="CF96" s="22"/>
-      <c r="CG96" s="22"/>
-      <c r="CH96" s="22"/>
-      <c r="CI96" s="22"/>
-      <c r="CJ96" s="22"/>
-      <c r="CK96" s="22"/>
-      <c r="CL96" s="22"/>
     </row>
-    <row r="97" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BZ97" s="22"/>
-      <c r="CA97" s="22"/>
-      <c r="CB97" s="22"/>
-      <c r="CC97" s="22"/>
-      <c r="CD97" s="22"/>
-      <c r="CE97" s="22"/>
-      <c r="CF97" s="22"/>
-      <c r="CG97" s="22"/>
-      <c r="CH97" s="22"/>
-      <c r="CI97" s="22"/>
-      <c r="CJ97" s="22"/>
-      <c r="CK97" s="22"/>
-      <c r="CL97" s="22"/>
     </row>
-    <row r="98" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="BZ98" s="22"/>
-      <c r="CA98" s="22"/>
-      <c r="CB98" s="22"/>
-      <c r="CC98" s="22"/>
-      <c r="CD98" s="22"/>
-      <c r="CE98" s="22"/>
-      <c r="CF98" s="22"/>
-      <c r="CG98" s="22"/>
-      <c r="CH98" s="22"/>
-      <c r="CI98" s="22"/>
-      <c r="CJ98" s="22"/>
-      <c r="CK98" s="22"/>
-      <c r="CL98" s="22"/>
-    </row>
-    <row r="99" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="BZ99" s="22"/>
-      <c r="CA99" s="22"/>
-      <c r="CB99" s="22"/>
-      <c r="CC99" s="22"/>
-      <c r="CD99" s="22"/>
-      <c r="CE99" s="22"/>
-      <c r="CF99" s="22"/>
-      <c r="CG99" s="22"/>
-      <c r="CH99" s="22"/>
-      <c r="CI99" s="22"/>
-      <c r="CJ99" s="22"/>
-      <c r="CK99" s="22"/>
-      <c r="CL99" s="22"/>
     </row>
-    <row r="100" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BZ100" s="22"/>
-      <c r="CA100" s="22"/>
-      <c r="CB100" s="22"/>
-      <c r="CC100" s="22"/>
-      <c r="CD100" s="22"/>
-      <c r="CE100" s="22"/>
-      <c r="CF100" s="22"/>
-      <c r="CG100" s="22"/>
-      <c r="CH100" s="22"/>
-      <c r="CI100" s="22"/>
-      <c r="CJ100" s="22"/>
-      <c r="CK100" s="22"/>
-      <c r="CL100" s="22"/>
     </row>
-    <row r="101" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="BZ101" s="22"/>
-      <c r="CA101" s="22"/>
-      <c r="CB101" s="22"/>
-      <c r="CC101" s="22"/>
-      <c r="CD101" s="22"/>
-      <c r="CE101" s="22"/>
-      <c r="CF101" s="22"/>
-      <c r="CG101" s="22"/>
-      <c r="CH101" s="22"/>
-      <c r="CI101" s="22"/>
-      <c r="CJ101" s="22"/>
-      <c r="CK101" s="22"/>
-      <c r="CL101" s="22"/>
     </row>
-    <row r="102" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="BZ102" s="22"/>
-      <c r="CA102" s="22"/>
-      <c r="CB102" s="22"/>
-      <c r="CC102" s="22"/>
-      <c r="CD102" s="22"/>
-      <c r="CE102" s="22"/>
-      <c r="CF102" s="22"/>
-      <c r="CG102" s="22"/>
-      <c r="CH102" s="22"/>
-      <c r="CI102" s="22"/>
-      <c r="CJ102" s="22"/>
-      <c r="CK102" s="22"/>
-      <c r="CL102" s="22"/>
+    <row r="102" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="5"/>
+      <c r="B103" s="29">
+        <v>2000</v>
+      </c>
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="29">
+        <v>2001</v>
+      </c>
+      <c r="G103" s="30"/>
+      <c r="H103" s="30"/>
+      <c r="I103" s="30"/>
+      <c r="J103" s="29">
+        <v>2002</v>
+      </c>
+      <c r="K103" s="30"/>
+      <c r="L103" s="30"/>
+      <c r="M103" s="30"/>
+      <c r="N103" s="29">
+        <v>2003</v>
+      </c>
+      <c r="O103" s="30"/>
+      <c r="P103" s="30"/>
+      <c r="Q103" s="30"/>
+      <c r="R103" s="29">
+        <v>2004</v>
+      </c>
+      <c r="S103" s="30"/>
+      <c r="T103" s="30"/>
+      <c r="U103" s="30"/>
+      <c r="V103" s="29">
+        <v>2005</v>
+      </c>
+      <c r="W103" s="30"/>
+      <c r="X103" s="30"/>
+      <c r="Y103" s="30"/>
+      <c r="Z103" s="29">
+        <v>2006</v>
+      </c>
+      <c r="AA103" s="30"/>
+      <c r="AB103" s="30"/>
+      <c r="AC103" s="30"/>
+      <c r="AD103" s="29">
+        <v>2007</v>
+      </c>
+      <c r="AE103" s="30"/>
+      <c r="AF103" s="30"/>
+      <c r="AG103" s="30"/>
+      <c r="AH103" s="29">
+        <v>2008</v>
+      </c>
+      <c r="AI103" s="30"/>
+      <c r="AJ103" s="30"/>
+      <c r="AK103" s="30"/>
+      <c r="AL103" s="29">
+        <v>2009</v>
+      </c>
+      <c r="AM103" s="30"/>
+      <c r="AN103" s="30"/>
+      <c r="AO103" s="30"/>
+      <c r="AP103" s="29">
+        <v>2010</v>
+      </c>
+      <c r="AQ103" s="30"/>
+      <c r="AR103" s="30"/>
+      <c r="AS103" s="30"/>
+      <c r="AT103" s="29">
+        <v>2011</v>
+      </c>
+      <c r="AU103" s="30"/>
+      <c r="AV103" s="30"/>
+      <c r="AW103" s="30"/>
+      <c r="AX103" s="29">
+        <v>2012</v>
+      </c>
+      <c r="AY103" s="30"/>
+      <c r="AZ103" s="30"/>
+      <c r="BA103" s="30"/>
+      <c r="BB103" s="29">
+        <v>2013</v>
+      </c>
+      <c r="BC103" s="30"/>
+      <c r="BD103" s="30"/>
+      <c r="BE103" s="30"/>
+      <c r="BF103" s="29">
+        <v>2014</v>
+      </c>
+      <c r="BG103" s="30"/>
+      <c r="BH103" s="30"/>
+      <c r="BI103" s="30"/>
+      <c r="BJ103" s="29">
+        <v>2015</v>
+      </c>
+      <c r="BK103" s="30"/>
+      <c r="BL103" s="30"/>
+      <c r="BM103" s="30"/>
+      <c r="BN103" s="29">
+        <v>2016</v>
+      </c>
+      <c r="BO103" s="30"/>
+      <c r="BP103" s="30"/>
+      <c r="BQ103" s="30"/>
+      <c r="BR103" s="29">
+        <v>2017</v>
+      </c>
+      <c r="BS103" s="30"/>
+      <c r="BT103" s="30"/>
+      <c r="BU103" s="30"/>
+      <c r="BV103" s="29">
+        <v>2018</v>
+      </c>
+      <c r="BW103" s="30"/>
+      <c r="BX103" s="30"/>
+      <c r="BY103" s="30"/>
+      <c r="BZ103" s="29">
+        <v>2019</v>
+      </c>
+      <c r="CA103" s="30"/>
+      <c r="CB103" s="30"/>
+      <c r="CC103" s="30"/>
+      <c r="CD103" s="29">
+        <v>2020</v>
+      </c>
+      <c r="CE103" s="30"/>
+      <c r="CF103" s="30"/>
+      <c r="CG103" s="30"/>
+      <c r="CH103" s="29">
+        <v>2021</v>
+      </c>
+      <c r="CI103" s="29"/>
+      <c r="CJ103" s="29"/>
+      <c r="CK103" s="29"/>
+      <c r="CL103" s="29">
+        <v>2022</v>
+      </c>
+      <c r="CM103" s="29"/>
     </row>
-    <row r="103" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="5"/>
-      <c r="B103" s="38">
-        <v>2000</v>
-      </c>
-      <c r="C103" s="39"/>
-      <c r="D103" s="39"/>
-      <c r="E103" s="39"/>
-      <c r="F103" s="38">
-        <v>2001</v>
-      </c>
-      <c r="G103" s="39"/>
-      <c r="H103" s="39"/>
-      <c r="I103" s="39"/>
-      <c r="J103" s="38">
-        <v>2002</v>
-      </c>
-      <c r="K103" s="39"/>
-      <c r="L103" s="39"/>
-      <c r="M103" s="39"/>
-      <c r="N103" s="38">
-        <v>2003</v>
-      </c>
-      <c r="O103" s="39"/>
-      <c r="P103" s="39"/>
-      <c r="Q103" s="39"/>
-      <c r="R103" s="38">
-        <v>2004</v>
-      </c>
-      <c r="S103" s="39"/>
-      <c r="T103" s="39"/>
-      <c r="U103" s="39"/>
-      <c r="V103" s="38">
-        <v>2005</v>
-      </c>
-      <c r="W103" s="39"/>
-      <c r="X103" s="39"/>
-      <c r="Y103" s="39"/>
-      <c r="Z103" s="38">
-        <v>2006</v>
-      </c>
-      <c r="AA103" s="39"/>
-      <c r="AB103" s="39"/>
-      <c r="AC103" s="39"/>
-      <c r="AD103" s="38">
-        <v>2007</v>
-      </c>
-      <c r="AE103" s="39"/>
-      <c r="AF103" s="39"/>
-      <c r="AG103" s="39"/>
-      <c r="AH103" s="38">
-        <v>2008</v>
-      </c>
-      <c r="AI103" s="39"/>
-      <c r="AJ103" s="39"/>
-      <c r="AK103" s="39"/>
-      <c r="AL103" s="38">
-        <v>2009</v>
-      </c>
-      <c r="AM103" s="39"/>
-      <c r="AN103" s="39"/>
-      <c r="AO103" s="39"/>
-      <c r="AP103" s="38">
-        <v>2010</v>
-      </c>
-      <c r="AQ103" s="39"/>
-      <c r="AR103" s="39"/>
-      <c r="AS103" s="39"/>
-      <c r="AT103" s="38">
-        <v>2011</v>
-      </c>
-      <c r="AU103" s="39"/>
-      <c r="AV103" s="39"/>
-      <c r="AW103" s="39"/>
-      <c r="AX103" s="38">
-        <v>2012</v>
-      </c>
-      <c r="AY103" s="39"/>
-      <c r="AZ103" s="39"/>
-      <c r="BA103" s="39"/>
-      <c r="BB103" s="38">
-        <v>2013</v>
-      </c>
-      <c r="BC103" s="39"/>
-      <c r="BD103" s="39"/>
-      <c r="BE103" s="39"/>
-      <c r="BF103" s="38">
-        <v>2014</v>
-      </c>
-      <c r="BG103" s="39"/>
-      <c r="BH103" s="39"/>
-      <c r="BI103" s="39"/>
-      <c r="BJ103" s="38">
-        <v>2015</v>
-      </c>
-      <c r="BK103" s="39"/>
-      <c r="BL103" s="39"/>
-      <c r="BM103" s="39"/>
-      <c r="BN103" s="38">
-        <v>2016</v>
-      </c>
-      <c r="BO103" s="39"/>
-      <c r="BP103" s="39"/>
-      <c r="BQ103" s="39"/>
-      <c r="BR103" s="38">
-        <v>2017</v>
-      </c>
-      <c r="BS103" s="39"/>
-      <c r="BT103" s="39"/>
-      <c r="BU103" s="39"/>
-      <c r="BV103" s="38">
-        <v>2018</v>
-      </c>
-      <c r="BW103" s="39"/>
-      <c r="BX103" s="39"/>
-      <c r="BY103" s="39"/>
-      <c r="BZ103" s="37">
-        <v>2019</v>
-      </c>
-      <c r="CA103" s="40"/>
-      <c r="CB103" s="40"/>
-      <c r="CC103" s="40"/>
-      <c r="CD103" s="37">
-        <v>2020</v>
-      </c>
-      <c r="CE103" s="37"/>
-      <c r="CF103" s="37"/>
-      <c r="CG103" s="37"/>
-      <c r="CH103" s="37">
-        <v>2021</v>
-      </c>
-      <c r="CI103" s="37"/>
-      <c r="CJ103" s="37"/>
-      <c r="CK103" s="37"/>
-      <c r="CL103" s="35">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="104" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>4</v>
       </c>
@@ -34804,63 +34144,53 @@
       <c r="BY104" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BZ104" s="24" t="s">
+      <c r="BZ104" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CA104" s="24" t="s">
+      <c r="CA104" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CB104" s="24" t="s">
+      <c r="CB104" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CC104" s="24" t="s">
+      <c r="CC104" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CD104" s="24" t="s">
+      <c r="CD104" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CE104" s="24" t="s">
+      <c r="CE104" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CF104" s="24" t="s">
+      <c r="CF104" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CG104" s="24" t="s">
+      <c r="CG104" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CH104" s="24" t="s">
+      <c r="CH104" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CI104" s="24" t="s">
+      <c r="CI104" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CJ104" s="24" t="s">
+      <c r="CJ104" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CK104" s="24" t="s">
+      <c r="CK104" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL104" s="24" t="s">
+      <c r="CL104" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="CM104" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="105" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:155" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
-      <c r="BZ105" s="22"/>
-      <c r="CA105" s="22"/>
-      <c r="CB105" s="22"/>
-      <c r="CC105" s="22"/>
-      <c r="CD105" s="22"/>
-      <c r="CE105" s="22"/>
-      <c r="CF105" s="22"/>
-      <c r="CG105" s="22"/>
-      <c r="CH105" s="22"/>
-      <c r="CI105" s="22"/>
-      <c r="CJ105" s="22"/>
-      <c r="CK105" s="22"/>
-      <c r="CL105" s="22"/>
     </row>
-    <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>27</v>
       </c>
@@ -35092,46 +34422,48 @@
       <c r="BY106" s="18">
         <v>9.5485307704429427</v>
       </c>
-      <c r="BZ106" s="32">
+      <c r="BZ106" s="18">
         <v>9.3506203182975529</v>
       </c>
-      <c r="CA106" s="32">
+      <c r="CA106" s="18">
         <v>9.532740913457971</v>
       </c>
-      <c r="CB106" s="32">
+      <c r="CB106" s="18">
         <v>9.5461521207642974</v>
       </c>
-      <c r="CC106" s="32">
+      <c r="CC106" s="18">
         <v>8.8576428452988889</v>
       </c>
-      <c r="CD106" s="32">
+      <c r="CD106" s="18">
         <v>8.3703844905547893</v>
       </c>
-      <c r="CE106" s="32">
+      <c r="CE106" s="18">
         <v>7.7291102907035487</v>
       </c>
-      <c r="CF106" s="32">
+      <c r="CF106" s="18">
         <v>7.8002261778499493</v>
       </c>
-      <c r="CG106" s="32">
+      <c r="CG106" s="18">
         <v>7.6424111626042208</v>
       </c>
-      <c r="CH106" s="32">
+      <c r="CH106" s="18">
         <v>8.3611703658974346</v>
       </c>
-      <c r="CI106" s="32">
+      <c r="CI106" s="18">
         <v>8.5297891597593409</v>
       </c>
-      <c r="CJ106" s="32">
+      <c r="CJ106" s="18">
         <v>7.9170153002722827</v>
       </c>
-      <c r="CK106" s="32">
+      <c r="CK106" s="18">
         <v>7.4230953951303524</v>
       </c>
-      <c r="CL106" s="32">
-        <v>8.546490881492609</v>
-      </c>
-      <c r="CM106" s="10"/>
+      <c r="CL106" s="18">
+        <v>8.7187164808033479</v>
+      </c>
+      <c r="CM106" s="18">
+        <v>9.30082290466469</v>
+      </c>
       <c r="CN106" s="10"/>
       <c r="CO106" s="10"/>
       <c r="CP106" s="10"/>
@@ -35197,7 +34529,7 @@
       <c r="EX106" s="10"/>
       <c r="EY106" s="10"/>
     </row>
-    <row r="107" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>12</v>
       </c>
@@ -35429,46 +34761,48 @@
       <c r="BY107" s="18">
         <v>90.451469229557063</v>
       </c>
-      <c r="BZ107" s="32">
+      <c r="BZ107" s="18">
         <v>90.649379681702456</v>
       </c>
-      <c r="CA107" s="32">
+      <c r="CA107" s="18">
         <v>90.467259086542029</v>
       </c>
-      <c r="CB107" s="32">
+      <c r="CB107" s="18">
         <v>90.45384787923571</v>
       </c>
-      <c r="CC107" s="32">
+      <c r="CC107" s="18">
         <v>91.142357154701116</v>
       </c>
-      <c r="CD107" s="32">
+      <c r="CD107" s="18">
         <v>91.629615509445216</v>
       </c>
-      <c r="CE107" s="32">
+      <c r="CE107" s="18">
         <v>92.270889709296455</v>
       </c>
-      <c r="CF107" s="32">
+      <c r="CF107" s="18">
         <v>92.19977382215005</v>
       </c>
-      <c r="CG107" s="32">
+      <c r="CG107" s="18">
         <v>92.357588837395781</v>
       </c>
-      <c r="CH107" s="32">
+      <c r="CH107" s="18">
         <v>91.638829634102564</v>
       </c>
-      <c r="CI107" s="32">
+      <c r="CI107" s="18">
         <v>91.470210840240654</v>
       </c>
-      <c r="CJ107" s="32">
+      <c r="CJ107" s="18">
         <v>92.082984699727717</v>
       </c>
-      <c r="CK107" s="32">
+      <c r="CK107" s="18">
         <v>92.576904604869654</v>
       </c>
-      <c r="CL107" s="32">
-        <v>91.453509118507398</v>
-      </c>
-      <c r="CM107" s="10"/>
+      <c r="CL107" s="18">
+        <v>91.281283519196649</v>
+      </c>
+      <c r="CM107" s="18">
+        <v>90.699177095335315</v>
+      </c>
       <c r="CN107" s="10"/>
       <c r="CO107" s="10"/>
       <c r="CP107" s="10"/>
@@ -35534,7 +34868,7 @@
       <c r="EX107" s="10"/>
       <c r="EY107" s="10"/>
     </row>
-    <row r="108" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="19"/>
       <c r="C108" s="19"/>
       <c r="D108" s="19"/>
@@ -35611,20 +34945,20 @@
       <c r="BW108" s="19"/>
       <c r="BX108" s="19"/>
       <c r="BY108" s="19"/>
-      <c r="BZ108" s="31"/>
-      <c r="CA108" s="31"/>
-      <c r="CB108" s="31"/>
-      <c r="CC108" s="31"/>
-      <c r="CD108" s="31"/>
-      <c r="CE108" s="31"/>
-      <c r="CF108" s="31"/>
-      <c r="CG108" s="31"/>
-      <c r="CH108" s="31"/>
-      <c r="CI108" s="31"/>
-      <c r="CJ108" s="31"/>
-      <c r="CK108" s="31"/>
-      <c r="CL108" s="31"/>
-      <c r="CM108" s="10"/>
+      <c r="BZ108" s="19"/>
+      <c r="CA108" s="19"/>
+      <c r="CB108" s="19"/>
+      <c r="CC108" s="19"/>
+      <c r="CD108" s="19"/>
+      <c r="CE108" s="19"/>
+      <c r="CF108" s="19"/>
+      <c r="CG108" s="19"/>
+      <c r="CH108" s="19"/>
+      <c r="CI108" s="19"/>
+      <c r="CJ108" s="19"/>
+      <c r="CK108" s="19"/>
+      <c r="CL108" s="19"/>
+      <c r="CM108" s="19"/>
       <c r="CN108" s="10"/>
       <c r="CO108" s="10"/>
       <c r="CP108" s="10"/>
@@ -35690,7 +35024,7 @@
       <c r="EX108" s="10"/>
       <c r="EY108" s="10"/>
     </row>
-    <row r="109" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
         <v>11</v>
       </c>
@@ -35922,46 +35256,48 @@
       <c r="BY109" s="18">
         <v>100</v>
       </c>
-      <c r="BZ109" s="32">
+      <c r="BZ109" s="18">
         <v>100</v>
       </c>
-      <c r="CA109" s="32">
+      <c r="CA109" s="18">
         <v>100</v>
       </c>
-      <c r="CB109" s="32">
+      <c r="CB109" s="18">
         <v>100</v>
       </c>
-      <c r="CC109" s="32">
+      <c r="CC109" s="18">
         <v>100</v>
       </c>
-      <c r="CD109" s="32">
+      <c r="CD109" s="18">
         <v>100</v>
       </c>
-      <c r="CE109" s="32">
+      <c r="CE109" s="18">
         <v>100</v>
       </c>
-      <c r="CF109" s="32">
+      <c r="CF109" s="18">
         <v>100</v>
       </c>
-      <c r="CG109" s="32">
+      <c r="CG109" s="18">
         <v>100</v>
       </c>
-      <c r="CH109" s="32">
+      <c r="CH109" s="18">
         <v>100</v>
       </c>
-      <c r="CI109" s="32">
+      <c r="CI109" s="18">
         <v>100</v>
       </c>
-      <c r="CJ109" s="32">
+      <c r="CJ109" s="18">
         <v>100</v>
       </c>
-      <c r="CK109" s="32">
+      <c r="CK109" s="18">
         <v>100</v>
       </c>
-      <c r="CL109" s="32">
+      <c r="CL109" s="18">
         <v>100</v>
       </c>
-      <c r="CM109" s="10"/>
+      <c r="CM109" s="18">
+        <v>100</v>
+      </c>
       <c r="CN109" s="10"/>
       <c r="CO109" s="10"/>
       <c r="CP109" s="10"/>
@@ -36027,7 +35363,7 @@
       <c r="EX109" s="10"/>
       <c r="EY109" s="10"/>
     </row>
-    <row r="110" spans="1:155" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:155" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="16"/>
       <c r="B110" s="16"/>
       <c r="C110" s="16"/>
@@ -36105,39 +35441,27 @@
       <c r="BW110" s="16"/>
       <c r="BX110" s="16"/>
       <c r="BY110" s="16"/>
-      <c r="BZ110" s="29"/>
-      <c r="CA110" s="29"/>
-      <c r="CB110" s="29"/>
-      <c r="CC110" s="29"/>
-      <c r="CD110" s="29"/>
-      <c r="CE110" s="29"/>
-      <c r="CF110" s="29"/>
-      <c r="CG110" s="29"/>
-      <c r="CH110" s="29"/>
-      <c r="CI110" s="29"/>
-      <c r="CJ110" s="29"/>
-      <c r="CK110" s="29"/>
-      <c r="CL110" s="29"/>
+      <c r="BZ110" s="16"/>
+      <c r="CA110" s="16"/>
+      <c r="CB110" s="16"/>
+      <c r="CC110" s="16"/>
+      <c r="CD110" s="16"/>
+      <c r="CE110" s="16"/>
+      <c r="CF110" s="16"/>
+      <c r="CG110" s="16"/>
+      <c r="CH110" s="16"/>
+      <c r="CI110" s="16"/>
+      <c r="CJ110" s="16"/>
+      <c r="CK110" s="16"/>
+      <c r="CL110" s="16"/>
+      <c r="CM110" s="16"/>
     </row>
-    <row r="111" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="BZ111" s="22"/>
-      <c r="CA111" s="22"/>
-      <c r="CB111" s="22"/>
-      <c r="CC111" s="22"/>
-      <c r="CD111" s="22"/>
-      <c r="CE111" s="22"/>
-      <c r="CF111" s="22"/>
-      <c r="CG111" s="22"/>
-      <c r="CH111" s="22"/>
-      <c r="CI111" s="22"/>
-      <c r="CJ111" s="22"/>
-      <c r="CK111" s="22"/>
-      <c r="CL111" s="22"/>
     </row>
-    <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
@@ -36214,19 +35538,19 @@
       <c r="BW112" s="10"/>
       <c r="BX112" s="10"/>
       <c r="BY112" s="10"/>
-      <c r="BZ112" s="30"/>
-      <c r="CA112" s="30"/>
-      <c r="CB112" s="30"/>
-      <c r="CC112" s="30"/>
-      <c r="CD112" s="30"/>
-      <c r="CE112" s="30"/>
-      <c r="CF112" s="30"/>
-      <c r="CG112" s="30"/>
-      <c r="CH112" s="30"/>
-      <c r="CI112" s="30"/>
-      <c r="CJ112" s="30"/>
-      <c r="CK112" s="30"/>
-      <c r="CL112" s="30"/>
+      <c r="BZ112" s="10"/>
+      <c r="CA112" s="10"/>
+      <c r="CB112" s="10"/>
+      <c r="CC112" s="10"/>
+      <c r="CD112" s="10"/>
+      <c r="CE112" s="10"/>
+      <c r="CF112" s="10"/>
+      <c r="CG112" s="10"/>
+      <c r="CH112" s="10"/>
+      <c r="CI112" s="10"/>
+      <c r="CJ112" s="10"/>
+      <c r="CK112" s="10"/>
+      <c r="CL112" s="10"/>
       <c r="CM112" s="10"/>
       <c r="CN112" s="10"/>
       <c r="CO112" s="10"/>
@@ -36293,7 +35617,7 @@
       <c r="EX112" s="10"/>
       <c r="EY112" s="10"/>
     </row>
-    <row r="113" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
       <c r="D113" s="10"/>
@@ -36370,19 +35694,19 @@
       <c r="BW113" s="10"/>
       <c r="BX113" s="10"/>
       <c r="BY113" s="10"/>
-      <c r="BZ113" s="30"/>
-      <c r="CA113" s="30"/>
-      <c r="CB113" s="30"/>
-      <c r="CC113" s="30"/>
-      <c r="CD113" s="30"/>
-      <c r="CE113" s="30"/>
-      <c r="CF113" s="30"/>
-      <c r="CG113" s="30"/>
-      <c r="CH113" s="30"/>
-      <c r="CI113" s="30"/>
-      <c r="CJ113" s="30"/>
-      <c r="CK113" s="30"/>
-      <c r="CL113" s="30"/>
+      <c r="BZ113" s="10"/>
+      <c r="CA113" s="10"/>
+      <c r="CB113" s="10"/>
+      <c r="CC113" s="10"/>
+      <c r="CD113" s="10"/>
+      <c r="CE113" s="10"/>
+      <c r="CF113" s="10"/>
+      <c r="CG113" s="10"/>
+      <c r="CH113" s="10"/>
+      <c r="CI113" s="10"/>
+      <c r="CJ113" s="10"/>
+      <c r="CK113" s="10"/>
+      <c r="CL113" s="10"/>
       <c r="CM113" s="10"/>
       <c r="CN113" s="10"/>
       <c r="CO113" s="10"/>
@@ -36449,283 +35773,178 @@
       <c r="EX113" s="10"/>
       <c r="EY113" s="10"/>
     </row>
-    <row r="114" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BZ114" s="22"/>
-      <c r="CA114" s="22"/>
-      <c r="CB114" s="22"/>
-      <c r="CC114" s="22"/>
-      <c r="CD114" s="22"/>
-      <c r="CE114" s="22"/>
-      <c r="CF114" s="22"/>
-      <c r="CG114" s="22"/>
-      <c r="CH114" s="22"/>
-      <c r="CI114" s="22"/>
-      <c r="CJ114" s="22"/>
-      <c r="CK114" s="22"/>
-      <c r="CL114" s="22"/>
     </row>
-    <row r="115" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BZ115" s="22"/>
-      <c r="CA115" s="22"/>
-      <c r="CB115" s="22"/>
-      <c r="CC115" s="22"/>
-      <c r="CD115" s="22"/>
-      <c r="CE115" s="22"/>
-      <c r="CF115" s="22"/>
-      <c r="CG115" s="22"/>
-      <c r="CH115" s="22"/>
-      <c r="CI115" s="22"/>
-      <c r="CJ115" s="22"/>
-      <c r="CK115" s="22"/>
-      <c r="CL115" s="22"/>
     </row>
-    <row r="116" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BZ116" s="22"/>
-      <c r="CA116" s="22"/>
-      <c r="CB116" s="22"/>
-      <c r="CC116" s="22"/>
-      <c r="CD116" s="22"/>
-      <c r="CE116" s="22"/>
-      <c r="CF116" s="22"/>
-      <c r="CG116" s="22"/>
-      <c r="CH116" s="22"/>
-      <c r="CI116" s="22"/>
-      <c r="CJ116" s="22"/>
-      <c r="CK116" s="22"/>
-      <c r="CL116" s="22"/>
     </row>
-    <row r="117" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="BZ117" s="22"/>
-      <c r="CA117" s="22"/>
-      <c r="CB117" s="22"/>
-      <c r="CC117" s="22"/>
-      <c r="CD117" s="22"/>
-      <c r="CE117" s="22"/>
-      <c r="CF117" s="22"/>
-      <c r="CG117" s="22"/>
-      <c r="CH117" s="22"/>
-      <c r="CI117" s="22"/>
-      <c r="CJ117" s="22"/>
-      <c r="CK117" s="22"/>
-      <c r="CL117" s="22"/>
-    </row>
-    <row r="118" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BZ118" s="22"/>
-      <c r="CA118" s="22"/>
-      <c r="CB118" s="22"/>
-      <c r="CC118" s="22"/>
-      <c r="CD118" s="22"/>
-      <c r="CE118" s="22"/>
-      <c r="CF118" s="22"/>
-      <c r="CG118" s="22"/>
-      <c r="CH118" s="22"/>
-      <c r="CI118" s="22"/>
-      <c r="CJ118" s="22"/>
-      <c r="CK118" s="22"/>
-      <c r="CL118" s="22"/>
     </row>
-    <row r="119" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BZ119" s="22"/>
-      <c r="CA119" s="22"/>
-      <c r="CB119" s="22"/>
-      <c r="CC119" s="22"/>
-      <c r="CD119" s="22"/>
-      <c r="CE119" s="22"/>
-      <c r="CF119" s="22"/>
-      <c r="CG119" s="22"/>
-      <c r="CH119" s="22"/>
-      <c r="CI119" s="22"/>
-      <c r="CJ119" s="22"/>
-      <c r="CK119" s="22"/>
-      <c r="CL119" s="22"/>
     </row>
-    <row r="120" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BZ120" s="22"/>
-      <c r="CA120" s="22"/>
-      <c r="CB120" s="22"/>
-      <c r="CC120" s="22"/>
-      <c r="CD120" s="22"/>
-      <c r="CE120" s="22"/>
-      <c r="CF120" s="22"/>
-      <c r="CG120" s="22"/>
-      <c r="CH120" s="22"/>
-      <c r="CI120" s="22"/>
-      <c r="CJ120" s="22"/>
-      <c r="CK120" s="22"/>
-      <c r="CL120" s="22"/>
     </row>
-    <row r="121" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="BZ121" s="22"/>
-      <c r="CA121" s="22"/>
-      <c r="CB121" s="22"/>
-      <c r="CC121" s="22"/>
-      <c r="CD121" s="22"/>
-      <c r="CE121" s="22"/>
-      <c r="CF121" s="22"/>
-      <c r="CG121" s="22"/>
-      <c r="CH121" s="22"/>
-      <c r="CI121" s="22"/>
-      <c r="CJ121" s="22"/>
-      <c r="CK121" s="22"/>
-      <c r="CL121" s="22"/>
+    <row r="121" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="5"/>
+      <c r="B122" s="29">
+        <v>2000</v>
+      </c>
+      <c r="C122" s="30"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="29">
+        <v>2001</v>
+      </c>
+      <c r="G122" s="30"/>
+      <c r="H122" s="30"/>
+      <c r="I122" s="30"/>
+      <c r="J122" s="29">
+        <v>2002</v>
+      </c>
+      <c r="K122" s="30"/>
+      <c r="L122" s="30"/>
+      <c r="M122" s="30"/>
+      <c r="N122" s="29">
+        <v>2003</v>
+      </c>
+      <c r="O122" s="30"/>
+      <c r="P122" s="30"/>
+      <c r="Q122" s="30"/>
+      <c r="R122" s="29">
+        <v>2004</v>
+      </c>
+      <c r="S122" s="30"/>
+      <c r="T122" s="30"/>
+      <c r="U122" s="30"/>
+      <c r="V122" s="29">
+        <v>2005</v>
+      </c>
+      <c r="W122" s="30"/>
+      <c r="X122" s="30"/>
+      <c r="Y122" s="30"/>
+      <c r="Z122" s="29">
+        <v>2006</v>
+      </c>
+      <c r="AA122" s="30"/>
+      <c r="AB122" s="30"/>
+      <c r="AC122" s="30"/>
+      <c r="AD122" s="29">
+        <v>2007</v>
+      </c>
+      <c r="AE122" s="30"/>
+      <c r="AF122" s="30"/>
+      <c r="AG122" s="30"/>
+      <c r="AH122" s="29">
+        <v>2008</v>
+      </c>
+      <c r="AI122" s="30"/>
+      <c r="AJ122" s="30"/>
+      <c r="AK122" s="30"/>
+      <c r="AL122" s="29">
+        <v>2009</v>
+      </c>
+      <c r="AM122" s="30"/>
+      <c r="AN122" s="30"/>
+      <c r="AO122" s="30"/>
+      <c r="AP122" s="29">
+        <v>2010</v>
+      </c>
+      <c r="AQ122" s="30"/>
+      <c r="AR122" s="30"/>
+      <c r="AS122" s="30"/>
+      <c r="AT122" s="29">
+        <v>2011</v>
+      </c>
+      <c r="AU122" s="30"/>
+      <c r="AV122" s="30"/>
+      <c r="AW122" s="30"/>
+      <c r="AX122" s="29">
+        <v>2012</v>
+      </c>
+      <c r="AY122" s="30"/>
+      <c r="AZ122" s="30"/>
+      <c r="BA122" s="30"/>
+      <c r="BB122" s="29">
+        <v>2013</v>
+      </c>
+      <c r="BC122" s="30"/>
+      <c r="BD122" s="30"/>
+      <c r="BE122" s="30"/>
+      <c r="BF122" s="29">
+        <v>2014</v>
+      </c>
+      <c r="BG122" s="30"/>
+      <c r="BH122" s="30"/>
+      <c r="BI122" s="30"/>
+      <c r="BJ122" s="29">
+        <v>2015</v>
+      </c>
+      <c r="BK122" s="30"/>
+      <c r="BL122" s="30"/>
+      <c r="BM122" s="30"/>
+      <c r="BN122" s="29">
+        <v>2016</v>
+      </c>
+      <c r="BO122" s="30"/>
+      <c r="BP122" s="30"/>
+      <c r="BQ122" s="30"/>
+      <c r="BR122" s="29">
+        <v>2017</v>
+      </c>
+      <c r="BS122" s="30"/>
+      <c r="BT122" s="30"/>
+      <c r="BU122" s="30"/>
+      <c r="BV122" s="29">
+        <v>2018</v>
+      </c>
+      <c r="BW122" s="30"/>
+      <c r="BX122" s="30"/>
+      <c r="BY122" s="30"/>
+      <c r="BZ122" s="29">
+        <v>2019</v>
+      </c>
+      <c r="CA122" s="30"/>
+      <c r="CB122" s="30"/>
+      <c r="CC122" s="30"/>
+      <c r="CD122" s="29">
+        <v>2020</v>
+      </c>
+      <c r="CE122" s="30"/>
+      <c r="CF122" s="30"/>
+      <c r="CG122" s="30"/>
+      <c r="CH122" s="29">
+        <v>2021</v>
+      </c>
+      <c r="CI122" s="29"/>
+      <c r="CJ122" s="29"/>
+      <c r="CK122" s="29"/>
+      <c r="CL122" s="29">
+        <v>2022</v>
+      </c>
+      <c r="CM122" s="29"/>
     </row>
-    <row r="122" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="5"/>
-      <c r="B122" s="38">
-        <v>2000</v>
-      </c>
-      <c r="C122" s="39"/>
-      <c r="D122" s="39"/>
-      <c r="E122" s="39"/>
-      <c r="F122" s="38">
-        <v>2001</v>
-      </c>
-      <c r="G122" s="39"/>
-      <c r="H122" s="39"/>
-      <c r="I122" s="39"/>
-      <c r="J122" s="38">
-        <v>2002</v>
-      </c>
-      <c r="K122" s="39"/>
-      <c r="L122" s="39"/>
-      <c r="M122" s="39"/>
-      <c r="N122" s="38">
-        <v>2003</v>
-      </c>
-      <c r="O122" s="39"/>
-      <c r="P122" s="39"/>
-      <c r="Q122" s="39"/>
-      <c r="R122" s="38">
-        <v>2004</v>
-      </c>
-      <c r="S122" s="39"/>
-      <c r="T122" s="39"/>
-      <c r="U122" s="39"/>
-      <c r="V122" s="38">
-        <v>2005</v>
-      </c>
-      <c r="W122" s="39"/>
-      <c r="X122" s="39"/>
-      <c r="Y122" s="39"/>
-      <c r="Z122" s="38">
-        <v>2006</v>
-      </c>
-      <c r="AA122" s="39"/>
-      <c r="AB122" s="39"/>
-      <c r="AC122" s="39"/>
-      <c r="AD122" s="38">
-        <v>2007</v>
-      </c>
-      <c r="AE122" s="39"/>
-      <c r="AF122" s="39"/>
-      <c r="AG122" s="39"/>
-      <c r="AH122" s="38">
-        <v>2008</v>
-      </c>
-      <c r="AI122" s="39"/>
-      <c r="AJ122" s="39"/>
-      <c r="AK122" s="39"/>
-      <c r="AL122" s="38">
-        <v>2009</v>
-      </c>
-      <c r="AM122" s="39"/>
-      <c r="AN122" s="39"/>
-      <c r="AO122" s="39"/>
-      <c r="AP122" s="38">
-        <v>2010</v>
-      </c>
-      <c r="AQ122" s="39"/>
-      <c r="AR122" s="39"/>
-      <c r="AS122" s="39"/>
-      <c r="AT122" s="38">
-        <v>2011</v>
-      </c>
-      <c r="AU122" s="39"/>
-      <c r="AV122" s="39"/>
-      <c r="AW122" s="39"/>
-      <c r="AX122" s="38">
-        <v>2012</v>
-      </c>
-      <c r="AY122" s="39"/>
-      <c r="AZ122" s="39"/>
-      <c r="BA122" s="39"/>
-      <c r="BB122" s="38">
-        <v>2013</v>
-      </c>
-      <c r="BC122" s="39"/>
-      <c r="BD122" s="39"/>
-      <c r="BE122" s="39"/>
-      <c r="BF122" s="38">
-        <v>2014</v>
-      </c>
-      <c r="BG122" s="39"/>
-      <c r="BH122" s="39"/>
-      <c r="BI122" s="39"/>
-      <c r="BJ122" s="38">
-        <v>2015</v>
-      </c>
-      <c r="BK122" s="39"/>
-      <c r="BL122" s="39"/>
-      <c r="BM122" s="39"/>
-      <c r="BN122" s="38">
-        <v>2016</v>
-      </c>
-      <c r="BO122" s="39"/>
-      <c r="BP122" s="39"/>
-      <c r="BQ122" s="39"/>
-      <c r="BR122" s="38">
-        <v>2017</v>
-      </c>
-      <c r="BS122" s="39"/>
-      <c r="BT122" s="39"/>
-      <c r="BU122" s="39"/>
-      <c r="BV122" s="38">
-        <v>2018</v>
-      </c>
-      <c r="BW122" s="39"/>
-      <c r="BX122" s="39"/>
-      <c r="BY122" s="39"/>
-      <c r="BZ122" s="37">
-        <v>2019</v>
-      </c>
-      <c r="CA122" s="40"/>
-      <c r="CB122" s="40"/>
-      <c r="CC122" s="40"/>
-      <c r="CD122" s="37">
-        <v>2020</v>
-      </c>
-      <c r="CE122" s="37"/>
-      <c r="CF122" s="37"/>
-      <c r="CG122" s="37"/>
-      <c r="CH122" s="37">
-        <v>2021</v>
-      </c>
-      <c r="CI122" s="37"/>
-      <c r="CJ122" s="37"/>
-      <c r="CK122" s="37"/>
-      <c r="CL122" s="35">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="123" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>4</v>
       </c>
@@ -36957,63 +36176,53 @@
       <c r="BY123" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BZ123" s="24" t="s">
+      <c r="BZ123" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CA123" s="24" t="s">
+      <c r="CA123" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CB123" s="24" t="s">
+      <c r="CB123" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CC123" s="24" t="s">
+      <c r="CC123" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CD123" s="24" t="s">
+      <c r="CD123" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CE123" s="24" t="s">
+      <c r="CE123" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CF123" s="24" t="s">
+      <c r="CF123" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CG123" s="24" t="s">
+      <c r="CG123" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CH123" s="24" t="s">
+      <c r="CH123" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CI123" s="24" t="s">
+      <c r="CI123" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CJ123" s="24" t="s">
+      <c r="CJ123" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CK123" s="24" t="s">
+      <c r="CK123" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL123" s="24" t="s">
+      <c r="CL123" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="CM123" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="124" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:155" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
-      <c r="BZ124" s="22"/>
-      <c r="CA124" s="22"/>
-      <c r="CB124" s="22"/>
-      <c r="CC124" s="22"/>
-      <c r="CD124" s="22"/>
-      <c r="CE124" s="22"/>
-      <c r="CF124" s="22"/>
-      <c r="CG124" s="22"/>
-      <c r="CH124" s="22"/>
-      <c r="CI124" s="22"/>
-      <c r="CJ124" s="22"/>
-      <c r="CK124" s="22"/>
-      <c r="CL124" s="22"/>
     </row>
-    <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>27</v>
       </c>
@@ -37245,46 +36454,48 @@
       <c r="BY125" s="18">
         <v>9.0745072950170105</v>
       </c>
-      <c r="BZ125" s="32">
+      <c r="BZ125" s="18">
         <v>9.226076112780083</v>
       </c>
-      <c r="CA125" s="32">
+      <c r="CA125" s="18">
         <v>10.305556661059674</v>
       </c>
-      <c r="CB125" s="32">
+      <c r="CB125" s="18">
         <v>9.8387609265435536</v>
       </c>
-      <c r="CC125" s="32">
+      <c r="CC125" s="18">
         <v>8.6747021259267605</v>
       </c>
-      <c r="CD125" s="32">
+      <c r="CD125" s="18">
         <v>8.0734574916305508</v>
       </c>
-      <c r="CE125" s="32">
+      <c r="CE125" s="18">
         <v>8.1528041731868814</v>
       </c>
-      <c r="CF125" s="32">
+      <c r="CF125" s="18">
         <v>7.9046864470302891</v>
       </c>
-      <c r="CG125" s="32">
+      <c r="CG125" s="18">
         <v>7.3861497085089347</v>
       </c>
-      <c r="CH125" s="32">
+      <c r="CH125" s="18">
         <v>8.0029035797939585</v>
       </c>
-      <c r="CI125" s="32">
+      <c r="CI125" s="18">
         <v>8.6479509261469634</v>
       </c>
-      <c r="CJ125" s="32">
+      <c r="CJ125" s="18">
         <v>7.7695074111822793</v>
       </c>
-      <c r="CK125" s="32">
+      <c r="CK125" s="18">
         <v>7.0014781383624669</v>
       </c>
-      <c r="CL125" s="32">
-        <v>8.0770033238267054</v>
-      </c>
-      <c r="CM125" s="10"/>
+      <c r="CL125" s="18">
+        <v>8.2406204885807917</v>
+      </c>
+      <c r="CM125" s="18">
+        <v>9.4766210061233913</v>
+      </c>
       <c r="CN125" s="10"/>
       <c r="CO125" s="10"/>
       <c r="CP125" s="10"/>
@@ -37350,7 +36561,7 @@
       <c r="EX125" s="10"/>
       <c r="EY125" s="10"/>
     </row>
-    <row r="126" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>12</v>
       </c>
@@ -37582,46 +36793,48 @@
       <c r="BY126" s="18">
         <v>90.925492704982986</v>
       </c>
-      <c r="BZ126" s="32">
+      <c r="BZ126" s="18">
         <v>90.773923887219922</v>
       </c>
-      <c r="CA126" s="32">
+      <c r="CA126" s="18">
         <v>89.694443338940332</v>
       </c>
-      <c r="CB126" s="32">
+      <c r="CB126" s="18">
         <v>90.161239073456443</v>
       </c>
-      <c r="CC126" s="32">
+      <c r="CC126" s="18">
         <v>91.325297874073229</v>
       </c>
-      <c r="CD126" s="32">
+      <c r="CD126" s="18">
         <v>91.926542508369437</v>
       </c>
-      <c r="CE126" s="32">
+      <c r="CE126" s="18">
         <v>91.84719582681312</v>
       </c>
-      <c r="CF126" s="32">
+      <c r="CF126" s="18">
         <v>92.095313552969714</v>
       </c>
-      <c r="CG126" s="32">
+      <c r="CG126" s="18">
         <v>92.613850291491062</v>
       </c>
-      <c r="CH126" s="32">
+      <c r="CH126" s="18">
         <v>91.997096420206049</v>
       </c>
-      <c r="CI126" s="32">
+      <c r="CI126" s="18">
         <v>91.352049073853053</v>
       </c>
-      <c r="CJ126" s="32">
+      <c r="CJ126" s="18">
         <v>92.230492588817725</v>
       </c>
-      <c r="CK126" s="32">
+      <c r="CK126" s="18">
         <v>92.998521861637542</v>
       </c>
-      <c r="CL126" s="32">
-        <v>91.922996676173298</v>
-      </c>
-      <c r="CM126" s="10"/>
+      <c r="CL126" s="18">
+        <v>91.759379511419198</v>
+      </c>
+      <c r="CM126" s="18">
+        <v>90.523378993876605</v>
+      </c>
       <c r="CN126" s="10"/>
       <c r="CO126" s="10"/>
       <c r="CP126" s="10"/>
@@ -37687,7 +36900,7 @@
       <c r="EX126" s="10"/>
       <c r="EY126" s="10"/>
     </row>
-    <row r="127" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="19"/>
       <c r="C127" s="19"/>
       <c r="D127" s="19"/>
@@ -37764,20 +36977,20 @@
       <c r="BW127" s="19"/>
       <c r="BX127" s="19"/>
       <c r="BY127" s="19"/>
-      <c r="BZ127" s="31"/>
-      <c r="CA127" s="31"/>
-      <c r="CB127" s="31"/>
-      <c r="CC127" s="31"/>
-      <c r="CD127" s="31"/>
-      <c r="CE127" s="31"/>
-      <c r="CF127" s="31"/>
-      <c r="CG127" s="31"/>
-      <c r="CH127" s="31"/>
-      <c r="CI127" s="31"/>
-      <c r="CJ127" s="31"/>
-      <c r="CK127" s="31"/>
-      <c r="CL127" s="31"/>
-      <c r="CM127" s="10"/>
+      <c r="BZ127" s="19"/>
+      <c r="CA127" s="19"/>
+      <c r="CB127" s="19"/>
+      <c r="CC127" s="19"/>
+      <c r="CD127" s="19"/>
+      <c r="CE127" s="19"/>
+      <c r="CF127" s="19"/>
+      <c r="CG127" s="19"/>
+      <c r="CH127" s="19"/>
+      <c r="CI127" s="19"/>
+      <c r="CJ127" s="19"/>
+      <c r="CK127" s="19"/>
+      <c r="CL127" s="19"/>
+      <c r="CM127" s="19"/>
       <c r="CN127" s="10"/>
       <c r="CO127" s="10"/>
       <c r="CP127" s="10"/>
@@ -37843,7 +37056,7 @@
       <c r="EX127" s="10"/>
       <c r="EY127" s="10"/>
     </row>
-    <row r="128" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
         <v>11</v>
       </c>
@@ -38075,46 +37288,48 @@
       <c r="BY128" s="18">
         <v>100</v>
       </c>
-      <c r="BZ128" s="32">
+      <c r="BZ128" s="18">
         <v>100</v>
       </c>
-      <c r="CA128" s="32">
+      <c r="CA128" s="18">
         <v>100</v>
       </c>
-      <c r="CB128" s="32">
+      <c r="CB128" s="18">
         <v>100</v>
       </c>
-      <c r="CC128" s="32">
+      <c r="CC128" s="18">
         <v>100</v>
       </c>
-      <c r="CD128" s="32">
+      <c r="CD128" s="18">
         <v>100</v>
       </c>
-      <c r="CE128" s="32">
+      <c r="CE128" s="18">
         <v>100</v>
       </c>
-      <c r="CF128" s="32">
+      <c r="CF128" s="18">
         <v>100</v>
       </c>
-      <c r="CG128" s="32">
+      <c r="CG128" s="18">
         <v>100</v>
       </c>
-      <c r="CH128" s="32">
+      <c r="CH128" s="18">
         <v>100</v>
       </c>
-      <c r="CI128" s="32">
+      <c r="CI128" s="18">
         <v>100</v>
       </c>
-      <c r="CJ128" s="32">
+      <c r="CJ128" s="18">
         <v>100</v>
       </c>
-      <c r="CK128" s="32">
+      <c r="CK128" s="18">
         <v>100</v>
       </c>
-      <c r="CL128" s="32">
+      <c r="CL128" s="18">
         <v>100</v>
       </c>
-      <c r="CM128" s="10"/>
+      <c r="CM128" s="18">
+        <v>100</v>
+      </c>
       <c r="CN128" s="10"/>
       <c r="CO128" s="10"/>
       <c r="CP128" s="10"/>
@@ -38180,7 +37395,7 @@
       <c r="EX128" s="10"/>
       <c r="EY128" s="10"/>
     </row>
-    <row r="129" spans="1:155" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:155" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="16"/>
       <c r="B129" s="16"/>
       <c r="C129" s="16"/>
@@ -38258,39 +37473,27 @@
       <c r="BW129" s="16"/>
       <c r="BX129" s="16"/>
       <c r="BY129" s="16"/>
-      <c r="BZ129" s="29"/>
-      <c r="CA129" s="29"/>
-      <c r="CB129" s="29"/>
-      <c r="CC129" s="29"/>
-      <c r="CD129" s="29"/>
-      <c r="CE129" s="29"/>
-      <c r="CF129" s="29"/>
-      <c r="CG129" s="29"/>
-      <c r="CH129" s="29"/>
-      <c r="CI129" s="29"/>
-      <c r="CJ129" s="29"/>
-      <c r="CK129" s="29"/>
-      <c r="CL129" s="29"/>
+      <c r="BZ129" s="16"/>
+      <c r="CA129" s="16"/>
+      <c r="CB129" s="16"/>
+      <c r="CC129" s="16"/>
+      <c r="CD129" s="16"/>
+      <c r="CE129" s="16"/>
+      <c r="CF129" s="16"/>
+      <c r="CG129" s="16"/>
+      <c r="CH129" s="16"/>
+      <c r="CI129" s="16"/>
+      <c r="CJ129" s="16"/>
+      <c r="CK129" s="16"/>
+      <c r="CL129" s="16"/>
+      <c r="CM129" s="16"/>
     </row>
-    <row r="130" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="BZ130" s="22"/>
-      <c r="CA130" s="22"/>
-      <c r="CB130" s="22"/>
-      <c r="CC130" s="22"/>
-      <c r="CD130" s="22"/>
-      <c r="CE130" s="22"/>
-      <c r="CF130" s="22"/>
-      <c r="CG130" s="22"/>
-      <c r="CH130" s="22"/>
-      <c r="CI130" s="22"/>
-      <c r="CJ130" s="22"/>
-      <c r="CK130" s="22"/>
-      <c r="CL130" s="22"/>
     </row>
-    <row r="131" spans="1:155" s="21" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:155" s="21" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="20"/>
       <c r="C131" s="20"/>
@@ -38368,20 +37571,20 @@
       <c r="BW131" s="11"/>
       <c r="BX131" s="11"/>
       <c r="BY131" s="11"/>
-      <c r="BZ131" s="33"/>
-      <c r="CA131" s="33"/>
-      <c r="CB131" s="33"/>
-      <c r="CC131" s="33"/>
-      <c r="CD131" s="36"/>
-      <c r="CE131" s="36"/>
-      <c r="CF131" s="36"/>
-      <c r="CG131" s="36"/>
-      <c r="CH131" s="36"/>
-      <c r="CI131" s="36"/>
-      <c r="CJ131" s="36"/>
-      <c r="CK131" s="36"/>
-      <c r="CL131" s="36"/>
-      <c r="CM131" s="20"/>
+      <c r="BZ131" s="11"/>
+      <c r="CA131" s="11"/>
+      <c r="CB131" s="11"/>
+      <c r="CC131" s="11"/>
+      <c r="CD131" s="11"/>
+      <c r="CE131" s="11"/>
+      <c r="CF131" s="11"/>
+      <c r="CG131" s="11"/>
+      <c r="CH131" s="11"/>
+      <c r="CI131" s="11"/>
+      <c r="CJ131" s="11"/>
+      <c r="CK131" s="11"/>
+      <c r="CL131" s="11"/>
+      <c r="CM131" s="11"/>
       <c r="CN131" s="20"/>
       <c r="CO131" s="20"/>
       <c r="CP131" s="20"/>
@@ -38447,7 +37650,7 @@
       <c r="EX131" s="20"/>
       <c r="EY131" s="20"/>
     </row>
-    <row r="132" spans="1:155" s="21" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:155" s="21" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="20"/>
       <c r="C132" s="20"/>
@@ -38525,20 +37728,20 @@
       <c r="BW132" s="11"/>
       <c r="BX132" s="11"/>
       <c r="BY132" s="11"/>
-      <c r="BZ132" s="33"/>
-      <c r="CA132" s="33"/>
-      <c r="CB132" s="33"/>
-      <c r="CC132" s="33"/>
-      <c r="CD132" s="36"/>
-      <c r="CE132" s="36"/>
-      <c r="CF132" s="36"/>
-      <c r="CG132" s="36"/>
-      <c r="CH132" s="36"/>
-      <c r="CI132" s="36"/>
-      <c r="CJ132" s="36"/>
-      <c r="CK132" s="36"/>
-      <c r="CL132" s="36"/>
-      <c r="CM132" s="20"/>
+      <c r="BZ132" s="11"/>
+      <c r="CA132" s="11"/>
+      <c r="CB132" s="11"/>
+      <c r="CC132" s="11"/>
+      <c r="CD132" s="11"/>
+      <c r="CE132" s="11"/>
+      <c r="CF132" s="11"/>
+      <c r="CG132" s="11"/>
+      <c r="CH132" s="11"/>
+      <c r="CI132" s="11"/>
+      <c r="CJ132" s="11"/>
+      <c r="CK132" s="11"/>
+      <c r="CL132" s="11"/>
+      <c r="CM132" s="11"/>
       <c r="CN132" s="20"/>
       <c r="CO132" s="20"/>
       <c r="CP132" s="20"/>
@@ -38604,219 +37807,8 @@
       <c r="EX132" s="20"/>
       <c r="EY132" s="20"/>
     </row>
-    <row r="133" spans="1:155" x14ac:dyDescent="0.2">
-      <c r="CD133" s="22"/>
-      <c r="CE133" s="22"/>
-      <c r="CF133" s="22"/>
-      <c r="CG133" s="22"/>
-      <c r="CH133" s="22"/>
-      <c r="CI133" s="22"/>
-      <c r="CJ133" s="22"/>
-      <c r="CK133" s="22"/>
-      <c r="CL133" s="22"/>
-    </row>
-    <row r="134" spans="1:155" x14ac:dyDescent="0.2">
-      <c r="CD134" s="22"/>
-      <c r="CE134" s="22"/>
-      <c r="CF134" s="22"/>
-      <c r="CG134" s="22"/>
-      <c r="CH134" s="22"/>
-      <c r="CI134" s="22"/>
-      <c r="CJ134" s="22"/>
-      <c r="CK134" s="22"/>
-      <c r="CL134" s="22"/>
-    </row>
-    <row r="135" spans="1:155" x14ac:dyDescent="0.2">
-      <c r="CD135" s="22"/>
-      <c r="CE135" s="22"/>
-      <c r="CF135" s="22"/>
-      <c r="CG135" s="22"/>
-      <c r="CH135" s="22"/>
-      <c r="CI135" s="22"/>
-      <c r="CJ135" s="22"/>
-      <c r="CK135" s="22"/>
-      <c r="CL135" s="22"/>
-    </row>
-    <row r="136" spans="1:155" x14ac:dyDescent="0.2">
-      <c r="CD136" s="22"/>
-      <c r="CE136" s="22"/>
-      <c r="CF136" s="22"/>
-      <c r="CG136" s="22"/>
-      <c r="CH136" s="22"/>
-      <c r="CI136" s="22"/>
-      <c r="CJ136" s="22"/>
-      <c r="CK136" s="22"/>
-      <c r="CL136" s="22"/>
-    </row>
-    <row r="137" spans="1:155" x14ac:dyDescent="0.2">
-      <c r="CD137" s="22"/>
-      <c r="CE137" s="22"/>
-      <c r="CF137" s="22"/>
-      <c r="CG137" s="22"/>
-      <c r="CH137" s="22"/>
-      <c r="CI137" s="22"/>
-      <c r="CJ137" s="22"/>
-      <c r="CK137" s="22"/>
-      <c r="CL137" s="22"/>
-    </row>
-    <row r="138" spans="1:155" x14ac:dyDescent="0.2">
-      <c r="CC138" s="11"/>
-      <c r="CD138" s="11"/>
-      <c r="CE138" s="11"/>
-      <c r="CF138" s="11"/>
-      <c r="CG138" s="11"/>
-      <c r="CH138" s="11"/>
-      <c r="CI138" s="11"/>
-      <c r="CJ138" s="11"/>
-      <c r="CK138" s="11"/>
-      <c r="CL138" s="11"/>
-    </row>
-    <row r="139" spans="1:155" x14ac:dyDescent="0.2">
-      <c r="CC139" s="11"/>
-      <c r="CD139" s="11"/>
-      <c r="CE139" s="11"/>
-      <c r="CF139" s="11"/>
-      <c r="CG139" s="11"/>
-      <c r="CH139" s="11"/>
-      <c r="CI139" s="11"/>
-      <c r="CJ139" s="11"/>
-      <c r="CK139" s="11"/>
-      <c r="CL139" s="11"/>
-    </row>
-    <row r="140" spans="1:155" x14ac:dyDescent="0.2">
-      <c r="CC140" s="11"/>
-      <c r="CD140" s="11"/>
-      <c r="CE140" s="11"/>
-      <c r="CF140" s="11"/>
-      <c r="CG140" s="11"/>
-      <c r="CH140" s="11"/>
-      <c r="CI140" s="11"/>
-      <c r="CJ140" s="11"/>
-      <c r="CK140" s="11"/>
-      <c r="CL140" s="11"/>
-    </row>
-    <row r="141" spans="1:155" x14ac:dyDescent="0.2">
-      <c r="CC141" s="11"/>
-      <c r="CD141" s="11"/>
-      <c r="CE141" s="11"/>
-      <c r="CF141" s="11"/>
-      <c r="CG141" s="11"/>
-      <c r="CH141" s="11"/>
-      <c r="CI141" s="11"/>
-      <c r="CJ141" s="11"/>
-      <c r="CK141" s="11"/>
-      <c r="CL141" s="11"/>
-    </row>
-    <row r="142" spans="1:155" x14ac:dyDescent="0.2">
-      <c r="CC142" s="11"/>
-      <c r="CD142" s="11"/>
-      <c r="CE142" s="11"/>
-      <c r="CF142" s="11"/>
-      <c r="CG142" s="11"/>
-      <c r="CH142" s="11"/>
-      <c r="CI142" s="11"/>
-      <c r="CJ142" s="11"/>
-      <c r="CK142" s="11"/>
-      <c r="CL142" s="11"/>
-    </row>
-    <row r="143" spans="1:155" x14ac:dyDescent="0.2">
-      <c r="CC143" s="11"/>
-      <c r="CD143" s="11"/>
-      <c r="CE143" s="11"/>
-      <c r="CF143" s="11"/>
-      <c r="CG143" s="11"/>
-      <c r="CH143" s="11"/>
-      <c r="CI143" s="11"/>
-      <c r="CJ143" s="11"/>
-      <c r="CK143" s="11"/>
-      <c r="CL143" s="11"/>
-    </row>
-    <row r="144" spans="1:155" x14ac:dyDescent="0.2">
-      <c r="CC144" s="11"/>
-      <c r="CD144" s="11"/>
-      <c r="CE144" s="11"/>
-      <c r="CF144" s="11"/>
-      <c r="CG144" s="11"/>
-      <c r="CH144" s="11"/>
-      <c r="CI144" s="11"/>
-      <c r="CJ144" s="11"/>
-      <c r="CK144" s="11"/>
-      <c r="CL144" s="11"/>
-    </row>
-    <row r="145" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC145" s="11"/>
-      <c r="CD145" s="11"/>
-      <c r="CE145" s="11"/>
-      <c r="CF145" s="11"/>
-      <c r="CG145" s="11"/>
-      <c r="CH145" s="11"/>
-      <c r="CI145" s="11"/>
-      <c r="CJ145" s="11"/>
-      <c r="CK145" s="11"/>
-      <c r="CL145" s="11"/>
-    </row>
-    <row r="146" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC146" s="11"/>
-      <c r="CD146" s="11"/>
-      <c r="CE146" s="11"/>
-      <c r="CF146" s="11"/>
-      <c r="CG146" s="11"/>
-      <c r="CH146" s="11"/>
-      <c r="CI146" s="11"/>
-      <c r="CJ146" s="11"/>
-      <c r="CK146" s="11"/>
-      <c r="CL146" s="11"/>
-    </row>
-    <row r="147" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC147" s="11"/>
-      <c r="CD147" s="11"/>
-      <c r="CE147" s="11"/>
-      <c r="CF147" s="11"/>
-      <c r="CG147" s="11"/>
-      <c r="CH147" s="11"/>
-      <c r="CI147" s="11"/>
-      <c r="CJ147" s="11"/>
-      <c r="CK147" s="11"/>
-      <c r="CL147" s="11"/>
-    </row>
-    <row r="148" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC148" s="11"/>
-      <c r="CD148" s="11"/>
-      <c r="CE148" s="11"/>
-      <c r="CF148" s="11"/>
-      <c r="CG148" s="11"/>
-      <c r="CH148" s="11"/>
-      <c r="CI148" s="11"/>
-      <c r="CJ148" s="11"/>
-      <c r="CK148" s="11"/>
-      <c r="CL148" s="11"/>
-    </row>
-    <row r="149" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC149" s="11"/>
-      <c r="CD149" s="11"/>
-      <c r="CE149" s="11"/>
-      <c r="CF149" s="11"/>
-      <c r="CG149" s="11"/>
-      <c r="CH149" s="11"/>
-      <c r="CI149" s="11"/>
-      <c r="CJ149" s="11"/>
-      <c r="CK149" s="11"/>
-      <c r="CL149" s="11"/>
-    </row>
-    <row r="150" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC150" s="11"/>
-      <c r="CD150" s="11"/>
-      <c r="CE150" s="11"/>
-      <c r="CF150" s="11"/>
-      <c r="CG150" s="11"/>
-      <c r="CH150" s="11"/>
-      <c r="CI150" s="11"/>
-      <c r="CJ150" s="11"/>
-      <c r="CK150" s="11"/>
-      <c r="CL150" s="11"/>
-    </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="159">
     <mergeCell ref="AT84:AW84"/>
     <mergeCell ref="AX84:BA84"/>
     <mergeCell ref="BB84:BE84"/>
@@ -38959,6 +37951,13 @@
     <mergeCell ref="BR47:BU47"/>
     <mergeCell ref="BR9:BU9"/>
     <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="CL9:CM9"/>
+    <mergeCell ref="CL28:CM28"/>
+    <mergeCell ref="CH47:CI47"/>
+    <mergeCell ref="CH66:CI66"/>
+    <mergeCell ref="CL84:CM84"/>
+    <mergeCell ref="CL103:CM103"/>
+    <mergeCell ref="CL122:CM122"/>
     <mergeCell ref="CD9:CG9"/>
     <mergeCell ref="CD122:CG122"/>
     <mergeCell ref="CD103:CG103"/>
@@ -38975,9 +37974,9 @@
   <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="88" man="1"/>
-    <brk id="76" max="88" man="1"/>
-    <brk id="94" max="88" man="1"/>
+    <brk id="38" max="90" man="1"/>
+    <brk id="76" max="90" man="1"/>
+    <brk id="94" max="90" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-16IAC_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-16IAC_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012D64B9-0E17-4162-88D8-7128182324A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE5DBE2-E039-45C8-9F8F-1E906B5E8B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAC" sheetId="10" r:id="rId1"/>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IAC!$A$1:$CM$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IAC!$A$1:$CN$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -613,13 +613,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of August 2022</t>
+    <t>Q1 2000 to Q3 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2022</t>
+    <t>Q1 2001 to Q3 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2022</t>
+    <t>As of November 2022</t>
   </si>
 </sst>
 </file>
@@ -627,10 +627,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -715,16 +715,16 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -735,40 +735,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23641,43 +23635,43 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CE1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CH1" sqref="CH1:CM1048576"/>
+      <selection pane="topRight" activeCell="CH1" sqref="CH1:CN1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.6328125" style="1" customWidth="1"/>
-    <col min="2" max="91" width="11.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="92" max="16384" width="7.81640625" style="11"/>
+    <col min="1" max="1" width="47.6640625" style="1" customWidth="1"/>
+    <col min="2" max="92" width="11.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="93" max="16384" width="7.77734375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -23771,8 +23765,9 @@
       <c r="CK7" s="4"/>
       <c r="CL7" s="4"/>
       <c r="CM7" s="4"/>
+      <c r="CN7" s="4"/>
     </row>
-    <row r="8" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -23863,147 +23858,149 @@
       <c r="CK8" s="4"/>
       <c r="CL8" s="4"/>
       <c r="CM8" s="4"/>
+      <c r="CN8" s="4"/>
     </row>
-    <row r="9" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="29">
+      <c r="B9" s="27">
         <v>2000</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29">
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27">
         <v>2001</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29">
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27">
         <v>2002</v>
       </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29">
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27">
         <v>2003</v>
       </c>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29">
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27">
         <v>2004</v>
       </c>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29">
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27">
         <v>2005</v>
       </c>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29">
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27">
         <v>2006</v>
       </c>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29">
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27">
         <v>2007</v>
       </c>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="29">
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27">
         <v>2008</v>
       </c>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="29"/>
-      <c r="AL9" s="29">
+      <c r="AI9" s="27"/>
+      <c r="AJ9" s="27"/>
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="27">
         <v>2009</v>
       </c>
-      <c r="AM9" s="29"/>
-      <c r="AN9" s="29"/>
-      <c r="AO9" s="29"/>
-      <c r="AP9" s="29">
+      <c r="AM9" s="27"/>
+      <c r="AN9" s="27"/>
+      <c r="AO9" s="27"/>
+      <c r="AP9" s="27">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="29"/>
-      <c r="AR9" s="29"/>
-      <c r="AS9" s="29"/>
-      <c r="AT9" s="29">
+      <c r="AQ9" s="27"/>
+      <c r="AR9" s="27"/>
+      <c r="AS9" s="27"/>
+      <c r="AT9" s="27">
         <v>2011</v>
       </c>
-      <c r="AU9" s="29"/>
-      <c r="AV9" s="29"/>
-      <c r="AW9" s="29"/>
-      <c r="AX9" s="29">
+      <c r="AU9" s="27"/>
+      <c r="AV9" s="27"/>
+      <c r="AW9" s="27"/>
+      <c r="AX9" s="27">
         <v>2012</v>
       </c>
-      <c r="AY9" s="29"/>
-      <c r="AZ9" s="29"/>
-      <c r="BA9" s="29"/>
-      <c r="BB9" s="29">
+      <c r="AY9" s="27"/>
+      <c r="AZ9" s="27"/>
+      <c r="BA9" s="27"/>
+      <c r="BB9" s="27">
         <v>2013</v>
       </c>
-      <c r="BC9" s="29"/>
-      <c r="BD9" s="29"/>
-      <c r="BE9" s="29"/>
-      <c r="BF9" s="29">
+      <c r="BC9" s="27"/>
+      <c r="BD9" s="27"/>
+      <c r="BE9" s="27"/>
+      <c r="BF9" s="27">
         <v>2014</v>
       </c>
-      <c r="BG9" s="29"/>
-      <c r="BH9" s="29"/>
-      <c r="BI9" s="29"/>
-      <c r="BJ9" s="29">
+      <c r="BG9" s="27"/>
+      <c r="BH9" s="27"/>
+      <c r="BI9" s="27"/>
+      <c r="BJ9" s="27">
         <v>2015</v>
       </c>
-      <c r="BK9" s="29"/>
-      <c r="BL9" s="29"/>
-      <c r="BM9" s="29"/>
-      <c r="BN9" s="29">
+      <c r="BK9" s="27"/>
+      <c r="BL9" s="27"/>
+      <c r="BM9" s="27"/>
+      <c r="BN9" s="27">
         <v>2016</v>
       </c>
-      <c r="BO9" s="29"/>
-      <c r="BP9" s="29"/>
-      <c r="BQ9" s="29"/>
-      <c r="BR9" s="29">
+      <c r="BO9" s="27"/>
+      <c r="BP9" s="27"/>
+      <c r="BQ9" s="27"/>
+      <c r="BR9" s="27">
         <v>2017</v>
       </c>
-      <c r="BS9" s="29"/>
-      <c r="BT9" s="29"/>
-      <c r="BU9" s="29"/>
-      <c r="BV9" s="29">
+      <c r="BS9" s="27"/>
+      <c r="BT9" s="27"/>
+      <c r="BU9" s="27"/>
+      <c r="BV9" s="27">
         <v>2018</v>
       </c>
-      <c r="BW9" s="29"/>
-      <c r="BX9" s="29"/>
-      <c r="BY9" s="29"/>
-      <c r="BZ9" s="29">
+      <c r="BW9" s="27"/>
+      <c r="BX9" s="27"/>
+      <c r="BY9" s="27"/>
+      <c r="BZ9" s="27">
         <v>2019</v>
       </c>
-      <c r="CA9" s="29"/>
-      <c r="CB9" s="29"/>
-      <c r="CC9" s="29"/>
-      <c r="CD9" s="29">
+      <c r="CA9" s="27"/>
+      <c r="CB9" s="27"/>
+      <c r="CC9" s="27"/>
+      <c r="CD9" s="27">
         <v>2020</v>
       </c>
-      <c r="CE9" s="29"/>
-      <c r="CF9" s="29"/>
-      <c r="CG9" s="29"/>
-      <c r="CH9" s="29">
+      <c r="CE9" s="27"/>
+      <c r="CF9" s="27"/>
+      <c r="CG9" s="27"/>
+      <c r="CH9" s="27">
         <v>2021</v>
       </c>
-      <c r="CI9" s="29"/>
-      <c r="CJ9" s="29"/>
-      <c r="CK9" s="29"/>
-      <c r="CL9" s="29">
+      <c r="CI9" s="27"/>
+      <c r="CJ9" s="27"/>
+      <c r="CK9" s="27"/>
+      <c r="CL9" s="27">
         <v>2022</v>
       </c>
-      <c r="CM9" s="29"/>
+      <c r="CM9" s="27"/>
+      <c r="CN9" s="27"/>
     </row>
-    <row r="10" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -24277,11 +24274,14 @@
       <c r="CM10" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="CN10" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="11" spans="1:155" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
     </row>
-    <row r="12" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -24537,25 +24537,27 @@
       <c r="CG12" s="9">
         <v>12909.246363876082</v>
       </c>
-      <c r="CH12" s="23">
+      <c r="CH12" s="22">
         <v>12113.544674658446</v>
       </c>
-      <c r="CI12" s="23">
+      <c r="CI12" s="22">
         <v>14605.254957948833</v>
       </c>
-      <c r="CJ12" s="23">
+      <c r="CJ12" s="22">
         <v>11165.172496488034</v>
       </c>
-      <c r="CK12" s="23">
+      <c r="CK12" s="22">
         <v>13588.692210501686</v>
       </c>
-      <c r="CL12" s="23">
+      <c r="CL12" s="22">
         <v>13674.517426510189</v>
       </c>
-      <c r="CM12" s="23">
-        <v>17730.940947453673</v>
-      </c>
-      <c r="CN12" s="10"/>
+      <c r="CM12" s="22">
+        <v>17616.184286755364</v>
+      </c>
+      <c r="CN12" s="22">
+        <v>11501.881685689994</v>
+      </c>
       <c r="CO12" s="10"/>
       <c r="CP12" s="10"/>
       <c r="CQ12" s="10"/>
@@ -24620,7 +24622,7 @@
       <c r="EX12" s="10"/>
       <c r="EY12" s="10"/>
     </row>
-    <row r="13" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
@@ -24876,25 +24878,27 @@
       <c r="CG13" s="13">
         <v>156006.63750067563</v>
       </c>
-      <c r="CH13" s="24">
+      <c r="CH13" s="23">
         <v>132765.03266022948</v>
       </c>
-      <c r="CI13" s="24">
+      <c r="CI13" s="23">
         <v>156621.19254735979</v>
       </c>
-      <c r="CJ13" s="24">
+      <c r="CJ13" s="23">
         <v>129862.37479275418</v>
       </c>
-      <c r="CK13" s="24">
+      <c r="CK13" s="23">
         <v>169470.95456995119</v>
       </c>
-      <c r="CL13" s="24">
+      <c r="CL13" s="23">
         <v>143166.42879095653</v>
       </c>
-      <c r="CM13" s="24">
-        <v>172907.46953728941</v>
-      </c>
-      <c r="CN13" s="10"/>
+      <c r="CM13" s="23">
+        <v>172785.95798876803</v>
+      </c>
+      <c r="CN13" s="23">
+        <v>141376.55357190856</v>
+      </c>
       <c r="CO13" s="10"/>
       <c r="CP13" s="10"/>
       <c r="CQ13" s="10"/>
@@ -24959,7 +24963,7 @@
       <c r="EX13" s="10"/>
       <c r="EY13" s="10"/>
     </row>
-    <row r="14" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -25044,13 +25048,13 @@
       <c r="CE14" s="14"/>
       <c r="CF14" s="14"/>
       <c r="CG14" s="14"/>
-      <c r="CH14" s="25"/>
-      <c r="CI14" s="25"/>
-      <c r="CJ14" s="25"/>
-      <c r="CK14" s="25"/>
-      <c r="CL14" s="25"/>
-      <c r="CM14" s="25"/>
-      <c r="CN14" s="10"/>
+      <c r="CH14" s="24"/>
+      <c r="CI14" s="24"/>
+      <c r="CJ14" s="24"/>
+      <c r="CK14" s="24"/>
+      <c r="CL14" s="24"/>
+      <c r="CM14" s="24"/>
+      <c r="CN14" s="24"/>
       <c r="CO14" s="10"/>
       <c r="CP14" s="10"/>
       <c r="CQ14" s="10"/>
@@ -25115,7 +25119,7 @@
       <c r="EX14" s="10"/>
       <c r="EY14" s="10"/>
     </row>
-    <row r="15" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>11</v>
       </c>
@@ -25371,25 +25375,27 @@
       <c r="CG15" s="15">
         <v>168915.88386455172</v>
       </c>
-      <c r="CH15" s="26">
+      <c r="CH15" s="25">
         <v>144878.57733488793</v>
       </c>
-      <c r="CI15" s="26">
+      <c r="CI15" s="25">
         <v>171226.44750530864</v>
       </c>
-      <c r="CJ15" s="26">
+      <c r="CJ15" s="25">
         <v>141027.54728924221</v>
       </c>
-      <c r="CK15" s="26">
+      <c r="CK15" s="25">
         <v>183059.64678045287</v>
       </c>
-      <c r="CL15" s="26">
+      <c r="CL15" s="25">
         <v>156840.94621746673</v>
       </c>
-      <c r="CM15" s="26">
-        <v>190638.41048474307</v>
-      </c>
-      <c r="CN15" s="10"/>
+      <c r="CM15" s="25">
+        <v>190402.14227552339</v>
+      </c>
+      <c r="CN15" s="25">
+        <v>152878.43525759855</v>
+      </c>
       <c r="CO15" s="10"/>
       <c r="CP15" s="10"/>
       <c r="CQ15" s="10"/>
@@ -25454,7 +25460,7 @@
       <c r="EX15" s="10"/>
       <c r="EY15" s="10"/>
     </row>
-    <row r="16" spans="1:155" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:155" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -25546,13 +25552,14 @@
       <c r="CK16" s="16"/>
       <c r="CL16" s="16"/>
       <c r="CM16" s="16"/>
+      <c r="CN16" s="16"/>
     </row>
-    <row r="17" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -25708,7 +25715,7 @@
       <c r="EX18" s="10"/>
       <c r="EY18" s="10"/>
     </row>
-    <row r="19" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -25864,33 +25871,33 @@
       <c r="EX19" s="10"/>
       <c r="EY19" s="10"/>
     </row>
-    <row r="20" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -25984,8 +25991,9 @@
       <c r="CK26" s="4"/>
       <c r="CL26" s="4"/>
       <c r="CM26" s="4"/>
+      <c r="CN26" s="4"/>
     </row>
-    <row r="27" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -26076,147 +26084,149 @@
       <c r="CK27" s="4"/>
       <c r="CL27" s="4"/>
       <c r="CM27" s="4"/>
+      <c r="CN27" s="4"/>
     </row>
-    <row r="28" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="29">
+      <c r="B28" s="27">
         <v>2000</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="29">
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="27">
         <v>2001</v>
       </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="29">
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="27">
         <v>2002</v>
       </c>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="29">
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="27">
         <v>2003</v>
       </c>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="29">
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="27">
         <v>2004</v>
       </c>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="29">
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="27">
         <v>2005</v>
       </c>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="29">
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="27">
         <v>2006</v>
       </c>
-      <c r="AA28" s="30"/>
-      <c r="AB28" s="30"/>
-      <c r="AC28" s="30"/>
-      <c r="AD28" s="29">
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="28"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="27">
         <v>2007</v>
       </c>
-      <c r="AE28" s="30"/>
-      <c r="AF28" s="30"/>
-      <c r="AG28" s="30"/>
-      <c r="AH28" s="29">
+      <c r="AE28" s="28"/>
+      <c r="AF28" s="28"/>
+      <c r="AG28" s="28"/>
+      <c r="AH28" s="27">
         <v>2008</v>
       </c>
-      <c r="AI28" s="30"/>
-      <c r="AJ28" s="30"/>
-      <c r="AK28" s="30"/>
-      <c r="AL28" s="29">
+      <c r="AI28" s="28"/>
+      <c r="AJ28" s="28"/>
+      <c r="AK28" s="28"/>
+      <c r="AL28" s="27">
         <v>2009</v>
       </c>
-      <c r="AM28" s="30"/>
-      <c r="AN28" s="30"/>
-      <c r="AO28" s="30"/>
-      <c r="AP28" s="29">
+      <c r="AM28" s="28"/>
+      <c r="AN28" s="28"/>
+      <c r="AO28" s="28"/>
+      <c r="AP28" s="27">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="30"/>
-      <c r="AR28" s="30"/>
-      <c r="AS28" s="30"/>
-      <c r="AT28" s="29">
+      <c r="AQ28" s="28"/>
+      <c r="AR28" s="28"/>
+      <c r="AS28" s="28"/>
+      <c r="AT28" s="27">
         <v>2011</v>
       </c>
-      <c r="AU28" s="30"/>
-      <c r="AV28" s="30"/>
-      <c r="AW28" s="30"/>
-      <c r="AX28" s="29">
+      <c r="AU28" s="28"/>
+      <c r="AV28" s="28"/>
+      <c r="AW28" s="28"/>
+      <c r="AX28" s="27">
         <v>2012</v>
       </c>
-      <c r="AY28" s="30"/>
-      <c r="AZ28" s="30"/>
-      <c r="BA28" s="30"/>
-      <c r="BB28" s="29">
+      <c r="AY28" s="28"/>
+      <c r="AZ28" s="28"/>
+      <c r="BA28" s="28"/>
+      <c r="BB28" s="27">
         <v>2013</v>
       </c>
-      <c r="BC28" s="30"/>
-      <c r="BD28" s="30"/>
-      <c r="BE28" s="30"/>
-      <c r="BF28" s="29">
+      <c r="BC28" s="28"/>
+      <c r="BD28" s="28"/>
+      <c r="BE28" s="28"/>
+      <c r="BF28" s="27">
         <v>2014</v>
       </c>
-      <c r="BG28" s="30"/>
-      <c r="BH28" s="30"/>
-      <c r="BI28" s="30"/>
-      <c r="BJ28" s="29">
+      <c r="BG28" s="28"/>
+      <c r="BH28" s="28"/>
+      <c r="BI28" s="28"/>
+      <c r="BJ28" s="27">
         <v>2015</v>
       </c>
-      <c r="BK28" s="30"/>
-      <c r="BL28" s="30"/>
-      <c r="BM28" s="30"/>
-      <c r="BN28" s="29">
+      <c r="BK28" s="28"/>
+      <c r="BL28" s="28"/>
+      <c r="BM28" s="28"/>
+      <c r="BN28" s="27">
         <v>2016</v>
       </c>
-      <c r="BO28" s="30"/>
-      <c r="BP28" s="30"/>
-      <c r="BQ28" s="30"/>
-      <c r="BR28" s="29">
+      <c r="BO28" s="28"/>
+      <c r="BP28" s="28"/>
+      <c r="BQ28" s="28"/>
+      <c r="BR28" s="27">
         <v>2017</v>
       </c>
-      <c r="BS28" s="30"/>
-      <c r="BT28" s="30"/>
-      <c r="BU28" s="30"/>
-      <c r="BV28" s="29">
+      <c r="BS28" s="28"/>
+      <c r="BT28" s="28"/>
+      <c r="BU28" s="28"/>
+      <c r="BV28" s="27">
         <v>2018</v>
       </c>
-      <c r="BW28" s="30"/>
-      <c r="BX28" s="30"/>
-      <c r="BY28" s="30"/>
-      <c r="BZ28" s="29">
+      <c r="BW28" s="28"/>
+      <c r="BX28" s="28"/>
+      <c r="BY28" s="28"/>
+      <c r="BZ28" s="27">
         <v>2019</v>
       </c>
-      <c r="CA28" s="30"/>
-      <c r="CB28" s="30"/>
-      <c r="CC28" s="30"/>
-      <c r="CD28" s="29">
+      <c r="CA28" s="28"/>
+      <c r="CB28" s="28"/>
+      <c r="CC28" s="28"/>
+      <c r="CD28" s="27">
         <v>2020</v>
       </c>
-      <c r="CE28" s="30"/>
-      <c r="CF28" s="30"/>
-      <c r="CG28" s="30"/>
-      <c r="CH28" s="29">
+      <c r="CE28" s="28"/>
+      <c r="CF28" s="28"/>
+      <c r="CG28" s="28"/>
+      <c r="CH28" s="27">
         <v>2021</v>
       </c>
-      <c r="CI28" s="29"/>
-      <c r="CJ28" s="29"/>
-      <c r="CK28" s="29"/>
-      <c r="CL28" s="29">
+      <c r="CI28" s="27"/>
+      <c r="CJ28" s="27"/>
+      <c r="CK28" s="27"/>
+      <c r="CL28" s="27">
         <v>2022</v>
       </c>
-      <c r="CM28" s="29"/>
+      <c r="CM28" s="27"/>
+      <c r="CN28" s="27"/>
     </row>
-    <row r="29" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>4</v>
       </c>
@@ -26490,11 +26500,14 @@
       <c r="CM29" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="CN29" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="30" spans="1:155" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
@@ -26750,25 +26763,27 @@
       <c r="CG31" s="9">
         <v>12359.835018081292</v>
       </c>
-      <c r="CH31" s="23">
+      <c r="CH31" s="22">
         <v>11752.137308528625</v>
       </c>
-      <c r="CI31" s="23">
+      <c r="CI31" s="22">
         <v>15161.936536093632</v>
       </c>
-      <c r="CJ31" s="23">
+      <c r="CJ31" s="22">
         <v>10497.799914721076</v>
       </c>
-      <c r="CK31" s="23">
+      <c r="CK31" s="22">
         <v>12731.158125827416</v>
       </c>
-      <c r="CL31" s="23">
+      <c r="CL31" s="22">
         <v>12997.523527465259</v>
       </c>
-      <c r="CM31" s="23">
-        <v>18395.463258659925</v>
-      </c>
-      <c r="CN31" s="10"/>
+      <c r="CM31" s="22">
+        <v>18266.836935567284</v>
+      </c>
+      <c r="CN31" s="22">
+        <v>10575.058279938112</v>
+      </c>
       <c r="CO31" s="10"/>
       <c r="CP31" s="10"/>
       <c r="CQ31" s="10"/>
@@ -26833,7 +26848,7 @@
       <c r="EX31" s="10"/>
       <c r="EY31" s="10"/>
     </row>
-    <row r="32" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>12</v>
       </c>
@@ -27089,25 +27104,27 @@
       <c r="CG32" s="13">
         <v>154978.16252944485</v>
       </c>
-      <c r="CH32" s="24">
+      <c r="CH32" s="23">
         <v>135096.28078563506</v>
       </c>
-      <c r="CI32" s="24">
+      <c r="CI32" s="23">
         <v>160162.09878251256</v>
       </c>
-      <c r="CJ32" s="24">
+      <c r="CJ32" s="23">
         <v>124617.58590255863</v>
       </c>
-      <c r="CK32" s="24">
+      <c r="CK32" s="23">
         <v>169104.13256901762</v>
       </c>
-      <c r="CL32" s="24">
+      <c r="CL32" s="23">
         <v>144727.53547114064</v>
       </c>
-      <c r="CM32" s="24">
-        <v>175718.69670166302</v>
-      </c>
-      <c r="CN32" s="10"/>
+      <c r="CM32" s="23">
+        <v>175595.20954984988</v>
+      </c>
+      <c r="CN32" s="23">
+        <v>135046.44617303921</v>
+      </c>
       <c r="CO32" s="10"/>
       <c r="CP32" s="10"/>
       <c r="CQ32" s="10"/>
@@ -27172,7 +27189,7 @@
       <c r="EX32" s="10"/>
       <c r="EY32" s="10"/>
     </row>
-    <row r="33" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -27328,7 +27345,7 @@
       <c r="EX33" s="10"/>
       <c r="EY33" s="10"/>
     </row>
-    <row r="34" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>11</v>
       </c>
@@ -27584,25 +27601,27 @@
       <c r="CG34" s="15">
         <v>167337.99754752615</v>
       </c>
-      <c r="CH34" s="26">
+      <c r="CH34" s="25">
         <v>146848.41809416367</v>
       </c>
-      <c r="CI34" s="26">
+      <c r="CI34" s="25">
         <v>175324.03531860618</v>
       </c>
-      <c r="CJ34" s="26">
+      <c r="CJ34" s="25">
         <v>135115.38581727969</v>
       </c>
-      <c r="CK34" s="26">
+      <c r="CK34" s="25">
         <v>181835.29069484503</v>
       </c>
-      <c r="CL34" s="26">
+      <c r="CL34" s="25">
         <v>157725.05899860591</v>
       </c>
-      <c r="CM34" s="26">
-        <v>194114.15996032296</v>
-      </c>
-      <c r="CN34" s="10"/>
+      <c r="CM34" s="25">
+        <v>193862.04648541717</v>
+      </c>
+      <c r="CN34" s="25">
+        <v>145621.50445297733</v>
+      </c>
       <c r="CO34" s="10"/>
       <c r="CP34" s="10"/>
       <c r="CQ34" s="10"/>
@@ -27667,7 +27686,7 @@
       <c r="EX34" s="10"/>
       <c r="EY34" s="10"/>
     </row>
-    <row r="35" spans="1:155" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:155" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -27759,13 +27778,14 @@
       <c r="CK35" s="16"/>
       <c r="CL35" s="16"/>
       <c r="CM35" s="16"/>
+      <c r="CN35" s="16"/>
     </row>
-    <row r="36" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -27921,7 +27941,7 @@
       <c r="EX37" s="10"/>
       <c r="EY37" s="10"/>
     </row>
-    <row r="38" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -28077,176 +28097,177 @@
       <c r="EX38" s="10"/>
       <c r="EY38" s="10"/>
     </row>
-    <row r="39" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29" t="s">
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29" t="s">
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29" t="s">
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="29" t="s">
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="29"/>
-      <c r="T47" s="29"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="29" t="s">
+      <c r="S47" s="27"/>
+      <c r="T47" s="27"/>
+      <c r="U47" s="27"/>
+      <c r="V47" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="29"/>
-      <c r="X47" s="29"/>
-      <c r="Y47" s="29"/>
-      <c r="Z47" s="29" t="s">
+      <c r="W47" s="27"/>
+      <c r="X47" s="27"/>
+      <c r="Y47" s="27"/>
+      <c r="Z47" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="29"/>
-      <c r="AB47" s="29"/>
-      <c r="AC47" s="29"/>
-      <c r="AD47" s="29" t="s">
+      <c r="AA47" s="27"/>
+      <c r="AB47" s="27"/>
+      <c r="AC47" s="27"/>
+      <c r="AD47" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="29"/>
-      <c r="AF47" s="29"/>
-      <c r="AG47" s="29"/>
-      <c r="AH47" s="29" t="s">
+      <c r="AE47" s="27"/>
+      <c r="AF47" s="27"/>
+      <c r="AG47" s="27"/>
+      <c r="AH47" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="29"/>
-      <c r="AJ47" s="29"/>
-      <c r="AK47" s="29"/>
-      <c r="AL47" s="29" t="s">
+      <c r="AI47" s="27"/>
+      <c r="AJ47" s="27"/>
+      <c r="AK47" s="27"/>
+      <c r="AL47" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="29"/>
-      <c r="AN47" s="29"/>
-      <c r="AO47" s="29"/>
-      <c r="AP47" s="29" t="s">
+      <c r="AM47" s="27"/>
+      <c r="AN47" s="27"/>
+      <c r="AO47" s="27"/>
+      <c r="AP47" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="29"/>
-      <c r="AR47" s="29"/>
-      <c r="AS47" s="29"/>
-      <c r="AT47" s="29" t="s">
+      <c r="AQ47" s="27"/>
+      <c r="AR47" s="27"/>
+      <c r="AS47" s="27"/>
+      <c r="AT47" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="29"/>
-      <c r="AV47" s="29"/>
-      <c r="AW47" s="29"/>
-      <c r="AX47" s="29" t="s">
+      <c r="AU47" s="27"/>
+      <c r="AV47" s="27"/>
+      <c r="AW47" s="27"/>
+      <c r="AX47" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="29"/>
-      <c r="AZ47" s="29"/>
-      <c r="BA47" s="29"/>
-      <c r="BB47" s="29" t="s">
+      <c r="AY47" s="27"/>
+      <c r="AZ47" s="27"/>
+      <c r="BA47" s="27"/>
+      <c r="BB47" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="29"/>
-      <c r="BD47" s="29"/>
-      <c r="BE47" s="29"/>
-      <c r="BF47" s="29" t="s">
+      <c r="BC47" s="27"/>
+      <c r="BD47" s="27"/>
+      <c r="BE47" s="27"/>
+      <c r="BF47" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="29"/>
-      <c r="BH47" s="29"/>
-      <c r="BI47" s="29"/>
-      <c r="BJ47" s="29" t="s">
+      <c r="BG47" s="27"/>
+      <c r="BH47" s="27"/>
+      <c r="BI47" s="27"/>
+      <c r="BJ47" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="29"/>
-      <c r="BL47" s="29"/>
-      <c r="BM47" s="29"/>
-      <c r="BN47" s="29" t="s">
+      <c r="BK47" s="27"/>
+      <c r="BL47" s="27"/>
+      <c r="BM47" s="27"/>
+      <c r="BN47" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="29"/>
-      <c r="BP47" s="29"/>
-      <c r="BQ47" s="29"/>
-      <c r="BR47" s="29" t="s">
+      <c r="BO47" s="27"/>
+      <c r="BP47" s="27"/>
+      <c r="BQ47" s="27"/>
+      <c r="BR47" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="BS47" s="29"/>
-      <c r="BT47" s="29"/>
-      <c r="BU47" s="29"/>
-      <c r="BV47" s="29" t="s">
+      <c r="BS47" s="27"/>
+      <c r="BT47" s="27"/>
+      <c r="BU47" s="27"/>
+      <c r="BV47" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="BW47" s="29"/>
-      <c r="BX47" s="29"/>
-      <c r="BY47" s="29"/>
-      <c r="BZ47" s="29" t="s">
+      <c r="BW47" s="27"/>
+      <c r="BX47" s="27"/>
+      <c r="BY47" s="27"/>
+      <c r="BZ47" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="CA47" s="29"/>
-      <c r="CB47" s="29"/>
-      <c r="CC47" s="29"/>
-      <c r="CD47" s="29" t="s">
+      <c r="CA47" s="27"/>
+      <c r="CB47" s="27"/>
+      <c r="CC47" s="27"/>
+      <c r="CD47" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="29"/>
-      <c r="CF47" s="29"/>
-      <c r="CG47" s="29"/>
-      <c r="CH47" s="29" t="s">
+      <c r="CE47" s="27"/>
+      <c r="CF47" s="27"/>
+      <c r="CG47" s="27"/>
+      <c r="CH47" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="CI47" s="29"/>
+      <c r="CI47" s="27"/>
       <c r="CJ47" s="27"/>
-      <c r="CK47" s="27"/>
-      <c r="CL47" s="22"/>
-      <c r="CM47" s="22"/>
+      <c r="CK47" s="26"/>
+      <c r="CL47" s="27"/>
+      <c r="CM47" s="27"/>
+      <c r="CN47" s="26"/>
     </row>
-    <row r="48" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>4</v>
       </c>
@@ -28508,15 +28529,18 @@
       <c r="CI48" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CJ48" s="6"/>
+      <c r="CJ48" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="CK48" s="6"/>
       <c r="CL48" s="6"/>
-      <c r="CM48" s="28"/>
+      <c r="CM48" s="6"/>
+      <c r="CN48" s="6"/>
     </row>
-    <row r="49" spans="1:151" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:151" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
     </row>
-    <row r="50" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>27</v>
       </c>
@@ -28776,13 +28800,15 @@
         <v>12.886176538542855</v>
       </c>
       <c r="CI50" s="18">
-        <v>21.401105276862722</v>
-      </c>
-      <c r="CJ50" s="18"/>
+        <v>20.61538355527199</v>
+      </c>
+      <c r="CJ50" s="18">
+        <v>3.0157096928674463</v>
+      </c>
       <c r="CK50" s="18"/>
       <c r="CL50" s="18"/>
-      <c r="CM50" s="19"/>
-      <c r="CN50" s="10"/>
+      <c r="CM50" s="18"/>
+      <c r="CN50" s="18"/>
       <c r="CO50" s="10"/>
       <c r="CP50" s="10"/>
       <c r="CQ50" s="10"/>
@@ -28843,7 +28869,7 @@
       <c r="ET50" s="10"/>
       <c r="EU50" s="10"/>
     </row>
-    <row r="51" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>12</v>
       </c>
@@ -29103,13 +29129,15 @@
         <v>7.8344394772576607</v>
       </c>
       <c r="CI51" s="18">
-        <v>10.39851422725242</v>
-      </c>
-      <c r="CJ51" s="18"/>
+        <v>10.320931145074923</v>
+      </c>
+      <c r="CJ51" s="18">
+        <v>8.8664471118210457</v>
+      </c>
       <c r="CK51" s="18"/>
       <c r="CL51" s="18"/>
-      <c r="CM51" s="19"/>
-      <c r="CN51" s="10"/>
+      <c r="CM51" s="18"/>
+      <c r="CN51" s="18"/>
       <c r="CO51" s="10"/>
       <c r="CP51" s="10"/>
       <c r="CQ51" s="10"/>
@@ -29170,7 +29198,7 @@
       <c r="ET51" s="10"/>
       <c r="EU51" s="10"/>
     </row>
-    <row r="52" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
@@ -29262,7 +29290,7 @@
       <c r="CK52" s="19"/>
       <c r="CL52" s="19"/>
       <c r="CM52" s="19"/>
-      <c r="CN52" s="10"/>
+      <c r="CN52" s="19"/>
       <c r="CO52" s="10"/>
       <c r="CP52" s="10"/>
       <c r="CQ52" s="10"/>
@@ -29323,7 +29351,7 @@
       <c r="ET52" s="10"/>
       <c r="EU52" s="10"/>
     </row>
-    <row r="53" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
         <v>11</v>
       </c>
@@ -29583,13 +29611,15 @@
         <v>8.2568238193888988</v>
       </c>
       <c r="CI53" s="18">
-        <v>11.337012045894724</v>
-      </c>
-      <c r="CJ53" s="18"/>
+        <v>11.1990262308165</v>
+      </c>
+      <c r="CJ53" s="18">
+        <v>8.4032433351837454</v>
+      </c>
       <c r="CK53" s="18"/>
       <c r="CL53" s="18"/>
-      <c r="CM53" s="19"/>
-      <c r="CN53" s="10"/>
+      <c r="CM53" s="18"/>
+      <c r="CN53" s="18"/>
       <c r="CO53" s="10"/>
       <c r="CP53" s="10"/>
       <c r="CQ53" s="10"/>
@@ -29650,7 +29680,7 @@
       <c r="ET53" s="10"/>
       <c r="EU53" s="10"/>
     </row>
-    <row r="54" spans="1:151" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:151" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
@@ -29742,13 +29772,14 @@
       <c r="CK54" s="16"/>
       <c r="CL54" s="16"/>
       <c r="CM54" s="16"/>
+      <c r="CN54" s="16"/>
     </row>
-    <row r="55" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -29838,7 +29869,7 @@
       <c r="CJ56" s="10"/>
       <c r="CK56" s="10"/>
       <c r="CL56" s="10"/>
-      <c r="CM56" s="19"/>
+      <c r="CM56" s="10"/>
       <c r="CN56" s="10"/>
       <c r="CO56" s="10"/>
       <c r="CP56" s="10"/>
@@ -29900,7 +29931,7 @@
       <c r="ET56" s="10"/>
       <c r="EU56" s="10"/>
     </row>
-    <row r="57" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -29990,7 +30021,7 @@
       <c r="CJ57" s="10"/>
       <c r="CK57" s="10"/>
       <c r="CL57" s="10"/>
-      <c r="CM57" s="19"/>
+      <c r="CM57" s="10"/>
       <c r="CN57" s="10"/>
       <c r="CO57" s="10"/>
       <c r="CP57" s="10"/>
@@ -30052,176 +30083,177 @@
       <c r="ET57" s="10"/>
       <c r="EU57" s="10"/>
     </row>
-    <row r="58" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
-      <c r="B66" s="29" t="s">
+      <c r="B66" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="29" t="s">
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="29" t="s">
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="31"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="29" t="s">
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="29"/>
+      <c r="N66" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="31"/>
-      <c r="P66" s="31"/>
-      <c r="Q66" s="31"/>
-      <c r="R66" s="29" t="s">
+      <c r="O66" s="29"/>
+      <c r="P66" s="29"/>
+      <c r="Q66" s="29"/>
+      <c r="R66" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="31"/>
-      <c r="T66" s="31"/>
-      <c r="U66" s="31"/>
-      <c r="V66" s="29" t="s">
+      <c r="S66" s="29"/>
+      <c r="T66" s="29"/>
+      <c r="U66" s="29"/>
+      <c r="V66" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="31"/>
-      <c r="X66" s="31"/>
-      <c r="Y66" s="31"/>
-      <c r="Z66" s="29" t="s">
+      <c r="W66" s="29"/>
+      <c r="X66" s="29"/>
+      <c r="Y66" s="29"/>
+      <c r="Z66" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="31"/>
-      <c r="AB66" s="31"/>
-      <c r="AC66" s="31"/>
-      <c r="AD66" s="29" t="s">
+      <c r="AA66" s="29"/>
+      <c r="AB66" s="29"/>
+      <c r="AC66" s="29"/>
+      <c r="AD66" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="31"/>
-      <c r="AF66" s="31"/>
-      <c r="AG66" s="31"/>
-      <c r="AH66" s="29" t="s">
+      <c r="AE66" s="29"/>
+      <c r="AF66" s="29"/>
+      <c r="AG66" s="29"/>
+      <c r="AH66" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="31"/>
-      <c r="AJ66" s="31"/>
-      <c r="AK66" s="31"/>
-      <c r="AL66" s="29" t="s">
+      <c r="AI66" s="29"/>
+      <c r="AJ66" s="29"/>
+      <c r="AK66" s="29"/>
+      <c r="AL66" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="31"/>
-      <c r="AN66" s="31"/>
-      <c r="AO66" s="31"/>
-      <c r="AP66" s="29" t="s">
+      <c r="AM66" s="29"/>
+      <c r="AN66" s="29"/>
+      <c r="AO66" s="29"/>
+      <c r="AP66" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="31"/>
-      <c r="AR66" s="31"/>
-      <c r="AS66" s="31"/>
-      <c r="AT66" s="29" t="s">
+      <c r="AQ66" s="29"/>
+      <c r="AR66" s="29"/>
+      <c r="AS66" s="29"/>
+      <c r="AT66" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="31"/>
-      <c r="AV66" s="31"/>
-      <c r="AW66" s="31"/>
-      <c r="AX66" s="29" t="s">
+      <c r="AU66" s="29"/>
+      <c r="AV66" s="29"/>
+      <c r="AW66" s="29"/>
+      <c r="AX66" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="31"/>
-      <c r="AZ66" s="31"/>
-      <c r="BA66" s="31"/>
-      <c r="BB66" s="29" t="s">
+      <c r="AY66" s="29"/>
+      <c r="AZ66" s="29"/>
+      <c r="BA66" s="29"/>
+      <c r="BB66" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="31"/>
-      <c r="BD66" s="31"/>
-      <c r="BE66" s="31"/>
-      <c r="BF66" s="29" t="s">
+      <c r="BC66" s="29"/>
+      <c r="BD66" s="29"/>
+      <c r="BE66" s="29"/>
+      <c r="BF66" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="31"/>
-      <c r="BH66" s="31"/>
-      <c r="BI66" s="31"/>
-      <c r="BJ66" s="29" t="s">
+      <c r="BG66" s="29"/>
+      <c r="BH66" s="29"/>
+      <c r="BI66" s="29"/>
+      <c r="BJ66" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="31"/>
-      <c r="BL66" s="31"/>
-      <c r="BM66" s="31"/>
-      <c r="BN66" s="29" t="s">
+      <c r="BK66" s="29"/>
+      <c r="BL66" s="29"/>
+      <c r="BM66" s="29"/>
+      <c r="BN66" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="31"/>
-      <c r="BP66" s="31"/>
-      <c r="BQ66" s="31"/>
-      <c r="BR66" s="29" t="s">
+      <c r="BO66" s="29"/>
+      <c r="BP66" s="29"/>
+      <c r="BQ66" s="29"/>
+      <c r="BR66" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="BS66" s="31"/>
-      <c r="BT66" s="31"/>
-      <c r="BU66" s="31"/>
-      <c r="BV66" s="29" t="s">
+      <c r="BS66" s="29"/>
+      <c r="BT66" s="29"/>
+      <c r="BU66" s="29"/>
+      <c r="BV66" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="BW66" s="31"/>
-      <c r="BX66" s="31"/>
-      <c r="BY66" s="31"/>
-      <c r="BZ66" s="29" t="s">
+      <c r="BW66" s="29"/>
+      <c r="BX66" s="29"/>
+      <c r="BY66" s="29"/>
+      <c r="BZ66" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="CA66" s="31"/>
-      <c r="CB66" s="31"/>
-      <c r="CC66" s="31"/>
-      <c r="CD66" s="29" t="s">
+      <c r="CA66" s="29"/>
+      <c r="CB66" s="29"/>
+      <c r="CC66" s="29"/>
+      <c r="CD66" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="31"/>
-      <c r="CF66" s="31"/>
-      <c r="CG66" s="31"/>
-      <c r="CH66" s="29" t="s">
+      <c r="CE66" s="29"/>
+      <c r="CF66" s="29"/>
+      <c r="CG66" s="29"/>
+      <c r="CH66" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="CI66" s="29"/>
+      <c r="CI66" s="27"/>
       <c r="CJ66" s="27"/>
-      <c r="CK66" s="27"/>
-      <c r="CL66" s="22"/>
-      <c r="CM66" s="22"/>
+      <c r="CK66" s="26"/>
+      <c r="CL66" s="27"/>
+      <c r="CM66" s="27"/>
+      <c r="CN66" s="26"/>
     </row>
-    <row r="67" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>4</v>
       </c>
@@ -30483,15 +30515,18 @@
       <c r="CI67" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CJ67" s="6"/>
+      <c r="CJ67" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="CK67" s="6"/>
       <c r="CL67" s="6"/>
-      <c r="CM67" s="28"/>
+      <c r="CM67" s="6"/>
+      <c r="CN67" s="6"/>
     </row>
-    <row r="68" spans="1:151" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:151" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
     </row>
-    <row r="69" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>27</v>
       </c>
@@ -30751,13 +30786,15 @@
         <v>10.597104052152687</v>
       </c>
       <c r="CI69" s="18">
-        <v>21.326607685428229</v>
-      </c>
-      <c r="CJ69" s="18"/>
+        <v>20.478257457959302</v>
+      </c>
+      <c r="CJ69" s="18">
+        <v>0.73594815908708711</v>
+      </c>
       <c r="CK69" s="18"/>
       <c r="CL69" s="18"/>
-      <c r="CM69" s="19"/>
-      <c r="CN69" s="10"/>
+      <c r="CM69" s="18"/>
+      <c r="CN69" s="18"/>
       <c r="CO69" s="10"/>
       <c r="CP69" s="10"/>
       <c r="CQ69" s="10"/>
@@ -30818,7 +30855,7 @@
       <c r="ET69" s="10"/>
       <c r="EU69" s="10"/>
     </row>
-    <row r="70" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>12</v>
       </c>
@@ -31078,13 +31115,15 @@
         <v>7.1291782641951897</v>
       </c>
       <c r="CI70" s="18">
-        <v>9.713033256560351</v>
-      </c>
-      <c r="CJ70" s="18"/>
+        <v>9.6359318994029053</v>
+      </c>
+      <c r="CJ70" s="18">
+        <v>8.3686906586644625</v>
+      </c>
       <c r="CK70" s="18"/>
       <c r="CL70" s="18"/>
-      <c r="CM70" s="19"/>
-      <c r="CN70" s="10"/>
+      <c r="CM70" s="18"/>
+      <c r="CN70" s="18"/>
       <c r="CO70" s="10"/>
       <c r="CP70" s="10"/>
       <c r="CQ70" s="10"/>
@@ -31145,7 +31184,7 @@
       <c r="ET70" s="10"/>
       <c r="EU70" s="10"/>
     </row>
-    <row r="71" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
@@ -31236,7 +31275,7 @@
       <c r="CK71" s="19"/>
       <c r="CL71" s="19"/>
       <c r="CM71" s="19"/>
-      <c r="CN71" s="10"/>
+      <c r="CN71" s="19"/>
       <c r="CO71" s="10"/>
       <c r="CP71" s="10"/>
       <c r="CQ71" s="10"/>
@@ -31297,7 +31336,7 @@
       <c r="ET71" s="10"/>
       <c r="EU71" s="10"/>
     </row>
-    <row r="72" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
         <v>11</v>
       </c>
@@ -31557,13 +31596,15 @@
         <v>7.4067130212242489</v>
       </c>
       <c r="CI72" s="18">
-        <v>10.717369473940394</v>
-      </c>
-      <c r="CJ72" s="18"/>
+        <v>10.573570892959964</v>
+      </c>
+      <c r="CJ72" s="18">
+        <v>7.7756641644833451</v>
+      </c>
       <c r="CK72" s="18"/>
       <c r="CL72" s="18"/>
-      <c r="CM72" s="19"/>
-      <c r="CN72" s="10"/>
+      <c r="CM72" s="18"/>
+      <c r="CN72" s="18"/>
       <c r="CO72" s="10"/>
       <c r="CP72" s="10"/>
       <c r="CQ72" s="10"/>
@@ -31624,7 +31665,7 @@
       <c r="ET72" s="10"/>
       <c r="EU72" s="10"/>
     </row>
-    <row r="73" spans="1:151" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:151" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
@@ -31716,13 +31757,14 @@
       <c r="CK73" s="16"/>
       <c r="CL73" s="16"/>
       <c r="CM73" s="16"/>
+      <c r="CN73" s="16"/>
     </row>
-    <row r="74" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
@@ -31874,7 +31916,7 @@
       <c r="ET75" s="10"/>
       <c r="EU75" s="10"/>
     </row>
-    <row r="76" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
@@ -32026,173 +32068,174 @@
       <c r="ET76" s="10"/>
       <c r="EU76" s="10"/>
     </row>
-    <row r="77" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="82" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
-      <c r="B84" s="29">
+      <c r="B84" s="27">
         <v>2000</v>
       </c>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="29">
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="27">
         <v>2001</v>
       </c>
-      <c r="G84" s="30"/>
-      <c r="H84" s="30"/>
-      <c r="I84" s="30"/>
-      <c r="J84" s="29">
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="27">
         <v>2002</v>
       </c>
-      <c r="K84" s="30"/>
-      <c r="L84" s="30"/>
-      <c r="M84" s="30"/>
-      <c r="N84" s="29">
+      <c r="K84" s="28"/>
+      <c r="L84" s="28"/>
+      <c r="M84" s="28"/>
+      <c r="N84" s="27">
         <v>2003</v>
       </c>
-      <c r="O84" s="30"/>
-      <c r="P84" s="30"/>
-      <c r="Q84" s="30"/>
-      <c r="R84" s="29">
+      <c r="O84" s="28"/>
+      <c r="P84" s="28"/>
+      <c r="Q84" s="28"/>
+      <c r="R84" s="27">
         <v>2004</v>
       </c>
-      <c r="S84" s="30"/>
-      <c r="T84" s="30"/>
-      <c r="U84" s="30"/>
-      <c r="V84" s="29">
+      <c r="S84" s="28"/>
+      <c r="T84" s="28"/>
+      <c r="U84" s="28"/>
+      <c r="V84" s="27">
         <v>2005</v>
       </c>
-      <c r="W84" s="30"/>
-      <c r="X84" s="30"/>
-      <c r="Y84" s="30"/>
-      <c r="Z84" s="29">
+      <c r="W84" s="28"/>
+      <c r="X84" s="28"/>
+      <c r="Y84" s="28"/>
+      <c r="Z84" s="27">
         <v>2006</v>
       </c>
-      <c r="AA84" s="30"/>
-      <c r="AB84" s="30"/>
-      <c r="AC84" s="30"/>
-      <c r="AD84" s="29">
+      <c r="AA84" s="28"/>
+      <c r="AB84" s="28"/>
+      <c r="AC84" s="28"/>
+      <c r="AD84" s="27">
         <v>2007</v>
       </c>
-      <c r="AE84" s="30"/>
-      <c r="AF84" s="30"/>
-      <c r="AG84" s="30"/>
-      <c r="AH84" s="29">
+      <c r="AE84" s="28"/>
+      <c r="AF84" s="28"/>
+      <c r="AG84" s="28"/>
+      <c r="AH84" s="27">
         <v>2008</v>
       </c>
-      <c r="AI84" s="30"/>
-      <c r="AJ84" s="30"/>
-      <c r="AK84" s="30"/>
-      <c r="AL84" s="29">
+      <c r="AI84" s="28"/>
+      <c r="AJ84" s="28"/>
+      <c r="AK84" s="28"/>
+      <c r="AL84" s="27">
         <v>2009</v>
       </c>
-      <c r="AM84" s="30"/>
-      <c r="AN84" s="30"/>
-      <c r="AO84" s="30"/>
-      <c r="AP84" s="29">
+      <c r="AM84" s="28"/>
+      <c r="AN84" s="28"/>
+      <c r="AO84" s="28"/>
+      <c r="AP84" s="27">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="30"/>
-      <c r="AR84" s="30"/>
-      <c r="AS84" s="30"/>
-      <c r="AT84" s="29">
+      <c r="AQ84" s="28"/>
+      <c r="AR84" s="28"/>
+      <c r="AS84" s="28"/>
+      <c r="AT84" s="27">
         <v>2011</v>
       </c>
-      <c r="AU84" s="30"/>
-      <c r="AV84" s="30"/>
-      <c r="AW84" s="30"/>
-      <c r="AX84" s="29">
+      <c r="AU84" s="28"/>
+      <c r="AV84" s="28"/>
+      <c r="AW84" s="28"/>
+      <c r="AX84" s="27">
         <v>2012</v>
       </c>
-      <c r="AY84" s="30"/>
-      <c r="AZ84" s="30"/>
-      <c r="BA84" s="30"/>
-      <c r="BB84" s="29">
+      <c r="AY84" s="28"/>
+      <c r="AZ84" s="28"/>
+      <c r="BA84" s="28"/>
+      <c r="BB84" s="27">
         <v>2013</v>
       </c>
-      <c r="BC84" s="30"/>
-      <c r="BD84" s="30"/>
-      <c r="BE84" s="30"/>
-      <c r="BF84" s="29">
+      <c r="BC84" s="28"/>
+      <c r="BD84" s="28"/>
+      <c r="BE84" s="28"/>
+      <c r="BF84" s="27">
         <v>2014</v>
       </c>
-      <c r="BG84" s="30"/>
-      <c r="BH84" s="30"/>
-      <c r="BI84" s="30"/>
-      <c r="BJ84" s="29">
+      <c r="BG84" s="28"/>
+      <c r="BH84" s="28"/>
+      <c r="BI84" s="28"/>
+      <c r="BJ84" s="27">
         <v>2015</v>
       </c>
-      <c r="BK84" s="30"/>
-      <c r="BL84" s="30"/>
-      <c r="BM84" s="30"/>
-      <c r="BN84" s="29">
+      <c r="BK84" s="28"/>
+      <c r="BL84" s="28"/>
+      <c r="BM84" s="28"/>
+      <c r="BN84" s="27">
         <v>2016</v>
       </c>
-      <c r="BO84" s="30"/>
-      <c r="BP84" s="30"/>
-      <c r="BQ84" s="30"/>
-      <c r="BR84" s="29">
+      <c r="BO84" s="28"/>
+      <c r="BP84" s="28"/>
+      <c r="BQ84" s="28"/>
+      <c r="BR84" s="27">
         <v>2017</v>
       </c>
-      <c r="BS84" s="30"/>
-      <c r="BT84" s="30"/>
-      <c r="BU84" s="30"/>
-      <c r="BV84" s="29">
+      <c r="BS84" s="28"/>
+      <c r="BT84" s="28"/>
+      <c r="BU84" s="28"/>
+      <c r="BV84" s="27">
         <v>2018</v>
       </c>
-      <c r="BW84" s="30"/>
-      <c r="BX84" s="30"/>
-      <c r="BY84" s="30"/>
-      <c r="BZ84" s="29">
+      <c r="BW84" s="28"/>
+      <c r="BX84" s="28"/>
+      <c r="BY84" s="28"/>
+      <c r="BZ84" s="27">
         <v>2019</v>
       </c>
-      <c r="CA84" s="30"/>
-      <c r="CB84" s="30"/>
-      <c r="CC84" s="30"/>
-      <c r="CD84" s="29">
+      <c r="CA84" s="28"/>
+      <c r="CB84" s="28"/>
+      <c r="CC84" s="28"/>
+      <c r="CD84" s="27">
         <v>2020</v>
       </c>
-      <c r="CE84" s="30"/>
-      <c r="CF84" s="30"/>
-      <c r="CG84" s="30"/>
-      <c r="CH84" s="29">
+      <c r="CE84" s="28"/>
+      <c r="CF84" s="28"/>
+      <c r="CG84" s="28"/>
+      <c r="CH84" s="27">
         <v>2021</v>
       </c>
-      <c r="CI84" s="29"/>
-      <c r="CJ84" s="29"/>
-      <c r="CK84" s="29"/>
-      <c r="CL84" s="29">
+      <c r="CI84" s="27"/>
+      <c r="CJ84" s="27"/>
+      <c r="CK84" s="27"/>
+      <c r="CL84" s="27">
         <v>2022</v>
       </c>
-      <c r="CM84" s="29"/>
+      <c r="CM84" s="27"/>
+      <c r="CN84" s="27"/>
     </row>
-    <row r="85" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>4</v>
       </c>
@@ -32466,11 +32509,14 @@
       <c r="CM85" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="CN85" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="86" spans="1:155" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
     </row>
-    <row r="87" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>27</v>
       </c>
@@ -32742,9 +32788,11 @@
         <v>105.20863761172939</v>
       </c>
       <c r="CM87" s="18">
-        <v>96.387575013130373</v>
-      </c>
-      <c r="CN87" s="10"/>
+        <v>96.43806614627934</v>
+      </c>
+      <c r="CN87" s="18">
+        <v>108.76423922419562</v>
+      </c>
       <c r="CO87" s="10"/>
       <c r="CP87" s="10"/>
       <c r="CQ87" s="10"/>
@@ -32809,7 +32857,7 @@
       <c r="EX87" s="10"/>
       <c r="EY87" s="10"/>
     </row>
-    <row r="88" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>12</v>
       </c>
@@ -33083,7 +33131,9 @@
       <c r="CM88" s="18">
         <v>98.400154783103957</v>
       </c>
-      <c r="CN88" s="10"/>
+      <c r="CN88" s="18">
+        <v>104.68735577888395</v>
+      </c>
       <c r="CO88" s="10"/>
       <c r="CP88" s="10"/>
       <c r="CQ88" s="10"/>
@@ -33148,7 +33198,7 @@
       <c r="EX88" s="10"/>
       <c r="EY88" s="10"/>
     </row>
-    <row r="89" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
       <c r="D89" s="19"/>
@@ -33239,7 +33289,7 @@
       <c r="CK89" s="19"/>
       <c r="CL89" s="19"/>
       <c r="CM89" s="19"/>
-      <c r="CN89" s="10"/>
+      <c r="CN89" s="19"/>
       <c r="CO89" s="10"/>
       <c r="CP89" s="10"/>
       <c r="CQ89" s="10"/>
@@ -33304,7 +33354,7 @@
       <c r="EX89" s="10"/>
       <c r="EY89" s="10"/>
     </row>
-    <row r="90" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
         <v>11</v>
       </c>
@@ -33576,9 +33626,11 @@
         <v>99.439459533727614</v>
       </c>
       <c r="CM90" s="18">
-        <v>98.209430225857645</v>
-      </c>
-      <c r="CN90" s="10"/>
+        <v>98.215275102775706</v>
+      </c>
+      <c r="CN90" s="18">
+        <v>104.98341974413852</v>
+      </c>
       <c r="CO90" s="10"/>
       <c r="CP90" s="10"/>
       <c r="CQ90" s="10"/>
@@ -33643,7 +33695,7 @@
       <c r="EX90" s="10"/>
       <c r="EY90" s="10"/>
     </row>
-    <row r="91" spans="1:155" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:155" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="16"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
@@ -33735,184 +33787,186 @@
       <c r="CK91" s="16"/>
       <c r="CL91" s="16"/>
       <c r="CM91" s="16"/>
+      <c r="CN91" s="16"/>
     </row>
-    <row r="92" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="101" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
-      <c r="B103" s="29">
+      <c r="B103" s="27">
         <v>2000</v>
       </c>
-      <c r="C103" s="30"/>
-      <c r="D103" s="30"/>
-      <c r="E103" s="30"/>
-      <c r="F103" s="29">
+      <c r="C103" s="28"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="28"/>
+      <c r="F103" s="27">
         <v>2001</v>
       </c>
-      <c r="G103" s="30"/>
-      <c r="H103" s="30"/>
-      <c r="I103" s="30"/>
-      <c r="J103" s="29">
+      <c r="G103" s="28"/>
+      <c r="H103" s="28"/>
+      <c r="I103" s="28"/>
+      <c r="J103" s="27">
         <v>2002</v>
       </c>
-      <c r="K103" s="30"/>
-      <c r="L103" s="30"/>
-      <c r="M103" s="30"/>
-      <c r="N103" s="29">
+      <c r="K103" s="28"/>
+      <c r="L103" s="28"/>
+      <c r="M103" s="28"/>
+      <c r="N103" s="27">
         <v>2003</v>
       </c>
-      <c r="O103" s="30"/>
-      <c r="P103" s="30"/>
-      <c r="Q103" s="30"/>
-      <c r="R103" s="29">
+      <c r="O103" s="28"/>
+      <c r="P103" s="28"/>
+      <c r="Q103" s="28"/>
+      <c r="R103" s="27">
         <v>2004</v>
       </c>
-      <c r="S103" s="30"/>
-      <c r="T103" s="30"/>
-      <c r="U103" s="30"/>
-      <c r="V103" s="29">
+      <c r="S103" s="28"/>
+      <c r="T103" s="28"/>
+      <c r="U103" s="28"/>
+      <c r="V103" s="27">
         <v>2005</v>
       </c>
-      <c r="W103" s="30"/>
-      <c r="X103" s="30"/>
-      <c r="Y103" s="30"/>
-      <c r="Z103" s="29">
+      <c r="W103" s="28"/>
+      <c r="X103" s="28"/>
+      <c r="Y103" s="28"/>
+      <c r="Z103" s="27">
         <v>2006</v>
       </c>
-      <c r="AA103" s="30"/>
-      <c r="AB103" s="30"/>
-      <c r="AC103" s="30"/>
-      <c r="AD103" s="29">
+      <c r="AA103" s="28"/>
+      <c r="AB103" s="28"/>
+      <c r="AC103" s="28"/>
+      <c r="AD103" s="27">
         <v>2007</v>
       </c>
-      <c r="AE103" s="30"/>
-      <c r="AF103" s="30"/>
-      <c r="AG103" s="30"/>
-      <c r="AH103" s="29">
+      <c r="AE103" s="28"/>
+      <c r="AF103" s="28"/>
+      <c r="AG103" s="28"/>
+      <c r="AH103" s="27">
         <v>2008</v>
       </c>
-      <c r="AI103" s="30"/>
-      <c r="AJ103" s="30"/>
-      <c r="AK103" s="30"/>
-      <c r="AL103" s="29">
+      <c r="AI103" s="28"/>
+      <c r="AJ103" s="28"/>
+      <c r="AK103" s="28"/>
+      <c r="AL103" s="27">
         <v>2009</v>
       </c>
-      <c r="AM103" s="30"/>
-      <c r="AN103" s="30"/>
-      <c r="AO103" s="30"/>
-      <c r="AP103" s="29">
+      <c r="AM103" s="28"/>
+      <c r="AN103" s="28"/>
+      <c r="AO103" s="28"/>
+      <c r="AP103" s="27">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="30"/>
-      <c r="AR103" s="30"/>
-      <c r="AS103" s="30"/>
-      <c r="AT103" s="29">
+      <c r="AQ103" s="28"/>
+      <c r="AR103" s="28"/>
+      <c r="AS103" s="28"/>
+      <c r="AT103" s="27">
         <v>2011</v>
       </c>
-      <c r="AU103" s="30"/>
-      <c r="AV103" s="30"/>
-      <c r="AW103" s="30"/>
-      <c r="AX103" s="29">
+      <c r="AU103" s="28"/>
+      <c r="AV103" s="28"/>
+      <c r="AW103" s="28"/>
+      <c r="AX103" s="27">
         <v>2012</v>
       </c>
-      <c r="AY103" s="30"/>
-      <c r="AZ103" s="30"/>
-      <c r="BA103" s="30"/>
-      <c r="BB103" s="29">
+      <c r="AY103" s="28"/>
+      <c r="AZ103" s="28"/>
+      <c r="BA103" s="28"/>
+      <c r="BB103" s="27">
         <v>2013</v>
       </c>
-      <c r="BC103" s="30"/>
-      <c r="BD103" s="30"/>
-      <c r="BE103" s="30"/>
-      <c r="BF103" s="29">
+      <c r="BC103" s="28"/>
+      <c r="BD103" s="28"/>
+      <c r="BE103" s="28"/>
+      <c r="BF103" s="27">
         <v>2014</v>
       </c>
-      <c r="BG103" s="30"/>
-      <c r="BH103" s="30"/>
-      <c r="BI103" s="30"/>
-      <c r="BJ103" s="29">
+      <c r="BG103" s="28"/>
+      <c r="BH103" s="28"/>
+      <c r="BI103" s="28"/>
+      <c r="BJ103" s="27">
         <v>2015</v>
       </c>
-      <c r="BK103" s="30"/>
-      <c r="BL103" s="30"/>
-      <c r="BM103" s="30"/>
-      <c r="BN103" s="29">
+      <c r="BK103" s="28"/>
+      <c r="BL103" s="28"/>
+      <c r="BM103" s="28"/>
+      <c r="BN103" s="27">
         <v>2016</v>
       </c>
-      <c r="BO103" s="30"/>
-      <c r="BP103" s="30"/>
-      <c r="BQ103" s="30"/>
-      <c r="BR103" s="29">
+      <c r="BO103" s="28"/>
+      <c r="BP103" s="28"/>
+      <c r="BQ103" s="28"/>
+      <c r="BR103" s="27">
         <v>2017</v>
       </c>
-      <c r="BS103" s="30"/>
-      <c r="BT103" s="30"/>
-      <c r="BU103" s="30"/>
-      <c r="BV103" s="29">
+      <c r="BS103" s="28"/>
+      <c r="BT103" s="28"/>
+      <c r="BU103" s="28"/>
+      <c r="BV103" s="27">
         <v>2018</v>
       </c>
-      <c r="BW103" s="30"/>
-      <c r="BX103" s="30"/>
-      <c r="BY103" s="30"/>
-      <c r="BZ103" s="29">
+      <c r="BW103" s="28"/>
+      <c r="BX103" s="28"/>
+      <c r="BY103" s="28"/>
+      <c r="BZ103" s="27">
         <v>2019</v>
       </c>
-      <c r="CA103" s="30"/>
-      <c r="CB103" s="30"/>
-      <c r="CC103" s="30"/>
-      <c r="CD103" s="29">
+      <c r="CA103" s="28"/>
+      <c r="CB103" s="28"/>
+      <c r="CC103" s="28"/>
+      <c r="CD103" s="27">
         <v>2020</v>
       </c>
-      <c r="CE103" s="30"/>
-      <c r="CF103" s="30"/>
-      <c r="CG103" s="30"/>
-      <c r="CH103" s="29">
+      <c r="CE103" s="28"/>
+      <c r="CF103" s="28"/>
+      <c r="CG103" s="28"/>
+      <c r="CH103" s="27">
         <v>2021</v>
       </c>
-      <c r="CI103" s="29"/>
-      <c r="CJ103" s="29"/>
-      <c r="CK103" s="29"/>
-      <c r="CL103" s="29">
+      <c r="CI103" s="27"/>
+      <c r="CJ103" s="27"/>
+      <c r="CK103" s="27"/>
+      <c r="CL103" s="27">
         <v>2022</v>
       </c>
-      <c r="CM103" s="29"/>
+      <c r="CM103" s="27"/>
+      <c r="CN103" s="27"/>
     </row>
-    <row r="104" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>4</v>
       </c>
@@ -34186,11 +34240,14 @@
       <c r="CM104" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="CN104" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="105" spans="1:155" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
     </row>
-    <row r="106" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>27</v>
       </c>
@@ -34462,9 +34519,11 @@
         <v>8.7187164808033479</v>
       </c>
       <c r="CM106" s="18">
-        <v>9.30082290466469</v>
-      </c>
-      <c r="CN106" s="10"/>
+        <v>9.252093530157703</v>
+      </c>
+      <c r="CN106" s="18">
+        <v>7.5235474946544576</v>
+      </c>
       <c r="CO106" s="10"/>
       <c r="CP106" s="10"/>
       <c r="CQ106" s="10"/>
@@ -34529,7 +34588,7 @@
       <c r="EX106" s="10"/>
       <c r="EY106" s="10"/>
     </row>
-    <row r="107" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>12</v>
       </c>
@@ -34801,9 +34860,11 @@
         <v>91.281283519196649</v>
       </c>
       <c r="CM107" s="18">
-        <v>90.699177095335315</v>
-      </c>
-      <c r="CN107" s="10"/>
+        <v>90.747906469842292</v>
+      </c>
+      <c r="CN107" s="18">
+        <v>92.476452505345534</v>
+      </c>
       <c r="CO107" s="10"/>
       <c r="CP107" s="10"/>
       <c r="CQ107" s="10"/>
@@ -34868,7 +34929,7 @@
       <c r="EX107" s="10"/>
       <c r="EY107" s="10"/>
     </row>
-    <row r="108" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="19"/>
       <c r="C108" s="19"/>
       <c r="D108" s="19"/>
@@ -34959,7 +35020,7 @@
       <c r="CK108" s="19"/>
       <c r="CL108" s="19"/>
       <c r="CM108" s="19"/>
-      <c r="CN108" s="10"/>
+      <c r="CN108" s="19"/>
       <c r="CO108" s="10"/>
       <c r="CP108" s="10"/>
       <c r="CQ108" s="10"/>
@@ -35024,7 +35085,7 @@
       <c r="EX108" s="10"/>
       <c r="EY108" s="10"/>
     </row>
-    <row r="109" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
         <v>11</v>
       </c>
@@ -35298,7 +35359,9 @@
       <c r="CM109" s="18">
         <v>100</v>
       </c>
-      <c r="CN109" s="10"/>
+      <c r="CN109" s="18">
+        <v>100</v>
+      </c>
       <c r="CO109" s="10"/>
       <c r="CP109" s="10"/>
       <c r="CQ109" s="10"/>
@@ -35363,7 +35426,7 @@
       <c r="EX109" s="10"/>
       <c r="EY109" s="10"/>
     </row>
-    <row r="110" spans="1:155" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:155" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="16"/>
       <c r="B110" s="16"/>
       <c r="C110" s="16"/>
@@ -35455,13 +35518,14 @@
       <c r="CK110" s="16"/>
       <c r="CL110" s="16"/>
       <c r="CM110" s="16"/>
+      <c r="CN110" s="16"/>
     </row>
-    <row r="111" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
@@ -35617,7 +35681,7 @@
       <c r="EX112" s="10"/>
       <c r="EY112" s="10"/>
     </row>
-    <row r="113" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
       <c r="D113" s="10"/>
@@ -35773,178 +35837,179 @@
       <c r="EX113" s="10"/>
       <c r="EY113" s="10"/>
     </row>
-    <row r="114" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="117" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="120" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
-      <c r="B122" s="29">
+      <c r="B122" s="27">
         <v>2000</v>
       </c>
-      <c r="C122" s="30"/>
-      <c r="D122" s="30"/>
-      <c r="E122" s="30"/>
-      <c r="F122" s="29">
+      <c r="C122" s="28"/>
+      <c r="D122" s="28"/>
+      <c r="E122" s="28"/>
+      <c r="F122" s="27">
         <v>2001</v>
       </c>
-      <c r="G122" s="30"/>
-      <c r="H122" s="30"/>
-      <c r="I122" s="30"/>
-      <c r="J122" s="29">
+      <c r="G122" s="28"/>
+      <c r="H122" s="28"/>
+      <c r="I122" s="28"/>
+      <c r="J122" s="27">
         <v>2002</v>
       </c>
-      <c r="K122" s="30"/>
-      <c r="L122" s="30"/>
-      <c r="M122" s="30"/>
-      <c r="N122" s="29">
+      <c r="K122" s="28"/>
+      <c r="L122" s="28"/>
+      <c r="M122" s="28"/>
+      <c r="N122" s="27">
         <v>2003</v>
       </c>
-      <c r="O122" s="30"/>
-      <c r="P122" s="30"/>
-      <c r="Q122" s="30"/>
-      <c r="R122" s="29">
+      <c r="O122" s="28"/>
+      <c r="P122" s="28"/>
+      <c r="Q122" s="28"/>
+      <c r="R122" s="27">
         <v>2004</v>
       </c>
-      <c r="S122" s="30"/>
-      <c r="T122" s="30"/>
-      <c r="U122" s="30"/>
-      <c r="V122" s="29">
+      <c r="S122" s="28"/>
+      <c r="T122" s="28"/>
+      <c r="U122" s="28"/>
+      <c r="V122" s="27">
         <v>2005</v>
       </c>
-      <c r="W122" s="30"/>
-      <c r="X122" s="30"/>
-      <c r="Y122" s="30"/>
-      <c r="Z122" s="29">
+      <c r="W122" s="28"/>
+      <c r="X122" s="28"/>
+      <c r="Y122" s="28"/>
+      <c r="Z122" s="27">
         <v>2006</v>
       </c>
-      <c r="AA122" s="30"/>
-      <c r="AB122" s="30"/>
-      <c r="AC122" s="30"/>
-      <c r="AD122" s="29">
+      <c r="AA122" s="28"/>
+      <c r="AB122" s="28"/>
+      <c r="AC122" s="28"/>
+      <c r="AD122" s="27">
         <v>2007</v>
       </c>
-      <c r="AE122" s="30"/>
-      <c r="AF122" s="30"/>
-      <c r="AG122" s="30"/>
-      <c r="AH122" s="29">
+      <c r="AE122" s="28"/>
+      <c r="AF122" s="28"/>
+      <c r="AG122" s="28"/>
+      <c r="AH122" s="27">
         <v>2008</v>
       </c>
-      <c r="AI122" s="30"/>
-      <c r="AJ122" s="30"/>
-      <c r="AK122" s="30"/>
-      <c r="AL122" s="29">
+      <c r="AI122" s="28"/>
+      <c r="AJ122" s="28"/>
+      <c r="AK122" s="28"/>
+      <c r="AL122" s="27">
         <v>2009</v>
       </c>
-      <c r="AM122" s="30"/>
-      <c r="AN122" s="30"/>
-      <c r="AO122" s="30"/>
-      <c r="AP122" s="29">
+      <c r="AM122" s="28"/>
+      <c r="AN122" s="28"/>
+      <c r="AO122" s="28"/>
+      <c r="AP122" s="27">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="30"/>
-      <c r="AR122" s="30"/>
-      <c r="AS122" s="30"/>
-      <c r="AT122" s="29">
+      <c r="AQ122" s="28"/>
+      <c r="AR122" s="28"/>
+      <c r="AS122" s="28"/>
+      <c r="AT122" s="27">
         <v>2011</v>
       </c>
-      <c r="AU122" s="30"/>
-      <c r="AV122" s="30"/>
-      <c r="AW122" s="30"/>
-      <c r="AX122" s="29">
+      <c r="AU122" s="28"/>
+      <c r="AV122" s="28"/>
+      <c r="AW122" s="28"/>
+      <c r="AX122" s="27">
         <v>2012</v>
       </c>
-      <c r="AY122" s="30"/>
-      <c r="AZ122" s="30"/>
-      <c r="BA122" s="30"/>
-      <c r="BB122" s="29">
+      <c r="AY122" s="28"/>
+      <c r="AZ122" s="28"/>
+      <c r="BA122" s="28"/>
+      <c r="BB122" s="27">
         <v>2013</v>
       </c>
-      <c r="BC122" s="30"/>
-      <c r="BD122" s="30"/>
-      <c r="BE122" s="30"/>
-      <c r="BF122" s="29">
+      <c r="BC122" s="28"/>
+      <c r="BD122" s="28"/>
+      <c r="BE122" s="28"/>
+      <c r="BF122" s="27">
         <v>2014</v>
       </c>
-      <c r="BG122" s="30"/>
-      <c r="BH122" s="30"/>
-      <c r="BI122" s="30"/>
-      <c r="BJ122" s="29">
+      <c r="BG122" s="28"/>
+      <c r="BH122" s="28"/>
+      <c r="BI122" s="28"/>
+      <c r="BJ122" s="27">
         <v>2015</v>
       </c>
-      <c r="BK122" s="30"/>
-      <c r="BL122" s="30"/>
-      <c r="BM122" s="30"/>
-      <c r="BN122" s="29">
+      <c r="BK122" s="28"/>
+      <c r="BL122" s="28"/>
+      <c r="BM122" s="28"/>
+      <c r="BN122" s="27">
         <v>2016</v>
       </c>
-      <c r="BO122" s="30"/>
-      <c r="BP122" s="30"/>
-      <c r="BQ122" s="30"/>
-      <c r="BR122" s="29">
+      <c r="BO122" s="28"/>
+      <c r="BP122" s="28"/>
+      <c r="BQ122" s="28"/>
+      <c r="BR122" s="27">
         <v>2017</v>
       </c>
-      <c r="BS122" s="30"/>
-      <c r="BT122" s="30"/>
-      <c r="BU122" s="30"/>
-      <c r="BV122" s="29">
+      <c r="BS122" s="28"/>
+      <c r="BT122" s="28"/>
+      <c r="BU122" s="28"/>
+      <c r="BV122" s="27">
         <v>2018</v>
       </c>
-      <c r="BW122" s="30"/>
-      <c r="BX122" s="30"/>
-      <c r="BY122" s="30"/>
-      <c r="BZ122" s="29">
+      <c r="BW122" s="28"/>
+      <c r="BX122" s="28"/>
+      <c r="BY122" s="28"/>
+      <c r="BZ122" s="27">
         <v>2019</v>
       </c>
-      <c r="CA122" s="30"/>
-      <c r="CB122" s="30"/>
-      <c r="CC122" s="30"/>
-      <c r="CD122" s="29">
+      <c r="CA122" s="28"/>
+      <c r="CB122" s="28"/>
+      <c r="CC122" s="28"/>
+      <c r="CD122" s="27">
         <v>2020</v>
       </c>
-      <c r="CE122" s="30"/>
-      <c r="CF122" s="30"/>
-      <c r="CG122" s="30"/>
-      <c r="CH122" s="29">
+      <c r="CE122" s="28"/>
+      <c r="CF122" s="28"/>
+      <c r="CG122" s="28"/>
+      <c r="CH122" s="27">
         <v>2021</v>
       </c>
-      <c r="CI122" s="29"/>
-      <c r="CJ122" s="29"/>
-      <c r="CK122" s="29"/>
-      <c r="CL122" s="29">
+      <c r="CI122" s="27"/>
+      <c r="CJ122" s="27"/>
+      <c r="CK122" s="27"/>
+      <c r="CL122" s="27">
         <v>2022</v>
       </c>
-      <c r="CM122" s="29"/>
+      <c r="CM122" s="27"/>
+      <c r="CN122" s="27"/>
     </row>
-    <row r="123" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>4</v>
       </c>
@@ -36218,11 +36283,14 @@
       <c r="CM123" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="CN123" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="124" spans="1:155" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8"/>
     </row>
-    <row r="125" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>27</v>
       </c>
@@ -36494,9 +36562,11 @@
         <v>8.2406204885807917</v>
       </c>
       <c r="CM125" s="18">
-        <v>9.4766210061233913</v>
-      </c>
-      <c r="CN125" s="10"/>
+        <v>9.4225957410087311</v>
+      </c>
+      <c r="CN125" s="18">
+        <v>7.2620169113504147</v>
+      </c>
       <c r="CO125" s="10"/>
       <c r="CP125" s="10"/>
       <c r="CQ125" s="10"/>
@@ -36561,7 +36631,7 @@
       <c r="EX125" s="10"/>
       <c r="EY125" s="10"/>
     </row>
-    <row r="126" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>12</v>
       </c>
@@ -36833,9 +36903,11 @@
         <v>91.759379511419198</v>
       </c>
       <c r="CM126" s="18">
-        <v>90.523378993876605</v>
-      </c>
-      <c r="CN126" s="10"/>
+        <v>90.577404258991265</v>
+      </c>
+      <c r="CN126" s="18">
+        <v>92.737983088649571</v>
+      </c>
       <c r="CO126" s="10"/>
       <c r="CP126" s="10"/>
       <c r="CQ126" s="10"/>
@@ -36900,7 +36972,7 @@
       <c r="EX126" s="10"/>
       <c r="EY126" s="10"/>
     </row>
-    <row r="127" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="19"/>
       <c r="C127" s="19"/>
       <c r="D127" s="19"/>
@@ -36991,7 +37063,7 @@
       <c r="CK127" s="19"/>
       <c r="CL127" s="19"/>
       <c r="CM127" s="19"/>
-      <c r="CN127" s="10"/>
+      <c r="CN127" s="19"/>
       <c r="CO127" s="10"/>
       <c r="CP127" s="10"/>
       <c r="CQ127" s="10"/>
@@ -37056,7 +37128,7 @@
       <c r="EX127" s="10"/>
       <c r="EY127" s="10"/>
     </row>
-    <row r="128" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="12" t="s">
         <v>11</v>
       </c>
@@ -37330,7 +37402,9 @@
       <c r="CM128" s="18">
         <v>100</v>
       </c>
-      <c r="CN128" s="10"/>
+      <c r="CN128" s="18">
+        <v>100</v>
+      </c>
       <c r="CO128" s="10"/>
       <c r="CP128" s="10"/>
       <c r="CQ128" s="10"/>
@@ -37395,7 +37469,7 @@
       <c r="EX128" s="10"/>
       <c r="EY128" s="10"/>
     </row>
-    <row r="129" spans="1:155" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:155" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="16"/>
       <c r="B129" s="16"/>
       <c r="C129" s="16"/>
@@ -37487,13 +37561,14 @@
       <c r="CK129" s="16"/>
       <c r="CL129" s="16"/>
       <c r="CM129" s="16"/>
+      <c r="CN129" s="16"/>
     </row>
-    <row r="130" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:155" s="21" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:155" s="21" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="20"/>
       <c r="C131" s="20"/>
@@ -37585,7 +37660,7 @@
       <c r="CK131" s="11"/>
       <c r="CL131" s="11"/>
       <c r="CM131" s="11"/>
-      <c r="CN131" s="20"/>
+      <c r="CN131" s="11"/>
       <c r="CO131" s="20"/>
       <c r="CP131" s="20"/>
       <c r="CQ131" s="20"/>
@@ -37650,7 +37725,7 @@
       <c r="EX131" s="20"/>
       <c r="EY131" s="20"/>
     </row>
-    <row r="132" spans="1:155" s="21" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:155" s="21" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="20"/>
       <c r="C132" s="20"/>
@@ -37742,7 +37817,7 @@
       <c r="CK132" s="11"/>
       <c r="CL132" s="11"/>
       <c r="CM132" s="11"/>
-      <c r="CN132" s="20"/>
+      <c r="CN132" s="11"/>
       <c r="CO132" s="20"/>
       <c r="CP132" s="20"/>
       <c r="CQ132" s="20"/>
@@ -37808,7 +37883,144 @@
       <c r="EY132" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="159">
+  <mergeCells count="161">
+    <mergeCell ref="CL103:CN103"/>
+    <mergeCell ref="CL122:CN122"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD122:CG122"/>
+    <mergeCell ref="CD103:CG103"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH28:CK28"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="CH84:CK84"/>
+    <mergeCell ref="CH103:CK103"/>
+    <mergeCell ref="CH122:CK122"/>
+    <mergeCell ref="CL9:CN9"/>
+    <mergeCell ref="CL28:CN28"/>
+    <mergeCell ref="CH47:CJ47"/>
+    <mergeCell ref="CL47:CM47"/>
+    <mergeCell ref="CH66:CJ66"/>
+    <mergeCell ref="CL66:CM66"/>
+    <mergeCell ref="CL84:CN84"/>
+    <mergeCell ref="BR122:BU122"/>
+    <mergeCell ref="BV122:BY122"/>
+    <mergeCell ref="BZ122:CC122"/>
+    <mergeCell ref="BR103:BU103"/>
+    <mergeCell ref="BV103:BY103"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR28:BU28"/>
+    <mergeCell ref="BV28:BY28"/>
+    <mergeCell ref="BZ28:CC28"/>
+    <mergeCell ref="BV47:BY47"/>
+    <mergeCell ref="BZ103:CC103"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="BZ47:CC47"/>
+    <mergeCell ref="BZ66:CC66"/>
+    <mergeCell ref="BR66:BU66"/>
+    <mergeCell ref="BV66:BY66"/>
+    <mergeCell ref="BR47:BU47"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="BF66:BI66"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AH28:AK28"/>
+    <mergeCell ref="AL28:AO28"/>
+    <mergeCell ref="AP28:AS28"/>
+    <mergeCell ref="AT28:AW28"/>
+    <mergeCell ref="AX28:BA28"/>
+    <mergeCell ref="BB28:BE28"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="AL47:AO47"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="R66:U66"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="Z47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="AH47:AK47"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="Z103:AC103"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="AH103:AK103"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="R122:U122"/>
+    <mergeCell ref="V122:Y122"/>
+    <mergeCell ref="Z122:AC122"/>
+    <mergeCell ref="AD122:AG122"/>
+    <mergeCell ref="AH122:AK122"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="V103:Y103"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="BF122:BI122"/>
+    <mergeCell ref="BJ122:BM122"/>
+    <mergeCell ref="BN122:BQ122"/>
+    <mergeCell ref="BJ103:BM103"/>
+    <mergeCell ref="BN103:BQ103"/>
+    <mergeCell ref="AL122:AO122"/>
+    <mergeCell ref="AP122:AS122"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="AX122:BA122"/>
+    <mergeCell ref="BB122:BE122"/>
+    <mergeCell ref="BB103:BE103"/>
+    <mergeCell ref="BF103:BI103"/>
+    <mergeCell ref="AL103:AO103"/>
+    <mergeCell ref="AP103:AS103"/>
+    <mergeCell ref="AT103:AW103"/>
+    <mergeCell ref="AX103:BA103"/>
     <mergeCell ref="AT84:AW84"/>
     <mergeCell ref="AX84:BA84"/>
     <mergeCell ref="BB84:BE84"/>
@@ -37833,150 +38045,15 @@
     <mergeCell ref="BF28:BI28"/>
     <mergeCell ref="AX66:BA66"/>
     <mergeCell ref="BB66:BE66"/>
-    <mergeCell ref="BF122:BI122"/>
-    <mergeCell ref="BJ122:BM122"/>
-    <mergeCell ref="BN122:BQ122"/>
-    <mergeCell ref="BJ103:BM103"/>
-    <mergeCell ref="BN103:BQ103"/>
-    <mergeCell ref="AL122:AO122"/>
-    <mergeCell ref="AP122:AS122"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="AX122:BA122"/>
-    <mergeCell ref="BB122:BE122"/>
-    <mergeCell ref="BB103:BE103"/>
-    <mergeCell ref="BF103:BI103"/>
-    <mergeCell ref="AL103:AO103"/>
-    <mergeCell ref="AP103:AS103"/>
-    <mergeCell ref="AT103:AW103"/>
-    <mergeCell ref="AX103:BA103"/>
-    <mergeCell ref="Z103:AC103"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="AH103:AK103"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="R122:U122"/>
-    <mergeCell ref="V122:Y122"/>
-    <mergeCell ref="Z122:AC122"/>
-    <mergeCell ref="AD122:AG122"/>
-    <mergeCell ref="AH122:AK122"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="V103:Y103"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AL66:AO66"/>
-    <mergeCell ref="AP66:AS66"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="R66:U66"/>
-    <mergeCell ref="V66:Y66"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="R47:U47"/>
-    <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="BF66:BI66"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="AL28:AO28"/>
-    <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="AT28:AW28"/>
-    <mergeCell ref="AX28:BA28"/>
-    <mergeCell ref="BB28:BE28"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AP47:AS47"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="BR122:BU122"/>
-    <mergeCell ref="BV122:BY122"/>
-    <mergeCell ref="BZ122:CC122"/>
-    <mergeCell ref="BR103:BU103"/>
-    <mergeCell ref="BV103:BY103"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR28:BU28"/>
-    <mergeCell ref="BV28:BY28"/>
-    <mergeCell ref="BZ28:CC28"/>
-    <mergeCell ref="BV47:BY47"/>
-    <mergeCell ref="BZ103:CC103"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="BZ47:CC47"/>
-    <mergeCell ref="BZ66:CC66"/>
-    <mergeCell ref="BR66:BU66"/>
-    <mergeCell ref="BV66:BY66"/>
-    <mergeCell ref="BR47:BU47"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="CL9:CM9"/>
-    <mergeCell ref="CL28:CM28"/>
-    <mergeCell ref="CH47:CI47"/>
-    <mergeCell ref="CH66:CI66"/>
-    <mergeCell ref="CL84:CM84"/>
-    <mergeCell ref="CL103:CM103"/>
-    <mergeCell ref="CL122:CM122"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD122:CG122"/>
-    <mergeCell ref="CD103:CG103"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH28:CK28"/>
-    <mergeCell ref="CD47:CG47"/>
-    <mergeCell ref="CD66:CG66"/>
-    <mergeCell ref="CH84:CK84"/>
-    <mergeCell ref="CH103:CK103"/>
-    <mergeCell ref="CH122:CK122"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="90" man="1"/>
-    <brk id="76" max="90" man="1"/>
-    <brk id="94" max="90" man="1"/>
+    <brk id="38" max="91" man="1"/>
+    <brk id="76" max="91" man="1"/>
+    <brk id="94" max="91" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-16IAC_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-16IAC_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE5DBE2-E039-45C8-9F8F-1E906B5E8B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DDDC30-F21A-4768-9518-42C57E47D48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAC" sheetId="10" r:id="rId1"/>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IAC!$A$1:$CN$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IAC!$A$1:$CO$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -613,13 +613,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2022</t>
+    <t>As of January 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2022</t>
+    <t>Q1 2000 to Q4 2022</t>
   </si>
   <si>
-    <t>As of November 2022</t>
+    <t>Q1 2001 to Q4 2022</t>
   </si>
 </sst>
 </file>
@@ -799,7 +799,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="G_Gross Revenue"/>
@@ -15166,7 +15166,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CAP93+"/>
@@ -15875,7 +15875,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Prod_Lev_Comp"/>
@@ -15898,7 +15898,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15927,7 +15927,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15990,7 +15990,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -16019,7 +16019,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -16050,7 +16050,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RETAILQ203-90days"/>
@@ -18444,7 +18444,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -18532,7 +18532,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="notes-rev"/>
@@ -18553,7 +18553,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="t6a (2)"/>
@@ -18610,7 +18610,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet2"/>
@@ -18627,7 +18627,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -18668,7 +18668,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="AFF"/>
@@ -18681,7 +18681,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet3"/>
@@ -18728,7 +18728,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TABL1"/>
@@ -18757,7 +18757,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TAB35"/>
@@ -23174,7 +23174,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Summary"/>
@@ -23217,7 +23217,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Steps"/>
@@ -23619,7 +23619,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23632,17 +23632,17 @@
   </sheetPr>
   <dimension ref="A1:EY132"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="40" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CE1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CH1" sqref="CH1:CN1048576"/>
+      <selection pane="topRight" activeCell="CH1" sqref="CH1:CO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.6640625" style="1" customWidth="1"/>
-    <col min="2" max="92" width="11.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="93" max="16384" width="7.77734375" style="11"/>
+    <col min="2" max="93" width="11.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="94" max="16384" width="7.77734375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -23657,7 +23657,7 @@
     </row>
     <row r="3" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -23668,7 +23668,7 @@
     </row>
     <row r="6" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -23766,6 +23766,7 @@
       <c r="CL7" s="4"/>
       <c r="CM7" s="4"/>
       <c r="CN7" s="4"/>
+      <c r="CO7" s="4"/>
     </row>
     <row r="8" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
@@ -23859,6 +23860,7 @@
       <c r="CL8" s="4"/>
       <c r="CM8" s="4"/>
       <c r="CN8" s="4"/>
+      <c r="CO8" s="4"/>
     </row>
     <row r="9" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
@@ -23999,6 +24001,7 @@
       </c>
       <c r="CM9" s="27"/>
       <c r="CN9" s="27"/>
+      <c r="CO9" s="27"/>
     </row>
     <row r="10" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24276,6 +24279,9 @@
       </c>
       <c r="CN10" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="CO10" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24556,9 +24562,11 @@
         <v>17616.184286755364</v>
       </c>
       <c r="CN12" s="22">
-        <v>11501.881685689994</v>
-      </c>
-      <c r="CO12" s="10"/>
+        <v>11465.335908413625</v>
+      </c>
+      <c r="CO12" s="22">
+        <v>16244.533401612665</v>
+      </c>
       <c r="CP12" s="10"/>
       <c r="CQ12" s="10"/>
       <c r="CR12" s="10"/>
@@ -24897,9 +24905,11 @@
         <v>172785.95798876803</v>
       </c>
       <c r="CN13" s="23">
-        <v>141376.55357190856</v>
-      </c>
-      <c r="CO13" s="10"/>
+        <v>141316.70261739779</v>
+      </c>
+      <c r="CO13" s="23">
+        <v>178996.11475890447</v>
+      </c>
       <c r="CP13" s="10"/>
       <c r="CQ13" s="10"/>
       <c r="CR13" s="10"/>
@@ -25055,7 +25065,7 @@
       <c r="CL14" s="24"/>
       <c r="CM14" s="24"/>
       <c r="CN14" s="24"/>
-      <c r="CO14" s="10"/>
+      <c r="CO14" s="24"/>
       <c r="CP14" s="10"/>
       <c r="CQ14" s="10"/>
       <c r="CR14" s="10"/>
@@ -25394,9 +25404,11 @@
         <v>190402.14227552339</v>
       </c>
       <c r="CN15" s="25">
-        <v>152878.43525759855</v>
-      </c>
-      <c r="CO15" s="10"/>
+        <v>152782.03852581143</v>
+      </c>
+      <c r="CO15" s="25">
+        <v>195240.64816051713</v>
+      </c>
       <c r="CP15" s="10"/>
       <c r="CQ15" s="10"/>
       <c r="CR15" s="10"/>
@@ -25553,6 +25565,7 @@
       <c r="CL16" s="16"/>
       <c r="CM16" s="16"/>
       <c r="CN16" s="16"/>
+      <c r="CO16" s="16"/>
     </row>
     <row r="17" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
@@ -25883,7 +25896,7 @@
     </row>
     <row r="22" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -25894,7 +25907,7 @@
     </row>
     <row r="25" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -25992,6 +26005,7 @@
       <c r="CL26" s="4"/>
       <c r="CM26" s="4"/>
       <c r="CN26" s="4"/>
+      <c r="CO26" s="4"/>
     </row>
     <row r="27" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
@@ -26085,6 +26099,7 @@
       <c r="CL27" s="4"/>
       <c r="CM27" s="4"/>
       <c r="CN27" s="4"/>
+      <c r="CO27" s="4"/>
     </row>
     <row r="28" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
@@ -26225,6 +26240,7 @@
       </c>
       <c r="CM28" s="27"/>
       <c r="CN28" s="27"/>
+      <c r="CO28" s="27"/>
     </row>
     <row r="29" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
@@ -26502,6 +26518,9 @@
       </c>
       <c r="CN29" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="CO29" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26782,9 +26801,11 @@
         <v>18266.836935567284</v>
       </c>
       <c r="CN31" s="22">
-        <v>10575.058279938112</v>
-      </c>
-      <c r="CO31" s="10"/>
+        <v>10541.457367048872</v>
+      </c>
+      <c r="CO31" s="22">
+        <v>14602.45313671371</v>
+      </c>
       <c r="CP31" s="10"/>
       <c r="CQ31" s="10"/>
       <c r="CR31" s="10"/>
@@ -27123,9 +27144,11 @@
         <v>175595.20954984988</v>
       </c>
       <c r="CN32" s="23">
-        <v>135046.44617303921</v>
-      </c>
-      <c r="CO32" s="10"/>
+        <v>134989.27503325301</v>
+      </c>
+      <c r="CO32" s="23">
+        <v>177503.63966497514</v>
+      </c>
       <c r="CP32" s="10"/>
       <c r="CQ32" s="10"/>
       <c r="CR32" s="10"/>
@@ -27620,9 +27643,11 @@
         <v>193862.04648541717</v>
       </c>
       <c r="CN34" s="25">
-        <v>145621.50445297733</v>
-      </c>
-      <c r="CO34" s="10"/>
+        <v>145530.73240030187</v>
+      </c>
+      <c r="CO34" s="25">
+        <v>192106.09280168885</v>
+      </c>
       <c r="CP34" s="10"/>
       <c r="CQ34" s="10"/>
       <c r="CR34" s="10"/>
@@ -27779,6 +27804,7 @@
       <c r="CL35" s="16"/>
       <c r="CM35" s="16"/>
       <c r="CN35" s="16"/>
+      <c r="CO35" s="16"/>
     </row>
     <row r="36" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
@@ -28109,7 +28135,7 @@
     </row>
     <row r="41" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -28120,7 +28146,7 @@
     </row>
     <row r="44" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -28262,10 +28288,11 @@
       </c>
       <c r="CI47" s="27"/>
       <c r="CJ47" s="27"/>
-      <c r="CK47" s="26"/>
+      <c r="CK47" s="27"/>
       <c r="CL47" s="27"/>
       <c r="CM47" s="27"/>
       <c r="CN47" s="26"/>
+      <c r="CO47" s="26"/>
     </row>
     <row r="48" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -28532,10 +28559,13 @@
       <c r="CJ48" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CK48" s="6"/>
+      <c r="CK48" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="CL48" s="6"/>
       <c r="CM48" s="6"/>
       <c r="CN48" s="6"/>
+      <c r="CO48" s="6"/>
     </row>
     <row r="49" spans="1:151" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
@@ -28803,13 +28833,15 @@
         <v>20.61538355527199</v>
       </c>
       <c r="CJ50" s="18">
-        <v>3.0157096928674463</v>
-      </c>
-      <c r="CK50" s="18"/>
+        <v>2.6883902780723332</v>
+      </c>
+      <c r="CK50" s="18">
+        <v>19.544494422049524</v>
+      </c>
       <c r="CL50" s="18"/>
       <c r="CM50" s="18"/>
       <c r="CN50" s="18"/>
-      <c r="CO50" s="10"/>
+      <c r="CO50" s="18"/>
       <c r="CP50" s="10"/>
       <c r="CQ50" s="10"/>
       <c r="CR50" s="10"/>
@@ -29132,13 +29164,15 @@
         <v>10.320931145074923</v>
       </c>
       <c r="CJ51" s="18">
-        <v>8.8664471118210457</v>
-      </c>
-      <c r="CK51" s="18"/>
+        <v>8.8203591247452806</v>
+      </c>
+      <c r="CK51" s="18">
+        <v>5.6205266637721252</v>
+      </c>
       <c r="CL51" s="18"/>
       <c r="CM51" s="18"/>
       <c r="CN51" s="18"/>
-      <c r="CO51" s="10"/>
+      <c r="CO51" s="18"/>
       <c r="CP51" s="10"/>
       <c r="CQ51" s="10"/>
       <c r="CR51" s="10"/>
@@ -29291,7 +29325,7 @@
       <c r="CL52" s="19"/>
       <c r="CM52" s="19"/>
       <c r="CN52" s="19"/>
-      <c r="CO52" s="10"/>
+      <c r="CO52" s="19"/>
       <c r="CP52" s="10"/>
       <c r="CQ52" s="10"/>
       <c r="CR52" s="10"/>
@@ -29614,13 +29648,15 @@
         <v>11.1990262308165</v>
       </c>
       <c r="CJ53" s="18">
-        <v>8.4032433351837454</v>
-      </c>
-      <c r="CK53" s="18"/>
+        <v>8.334890212946263</v>
+      </c>
+      <c r="CK53" s="18">
+        <v>6.6541160732562759</v>
+      </c>
       <c r="CL53" s="18"/>
       <c r="CM53" s="18"/>
       <c r="CN53" s="18"/>
-      <c r="CO53" s="10"/>
+      <c r="CO53" s="18"/>
       <c r="CP53" s="10"/>
       <c r="CQ53" s="10"/>
       <c r="CR53" s="10"/>
@@ -29773,6 +29809,7 @@
       <c r="CL54" s="16"/>
       <c r="CM54" s="16"/>
       <c r="CN54" s="16"/>
+      <c r="CO54" s="16"/>
     </row>
     <row r="55" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
@@ -30095,7 +30132,7 @@
     </row>
     <row r="60" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -30106,7 +30143,7 @@
     </row>
     <row r="63" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -30248,10 +30285,11 @@
       </c>
       <c r="CI66" s="27"/>
       <c r="CJ66" s="27"/>
-      <c r="CK66" s="26"/>
+      <c r="CK66" s="27"/>
       <c r="CL66" s="27"/>
       <c r="CM66" s="27"/>
       <c r="CN66" s="26"/>
+      <c r="CO66" s="26"/>
     </row>
     <row r="67" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
@@ -30518,10 +30556,13 @@
       <c r="CJ67" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CK67" s="6"/>
+      <c r="CK67" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="CL67" s="6"/>
       <c r="CM67" s="6"/>
       <c r="CN67" s="6"/>
+      <c r="CO67" s="6"/>
     </row>
     <row r="68" spans="1:151" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
@@ -30789,13 +30830,15 @@
         <v>20.478257457959302</v>
       </c>
       <c r="CJ69" s="18">
-        <v>0.73594815908708711</v>
-      </c>
-      <c r="CK69" s="18"/>
+        <v>0.4158723988116293</v>
+      </c>
+      <c r="CK69" s="18">
+        <v>14.698545037234581</v>
+      </c>
       <c r="CL69" s="18"/>
       <c r="CM69" s="18"/>
       <c r="CN69" s="18"/>
-      <c r="CO69" s="10"/>
+      <c r="CO69" s="18"/>
       <c r="CP69" s="10"/>
       <c r="CQ69" s="10"/>
       <c r="CR69" s="10"/>
@@ -31118,13 +31161,15 @@
         <v>9.6359318994029053</v>
       </c>
       <c r="CJ70" s="18">
-        <v>8.3686906586644625</v>
-      </c>
-      <c r="CK70" s="18"/>
+        <v>8.3228133939332167</v>
+      </c>
+      <c r="CK70" s="18">
+        <v>4.9670619921304109</v>
+      </c>
       <c r="CL70" s="18"/>
       <c r="CM70" s="18"/>
       <c r="CN70" s="18"/>
-      <c r="CO70" s="10"/>
+      <c r="CO70" s="18"/>
       <c r="CP70" s="10"/>
       <c r="CQ70" s="10"/>
       <c r="CR70" s="10"/>
@@ -31276,7 +31321,7 @@
       <c r="CL71" s="19"/>
       <c r="CM71" s="19"/>
       <c r="CN71" s="19"/>
-      <c r="CO71" s="10"/>
+      <c r="CO71" s="19"/>
       <c r="CP71" s="10"/>
       <c r="CQ71" s="10"/>
       <c r="CR71" s="10"/>
@@ -31599,13 +31644,15 @@
         <v>10.573570892959964</v>
       </c>
       <c r="CJ72" s="18">
-        <v>7.7756641644833451</v>
-      </c>
-      <c r="CK72" s="18"/>
+        <v>7.7084830273194314</v>
+      </c>
+      <c r="CK72" s="18">
+        <v>5.648409650071855</v>
+      </c>
       <c r="CL72" s="18"/>
       <c r="CM72" s="18"/>
       <c r="CN72" s="18"/>
-      <c r="CO72" s="10"/>
+      <c r="CO72" s="18"/>
       <c r="CP72" s="10"/>
       <c r="CQ72" s="10"/>
       <c r="CR72" s="10"/>
@@ -31758,6 +31805,7 @@
       <c r="CL73" s="16"/>
       <c r="CM73" s="16"/>
       <c r="CN73" s="16"/>
+      <c r="CO73" s="16"/>
     </row>
     <row r="74" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
@@ -32075,7 +32123,7 @@
     </row>
     <row r="78" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -32086,7 +32134,7 @@
     </row>
     <row r="81" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -32234,6 +32282,7 @@
       </c>
       <c r="CM84" s="27"/>
       <c r="CN84" s="27"/>
+      <c r="CO84" s="27"/>
     </row>
     <row r="85" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
@@ -32511,6 +32560,9 @@
       </c>
       <c r="CN85" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="CO85" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -32791,9 +32843,11 @@
         <v>96.43806614627934</v>
       </c>
       <c r="CN87" s="18">
-        <v>108.76423922419562</v>
-      </c>
-      <c r="CO87" s="10"/>
+        <v>108.76423922419558</v>
+      </c>
+      <c r="CO87" s="18">
+        <v>111.24523564311542</v>
+      </c>
       <c r="CP87" s="10"/>
       <c r="CQ87" s="10"/>
       <c r="CR87" s="10"/>
@@ -33132,9 +33186,11 @@
         <v>98.400154783103957</v>
       </c>
       <c r="CN88" s="18">
-        <v>104.68735577888395</v>
-      </c>
-      <c r="CO88" s="10"/>
+        <v>104.687355778884</v>
+      </c>
+      <c r="CO88" s="18">
+        <v>100.84081379781635</v>
+      </c>
       <c r="CP88" s="10"/>
       <c r="CQ88" s="10"/>
       <c r="CR88" s="10"/>
@@ -33290,7 +33346,7 @@
       <c r="CL89" s="19"/>
       <c r="CM89" s="19"/>
       <c r="CN89" s="19"/>
-      <c r="CO89" s="10"/>
+      <c r="CO89" s="19"/>
       <c r="CP89" s="10"/>
       <c r="CQ89" s="10"/>
       <c r="CR89" s="10"/>
@@ -33629,9 +33685,11 @@
         <v>98.215275102775706</v>
       </c>
       <c r="CN90" s="18">
-        <v>104.98341974413852</v>
-      </c>
-      <c r="CO90" s="10"/>
+        <v>104.98266311583168</v>
+      </c>
+      <c r="CO90" s="18">
+        <v>101.63167930444772</v>
+      </c>
       <c r="CP90" s="10"/>
       <c r="CQ90" s="10"/>
       <c r="CR90" s="10"/>
@@ -33788,6 +33846,7 @@
       <c r="CL91" s="16"/>
       <c r="CM91" s="16"/>
       <c r="CN91" s="16"/>
+      <c r="CO91" s="16"/>
     </row>
     <row r="92" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
@@ -33806,7 +33865,7 @@
     </row>
     <row r="97" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -33817,7 +33876,7 @@
     </row>
     <row r="100" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -33965,6 +34024,7 @@
       </c>
       <c r="CM103" s="27"/>
       <c r="CN103" s="27"/>
+      <c r="CO103" s="27"/>
     </row>
     <row r="104" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
@@ -34242,6 +34302,9 @@
       </c>
       <c r="CN104" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="CO104" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -34522,9 +34585,11 @@
         <v>9.252093530157703</v>
       </c>
       <c r="CN106" s="18">
-        <v>7.5235474946544576</v>
-      </c>
-      <c r="CO106" s="10"/>
+        <v>7.5043742177040258</v>
+      </c>
+      <c r="CO106" s="18">
+        <v>8.3202619713991215</v>
+      </c>
       <c r="CP106" s="10"/>
       <c r="CQ106" s="10"/>
       <c r="CR106" s="10"/>
@@ -34863,9 +34928,11 @@
         <v>90.747906469842292</v>
       </c>
       <c r="CN107" s="18">
-        <v>92.476452505345534</v>
-      </c>
-      <c r="CO107" s="10"/>
+        <v>92.49562578229596</v>
+      </c>
+      <c r="CO107" s="18">
+        <v>91.67973802860088</v>
+      </c>
       <c r="CP107" s="10"/>
       <c r="CQ107" s="10"/>
       <c r="CR107" s="10"/>
@@ -35021,7 +35088,7 @@
       <c r="CL108" s="19"/>
       <c r="CM108" s="19"/>
       <c r="CN108" s="19"/>
-      <c r="CO108" s="10"/>
+      <c r="CO108" s="19"/>
       <c r="CP108" s="10"/>
       <c r="CQ108" s="10"/>
       <c r="CR108" s="10"/>
@@ -35362,7 +35429,9 @@
       <c r="CN109" s="18">
         <v>100</v>
       </c>
-      <c r="CO109" s="10"/>
+      <c r="CO109" s="18">
+        <v>100</v>
+      </c>
       <c r="CP109" s="10"/>
       <c r="CQ109" s="10"/>
       <c r="CR109" s="10"/>
@@ -35519,6 +35588,7 @@
       <c r="CL110" s="16"/>
       <c r="CM110" s="16"/>
       <c r="CN110" s="16"/>
+      <c r="CO110" s="16"/>
     </row>
     <row r="111" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
@@ -35849,7 +35919,7 @@
     </row>
     <row r="116" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="117" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -35860,7 +35930,7 @@
     </row>
     <row r="119" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="120" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -36008,6 +36078,7 @@
       </c>
       <c r="CM122" s="27"/>
       <c r="CN122" s="27"/>
+      <c r="CO122" s="27"/>
     </row>
     <row r="123" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
@@ -36285,6 +36356,9 @@
       </c>
       <c r="CN123" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="CO123" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36565,9 +36639,11 @@
         <v>9.4225957410087311</v>
       </c>
       <c r="CN125" s="18">
-        <v>7.2620169113504147</v>
-      </c>
-      <c r="CO125" s="10"/>
+        <v>7.2434579234117873</v>
+      </c>
+      <c r="CO125" s="18">
+        <v>7.6012441478302426</v>
+      </c>
       <c r="CP125" s="10"/>
       <c r="CQ125" s="10"/>
       <c r="CR125" s="10"/>
@@ -36906,9 +36982,11 @@
         <v>90.577404258991265</v>
       </c>
       <c r="CN126" s="18">
-        <v>92.737983088649571</v>
-      </c>
-      <c r="CO126" s="10"/>
+        <v>92.756542076588218</v>
+      </c>
+      <c r="CO126" s="18">
+        <v>92.398755852169757</v>
+      </c>
       <c r="CP126" s="10"/>
       <c r="CQ126" s="10"/>
       <c r="CR126" s="10"/>
@@ -37064,7 +37142,7 @@
       <c r="CL127" s="19"/>
       <c r="CM127" s="19"/>
       <c r="CN127" s="19"/>
-      <c r="CO127" s="10"/>
+      <c r="CO127" s="19"/>
       <c r="CP127" s="10"/>
       <c r="CQ127" s="10"/>
       <c r="CR127" s="10"/>
@@ -37405,7 +37483,9 @@
       <c r="CN128" s="18">
         <v>100</v>
       </c>
-      <c r="CO128" s="10"/>
+      <c r="CO128" s="18">
+        <v>100</v>
+      </c>
       <c r="CP128" s="10"/>
       <c r="CQ128" s="10"/>
       <c r="CR128" s="10"/>
@@ -37562,6 +37642,7 @@
       <c r="CL129" s="16"/>
       <c r="CM129" s="16"/>
       <c r="CN129" s="16"/>
+      <c r="CO129" s="16"/>
     </row>
     <row r="130" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
@@ -37661,7 +37742,7 @@
       <c r="CL131" s="11"/>
       <c r="CM131" s="11"/>
       <c r="CN131" s="11"/>
-      <c r="CO131" s="20"/>
+      <c r="CO131" s="11"/>
       <c r="CP131" s="20"/>
       <c r="CQ131" s="20"/>
       <c r="CR131" s="20"/>
@@ -37818,7 +37899,7 @@
       <c r="CL132" s="11"/>
       <c r="CM132" s="11"/>
       <c r="CN132" s="11"/>
-      <c r="CO132" s="20"/>
+      <c r="CO132" s="11"/>
       <c r="CP132" s="20"/>
       <c r="CQ132" s="20"/>
       <c r="CR132" s="20"/>
@@ -37884,103 +37965,45 @@
     </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="CL103:CN103"/>
-    <mergeCell ref="CL122:CN122"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD122:CG122"/>
-    <mergeCell ref="CD103:CG103"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH28:CK28"/>
-    <mergeCell ref="CD47:CG47"/>
-    <mergeCell ref="CD66:CG66"/>
-    <mergeCell ref="CH84:CK84"/>
-    <mergeCell ref="CH103:CK103"/>
-    <mergeCell ref="CH122:CK122"/>
-    <mergeCell ref="CL9:CN9"/>
-    <mergeCell ref="CL28:CN28"/>
-    <mergeCell ref="CH47:CJ47"/>
-    <mergeCell ref="CL47:CM47"/>
-    <mergeCell ref="CH66:CJ66"/>
-    <mergeCell ref="CL66:CM66"/>
-    <mergeCell ref="CL84:CN84"/>
-    <mergeCell ref="BR122:BU122"/>
-    <mergeCell ref="BV122:BY122"/>
-    <mergeCell ref="BZ122:CC122"/>
-    <mergeCell ref="BR103:BU103"/>
-    <mergeCell ref="BV103:BY103"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR28:BU28"/>
-    <mergeCell ref="BV28:BY28"/>
-    <mergeCell ref="BZ28:CC28"/>
-    <mergeCell ref="BV47:BY47"/>
-    <mergeCell ref="BZ103:CC103"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="BZ47:CC47"/>
-    <mergeCell ref="BZ66:CC66"/>
-    <mergeCell ref="BR66:BU66"/>
-    <mergeCell ref="BV66:BY66"/>
-    <mergeCell ref="BR47:BU47"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="BF47:BI47"/>
+    <mergeCell ref="BJ47:BM47"/>
+    <mergeCell ref="BN47:BQ47"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="BN28:BQ28"/>
+    <mergeCell ref="AT47:AW47"/>
+    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="BJ28:BM28"/>
+    <mergeCell ref="BJ66:BM66"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="BF28:BI28"/>
     <mergeCell ref="BF66:BI66"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="AL28:AO28"/>
-    <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="AT28:AW28"/>
-    <mergeCell ref="AX28:BA28"/>
-    <mergeCell ref="BB28:BE28"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AP47:AS47"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AL66:AO66"/>
-    <mergeCell ref="AP66:AS66"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="R66:U66"/>
-    <mergeCell ref="V66:Y66"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="R47:U47"/>
-    <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="CL103:CO103"/>
+    <mergeCell ref="CL122:CO122"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="BN66:BQ66"/>
+    <mergeCell ref="BR84:BU84"/>
+    <mergeCell ref="BV84:BY84"/>
+    <mergeCell ref="BF122:BI122"/>
+    <mergeCell ref="BJ122:BM122"/>
+    <mergeCell ref="BN122:BQ122"/>
+    <mergeCell ref="BJ103:BM103"/>
+    <mergeCell ref="BN103:BQ103"/>
+    <mergeCell ref="AL122:AO122"/>
+    <mergeCell ref="AP122:AS122"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="AX122:BA122"/>
+    <mergeCell ref="BB122:BE122"/>
+    <mergeCell ref="BB103:BE103"/>
+    <mergeCell ref="BF103:BI103"/>
+    <mergeCell ref="AL103:AO103"/>
+    <mergeCell ref="AP103:AS103"/>
+    <mergeCell ref="AT103:AW103"/>
+    <mergeCell ref="AX103:BA103"/>
     <mergeCell ref="Z103:AC103"/>
     <mergeCell ref="Z84:AC84"/>
     <mergeCell ref="AD84:AG84"/>
@@ -38005,55 +38028,113 @@
     <mergeCell ref="R103:U103"/>
     <mergeCell ref="V103:Y103"/>
     <mergeCell ref="B84:E84"/>
-    <mergeCell ref="BF122:BI122"/>
-    <mergeCell ref="BJ122:BM122"/>
-    <mergeCell ref="BN122:BQ122"/>
-    <mergeCell ref="BJ103:BM103"/>
-    <mergeCell ref="BN103:BQ103"/>
-    <mergeCell ref="AL122:AO122"/>
-    <mergeCell ref="AP122:AS122"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="AX122:BA122"/>
-    <mergeCell ref="BB122:BE122"/>
-    <mergeCell ref="BB103:BE103"/>
-    <mergeCell ref="BF103:BI103"/>
-    <mergeCell ref="AL103:AO103"/>
-    <mergeCell ref="AP103:AS103"/>
-    <mergeCell ref="AT103:AW103"/>
-    <mergeCell ref="AX103:BA103"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="CD28:CG28"/>
-    <mergeCell ref="BN66:BQ66"/>
-    <mergeCell ref="BB47:BE47"/>
-    <mergeCell ref="BF47:BI47"/>
-    <mergeCell ref="BJ47:BM47"/>
-    <mergeCell ref="BN47:BQ47"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="BN28:BQ28"/>
-    <mergeCell ref="AT47:AW47"/>
-    <mergeCell ref="AX47:BA47"/>
-    <mergeCell ref="BJ28:BM28"/>
-    <mergeCell ref="BJ66:BM66"/>
-    <mergeCell ref="BR84:BU84"/>
-    <mergeCell ref="BV84:BY84"/>
-    <mergeCell ref="AT66:AW66"/>
-    <mergeCell ref="BF28:BI28"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="R66:U66"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="Z47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="AH47:AK47"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="AL28:AO28"/>
+    <mergeCell ref="AP28:AS28"/>
+    <mergeCell ref="AT28:AW28"/>
+    <mergeCell ref="AX28:BA28"/>
+    <mergeCell ref="BB28:BE28"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="AL47:AO47"/>
+    <mergeCell ref="AP47:AS47"/>
     <mergeCell ref="AX66:BA66"/>
     <mergeCell ref="BB66:BE66"/>
+    <mergeCell ref="BB47:BE47"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AH28:AK28"/>
+    <mergeCell ref="BR122:BU122"/>
+    <mergeCell ref="BV122:BY122"/>
+    <mergeCell ref="BZ122:CC122"/>
+    <mergeCell ref="BR103:BU103"/>
+    <mergeCell ref="BV103:BY103"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR28:BU28"/>
+    <mergeCell ref="BV28:BY28"/>
+    <mergeCell ref="BZ28:CC28"/>
+    <mergeCell ref="BV47:BY47"/>
+    <mergeCell ref="BZ103:CC103"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="BZ47:CC47"/>
+    <mergeCell ref="BZ66:CC66"/>
+    <mergeCell ref="BR66:BU66"/>
+    <mergeCell ref="BV66:BY66"/>
+    <mergeCell ref="BR47:BU47"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="CL47:CM47"/>
+    <mergeCell ref="CL66:CM66"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CL28:CO28"/>
+    <mergeCell ref="CH47:CK47"/>
+    <mergeCell ref="CH66:CK66"/>
+    <mergeCell ref="CL84:CO84"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD122:CG122"/>
+    <mergeCell ref="CD103:CG103"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH28:CK28"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="CH84:CK84"/>
+    <mergeCell ref="CH103:CK103"/>
+    <mergeCell ref="CH122:CK122"/>
+    <mergeCell ref="CD28:CG28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="91" man="1"/>
-    <brk id="76" max="91" man="1"/>
-    <brk id="94" max="91" man="1"/>
+    <brk id="38" max="92" man="1"/>
+    <brk id="76" max="92" man="1"/>
+    <brk id="94" max="92" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-16IAC_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-16IAC_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DDDC30-F21A-4768-9518-42C57E47D48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58EB97B-38B3-49CB-A520-AC423D7B148D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1425" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAC" sheetId="10" r:id="rId1"/>
@@ -613,13 +613,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of January 2023</t>
-  </si>
-  <si>
     <t>Q1 2000 to Q4 2022</t>
   </si>
   <si>
     <t>Q1 2001 to Q4 2022</t>
+  </si>
+  <si>
+    <t>As of April 2023</t>
   </si>
 </sst>
 </file>
@@ -719,7 +719,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -754,15 +754,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23619,7 +23610,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23632,10 +23623,10 @@
   </sheetPr>
   <dimension ref="A1:EY132"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="40" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CE1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BS1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CH1" sqref="CH1:CO1048576"/>
+      <selection pane="topRight" activeCell="CD1" sqref="CD1:CO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23657,7 +23648,7 @@
     </row>
     <row r="3" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -23668,7 +23659,7 @@
     </row>
     <row r="6" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -23864,144 +23855,144 @@
     </row>
     <row r="9" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="27">
+      <c r="B9" s="22">
         <v>2000</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22">
         <v>2001</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27">
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22">
         <v>2002</v>
       </c>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27">
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22">
         <v>2003</v>
       </c>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27">
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22">
         <v>2004</v>
       </c>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27">
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22">
         <v>2005</v>
       </c>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27">
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22">
         <v>2006</v>
       </c>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27">
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22">
         <v>2007</v>
       </c>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="27"/>
-      <c r="AH9" s="27">
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22">
         <v>2008</v>
       </c>
-      <c r="AI9" s="27"/>
-      <c r="AJ9" s="27"/>
-      <c r="AK9" s="27"/>
-      <c r="AL9" s="27">
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22">
         <v>2009</v>
       </c>
-      <c r="AM9" s="27"/>
-      <c r="AN9" s="27"/>
-      <c r="AO9" s="27"/>
-      <c r="AP9" s="27">
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="22"/>
+      <c r="AP9" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="27"/>
-      <c r="AR9" s="27"/>
-      <c r="AS9" s="27"/>
-      <c r="AT9" s="27">
+      <c r="AQ9" s="22"/>
+      <c r="AR9" s="22"/>
+      <c r="AS9" s="22"/>
+      <c r="AT9" s="22">
         <v>2011</v>
       </c>
-      <c r="AU9" s="27"/>
-      <c r="AV9" s="27"/>
-      <c r="AW9" s="27"/>
-      <c r="AX9" s="27">
+      <c r="AU9" s="22"/>
+      <c r="AV9" s="22"/>
+      <c r="AW9" s="22"/>
+      <c r="AX9" s="22">
         <v>2012</v>
       </c>
-      <c r="AY9" s="27"/>
-      <c r="AZ9" s="27"/>
-      <c r="BA9" s="27"/>
-      <c r="BB9" s="27">
+      <c r="AY9" s="22"/>
+      <c r="AZ9" s="22"/>
+      <c r="BA9" s="22"/>
+      <c r="BB9" s="22">
         <v>2013</v>
       </c>
-      <c r="BC9" s="27"/>
-      <c r="BD9" s="27"/>
-      <c r="BE9" s="27"/>
-      <c r="BF9" s="27">
+      <c r="BC9" s="22"/>
+      <c r="BD9" s="22"/>
+      <c r="BE9" s="22"/>
+      <c r="BF9" s="22">
         <v>2014</v>
       </c>
-      <c r="BG9" s="27"/>
-      <c r="BH9" s="27"/>
-      <c r="BI9" s="27"/>
-      <c r="BJ9" s="27">
+      <c r="BG9" s="22"/>
+      <c r="BH9" s="22"/>
+      <c r="BI9" s="22"/>
+      <c r="BJ9" s="22">
         <v>2015</v>
       </c>
-      <c r="BK9" s="27"/>
-      <c r="BL9" s="27"/>
-      <c r="BM9" s="27"/>
-      <c r="BN9" s="27">
+      <c r="BK9" s="22"/>
+      <c r="BL9" s="22"/>
+      <c r="BM9" s="22"/>
+      <c r="BN9" s="22">
         <v>2016</v>
       </c>
-      <c r="BO9" s="27"/>
-      <c r="BP9" s="27"/>
-      <c r="BQ9" s="27"/>
-      <c r="BR9" s="27">
+      <c r="BO9" s="22"/>
+      <c r="BP9" s="22"/>
+      <c r="BQ9" s="22"/>
+      <c r="BR9" s="22">
         <v>2017</v>
       </c>
-      <c r="BS9" s="27"/>
-      <c r="BT9" s="27"/>
-      <c r="BU9" s="27"/>
-      <c r="BV9" s="27">
+      <c r="BS9" s="22"/>
+      <c r="BT9" s="22"/>
+      <c r="BU9" s="22"/>
+      <c r="BV9" s="22">
         <v>2018</v>
       </c>
-      <c r="BW9" s="27"/>
-      <c r="BX9" s="27"/>
-      <c r="BY9" s="27"/>
-      <c r="BZ9" s="27">
+      <c r="BW9" s="22"/>
+      <c r="BX9" s="22"/>
+      <c r="BY9" s="22"/>
+      <c r="BZ9" s="22">
         <v>2019</v>
       </c>
-      <c r="CA9" s="27"/>
-      <c r="CB9" s="27"/>
-      <c r="CC9" s="27"/>
-      <c r="CD9" s="27">
+      <c r="CA9" s="22"/>
+      <c r="CB9" s="22"/>
+      <c r="CC9" s="22"/>
+      <c r="CD9" s="22">
         <v>2020</v>
       </c>
-      <c r="CE9" s="27"/>
-      <c r="CF9" s="27"/>
-      <c r="CG9" s="27"/>
-      <c r="CH9" s="27">
+      <c r="CE9" s="22"/>
+      <c r="CF9" s="22"/>
+      <c r="CG9" s="22"/>
+      <c r="CH9" s="22">
         <v>2021</v>
       </c>
-      <c r="CI9" s="27"/>
-      <c r="CJ9" s="27"/>
-      <c r="CK9" s="27"/>
-      <c r="CL9" s="27">
+      <c r="CI9" s="22"/>
+      <c r="CJ9" s="22"/>
+      <c r="CK9" s="22"/>
+      <c r="CL9" s="22">
         <v>2022</v>
       </c>
-      <c r="CM9" s="27"/>
-      <c r="CN9" s="27"/>
-      <c r="CO9" s="27"/>
+      <c r="CM9" s="22"/>
+      <c r="CN9" s="22"/>
+      <c r="CO9" s="22"/>
     </row>
     <row r="10" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24543,29 +24534,29 @@
       <c r="CG12" s="9">
         <v>12909.246363876082</v>
       </c>
-      <c r="CH12" s="22">
+      <c r="CH12" s="9">
         <v>12113.544674658446</v>
       </c>
-      <c r="CI12" s="22">
+      <c r="CI12" s="9">
         <v>14605.254957948833</v>
       </c>
-      <c r="CJ12" s="22">
+      <c r="CJ12" s="9">
         <v>11165.172496488034</v>
       </c>
-      <c r="CK12" s="22">
-        <v>13588.692210501686</v>
-      </c>
-      <c r="CL12" s="22">
-        <v>13674.517426510189</v>
-      </c>
-      <c r="CM12" s="22">
-        <v>17616.184286755364</v>
-      </c>
-      <c r="CN12" s="22">
-        <v>11465.335908413625</v>
-      </c>
-      <c r="CO12" s="22">
-        <v>16244.533401612665</v>
+      <c r="CK12" s="9">
+        <v>13481.466265734161</v>
+      </c>
+      <c r="CL12" s="9">
+        <v>13618.938029108591</v>
+      </c>
+      <c r="CM12" s="9">
+        <v>17152.109253352814</v>
+      </c>
+      <c r="CN12" s="9">
+        <v>11467.388885437951</v>
+      </c>
+      <c r="CO12" s="9">
+        <v>15287.660204593572</v>
       </c>
       <c r="CP12" s="10"/>
       <c r="CQ12" s="10"/>
@@ -24886,29 +24877,29 @@
       <c r="CG13" s="13">
         <v>156006.63750067563</v>
       </c>
-      <c r="CH13" s="23">
+      <c r="CH13" s="13">
         <v>132765.03266022948</v>
       </c>
-      <c r="CI13" s="23">
+      <c r="CI13" s="13">
         <v>156621.19254735979</v>
       </c>
-      <c r="CJ13" s="23">
+      <c r="CJ13" s="13">
         <v>129862.37479275418</v>
       </c>
-      <c r="CK13" s="23">
-        <v>169470.95456995119</v>
-      </c>
-      <c r="CL13" s="23">
-        <v>143166.42879095653</v>
-      </c>
-      <c r="CM13" s="23">
-        <v>172785.95798876803</v>
-      </c>
-      <c r="CN13" s="23">
-        <v>141316.70261739779</v>
-      </c>
-      <c r="CO13" s="23">
-        <v>178996.11475890447</v>
+      <c r="CK13" s="13">
+        <v>169419.52233407189</v>
+      </c>
+      <c r="CL13" s="13">
+        <v>143078.8377046432</v>
+      </c>
+      <c r="CM13" s="13">
+        <v>173268.33232693363</v>
+      </c>
+      <c r="CN13" s="13">
+        <v>141323.89577210028</v>
+      </c>
+      <c r="CO13" s="13">
+        <v>180478.08991273583</v>
       </c>
       <c r="CP13" s="10"/>
       <c r="CQ13" s="10"/>
@@ -25058,14 +25049,14 @@
       <c r="CE14" s="14"/>
       <c r="CF14" s="14"/>
       <c r="CG14" s="14"/>
-      <c r="CH14" s="24"/>
-      <c r="CI14" s="24"/>
-      <c r="CJ14" s="24"/>
-      <c r="CK14" s="24"/>
-      <c r="CL14" s="24"/>
-      <c r="CM14" s="24"/>
-      <c r="CN14" s="24"/>
-      <c r="CO14" s="24"/>
+      <c r="CH14" s="14"/>
+      <c r="CI14" s="14"/>
+      <c r="CJ14" s="14"/>
+      <c r="CK14" s="14"/>
+      <c r="CL14" s="14"/>
+      <c r="CM14" s="14"/>
+      <c r="CN14" s="14"/>
+      <c r="CO14" s="14"/>
       <c r="CP14" s="10"/>
       <c r="CQ14" s="10"/>
       <c r="CR14" s="10"/>
@@ -25385,29 +25376,29 @@
       <c r="CG15" s="15">
         <v>168915.88386455172</v>
       </c>
-      <c r="CH15" s="25">
+      <c r="CH15" s="15">
         <v>144878.57733488793</v>
       </c>
-      <c r="CI15" s="25">
+      <c r="CI15" s="15">
         <v>171226.44750530864</v>
       </c>
-      <c r="CJ15" s="25">
+      <c r="CJ15" s="15">
         <v>141027.54728924221</v>
       </c>
-      <c r="CK15" s="25">
-        <v>183059.64678045287</v>
-      </c>
-      <c r="CL15" s="25">
-        <v>156840.94621746673</v>
-      </c>
-      <c r="CM15" s="25">
-        <v>190402.14227552339</v>
-      </c>
-      <c r="CN15" s="25">
-        <v>152782.03852581143</v>
-      </c>
-      <c r="CO15" s="25">
-        <v>195240.64816051713</v>
+      <c r="CK15" s="15">
+        <v>182900.98859980606</v>
+      </c>
+      <c r="CL15" s="15">
+        <v>156697.7757337518</v>
+      </c>
+      <c r="CM15" s="15">
+        <v>190420.44158028642</v>
+      </c>
+      <c r="CN15" s="15">
+        <v>152791.28465753823</v>
+      </c>
+      <c r="CO15" s="15">
+        <v>195765.75011732941</v>
       </c>
       <c r="CP15" s="10"/>
       <c r="CQ15" s="10"/>
@@ -25896,7 +25887,7 @@
     </row>
     <row r="22" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -25907,7 +25898,7 @@
     </row>
     <row r="25" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -26103,144 +26094,144 @@
     </row>
     <row r="28" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="27">
+      <c r="B28" s="22">
         <v>2000</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="27">
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="22">
         <v>2001</v>
       </c>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="27">
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="22">
         <v>2002</v>
       </c>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="27">
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="22">
         <v>2003</v>
       </c>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="27">
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="22">
         <v>2004</v>
       </c>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="27">
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="22">
         <v>2005</v>
       </c>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="27">
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="22">
         <v>2006</v>
       </c>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="27">
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="22">
         <v>2007</v>
       </c>
-      <c r="AE28" s="28"/>
-      <c r="AF28" s="28"/>
-      <c r="AG28" s="28"/>
-      <c r="AH28" s="27">
+      <c r="AE28" s="23"/>
+      <c r="AF28" s="23"/>
+      <c r="AG28" s="23"/>
+      <c r="AH28" s="22">
         <v>2008</v>
       </c>
-      <c r="AI28" s="28"/>
-      <c r="AJ28" s="28"/>
-      <c r="AK28" s="28"/>
-      <c r="AL28" s="27">
+      <c r="AI28" s="23"/>
+      <c r="AJ28" s="23"/>
+      <c r="AK28" s="23"/>
+      <c r="AL28" s="22">
         <v>2009</v>
       </c>
-      <c r="AM28" s="28"/>
-      <c r="AN28" s="28"/>
-      <c r="AO28" s="28"/>
-      <c r="AP28" s="27">
+      <c r="AM28" s="23"/>
+      <c r="AN28" s="23"/>
+      <c r="AO28" s="23"/>
+      <c r="AP28" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="28"/>
-      <c r="AR28" s="28"/>
-      <c r="AS28" s="28"/>
-      <c r="AT28" s="27">
+      <c r="AQ28" s="23"/>
+      <c r="AR28" s="23"/>
+      <c r="AS28" s="23"/>
+      <c r="AT28" s="22">
         <v>2011</v>
       </c>
-      <c r="AU28" s="28"/>
-      <c r="AV28" s="28"/>
-      <c r="AW28" s="28"/>
-      <c r="AX28" s="27">
+      <c r="AU28" s="23"/>
+      <c r="AV28" s="23"/>
+      <c r="AW28" s="23"/>
+      <c r="AX28" s="22">
         <v>2012</v>
       </c>
-      <c r="AY28" s="28"/>
-      <c r="AZ28" s="28"/>
-      <c r="BA28" s="28"/>
-      <c r="BB28" s="27">
+      <c r="AY28" s="23"/>
+      <c r="AZ28" s="23"/>
+      <c r="BA28" s="23"/>
+      <c r="BB28" s="22">
         <v>2013</v>
       </c>
-      <c r="BC28" s="28"/>
-      <c r="BD28" s="28"/>
-      <c r="BE28" s="28"/>
-      <c r="BF28" s="27">
+      <c r="BC28" s="23"/>
+      <c r="BD28" s="23"/>
+      <c r="BE28" s="23"/>
+      <c r="BF28" s="22">
         <v>2014</v>
       </c>
-      <c r="BG28" s="28"/>
-      <c r="BH28" s="28"/>
-      <c r="BI28" s="28"/>
-      <c r="BJ28" s="27">
+      <c r="BG28" s="23"/>
+      <c r="BH28" s="23"/>
+      <c r="BI28" s="23"/>
+      <c r="BJ28" s="22">
         <v>2015</v>
       </c>
-      <c r="BK28" s="28"/>
-      <c r="BL28" s="28"/>
-      <c r="BM28" s="28"/>
-      <c r="BN28" s="27">
+      <c r="BK28" s="23"/>
+      <c r="BL28" s="23"/>
+      <c r="BM28" s="23"/>
+      <c r="BN28" s="22">
         <v>2016</v>
       </c>
-      <c r="BO28" s="28"/>
-      <c r="BP28" s="28"/>
-      <c r="BQ28" s="28"/>
-      <c r="BR28" s="27">
+      <c r="BO28" s="23"/>
+      <c r="BP28" s="23"/>
+      <c r="BQ28" s="23"/>
+      <c r="BR28" s="22">
         <v>2017</v>
       </c>
-      <c r="BS28" s="28"/>
-      <c r="BT28" s="28"/>
-      <c r="BU28" s="28"/>
-      <c r="BV28" s="27">
+      <c r="BS28" s="23"/>
+      <c r="BT28" s="23"/>
+      <c r="BU28" s="23"/>
+      <c r="BV28" s="22">
         <v>2018</v>
       </c>
-      <c r="BW28" s="28"/>
-      <c r="BX28" s="28"/>
-      <c r="BY28" s="28"/>
-      <c r="BZ28" s="27">
+      <c r="BW28" s="23"/>
+      <c r="BX28" s="23"/>
+      <c r="BY28" s="23"/>
+      <c r="BZ28" s="22">
         <v>2019</v>
       </c>
-      <c r="CA28" s="28"/>
-      <c r="CB28" s="28"/>
-      <c r="CC28" s="28"/>
-      <c r="CD28" s="27">
+      <c r="CA28" s="23"/>
+      <c r="CB28" s="23"/>
+      <c r="CC28" s="23"/>
+      <c r="CD28" s="22">
         <v>2020</v>
       </c>
-      <c r="CE28" s="28"/>
-      <c r="CF28" s="28"/>
-      <c r="CG28" s="28"/>
-      <c r="CH28" s="27">
+      <c r="CE28" s="23"/>
+      <c r="CF28" s="23"/>
+      <c r="CG28" s="23"/>
+      <c r="CH28" s="22">
         <v>2021</v>
       </c>
-      <c r="CI28" s="27"/>
-      <c r="CJ28" s="27"/>
-      <c r="CK28" s="27"/>
-      <c r="CL28" s="27">
+      <c r="CI28" s="23"/>
+      <c r="CJ28" s="23"/>
+      <c r="CK28" s="23"/>
+      <c r="CL28" s="22">
         <v>2022</v>
       </c>
-      <c r="CM28" s="27"/>
-      <c r="CN28" s="27"/>
-      <c r="CO28" s="27"/>
+      <c r="CM28" s="23"/>
+      <c r="CN28" s="23"/>
+      <c r="CO28" s="23"/>
     </row>
     <row r="29" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
@@ -26782,29 +26773,29 @@
       <c r="CG31" s="9">
         <v>12359.835018081292</v>
       </c>
-      <c r="CH31" s="22">
+      <c r="CH31" s="9">
         <v>11752.137308528625</v>
       </c>
-      <c r="CI31" s="22">
+      <c r="CI31" s="9">
         <v>15161.936536093632</v>
       </c>
-      <c r="CJ31" s="22">
+      <c r="CJ31" s="9">
         <v>10497.799914721076</v>
       </c>
-      <c r="CK31" s="22">
-        <v>12731.158125827416</v>
-      </c>
-      <c r="CL31" s="22">
-        <v>12997.523527465259</v>
-      </c>
-      <c r="CM31" s="22">
-        <v>18266.836935567284</v>
-      </c>
-      <c r="CN31" s="22">
-        <v>10541.457367048872</v>
-      </c>
-      <c r="CO31" s="22">
-        <v>14602.45313671371</v>
+      <c r="CK31" s="9">
+        <v>12630.69882945955</v>
+      </c>
+      <c r="CL31" s="9">
+        <v>12944.695738166523</v>
+      </c>
+      <c r="CM31" s="9">
+        <v>17785.341151424225</v>
+      </c>
+      <c r="CN31" s="9">
+        <v>10543.344914866946</v>
+      </c>
+      <c r="CO31" s="9">
+        <v>13846.543308001339</v>
       </c>
       <c r="CP31" s="10"/>
       <c r="CQ31" s="10"/>
@@ -27125,29 +27116,29 @@
       <c r="CG32" s="13">
         <v>154978.16252944485</v>
       </c>
-      <c r="CH32" s="23">
+      <c r="CH32" s="13">
         <v>135096.28078563506</v>
       </c>
-      <c r="CI32" s="23">
+      <c r="CI32" s="13">
         <v>160162.09878251256</v>
       </c>
-      <c r="CJ32" s="23">
+      <c r="CJ32" s="13">
         <v>124617.58590255863</v>
       </c>
-      <c r="CK32" s="23">
-        <v>169104.13256901762</v>
-      </c>
-      <c r="CL32" s="23">
-        <v>144727.53547114064</v>
-      </c>
-      <c r="CM32" s="23">
-        <v>175595.20954984988</v>
-      </c>
-      <c r="CN32" s="23">
-        <v>134989.27503325301</v>
-      </c>
-      <c r="CO32" s="23">
-        <v>177503.63966497514</v>
+      <c r="CK32" s="13">
+        <v>169052.81165885623</v>
+      </c>
+      <c r="CL32" s="13">
+        <v>144638.98927942221</v>
+      </c>
+      <c r="CM32" s="13">
+        <v>176085.42660207796</v>
+      </c>
+      <c r="CN32" s="13">
+        <v>134996.14611586751</v>
+      </c>
+      <c r="CO32" s="13">
+        <v>179027.3493791802</v>
       </c>
       <c r="CP32" s="10"/>
       <c r="CQ32" s="10"/>
@@ -27624,29 +27615,29 @@
       <c r="CG34" s="15">
         <v>167337.99754752615</v>
       </c>
-      <c r="CH34" s="25">
+      <c r="CH34" s="15">
         <v>146848.41809416367</v>
       </c>
-      <c r="CI34" s="25">
+      <c r="CI34" s="15">
         <v>175324.03531860618</v>
       </c>
-      <c r="CJ34" s="25">
+      <c r="CJ34" s="15">
         <v>135115.38581727969</v>
       </c>
-      <c r="CK34" s="25">
-        <v>181835.29069484503</v>
-      </c>
-      <c r="CL34" s="25">
-        <v>157725.05899860591</v>
-      </c>
-      <c r="CM34" s="25">
-        <v>193862.04648541717</v>
-      </c>
-      <c r="CN34" s="25">
-        <v>145530.73240030187</v>
-      </c>
-      <c r="CO34" s="25">
-        <v>192106.09280168885</v>
+      <c r="CK34" s="15">
+        <v>181683.51048831578</v>
+      </c>
+      <c r="CL34" s="15">
+        <v>157583.68501758872</v>
+      </c>
+      <c r="CM34" s="15">
+        <v>193870.76775350218</v>
+      </c>
+      <c r="CN34" s="15">
+        <v>145539.49103073444</v>
+      </c>
+      <c r="CO34" s="15">
+        <v>192873.89268718153</v>
       </c>
       <c r="CP34" s="10"/>
       <c r="CQ34" s="10"/>
@@ -28135,7 +28126,7 @@
     </row>
     <row r="41" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -28146,7 +28137,7 @@
     </row>
     <row r="44" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -28157,142 +28148,142 @@
     <row r="46" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27" t="s">
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27" t="s">
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27" t="s">
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="27"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="27" t="s">
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="27"/>
-      <c r="T47" s="27"/>
-      <c r="U47" s="27"/>
-      <c r="V47" s="27" t="s">
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="27"/>
-      <c r="X47" s="27"/>
-      <c r="Y47" s="27"/>
-      <c r="Z47" s="27" t="s">
+      <c r="W47" s="22"/>
+      <c r="X47" s="22"/>
+      <c r="Y47" s="22"/>
+      <c r="Z47" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="27"/>
-      <c r="AB47" s="27"/>
-      <c r="AC47" s="27"/>
-      <c r="AD47" s="27" t="s">
+      <c r="AA47" s="22"/>
+      <c r="AB47" s="22"/>
+      <c r="AC47" s="22"/>
+      <c r="AD47" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="27"/>
-      <c r="AF47" s="27"/>
-      <c r="AG47" s="27"/>
-      <c r="AH47" s="27" t="s">
+      <c r="AE47" s="22"/>
+      <c r="AF47" s="22"/>
+      <c r="AG47" s="22"/>
+      <c r="AH47" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="27"/>
-      <c r="AJ47" s="27"/>
-      <c r="AK47" s="27"/>
-      <c r="AL47" s="27" t="s">
+      <c r="AI47" s="22"/>
+      <c r="AJ47" s="22"/>
+      <c r="AK47" s="22"/>
+      <c r="AL47" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="27"/>
-      <c r="AN47" s="27"/>
-      <c r="AO47" s="27"/>
-      <c r="AP47" s="27" t="s">
+      <c r="AM47" s="22"/>
+      <c r="AN47" s="22"/>
+      <c r="AO47" s="22"/>
+      <c r="AP47" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="27"/>
-      <c r="AR47" s="27"/>
-      <c r="AS47" s="27"/>
-      <c r="AT47" s="27" t="s">
+      <c r="AQ47" s="22"/>
+      <c r="AR47" s="22"/>
+      <c r="AS47" s="22"/>
+      <c r="AT47" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="27"/>
-      <c r="AV47" s="27"/>
-      <c r="AW47" s="27"/>
-      <c r="AX47" s="27" t="s">
+      <c r="AU47" s="22"/>
+      <c r="AV47" s="22"/>
+      <c r="AW47" s="22"/>
+      <c r="AX47" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="27"/>
-      <c r="AZ47" s="27"/>
-      <c r="BA47" s="27"/>
-      <c r="BB47" s="27" t="s">
+      <c r="AY47" s="22"/>
+      <c r="AZ47" s="22"/>
+      <c r="BA47" s="22"/>
+      <c r="BB47" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="27"/>
-      <c r="BD47" s="27"/>
-      <c r="BE47" s="27"/>
-      <c r="BF47" s="27" t="s">
+      <c r="BC47" s="22"/>
+      <c r="BD47" s="22"/>
+      <c r="BE47" s="22"/>
+      <c r="BF47" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="27"/>
-      <c r="BH47" s="27"/>
-      <c r="BI47" s="27"/>
-      <c r="BJ47" s="27" t="s">
+      <c r="BG47" s="22"/>
+      <c r="BH47" s="22"/>
+      <c r="BI47" s="22"/>
+      <c r="BJ47" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="27"/>
-      <c r="BL47" s="27"/>
-      <c r="BM47" s="27"/>
-      <c r="BN47" s="27" t="s">
+      <c r="BK47" s="22"/>
+      <c r="BL47" s="22"/>
+      <c r="BM47" s="22"/>
+      <c r="BN47" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="27"/>
-      <c r="BP47" s="27"/>
-      <c r="BQ47" s="27"/>
-      <c r="BR47" s="27" t="s">
+      <c r="BO47" s="22"/>
+      <c r="BP47" s="22"/>
+      <c r="BQ47" s="22"/>
+      <c r="BR47" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="BS47" s="27"/>
-      <c r="BT47" s="27"/>
-      <c r="BU47" s="27"/>
-      <c r="BV47" s="27" t="s">
+      <c r="BS47" s="22"/>
+      <c r="BT47" s="22"/>
+      <c r="BU47" s="22"/>
+      <c r="BV47" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="BW47" s="27"/>
-      <c r="BX47" s="27"/>
-      <c r="BY47" s="27"/>
-      <c r="BZ47" s="27" t="s">
+      <c r="BW47" s="22"/>
+      <c r="BX47" s="22"/>
+      <c r="BY47" s="22"/>
+      <c r="BZ47" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="CA47" s="27"/>
-      <c r="CB47" s="27"/>
-      <c r="CC47" s="27"/>
-      <c r="CD47" s="27" t="s">
+      <c r="CA47" s="22"/>
+      <c r="CB47" s="22"/>
+      <c r="CC47" s="22"/>
+      <c r="CD47" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="27"/>
-      <c r="CF47" s="27"/>
-      <c r="CG47" s="27"/>
-      <c r="CH47" s="27" t="s">
+      <c r="CE47" s="22"/>
+      <c r="CF47" s="22"/>
+      <c r="CG47" s="22"/>
+      <c r="CH47" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="CI47" s="27"/>
-      <c r="CJ47" s="27"/>
-      <c r="CK47" s="27"/>
-      <c r="CL47" s="27"/>
-      <c r="CM47" s="27"/>
-      <c r="CN47" s="26"/>
-      <c r="CO47" s="26"/>
+      <c r="CI47" s="22"/>
+      <c r="CJ47" s="22"/>
+      <c r="CK47" s="22"/>
+      <c r="CL47" s="22"/>
+      <c r="CM47" s="22"/>
+      <c r="CN47" s="22"/>
+      <c r="CO47" s="22"/>
     </row>
     <row r="48" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -28824,19 +28815,19 @@
         <v>8.9844301573724863</v>
       </c>
       <c r="CG50" s="18">
-        <v>5.263249514912772</v>
+        <v>4.4326360015819404</v>
       </c>
       <c r="CH50" s="18">
-        <v>12.886176538542855</v>
+        <v>12.427356276643195</v>
       </c>
       <c r="CI50" s="18">
-        <v>20.61538355527199</v>
+        <v>17.437931092177664</v>
       </c>
       <c r="CJ50" s="18">
-        <v>2.6883902780723332</v>
+        <v>2.7067776072871084</v>
       </c>
       <c r="CK50" s="18">
-        <v>19.544494422049524</v>
+        <v>13.397607524711262</v>
       </c>
       <c r="CL50" s="18"/>
       <c r="CM50" s="18"/>
@@ -29155,19 +29146,19 @@
         <v>7.2407151196391482</v>
       </c>
       <c r="CG51" s="18">
-        <v>8.6306052646107929</v>
+        <v>8.5976372853611309</v>
       </c>
       <c r="CH51" s="18">
-        <v>7.8344394772576607</v>
+        <v>7.7684649623132884</v>
       </c>
       <c r="CI51" s="18">
-        <v>10.320931145074923</v>
+        <v>10.628919055472011</v>
       </c>
       <c r="CJ51" s="18">
-        <v>8.8203591247452806</v>
+        <v>8.8258981846261548</v>
       </c>
       <c r="CK51" s="18">
-        <v>5.6205266637721252</v>
+        <v>6.5273277992473453</v>
       </c>
       <c r="CL51" s="18"/>
       <c r="CM51" s="18"/>
@@ -29639,19 +29630,19 @@
         <v>7.3767288364795291</v>
       </c>
       <c r="CG53" s="18">
-        <v>8.3732580929112572</v>
+        <v>8.2793307623269925</v>
       </c>
       <c r="CH53" s="18">
-        <v>8.2568238193888988</v>
+        <v>8.1580028022664237</v>
       </c>
       <c r="CI53" s="18">
-        <v>11.1990262308165</v>
+        <v>11.209713426065633</v>
       </c>
       <c r="CJ53" s="18">
-        <v>8.334890212946263</v>
+        <v>8.3414464722761039</v>
       </c>
       <c r="CK53" s="18">
-        <v>6.6541160732562759</v>
+        <v>7.0337298972571034</v>
       </c>
       <c r="CL53" s="18"/>
       <c r="CM53" s="18"/>
@@ -30132,7 +30123,7 @@
     </row>
     <row r="60" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -30143,7 +30134,7 @@
     </row>
     <row r="63" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -30154,142 +30145,142 @@
     <row r="65" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="66" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
-      <c r="B66" s="27" t="s">
+      <c r="B66" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="27" t="s">
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="27" t="s">
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="29"/>
-      <c r="L66" s="29"/>
-      <c r="M66" s="29"/>
-      <c r="N66" s="27" t="s">
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="29"/>
-      <c r="P66" s="29"/>
-      <c r="Q66" s="29"/>
-      <c r="R66" s="27" t="s">
+      <c r="O66" s="24"/>
+      <c r="P66" s="24"/>
+      <c r="Q66" s="24"/>
+      <c r="R66" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="29"/>
-      <c r="T66" s="29"/>
-      <c r="U66" s="29"/>
-      <c r="V66" s="27" t="s">
+      <c r="S66" s="24"/>
+      <c r="T66" s="24"/>
+      <c r="U66" s="24"/>
+      <c r="V66" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="29"/>
-      <c r="X66" s="29"/>
-      <c r="Y66" s="29"/>
-      <c r="Z66" s="27" t="s">
+      <c r="W66" s="24"/>
+      <c r="X66" s="24"/>
+      <c r="Y66" s="24"/>
+      <c r="Z66" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="29"/>
-      <c r="AB66" s="29"/>
-      <c r="AC66" s="29"/>
-      <c r="AD66" s="27" t="s">
+      <c r="AA66" s="24"/>
+      <c r="AB66" s="24"/>
+      <c r="AC66" s="24"/>
+      <c r="AD66" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="29"/>
-      <c r="AF66" s="29"/>
-      <c r="AG66" s="29"/>
-      <c r="AH66" s="27" t="s">
+      <c r="AE66" s="24"/>
+      <c r="AF66" s="24"/>
+      <c r="AG66" s="24"/>
+      <c r="AH66" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="29"/>
-      <c r="AJ66" s="29"/>
-      <c r="AK66" s="29"/>
-      <c r="AL66" s="27" t="s">
+      <c r="AI66" s="24"/>
+      <c r="AJ66" s="24"/>
+      <c r="AK66" s="24"/>
+      <c r="AL66" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="29"/>
-      <c r="AN66" s="29"/>
-      <c r="AO66" s="29"/>
-      <c r="AP66" s="27" t="s">
+      <c r="AM66" s="24"/>
+      <c r="AN66" s="24"/>
+      <c r="AO66" s="24"/>
+      <c r="AP66" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="29"/>
-      <c r="AR66" s="29"/>
-      <c r="AS66" s="29"/>
-      <c r="AT66" s="27" t="s">
+      <c r="AQ66" s="24"/>
+      <c r="AR66" s="24"/>
+      <c r="AS66" s="24"/>
+      <c r="AT66" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="29"/>
-      <c r="AV66" s="29"/>
-      <c r="AW66" s="29"/>
-      <c r="AX66" s="27" t="s">
+      <c r="AU66" s="24"/>
+      <c r="AV66" s="24"/>
+      <c r="AW66" s="24"/>
+      <c r="AX66" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="29"/>
-      <c r="AZ66" s="29"/>
-      <c r="BA66" s="29"/>
-      <c r="BB66" s="27" t="s">
+      <c r="AY66" s="24"/>
+      <c r="AZ66" s="24"/>
+      <c r="BA66" s="24"/>
+      <c r="BB66" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="29"/>
-      <c r="BD66" s="29"/>
-      <c r="BE66" s="29"/>
-      <c r="BF66" s="27" t="s">
+      <c r="BC66" s="24"/>
+      <c r="BD66" s="24"/>
+      <c r="BE66" s="24"/>
+      <c r="BF66" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="29"/>
-      <c r="BH66" s="29"/>
-      <c r="BI66" s="29"/>
-      <c r="BJ66" s="27" t="s">
+      <c r="BG66" s="24"/>
+      <c r="BH66" s="24"/>
+      <c r="BI66" s="24"/>
+      <c r="BJ66" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="29"/>
-      <c r="BL66" s="29"/>
-      <c r="BM66" s="29"/>
-      <c r="BN66" s="27" t="s">
+      <c r="BK66" s="24"/>
+      <c r="BL66" s="24"/>
+      <c r="BM66" s="24"/>
+      <c r="BN66" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="29"/>
-      <c r="BP66" s="29"/>
-      <c r="BQ66" s="29"/>
-      <c r="BR66" s="27" t="s">
+      <c r="BO66" s="24"/>
+      <c r="BP66" s="24"/>
+      <c r="BQ66" s="24"/>
+      <c r="BR66" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="BS66" s="29"/>
-      <c r="BT66" s="29"/>
-      <c r="BU66" s="29"/>
-      <c r="BV66" s="27" t="s">
+      <c r="BS66" s="24"/>
+      <c r="BT66" s="24"/>
+      <c r="BU66" s="24"/>
+      <c r="BV66" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="BW66" s="29"/>
-      <c r="BX66" s="29"/>
-      <c r="BY66" s="29"/>
-      <c r="BZ66" s="27" t="s">
+      <c r="BW66" s="24"/>
+      <c r="BX66" s="24"/>
+      <c r="BY66" s="24"/>
+      <c r="BZ66" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="CA66" s="29"/>
-      <c r="CB66" s="29"/>
-      <c r="CC66" s="29"/>
-      <c r="CD66" s="27" t="s">
+      <c r="CA66" s="24"/>
+      <c r="CB66" s="24"/>
+      <c r="CC66" s="24"/>
+      <c r="CD66" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="29"/>
-      <c r="CF66" s="29"/>
-      <c r="CG66" s="29"/>
-      <c r="CH66" s="27" t="s">
+      <c r="CE66" s="24"/>
+      <c r="CF66" s="24"/>
+      <c r="CG66" s="24"/>
+      <c r="CH66" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="CI66" s="27"/>
-      <c r="CJ66" s="27"/>
-      <c r="CK66" s="27"/>
-      <c r="CL66" s="27"/>
-      <c r="CM66" s="27"/>
-      <c r="CN66" s="26"/>
-      <c r="CO66" s="26"/>
+      <c r="CI66" s="24"/>
+      <c r="CJ66" s="24"/>
+      <c r="CK66" s="24"/>
+      <c r="CL66" s="22"/>
+      <c r="CM66" s="24"/>
+      <c r="CN66" s="24"/>
+      <c r="CO66" s="24"/>
     </row>
     <row r="67" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
@@ -30821,19 +30812,19 @@
         <v>6.7231825273737371</v>
       </c>
       <c r="CG69" s="18">
-        <v>3.0042723645009204</v>
+        <v>2.1914840366558934</v>
       </c>
       <c r="CH69" s="18">
-        <v>10.597104052152687</v>
+        <v>10.147587611765303</v>
       </c>
       <c r="CI69" s="18">
-        <v>20.478257457959302</v>
+        <v>17.302569556899726</v>
       </c>
       <c r="CJ69" s="18">
-        <v>0.4158723988116293</v>
+        <v>0.43385281216879434</v>
       </c>
       <c r="CK69" s="18">
-        <v>14.698545037234581</v>
+        <v>9.6261061637063392</v>
       </c>
       <c r="CL69" s="18"/>
       <c r="CM69" s="18"/>
@@ -31152,19 +31143,19 @@
         <v>8.7393987092676468</v>
       </c>
       <c r="CG70" s="18">
-        <v>9.1148132156289705</v>
+        <v>9.0816982855486401</v>
       </c>
       <c r="CH70" s="18">
-        <v>7.1291782641951897</v>
+        <v>7.0636352372491302</v>
       </c>
       <c r="CI70" s="18">
-        <v>9.6359318994029053</v>
+        <v>9.9420074665654852</v>
       </c>
       <c r="CJ70" s="18">
-        <v>8.3228133939332167</v>
+        <v>8.3283271282627283</v>
       </c>
       <c r="CK70" s="18">
-        <v>4.9670619921304109</v>
+        <v>5.9002495270248971</v>
       </c>
       <c r="CL70" s="18"/>
       <c r="CM70" s="18"/>
@@ -31635,19 +31626,19 @@
         <v>8.5800231419946584</v>
       </c>
       <c r="CG72" s="18">
-        <v>8.6634795203650299</v>
+        <v>8.5727767458884045</v>
       </c>
       <c r="CH72" s="18">
-        <v>7.4067130212242489</v>
+        <v>7.3104409722284345</v>
       </c>
       <c r="CI72" s="18">
-        <v>10.573570892959964</v>
+        <v>10.578545264026175</v>
       </c>
       <c r="CJ72" s="18">
-        <v>7.7084830273194314</v>
+        <v>7.7149653611999156</v>
       </c>
       <c r="CK72" s="18">
-        <v>5.648409650071855</v>
+        <v>6.1592723350562011</v>
       </c>
       <c r="CL72" s="18"/>
       <c r="CM72" s="18"/>
@@ -32123,7 +32114,7 @@
     </row>
     <row r="78" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -32134,7 +32125,7 @@
     </row>
     <row r="81" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -32145,144 +32136,144 @@
     <row r="83" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="84" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
-      <c r="B84" s="27">
+      <c r="B84" s="22">
         <v>2000</v>
       </c>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="27">
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="22">
         <v>2001</v>
       </c>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="27">
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="22">
         <v>2002</v>
       </c>
-      <c r="K84" s="28"/>
-      <c r="L84" s="28"/>
-      <c r="M84" s="28"/>
-      <c r="N84" s="27">
+      <c r="K84" s="23"/>
+      <c r="L84" s="23"/>
+      <c r="M84" s="23"/>
+      <c r="N84" s="22">
         <v>2003</v>
       </c>
-      <c r="O84" s="28"/>
-      <c r="P84" s="28"/>
-      <c r="Q84" s="28"/>
-      <c r="R84" s="27">
+      <c r="O84" s="23"/>
+      <c r="P84" s="23"/>
+      <c r="Q84" s="23"/>
+      <c r="R84" s="22">
         <v>2004</v>
       </c>
-      <c r="S84" s="28"/>
-      <c r="T84" s="28"/>
-      <c r="U84" s="28"/>
-      <c r="V84" s="27">
+      <c r="S84" s="23"/>
+      <c r="T84" s="23"/>
+      <c r="U84" s="23"/>
+      <c r="V84" s="22">
         <v>2005</v>
       </c>
-      <c r="W84" s="28"/>
-      <c r="X84" s="28"/>
-      <c r="Y84" s="28"/>
-      <c r="Z84" s="27">
+      <c r="W84" s="23"/>
+      <c r="X84" s="23"/>
+      <c r="Y84" s="23"/>
+      <c r="Z84" s="22">
         <v>2006</v>
       </c>
-      <c r="AA84" s="28"/>
-      <c r="AB84" s="28"/>
-      <c r="AC84" s="28"/>
-      <c r="AD84" s="27">
+      <c r="AA84" s="23"/>
+      <c r="AB84" s="23"/>
+      <c r="AC84" s="23"/>
+      <c r="AD84" s="22">
         <v>2007</v>
       </c>
-      <c r="AE84" s="28"/>
-      <c r="AF84" s="28"/>
-      <c r="AG84" s="28"/>
-      <c r="AH84" s="27">
+      <c r="AE84" s="23"/>
+      <c r="AF84" s="23"/>
+      <c r="AG84" s="23"/>
+      <c r="AH84" s="22">
         <v>2008</v>
       </c>
-      <c r="AI84" s="28"/>
-      <c r="AJ84" s="28"/>
-      <c r="AK84" s="28"/>
-      <c r="AL84" s="27">
+      <c r="AI84" s="23"/>
+      <c r="AJ84" s="23"/>
+      <c r="AK84" s="23"/>
+      <c r="AL84" s="22">
         <v>2009</v>
       </c>
-      <c r="AM84" s="28"/>
-      <c r="AN84" s="28"/>
-      <c r="AO84" s="28"/>
-      <c r="AP84" s="27">
+      <c r="AM84" s="23"/>
+      <c r="AN84" s="23"/>
+      <c r="AO84" s="23"/>
+      <c r="AP84" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="28"/>
-      <c r="AR84" s="28"/>
-      <c r="AS84" s="28"/>
-      <c r="AT84" s="27">
+      <c r="AQ84" s="23"/>
+      <c r="AR84" s="23"/>
+      <c r="AS84" s="23"/>
+      <c r="AT84" s="22">
         <v>2011</v>
       </c>
-      <c r="AU84" s="28"/>
-      <c r="AV84" s="28"/>
-      <c r="AW84" s="28"/>
-      <c r="AX84" s="27">
+      <c r="AU84" s="23"/>
+      <c r="AV84" s="23"/>
+      <c r="AW84" s="23"/>
+      <c r="AX84" s="22">
         <v>2012</v>
       </c>
-      <c r="AY84" s="28"/>
-      <c r="AZ84" s="28"/>
-      <c r="BA84" s="28"/>
-      <c r="BB84" s="27">
+      <c r="AY84" s="23"/>
+      <c r="AZ84" s="23"/>
+      <c r="BA84" s="23"/>
+      <c r="BB84" s="22">
         <v>2013</v>
       </c>
-      <c r="BC84" s="28"/>
-      <c r="BD84" s="28"/>
-      <c r="BE84" s="28"/>
-      <c r="BF84" s="27">
+      <c r="BC84" s="23"/>
+      <c r="BD84" s="23"/>
+      <c r="BE84" s="23"/>
+      <c r="BF84" s="22">
         <v>2014</v>
       </c>
-      <c r="BG84" s="28"/>
-      <c r="BH84" s="28"/>
-      <c r="BI84" s="28"/>
-      <c r="BJ84" s="27">
+      <c r="BG84" s="23"/>
+      <c r="BH84" s="23"/>
+      <c r="BI84" s="23"/>
+      <c r="BJ84" s="22">
         <v>2015</v>
       </c>
-      <c r="BK84" s="28"/>
-      <c r="BL84" s="28"/>
-      <c r="BM84" s="28"/>
-      <c r="BN84" s="27">
+      <c r="BK84" s="23"/>
+      <c r="BL84" s="23"/>
+      <c r="BM84" s="23"/>
+      <c r="BN84" s="22">
         <v>2016</v>
       </c>
-      <c r="BO84" s="28"/>
-      <c r="BP84" s="28"/>
-      <c r="BQ84" s="28"/>
-      <c r="BR84" s="27">
+      <c r="BO84" s="23"/>
+      <c r="BP84" s="23"/>
+      <c r="BQ84" s="23"/>
+      <c r="BR84" s="22">
         <v>2017</v>
       </c>
-      <c r="BS84" s="28"/>
-      <c r="BT84" s="28"/>
-      <c r="BU84" s="28"/>
-      <c r="BV84" s="27">
+      <c r="BS84" s="23"/>
+      <c r="BT84" s="23"/>
+      <c r="BU84" s="23"/>
+      <c r="BV84" s="22">
         <v>2018</v>
       </c>
-      <c r="BW84" s="28"/>
-      <c r="BX84" s="28"/>
-      <c r="BY84" s="28"/>
-      <c r="BZ84" s="27">
+      <c r="BW84" s="23"/>
+      <c r="BX84" s="23"/>
+      <c r="BY84" s="23"/>
+      <c r="BZ84" s="22">
         <v>2019</v>
       </c>
-      <c r="CA84" s="28"/>
-      <c r="CB84" s="28"/>
-      <c r="CC84" s="28"/>
-      <c r="CD84" s="27">
+      <c r="CA84" s="23"/>
+      <c r="CB84" s="23"/>
+      <c r="CC84" s="23"/>
+      <c r="CD84" s="22">
         <v>2020</v>
       </c>
-      <c r="CE84" s="28"/>
-      <c r="CF84" s="28"/>
-      <c r="CG84" s="28"/>
-      <c r="CH84" s="27">
+      <c r="CE84" s="23"/>
+      <c r="CF84" s="23"/>
+      <c r="CG84" s="23"/>
+      <c r="CH84" s="22">
         <v>2021</v>
       </c>
-      <c r="CI84" s="27"/>
-      <c r="CJ84" s="27"/>
-      <c r="CK84" s="27"/>
-      <c r="CL84" s="27">
+      <c r="CI84" s="23"/>
+      <c r="CJ84" s="23"/>
+      <c r="CK84" s="23"/>
+      <c r="CL84" s="22">
         <v>2022</v>
       </c>
-      <c r="CM84" s="27"/>
-      <c r="CN84" s="27"/>
-      <c r="CO84" s="27"/>
+      <c r="CM84" s="23"/>
+      <c r="CN84" s="23"/>
+      <c r="CO84" s="23"/>
     </row>
     <row r="85" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
@@ -32834,19 +32825,19 @@
         <v>106.35726139942048</v>
       </c>
       <c r="CK87" s="18">
-        <v>106.73571152128423</v>
+        <v>106.73571152128416</v>
       </c>
       <c r="CL87" s="18">
-        <v>105.20863761172939</v>
+        <v>105.20863761172934</v>
       </c>
       <c r="CM87" s="18">
-        <v>96.43806614627934</v>
+        <v>96.43958531534436</v>
       </c>
       <c r="CN87" s="18">
-        <v>108.76423922419558</v>
+        <v>108.76423922419565</v>
       </c>
       <c r="CO87" s="18">
-        <v>111.24523564311542</v>
+        <v>110.40777372760948</v>
       </c>
       <c r="CP87" s="10"/>
       <c r="CQ87" s="10"/>
@@ -33177,19 +33168,19 @@
         <v>104.20870686284727</v>
       </c>
       <c r="CK88" s="18">
-        <v>100.21692077855275</v>
+        <v>100.21692077855273</v>
       </c>
       <c r="CL88" s="18">
-        <v>98.921347845037133</v>
+        <v>98.921347845037118</v>
       </c>
       <c r="CM88" s="18">
         <v>98.400154783103957</v>
       </c>
       <c r="CN88" s="18">
-        <v>104.687355778884</v>
+        <v>104.68735577888397</v>
       </c>
       <c r="CO88" s="18">
-        <v>100.84081379781635</v>
+        <v>100.81034575922976</v>
       </c>
       <c r="CP88" s="10"/>
       <c r="CQ88" s="10"/>
@@ -33676,19 +33667,19 @@
         <v>104.3756389667996</v>
       </c>
       <c r="CK90" s="18">
-        <v>100.67333248729069</v>
+        <v>100.67010930613243</v>
       </c>
       <c r="CL90" s="18">
-        <v>99.439459533727614</v>
+        <v>99.43781662185522</v>
       </c>
       <c r="CM90" s="18">
-        <v>98.215275102775706</v>
+        <v>98.220295811897401</v>
       </c>
       <c r="CN90" s="18">
-        <v>104.98266311583168</v>
+        <v>104.98269821850097</v>
       </c>
       <c r="CO90" s="18">
-        <v>101.63167930444772</v>
+        <v>101.49935141032182</v>
       </c>
       <c r="CP90" s="10"/>
       <c r="CQ90" s="10"/>
@@ -33865,7 +33856,7 @@
     </row>
     <row r="97" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -33876,7 +33867,7 @@
     </row>
     <row r="100" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -33887,144 +33878,144 @@
     <row r="102" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="103" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
-      <c r="B103" s="27">
+      <c r="B103" s="22">
         <v>2000</v>
       </c>
-      <c r="C103" s="28"/>
-      <c r="D103" s="28"/>
-      <c r="E103" s="28"/>
-      <c r="F103" s="27">
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="22">
         <v>2001</v>
       </c>
-      <c r="G103" s="28"/>
-      <c r="H103" s="28"/>
-      <c r="I103" s="28"/>
-      <c r="J103" s="27">
+      <c r="G103" s="23"/>
+      <c r="H103" s="23"/>
+      <c r="I103" s="23"/>
+      <c r="J103" s="22">
         <v>2002</v>
       </c>
-      <c r="K103" s="28"/>
-      <c r="L103" s="28"/>
-      <c r="M103" s="28"/>
-      <c r="N103" s="27">
+      <c r="K103" s="23"/>
+      <c r="L103" s="23"/>
+      <c r="M103" s="23"/>
+      <c r="N103" s="22">
         <v>2003</v>
       </c>
-      <c r="O103" s="28"/>
-      <c r="P103" s="28"/>
-      <c r="Q103" s="28"/>
-      <c r="R103" s="27">
+      <c r="O103" s="23"/>
+      <c r="P103" s="23"/>
+      <c r="Q103" s="23"/>
+      <c r="R103" s="22">
         <v>2004</v>
       </c>
-      <c r="S103" s="28"/>
-      <c r="T103" s="28"/>
-      <c r="U103" s="28"/>
-      <c r="V103" s="27">
+      <c r="S103" s="23"/>
+      <c r="T103" s="23"/>
+      <c r="U103" s="23"/>
+      <c r="V103" s="22">
         <v>2005</v>
       </c>
-      <c r="W103" s="28"/>
-      <c r="X103" s="28"/>
-      <c r="Y103" s="28"/>
-      <c r="Z103" s="27">
+      <c r="W103" s="23"/>
+      <c r="X103" s="23"/>
+      <c r="Y103" s="23"/>
+      <c r="Z103" s="22">
         <v>2006</v>
       </c>
-      <c r="AA103" s="28"/>
-      <c r="AB103" s="28"/>
-      <c r="AC103" s="28"/>
-      <c r="AD103" s="27">
+      <c r="AA103" s="23"/>
+      <c r="AB103" s="23"/>
+      <c r="AC103" s="23"/>
+      <c r="AD103" s="22">
         <v>2007</v>
       </c>
-      <c r="AE103" s="28"/>
-      <c r="AF103" s="28"/>
-      <c r="AG103" s="28"/>
-      <c r="AH103" s="27">
+      <c r="AE103" s="23"/>
+      <c r="AF103" s="23"/>
+      <c r="AG103" s="23"/>
+      <c r="AH103" s="22">
         <v>2008</v>
       </c>
-      <c r="AI103" s="28"/>
-      <c r="AJ103" s="28"/>
-      <c r="AK103" s="28"/>
-      <c r="AL103" s="27">
+      <c r="AI103" s="23"/>
+      <c r="AJ103" s="23"/>
+      <c r="AK103" s="23"/>
+      <c r="AL103" s="22">
         <v>2009</v>
       </c>
-      <c r="AM103" s="28"/>
-      <c r="AN103" s="28"/>
-      <c r="AO103" s="28"/>
-      <c r="AP103" s="27">
+      <c r="AM103" s="23"/>
+      <c r="AN103" s="23"/>
+      <c r="AO103" s="23"/>
+      <c r="AP103" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="28"/>
-      <c r="AR103" s="28"/>
-      <c r="AS103" s="28"/>
-      <c r="AT103" s="27">
+      <c r="AQ103" s="23"/>
+      <c r="AR103" s="23"/>
+      <c r="AS103" s="23"/>
+      <c r="AT103" s="22">
         <v>2011</v>
       </c>
-      <c r="AU103" s="28"/>
-      <c r="AV103" s="28"/>
-      <c r="AW103" s="28"/>
-      <c r="AX103" s="27">
+      <c r="AU103" s="23"/>
+      <c r="AV103" s="23"/>
+      <c r="AW103" s="23"/>
+      <c r="AX103" s="22">
         <v>2012</v>
       </c>
-      <c r="AY103" s="28"/>
-      <c r="AZ103" s="28"/>
-      <c r="BA103" s="28"/>
-      <c r="BB103" s="27">
+      <c r="AY103" s="23"/>
+      <c r="AZ103" s="23"/>
+      <c r="BA103" s="23"/>
+      <c r="BB103" s="22">
         <v>2013</v>
       </c>
-      <c r="BC103" s="28"/>
-      <c r="BD103" s="28"/>
-      <c r="BE103" s="28"/>
-      <c r="BF103" s="27">
+      <c r="BC103" s="23"/>
+      <c r="BD103" s="23"/>
+      <c r="BE103" s="23"/>
+      <c r="BF103" s="22">
         <v>2014</v>
       </c>
-      <c r="BG103" s="28"/>
-      <c r="BH103" s="28"/>
-      <c r="BI103" s="28"/>
-      <c r="BJ103" s="27">
+      <c r="BG103" s="23"/>
+      <c r="BH103" s="23"/>
+      <c r="BI103" s="23"/>
+      <c r="BJ103" s="22">
         <v>2015</v>
       </c>
-      <c r="BK103" s="28"/>
-      <c r="BL103" s="28"/>
-      <c r="BM103" s="28"/>
-      <c r="BN103" s="27">
+      <c r="BK103" s="23"/>
+      <c r="BL103" s="23"/>
+      <c r="BM103" s="23"/>
+      <c r="BN103" s="22">
         <v>2016</v>
       </c>
-      <c r="BO103" s="28"/>
-      <c r="BP103" s="28"/>
-      <c r="BQ103" s="28"/>
-      <c r="BR103" s="27">
+      <c r="BO103" s="23"/>
+      <c r="BP103" s="23"/>
+      <c r="BQ103" s="23"/>
+      <c r="BR103" s="22">
         <v>2017</v>
       </c>
-      <c r="BS103" s="28"/>
-      <c r="BT103" s="28"/>
-      <c r="BU103" s="28"/>
-      <c r="BV103" s="27">
+      <c r="BS103" s="23"/>
+      <c r="BT103" s="23"/>
+      <c r="BU103" s="23"/>
+      <c r="BV103" s="22">
         <v>2018</v>
       </c>
-      <c r="BW103" s="28"/>
-      <c r="BX103" s="28"/>
-      <c r="BY103" s="28"/>
-      <c r="BZ103" s="27">
+      <c r="BW103" s="23"/>
+      <c r="BX103" s="23"/>
+      <c r="BY103" s="23"/>
+      <c r="BZ103" s="22">
         <v>2019</v>
       </c>
-      <c r="CA103" s="28"/>
-      <c r="CB103" s="28"/>
-      <c r="CC103" s="28"/>
-      <c r="CD103" s="27">
+      <c r="CA103" s="23"/>
+      <c r="CB103" s="23"/>
+      <c r="CC103" s="23"/>
+      <c r="CD103" s="22">
         <v>2020</v>
       </c>
-      <c r="CE103" s="28"/>
-      <c r="CF103" s="28"/>
-      <c r="CG103" s="28"/>
-      <c r="CH103" s="27">
+      <c r="CE103" s="23"/>
+      <c r="CF103" s="23"/>
+      <c r="CG103" s="23"/>
+      <c r="CH103" s="22">
         <v>2021</v>
       </c>
-      <c r="CI103" s="27"/>
-      <c r="CJ103" s="27"/>
-      <c r="CK103" s="27"/>
-      <c r="CL103" s="27">
+      <c r="CI103" s="23"/>
+      <c r="CJ103" s="23"/>
+      <c r="CK103" s="23"/>
+      <c r="CL103" s="22">
         <v>2022</v>
       </c>
-      <c r="CM103" s="27"/>
-      <c r="CN103" s="27"/>
-      <c r="CO103" s="27"/>
+      <c r="CM103" s="23"/>
+      <c r="CN103" s="23"/>
+      <c r="CO103" s="23"/>
     </row>
     <row r="104" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
@@ -34576,19 +34567,19 @@
         <v>7.9170153002722827</v>
       </c>
       <c r="CK106" s="18">
-        <v>7.4230953951303524</v>
+        <v>7.3709094570462348</v>
       </c>
       <c r="CL106" s="18">
-        <v>8.7187164808033479</v>
+        <v>8.6912133661991415</v>
       </c>
       <c r="CM106" s="18">
-        <v>9.252093530157703</v>
+        <v>9.0074936866066544</v>
       </c>
       <c r="CN106" s="18">
-        <v>7.5043742177040258</v>
+        <v>7.5052637401018059</v>
       </c>
       <c r="CO106" s="18">
-        <v>8.3202619713991215</v>
+        <v>7.8091597715285381</v>
       </c>
       <c r="CP106" s="10"/>
       <c r="CQ106" s="10"/>
@@ -34919,19 +34910,19 @@
         <v>92.082984699727717</v>
       </c>
       <c r="CK107" s="18">
-        <v>92.576904604869654</v>
+        <v>92.629090542953762</v>
       </c>
       <c r="CL107" s="18">
-        <v>91.281283519196649</v>
+        <v>91.30878663380085</v>
       </c>
       <c r="CM107" s="18">
-        <v>90.747906469842292</v>
+        <v>90.992506313393349</v>
       </c>
       <c r="CN107" s="18">
-        <v>92.49562578229596</v>
+        <v>92.49473625989819</v>
       </c>
       <c r="CO107" s="18">
-        <v>91.67973802860088</v>
+        <v>92.190840228471444</v>
       </c>
       <c r="CP107" s="10"/>
       <c r="CQ107" s="10"/>
@@ -35919,7 +35910,7 @@
     </row>
     <row r="116" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="117" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -35930,7 +35921,7 @@
     </row>
     <row r="119" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -35941,144 +35932,144 @@
     <row r="121" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="122" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
-      <c r="B122" s="27">
+      <c r="B122" s="22">
         <v>2000</v>
       </c>
-      <c r="C122" s="28"/>
-      <c r="D122" s="28"/>
-      <c r="E122" s="28"/>
-      <c r="F122" s="27">
+      <c r="C122" s="23"/>
+      <c r="D122" s="23"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="22">
         <v>2001</v>
       </c>
-      <c r="G122" s="28"/>
-      <c r="H122" s="28"/>
-      <c r="I122" s="28"/>
-      <c r="J122" s="27">
+      <c r="G122" s="23"/>
+      <c r="H122" s="23"/>
+      <c r="I122" s="23"/>
+      <c r="J122" s="22">
         <v>2002</v>
       </c>
-      <c r="K122" s="28"/>
-      <c r="L122" s="28"/>
-      <c r="M122" s="28"/>
-      <c r="N122" s="27">
+      <c r="K122" s="23"/>
+      <c r="L122" s="23"/>
+      <c r="M122" s="23"/>
+      <c r="N122" s="22">
         <v>2003</v>
       </c>
-      <c r="O122" s="28"/>
-      <c r="P122" s="28"/>
-      <c r="Q122" s="28"/>
-      <c r="R122" s="27">
+      <c r="O122" s="23"/>
+      <c r="P122" s="23"/>
+      <c r="Q122" s="23"/>
+      <c r="R122" s="22">
         <v>2004</v>
       </c>
-      <c r="S122" s="28"/>
-      <c r="T122" s="28"/>
-      <c r="U122" s="28"/>
-      <c r="V122" s="27">
+      <c r="S122" s="23"/>
+      <c r="T122" s="23"/>
+      <c r="U122" s="23"/>
+      <c r="V122" s="22">
         <v>2005</v>
       </c>
-      <c r="W122" s="28"/>
-      <c r="X122" s="28"/>
-      <c r="Y122" s="28"/>
-      <c r="Z122" s="27">
+      <c r="W122" s="23"/>
+      <c r="X122" s="23"/>
+      <c r="Y122" s="23"/>
+      <c r="Z122" s="22">
         <v>2006</v>
       </c>
-      <c r="AA122" s="28"/>
-      <c r="AB122" s="28"/>
-      <c r="AC122" s="28"/>
-      <c r="AD122" s="27">
+      <c r="AA122" s="23"/>
+      <c r="AB122" s="23"/>
+      <c r="AC122" s="23"/>
+      <c r="AD122" s="22">
         <v>2007</v>
       </c>
-      <c r="AE122" s="28"/>
-      <c r="AF122" s="28"/>
-      <c r="AG122" s="28"/>
-      <c r="AH122" s="27">
+      <c r="AE122" s="23"/>
+      <c r="AF122" s="23"/>
+      <c r="AG122" s="23"/>
+      <c r="AH122" s="22">
         <v>2008</v>
       </c>
-      <c r="AI122" s="28"/>
-      <c r="AJ122" s="28"/>
-      <c r="AK122" s="28"/>
-      <c r="AL122" s="27">
+      <c r="AI122" s="23"/>
+      <c r="AJ122" s="23"/>
+      <c r="AK122" s="23"/>
+      <c r="AL122" s="22">
         <v>2009</v>
       </c>
-      <c r="AM122" s="28"/>
-      <c r="AN122" s="28"/>
-      <c r="AO122" s="28"/>
-      <c r="AP122" s="27">
+      <c r="AM122" s="23"/>
+      <c r="AN122" s="23"/>
+      <c r="AO122" s="23"/>
+      <c r="AP122" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="28"/>
-      <c r="AR122" s="28"/>
-      <c r="AS122" s="28"/>
-      <c r="AT122" s="27">
+      <c r="AQ122" s="23"/>
+      <c r="AR122" s="23"/>
+      <c r="AS122" s="23"/>
+      <c r="AT122" s="22">
         <v>2011</v>
       </c>
-      <c r="AU122" s="28"/>
-      <c r="AV122" s="28"/>
-      <c r="AW122" s="28"/>
-      <c r="AX122" s="27">
+      <c r="AU122" s="23"/>
+      <c r="AV122" s="23"/>
+      <c r="AW122" s="23"/>
+      <c r="AX122" s="22">
         <v>2012</v>
       </c>
-      <c r="AY122" s="28"/>
-      <c r="AZ122" s="28"/>
-      <c r="BA122" s="28"/>
-      <c r="BB122" s="27">
+      <c r="AY122" s="23"/>
+      <c r="AZ122" s="23"/>
+      <c r="BA122" s="23"/>
+      <c r="BB122" s="22">
         <v>2013</v>
       </c>
-      <c r="BC122" s="28"/>
-      <c r="BD122" s="28"/>
-      <c r="BE122" s="28"/>
-      <c r="BF122" s="27">
+      <c r="BC122" s="23"/>
+      <c r="BD122" s="23"/>
+      <c r="BE122" s="23"/>
+      <c r="BF122" s="22">
         <v>2014</v>
       </c>
-      <c r="BG122" s="28"/>
-      <c r="BH122" s="28"/>
-      <c r="BI122" s="28"/>
-      <c r="BJ122" s="27">
+      <c r="BG122" s="23"/>
+      <c r="BH122" s="23"/>
+      <c r="BI122" s="23"/>
+      <c r="BJ122" s="22">
         <v>2015</v>
       </c>
-      <c r="BK122" s="28"/>
-      <c r="BL122" s="28"/>
-      <c r="BM122" s="28"/>
-      <c r="BN122" s="27">
+      <c r="BK122" s="23"/>
+      <c r="BL122" s="23"/>
+      <c r="BM122" s="23"/>
+      <c r="BN122" s="22">
         <v>2016</v>
       </c>
-      <c r="BO122" s="28"/>
-      <c r="BP122" s="28"/>
-      <c r="BQ122" s="28"/>
-      <c r="BR122" s="27">
+      <c r="BO122" s="23"/>
+      <c r="BP122" s="23"/>
+      <c r="BQ122" s="23"/>
+      <c r="BR122" s="22">
         <v>2017</v>
       </c>
-      <c r="BS122" s="28"/>
-      <c r="BT122" s="28"/>
-      <c r="BU122" s="28"/>
-      <c r="BV122" s="27">
+      <c r="BS122" s="23"/>
+      <c r="BT122" s="23"/>
+      <c r="BU122" s="23"/>
+      <c r="BV122" s="22">
         <v>2018</v>
       </c>
-      <c r="BW122" s="28"/>
-      <c r="BX122" s="28"/>
-      <c r="BY122" s="28"/>
-      <c r="BZ122" s="27">
+      <c r="BW122" s="23"/>
+      <c r="BX122" s="23"/>
+      <c r="BY122" s="23"/>
+      <c r="BZ122" s="22">
         <v>2019</v>
       </c>
-      <c r="CA122" s="28"/>
-      <c r="CB122" s="28"/>
-      <c r="CC122" s="28"/>
-      <c r="CD122" s="27">
+      <c r="CA122" s="23"/>
+      <c r="CB122" s="23"/>
+      <c r="CC122" s="23"/>
+      <c r="CD122" s="22">
         <v>2020</v>
       </c>
-      <c r="CE122" s="28"/>
-      <c r="CF122" s="28"/>
-      <c r="CG122" s="28"/>
-      <c r="CH122" s="27">
+      <c r="CE122" s="23"/>
+      <c r="CF122" s="23"/>
+      <c r="CG122" s="23"/>
+      <c r="CH122" s="22">
         <v>2021</v>
       </c>
-      <c r="CI122" s="27"/>
-      <c r="CJ122" s="27"/>
-      <c r="CK122" s="27"/>
-      <c r="CL122" s="27">
+      <c r="CI122" s="23"/>
+      <c r="CJ122" s="23"/>
+      <c r="CK122" s="23"/>
+      <c r="CL122" s="22">
         <v>2022</v>
       </c>
-      <c r="CM122" s="27"/>
-      <c r="CN122" s="27"/>
-      <c r="CO122" s="27"/>
+      <c r="CM122" s="23"/>
+      <c r="CN122" s="23"/>
+      <c r="CO122" s="23"/>
     </row>
     <row r="123" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
@@ -36630,19 +36621,19 @@
         <v>7.7695074111822793</v>
       </c>
       <c r="CK125" s="18">
-        <v>7.0014781383624669</v>
+        <v>6.9520336741136681</v>
       </c>
       <c r="CL125" s="18">
-        <v>8.2406204885807917</v>
+        <v>8.2144898037647103</v>
       </c>
       <c r="CM125" s="18">
-        <v>9.4225957410087311</v>
+        <v>9.1738127194283745</v>
       </c>
       <c r="CN125" s="18">
-        <v>7.2434579234117873</v>
+        <v>7.244318940651266</v>
       </c>
       <c r="CO125" s="18">
-        <v>7.6012441478302426</v>
+        <v>7.1790656138510061</v>
       </c>
       <c r="CP125" s="10"/>
       <c r="CQ125" s="10"/>
@@ -36973,19 +36964,19 @@
         <v>92.230492588817725</v>
       </c>
       <c r="CK126" s="18">
-        <v>92.998521861637542</v>
+        <v>93.047966325886335</v>
       </c>
       <c r="CL126" s="18">
-        <v>91.759379511419198</v>
+        <v>91.785510196235293</v>
       </c>
       <c r="CM126" s="18">
-        <v>90.577404258991265</v>
+        <v>90.826187280571631</v>
       </c>
       <c r="CN126" s="18">
-        <v>92.756542076588218</v>
+        <v>92.755681059348746</v>
       </c>
       <c r="CO126" s="18">
-        <v>92.398755852169757</v>
+        <v>92.820934386149005</v>
       </c>
       <c r="CP126" s="10"/>
       <c r="CQ126" s="10"/>
@@ -37977,8 +37968,15 @@
     <mergeCell ref="AT66:AW66"/>
     <mergeCell ref="BF28:BI28"/>
     <mergeCell ref="BF66:BI66"/>
-    <mergeCell ref="CL103:CO103"/>
-    <mergeCell ref="CL122:CO122"/>
+    <mergeCell ref="BJ122:BM122"/>
+    <mergeCell ref="BN122:BQ122"/>
+    <mergeCell ref="BJ103:BM103"/>
+    <mergeCell ref="BN103:BQ103"/>
+    <mergeCell ref="BR122:BU122"/>
+    <mergeCell ref="BV122:BY122"/>
+    <mergeCell ref="BZ122:CC122"/>
+    <mergeCell ref="BR103:BU103"/>
+    <mergeCell ref="BV103:BY103"/>
     <mergeCell ref="AT84:AW84"/>
     <mergeCell ref="AX84:BA84"/>
     <mergeCell ref="BB84:BE84"/>
@@ -37988,11 +37986,6 @@
     <mergeCell ref="BN66:BQ66"/>
     <mergeCell ref="BR84:BU84"/>
     <mergeCell ref="BV84:BY84"/>
-    <mergeCell ref="BF122:BI122"/>
-    <mergeCell ref="BJ122:BM122"/>
-    <mergeCell ref="BN122:BQ122"/>
-    <mergeCell ref="BJ103:BM103"/>
-    <mergeCell ref="BN103:BQ103"/>
     <mergeCell ref="AL122:AO122"/>
     <mergeCell ref="AP122:AS122"/>
     <mergeCell ref="AT122:AW122"/>
@@ -38004,6 +37997,7 @@
     <mergeCell ref="AP103:AS103"/>
     <mergeCell ref="AT103:AW103"/>
     <mergeCell ref="AX103:BA103"/>
+    <mergeCell ref="BF122:BI122"/>
     <mergeCell ref="Z103:AC103"/>
     <mergeCell ref="Z84:AC84"/>
     <mergeCell ref="AD84:AG84"/>
@@ -38089,11 +38083,6 @@
     <mergeCell ref="R9:U9"/>
     <mergeCell ref="AD28:AG28"/>
     <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="BR122:BU122"/>
-    <mergeCell ref="BV122:BY122"/>
-    <mergeCell ref="BZ122:CC122"/>
-    <mergeCell ref="BR103:BU103"/>
-    <mergeCell ref="BV103:BY103"/>
     <mergeCell ref="BZ9:CC9"/>
     <mergeCell ref="BR28:BU28"/>
     <mergeCell ref="BV28:BY28"/>
@@ -38108,8 +38097,6 @@
     <mergeCell ref="BR47:BU47"/>
     <mergeCell ref="BR9:BU9"/>
     <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="CL47:CM47"/>
-    <mergeCell ref="CL66:CM66"/>
     <mergeCell ref="CL9:CO9"/>
     <mergeCell ref="CL28:CO28"/>
     <mergeCell ref="CH47:CK47"/>
@@ -38126,6 +38113,10 @@
     <mergeCell ref="CH103:CK103"/>
     <mergeCell ref="CH122:CK122"/>
     <mergeCell ref="CD28:CG28"/>
+    <mergeCell ref="CL103:CO103"/>
+    <mergeCell ref="CL122:CO122"/>
+    <mergeCell ref="CL47:CO47"/>
+    <mergeCell ref="CL66:CO66"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>

--- a/Data/National Accounts/PSA-16IAC_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-16IAC_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58EB97B-38B3-49CB-A520-AC423D7B148D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7393D160-4287-46E6-9ACB-BEF764A971E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IAC!$A$1:$CO$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IAC!$A$1:$CP$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -613,13 +613,16 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2022</t>
+    <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2022</t>
+    <t>As of May 2023</t>
   </si>
   <si>
-    <t>As of April 2023</t>
+    <t>Q1 2000 to Q1 2023</t>
+  </si>
+  <si>
+    <t>Q1 2001 to Q1 2023</t>
   </si>
 </sst>
 </file>
@@ -719,7 +722,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -754,6 +757,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23626,14 +23640,14 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BS1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CD1" sqref="CD1:CO1048576"/>
+      <selection pane="topRight" activeCell="CD1" sqref="CD1:CP1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.6640625" style="1" customWidth="1"/>
-    <col min="2" max="93" width="11.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="94" max="16384" width="7.77734375" style="11"/>
+    <col min="2" max="94" width="11.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="95" max="16384" width="7.77734375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -23648,7 +23662,7 @@
     </row>
     <row r="3" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -23659,7 +23673,7 @@
     </row>
     <row r="6" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -23758,6 +23772,7 @@
       <c r="CM7" s="4"/>
       <c r="CN7" s="4"/>
       <c r="CO7" s="4"/>
+      <c r="CP7" s="4"/>
     </row>
     <row r="8" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
@@ -23852,147 +23867,151 @@
       <c r="CM8" s="4"/>
       <c r="CN8" s="4"/>
       <c r="CO8" s="4"/>
+      <c r="CP8" s="4"/>
     </row>
     <row r="9" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="22">
+      <c r="B9" s="27">
         <v>2000</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22">
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27">
         <v>2001</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22">
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27">
         <v>2002</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22">
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27">
         <v>2003</v>
       </c>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22">
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27">
         <v>2004</v>
       </c>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22">
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27">
         <v>2005</v>
       </c>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22">
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27">
         <v>2006</v>
       </c>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22">
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27">
         <v>2007</v>
       </c>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22">
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27">
         <v>2008</v>
       </c>
-      <c r="AI9" s="22"/>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="22"/>
-      <c r="AL9" s="22">
+      <c r="AI9" s="27"/>
+      <c r="AJ9" s="27"/>
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="27">
         <v>2009</v>
       </c>
-      <c r="AM9" s="22"/>
-      <c r="AN9" s="22"/>
-      <c r="AO9" s="22"/>
-      <c r="AP9" s="22">
+      <c r="AM9" s="27"/>
+      <c r="AN9" s="27"/>
+      <c r="AO9" s="27"/>
+      <c r="AP9" s="27">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="22"/>
-      <c r="AR9" s="22"/>
-      <c r="AS9" s="22"/>
-      <c r="AT9" s="22">
+      <c r="AQ9" s="27"/>
+      <c r="AR9" s="27"/>
+      <c r="AS9" s="27"/>
+      <c r="AT9" s="27">
         <v>2011</v>
       </c>
-      <c r="AU9" s="22"/>
-      <c r="AV9" s="22"/>
-      <c r="AW9" s="22"/>
-      <c r="AX9" s="22">
+      <c r="AU9" s="27"/>
+      <c r="AV9" s="27"/>
+      <c r="AW9" s="27"/>
+      <c r="AX9" s="27">
         <v>2012</v>
       </c>
-      <c r="AY9" s="22"/>
-      <c r="AZ9" s="22"/>
-      <c r="BA9" s="22"/>
-      <c r="BB9" s="22">
+      <c r="AY9" s="27"/>
+      <c r="AZ9" s="27"/>
+      <c r="BA9" s="27"/>
+      <c r="BB9" s="27">
         <v>2013</v>
       </c>
-      <c r="BC9" s="22"/>
-      <c r="BD9" s="22"/>
-      <c r="BE9" s="22"/>
-      <c r="BF9" s="22">
+      <c r="BC9" s="27"/>
+      <c r="BD9" s="27"/>
+      <c r="BE9" s="27"/>
+      <c r="BF9" s="27">
         <v>2014</v>
       </c>
-      <c r="BG9" s="22"/>
-      <c r="BH9" s="22"/>
-      <c r="BI9" s="22"/>
-      <c r="BJ9" s="22">
+      <c r="BG9" s="27"/>
+      <c r="BH9" s="27"/>
+      <c r="BI9" s="27"/>
+      <c r="BJ9" s="27">
         <v>2015</v>
       </c>
-      <c r="BK9" s="22"/>
-      <c r="BL9" s="22"/>
-      <c r="BM9" s="22"/>
-      <c r="BN9" s="22">
+      <c r="BK9" s="27"/>
+      <c r="BL9" s="27"/>
+      <c r="BM9" s="27"/>
+      <c r="BN9" s="27">
         <v>2016</v>
       </c>
-      <c r="BO9" s="22"/>
-      <c r="BP9" s="22"/>
-      <c r="BQ9" s="22"/>
-      <c r="BR9" s="22">
+      <c r="BO9" s="27"/>
+      <c r="BP9" s="27"/>
+      <c r="BQ9" s="27"/>
+      <c r="BR9" s="27">
         <v>2017</v>
       </c>
-      <c r="BS9" s="22"/>
-      <c r="BT9" s="22"/>
-      <c r="BU9" s="22"/>
-      <c r="BV9" s="22">
+      <c r="BS9" s="27"/>
+      <c r="BT9" s="27"/>
+      <c r="BU9" s="27"/>
+      <c r="BV9" s="27">
         <v>2018</v>
       </c>
-      <c r="BW9" s="22"/>
-      <c r="BX9" s="22"/>
-      <c r="BY9" s="22"/>
-      <c r="BZ9" s="22">
+      <c r="BW9" s="27"/>
+      <c r="BX9" s="27"/>
+      <c r="BY9" s="27"/>
+      <c r="BZ9" s="27">
         <v>2019</v>
       </c>
-      <c r="CA9" s="22"/>
-      <c r="CB9" s="22"/>
-      <c r="CC9" s="22"/>
-      <c r="CD9" s="22">
+      <c r="CA9" s="27"/>
+      <c r="CB9" s="27"/>
+      <c r="CC9" s="27"/>
+      <c r="CD9" s="27">
         <v>2020</v>
       </c>
-      <c r="CE9" s="22"/>
-      <c r="CF9" s="22"/>
-      <c r="CG9" s="22"/>
-      <c r="CH9" s="22">
+      <c r="CE9" s="27"/>
+      <c r="CF9" s="27"/>
+      <c r="CG9" s="27"/>
+      <c r="CH9" s="27">
         <v>2021</v>
       </c>
-      <c r="CI9" s="22"/>
-      <c r="CJ9" s="22"/>
-      <c r="CK9" s="22"/>
-      <c r="CL9" s="22">
+      <c r="CI9" s="27"/>
+      <c r="CJ9" s="27"/>
+      <c r="CK9" s="27"/>
+      <c r="CL9" s="27">
         <v>2022</v>
       </c>
-      <c r="CM9" s="22"/>
-      <c r="CN9" s="22"/>
-      <c r="CO9" s="22"/>
+      <c r="CM9" s="27"/>
+      <c r="CN9" s="27"/>
+      <c r="CO9" s="27"/>
+      <c r="CP9" s="22">
+        <v>2023</v>
+      </c>
     </row>
     <row r="10" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24273,6 +24292,9 @@
       </c>
       <c r="CO10" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="CP10" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24522,43 +24544,45 @@
       <c r="CC12" s="9">
         <v>14681.98380856662</v>
       </c>
-      <c r="CD12" s="9">
+      <c r="CD12" s="23">
         <v>11393.980116868197</v>
       </c>
-      <c r="CE12" s="9">
+      <c r="CE12" s="23">
         <v>12108.573048409726</v>
       </c>
-      <c r="CF12" s="9">
+      <c r="CF12" s="23">
         <v>10244.740905068393</v>
       </c>
-      <c r="CG12" s="9">
+      <c r="CG12" s="23">
         <v>12909.246363876082</v>
       </c>
-      <c r="CH12" s="9">
+      <c r="CH12" s="23">
         <v>12113.544674658446</v>
       </c>
-      <c r="CI12" s="9">
+      <c r="CI12" s="23">
         <v>14605.254957948833</v>
       </c>
-      <c r="CJ12" s="9">
+      <c r="CJ12" s="23">
         <v>11165.172496488034</v>
       </c>
-      <c r="CK12" s="9">
+      <c r="CK12" s="23">
         <v>13481.466265734161</v>
       </c>
-      <c r="CL12" s="9">
+      <c r="CL12" s="23">
         <v>13618.938029108591</v>
       </c>
-      <c r="CM12" s="9">
+      <c r="CM12" s="23">
         <v>17152.109253352814</v>
       </c>
-      <c r="CN12" s="9">
+      <c r="CN12" s="23">
         <v>11467.388885437951</v>
       </c>
-      <c r="CO12" s="9">
+      <c r="CO12" s="23">
         <v>15287.660204593572</v>
       </c>
-      <c r="CP12" s="10"/>
+      <c r="CP12" s="23">
+        <v>13162.474474463728</v>
+      </c>
       <c r="CQ12" s="10"/>
       <c r="CR12" s="10"/>
       <c r="CS12" s="10"/>
@@ -24865,43 +24889,45 @@
       <c r="CC13" s="13">
         <v>151072.99259984598</v>
       </c>
-      <c r="CD13" s="13">
+      <c r="CD13" s="24">
         <v>124728.56156237319</v>
       </c>
-      <c r="CE13" s="13">
+      <c r="CE13" s="24">
         <v>144553.35300760382</v>
       </c>
-      <c r="CF13" s="13">
+      <c r="CF13" s="24">
         <v>121094.282752477</v>
       </c>
-      <c r="CG13" s="13">
+      <c r="CG13" s="24">
         <v>156006.63750067563</v>
       </c>
-      <c r="CH13" s="13">
+      <c r="CH13" s="24">
         <v>132765.03266022948</v>
       </c>
-      <c r="CI13" s="13">
+      <c r="CI13" s="24">
         <v>156621.19254735979</v>
       </c>
-      <c r="CJ13" s="13">
+      <c r="CJ13" s="24">
         <v>129862.37479275418</v>
       </c>
-      <c r="CK13" s="13">
+      <c r="CK13" s="24">
         <v>169419.52233407189</v>
       </c>
-      <c r="CL13" s="13">
+      <c r="CL13" s="24">
         <v>143078.8377046432</v>
       </c>
-      <c r="CM13" s="13">
+      <c r="CM13" s="24">
         <v>173268.33232693363</v>
       </c>
-      <c r="CN13" s="13">
+      <c r="CN13" s="24">
         <v>141323.89577210028</v>
       </c>
-      <c r="CO13" s="13">
+      <c r="CO13" s="24">
         <v>180478.08991273583</v>
       </c>
-      <c r="CP13" s="10"/>
+      <c r="CP13" s="24">
+        <v>153085.61184264557</v>
+      </c>
       <c r="CQ13" s="10"/>
       <c r="CR13" s="10"/>
       <c r="CS13" s="10"/>
@@ -25045,19 +25071,19 @@
       <c r="CA14" s="14"/>
       <c r="CB14" s="14"/>
       <c r="CC14" s="14"/>
-      <c r="CD14" s="14"/>
-      <c r="CE14" s="14"/>
-      <c r="CF14" s="14"/>
-      <c r="CG14" s="14"/>
-      <c r="CH14" s="14"/>
-      <c r="CI14" s="14"/>
-      <c r="CJ14" s="14"/>
-      <c r="CK14" s="14"/>
-      <c r="CL14" s="14"/>
-      <c r="CM14" s="14"/>
-      <c r="CN14" s="14"/>
-      <c r="CO14" s="14"/>
-      <c r="CP14" s="10"/>
+      <c r="CD14" s="25"/>
+      <c r="CE14" s="25"/>
+      <c r="CF14" s="25"/>
+      <c r="CG14" s="25"/>
+      <c r="CH14" s="25"/>
+      <c r="CI14" s="25"/>
+      <c r="CJ14" s="25"/>
+      <c r="CK14" s="25"/>
+      <c r="CL14" s="25"/>
+      <c r="CM14" s="25"/>
+      <c r="CN14" s="25"/>
+      <c r="CO14" s="25"/>
+      <c r="CP14" s="25"/>
       <c r="CQ14" s="10"/>
       <c r="CR14" s="10"/>
       <c r="CS14" s="10"/>
@@ -25364,43 +25390,45 @@
       <c r="CC15" s="15">
         <v>165754.97640841259</v>
       </c>
-      <c r="CD15" s="15">
+      <c r="CD15" s="26">
         <v>136122.54167924137</v>
       </c>
-      <c r="CE15" s="15">
+      <c r="CE15" s="26">
         <v>156661.92605601353</v>
       </c>
-      <c r="CF15" s="15">
+      <c r="CF15" s="26">
         <v>131339.02365754539</v>
       </c>
-      <c r="CG15" s="15">
+      <c r="CG15" s="26">
         <v>168915.88386455172</v>
       </c>
-      <c r="CH15" s="15">
+      <c r="CH15" s="26">
         <v>144878.57733488793</v>
       </c>
-      <c r="CI15" s="15">
+      <c r="CI15" s="26">
         <v>171226.44750530864</v>
       </c>
-      <c r="CJ15" s="15">
+      <c r="CJ15" s="26">
         <v>141027.54728924221</v>
       </c>
-      <c r="CK15" s="15">
+      <c r="CK15" s="26">
         <v>182900.98859980606</v>
       </c>
-      <c r="CL15" s="15">
+      <c r="CL15" s="26">
         <v>156697.7757337518</v>
       </c>
-      <c r="CM15" s="15">
+      <c r="CM15" s="26">
         <v>190420.44158028642</v>
       </c>
-      <c r="CN15" s="15">
+      <c r="CN15" s="26">
         <v>152791.28465753823</v>
       </c>
-      <c r="CO15" s="15">
+      <c r="CO15" s="26">
         <v>195765.75011732941</v>
       </c>
-      <c r="CP15" s="10"/>
+      <c r="CP15" s="26">
+        <v>166248.08631710929</v>
+      </c>
       <c r="CQ15" s="10"/>
       <c r="CR15" s="10"/>
       <c r="CS15" s="10"/>
@@ -25557,6 +25585,7 @@
       <c r="CM16" s="16"/>
       <c r="CN16" s="16"/>
       <c r="CO16" s="16"/>
+      <c r="CP16" s="16"/>
     </row>
     <row r="17" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
@@ -25887,7 +25916,7 @@
     </row>
     <row r="22" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -25898,7 +25927,7 @@
     </row>
     <row r="25" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -25997,6 +26026,7 @@
       <c r="CM26" s="4"/>
       <c r="CN26" s="4"/>
       <c r="CO26" s="4"/>
+      <c r="CP26" s="4"/>
     </row>
     <row r="27" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
@@ -26091,147 +26121,151 @@
       <c r="CM27" s="4"/>
       <c r="CN27" s="4"/>
       <c r="CO27" s="4"/>
+      <c r="CP27" s="4"/>
     </row>
     <row r="28" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="22">
+      <c r="B28" s="27">
         <v>2000</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="22">
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="27">
         <v>2001</v>
       </c>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="22">
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="27">
         <v>2002</v>
       </c>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="22">
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="27">
         <v>2003</v>
       </c>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="22">
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="27">
         <v>2004</v>
       </c>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="22">
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="27">
         <v>2005</v>
       </c>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="22">
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="27">
         <v>2006</v>
       </c>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="23"/>
-      <c r="AC28" s="23"/>
-      <c r="AD28" s="22">
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="28"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="27">
         <v>2007</v>
       </c>
-      <c r="AE28" s="23"/>
-      <c r="AF28" s="23"/>
-      <c r="AG28" s="23"/>
-      <c r="AH28" s="22">
+      <c r="AE28" s="28"/>
+      <c r="AF28" s="28"/>
+      <c r="AG28" s="28"/>
+      <c r="AH28" s="27">
         <v>2008</v>
       </c>
-      <c r="AI28" s="23"/>
-      <c r="AJ28" s="23"/>
-      <c r="AK28" s="23"/>
-      <c r="AL28" s="22">
+      <c r="AI28" s="28"/>
+      <c r="AJ28" s="28"/>
+      <c r="AK28" s="28"/>
+      <c r="AL28" s="27">
         <v>2009</v>
       </c>
-      <c r="AM28" s="23"/>
-      <c r="AN28" s="23"/>
-      <c r="AO28" s="23"/>
-      <c r="AP28" s="22">
+      <c r="AM28" s="28"/>
+      <c r="AN28" s="28"/>
+      <c r="AO28" s="28"/>
+      <c r="AP28" s="27">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="23"/>
-      <c r="AR28" s="23"/>
-      <c r="AS28" s="23"/>
-      <c r="AT28" s="22">
+      <c r="AQ28" s="28"/>
+      <c r="AR28" s="28"/>
+      <c r="AS28" s="28"/>
+      <c r="AT28" s="27">
         <v>2011</v>
       </c>
-      <c r="AU28" s="23"/>
-      <c r="AV28" s="23"/>
-      <c r="AW28" s="23"/>
-      <c r="AX28" s="22">
+      <c r="AU28" s="28"/>
+      <c r="AV28" s="28"/>
+      <c r="AW28" s="28"/>
+      <c r="AX28" s="27">
         <v>2012</v>
       </c>
-      <c r="AY28" s="23"/>
-      <c r="AZ28" s="23"/>
-      <c r="BA28" s="23"/>
-      <c r="BB28" s="22">
+      <c r="AY28" s="28"/>
+      <c r="AZ28" s="28"/>
+      <c r="BA28" s="28"/>
+      <c r="BB28" s="27">
         <v>2013</v>
       </c>
-      <c r="BC28" s="23"/>
-      <c r="BD28" s="23"/>
-      <c r="BE28" s="23"/>
-      <c r="BF28" s="22">
+      <c r="BC28" s="28"/>
+      <c r="BD28" s="28"/>
+      <c r="BE28" s="28"/>
+      <c r="BF28" s="27">
         <v>2014</v>
       </c>
-      <c r="BG28" s="23"/>
-      <c r="BH28" s="23"/>
-      <c r="BI28" s="23"/>
-      <c r="BJ28" s="22">
+      <c r="BG28" s="28"/>
+      <c r="BH28" s="28"/>
+      <c r="BI28" s="28"/>
+      <c r="BJ28" s="27">
         <v>2015</v>
       </c>
-      <c r="BK28" s="23"/>
-      <c r="BL28" s="23"/>
-      <c r="BM28" s="23"/>
-      <c r="BN28" s="22">
+      <c r="BK28" s="28"/>
+      <c r="BL28" s="28"/>
+      <c r="BM28" s="28"/>
+      <c r="BN28" s="27">
         <v>2016</v>
       </c>
-      <c r="BO28" s="23"/>
-      <c r="BP28" s="23"/>
-      <c r="BQ28" s="23"/>
-      <c r="BR28" s="22">
+      <c r="BO28" s="28"/>
+      <c r="BP28" s="28"/>
+      <c r="BQ28" s="28"/>
+      <c r="BR28" s="27">
         <v>2017</v>
       </c>
-      <c r="BS28" s="23"/>
-      <c r="BT28" s="23"/>
-      <c r="BU28" s="23"/>
-      <c r="BV28" s="22">
+      <c r="BS28" s="28"/>
+      <c r="BT28" s="28"/>
+      <c r="BU28" s="28"/>
+      <c r="BV28" s="27">
         <v>2018</v>
       </c>
-      <c r="BW28" s="23"/>
-      <c r="BX28" s="23"/>
-      <c r="BY28" s="23"/>
-      <c r="BZ28" s="22">
+      <c r="BW28" s="28"/>
+      <c r="BX28" s="28"/>
+      <c r="BY28" s="28"/>
+      <c r="BZ28" s="27">
         <v>2019</v>
       </c>
-      <c r="CA28" s="23"/>
-      <c r="CB28" s="23"/>
-      <c r="CC28" s="23"/>
-      <c r="CD28" s="22">
+      <c r="CA28" s="28"/>
+      <c r="CB28" s="28"/>
+      <c r="CC28" s="28"/>
+      <c r="CD28" s="27">
         <v>2020</v>
       </c>
-      <c r="CE28" s="23"/>
-      <c r="CF28" s="23"/>
-      <c r="CG28" s="23"/>
-      <c r="CH28" s="22">
+      <c r="CE28" s="27"/>
+      <c r="CF28" s="27"/>
+      <c r="CG28" s="27"/>
+      <c r="CH28" s="27">
         <v>2021</v>
       </c>
-      <c r="CI28" s="23"/>
-      <c r="CJ28" s="23"/>
-      <c r="CK28" s="23"/>
-      <c r="CL28" s="22">
+      <c r="CI28" s="27"/>
+      <c r="CJ28" s="27"/>
+      <c r="CK28" s="27"/>
+      <c r="CL28" s="27">
         <v>2022</v>
       </c>
-      <c r="CM28" s="23"/>
-      <c r="CN28" s="23"/>
-      <c r="CO28" s="23"/>
+      <c r="CM28" s="27"/>
+      <c r="CN28" s="27"/>
+      <c r="CO28" s="27"/>
+      <c r="CP28" s="22">
+        <v>2023</v>
+      </c>
     </row>
     <row r="29" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
@@ -26512,6 +26546,9 @@
       </c>
       <c r="CO29" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="CP29" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26761,43 +26798,45 @@
       <c r="CC31" s="9">
         <v>14230.028474379236</v>
       </c>
-      <c r="CD31" s="9">
+      <c r="CD31" s="23">
         <v>11120.821393148262</v>
       </c>
-      <c r="CE31" s="9">
+      <c r="CE31" s="23">
         <v>12690.909792573402</v>
       </c>
-      <c r="CF31" s="9">
+      <c r="CF31" s="23">
         <v>9836.4756992029033</v>
       </c>
-      <c r="CG31" s="9">
+      <c r="CG31" s="23">
         <v>12359.835018081292</v>
       </c>
-      <c r="CH31" s="9">
+      <c r="CH31" s="23">
         <v>11752.137308528625</v>
       </c>
-      <c r="CI31" s="9">
+      <c r="CI31" s="23">
         <v>15161.936536093632</v>
       </c>
-      <c r="CJ31" s="9">
+      <c r="CJ31" s="23">
         <v>10497.799914721076</v>
       </c>
-      <c r="CK31" s="9">
+      <c r="CK31" s="23">
         <v>12630.69882945955</v>
       </c>
-      <c r="CL31" s="9">
+      <c r="CL31" s="23">
         <v>12944.695738166523</v>
       </c>
-      <c r="CM31" s="9">
+      <c r="CM31" s="23">
         <v>17785.341151424225</v>
       </c>
-      <c r="CN31" s="9">
+      <c r="CN31" s="23">
         <v>10543.344914866946</v>
       </c>
-      <c r="CO31" s="9">
+      <c r="CO31" s="23">
         <v>13846.543308001339</v>
       </c>
-      <c r="CP31" s="10"/>
+      <c r="CP31" s="23">
+        <v>11918.940118025617</v>
+      </c>
       <c r="CQ31" s="10"/>
       <c r="CR31" s="10"/>
       <c r="CS31" s="10"/>
@@ -27104,43 +27143,45 @@
       <c r="CC32" s="13">
         <v>149810.51456454353</v>
       </c>
-      <c r="CD32" s="13">
+      <c r="CD32" s="24">
         <v>126624.64149777297</v>
       </c>
-      <c r="CE32" s="13">
+      <c r="CE32" s="24">
         <v>142972.21571596686</v>
       </c>
-      <c r="CF32" s="13">
+      <c r="CF32" s="24">
         <v>114602.05535598358</v>
       </c>
-      <c r="CG32" s="13">
+      <c r="CG32" s="24">
         <v>154978.16252944485</v>
       </c>
-      <c r="CH32" s="13">
+      <c r="CH32" s="24">
         <v>135096.28078563506</v>
       </c>
-      <c r="CI32" s="13">
+      <c r="CI32" s="24">
         <v>160162.09878251256</v>
       </c>
-      <c r="CJ32" s="13">
+      <c r="CJ32" s="24">
         <v>124617.58590255863</v>
       </c>
-      <c r="CK32" s="13">
+      <c r="CK32" s="24">
         <v>169052.81165885623</v>
       </c>
-      <c r="CL32" s="13">
+      <c r="CL32" s="24">
         <v>144638.98927942221</v>
       </c>
-      <c r="CM32" s="13">
+      <c r="CM32" s="24">
         <v>176085.42660207796</v>
       </c>
-      <c r="CN32" s="13">
+      <c r="CN32" s="24">
         <v>134996.14611586751</v>
       </c>
-      <c r="CO32" s="13">
+      <c r="CO32" s="24">
         <v>179027.3493791802</v>
       </c>
-      <c r="CP32" s="10"/>
+      <c r="CP32" s="24">
+        <v>153649.48668585299</v>
+      </c>
       <c r="CQ32" s="10"/>
       <c r="CR32" s="10"/>
       <c r="CS32" s="10"/>
@@ -27603,43 +27644,45 @@
       <c r="CC34" s="15">
         <v>164040.54303892277</v>
       </c>
-      <c r="CD34" s="15">
+      <c r="CD34" s="26">
         <v>137745.46289092125</v>
       </c>
-      <c r="CE34" s="15">
+      <c r="CE34" s="26">
         <v>155663.12550854025</v>
       </c>
-      <c r="CF34" s="15">
+      <c r="CF34" s="26">
         <v>124438.53105518648</v>
       </c>
-      <c r="CG34" s="15">
+      <c r="CG34" s="26">
         <v>167337.99754752615</v>
       </c>
-      <c r="CH34" s="15">
+      <c r="CH34" s="26">
         <v>146848.41809416367</v>
       </c>
-      <c r="CI34" s="15">
+      <c r="CI34" s="26">
         <v>175324.03531860618</v>
       </c>
-      <c r="CJ34" s="15">
+      <c r="CJ34" s="26">
         <v>135115.38581727969</v>
       </c>
-      <c r="CK34" s="15">
+      <c r="CK34" s="26">
         <v>181683.51048831578</v>
       </c>
-      <c r="CL34" s="15">
+      <c r="CL34" s="26">
         <v>157583.68501758872</v>
       </c>
-      <c r="CM34" s="15">
+      <c r="CM34" s="26">
         <v>193870.76775350218</v>
       </c>
-      <c r="CN34" s="15">
+      <c r="CN34" s="26">
         <v>145539.49103073444</v>
       </c>
-      <c r="CO34" s="15">
+      <c r="CO34" s="26">
         <v>192873.89268718153</v>
       </c>
-      <c r="CP34" s="10"/>
+      <c r="CP34" s="26">
+        <v>165568.4268038786</v>
+      </c>
       <c r="CQ34" s="10"/>
       <c r="CR34" s="10"/>
       <c r="CS34" s="10"/>
@@ -27796,6 +27839,7 @@
       <c r="CM35" s="16"/>
       <c r="CN35" s="16"/>
       <c r="CO35" s="16"/>
+      <c r="CP35" s="16"/>
     </row>
     <row r="36" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
@@ -28126,7 +28170,7 @@
     </row>
     <row r="41" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -28137,7 +28181,7 @@
     </row>
     <row r="44" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -28148,142 +28192,145 @@
     <row r="46" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22" t="s">
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22" t="s">
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22" t="s">
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="22" t="s">
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="22"/>
-      <c r="T47" s="22"/>
-      <c r="U47" s="22"/>
-      <c r="V47" s="22" t="s">
+      <c r="S47" s="27"/>
+      <c r="T47" s="27"/>
+      <c r="U47" s="27"/>
+      <c r="V47" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="22"/>
-      <c r="X47" s="22"/>
-      <c r="Y47" s="22"/>
-      <c r="Z47" s="22" t="s">
+      <c r="W47" s="27"/>
+      <c r="X47" s="27"/>
+      <c r="Y47" s="27"/>
+      <c r="Z47" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="22"/>
-      <c r="AB47" s="22"/>
-      <c r="AC47" s="22"/>
-      <c r="AD47" s="22" t="s">
+      <c r="AA47" s="27"/>
+      <c r="AB47" s="27"/>
+      <c r="AC47" s="27"/>
+      <c r="AD47" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="22"/>
-      <c r="AF47" s="22"/>
-      <c r="AG47" s="22"/>
-      <c r="AH47" s="22" t="s">
+      <c r="AE47" s="27"/>
+      <c r="AF47" s="27"/>
+      <c r="AG47" s="27"/>
+      <c r="AH47" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="22"/>
-      <c r="AJ47" s="22"/>
-      <c r="AK47" s="22"/>
-      <c r="AL47" s="22" t="s">
+      <c r="AI47" s="27"/>
+      <c r="AJ47" s="27"/>
+      <c r="AK47" s="27"/>
+      <c r="AL47" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="22"/>
-      <c r="AN47" s="22"/>
-      <c r="AO47" s="22"/>
-      <c r="AP47" s="22" t="s">
+      <c r="AM47" s="27"/>
+      <c r="AN47" s="27"/>
+      <c r="AO47" s="27"/>
+      <c r="AP47" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="22"/>
-      <c r="AR47" s="22"/>
-      <c r="AS47" s="22"/>
-      <c r="AT47" s="22" t="s">
+      <c r="AQ47" s="27"/>
+      <c r="AR47" s="27"/>
+      <c r="AS47" s="27"/>
+      <c r="AT47" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="22"/>
-      <c r="AV47" s="22"/>
-      <c r="AW47" s="22"/>
-      <c r="AX47" s="22" t="s">
+      <c r="AU47" s="27"/>
+      <c r="AV47" s="27"/>
+      <c r="AW47" s="27"/>
+      <c r="AX47" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="22"/>
-      <c r="AZ47" s="22"/>
-      <c r="BA47" s="22"/>
-      <c r="BB47" s="22" t="s">
+      <c r="AY47" s="27"/>
+      <c r="AZ47" s="27"/>
+      <c r="BA47" s="27"/>
+      <c r="BB47" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="22"/>
-      <c r="BD47" s="22"/>
-      <c r="BE47" s="22"/>
-      <c r="BF47" s="22" t="s">
+      <c r="BC47" s="27"/>
+      <c r="BD47" s="27"/>
+      <c r="BE47" s="27"/>
+      <c r="BF47" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="22"/>
-      <c r="BH47" s="22"/>
-      <c r="BI47" s="22"/>
-      <c r="BJ47" s="22" t="s">
+      <c r="BG47" s="27"/>
+      <c r="BH47" s="27"/>
+      <c r="BI47" s="27"/>
+      <c r="BJ47" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="22"/>
-      <c r="BL47" s="22"/>
-      <c r="BM47" s="22"/>
-      <c r="BN47" s="22" t="s">
+      <c r="BK47" s="27"/>
+      <c r="BL47" s="27"/>
+      <c r="BM47" s="27"/>
+      <c r="BN47" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="22"/>
-      <c r="BP47" s="22"/>
-      <c r="BQ47" s="22"/>
-      <c r="BR47" s="22" t="s">
+      <c r="BO47" s="27"/>
+      <c r="BP47" s="27"/>
+      <c r="BQ47" s="27"/>
+      <c r="BR47" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="BS47" s="22"/>
-      <c r="BT47" s="22"/>
-      <c r="BU47" s="22"/>
-      <c r="BV47" s="22" t="s">
+      <c r="BS47" s="27"/>
+      <c r="BT47" s="27"/>
+      <c r="BU47" s="27"/>
+      <c r="BV47" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="BW47" s="22"/>
-      <c r="BX47" s="22"/>
-      <c r="BY47" s="22"/>
-      <c r="BZ47" s="22" t="s">
+      <c r="BW47" s="27"/>
+      <c r="BX47" s="27"/>
+      <c r="BY47" s="27"/>
+      <c r="BZ47" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="CA47" s="22"/>
-      <c r="CB47" s="22"/>
-      <c r="CC47" s="22"/>
-      <c r="CD47" s="22" t="s">
+      <c r="CA47" s="27"/>
+      <c r="CB47" s="27"/>
+      <c r="CC47" s="27"/>
+      <c r="CD47" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="22"/>
-      <c r="CF47" s="22"/>
-      <c r="CG47" s="22"/>
-      <c r="CH47" s="22" t="s">
+      <c r="CE47" s="27"/>
+      <c r="CF47" s="27"/>
+      <c r="CG47" s="27"/>
+      <c r="CH47" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="CI47" s="22"/>
-      <c r="CJ47" s="22"/>
-      <c r="CK47" s="22"/>
-      <c r="CL47" s="22"/>
+      <c r="CI47" s="27"/>
+      <c r="CJ47" s="27"/>
+      <c r="CK47" s="27"/>
+      <c r="CL47" s="22" t="s">
+        <v>48</v>
+      </c>
       <c r="CM47" s="22"/>
       <c r="CN47" s="22"/>
       <c r="CO47" s="22"/>
+      <c r="CP47" s="22"/>
     </row>
     <row r="48" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -28553,10 +28600,13 @@
       <c r="CK48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL48" s="6"/>
+      <c r="CL48" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="CM48" s="6"/>
       <c r="CN48" s="6"/>
       <c r="CO48" s="6"/>
+      <c r="CP48" s="6"/>
     </row>
     <row r="49" spans="1:151" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
@@ -28829,11 +28879,13 @@
       <c r="CK50" s="18">
         <v>13.397607524711262</v>
       </c>
-      <c r="CL50" s="18"/>
+      <c r="CL50" s="18">
+        <v>-3.3516824415327733</v>
+      </c>
       <c r="CM50" s="18"/>
       <c r="CN50" s="18"/>
       <c r="CO50" s="18"/>
-      <c r="CP50" s="10"/>
+      <c r="CP50" s="18"/>
       <c r="CQ50" s="10"/>
       <c r="CR50" s="10"/>
       <c r="CS50" s="10"/>
@@ -29160,11 +29212,13 @@
       <c r="CK51" s="18">
         <v>6.5273277992473453</v>
       </c>
-      <c r="CL51" s="18"/>
+      <c r="CL51" s="18">
+        <v>6.9938883335488811</v>
+      </c>
       <c r="CM51" s="18"/>
       <c r="CN51" s="18"/>
       <c r="CO51" s="18"/>
-      <c r="CP51" s="10"/>
+      <c r="CP51" s="18"/>
       <c r="CQ51" s="10"/>
       <c r="CR51" s="10"/>
       <c r="CS51" s="10"/>
@@ -29317,7 +29371,7 @@
       <c r="CM52" s="19"/>
       <c r="CN52" s="19"/>
       <c r="CO52" s="19"/>
-      <c r="CP52" s="10"/>
+      <c r="CP52" s="19"/>
       <c r="CQ52" s="10"/>
       <c r="CR52" s="10"/>
       <c r="CS52" s="10"/>
@@ -29644,11 +29698,13 @@
       <c r="CK53" s="18">
         <v>7.0337298972571034</v>
       </c>
-      <c r="CL53" s="18"/>
+      <c r="CL53" s="18">
+        <v>6.0947327035353709</v>
+      </c>
       <c r="CM53" s="18"/>
       <c r="CN53" s="18"/>
       <c r="CO53" s="18"/>
-      <c r="CP53" s="10"/>
+      <c r="CP53" s="18"/>
       <c r="CQ53" s="10"/>
       <c r="CR53" s="10"/>
       <c r="CS53" s="10"/>
@@ -29801,6 +29857,7 @@
       <c r="CM54" s="16"/>
       <c r="CN54" s="16"/>
       <c r="CO54" s="16"/>
+      <c r="CP54" s="16"/>
     </row>
     <row r="55" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
@@ -30123,7 +30180,7 @@
     </row>
     <row r="60" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -30134,7 +30191,7 @@
     </row>
     <row r="63" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -30145,142 +30202,145 @@
     <row r="65" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="66" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="22" t="s">
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="22" t="s">
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="24"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="24"/>
-      <c r="N66" s="22" t="s">
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="29"/>
+      <c r="N66" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="24"/>
-      <c r="P66" s="24"/>
-      <c r="Q66" s="24"/>
-      <c r="R66" s="22" t="s">
+      <c r="O66" s="29"/>
+      <c r="P66" s="29"/>
+      <c r="Q66" s="29"/>
+      <c r="R66" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="24"/>
-      <c r="T66" s="24"/>
-      <c r="U66" s="24"/>
-      <c r="V66" s="22" t="s">
+      <c r="S66" s="29"/>
+      <c r="T66" s="29"/>
+      <c r="U66" s="29"/>
+      <c r="V66" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="24"/>
-      <c r="X66" s="24"/>
-      <c r="Y66" s="24"/>
-      <c r="Z66" s="22" t="s">
+      <c r="W66" s="29"/>
+      <c r="X66" s="29"/>
+      <c r="Y66" s="29"/>
+      <c r="Z66" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="24"/>
-      <c r="AB66" s="24"/>
-      <c r="AC66" s="24"/>
-      <c r="AD66" s="22" t="s">
+      <c r="AA66" s="29"/>
+      <c r="AB66" s="29"/>
+      <c r="AC66" s="29"/>
+      <c r="AD66" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="24"/>
-      <c r="AF66" s="24"/>
-      <c r="AG66" s="24"/>
-      <c r="AH66" s="22" t="s">
+      <c r="AE66" s="29"/>
+      <c r="AF66" s="29"/>
+      <c r="AG66" s="29"/>
+      <c r="AH66" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="24"/>
-      <c r="AJ66" s="24"/>
-      <c r="AK66" s="24"/>
-      <c r="AL66" s="22" t="s">
+      <c r="AI66" s="29"/>
+      <c r="AJ66" s="29"/>
+      <c r="AK66" s="29"/>
+      <c r="AL66" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="24"/>
-      <c r="AN66" s="24"/>
-      <c r="AO66" s="24"/>
-      <c r="AP66" s="22" t="s">
+      <c r="AM66" s="29"/>
+      <c r="AN66" s="29"/>
+      <c r="AO66" s="29"/>
+      <c r="AP66" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="24"/>
-      <c r="AR66" s="24"/>
-      <c r="AS66" s="24"/>
-      <c r="AT66" s="22" t="s">
+      <c r="AQ66" s="29"/>
+      <c r="AR66" s="29"/>
+      <c r="AS66" s="29"/>
+      <c r="AT66" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="24"/>
-      <c r="AV66" s="24"/>
-      <c r="AW66" s="24"/>
-      <c r="AX66" s="22" t="s">
+      <c r="AU66" s="29"/>
+      <c r="AV66" s="29"/>
+      <c r="AW66" s="29"/>
+      <c r="AX66" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="24"/>
-      <c r="AZ66" s="24"/>
-      <c r="BA66" s="24"/>
-      <c r="BB66" s="22" t="s">
+      <c r="AY66" s="29"/>
+      <c r="AZ66" s="29"/>
+      <c r="BA66" s="29"/>
+      <c r="BB66" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="24"/>
-      <c r="BD66" s="24"/>
-      <c r="BE66" s="24"/>
-      <c r="BF66" s="22" t="s">
+      <c r="BC66" s="29"/>
+      <c r="BD66" s="29"/>
+      <c r="BE66" s="29"/>
+      <c r="BF66" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="24"/>
-      <c r="BH66" s="24"/>
-      <c r="BI66" s="24"/>
-      <c r="BJ66" s="22" t="s">
+      <c r="BG66" s="29"/>
+      <c r="BH66" s="29"/>
+      <c r="BI66" s="29"/>
+      <c r="BJ66" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="24"/>
-      <c r="BL66" s="24"/>
-      <c r="BM66" s="24"/>
-      <c r="BN66" s="22" t="s">
+      <c r="BK66" s="29"/>
+      <c r="BL66" s="29"/>
+      <c r="BM66" s="29"/>
+      <c r="BN66" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="24"/>
-      <c r="BP66" s="24"/>
-      <c r="BQ66" s="24"/>
-      <c r="BR66" s="22" t="s">
+      <c r="BO66" s="29"/>
+      <c r="BP66" s="29"/>
+      <c r="BQ66" s="29"/>
+      <c r="BR66" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="BS66" s="24"/>
-      <c r="BT66" s="24"/>
-      <c r="BU66" s="24"/>
-      <c r="BV66" s="22" t="s">
+      <c r="BS66" s="29"/>
+      <c r="BT66" s="29"/>
+      <c r="BU66" s="29"/>
+      <c r="BV66" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="BW66" s="24"/>
-      <c r="BX66" s="24"/>
-      <c r="BY66" s="24"/>
-      <c r="BZ66" s="22" t="s">
+      <c r="BW66" s="29"/>
+      <c r="BX66" s="29"/>
+      <c r="BY66" s="29"/>
+      <c r="BZ66" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="CA66" s="24"/>
-      <c r="CB66" s="24"/>
-      <c r="CC66" s="24"/>
-      <c r="CD66" s="22" t="s">
+      <c r="CA66" s="29"/>
+      <c r="CB66" s="29"/>
+      <c r="CC66" s="29"/>
+      <c r="CD66" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="24"/>
-      <c r="CF66" s="24"/>
-      <c r="CG66" s="24"/>
-      <c r="CH66" s="22" t="s">
+      <c r="CE66" s="27"/>
+      <c r="CF66" s="27"/>
+      <c r="CG66" s="27"/>
+      <c r="CH66" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="CI66" s="24"/>
-      <c r="CJ66" s="24"/>
-      <c r="CK66" s="24"/>
-      <c r="CL66" s="22"/>
-      <c r="CM66" s="24"/>
-      <c r="CN66" s="24"/>
-      <c r="CO66" s="24"/>
+      <c r="CI66" s="27"/>
+      <c r="CJ66" s="27"/>
+      <c r="CK66" s="27"/>
+      <c r="CL66" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="CM66" s="22"/>
+      <c r="CN66" s="22"/>
+      <c r="CO66" s="22"/>
+      <c r="CP66" s="22"/>
     </row>
     <row r="67" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
@@ -30550,10 +30610,13 @@
       <c r="CK67" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL67" s="6"/>
+      <c r="CL67" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="CM67" s="6"/>
       <c r="CN67" s="6"/>
       <c r="CO67" s="6"/>
+      <c r="CP67" s="6"/>
     </row>
     <row r="68" spans="1:151" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
@@ -30826,11 +30889,13 @@
       <c r="CK69" s="18">
         <v>9.6261061637063392</v>
       </c>
-      <c r="CL69" s="18"/>
+      <c r="CL69" s="18">
+        <v>-7.9241385111628233</v>
+      </c>
       <c r="CM69" s="18"/>
       <c r="CN69" s="18"/>
       <c r="CO69" s="18"/>
-      <c r="CP69" s="10"/>
+      <c r="CP69" s="18"/>
       <c r="CQ69" s="10"/>
       <c r="CR69" s="10"/>
       <c r="CS69" s="10"/>
@@ -31157,11 +31222,13 @@
       <c r="CK70" s="18">
         <v>5.9002495270248971</v>
       </c>
-      <c r="CL70" s="18"/>
+      <c r="CL70" s="18">
+        <v>6.2296462740234944</v>
+      </c>
       <c r="CM70" s="18"/>
       <c r="CN70" s="18"/>
       <c r="CO70" s="18"/>
-      <c r="CP70" s="10"/>
+      <c r="CP70" s="18"/>
       <c r="CQ70" s="10"/>
       <c r="CR70" s="10"/>
       <c r="CS70" s="10"/>
@@ -31313,7 +31380,7 @@
       <c r="CM71" s="19"/>
       <c r="CN71" s="19"/>
       <c r="CO71" s="19"/>
-      <c r="CP71" s="10"/>
+      <c r="CP71" s="19"/>
       <c r="CQ71" s="10"/>
       <c r="CR71" s="10"/>
       <c r="CS71" s="10"/>
@@ -31640,11 +31707,13 @@
       <c r="CK72" s="18">
         <v>6.1592723350562011</v>
       </c>
-      <c r="CL72" s="18"/>
+      <c r="CL72" s="18">
+        <v>5.0669850659975708</v>
+      </c>
       <c r="CM72" s="18"/>
       <c r="CN72" s="18"/>
       <c r="CO72" s="18"/>
-      <c r="CP72" s="10"/>
+      <c r="CP72" s="18"/>
       <c r="CQ72" s="10"/>
       <c r="CR72" s="10"/>
       <c r="CS72" s="10"/>
@@ -31797,6 +31866,7 @@
       <c r="CM73" s="16"/>
       <c r="CN73" s="16"/>
       <c r="CO73" s="16"/>
+      <c r="CP73" s="16"/>
     </row>
     <row r="74" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
@@ -32114,7 +32184,7 @@
     </row>
     <row r="78" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -32125,7 +32195,7 @@
     </row>
     <row r="81" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -32136,144 +32206,147 @@
     <row r="83" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="84" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
-      <c r="B84" s="22">
+      <c r="B84" s="27">
         <v>2000</v>
       </c>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="22">
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="27">
         <v>2001</v>
       </c>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="23"/>
-      <c r="J84" s="22">
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="27">
         <v>2002</v>
       </c>
-      <c r="K84" s="23"/>
-      <c r="L84" s="23"/>
-      <c r="M84" s="23"/>
-      <c r="N84" s="22">
+      <c r="K84" s="28"/>
+      <c r="L84" s="28"/>
+      <c r="M84" s="28"/>
+      <c r="N84" s="27">
         <v>2003</v>
       </c>
-      <c r="O84" s="23"/>
-      <c r="P84" s="23"/>
-      <c r="Q84" s="23"/>
-      <c r="R84" s="22">
+      <c r="O84" s="28"/>
+      <c r="P84" s="28"/>
+      <c r="Q84" s="28"/>
+      <c r="R84" s="27">
         <v>2004</v>
       </c>
-      <c r="S84" s="23"/>
-      <c r="T84" s="23"/>
-      <c r="U84" s="23"/>
-      <c r="V84" s="22">
+      <c r="S84" s="28"/>
+      <c r="T84" s="28"/>
+      <c r="U84" s="28"/>
+      <c r="V84" s="27">
         <v>2005</v>
       </c>
-      <c r="W84" s="23"/>
-      <c r="X84" s="23"/>
-      <c r="Y84" s="23"/>
-      <c r="Z84" s="22">
+      <c r="W84" s="28"/>
+      <c r="X84" s="28"/>
+      <c r="Y84" s="28"/>
+      <c r="Z84" s="27">
         <v>2006</v>
       </c>
-      <c r="AA84" s="23"/>
-      <c r="AB84" s="23"/>
-      <c r="AC84" s="23"/>
-      <c r="AD84" s="22">
+      <c r="AA84" s="28"/>
+      <c r="AB84" s="28"/>
+      <c r="AC84" s="28"/>
+      <c r="AD84" s="27">
         <v>2007</v>
       </c>
-      <c r="AE84" s="23"/>
-      <c r="AF84" s="23"/>
-      <c r="AG84" s="23"/>
-      <c r="AH84" s="22">
+      <c r="AE84" s="28"/>
+      <c r="AF84" s="28"/>
+      <c r="AG84" s="28"/>
+      <c r="AH84" s="27">
         <v>2008</v>
       </c>
-      <c r="AI84" s="23"/>
-      <c r="AJ84" s="23"/>
-      <c r="AK84" s="23"/>
-      <c r="AL84" s="22">
+      <c r="AI84" s="28"/>
+      <c r="AJ84" s="28"/>
+      <c r="AK84" s="28"/>
+      <c r="AL84" s="27">
         <v>2009</v>
       </c>
-      <c r="AM84" s="23"/>
-      <c r="AN84" s="23"/>
-      <c r="AO84" s="23"/>
-      <c r="AP84" s="22">
+      <c r="AM84" s="28"/>
+      <c r="AN84" s="28"/>
+      <c r="AO84" s="28"/>
+      <c r="AP84" s="27">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="23"/>
-      <c r="AR84" s="23"/>
-      <c r="AS84" s="23"/>
-      <c r="AT84" s="22">
+      <c r="AQ84" s="28"/>
+      <c r="AR84" s="28"/>
+      <c r="AS84" s="28"/>
+      <c r="AT84" s="27">
         <v>2011</v>
       </c>
-      <c r="AU84" s="23"/>
-      <c r="AV84" s="23"/>
-      <c r="AW84" s="23"/>
-      <c r="AX84" s="22">
+      <c r="AU84" s="28"/>
+      <c r="AV84" s="28"/>
+      <c r="AW84" s="28"/>
+      <c r="AX84" s="27">
         <v>2012</v>
       </c>
-      <c r="AY84" s="23"/>
-      <c r="AZ84" s="23"/>
-      <c r="BA84" s="23"/>
-      <c r="BB84" s="22">
+      <c r="AY84" s="28"/>
+      <c r="AZ84" s="28"/>
+      <c r="BA84" s="28"/>
+      <c r="BB84" s="27">
         <v>2013</v>
       </c>
-      <c r="BC84" s="23"/>
-      <c r="BD84" s="23"/>
-      <c r="BE84" s="23"/>
-      <c r="BF84" s="22">
+      <c r="BC84" s="28"/>
+      <c r="BD84" s="28"/>
+      <c r="BE84" s="28"/>
+      <c r="BF84" s="27">
         <v>2014</v>
       </c>
-      <c r="BG84" s="23"/>
-      <c r="BH84" s="23"/>
-      <c r="BI84" s="23"/>
-      <c r="BJ84" s="22">
+      <c r="BG84" s="28"/>
+      <c r="BH84" s="28"/>
+      <c r="BI84" s="28"/>
+      <c r="BJ84" s="27">
         <v>2015</v>
       </c>
-      <c r="BK84" s="23"/>
-      <c r="BL84" s="23"/>
-      <c r="BM84" s="23"/>
-      <c r="BN84" s="22">
+      <c r="BK84" s="28"/>
+      <c r="BL84" s="28"/>
+      <c r="BM84" s="28"/>
+      <c r="BN84" s="27">
         <v>2016</v>
       </c>
-      <c r="BO84" s="23"/>
-      <c r="BP84" s="23"/>
-      <c r="BQ84" s="23"/>
-      <c r="BR84" s="22">
+      <c r="BO84" s="28"/>
+      <c r="BP84" s="28"/>
+      <c r="BQ84" s="28"/>
+      <c r="BR84" s="27">
         <v>2017</v>
       </c>
-      <c r="BS84" s="23"/>
-      <c r="BT84" s="23"/>
-      <c r="BU84" s="23"/>
-      <c r="BV84" s="22">
+      <c r="BS84" s="28"/>
+      <c r="BT84" s="28"/>
+      <c r="BU84" s="28"/>
+      <c r="BV84" s="27">
         <v>2018</v>
       </c>
-      <c r="BW84" s="23"/>
-      <c r="BX84" s="23"/>
-      <c r="BY84" s="23"/>
-      <c r="BZ84" s="22">
+      <c r="BW84" s="28"/>
+      <c r="BX84" s="28"/>
+      <c r="BY84" s="28"/>
+      <c r="BZ84" s="27">
         <v>2019</v>
       </c>
-      <c r="CA84" s="23"/>
-      <c r="CB84" s="23"/>
-      <c r="CC84" s="23"/>
-      <c r="CD84" s="22">
+      <c r="CA84" s="28"/>
+      <c r="CB84" s="28"/>
+      <c r="CC84" s="28"/>
+      <c r="CD84" s="27">
         <v>2020</v>
       </c>
-      <c r="CE84" s="23"/>
-      <c r="CF84" s="23"/>
-      <c r="CG84" s="23"/>
-      <c r="CH84" s="22">
+      <c r="CE84" s="27"/>
+      <c r="CF84" s="27"/>
+      <c r="CG84" s="27"/>
+      <c r="CH84" s="27">
         <v>2021</v>
       </c>
-      <c r="CI84" s="23"/>
-      <c r="CJ84" s="23"/>
-      <c r="CK84" s="23"/>
-      <c r="CL84" s="22">
+      <c r="CI84" s="27"/>
+      <c r="CJ84" s="27"/>
+      <c r="CK84" s="27"/>
+      <c r="CL84" s="27">
         <v>2022</v>
       </c>
-      <c r="CM84" s="23"/>
-      <c r="CN84" s="23"/>
-      <c r="CO84" s="23"/>
+      <c r="CM84" s="27"/>
+      <c r="CN84" s="27"/>
+      <c r="CO84" s="27"/>
+      <c r="CP84" s="22">
+        <v>2023</v>
+      </c>
     </row>
     <row r="85" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
@@ -32554,6 +32627,9 @@
       </c>
       <c r="CO85" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="CP85" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -32839,7 +32915,9 @@
       <c r="CO87" s="18">
         <v>110.40777372760948</v>
       </c>
-      <c r="CP87" s="10"/>
+      <c r="CP87" s="18">
+        <v>110.43326289186948</v>
+      </c>
       <c r="CQ87" s="10"/>
       <c r="CR87" s="10"/>
       <c r="CS87" s="10"/>
@@ -33182,7 +33260,9 @@
       <c r="CO88" s="18">
         <v>100.81034575922976</v>
       </c>
-      <c r="CP88" s="10"/>
+      <c r="CP88" s="18">
+        <v>99.633012218023026</v>
+      </c>
       <c r="CQ88" s="10"/>
       <c r="CR88" s="10"/>
       <c r="CS88" s="10"/>
@@ -33338,7 +33418,7 @@
       <c r="CM89" s="19"/>
       <c r="CN89" s="19"/>
       <c r="CO89" s="19"/>
-      <c r="CP89" s="10"/>
+      <c r="CP89" s="19"/>
       <c r="CQ89" s="10"/>
       <c r="CR89" s="10"/>
       <c r="CS89" s="10"/>
@@ -33681,7 +33761,9 @@
       <c r="CO90" s="18">
         <v>101.49935141032182</v>
       </c>
-      <c r="CP90" s="10"/>
+      <c r="CP90" s="18">
+        <v>100.41050067718271</v>
+      </c>
       <c r="CQ90" s="10"/>
       <c r="CR90" s="10"/>
       <c r="CS90" s="10"/>
@@ -33838,6 +33920,7 @@
       <c r="CM91" s="16"/>
       <c r="CN91" s="16"/>
       <c r="CO91" s="16"/>
+      <c r="CP91" s="16"/>
     </row>
     <row r="92" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
@@ -33856,7 +33939,7 @@
     </row>
     <row r="97" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -33867,7 +33950,7 @@
     </row>
     <row r="100" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -33878,144 +33961,147 @@
     <row r="102" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="103" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
-      <c r="B103" s="22">
+      <c r="B103" s="27">
         <v>2000</v>
       </c>
-      <c r="C103" s="23"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="23"/>
-      <c r="F103" s="22">
+      <c r="C103" s="28"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="28"/>
+      <c r="F103" s="27">
         <v>2001</v>
       </c>
-      <c r="G103" s="23"/>
-      <c r="H103" s="23"/>
-      <c r="I103" s="23"/>
-      <c r="J103" s="22">
+      <c r="G103" s="28"/>
+      <c r="H103" s="28"/>
+      <c r="I103" s="28"/>
+      <c r="J103" s="27">
         <v>2002</v>
       </c>
-      <c r="K103" s="23"/>
-      <c r="L103" s="23"/>
-      <c r="M103" s="23"/>
-      <c r="N103" s="22">
+      <c r="K103" s="28"/>
+      <c r="L103" s="28"/>
+      <c r="M103" s="28"/>
+      <c r="N103" s="27">
         <v>2003</v>
       </c>
-      <c r="O103" s="23"/>
-      <c r="P103" s="23"/>
-      <c r="Q103" s="23"/>
-      <c r="R103" s="22">
+      <c r="O103" s="28"/>
+      <c r="P103" s="28"/>
+      <c r="Q103" s="28"/>
+      <c r="R103" s="27">
         <v>2004</v>
       </c>
-      <c r="S103" s="23"/>
-      <c r="T103" s="23"/>
-      <c r="U103" s="23"/>
-      <c r="V103" s="22">
+      <c r="S103" s="28"/>
+      <c r="T103" s="28"/>
+      <c r="U103" s="28"/>
+      <c r="V103" s="27">
         <v>2005</v>
       </c>
-      <c r="W103" s="23"/>
-      <c r="X103" s="23"/>
-      <c r="Y103" s="23"/>
-      <c r="Z103" s="22">
+      <c r="W103" s="28"/>
+      <c r="X103" s="28"/>
+      <c r="Y103" s="28"/>
+      <c r="Z103" s="27">
         <v>2006</v>
       </c>
-      <c r="AA103" s="23"/>
-      <c r="AB103" s="23"/>
-      <c r="AC103" s="23"/>
-      <c r="AD103" s="22">
+      <c r="AA103" s="28"/>
+      <c r="AB103" s="28"/>
+      <c r="AC103" s="28"/>
+      <c r="AD103" s="27">
         <v>2007</v>
       </c>
-      <c r="AE103" s="23"/>
-      <c r="AF103" s="23"/>
-      <c r="AG103" s="23"/>
-      <c r="AH103" s="22">
+      <c r="AE103" s="28"/>
+      <c r="AF103" s="28"/>
+      <c r="AG103" s="28"/>
+      <c r="AH103" s="27">
         <v>2008</v>
       </c>
-      <c r="AI103" s="23"/>
-      <c r="AJ103" s="23"/>
-      <c r="AK103" s="23"/>
-      <c r="AL103" s="22">
+      <c r="AI103" s="28"/>
+      <c r="AJ103" s="28"/>
+      <c r="AK103" s="28"/>
+      <c r="AL103" s="27">
         <v>2009</v>
       </c>
-      <c r="AM103" s="23"/>
-      <c r="AN103" s="23"/>
-      <c r="AO103" s="23"/>
-      <c r="AP103" s="22">
+      <c r="AM103" s="28"/>
+      <c r="AN103" s="28"/>
+      <c r="AO103" s="28"/>
+      <c r="AP103" s="27">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="23"/>
-      <c r="AR103" s="23"/>
-      <c r="AS103" s="23"/>
-      <c r="AT103" s="22">
+      <c r="AQ103" s="28"/>
+      <c r="AR103" s="28"/>
+      <c r="AS103" s="28"/>
+      <c r="AT103" s="27">
         <v>2011</v>
       </c>
-      <c r="AU103" s="23"/>
-      <c r="AV103" s="23"/>
-      <c r="AW103" s="23"/>
-      <c r="AX103" s="22">
+      <c r="AU103" s="28"/>
+      <c r="AV103" s="28"/>
+      <c r="AW103" s="28"/>
+      <c r="AX103" s="27">
         <v>2012</v>
       </c>
-      <c r="AY103" s="23"/>
-      <c r="AZ103" s="23"/>
-      <c r="BA103" s="23"/>
-      <c r="BB103" s="22">
+      <c r="AY103" s="28"/>
+      <c r="AZ103" s="28"/>
+      <c r="BA103" s="28"/>
+      <c r="BB103" s="27">
         <v>2013</v>
       </c>
-      <c r="BC103" s="23"/>
-      <c r="BD103" s="23"/>
-      <c r="BE103" s="23"/>
-      <c r="BF103" s="22">
+      <c r="BC103" s="28"/>
+      <c r="BD103" s="28"/>
+      <c r="BE103" s="28"/>
+      <c r="BF103" s="27">
         <v>2014</v>
       </c>
-      <c r="BG103" s="23"/>
-      <c r="BH103" s="23"/>
-      <c r="BI103" s="23"/>
-      <c r="BJ103" s="22">
+      <c r="BG103" s="28"/>
+      <c r="BH103" s="28"/>
+      <c r="BI103" s="28"/>
+      <c r="BJ103" s="27">
         <v>2015</v>
       </c>
-      <c r="BK103" s="23"/>
-      <c r="BL103" s="23"/>
-      <c r="BM103" s="23"/>
-      <c r="BN103" s="22">
+      <c r="BK103" s="28"/>
+      <c r="BL103" s="28"/>
+      <c r="BM103" s="28"/>
+      <c r="BN103" s="27">
         <v>2016</v>
       </c>
-      <c r="BO103" s="23"/>
-      <c r="BP103" s="23"/>
-      <c r="BQ103" s="23"/>
-      <c r="BR103" s="22">
+      <c r="BO103" s="28"/>
+      <c r="BP103" s="28"/>
+      <c r="BQ103" s="28"/>
+      <c r="BR103" s="27">
         <v>2017</v>
       </c>
-      <c r="BS103" s="23"/>
-      <c r="BT103" s="23"/>
-      <c r="BU103" s="23"/>
-      <c r="BV103" s="22">
+      <c r="BS103" s="28"/>
+      <c r="BT103" s="28"/>
+      <c r="BU103" s="28"/>
+      <c r="BV103" s="27">
         <v>2018</v>
       </c>
-      <c r="BW103" s="23"/>
-      <c r="BX103" s="23"/>
-      <c r="BY103" s="23"/>
-      <c r="BZ103" s="22">
+      <c r="BW103" s="28"/>
+      <c r="BX103" s="28"/>
+      <c r="BY103" s="28"/>
+      <c r="BZ103" s="27">
         <v>2019</v>
       </c>
-      <c r="CA103" s="23"/>
-      <c r="CB103" s="23"/>
-      <c r="CC103" s="23"/>
-      <c r="CD103" s="22">
+      <c r="CA103" s="28"/>
+      <c r="CB103" s="28"/>
+      <c r="CC103" s="28"/>
+      <c r="CD103" s="27">
         <v>2020</v>
       </c>
-      <c r="CE103" s="23"/>
-      <c r="CF103" s="23"/>
-      <c r="CG103" s="23"/>
-      <c r="CH103" s="22">
+      <c r="CE103" s="27"/>
+      <c r="CF103" s="27"/>
+      <c r="CG103" s="27"/>
+      <c r="CH103" s="27">
         <v>2021</v>
       </c>
-      <c r="CI103" s="23"/>
-      <c r="CJ103" s="23"/>
-      <c r="CK103" s="23"/>
-      <c r="CL103" s="22">
+      <c r="CI103" s="27"/>
+      <c r="CJ103" s="27"/>
+      <c r="CK103" s="27"/>
+      <c r="CL103" s="27">
         <v>2022</v>
       </c>
-      <c r="CM103" s="23"/>
-      <c r="CN103" s="23"/>
-      <c r="CO103" s="23"/>
+      <c r="CM103" s="27"/>
+      <c r="CN103" s="27"/>
+      <c r="CO103" s="27"/>
+      <c r="CP103" s="22">
+        <v>2023</v>
+      </c>
     </row>
     <row r="104" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
@@ -34296,6 +34382,9 @@
       </c>
       <c r="CO104" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="CP104" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -34581,7 +34670,9 @@
       <c r="CO106" s="18">
         <v>7.8091597715285381</v>
       </c>
-      <c r="CP106" s="10"/>
+      <c r="CP106" s="18">
+        <v>7.9173690152180249</v>
+      </c>
       <c r="CQ106" s="10"/>
       <c r="CR106" s="10"/>
       <c r="CS106" s="10"/>
@@ -34924,7 +35015,9 @@
       <c r="CO107" s="18">
         <v>92.190840228471444</v>
       </c>
-      <c r="CP107" s="10"/>
+      <c r="CP107" s="18">
+        <v>92.082630984781972</v>
+      </c>
       <c r="CQ107" s="10"/>
       <c r="CR107" s="10"/>
       <c r="CS107" s="10"/>
@@ -35080,7 +35173,7 @@
       <c r="CM108" s="19"/>
       <c r="CN108" s="19"/>
       <c r="CO108" s="19"/>
-      <c r="CP108" s="10"/>
+      <c r="CP108" s="19"/>
       <c r="CQ108" s="10"/>
       <c r="CR108" s="10"/>
       <c r="CS108" s="10"/>
@@ -35423,7 +35516,9 @@
       <c r="CO109" s="18">
         <v>100</v>
       </c>
-      <c r="CP109" s="10"/>
+      <c r="CP109" s="18">
+        <v>100</v>
+      </c>
       <c r="CQ109" s="10"/>
       <c r="CR109" s="10"/>
       <c r="CS109" s="10"/>
@@ -35580,6 +35675,7 @@
       <c r="CM110" s="16"/>
       <c r="CN110" s="16"/>
       <c r="CO110" s="16"/>
+      <c r="CP110" s="16"/>
     </row>
     <row r="111" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
@@ -35910,7 +36006,7 @@
     </row>
     <row r="116" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="117" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -35921,7 +36017,7 @@
     </row>
     <row r="119" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="120" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -35932,144 +36028,147 @@
     <row r="121" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="122" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
-      <c r="B122" s="22">
+      <c r="B122" s="27">
         <v>2000</v>
       </c>
-      <c r="C122" s="23"/>
-      <c r="D122" s="23"/>
-      <c r="E122" s="23"/>
-      <c r="F122" s="22">
+      <c r="C122" s="28"/>
+      <c r="D122" s="28"/>
+      <c r="E122" s="28"/>
+      <c r="F122" s="27">
         <v>2001</v>
       </c>
-      <c r="G122" s="23"/>
-      <c r="H122" s="23"/>
-      <c r="I122" s="23"/>
-      <c r="J122" s="22">
+      <c r="G122" s="28"/>
+      <c r="H122" s="28"/>
+      <c r="I122" s="28"/>
+      <c r="J122" s="27">
         <v>2002</v>
       </c>
-      <c r="K122" s="23"/>
-      <c r="L122" s="23"/>
-      <c r="M122" s="23"/>
-      <c r="N122" s="22">
+      <c r="K122" s="28"/>
+      <c r="L122" s="28"/>
+      <c r="M122" s="28"/>
+      <c r="N122" s="27">
         <v>2003</v>
       </c>
-      <c r="O122" s="23"/>
-      <c r="P122" s="23"/>
-      <c r="Q122" s="23"/>
-      <c r="R122" s="22">
+      <c r="O122" s="28"/>
+      <c r="P122" s="28"/>
+      <c r="Q122" s="28"/>
+      <c r="R122" s="27">
         <v>2004</v>
       </c>
-      <c r="S122" s="23"/>
-      <c r="T122" s="23"/>
-      <c r="U122" s="23"/>
-      <c r="V122" s="22">
+      <c r="S122" s="28"/>
+      <c r="T122" s="28"/>
+      <c r="U122" s="28"/>
+      <c r="V122" s="27">
         <v>2005</v>
       </c>
-      <c r="W122" s="23"/>
-      <c r="X122" s="23"/>
-      <c r="Y122" s="23"/>
-      <c r="Z122" s="22">
+      <c r="W122" s="28"/>
+      <c r="X122" s="28"/>
+      <c r="Y122" s="28"/>
+      <c r="Z122" s="27">
         <v>2006</v>
       </c>
-      <c r="AA122" s="23"/>
-      <c r="AB122" s="23"/>
-      <c r="AC122" s="23"/>
-      <c r="AD122" s="22">
+      <c r="AA122" s="28"/>
+      <c r="AB122" s="28"/>
+      <c r="AC122" s="28"/>
+      <c r="AD122" s="27">
         <v>2007</v>
       </c>
-      <c r="AE122" s="23"/>
-      <c r="AF122" s="23"/>
-      <c r="AG122" s="23"/>
-      <c r="AH122" s="22">
+      <c r="AE122" s="28"/>
+      <c r="AF122" s="28"/>
+      <c r="AG122" s="28"/>
+      <c r="AH122" s="27">
         <v>2008</v>
       </c>
-      <c r="AI122" s="23"/>
-      <c r="AJ122" s="23"/>
-      <c r="AK122" s="23"/>
-      <c r="AL122" s="22">
+      <c r="AI122" s="28"/>
+      <c r="AJ122" s="28"/>
+      <c r="AK122" s="28"/>
+      <c r="AL122" s="27">
         <v>2009</v>
       </c>
-      <c r="AM122" s="23"/>
-      <c r="AN122" s="23"/>
-      <c r="AO122" s="23"/>
-      <c r="AP122" s="22">
+      <c r="AM122" s="28"/>
+      <c r="AN122" s="28"/>
+      <c r="AO122" s="28"/>
+      <c r="AP122" s="27">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="23"/>
-      <c r="AR122" s="23"/>
-      <c r="AS122" s="23"/>
-      <c r="AT122" s="22">
+      <c r="AQ122" s="28"/>
+      <c r="AR122" s="28"/>
+      <c r="AS122" s="28"/>
+      <c r="AT122" s="27">
         <v>2011</v>
       </c>
-      <c r="AU122" s="23"/>
-      <c r="AV122" s="23"/>
-      <c r="AW122" s="23"/>
-      <c r="AX122" s="22">
+      <c r="AU122" s="28"/>
+      <c r="AV122" s="28"/>
+      <c r="AW122" s="28"/>
+      <c r="AX122" s="27">
         <v>2012</v>
       </c>
-      <c r="AY122" s="23"/>
-      <c r="AZ122" s="23"/>
-      <c r="BA122" s="23"/>
-      <c r="BB122" s="22">
+      <c r="AY122" s="28"/>
+      <c r="AZ122" s="28"/>
+      <c r="BA122" s="28"/>
+      <c r="BB122" s="27">
         <v>2013</v>
       </c>
-      <c r="BC122" s="23"/>
-      <c r="BD122" s="23"/>
-      <c r="BE122" s="23"/>
-      <c r="BF122" s="22">
+      <c r="BC122" s="28"/>
+      <c r="BD122" s="28"/>
+      <c r="BE122" s="28"/>
+      <c r="BF122" s="27">
         <v>2014</v>
       </c>
-      <c r="BG122" s="23"/>
-      <c r="BH122" s="23"/>
-      <c r="BI122" s="23"/>
-      <c r="BJ122" s="22">
+      <c r="BG122" s="28"/>
+      <c r="BH122" s="28"/>
+      <c r="BI122" s="28"/>
+      <c r="BJ122" s="27">
         <v>2015</v>
       </c>
-      <c r="BK122" s="23"/>
-      <c r="BL122" s="23"/>
-      <c r="BM122" s="23"/>
-      <c r="BN122" s="22">
+      <c r="BK122" s="28"/>
+      <c r="BL122" s="28"/>
+      <c r="BM122" s="28"/>
+      <c r="BN122" s="27">
         <v>2016</v>
       </c>
-      <c r="BO122" s="23"/>
-      <c r="BP122" s="23"/>
-      <c r="BQ122" s="23"/>
-      <c r="BR122" s="22">
+      <c r="BO122" s="28"/>
+      <c r="BP122" s="28"/>
+      <c r="BQ122" s="28"/>
+      <c r="BR122" s="27">
         <v>2017</v>
       </c>
-      <c r="BS122" s="23"/>
-      <c r="BT122" s="23"/>
-      <c r="BU122" s="23"/>
-      <c r="BV122" s="22">
+      <c r="BS122" s="28"/>
+      <c r="BT122" s="28"/>
+      <c r="BU122" s="28"/>
+      <c r="BV122" s="27">
         <v>2018</v>
       </c>
-      <c r="BW122" s="23"/>
-      <c r="BX122" s="23"/>
-      <c r="BY122" s="23"/>
-      <c r="BZ122" s="22">
+      <c r="BW122" s="28"/>
+      <c r="BX122" s="28"/>
+      <c r="BY122" s="28"/>
+      <c r="BZ122" s="27">
         <v>2019</v>
       </c>
-      <c r="CA122" s="23"/>
-      <c r="CB122" s="23"/>
-      <c r="CC122" s="23"/>
-      <c r="CD122" s="22">
+      <c r="CA122" s="28"/>
+      <c r="CB122" s="28"/>
+      <c r="CC122" s="28"/>
+      <c r="CD122" s="27">
         <v>2020</v>
       </c>
-      <c r="CE122" s="23"/>
-      <c r="CF122" s="23"/>
-      <c r="CG122" s="23"/>
-      <c r="CH122" s="22">
+      <c r="CE122" s="27"/>
+      <c r="CF122" s="27"/>
+      <c r="CG122" s="27"/>
+      <c r="CH122" s="27">
         <v>2021</v>
       </c>
-      <c r="CI122" s="23"/>
-      <c r="CJ122" s="23"/>
-      <c r="CK122" s="23"/>
-      <c r="CL122" s="22">
+      <c r="CI122" s="27"/>
+      <c r="CJ122" s="27"/>
+      <c r="CK122" s="27"/>
+      <c r="CL122" s="27">
         <v>2022</v>
       </c>
-      <c r="CM122" s="23"/>
-      <c r="CN122" s="23"/>
-      <c r="CO122" s="23"/>
+      <c r="CM122" s="27"/>
+      <c r="CN122" s="27"/>
+      <c r="CO122" s="27"/>
+      <c r="CP122" s="22">
+        <v>2023</v>
+      </c>
     </row>
     <row r="123" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
@@ -36350,6 +36449,9 @@
       </c>
       <c r="CO123" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="CP123" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36635,7 +36737,9 @@
       <c r="CO125" s="18">
         <v>7.1790656138510061</v>
       </c>
-      <c r="CP125" s="10"/>
+      <c r="CP125" s="18">
+        <v>7.1988001263936656</v>
+      </c>
       <c r="CQ125" s="10"/>
       <c r="CR125" s="10"/>
       <c r="CS125" s="10"/>
@@ -36978,7 +37082,9 @@
       <c r="CO126" s="18">
         <v>92.820934386149005</v>
       </c>
-      <c r="CP126" s="10"/>
+      <c r="CP126" s="18">
+        <v>92.801199873606336</v>
+      </c>
       <c r="CQ126" s="10"/>
       <c r="CR126" s="10"/>
       <c r="CS126" s="10"/>
@@ -37134,7 +37240,7 @@
       <c r="CM127" s="19"/>
       <c r="CN127" s="19"/>
       <c r="CO127" s="19"/>
-      <c r="CP127" s="10"/>
+      <c r="CP127" s="19"/>
       <c r="CQ127" s="10"/>
       <c r="CR127" s="10"/>
       <c r="CS127" s="10"/>
@@ -37477,7 +37583,9 @@
       <c r="CO128" s="18">
         <v>100</v>
       </c>
-      <c r="CP128" s="10"/>
+      <c r="CP128" s="18">
+        <v>100</v>
+      </c>
       <c r="CQ128" s="10"/>
       <c r="CR128" s="10"/>
       <c r="CS128" s="10"/>
@@ -37634,6 +37742,7 @@
       <c r="CM129" s="16"/>
       <c r="CN129" s="16"/>
       <c r="CO129" s="16"/>
+      <c r="CP129" s="16"/>
     </row>
     <row r="130" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
@@ -37734,7 +37843,7 @@
       <c r="CM131" s="11"/>
       <c r="CN131" s="11"/>
       <c r="CO131" s="11"/>
-      <c r="CP131" s="20"/>
+      <c r="CP131" s="11"/>
       <c r="CQ131" s="20"/>
       <c r="CR131" s="20"/>
       <c r="CS131" s="20"/>
@@ -37891,7 +38000,7 @@
       <c r="CM132" s="11"/>
       <c r="CN132" s="11"/>
       <c r="CO132" s="11"/>
-      <c r="CP132" s="20"/>
+      <c r="CP132" s="11"/>
       <c r="CQ132" s="20"/>
       <c r="CR132" s="20"/>
       <c r="CS132" s="20"/>
@@ -37955,7 +38064,10 @@
       <c r="EY132" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="161">
+  <mergeCells count="159">
+    <mergeCell ref="BZ122:CC122"/>
+    <mergeCell ref="BR103:BU103"/>
+    <mergeCell ref="BV103:BY103"/>
     <mergeCell ref="BF47:BI47"/>
     <mergeCell ref="BJ47:BM47"/>
     <mergeCell ref="BN47:BQ47"/>
@@ -37968,21 +38080,11 @@
     <mergeCell ref="AT66:AW66"/>
     <mergeCell ref="BF28:BI28"/>
     <mergeCell ref="BF66:BI66"/>
-    <mergeCell ref="BJ122:BM122"/>
-    <mergeCell ref="BN122:BQ122"/>
-    <mergeCell ref="BJ103:BM103"/>
-    <mergeCell ref="BN103:BQ103"/>
-    <mergeCell ref="BR122:BU122"/>
-    <mergeCell ref="BV122:BY122"/>
-    <mergeCell ref="BZ122:CC122"/>
-    <mergeCell ref="BR103:BU103"/>
-    <mergeCell ref="BV103:BY103"/>
     <mergeCell ref="AT84:AW84"/>
     <mergeCell ref="AX84:BA84"/>
     <mergeCell ref="BB84:BE84"/>
     <mergeCell ref="BF84:BI84"/>
     <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="CD84:CG84"/>
     <mergeCell ref="BN66:BQ66"/>
     <mergeCell ref="BR84:BU84"/>
     <mergeCell ref="BV84:BY84"/>
@@ -37998,6 +38100,12 @@
     <mergeCell ref="AT103:AW103"/>
     <mergeCell ref="AX103:BA103"/>
     <mergeCell ref="BF122:BI122"/>
+    <mergeCell ref="BJ122:BM122"/>
+    <mergeCell ref="BN122:BQ122"/>
+    <mergeCell ref="BJ103:BM103"/>
+    <mergeCell ref="BN103:BQ103"/>
+    <mergeCell ref="BR122:BU122"/>
+    <mergeCell ref="BV122:BY122"/>
     <mergeCell ref="Z103:AC103"/>
     <mergeCell ref="Z84:AC84"/>
     <mergeCell ref="AD84:AG84"/>
@@ -38115,17 +38223,16 @@
     <mergeCell ref="CD28:CG28"/>
     <mergeCell ref="CL103:CO103"/>
     <mergeCell ref="CL122:CO122"/>
-    <mergeCell ref="CL47:CO47"/>
-    <mergeCell ref="CL66:CO66"/>
+    <mergeCell ref="CD84:CG84"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="92" man="1"/>
-    <brk id="76" max="92" man="1"/>
-    <brk id="94" max="92" man="1"/>
+    <brk id="38" max="93" man="1"/>
+    <brk id="76" max="93" man="1"/>
+    <brk id="94" max="93" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-16IAC_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-16IAC_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7393D160-4287-46E6-9ACB-BEF764A971E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A79F372-79F3-4254-A54A-FBA53437C0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="2730" windowWidth="28770" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAC" sheetId="10" r:id="rId1"/>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IAC!$A$1:$CP$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IAC!$A$1:$CQ$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -616,13 +616,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of May 2023</t>
+    <t>As of August 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2023</t>
+    <t>Q1 2000 to Q2 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2023</t>
+    <t>Q1 2001 to Q2 2023</t>
   </si>
 </sst>
 </file>
@@ -722,7 +722,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -757,9 +757,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -23640,14 +23637,14 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BS1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CD1" sqref="CD1:CP1048576"/>
+      <selection pane="topRight" activeCell="CR6" sqref="CR6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.6640625" style="1" customWidth="1"/>
-    <col min="2" max="94" width="11.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="95" max="16384" width="7.77734375" style="11"/>
+    <col min="2" max="95" width="11.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="96" max="16384" width="7.77734375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -23773,6 +23770,7 @@
       <c r="CN7" s="4"/>
       <c r="CO7" s="4"/>
       <c r="CP7" s="4"/>
+      <c r="CQ7" s="4"/>
     </row>
     <row r="8" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
@@ -23868,150 +23866,152 @@
       <c r="CN8" s="4"/>
       <c r="CO8" s="4"/>
       <c r="CP8" s="4"/>
+      <c r="CQ8" s="4"/>
     </row>
     <row r="9" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="27">
+      <c r="B9" s="26">
         <v>2000</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26">
         <v>2001</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27">
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26">
         <v>2002</v>
       </c>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27">
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26">
         <v>2003</v>
       </c>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27">
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26">
         <v>2004</v>
       </c>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27">
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26">
         <v>2005</v>
       </c>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27">
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26">
         <v>2006</v>
       </c>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27">
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26">
         <v>2007</v>
       </c>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="27"/>
-      <c r="AH9" s="27">
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="26">
         <v>2008</v>
       </c>
-      <c r="AI9" s="27"/>
-      <c r="AJ9" s="27"/>
-      <c r="AK9" s="27"/>
-      <c r="AL9" s="27">
+      <c r="AI9" s="26"/>
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="26"/>
+      <c r="AL9" s="26">
         <v>2009</v>
       </c>
-      <c r="AM9" s="27"/>
-      <c r="AN9" s="27"/>
-      <c r="AO9" s="27"/>
-      <c r="AP9" s="27">
+      <c r="AM9" s="26"/>
+      <c r="AN9" s="26"/>
+      <c r="AO9" s="26"/>
+      <c r="AP9" s="26">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="27"/>
-      <c r="AR9" s="27"/>
-      <c r="AS9" s="27"/>
-      <c r="AT9" s="27">
+      <c r="AQ9" s="26"/>
+      <c r="AR9" s="26"/>
+      <c r="AS9" s="26"/>
+      <c r="AT9" s="26">
         <v>2011</v>
       </c>
-      <c r="AU9" s="27"/>
-      <c r="AV9" s="27"/>
-      <c r="AW9" s="27"/>
-      <c r="AX9" s="27">
+      <c r="AU9" s="26"/>
+      <c r="AV9" s="26"/>
+      <c r="AW9" s="26"/>
+      <c r="AX9" s="26">
         <v>2012</v>
       </c>
-      <c r="AY9" s="27"/>
-      <c r="AZ9" s="27"/>
-      <c r="BA9" s="27"/>
-      <c r="BB9" s="27">
+      <c r="AY9" s="26"/>
+      <c r="AZ9" s="26"/>
+      <c r="BA9" s="26"/>
+      <c r="BB9" s="26">
         <v>2013</v>
       </c>
-      <c r="BC9" s="27"/>
-      <c r="BD9" s="27"/>
-      <c r="BE9" s="27"/>
-      <c r="BF9" s="27">
+      <c r="BC9" s="26"/>
+      <c r="BD9" s="26"/>
+      <c r="BE9" s="26"/>
+      <c r="BF9" s="26">
         <v>2014</v>
       </c>
-      <c r="BG9" s="27"/>
-      <c r="BH9" s="27"/>
-      <c r="BI9" s="27"/>
-      <c r="BJ9" s="27">
+      <c r="BG9" s="26"/>
+      <c r="BH9" s="26"/>
+      <c r="BI9" s="26"/>
+      <c r="BJ9" s="26">
         <v>2015</v>
       </c>
-      <c r="BK9" s="27"/>
-      <c r="BL9" s="27"/>
-      <c r="BM9" s="27"/>
-      <c r="BN9" s="27">
+      <c r="BK9" s="26"/>
+      <c r="BL9" s="26"/>
+      <c r="BM9" s="26"/>
+      <c r="BN9" s="26">
         <v>2016</v>
       </c>
-      <c r="BO9" s="27"/>
-      <c r="BP9" s="27"/>
-      <c r="BQ9" s="27"/>
-      <c r="BR9" s="27">
+      <c r="BO9" s="26"/>
+      <c r="BP9" s="26"/>
+      <c r="BQ9" s="26"/>
+      <c r="BR9" s="26">
         <v>2017</v>
       </c>
-      <c r="BS9" s="27"/>
-      <c r="BT9" s="27"/>
-      <c r="BU9" s="27"/>
-      <c r="BV9" s="27">
+      <c r="BS9" s="26"/>
+      <c r="BT9" s="26"/>
+      <c r="BU9" s="26"/>
+      <c r="BV9" s="26">
         <v>2018</v>
       </c>
-      <c r="BW9" s="27"/>
-      <c r="BX9" s="27"/>
-      <c r="BY9" s="27"/>
-      <c r="BZ9" s="27">
+      <c r="BW9" s="26"/>
+      <c r="BX9" s="26"/>
+      <c r="BY9" s="26"/>
+      <c r="BZ9" s="26">
         <v>2019</v>
       </c>
-      <c r="CA9" s="27"/>
-      <c r="CB9" s="27"/>
-      <c r="CC9" s="27"/>
-      <c r="CD9" s="27">
+      <c r="CA9" s="26"/>
+      <c r="CB9" s="26"/>
+      <c r="CC9" s="26"/>
+      <c r="CD9" s="26">
         <v>2020</v>
       </c>
-      <c r="CE9" s="27"/>
-      <c r="CF9" s="27"/>
-      <c r="CG9" s="27"/>
-      <c r="CH9" s="27">
+      <c r="CE9" s="26"/>
+      <c r="CF9" s="26"/>
+      <c r="CG9" s="26"/>
+      <c r="CH9" s="26">
         <v>2021</v>
       </c>
-      <c r="CI9" s="27"/>
-      <c r="CJ9" s="27"/>
-      <c r="CK9" s="27"/>
-      <c r="CL9" s="27">
+      <c r="CI9" s="26"/>
+      <c r="CJ9" s="26"/>
+      <c r="CK9" s="26"/>
+      <c r="CL9" s="26">
         <v>2022</v>
       </c>
-      <c r="CM9" s="27"/>
-      <c r="CN9" s="27"/>
-      <c r="CO9" s="27"/>
-      <c r="CP9" s="22">
+      <c r="CM9" s="26"/>
+      <c r="CN9" s="26"/>
+      <c r="CO9" s="26"/>
+      <c r="CP9" s="26">
         <v>2023</v>
       </c>
+      <c r="CQ9" s="28"/>
     </row>
     <row r="10" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24295,6 +24295,9 @@
       </c>
       <c r="CP10" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ10" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24544,46 +24547,48 @@
       <c r="CC12" s="9">
         <v>14681.98380856662</v>
       </c>
-      <c r="CD12" s="23">
+      <c r="CD12" s="22">
         <v>11393.980116868197</v>
       </c>
-      <c r="CE12" s="23">
+      <c r="CE12" s="22">
         <v>12108.573048409726</v>
       </c>
-      <c r="CF12" s="23">
+      <c r="CF12" s="22">
         <v>10244.740905068393</v>
       </c>
-      <c r="CG12" s="23">
+      <c r="CG12" s="22">
         <v>12909.246363876082</v>
       </c>
-      <c r="CH12" s="23">
+      <c r="CH12" s="22">
         <v>12113.544674658446</v>
       </c>
-      <c r="CI12" s="23">
+      <c r="CI12" s="22">
         <v>14605.254957948833</v>
       </c>
-      <c r="CJ12" s="23">
+      <c r="CJ12" s="22">
         <v>11165.172496488034</v>
       </c>
-      <c r="CK12" s="23">
+      <c r="CK12" s="22">
         <v>13481.466265734161</v>
       </c>
-      <c r="CL12" s="23">
+      <c r="CL12" s="22">
         <v>13618.938029108591</v>
       </c>
-      <c r="CM12" s="23">
+      <c r="CM12" s="22">
         <v>17152.109253352814</v>
       </c>
-      <c r="CN12" s="23">
+      <c r="CN12" s="22">
         <v>11467.388885437951</v>
       </c>
-      <c r="CO12" s="23">
+      <c r="CO12" s="22">
         <v>15287.660204593572</v>
       </c>
-      <c r="CP12" s="23">
-        <v>13162.474474463728</v>
-      </c>
-      <c r="CQ12" s="10"/>
+      <c r="CP12" s="22">
+        <v>13399.142576240818</v>
+      </c>
+      <c r="CQ12" s="22">
+        <v>17503.924696636306</v>
+      </c>
       <c r="CR12" s="10"/>
       <c r="CS12" s="10"/>
       <c r="CT12" s="10"/>
@@ -24889,46 +24894,48 @@
       <c r="CC13" s="13">
         <v>151072.99259984598</v>
       </c>
-      <c r="CD13" s="24">
+      <c r="CD13" s="23">
         <v>124728.56156237319</v>
       </c>
-      <c r="CE13" s="24">
+      <c r="CE13" s="23">
         <v>144553.35300760382</v>
       </c>
-      <c r="CF13" s="24">
+      <c r="CF13" s="23">
         <v>121094.282752477</v>
       </c>
-      <c r="CG13" s="24">
+      <c r="CG13" s="23">
         <v>156006.63750067563</v>
       </c>
-      <c r="CH13" s="24">
+      <c r="CH13" s="23">
         <v>132765.03266022948</v>
       </c>
-      <c r="CI13" s="24">
+      <c r="CI13" s="23">
         <v>156621.19254735979</v>
       </c>
-      <c r="CJ13" s="24">
+      <c r="CJ13" s="23">
         <v>129862.37479275418</v>
       </c>
-      <c r="CK13" s="24">
+      <c r="CK13" s="23">
         <v>169419.52233407189</v>
       </c>
-      <c r="CL13" s="24">
+      <c r="CL13" s="23">
         <v>143078.8377046432</v>
       </c>
-      <c r="CM13" s="24">
+      <c r="CM13" s="23">
         <v>173268.33232693363</v>
       </c>
-      <c r="CN13" s="24">
+      <c r="CN13" s="23">
         <v>141323.89577210028</v>
       </c>
-      <c r="CO13" s="24">
+      <c r="CO13" s="23">
         <v>180478.08991273583</v>
       </c>
-      <c r="CP13" s="24">
-        <v>153085.61184264557</v>
-      </c>
-      <c r="CQ13" s="10"/>
+      <c r="CP13" s="23">
+        <v>152379.01702535362</v>
+      </c>
+      <c r="CQ13" s="23">
+        <v>182766.8439164492</v>
+      </c>
       <c r="CR13" s="10"/>
       <c r="CS13" s="10"/>
       <c r="CT13" s="10"/>
@@ -25071,20 +25078,20 @@
       <c r="CA14" s="14"/>
       <c r="CB14" s="14"/>
       <c r="CC14" s="14"/>
-      <c r="CD14" s="25"/>
-      <c r="CE14" s="25"/>
-      <c r="CF14" s="25"/>
-      <c r="CG14" s="25"/>
-      <c r="CH14" s="25"/>
-      <c r="CI14" s="25"/>
-      <c r="CJ14" s="25"/>
-      <c r="CK14" s="25"/>
-      <c r="CL14" s="25"/>
-      <c r="CM14" s="25"/>
-      <c r="CN14" s="25"/>
-      <c r="CO14" s="25"/>
-      <c r="CP14" s="25"/>
-      <c r="CQ14" s="10"/>
+      <c r="CD14" s="24"/>
+      <c r="CE14" s="24"/>
+      <c r="CF14" s="24"/>
+      <c r="CG14" s="24"/>
+      <c r="CH14" s="24"/>
+      <c r="CI14" s="24"/>
+      <c r="CJ14" s="24"/>
+      <c r="CK14" s="24"/>
+      <c r="CL14" s="24"/>
+      <c r="CM14" s="24"/>
+      <c r="CN14" s="24"/>
+      <c r="CO14" s="24"/>
+      <c r="CP14" s="24"/>
+      <c r="CQ14" s="24"/>
       <c r="CR14" s="10"/>
       <c r="CS14" s="10"/>
       <c r="CT14" s="10"/>
@@ -25390,46 +25397,48 @@
       <c r="CC15" s="15">
         <v>165754.97640841259</v>
       </c>
-      <c r="CD15" s="26">
+      <c r="CD15" s="25">
         <v>136122.54167924137</v>
       </c>
-      <c r="CE15" s="26">
+      <c r="CE15" s="25">
         <v>156661.92605601353</v>
       </c>
-      <c r="CF15" s="26">
+      <c r="CF15" s="25">
         <v>131339.02365754539</v>
       </c>
-      <c r="CG15" s="26">
+      <c r="CG15" s="25">
         <v>168915.88386455172</v>
       </c>
-      <c r="CH15" s="26">
+      <c r="CH15" s="25">
         <v>144878.57733488793</v>
       </c>
-      <c r="CI15" s="26">
+      <c r="CI15" s="25">
         <v>171226.44750530864</v>
       </c>
-      <c r="CJ15" s="26">
+      <c r="CJ15" s="25">
         <v>141027.54728924221</v>
       </c>
-      <c r="CK15" s="26">
+      <c r="CK15" s="25">
         <v>182900.98859980606</v>
       </c>
-      <c r="CL15" s="26">
+      <c r="CL15" s="25">
         <v>156697.7757337518</v>
       </c>
-      <c r="CM15" s="26">
+      <c r="CM15" s="25">
         <v>190420.44158028642</v>
       </c>
-      <c r="CN15" s="26">
+      <c r="CN15" s="25">
         <v>152791.28465753823</v>
       </c>
-      <c r="CO15" s="26">
+      <c r="CO15" s="25">
         <v>195765.75011732941</v>
       </c>
-      <c r="CP15" s="26">
-        <v>166248.08631710929</v>
-      </c>
-      <c r="CQ15" s="10"/>
+      <c r="CP15" s="25">
+        <v>165778.15960159444</v>
+      </c>
+      <c r="CQ15" s="25">
+        <v>200270.7686130855</v>
+      </c>
       <c r="CR15" s="10"/>
       <c r="CS15" s="10"/>
       <c r="CT15" s="10"/>
@@ -25586,6 +25595,7 @@
       <c r="CN16" s="16"/>
       <c r="CO16" s="16"/>
       <c r="CP16" s="16"/>
+      <c r="CQ16" s="16"/>
     </row>
     <row r="17" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
@@ -26027,6 +26037,7 @@
       <c r="CN26" s="4"/>
       <c r="CO26" s="4"/>
       <c r="CP26" s="4"/>
+      <c r="CQ26" s="4"/>
     </row>
     <row r="27" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
@@ -26122,150 +26133,152 @@
       <c r="CN27" s="4"/>
       <c r="CO27" s="4"/>
       <c r="CP27" s="4"/>
+      <c r="CQ27" s="4"/>
     </row>
     <row r="28" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="27">
+      <c r="B28" s="26">
         <v>2000</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="27">
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="26">
         <v>2001</v>
       </c>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="27">
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="26">
         <v>2002</v>
       </c>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="27">
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="26">
         <v>2003</v>
       </c>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="27">
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="26">
         <v>2004</v>
       </c>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="27">
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="26">
         <v>2005</v>
       </c>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="27">
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="26">
         <v>2006</v>
       </c>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="27">
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="26">
         <v>2007</v>
       </c>
-      <c r="AE28" s="28"/>
-      <c r="AF28" s="28"/>
-      <c r="AG28" s="28"/>
-      <c r="AH28" s="27">
+      <c r="AE28" s="27"/>
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="27"/>
+      <c r="AH28" s="26">
         <v>2008</v>
       </c>
-      <c r="AI28" s="28"/>
-      <c r="AJ28" s="28"/>
-      <c r="AK28" s="28"/>
-      <c r="AL28" s="27">
+      <c r="AI28" s="27"/>
+      <c r="AJ28" s="27"/>
+      <c r="AK28" s="27"/>
+      <c r="AL28" s="26">
         <v>2009</v>
       </c>
-      <c r="AM28" s="28"/>
-      <c r="AN28" s="28"/>
-      <c r="AO28" s="28"/>
-      <c r="AP28" s="27">
+      <c r="AM28" s="27"/>
+      <c r="AN28" s="27"/>
+      <c r="AO28" s="27"/>
+      <c r="AP28" s="26">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="28"/>
-      <c r="AR28" s="28"/>
-      <c r="AS28" s="28"/>
-      <c r="AT28" s="27">
+      <c r="AQ28" s="27"/>
+      <c r="AR28" s="27"/>
+      <c r="AS28" s="27"/>
+      <c r="AT28" s="26">
         <v>2011</v>
       </c>
-      <c r="AU28" s="28"/>
-      <c r="AV28" s="28"/>
-      <c r="AW28" s="28"/>
-      <c r="AX28" s="27">
+      <c r="AU28" s="27"/>
+      <c r="AV28" s="27"/>
+      <c r="AW28" s="27"/>
+      <c r="AX28" s="26">
         <v>2012</v>
       </c>
-      <c r="AY28" s="28"/>
-      <c r="AZ28" s="28"/>
-      <c r="BA28" s="28"/>
-      <c r="BB28" s="27">
+      <c r="AY28" s="27"/>
+      <c r="AZ28" s="27"/>
+      <c r="BA28" s="27"/>
+      <c r="BB28" s="26">
         <v>2013</v>
       </c>
-      <c r="BC28" s="28"/>
-      <c r="BD28" s="28"/>
-      <c r="BE28" s="28"/>
-      <c r="BF28" s="27">
+      <c r="BC28" s="27"/>
+      <c r="BD28" s="27"/>
+      <c r="BE28" s="27"/>
+      <c r="BF28" s="26">
         <v>2014</v>
       </c>
-      <c r="BG28" s="28"/>
-      <c r="BH28" s="28"/>
-      <c r="BI28" s="28"/>
-      <c r="BJ28" s="27">
+      <c r="BG28" s="27"/>
+      <c r="BH28" s="27"/>
+      <c r="BI28" s="27"/>
+      <c r="BJ28" s="26">
         <v>2015</v>
       </c>
-      <c r="BK28" s="28"/>
-      <c r="BL28" s="28"/>
-      <c r="BM28" s="28"/>
-      <c r="BN28" s="27">
+      <c r="BK28" s="27"/>
+      <c r="BL28" s="27"/>
+      <c r="BM28" s="27"/>
+      <c r="BN28" s="26">
         <v>2016</v>
       </c>
-      <c r="BO28" s="28"/>
-      <c r="BP28" s="28"/>
-      <c r="BQ28" s="28"/>
-      <c r="BR28" s="27">
+      <c r="BO28" s="27"/>
+      <c r="BP28" s="27"/>
+      <c r="BQ28" s="27"/>
+      <c r="BR28" s="26">
         <v>2017</v>
       </c>
-      <c r="BS28" s="28"/>
-      <c r="BT28" s="28"/>
-      <c r="BU28" s="28"/>
-      <c r="BV28" s="27">
+      <c r="BS28" s="27"/>
+      <c r="BT28" s="27"/>
+      <c r="BU28" s="27"/>
+      <c r="BV28" s="26">
         <v>2018</v>
       </c>
-      <c r="BW28" s="28"/>
-      <c r="BX28" s="28"/>
-      <c r="BY28" s="28"/>
-      <c r="BZ28" s="27">
+      <c r="BW28" s="27"/>
+      <c r="BX28" s="27"/>
+      <c r="BY28" s="27"/>
+      <c r="BZ28" s="26">
         <v>2019</v>
       </c>
-      <c r="CA28" s="28"/>
-      <c r="CB28" s="28"/>
-      <c r="CC28" s="28"/>
-      <c r="CD28" s="27">
+      <c r="CA28" s="27"/>
+      <c r="CB28" s="27"/>
+      <c r="CC28" s="27"/>
+      <c r="CD28" s="26">
         <v>2020</v>
       </c>
-      <c r="CE28" s="27"/>
-      <c r="CF28" s="27"/>
-      <c r="CG28" s="27"/>
-      <c r="CH28" s="27">
+      <c r="CE28" s="26"/>
+      <c r="CF28" s="26"/>
+      <c r="CG28" s="26"/>
+      <c r="CH28" s="26">
         <v>2021</v>
       </c>
-      <c r="CI28" s="27"/>
-      <c r="CJ28" s="27"/>
-      <c r="CK28" s="27"/>
-      <c r="CL28" s="27">
+      <c r="CI28" s="26"/>
+      <c r="CJ28" s="26"/>
+      <c r="CK28" s="26"/>
+      <c r="CL28" s="26">
         <v>2022</v>
       </c>
-      <c r="CM28" s="27"/>
-      <c r="CN28" s="27"/>
-      <c r="CO28" s="27"/>
-      <c r="CP28" s="22">
+      <c r="CM28" s="26"/>
+      <c r="CN28" s="26"/>
+      <c r="CO28" s="26"/>
+      <c r="CP28" s="26">
         <v>2023</v>
       </c>
+      <c r="CQ28" s="28"/>
     </row>
     <row r="29" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
@@ -26549,6 +26562,9 @@
       </c>
       <c r="CP29" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ29" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26798,46 +26814,48 @@
       <c r="CC31" s="9">
         <v>14230.028474379236</v>
       </c>
-      <c r="CD31" s="23">
+      <c r="CD31" s="22">
         <v>11120.821393148262</v>
       </c>
-      <c r="CE31" s="23">
+      <c r="CE31" s="22">
         <v>12690.909792573402</v>
       </c>
-      <c r="CF31" s="23">
+      <c r="CF31" s="22">
         <v>9836.4756992029033</v>
       </c>
-      <c r="CG31" s="23">
+      <c r="CG31" s="22">
         <v>12359.835018081292</v>
       </c>
-      <c r="CH31" s="23">
+      <c r="CH31" s="22">
         <v>11752.137308528625</v>
       </c>
-      <c r="CI31" s="23">
+      <c r="CI31" s="22">
         <v>15161.936536093632</v>
       </c>
-      <c r="CJ31" s="23">
+      <c r="CJ31" s="22">
         <v>10497.799914721076</v>
       </c>
-      <c r="CK31" s="23">
+      <c r="CK31" s="22">
         <v>12630.69882945955</v>
       </c>
-      <c r="CL31" s="23">
+      <c r="CL31" s="22">
         <v>12944.695738166523</v>
       </c>
-      <c r="CM31" s="23">
+      <c r="CM31" s="22">
         <v>17785.341151424225</v>
       </c>
-      <c r="CN31" s="23">
+      <c r="CN31" s="22">
         <v>10543.344914866946</v>
       </c>
-      <c r="CO31" s="23">
+      <c r="CO31" s="22">
         <v>13846.543308001339</v>
       </c>
-      <c r="CP31" s="23">
-        <v>11918.940118025617</v>
-      </c>
-      <c r="CQ31" s="10"/>
+      <c r="CP31" s="22">
+        <v>12122.940622151416</v>
+      </c>
+      <c r="CQ31" s="22">
+        <v>17414.170692351126</v>
+      </c>
       <c r="CR31" s="10"/>
       <c r="CS31" s="10"/>
       <c r="CT31" s="10"/>
@@ -27143,46 +27161,48 @@
       <c r="CC32" s="13">
         <v>149810.51456454353</v>
       </c>
-      <c r="CD32" s="24">
+      <c r="CD32" s="23">
         <v>126624.64149777297</v>
       </c>
-      <c r="CE32" s="24">
+      <c r="CE32" s="23">
         <v>142972.21571596686</v>
       </c>
-      <c r="CF32" s="24">
+      <c r="CF32" s="23">
         <v>114602.05535598358</v>
       </c>
-      <c r="CG32" s="24">
+      <c r="CG32" s="23">
         <v>154978.16252944485</v>
       </c>
-      <c r="CH32" s="24">
+      <c r="CH32" s="23">
         <v>135096.28078563506</v>
       </c>
-      <c r="CI32" s="24">
+      <c r="CI32" s="23">
         <v>160162.09878251256</v>
       </c>
-      <c r="CJ32" s="24">
+      <c r="CJ32" s="23">
         <v>124617.58590255863</v>
       </c>
-      <c r="CK32" s="24">
+      <c r="CK32" s="23">
         <v>169052.81165885623</v>
       </c>
-      <c r="CL32" s="24">
+      <c r="CL32" s="23">
         <v>144638.98927942221</v>
       </c>
-      <c r="CM32" s="24">
+      <c r="CM32" s="23">
         <v>176085.42660207796</v>
       </c>
-      <c r="CN32" s="24">
+      <c r="CN32" s="23">
         <v>134996.14611586751</v>
       </c>
-      <c r="CO32" s="24">
+      <c r="CO32" s="23">
         <v>179027.3493791802</v>
       </c>
-      <c r="CP32" s="24">
-        <v>153649.48668585299</v>
-      </c>
-      <c r="CQ32" s="10"/>
+      <c r="CP32" s="23">
+        <v>152940.2892004395</v>
+      </c>
+      <c r="CQ32" s="23">
+        <v>184472.38340550163</v>
+      </c>
       <c r="CR32" s="10"/>
       <c r="CS32" s="10"/>
       <c r="CT32" s="10"/>
@@ -27644,46 +27664,48 @@
       <c r="CC34" s="15">
         <v>164040.54303892277</v>
       </c>
-      <c r="CD34" s="26">
+      <c r="CD34" s="25">
         <v>137745.46289092125</v>
       </c>
-      <c r="CE34" s="26">
+      <c r="CE34" s="25">
         <v>155663.12550854025</v>
       </c>
-      <c r="CF34" s="26">
+      <c r="CF34" s="25">
         <v>124438.53105518648</v>
       </c>
-      <c r="CG34" s="26">
+      <c r="CG34" s="25">
         <v>167337.99754752615</v>
       </c>
-      <c r="CH34" s="26">
+      <c r="CH34" s="25">
         <v>146848.41809416367</v>
       </c>
-      <c r="CI34" s="26">
+      <c r="CI34" s="25">
         <v>175324.03531860618</v>
       </c>
-      <c r="CJ34" s="26">
+      <c r="CJ34" s="25">
         <v>135115.38581727969</v>
       </c>
-      <c r="CK34" s="26">
+      <c r="CK34" s="25">
         <v>181683.51048831578</v>
       </c>
-      <c r="CL34" s="26">
+      <c r="CL34" s="25">
         <v>157583.68501758872</v>
       </c>
-      <c r="CM34" s="26">
+      <c r="CM34" s="25">
         <v>193870.76775350218</v>
       </c>
-      <c r="CN34" s="26">
+      <c r="CN34" s="25">
         <v>145539.49103073444</v>
       </c>
-      <c r="CO34" s="26">
+      <c r="CO34" s="25">
         <v>192873.89268718153</v>
       </c>
-      <c r="CP34" s="26">
-        <v>165568.4268038786</v>
-      </c>
-      <c r="CQ34" s="10"/>
+      <c r="CP34" s="25">
+        <v>165063.22982259092</v>
+      </c>
+      <c r="CQ34" s="25">
+        <v>201886.55409785276</v>
+      </c>
       <c r="CR34" s="10"/>
       <c r="CS34" s="10"/>
       <c r="CT34" s="10"/>
@@ -27840,6 +27862,7 @@
       <c r="CN35" s="16"/>
       <c r="CO35" s="16"/>
       <c r="CP35" s="16"/>
+      <c r="CQ35" s="16"/>
     </row>
     <row r="36" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
@@ -28192,145 +28215,146 @@
     <row r="46" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27" t="s">
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27" t="s">
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27" t="s">
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="27"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="27" t="s">
+      <c r="O47" s="26"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="27"/>
-      <c r="T47" s="27"/>
-      <c r="U47" s="27"/>
-      <c r="V47" s="27" t="s">
+      <c r="S47" s="26"/>
+      <c r="T47" s="26"/>
+      <c r="U47" s="26"/>
+      <c r="V47" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="27"/>
-      <c r="X47" s="27"/>
-      <c r="Y47" s="27"/>
-      <c r="Z47" s="27" t="s">
+      <c r="W47" s="26"/>
+      <c r="X47" s="26"/>
+      <c r="Y47" s="26"/>
+      <c r="Z47" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="27"/>
-      <c r="AB47" s="27"/>
-      <c r="AC47" s="27"/>
-      <c r="AD47" s="27" t="s">
+      <c r="AA47" s="26"/>
+      <c r="AB47" s="26"/>
+      <c r="AC47" s="26"/>
+      <c r="AD47" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="27"/>
-      <c r="AF47" s="27"/>
-      <c r="AG47" s="27"/>
-      <c r="AH47" s="27" t="s">
+      <c r="AE47" s="26"/>
+      <c r="AF47" s="26"/>
+      <c r="AG47" s="26"/>
+      <c r="AH47" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="27"/>
-      <c r="AJ47" s="27"/>
-      <c r="AK47" s="27"/>
-      <c r="AL47" s="27" t="s">
+      <c r="AI47" s="26"/>
+      <c r="AJ47" s="26"/>
+      <c r="AK47" s="26"/>
+      <c r="AL47" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="27"/>
-      <c r="AN47" s="27"/>
-      <c r="AO47" s="27"/>
-      <c r="AP47" s="27" t="s">
+      <c r="AM47" s="26"/>
+      <c r="AN47" s="26"/>
+      <c r="AO47" s="26"/>
+      <c r="AP47" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="27"/>
-      <c r="AR47" s="27"/>
-      <c r="AS47" s="27"/>
-      <c r="AT47" s="27" t="s">
+      <c r="AQ47" s="26"/>
+      <c r="AR47" s="26"/>
+      <c r="AS47" s="26"/>
+      <c r="AT47" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="27"/>
-      <c r="AV47" s="27"/>
-      <c r="AW47" s="27"/>
-      <c r="AX47" s="27" t="s">
+      <c r="AU47" s="26"/>
+      <c r="AV47" s="26"/>
+      <c r="AW47" s="26"/>
+      <c r="AX47" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="27"/>
-      <c r="AZ47" s="27"/>
-      <c r="BA47" s="27"/>
-      <c r="BB47" s="27" t="s">
+      <c r="AY47" s="26"/>
+      <c r="AZ47" s="26"/>
+      <c r="BA47" s="26"/>
+      <c r="BB47" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="27"/>
-      <c r="BD47" s="27"/>
-      <c r="BE47" s="27"/>
-      <c r="BF47" s="27" t="s">
+      <c r="BC47" s="26"/>
+      <c r="BD47" s="26"/>
+      <c r="BE47" s="26"/>
+      <c r="BF47" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="27"/>
-      <c r="BH47" s="27"/>
-      <c r="BI47" s="27"/>
-      <c r="BJ47" s="27" t="s">
+      <c r="BG47" s="26"/>
+      <c r="BH47" s="26"/>
+      <c r="BI47" s="26"/>
+      <c r="BJ47" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="27"/>
-      <c r="BL47" s="27"/>
-      <c r="BM47" s="27"/>
-      <c r="BN47" s="27" t="s">
+      <c r="BK47" s="26"/>
+      <c r="BL47" s="26"/>
+      <c r="BM47" s="26"/>
+      <c r="BN47" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="27"/>
-      <c r="BP47" s="27"/>
-      <c r="BQ47" s="27"/>
-      <c r="BR47" s="27" t="s">
+      <c r="BO47" s="26"/>
+      <c r="BP47" s="26"/>
+      <c r="BQ47" s="26"/>
+      <c r="BR47" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="BS47" s="27"/>
-      <c r="BT47" s="27"/>
-      <c r="BU47" s="27"/>
-      <c r="BV47" s="27" t="s">
+      <c r="BS47" s="26"/>
+      <c r="BT47" s="26"/>
+      <c r="BU47" s="26"/>
+      <c r="BV47" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="BW47" s="27"/>
-      <c r="BX47" s="27"/>
-      <c r="BY47" s="27"/>
-      <c r="BZ47" s="27" t="s">
+      <c r="BW47" s="26"/>
+      <c r="BX47" s="26"/>
+      <c r="BY47" s="26"/>
+      <c r="BZ47" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="CA47" s="27"/>
-      <c r="CB47" s="27"/>
-      <c r="CC47" s="27"/>
-      <c r="CD47" s="27" t="s">
+      <c r="CA47" s="26"/>
+      <c r="CB47" s="26"/>
+      <c r="CC47" s="26"/>
+      <c r="CD47" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="27"/>
-      <c r="CF47" s="27"/>
-      <c r="CG47" s="27"/>
-      <c r="CH47" s="27" t="s">
+      <c r="CE47" s="26"/>
+      <c r="CF47" s="26"/>
+      <c r="CG47" s="26"/>
+      <c r="CH47" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="CI47" s="27"/>
-      <c r="CJ47" s="27"/>
-      <c r="CK47" s="27"/>
-      <c r="CL47" s="22" t="s">
+      <c r="CI47" s="26"/>
+      <c r="CJ47" s="26"/>
+      <c r="CK47" s="26"/>
+      <c r="CL47" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="CM47" s="22"/>
-      <c r="CN47" s="22"/>
-      <c r="CO47" s="22"/>
-      <c r="CP47" s="22"/>
+      <c r="CM47" s="26"/>
+      <c r="CN47" s="26"/>
+      <c r="CO47" s="26"/>
+      <c r="CP47" s="26"/>
+      <c r="CQ47" s="28"/>
     </row>
     <row r="48" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -28603,10 +28627,13 @@
       <c r="CL48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM48" s="6"/>
+      <c r="CM48" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="CN48" s="6"/>
       <c r="CO48" s="6"/>
       <c r="CP48" s="6"/>
+      <c r="CQ48" s="6"/>
     </row>
     <row r="49" spans="1:151" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
@@ -28880,13 +28907,15 @@
         <v>13.397607524711262</v>
       </c>
       <c r="CL50" s="18">
-        <v>-3.3516824415327733</v>
-      </c>
-      <c r="CM50" s="18"/>
+        <v>-1.6138956826001447</v>
+      </c>
+      <c r="CM50" s="18">
+        <v>2.0511497337548832</v>
+      </c>
       <c r="CN50" s="18"/>
       <c r="CO50" s="18"/>
       <c r="CP50" s="18"/>
-      <c r="CQ50" s="10"/>
+      <c r="CQ50" s="18"/>
       <c r="CR50" s="10"/>
       <c r="CS50" s="10"/>
       <c r="CT50" s="10"/>
@@ -29213,13 +29242,15 @@
         <v>6.5273277992473453</v>
       </c>
       <c r="CL51" s="18">
-        <v>6.9938883335488811</v>
-      </c>
-      <c r="CM51" s="18"/>
+        <v>6.5000383494229368</v>
+      </c>
+      <c r="CM51" s="18">
+        <v>5.4819663016050697</v>
+      </c>
       <c r="CN51" s="18"/>
       <c r="CO51" s="18"/>
       <c r="CP51" s="18"/>
-      <c r="CQ51" s="10"/>
+      <c r="CQ51" s="18"/>
       <c r="CR51" s="10"/>
       <c r="CS51" s="10"/>
       <c r="CT51" s="10"/>
@@ -29372,7 +29403,7 @@
       <c r="CN52" s="19"/>
       <c r="CO52" s="19"/>
       <c r="CP52" s="19"/>
-      <c r="CQ52" s="10"/>
+      <c r="CQ52" s="19"/>
       <c r="CR52" s="10"/>
       <c r="CS52" s="10"/>
       <c r="CT52" s="10"/>
@@ -29699,13 +29730,15 @@
         <v>7.0337298972571034</v>
       </c>
       <c r="CL53" s="18">
-        <v>6.0947327035353709</v>
-      </c>
-      <c r="CM53" s="18"/>
+        <v>5.7948390303071733</v>
+      </c>
+      <c r="CM53" s="18">
+        <v>5.1729357158569087</v>
+      </c>
       <c r="CN53" s="18"/>
       <c r="CO53" s="18"/>
       <c r="CP53" s="18"/>
-      <c r="CQ53" s="10"/>
+      <c r="CQ53" s="18"/>
       <c r="CR53" s="10"/>
       <c r="CS53" s="10"/>
       <c r="CT53" s="10"/>
@@ -29858,6 +29891,7 @@
       <c r="CN54" s="16"/>
       <c r="CO54" s="16"/>
       <c r="CP54" s="16"/>
+      <c r="CQ54" s="16"/>
     </row>
     <row r="55" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
@@ -30202,145 +30236,146 @@
     <row r="65" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="66" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
-      <c r="B66" s="27" t="s">
+      <c r="B66" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="27" t="s">
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="27" t="s">
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="29"/>
-      <c r="L66" s="29"/>
-      <c r="M66" s="29"/>
-      <c r="N66" s="27" t="s">
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="29"/>
-      <c r="P66" s="29"/>
-      <c r="Q66" s="29"/>
-      <c r="R66" s="27" t="s">
+      <c r="O66" s="28"/>
+      <c r="P66" s="28"/>
+      <c r="Q66" s="28"/>
+      <c r="R66" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="29"/>
-      <c r="T66" s="29"/>
-      <c r="U66" s="29"/>
-      <c r="V66" s="27" t="s">
+      <c r="S66" s="28"/>
+      <c r="T66" s="28"/>
+      <c r="U66" s="28"/>
+      <c r="V66" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="29"/>
-      <c r="X66" s="29"/>
-      <c r="Y66" s="29"/>
-      <c r="Z66" s="27" t="s">
+      <c r="W66" s="28"/>
+      <c r="X66" s="28"/>
+      <c r="Y66" s="28"/>
+      <c r="Z66" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="29"/>
-      <c r="AB66" s="29"/>
-      <c r="AC66" s="29"/>
-      <c r="AD66" s="27" t="s">
+      <c r="AA66" s="28"/>
+      <c r="AB66" s="28"/>
+      <c r="AC66" s="28"/>
+      <c r="AD66" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="29"/>
-      <c r="AF66" s="29"/>
-      <c r="AG66" s="29"/>
-      <c r="AH66" s="27" t="s">
+      <c r="AE66" s="28"/>
+      <c r="AF66" s="28"/>
+      <c r="AG66" s="28"/>
+      <c r="AH66" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="29"/>
-      <c r="AJ66" s="29"/>
-      <c r="AK66" s="29"/>
-      <c r="AL66" s="27" t="s">
+      <c r="AI66" s="28"/>
+      <c r="AJ66" s="28"/>
+      <c r="AK66" s="28"/>
+      <c r="AL66" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="29"/>
-      <c r="AN66" s="29"/>
-      <c r="AO66" s="29"/>
-      <c r="AP66" s="27" t="s">
+      <c r="AM66" s="28"/>
+      <c r="AN66" s="28"/>
+      <c r="AO66" s="28"/>
+      <c r="AP66" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="29"/>
-      <c r="AR66" s="29"/>
-      <c r="AS66" s="29"/>
-      <c r="AT66" s="27" t="s">
+      <c r="AQ66" s="28"/>
+      <c r="AR66" s="28"/>
+      <c r="AS66" s="28"/>
+      <c r="AT66" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="29"/>
-      <c r="AV66" s="29"/>
-      <c r="AW66" s="29"/>
-      <c r="AX66" s="27" t="s">
+      <c r="AU66" s="28"/>
+      <c r="AV66" s="28"/>
+      <c r="AW66" s="28"/>
+      <c r="AX66" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="29"/>
-      <c r="AZ66" s="29"/>
-      <c r="BA66" s="29"/>
-      <c r="BB66" s="27" t="s">
+      <c r="AY66" s="28"/>
+      <c r="AZ66" s="28"/>
+      <c r="BA66" s="28"/>
+      <c r="BB66" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="29"/>
-      <c r="BD66" s="29"/>
-      <c r="BE66" s="29"/>
-      <c r="BF66" s="27" t="s">
+      <c r="BC66" s="28"/>
+      <c r="BD66" s="28"/>
+      <c r="BE66" s="28"/>
+      <c r="BF66" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="29"/>
-      <c r="BH66" s="29"/>
-      <c r="BI66" s="29"/>
-      <c r="BJ66" s="27" t="s">
+      <c r="BG66" s="28"/>
+      <c r="BH66" s="28"/>
+      <c r="BI66" s="28"/>
+      <c r="BJ66" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="29"/>
-      <c r="BL66" s="29"/>
-      <c r="BM66" s="29"/>
-      <c r="BN66" s="27" t="s">
+      <c r="BK66" s="28"/>
+      <c r="BL66" s="28"/>
+      <c r="BM66" s="28"/>
+      <c r="BN66" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="29"/>
-      <c r="BP66" s="29"/>
-      <c r="BQ66" s="29"/>
-      <c r="BR66" s="27" t="s">
+      <c r="BO66" s="28"/>
+      <c r="BP66" s="28"/>
+      <c r="BQ66" s="28"/>
+      <c r="BR66" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="BS66" s="29"/>
-      <c r="BT66" s="29"/>
-      <c r="BU66" s="29"/>
-      <c r="BV66" s="27" t="s">
+      <c r="BS66" s="28"/>
+      <c r="BT66" s="28"/>
+      <c r="BU66" s="28"/>
+      <c r="BV66" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="BW66" s="29"/>
-      <c r="BX66" s="29"/>
-      <c r="BY66" s="29"/>
-      <c r="BZ66" s="27" t="s">
+      <c r="BW66" s="28"/>
+      <c r="BX66" s="28"/>
+      <c r="BY66" s="28"/>
+      <c r="BZ66" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="CA66" s="29"/>
-      <c r="CB66" s="29"/>
-      <c r="CC66" s="29"/>
-      <c r="CD66" s="27" t="s">
+      <c r="CA66" s="28"/>
+      <c r="CB66" s="28"/>
+      <c r="CC66" s="28"/>
+      <c r="CD66" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="27"/>
-      <c r="CF66" s="27"/>
-      <c r="CG66" s="27"/>
-      <c r="CH66" s="27" t="s">
+      <c r="CE66" s="26"/>
+      <c r="CF66" s="26"/>
+      <c r="CG66" s="26"/>
+      <c r="CH66" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="CI66" s="27"/>
-      <c r="CJ66" s="27"/>
-      <c r="CK66" s="27"/>
-      <c r="CL66" s="22" t="s">
+      <c r="CI66" s="26"/>
+      <c r="CJ66" s="26"/>
+      <c r="CK66" s="26"/>
+      <c r="CL66" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="CM66" s="22"/>
-      <c r="CN66" s="22"/>
-      <c r="CO66" s="22"/>
-      <c r="CP66" s="22"/>
+      <c r="CM66" s="26"/>
+      <c r="CN66" s="26"/>
+      <c r="CO66" s="26"/>
+      <c r="CP66" s="26"/>
+      <c r="CQ66" s="28"/>
     </row>
     <row r="67" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
@@ -30613,10 +30648,13 @@
       <c r="CL67" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM67" s="6"/>
+      <c r="CM67" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="CN67" s="6"/>
       <c r="CO67" s="6"/>
       <c r="CP67" s="6"/>
+      <c r="CQ67" s="6"/>
     </row>
     <row r="68" spans="1:151" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
@@ -30890,13 +30928,15 @@
         <v>9.6261061637063392</v>
       </c>
       <c r="CL69" s="18">
-        <v>-7.9241385111628233</v>
-      </c>
-      <c r="CM69" s="18"/>
+        <v>-6.3481995454881144</v>
+      </c>
+      <c r="CM69" s="18">
+        <v>-2.0869459624808826</v>
+      </c>
       <c r="CN69" s="18"/>
       <c r="CO69" s="18"/>
       <c r="CP69" s="18"/>
-      <c r="CQ69" s="10"/>
+      <c r="CQ69" s="18"/>
       <c r="CR69" s="10"/>
       <c r="CS69" s="10"/>
       <c r="CT69" s="10"/>
@@ -31223,13 +31263,15 @@
         <v>5.9002495270248971</v>
       </c>
       <c r="CL70" s="18">
-        <v>6.2296462740234944</v>
-      </c>
-      <c r="CM70" s="18"/>
+        <v>5.7393237897841942</v>
+      </c>
+      <c r="CM70" s="18">
+        <v>4.7630045059758004</v>
+      </c>
       <c r="CN70" s="18"/>
       <c r="CO70" s="18"/>
       <c r="CP70" s="18"/>
-      <c r="CQ70" s="10"/>
+      <c r="CQ70" s="18"/>
       <c r="CR70" s="10"/>
       <c r="CS70" s="10"/>
       <c r="CT70" s="10"/>
@@ -31381,7 +31423,7 @@
       <c r="CN71" s="19"/>
       <c r="CO71" s="19"/>
       <c r="CP71" s="19"/>
-      <c r="CQ71" s="10"/>
+      <c r="CQ71" s="19"/>
       <c r="CR71" s="10"/>
       <c r="CS71" s="10"/>
       <c r="CT71" s="10"/>
@@ -31708,13 +31750,15 @@
         <v>6.1592723350562011</v>
       </c>
       <c r="CL72" s="18">
-        <v>5.0669850659975708</v>
-      </c>
-      <c r="CM72" s="18"/>
+        <v>4.7463954178805778</v>
+      </c>
+      <c r="CM72" s="18">
+        <v>4.1346028786259694</v>
+      </c>
       <c r="CN72" s="18"/>
       <c r="CO72" s="18"/>
       <c r="CP72" s="18"/>
-      <c r="CQ72" s="10"/>
+      <c r="CQ72" s="18"/>
       <c r="CR72" s="10"/>
       <c r="CS72" s="10"/>
       <c r="CT72" s="10"/>
@@ -31867,6 +31911,7 @@
       <c r="CN73" s="16"/>
       <c r="CO73" s="16"/>
       <c r="CP73" s="16"/>
+      <c r="CQ73" s="16"/>
     </row>
     <row r="74" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
@@ -32206,147 +32251,148 @@
     <row r="83" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="84" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
-      <c r="B84" s="27">
+      <c r="B84" s="26">
         <v>2000</v>
       </c>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="27">
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="26">
         <v>2001</v>
       </c>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="27">
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="26">
         <v>2002</v>
       </c>
-      <c r="K84" s="28"/>
-      <c r="L84" s="28"/>
-      <c r="M84" s="28"/>
-      <c r="N84" s="27">
+      <c r="K84" s="27"/>
+      <c r="L84" s="27"/>
+      <c r="M84" s="27"/>
+      <c r="N84" s="26">
         <v>2003</v>
       </c>
-      <c r="O84" s="28"/>
-      <c r="P84" s="28"/>
-      <c r="Q84" s="28"/>
-      <c r="R84" s="27">
+      <c r="O84" s="27"/>
+      <c r="P84" s="27"/>
+      <c r="Q84" s="27"/>
+      <c r="R84" s="26">
         <v>2004</v>
       </c>
-      <c r="S84" s="28"/>
-      <c r="T84" s="28"/>
-      <c r="U84" s="28"/>
-      <c r="V84" s="27">
+      <c r="S84" s="27"/>
+      <c r="T84" s="27"/>
+      <c r="U84" s="27"/>
+      <c r="V84" s="26">
         <v>2005</v>
       </c>
-      <c r="W84" s="28"/>
-      <c r="X84" s="28"/>
-      <c r="Y84" s="28"/>
-      <c r="Z84" s="27">
+      <c r="W84" s="27"/>
+      <c r="X84" s="27"/>
+      <c r="Y84" s="27"/>
+      <c r="Z84" s="26">
         <v>2006</v>
       </c>
-      <c r="AA84" s="28"/>
-      <c r="AB84" s="28"/>
-      <c r="AC84" s="28"/>
-      <c r="AD84" s="27">
+      <c r="AA84" s="27"/>
+      <c r="AB84" s="27"/>
+      <c r="AC84" s="27"/>
+      <c r="AD84" s="26">
         <v>2007</v>
       </c>
-      <c r="AE84" s="28"/>
-      <c r="AF84" s="28"/>
-      <c r="AG84" s="28"/>
-      <c r="AH84" s="27">
+      <c r="AE84" s="27"/>
+      <c r="AF84" s="27"/>
+      <c r="AG84" s="27"/>
+      <c r="AH84" s="26">
         <v>2008</v>
       </c>
-      <c r="AI84" s="28"/>
-      <c r="AJ84" s="28"/>
-      <c r="AK84" s="28"/>
-      <c r="AL84" s="27">
+      <c r="AI84" s="27"/>
+      <c r="AJ84" s="27"/>
+      <c r="AK84" s="27"/>
+      <c r="AL84" s="26">
         <v>2009</v>
       </c>
-      <c r="AM84" s="28"/>
-      <c r="AN84" s="28"/>
-      <c r="AO84" s="28"/>
-      <c r="AP84" s="27">
+      <c r="AM84" s="27"/>
+      <c r="AN84" s="27"/>
+      <c r="AO84" s="27"/>
+      <c r="AP84" s="26">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="28"/>
-      <c r="AR84" s="28"/>
-      <c r="AS84" s="28"/>
-      <c r="AT84" s="27">
+      <c r="AQ84" s="27"/>
+      <c r="AR84" s="27"/>
+      <c r="AS84" s="27"/>
+      <c r="AT84" s="26">
         <v>2011</v>
       </c>
-      <c r="AU84" s="28"/>
-      <c r="AV84" s="28"/>
-      <c r="AW84" s="28"/>
-      <c r="AX84" s="27">
+      <c r="AU84" s="27"/>
+      <c r="AV84" s="27"/>
+      <c r="AW84" s="27"/>
+      <c r="AX84" s="26">
         <v>2012</v>
       </c>
-      <c r="AY84" s="28"/>
-      <c r="AZ84" s="28"/>
-      <c r="BA84" s="28"/>
-      <c r="BB84" s="27">
+      <c r="AY84" s="27"/>
+      <c r="AZ84" s="27"/>
+      <c r="BA84" s="27"/>
+      <c r="BB84" s="26">
         <v>2013</v>
       </c>
-      <c r="BC84" s="28"/>
-      <c r="BD84" s="28"/>
-      <c r="BE84" s="28"/>
-      <c r="BF84" s="27">
+      <c r="BC84" s="27"/>
+      <c r="BD84" s="27"/>
+      <c r="BE84" s="27"/>
+      <c r="BF84" s="26">
         <v>2014</v>
       </c>
-      <c r="BG84" s="28"/>
-      <c r="BH84" s="28"/>
-      <c r="BI84" s="28"/>
-      <c r="BJ84" s="27">
+      <c r="BG84" s="27"/>
+      <c r="BH84" s="27"/>
+      <c r="BI84" s="27"/>
+      <c r="BJ84" s="26">
         <v>2015</v>
       </c>
-      <c r="BK84" s="28"/>
-      <c r="BL84" s="28"/>
-      <c r="BM84" s="28"/>
-      <c r="BN84" s="27">
+      <c r="BK84" s="27"/>
+      <c r="BL84" s="27"/>
+      <c r="BM84" s="27"/>
+      <c r="BN84" s="26">
         <v>2016</v>
       </c>
-      <c r="BO84" s="28"/>
-      <c r="BP84" s="28"/>
-      <c r="BQ84" s="28"/>
-      <c r="BR84" s="27">
+      <c r="BO84" s="27"/>
+      <c r="BP84" s="27"/>
+      <c r="BQ84" s="27"/>
+      <c r="BR84" s="26">
         <v>2017</v>
       </c>
-      <c r="BS84" s="28"/>
-      <c r="BT84" s="28"/>
-      <c r="BU84" s="28"/>
-      <c r="BV84" s="27">
+      <c r="BS84" s="27"/>
+      <c r="BT84" s="27"/>
+      <c r="BU84" s="27"/>
+      <c r="BV84" s="26">
         <v>2018</v>
       </c>
-      <c r="BW84" s="28"/>
-      <c r="BX84" s="28"/>
-      <c r="BY84" s="28"/>
-      <c r="BZ84" s="27">
+      <c r="BW84" s="27"/>
+      <c r="BX84" s="27"/>
+      <c r="BY84" s="27"/>
+      <c r="BZ84" s="26">
         <v>2019</v>
       </c>
-      <c r="CA84" s="28"/>
-      <c r="CB84" s="28"/>
-      <c r="CC84" s="28"/>
-      <c r="CD84" s="27">
+      <c r="CA84" s="27"/>
+      <c r="CB84" s="27"/>
+      <c r="CC84" s="27"/>
+      <c r="CD84" s="26">
         <v>2020</v>
       </c>
-      <c r="CE84" s="27"/>
-      <c r="CF84" s="27"/>
-      <c r="CG84" s="27"/>
-      <c r="CH84" s="27">
+      <c r="CE84" s="26"/>
+      <c r="CF84" s="26"/>
+      <c r="CG84" s="26"/>
+      <c r="CH84" s="26">
         <v>2021</v>
       </c>
-      <c r="CI84" s="27"/>
-      <c r="CJ84" s="27"/>
-      <c r="CK84" s="27"/>
-      <c r="CL84" s="27">
+      <c r="CI84" s="26"/>
+      <c r="CJ84" s="26"/>
+      <c r="CK84" s="26"/>
+      <c r="CL84" s="26">
         <v>2022</v>
       </c>
-      <c r="CM84" s="27"/>
-      <c r="CN84" s="27"/>
-      <c r="CO84" s="27"/>
-      <c r="CP84" s="22">
+      <c r="CM84" s="26"/>
+      <c r="CN84" s="26"/>
+      <c r="CO84" s="26"/>
+      <c r="CP84" s="26">
         <v>2023</v>
       </c>
+      <c r="CQ84" s="28"/>
     </row>
     <row r="85" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
@@ -32630,6 +32676,9 @@
       </c>
       <c r="CP85" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ85" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -32916,9 +32965,11 @@
         <v>110.40777372760948</v>
       </c>
       <c r="CP87" s="18">
-        <v>110.43326289186948</v>
-      </c>
-      <c r="CQ87" s="10"/>
+        <v>110.5271649335433</v>
+      </c>
+      <c r="CQ87" s="18">
+        <v>100.51540785875382</v>
+      </c>
       <c r="CR87" s="10"/>
       <c r="CS87" s="10"/>
       <c r="CT87" s="10"/>
@@ -33263,7 +33314,9 @@
       <c r="CP88" s="18">
         <v>99.633012218023026</v>
       </c>
-      <c r="CQ88" s="10"/>
+      <c r="CQ88" s="18">
+        <v>99.075449962988031</v>
+      </c>
       <c r="CR88" s="10"/>
       <c r="CS88" s="10"/>
       <c r="CT88" s="10"/>
@@ -33419,7 +33472,7 @@
       <c r="CN89" s="19"/>
       <c r="CO89" s="19"/>
       <c r="CP89" s="19"/>
-      <c r="CQ89" s="10"/>
+      <c r="CQ89" s="19"/>
       <c r="CR89" s="10"/>
       <c r="CS89" s="10"/>
       <c r="CT89" s="10"/>
@@ -33762,9 +33815,11 @@
         <v>101.49935141032182</v>
       </c>
       <c r="CP90" s="18">
-        <v>100.41050067718271</v>
-      </c>
-      <c r="CQ90" s="10"/>
+        <v>100.43312479694715</v>
+      </c>
+      <c r="CQ90" s="18">
+        <v>99.199656712163161</v>
+      </c>
       <c r="CR90" s="10"/>
       <c r="CS90" s="10"/>
       <c r="CT90" s="10"/>
@@ -33921,6 +33976,7 @@
       <c r="CN91" s="16"/>
       <c r="CO91" s="16"/>
       <c r="CP91" s="16"/>
+      <c r="CQ91" s="16"/>
     </row>
     <row r="92" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
@@ -33961,147 +34017,148 @@
     <row r="102" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="103" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
-      <c r="B103" s="27">
+      <c r="B103" s="26">
         <v>2000</v>
       </c>
-      <c r="C103" s="28"/>
-      <c r="D103" s="28"/>
-      <c r="E103" s="28"/>
-      <c r="F103" s="27">
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="26">
         <v>2001</v>
       </c>
-      <c r="G103" s="28"/>
-      <c r="H103" s="28"/>
-      <c r="I103" s="28"/>
-      <c r="J103" s="27">
+      <c r="G103" s="27"/>
+      <c r="H103" s="27"/>
+      <c r="I103" s="27"/>
+      <c r="J103" s="26">
         <v>2002</v>
       </c>
-      <c r="K103" s="28"/>
-      <c r="L103" s="28"/>
-      <c r="M103" s="28"/>
-      <c r="N103" s="27">
+      <c r="K103" s="27"/>
+      <c r="L103" s="27"/>
+      <c r="M103" s="27"/>
+      <c r="N103" s="26">
         <v>2003</v>
       </c>
-      <c r="O103" s="28"/>
-      <c r="P103" s="28"/>
-      <c r="Q103" s="28"/>
-      <c r="R103" s="27">
+      <c r="O103" s="27"/>
+      <c r="P103" s="27"/>
+      <c r="Q103" s="27"/>
+      <c r="R103" s="26">
         <v>2004</v>
       </c>
-      <c r="S103" s="28"/>
-      <c r="T103" s="28"/>
-      <c r="U103" s="28"/>
-      <c r="V103" s="27">
+      <c r="S103" s="27"/>
+      <c r="T103" s="27"/>
+      <c r="U103" s="27"/>
+      <c r="V103" s="26">
         <v>2005</v>
       </c>
-      <c r="W103" s="28"/>
-      <c r="X103" s="28"/>
-      <c r="Y103" s="28"/>
-      <c r="Z103" s="27">
+      <c r="W103" s="27"/>
+      <c r="X103" s="27"/>
+      <c r="Y103" s="27"/>
+      <c r="Z103" s="26">
         <v>2006</v>
       </c>
-      <c r="AA103" s="28"/>
-      <c r="AB103" s="28"/>
-      <c r="AC103" s="28"/>
-      <c r="AD103" s="27">
+      <c r="AA103" s="27"/>
+      <c r="AB103" s="27"/>
+      <c r="AC103" s="27"/>
+      <c r="AD103" s="26">
         <v>2007</v>
       </c>
-      <c r="AE103" s="28"/>
-      <c r="AF103" s="28"/>
-      <c r="AG103" s="28"/>
-      <c r="AH103" s="27">
+      <c r="AE103" s="27"/>
+      <c r="AF103" s="27"/>
+      <c r="AG103" s="27"/>
+      <c r="AH103" s="26">
         <v>2008</v>
       </c>
-      <c r="AI103" s="28"/>
-      <c r="AJ103" s="28"/>
-      <c r="AK103" s="28"/>
-      <c r="AL103" s="27">
+      <c r="AI103" s="27"/>
+      <c r="AJ103" s="27"/>
+      <c r="AK103" s="27"/>
+      <c r="AL103" s="26">
         <v>2009</v>
       </c>
-      <c r="AM103" s="28"/>
-      <c r="AN103" s="28"/>
-      <c r="AO103" s="28"/>
-      <c r="AP103" s="27">
+      <c r="AM103" s="27"/>
+      <c r="AN103" s="27"/>
+      <c r="AO103" s="27"/>
+      <c r="AP103" s="26">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="28"/>
-      <c r="AR103" s="28"/>
-      <c r="AS103" s="28"/>
-      <c r="AT103" s="27">
+      <c r="AQ103" s="27"/>
+      <c r="AR103" s="27"/>
+      <c r="AS103" s="27"/>
+      <c r="AT103" s="26">
         <v>2011</v>
       </c>
-      <c r="AU103" s="28"/>
-      <c r="AV103" s="28"/>
-      <c r="AW103" s="28"/>
-      <c r="AX103" s="27">
+      <c r="AU103" s="27"/>
+      <c r="AV103" s="27"/>
+      <c r="AW103" s="27"/>
+      <c r="AX103" s="26">
         <v>2012</v>
       </c>
-      <c r="AY103" s="28"/>
-      <c r="AZ103" s="28"/>
-      <c r="BA103" s="28"/>
-      <c r="BB103" s="27">
+      <c r="AY103" s="27"/>
+      <c r="AZ103" s="27"/>
+      <c r="BA103" s="27"/>
+      <c r="BB103" s="26">
         <v>2013</v>
       </c>
-      <c r="BC103" s="28"/>
-      <c r="BD103" s="28"/>
-      <c r="BE103" s="28"/>
-      <c r="BF103" s="27">
+      <c r="BC103" s="27"/>
+      <c r="BD103" s="27"/>
+      <c r="BE103" s="27"/>
+      <c r="BF103" s="26">
         <v>2014</v>
       </c>
-      <c r="BG103" s="28"/>
-      <c r="BH103" s="28"/>
-      <c r="BI103" s="28"/>
-      <c r="BJ103" s="27">
+      <c r="BG103" s="27"/>
+      <c r="BH103" s="27"/>
+      <c r="BI103" s="27"/>
+      <c r="BJ103" s="26">
         <v>2015</v>
       </c>
-      <c r="BK103" s="28"/>
-      <c r="BL103" s="28"/>
-      <c r="BM103" s="28"/>
-      <c r="BN103" s="27">
+      <c r="BK103" s="27"/>
+      <c r="BL103" s="27"/>
+      <c r="BM103" s="27"/>
+      <c r="BN103" s="26">
         <v>2016</v>
       </c>
-      <c r="BO103" s="28"/>
-      <c r="BP103" s="28"/>
-      <c r="BQ103" s="28"/>
-      <c r="BR103" s="27">
+      <c r="BO103" s="27"/>
+      <c r="BP103" s="27"/>
+      <c r="BQ103" s="27"/>
+      <c r="BR103" s="26">
         <v>2017</v>
       </c>
-      <c r="BS103" s="28"/>
-      <c r="BT103" s="28"/>
-      <c r="BU103" s="28"/>
-      <c r="BV103" s="27">
+      <c r="BS103" s="27"/>
+      <c r="BT103" s="27"/>
+      <c r="BU103" s="27"/>
+      <c r="BV103" s="26">
         <v>2018</v>
       </c>
-      <c r="BW103" s="28"/>
-      <c r="BX103" s="28"/>
-      <c r="BY103" s="28"/>
-      <c r="BZ103" s="27">
+      <c r="BW103" s="27"/>
+      <c r="BX103" s="27"/>
+      <c r="BY103" s="27"/>
+      <c r="BZ103" s="26">
         <v>2019</v>
       </c>
-      <c r="CA103" s="28"/>
-      <c r="CB103" s="28"/>
-      <c r="CC103" s="28"/>
-      <c r="CD103" s="27">
+      <c r="CA103" s="27"/>
+      <c r="CB103" s="27"/>
+      <c r="CC103" s="27"/>
+      <c r="CD103" s="26">
         <v>2020</v>
       </c>
-      <c r="CE103" s="27"/>
-      <c r="CF103" s="27"/>
-      <c r="CG103" s="27"/>
-      <c r="CH103" s="27">
+      <c r="CE103" s="26"/>
+      <c r="CF103" s="26"/>
+      <c r="CG103" s="26"/>
+      <c r="CH103" s="26">
         <v>2021</v>
       </c>
-      <c r="CI103" s="27"/>
-      <c r="CJ103" s="27"/>
-      <c r="CK103" s="27"/>
-      <c r="CL103" s="27">
+      <c r="CI103" s="26"/>
+      <c r="CJ103" s="26"/>
+      <c r="CK103" s="26"/>
+      <c r="CL103" s="26">
         <v>2022</v>
       </c>
-      <c r="CM103" s="27"/>
-      <c r="CN103" s="27"/>
-      <c r="CO103" s="27"/>
-      <c r="CP103" s="22">
+      <c r="CM103" s="26"/>
+      <c r="CN103" s="26"/>
+      <c r="CO103" s="26"/>
+      <c r="CP103" s="26">
         <v>2023</v>
       </c>
+      <c r="CQ103" s="28"/>
     </row>
     <row r="104" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
@@ -34385,6 +34442,9 @@
       </c>
       <c r="CP104" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ104" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -34671,9 +34731,11 @@
         <v>7.8091597715285381</v>
       </c>
       <c r="CP106" s="18">
-        <v>7.9173690152180249</v>
-      </c>
-      <c r="CQ106" s="10"/>
+        <v>8.082574090846613</v>
+      </c>
+      <c r="CQ106" s="18">
+        <v>8.7401295844892548</v>
+      </c>
       <c r="CR106" s="10"/>
       <c r="CS106" s="10"/>
       <c r="CT106" s="10"/>
@@ -35016,9 +35078,11 @@
         <v>92.190840228471444</v>
       </c>
       <c r="CP107" s="18">
-        <v>92.082630984781972</v>
-      </c>
-      <c r="CQ107" s="10"/>
+        <v>91.91742590915338</v>
+      </c>
+      <c r="CQ107" s="18">
+        <v>91.259870415510747</v>
+      </c>
       <c r="CR107" s="10"/>
       <c r="CS107" s="10"/>
       <c r="CT107" s="10"/>
@@ -35174,7 +35238,7 @@
       <c r="CN108" s="19"/>
       <c r="CO108" s="19"/>
       <c r="CP108" s="19"/>
-      <c r="CQ108" s="10"/>
+      <c r="CQ108" s="19"/>
       <c r="CR108" s="10"/>
       <c r="CS108" s="10"/>
       <c r="CT108" s="10"/>
@@ -35519,7 +35583,9 @@
       <c r="CP109" s="18">
         <v>100</v>
       </c>
-      <c r="CQ109" s="10"/>
+      <c r="CQ109" s="18">
+        <v>100</v>
+      </c>
       <c r="CR109" s="10"/>
       <c r="CS109" s="10"/>
       <c r="CT109" s="10"/>
@@ -35676,6 +35742,7 @@
       <c r="CN110" s="16"/>
       <c r="CO110" s="16"/>
       <c r="CP110" s="16"/>
+      <c r="CQ110" s="16"/>
     </row>
     <row r="111" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
@@ -36028,147 +36095,148 @@
     <row r="121" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="122" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
-      <c r="B122" s="27">
+      <c r="B122" s="26">
         <v>2000</v>
       </c>
-      <c r="C122" s="28"/>
-      <c r="D122" s="28"/>
-      <c r="E122" s="28"/>
-      <c r="F122" s="27">
+      <c r="C122" s="27"/>
+      <c r="D122" s="27"/>
+      <c r="E122" s="27"/>
+      <c r="F122" s="26">
         <v>2001</v>
       </c>
-      <c r="G122" s="28"/>
-      <c r="H122" s="28"/>
-      <c r="I122" s="28"/>
-      <c r="J122" s="27">
+      <c r="G122" s="27"/>
+      <c r="H122" s="27"/>
+      <c r="I122" s="27"/>
+      <c r="J122" s="26">
         <v>2002</v>
       </c>
-      <c r="K122" s="28"/>
-      <c r="L122" s="28"/>
-      <c r="M122" s="28"/>
-      <c r="N122" s="27">
+      <c r="K122" s="27"/>
+      <c r="L122" s="27"/>
+      <c r="M122" s="27"/>
+      <c r="N122" s="26">
         <v>2003</v>
       </c>
-      <c r="O122" s="28"/>
-      <c r="P122" s="28"/>
-      <c r="Q122" s="28"/>
-      <c r="R122" s="27">
+      <c r="O122" s="27"/>
+      <c r="P122" s="27"/>
+      <c r="Q122" s="27"/>
+      <c r="R122" s="26">
         <v>2004</v>
       </c>
-      <c r="S122" s="28"/>
-      <c r="T122" s="28"/>
-      <c r="U122" s="28"/>
-      <c r="V122" s="27">
+      <c r="S122" s="27"/>
+      <c r="T122" s="27"/>
+      <c r="U122" s="27"/>
+      <c r="V122" s="26">
         <v>2005</v>
       </c>
-      <c r="W122" s="28"/>
-      <c r="X122" s="28"/>
-      <c r="Y122" s="28"/>
-      <c r="Z122" s="27">
+      <c r="W122" s="27"/>
+      <c r="X122" s="27"/>
+      <c r="Y122" s="27"/>
+      <c r="Z122" s="26">
         <v>2006</v>
       </c>
-      <c r="AA122" s="28"/>
-      <c r="AB122" s="28"/>
-      <c r="AC122" s="28"/>
-      <c r="AD122" s="27">
+      <c r="AA122" s="27"/>
+      <c r="AB122" s="27"/>
+      <c r="AC122" s="27"/>
+      <c r="AD122" s="26">
         <v>2007</v>
       </c>
-      <c r="AE122" s="28"/>
-      <c r="AF122" s="28"/>
-      <c r="AG122" s="28"/>
-      <c r="AH122" s="27">
+      <c r="AE122" s="27"/>
+      <c r="AF122" s="27"/>
+      <c r="AG122" s="27"/>
+      <c r="AH122" s="26">
         <v>2008</v>
       </c>
-      <c r="AI122" s="28"/>
-      <c r="AJ122" s="28"/>
-      <c r="AK122" s="28"/>
-      <c r="AL122" s="27">
+      <c r="AI122" s="27"/>
+      <c r="AJ122" s="27"/>
+      <c r="AK122" s="27"/>
+      <c r="AL122" s="26">
         <v>2009</v>
       </c>
-      <c r="AM122" s="28"/>
-      <c r="AN122" s="28"/>
-      <c r="AO122" s="28"/>
-      <c r="AP122" s="27">
+      <c r="AM122" s="27"/>
+      <c r="AN122" s="27"/>
+      <c r="AO122" s="27"/>
+      <c r="AP122" s="26">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="28"/>
-      <c r="AR122" s="28"/>
-      <c r="AS122" s="28"/>
-      <c r="AT122" s="27">
+      <c r="AQ122" s="27"/>
+      <c r="AR122" s="27"/>
+      <c r="AS122" s="27"/>
+      <c r="AT122" s="26">
         <v>2011</v>
       </c>
-      <c r="AU122" s="28"/>
-      <c r="AV122" s="28"/>
-      <c r="AW122" s="28"/>
-      <c r="AX122" s="27">
+      <c r="AU122" s="27"/>
+      <c r="AV122" s="27"/>
+      <c r="AW122" s="27"/>
+      <c r="AX122" s="26">
         <v>2012</v>
       </c>
-      <c r="AY122" s="28"/>
-      <c r="AZ122" s="28"/>
-      <c r="BA122" s="28"/>
-      <c r="BB122" s="27">
+      <c r="AY122" s="27"/>
+      <c r="AZ122" s="27"/>
+      <c r="BA122" s="27"/>
+      <c r="BB122" s="26">
         <v>2013</v>
       </c>
-      <c r="BC122" s="28"/>
-      <c r="BD122" s="28"/>
-      <c r="BE122" s="28"/>
-      <c r="BF122" s="27">
+      <c r="BC122" s="27"/>
+      <c r="BD122" s="27"/>
+      <c r="BE122" s="27"/>
+      <c r="BF122" s="26">
         <v>2014</v>
       </c>
-      <c r="BG122" s="28"/>
-      <c r="BH122" s="28"/>
-      <c r="BI122" s="28"/>
-      <c r="BJ122" s="27">
+      <c r="BG122" s="27"/>
+      <c r="BH122" s="27"/>
+      <c r="BI122" s="27"/>
+      <c r="BJ122" s="26">
         <v>2015</v>
       </c>
-      <c r="BK122" s="28"/>
-      <c r="BL122" s="28"/>
-      <c r="BM122" s="28"/>
-      <c r="BN122" s="27">
+      <c r="BK122" s="27"/>
+      <c r="BL122" s="27"/>
+      <c r="BM122" s="27"/>
+      <c r="BN122" s="26">
         <v>2016</v>
       </c>
-      <c r="BO122" s="28"/>
-      <c r="BP122" s="28"/>
-      <c r="BQ122" s="28"/>
-      <c r="BR122" s="27">
+      <c r="BO122" s="27"/>
+      <c r="BP122" s="27"/>
+      <c r="BQ122" s="27"/>
+      <c r="BR122" s="26">
         <v>2017</v>
       </c>
-      <c r="BS122" s="28"/>
-      <c r="BT122" s="28"/>
-      <c r="BU122" s="28"/>
-      <c r="BV122" s="27">
+      <c r="BS122" s="27"/>
+      <c r="BT122" s="27"/>
+      <c r="BU122" s="27"/>
+      <c r="BV122" s="26">
         <v>2018</v>
       </c>
-      <c r="BW122" s="28"/>
-      <c r="BX122" s="28"/>
-      <c r="BY122" s="28"/>
-      <c r="BZ122" s="27">
+      <c r="BW122" s="27"/>
+      <c r="BX122" s="27"/>
+      <c r="BY122" s="27"/>
+      <c r="BZ122" s="26">
         <v>2019</v>
       </c>
-      <c r="CA122" s="28"/>
-      <c r="CB122" s="28"/>
-      <c r="CC122" s="28"/>
-      <c r="CD122" s="27">
+      <c r="CA122" s="27"/>
+      <c r="CB122" s="27"/>
+      <c r="CC122" s="27"/>
+      <c r="CD122" s="26">
         <v>2020</v>
       </c>
-      <c r="CE122" s="27"/>
-      <c r="CF122" s="27"/>
-      <c r="CG122" s="27"/>
-      <c r="CH122" s="27">
+      <c r="CE122" s="26"/>
+      <c r="CF122" s="26"/>
+      <c r="CG122" s="26"/>
+      <c r="CH122" s="26">
         <v>2021</v>
       </c>
-      <c r="CI122" s="27"/>
-      <c r="CJ122" s="27"/>
-      <c r="CK122" s="27"/>
-      <c r="CL122" s="27">
+      <c r="CI122" s="26"/>
+      <c r="CJ122" s="26"/>
+      <c r="CK122" s="26"/>
+      <c r="CL122" s="26">
         <v>2022</v>
       </c>
-      <c r="CM122" s="27"/>
-      <c r="CN122" s="27"/>
-      <c r="CO122" s="27"/>
-      <c r="CP122" s="22">
+      <c r="CM122" s="26"/>
+      <c r="CN122" s="26"/>
+      <c r="CO122" s="26"/>
+      <c r="CP122" s="26">
         <v>2023</v>
       </c>
+      <c r="CQ122" s="28"/>
     </row>
     <row r="123" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
@@ -36452,6 +36520,9 @@
       </c>
       <c r="CP123" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ123" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36738,9 +36809,11 @@
         <v>7.1790656138510061</v>
       </c>
       <c r="CP125" s="18">
-        <v>7.1988001263936656</v>
-      </c>
-      <c r="CQ125" s="10"/>
+        <v>7.3444222769547691</v>
+      </c>
+      <c r="CQ125" s="18">
+        <v>8.6257209006156099</v>
+      </c>
       <c r="CR125" s="10"/>
       <c r="CS125" s="10"/>
       <c r="CT125" s="10"/>
@@ -37083,9 +37156,11 @@
         <v>92.820934386149005</v>
       </c>
       <c r="CP126" s="18">
-        <v>92.801199873606336</v>
-      </c>
-      <c r="CQ126" s="10"/>
+        <v>92.655577723045226</v>
+      </c>
+      <c r="CQ126" s="18">
+        <v>91.374279099384395</v>
+      </c>
       <c r="CR126" s="10"/>
       <c r="CS126" s="10"/>
       <c r="CT126" s="10"/>
@@ -37241,7 +37316,7 @@
       <c r="CN127" s="19"/>
       <c r="CO127" s="19"/>
       <c r="CP127" s="19"/>
-      <c r="CQ127" s="10"/>
+      <c r="CQ127" s="19"/>
       <c r="CR127" s="10"/>
       <c r="CS127" s="10"/>
       <c r="CT127" s="10"/>
@@ -37586,7 +37661,9 @@
       <c r="CP128" s="18">
         <v>100</v>
       </c>
-      <c r="CQ128" s="10"/>
+      <c r="CQ128" s="18">
+        <v>100</v>
+      </c>
       <c r="CR128" s="10"/>
       <c r="CS128" s="10"/>
       <c r="CT128" s="10"/>
@@ -37743,6 +37820,7 @@
       <c r="CN129" s="16"/>
       <c r="CO129" s="16"/>
       <c r="CP129" s="16"/>
+      <c r="CQ129" s="16"/>
     </row>
     <row r="130" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
@@ -37844,7 +37922,7 @@
       <c r="CN131" s="11"/>
       <c r="CO131" s="11"/>
       <c r="CP131" s="11"/>
-      <c r="CQ131" s="20"/>
+      <c r="CQ131" s="11"/>
       <c r="CR131" s="20"/>
       <c r="CS131" s="20"/>
       <c r="CT131" s="20"/>
@@ -38001,7 +38079,7 @@
       <c r="CN132" s="11"/>
       <c r="CO132" s="11"/>
       <c r="CP132" s="11"/>
-      <c r="CQ132" s="20"/>
+      <c r="CQ132" s="11"/>
       <c r="CR132" s="20"/>
       <c r="CS132" s="20"/>
       <c r="CT132" s="20"/>
@@ -38064,109 +38142,49 @@
       <c r="EY132" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="159">
-    <mergeCell ref="BZ122:CC122"/>
-    <mergeCell ref="BR103:BU103"/>
-    <mergeCell ref="BV103:BY103"/>
-    <mergeCell ref="BF47:BI47"/>
-    <mergeCell ref="BJ47:BM47"/>
-    <mergeCell ref="BN47:BQ47"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="BN28:BQ28"/>
-    <mergeCell ref="AT47:AW47"/>
-    <mergeCell ref="AX47:BA47"/>
-    <mergeCell ref="BJ28:BM28"/>
-    <mergeCell ref="BJ66:BM66"/>
-    <mergeCell ref="AT66:AW66"/>
-    <mergeCell ref="BF28:BI28"/>
-    <mergeCell ref="BF66:BI66"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="BN66:BQ66"/>
-    <mergeCell ref="BR84:BU84"/>
-    <mergeCell ref="BV84:BY84"/>
-    <mergeCell ref="AL122:AO122"/>
-    <mergeCell ref="AP122:AS122"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="AX122:BA122"/>
-    <mergeCell ref="BB122:BE122"/>
-    <mergeCell ref="BB103:BE103"/>
-    <mergeCell ref="BF103:BI103"/>
-    <mergeCell ref="AL103:AO103"/>
-    <mergeCell ref="AP103:AS103"/>
-    <mergeCell ref="AT103:AW103"/>
-    <mergeCell ref="AX103:BA103"/>
-    <mergeCell ref="BF122:BI122"/>
-    <mergeCell ref="BJ122:BM122"/>
-    <mergeCell ref="BN122:BQ122"/>
-    <mergeCell ref="BJ103:BM103"/>
-    <mergeCell ref="BN103:BQ103"/>
-    <mergeCell ref="BR122:BU122"/>
-    <mergeCell ref="BV122:BY122"/>
-    <mergeCell ref="Z103:AC103"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="AH103:AK103"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="R122:U122"/>
-    <mergeCell ref="V122:Y122"/>
-    <mergeCell ref="Z122:AC122"/>
-    <mergeCell ref="AD122:AG122"/>
-    <mergeCell ref="AH122:AK122"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="V103:Y103"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AL66:AO66"/>
-    <mergeCell ref="AP66:AS66"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="R66:U66"/>
-    <mergeCell ref="V66:Y66"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="R47:U47"/>
-    <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="AL28:AO28"/>
-    <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="AT28:AW28"/>
-    <mergeCell ref="AX28:BA28"/>
-    <mergeCell ref="BB28:BE28"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AP47:AS47"/>
-    <mergeCell ref="AX66:BA66"/>
-    <mergeCell ref="BB66:BE66"/>
-    <mergeCell ref="BB47:BE47"/>
+  <mergeCells count="168">
+    <mergeCell ref="CP9:CQ9"/>
+    <mergeCell ref="CP28:CQ28"/>
+    <mergeCell ref="CP84:CQ84"/>
+    <mergeCell ref="CP103:CQ103"/>
+    <mergeCell ref="CP122:CQ122"/>
+    <mergeCell ref="CL47:CO47"/>
+    <mergeCell ref="CP47:CQ47"/>
+    <mergeCell ref="CL66:CO66"/>
+    <mergeCell ref="CP66:CQ66"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CL28:CO28"/>
+    <mergeCell ref="CH47:CK47"/>
+    <mergeCell ref="CH66:CK66"/>
+    <mergeCell ref="CL84:CO84"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD122:CG122"/>
+    <mergeCell ref="CD103:CG103"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH28:CK28"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="CH84:CK84"/>
+    <mergeCell ref="CH103:CK103"/>
+    <mergeCell ref="CH122:CK122"/>
+    <mergeCell ref="CD28:CG28"/>
+    <mergeCell ref="CL103:CO103"/>
+    <mergeCell ref="CL122:CO122"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR28:BU28"/>
+    <mergeCell ref="BV28:BY28"/>
+    <mergeCell ref="BZ28:CC28"/>
+    <mergeCell ref="BV47:BY47"/>
+    <mergeCell ref="BZ103:CC103"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="BZ47:CC47"/>
+    <mergeCell ref="BZ66:CC66"/>
+    <mergeCell ref="BR66:BU66"/>
+    <mergeCell ref="BV66:BY66"/>
+    <mergeCell ref="BR47:BU47"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
     <mergeCell ref="BJ9:BM9"/>
     <mergeCell ref="BN9:BQ9"/>
     <mergeCell ref="B28:E28"/>
@@ -38191,48 +38209,117 @@
     <mergeCell ref="R9:U9"/>
     <mergeCell ref="AD28:AG28"/>
     <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR28:BU28"/>
-    <mergeCell ref="BV28:BY28"/>
-    <mergeCell ref="BZ28:CC28"/>
-    <mergeCell ref="BV47:BY47"/>
-    <mergeCell ref="BZ103:CC103"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="BZ47:CC47"/>
-    <mergeCell ref="BZ66:CC66"/>
-    <mergeCell ref="BR66:BU66"/>
-    <mergeCell ref="BV66:BY66"/>
-    <mergeCell ref="BR47:BU47"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CL28:CO28"/>
-    <mergeCell ref="CH47:CK47"/>
-    <mergeCell ref="CH66:CK66"/>
-    <mergeCell ref="CL84:CO84"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD122:CG122"/>
-    <mergeCell ref="CD103:CG103"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH28:CK28"/>
-    <mergeCell ref="CD47:CG47"/>
-    <mergeCell ref="CD66:CG66"/>
-    <mergeCell ref="CH84:CK84"/>
-    <mergeCell ref="CH103:CK103"/>
-    <mergeCell ref="CH122:CK122"/>
-    <mergeCell ref="CD28:CG28"/>
-    <mergeCell ref="CL103:CO103"/>
-    <mergeCell ref="CL122:CO122"/>
-    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="AT28:AW28"/>
+    <mergeCell ref="AX28:BA28"/>
+    <mergeCell ref="BB28:BE28"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="AL47:AO47"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="AX66:BA66"/>
+    <mergeCell ref="BB66:BE66"/>
+    <mergeCell ref="BB47:BE47"/>
+    <mergeCell ref="AT47:AW47"/>
+    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="R66:U66"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="Z47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="AH47:AK47"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="AL28:AO28"/>
+    <mergeCell ref="AP28:AS28"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="V103:Y103"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="R122:U122"/>
+    <mergeCell ref="V122:Y122"/>
+    <mergeCell ref="Z122:AC122"/>
+    <mergeCell ref="AD122:AG122"/>
+    <mergeCell ref="AH122:AK122"/>
+    <mergeCell ref="Z103:AC103"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="AH103:AK103"/>
+    <mergeCell ref="AL122:AO122"/>
+    <mergeCell ref="AP122:AS122"/>
+    <mergeCell ref="AL103:AO103"/>
+    <mergeCell ref="AP103:AS103"/>
+    <mergeCell ref="BZ122:CC122"/>
+    <mergeCell ref="BR103:BU103"/>
+    <mergeCell ref="BV103:BY103"/>
+    <mergeCell ref="BF47:BI47"/>
+    <mergeCell ref="BJ47:BM47"/>
+    <mergeCell ref="BN47:BQ47"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="BN28:BQ28"/>
+    <mergeCell ref="BJ28:BM28"/>
+    <mergeCell ref="BJ66:BM66"/>
+    <mergeCell ref="BF28:BI28"/>
+    <mergeCell ref="BF66:BI66"/>
+    <mergeCell ref="BN122:BQ122"/>
+    <mergeCell ref="BJ103:BM103"/>
+    <mergeCell ref="BN103:BQ103"/>
+    <mergeCell ref="BR122:BU122"/>
+    <mergeCell ref="BV122:BY122"/>
+    <mergeCell ref="BF103:BI103"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="BN66:BQ66"/>
+    <mergeCell ref="BR84:BU84"/>
+    <mergeCell ref="BV84:BY84"/>
+    <mergeCell ref="BJ122:BM122"/>
+    <mergeCell ref="BF122:BI122"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="AX122:BA122"/>
+    <mergeCell ref="BB122:BE122"/>
+    <mergeCell ref="BB103:BE103"/>
+    <mergeCell ref="AT103:AW103"/>
+    <mergeCell ref="AX103:BA103"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="93" man="1"/>
-    <brk id="76" max="93" man="1"/>
-    <brk id="94" max="93" man="1"/>
+    <brk id="38" max="94" man="1"/>
+    <brk id="76" max="94" man="1"/>
+    <brk id="94" max="94" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-16IAC_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-16IAC_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A79F372-79F3-4254-A54A-FBA53437C0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78326B0F-8495-495F-B789-6AA474078C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="2730" windowWidth="28770" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAC" sheetId="10" r:id="rId1"/>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IAC!$A$1:$CQ$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IAC!$A$1:$CR$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -616,13 +616,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of August 2023</t>
+    <t>As of November 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2023</t>
+    <t>Q1 2000 to Q3 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2023</t>
+    <t>Q1 2001 to Q3 2023</t>
   </si>
 </sst>
 </file>
@@ -722,7 +722,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -765,6 +765,31 @@
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23637,41 +23662,85 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BS1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CR6" sqref="CR6"/>
+      <selection pane="topRight" activeCell="CT4" sqref="CT4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.6640625" style="1" customWidth="1"/>
-    <col min="2" max="95" width="11.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="96" max="16384" width="7.77734375" style="11"/>
+    <col min="2" max="89" width="11.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="90" max="96" width="10.21875" style="40" customWidth="1"/>
+    <col min="97" max="16384" width="7.77734375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CL1" s="27"/>
+      <c r="CM1" s="27"/>
+      <c r="CN1" s="27"/>
+      <c r="CO1" s="27"/>
+      <c r="CP1" s="27"/>
+      <c r="CQ1" s="27"/>
+      <c r="CR1" s="27"/>
     </row>
     <row r="2" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="CL2" s="27"/>
+      <c r="CM2" s="27"/>
+      <c r="CN2" s="27"/>
+      <c r="CO2" s="27"/>
+      <c r="CP2" s="27"/>
+      <c r="CQ2" s="27"/>
+      <c r="CR2" s="27"/>
     </row>
     <row r="3" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="CL3" s="27"/>
+      <c r="CM3" s="27"/>
+      <c r="CN3" s="27"/>
+      <c r="CO3" s="27"/>
+      <c r="CP3" s="27"/>
+      <c r="CQ3" s="27"/>
+      <c r="CR3" s="27"/>
     </row>
-    <row r="4" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL4" s="27"/>
+      <c r="CM4" s="27"/>
+      <c r="CN4" s="27"/>
+      <c r="CO4" s="27"/>
+      <c r="CP4" s="27"/>
+      <c r="CQ4" s="27"/>
+      <c r="CR4" s="27"/>
+    </row>
     <row r="5" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="CL5" s="27"/>
+      <c r="CM5" s="27"/>
+      <c r="CN5" s="27"/>
+      <c r="CO5" s="27"/>
+      <c r="CP5" s="27"/>
+      <c r="CQ5" s="27"/>
+      <c r="CR5" s="27"/>
     </row>
     <row r="6" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="CL6" s="27"/>
+      <c r="CM6" s="27"/>
+      <c r="CN6" s="27"/>
+      <c r="CO6" s="27"/>
+      <c r="CP6" s="27"/>
+      <c r="CQ6" s="27"/>
+      <c r="CR6" s="27"/>
     </row>
     <row r="7" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -23765,12 +23834,13 @@
       <c r="CI7" s="4"/>
       <c r="CJ7" s="4"/>
       <c r="CK7" s="4"/>
-      <c r="CL7" s="4"/>
-      <c r="CM7" s="4"/>
-      <c r="CN7" s="4"/>
-      <c r="CO7" s="4"/>
-      <c r="CP7" s="4"/>
-      <c r="CQ7" s="4"/>
+      <c r="CL7" s="28"/>
+      <c r="CM7" s="28"/>
+      <c r="CN7" s="28"/>
+      <c r="CO7" s="28"/>
+      <c r="CP7" s="28"/>
+      <c r="CQ7" s="28"/>
+      <c r="CR7" s="28"/>
     </row>
     <row r="8" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
@@ -23861,157 +23931,159 @@
       <c r="CI8" s="4"/>
       <c r="CJ8" s="4"/>
       <c r="CK8" s="4"/>
-      <c r="CL8" s="4"/>
-      <c r="CM8" s="4"/>
-      <c r="CN8" s="4"/>
-      <c r="CO8" s="4"/>
-      <c r="CP8" s="4"/>
-      <c r="CQ8" s="4"/>
+      <c r="CL8" s="28"/>
+      <c r="CM8" s="28"/>
+      <c r="CN8" s="28"/>
+      <c r="CO8" s="28"/>
+      <c r="CP8" s="28"/>
+      <c r="CQ8" s="28"/>
+      <c r="CR8" s="28"/>
     </row>
     <row r="9" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="26">
+      <c r="B9" s="41">
         <v>2000</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26">
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41">
         <v>2001</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26">
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41">
         <v>2002</v>
       </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26">
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41">
         <v>2003</v>
       </c>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26">
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41">
         <v>2004</v>
       </c>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26">
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41">
         <v>2005</v>
       </c>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26">
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41">
         <v>2006</v>
       </c>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26">
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="41"/>
+      <c r="AD9" s="41">
         <v>2007</v>
       </c>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="26"/>
-      <c r="AH9" s="26">
+      <c r="AE9" s="41"/>
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="41"/>
+      <c r="AH9" s="41">
         <v>2008</v>
       </c>
-      <c r="AI9" s="26"/>
-      <c r="AJ9" s="26"/>
-      <c r="AK9" s="26"/>
-      <c r="AL9" s="26">
+      <c r="AI9" s="41"/>
+      <c r="AJ9" s="41"/>
+      <c r="AK9" s="41"/>
+      <c r="AL9" s="41">
         <v>2009</v>
       </c>
-      <c r="AM9" s="26"/>
-      <c r="AN9" s="26"/>
-      <c r="AO9" s="26"/>
-      <c r="AP9" s="26">
+      <c r="AM9" s="41"/>
+      <c r="AN9" s="41"/>
+      <c r="AO9" s="41"/>
+      <c r="AP9" s="41">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="26"/>
-      <c r="AR9" s="26"/>
-      <c r="AS9" s="26"/>
-      <c r="AT9" s="26">
+      <c r="AQ9" s="41"/>
+      <c r="AR9" s="41"/>
+      <c r="AS9" s="41"/>
+      <c r="AT9" s="41">
         <v>2011</v>
       </c>
-      <c r="AU9" s="26"/>
-      <c r="AV9" s="26"/>
-      <c r="AW9" s="26"/>
-      <c r="AX9" s="26">
+      <c r="AU9" s="41"/>
+      <c r="AV9" s="41"/>
+      <c r="AW9" s="41"/>
+      <c r="AX9" s="41">
         <v>2012</v>
       </c>
-      <c r="AY9" s="26"/>
-      <c r="AZ9" s="26"/>
-      <c r="BA9" s="26"/>
-      <c r="BB9" s="26">
+      <c r="AY9" s="41"/>
+      <c r="AZ9" s="41"/>
+      <c r="BA9" s="41"/>
+      <c r="BB9" s="41">
         <v>2013</v>
       </c>
-      <c r="BC9" s="26"/>
-      <c r="BD9" s="26"/>
-      <c r="BE9" s="26"/>
-      <c r="BF9" s="26">
+      <c r="BC9" s="41"/>
+      <c r="BD9" s="41"/>
+      <c r="BE9" s="41"/>
+      <c r="BF9" s="41">
         <v>2014</v>
       </c>
-      <c r="BG9" s="26"/>
-      <c r="BH9" s="26"/>
-      <c r="BI9" s="26"/>
-      <c r="BJ9" s="26">
+      <c r="BG9" s="41"/>
+      <c r="BH9" s="41"/>
+      <c r="BI9" s="41"/>
+      <c r="BJ9" s="41">
         <v>2015</v>
       </c>
-      <c r="BK9" s="26"/>
-      <c r="BL9" s="26"/>
-      <c r="BM9" s="26"/>
-      <c r="BN9" s="26">
+      <c r="BK9" s="41"/>
+      <c r="BL9" s="41"/>
+      <c r="BM9" s="41"/>
+      <c r="BN9" s="41">
         <v>2016</v>
       </c>
-      <c r="BO9" s="26"/>
-      <c r="BP9" s="26"/>
-      <c r="BQ9" s="26"/>
-      <c r="BR9" s="26">
+      <c r="BO9" s="41"/>
+      <c r="BP9" s="41"/>
+      <c r="BQ9" s="41"/>
+      <c r="BR9" s="41">
         <v>2017</v>
       </c>
-      <c r="BS9" s="26"/>
-      <c r="BT9" s="26"/>
-      <c r="BU9" s="26"/>
-      <c r="BV9" s="26">
+      <c r="BS9" s="41"/>
+      <c r="BT9" s="41"/>
+      <c r="BU9" s="41"/>
+      <c r="BV9" s="41">
         <v>2018</v>
       </c>
-      <c r="BW9" s="26"/>
-      <c r="BX9" s="26"/>
-      <c r="BY9" s="26"/>
-      <c r="BZ9" s="26">
+      <c r="BW9" s="41"/>
+      <c r="BX9" s="41"/>
+      <c r="BY9" s="41"/>
+      <c r="BZ9" s="41">
         <v>2019</v>
       </c>
-      <c r="CA9" s="26"/>
-      <c r="CB9" s="26"/>
-      <c r="CC9" s="26"/>
-      <c r="CD9" s="26">
+      <c r="CA9" s="41"/>
+      <c r="CB9" s="41"/>
+      <c r="CC9" s="41"/>
+      <c r="CD9" s="41">
         <v>2020</v>
       </c>
-      <c r="CE9" s="26"/>
-      <c r="CF9" s="26"/>
-      <c r="CG9" s="26"/>
-      <c r="CH9" s="26">
+      <c r="CE9" s="41"/>
+      <c r="CF9" s="41"/>
+      <c r="CG9" s="41"/>
+      <c r="CH9" s="41">
         <v>2021</v>
       </c>
-      <c r="CI9" s="26"/>
-      <c r="CJ9" s="26"/>
-      <c r="CK9" s="26"/>
-      <c r="CL9" s="26">
+      <c r="CI9" s="41"/>
+      <c r="CJ9" s="41"/>
+      <c r="CK9" s="41"/>
+      <c r="CL9" s="43">
         <v>2022</v>
       </c>
-      <c r="CM9" s="26"/>
-      <c r="CN9" s="26"/>
-      <c r="CO9" s="26"/>
-      <c r="CP9" s="26">
+      <c r="CM9" s="43"/>
+      <c r="CN9" s="43"/>
+      <c r="CO9" s="43"/>
+      <c r="CP9" s="43">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="28"/>
+      <c r="CQ9" s="43"/>
+      <c r="CR9" s="43"/>
     </row>
     <row r="10" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24281,27 +24353,37 @@
       <c r="CK10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="7" t="s">
+      <c r="CL10" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CM10" s="7" t="s">
+      <c r="CM10" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CN10" s="7" t="s">
+      <c r="CN10" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="CO10" s="7" t="s">
+      <c r="CO10" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="7" t="s">
+      <c r="CP10" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="7" t="s">
+      <c r="CQ10" s="29" t="s">
         <v>8</v>
+      </c>
+      <c r="CR10" s="29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
+      <c r="CL11" s="27"/>
+      <c r="CM11" s="27"/>
+      <c r="CN11" s="27"/>
+      <c r="CO11" s="27"/>
+      <c r="CP11" s="27"/>
+      <c r="CQ11" s="27"/>
+      <c r="CR11" s="27"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -24571,25 +24653,27 @@
       <c r="CK12" s="22">
         <v>13481.466265734161</v>
       </c>
-      <c r="CL12" s="22">
+      <c r="CL12" s="30">
         <v>13618.938029108591</v>
       </c>
-      <c r="CM12" s="22">
+      <c r="CM12" s="30">
         <v>17152.109253352814</v>
       </c>
-      <c r="CN12" s="22">
+      <c r="CN12" s="30">
         <v>11467.388885437951</v>
       </c>
-      <c r="CO12" s="22">
+      <c r="CO12" s="30">
         <v>15287.660204593572</v>
       </c>
-      <c r="CP12" s="22">
+      <c r="CP12" s="30">
         <v>13399.142576240818</v>
       </c>
-      <c r="CQ12" s="22">
-        <v>17503.924696636306</v>
-      </c>
-      <c r="CR12" s="10"/>
+      <c r="CQ12" s="30">
+        <v>17326.863456188083</v>
+      </c>
+      <c r="CR12" s="30">
+        <v>12361.462776829099</v>
+      </c>
       <c r="CS12" s="10"/>
       <c r="CT12" s="10"/>
       <c r="CU12" s="10"/>
@@ -24918,25 +25002,27 @@
       <c r="CK13" s="23">
         <v>169419.52233407189</v>
       </c>
-      <c r="CL13" s="23">
+      <c r="CL13" s="31">
         <v>143078.8377046432</v>
       </c>
-      <c r="CM13" s="23">
+      <c r="CM13" s="31">
         <v>173268.33232693363</v>
       </c>
-      <c r="CN13" s="23">
+      <c r="CN13" s="31">
         <v>141323.89577210028</v>
       </c>
-      <c r="CO13" s="23">
+      <c r="CO13" s="31">
         <v>180478.08991273583</v>
       </c>
-      <c r="CP13" s="23">
+      <c r="CP13" s="31">
         <v>152379.01702535362</v>
       </c>
-      <c r="CQ13" s="23">
-        <v>182766.8439164492</v>
-      </c>
-      <c r="CR13" s="10"/>
+      <c r="CQ13" s="31">
+        <v>182123.699858751</v>
+      </c>
+      <c r="CR13" s="31">
+        <v>148730.39042427758</v>
+      </c>
       <c r="CS13" s="10"/>
       <c r="CT13" s="10"/>
       <c r="CU13" s="10"/>
@@ -25086,13 +25172,13 @@
       <c r="CI14" s="24"/>
       <c r="CJ14" s="24"/>
       <c r="CK14" s="24"/>
-      <c r="CL14" s="24"/>
-      <c r="CM14" s="24"/>
-      <c r="CN14" s="24"/>
-      <c r="CO14" s="24"/>
-      <c r="CP14" s="24"/>
-      <c r="CQ14" s="24"/>
-      <c r="CR14" s="10"/>
+      <c r="CL14" s="32"/>
+      <c r="CM14" s="32"/>
+      <c r="CN14" s="32"/>
+      <c r="CO14" s="32"/>
+      <c r="CP14" s="32"/>
+      <c r="CQ14" s="32"/>
+      <c r="CR14" s="32"/>
       <c r="CS14" s="10"/>
       <c r="CT14" s="10"/>
       <c r="CU14" s="10"/>
@@ -25421,25 +25507,27 @@
       <c r="CK15" s="25">
         <v>182900.98859980606</v>
       </c>
-      <c r="CL15" s="25">
+      <c r="CL15" s="33">
         <v>156697.7757337518</v>
       </c>
-      <c r="CM15" s="25">
+      <c r="CM15" s="33">
         <v>190420.44158028642</v>
       </c>
-      <c r="CN15" s="25">
+      <c r="CN15" s="33">
         <v>152791.28465753823</v>
       </c>
-      <c r="CO15" s="25">
+      <c r="CO15" s="33">
         <v>195765.75011732941</v>
       </c>
-      <c r="CP15" s="25">
+      <c r="CP15" s="33">
         <v>165778.15960159444</v>
       </c>
-      <c r="CQ15" s="25">
-        <v>200270.7686130855</v>
-      </c>
-      <c r="CR15" s="10"/>
+      <c r="CQ15" s="33">
+        <v>199450.56331493909</v>
+      </c>
+      <c r="CR15" s="33">
+        <v>161091.85320110669</v>
+      </c>
       <c r="CS15" s="10"/>
       <c r="CT15" s="10"/>
       <c r="CU15" s="10"/>
@@ -25590,17 +25678,25 @@
       <c r="CI16" s="16"/>
       <c r="CJ16" s="16"/>
       <c r="CK16" s="16"/>
-      <c r="CL16" s="16"/>
-      <c r="CM16" s="16"/>
-      <c r="CN16" s="16"/>
-      <c r="CO16" s="16"/>
-      <c r="CP16" s="16"/>
-      <c r="CQ16" s="16"/>
+      <c r="CL16" s="34"/>
+      <c r="CM16" s="34"/>
+      <c r="CN16" s="34"/>
+      <c r="CO16" s="34"/>
+      <c r="CP16" s="34"/>
+      <c r="CQ16" s="34"/>
+      <c r="CR16" s="34"/>
     </row>
     <row r="17" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="CL17" s="27"/>
+      <c r="CM17" s="27"/>
+      <c r="CN17" s="27"/>
+      <c r="CO17" s="27"/>
+      <c r="CP17" s="27"/>
+      <c r="CQ17" s="27"/>
+      <c r="CR17" s="27"/>
     </row>
     <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
@@ -25691,13 +25787,13 @@
       <c r="CI18" s="10"/>
       <c r="CJ18" s="10"/>
       <c r="CK18" s="10"/>
-      <c r="CL18" s="10"/>
-      <c r="CM18" s="10"/>
-      <c r="CN18" s="10"/>
-      <c r="CO18" s="10"/>
-      <c r="CP18" s="10"/>
-      <c r="CQ18" s="10"/>
-      <c r="CR18" s="10"/>
+      <c r="CL18" s="35"/>
+      <c r="CM18" s="35"/>
+      <c r="CN18" s="35"/>
+      <c r="CO18" s="35"/>
+      <c r="CP18" s="35"/>
+      <c r="CQ18" s="35"/>
+      <c r="CR18" s="35"/>
       <c r="CS18" s="10"/>
       <c r="CT18" s="10"/>
       <c r="CU18" s="10"/>
@@ -25847,13 +25943,13 @@
       <c r="CI19" s="10"/>
       <c r="CJ19" s="10"/>
       <c r="CK19" s="10"/>
-      <c r="CL19" s="10"/>
-      <c r="CM19" s="10"/>
-      <c r="CN19" s="10"/>
-      <c r="CO19" s="10"/>
-      <c r="CP19" s="10"/>
-      <c r="CQ19" s="10"/>
-      <c r="CR19" s="10"/>
+      <c r="CL19" s="35"/>
+      <c r="CM19" s="35"/>
+      <c r="CN19" s="35"/>
+      <c r="CO19" s="35"/>
+      <c r="CP19" s="35"/>
+      <c r="CQ19" s="35"/>
+      <c r="CR19" s="35"/>
       <c r="CS19" s="10"/>
       <c r="CT19" s="10"/>
       <c r="CU19" s="10"/>
@@ -25918,27 +26014,70 @@
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CL20" s="27"/>
+      <c r="CM20" s="27"/>
+      <c r="CN20" s="27"/>
+      <c r="CO20" s="27"/>
+      <c r="CP20" s="27"/>
+      <c r="CQ20" s="27"/>
+      <c r="CR20" s="27"/>
     </row>
     <row r="21" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="CL21" s="27"/>
+      <c r="CM21" s="27"/>
+      <c r="CN21" s="27"/>
+      <c r="CO21" s="27"/>
+      <c r="CP21" s="27"/>
+      <c r="CQ21" s="27"/>
+      <c r="CR21" s="27"/>
     </row>
     <row r="22" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="CL22" s="27"/>
+      <c r="CM22" s="27"/>
+      <c r="CN22" s="27"/>
+      <c r="CO22" s="27"/>
+      <c r="CP22" s="27"/>
+      <c r="CQ22" s="27"/>
+      <c r="CR22" s="27"/>
     </row>
-    <row r="23" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL23" s="27"/>
+      <c r="CM23" s="27"/>
+      <c r="CN23" s="27"/>
+      <c r="CO23" s="27"/>
+      <c r="CP23" s="27"/>
+      <c r="CQ23" s="27"/>
+      <c r="CR23" s="27"/>
+    </row>
     <row r="24" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="CL24" s="27"/>
+      <c r="CM24" s="27"/>
+      <c r="CN24" s="27"/>
+      <c r="CO24" s="27"/>
+      <c r="CP24" s="27"/>
+      <c r="CQ24" s="27"/>
+      <c r="CR24" s="27"/>
     </row>
     <row r="25" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="CL25" s="27"/>
+      <c r="CM25" s="27"/>
+      <c r="CN25" s="27"/>
+      <c r="CO25" s="27"/>
+      <c r="CP25" s="27"/>
+      <c r="CQ25" s="27"/>
+      <c r="CR25" s="27"/>
     </row>
     <row r="26" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -26032,12 +26171,13 @@
       <c r="CI26" s="4"/>
       <c r="CJ26" s="4"/>
       <c r="CK26" s="4"/>
-      <c r="CL26" s="4"/>
-      <c r="CM26" s="4"/>
-      <c r="CN26" s="4"/>
-      <c r="CO26" s="4"/>
-      <c r="CP26" s="4"/>
-      <c r="CQ26" s="4"/>
+      <c r="CL26" s="28"/>
+      <c r="CM26" s="28"/>
+      <c r="CN26" s="28"/>
+      <c r="CO26" s="28"/>
+      <c r="CP26" s="28"/>
+      <c r="CQ26" s="28"/>
+      <c r="CR26" s="28"/>
     </row>
     <row r="27" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
@@ -26128,157 +26268,159 @@
       <c r="CI27" s="4"/>
       <c r="CJ27" s="4"/>
       <c r="CK27" s="4"/>
-      <c r="CL27" s="4"/>
-      <c r="CM27" s="4"/>
-      <c r="CN27" s="4"/>
-      <c r="CO27" s="4"/>
-      <c r="CP27" s="4"/>
-      <c r="CQ27" s="4"/>
+      <c r="CL27" s="28"/>
+      <c r="CM27" s="28"/>
+      <c r="CN27" s="28"/>
+      <c r="CO27" s="28"/>
+      <c r="CP27" s="28"/>
+      <c r="CQ27" s="28"/>
+      <c r="CR27" s="28"/>
     </row>
     <row r="28" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="26">
+      <c r="B28" s="41">
         <v>2000</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="26">
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="41">
         <v>2001</v>
       </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="26">
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="41">
         <v>2002</v>
       </c>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="26">
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="41">
         <v>2003</v>
       </c>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="26">
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="41">
         <v>2004</v>
       </c>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="26">
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="41">
         <v>2005</v>
       </c>
-      <c r="W28" s="27"/>
-      <c r="X28" s="27"/>
-      <c r="Y28" s="27"/>
-      <c r="Z28" s="26">
+      <c r="W28" s="42"/>
+      <c r="X28" s="42"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="41">
         <v>2006</v>
       </c>
-      <c r="AA28" s="27"/>
-      <c r="AB28" s="27"/>
-      <c r="AC28" s="27"/>
-      <c r="AD28" s="26">
+      <c r="AA28" s="42"/>
+      <c r="AB28" s="42"/>
+      <c r="AC28" s="42"/>
+      <c r="AD28" s="41">
         <v>2007</v>
       </c>
-      <c r="AE28" s="27"/>
-      <c r="AF28" s="27"/>
-      <c r="AG28" s="27"/>
-      <c r="AH28" s="26">
+      <c r="AE28" s="42"/>
+      <c r="AF28" s="42"/>
+      <c r="AG28" s="42"/>
+      <c r="AH28" s="41">
         <v>2008</v>
       </c>
-      <c r="AI28" s="27"/>
-      <c r="AJ28" s="27"/>
-      <c r="AK28" s="27"/>
-      <c r="AL28" s="26">
+      <c r="AI28" s="42"/>
+      <c r="AJ28" s="42"/>
+      <c r="AK28" s="42"/>
+      <c r="AL28" s="41">
         <v>2009</v>
       </c>
-      <c r="AM28" s="27"/>
-      <c r="AN28" s="27"/>
-      <c r="AO28" s="27"/>
-      <c r="AP28" s="26">
+      <c r="AM28" s="42"/>
+      <c r="AN28" s="42"/>
+      <c r="AO28" s="42"/>
+      <c r="AP28" s="41">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="27"/>
-      <c r="AR28" s="27"/>
-      <c r="AS28" s="27"/>
-      <c r="AT28" s="26">
+      <c r="AQ28" s="42"/>
+      <c r="AR28" s="42"/>
+      <c r="AS28" s="42"/>
+      <c r="AT28" s="41">
         <v>2011</v>
       </c>
-      <c r="AU28" s="27"/>
-      <c r="AV28" s="27"/>
-      <c r="AW28" s="27"/>
-      <c r="AX28" s="26">
+      <c r="AU28" s="42"/>
+      <c r="AV28" s="42"/>
+      <c r="AW28" s="42"/>
+      <c r="AX28" s="41">
         <v>2012</v>
       </c>
-      <c r="AY28" s="27"/>
-      <c r="AZ28" s="27"/>
-      <c r="BA28" s="27"/>
-      <c r="BB28" s="26">
+      <c r="AY28" s="42"/>
+      <c r="AZ28" s="42"/>
+      <c r="BA28" s="42"/>
+      <c r="BB28" s="41">
         <v>2013</v>
       </c>
-      <c r="BC28" s="27"/>
-      <c r="BD28" s="27"/>
-      <c r="BE28" s="27"/>
-      <c r="BF28" s="26">
+      <c r="BC28" s="42"/>
+      <c r="BD28" s="42"/>
+      <c r="BE28" s="42"/>
+      <c r="BF28" s="41">
         <v>2014</v>
       </c>
-      <c r="BG28" s="27"/>
-      <c r="BH28" s="27"/>
-      <c r="BI28" s="27"/>
-      <c r="BJ28" s="26">
+      <c r="BG28" s="42"/>
+      <c r="BH28" s="42"/>
+      <c r="BI28" s="42"/>
+      <c r="BJ28" s="41">
         <v>2015</v>
       </c>
-      <c r="BK28" s="27"/>
-      <c r="BL28" s="27"/>
-      <c r="BM28" s="27"/>
-      <c r="BN28" s="26">
+      <c r="BK28" s="42"/>
+      <c r="BL28" s="42"/>
+      <c r="BM28" s="42"/>
+      <c r="BN28" s="41">
         <v>2016</v>
       </c>
-      <c r="BO28" s="27"/>
-      <c r="BP28" s="27"/>
-      <c r="BQ28" s="27"/>
-      <c r="BR28" s="26">
+      <c r="BO28" s="42"/>
+      <c r="BP28" s="42"/>
+      <c r="BQ28" s="42"/>
+      <c r="BR28" s="41">
         <v>2017</v>
       </c>
-      <c r="BS28" s="27"/>
-      <c r="BT28" s="27"/>
-      <c r="BU28" s="27"/>
-      <c r="BV28" s="26">
+      <c r="BS28" s="42"/>
+      <c r="BT28" s="42"/>
+      <c r="BU28" s="42"/>
+      <c r="BV28" s="41">
         <v>2018</v>
       </c>
-      <c r="BW28" s="27"/>
-      <c r="BX28" s="27"/>
-      <c r="BY28" s="27"/>
-      <c r="BZ28" s="26">
+      <c r="BW28" s="42"/>
+      <c r="BX28" s="42"/>
+      <c r="BY28" s="42"/>
+      <c r="BZ28" s="41">
         <v>2019</v>
       </c>
-      <c r="CA28" s="27"/>
-      <c r="CB28" s="27"/>
-      <c r="CC28" s="27"/>
-      <c r="CD28" s="26">
+      <c r="CA28" s="42"/>
+      <c r="CB28" s="42"/>
+      <c r="CC28" s="42"/>
+      <c r="CD28" s="41">
         <v>2020</v>
       </c>
-      <c r="CE28" s="26"/>
-      <c r="CF28" s="26"/>
-      <c r="CG28" s="26"/>
-      <c r="CH28" s="26">
+      <c r="CE28" s="41"/>
+      <c r="CF28" s="41"/>
+      <c r="CG28" s="41"/>
+      <c r="CH28" s="41">
         <v>2021</v>
       </c>
-      <c r="CI28" s="26"/>
-      <c r="CJ28" s="26"/>
-      <c r="CK28" s="26"/>
-      <c r="CL28" s="26">
+      <c r="CI28" s="41"/>
+      <c r="CJ28" s="41"/>
+      <c r="CK28" s="41"/>
+      <c r="CL28" s="43">
         <v>2022</v>
       </c>
-      <c r="CM28" s="26"/>
-      <c r="CN28" s="26"/>
-      <c r="CO28" s="26"/>
-      <c r="CP28" s="26">
+      <c r="CM28" s="43"/>
+      <c r="CN28" s="43"/>
+      <c r="CO28" s="43"/>
+      <c r="CP28" s="43">
         <v>2023</v>
       </c>
-      <c r="CQ28" s="28"/>
+      <c r="CQ28" s="43"/>
+      <c r="CR28" s="43"/>
     </row>
     <row r="29" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
@@ -26548,27 +26690,37 @@
       <c r="CK29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL29" s="7" t="s">
+      <c r="CL29" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CM29" s="7" t="s">
+      <c r="CM29" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CN29" s="7" t="s">
+      <c r="CN29" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="CO29" s="7" t="s">
+      <c r="CO29" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="CP29" s="7" t="s">
+      <c r="CP29" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CQ29" s="7" t="s">
+      <c r="CQ29" s="29" t="s">
         <v>8</v>
+      </c>
+      <c r="CR29" s="29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
+      <c r="CL30" s="27"/>
+      <c r="CM30" s="27"/>
+      <c r="CN30" s="27"/>
+      <c r="CO30" s="27"/>
+      <c r="CP30" s="27"/>
+      <c r="CQ30" s="27"/>
+      <c r="CR30" s="27"/>
     </row>
     <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -26838,25 +26990,27 @@
       <c r="CK31" s="22">
         <v>12630.69882945955</v>
       </c>
-      <c r="CL31" s="22">
+      <c r="CL31" s="30">
         <v>12944.695738166523</v>
       </c>
-      <c r="CM31" s="22">
+      <c r="CM31" s="30">
         <v>17785.341151424225</v>
       </c>
-      <c r="CN31" s="22">
+      <c r="CN31" s="30">
         <v>10543.344914866946</v>
       </c>
-      <c r="CO31" s="22">
+      <c r="CO31" s="30">
         <v>13846.543308001339</v>
       </c>
-      <c r="CP31" s="22">
+      <c r="CP31" s="30">
         <v>12122.940622151416</v>
       </c>
-      <c r="CQ31" s="22">
-        <v>17414.170692351126</v>
-      </c>
-      <c r="CR31" s="10"/>
+      <c r="CQ31" s="30">
+        <v>17238.017360021182</v>
+      </c>
+      <c r="CR31" s="30">
+        <v>10791.602839020094</v>
+      </c>
       <c r="CS31" s="10"/>
       <c r="CT31" s="10"/>
       <c r="CU31" s="10"/>
@@ -27185,25 +27339,27 @@
       <c r="CK32" s="23">
         <v>169052.81165885623</v>
       </c>
-      <c r="CL32" s="23">
+      <c r="CL32" s="31">
         <v>144638.98927942221</v>
       </c>
-      <c r="CM32" s="23">
+      <c r="CM32" s="31">
         <v>176085.42660207796</v>
       </c>
-      <c r="CN32" s="23">
+      <c r="CN32" s="31">
         <v>134996.14611586751</v>
       </c>
-      <c r="CO32" s="23">
+      <c r="CO32" s="31">
         <v>179027.3493791802</v>
       </c>
-      <c r="CP32" s="23">
+      <c r="CP32" s="31">
         <v>152940.2892004395</v>
       </c>
-      <c r="CQ32" s="23">
-        <v>184472.38340550163</v>
-      </c>
-      <c r="CR32" s="10"/>
+      <c r="CQ32" s="31">
+        <v>183823.23767067181</v>
+      </c>
+      <c r="CR32" s="31">
+        <v>141149.07602062824</v>
+      </c>
       <c r="CS32" s="10"/>
       <c r="CT32" s="10"/>
       <c r="CU32" s="10"/>
@@ -27353,13 +27509,13 @@
       <c r="CI33" s="10"/>
       <c r="CJ33" s="10"/>
       <c r="CK33" s="10"/>
-      <c r="CL33" s="10"/>
-      <c r="CM33" s="10"/>
-      <c r="CN33" s="10"/>
-      <c r="CO33" s="10"/>
-      <c r="CP33" s="10"/>
-      <c r="CQ33" s="10"/>
-      <c r="CR33" s="10"/>
+      <c r="CL33" s="35"/>
+      <c r="CM33" s="35"/>
+      <c r="CN33" s="35"/>
+      <c r="CO33" s="35"/>
+      <c r="CP33" s="35"/>
+      <c r="CQ33" s="35"/>
+      <c r="CR33" s="35"/>
       <c r="CS33" s="10"/>
       <c r="CT33" s="10"/>
       <c r="CU33" s="10"/>
@@ -27688,25 +27844,27 @@
       <c r="CK34" s="25">
         <v>181683.51048831578</v>
       </c>
-      <c r="CL34" s="25">
+      <c r="CL34" s="33">
         <v>157583.68501758872</v>
       </c>
-      <c r="CM34" s="25">
+      <c r="CM34" s="33">
         <v>193870.76775350218</v>
       </c>
-      <c r="CN34" s="25">
+      <c r="CN34" s="33">
         <v>145539.49103073444</v>
       </c>
-      <c r="CO34" s="25">
+      <c r="CO34" s="33">
         <v>192873.89268718153</v>
       </c>
-      <c r="CP34" s="25">
+      <c r="CP34" s="33">
         <v>165063.22982259092</v>
       </c>
-      <c r="CQ34" s="25">
-        <v>201886.55409785276</v>
-      </c>
-      <c r="CR34" s="10"/>
+      <c r="CQ34" s="33">
+        <v>201061.25503069299</v>
+      </c>
+      <c r="CR34" s="33">
+        <v>151940.67885964832</v>
+      </c>
       <c r="CS34" s="10"/>
       <c r="CT34" s="10"/>
       <c r="CU34" s="10"/>
@@ -27857,17 +28015,25 @@
       <c r="CI35" s="16"/>
       <c r="CJ35" s="16"/>
       <c r="CK35" s="16"/>
-      <c r="CL35" s="16"/>
-      <c r="CM35" s="16"/>
-      <c r="CN35" s="16"/>
-      <c r="CO35" s="16"/>
-      <c r="CP35" s="16"/>
-      <c r="CQ35" s="16"/>
+      <c r="CL35" s="34"/>
+      <c r="CM35" s="34"/>
+      <c r="CN35" s="34"/>
+      <c r="CO35" s="34"/>
+      <c r="CP35" s="34"/>
+      <c r="CQ35" s="34"/>
+      <c r="CR35" s="34"/>
     </row>
     <row r="36" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="CL36" s="27"/>
+      <c r="CM36" s="27"/>
+      <c r="CN36" s="27"/>
+      <c r="CO36" s="27"/>
+      <c r="CP36" s="27"/>
+      <c r="CQ36" s="27"/>
+      <c r="CR36" s="27"/>
     </row>
     <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="10"/>
@@ -27958,13 +28124,13 @@
       <c r="CI37" s="10"/>
       <c r="CJ37" s="10"/>
       <c r="CK37" s="10"/>
-      <c r="CL37" s="10"/>
-      <c r="CM37" s="10"/>
-      <c r="CN37" s="10"/>
-      <c r="CO37" s="10"/>
-      <c r="CP37" s="10"/>
-      <c r="CQ37" s="10"/>
-      <c r="CR37" s="10"/>
+      <c r="CL37" s="35"/>
+      <c r="CM37" s="35"/>
+      <c r="CN37" s="35"/>
+      <c r="CO37" s="35"/>
+      <c r="CP37" s="35"/>
+      <c r="CQ37" s="35"/>
+      <c r="CR37" s="35"/>
       <c r="CS37" s="10"/>
       <c r="CT37" s="10"/>
       <c r="CU37" s="10"/>
@@ -28114,13 +28280,13 @@
       <c r="CI38" s="10"/>
       <c r="CJ38" s="10"/>
       <c r="CK38" s="10"/>
-      <c r="CL38" s="10"/>
-      <c r="CM38" s="10"/>
-      <c r="CN38" s="10"/>
-      <c r="CO38" s="10"/>
-      <c r="CP38" s="10"/>
-      <c r="CQ38" s="10"/>
-      <c r="CR38" s="10"/>
+      <c r="CL38" s="35"/>
+      <c r="CM38" s="35"/>
+      <c r="CN38" s="35"/>
+      <c r="CO38" s="35"/>
+      <c r="CP38" s="35"/>
+      <c r="CQ38" s="35"/>
+      <c r="CR38" s="35"/>
       <c r="CS38" s="10"/>
       <c r="CT38" s="10"/>
       <c r="CU38" s="10"/>
@@ -28185,176 +28351,235 @@
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CL39" s="27"/>
+      <c r="CM39" s="27"/>
+      <c r="CN39" s="27"/>
+      <c r="CO39" s="27"/>
+      <c r="CP39" s="27"/>
+      <c r="CQ39" s="27"/>
+      <c r="CR39" s="27"/>
     </row>
     <row r="40" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CL40" s="27"/>
+      <c r="CM40" s="27"/>
+      <c r="CN40" s="27"/>
+      <c r="CO40" s="27"/>
+      <c r="CP40" s="27"/>
+      <c r="CQ40" s="27"/>
+      <c r="CR40" s="27"/>
     </row>
     <row r="41" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="CL41" s="27"/>
+      <c r="CM41" s="27"/>
+      <c r="CN41" s="27"/>
+      <c r="CO41" s="27"/>
+      <c r="CP41" s="27"/>
+      <c r="CQ41" s="27"/>
+      <c r="CR41" s="27"/>
     </row>
-    <row r="42" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL42" s="27"/>
+      <c r="CM42" s="27"/>
+      <c r="CN42" s="27"/>
+      <c r="CO42" s="27"/>
+      <c r="CP42" s="27"/>
+      <c r="CQ42" s="27"/>
+      <c r="CR42" s="27"/>
+    </row>
     <row r="43" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="CL43" s="27"/>
+      <c r="CM43" s="27"/>
+      <c r="CN43" s="27"/>
+      <c r="CO43" s="27"/>
+      <c r="CP43" s="27"/>
+      <c r="CQ43" s="27"/>
+      <c r="CR43" s="27"/>
     </row>
     <row r="44" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="CL44" s="27"/>
+      <c r="CM44" s="27"/>
+      <c r="CN44" s="27"/>
+      <c r="CO44" s="27"/>
+      <c r="CP44" s="27"/>
+      <c r="CQ44" s="27"/>
+      <c r="CR44" s="27"/>
     </row>
     <row r="45" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="CL45" s="27"/>
+      <c r="CM45" s="27"/>
+      <c r="CN45" s="27"/>
+      <c r="CO45" s="27"/>
+      <c r="CP45" s="27"/>
+      <c r="CQ45" s="27"/>
+      <c r="CR45" s="27"/>
     </row>
-    <row r="46" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL46" s="27"/>
+      <c r="CM46" s="27"/>
+      <c r="CN46" s="27"/>
+      <c r="CO46" s="27"/>
+      <c r="CP46" s="27"/>
+      <c r="CQ46" s="27"/>
+      <c r="CR46" s="27"/>
+    </row>
     <row r="47" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26" t="s">
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26" t="s">
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="26" t="s">
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="26"/>
-      <c r="P47" s="26"/>
-      <c r="Q47" s="26"/>
-      <c r="R47" s="26" t="s">
+      <c r="O47" s="41"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="26"/>
-      <c r="T47" s="26"/>
-      <c r="U47" s="26"/>
-      <c r="V47" s="26" t="s">
+      <c r="S47" s="41"/>
+      <c r="T47" s="41"/>
+      <c r="U47" s="41"/>
+      <c r="V47" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="26"/>
-      <c r="X47" s="26"/>
-      <c r="Y47" s="26"/>
-      <c r="Z47" s="26" t="s">
+      <c r="W47" s="41"/>
+      <c r="X47" s="41"/>
+      <c r="Y47" s="41"/>
+      <c r="Z47" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="26"/>
-      <c r="AB47" s="26"/>
-      <c r="AC47" s="26"/>
-      <c r="AD47" s="26" t="s">
+      <c r="AA47" s="41"/>
+      <c r="AB47" s="41"/>
+      <c r="AC47" s="41"/>
+      <c r="AD47" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="26"/>
-      <c r="AF47" s="26"/>
-      <c r="AG47" s="26"/>
-      <c r="AH47" s="26" t="s">
+      <c r="AE47" s="41"/>
+      <c r="AF47" s="41"/>
+      <c r="AG47" s="41"/>
+      <c r="AH47" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="26"/>
-      <c r="AJ47" s="26"/>
-      <c r="AK47" s="26"/>
-      <c r="AL47" s="26" t="s">
+      <c r="AI47" s="41"/>
+      <c r="AJ47" s="41"/>
+      <c r="AK47" s="41"/>
+      <c r="AL47" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="26"/>
-      <c r="AN47" s="26"/>
-      <c r="AO47" s="26"/>
-      <c r="AP47" s="26" t="s">
+      <c r="AM47" s="41"/>
+      <c r="AN47" s="41"/>
+      <c r="AO47" s="41"/>
+      <c r="AP47" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="26"/>
-      <c r="AR47" s="26"/>
-      <c r="AS47" s="26"/>
-      <c r="AT47" s="26" t="s">
+      <c r="AQ47" s="41"/>
+      <c r="AR47" s="41"/>
+      <c r="AS47" s="41"/>
+      <c r="AT47" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="26"/>
-      <c r="AV47" s="26"/>
-      <c r="AW47" s="26"/>
-      <c r="AX47" s="26" t="s">
+      <c r="AU47" s="41"/>
+      <c r="AV47" s="41"/>
+      <c r="AW47" s="41"/>
+      <c r="AX47" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="26"/>
-      <c r="AZ47" s="26"/>
-      <c r="BA47" s="26"/>
-      <c r="BB47" s="26" t="s">
+      <c r="AY47" s="41"/>
+      <c r="AZ47" s="41"/>
+      <c r="BA47" s="41"/>
+      <c r="BB47" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="26"/>
-      <c r="BD47" s="26"/>
-      <c r="BE47" s="26"/>
-      <c r="BF47" s="26" t="s">
+      <c r="BC47" s="41"/>
+      <c r="BD47" s="41"/>
+      <c r="BE47" s="41"/>
+      <c r="BF47" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="26"/>
-      <c r="BH47" s="26"/>
-      <c r="BI47" s="26"/>
-      <c r="BJ47" s="26" t="s">
+      <c r="BG47" s="41"/>
+      <c r="BH47" s="41"/>
+      <c r="BI47" s="41"/>
+      <c r="BJ47" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="26"/>
-      <c r="BL47" s="26"/>
-      <c r="BM47" s="26"/>
-      <c r="BN47" s="26" t="s">
+      <c r="BK47" s="41"/>
+      <c r="BL47" s="41"/>
+      <c r="BM47" s="41"/>
+      <c r="BN47" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="26"/>
-      <c r="BP47" s="26"/>
-      <c r="BQ47" s="26"/>
-      <c r="BR47" s="26" t="s">
+      <c r="BO47" s="41"/>
+      <c r="BP47" s="41"/>
+      <c r="BQ47" s="41"/>
+      <c r="BR47" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="BS47" s="26"/>
-      <c r="BT47" s="26"/>
-      <c r="BU47" s="26"/>
-      <c r="BV47" s="26" t="s">
+      <c r="BS47" s="41"/>
+      <c r="BT47" s="41"/>
+      <c r="BU47" s="41"/>
+      <c r="BV47" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="BW47" s="26"/>
-      <c r="BX47" s="26"/>
-      <c r="BY47" s="26"/>
-      <c r="BZ47" s="26" t="s">
+      <c r="BW47" s="41"/>
+      <c r="BX47" s="41"/>
+      <c r="BY47" s="41"/>
+      <c r="BZ47" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="CA47" s="26"/>
-      <c r="CB47" s="26"/>
-      <c r="CC47" s="26"/>
-      <c r="CD47" s="26" t="s">
+      <c r="CA47" s="41"/>
+      <c r="CB47" s="41"/>
+      <c r="CC47" s="41"/>
+      <c r="CD47" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="26"/>
-      <c r="CF47" s="26"/>
-      <c r="CG47" s="26"/>
-      <c r="CH47" s="26" t="s">
+      <c r="CE47" s="41"/>
+      <c r="CF47" s="41"/>
+      <c r="CG47" s="41"/>
+      <c r="CH47" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="CI47" s="26"/>
-      <c r="CJ47" s="26"/>
-      <c r="CK47" s="26"/>
-      <c r="CL47" s="26" t="s">
+      <c r="CI47" s="41"/>
+      <c r="CJ47" s="41"/>
+      <c r="CK47" s="41"/>
+      <c r="CL47" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="CM47" s="26"/>
-      <c r="CN47" s="26"/>
-      <c r="CO47" s="26"/>
+      <c r="CM47" s="43"/>
+      <c r="CN47" s="43"/>
+      <c r="CO47" s="36"/>
       <c r="CP47" s="26"/>
-      <c r="CQ47" s="28"/>
+      <c r="CQ47" s="26"/>
+      <c r="CR47" s="26"/>
     </row>
     <row r="48" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -28624,19 +28849,29 @@
       <c r="CK48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL48" s="6" t="s">
+      <c r="CL48" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="CM48" s="6" t="s">
+      <c r="CM48" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="CN48" s="6"/>
-      <c r="CO48" s="6"/>
-      <c r="CP48" s="6"/>
-      <c r="CQ48" s="6"/>
+      <c r="CN48" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="CO48" s="37"/>
+      <c r="CP48" s="37"/>
+      <c r="CQ48" s="37"/>
+      <c r="CR48" s="37"/>
     </row>
     <row r="49" spans="1:151" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
+      <c r="CL49" s="27"/>
+      <c r="CM49" s="27"/>
+      <c r="CN49" s="27"/>
+      <c r="CO49" s="27"/>
+      <c r="CP49" s="27"/>
+      <c r="CQ49" s="27"/>
+      <c r="CR49" s="27"/>
     </row>
     <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -28906,17 +29141,19 @@
       <c r="CK50" s="18">
         <v>13.397607524711262</v>
       </c>
-      <c r="CL50" s="18">
+      <c r="CL50" s="38">
         <v>-1.6138956826001447</v>
       </c>
-      <c r="CM50" s="18">
-        <v>2.0511497337548832</v>
-      </c>
-      <c r="CN50" s="18"/>
-      <c r="CO50" s="18"/>
-      <c r="CP50" s="18"/>
-      <c r="CQ50" s="18"/>
-      <c r="CR50" s="10"/>
+      <c r="CM50" s="38">
+        <v>1.018849636822992</v>
+      </c>
+      <c r="CN50" s="38">
+        <v>7.7966649629062772</v>
+      </c>
+      <c r="CO50" s="38"/>
+      <c r="CP50" s="38"/>
+      <c r="CQ50" s="38"/>
+      <c r="CR50" s="38"/>
       <c r="CS50" s="10"/>
       <c r="CT50" s="10"/>
       <c r="CU50" s="10"/>
@@ -29241,17 +29478,19 @@
       <c r="CK51" s="18">
         <v>6.5273277992473453</v>
       </c>
-      <c r="CL51" s="18">
+      <c r="CL51" s="38">
         <v>6.5000383494229368</v>
       </c>
-      <c r="CM51" s="18">
-        <v>5.4819663016050697</v>
-      </c>
-      <c r="CN51" s="18"/>
-      <c r="CO51" s="18"/>
-      <c r="CP51" s="18"/>
-      <c r="CQ51" s="18"/>
-      <c r="CR51" s="10"/>
+      <c r="CM51" s="38">
+        <v>5.1107824568360911</v>
+      </c>
+      <c r="CN51" s="38">
+        <v>5.2407942844436235</v>
+      </c>
+      <c r="CO51" s="38"/>
+      <c r="CP51" s="38"/>
+      <c r="CQ51" s="38"/>
+      <c r="CR51" s="38"/>
       <c r="CS51" s="10"/>
       <c r="CT51" s="10"/>
       <c r="CU51" s="10"/>
@@ -29398,13 +29637,13 @@
       <c r="CI52" s="19"/>
       <c r="CJ52" s="19"/>
       <c r="CK52" s="19"/>
-      <c r="CL52" s="19"/>
-      <c r="CM52" s="19"/>
-      <c r="CN52" s="19"/>
-      <c r="CO52" s="19"/>
-      <c r="CP52" s="19"/>
-      <c r="CQ52" s="19"/>
-      <c r="CR52" s="10"/>
+      <c r="CL52" s="39"/>
+      <c r="CM52" s="39"/>
+      <c r="CN52" s="39"/>
+      <c r="CO52" s="39"/>
+      <c r="CP52" s="39"/>
+      <c r="CQ52" s="39"/>
+      <c r="CR52" s="39"/>
       <c r="CS52" s="10"/>
       <c r="CT52" s="10"/>
       <c r="CU52" s="10"/>
@@ -29729,17 +29968,19 @@
       <c r="CK53" s="18">
         <v>7.0337298972571034</v>
       </c>
-      <c r="CL53" s="18">
+      <c r="CL53" s="38">
         <v>5.7948390303071733</v>
       </c>
-      <c r="CM53" s="18">
-        <v>5.1729357158569087</v>
-      </c>
-      <c r="CN53" s="18"/>
-      <c r="CO53" s="18"/>
-      <c r="CP53" s="18"/>
-      <c r="CQ53" s="18"/>
-      <c r="CR53" s="10"/>
+      <c r="CM53" s="38">
+        <v>4.7422018664132253</v>
+      </c>
+      <c r="CN53" s="38">
+        <v>5.4326191197181686</v>
+      </c>
+      <c r="CO53" s="38"/>
+      <c r="CP53" s="38"/>
+      <c r="CQ53" s="38"/>
+      <c r="CR53" s="38"/>
       <c r="CS53" s="10"/>
       <c r="CT53" s="10"/>
       <c r="CU53" s="10"/>
@@ -29886,17 +30127,25 @@
       <c r="CI54" s="16"/>
       <c r="CJ54" s="16"/>
       <c r="CK54" s="16"/>
-      <c r="CL54" s="16"/>
-      <c r="CM54" s="16"/>
-      <c r="CN54" s="16"/>
-      <c r="CO54" s="16"/>
-      <c r="CP54" s="16"/>
-      <c r="CQ54" s="16"/>
+      <c r="CL54" s="34"/>
+      <c r="CM54" s="34"/>
+      <c r="CN54" s="34"/>
+      <c r="CO54" s="34"/>
+      <c r="CP54" s="34"/>
+      <c r="CQ54" s="34"/>
+      <c r="CR54" s="34"/>
     </row>
     <row r="55" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="CL55" s="27"/>
+      <c r="CM55" s="27"/>
+      <c r="CN55" s="27"/>
+      <c r="CO55" s="27"/>
+      <c r="CP55" s="27"/>
+      <c r="CQ55" s="27"/>
+      <c r="CR55" s="27"/>
     </row>
     <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="10"/>
@@ -29987,13 +30236,13 @@
       <c r="CI56" s="10"/>
       <c r="CJ56" s="10"/>
       <c r="CK56" s="10"/>
-      <c r="CL56" s="10"/>
-      <c r="CM56" s="10"/>
-      <c r="CN56" s="10"/>
-      <c r="CO56" s="10"/>
-      <c r="CP56" s="10"/>
-      <c r="CQ56" s="10"/>
-      <c r="CR56" s="10"/>
+      <c r="CL56" s="35"/>
+      <c r="CM56" s="35"/>
+      <c r="CN56" s="35"/>
+      <c r="CO56" s="35"/>
+      <c r="CP56" s="35"/>
+      <c r="CQ56" s="35"/>
+      <c r="CR56" s="35"/>
       <c r="CS56" s="10"/>
       <c r="CT56" s="10"/>
       <c r="CU56" s="10"/>
@@ -30139,13 +30388,13 @@
       <c r="CI57" s="10"/>
       <c r="CJ57" s="10"/>
       <c r="CK57" s="10"/>
-      <c r="CL57" s="10"/>
-      <c r="CM57" s="10"/>
-      <c r="CN57" s="10"/>
-      <c r="CO57" s="10"/>
-      <c r="CP57" s="10"/>
-      <c r="CQ57" s="10"/>
-      <c r="CR57" s="10"/>
+      <c r="CL57" s="35"/>
+      <c r="CM57" s="35"/>
+      <c r="CN57" s="35"/>
+      <c r="CO57" s="35"/>
+      <c r="CP57" s="35"/>
+      <c r="CQ57" s="35"/>
+      <c r="CR57" s="35"/>
       <c r="CS57" s="10"/>
       <c r="CT57" s="10"/>
       <c r="CU57" s="10"/>
@@ -30206,176 +30455,235 @@
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CL58" s="27"/>
+      <c r="CM58" s="27"/>
+      <c r="CN58" s="27"/>
+      <c r="CO58" s="27"/>
+      <c r="CP58" s="27"/>
+      <c r="CQ58" s="27"/>
+      <c r="CR58" s="27"/>
     </row>
     <row r="59" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CL59" s="27"/>
+      <c r="CM59" s="27"/>
+      <c r="CN59" s="27"/>
+      <c r="CO59" s="27"/>
+      <c r="CP59" s="27"/>
+      <c r="CQ59" s="27"/>
+      <c r="CR59" s="27"/>
     </row>
     <row r="60" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="CL60" s="27"/>
+      <c r="CM60" s="27"/>
+      <c r="CN60" s="27"/>
+      <c r="CO60" s="27"/>
+      <c r="CP60" s="27"/>
+      <c r="CQ60" s="27"/>
+      <c r="CR60" s="27"/>
     </row>
-    <row r="61" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL61" s="27"/>
+      <c r="CM61" s="27"/>
+      <c r="CN61" s="27"/>
+      <c r="CO61" s="27"/>
+      <c r="CP61" s="27"/>
+      <c r="CQ61" s="27"/>
+      <c r="CR61" s="27"/>
+    </row>
     <row r="62" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="CL62" s="27"/>
+      <c r="CM62" s="27"/>
+      <c r="CN62" s="27"/>
+      <c r="CO62" s="27"/>
+      <c r="CP62" s="27"/>
+      <c r="CQ62" s="27"/>
+      <c r="CR62" s="27"/>
     </row>
     <row r="63" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="CL63" s="27"/>
+      <c r="CM63" s="27"/>
+      <c r="CN63" s="27"/>
+      <c r="CO63" s="27"/>
+      <c r="CP63" s="27"/>
+      <c r="CQ63" s="27"/>
+      <c r="CR63" s="27"/>
     </row>
     <row r="64" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="CL64" s="27"/>
+      <c r="CM64" s="27"/>
+      <c r="CN64" s="27"/>
+      <c r="CO64" s="27"/>
+      <c r="CP64" s="27"/>
+      <c r="CQ64" s="27"/>
+      <c r="CR64" s="27"/>
     </row>
-    <row r="65" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL65" s="27"/>
+      <c r="CM65" s="27"/>
+      <c r="CN65" s="27"/>
+      <c r="CO65" s="27"/>
+      <c r="CP65" s="27"/>
+      <c r="CQ65" s="27"/>
+      <c r="CR65" s="27"/>
+    </row>
     <row r="66" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="26" t="s">
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="26" t="s">
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="28"/>
-      <c r="L66" s="28"/>
-      <c r="M66" s="28"/>
-      <c r="N66" s="26" t="s">
+      <c r="K66" s="43"/>
+      <c r="L66" s="43"/>
+      <c r="M66" s="43"/>
+      <c r="N66" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="28"/>
-      <c r="P66" s="28"/>
-      <c r="Q66" s="28"/>
-      <c r="R66" s="26" t="s">
+      <c r="O66" s="43"/>
+      <c r="P66" s="43"/>
+      <c r="Q66" s="43"/>
+      <c r="R66" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="28"/>
-      <c r="T66" s="28"/>
-      <c r="U66" s="28"/>
-      <c r="V66" s="26" t="s">
+      <c r="S66" s="43"/>
+      <c r="T66" s="43"/>
+      <c r="U66" s="43"/>
+      <c r="V66" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="28"/>
-      <c r="X66" s="28"/>
-      <c r="Y66" s="28"/>
-      <c r="Z66" s="26" t="s">
+      <c r="W66" s="43"/>
+      <c r="X66" s="43"/>
+      <c r="Y66" s="43"/>
+      <c r="Z66" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="28"/>
-      <c r="AB66" s="28"/>
-      <c r="AC66" s="28"/>
-      <c r="AD66" s="26" t="s">
+      <c r="AA66" s="43"/>
+      <c r="AB66" s="43"/>
+      <c r="AC66" s="43"/>
+      <c r="AD66" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="28"/>
-      <c r="AF66" s="28"/>
-      <c r="AG66" s="28"/>
-      <c r="AH66" s="26" t="s">
+      <c r="AE66" s="43"/>
+      <c r="AF66" s="43"/>
+      <c r="AG66" s="43"/>
+      <c r="AH66" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="28"/>
-      <c r="AJ66" s="28"/>
-      <c r="AK66" s="28"/>
-      <c r="AL66" s="26" t="s">
+      <c r="AI66" s="43"/>
+      <c r="AJ66" s="43"/>
+      <c r="AK66" s="43"/>
+      <c r="AL66" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="28"/>
-      <c r="AN66" s="28"/>
-      <c r="AO66" s="28"/>
-      <c r="AP66" s="26" t="s">
+      <c r="AM66" s="43"/>
+      <c r="AN66" s="43"/>
+      <c r="AO66" s="43"/>
+      <c r="AP66" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="28"/>
-      <c r="AR66" s="28"/>
-      <c r="AS66" s="28"/>
-      <c r="AT66" s="26" t="s">
+      <c r="AQ66" s="43"/>
+      <c r="AR66" s="43"/>
+      <c r="AS66" s="43"/>
+      <c r="AT66" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="28"/>
-      <c r="AV66" s="28"/>
-      <c r="AW66" s="28"/>
-      <c r="AX66" s="26" t="s">
+      <c r="AU66" s="43"/>
+      <c r="AV66" s="43"/>
+      <c r="AW66" s="43"/>
+      <c r="AX66" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="28"/>
-      <c r="AZ66" s="28"/>
-      <c r="BA66" s="28"/>
-      <c r="BB66" s="26" t="s">
+      <c r="AY66" s="43"/>
+      <c r="AZ66" s="43"/>
+      <c r="BA66" s="43"/>
+      <c r="BB66" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="28"/>
-      <c r="BD66" s="28"/>
-      <c r="BE66" s="28"/>
-      <c r="BF66" s="26" t="s">
+      <c r="BC66" s="43"/>
+      <c r="BD66" s="43"/>
+      <c r="BE66" s="43"/>
+      <c r="BF66" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="28"/>
-      <c r="BH66" s="28"/>
-      <c r="BI66" s="28"/>
-      <c r="BJ66" s="26" t="s">
+      <c r="BG66" s="43"/>
+      <c r="BH66" s="43"/>
+      <c r="BI66" s="43"/>
+      <c r="BJ66" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="28"/>
-      <c r="BL66" s="28"/>
-      <c r="BM66" s="28"/>
-      <c r="BN66" s="26" t="s">
+      <c r="BK66" s="43"/>
+      <c r="BL66" s="43"/>
+      <c r="BM66" s="43"/>
+      <c r="BN66" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="28"/>
-      <c r="BP66" s="28"/>
-      <c r="BQ66" s="28"/>
-      <c r="BR66" s="26" t="s">
+      <c r="BO66" s="43"/>
+      <c r="BP66" s="43"/>
+      <c r="BQ66" s="43"/>
+      <c r="BR66" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="BS66" s="28"/>
-      <c r="BT66" s="28"/>
-      <c r="BU66" s="28"/>
-      <c r="BV66" s="26" t="s">
+      <c r="BS66" s="43"/>
+      <c r="BT66" s="43"/>
+      <c r="BU66" s="43"/>
+      <c r="BV66" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="BW66" s="28"/>
-      <c r="BX66" s="28"/>
-      <c r="BY66" s="28"/>
-      <c r="BZ66" s="26" t="s">
+      <c r="BW66" s="43"/>
+      <c r="BX66" s="43"/>
+      <c r="BY66" s="43"/>
+      <c r="BZ66" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="CA66" s="28"/>
-      <c r="CB66" s="28"/>
-      <c r="CC66" s="28"/>
-      <c r="CD66" s="26" t="s">
+      <c r="CA66" s="43"/>
+      <c r="CB66" s="43"/>
+      <c r="CC66" s="43"/>
+      <c r="CD66" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="26"/>
-      <c r="CF66" s="26"/>
-      <c r="CG66" s="26"/>
-      <c r="CH66" s="26" t="s">
+      <c r="CE66" s="41"/>
+      <c r="CF66" s="41"/>
+      <c r="CG66" s="41"/>
+      <c r="CH66" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="CI66" s="26"/>
-      <c r="CJ66" s="26"/>
-      <c r="CK66" s="26"/>
-      <c r="CL66" s="26" t="s">
+      <c r="CI66" s="41"/>
+      <c r="CJ66" s="41"/>
+      <c r="CK66" s="41"/>
+      <c r="CL66" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="CM66" s="26"/>
-      <c r="CN66" s="26"/>
-      <c r="CO66" s="26"/>
+      <c r="CM66" s="43"/>
+      <c r="CN66" s="43"/>
+      <c r="CO66" s="36"/>
       <c r="CP66" s="26"/>
-      <c r="CQ66" s="28"/>
+      <c r="CQ66" s="26"/>
+      <c r="CR66" s="26"/>
     </row>
     <row r="67" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
@@ -30645,19 +30953,29 @@
       <c r="CK67" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL67" s="6" t="s">
+      <c r="CL67" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="CM67" s="6" t="s">
+      <c r="CM67" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="CN67" s="6"/>
-      <c r="CO67" s="6"/>
-      <c r="CP67" s="6"/>
-      <c r="CQ67" s="6"/>
+      <c r="CN67" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="CO67" s="37"/>
+      <c r="CP67" s="37"/>
+      <c r="CQ67" s="37"/>
+      <c r="CR67" s="37"/>
     </row>
     <row r="68" spans="1:151" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
+      <c r="CL68" s="27"/>
+      <c r="CM68" s="27"/>
+      <c r="CN68" s="27"/>
+      <c r="CO68" s="27"/>
+      <c r="CP68" s="27"/>
+      <c r="CQ68" s="27"/>
+      <c r="CR68" s="27"/>
     </row>
     <row r="69" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
@@ -30927,17 +31245,19 @@
       <c r="CK69" s="18">
         <v>9.6261061637063392</v>
       </c>
-      <c r="CL69" s="18">
+      <c r="CL69" s="38">
         <v>-6.3481995454881144</v>
       </c>
-      <c r="CM69" s="18">
-        <v>-2.0869459624808826</v>
-      </c>
-      <c r="CN69" s="18"/>
-      <c r="CO69" s="18"/>
-      <c r="CP69" s="18"/>
-      <c r="CQ69" s="18"/>
-      <c r="CR69" s="10"/>
+      <c r="CM69" s="38">
+        <v>-3.0773870837963386</v>
+      </c>
+      <c r="CN69" s="38">
+        <v>2.354641019123676</v>
+      </c>
+      <c r="CO69" s="38"/>
+      <c r="CP69" s="38"/>
+      <c r="CQ69" s="38"/>
+      <c r="CR69" s="38"/>
       <c r="CS69" s="10"/>
       <c r="CT69" s="10"/>
       <c r="CU69" s="10"/>
@@ -31262,17 +31582,19 @@
       <c r="CK70" s="18">
         <v>5.9002495270248971</v>
       </c>
-      <c r="CL70" s="18">
+      <c r="CL70" s="38">
         <v>5.7393237897841942</v>
       </c>
-      <c r="CM70" s="18">
-        <v>4.7630045059758004</v>
-      </c>
-      <c r="CN70" s="18"/>
-      <c r="CO70" s="18"/>
-      <c r="CP70" s="18"/>
-      <c r="CQ70" s="18"/>
-      <c r="CR70" s="10"/>
+      <c r="CM70" s="38">
+        <v>4.3943506387271469</v>
+      </c>
+      <c r="CN70" s="38">
+        <v>4.5578559698138861</v>
+      </c>
+      <c r="CO70" s="38"/>
+      <c r="CP70" s="38"/>
+      <c r="CQ70" s="38"/>
+      <c r="CR70" s="38"/>
       <c r="CS70" s="10"/>
       <c r="CT70" s="10"/>
       <c r="CU70" s="10"/>
@@ -31418,13 +31740,13 @@
       <c r="CI71" s="19"/>
       <c r="CJ71" s="19"/>
       <c r="CK71" s="19"/>
-      <c r="CL71" s="19"/>
-      <c r="CM71" s="19"/>
-      <c r="CN71" s="19"/>
-      <c r="CO71" s="19"/>
-      <c r="CP71" s="19"/>
-      <c r="CQ71" s="19"/>
-      <c r="CR71" s="10"/>
+      <c r="CL71" s="39"/>
+      <c r="CM71" s="39"/>
+      <c r="CN71" s="39"/>
+      <c r="CO71" s="39"/>
+      <c r="CP71" s="39"/>
+      <c r="CQ71" s="39"/>
+      <c r="CR71" s="39"/>
       <c r="CS71" s="10"/>
       <c r="CT71" s="10"/>
       <c r="CU71" s="10"/>
@@ -31749,17 +32071,19 @@
       <c r="CK72" s="18">
         <v>6.1592723350562011</v>
       </c>
-      <c r="CL72" s="18">
+      <c r="CL72" s="38">
         <v>4.7463954178805778</v>
       </c>
-      <c r="CM72" s="18">
-        <v>4.1346028786259694</v>
-      </c>
-      <c r="CN72" s="18"/>
-      <c r="CO72" s="18"/>
-      <c r="CP72" s="18"/>
-      <c r="CQ72" s="18"/>
-      <c r="CR72" s="10"/>
+      <c r="CM72" s="38">
+        <v>3.7089074131759787</v>
+      </c>
+      <c r="CN72" s="38">
+        <v>4.3982480518377685</v>
+      </c>
+      <c r="CO72" s="38"/>
+      <c r="CP72" s="38"/>
+      <c r="CQ72" s="38"/>
+      <c r="CR72" s="38"/>
       <c r="CS72" s="10"/>
       <c r="CT72" s="10"/>
       <c r="CU72" s="10"/>
@@ -31906,17 +32230,25 @@
       <c r="CI73" s="16"/>
       <c r="CJ73" s="16"/>
       <c r="CK73" s="16"/>
-      <c r="CL73" s="16"/>
-      <c r="CM73" s="16"/>
-      <c r="CN73" s="16"/>
-      <c r="CO73" s="16"/>
-      <c r="CP73" s="16"/>
-      <c r="CQ73" s="16"/>
+      <c r="CL73" s="34"/>
+      <c r="CM73" s="34"/>
+      <c r="CN73" s="34"/>
+      <c r="CO73" s="34"/>
+      <c r="CP73" s="34"/>
+      <c r="CQ73" s="34"/>
+      <c r="CR73" s="34"/>
     </row>
     <row r="74" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="CL74" s="27"/>
+      <c r="CM74" s="27"/>
+      <c r="CN74" s="27"/>
+      <c r="CO74" s="27"/>
+      <c r="CP74" s="27"/>
+      <c r="CQ74" s="27"/>
+      <c r="CR74" s="27"/>
     </row>
     <row r="75" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="10"/>
@@ -32007,13 +32339,13 @@
       <c r="CI75" s="10"/>
       <c r="CJ75" s="10"/>
       <c r="CK75" s="10"/>
-      <c r="CL75" s="10"/>
-      <c r="CM75" s="10"/>
-      <c r="CN75" s="10"/>
-      <c r="CO75" s="10"/>
-      <c r="CP75" s="10"/>
-      <c r="CQ75" s="10"/>
-      <c r="CR75" s="10"/>
+      <c r="CL75" s="35"/>
+      <c r="CM75" s="35"/>
+      <c r="CN75" s="35"/>
+      <c r="CO75" s="35"/>
+      <c r="CP75" s="35"/>
+      <c r="CQ75" s="35"/>
+      <c r="CR75" s="35"/>
       <c r="CS75" s="10"/>
       <c r="CT75" s="10"/>
       <c r="CU75" s="10"/>
@@ -32159,13 +32491,13 @@
       <c r="CI76" s="10"/>
       <c r="CJ76" s="10"/>
       <c r="CK76" s="10"/>
-      <c r="CL76" s="10"/>
-      <c r="CM76" s="10"/>
-      <c r="CN76" s="10"/>
-      <c r="CO76" s="10"/>
-      <c r="CP76" s="10"/>
-      <c r="CQ76" s="10"/>
-      <c r="CR76" s="10"/>
+      <c r="CL76" s="35"/>
+      <c r="CM76" s="35"/>
+      <c r="CN76" s="35"/>
+      <c r="CO76" s="35"/>
+      <c r="CP76" s="35"/>
+      <c r="CQ76" s="35"/>
+      <c r="CR76" s="35"/>
       <c r="CS76" s="10"/>
       <c r="CT76" s="10"/>
       <c r="CU76" s="10"/>
@@ -32226,173 +32558,225 @@
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CL77" s="27"/>
+      <c r="CM77" s="27"/>
+      <c r="CN77" s="27"/>
+      <c r="CO77" s="27"/>
+      <c r="CP77" s="27"/>
+      <c r="CQ77" s="27"/>
+      <c r="CR77" s="27"/>
     </row>
     <row r="78" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="CL78" s="27"/>
+      <c r="CM78" s="27"/>
+      <c r="CN78" s="27"/>
+      <c r="CO78" s="27"/>
+      <c r="CP78" s="27"/>
+      <c r="CQ78" s="27"/>
+      <c r="CR78" s="27"/>
     </row>
-    <row r="79" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL79" s="27"/>
+      <c r="CM79" s="27"/>
+      <c r="CN79" s="27"/>
+      <c r="CO79" s="27"/>
+      <c r="CP79" s="27"/>
+      <c r="CQ79" s="27"/>
+      <c r="CR79" s="27"/>
+    </row>
     <row r="80" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="CL80" s="27"/>
+      <c r="CM80" s="27"/>
+      <c r="CN80" s="27"/>
+      <c r="CO80" s="27"/>
+      <c r="CP80" s="27"/>
+      <c r="CQ80" s="27"/>
+      <c r="CR80" s="27"/>
     </row>
     <row r="81" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="CL81" s="27"/>
+      <c r="CM81" s="27"/>
+      <c r="CN81" s="27"/>
+      <c r="CO81" s="27"/>
+      <c r="CP81" s="27"/>
+      <c r="CQ81" s="27"/>
+      <c r="CR81" s="27"/>
     </row>
     <row r="82" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="CL82" s="27"/>
+      <c r="CM82" s="27"/>
+      <c r="CN82" s="27"/>
+      <c r="CO82" s="27"/>
+      <c r="CP82" s="27"/>
+      <c r="CQ82" s="27"/>
+      <c r="CR82" s="27"/>
     </row>
-    <row r="83" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL83" s="27"/>
+      <c r="CM83" s="27"/>
+      <c r="CN83" s="27"/>
+      <c r="CO83" s="27"/>
+      <c r="CP83" s="27"/>
+      <c r="CQ83" s="27"/>
+      <c r="CR83" s="27"/>
+    </row>
     <row r="84" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
-      <c r="B84" s="26">
+      <c r="B84" s="41">
         <v>2000</v>
       </c>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="26">
+      <c r="C84" s="42"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="41">
         <v>2001</v>
       </c>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="26">
+      <c r="G84" s="42"/>
+      <c r="H84" s="42"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="41">
         <v>2002</v>
       </c>
-      <c r="K84" s="27"/>
-      <c r="L84" s="27"/>
-      <c r="M84" s="27"/>
-      <c r="N84" s="26">
+      <c r="K84" s="42"/>
+      <c r="L84" s="42"/>
+      <c r="M84" s="42"/>
+      <c r="N84" s="41">
         <v>2003</v>
       </c>
-      <c r="O84" s="27"/>
-      <c r="P84" s="27"/>
-      <c r="Q84" s="27"/>
-      <c r="R84" s="26">
+      <c r="O84" s="42"/>
+      <c r="P84" s="42"/>
+      <c r="Q84" s="42"/>
+      <c r="R84" s="41">
         <v>2004</v>
       </c>
-      <c r="S84" s="27"/>
-      <c r="T84" s="27"/>
-      <c r="U84" s="27"/>
-      <c r="V84" s="26">
+      <c r="S84" s="42"/>
+      <c r="T84" s="42"/>
+      <c r="U84" s="42"/>
+      <c r="V84" s="41">
         <v>2005</v>
       </c>
-      <c r="W84" s="27"/>
-      <c r="X84" s="27"/>
-      <c r="Y84" s="27"/>
-      <c r="Z84" s="26">
+      <c r="W84" s="42"/>
+      <c r="X84" s="42"/>
+      <c r="Y84" s="42"/>
+      <c r="Z84" s="41">
         <v>2006</v>
       </c>
-      <c r="AA84" s="27"/>
-      <c r="AB84" s="27"/>
-      <c r="AC84" s="27"/>
-      <c r="AD84" s="26">
+      <c r="AA84" s="42"/>
+      <c r="AB84" s="42"/>
+      <c r="AC84" s="42"/>
+      <c r="AD84" s="41">
         <v>2007</v>
       </c>
-      <c r="AE84" s="27"/>
-      <c r="AF84" s="27"/>
-      <c r="AG84" s="27"/>
-      <c r="AH84" s="26">
+      <c r="AE84" s="42"/>
+      <c r="AF84" s="42"/>
+      <c r="AG84" s="42"/>
+      <c r="AH84" s="41">
         <v>2008</v>
       </c>
-      <c r="AI84" s="27"/>
-      <c r="AJ84" s="27"/>
-      <c r="AK84" s="27"/>
-      <c r="AL84" s="26">
+      <c r="AI84" s="42"/>
+      <c r="AJ84" s="42"/>
+      <c r="AK84" s="42"/>
+      <c r="AL84" s="41">
         <v>2009</v>
       </c>
-      <c r="AM84" s="27"/>
-      <c r="AN84" s="27"/>
-      <c r="AO84" s="27"/>
-      <c r="AP84" s="26">
+      <c r="AM84" s="42"/>
+      <c r="AN84" s="42"/>
+      <c r="AO84" s="42"/>
+      <c r="AP84" s="41">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="27"/>
-      <c r="AR84" s="27"/>
-      <c r="AS84" s="27"/>
-      <c r="AT84" s="26">
+      <c r="AQ84" s="42"/>
+      <c r="AR84" s="42"/>
+      <c r="AS84" s="42"/>
+      <c r="AT84" s="41">
         <v>2011</v>
       </c>
-      <c r="AU84" s="27"/>
-      <c r="AV84" s="27"/>
-      <c r="AW84" s="27"/>
-      <c r="AX84" s="26">
+      <c r="AU84" s="42"/>
+      <c r="AV84" s="42"/>
+      <c r="AW84" s="42"/>
+      <c r="AX84" s="41">
         <v>2012</v>
       </c>
-      <c r="AY84" s="27"/>
-      <c r="AZ84" s="27"/>
-      <c r="BA84" s="27"/>
-      <c r="BB84" s="26">
+      <c r="AY84" s="42"/>
+      <c r="AZ84" s="42"/>
+      <c r="BA84" s="42"/>
+      <c r="BB84" s="41">
         <v>2013</v>
       </c>
-      <c r="BC84" s="27"/>
-      <c r="BD84" s="27"/>
-      <c r="BE84" s="27"/>
-      <c r="BF84" s="26">
+      <c r="BC84" s="42"/>
+      <c r="BD84" s="42"/>
+      <c r="BE84" s="42"/>
+      <c r="BF84" s="41">
         <v>2014</v>
       </c>
-      <c r="BG84" s="27"/>
-      <c r="BH84" s="27"/>
-      <c r="BI84" s="27"/>
-      <c r="BJ84" s="26">
+      <c r="BG84" s="42"/>
+      <c r="BH84" s="42"/>
+      <c r="BI84" s="42"/>
+      <c r="BJ84" s="41">
         <v>2015</v>
       </c>
-      <c r="BK84" s="27"/>
-      <c r="BL84" s="27"/>
-      <c r="BM84" s="27"/>
-      <c r="BN84" s="26">
+      <c r="BK84" s="42"/>
+      <c r="BL84" s="42"/>
+      <c r="BM84" s="42"/>
+      <c r="BN84" s="41">
         <v>2016</v>
       </c>
-      <c r="BO84" s="27"/>
-      <c r="BP84" s="27"/>
-      <c r="BQ84" s="27"/>
-      <c r="BR84" s="26">
+      <c r="BO84" s="42"/>
+      <c r="BP84" s="42"/>
+      <c r="BQ84" s="42"/>
+      <c r="BR84" s="41">
         <v>2017</v>
       </c>
-      <c r="BS84" s="27"/>
-      <c r="BT84" s="27"/>
-      <c r="BU84" s="27"/>
-      <c r="BV84" s="26">
+      <c r="BS84" s="42"/>
+      <c r="BT84" s="42"/>
+      <c r="BU84" s="42"/>
+      <c r="BV84" s="41">
         <v>2018</v>
       </c>
-      <c r="BW84" s="27"/>
-      <c r="BX84" s="27"/>
-      <c r="BY84" s="27"/>
-      <c r="BZ84" s="26">
+      <c r="BW84" s="42"/>
+      <c r="BX84" s="42"/>
+      <c r="BY84" s="42"/>
+      <c r="BZ84" s="41">
         <v>2019</v>
       </c>
-      <c r="CA84" s="27"/>
-      <c r="CB84" s="27"/>
-      <c r="CC84" s="27"/>
-      <c r="CD84" s="26">
+      <c r="CA84" s="42"/>
+      <c r="CB84" s="42"/>
+      <c r="CC84" s="42"/>
+      <c r="CD84" s="41">
         <v>2020</v>
       </c>
-      <c r="CE84" s="26"/>
-      <c r="CF84" s="26"/>
-      <c r="CG84" s="26"/>
-      <c r="CH84" s="26">
+      <c r="CE84" s="41"/>
+      <c r="CF84" s="41"/>
+      <c r="CG84" s="41"/>
+      <c r="CH84" s="41">
         <v>2021</v>
       </c>
-      <c r="CI84" s="26"/>
-      <c r="CJ84" s="26"/>
-      <c r="CK84" s="26"/>
-      <c r="CL84" s="26">
+      <c r="CI84" s="41"/>
+      <c r="CJ84" s="41"/>
+      <c r="CK84" s="41"/>
+      <c r="CL84" s="43">
         <v>2022</v>
       </c>
-      <c r="CM84" s="26"/>
-      <c r="CN84" s="26"/>
-      <c r="CO84" s="26"/>
-      <c r="CP84" s="26">
+      <c r="CM84" s="43"/>
+      <c r="CN84" s="43"/>
+      <c r="CO84" s="43"/>
+      <c r="CP84" s="43">
         <v>2023</v>
       </c>
-      <c r="CQ84" s="28"/>
+      <c r="CQ84" s="43"/>
+      <c r="CR84" s="43"/>
     </row>
     <row r="85" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
@@ -32662,27 +33046,37 @@
       <c r="CK85" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL85" s="7" t="s">
+      <c r="CL85" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CM85" s="7" t="s">
+      <c r="CM85" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CN85" s="7" t="s">
+      <c r="CN85" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="CO85" s="7" t="s">
+      <c r="CO85" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="CP85" s="7" t="s">
+      <c r="CP85" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CQ85" s="7" t="s">
+      <c r="CQ85" s="29" t="s">
         <v>8</v>
+      </c>
+      <c r="CR85" s="29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
+      <c r="CL86" s="27"/>
+      <c r="CM86" s="27"/>
+      <c r="CN86" s="27"/>
+      <c r="CO86" s="27"/>
+      <c r="CP86" s="27"/>
+      <c r="CQ86" s="27"/>
+      <c r="CR86" s="27"/>
     </row>
     <row r="87" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
@@ -32952,25 +33346,27 @@
       <c r="CK87" s="18">
         <v>106.73571152128416</v>
       </c>
-      <c r="CL87" s="18">
+      <c r="CL87" s="38">
         <v>105.20863761172934</v>
       </c>
-      <c r="CM87" s="18">
+      <c r="CM87" s="38">
         <v>96.43958531534436</v>
       </c>
-      <c r="CN87" s="18">
+      <c r="CN87" s="38">
         <v>108.76423922419565</v>
       </c>
-      <c r="CO87" s="18">
+      <c r="CO87" s="38">
         <v>110.40777372760948</v>
       </c>
-      <c r="CP87" s="18">
+      <c r="CP87" s="38">
         <v>110.5271649335433</v>
       </c>
-      <c r="CQ87" s="18">
-        <v>100.51540785875382</v>
-      </c>
-      <c r="CR87" s="10"/>
+      <c r="CQ87" s="38">
+        <v>100.51540785875383</v>
+      </c>
+      <c r="CR87" s="38">
+        <v>114.54705071365983</v>
+      </c>
       <c r="CS87" s="10"/>
       <c r="CT87" s="10"/>
       <c r="CU87" s="10"/>
@@ -33299,25 +33695,27 @@
       <c r="CK88" s="18">
         <v>100.21692077855273</v>
       </c>
-      <c r="CL88" s="18">
+      <c r="CL88" s="38">
         <v>98.921347845037118</v>
       </c>
-      <c r="CM88" s="18">
+      <c r="CM88" s="38">
         <v>98.400154783103957</v>
       </c>
-      <c r="CN88" s="18">
+      <c r="CN88" s="38">
         <v>104.68735577888397</v>
       </c>
-      <c r="CO88" s="18">
+      <c r="CO88" s="38">
         <v>100.81034575922976</v>
       </c>
-      <c r="CP88" s="18">
+      <c r="CP88" s="38">
         <v>99.633012218023026</v>
       </c>
-      <c r="CQ88" s="18">
+      <c r="CQ88" s="38">
         <v>99.075449962988031</v>
       </c>
-      <c r="CR88" s="10"/>
+      <c r="CR88" s="38">
+        <v>105.37113994465068</v>
+      </c>
       <c r="CS88" s="10"/>
       <c r="CT88" s="10"/>
       <c r="CU88" s="10"/>
@@ -33467,13 +33865,13 @@
       <c r="CI89" s="19"/>
       <c r="CJ89" s="19"/>
       <c r="CK89" s="19"/>
-      <c r="CL89" s="19"/>
-      <c r="CM89" s="19"/>
-      <c r="CN89" s="19"/>
-      <c r="CO89" s="19"/>
-      <c r="CP89" s="19"/>
-      <c r="CQ89" s="19"/>
-      <c r="CR89" s="10"/>
+      <c r="CL89" s="39"/>
+      <c r="CM89" s="39"/>
+      <c r="CN89" s="39"/>
+      <c r="CO89" s="39"/>
+      <c r="CP89" s="39"/>
+      <c r="CQ89" s="39"/>
+      <c r="CR89" s="39"/>
       <c r="CS89" s="10"/>
       <c r="CT89" s="10"/>
       <c r="CU89" s="10"/>
@@ -33802,25 +34200,27 @@
       <c r="CK90" s="18">
         <v>100.67010930613243</v>
       </c>
-      <c r="CL90" s="18">
+      <c r="CL90" s="38">
         <v>99.43781662185522</v>
       </c>
-      <c r="CM90" s="18">
+      <c r="CM90" s="38">
         <v>98.220295811897401</v>
       </c>
-      <c r="CN90" s="18">
+      <c r="CN90" s="38">
         <v>104.98269821850097</v>
       </c>
-      <c r="CO90" s="18">
+      <c r="CO90" s="38">
         <v>101.49935141032182</v>
       </c>
-      <c r="CP90" s="18">
+      <c r="CP90" s="38">
         <v>100.43312479694715</v>
       </c>
-      <c r="CQ90" s="18">
-        <v>99.199656712163161</v>
-      </c>
-      <c r="CR90" s="10"/>
+      <c r="CQ90" s="38">
+        <v>99.198904972761653</v>
+      </c>
+      <c r="CR90" s="38">
+        <v>106.02285998071099</v>
+      </c>
       <c r="CS90" s="10"/>
       <c r="CT90" s="10"/>
       <c r="CU90" s="10"/>
@@ -33971,194 +34371,261 @@
       <c r="CI91" s="16"/>
       <c r="CJ91" s="16"/>
       <c r="CK91" s="16"/>
-      <c r="CL91" s="16"/>
-      <c r="CM91" s="16"/>
-      <c r="CN91" s="16"/>
-      <c r="CO91" s="16"/>
-      <c r="CP91" s="16"/>
-      <c r="CQ91" s="16"/>
+      <c r="CL91" s="34"/>
+      <c r="CM91" s="34"/>
+      <c r="CN91" s="34"/>
+      <c r="CO91" s="34"/>
+      <c r="CP91" s="34"/>
+      <c r="CQ91" s="34"/>
+      <c r="CR91" s="34"/>
     </row>
     <row r="92" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="CL92" s="27"/>
+      <c r="CM92" s="27"/>
+      <c r="CN92" s="27"/>
+      <c r="CO92" s="27"/>
+      <c r="CP92" s="27"/>
+      <c r="CQ92" s="27"/>
+      <c r="CR92" s="27"/>
     </row>
     <row r="95" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CL95" s="27"/>
+      <c r="CM95" s="27"/>
+      <c r="CN95" s="27"/>
+      <c r="CO95" s="27"/>
+      <c r="CP95" s="27"/>
+      <c r="CQ95" s="27"/>
+      <c r="CR95" s="27"/>
     </row>
     <row r="96" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CL96" s="27"/>
+      <c r="CM96" s="27"/>
+      <c r="CN96" s="27"/>
+      <c r="CO96" s="27"/>
+      <c r="CP96" s="27"/>
+      <c r="CQ96" s="27"/>
+      <c r="CR96" s="27"/>
     </row>
     <row r="97" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="CL97" s="27"/>
+      <c r="CM97" s="27"/>
+      <c r="CN97" s="27"/>
+      <c r="CO97" s="27"/>
+      <c r="CP97" s="27"/>
+      <c r="CQ97" s="27"/>
+      <c r="CR97" s="27"/>
     </row>
-    <row r="98" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL98" s="27"/>
+      <c r="CM98" s="27"/>
+      <c r="CN98" s="27"/>
+      <c r="CO98" s="27"/>
+      <c r="CP98" s="27"/>
+      <c r="CQ98" s="27"/>
+      <c r="CR98" s="27"/>
+    </row>
     <row r="99" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="CL99" s="27"/>
+      <c r="CM99" s="27"/>
+      <c r="CN99" s="27"/>
+      <c r="CO99" s="27"/>
+      <c r="CP99" s="27"/>
+      <c r="CQ99" s="27"/>
+      <c r="CR99" s="27"/>
     </row>
     <row r="100" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="CL100" s="27"/>
+      <c r="CM100" s="27"/>
+      <c r="CN100" s="27"/>
+      <c r="CO100" s="27"/>
+      <c r="CP100" s="27"/>
+      <c r="CQ100" s="27"/>
+      <c r="CR100" s="27"/>
     </row>
     <row r="101" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="CL101" s="27"/>
+      <c r="CM101" s="27"/>
+      <c r="CN101" s="27"/>
+      <c r="CO101" s="27"/>
+      <c r="CP101" s="27"/>
+      <c r="CQ101" s="27"/>
+      <c r="CR101" s="27"/>
     </row>
-    <row r="102" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL102" s="27"/>
+      <c r="CM102" s="27"/>
+      <c r="CN102" s="27"/>
+      <c r="CO102" s="27"/>
+      <c r="CP102" s="27"/>
+      <c r="CQ102" s="27"/>
+      <c r="CR102" s="27"/>
+    </row>
     <row r="103" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
-      <c r="B103" s="26">
+      <c r="B103" s="41">
         <v>2000</v>
       </c>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="26">
+      <c r="C103" s="42"/>
+      <c r="D103" s="42"/>
+      <c r="E103" s="42"/>
+      <c r="F103" s="41">
         <v>2001</v>
       </c>
-      <c r="G103" s="27"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="27"/>
-      <c r="J103" s="26">
+      <c r="G103" s="42"/>
+      <c r="H103" s="42"/>
+      <c r="I103" s="42"/>
+      <c r="J103" s="41">
         <v>2002</v>
       </c>
-      <c r="K103" s="27"/>
-      <c r="L103" s="27"/>
-      <c r="M103" s="27"/>
-      <c r="N103" s="26">
+      <c r="K103" s="42"/>
+      <c r="L103" s="42"/>
+      <c r="M103" s="42"/>
+      <c r="N103" s="41">
         <v>2003</v>
       </c>
-      <c r="O103" s="27"/>
-      <c r="P103" s="27"/>
-      <c r="Q103" s="27"/>
-      <c r="R103" s="26">
+      <c r="O103" s="42"/>
+      <c r="P103" s="42"/>
+      <c r="Q103" s="42"/>
+      <c r="R103" s="41">
         <v>2004</v>
       </c>
-      <c r="S103" s="27"/>
-      <c r="T103" s="27"/>
-      <c r="U103" s="27"/>
-      <c r="V103" s="26">
+      <c r="S103" s="42"/>
+      <c r="T103" s="42"/>
+      <c r="U103" s="42"/>
+      <c r="V103" s="41">
         <v>2005</v>
       </c>
-      <c r="W103" s="27"/>
-      <c r="X103" s="27"/>
-      <c r="Y103" s="27"/>
-      <c r="Z103" s="26">
+      <c r="W103" s="42"/>
+      <c r="X103" s="42"/>
+      <c r="Y103" s="42"/>
+      <c r="Z103" s="41">
         <v>2006</v>
       </c>
-      <c r="AA103" s="27"/>
-      <c r="AB103" s="27"/>
-      <c r="AC103" s="27"/>
-      <c r="AD103" s="26">
+      <c r="AA103" s="42"/>
+      <c r="AB103" s="42"/>
+      <c r="AC103" s="42"/>
+      <c r="AD103" s="41">
         <v>2007</v>
       </c>
-      <c r="AE103" s="27"/>
-      <c r="AF103" s="27"/>
-      <c r="AG103" s="27"/>
-      <c r="AH103" s="26">
+      <c r="AE103" s="42"/>
+      <c r="AF103" s="42"/>
+      <c r="AG103" s="42"/>
+      <c r="AH103" s="41">
         <v>2008</v>
       </c>
-      <c r="AI103" s="27"/>
-      <c r="AJ103" s="27"/>
-      <c r="AK103" s="27"/>
-      <c r="AL103" s="26">
+      <c r="AI103" s="42"/>
+      <c r="AJ103" s="42"/>
+      <c r="AK103" s="42"/>
+      <c r="AL103" s="41">
         <v>2009</v>
       </c>
-      <c r="AM103" s="27"/>
-      <c r="AN103" s="27"/>
-      <c r="AO103" s="27"/>
-      <c r="AP103" s="26">
+      <c r="AM103" s="42"/>
+      <c r="AN103" s="42"/>
+      <c r="AO103" s="42"/>
+      <c r="AP103" s="41">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="27"/>
-      <c r="AR103" s="27"/>
-      <c r="AS103" s="27"/>
-      <c r="AT103" s="26">
+      <c r="AQ103" s="42"/>
+      <c r="AR103" s="42"/>
+      <c r="AS103" s="42"/>
+      <c r="AT103" s="41">
         <v>2011</v>
       </c>
-      <c r="AU103" s="27"/>
-      <c r="AV103" s="27"/>
-      <c r="AW103" s="27"/>
-      <c r="AX103" s="26">
+      <c r="AU103" s="42"/>
+      <c r="AV103" s="42"/>
+      <c r="AW103" s="42"/>
+      <c r="AX103" s="41">
         <v>2012</v>
       </c>
-      <c r="AY103" s="27"/>
-      <c r="AZ103" s="27"/>
-      <c r="BA103" s="27"/>
-      <c r="BB103" s="26">
+      <c r="AY103" s="42"/>
+      <c r="AZ103" s="42"/>
+      <c r="BA103" s="42"/>
+      <c r="BB103" s="41">
         <v>2013</v>
       </c>
-      <c r="BC103" s="27"/>
-      <c r="BD103" s="27"/>
-      <c r="BE103" s="27"/>
-      <c r="BF103" s="26">
+      <c r="BC103" s="42"/>
+      <c r="BD103" s="42"/>
+      <c r="BE103" s="42"/>
+      <c r="BF103" s="41">
         <v>2014</v>
       </c>
-      <c r="BG103" s="27"/>
-      <c r="BH103" s="27"/>
-      <c r="BI103" s="27"/>
-      <c r="BJ103" s="26">
+      <c r="BG103" s="42"/>
+      <c r="BH103" s="42"/>
+      <c r="BI103" s="42"/>
+      <c r="BJ103" s="41">
         <v>2015</v>
       </c>
-      <c r="BK103" s="27"/>
-      <c r="BL103" s="27"/>
-      <c r="BM103" s="27"/>
-      <c r="BN103" s="26">
+      <c r="BK103" s="42"/>
+      <c r="BL103" s="42"/>
+      <c r="BM103" s="42"/>
+      <c r="BN103" s="41">
         <v>2016</v>
       </c>
-      <c r="BO103" s="27"/>
-      <c r="BP103" s="27"/>
-      <c r="BQ103" s="27"/>
-      <c r="BR103" s="26">
+      <c r="BO103" s="42"/>
+      <c r="BP103" s="42"/>
+      <c r="BQ103" s="42"/>
+      <c r="BR103" s="41">
         <v>2017</v>
       </c>
-      <c r="BS103" s="27"/>
-      <c r="BT103" s="27"/>
-      <c r="BU103" s="27"/>
-      <c r="BV103" s="26">
+      <c r="BS103" s="42"/>
+      <c r="BT103" s="42"/>
+      <c r="BU103" s="42"/>
+      <c r="BV103" s="41">
         <v>2018</v>
       </c>
-      <c r="BW103" s="27"/>
-      <c r="BX103" s="27"/>
-      <c r="BY103" s="27"/>
-      <c r="BZ103" s="26">
+      <c r="BW103" s="42"/>
+      <c r="BX103" s="42"/>
+      <c r="BY103" s="42"/>
+      <c r="BZ103" s="41">
         <v>2019</v>
       </c>
-      <c r="CA103" s="27"/>
-      <c r="CB103" s="27"/>
-      <c r="CC103" s="27"/>
-      <c r="CD103" s="26">
+      <c r="CA103" s="42"/>
+      <c r="CB103" s="42"/>
+      <c r="CC103" s="42"/>
+      <c r="CD103" s="41">
         <v>2020</v>
       </c>
-      <c r="CE103" s="26"/>
-      <c r="CF103" s="26"/>
-      <c r="CG103" s="26"/>
-      <c r="CH103" s="26">
+      <c r="CE103" s="41"/>
+      <c r="CF103" s="41"/>
+      <c r="CG103" s="41"/>
+      <c r="CH103" s="41">
         <v>2021</v>
       </c>
-      <c r="CI103" s="26"/>
-      <c r="CJ103" s="26"/>
-      <c r="CK103" s="26"/>
-      <c r="CL103" s="26">
+      <c r="CI103" s="41"/>
+      <c r="CJ103" s="41"/>
+      <c r="CK103" s="41"/>
+      <c r="CL103" s="43">
         <v>2022</v>
       </c>
-      <c r="CM103" s="26"/>
-      <c r="CN103" s="26"/>
-      <c r="CO103" s="26"/>
-      <c r="CP103" s="26">
+      <c r="CM103" s="43"/>
+      <c r="CN103" s="43"/>
+      <c r="CO103" s="43"/>
+      <c r="CP103" s="43">
         <v>2023</v>
       </c>
-      <c r="CQ103" s="28"/>
+      <c r="CQ103" s="43"/>
+      <c r="CR103" s="43"/>
     </row>
     <row r="104" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
@@ -34428,27 +34895,37 @@
       <c r="CK104" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL104" s="7" t="s">
+      <c r="CL104" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CM104" s="7" t="s">
+      <c r="CM104" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CN104" s="7" t="s">
+      <c r="CN104" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="CO104" s="7" t="s">
+      <c r="CO104" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="CP104" s="7" t="s">
+      <c r="CP104" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CQ104" s="7" t="s">
+      <c r="CQ104" s="29" t="s">
         <v>8</v>
+      </c>
+      <c r="CR104" s="29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
+      <c r="CL105" s="27"/>
+      <c r="CM105" s="27"/>
+      <c r="CN105" s="27"/>
+      <c r="CO105" s="27"/>
+      <c r="CP105" s="27"/>
+      <c r="CQ105" s="27"/>
+      <c r="CR105" s="27"/>
     </row>
     <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
@@ -34718,25 +35195,27 @@
       <c r="CK106" s="18">
         <v>7.3709094570462348</v>
       </c>
-      <c r="CL106" s="18">
+      <c r="CL106" s="38">
         <v>8.6912133661991415</v>
       </c>
-      <c r="CM106" s="18">
+      <c r="CM106" s="38">
         <v>9.0074936866066544</v>
       </c>
-      <c r="CN106" s="18">
+      <c r="CN106" s="38">
         <v>7.5052637401018059</v>
       </c>
-      <c r="CO106" s="18">
+      <c r="CO106" s="38">
         <v>7.8091597715285381</v>
       </c>
-      <c r="CP106" s="18">
+      <c r="CP106" s="38">
         <v>8.082574090846613</v>
       </c>
-      <c r="CQ106" s="18">
-        <v>8.7401295844892548</v>
-      </c>
-      <c r="CR106" s="10"/>
+      <c r="CQ106" s="38">
+        <v>8.6872973273223533</v>
+      </c>
+      <c r="CR106" s="38">
+        <v>7.6735493019607137</v>
+      </c>
       <c r="CS106" s="10"/>
       <c r="CT106" s="10"/>
       <c r="CU106" s="10"/>
@@ -35065,25 +35544,27 @@
       <c r="CK107" s="18">
         <v>92.629090542953762</v>
       </c>
-      <c r="CL107" s="18">
+      <c r="CL107" s="38">
         <v>91.30878663380085</v>
       </c>
-      <c r="CM107" s="18">
+      <c r="CM107" s="38">
         <v>90.992506313393349</v>
       </c>
-      <c r="CN107" s="18">
+      <c r="CN107" s="38">
         <v>92.49473625989819</v>
       </c>
-      <c r="CO107" s="18">
+      <c r="CO107" s="38">
         <v>92.190840228471444</v>
       </c>
-      <c r="CP107" s="18">
+      <c r="CP107" s="38">
         <v>91.91742590915338</v>
       </c>
-      <c r="CQ107" s="18">
-        <v>91.259870415510747</v>
-      </c>
-      <c r="CR107" s="10"/>
+      <c r="CQ107" s="38">
+        <v>91.312702672677645</v>
+      </c>
+      <c r="CR107" s="38">
+        <v>92.326450698039281</v>
+      </c>
       <c r="CS107" s="10"/>
       <c r="CT107" s="10"/>
       <c r="CU107" s="10"/>
@@ -35233,13 +35714,13 @@
       <c r="CI108" s="19"/>
       <c r="CJ108" s="19"/>
       <c r="CK108" s="19"/>
-      <c r="CL108" s="19"/>
-      <c r="CM108" s="19"/>
-      <c r="CN108" s="19"/>
-      <c r="CO108" s="19"/>
-      <c r="CP108" s="19"/>
-      <c r="CQ108" s="19"/>
-      <c r="CR108" s="10"/>
+      <c r="CL108" s="39"/>
+      <c r="CM108" s="39"/>
+      <c r="CN108" s="39"/>
+      <c r="CO108" s="39"/>
+      <c r="CP108" s="39"/>
+      <c r="CQ108" s="39"/>
+      <c r="CR108" s="39"/>
       <c r="CS108" s="10"/>
       <c r="CT108" s="10"/>
       <c r="CU108" s="10"/>
@@ -35568,25 +36049,27 @@
       <c r="CK109" s="18">
         <v>100</v>
       </c>
-      <c r="CL109" s="18">
+      <c r="CL109" s="38">
         <v>100</v>
       </c>
-      <c r="CM109" s="18">
+      <c r="CM109" s="38">
         <v>100</v>
       </c>
-      <c r="CN109" s="18">
+      <c r="CN109" s="38">
         <v>100</v>
       </c>
-      <c r="CO109" s="18">
+      <c r="CO109" s="38">
         <v>100</v>
       </c>
-      <c r="CP109" s="18">
+      <c r="CP109" s="38">
         <v>100</v>
       </c>
-      <c r="CQ109" s="18">
+      <c r="CQ109" s="38">
         <v>100</v>
       </c>
-      <c r="CR109" s="10"/>
+      <c r="CR109" s="38">
+        <v>100</v>
+      </c>
       <c r="CS109" s="10"/>
       <c r="CT109" s="10"/>
       <c r="CU109" s="10"/>
@@ -35737,17 +36220,25 @@
       <c r="CI110" s="16"/>
       <c r="CJ110" s="16"/>
       <c r="CK110" s="16"/>
-      <c r="CL110" s="16"/>
-      <c r="CM110" s="16"/>
-      <c r="CN110" s="16"/>
-      <c r="CO110" s="16"/>
-      <c r="CP110" s="16"/>
-      <c r="CQ110" s="16"/>
+      <c r="CL110" s="34"/>
+      <c r="CM110" s="34"/>
+      <c r="CN110" s="34"/>
+      <c r="CO110" s="34"/>
+      <c r="CP110" s="34"/>
+      <c r="CQ110" s="34"/>
+      <c r="CR110" s="34"/>
     </row>
     <row r="111" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="CL111" s="27"/>
+      <c r="CM111" s="27"/>
+      <c r="CN111" s="27"/>
+      <c r="CO111" s="27"/>
+      <c r="CP111" s="27"/>
+      <c r="CQ111" s="27"/>
+      <c r="CR111" s="27"/>
     </row>
     <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="10"/>
@@ -35838,13 +36329,13 @@
       <c r="CI112" s="10"/>
       <c r="CJ112" s="10"/>
       <c r="CK112" s="10"/>
-      <c r="CL112" s="10"/>
-      <c r="CM112" s="10"/>
-      <c r="CN112" s="10"/>
-      <c r="CO112" s="10"/>
-      <c r="CP112" s="10"/>
-      <c r="CQ112" s="10"/>
-      <c r="CR112" s="10"/>
+      <c r="CL112" s="35"/>
+      <c r="CM112" s="35"/>
+      <c r="CN112" s="35"/>
+      <c r="CO112" s="35"/>
+      <c r="CP112" s="35"/>
+      <c r="CQ112" s="35"/>
+      <c r="CR112" s="35"/>
       <c r="CS112" s="10"/>
       <c r="CT112" s="10"/>
       <c r="CU112" s="10"/>
@@ -35994,13 +36485,13 @@
       <c r="CI113" s="10"/>
       <c r="CJ113" s="10"/>
       <c r="CK113" s="10"/>
-      <c r="CL113" s="10"/>
-      <c r="CM113" s="10"/>
-      <c r="CN113" s="10"/>
-      <c r="CO113" s="10"/>
-      <c r="CP113" s="10"/>
-      <c r="CQ113" s="10"/>
-      <c r="CR113" s="10"/>
+      <c r="CL113" s="35"/>
+      <c r="CM113" s="35"/>
+      <c r="CN113" s="35"/>
+      <c r="CO113" s="35"/>
+      <c r="CP113" s="35"/>
+      <c r="CQ113" s="35"/>
+      <c r="CR113" s="35"/>
       <c r="CS113" s="10"/>
       <c r="CT113" s="10"/>
       <c r="CU113" s="10"/>
@@ -36065,178 +36556,237 @@
       <c r="A114" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CL114" s="27"/>
+      <c r="CM114" s="27"/>
+      <c r="CN114" s="27"/>
+      <c r="CO114" s="27"/>
+      <c r="CP114" s="27"/>
+      <c r="CQ114" s="27"/>
+      <c r="CR114" s="27"/>
     </row>
     <row r="115" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CL115" s="27"/>
+      <c r="CM115" s="27"/>
+      <c r="CN115" s="27"/>
+      <c r="CO115" s="27"/>
+      <c r="CP115" s="27"/>
+      <c r="CQ115" s="27"/>
+      <c r="CR115" s="27"/>
     </row>
     <row r="116" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="CL116" s="27"/>
+      <c r="CM116" s="27"/>
+      <c r="CN116" s="27"/>
+      <c r="CO116" s="27"/>
+      <c r="CP116" s="27"/>
+      <c r="CQ116" s="27"/>
+      <c r="CR116" s="27"/>
     </row>
-    <row r="117" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL117" s="27"/>
+      <c r="CM117" s="27"/>
+      <c r="CN117" s="27"/>
+      <c r="CO117" s="27"/>
+      <c r="CP117" s="27"/>
+      <c r="CQ117" s="27"/>
+      <c r="CR117" s="27"/>
+    </row>
     <row r="118" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="CL118" s="27"/>
+      <c r="CM118" s="27"/>
+      <c r="CN118" s="27"/>
+      <c r="CO118" s="27"/>
+      <c r="CP118" s="27"/>
+      <c r="CQ118" s="27"/>
+      <c r="CR118" s="27"/>
     </row>
     <row r="119" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="CL119" s="27"/>
+      <c r="CM119" s="27"/>
+      <c r="CN119" s="27"/>
+      <c r="CO119" s="27"/>
+      <c r="CP119" s="27"/>
+      <c r="CQ119" s="27"/>
+      <c r="CR119" s="27"/>
     </row>
     <row r="120" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="CL120" s="27"/>
+      <c r="CM120" s="27"/>
+      <c r="CN120" s="27"/>
+      <c r="CO120" s="27"/>
+      <c r="CP120" s="27"/>
+      <c r="CQ120" s="27"/>
+      <c r="CR120" s="27"/>
     </row>
-    <row r="121" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL121" s="27"/>
+      <c r="CM121" s="27"/>
+      <c r="CN121" s="27"/>
+      <c r="CO121" s="27"/>
+      <c r="CP121" s="27"/>
+      <c r="CQ121" s="27"/>
+      <c r="CR121" s="27"/>
+    </row>
     <row r="122" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
-      <c r="B122" s="26">
+      <c r="B122" s="41">
         <v>2000</v>
       </c>
-      <c r="C122" s="27"/>
-      <c r="D122" s="27"/>
-      <c r="E122" s="27"/>
-      <c r="F122" s="26">
+      <c r="C122" s="42"/>
+      <c r="D122" s="42"/>
+      <c r="E122" s="42"/>
+      <c r="F122" s="41">
         <v>2001</v>
       </c>
-      <c r="G122" s="27"/>
-      <c r="H122" s="27"/>
-      <c r="I122" s="27"/>
-      <c r="J122" s="26">
+      <c r="G122" s="42"/>
+      <c r="H122" s="42"/>
+      <c r="I122" s="42"/>
+      <c r="J122" s="41">
         <v>2002</v>
       </c>
-      <c r="K122" s="27"/>
-      <c r="L122" s="27"/>
-      <c r="M122" s="27"/>
-      <c r="N122" s="26">
+      <c r="K122" s="42"/>
+      <c r="L122" s="42"/>
+      <c r="M122" s="42"/>
+      <c r="N122" s="41">
         <v>2003</v>
       </c>
-      <c r="O122" s="27"/>
-      <c r="P122" s="27"/>
-      <c r="Q122" s="27"/>
-      <c r="R122" s="26">
+      <c r="O122" s="42"/>
+      <c r="P122" s="42"/>
+      <c r="Q122" s="42"/>
+      <c r="R122" s="41">
         <v>2004</v>
       </c>
-      <c r="S122" s="27"/>
-      <c r="T122" s="27"/>
-      <c r="U122" s="27"/>
-      <c r="V122" s="26">
+      <c r="S122" s="42"/>
+      <c r="T122" s="42"/>
+      <c r="U122" s="42"/>
+      <c r="V122" s="41">
         <v>2005</v>
       </c>
-      <c r="W122" s="27"/>
-      <c r="X122" s="27"/>
-      <c r="Y122" s="27"/>
-      <c r="Z122" s="26">
+      <c r="W122" s="42"/>
+      <c r="X122" s="42"/>
+      <c r="Y122" s="42"/>
+      <c r="Z122" s="41">
         <v>2006</v>
       </c>
-      <c r="AA122" s="27"/>
-      <c r="AB122" s="27"/>
-      <c r="AC122" s="27"/>
-      <c r="AD122" s="26">
+      <c r="AA122" s="42"/>
+      <c r="AB122" s="42"/>
+      <c r="AC122" s="42"/>
+      <c r="AD122" s="41">
         <v>2007</v>
       </c>
-      <c r="AE122" s="27"/>
-      <c r="AF122" s="27"/>
-      <c r="AG122" s="27"/>
-      <c r="AH122" s="26">
+      <c r="AE122" s="42"/>
+      <c r="AF122" s="42"/>
+      <c r="AG122" s="42"/>
+      <c r="AH122" s="41">
         <v>2008</v>
       </c>
-      <c r="AI122" s="27"/>
-      <c r="AJ122" s="27"/>
-      <c r="AK122" s="27"/>
-      <c r="AL122" s="26">
+      <c r="AI122" s="42"/>
+      <c r="AJ122" s="42"/>
+      <c r="AK122" s="42"/>
+      <c r="AL122" s="41">
         <v>2009</v>
       </c>
-      <c r="AM122" s="27"/>
-      <c r="AN122" s="27"/>
-      <c r="AO122" s="27"/>
-      <c r="AP122" s="26">
+      <c r="AM122" s="42"/>
+      <c r="AN122" s="42"/>
+      <c r="AO122" s="42"/>
+      <c r="AP122" s="41">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="27"/>
-      <c r="AR122" s="27"/>
-      <c r="AS122" s="27"/>
-      <c r="AT122" s="26">
+      <c r="AQ122" s="42"/>
+      <c r="AR122" s="42"/>
+      <c r="AS122" s="42"/>
+      <c r="AT122" s="41">
         <v>2011</v>
       </c>
-      <c r="AU122" s="27"/>
-      <c r="AV122" s="27"/>
-      <c r="AW122" s="27"/>
-      <c r="AX122" s="26">
+      <c r="AU122" s="42"/>
+      <c r="AV122" s="42"/>
+      <c r="AW122" s="42"/>
+      <c r="AX122" s="41">
         <v>2012</v>
       </c>
-      <c r="AY122" s="27"/>
-      <c r="AZ122" s="27"/>
-      <c r="BA122" s="27"/>
-      <c r="BB122" s="26">
+      <c r="AY122" s="42"/>
+      <c r="AZ122" s="42"/>
+      <c r="BA122" s="42"/>
+      <c r="BB122" s="41">
         <v>2013</v>
       </c>
-      <c r="BC122" s="27"/>
-      <c r="BD122" s="27"/>
-      <c r="BE122" s="27"/>
-      <c r="BF122" s="26">
+      <c r="BC122" s="42"/>
+      <c r="BD122" s="42"/>
+      <c r="BE122" s="42"/>
+      <c r="BF122" s="41">
         <v>2014</v>
       </c>
-      <c r="BG122" s="27"/>
-      <c r="BH122" s="27"/>
-      <c r="BI122" s="27"/>
-      <c r="BJ122" s="26">
+      <c r="BG122" s="42"/>
+      <c r="BH122" s="42"/>
+      <c r="BI122" s="42"/>
+      <c r="BJ122" s="41">
         <v>2015</v>
       </c>
-      <c r="BK122" s="27"/>
-      <c r="BL122" s="27"/>
-      <c r="BM122" s="27"/>
-      <c r="BN122" s="26">
+      <c r="BK122" s="42"/>
+      <c r="BL122" s="42"/>
+      <c r="BM122" s="42"/>
+      <c r="BN122" s="41">
         <v>2016</v>
       </c>
-      <c r="BO122" s="27"/>
-      <c r="BP122" s="27"/>
-      <c r="BQ122" s="27"/>
-      <c r="BR122" s="26">
+      <c r="BO122" s="42"/>
+      <c r="BP122" s="42"/>
+      <c r="BQ122" s="42"/>
+      <c r="BR122" s="41">
         <v>2017</v>
       </c>
-      <c r="BS122" s="27"/>
-      <c r="BT122" s="27"/>
-      <c r="BU122" s="27"/>
-      <c r="BV122" s="26">
+      <c r="BS122" s="42"/>
+      <c r="BT122" s="42"/>
+      <c r="BU122" s="42"/>
+      <c r="BV122" s="41">
         <v>2018</v>
       </c>
-      <c r="BW122" s="27"/>
-      <c r="BX122" s="27"/>
-      <c r="BY122" s="27"/>
-      <c r="BZ122" s="26">
+      <c r="BW122" s="42"/>
+      <c r="BX122" s="42"/>
+      <c r="BY122" s="42"/>
+      <c r="BZ122" s="41">
         <v>2019</v>
       </c>
-      <c r="CA122" s="27"/>
-      <c r="CB122" s="27"/>
-      <c r="CC122" s="27"/>
-      <c r="CD122" s="26">
+      <c r="CA122" s="42"/>
+      <c r="CB122" s="42"/>
+      <c r="CC122" s="42"/>
+      <c r="CD122" s="41">
         <v>2020</v>
       </c>
-      <c r="CE122" s="26"/>
-      <c r="CF122" s="26"/>
-      <c r="CG122" s="26"/>
-      <c r="CH122" s="26">
+      <c r="CE122" s="41"/>
+      <c r="CF122" s="41"/>
+      <c r="CG122" s="41"/>
+      <c r="CH122" s="41">
         <v>2021</v>
       </c>
-      <c r="CI122" s="26"/>
-      <c r="CJ122" s="26"/>
-      <c r="CK122" s="26"/>
-      <c r="CL122" s="26">
+      <c r="CI122" s="41"/>
+      <c r="CJ122" s="41"/>
+      <c r="CK122" s="41"/>
+      <c r="CL122" s="43">
         <v>2022</v>
       </c>
-      <c r="CM122" s="26"/>
-      <c r="CN122" s="26"/>
-      <c r="CO122" s="26"/>
-      <c r="CP122" s="26">
+      <c r="CM122" s="43"/>
+      <c r="CN122" s="43"/>
+      <c r="CO122" s="43"/>
+      <c r="CP122" s="43">
         <v>2023</v>
       </c>
-      <c r="CQ122" s="28"/>
+      <c r="CQ122" s="43"/>
+      <c r="CR122" s="43"/>
     </row>
     <row r="123" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
@@ -36506,27 +37056,37 @@
       <c r="CK123" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL123" s="7" t="s">
+      <c r="CL123" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CM123" s="7" t="s">
+      <c r="CM123" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CN123" s="7" t="s">
+      <c r="CN123" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="CO123" s="7" t="s">
+      <c r="CO123" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="CP123" s="7" t="s">
+      <c r="CP123" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CQ123" s="7" t="s">
+      <c r="CQ123" s="29" t="s">
         <v>8</v>
+      </c>
+      <c r="CR123" s="29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8"/>
+      <c r="CL124" s="27"/>
+      <c r="CM124" s="27"/>
+      <c r="CN124" s="27"/>
+      <c r="CO124" s="27"/>
+      <c r="CP124" s="27"/>
+      <c r="CQ124" s="27"/>
+      <c r="CR124" s="27"/>
     </row>
     <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
@@ -36796,25 +37356,27 @@
       <c r="CK125" s="18">
         <v>6.9520336741136681</v>
       </c>
-      <c r="CL125" s="18">
+      <c r="CL125" s="38">
         <v>8.2144898037647103</v>
       </c>
-      <c r="CM125" s="18">
+      <c r="CM125" s="38">
         <v>9.1738127194283745</v>
       </c>
-      <c r="CN125" s="18">
+      <c r="CN125" s="38">
         <v>7.244318940651266</v>
       </c>
-      <c r="CO125" s="18">
+      <c r="CO125" s="38">
         <v>7.1790656138510061</v>
       </c>
-      <c r="CP125" s="18">
+      <c r="CP125" s="38">
         <v>7.3444222769547691</v>
       </c>
-      <c r="CQ125" s="18">
-        <v>8.6257209006156099</v>
-      </c>
-      <c r="CR125" s="10"/>
+      <c r="CQ125" s="38">
+        <v>8.5735152490666149</v>
+      </c>
+      <c r="CR125" s="38">
+        <v>7.1025106113870837</v>
+      </c>
       <c r="CS125" s="10"/>
       <c r="CT125" s="10"/>
       <c r="CU125" s="10"/>
@@ -37143,25 +37705,27 @@
       <c r="CK126" s="18">
         <v>93.047966325886335</v>
       </c>
-      <c r="CL126" s="18">
+      <c r="CL126" s="38">
         <v>91.785510196235293</v>
       </c>
-      <c r="CM126" s="18">
+      <c r="CM126" s="38">
         <v>90.826187280571631</v>
       </c>
-      <c r="CN126" s="18">
+      <c r="CN126" s="38">
         <v>92.755681059348746</v>
       </c>
-      <c r="CO126" s="18">
+      <c r="CO126" s="38">
         <v>92.820934386149005</v>
       </c>
-      <c r="CP126" s="18">
+      <c r="CP126" s="38">
         <v>92.655577723045226</v>
       </c>
-      <c r="CQ126" s="18">
-        <v>91.374279099384395</v>
-      </c>
-      <c r="CR126" s="10"/>
+      <c r="CQ126" s="38">
+        <v>91.426484750933383</v>
+      </c>
+      <c r="CR126" s="38">
+        <v>92.897489388612925</v>
+      </c>
       <c r="CS126" s="10"/>
       <c r="CT126" s="10"/>
       <c r="CU126" s="10"/>
@@ -37311,13 +37875,13 @@
       <c r="CI127" s="19"/>
       <c r="CJ127" s="19"/>
       <c r="CK127" s="19"/>
-      <c r="CL127" s="19"/>
-      <c r="CM127" s="19"/>
-      <c r="CN127" s="19"/>
-      <c r="CO127" s="19"/>
-      <c r="CP127" s="19"/>
-      <c r="CQ127" s="19"/>
-      <c r="CR127" s="10"/>
+      <c r="CL127" s="39"/>
+      <c r="CM127" s="39"/>
+      <c r="CN127" s="39"/>
+      <c r="CO127" s="39"/>
+      <c r="CP127" s="39"/>
+      <c r="CQ127" s="39"/>
+      <c r="CR127" s="39"/>
       <c r="CS127" s="10"/>
       <c r="CT127" s="10"/>
       <c r="CU127" s="10"/>
@@ -37646,25 +38210,27 @@
       <c r="CK128" s="18">
         <v>100</v>
       </c>
-      <c r="CL128" s="18">
+      <c r="CL128" s="38">
         <v>100</v>
       </c>
-      <c r="CM128" s="18">
+      <c r="CM128" s="38">
         <v>100</v>
       </c>
-      <c r="CN128" s="18">
+      <c r="CN128" s="38">
         <v>100</v>
       </c>
-      <c r="CO128" s="18">
+      <c r="CO128" s="38">
         <v>100</v>
       </c>
-      <c r="CP128" s="18">
+      <c r="CP128" s="38">
         <v>100</v>
       </c>
-      <c r="CQ128" s="18">
+      <c r="CQ128" s="38">
         <v>100</v>
       </c>
-      <c r="CR128" s="10"/>
+      <c r="CR128" s="38">
+        <v>100</v>
+      </c>
       <c r="CS128" s="10"/>
       <c r="CT128" s="10"/>
       <c r="CU128" s="10"/>
@@ -37815,17 +38381,25 @@
       <c r="CI129" s="16"/>
       <c r="CJ129" s="16"/>
       <c r="CK129" s="16"/>
-      <c r="CL129" s="16"/>
-      <c r="CM129" s="16"/>
-      <c r="CN129" s="16"/>
-      <c r="CO129" s="16"/>
-      <c r="CP129" s="16"/>
-      <c r="CQ129" s="16"/>
+      <c r="CL129" s="34"/>
+      <c r="CM129" s="34"/>
+      <c r="CN129" s="34"/>
+      <c r="CO129" s="34"/>
+      <c r="CP129" s="34"/>
+      <c r="CQ129" s="34"/>
+      <c r="CR129" s="34"/>
     </row>
     <row r="130" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="CL130" s="27"/>
+      <c r="CM130" s="27"/>
+      <c r="CN130" s="27"/>
+      <c r="CO130" s="27"/>
+      <c r="CP130" s="27"/>
+      <c r="CQ130" s="27"/>
+      <c r="CR130" s="27"/>
     </row>
     <row r="131" spans="1:155" s="21" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
@@ -37917,13 +38491,13 @@
       <c r="CI131" s="11"/>
       <c r="CJ131" s="11"/>
       <c r="CK131" s="11"/>
-      <c r="CL131" s="11"/>
-      <c r="CM131" s="11"/>
-      <c r="CN131" s="11"/>
-      <c r="CO131" s="11"/>
-      <c r="CP131" s="11"/>
-      <c r="CQ131" s="11"/>
-      <c r="CR131" s="20"/>
+      <c r="CL131" s="40"/>
+      <c r="CM131" s="40"/>
+      <c r="CN131" s="40"/>
+      <c r="CO131" s="40"/>
+      <c r="CP131" s="40"/>
+      <c r="CQ131" s="40"/>
+      <c r="CR131" s="40"/>
       <c r="CS131" s="20"/>
       <c r="CT131" s="20"/>
       <c r="CU131" s="20"/>
@@ -38074,13 +38648,13 @@
       <c r="CI132" s="11"/>
       <c r="CJ132" s="11"/>
       <c r="CK132" s="11"/>
-      <c r="CL132" s="11"/>
-      <c r="CM132" s="11"/>
-      <c r="CN132" s="11"/>
-      <c r="CO132" s="11"/>
-      <c r="CP132" s="11"/>
-      <c r="CQ132" s="11"/>
-      <c r="CR132" s="20"/>
+      <c r="CL132" s="40"/>
+      <c r="CM132" s="40"/>
+      <c r="CN132" s="40"/>
+      <c r="CO132" s="40"/>
+      <c r="CP132" s="40"/>
+      <c r="CQ132" s="40"/>
+      <c r="CR132" s="40"/>
       <c r="CS132" s="20"/>
       <c r="CT132" s="20"/>
       <c r="CU132" s="20"/>
@@ -38142,18 +38716,12 @@
       <c r="EY132" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="168">
-    <mergeCell ref="CP9:CQ9"/>
-    <mergeCell ref="CP28:CQ28"/>
-    <mergeCell ref="CP84:CQ84"/>
-    <mergeCell ref="CP103:CQ103"/>
-    <mergeCell ref="CP122:CQ122"/>
-    <mergeCell ref="CL47:CO47"/>
-    <mergeCell ref="CP47:CQ47"/>
-    <mergeCell ref="CL66:CO66"/>
-    <mergeCell ref="CP66:CQ66"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CL28:CO28"/>
+  <mergeCells count="166">
+    <mergeCell ref="CP9:CR9"/>
+    <mergeCell ref="CP28:CR28"/>
+    <mergeCell ref="CP84:CR84"/>
+    <mergeCell ref="CP103:CR103"/>
+    <mergeCell ref="CP122:CR122"/>
     <mergeCell ref="CH47:CK47"/>
     <mergeCell ref="CH66:CK66"/>
     <mergeCell ref="CL84:CO84"/>
@@ -38171,6 +38739,10 @@
     <mergeCell ref="CL103:CO103"/>
     <mergeCell ref="CL122:CO122"/>
     <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="CL47:CN47"/>
+    <mergeCell ref="CL66:CN66"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CL28:CO28"/>
     <mergeCell ref="BZ9:CC9"/>
     <mergeCell ref="BR28:BU28"/>
     <mergeCell ref="BV28:BY28"/>
@@ -38317,9 +38889,9 @@
   <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="94" man="1"/>
-    <brk id="76" max="94" man="1"/>
-    <brk id="94" max="94" man="1"/>
+    <brk id="38" max="95" man="1"/>
+    <brk id="76" max="95" man="1"/>
+    <brk id="94" max="95" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-16IAC_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-16IAC_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78326B0F-8495-495F-B789-6AA474078C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B32DAA-AE3E-4753-9DA0-66F47C2FD5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IAC!$A$1:$CR$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IAC!$A$1:$CS$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -616,13 +616,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of November 2023</t>
+    <t>Q1 2000 to Q4 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2023</t>
+    <t>Q1 2001 to Q4 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2023</t>
+    <t>As of January 2024</t>
   </si>
 </sst>
 </file>
@@ -722,7 +722,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -765,14 +765,6 @@
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -781,15 +773,12 @@
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23358,9 +23347,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -23398,7 +23387,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -23504,7 +23493,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -23646,7 +23635,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23662,85 +23651,41 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BS1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CT4" sqref="CT4"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.6640625" style="1" customWidth="1"/>
-    <col min="2" max="89" width="11.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="90" max="96" width="10.21875" style="40" customWidth="1"/>
-    <col min="97" max="16384" width="7.77734375" style="11"/>
+    <col min="2" max="97" width="11.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="98" max="16384" width="7.77734375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CL1" s="27"/>
-      <c r="CM1" s="27"/>
-      <c r="CN1" s="27"/>
-      <c r="CO1" s="27"/>
-      <c r="CP1" s="27"/>
-      <c r="CQ1" s="27"/>
-      <c r="CR1" s="27"/>
     </row>
     <row r="2" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="CL2" s="27"/>
-      <c r="CM2" s="27"/>
-      <c r="CN2" s="27"/>
-      <c r="CO2" s="27"/>
-      <c r="CP2" s="27"/>
-      <c r="CQ2" s="27"/>
-      <c r="CR2" s="27"/>
     </row>
     <row r="3" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="CL3" s="27"/>
-      <c r="CM3" s="27"/>
-      <c r="CN3" s="27"/>
-      <c r="CO3" s="27"/>
-      <c r="CP3" s="27"/>
-      <c r="CQ3" s="27"/>
-      <c r="CR3" s="27"/>
+        <v>51</v>
+      </c>
     </row>
-    <row r="4" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL4" s="27"/>
-      <c r="CM4" s="27"/>
-      <c r="CN4" s="27"/>
-      <c r="CO4" s="27"/>
-      <c r="CP4" s="27"/>
-      <c r="CQ4" s="27"/>
-      <c r="CR4" s="27"/>
-    </row>
+    <row r="4" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="CL5" s="27"/>
-      <c r="CM5" s="27"/>
-      <c r="CN5" s="27"/>
-      <c r="CO5" s="27"/>
-      <c r="CP5" s="27"/>
-      <c r="CQ5" s="27"/>
-      <c r="CR5" s="27"/>
     </row>
     <row r="6" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="CL6" s="27"/>
-      <c r="CM6" s="27"/>
-      <c r="CN6" s="27"/>
-      <c r="CO6" s="27"/>
-      <c r="CP6" s="27"/>
-      <c r="CQ6" s="27"/>
-      <c r="CR6" s="27"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="7" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -23834,13 +23779,14 @@
       <c r="CI7" s="4"/>
       <c r="CJ7" s="4"/>
       <c r="CK7" s="4"/>
-      <c r="CL7" s="28"/>
-      <c r="CM7" s="28"/>
-      <c r="CN7" s="28"/>
-      <c r="CO7" s="28"/>
-      <c r="CP7" s="28"/>
-      <c r="CQ7" s="28"/>
-      <c r="CR7" s="28"/>
+      <c r="CL7" s="4"/>
+      <c r="CM7" s="4"/>
+      <c r="CN7" s="4"/>
+      <c r="CO7" s="4"/>
+      <c r="CP7" s="4"/>
+      <c r="CQ7" s="4"/>
+      <c r="CR7" s="4"/>
+      <c r="CS7" s="4"/>
     </row>
     <row r="8" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
@@ -23931,159 +23877,161 @@
       <c r="CI8" s="4"/>
       <c r="CJ8" s="4"/>
       <c r="CK8" s="4"/>
-      <c r="CL8" s="28"/>
-      <c r="CM8" s="28"/>
-      <c r="CN8" s="28"/>
-      <c r="CO8" s="28"/>
-      <c r="CP8" s="28"/>
-      <c r="CQ8" s="28"/>
-      <c r="CR8" s="28"/>
+      <c r="CL8" s="4"/>
+      <c r="CM8" s="4"/>
+      <c r="CN8" s="4"/>
+      <c r="CO8" s="4"/>
+      <c r="CP8" s="4"/>
+      <c r="CQ8" s="4"/>
+      <c r="CR8" s="4"/>
+      <c r="CS8" s="4"/>
     </row>
     <row r="9" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="41">
+      <c r="B9" s="32">
         <v>2000</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41">
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32">
         <v>2001</v>
       </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41">
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32">
         <v>2002</v>
       </c>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41">
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32">
         <v>2003</v>
       </c>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41">
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32">
         <v>2004</v>
       </c>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41">
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32">
         <v>2005</v>
       </c>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41">
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32">
         <v>2006</v>
       </c>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="41"/>
-      <c r="AD9" s="41">
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="32">
         <v>2007</v>
       </c>
-      <c r="AE9" s="41"/>
-      <c r="AF9" s="41"/>
-      <c r="AG9" s="41"/>
-      <c r="AH9" s="41">
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="32"/>
+      <c r="AH9" s="32">
         <v>2008</v>
       </c>
-      <c r="AI9" s="41"/>
-      <c r="AJ9" s="41"/>
-      <c r="AK9" s="41"/>
-      <c r="AL9" s="41">
+      <c r="AI9" s="32"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="32"/>
+      <c r="AL9" s="32">
         <v>2009</v>
       </c>
-      <c r="AM9" s="41"/>
-      <c r="AN9" s="41"/>
-      <c r="AO9" s="41"/>
-      <c r="AP9" s="41">
+      <c r="AM9" s="32"/>
+      <c r="AN9" s="32"/>
+      <c r="AO9" s="32"/>
+      <c r="AP9" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="41"/>
-      <c r="AR9" s="41"/>
-      <c r="AS9" s="41"/>
-      <c r="AT9" s="41">
+      <c r="AQ9" s="32"/>
+      <c r="AR9" s="32"/>
+      <c r="AS9" s="32"/>
+      <c r="AT9" s="32">
         <v>2011</v>
       </c>
-      <c r="AU9" s="41"/>
-      <c r="AV9" s="41"/>
-      <c r="AW9" s="41"/>
-      <c r="AX9" s="41">
+      <c r="AU9" s="32"/>
+      <c r="AV9" s="32"/>
+      <c r="AW9" s="32"/>
+      <c r="AX9" s="32">
         <v>2012</v>
       </c>
-      <c r="AY9" s="41"/>
-      <c r="AZ9" s="41"/>
-      <c r="BA9" s="41"/>
-      <c r="BB9" s="41">
+      <c r="AY9" s="32"/>
+      <c r="AZ9" s="32"/>
+      <c r="BA9" s="32"/>
+      <c r="BB9" s="32">
         <v>2013</v>
       </c>
-      <c r="BC9" s="41"/>
-      <c r="BD9" s="41"/>
-      <c r="BE9" s="41"/>
-      <c r="BF9" s="41">
+      <c r="BC9" s="32"/>
+      <c r="BD9" s="32"/>
+      <c r="BE9" s="32"/>
+      <c r="BF9" s="32">
         <v>2014</v>
       </c>
-      <c r="BG9" s="41"/>
-      <c r="BH9" s="41"/>
-      <c r="BI9" s="41"/>
-      <c r="BJ9" s="41">
+      <c r="BG9" s="32"/>
+      <c r="BH9" s="32"/>
+      <c r="BI9" s="32"/>
+      <c r="BJ9" s="32">
         <v>2015</v>
       </c>
-      <c r="BK9" s="41"/>
-      <c r="BL9" s="41"/>
-      <c r="BM9" s="41"/>
-      <c r="BN9" s="41">
+      <c r="BK9" s="32"/>
+      <c r="BL9" s="32"/>
+      <c r="BM9" s="32"/>
+      <c r="BN9" s="32">
         <v>2016</v>
       </c>
-      <c r="BO9" s="41"/>
-      <c r="BP9" s="41"/>
-      <c r="BQ9" s="41"/>
-      <c r="BR9" s="41">
+      <c r="BO9" s="32"/>
+      <c r="BP9" s="32"/>
+      <c r="BQ9" s="32"/>
+      <c r="BR9" s="32">
         <v>2017</v>
       </c>
-      <c r="BS9" s="41"/>
-      <c r="BT9" s="41"/>
-      <c r="BU9" s="41"/>
-      <c r="BV9" s="41">
+      <c r="BS9" s="32"/>
+      <c r="BT9" s="32"/>
+      <c r="BU9" s="32"/>
+      <c r="BV9" s="32">
         <v>2018</v>
       </c>
-      <c r="BW9" s="41"/>
-      <c r="BX9" s="41"/>
-      <c r="BY9" s="41"/>
-      <c r="BZ9" s="41">
+      <c r="BW9" s="32"/>
+      <c r="BX9" s="32"/>
+      <c r="BY9" s="32"/>
+      <c r="BZ9" s="32">
         <v>2019</v>
       </c>
-      <c r="CA9" s="41"/>
-      <c r="CB9" s="41"/>
-      <c r="CC9" s="41"/>
-      <c r="CD9" s="41">
+      <c r="CA9" s="32"/>
+      <c r="CB9" s="32"/>
+      <c r="CC9" s="32"/>
+      <c r="CD9" s="32">
         <v>2020</v>
       </c>
-      <c r="CE9" s="41"/>
-      <c r="CF9" s="41"/>
-      <c r="CG9" s="41"/>
-      <c r="CH9" s="41">
+      <c r="CE9" s="32"/>
+      <c r="CF9" s="32"/>
+      <c r="CG9" s="32"/>
+      <c r="CH9" s="32">
         <v>2021</v>
       </c>
-      <c r="CI9" s="41"/>
-      <c r="CJ9" s="41"/>
-      <c r="CK9" s="41"/>
-      <c r="CL9" s="43">
+      <c r="CI9" s="32"/>
+      <c r="CJ9" s="32"/>
+      <c r="CK9" s="32"/>
+      <c r="CL9" s="31">
         <v>2022</v>
       </c>
-      <c r="CM9" s="43"/>
-      <c r="CN9" s="43"/>
-      <c r="CO9" s="43"/>
-      <c r="CP9" s="43">
+      <c r="CM9" s="31"/>
+      <c r="CN9" s="31"/>
+      <c r="CO9" s="31"/>
+      <c r="CP9" s="31">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="43"/>
-      <c r="CR9" s="43"/>
+      <c r="CQ9" s="31"/>
+      <c r="CR9" s="31"/>
+      <c r="CS9" s="31"/>
     </row>
     <row r="10" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24353,37 +24301,33 @@
       <c r="CK10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="29" t="s">
+      <c r="CL10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CM10" s="29" t="s">
+      <c r="CM10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CN10" s="29" t="s">
+      <c r="CN10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CO10" s="29" t="s">
+      <c r="CO10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="29" t="s">
+      <c r="CP10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="29" t="s">
+      <c r="CQ10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="29" t="s">
+      <c r="CR10" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="CS10" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
-      <c r="CL11" s="27"/>
-      <c r="CM11" s="27"/>
-      <c r="CN11" s="27"/>
-      <c r="CO11" s="27"/>
-      <c r="CP11" s="27"/>
-      <c r="CQ11" s="27"/>
-      <c r="CR11" s="27"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -24653,28 +24597,30 @@
       <c r="CK12" s="22">
         <v>13481.466265734161</v>
       </c>
-      <c r="CL12" s="30">
+      <c r="CL12" s="26">
         <v>13618.938029108591</v>
       </c>
-      <c r="CM12" s="30">
+      <c r="CM12" s="26">
         <v>17152.109253352814</v>
       </c>
-      <c r="CN12" s="30">
+      <c r="CN12" s="26">
         <v>11467.388885437951</v>
       </c>
-      <c r="CO12" s="30">
+      <c r="CO12" s="26">
         <v>15287.660204593572</v>
       </c>
-      <c r="CP12" s="30">
+      <c r="CP12" s="26">
         <v>13399.142576240818</v>
       </c>
-      <c r="CQ12" s="30">
+      <c r="CQ12" s="26">
         <v>17326.863456188083</v>
       </c>
-      <c r="CR12" s="30">
-        <v>12361.462776829099</v>
-      </c>
-      <c r="CS12" s="10"/>
+      <c r="CR12" s="26">
+        <v>12499.852285690566</v>
+      </c>
+      <c r="CS12" s="26">
+        <v>16782.157781388414</v>
+      </c>
       <c r="CT12" s="10"/>
       <c r="CU12" s="10"/>
       <c r="CV12" s="10"/>
@@ -25002,28 +24948,30 @@
       <c r="CK13" s="23">
         <v>169419.52233407189</v>
       </c>
-      <c r="CL13" s="31">
+      <c r="CL13" s="27">
         <v>143078.8377046432</v>
       </c>
-      <c r="CM13" s="31">
+      <c r="CM13" s="27">
         <v>173268.33232693363</v>
       </c>
-      <c r="CN13" s="31">
+      <c r="CN13" s="27">
         <v>141323.89577210028</v>
       </c>
-      <c r="CO13" s="31">
+      <c r="CO13" s="27">
         <v>180478.08991273583</v>
       </c>
-      <c r="CP13" s="31">
+      <c r="CP13" s="27">
         <v>152379.01702535362</v>
       </c>
-      <c r="CQ13" s="31">
+      <c r="CQ13" s="27">
         <v>182123.699858751</v>
       </c>
-      <c r="CR13" s="31">
-        <v>148730.39042427758</v>
-      </c>
-      <c r="CS13" s="10"/>
+      <c r="CR13" s="27">
+        <v>148287.60729146141</v>
+      </c>
+      <c r="CS13" s="27">
+        <v>188227.95466810322</v>
+      </c>
       <c r="CT13" s="10"/>
       <c r="CU13" s="10"/>
       <c r="CV13" s="10"/>
@@ -25172,14 +25120,14 @@
       <c r="CI14" s="24"/>
       <c r="CJ14" s="24"/>
       <c r="CK14" s="24"/>
-      <c r="CL14" s="32"/>
-      <c r="CM14" s="32"/>
-      <c r="CN14" s="32"/>
-      <c r="CO14" s="32"/>
-      <c r="CP14" s="32"/>
-      <c r="CQ14" s="32"/>
-      <c r="CR14" s="32"/>
-      <c r="CS14" s="10"/>
+      <c r="CL14" s="28"/>
+      <c r="CM14" s="28"/>
+      <c r="CN14" s="28"/>
+      <c r="CO14" s="28"/>
+      <c r="CP14" s="28"/>
+      <c r="CQ14" s="28"/>
+      <c r="CR14" s="28"/>
+      <c r="CS14" s="28"/>
       <c r="CT14" s="10"/>
       <c r="CU14" s="10"/>
       <c r="CV14" s="10"/>
@@ -25507,28 +25455,30 @@
       <c r="CK15" s="25">
         <v>182900.98859980606</v>
       </c>
-      <c r="CL15" s="33">
+      <c r="CL15" s="29">
         <v>156697.7757337518</v>
       </c>
-      <c r="CM15" s="33">
+      <c r="CM15" s="29">
         <v>190420.44158028642</v>
       </c>
-      <c r="CN15" s="33">
+      <c r="CN15" s="29">
         <v>152791.28465753823</v>
       </c>
-      <c r="CO15" s="33">
+      <c r="CO15" s="29">
         <v>195765.75011732941</v>
       </c>
-      <c r="CP15" s="33">
+      <c r="CP15" s="29">
         <v>165778.15960159444</v>
       </c>
-      <c r="CQ15" s="33">
+      <c r="CQ15" s="29">
         <v>199450.56331493909</v>
       </c>
-      <c r="CR15" s="33">
-        <v>161091.85320110669</v>
-      </c>
-      <c r="CS15" s="10"/>
+      <c r="CR15" s="29">
+        <v>160787.45957715198</v>
+      </c>
+      <c r="CS15" s="29">
+        <v>205010.11244949163</v>
+      </c>
       <c r="CT15" s="10"/>
       <c r="CU15" s="10"/>
       <c r="CV15" s="10"/>
@@ -25678,25 +25628,19 @@
       <c r="CI16" s="16"/>
       <c r="CJ16" s="16"/>
       <c r="CK16" s="16"/>
-      <c r="CL16" s="34"/>
-      <c r="CM16" s="34"/>
-      <c r="CN16" s="34"/>
-      <c r="CO16" s="34"/>
-      <c r="CP16" s="34"/>
-      <c r="CQ16" s="34"/>
-      <c r="CR16" s="34"/>
+      <c r="CL16" s="16"/>
+      <c r="CM16" s="16"/>
+      <c r="CN16" s="16"/>
+      <c r="CO16" s="16"/>
+      <c r="CP16" s="16"/>
+      <c r="CQ16" s="16"/>
+      <c r="CR16" s="16"/>
+      <c r="CS16" s="16"/>
     </row>
     <row r="17" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="CL17" s="27"/>
-      <c r="CM17" s="27"/>
-      <c r="CN17" s="27"/>
-      <c r="CO17" s="27"/>
-      <c r="CP17" s="27"/>
-      <c r="CQ17" s="27"/>
-      <c r="CR17" s="27"/>
     </row>
     <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
@@ -25787,13 +25731,13 @@
       <c r="CI18" s="10"/>
       <c r="CJ18" s="10"/>
       <c r="CK18" s="10"/>
-      <c r="CL18" s="35"/>
-      <c r="CM18" s="35"/>
-      <c r="CN18" s="35"/>
-      <c r="CO18" s="35"/>
-      <c r="CP18" s="35"/>
-      <c r="CQ18" s="35"/>
-      <c r="CR18" s="35"/>
+      <c r="CL18" s="10"/>
+      <c r="CM18" s="10"/>
+      <c r="CN18" s="10"/>
+      <c r="CO18" s="10"/>
+      <c r="CP18" s="10"/>
+      <c r="CQ18" s="10"/>
+      <c r="CR18" s="10"/>
       <c r="CS18" s="10"/>
       <c r="CT18" s="10"/>
       <c r="CU18" s="10"/>
@@ -25943,13 +25887,13 @@
       <c r="CI19" s="10"/>
       <c r="CJ19" s="10"/>
       <c r="CK19" s="10"/>
-      <c r="CL19" s="35"/>
-      <c r="CM19" s="35"/>
-      <c r="CN19" s="35"/>
-      <c r="CO19" s="35"/>
-      <c r="CP19" s="35"/>
-      <c r="CQ19" s="35"/>
-      <c r="CR19" s="35"/>
+      <c r="CL19" s="10"/>
+      <c r="CM19" s="10"/>
+      <c r="CN19" s="10"/>
+      <c r="CO19" s="10"/>
+      <c r="CP19" s="10"/>
+      <c r="CQ19" s="10"/>
+      <c r="CR19" s="10"/>
       <c r="CS19" s="10"/>
       <c r="CT19" s="10"/>
       <c r="CU19" s="10"/>
@@ -26014,70 +25958,27 @@
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CL20" s="27"/>
-      <c r="CM20" s="27"/>
-      <c r="CN20" s="27"/>
-      <c r="CO20" s="27"/>
-      <c r="CP20" s="27"/>
-      <c r="CQ20" s="27"/>
-      <c r="CR20" s="27"/>
     </row>
     <row r="21" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="CL21" s="27"/>
-      <c r="CM21" s="27"/>
-      <c r="CN21" s="27"/>
-      <c r="CO21" s="27"/>
-      <c r="CP21" s="27"/>
-      <c r="CQ21" s="27"/>
-      <c r="CR21" s="27"/>
     </row>
     <row r="22" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="CL22" s="27"/>
-      <c r="CM22" s="27"/>
-      <c r="CN22" s="27"/>
-      <c r="CO22" s="27"/>
-      <c r="CP22" s="27"/>
-      <c r="CQ22" s="27"/>
-      <c r="CR22" s="27"/>
+        <v>51</v>
+      </c>
     </row>
-    <row r="23" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL23" s="27"/>
-      <c r="CM23" s="27"/>
-      <c r="CN23" s="27"/>
-      <c r="CO23" s="27"/>
-      <c r="CP23" s="27"/>
-      <c r="CQ23" s="27"/>
-      <c r="CR23" s="27"/>
-    </row>
+    <row r="23" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="CL24" s="27"/>
-      <c r="CM24" s="27"/>
-      <c r="CN24" s="27"/>
-      <c r="CO24" s="27"/>
-      <c r="CP24" s="27"/>
-      <c r="CQ24" s="27"/>
-      <c r="CR24" s="27"/>
     </row>
     <row r="25" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="CL25" s="27"/>
-      <c r="CM25" s="27"/>
-      <c r="CN25" s="27"/>
-      <c r="CO25" s="27"/>
-      <c r="CP25" s="27"/>
-      <c r="CQ25" s="27"/>
-      <c r="CR25" s="27"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="26" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -26171,13 +26072,14 @@
       <c r="CI26" s="4"/>
       <c r="CJ26" s="4"/>
       <c r="CK26" s="4"/>
-      <c r="CL26" s="28"/>
-      <c r="CM26" s="28"/>
-      <c r="CN26" s="28"/>
-      <c r="CO26" s="28"/>
-      <c r="CP26" s="28"/>
-      <c r="CQ26" s="28"/>
-      <c r="CR26" s="28"/>
+      <c r="CL26" s="4"/>
+      <c r="CM26" s="4"/>
+      <c r="CN26" s="4"/>
+      <c r="CO26" s="4"/>
+      <c r="CP26" s="4"/>
+      <c r="CQ26" s="4"/>
+      <c r="CR26" s="4"/>
+      <c r="CS26" s="4"/>
     </row>
     <row r="27" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
@@ -26268,159 +26170,161 @@
       <c r="CI27" s="4"/>
       <c r="CJ27" s="4"/>
       <c r="CK27" s="4"/>
-      <c r="CL27" s="28"/>
-      <c r="CM27" s="28"/>
-      <c r="CN27" s="28"/>
-      <c r="CO27" s="28"/>
-      <c r="CP27" s="28"/>
-      <c r="CQ27" s="28"/>
-      <c r="CR27" s="28"/>
+      <c r="CL27" s="4"/>
+      <c r="CM27" s="4"/>
+      <c r="CN27" s="4"/>
+      <c r="CO27" s="4"/>
+      <c r="CP27" s="4"/>
+      <c r="CQ27" s="4"/>
+      <c r="CR27" s="4"/>
+      <c r="CS27" s="4"/>
     </row>
     <row r="28" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="41">
+      <c r="B28" s="32">
         <v>2000</v>
       </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="41">
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="32">
         <v>2001</v>
       </c>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="41">
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="32">
         <v>2002</v>
       </c>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="41">
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="32">
         <v>2003</v>
       </c>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="41">
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="32">
         <v>2004</v>
       </c>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="41">
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="32">
         <v>2005</v>
       </c>
-      <c r="W28" s="42"/>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="42"/>
-      <c r="Z28" s="41">
+      <c r="W28" s="33"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="33"/>
+      <c r="Z28" s="32">
         <v>2006</v>
       </c>
-      <c r="AA28" s="42"/>
-      <c r="AB28" s="42"/>
-      <c r="AC28" s="42"/>
-      <c r="AD28" s="41">
+      <c r="AA28" s="33"/>
+      <c r="AB28" s="33"/>
+      <c r="AC28" s="33"/>
+      <c r="AD28" s="32">
         <v>2007</v>
       </c>
-      <c r="AE28" s="42"/>
-      <c r="AF28" s="42"/>
-      <c r="AG28" s="42"/>
-      <c r="AH28" s="41">
+      <c r="AE28" s="33"/>
+      <c r="AF28" s="33"/>
+      <c r="AG28" s="33"/>
+      <c r="AH28" s="32">
         <v>2008</v>
       </c>
-      <c r="AI28" s="42"/>
-      <c r="AJ28" s="42"/>
-      <c r="AK28" s="42"/>
-      <c r="AL28" s="41">
+      <c r="AI28" s="33"/>
+      <c r="AJ28" s="33"/>
+      <c r="AK28" s="33"/>
+      <c r="AL28" s="32">
         <v>2009</v>
       </c>
-      <c r="AM28" s="42"/>
-      <c r="AN28" s="42"/>
-      <c r="AO28" s="42"/>
-      <c r="AP28" s="41">
+      <c r="AM28" s="33"/>
+      <c r="AN28" s="33"/>
+      <c r="AO28" s="33"/>
+      <c r="AP28" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="42"/>
-      <c r="AR28" s="42"/>
-      <c r="AS28" s="42"/>
-      <c r="AT28" s="41">
+      <c r="AQ28" s="33"/>
+      <c r="AR28" s="33"/>
+      <c r="AS28" s="33"/>
+      <c r="AT28" s="32">
         <v>2011</v>
       </c>
-      <c r="AU28" s="42"/>
-      <c r="AV28" s="42"/>
-      <c r="AW28" s="42"/>
-      <c r="AX28" s="41">
+      <c r="AU28" s="33"/>
+      <c r="AV28" s="33"/>
+      <c r="AW28" s="33"/>
+      <c r="AX28" s="32">
         <v>2012</v>
       </c>
-      <c r="AY28" s="42"/>
-      <c r="AZ28" s="42"/>
-      <c r="BA28" s="42"/>
-      <c r="BB28" s="41">
+      <c r="AY28" s="33"/>
+      <c r="AZ28" s="33"/>
+      <c r="BA28" s="33"/>
+      <c r="BB28" s="32">
         <v>2013</v>
       </c>
-      <c r="BC28" s="42"/>
-      <c r="BD28" s="42"/>
-      <c r="BE28" s="42"/>
-      <c r="BF28" s="41">
+      <c r="BC28" s="33"/>
+      <c r="BD28" s="33"/>
+      <c r="BE28" s="33"/>
+      <c r="BF28" s="32">
         <v>2014</v>
       </c>
-      <c r="BG28" s="42"/>
-      <c r="BH28" s="42"/>
-      <c r="BI28" s="42"/>
-      <c r="BJ28" s="41">
+      <c r="BG28" s="33"/>
+      <c r="BH28" s="33"/>
+      <c r="BI28" s="33"/>
+      <c r="BJ28" s="32">
         <v>2015</v>
       </c>
-      <c r="BK28" s="42"/>
-      <c r="BL28" s="42"/>
-      <c r="BM28" s="42"/>
-      <c r="BN28" s="41">
+      <c r="BK28" s="33"/>
+      <c r="BL28" s="33"/>
+      <c r="BM28" s="33"/>
+      <c r="BN28" s="32">
         <v>2016</v>
       </c>
-      <c r="BO28" s="42"/>
-      <c r="BP28" s="42"/>
-      <c r="BQ28" s="42"/>
-      <c r="BR28" s="41">
+      <c r="BO28" s="33"/>
+      <c r="BP28" s="33"/>
+      <c r="BQ28" s="33"/>
+      <c r="BR28" s="32">
         <v>2017</v>
       </c>
-      <c r="BS28" s="42"/>
-      <c r="BT28" s="42"/>
-      <c r="BU28" s="42"/>
-      <c r="BV28" s="41">
+      <c r="BS28" s="33"/>
+      <c r="BT28" s="33"/>
+      <c r="BU28" s="33"/>
+      <c r="BV28" s="32">
         <v>2018</v>
       </c>
-      <c r="BW28" s="42"/>
-      <c r="BX28" s="42"/>
-      <c r="BY28" s="42"/>
-      <c r="BZ28" s="41">
+      <c r="BW28" s="33"/>
+      <c r="BX28" s="33"/>
+      <c r="BY28" s="33"/>
+      <c r="BZ28" s="32">
         <v>2019</v>
       </c>
-      <c r="CA28" s="42"/>
-      <c r="CB28" s="42"/>
-      <c r="CC28" s="42"/>
-      <c r="CD28" s="41">
+      <c r="CA28" s="33"/>
+      <c r="CB28" s="33"/>
+      <c r="CC28" s="33"/>
+      <c r="CD28" s="32">
         <v>2020</v>
       </c>
-      <c r="CE28" s="41"/>
-      <c r="CF28" s="41"/>
-      <c r="CG28" s="41"/>
-      <c r="CH28" s="41">
+      <c r="CE28" s="32"/>
+      <c r="CF28" s="32"/>
+      <c r="CG28" s="32"/>
+      <c r="CH28" s="32">
         <v>2021</v>
       </c>
-      <c r="CI28" s="41"/>
-      <c r="CJ28" s="41"/>
-      <c r="CK28" s="41"/>
-      <c r="CL28" s="43">
+      <c r="CI28" s="32"/>
+      <c r="CJ28" s="32"/>
+      <c r="CK28" s="32"/>
+      <c r="CL28" s="31">
         <v>2022</v>
       </c>
-      <c r="CM28" s="43"/>
-      <c r="CN28" s="43"/>
-      <c r="CO28" s="43"/>
-      <c r="CP28" s="43">
+      <c r="CM28" s="31"/>
+      <c r="CN28" s="31"/>
+      <c r="CO28" s="31"/>
+      <c r="CP28" s="31">
         <v>2023</v>
       </c>
-      <c r="CQ28" s="43"/>
-      <c r="CR28" s="43"/>
+      <c r="CQ28" s="31"/>
+      <c r="CR28" s="31"/>
+      <c r="CS28" s="31"/>
     </row>
     <row r="29" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
@@ -26690,37 +26594,33 @@
       <c r="CK29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL29" s="29" t="s">
+      <c r="CL29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CM29" s="29" t="s">
+      <c r="CM29" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CN29" s="29" t="s">
+      <c r="CN29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CO29" s="29" t="s">
+      <c r="CO29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP29" s="29" t="s">
+      <c r="CP29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ29" s="29" t="s">
+      <c r="CQ29" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR29" s="29" t="s">
+      <c r="CR29" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="CS29" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
-      <c r="CL30" s="27"/>
-      <c r="CM30" s="27"/>
-      <c r="CN30" s="27"/>
-      <c r="CO30" s="27"/>
-      <c r="CP30" s="27"/>
-      <c r="CQ30" s="27"/>
-      <c r="CR30" s="27"/>
     </row>
     <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -26990,28 +26890,30 @@
       <c r="CK31" s="22">
         <v>12630.69882945955</v>
       </c>
-      <c r="CL31" s="30">
+      <c r="CL31" s="26">
         <v>12944.695738166523</v>
       </c>
-      <c r="CM31" s="30">
+      <c r="CM31" s="26">
         <v>17785.341151424225</v>
       </c>
-      <c r="CN31" s="30">
+      <c r="CN31" s="26">
         <v>10543.344914866946</v>
       </c>
-      <c r="CO31" s="30">
+      <c r="CO31" s="26">
         <v>13846.543308001339</v>
       </c>
-      <c r="CP31" s="30">
+      <c r="CP31" s="26">
         <v>12122.940622151416</v>
       </c>
-      <c r="CQ31" s="30">
+      <c r="CQ31" s="26">
         <v>17238.017360021182</v>
       </c>
-      <c r="CR31" s="30">
-        <v>10791.602839020094</v>
-      </c>
-      <c r="CS31" s="10"/>
+      <c r="CR31" s="26">
+        <v>10915.500722164814</v>
+      </c>
+      <c r="CS31" s="26">
+        <v>14234.678468606231</v>
+      </c>
       <c r="CT31" s="10"/>
       <c r="CU31" s="10"/>
       <c r="CV31" s="10"/>
@@ -27339,28 +27241,30 @@
       <c r="CK32" s="23">
         <v>169052.81165885623</v>
       </c>
-      <c r="CL32" s="31">
+      <c r="CL32" s="27">
         <v>144638.98927942221</v>
       </c>
-      <c r="CM32" s="31">
+      <c r="CM32" s="27">
         <v>176085.42660207796</v>
       </c>
-      <c r="CN32" s="31">
+      <c r="CN32" s="27">
         <v>134996.14611586751</v>
       </c>
-      <c r="CO32" s="31">
+      <c r="CO32" s="27">
         <v>179027.3493791802</v>
       </c>
-      <c r="CP32" s="31">
+      <c r="CP32" s="27">
         <v>152940.2892004395</v>
       </c>
-      <c r="CQ32" s="31">
+      <c r="CQ32" s="27">
         <v>183823.23767067181</v>
       </c>
-      <c r="CR32" s="31">
-        <v>141149.07602062824</v>
-      </c>
-      <c r="CS32" s="10"/>
+      <c r="CR32" s="27">
+        <v>140728.86311124076</v>
+      </c>
+      <c r="CS32" s="27">
+        <v>185566.83298842062</v>
+      </c>
       <c r="CT32" s="10"/>
       <c r="CU32" s="10"/>
       <c r="CV32" s="10"/>
@@ -27509,13 +27413,13 @@
       <c r="CI33" s="10"/>
       <c r="CJ33" s="10"/>
       <c r="CK33" s="10"/>
-      <c r="CL33" s="35"/>
-      <c r="CM33" s="35"/>
-      <c r="CN33" s="35"/>
-      <c r="CO33" s="35"/>
-      <c r="CP33" s="35"/>
-      <c r="CQ33" s="35"/>
-      <c r="CR33" s="35"/>
+      <c r="CL33" s="10"/>
+      <c r="CM33" s="10"/>
+      <c r="CN33" s="10"/>
+      <c r="CO33" s="10"/>
+      <c r="CP33" s="10"/>
+      <c r="CQ33" s="10"/>
+      <c r="CR33" s="10"/>
       <c r="CS33" s="10"/>
       <c r="CT33" s="10"/>
       <c r="CU33" s="10"/>
@@ -27844,28 +27748,30 @@
       <c r="CK34" s="25">
         <v>181683.51048831578</v>
       </c>
-      <c r="CL34" s="33">
+      <c r="CL34" s="29">
         <v>157583.68501758872</v>
       </c>
-      <c r="CM34" s="33">
+      <c r="CM34" s="29">
         <v>193870.76775350218</v>
       </c>
-      <c r="CN34" s="33">
+      <c r="CN34" s="29">
         <v>145539.49103073444</v>
       </c>
-      <c r="CO34" s="33">
+      <c r="CO34" s="29">
         <v>192873.89268718153</v>
       </c>
-      <c r="CP34" s="33">
+      <c r="CP34" s="29">
         <v>165063.22982259092</v>
       </c>
-      <c r="CQ34" s="33">
+      <c r="CQ34" s="29">
         <v>201061.25503069299</v>
       </c>
-      <c r="CR34" s="33">
-        <v>151940.67885964832</v>
-      </c>
-      <c r="CS34" s="10"/>
+      <c r="CR34" s="29">
+        <v>151644.36383340557</v>
+      </c>
+      <c r="CS34" s="29">
+        <v>199801.51145702685</v>
+      </c>
       <c r="CT34" s="10"/>
       <c r="CU34" s="10"/>
       <c r="CV34" s="10"/>
@@ -28015,25 +27921,19 @@
       <c r="CI35" s="16"/>
       <c r="CJ35" s="16"/>
       <c r="CK35" s="16"/>
-      <c r="CL35" s="34"/>
-      <c r="CM35" s="34"/>
-      <c r="CN35" s="34"/>
-      <c r="CO35" s="34"/>
-      <c r="CP35" s="34"/>
-      <c r="CQ35" s="34"/>
-      <c r="CR35" s="34"/>
+      <c r="CL35" s="16"/>
+      <c r="CM35" s="16"/>
+      <c r="CN35" s="16"/>
+      <c r="CO35" s="16"/>
+      <c r="CP35" s="16"/>
+      <c r="CQ35" s="16"/>
+      <c r="CR35" s="16"/>
+      <c r="CS35" s="16"/>
     </row>
     <row r="36" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="CL36" s="27"/>
-      <c r="CM36" s="27"/>
-      <c r="CN36" s="27"/>
-      <c r="CO36" s="27"/>
-      <c r="CP36" s="27"/>
-      <c r="CQ36" s="27"/>
-      <c r="CR36" s="27"/>
     </row>
     <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="10"/>
@@ -28124,13 +28024,13 @@
       <c r="CI37" s="10"/>
       <c r="CJ37" s="10"/>
       <c r="CK37" s="10"/>
-      <c r="CL37" s="35"/>
-      <c r="CM37" s="35"/>
-      <c r="CN37" s="35"/>
-      <c r="CO37" s="35"/>
-      <c r="CP37" s="35"/>
-      <c r="CQ37" s="35"/>
-      <c r="CR37" s="35"/>
+      <c r="CL37" s="10"/>
+      <c r="CM37" s="10"/>
+      <c r="CN37" s="10"/>
+      <c r="CO37" s="10"/>
+      <c r="CP37" s="10"/>
+      <c r="CQ37" s="10"/>
+      <c r="CR37" s="10"/>
       <c r="CS37" s="10"/>
       <c r="CT37" s="10"/>
       <c r="CU37" s="10"/>
@@ -28280,13 +28180,13 @@
       <c r="CI38" s="10"/>
       <c r="CJ38" s="10"/>
       <c r="CK38" s="10"/>
-      <c r="CL38" s="35"/>
-      <c r="CM38" s="35"/>
-      <c r="CN38" s="35"/>
-      <c r="CO38" s="35"/>
-      <c r="CP38" s="35"/>
-      <c r="CQ38" s="35"/>
-      <c r="CR38" s="35"/>
+      <c r="CL38" s="10"/>
+      <c r="CM38" s="10"/>
+      <c r="CN38" s="10"/>
+      <c r="CO38" s="10"/>
+      <c r="CP38" s="10"/>
+      <c r="CQ38" s="10"/>
+      <c r="CR38" s="10"/>
       <c r="CS38" s="10"/>
       <c r="CT38" s="10"/>
       <c r="CU38" s="10"/>
@@ -28351,235 +28251,178 @@
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CL39" s="27"/>
-      <c r="CM39" s="27"/>
-      <c r="CN39" s="27"/>
-      <c r="CO39" s="27"/>
-      <c r="CP39" s="27"/>
-      <c r="CQ39" s="27"/>
-      <c r="CR39" s="27"/>
     </row>
     <row r="40" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="CL40" s="27"/>
-      <c r="CM40" s="27"/>
-      <c r="CN40" s="27"/>
-      <c r="CO40" s="27"/>
-      <c r="CP40" s="27"/>
-      <c r="CQ40" s="27"/>
-      <c r="CR40" s="27"/>
     </row>
     <row r="41" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="CL41" s="27"/>
-      <c r="CM41" s="27"/>
-      <c r="CN41" s="27"/>
-      <c r="CO41" s="27"/>
-      <c r="CP41" s="27"/>
-      <c r="CQ41" s="27"/>
-      <c r="CR41" s="27"/>
+        <v>51</v>
+      </c>
     </row>
-    <row r="42" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL42" s="27"/>
-      <c r="CM42" s="27"/>
-      <c r="CN42" s="27"/>
-      <c r="CO42" s="27"/>
-      <c r="CP42" s="27"/>
-      <c r="CQ42" s="27"/>
-      <c r="CR42" s="27"/>
-    </row>
+    <row r="42" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="CL43" s="27"/>
-      <c r="CM43" s="27"/>
-      <c r="CN43" s="27"/>
-      <c r="CO43" s="27"/>
-      <c r="CP43" s="27"/>
-      <c r="CQ43" s="27"/>
-      <c r="CR43" s="27"/>
     </row>
     <row r="44" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="CL44" s="27"/>
-      <c r="CM44" s="27"/>
-      <c r="CN44" s="27"/>
-      <c r="CO44" s="27"/>
-      <c r="CP44" s="27"/>
-      <c r="CQ44" s="27"/>
-      <c r="CR44" s="27"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="45" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="CL45" s="27"/>
-      <c r="CM45" s="27"/>
-      <c r="CN45" s="27"/>
-      <c r="CO45" s="27"/>
-      <c r="CP45" s="27"/>
-      <c r="CQ45" s="27"/>
-      <c r="CR45" s="27"/>
     </row>
-    <row r="46" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL46" s="27"/>
-      <c r="CM46" s="27"/>
-      <c r="CN46" s="27"/>
-      <c r="CO46" s="27"/>
-      <c r="CP46" s="27"/>
-      <c r="CQ46" s="27"/>
-      <c r="CR46" s="27"/>
-    </row>
+    <row r="46" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41" t="s">
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41" t="s">
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="41"/>
-      <c r="L47" s="41"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="41" t="s">
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="41"/>
-      <c r="P47" s="41"/>
-      <c r="Q47" s="41"/>
-      <c r="R47" s="41" t="s">
+      <c r="O47" s="32"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="41"/>
-      <c r="T47" s="41"/>
-      <c r="U47" s="41"/>
-      <c r="V47" s="41" t="s">
+      <c r="S47" s="32"/>
+      <c r="T47" s="32"/>
+      <c r="U47" s="32"/>
+      <c r="V47" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="41"/>
-      <c r="X47" s="41"/>
-      <c r="Y47" s="41"/>
-      <c r="Z47" s="41" t="s">
+      <c r="W47" s="32"/>
+      <c r="X47" s="32"/>
+      <c r="Y47" s="32"/>
+      <c r="Z47" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="41"/>
-      <c r="AB47" s="41"/>
-      <c r="AC47" s="41"/>
-      <c r="AD47" s="41" t="s">
+      <c r="AA47" s="32"/>
+      <c r="AB47" s="32"/>
+      <c r="AC47" s="32"/>
+      <c r="AD47" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="41"/>
-      <c r="AF47" s="41"/>
-      <c r="AG47" s="41"/>
-      <c r="AH47" s="41" t="s">
+      <c r="AE47" s="32"/>
+      <c r="AF47" s="32"/>
+      <c r="AG47" s="32"/>
+      <c r="AH47" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="41"/>
-      <c r="AJ47" s="41"/>
-      <c r="AK47" s="41"/>
-      <c r="AL47" s="41" t="s">
+      <c r="AI47" s="32"/>
+      <c r="AJ47" s="32"/>
+      <c r="AK47" s="32"/>
+      <c r="AL47" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="41"/>
-      <c r="AN47" s="41"/>
-      <c r="AO47" s="41"/>
-      <c r="AP47" s="41" t="s">
+      <c r="AM47" s="32"/>
+      <c r="AN47" s="32"/>
+      <c r="AO47" s="32"/>
+      <c r="AP47" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="41"/>
-      <c r="AR47" s="41"/>
-      <c r="AS47" s="41"/>
-      <c r="AT47" s="41" t="s">
+      <c r="AQ47" s="32"/>
+      <c r="AR47" s="32"/>
+      <c r="AS47" s="32"/>
+      <c r="AT47" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="41"/>
-      <c r="AV47" s="41"/>
-      <c r="AW47" s="41"/>
-      <c r="AX47" s="41" t="s">
+      <c r="AU47" s="32"/>
+      <c r="AV47" s="32"/>
+      <c r="AW47" s="32"/>
+      <c r="AX47" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="41"/>
-      <c r="AZ47" s="41"/>
-      <c r="BA47" s="41"/>
-      <c r="BB47" s="41" t="s">
+      <c r="AY47" s="32"/>
+      <c r="AZ47" s="32"/>
+      <c r="BA47" s="32"/>
+      <c r="BB47" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="41"/>
-      <c r="BD47" s="41"/>
-      <c r="BE47" s="41"/>
-      <c r="BF47" s="41" t="s">
+      <c r="BC47" s="32"/>
+      <c r="BD47" s="32"/>
+      <c r="BE47" s="32"/>
+      <c r="BF47" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="41"/>
-      <c r="BH47" s="41"/>
-      <c r="BI47" s="41"/>
-      <c r="BJ47" s="41" t="s">
+      <c r="BG47" s="32"/>
+      <c r="BH47" s="32"/>
+      <c r="BI47" s="32"/>
+      <c r="BJ47" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="41"/>
-      <c r="BL47" s="41"/>
-      <c r="BM47" s="41"/>
-      <c r="BN47" s="41" t="s">
+      <c r="BK47" s="32"/>
+      <c r="BL47" s="32"/>
+      <c r="BM47" s="32"/>
+      <c r="BN47" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="41"/>
-      <c r="BP47" s="41"/>
-      <c r="BQ47" s="41"/>
-      <c r="BR47" s="41" t="s">
+      <c r="BO47" s="32"/>
+      <c r="BP47" s="32"/>
+      <c r="BQ47" s="32"/>
+      <c r="BR47" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="BS47" s="41"/>
-      <c r="BT47" s="41"/>
-      <c r="BU47" s="41"/>
-      <c r="BV47" s="41" t="s">
+      <c r="BS47" s="32"/>
+      <c r="BT47" s="32"/>
+      <c r="BU47" s="32"/>
+      <c r="BV47" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="BW47" s="41"/>
-      <c r="BX47" s="41"/>
-      <c r="BY47" s="41"/>
-      <c r="BZ47" s="41" t="s">
+      <c r="BW47" s="32"/>
+      <c r="BX47" s="32"/>
+      <c r="BY47" s="32"/>
+      <c r="BZ47" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="CA47" s="41"/>
-      <c r="CB47" s="41"/>
-      <c r="CC47" s="41"/>
-      <c r="CD47" s="41" t="s">
+      <c r="CA47" s="32"/>
+      <c r="CB47" s="32"/>
+      <c r="CC47" s="32"/>
+      <c r="CD47" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="41"/>
-      <c r="CF47" s="41"/>
-      <c r="CG47" s="41"/>
-      <c r="CH47" s="41" t="s">
+      <c r="CE47" s="32"/>
+      <c r="CF47" s="32"/>
+      <c r="CG47" s="32"/>
+      <c r="CH47" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="CI47" s="41"/>
-      <c r="CJ47" s="41"/>
-      <c r="CK47" s="41"/>
-      <c r="CL47" s="43" t="s">
+      <c r="CI47" s="32"/>
+      <c r="CJ47" s="32"/>
+      <c r="CK47" s="32"/>
+      <c r="CL47" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="CM47" s="43"/>
-      <c r="CN47" s="43"/>
-      <c r="CO47" s="36"/>
-      <c r="CP47" s="26"/>
-      <c r="CQ47" s="26"/>
-      <c r="CR47" s="26"/>
+      <c r="CM47" s="31"/>
+      <c r="CN47" s="31"/>
+      <c r="CO47" s="31"/>
+      <c r="CP47" s="30"/>
+      <c r="CQ47" s="30"/>
+      <c r="CR47" s="30"/>
+      <c r="CS47" s="30"/>
     </row>
     <row r="48" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -28849,29 +28692,25 @@
       <c r="CK48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL48" s="37" t="s">
+      <c r="CL48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM48" s="37" t="s">
+      <c r="CM48" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN48" s="37" t="s">
+      <c r="CN48" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO48" s="37"/>
-      <c r="CP48" s="37"/>
-      <c r="CQ48" s="37"/>
-      <c r="CR48" s="37"/>
+      <c r="CO48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP48" s="6"/>
+      <c r="CQ48" s="6"/>
+      <c r="CR48" s="6"/>
+      <c r="CS48" s="6"/>
     </row>
     <row r="49" spans="1:151" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
-      <c r="CL49" s="27"/>
-      <c r="CM49" s="27"/>
-      <c r="CN49" s="27"/>
-      <c r="CO49" s="27"/>
-      <c r="CP49" s="27"/>
-      <c r="CQ49" s="27"/>
-      <c r="CR49" s="27"/>
     </row>
     <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -29141,20 +28980,22 @@
       <c r="CK50" s="18">
         <v>13.397607524711262</v>
       </c>
-      <c r="CL50" s="38">
+      <c r="CL50" s="18">
         <v>-1.6138956826001447</v>
       </c>
-      <c r="CM50" s="38">
+      <c r="CM50" s="18">
         <v>1.018849636822992</v>
       </c>
-      <c r="CN50" s="38">
-        <v>7.7966649629062772</v>
-      </c>
-      <c r="CO50" s="38"/>
-      <c r="CP50" s="38"/>
-      <c r="CQ50" s="38"/>
-      <c r="CR50" s="38"/>
-      <c r="CS50" s="10"/>
+      <c r="CN50" s="18">
+        <v>9.003474204696289</v>
+      </c>
+      <c r="CO50" s="18">
+        <v>9.7758424559029748</v>
+      </c>
+      <c r="CP50" s="18"/>
+      <c r="CQ50" s="18"/>
+      <c r="CR50" s="18"/>
+      <c r="CS50" s="18"/>
       <c r="CT50" s="10"/>
       <c r="CU50" s="10"/>
       <c r="CV50" s="10"/>
@@ -29478,20 +29319,22 @@
       <c r="CK51" s="18">
         <v>6.5273277992473453</v>
       </c>
-      <c r="CL51" s="38">
+      <c r="CL51" s="18">
         <v>6.5000383494229368</v>
       </c>
-      <c r="CM51" s="38">
+      <c r="CM51" s="18">
         <v>5.1107824568360911</v>
       </c>
-      <c r="CN51" s="38">
-        <v>5.2407942844436235</v>
-      </c>
-      <c r="CO51" s="38"/>
-      <c r="CP51" s="38"/>
-      <c r="CQ51" s="38"/>
-      <c r="CR51" s="38"/>
-      <c r="CS51" s="10"/>
+      <c r="CN51" s="18">
+        <v>4.9274834105839034</v>
+      </c>
+      <c r="CO51" s="18">
+        <v>4.2940751196528026</v>
+      </c>
+      <c r="CP51" s="18"/>
+      <c r="CQ51" s="18"/>
+      <c r="CR51" s="18"/>
+      <c r="CS51" s="18"/>
       <c r="CT51" s="10"/>
       <c r="CU51" s="10"/>
       <c r="CV51" s="10"/>
@@ -29637,14 +29480,14 @@
       <c r="CI52" s="19"/>
       <c r="CJ52" s="19"/>
       <c r="CK52" s="19"/>
-      <c r="CL52" s="39"/>
-      <c r="CM52" s="39"/>
-      <c r="CN52" s="39"/>
-      <c r="CO52" s="39"/>
-      <c r="CP52" s="39"/>
-      <c r="CQ52" s="39"/>
-      <c r="CR52" s="39"/>
-      <c r="CS52" s="10"/>
+      <c r="CL52" s="19"/>
+      <c r="CM52" s="19"/>
+      <c r="CN52" s="19"/>
+      <c r="CO52" s="19"/>
+      <c r="CP52" s="19"/>
+      <c r="CQ52" s="19"/>
+      <c r="CR52" s="19"/>
+      <c r="CS52" s="19"/>
       <c r="CT52" s="10"/>
       <c r="CU52" s="10"/>
       <c r="CV52" s="10"/>
@@ -29968,20 +29811,22 @@
       <c r="CK53" s="18">
         <v>7.0337298972571034</v>
       </c>
-      <c r="CL53" s="38">
+      <c r="CL53" s="18">
         <v>5.7948390303071733</v>
       </c>
-      <c r="CM53" s="38">
+      <c r="CM53" s="18">
         <v>4.7422018664132253</v>
       </c>
-      <c r="CN53" s="38">
-        <v>5.4326191197181686</v>
-      </c>
-      <c r="CO53" s="38"/>
-      <c r="CP53" s="38"/>
-      <c r="CQ53" s="38"/>
-      <c r="CR53" s="38"/>
-      <c r="CS53" s="10"/>
+      <c r="CN53" s="18">
+        <v>5.2333972697043123</v>
+      </c>
+      <c r="CO53" s="18">
+        <v>4.7221550892440263</v>
+      </c>
+      <c r="CP53" s="18"/>
+      <c r="CQ53" s="18"/>
+      <c r="CR53" s="18"/>
+      <c r="CS53" s="18"/>
       <c r="CT53" s="10"/>
       <c r="CU53" s="10"/>
       <c r="CV53" s="10"/>
@@ -30127,25 +29972,19 @@
       <c r="CI54" s="16"/>
       <c r="CJ54" s="16"/>
       <c r="CK54" s="16"/>
-      <c r="CL54" s="34"/>
-      <c r="CM54" s="34"/>
-      <c r="CN54" s="34"/>
-      <c r="CO54" s="34"/>
-      <c r="CP54" s="34"/>
-      <c r="CQ54" s="34"/>
-      <c r="CR54" s="34"/>
+      <c r="CL54" s="16"/>
+      <c r="CM54" s="16"/>
+      <c r="CN54" s="16"/>
+      <c r="CO54" s="16"/>
+      <c r="CP54" s="16"/>
+      <c r="CQ54" s="16"/>
+      <c r="CR54" s="16"/>
+      <c r="CS54" s="16"/>
     </row>
     <row r="55" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="CL55" s="27"/>
-      <c r="CM55" s="27"/>
-      <c r="CN55" s="27"/>
-      <c r="CO55" s="27"/>
-      <c r="CP55" s="27"/>
-      <c r="CQ55" s="27"/>
-      <c r="CR55" s="27"/>
     </row>
     <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="10"/>
@@ -30236,13 +30075,13 @@
       <c r="CI56" s="10"/>
       <c r="CJ56" s="10"/>
       <c r="CK56" s="10"/>
-      <c r="CL56" s="35"/>
-      <c r="CM56" s="35"/>
-      <c r="CN56" s="35"/>
-      <c r="CO56" s="35"/>
-      <c r="CP56" s="35"/>
-      <c r="CQ56" s="35"/>
-      <c r="CR56" s="35"/>
+      <c r="CL56" s="10"/>
+      <c r="CM56" s="10"/>
+      <c r="CN56" s="10"/>
+      <c r="CO56" s="10"/>
+      <c r="CP56" s="10"/>
+      <c r="CQ56" s="10"/>
+      <c r="CR56" s="10"/>
       <c r="CS56" s="10"/>
       <c r="CT56" s="10"/>
       <c r="CU56" s="10"/>
@@ -30388,13 +30227,13 @@
       <c r="CI57" s="10"/>
       <c r="CJ57" s="10"/>
       <c r="CK57" s="10"/>
-      <c r="CL57" s="35"/>
-      <c r="CM57" s="35"/>
-      <c r="CN57" s="35"/>
-      <c r="CO57" s="35"/>
-      <c r="CP57" s="35"/>
-      <c r="CQ57" s="35"/>
-      <c r="CR57" s="35"/>
+      <c r="CL57" s="10"/>
+      <c r="CM57" s="10"/>
+      <c r="CN57" s="10"/>
+      <c r="CO57" s="10"/>
+      <c r="CP57" s="10"/>
+      <c r="CQ57" s="10"/>
+      <c r="CR57" s="10"/>
       <c r="CS57" s="10"/>
       <c r="CT57" s="10"/>
       <c r="CU57" s="10"/>
@@ -30455,235 +30294,178 @@
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CL58" s="27"/>
-      <c r="CM58" s="27"/>
-      <c r="CN58" s="27"/>
-      <c r="CO58" s="27"/>
-      <c r="CP58" s="27"/>
-      <c r="CQ58" s="27"/>
-      <c r="CR58" s="27"/>
     </row>
     <row r="59" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="CL59" s="27"/>
-      <c r="CM59" s="27"/>
-      <c r="CN59" s="27"/>
-      <c r="CO59" s="27"/>
-      <c r="CP59" s="27"/>
-      <c r="CQ59" s="27"/>
-      <c r="CR59" s="27"/>
     </row>
     <row r="60" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="CL60" s="27"/>
-      <c r="CM60" s="27"/>
-      <c r="CN60" s="27"/>
-      <c r="CO60" s="27"/>
-      <c r="CP60" s="27"/>
-      <c r="CQ60" s="27"/>
-      <c r="CR60" s="27"/>
+        <v>51</v>
+      </c>
     </row>
-    <row r="61" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL61" s="27"/>
-      <c r="CM61" s="27"/>
-      <c r="CN61" s="27"/>
-      <c r="CO61" s="27"/>
-      <c r="CP61" s="27"/>
-      <c r="CQ61" s="27"/>
-      <c r="CR61" s="27"/>
-    </row>
+    <row r="61" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="62" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="CL62" s="27"/>
-      <c r="CM62" s="27"/>
-      <c r="CN62" s="27"/>
-      <c r="CO62" s="27"/>
-      <c r="CP62" s="27"/>
-      <c r="CQ62" s="27"/>
-      <c r="CR62" s="27"/>
     </row>
     <row r="63" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="CL63" s="27"/>
-      <c r="CM63" s="27"/>
-      <c r="CN63" s="27"/>
-      <c r="CO63" s="27"/>
-      <c r="CP63" s="27"/>
-      <c r="CQ63" s="27"/>
-      <c r="CR63" s="27"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="64" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="CL64" s="27"/>
-      <c r="CM64" s="27"/>
-      <c r="CN64" s="27"/>
-      <c r="CO64" s="27"/>
-      <c r="CP64" s="27"/>
-      <c r="CQ64" s="27"/>
-      <c r="CR64" s="27"/>
     </row>
-    <row r="65" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL65" s="27"/>
-      <c r="CM65" s="27"/>
-      <c r="CN65" s="27"/>
-      <c r="CO65" s="27"/>
-      <c r="CP65" s="27"/>
-      <c r="CQ65" s="27"/>
-      <c r="CR65" s="27"/>
-    </row>
+    <row r="65" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="66" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
-      <c r="B66" s="41" t="s">
+      <c r="B66" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="41" t="s">
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="41" t="s">
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="43"/>
-      <c r="L66" s="43"/>
-      <c r="M66" s="43"/>
-      <c r="N66" s="41" t="s">
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="43"/>
-      <c r="P66" s="43"/>
-      <c r="Q66" s="43"/>
-      <c r="R66" s="41" t="s">
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
+      <c r="Q66" s="34"/>
+      <c r="R66" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="43"/>
-      <c r="T66" s="43"/>
-      <c r="U66" s="43"/>
-      <c r="V66" s="41" t="s">
+      <c r="S66" s="34"/>
+      <c r="T66" s="34"/>
+      <c r="U66" s="34"/>
+      <c r="V66" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="43"/>
-      <c r="X66" s="43"/>
-      <c r="Y66" s="43"/>
-      <c r="Z66" s="41" t="s">
+      <c r="W66" s="34"/>
+      <c r="X66" s="34"/>
+      <c r="Y66" s="34"/>
+      <c r="Z66" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="43"/>
-      <c r="AB66" s="43"/>
-      <c r="AC66" s="43"/>
-      <c r="AD66" s="41" t="s">
+      <c r="AA66" s="34"/>
+      <c r="AB66" s="34"/>
+      <c r="AC66" s="34"/>
+      <c r="AD66" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="43"/>
-      <c r="AF66" s="43"/>
-      <c r="AG66" s="43"/>
-      <c r="AH66" s="41" t="s">
+      <c r="AE66" s="34"/>
+      <c r="AF66" s="34"/>
+      <c r="AG66" s="34"/>
+      <c r="AH66" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="43"/>
-      <c r="AJ66" s="43"/>
-      <c r="AK66" s="43"/>
-      <c r="AL66" s="41" t="s">
+      <c r="AI66" s="34"/>
+      <c r="AJ66" s="34"/>
+      <c r="AK66" s="34"/>
+      <c r="AL66" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="43"/>
-      <c r="AN66" s="43"/>
-      <c r="AO66" s="43"/>
-      <c r="AP66" s="41" t="s">
+      <c r="AM66" s="34"/>
+      <c r="AN66" s="34"/>
+      <c r="AO66" s="34"/>
+      <c r="AP66" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="43"/>
-      <c r="AR66" s="43"/>
-      <c r="AS66" s="43"/>
-      <c r="AT66" s="41" t="s">
+      <c r="AQ66" s="34"/>
+      <c r="AR66" s="34"/>
+      <c r="AS66" s="34"/>
+      <c r="AT66" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="43"/>
-      <c r="AV66" s="43"/>
-      <c r="AW66" s="43"/>
-      <c r="AX66" s="41" t="s">
+      <c r="AU66" s="34"/>
+      <c r="AV66" s="34"/>
+      <c r="AW66" s="34"/>
+      <c r="AX66" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="43"/>
-      <c r="AZ66" s="43"/>
-      <c r="BA66" s="43"/>
-      <c r="BB66" s="41" t="s">
+      <c r="AY66" s="34"/>
+      <c r="AZ66" s="34"/>
+      <c r="BA66" s="34"/>
+      <c r="BB66" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="43"/>
-      <c r="BD66" s="43"/>
-      <c r="BE66" s="43"/>
-      <c r="BF66" s="41" t="s">
+      <c r="BC66" s="34"/>
+      <c r="BD66" s="34"/>
+      <c r="BE66" s="34"/>
+      <c r="BF66" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="43"/>
-      <c r="BH66" s="43"/>
-      <c r="BI66" s="43"/>
-      <c r="BJ66" s="41" t="s">
+      <c r="BG66" s="34"/>
+      <c r="BH66" s="34"/>
+      <c r="BI66" s="34"/>
+      <c r="BJ66" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="43"/>
-      <c r="BL66" s="43"/>
-      <c r="BM66" s="43"/>
-      <c r="BN66" s="41" t="s">
+      <c r="BK66" s="34"/>
+      <c r="BL66" s="34"/>
+      <c r="BM66" s="34"/>
+      <c r="BN66" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="43"/>
-      <c r="BP66" s="43"/>
-      <c r="BQ66" s="43"/>
-      <c r="BR66" s="41" t="s">
+      <c r="BO66" s="34"/>
+      <c r="BP66" s="34"/>
+      <c r="BQ66" s="34"/>
+      <c r="BR66" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="BS66" s="43"/>
-      <c r="BT66" s="43"/>
-      <c r="BU66" s="43"/>
-      <c r="BV66" s="41" t="s">
+      <c r="BS66" s="34"/>
+      <c r="BT66" s="34"/>
+      <c r="BU66" s="34"/>
+      <c r="BV66" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="BW66" s="43"/>
-      <c r="BX66" s="43"/>
-      <c r="BY66" s="43"/>
-      <c r="BZ66" s="41" t="s">
+      <c r="BW66" s="34"/>
+      <c r="BX66" s="34"/>
+      <c r="BY66" s="34"/>
+      <c r="BZ66" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="CA66" s="43"/>
-      <c r="CB66" s="43"/>
-      <c r="CC66" s="43"/>
-      <c r="CD66" s="41" t="s">
+      <c r="CA66" s="34"/>
+      <c r="CB66" s="34"/>
+      <c r="CC66" s="34"/>
+      <c r="CD66" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="41"/>
-      <c r="CF66" s="41"/>
-      <c r="CG66" s="41"/>
-      <c r="CH66" s="41" t="s">
+      <c r="CE66" s="32"/>
+      <c r="CF66" s="32"/>
+      <c r="CG66" s="32"/>
+      <c r="CH66" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="CI66" s="41"/>
-      <c r="CJ66" s="41"/>
-      <c r="CK66" s="41"/>
-      <c r="CL66" s="43" t="s">
+      <c r="CI66" s="32"/>
+      <c r="CJ66" s="32"/>
+      <c r="CK66" s="32"/>
+      <c r="CL66" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="CM66" s="43"/>
-      <c r="CN66" s="43"/>
-      <c r="CO66" s="36"/>
-      <c r="CP66" s="26"/>
-      <c r="CQ66" s="26"/>
-      <c r="CR66" s="26"/>
+      <c r="CM66" s="31"/>
+      <c r="CN66" s="31"/>
+      <c r="CO66" s="31"/>
+      <c r="CP66" s="30"/>
+      <c r="CQ66" s="30"/>
+      <c r="CR66" s="30"/>
+      <c r="CS66" s="30"/>
     </row>
     <row r="67" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
@@ -30953,29 +30735,25 @@
       <c r="CK67" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL67" s="37" t="s">
+      <c r="CL67" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM67" s="37" t="s">
+      <c r="CM67" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN67" s="37" t="s">
+      <c r="CN67" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO67" s="37"/>
-      <c r="CP67" s="37"/>
-      <c r="CQ67" s="37"/>
-      <c r="CR67" s="37"/>
+      <c r="CO67" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP67" s="6"/>
+      <c r="CQ67" s="6"/>
+      <c r="CR67" s="6"/>
+      <c r="CS67" s="6"/>
     </row>
     <row r="68" spans="1:151" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
-      <c r="CL68" s="27"/>
-      <c r="CM68" s="27"/>
-      <c r="CN68" s="27"/>
-      <c r="CO68" s="27"/>
-      <c r="CP68" s="27"/>
-      <c r="CQ68" s="27"/>
-      <c r="CR68" s="27"/>
     </row>
     <row r="69" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
@@ -31245,20 +31023,22 @@
       <c r="CK69" s="18">
         <v>9.6261061637063392</v>
       </c>
-      <c r="CL69" s="38">
+      <c r="CL69" s="18">
         <v>-6.3481995454881144</v>
       </c>
-      <c r="CM69" s="38">
+      <c r="CM69" s="18">
         <v>-3.0773870837963386</v>
       </c>
-      <c r="CN69" s="38">
-        <v>2.354641019123676</v>
-      </c>
-      <c r="CO69" s="38"/>
-      <c r="CP69" s="38"/>
-      <c r="CQ69" s="38"/>
-      <c r="CR69" s="38"/>
-      <c r="CS69" s="10"/>
+      <c r="CN69" s="18">
+        <v>3.5297698244994251</v>
+      </c>
+      <c r="CO69" s="18">
+        <v>2.8031195365604731</v>
+      </c>
+      <c r="CP69" s="18"/>
+      <c r="CQ69" s="18"/>
+      <c r="CR69" s="18"/>
+      <c r="CS69" s="18"/>
       <c r="CT69" s="10"/>
       <c r="CU69" s="10"/>
       <c r="CV69" s="10"/>
@@ -31582,20 +31362,22 @@
       <c r="CK70" s="18">
         <v>5.9002495270248971</v>
       </c>
-      <c r="CL70" s="38">
+      <c r="CL70" s="18">
         <v>5.7393237897841942</v>
       </c>
-      <c r="CM70" s="38">
+      <c r="CM70" s="18">
         <v>4.3943506387271469</v>
       </c>
-      <c r="CN70" s="38">
-        <v>4.5578559698138861</v>
-      </c>
-      <c r="CO70" s="38"/>
-      <c r="CP70" s="38"/>
-      <c r="CQ70" s="38"/>
-      <c r="CR70" s="38"/>
-      <c r="CS70" s="10"/>
+      <c r="CN70" s="18">
+        <v>4.2465782619104147</v>
+      </c>
+      <c r="CO70" s="18">
+        <v>3.6527846901144585</v>
+      </c>
+      <c r="CP70" s="18"/>
+      <c r="CQ70" s="18"/>
+      <c r="CR70" s="18"/>
+      <c r="CS70" s="18"/>
       <c r="CT70" s="10"/>
       <c r="CU70" s="10"/>
       <c r="CV70" s="10"/>
@@ -31740,14 +31522,14 @@
       <c r="CI71" s="19"/>
       <c r="CJ71" s="19"/>
       <c r="CK71" s="19"/>
-      <c r="CL71" s="39"/>
-      <c r="CM71" s="39"/>
-      <c r="CN71" s="39"/>
-      <c r="CO71" s="39"/>
-      <c r="CP71" s="39"/>
-      <c r="CQ71" s="39"/>
-      <c r="CR71" s="39"/>
-      <c r="CS71" s="10"/>
+      <c r="CL71" s="19"/>
+      <c r="CM71" s="19"/>
+      <c r="CN71" s="19"/>
+      <c r="CO71" s="19"/>
+      <c r="CP71" s="19"/>
+      <c r="CQ71" s="19"/>
+      <c r="CR71" s="19"/>
+      <c r="CS71" s="19"/>
       <c r="CT71" s="10"/>
       <c r="CU71" s="10"/>
       <c r="CV71" s="10"/>
@@ -32071,20 +31853,22 @@
       <c r="CK72" s="18">
         <v>6.1592723350562011</v>
       </c>
-      <c r="CL72" s="38">
+      <c r="CL72" s="18">
         <v>4.7463954178805778</v>
       </c>
-      <c r="CM72" s="38">
+      <c r="CM72" s="18">
         <v>3.7089074131759787</v>
       </c>
-      <c r="CN72" s="38">
-        <v>4.3982480518377685</v>
-      </c>
-      <c r="CO72" s="38"/>
-      <c r="CP72" s="38"/>
-      <c r="CQ72" s="38"/>
-      <c r="CR72" s="38"/>
-      <c r="CS72" s="10"/>
+      <c r="CN72" s="18">
+        <v>4.1946503725108784</v>
+      </c>
+      <c r="CO72" s="18">
+        <v>3.5917866712428008</v>
+      </c>
+      <c r="CP72" s="18"/>
+      <c r="CQ72" s="18"/>
+      <c r="CR72" s="18"/>
+      <c r="CS72" s="18"/>
       <c r="CT72" s="10"/>
       <c r="CU72" s="10"/>
       <c r="CV72" s="10"/>
@@ -32230,25 +32014,19 @@
       <c r="CI73" s="16"/>
       <c r="CJ73" s="16"/>
       <c r="CK73" s="16"/>
-      <c r="CL73" s="34"/>
-      <c r="CM73" s="34"/>
-      <c r="CN73" s="34"/>
-      <c r="CO73" s="34"/>
-      <c r="CP73" s="34"/>
-      <c r="CQ73" s="34"/>
-      <c r="CR73" s="34"/>
+      <c r="CL73" s="16"/>
+      <c r="CM73" s="16"/>
+      <c r="CN73" s="16"/>
+      <c r="CO73" s="16"/>
+      <c r="CP73" s="16"/>
+      <c r="CQ73" s="16"/>
+      <c r="CR73" s="16"/>
+      <c r="CS73" s="16"/>
     </row>
     <row r="74" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="CL74" s="27"/>
-      <c r="CM74" s="27"/>
-      <c r="CN74" s="27"/>
-      <c r="CO74" s="27"/>
-      <c r="CP74" s="27"/>
-      <c r="CQ74" s="27"/>
-      <c r="CR74" s="27"/>
     </row>
     <row r="75" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="10"/>
@@ -32339,13 +32117,13 @@
       <c r="CI75" s="10"/>
       <c r="CJ75" s="10"/>
       <c r="CK75" s="10"/>
-      <c r="CL75" s="35"/>
-      <c r="CM75" s="35"/>
-      <c r="CN75" s="35"/>
-      <c r="CO75" s="35"/>
-      <c r="CP75" s="35"/>
-      <c r="CQ75" s="35"/>
-      <c r="CR75" s="35"/>
+      <c r="CL75" s="10"/>
+      <c r="CM75" s="10"/>
+      <c r="CN75" s="10"/>
+      <c r="CO75" s="10"/>
+      <c r="CP75" s="10"/>
+      <c r="CQ75" s="10"/>
+      <c r="CR75" s="10"/>
       <c r="CS75" s="10"/>
       <c r="CT75" s="10"/>
       <c r="CU75" s="10"/>
@@ -32491,13 +32269,13 @@
       <c r="CI76" s="10"/>
       <c r="CJ76" s="10"/>
       <c r="CK76" s="10"/>
-      <c r="CL76" s="35"/>
-      <c r="CM76" s="35"/>
-      <c r="CN76" s="35"/>
-      <c r="CO76" s="35"/>
-      <c r="CP76" s="35"/>
-      <c r="CQ76" s="35"/>
-      <c r="CR76" s="35"/>
+      <c r="CL76" s="10"/>
+      <c r="CM76" s="10"/>
+      <c r="CN76" s="10"/>
+      <c r="CO76" s="10"/>
+      <c r="CP76" s="10"/>
+      <c r="CQ76" s="10"/>
+      <c r="CR76" s="10"/>
       <c r="CS76" s="10"/>
       <c r="CT76" s="10"/>
       <c r="CU76" s="10"/>
@@ -32558,225 +32336,175 @@
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CL77" s="27"/>
-      <c r="CM77" s="27"/>
-      <c r="CN77" s="27"/>
-      <c r="CO77" s="27"/>
-      <c r="CP77" s="27"/>
-      <c r="CQ77" s="27"/>
-      <c r="CR77" s="27"/>
     </row>
     <row r="78" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="CL78" s="27"/>
-      <c r="CM78" s="27"/>
-      <c r="CN78" s="27"/>
-      <c r="CO78" s="27"/>
-      <c r="CP78" s="27"/>
-      <c r="CQ78" s="27"/>
-      <c r="CR78" s="27"/>
+        <v>51</v>
+      </c>
     </row>
-    <row r="79" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL79" s="27"/>
-      <c r="CM79" s="27"/>
-      <c r="CN79" s="27"/>
-      <c r="CO79" s="27"/>
-      <c r="CP79" s="27"/>
-      <c r="CQ79" s="27"/>
-      <c r="CR79" s="27"/>
-    </row>
+    <row r="79" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="80" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="CL80" s="27"/>
-      <c r="CM80" s="27"/>
-      <c r="CN80" s="27"/>
-      <c r="CO80" s="27"/>
-      <c r="CP80" s="27"/>
-      <c r="CQ80" s="27"/>
-      <c r="CR80" s="27"/>
     </row>
     <row r="81" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="CL81" s="27"/>
-      <c r="CM81" s="27"/>
-      <c r="CN81" s="27"/>
-      <c r="CO81" s="27"/>
-      <c r="CP81" s="27"/>
-      <c r="CQ81" s="27"/>
-      <c r="CR81" s="27"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="82" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="CL82" s="27"/>
-      <c r="CM82" s="27"/>
-      <c r="CN82" s="27"/>
-      <c r="CO82" s="27"/>
-      <c r="CP82" s="27"/>
-      <c r="CQ82" s="27"/>
-      <c r="CR82" s="27"/>
     </row>
-    <row r="83" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL83" s="27"/>
-      <c r="CM83" s="27"/>
-      <c r="CN83" s="27"/>
-      <c r="CO83" s="27"/>
-      <c r="CP83" s="27"/>
-      <c r="CQ83" s="27"/>
-      <c r="CR83" s="27"/>
-    </row>
+    <row r="83" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="84" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
-      <c r="B84" s="41">
+      <c r="B84" s="32">
         <v>2000</v>
       </c>
-      <c r="C84" s="42"/>
-      <c r="D84" s="42"/>
-      <c r="E84" s="42"/>
-      <c r="F84" s="41">
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="32">
         <v>2001</v>
       </c>
-      <c r="G84" s="42"/>
-      <c r="H84" s="42"/>
-      <c r="I84" s="42"/>
-      <c r="J84" s="41">
+      <c r="G84" s="33"/>
+      <c r="H84" s="33"/>
+      <c r="I84" s="33"/>
+      <c r="J84" s="32">
         <v>2002</v>
       </c>
-      <c r="K84" s="42"/>
-      <c r="L84" s="42"/>
-      <c r="M84" s="42"/>
-      <c r="N84" s="41">
+      <c r="K84" s="33"/>
+      <c r="L84" s="33"/>
+      <c r="M84" s="33"/>
+      <c r="N84" s="32">
         <v>2003</v>
       </c>
-      <c r="O84" s="42"/>
-      <c r="P84" s="42"/>
-      <c r="Q84" s="42"/>
-      <c r="R84" s="41">
+      <c r="O84" s="33"/>
+      <c r="P84" s="33"/>
+      <c r="Q84" s="33"/>
+      <c r="R84" s="32">
         <v>2004</v>
       </c>
-      <c r="S84" s="42"/>
-      <c r="T84" s="42"/>
-      <c r="U84" s="42"/>
-      <c r="V84" s="41">
+      <c r="S84" s="33"/>
+      <c r="T84" s="33"/>
+      <c r="U84" s="33"/>
+      <c r="V84" s="32">
         <v>2005</v>
       </c>
-      <c r="W84" s="42"/>
-      <c r="X84" s="42"/>
-      <c r="Y84" s="42"/>
-      <c r="Z84" s="41">
+      <c r="W84" s="33"/>
+      <c r="X84" s="33"/>
+      <c r="Y84" s="33"/>
+      <c r="Z84" s="32">
         <v>2006</v>
       </c>
-      <c r="AA84" s="42"/>
-      <c r="AB84" s="42"/>
-      <c r="AC84" s="42"/>
-      <c r="AD84" s="41">
+      <c r="AA84" s="33"/>
+      <c r="AB84" s="33"/>
+      <c r="AC84" s="33"/>
+      <c r="AD84" s="32">
         <v>2007</v>
       </c>
-      <c r="AE84" s="42"/>
-      <c r="AF84" s="42"/>
-      <c r="AG84" s="42"/>
-      <c r="AH84" s="41">
+      <c r="AE84" s="33"/>
+      <c r="AF84" s="33"/>
+      <c r="AG84" s="33"/>
+      <c r="AH84" s="32">
         <v>2008</v>
       </c>
-      <c r="AI84" s="42"/>
-      <c r="AJ84" s="42"/>
-      <c r="AK84" s="42"/>
-      <c r="AL84" s="41">
+      <c r="AI84" s="33"/>
+      <c r="AJ84" s="33"/>
+      <c r="AK84" s="33"/>
+      <c r="AL84" s="32">
         <v>2009</v>
       </c>
-      <c r="AM84" s="42"/>
-      <c r="AN84" s="42"/>
-      <c r="AO84" s="42"/>
-      <c r="AP84" s="41">
+      <c r="AM84" s="33"/>
+      <c r="AN84" s="33"/>
+      <c r="AO84" s="33"/>
+      <c r="AP84" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="42"/>
-      <c r="AR84" s="42"/>
-      <c r="AS84" s="42"/>
-      <c r="AT84" s="41">
+      <c r="AQ84" s="33"/>
+      <c r="AR84" s="33"/>
+      <c r="AS84" s="33"/>
+      <c r="AT84" s="32">
         <v>2011</v>
       </c>
-      <c r="AU84" s="42"/>
-      <c r="AV84" s="42"/>
-      <c r="AW84" s="42"/>
-      <c r="AX84" s="41">
+      <c r="AU84" s="33"/>
+      <c r="AV84" s="33"/>
+      <c r="AW84" s="33"/>
+      <c r="AX84" s="32">
         <v>2012</v>
       </c>
-      <c r="AY84" s="42"/>
-      <c r="AZ84" s="42"/>
-      <c r="BA84" s="42"/>
-      <c r="BB84" s="41">
+      <c r="AY84" s="33"/>
+      <c r="AZ84" s="33"/>
+      <c r="BA84" s="33"/>
+      <c r="BB84" s="32">
         <v>2013</v>
       </c>
-      <c r="BC84" s="42"/>
-      <c r="BD84" s="42"/>
-      <c r="BE84" s="42"/>
-      <c r="BF84" s="41">
+      <c r="BC84" s="33"/>
+      <c r="BD84" s="33"/>
+      <c r="BE84" s="33"/>
+      <c r="BF84" s="32">
         <v>2014</v>
       </c>
-      <c r="BG84" s="42"/>
-      <c r="BH84" s="42"/>
-      <c r="BI84" s="42"/>
-      <c r="BJ84" s="41">
+      <c r="BG84" s="33"/>
+      <c r="BH84" s="33"/>
+      <c r="BI84" s="33"/>
+      <c r="BJ84" s="32">
         <v>2015</v>
       </c>
-      <c r="BK84" s="42"/>
-      <c r="BL84" s="42"/>
-      <c r="BM84" s="42"/>
-      <c r="BN84" s="41">
+      <c r="BK84" s="33"/>
+      <c r="BL84" s="33"/>
+      <c r="BM84" s="33"/>
+      <c r="BN84" s="32">
         <v>2016</v>
       </c>
-      <c r="BO84" s="42"/>
-      <c r="BP84" s="42"/>
-      <c r="BQ84" s="42"/>
-      <c r="BR84" s="41">
+      <c r="BO84" s="33"/>
+      <c r="BP84" s="33"/>
+      <c r="BQ84" s="33"/>
+      <c r="BR84" s="32">
         <v>2017</v>
       </c>
-      <c r="BS84" s="42"/>
-      <c r="BT84" s="42"/>
-      <c r="BU84" s="42"/>
-      <c r="BV84" s="41">
+      <c r="BS84" s="33"/>
+      <c r="BT84" s="33"/>
+      <c r="BU84" s="33"/>
+      <c r="BV84" s="32">
         <v>2018</v>
       </c>
-      <c r="BW84" s="42"/>
-      <c r="BX84" s="42"/>
-      <c r="BY84" s="42"/>
-      <c r="BZ84" s="41">
+      <c r="BW84" s="33"/>
+      <c r="BX84" s="33"/>
+      <c r="BY84" s="33"/>
+      <c r="BZ84" s="32">
         <v>2019</v>
       </c>
-      <c r="CA84" s="42"/>
-      <c r="CB84" s="42"/>
-      <c r="CC84" s="42"/>
-      <c r="CD84" s="41">
+      <c r="CA84" s="33"/>
+      <c r="CB84" s="33"/>
+      <c r="CC84" s="33"/>
+      <c r="CD84" s="32">
         <v>2020</v>
       </c>
-      <c r="CE84" s="41"/>
-      <c r="CF84" s="41"/>
-      <c r="CG84" s="41"/>
-      <c r="CH84" s="41">
+      <c r="CE84" s="32"/>
+      <c r="CF84" s="32"/>
+      <c r="CG84" s="32"/>
+      <c r="CH84" s="32">
         <v>2021</v>
       </c>
-      <c r="CI84" s="41"/>
-      <c r="CJ84" s="41"/>
-      <c r="CK84" s="41"/>
-      <c r="CL84" s="43">
+      <c r="CI84" s="32"/>
+      <c r="CJ84" s="32"/>
+      <c r="CK84" s="32"/>
+      <c r="CL84" s="31">
         <v>2022</v>
       </c>
-      <c r="CM84" s="43"/>
-      <c r="CN84" s="43"/>
-      <c r="CO84" s="43"/>
-      <c r="CP84" s="43">
+      <c r="CM84" s="31"/>
+      <c r="CN84" s="31"/>
+      <c r="CO84" s="31"/>
+      <c r="CP84" s="31">
         <v>2023</v>
       </c>
-      <c r="CQ84" s="43"/>
-      <c r="CR84" s="43"/>
+      <c r="CQ84" s="31"/>
+      <c r="CR84" s="31"/>
+      <c r="CS84" s="31"/>
     </row>
     <row r="85" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
@@ -33046,37 +32774,33 @@
       <c r="CK85" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL85" s="29" t="s">
+      <c r="CL85" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CM85" s="29" t="s">
+      <c r="CM85" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CN85" s="29" t="s">
+      <c r="CN85" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CO85" s="29" t="s">
+      <c r="CO85" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP85" s="29" t="s">
+      <c r="CP85" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ85" s="29" t="s">
+      <c r="CQ85" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR85" s="29" t="s">
+      <c r="CR85" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="CS85" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
-      <c r="CL86" s="27"/>
-      <c r="CM86" s="27"/>
-      <c r="CN86" s="27"/>
-      <c r="CO86" s="27"/>
-      <c r="CP86" s="27"/>
-      <c r="CQ86" s="27"/>
-      <c r="CR86" s="27"/>
     </row>
     <row r="87" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
@@ -33346,28 +33070,30 @@
       <c r="CK87" s="18">
         <v>106.73571152128416</v>
       </c>
-      <c r="CL87" s="38">
+      <c r="CL87" s="18">
         <v>105.20863761172934</v>
       </c>
-      <c r="CM87" s="38">
+      <c r="CM87" s="18">
         <v>96.43958531534436</v>
       </c>
-      <c r="CN87" s="38">
+      <c r="CN87" s="18">
         <v>108.76423922419565</v>
       </c>
-      <c r="CO87" s="38">
+      <c r="CO87" s="18">
         <v>110.40777372760948</v>
       </c>
-      <c r="CP87" s="38">
+      <c r="CP87" s="18">
         <v>110.5271649335433</v>
       </c>
-      <c r="CQ87" s="38">
+      <c r="CQ87" s="18">
         <v>100.51540785875383</v>
       </c>
-      <c r="CR87" s="38">
-        <v>114.54705071365983</v>
-      </c>
-      <c r="CS87" s="10"/>
+      <c r="CR87" s="18">
+        <v>114.51469432188847</v>
+      </c>
+      <c r="CS87" s="18">
+        <v>117.89628981364422</v>
+      </c>
       <c r="CT87" s="10"/>
       <c r="CU87" s="10"/>
       <c r="CV87" s="10"/>
@@ -33695,28 +33421,30 @@
       <c r="CK88" s="18">
         <v>100.21692077855273</v>
       </c>
-      <c r="CL88" s="38">
+      <c r="CL88" s="18">
         <v>98.921347845037118</v>
       </c>
-      <c r="CM88" s="38">
+      <c r="CM88" s="18">
         <v>98.400154783103957</v>
       </c>
-      <c r="CN88" s="38">
+      <c r="CN88" s="18">
         <v>104.68735577888397</v>
       </c>
-      <c r="CO88" s="38">
+      <c r="CO88" s="18">
         <v>100.81034575922976</v>
       </c>
-      <c r="CP88" s="38">
+      <c r="CP88" s="18">
         <v>99.633012218023026</v>
       </c>
-      <c r="CQ88" s="38">
+      <c r="CQ88" s="18">
         <v>99.075449962988031</v>
       </c>
-      <c r="CR88" s="38">
+      <c r="CR88" s="18">
         <v>105.37113994465068</v>
       </c>
-      <c r="CS88" s="10"/>
+      <c r="CS88" s="18">
+        <v>101.43405027548683</v>
+      </c>
       <c r="CT88" s="10"/>
       <c r="CU88" s="10"/>
       <c r="CV88" s="10"/>
@@ -33865,14 +33593,14 @@
       <c r="CI89" s="19"/>
       <c r="CJ89" s="19"/>
       <c r="CK89" s="19"/>
-      <c r="CL89" s="39"/>
-      <c r="CM89" s="39"/>
-      <c r="CN89" s="39"/>
-      <c r="CO89" s="39"/>
-      <c r="CP89" s="39"/>
-      <c r="CQ89" s="39"/>
-      <c r="CR89" s="39"/>
-      <c r="CS89" s="10"/>
+      <c r="CL89" s="19"/>
+      <c r="CM89" s="19"/>
+      <c r="CN89" s="19"/>
+      <c r="CO89" s="19"/>
+      <c r="CP89" s="19"/>
+      <c r="CQ89" s="19"/>
+      <c r="CR89" s="19"/>
+      <c r="CS89" s="19"/>
       <c r="CT89" s="10"/>
       <c r="CU89" s="10"/>
       <c r="CV89" s="10"/>
@@ -34200,28 +33928,30 @@
       <c r="CK90" s="18">
         <v>100.67010930613243</v>
       </c>
-      <c r="CL90" s="38">
+      <c r="CL90" s="18">
         <v>99.43781662185522</v>
       </c>
-      <c r="CM90" s="38">
+      <c r="CM90" s="18">
         <v>98.220295811897401</v>
       </c>
-      <c r="CN90" s="38">
+      <c r="CN90" s="18">
         <v>104.98269821850097</v>
       </c>
-      <c r="CO90" s="38">
+      <c r="CO90" s="18">
         <v>101.49935141032182</v>
       </c>
-      <c r="CP90" s="38">
+      <c r="CP90" s="18">
         <v>100.43312479694715</v>
       </c>
-      <c r="CQ90" s="38">
+      <c r="CQ90" s="18">
         <v>99.198904972761653</v>
       </c>
-      <c r="CR90" s="38">
-        <v>106.02285998071099</v>
-      </c>
-      <c r="CS90" s="10"/>
+      <c r="CR90" s="18">
+        <v>106.02930139480218</v>
+      </c>
+      <c r="CS90" s="18">
+        <v>102.60688768292179</v>
+      </c>
       <c r="CT90" s="10"/>
       <c r="CU90" s="10"/>
       <c r="CV90" s="10"/>
@@ -34371,261 +34101,198 @@
       <c r="CI91" s="16"/>
       <c r="CJ91" s="16"/>
       <c r="CK91" s="16"/>
-      <c r="CL91" s="34"/>
-      <c r="CM91" s="34"/>
-      <c r="CN91" s="34"/>
-      <c r="CO91" s="34"/>
-      <c r="CP91" s="34"/>
-      <c r="CQ91" s="34"/>
-      <c r="CR91" s="34"/>
+      <c r="CL91" s="16"/>
+      <c r="CM91" s="16"/>
+      <c r="CN91" s="16"/>
+      <c r="CO91" s="16"/>
+      <c r="CP91" s="16"/>
+      <c r="CQ91" s="16"/>
+      <c r="CR91" s="16"/>
+      <c r="CS91" s="16"/>
     </row>
     <row r="92" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="CL92" s="27"/>
-      <c r="CM92" s="27"/>
-      <c r="CN92" s="27"/>
-      <c r="CO92" s="27"/>
-      <c r="CP92" s="27"/>
-      <c r="CQ92" s="27"/>
-      <c r="CR92" s="27"/>
     </row>
     <row r="95" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CL95" s="27"/>
-      <c r="CM95" s="27"/>
-      <c r="CN95" s="27"/>
-      <c r="CO95" s="27"/>
-      <c r="CP95" s="27"/>
-      <c r="CQ95" s="27"/>
-      <c r="CR95" s="27"/>
     </row>
     <row r="96" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="CL96" s="27"/>
-      <c r="CM96" s="27"/>
-      <c r="CN96" s="27"/>
-      <c r="CO96" s="27"/>
-      <c r="CP96" s="27"/>
-      <c r="CQ96" s="27"/>
-      <c r="CR96" s="27"/>
     </row>
     <row r="97" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="CL97" s="27"/>
-      <c r="CM97" s="27"/>
-      <c r="CN97" s="27"/>
-      <c r="CO97" s="27"/>
-      <c r="CP97" s="27"/>
-      <c r="CQ97" s="27"/>
-      <c r="CR97" s="27"/>
+        <v>51</v>
+      </c>
     </row>
-    <row r="98" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL98" s="27"/>
-      <c r="CM98" s="27"/>
-      <c r="CN98" s="27"/>
-      <c r="CO98" s="27"/>
-      <c r="CP98" s="27"/>
-      <c r="CQ98" s="27"/>
-      <c r="CR98" s="27"/>
-    </row>
+    <row r="98" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="99" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="CL99" s="27"/>
-      <c r="CM99" s="27"/>
-      <c r="CN99" s="27"/>
-      <c r="CO99" s="27"/>
-      <c r="CP99" s="27"/>
-      <c r="CQ99" s="27"/>
-      <c r="CR99" s="27"/>
     </row>
     <row r="100" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="CL100" s="27"/>
-      <c r="CM100" s="27"/>
-      <c r="CN100" s="27"/>
-      <c r="CO100" s="27"/>
-      <c r="CP100" s="27"/>
-      <c r="CQ100" s="27"/>
-      <c r="CR100" s="27"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="101" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="CL101" s="27"/>
-      <c r="CM101" s="27"/>
-      <c r="CN101" s="27"/>
-      <c r="CO101" s="27"/>
-      <c r="CP101" s="27"/>
-      <c r="CQ101" s="27"/>
-      <c r="CR101" s="27"/>
     </row>
-    <row r="102" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL102" s="27"/>
-      <c r="CM102" s="27"/>
-      <c r="CN102" s="27"/>
-      <c r="CO102" s="27"/>
-      <c r="CP102" s="27"/>
-      <c r="CQ102" s="27"/>
-      <c r="CR102" s="27"/>
-    </row>
+    <row r="102" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="103" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
-      <c r="B103" s="41">
+      <c r="B103" s="32">
         <v>2000</v>
       </c>
-      <c r="C103" s="42"/>
-      <c r="D103" s="42"/>
-      <c r="E103" s="42"/>
-      <c r="F103" s="41">
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="33"/>
+      <c r="F103" s="32">
         <v>2001</v>
       </c>
-      <c r="G103" s="42"/>
-      <c r="H103" s="42"/>
-      <c r="I103" s="42"/>
-      <c r="J103" s="41">
+      <c r="G103" s="33"/>
+      <c r="H103" s="33"/>
+      <c r="I103" s="33"/>
+      <c r="J103" s="32">
         <v>2002</v>
       </c>
-      <c r="K103" s="42"/>
-      <c r="L103" s="42"/>
-      <c r="M103" s="42"/>
-      <c r="N103" s="41">
+      <c r="K103" s="33"/>
+      <c r="L103" s="33"/>
+      <c r="M103" s="33"/>
+      <c r="N103" s="32">
         <v>2003</v>
       </c>
-      <c r="O103" s="42"/>
-      <c r="P103" s="42"/>
-      <c r="Q103" s="42"/>
-      <c r="R103" s="41">
+      <c r="O103" s="33"/>
+      <c r="P103" s="33"/>
+      <c r="Q103" s="33"/>
+      <c r="R103" s="32">
         <v>2004</v>
       </c>
-      <c r="S103" s="42"/>
-      <c r="T103" s="42"/>
-      <c r="U103" s="42"/>
-      <c r="V103" s="41">
+      <c r="S103" s="33"/>
+      <c r="T103" s="33"/>
+      <c r="U103" s="33"/>
+      <c r="V103" s="32">
         <v>2005</v>
       </c>
-      <c r="W103" s="42"/>
-      <c r="X103" s="42"/>
-      <c r="Y103" s="42"/>
-      <c r="Z103" s="41">
+      <c r="W103" s="33"/>
+      <c r="X103" s="33"/>
+      <c r="Y103" s="33"/>
+      <c r="Z103" s="32">
         <v>2006</v>
       </c>
-      <c r="AA103" s="42"/>
-      <c r="AB103" s="42"/>
-      <c r="AC103" s="42"/>
-      <c r="AD103" s="41">
+      <c r="AA103" s="33"/>
+      <c r="AB103" s="33"/>
+      <c r="AC103" s="33"/>
+      <c r="AD103" s="32">
         <v>2007</v>
       </c>
-      <c r="AE103" s="42"/>
-      <c r="AF103" s="42"/>
-      <c r="AG103" s="42"/>
-      <c r="AH103" s="41">
+      <c r="AE103" s="33"/>
+      <c r="AF103" s="33"/>
+      <c r="AG103" s="33"/>
+      <c r="AH103" s="32">
         <v>2008</v>
       </c>
-      <c r="AI103" s="42"/>
-      <c r="AJ103" s="42"/>
-      <c r="AK103" s="42"/>
-      <c r="AL103" s="41">
+      <c r="AI103" s="33"/>
+      <c r="AJ103" s="33"/>
+      <c r="AK103" s="33"/>
+      <c r="AL103" s="32">
         <v>2009</v>
       </c>
-      <c r="AM103" s="42"/>
-      <c r="AN103" s="42"/>
-      <c r="AO103" s="42"/>
-      <c r="AP103" s="41">
+      <c r="AM103" s="33"/>
+      <c r="AN103" s="33"/>
+      <c r="AO103" s="33"/>
+      <c r="AP103" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="42"/>
-      <c r="AR103" s="42"/>
-      <c r="AS103" s="42"/>
-      <c r="AT103" s="41">
+      <c r="AQ103" s="33"/>
+      <c r="AR103" s="33"/>
+      <c r="AS103" s="33"/>
+      <c r="AT103" s="32">
         <v>2011</v>
       </c>
-      <c r="AU103" s="42"/>
-      <c r="AV103" s="42"/>
-      <c r="AW103" s="42"/>
-      <c r="AX103" s="41">
+      <c r="AU103" s="33"/>
+      <c r="AV103" s="33"/>
+      <c r="AW103" s="33"/>
+      <c r="AX103" s="32">
         <v>2012</v>
       </c>
-      <c r="AY103" s="42"/>
-      <c r="AZ103" s="42"/>
-      <c r="BA103" s="42"/>
-      <c r="BB103" s="41">
+      <c r="AY103" s="33"/>
+      <c r="AZ103" s="33"/>
+      <c r="BA103" s="33"/>
+      <c r="BB103" s="32">
         <v>2013</v>
       </c>
-      <c r="BC103" s="42"/>
-      <c r="BD103" s="42"/>
-      <c r="BE103" s="42"/>
-      <c r="BF103" s="41">
+      <c r="BC103" s="33"/>
+      <c r="BD103" s="33"/>
+      <c r="BE103" s="33"/>
+      <c r="BF103" s="32">
         <v>2014</v>
       </c>
-      <c r="BG103" s="42"/>
-      <c r="BH103" s="42"/>
-      <c r="BI103" s="42"/>
-      <c r="BJ103" s="41">
+      <c r="BG103" s="33"/>
+      <c r="BH103" s="33"/>
+      <c r="BI103" s="33"/>
+      <c r="BJ103" s="32">
         <v>2015</v>
       </c>
-      <c r="BK103" s="42"/>
-      <c r="BL103" s="42"/>
-      <c r="BM103" s="42"/>
-      <c r="BN103" s="41">
+      <c r="BK103" s="33"/>
+      <c r="BL103" s="33"/>
+      <c r="BM103" s="33"/>
+      <c r="BN103" s="32">
         <v>2016</v>
       </c>
-      <c r="BO103" s="42"/>
-      <c r="BP103" s="42"/>
-      <c r="BQ103" s="42"/>
-      <c r="BR103" s="41">
+      <c r="BO103" s="33"/>
+      <c r="BP103" s="33"/>
+      <c r="BQ103" s="33"/>
+      <c r="BR103" s="32">
         <v>2017</v>
       </c>
-      <c r="BS103" s="42"/>
-      <c r="BT103" s="42"/>
-      <c r="BU103" s="42"/>
-      <c r="BV103" s="41">
+      <c r="BS103" s="33"/>
+      <c r="BT103" s="33"/>
+      <c r="BU103" s="33"/>
+      <c r="BV103" s="32">
         <v>2018</v>
       </c>
-      <c r="BW103" s="42"/>
-      <c r="BX103" s="42"/>
-      <c r="BY103" s="42"/>
-      <c r="BZ103" s="41">
+      <c r="BW103" s="33"/>
+      <c r="BX103" s="33"/>
+      <c r="BY103" s="33"/>
+      <c r="BZ103" s="32">
         <v>2019</v>
       </c>
-      <c r="CA103" s="42"/>
-      <c r="CB103" s="42"/>
-      <c r="CC103" s="42"/>
-      <c r="CD103" s="41">
+      <c r="CA103" s="33"/>
+      <c r="CB103" s="33"/>
+      <c r="CC103" s="33"/>
+      <c r="CD103" s="32">
         <v>2020</v>
       </c>
-      <c r="CE103" s="41"/>
-      <c r="CF103" s="41"/>
-      <c r="CG103" s="41"/>
-      <c r="CH103" s="41">
+      <c r="CE103" s="32"/>
+      <c r="CF103" s="32"/>
+      <c r="CG103" s="32"/>
+      <c r="CH103" s="32">
         <v>2021</v>
       </c>
-      <c r="CI103" s="41"/>
-      <c r="CJ103" s="41"/>
-      <c r="CK103" s="41"/>
-      <c r="CL103" s="43">
+      <c r="CI103" s="32"/>
+      <c r="CJ103" s="32"/>
+      <c r="CK103" s="32"/>
+      <c r="CL103" s="31">
         <v>2022</v>
       </c>
-      <c r="CM103" s="43"/>
-      <c r="CN103" s="43"/>
-      <c r="CO103" s="43"/>
-      <c r="CP103" s="43">
+      <c r="CM103" s="31"/>
+      <c r="CN103" s="31"/>
+      <c r="CO103" s="31"/>
+      <c r="CP103" s="31">
         <v>2023</v>
       </c>
-      <c r="CQ103" s="43"/>
-      <c r="CR103" s="43"/>
+      <c r="CQ103" s="31"/>
+      <c r="CR103" s="31"/>
+      <c r="CS103" s="31"/>
     </row>
     <row r="104" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
@@ -34895,37 +34562,33 @@
       <c r="CK104" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL104" s="29" t="s">
+      <c r="CL104" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CM104" s="29" t="s">
+      <c r="CM104" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CN104" s="29" t="s">
+      <c r="CN104" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CO104" s="29" t="s">
+      <c r="CO104" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP104" s="29" t="s">
+      <c r="CP104" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ104" s="29" t="s">
+      <c r="CQ104" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR104" s="29" t="s">
+      <c r="CR104" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="CS104" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
-      <c r="CL105" s="27"/>
-      <c r="CM105" s="27"/>
-      <c r="CN105" s="27"/>
-      <c r="CO105" s="27"/>
-      <c r="CP105" s="27"/>
-      <c r="CQ105" s="27"/>
-      <c r="CR105" s="27"/>
     </row>
     <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
@@ -35195,28 +34858,30 @@
       <c r="CK106" s="18">
         <v>7.3709094570462348</v>
       </c>
-      <c r="CL106" s="38">
+      <c r="CL106" s="18">
         <v>8.6912133661991415</v>
       </c>
-      <c r="CM106" s="38">
+      <c r="CM106" s="18">
         <v>9.0074936866066544</v>
       </c>
-      <c r="CN106" s="38">
+      <c r="CN106" s="18">
         <v>7.5052637401018059</v>
       </c>
-      <c r="CO106" s="38">
+      <c r="CO106" s="18">
         <v>7.8091597715285381</v>
       </c>
-      <c r="CP106" s="38">
+      <c r="CP106" s="18">
         <v>8.082574090846613</v>
       </c>
-      <c r="CQ106" s="38">
+      <c r="CQ106" s="18">
         <v>8.6872973273223533</v>
       </c>
-      <c r="CR106" s="38">
-        <v>7.6735493019607137</v>
-      </c>
-      <c r="CS106" s="10"/>
+      <c r="CR106" s="18">
+        <v>7.7741462664833367</v>
+      </c>
+      <c r="CS106" s="18">
+        <v>8.1860146218509282</v>
+      </c>
       <c r="CT106" s="10"/>
       <c r="CU106" s="10"/>
       <c r="CV106" s="10"/>
@@ -35544,28 +35209,30 @@
       <c r="CK107" s="18">
         <v>92.629090542953762</v>
       </c>
-      <c r="CL107" s="38">
+      <c r="CL107" s="18">
         <v>91.30878663380085</v>
       </c>
-      <c r="CM107" s="38">
+      <c r="CM107" s="18">
         <v>90.992506313393349</v>
       </c>
-      <c r="CN107" s="38">
+      <c r="CN107" s="18">
         <v>92.49473625989819</v>
       </c>
-      <c r="CO107" s="38">
+      <c r="CO107" s="18">
         <v>92.190840228471444</v>
       </c>
-      <c r="CP107" s="38">
+      <c r="CP107" s="18">
         <v>91.91742590915338</v>
       </c>
-      <c r="CQ107" s="38">
+      <c r="CQ107" s="18">
         <v>91.312702672677645</v>
       </c>
-      <c r="CR107" s="38">
-        <v>92.326450698039281</v>
-      </c>
-      <c r="CS107" s="10"/>
+      <c r="CR107" s="18">
+        <v>92.225853733516658</v>
+      </c>
+      <c r="CS107" s="18">
+        <v>91.81398537814907</v>
+      </c>
       <c r="CT107" s="10"/>
       <c r="CU107" s="10"/>
       <c r="CV107" s="10"/>
@@ -35714,14 +35381,14 @@
       <c r="CI108" s="19"/>
       <c r="CJ108" s="19"/>
       <c r="CK108" s="19"/>
-      <c r="CL108" s="39"/>
-      <c r="CM108" s="39"/>
-      <c r="CN108" s="39"/>
-      <c r="CO108" s="39"/>
-      <c r="CP108" s="39"/>
-      <c r="CQ108" s="39"/>
-      <c r="CR108" s="39"/>
-      <c r="CS108" s="10"/>
+      <c r="CL108" s="19"/>
+      <c r="CM108" s="19"/>
+      <c r="CN108" s="19"/>
+      <c r="CO108" s="19"/>
+      <c r="CP108" s="19"/>
+      <c r="CQ108" s="19"/>
+      <c r="CR108" s="19"/>
+      <c r="CS108" s="19"/>
       <c r="CT108" s="10"/>
       <c r="CU108" s="10"/>
       <c r="CV108" s="10"/>
@@ -36049,28 +35716,30 @@
       <c r="CK109" s="18">
         <v>100</v>
       </c>
-      <c r="CL109" s="38">
+      <c r="CL109" s="18">
         <v>100</v>
       </c>
-      <c r="CM109" s="38">
+      <c r="CM109" s="18">
         <v>100</v>
       </c>
-      <c r="CN109" s="38">
+      <c r="CN109" s="18">
         <v>100</v>
       </c>
-      <c r="CO109" s="38">
+      <c r="CO109" s="18">
         <v>100</v>
       </c>
-      <c r="CP109" s="38">
+      <c r="CP109" s="18">
         <v>100</v>
       </c>
-      <c r="CQ109" s="38">
+      <c r="CQ109" s="18">
         <v>100</v>
       </c>
-      <c r="CR109" s="38">
+      <c r="CR109" s="18">
         <v>100</v>
       </c>
-      <c r="CS109" s="10"/>
+      <c r="CS109" s="18">
+        <v>100</v>
+      </c>
       <c r="CT109" s="10"/>
       <c r="CU109" s="10"/>
       <c r="CV109" s="10"/>
@@ -36220,25 +35889,19 @@
       <c r="CI110" s="16"/>
       <c r="CJ110" s="16"/>
       <c r="CK110" s="16"/>
-      <c r="CL110" s="34"/>
-      <c r="CM110" s="34"/>
-      <c r="CN110" s="34"/>
-      <c r="CO110" s="34"/>
-      <c r="CP110" s="34"/>
-      <c r="CQ110" s="34"/>
-      <c r="CR110" s="34"/>
+      <c r="CL110" s="16"/>
+      <c r="CM110" s="16"/>
+      <c r="CN110" s="16"/>
+      <c r="CO110" s="16"/>
+      <c r="CP110" s="16"/>
+      <c r="CQ110" s="16"/>
+      <c r="CR110" s="16"/>
+      <c r="CS110" s="16"/>
     </row>
     <row r="111" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="CL111" s="27"/>
-      <c r="CM111" s="27"/>
-      <c r="CN111" s="27"/>
-      <c r="CO111" s="27"/>
-      <c r="CP111" s="27"/>
-      <c r="CQ111" s="27"/>
-      <c r="CR111" s="27"/>
     </row>
     <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="10"/>
@@ -36329,13 +35992,13 @@
       <c r="CI112" s="10"/>
       <c r="CJ112" s="10"/>
       <c r="CK112" s="10"/>
-      <c r="CL112" s="35"/>
-      <c r="CM112" s="35"/>
-      <c r="CN112" s="35"/>
-      <c r="CO112" s="35"/>
-      <c r="CP112" s="35"/>
-      <c r="CQ112" s="35"/>
-      <c r="CR112" s="35"/>
+      <c r="CL112" s="10"/>
+      <c r="CM112" s="10"/>
+      <c r="CN112" s="10"/>
+      <c r="CO112" s="10"/>
+      <c r="CP112" s="10"/>
+      <c r="CQ112" s="10"/>
+      <c r="CR112" s="10"/>
       <c r="CS112" s="10"/>
       <c r="CT112" s="10"/>
       <c r="CU112" s="10"/>
@@ -36485,13 +36148,13 @@
       <c r="CI113" s="10"/>
       <c r="CJ113" s="10"/>
       <c r="CK113" s="10"/>
-      <c r="CL113" s="35"/>
-      <c r="CM113" s="35"/>
-      <c r="CN113" s="35"/>
-      <c r="CO113" s="35"/>
-      <c r="CP113" s="35"/>
-      <c r="CQ113" s="35"/>
-      <c r="CR113" s="35"/>
+      <c r="CL113" s="10"/>
+      <c r="CM113" s="10"/>
+      <c r="CN113" s="10"/>
+      <c r="CO113" s="10"/>
+      <c r="CP113" s="10"/>
+      <c r="CQ113" s="10"/>
+      <c r="CR113" s="10"/>
       <c r="CS113" s="10"/>
       <c r="CT113" s="10"/>
       <c r="CU113" s="10"/>
@@ -36556,237 +36219,180 @@
       <c r="A114" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CL114" s="27"/>
-      <c r="CM114" s="27"/>
-      <c r="CN114" s="27"/>
-      <c r="CO114" s="27"/>
-      <c r="CP114" s="27"/>
-      <c r="CQ114" s="27"/>
-      <c r="CR114" s="27"/>
     </row>
     <row r="115" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="CL115" s="27"/>
-      <c r="CM115" s="27"/>
-      <c r="CN115" s="27"/>
-      <c r="CO115" s="27"/>
-      <c r="CP115" s="27"/>
-      <c r="CQ115" s="27"/>
-      <c r="CR115" s="27"/>
     </row>
     <row r="116" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="CL116" s="27"/>
-      <c r="CM116" s="27"/>
-      <c r="CN116" s="27"/>
-      <c r="CO116" s="27"/>
-      <c r="CP116" s="27"/>
-      <c r="CQ116" s="27"/>
-      <c r="CR116" s="27"/>
+        <v>51</v>
+      </c>
     </row>
-    <row r="117" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL117" s="27"/>
-      <c r="CM117" s="27"/>
-      <c r="CN117" s="27"/>
-      <c r="CO117" s="27"/>
-      <c r="CP117" s="27"/>
-      <c r="CQ117" s="27"/>
-      <c r="CR117" s="27"/>
-    </row>
+    <row r="117" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="118" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="CL118" s="27"/>
-      <c r="CM118" s="27"/>
-      <c r="CN118" s="27"/>
-      <c r="CO118" s="27"/>
-      <c r="CP118" s="27"/>
-      <c r="CQ118" s="27"/>
-      <c r="CR118" s="27"/>
     </row>
     <row r="119" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="CL119" s="27"/>
-      <c r="CM119" s="27"/>
-      <c r="CN119" s="27"/>
-      <c r="CO119" s="27"/>
-      <c r="CP119" s="27"/>
-      <c r="CQ119" s="27"/>
-      <c r="CR119" s="27"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="120" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="CL120" s="27"/>
-      <c r="CM120" s="27"/>
-      <c r="CN120" s="27"/>
-      <c r="CO120" s="27"/>
-      <c r="CP120" s="27"/>
-      <c r="CQ120" s="27"/>
-      <c r="CR120" s="27"/>
     </row>
-    <row r="121" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL121" s="27"/>
-      <c r="CM121" s="27"/>
-      <c r="CN121" s="27"/>
-      <c r="CO121" s="27"/>
-      <c r="CP121" s="27"/>
-      <c r="CQ121" s="27"/>
-      <c r="CR121" s="27"/>
-    </row>
+    <row r="121" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="122" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
-      <c r="B122" s="41">
+      <c r="B122" s="32">
         <v>2000</v>
       </c>
-      <c r="C122" s="42"/>
-      <c r="D122" s="42"/>
-      <c r="E122" s="42"/>
-      <c r="F122" s="41">
+      <c r="C122" s="33"/>
+      <c r="D122" s="33"/>
+      <c r="E122" s="33"/>
+      <c r="F122" s="32">
         <v>2001</v>
       </c>
-      <c r="G122" s="42"/>
-      <c r="H122" s="42"/>
-      <c r="I122" s="42"/>
-      <c r="J122" s="41">
+      <c r="G122" s="33"/>
+      <c r="H122" s="33"/>
+      <c r="I122" s="33"/>
+      <c r="J122" s="32">
         <v>2002</v>
       </c>
-      <c r="K122" s="42"/>
-      <c r="L122" s="42"/>
-      <c r="M122" s="42"/>
-      <c r="N122" s="41">
+      <c r="K122" s="33"/>
+      <c r="L122" s="33"/>
+      <c r="M122" s="33"/>
+      <c r="N122" s="32">
         <v>2003</v>
       </c>
-      <c r="O122" s="42"/>
-      <c r="P122" s="42"/>
-      <c r="Q122" s="42"/>
-      <c r="R122" s="41">
+      <c r="O122" s="33"/>
+      <c r="P122" s="33"/>
+      <c r="Q122" s="33"/>
+      <c r="R122" s="32">
         <v>2004</v>
       </c>
-      <c r="S122" s="42"/>
-      <c r="T122" s="42"/>
-      <c r="U122" s="42"/>
-      <c r="V122" s="41">
+      <c r="S122" s="33"/>
+      <c r="T122" s="33"/>
+      <c r="U122" s="33"/>
+      <c r="V122" s="32">
         <v>2005</v>
       </c>
-      <c r="W122" s="42"/>
-      <c r="X122" s="42"/>
-      <c r="Y122" s="42"/>
-      <c r="Z122" s="41">
+      <c r="W122" s="33"/>
+      <c r="X122" s="33"/>
+      <c r="Y122" s="33"/>
+      <c r="Z122" s="32">
         <v>2006</v>
       </c>
-      <c r="AA122" s="42"/>
-      <c r="AB122" s="42"/>
-      <c r="AC122" s="42"/>
-      <c r="AD122" s="41">
+      <c r="AA122" s="33"/>
+      <c r="AB122" s="33"/>
+      <c r="AC122" s="33"/>
+      <c r="AD122" s="32">
         <v>2007</v>
       </c>
-      <c r="AE122" s="42"/>
-      <c r="AF122" s="42"/>
-      <c r="AG122" s="42"/>
-      <c r="AH122" s="41">
+      <c r="AE122" s="33"/>
+      <c r="AF122" s="33"/>
+      <c r="AG122" s="33"/>
+      <c r="AH122" s="32">
         <v>2008</v>
       </c>
-      <c r="AI122" s="42"/>
-      <c r="AJ122" s="42"/>
-      <c r="AK122" s="42"/>
-      <c r="AL122" s="41">
+      <c r="AI122" s="33"/>
+      <c r="AJ122" s="33"/>
+      <c r="AK122" s="33"/>
+      <c r="AL122" s="32">
         <v>2009</v>
       </c>
-      <c r="AM122" s="42"/>
-      <c r="AN122" s="42"/>
-      <c r="AO122" s="42"/>
-      <c r="AP122" s="41">
+      <c r="AM122" s="33"/>
+      <c r="AN122" s="33"/>
+      <c r="AO122" s="33"/>
+      <c r="AP122" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="42"/>
-      <c r="AR122" s="42"/>
-      <c r="AS122" s="42"/>
-      <c r="AT122" s="41">
+      <c r="AQ122" s="33"/>
+      <c r="AR122" s="33"/>
+      <c r="AS122" s="33"/>
+      <c r="AT122" s="32">
         <v>2011</v>
       </c>
-      <c r="AU122" s="42"/>
-      <c r="AV122" s="42"/>
-      <c r="AW122" s="42"/>
-      <c r="AX122" s="41">
+      <c r="AU122" s="33"/>
+      <c r="AV122" s="33"/>
+      <c r="AW122" s="33"/>
+      <c r="AX122" s="32">
         <v>2012</v>
       </c>
-      <c r="AY122" s="42"/>
-      <c r="AZ122" s="42"/>
-      <c r="BA122" s="42"/>
-      <c r="BB122" s="41">
+      <c r="AY122" s="33"/>
+      <c r="AZ122" s="33"/>
+      <c r="BA122" s="33"/>
+      <c r="BB122" s="32">
         <v>2013</v>
       </c>
-      <c r="BC122" s="42"/>
-      <c r="BD122" s="42"/>
-      <c r="BE122" s="42"/>
-      <c r="BF122" s="41">
+      <c r="BC122" s="33"/>
+      <c r="BD122" s="33"/>
+      <c r="BE122" s="33"/>
+      <c r="BF122" s="32">
         <v>2014</v>
       </c>
-      <c r="BG122" s="42"/>
-      <c r="BH122" s="42"/>
-      <c r="BI122" s="42"/>
-      <c r="BJ122" s="41">
+      <c r="BG122" s="33"/>
+      <c r="BH122" s="33"/>
+      <c r="BI122" s="33"/>
+      <c r="BJ122" s="32">
         <v>2015</v>
       </c>
-      <c r="BK122" s="42"/>
-      <c r="BL122" s="42"/>
-      <c r="BM122" s="42"/>
-      <c r="BN122" s="41">
+      <c r="BK122" s="33"/>
+      <c r="BL122" s="33"/>
+      <c r="BM122" s="33"/>
+      <c r="BN122" s="32">
         <v>2016</v>
       </c>
-      <c r="BO122" s="42"/>
-      <c r="BP122" s="42"/>
-      <c r="BQ122" s="42"/>
-      <c r="BR122" s="41">
+      <c r="BO122" s="33"/>
+      <c r="BP122" s="33"/>
+      <c r="BQ122" s="33"/>
+      <c r="BR122" s="32">
         <v>2017</v>
       </c>
-      <c r="BS122" s="42"/>
-      <c r="BT122" s="42"/>
-      <c r="BU122" s="42"/>
-      <c r="BV122" s="41">
+      <c r="BS122" s="33"/>
+      <c r="BT122" s="33"/>
+      <c r="BU122" s="33"/>
+      <c r="BV122" s="32">
         <v>2018</v>
       </c>
-      <c r="BW122" s="42"/>
-      <c r="BX122" s="42"/>
-      <c r="BY122" s="42"/>
-      <c r="BZ122" s="41">
+      <c r="BW122" s="33"/>
+      <c r="BX122" s="33"/>
+      <c r="BY122" s="33"/>
+      <c r="BZ122" s="32">
         <v>2019</v>
       </c>
-      <c r="CA122" s="42"/>
-      <c r="CB122" s="42"/>
-      <c r="CC122" s="42"/>
-      <c r="CD122" s="41">
+      <c r="CA122" s="33"/>
+      <c r="CB122" s="33"/>
+      <c r="CC122" s="33"/>
+      <c r="CD122" s="32">
         <v>2020</v>
       </c>
-      <c r="CE122" s="41"/>
-      <c r="CF122" s="41"/>
-      <c r="CG122" s="41"/>
-      <c r="CH122" s="41">
+      <c r="CE122" s="32"/>
+      <c r="CF122" s="32"/>
+      <c r="CG122" s="32"/>
+      <c r="CH122" s="32">
         <v>2021</v>
       </c>
-      <c r="CI122" s="41"/>
-      <c r="CJ122" s="41"/>
-      <c r="CK122" s="41"/>
-      <c r="CL122" s="43">
+      <c r="CI122" s="32"/>
+      <c r="CJ122" s="32"/>
+      <c r="CK122" s="32"/>
+      <c r="CL122" s="31">
         <v>2022</v>
       </c>
-      <c r="CM122" s="43"/>
-      <c r="CN122" s="43"/>
-      <c r="CO122" s="43"/>
-      <c r="CP122" s="43">
+      <c r="CM122" s="31"/>
+      <c r="CN122" s="31"/>
+      <c r="CO122" s="31"/>
+      <c r="CP122" s="31">
         <v>2023</v>
       </c>
-      <c r="CQ122" s="43"/>
-      <c r="CR122" s="43"/>
+      <c r="CQ122" s="31"/>
+      <c r="CR122" s="31"/>
+      <c r="CS122" s="31"/>
     </row>
     <row r="123" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
@@ -37056,37 +36662,33 @@
       <c r="CK123" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL123" s="29" t="s">
+      <c r="CL123" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CM123" s="29" t="s">
+      <c r="CM123" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CN123" s="29" t="s">
+      <c r="CN123" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CO123" s="29" t="s">
+      <c r="CO123" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP123" s="29" t="s">
+      <c r="CP123" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ123" s="29" t="s">
+      <c r="CQ123" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR123" s="29" t="s">
+      <c r="CR123" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="CS123" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8"/>
-      <c r="CL124" s="27"/>
-      <c r="CM124" s="27"/>
-      <c r="CN124" s="27"/>
-      <c r="CO124" s="27"/>
-      <c r="CP124" s="27"/>
-      <c r="CQ124" s="27"/>
-      <c r="CR124" s="27"/>
     </row>
     <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
@@ -37356,28 +36958,30 @@
       <c r="CK125" s="18">
         <v>6.9520336741136681</v>
       </c>
-      <c r="CL125" s="38">
+      <c r="CL125" s="18">
         <v>8.2144898037647103</v>
       </c>
-      <c r="CM125" s="38">
+      <c r="CM125" s="18">
         <v>9.1738127194283745</v>
       </c>
-      <c r="CN125" s="38">
+      <c r="CN125" s="18">
         <v>7.244318940651266</v>
       </c>
-      <c r="CO125" s="38">
+      <c r="CO125" s="18">
         <v>7.1790656138510061</v>
       </c>
-      <c r="CP125" s="38">
+      <c r="CP125" s="18">
         <v>7.3444222769547691</v>
       </c>
-      <c r="CQ125" s="38">
+      <c r="CQ125" s="18">
         <v>8.5735152490666149</v>
       </c>
-      <c r="CR125" s="38">
-        <v>7.1025106113870837</v>
-      </c>
-      <c r="CS125" s="10"/>
+      <c r="CR125" s="18">
+        <v>7.1980919344661141</v>
+      </c>
+      <c r="CS125" s="18">
+        <v>7.1244098029097316</v>
+      </c>
       <c r="CT125" s="10"/>
       <c r="CU125" s="10"/>
       <c r="CV125" s="10"/>
@@ -37705,28 +37309,30 @@
       <c r="CK126" s="18">
         <v>93.047966325886335</v>
       </c>
-      <c r="CL126" s="38">
+      <c r="CL126" s="18">
         <v>91.785510196235293</v>
       </c>
-      <c r="CM126" s="38">
+      <c r="CM126" s="18">
         <v>90.826187280571631</v>
       </c>
-      <c r="CN126" s="38">
+      <c r="CN126" s="18">
         <v>92.755681059348746</v>
       </c>
-      <c r="CO126" s="38">
+      <c r="CO126" s="18">
         <v>92.820934386149005</v>
       </c>
-      <c r="CP126" s="38">
+      <c r="CP126" s="18">
         <v>92.655577723045226</v>
       </c>
-      <c r="CQ126" s="38">
+      <c r="CQ126" s="18">
         <v>91.426484750933383</v>
       </c>
-      <c r="CR126" s="38">
-        <v>92.897489388612925</v>
-      </c>
-      <c r="CS126" s="10"/>
+      <c r="CR126" s="18">
+        <v>92.801908065533894</v>
+      </c>
+      <c r="CS126" s="18">
+        <v>92.875590197090261</v>
+      </c>
       <c r="CT126" s="10"/>
       <c r="CU126" s="10"/>
       <c r="CV126" s="10"/>
@@ -37875,14 +37481,14 @@
       <c r="CI127" s="19"/>
       <c r="CJ127" s="19"/>
       <c r="CK127" s="19"/>
-      <c r="CL127" s="39"/>
-      <c r="CM127" s="39"/>
-      <c r="CN127" s="39"/>
-      <c r="CO127" s="39"/>
-      <c r="CP127" s="39"/>
-      <c r="CQ127" s="39"/>
-      <c r="CR127" s="39"/>
-      <c r="CS127" s="10"/>
+      <c r="CL127" s="19"/>
+      <c r="CM127" s="19"/>
+      <c r="CN127" s="19"/>
+      <c r="CO127" s="19"/>
+      <c r="CP127" s="19"/>
+      <c r="CQ127" s="19"/>
+      <c r="CR127" s="19"/>
+      <c r="CS127" s="19"/>
       <c r="CT127" s="10"/>
       <c r="CU127" s="10"/>
       <c r="CV127" s="10"/>
@@ -38210,28 +37816,30 @@
       <c r="CK128" s="18">
         <v>100</v>
       </c>
-      <c r="CL128" s="38">
+      <c r="CL128" s="18">
         <v>100</v>
       </c>
-      <c r="CM128" s="38">
+      <c r="CM128" s="18">
         <v>100</v>
       </c>
-      <c r="CN128" s="38">
+      <c r="CN128" s="18">
         <v>100</v>
       </c>
-      <c r="CO128" s="38">
+      <c r="CO128" s="18">
         <v>100</v>
       </c>
-      <c r="CP128" s="38">
+      <c r="CP128" s="18">
         <v>100</v>
       </c>
-      <c r="CQ128" s="38">
+      <c r="CQ128" s="18">
         <v>100</v>
       </c>
-      <c r="CR128" s="38">
+      <c r="CR128" s="18">
         <v>100</v>
       </c>
-      <c r="CS128" s="10"/>
+      <c r="CS128" s="18">
+        <v>100</v>
+      </c>
       <c r="CT128" s="10"/>
       <c r="CU128" s="10"/>
       <c r="CV128" s="10"/>
@@ -38381,25 +37989,19 @@
       <c r="CI129" s="16"/>
       <c r="CJ129" s="16"/>
       <c r="CK129" s="16"/>
-      <c r="CL129" s="34"/>
-      <c r="CM129" s="34"/>
-      <c r="CN129" s="34"/>
-      <c r="CO129" s="34"/>
-      <c r="CP129" s="34"/>
-      <c r="CQ129" s="34"/>
-      <c r="CR129" s="34"/>
+      <c r="CL129" s="16"/>
+      <c r="CM129" s="16"/>
+      <c r="CN129" s="16"/>
+      <c r="CO129" s="16"/>
+      <c r="CP129" s="16"/>
+      <c r="CQ129" s="16"/>
+      <c r="CR129" s="16"/>
+      <c r="CS129" s="16"/>
     </row>
     <row r="130" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="CL130" s="27"/>
-      <c r="CM130" s="27"/>
-      <c r="CN130" s="27"/>
-      <c r="CO130" s="27"/>
-      <c r="CP130" s="27"/>
-      <c r="CQ130" s="27"/>
-      <c r="CR130" s="27"/>
     </row>
     <row r="131" spans="1:155" s="21" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
@@ -38491,14 +38093,14 @@
       <c r="CI131" s="11"/>
       <c r="CJ131" s="11"/>
       <c r="CK131" s="11"/>
-      <c r="CL131" s="40"/>
-      <c r="CM131" s="40"/>
-      <c r="CN131" s="40"/>
-      <c r="CO131" s="40"/>
-      <c r="CP131" s="40"/>
-      <c r="CQ131" s="40"/>
-      <c r="CR131" s="40"/>
-      <c r="CS131" s="20"/>
+      <c r="CL131" s="11"/>
+      <c r="CM131" s="11"/>
+      <c r="CN131" s="11"/>
+      <c r="CO131" s="11"/>
+      <c r="CP131" s="11"/>
+      <c r="CQ131" s="11"/>
+      <c r="CR131" s="11"/>
+      <c r="CS131" s="11"/>
       <c r="CT131" s="20"/>
       <c r="CU131" s="20"/>
       <c r="CV131" s="20"/>
@@ -38648,14 +38250,14 @@
       <c r="CI132" s="11"/>
       <c r="CJ132" s="11"/>
       <c r="CK132" s="11"/>
-      <c r="CL132" s="40"/>
-      <c r="CM132" s="40"/>
-      <c r="CN132" s="40"/>
-      <c r="CO132" s="40"/>
-      <c r="CP132" s="40"/>
-      <c r="CQ132" s="40"/>
-      <c r="CR132" s="40"/>
-      <c r="CS132" s="20"/>
+      <c r="CL132" s="11"/>
+      <c r="CM132" s="11"/>
+      <c r="CN132" s="11"/>
+      <c r="CO132" s="11"/>
+      <c r="CP132" s="11"/>
+      <c r="CQ132" s="11"/>
+      <c r="CR132" s="11"/>
+      <c r="CS132" s="11"/>
       <c r="CT132" s="20"/>
       <c r="CU132" s="20"/>
       <c r="CV132" s="20"/>
@@ -38716,15 +38318,9 @@
       <c r="EY132" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="166">
-    <mergeCell ref="CP9:CR9"/>
-    <mergeCell ref="CP28:CR28"/>
-    <mergeCell ref="CP84:CR84"/>
-    <mergeCell ref="CP103:CR103"/>
-    <mergeCell ref="CP122:CR122"/>
+  <mergeCells count="154">
     <mergeCell ref="CH47:CK47"/>
     <mergeCell ref="CH66:CK66"/>
-    <mergeCell ref="CL84:CO84"/>
     <mergeCell ref="CD9:CG9"/>
     <mergeCell ref="CD122:CG122"/>
     <mergeCell ref="CD103:CG103"/>
@@ -38736,13 +38332,7 @@
     <mergeCell ref="CH103:CK103"/>
     <mergeCell ref="CH122:CK122"/>
     <mergeCell ref="CD28:CG28"/>
-    <mergeCell ref="CL103:CO103"/>
-    <mergeCell ref="CL122:CO122"/>
     <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="CL47:CN47"/>
-    <mergeCell ref="CL66:CN66"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CL28:CO28"/>
     <mergeCell ref="BZ9:CC9"/>
     <mergeCell ref="BR28:BU28"/>
     <mergeCell ref="BV28:BY28"/>
@@ -38889,9 +38479,9 @@
   <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="95" man="1"/>
-    <brk id="76" max="95" man="1"/>
-    <brk id="94" max="95" man="1"/>
+    <brk id="38" max="96" man="1"/>
+    <brk id="76" max="96" man="1"/>
+    <brk id="94" max="96" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-16IAC_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-16IAC_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B32DAA-AE3E-4753-9DA0-66F47C2FD5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F738C3E0-1B20-4888-9D4E-C2C95E0667EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IAC!$A$1:$CS$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IAC!$A$1:$CT$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -616,13 +616,16 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2023</t>
+    <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2023</t>
+    <t>Q1 2000 to Q1 2024</t>
   </si>
   <si>
-    <t>As of January 2024</t>
+    <t>Q1 2001 to Q1 2024</t>
+  </si>
+  <si>
+    <t>As of May 2024</t>
   </si>
 </sst>
 </file>
@@ -722,7 +725,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -765,6 +768,20 @@
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -773,12 +790,14 @@
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23649,43 +23668,75 @@
   <dimension ref="A1:EY132"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BS1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="BW1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="CX29" sqref="CX29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.6640625" style="1" customWidth="1"/>
-    <col min="2" max="97" width="11.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="98" max="16384" width="7.77734375" style="11"/>
+    <col min="2" max="93" width="11.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="94" max="98" width="9.33203125" style="41" customWidth="1"/>
+    <col min="99" max="16384" width="7.77734375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CP1" s="28"/>
+      <c r="CQ1" s="28"/>
+      <c r="CR1" s="28"/>
+      <c r="CS1" s="28"/>
+      <c r="CT1" s="28"/>
     </row>
     <row r="2" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="CP2" s="28"/>
+      <c r="CQ2" s="28"/>
+      <c r="CR2" s="28"/>
+      <c r="CS2" s="28"/>
+      <c r="CT2" s="28"/>
     </row>
     <row r="3" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="CP3" s="28"/>
+      <c r="CQ3" s="28"/>
+      <c r="CR3" s="28"/>
+      <c r="CS3" s="28"/>
+      <c r="CT3" s="28"/>
     </row>
-    <row r="4" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP4" s="28"/>
+      <c r="CQ4" s="28"/>
+      <c r="CR4" s="28"/>
+      <c r="CS4" s="28"/>
+      <c r="CT4" s="28"/>
+    </row>
     <row r="5" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="CP5" s="28"/>
+      <c r="CQ5" s="28"/>
+      <c r="CR5" s="28"/>
+      <c r="CS5" s="28"/>
+      <c r="CT5" s="28"/>
     </row>
     <row r="6" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="CP6" s="28"/>
+      <c r="CQ6" s="28"/>
+      <c r="CR6" s="28"/>
+      <c r="CS6" s="28"/>
+      <c r="CT6" s="28"/>
     </row>
     <row r="7" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -23783,10 +23834,11 @@
       <c r="CM7" s="4"/>
       <c r="CN7" s="4"/>
       <c r="CO7" s="4"/>
-      <c r="CP7" s="4"/>
-      <c r="CQ7" s="4"/>
-      <c r="CR7" s="4"/>
-      <c r="CS7" s="4"/>
+      <c r="CP7" s="29"/>
+      <c r="CQ7" s="29"/>
+      <c r="CR7" s="29"/>
+      <c r="CS7" s="29"/>
+      <c r="CT7" s="29"/>
     </row>
     <row r="8" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
@@ -23881,157 +23933,161 @@
       <c r="CM8" s="4"/>
       <c r="CN8" s="4"/>
       <c r="CO8" s="4"/>
-      <c r="CP8" s="4"/>
-      <c r="CQ8" s="4"/>
-      <c r="CR8" s="4"/>
-      <c r="CS8" s="4"/>
+      <c r="CP8" s="29"/>
+      <c r="CQ8" s="29"/>
+      <c r="CR8" s="29"/>
+      <c r="CS8" s="29"/>
+      <c r="CT8" s="29"/>
     </row>
     <row r="9" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="32">
+      <c r="B9" s="42">
         <v>2000</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32">
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42">
         <v>2001</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32">
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42">
         <v>2002</v>
       </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32">
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42">
         <v>2003</v>
       </c>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32">
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42">
         <v>2004</v>
       </c>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32">
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42">
         <v>2005</v>
       </c>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32">
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42">
         <v>2006</v>
       </c>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="32">
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42">
         <v>2007</v>
       </c>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="32"/>
-      <c r="AG9" s="32"/>
-      <c r="AH9" s="32">
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="42"/>
+      <c r="AG9" s="42"/>
+      <c r="AH9" s="42">
         <v>2008</v>
       </c>
-      <c r="AI9" s="32"/>
-      <c r="AJ9" s="32"/>
-      <c r="AK9" s="32"/>
-      <c r="AL9" s="32">
+      <c r="AI9" s="42"/>
+      <c r="AJ9" s="42"/>
+      <c r="AK9" s="42"/>
+      <c r="AL9" s="42">
         <v>2009</v>
       </c>
-      <c r="AM9" s="32"/>
-      <c r="AN9" s="32"/>
-      <c r="AO9" s="32"/>
-      <c r="AP9" s="32">
+      <c r="AM9" s="42"/>
+      <c r="AN9" s="42"/>
+      <c r="AO9" s="42"/>
+      <c r="AP9" s="42">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="32"/>
-      <c r="AR9" s="32"/>
-      <c r="AS9" s="32"/>
-      <c r="AT9" s="32">
+      <c r="AQ9" s="42"/>
+      <c r="AR9" s="42"/>
+      <c r="AS9" s="42"/>
+      <c r="AT9" s="42">
         <v>2011</v>
       </c>
-      <c r="AU9" s="32"/>
-      <c r="AV9" s="32"/>
-      <c r="AW9" s="32"/>
-      <c r="AX9" s="32">
+      <c r="AU9" s="42"/>
+      <c r="AV9" s="42"/>
+      <c r="AW9" s="42"/>
+      <c r="AX9" s="42">
         <v>2012</v>
       </c>
-      <c r="AY9" s="32"/>
-      <c r="AZ9" s="32"/>
-      <c r="BA9" s="32"/>
-      <c r="BB9" s="32">
+      <c r="AY9" s="42"/>
+      <c r="AZ9" s="42"/>
+      <c r="BA9" s="42"/>
+      <c r="BB9" s="42">
         <v>2013</v>
       </c>
-      <c r="BC9" s="32"/>
-      <c r="BD9" s="32"/>
-      <c r="BE9" s="32"/>
-      <c r="BF9" s="32">
+      <c r="BC9" s="42"/>
+      <c r="BD9" s="42"/>
+      <c r="BE9" s="42"/>
+      <c r="BF9" s="42">
         <v>2014</v>
       </c>
-      <c r="BG9" s="32"/>
-      <c r="BH9" s="32"/>
-      <c r="BI9" s="32"/>
-      <c r="BJ9" s="32">
+      <c r="BG9" s="42"/>
+      <c r="BH9" s="42"/>
+      <c r="BI9" s="42"/>
+      <c r="BJ9" s="42">
         <v>2015</v>
       </c>
-      <c r="BK9" s="32"/>
-      <c r="BL9" s="32"/>
-      <c r="BM9" s="32"/>
-      <c r="BN9" s="32">
+      <c r="BK9" s="42"/>
+      <c r="BL9" s="42"/>
+      <c r="BM9" s="42"/>
+      <c r="BN9" s="42">
         <v>2016</v>
       </c>
-      <c r="BO9" s="32"/>
-      <c r="BP9" s="32"/>
-      <c r="BQ9" s="32"/>
-      <c r="BR9" s="32">
+      <c r="BO9" s="42"/>
+      <c r="BP9" s="42"/>
+      <c r="BQ9" s="42"/>
+      <c r="BR9" s="42">
         <v>2017</v>
       </c>
-      <c r="BS9" s="32"/>
-      <c r="BT9" s="32"/>
-      <c r="BU9" s="32"/>
-      <c r="BV9" s="32">
+      <c r="BS9" s="42"/>
+      <c r="BT9" s="42"/>
+      <c r="BU9" s="42"/>
+      <c r="BV9" s="42">
         <v>2018</v>
       </c>
-      <c r="BW9" s="32"/>
-      <c r="BX9" s="32"/>
-      <c r="BY9" s="32"/>
-      <c r="BZ9" s="32">
+      <c r="BW9" s="42"/>
+      <c r="BX9" s="42"/>
+      <c r="BY9" s="42"/>
+      <c r="BZ9" s="42">
         <v>2019</v>
       </c>
-      <c r="CA9" s="32"/>
-      <c r="CB9" s="32"/>
-      <c r="CC9" s="32"/>
-      <c r="CD9" s="32">
+      <c r="CA9" s="42"/>
+      <c r="CB9" s="42"/>
+      <c r="CC9" s="42"/>
+      <c r="CD9" s="42">
         <v>2020</v>
       </c>
-      <c r="CE9" s="32"/>
-      <c r="CF9" s="32"/>
-      <c r="CG9" s="32"/>
-      <c r="CH9" s="32">
+      <c r="CE9" s="42"/>
+      <c r="CF9" s="42"/>
+      <c r="CG9" s="42"/>
+      <c r="CH9" s="26">
         <v>2021</v>
       </c>
-      <c r="CI9" s="32"/>
-      <c r="CJ9" s="32"/>
-      <c r="CK9" s="32"/>
-      <c r="CL9" s="31">
+      <c r="CI9" s="26"/>
+      <c r="CJ9" s="26"/>
+      <c r="CK9" s="26"/>
+      <c r="CL9" s="26">
         <v>2022</v>
       </c>
-      <c r="CM9" s="31"/>
-      <c r="CN9" s="31"/>
-      <c r="CO9" s="31"/>
-      <c r="CP9" s="31">
+      <c r="CM9" s="26"/>
+      <c r="CN9" s="26"/>
+      <c r="CO9" s="26"/>
+      <c r="CP9" s="30">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="31"/>
-      <c r="CR9" s="31"/>
-      <c r="CS9" s="31"/>
+      <c r="CQ9" s="30"/>
+      <c r="CR9" s="30"/>
+      <c r="CS9" s="30"/>
+      <c r="CT9" s="30">
+        <v>2024</v>
+      </c>
     </row>
     <row r="10" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24313,21 +24369,29 @@
       <c r="CO10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="7" t="s">
+      <c r="CP10" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="7" t="s">
+      <c r="CQ10" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="7" t="s">
+      <c r="CR10" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="CS10" s="7" t="s">
+      <c r="CS10" s="31" t="s">
         <v>9</v>
+      </c>
+      <c r="CT10" s="31" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
+      <c r="CP11" s="28"/>
+      <c r="CQ11" s="28"/>
+      <c r="CR11" s="28"/>
+      <c r="CS11" s="28"/>
+      <c r="CT11" s="28"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -24597,31 +24661,33 @@
       <c r="CK12" s="22">
         <v>13481.466265734161</v>
       </c>
-      <c r="CL12" s="26">
-        <v>13618.938029108591</v>
-      </c>
-      <c r="CM12" s="26">
-        <v>17152.109253352814</v>
-      </c>
-      <c r="CN12" s="26">
-        <v>11467.388885437951</v>
-      </c>
-      <c r="CO12" s="26">
-        <v>15287.660204593572</v>
-      </c>
-      <c r="CP12" s="26">
-        <v>13399.142576240818</v>
-      </c>
-      <c r="CQ12" s="26">
-        <v>17326.863456188083</v>
-      </c>
-      <c r="CR12" s="26">
-        <v>12499.852285690566</v>
-      </c>
-      <c r="CS12" s="26">
-        <v>16782.157781388414</v>
-      </c>
-      <c r="CT12" s="10"/>
+      <c r="CL12" s="22">
+        <v>13597.122816812687</v>
+      </c>
+      <c r="CM12" s="22">
+        <v>17117.906256862429</v>
+      </c>
+      <c r="CN12" s="22">
+        <v>11534.474226009246</v>
+      </c>
+      <c r="CO12" s="22">
+        <v>15190.388942085265</v>
+      </c>
+      <c r="CP12" s="32">
+        <v>13368.965748047689</v>
+      </c>
+      <c r="CQ12" s="32">
+        <v>17358.039118818233</v>
+      </c>
+      <c r="CR12" s="32">
+        <v>12572.294304729996</v>
+      </c>
+      <c r="CS12" s="32">
+        <v>16914.126620438685</v>
+      </c>
+      <c r="CT12" s="32">
+        <v>13847.865207358056</v>
+      </c>
       <c r="CU12" s="10"/>
       <c r="CV12" s="10"/>
       <c r="CW12" s="10"/>
@@ -24948,31 +25014,33 @@
       <c r="CK13" s="23">
         <v>169419.52233407189</v>
       </c>
-      <c r="CL13" s="27">
-        <v>143078.8377046432</v>
-      </c>
-      <c r="CM13" s="27">
-        <v>173268.33232693363</v>
-      </c>
-      <c r="CN13" s="27">
-        <v>141323.89577210028</v>
-      </c>
-      <c r="CO13" s="27">
-        <v>180478.08991273583</v>
-      </c>
-      <c r="CP13" s="27">
-        <v>152379.01702535362</v>
-      </c>
-      <c r="CQ13" s="27">
-        <v>182123.699858751</v>
-      </c>
-      <c r="CR13" s="27">
-        <v>148287.60729146141</v>
-      </c>
-      <c r="CS13" s="27">
-        <v>188227.95466810322</v>
-      </c>
-      <c r="CT13" s="10"/>
+      <c r="CL13" s="23">
+        <v>143239.52137326292</v>
+      </c>
+      <c r="CM13" s="23">
+        <v>173163.72403829865</v>
+      </c>
+      <c r="CN13" s="23">
+        <v>140916.82902538977</v>
+      </c>
+      <c r="CO13" s="23">
+        <v>181261.68613683333</v>
+      </c>
+      <c r="CP13" s="33">
+        <v>152187.73803509001</v>
+      </c>
+      <c r="CQ13" s="33">
+        <v>181743.41382022295</v>
+      </c>
+      <c r="CR13" s="33">
+        <v>147905.5339840698</v>
+      </c>
+      <c r="CS13" s="33">
+        <v>191366.4054079433</v>
+      </c>
+      <c r="CT13" s="33">
+        <v>159671.15273008822</v>
+      </c>
       <c r="CU13" s="10"/>
       <c r="CV13" s="10"/>
       <c r="CW13" s="10"/>
@@ -25120,15 +25188,15 @@
       <c r="CI14" s="24"/>
       <c r="CJ14" s="24"/>
       <c r="CK14" s="24"/>
-      <c r="CL14" s="28"/>
-      <c r="CM14" s="28"/>
-      <c r="CN14" s="28"/>
-      <c r="CO14" s="28"/>
-      <c r="CP14" s="28"/>
-      <c r="CQ14" s="28"/>
-      <c r="CR14" s="28"/>
-      <c r="CS14" s="28"/>
-      <c r="CT14" s="10"/>
+      <c r="CL14" s="24"/>
+      <c r="CM14" s="24"/>
+      <c r="CN14" s="24"/>
+      <c r="CO14" s="24"/>
+      <c r="CP14" s="34"/>
+      <c r="CQ14" s="34"/>
+      <c r="CR14" s="34"/>
+      <c r="CS14" s="34"/>
+      <c r="CT14" s="34"/>
       <c r="CU14" s="10"/>
       <c r="CV14" s="10"/>
       <c r="CW14" s="10"/>
@@ -25455,31 +25523,33 @@
       <c r="CK15" s="25">
         <v>182900.98859980606</v>
       </c>
-      <c r="CL15" s="29">
-        <v>156697.7757337518</v>
-      </c>
-      <c r="CM15" s="29">
-        <v>190420.44158028642</v>
-      </c>
-      <c r="CN15" s="29">
-        <v>152791.28465753823</v>
-      </c>
-      <c r="CO15" s="29">
-        <v>195765.75011732941</v>
-      </c>
-      <c r="CP15" s="29">
-        <v>165778.15960159444</v>
-      </c>
-      <c r="CQ15" s="29">
-        <v>199450.56331493909</v>
-      </c>
-      <c r="CR15" s="29">
-        <v>160787.45957715198</v>
-      </c>
-      <c r="CS15" s="29">
-        <v>205010.11244949163</v>
-      </c>
-      <c r="CT15" s="10"/>
+      <c r="CL15" s="25">
+        <v>156836.6441900756</v>
+      </c>
+      <c r="CM15" s="25">
+        <v>190281.63029516107</v>
+      </c>
+      <c r="CN15" s="25">
+        <v>152451.30325139902</v>
+      </c>
+      <c r="CO15" s="25">
+        <v>196452.0750789186</v>
+      </c>
+      <c r="CP15" s="35">
+        <v>165556.70378313769</v>
+      </c>
+      <c r="CQ15" s="35">
+        <v>199101.45293904119</v>
+      </c>
+      <c r="CR15" s="35">
+        <v>160477.82828879979</v>
+      </c>
+      <c r="CS15" s="35">
+        <v>208280.53202838197</v>
+      </c>
+      <c r="CT15" s="35">
+        <v>173519.01793744628</v>
+      </c>
       <c r="CU15" s="10"/>
       <c r="CV15" s="10"/>
       <c r="CW15" s="10"/>
@@ -25632,15 +25702,21 @@
       <c r="CM16" s="16"/>
       <c r="CN16" s="16"/>
       <c r="CO16" s="16"/>
-      <c r="CP16" s="16"/>
-      <c r="CQ16" s="16"/>
-      <c r="CR16" s="16"/>
-      <c r="CS16" s="16"/>
+      <c r="CP16" s="36"/>
+      <c r="CQ16" s="36"/>
+      <c r="CR16" s="36"/>
+      <c r="CS16" s="36"/>
+      <c r="CT16" s="36"/>
     </row>
     <row r="17" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="CP17" s="28"/>
+      <c r="CQ17" s="28"/>
+      <c r="CR17" s="28"/>
+      <c r="CS17" s="28"/>
+      <c r="CT17" s="28"/>
     </row>
     <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
@@ -25735,11 +25811,11 @@
       <c r="CM18" s="10"/>
       <c r="CN18" s="10"/>
       <c r="CO18" s="10"/>
-      <c r="CP18" s="10"/>
-      <c r="CQ18" s="10"/>
-      <c r="CR18" s="10"/>
-      <c r="CS18" s="10"/>
-      <c r="CT18" s="10"/>
+      <c r="CP18" s="37"/>
+      <c r="CQ18" s="37"/>
+      <c r="CR18" s="37"/>
+      <c r="CS18" s="37"/>
+      <c r="CT18" s="37"/>
       <c r="CU18" s="10"/>
       <c r="CV18" s="10"/>
       <c r="CW18" s="10"/>
@@ -25891,11 +25967,11 @@
       <c r="CM19" s="10"/>
       <c r="CN19" s="10"/>
       <c r="CO19" s="10"/>
-      <c r="CP19" s="10"/>
-      <c r="CQ19" s="10"/>
-      <c r="CR19" s="10"/>
-      <c r="CS19" s="10"/>
-      <c r="CT19" s="10"/>
+      <c r="CP19" s="37"/>
+      <c r="CQ19" s="37"/>
+      <c r="CR19" s="37"/>
+      <c r="CS19" s="37"/>
+      <c r="CT19" s="37"/>
       <c r="CU19" s="10"/>
       <c r="CV19" s="10"/>
       <c r="CW19" s="10"/>
@@ -25958,27 +26034,58 @@
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CP20" s="28"/>
+      <c r="CQ20" s="28"/>
+      <c r="CR20" s="28"/>
+      <c r="CS20" s="28"/>
+      <c r="CT20" s="28"/>
     </row>
     <row r="21" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="CP21" s="28"/>
+      <c r="CQ21" s="28"/>
+      <c r="CR21" s="28"/>
+      <c r="CS21" s="28"/>
+      <c r="CT21" s="28"/>
     </row>
     <row r="22" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="CP22" s="28"/>
+      <c r="CQ22" s="28"/>
+      <c r="CR22" s="28"/>
+      <c r="CS22" s="28"/>
+      <c r="CT22" s="28"/>
     </row>
-    <row r="23" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP23" s="28"/>
+      <c r="CQ23" s="28"/>
+      <c r="CR23" s="28"/>
+      <c r="CS23" s="28"/>
+      <c r="CT23" s="28"/>
+    </row>
     <row r="24" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="CP24" s="28"/>
+      <c r="CQ24" s="28"/>
+      <c r="CR24" s="28"/>
+      <c r="CS24" s="28"/>
+      <c r="CT24" s="28"/>
     </row>
     <row r="25" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="CP25" s="28"/>
+      <c r="CQ25" s="28"/>
+      <c r="CR25" s="28"/>
+      <c r="CS25" s="28"/>
+      <c r="CT25" s="28"/>
     </row>
     <row r="26" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -26076,10 +26183,11 @@
       <c r="CM26" s="4"/>
       <c r="CN26" s="4"/>
       <c r="CO26" s="4"/>
-      <c r="CP26" s="4"/>
-      <c r="CQ26" s="4"/>
-      <c r="CR26" s="4"/>
-      <c r="CS26" s="4"/>
+      <c r="CP26" s="29"/>
+      <c r="CQ26" s="29"/>
+      <c r="CR26" s="29"/>
+      <c r="CS26" s="29"/>
+      <c r="CT26" s="29"/>
     </row>
     <row r="27" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
@@ -26174,157 +26282,161 @@
       <c r="CM27" s="4"/>
       <c r="CN27" s="4"/>
       <c r="CO27" s="4"/>
-      <c r="CP27" s="4"/>
-      <c r="CQ27" s="4"/>
-      <c r="CR27" s="4"/>
-      <c r="CS27" s="4"/>
+      <c r="CP27" s="29"/>
+      <c r="CQ27" s="29"/>
+      <c r="CR27" s="29"/>
+      <c r="CS27" s="29"/>
+      <c r="CT27" s="29"/>
     </row>
     <row r="28" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="32">
+      <c r="B28" s="42">
         <v>2000</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="32">
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="42">
         <v>2001</v>
       </c>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="32">
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="42">
         <v>2002</v>
       </c>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="32">
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="42">
         <v>2003</v>
       </c>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="32">
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="42">
         <v>2004</v>
       </c>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="32">
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="42">
         <v>2005</v>
       </c>
-      <c r="W28" s="33"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="32">
+      <c r="W28" s="43"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="42">
         <v>2006</v>
       </c>
-      <c r="AA28" s="33"/>
-      <c r="AB28" s="33"/>
-      <c r="AC28" s="33"/>
-      <c r="AD28" s="32">
+      <c r="AA28" s="43"/>
+      <c r="AB28" s="43"/>
+      <c r="AC28" s="43"/>
+      <c r="AD28" s="42">
         <v>2007</v>
       </c>
-      <c r="AE28" s="33"/>
-      <c r="AF28" s="33"/>
-      <c r="AG28" s="33"/>
-      <c r="AH28" s="32">
+      <c r="AE28" s="43"/>
+      <c r="AF28" s="43"/>
+      <c r="AG28" s="43"/>
+      <c r="AH28" s="42">
         <v>2008</v>
       </c>
-      <c r="AI28" s="33"/>
-      <c r="AJ28" s="33"/>
-      <c r="AK28" s="33"/>
-      <c r="AL28" s="32">
+      <c r="AI28" s="43"/>
+      <c r="AJ28" s="43"/>
+      <c r="AK28" s="43"/>
+      <c r="AL28" s="42">
         <v>2009</v>
       </c>
-      <c r="AM28" s="33"/>
-      <c r="AN28" s="33"/>
-      <c r="AO28" s="33"/>
-      <c r="AP28" s="32">
+      <c r="AM28" s="43"/>
+      <c r="AN28" s="43"/>
+      <c r="AO28" s="43"/>
+      <c r="AP28" s="42">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="33"/>
-      <c r="AR28" s="33"/>
-      <c r="AS28" s="33"/>
-      <c r="AT28" s="32">
+      <c r="AQ28" s="43"/>
+      <c r="AR28" s="43"/>
+      <c r="AS28" s="43"/>
+      <c r="AT28" s="42">
         <v>2011</v>
       </c>
-      <c r="AU28" s="33"/>
-      <c r="AV28" s="33"/>
-      <c r="AW28" s="33"/>
-      <c r="AX28" s="32">
+      <c r="AU28" s="43"/>
+      <c r="AV28" s="43"/>
+      <c r="AW28" s="43"/>
+      <c r="AX28" s="42">
         <v>2012</v>
       </c>
-      <c r="AY28" s="33"/>
-      <c r="AZ28" s="33"/>
-      <c r="BA28" s="33"/>
-      <c r="BB28" s="32">
+      <c r="AY28" s="43"/>
+      <c r="AZ28" s="43"/>
+      <c r="BA28" s="43"/>
+      <c r="BB28" s="42">
         <v>2013</v>
       </c>
-      <c r="BC28" s="33"/>
-      <c r="BD28" s="33"/>
-      <c r="BE28" s="33"/>
-      <c r="BF28" s="32">
+      <c r="BC28" s="43"/>
+      <c r="BD28" s="43"/>
+      <c r="BE28" s="43"/>
+      <c r="BF28" s="42">
         <v>2014</v>
       </c>
-      <c r="BG28" s="33"/>
-      <c r="BH28" s="33"/>
-      <c r="BI28" s="33"/>
-      <c r="BJ28" s="32">
+      <c r="BG28" s="43"/>
+      <c r="BH28" s="43"/>
+      <c r="BI28" s="43"/>
+      <c r="BJ28" s="42">
         <v>2015</v>
       </c>
-      <c r="BK28" s="33"/>
-      <c r="BL28" s="33"/>
-      <c r="BM28" s="33"/>
-      <c r="BN28" s="32">
+      <c r="BK28" s="43"/>
+      <c r="BL28" s="43"/>
+      <c r="BM28" s="43"/>
+      <c r="BN28" s="42">
         <v>2016</v>
       </c>
-      <c r="BO28" s="33"/>
-      <c r="BP28" s="33"/>
-      <c r="BQ28" s="33"/>
-      <c r="BR28" s="32">
+      <c r="BO28" s="43"/>
+      <c r="BP28" s="43"/>
+      <c r="BQ28" s="43"/>
+      <c r="BR28" s="42">
         <v>2017</v>
       </c>
-      <c r="BS28" s="33"/>
-      <c r="BT28" s="33"/>
-      <c r="BU28" s="33"/>
-      <c r="BV28" s="32">
+      <c r="BS28" s="43"/>
+      <c r="BT28" s="43"/>
+      <c r="BU28" s="43"/>
+      <c r="BV28" s="42">
         <v>2018</v>
       </c>
-      <c r="BW28" s="33"/>
-      <c r="BX28" s="33"/>
-      <c r="BY28" s="33"/>
-      <c r="BZ28" s="32">
+      <c r="BW28" s="43"/>
+      <c r="BX28" s="43"/>
+      <c r="BY28" s="43"/>
+      <c r="BZ28" s="42">
         <v>2019</v>
       </c>
-      <c r="CA28" s="33"/>
-      <c r="CB28" s="33"/>
-      <c r="CC28" s="33"/>
-      <c r="CD28" s="32">
+      <c r="CA28" s="43"/>
+      <c r="CB28" s="43"/>
+      <c r="CC28" s="43"/>
+      <c r="CD28" s="42">
         <v>2020</v>
       </c>
-      <c r="CE28" s="32"/>
-      <c r="CF28" s="32"/>
-      <c r="CG28" s="32"/>
-      <c r="CH28" s="32">
+      <c r="CE28" s="42"/>
+      <c r="CF28" s="42"/>
+      <c r="CG28" s="42"/>
+      <c r="CH28" s="26">
         <v>2021</v>
       </c>
-      <c r="CI28" s="32"/>
-      <c r="CJ28" s="32"/>
-      <c r="CK28" s="32"/>
-      <c r="CL28" s="31">
+      <c r="CI28" s="26"/>
+      <c r="CJ28" s="26"/>
+      <c r="CK28" s="26"/>
+      <c r="CL28" s="26">
         <v>2022</v>
       </c>
-      <c r="CM28" s="31"/>
-      <c r="CN28" s="31"/>
-      <c r="CO28" s="31"/>
-      <c r="CP28" s="31">
+      <c r="CM28" s="26"/>
+      <c r="CN28" s="26"/>
+      <c r="CO28" s="26"/>
+      <c r="CP28" s="30">
         <v>2023</v>
       </c>
-      <c r="CQ28" s="31"/>
-      <c r="CR28" s="31"/>
-      <c r="CS28" s="31"/>
+      <c r="CQ28" s="30"/>
+      <c r="CR28" s="30"/>
+      <c r="CS28" s="30"/>
+      <c r="CT28" s="30">
+        <v>2024</v>
+      </c>
     </row>
     <row r="29" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
@@ -26606,21 +26718,29 @@
       <c r="CO29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP29" s="7" t="s">
+      <c r="CP29" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CQ29" s="7" t="s">
+      <c r="CQ29" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="CR29" s="7" t="s">
+      <c r="CR29" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="CS29" s="7" t="s">
+      <c r="CS29" s="31" t="s">
         <v>9</v>
+      </c>
+      <c r="CT29" s="31" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
+      <c r="CP30" s="28"/>
+      <c r="CQ30" s="28"/>
+      <c r="CR30" s="28"/>
+      <c r="CS30" s="28"/>
+      <c r="CT30" s="28"/>
     </row>
     <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -26890,31 +27010,33 @@
       <c r="CK31" s="22">
         <v>12630.69882945955</v>
       </c>
-      <c r="CL31" s="26">
-        <v>12944.695738166523</v>
-      </c>
-      <c r="CM31" s="26">
-        <v>17785.341151424225</v>
-      </c>
-      <c r="CN31" s="26">
-        <v>10543.344914866946</v>
-      </c>
-      <c r="CO31" s="26">
-        <v>13846.543308001339</v>
-      </c>
-      <c r="CP31" s="26">
-        <v>12122.940622151416</v>
-      </c>
-      <c r="CQ31" s="26">
-        <v>17238.017360021182</v>
-      </c>
-      <c r="CR31" s="26">
-        <v>10915.500722164814</v>
-      </c>
-      <c r="CS31" s="26">
-        <v>14234.678468606231</v>
-      </c>
-      <c r="CT31" s="10"/>
+      <c r="CL31" s="22">
+        <v>12923.960546844668</v>
+      </c>
+      <c r="CM31" s="22">
+        <v>17749.875428113057</v>
+      </c>
+      <c r="CN31" s="22">
+        <v>10605.02450831587</v>
+      </c>
+      <c r="CO31" s="22">
+        <v>13654.86697409441</v>
+      </c>
+      <c r="CP31" s="32">
+        <v>12095.637987354556</v>
+      </c>
+      <c r="CQ31" s="32">
+        <v>17059.997546396302</v>
+      </c>
+      <c r="CR31" s="32">
+        <v>10837.458302174649</v>
+      </c>
+      <c r="CS31" s="32">
+        <v>14464.374266498478</v>
+      </c>
+      <c r="CT31" s="32">
+        <v>12197.238441812755</v>
+      </c>
       <c r="CU31" s="10"/>
       <c r="CV31" s="10"/>
       <c r="CW31" s="10"/>
@@ -27241,31 +27363,33 @@
       <c r="CK32" s="23">
         <v>169052.81165885623</v>
       </c>
-      <c r="CL32" s="27">
-        <v>144638.98927942221</v>
-      </c>
-      <c r="CM32" s="27">
-        <v>176085.42660207796</v>
-      </c>
-      <c r="CN32" s="27">
-        <v>134996.14611586751</v>
-      </c>
-      <c r="CO32" s="27">
-        <v>179027.3493791802</v>
-      </c>
-      <c r="CP32" s="27">
-        <v>152940.2892004395</v>
-      </c>
-      <c r="CQ32" s="27">
-        <v>183823.23767067181</v>
-      </c>
-      <c r="CR32" s="27">
-        <v>140728.86311124076</v>
-      </c>
-      <c r="CS32" s="27">
-        <v>185566.83298842062</v>
-      </c>
-      <c r="CT32" s="10"/>
+      <c r="CL32" s="23">
+        <v>144801.42506514501</v>
+      </c>
+      <c r="CM32" s="23">
+        <v>175979.11753288438</v>
+      </c>
+      <c r="CN32" s="23">
+        <v>134607.30570273273</v>
+      </c>
+      <c r="CO32" s="23">
+        <v>179750.32063927912</v>
+      </c>
+      <c r="CP32" s="33">
+        <v>152748.30565401711</v>
+      </c>
+      <c r="CQ32" s="33">
+        <v>183439.40288751404</v>
+      </c>
+      <c r="CR32" s="33">
+        <v>140366.26543260479</v>
+      </c>
+      <c r="CS32" s="33">
+        <v>188603.91106529051</v>
+      </c>
+      <c r="CT32" s="33">
+        <v>159585.70868137528</v>
+      </c>
       <c r="CU32" s="10"/>
       <c r="CV32" s="10"/>
       <c r="CW32" s="10"/>
@@ -27417,11 +27541,11 @@
       <c r="CM33" s="10"/>
       <c r="CN33" s="10"/>
       <c r="CO33" s="10"/>
-      <c r="CP33" s="10"/>
-      <c r="CQ33" s="10"/>
-      <c r="CR33" s="10"/>
-      <c r="CS33" s="10"/>
-      <c r="CT33" s="10"/>
+      <c r="CP33" s="37"/>
+      <c r="CQ33" s="37"/>
+      <c r="CR33" s="37"/>
+      <c r="CS33" s="37"/>
+      <c r="CT33" s="37"/>
       <c r="CU33" s="10"/>
       <c r="CV33" s="10"/>
       <c r="CW33" s="10"/>
@@ -27748,31 +27872,33 @@
       <c r="CK34" s="25">
         <v>181683.51048831578</v>
       </c>
-      <c r="CL34" s="29">
-        <v>157583.68501758872</v>
-      </c>
-      <c r="CM34" s="29">
-        <v>193870.76775350218</v>
-      </c>
-      <c r="CN34" s="29">
-        <v>145539.49103073444</v>
-      </c>
-      <c r="CO34" s="29">
-        <v>192873.89268718153</v>
-      </c>
-      <c r="CP34" s="29">
-        <v>165063.22982259092</v>
-      </c>
-      <c r="CQ34" s="29">
-        <v>201061.25503069299</v>
-      </c>
-      <c r="CR34" s="29">
-        <v>151644.36383340557</v>
-      </c>
-      <c r="CS34" s="29">
-        <v>199801.51145702685</v>
-      </c>
-      <c r="CT34" s="10"/>
+      <c r="CL34" s="25">
+        <v>157725.38561198968</v>
+      </c>
+      <c r="CM34" s="25">
+        <v>193728.99296099745</v>
+      </c>
+      <c r="CN34" s="25">
+        <v>145212.3302110486</v>
+      </c>
+      <c r="CO34" s="25">
+        <v>193405.18761337353</v>
+      </c>
+      <c r="CP34" s="35">
+        <v>164843.94364137168</v>
+      </c>
+      <c r="CQ34" s="35">
+        <v>200499.40043391034</v>
+      </c>
+      <c r="CR34" s="35">
+        <v>151203.72373477943</v>
+      </c>
+      <c r="CS34" s="35">
+        <v>203068.285331789</v>
+      </c>
+      <c r="CT34" s="35">
+        <v>171782.94712318803</v>
+      </c>
       <c r="CU34" s="10"/>
       <c r="CV34" s="10"/>
       <c r="CW34" s="10"/>
@@ -27925,15 +28051,21 @@
       <c r="CM35" s="16"/>
       <c r="CN35" s="16"/>
       <c r="CO35" s="16"/>
-      <c r="CP35" s="16"/>
-      <c r="CQ35" s="16"/>
-      <c r="CR35" s="16"/>
-      <c r="CS35" s="16"/>
+      <c r="CP35" s="36"/>
+      <c r="CQ35" s="36"/>
+      <c r="CR35" s="36"/>
+      <c r="CS35" s="36"/>
+      <c r="CT35" s="36"/>
     </row>
     <row r="36" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="CP36" s="28"/>
+      <c r="CQ36" s="28"/>
+      <c r="CR36" s="28"/>
+      <c r="CS36" s="28"/>
+      <c r="CT36" s="28"/>
     </row>
     <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="10"/>
@@ -28028,11 +28160,11 @@
       <c r="CM37" s="10"/>
       <c r="CN37" s="10"/>
       <c r="CO37" s="10"/>
-      <c r="CP37" s="10"/>
-      <c r="CQ37" s="10"/>
-      <c r="CR37" s="10"/>
-      <c r="CS37" s="10"/>
-      <c r="CT37" s="10"/>
+      <c r="CP37" s="37"/>
+      <c r="CQ37" s="37"/>
+      <c r="CR37" s="37"/>
+      <c r="CS37" s="37"/>
+      <c r="CT37" s="37"/>
       <c r="CU37" s="10"/>
       <c r="CV37" s="10"/>
       <c r="CW37" s="10"/>
@@ -28184,11 +28316,11 @@
       <c r="CM38" s="10"/>
       <c r="CN38" s="10"/>
       <c r="CO38" s="10"/>
-      <c r="CP38" s="10"/>
-      <c r="CQ38" s="10"/>
-      <c r="CR38" s="10"/>
-      <c r="CS38" s="10"/>
-      <c r="CT38" s="10"/>
+      <c r="CP38" s="37"/>
+      <c r="CQ38" s="37"/>
+      <c r="CR38" s="37"/>
+      <c r="CS38" s="37"/>
+      <c r="CT38" s="37"/>
       <c r="CU38" s="10"/>
       <c r="CV38" s="10"/>
       <c r="CW38" s="10"/>
@@ -28251,178 +28383,223 @@
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CP39" s="28"/>
+      <c r="CQ39" s="28"/>
+      <c r="CR39" s="28"/>
+      <c r="CS39" s="28"/>
+      <c r="CT39" s="28"/>
     </row>
     <row r="40" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CP40" s="28"/>
+      <c r="CQ40" s="28"/>
+      <c r="CR40" s="28"/>
+      <c r="CS40" s="28"/>
+      <c r="CT40" s="28"/>
     </row>
     <row r="41" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="CP41" s="28"/>
+      <c r="CQ41" s="28"/>
+      <c r="CR41" s="28"/>
+      <c r="CS41" s="28"/>
+      <c r="CT41" s="28"/>
     </row>
-    <row r="42" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP42" s="28"/>
+      <c r="CQ42" s="28"/>
+      <c r="CR42" s="28"/>
+      <c r="CS42" s="28"/>
+      <c r="CT42" s="28"/>
+    </row>
     <row r="43" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="CP43" s="28"/>
+      <c r="CQ43" s="28"/>
+      <c r="CR43" s="28"/>
+      <c r="CS43" s="28"/>
+      <c r="CT43" s="28"/>
     </row>
     <row r="44" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="CP44" s="28"/>
+      <c r="CQ44" s="28"/>
+      <c r="CR44" s="28"/>
+      <c r="CS44" s="28"/>
+      <c r="CT44" s="28"/>
     </row>
     <row r="45" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="CP45" s="28"/>
+      <c r="CQ45" s="28"/>
+      <c r="CR45" s="28"/>
+      <c r="CS45" s="28"/>
+      <c r="CT45" s="28"/>
     </row>
-    <row r="46" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP46" s="28"/>
+      <c r="CQ46" s="28"/>
+      <c r="CR46" s="28"/>
+      <c r="CS46" s="28"/>
+      <c r="CT46" s="28"/>
+    </row>
     <row r="47" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32" t="s">
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32" t="s">
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="32"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="32" t="s">
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="32"/>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="32"/>
-      <c r="R47" s="32" t="s">
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="32"/>
-      <c r="T47" s="32"/>
-      <c r="U47" s="32"/>
-      <c r="V47" s="32" t="s">
+      <c r="S47" s="42"/>
+      <c r="T47" s="42"/>
+      <c r="U47" s="42"/>
+      <c r="V47" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="32"/>
-      <c r="X47" s="32"/>
-      <c r="Y47" s="32"/>
-      <c r="Z47" s="32" t="s">
+      <c r="W47" s="42"/>
+      <c r="X47" s="42"/>
+      <c r="Y47" s="42"/>
+      <c r="Z47" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="32"/>
-      <c r="AB47" s="32"/>
-      <c r="AC47" s="32"/>
-      <c r="AD47" s="32" t="s">
+      <c r="AA47" s="42"/>
+      <c r="AB47" s="42"/>
+      <c r="AC47" s="42"/>
+      <c r="AD47" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="32"/>
-      <c r="AF47" s="32"/>
-      <c r="AG47" s="32"/>
-      <c r="AH47" s="32" t="s">
+      <c r="AE47" s="42"/>
+      <c r="AF47" s="42"/>
+      <c r="AG47" s="42"/>
+      <c r="AH47" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="32"/>
-      <c r="AJ47" s="32"/>
-      <c r="AK47" s="32"/>
-      <c r="AL47" s="32" t="s">
+      <c r="AI47" s="42"/>
+      <c r="AJ47" s="42"/>
+      <c r="AK47" s="42"/>
+      <c r="AL47" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="32"/>
-      <c r="AN47" s="32"/>
-      <c r="AO47" s="32"/>
-      <c r="AP47" s="32" t="s">
+      <c r="AM47" s="42"/>
+      <c r="AN47" s="42"/>
+      <c r="AO47" s="42"/>
+      <c r="AP47" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="32"/>
-      <c r="AR47" s="32"/>
-      <c r="AS47" s="32"/>
-      <c r="AT47" s="32" t="s">
+      <c r="AQ47" s="42"/>
+      <c r="AR47" s="42"/>
+      <c r="AS47" s="42"/>
+      <c r="AT47" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="32"/>
-      <c r="AV47" s="32"/>
-      <c r="AW47" s="32"/>
-      <c r="AX47" s="32" t="s">
+      <c r="AU47" s="42"/>
+      <c r="AV47" s="42"/>
+      <c r="AW47" s="42"/>
+      <c r="AX47" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="32"/>
-      <c r="AZ47" s="32"/>
-      <c r="BA47" s="32"/>
-      <c r="BB47" s="32" t="s">
+      <c r="AY47" s="42"/>
+      <c r="AZ47" s="42"/>
+      <c r="BA47" s="42"/>
+      <c r="BB47" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="32"/>
-      <c r="BD47" s="32"/>
-      <c r="BE47" s="32"/>
-      <c r="BF47" s="32" t="s">
+      <c r="BC47" s="42"/>
+      <c r="BD47" s="42"/>
+      <c r="BE47" s="42"/>
+      <c r="BF47" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="32"/>
-      <c r="BH47" s="32"/>
-      <c r="BI47" s="32"/>
-      <c r="BJ47" s="32" t="s">
+      <c r="BG47" s="42"/>
+      <c r="BH47" s="42"/>
+      <c r="BI47" s="42"/>
+      <c r="BJ47" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="32"/>
-      <c r="BL47" s="32"/>
-      <c r="BM47" s="32"/>
-      <c r="BN47" s="32" t="s">
+      <c r="BK47" s="42"/>
+      <c r="BL47" s="42"/>
+      <c r="BM47" s="42"/>
+      <c r="BN47" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="32"/>
-      <c r="BP47" s="32"/>
-      <c r="BQ47" s="32"/>
-      <c r="BR47" s="32" t="s">
+      <c r="BO47" s="42"/>
+      <c r="BP47" s="42"/>
+      <c r="BQ47" s="42"/>
+      <c r="BR47" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="BS47" s="32"/>
-      <c r="BT47" s="32"/>
-      <c r="BU47" s="32"/>
-      <c r="BV47" s="32" t="s">
+      <c r="BS47" s="42"/>
+      <c r="BT47" s="42"/>
+      <c r="BU47" s="42"/>
+      <c r="BV47" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="BW47" s="32"/>
-      <c r="BX47" s="32"/>
-      <c r="BY47" s="32"/>
-      <c r="BZ47" s="32" t="s">
+      <c r="BW47" s="42"/>
+      <c r="BX47" s="42"/>
+      <c r="BY47" s="42"/>
+      <c r="BZ47" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="CA47" s="32"/>
-      <c r="CB47" s="32"/>
-      <c r="CC47" s="32"/>
-      <c r="CD47" s="32" t="s">
+      <c r="CA47" s="42"/>
+      <c r="CB47" s="42"/>
+      <c r="CC47" s="42"/>
+      <c r="CD47" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="32"/>
-      <c r="CF47" s="32"/>
-      <c r="CG47" s="32"/>
-      <c r="CH47" s="32" t="s">
+      <c r="CE47" s="42"/>
+      <c r="CF47" s="42"/>
+      <c r="CG47" s="42"/>
+      <c r="CH47" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="CI47" s="32"/>
-      <c r="CJ47" s="32"/>
-      <c r="CK47" s="32"/>
-      <c r="CL47" s="31" t="s">
+      <c r="CI47" s="26"/>
+      <c r="CJ47" s="26"/>
+      <c r="CK47" s="26"/>
+      <c r="CL47" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="CM47" s="31"/>
-      <c r="CN47" s="31"/>
-      <c r="CO47" s="31"/>
-      <c r="CP47" s="30"/>
-      <c r="CQ47" s="30"/>
-      <c r="CR47" s="30"/>
-      <c r="CS47" s="30"/>
+      <c r="CM47" s="26"/>
+      <c r="CN47" s="26"/>
+      <c r="CO47" s="26"/>
+      <c r="CP47" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="CQ47" s="27"/>
+      <c r="CR47" s="27"/>
+      <c r="CS47" s="27"/>
+      <c r="CT47" s="27"/>
     </row>
     <row r="48" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -28704,13 +28881,21 @@
       <c r="CO48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP48" s="6"/>
-      <c r="CQ48" s="6"/>
-      <c r="CR48" s="6"/>
-      <c r="CS48" s="6"/>
+      <c r="CP48" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ48" s="38"/>
+      <c r="CR48" s="38"/>
+      <c r="CS48" s="38"/>
+      <c r="CT48" s="38"/>
     </row>
     <row r="49" spans="1:151" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
+      <c r="CP49" s="28"/>
+      <c r="CQ49" s="28"/>
+      <c r="CR49" s="28"/>
+      <c r="CS49" s="28"/>
+      <c r="CT49" s="28"/>
     </row>
     <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -28969,34 +29154,36 @@
         <v>4.4326360015819404</v>
       </c>
       <c r="CH50" s="18">
-        <v>12.427356276643195</v>
+        <v>12.247266857057042</v>
       </c>
       <c r="CI50" s="18">
-        <v>17.437931092177664</v>
+        <v>17.203748282025686</v>
       </c>
       <c r="CJ50" s="18">
-        <v>2.7067776072871084</v>
+        <v>3.3076222479981823</v>
       </c>
       <c r="CK50" s="18">
-        <v>13.397607524711262</v>
+        <v>12.676089103858629</v>
       </c>
       <c r="CL50" s="18">
-        <v>-1.6138956826001447</v>
+        <v>-1.6779804951300861</v>
       </c>
       <c r="CM50" s="18">
-        <v>1.018849636822992</v>
+        <v>1.4028167835043348</v>
       </c>
       <c r="CN50" s="18">
-        <v>9.003474204696289</v>
+        <v>8.9975499392989491</v>
       </c>
       <c r="CO50" s="18">
-        <v>9.7758424559029748</v>
-      </c>
-      <c r="CP50" s="18"/>
-      <c r="CQ50" s="18"/>
-      <c r="CR50" s="18"/>
-      <c r="CS50" s="18"/>
-      <c r="CT50" s="10"/>
+        <v>11.347554594719895</v>
+      </c>
+      <c r="CP50" s="39">
+        <v>3.5821728347258386</v>
+      </c>
+      <c r="CQ50" s="39"/>
+      <c r="CR50" s="39"/>
+      <c r="CS50" s="39"/>
+      <c r="CT50" s="39"/>
       <c r="CU50" s="10"/>
       <c r="CV50" s="10"/>
       <c r="CW50" s="10"/>
@@ -29308,34 +29495,36 @@
         <v>8.5976372853611309</v>
       </c>
       <c r="CH51" s="18">
-        <v>7.7684649623132884</v>
+        <v>7.8894935685660812</v>
       </c>
       <c r="CI51" s="18">
-        <v>10.628919055472011</v>
+        <v>10.56212842073505</v>
       </c>
       <c r="CJ51" s="18">
-        <v>8.8258981846261548</v>
+        <v>8.5124380716718377</v>
       </c>
       <c r="CK51" s="18">
-        <v>6.5273277992473453</v>
+        <v>6.9898460576522723</v>
       </c>
       <c r="CL51" s="18">
-        <v>6.5000383494229368</v>
+        <v>6.2470305513722337</v>
       </c>
       <c r="CM51" s="18">
-        <v>5.1107824568360911</v>
+        <v>4.9546692470223945</v>
       </c>
       <c r="CN51" s="18">
-        <v>4.9274834105839034</v>
+        <v>4.9594537480124785</v>
       </c>
       <c r="CO51" s="18">
-        <v>4.2940751196528026</v>
-      </c>
-      <c r="CP51" s="18"/>
-      <c r="CQ51" s="18"/>
-      <c r="CR51" s="18"/>
-      <c r="CS51" s="18"/>
-      <c r="CT51" s="10"/>
+        <v>5.5746581014820578</v>
+      </c>
+      <c r="CP51" s="39">
+        <v>4.9172257841645433</v>
+      </c>
+      <c r="CQ51" s="39"/>
+      <c r="CR51" s="39"/>
+      <c r="CS51" s="39"/>
+      <c r="CT51" s="39"/>
       <c r="CU51" s="10"/>
       <c r="CV51" s="10"/>
       <c r="CW51" s="10"/>
@@ -29484,11 +29673,11 @@
       <c r="CM52" s="19"/>
       <c r="CN52" s="19"/>
       <c r="CO52" s="19"/>
-      <c r="CP52" s="19"/>
-      <c r="CQ52" s="19"/>
-      <c r="CR52" s="19"/>
-      <c r="CS52" s="19"/>
-      <c r="CT52" s="10"/>
+      <c r="CP52" s="40"/>
+      <c r="CQ52" s="40"/>
+      <c r="CR52" s="40"/>
+      <c r="CS52" s="40"/>
+      <c r="CT52" s="40"/>
       <c r="CU52" s="10"/>
       <c r="CV52" s="10"/>
       <c r="CW52" s="10"/>
@@ -29800,34 +29989,36 @@
         <v>8.2793307623269925</v>
       </c>
       <c r="CH53" s="18">
-        <v>8.1580028022664237</v>
+        <v>8.2538544173763597</v>
       </c>
       <c r="CI53" s="18">
-        <v>11.209713426065633</v>
+        <v>11.128644591695831</v>
       </c>
       <c r="CJ53" s="18">
-        <v>8.3414464722761039</v>
+        <v>8.1003720065606188</v>
       </c>
       <c r="CK53" s="18">
-        <v>7.0337298972571034</v>
+        <v>7.4089738840957438</v>
       </c>
       <c r="CL53" s="18">
-        <v>5.7948390303071733</v>
+        <v>5.5599631311251301</v>
       </c>
       <c r="CM53" s="18">
-        <v>4.7422018664132253</v>
+        <v>4.6351414112854741</v>
       </c>
       <c r="CN53" s="18">
-        <v>5.2333972697043123</v>
+        <v>5.26497633422305</v>
       </c>
       <c r="CO53" s="18">
-        <v>4.7221550892440263</v>
-      </c>
-      <c r="CP53" s="18"/>
-      <c r="CQ53" s="18"/>
-      <c r="CR53" s="18"/>
-      <c r="CS53" s="18"/>
-      <c r="CT53" s="10"/>
+        <v>6.0210394543868517</v>
+      </c>
+      <c r="CP53" s="39">
+        <v>4.8094181463883103</v>
+      </c>
+      <c r="CQ53" s="39"/>
+      <c r="CR53" s="39"/>
+      <c r="CS53" s="39"/>
+      <c r="CT53" s="39"/>
       <c r="CU53" s="10"/>
       <c r="CV53" s="10"/>
       <c r="CW53" s="10"/>
@@ -29976,15 +30167,21 @@
       <c r="CM54" s="16"/>
       <c r="CN54" s="16"/>
       <c r="CO54" s="16"/>
-      <c r="CP54" s="16"/>
-      <c r="CQ54" s="16"/>
-      <c r="CR54" s="16"/>
-      <c r="CS54" s="16"/>
+      <c r="CP54" s="36"/>
+      <c r="CQ54" s="36"/>
+      <c r="CR54" s="36"/>
+      <c r="CS54" s="36"/>
+      <c r="CT54" s="36"/>
     </row>
     <row r="55" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="CP55" s="28"/>
+      <c r="CQ55" s="28"/>
+      <c r="CR55" s="28"/>
+      <c r="CS55" s="28"/>
+      <c r="CT55" s="28"/>
     </row>
     <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="10"/>
@@ -30079,11 +30276,11 @@
       <c r="CM56" s="10"/>
       <c r="CN56" s="10"/>
       <c r="CO56" s="10"/>
-      <c r="CP56" s="10"/>
-      <c r="CQ56" s="10"/>
-      <c r="CR56" s="10"/>
-      <c r="CS56" s="10"/>
-      <c r="CT56" s="10"/>
+      <c r="CP56" s="37"/>
+      <c r="CQ56" s="37"/>
+      <c r="CR56" s="37"/>
+      <c r="CS56" s="37"/>
+      <c r="CT56" s="37"/>
       <c r="CU56" s="10"/>
       <c r="CV56" s="10"/>
       <c r="CW56" s="10"/>
@@ -30231,11 +30428,11 @@
       <c r="CM57" s="10"/>
       <c r="CN57" s="10"/>
       <c r="CO57" s="10"/>
-      <c r="CP57" s="10"/>
-      <c r="CQ57" s="10"/>
-      <c r="CR57" s="10"/>
-      <c r="CS57" s="10"/>
-      <c r="CT57" s="10"/>
+      <c r="CP57" s="37"/>
+      <c r="CQ57" s="37"/>
+      <c r="CR57" s="37"/>
+      <c r="CS57" s="37"/>
+      <c r="CT57" s="37"/>
       <c r="CU57" s="10"/>
       <c r="CV57" s="10"/>
       <c r="CW57" s="10"/>
@@ -30294,178 +30491,223 @@
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CP58" s="28"/>
+      <c r="CQ58" s="28"/>
+      <c r="CR58" s="28"/>
+      <c r="CS58" s="28"/>
+      <c r="CT58" s="28"/>
     </row>
     <row r="59" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CP59" s="28"/>
+      <c r="CQ59" s="28"/>
+      <c r="CR59" s="28"/>
+      <c r="CS59" s="28"/>
+      <c r="CT59" s="28"/>
     </row>
     <row r="60" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="CP60" s="28"/>
+      <c r="CQ60" s="28"/>
+      <c r="CR60" s="28"/>
+      <c r="CS60" s="28"/>
+      <c r="CT60" s="28"/>
     </row>
-    <row r="61" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP61" s="28"/>
+      <c r="CQ61" s="28"/>
+      <c r="CR61" s="28"/>
+      <c r="CS61" s="28"/>
+      <c r="CT61" s="28"/>
+    </row>
     <row r="62" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="CP62" s="28"/>
+      <c r="CQ62" s="28"/>
+      <c r="CR62" s="28"/>
+      <c r="CS62" s="28"/>
+      <c r="CT62" s="28"/>
     </row>
     <row r="63" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="CP63" s="28"/>
+      <c r="CQ63" s="28"/>
+      <c r="CR63" s="28"/>
+      <c r="CS63" s="28"/>
+      <c r="CT63" s="28"/>
     </row>
     <row r="64" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="CP64" s="28"/>
+      <c r="CQ64" s="28"/>
+      <c r="CR64" s="28"/>
+      <c r="CS64" s="28"/>
+      <c r="CT64" s="28"/>
     </row>
-    <row r="65" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP65" s="28"/>
+      <c r="CQ65" s="28"/>
+      <c r="CR65" s="28"/>
+      <c r="CS65" s="28"/>
+      <c r="CT65" s="28"/>
+    </row>
     <row r="66" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="32" t="s">
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="32" t="s">
+      <c r="G66" s="44"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="34"/>
-      <c r="L66" s="34"/>
-      <c r="M66" s="34"/>
-      <c r="N66" s="32" t="s">
+      <c r="K66" s="44"/>
+      <c r="L66" s="44"/>
+      <c r="M66" s="44"/>
+      <c r="N66" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="34"/>
-      <c r="P66" s="34"/>
-      <c r="Q66" s="34"/>
-      <c r="R66" s="32" t="s">
+      <c r="O66" s="44"/>
+      <c r="P66" s="44"/>
+      <c r="Q66" s="44"/>
+      <c r="R66" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="34"/>
-      <c r="T66" s="34"/>
-      <c r="U66" s="34"/>
-      <c r="V66" s="32" t="s">
+      <c r="S66" s="44"/>
+      <c r="T66" s="44"/>
+      <c r="U66" s="44"/>
+      <c r="V66" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="34"/>
-      <c r="X66" s="34"/>
-      <c r="Y66" s="34"/>
-      <c r="Z66" s="32" t="s">
+      <c r="W66" s="44"/>
+      <c r="X66" s="44"/>
+      <c r="Y66" s="44"/>
+      <c r="Z66" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="34"/>
-      <c r="AB66" s="34"/>
-      <c r="AC66" s="34"/>
-      <c r="AD66" s="32" t="s">
+      <c r="AA66" s="44"/>
+      <c r="AB66" s="44"/>
+      <c r="AC66" s="44"/>
+      <c r="AD66" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="34"/>
-      <c r="AF66" s="34"/>
-      <c r="AG66" s="34"/>
-      <c r="AH66" s="32" t="s">
+      <c r="AE66" s="44"/>
+      <c r="AF66" s="44"/>
+      <c r="AG66" s="44"/>
+      <c r="AH66" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="34"/>
-      <c r="AJ66" s="34"/>
-      <c r="AK66" s="34"/>
-      <c r="AL66" s="32" t="s">
+      <c r="AI66" s="44"/>
+      <c r="AJ66" s="44"/>
+      <c r="AK66" s="44"/>
+      <c r="AL66" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="34"/>
-      <c r="AN66" s="34"/>
-      <c r="AO66" s="34"/>
-      <c r="AP66" s="32" t="s">
+      <c r="AM66" s="44"/>
+      <c r="AN66" s="44"/>
+      <c r="AO66" s="44"/>
+      <c r="AP66" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="34"/>
-      <c r="AR66" s="34"/>
-      <c r="AS66" s="34"/>
-      <c r="AT66" s="32" t="s">
+      <c r="AQ66" s="44"/>
+      <c r="AR66" s="44"/>
+      <c r="AS66" s="44"/>
+      <c r="AT66" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="34"/>
-      <c r="AV66" s="34"/>
-      <c r="AW66" s="34"/>
-      <c r="AX66" s="32" t="s">
+      <c r="AU66" s="44"/>
+      <c r="AV66" s="44"/>
+      <c r="AW66" s="44"/>
+      <c r="AX66" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="34"/>
-      <c r="AZ66" s="34"/>
-      <c r="BA66" s="34"/>
-      <c r="BB66" s="32" t="s">
+      <c r="AY66" s="44"/>
+      <c r="AZ66" s="44"/>
+      <c r="BA66" s="44"/>
+      <c r="BB66" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="34"/>
-      <c r="BD66" s="34"/>
-      <c r="BE66" s="34"/>
-      <c r="BF66" s="32" t="s">
+      <c r="BC66" s="44"/>
+      <c r="BD66" s="44"/>
+      <c r="BE66" s="44"/>
+      <c r="BF66" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="34"/>
-      <c r="BH66" s="34"/>
-      <c r="BI66" s="34"/>
-      <c r="BJ66" s="32" t="s">
+      <c r="BG66" s="44"/>
+      <c r="BH66" s="44"/>
+      <c r="BI66" s="44"/>
+      <c r="BJ66" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="34"/>
-      <c r="BL66" s="34"/>
-      <c r="BM66" s="34"/>
-      <c r="BN66" s="32" t="s">
+      <c r="BK66" s="44"/>
+      <c r="BL66" s="44"/>
+      <c r="BM66" s="44"/>
+      <c r="BN66" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="34"/>
-      <c r="BP66" s="34"/>
-      <c r="BQ66" s="34"/>
-      <c r="BR66" s="32" t="s">
+      <c r="BO66" s="44"/>
+      <c r="BP66" s="44"/>
+      <c r="BQ66" s="44"/>
+      <c r="BR66" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="BS66" s="34"/>
-      <c r="BT66" s="34"/>
-      <c r="BU66" s="34"/>
-      <c r="BV66" s="32" t="s">
+      <c r="BS66" s="44"/>
+      <c r="BT66" s="44"/>
+      <c r="BU66" s="44"/>
+      <c r="BV66" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="BW66" s="34"/>
-      <c r="BX66" s="34"/>
-      <c r="BY66" s="34"/>
-      <c r="BZ66" s="32" t="s">
+      <c r="BW66" s="44"/>
+      <c r="BX66" s="44"/>
+      <c r="BY66" s="44"/>
+      <c r="BZ66" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="CA66" s="34"/>
-      <c r="CB66" s="34"/>
-      <c r="CC66" s="34"/>
-      <c r="CD66" s="32" t="s">
+      <c r="CA66" s="44"/>
+      <c r="CB66" s="44"/>
+      <c r="CC66" s="44"/>
+      <c r="CD66" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="32"/>
-      <c r="CF66" s="32"/>
-      <c r="CG66" s="32"/>
-      <c r="CH66" s="32" t="s">
+      <c r="CE66" s="42"/>
+      <c r="CF66" s="42"/>
+      <c r="CG66" s="42"/>
+      <c r="CH66" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="CI66" s="32"/>
-      <c r="CJ66" s="32"/>
-      <c r="CK66" s="32"/>
-      <c r="CL66" s="31" t="s">
+      <c r="CI66" s="26"/>
+      <c r="CJ66" s="26"/>
+      <c r="CK66" s="26"/>
+      <c r="CL66" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="CM66" s="31"/>
-      <c r="CN66" s="31"/>
-      <c r="CO66" s="31"/>
-      <c r="CP66" s="30"/>
-      <c r="CQ66" s="30"/>
-      <c r="CR66" s="30"/>
-      <c r="CS66" s="30"/>
+      <c r="CM66" s="26"/>
+      <c r="CN66" s="26"/>
+      <c r="CO66" s="26"/>
+      <c r="CP66" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="CQ66" s="27"/>
+      <c r="CR66" s="27"/>
+      <c r="CS66" s="27"/>
+      <c r="CT66" s="27"/>
     </row>
     <row r="67" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
@@ -30747,13 +30989,21 @@
       <c r="CO67" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP67" s="6"/>
-      <c r="CQ67" s="6"/>
-      <c r="CR67" s="6"/>
-      <c r="CS67" s="6"/>
+      <c r="CP67" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ67" s="38"/>
+      <c r="CR67" s="38"/>
+      <c r="CS67" s="38"/>
+      <c r="CT67" s="38"/>
     </row>
     <row r="68" spans="1:151" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
+      <c r="CP68" s="28"/>
+      <c r="CQ68" s="28"/>
+      <c r="CR68" s="28"/>
+      <c r="CS68" s="28"/>
+      <c r="CT68" s="28"/>
     </row>
     <row r="69" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
@@ -31012,34 +31262,36 @@
         <v>2.1914840366558934</v>
       </c>
       <c r="CH69" s="18">
-        <v>10.147587611765303</v>
+        <v>9.9711499921434807</v>
       </c>
       <c r="CI69" s="18">
-        <v>17.302569556899726</v>
+        <v>17.068656670991373</v>
       </c>
       <c r="CJ69" s="18">
-        <v>0.43385281216879434</v>
+        <v>1.0214006217096312</v>
       </c>
       <c r="CK69" s="18">
-        <v>9.6261061637063392</v>
+        <v>8.1085627839222525</v>
       </c>
       <c r="CL69" s="18">
-        <v>-6.3481995454881144</v>
+        <v>-6.4092006199472991</v>
       </c>
       <c r="CM69" s="18">
-        <v>-3.0773870837963386</v>
+        <v>-3.8866632304590354</v>
       </c>
       <c r="CN69" s="18">
-        <v>3.5297698244994251</v>
+        <v>2.1917327364639192</v>
       </c>
       <c r="CO69" s="18">
-        <v>2.8031195365604731</v>
-      </c>
-      <c r="CP69" s="18"/>
-      <c r="CQ69" s="18"/>
-      <c r="CR69" s="18"/>
-      <c r="CS69" s="18"/>
-      <c r="CT69" s="10"/>
+        <v>5.9283425751407179</v>
+      </c>
+      <c r="CP69" s="39">
+        <v>0.8399759860903373</v>
+      </c>
+      <c r="CQ69" s="39"/>
+      <c r="CR69" s="39"/>
+      <c r="CS69" s="39"/>
+      <c r="CT69" s="39"/>
       <c r="CU69" s="10"/>
       <c r="CV69" s="10"/>
       <c r="CW69" s="10"/>
@@ -31351,34 +31603,36 @@
         <v>9.0816982855486401</v>
       </c>
       <c r="CH70" s="18">
-        <v>7.0636352372491302</v>
+        <v>7.1838722895041514</v>
       </c>
       <c r="CI70" s="18">
-        <v>9.9420074665654852</v>
+        <v>9.87563154492004</v>
       </c>
       <c r="CJ70" s="18">
-        <v>8.3283271282627283</v>
+        <v>8.0163002098157392</v>
       </c>
       <c r="CK70" s="18">
-        <v>5.9002495270248971</v>
+        <v>6.3279095304313415</v>
       </c>
       <c r="CL70" s="18">
-        <v>5.7393237897841942</v>
+        <v>5.4881231902910201</v>
       </c>
       <c r="CM70" s="18">
-        <v>4.3943506387271469</v>
+        <v>4.2393014916872716</v>
       </c>
       <c r="CN70" s="18">
-        <v>4.2465782619104147</v>
+        <v>4.278341134462778</v>
       </c>
       <c r="CO70" s="18">
-        <v>3.6527846901144585</v>
-      </c>
-      <c r="CP70" s="18"/>
-      <c r="CQ70" s="18"/>
-      <c r="CR70" s="18"/>
-      <c r="CS70" s="18"/>
-      <c r="CT70" s="10"/>
+        <v>4.9254935371039892</v>
+      </c>
+      <c r="CP70" s="39">
+        <v>4.47625457976946</v>
+      </c>
+      <c r="CQ70" s="39"/>
+      <c r="CR70" s="39"/>
+      <c r="CS70" s="39"/>
+      <c r="CT70" s="39"/>
       <c r="CU70" s="10"/>
       <c r="CV70" s="10"/>
       <c r="CW70" s="10"/>
@@ -31526,11 +31780,11 @@
       <c r="CM71" s="19"/>
       <c r="CN71" s="19"/>
       <c r="CO71" s="19"/>
-      <c r="CP71" s="19"/>
-      <c r="CQ71" s="19"/>
-      <c r="CR71" s="19"/>
-      <c r="CS71" s="19"/>
-      <c r="CT71" s="10"/>
+      <c r="CP71" s="40"/>
+      <c r="CQ71" s="40"/>
+      <c r="CR71" s="40"/>
+      <c r="CS71" s="40"/>
+      <c r="CT71" s="40"/>
       <c r="CU71" s="10"/>
       <c r="CV71" s="10"/>
       <c r="CW71" s="10"/>
@@ -31842,34 +32096,36 @@
         <v>8.5727767458884045</v>
       </c>
       <c r="CH72" s="18">
-        <v>7.3104409722284345</v>
+        <v>7.4069354365474709</v>
       </c>
       <c r="CI72" s="18">
-        <v>10.578545264026175</v>
+        <v>10.497680827928122</v>
       </c>
       <c r="CJ72" s="18">
-        <v>7.7149653611999156</v>
+        <v>7.4728309679130689</v>
       </c>
       <c r="CK72" s="18">
-        <v>6.1592723350562011</v>
+        <v>6.4517011442332404</v>
       </c>
       <c r="CL72" s="18">
-        <v>4.7463954178805778</v>
+        <v>4.5132608183275664</v>
       </c>
       <c r="CM72" s="18">
-        <v>3.7089074131759787</v>
+        <v>3.4947827733125933</v>
       </c>
       <c r="CN72" s="18">
-        <v>4.1946503725108784</v>
+        <v>4.1259537086300213</v>
       </c>
       <c r="CO72" s="18">
-        <v>3.5917866712428008</v>
-      </c>
-      <c r="CP72" s="18"/>
-      <c r="CQ72" s="18"/>
-      <c r="CR72" s="18"/>
-      <c r="CS72" s="18"/>
-      <c r="CT72" s="10"/>
+        <v>4.9962970681698806</v>
+      </c>
+      <c r="CP72" s="39">
+        <v>4.2094379256738819</v>
+      </c>
+      <c r="CQ72" s="39"/>
+      <c r="CR72" s="39"/>
+      <c r="CS72" s="39"/>
+      <c r="CT72" s="39"/>
       <c r="CU72" s="10"/>
       <c r="CV72" s="10"/>
       <c r="CW72" s="10"/>
@@ -32018,15 +32274,21 @@
       <c r="CM73" s="16"/>
       <c r="CN73" s="16"/>
       <c r="CO73" s="16"/>
-      <c r="CP73" s="16"/>
-      <c r="CQ73" s="16"/>
-      <c r="CR73" s="16"/>
-      <c r="CS73" s="16"/>
+      <c r="CP73" s="36"/>
+      <c r="CQ73" s="36"/>
+      <c r="CR73" s="36"/>
+      <c r="CS73" s="36"/>
+      <c r="CT73" s="36"/>
     </row>
     <row r="74" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="CP74" s="28"/>
+      <c r="CQ74" s="28"/>
+      <c r="CR74" s="28"/>
+      <c r="CS74" s="28"/>
+      <c r="CT74" s="28"/>
     </row>
     <row r="75" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="10"/>
@@ -32121,11 +32383,11 @@
       <c r="CM75" s="10"/>
       <c r="CN75" s="10"/>
       <c r="CO75" s="10"/>
-      <c r="CP75" s="10"/>
-      <c r="CQ75" s="10"/>
-      <c r="CR75" s="10"/>
-      <c r="CS75" s="10"/>
-      <c r="CT75" s="10"/>
+      <c r="CP75" s="37"/>
+      <c r="CQ75" s="37"/>
+      <c r="CR75" s="37"/>
+      <c r="CS75" s="37"/>
+      <c r="CT75" s="37"/>
       <c r="CU75" s="10"/>
       <c r="CV75" s="10"/>
       <c r="CW75" s="10"/>
@@ -32273,11 +32535,11 @@
       <c r="CM76" s="10"/>
       <c r="CN76" s="10"/>
       <c r="CO76" s="10"/>
-      <c r="CP76" s="10"/>
-      <c r="CQ76" s="10"/>
-      <c r="CR76" s="10"/>
-      <c r="CS76" s="10"/>
-      <c r="CT76" s="10"/>
+      <c r="CP76" s="37"/>
+      <c r="CQ76" s="37"/>
+      <c r="CR76" s="37"/>
+      <c r="CS76" s="37"/>
+      <c r="CT76" s="37"/>
       <c r="CU76" s="10"/>
       <c r="CV76" s="10"/>
       <c r="CW76" s="10"/>
@@ -32336,175 +32598,215 @@
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CP77" s="28"/>
+      <c r="CQ77" s="28"/>
+      <c r="CR77" s="28"/>
+      <c r="CS77" s="28"/>
+      <c r="CT77" s="28"/>
     </row>
     <row r="78" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="CP78" s="28"/>
+      <c r="CQ78" s="28"/>
+      <c r="CR78" s="28"/>
+      <c r="CS78" s="28"/>
+      <c r="CT78" s="28"/>
     </row>
-    <row r="79" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP79" s="28"/>
+      <c r="CQ79" s="28"/>
+      <c r="CR79" s="28"/>
+      <c r="CS79" s="28"/>
+      <c r="CT79" s="28"/>
+    </row>
     <row r="80" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="CP80" s="28"/>
+      <c r="CQ80" s="28"/>
+      <c r="CR80" s="28"/>
+      <c r="CS80" s="28"/>
+      <c r="CT80" s="28"/>
     </row>
     <row r="81" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="CP81" s="28"/>
+      <c r="CQ81" s="28"/>
+      <c r="CR81" s="28"/>
+      <c r="CS81" s="28"/>
+      <c r="CT81" s="28"/>
     </row>
     <row r="82" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="CP82" s="28"/>
+      <c r="CQ82" s="28"/>
+      <c r="CR82" s="28"/>
+      <c r="CS82" s="28"/>
+      <c r="CT82" s="28"/>
     </row>
-    <row r="83" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP83" s="28"/>
+      <c r="CQ83" s="28"/>
+      <c r="CR83" s="28"/>
+      <c r="CS83" s="28"/>
+      <c r="CT83" s="28"/>
+    </row>
     <row r="84" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
-      <c r="B84" s="32">
+      <c r="B84" s="42">
         <v>2000</v>
       </c>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="32">
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="42">
         <v>2001</v>
       </c>
-      <c r="G84" s="33"/>
-      <c r="H84" s="33"/>
-      <c r="I84" s="33"/>
-      <c r="J84" s="32">
+      <c r="G84" s="43"/>
+      <c r="H84" s="43"/>
+      <c r="I84" s="43"/>
+      <c r="J84" s="42">
         <v>2002</v>
       </c>
-      <c r="K84" s="33"/>
-      <c r="L84" s="33"/>
-      <c r="M84" s="33"/>
-      <c r="N84" s="32">
+      <c r="K84" s="43"/>
+      <c r="L84" s="43"/>
+      <c r="M84" s="43"/>
+      <c r="N84" s="42">
         <v>2003</v>
       </c>
-      <c r="O84" s="33"/>
-      <c r="P84" s="33"/>
-      <c r="Q84" s="33"/>
-      <c r="R84" s="32">
+      <c r="O84" s="43"/>
+      <c r="P84" s="43"/>
+      <c r="Q84" s="43"/>
+      <c r="R84" s="42">
         <v>2004</v>
       </c>
-      <c r="S84" s="33"/>
-      <c r="T84" s="33"/>
-      <c r="U84" s="33"/>
-      <c r="V84" s="32">
+      <c r="S84" s="43"/>
+      <c r="T84" s="43"/>
+      <c r="U84" s="43"/>
+      <c r="V84" s="42">
         <v>2005</v>
       </c>
-      <c r="W84" s="33"/>
-      <c r="X84" s="33"/>
-      <c r="Y84" s="33"/>
-      <c r="Z84" s="32">
+      <c r="W84" s="43"/>
+      <c r="X84" s="43"/>
+      <c r="Y84" s="43"/>
+      <c r="Z84" s="42">
         <v>2006</v>
       </c>
-      <c r="AA84" s="33"/>
-      <c r="AB84" s="33"/>
-      <c r="AC84" s="33"/>
-      <c r="AD84" s="32">
+      <c r="AA84" s="43"/>
+      <c r="AB84" s="43"/>
+      <c r="AC84" s="43"/>
+      <c r="AD84" s="42">
         <v>2007</v>
       </c>
-      <c r="AE84" s="33"/>
-      <c r="AF84" s="33"/>
-      <c r="AG84" s="33"/>
-      <c r="AH84" s="32">
+      <c r="AE84" s="43"/>
+      <c r="AF84" s="43"/>
+      <c r="AG84" s="43"/>
+      <c r="AH84" s="42">
         <v>2008</v>
       </c>
-      <c r="AI84" s="33"/>
-      <c r="AJ84" s="33"/>
-      <c r="AK84" s="33"/>
-      <c r="AL84" s="32">
+      <c r="AI84" s="43"/>
+      <c r="AJ84" s="43"/>
+      <c r="AK84" s="43"/>
+      <c r="AL84" s="42">
         <v>2009</v>
       </c>
-      <c r="AM84" s="33"/>
-      <c r="AN84" s="33"/>
-      <c r="AO84" s="33"/>
-      <c r="AP84" s="32">
+      <c r="AM84" s="43"/>
+      <c r="AN84" s="43"/>
+      <c r="AO84" s="43"/>
+      <c r="AP84" s="42">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="33"/>
-      <c r="AR84" s="33"/>
-      <c r="AS84" s="33"/>
-      <c r="AT84" s="32">
+      <c r="AQ84" s="43"/>
+      <c r="AR84" s="43"/>
+      <c r="AS84" s="43"/>
+      <c r="AT84" s="42">
         <v>2011</v>
       </c>
-      <c r="AU84" s="33"/>
-      <c r="AV84" s="33"/>
-      <c r="AW84" s="33"/>
-      <c r="AX84" s="32">
+      <c r="AU84" s="43"/>
+      <c r="AV84" s="43"/>
+      <c r="AW84" s="43"/>
+      <c r="AX84" s="42">
         <v>2012</v>
       </c>
-      <c r="AY84" s="33"/>
-      <c r="AZ84" s="33"/>
-      <c r="BA84" s="33"/>
-      <c r="BB84" s="32">
+      <c r="AY84" s="43"/>
+      <c r="AZ84" s="43"/>
+      <c r="BA84" s="43"/>
+      <c r="BB84" s="42">
         <v>2013</v>
       </c>
-      <c r="BC84" s="33"/>
-      <c r="BD84" s="33"/>
-      <c r="BE84" s="33"/>
-      <c r="BF84" s="32">
+      <c r="BC84" s="43"/>
+      <c r="BD84" s="43"/>
+      <c r="BE84" s="43"/>
+      <c r="BF84" s="42">
         <v>2014</v>
       </c>
-      <c r="BG84" s="33"/>
-      <c r="BH84" s="33"/>
-      <c r="BI84" s="33"/>
-      <c r="BJ84" s="32">
+      <c r="BG84" s="43"/>
+      <c r="BH84" s="43"/>
+      <c r="BI84" s="43"/>
+      <c r="BJ84" s="42">
         <v>2015</v>
       </c>
-      <c r="BK84" s="33"/>
-      <c r="BL84" s="33"/>
-      <c r="BM84" s="33"/>
-      <c r="BN84" s="32">
+      <c r="BK84" s="43"/>
+      <c r="BL84" s="43"/>
+      <c r="BM84" s="43"/>
+      <c r="BN84" s="42">
         <v>2016</v>
       </c>
-      <c r="BO84" s="33"/>
-      <c r="BP84" s="33"/>
-      <c r="BQ84" s="33"/>
-      <c r="BR84" s="32">
+      <c r="BO84" s="43"/>
+      <c r="BP84" s="43"/>
+      <c r="BQ84" s="43"/>
+      <c r="BR84" s="42">
         <v>2017</v>
       </c>
-      <c r="BS84" s="33"/>
-      <c r="BT84" s="33"/>
-      <c r="BU84" s="33"/>
-      <c r="BV84" s="32">
+      <c r="BS84" s="43"/>
+      <c r="BT84" s="43"/>
+      <c r="BU84" s="43"/>
+      <c r="BV84" s="42">
         <v>2018</v>
       </c>
-      <c r="BW84" s="33"/>
-      <c r="BX84" s="33"/>
-      <c r="BY84" s="33"/>
-      <c r="BZ84" s="32">
+      <c r="BW84" s="43"/>
+      <c r="BX84" s="43"/>
+      <c r="BY84" s="43"/>
+      <c r="BZ84" s="42">
         <v>2019</v>
       </c>
-      <c r="CA84" s="33"/>
-      <c r="CB84" s="33"/>
-      <c r="CC84" s="33"/>
-      <c r="CD84" s="32">
+      <c r="CA84" s="43"/>
+      <c r="CB84" s="43"/>
+      <c r="CC84" s="43"/>
+      <c r="CD84" s="42">
         <v>2020</v>
       </c>
-      <c r="CE84" s="32"/>
-      <c r="CF84" s="32"/>
-      <c r="CG84" s="32"/>
-      <c r="CH84" s="32">
+      <c r="CE84" s="42"/>
+      <c r="CF84" s="42"/>
+      <c r="CG84" s="42"/>
+      <c r="CH84" s="26">
         <v>2021</v>
       </c>
-      <c r="CI84" s="32"/>
-      <c r="CJ84" s="32"/>
-      <c r="CK84" s="32"/>
-      <c r="CL84" s="31">
+      <c r="CI84" s="26"/>
+      <c r="CJ84" s="26"/>
+      <c r="CK84" s="26"/>
+      <c r="CL84" s="26">
         <v>2022</v>
       </c>
-      <c r="CM84" s="31"/>
-      <c r="CN84" s="31"/>
-      <c r="CO84" s="31"/>
-      <c r="CP84" s="31">
+      <c r="CM84" s="26"/>
+      <c r="CN84" s="26"/>
+      <c r="CO84" s="26"/>
+      <c r="CP84" s="30">
         <v>2023</v>
       </c>
-      <c r="CQ84" s="31"/>
-      <c r="CR84" s="31"/>
-      <c r="CS84" s="31"/>
+      <c r="CQ84" s="30"/>
+      <c r="CR84" s="30"/>
+      <c r="CS84" s="30"/>
+      <c r="CT84" s="30">
+        <v>2024</v>
+      </c>
     </row>
     <row r="85" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
@@ -32786,21 +33088,29 @@
       <c r="CO85" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP85" s="7" t="s">
+      <c r="CP85" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CQ85" s="7" t="s">
+      <c r="CQ85" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="CR85" s="7" t="s">
+      <c r="CR85" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="CS85" s="7" t="s">
+      <c r="CS85" s="31" t="s">
         <v>9</v>
+      </c>
+      <c r="CT85" s="31" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
+      <c r="CP86" s="28"/>
+      <c r="CQ86" s="28"/>
+      <c r="CR86" s="28"/>
+      <c r="CS86" s="28"/>
+      <c r="CT86" s="28"/>
     </row>
     <row r="87" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
@@ -33071,30 +33381,32 @@
         <v>106.73571152128416</v>
       </c>
       <c r="CL87" s="18">
-        <v>105.20863761172934</v>
+        <v>105.20863761172939</v>
       </c>
       <c r="CM87" s="18">
-        <v>96.43958531534436</v>
+        <v>96.439585315344317</v>
       </c>
       <c r="CN87" s="18">
-        <v>108.76423922419565</v>
+        <v>108.76423922419561</v>
       </c>
       <c r="CO87" s="18">
-        <v>110.40777372760948</v>
-      </c>
-      <c r="CP87" s="18">
+        <v>111.24523564311536</v>
+      </c>
+      <c r="CP87" s="39">
         <v>110.5271649335433</v>
       </c>
-      <c r="CQ87" s="18">
-        <v>100.51540785875383</v>
-      </c>
-      <c r="CR87" s="18">
-        <v>114.51469432188847</v>
-      </c>
-      <c r="CS87" s="18">
-        <v>117.89628981364422</v>
-      </c>
-      <c r="CT87" s="10"/>
+      <c r="CQ87" s="39">
+        <v>101.74702001926659</v>
+      </c>
+      <c r="CR87" s="39">
+        <v>116.00777557046965</v>
+      </c>
+      <c r="CS87" s="39">
+        <v>116.93645579687588</v>
+      </c>
+      <c r="CT87" s="39">
+        <v>113.53279083146286</v>
+      </c>
       <c r="CU87" s="10"/>
       <c r="CV87" s="10"/>
       <c r="CW87" s="10"/>
@@ -33422,30 +33734,32 @@
         <v>100.21692077855273</v>
       </c>
       <c r="CL88" s="18">
-        <v>98.921347845037118</v>
+        <v>98.921347845037161</v>
       </c>
       <c r="CM88" s="18">
-        <v>98.400154783103957</v>
+        <v>98.400154783103943</v>
       </c>
       <c r="CN88" s="18">
-        <v>104.68735577888397</v>
+        <v>104.68735577888395</v>
       </c>
       <c r="CO88" s="18">
-        <v>100.81034575922976</v>
-      </c>
-      <c r="CP88" s="18">
-        <v>99.633012218023026</v>
-      </c>
-      <c r="CQ88" s="18">
-        <v>99.075449962988031</v>
-      </c>
-      <c r="CR88" s="18">
-        <v>105.37113994465068</v>
-      </c>
-      <c r="CS88" s="18">
-        <v>101.43405027548683</v>
-      </c>
-      <c r="CT88" s="10"/>
+        <v>100.84081379781638</v>
+      </c>
+      <c r="CP88" s="39">
+        <v>99.633012218023012</v>
+      </c>
+      <c r="CQ88" s="39">
+        <v>99.075449962988003</v>
+      </c>
+      <c r="CR88" s="39">
+        <v>105.37113994465066</v>
+      </c>
+      <c r="CS88" s="39">
+        <v>101.46470681708</v>
+      </c>
+      <c r="CT88" s="39">
+        <v>100.05354116569644</v>
+      </c>
       <c r="CU88" s="10"/>
       <c r="CV88" s="10"/>
       <c r="CW88" s="10"/>
@@ -33597,11 +33911,11 @@
       <c r="CM89" s="19"/>
       <c r="CN89" s="19"/>
       <c r="CO89" s="19"/>
-      <c r="CP89" s="19"/>
-      <c r="CQ89" s="19"/>
-      <c r="CR89" s="19"/>
-      <c r="CS89" s="19"/>
-      <c r="CT89" s="10"/>
+      <c r="CP89" s="40"/>
+      <c r="CQ89" s="40"/>
+      <c r="CR89" s="40"/>
+      <c r="CS89" s="40"/>
+      <c r="CT89" s="40"/>
       <c r="CU89" s="10"/>
       <c r="CV89" s="10"/>
       <c r="CW89" s="10"/>
@@ -33929,30 +34243,32 @@
         <v>100.67010930613243</v>
       </c>
       <c r="CL90" s="18">
-        <v>99.43781662185522</v>
+        <v>99.436526074439016</v>
       </c>
       <c r="CM90" s="18">
-        <v>98.220295811897401</v>
+        <v>98.220523106456028</v>
       </c>
       <c r="CN90" s="18">
-        <v>104.98269821850097</v>
+        <v>104.98509529447632</v>
       </c>
       <c r="CO90" s="18">
-        <v>101.49935141032182</v>
-      </c>
-      <c r="CP90" s="18">
-        <v>100.43312479694715</v>
-      </c>
-      <c r="CQ90" s="18">
-        <v>99.198904972761653</v>
-      </c>
-      <c r="CR90" s="18">
-        <v>106.02930139480218</v>
-      </c>
-      <c r="CS90" s="18">
-        <v>102.60688768292179</v>
-      </c>
-      <c r="CT90" s="10"/>
+        <v>101.57539076544107</v>
+      </c>
+      <c r="CP90" s="39">
+        <v>100.43238479134948</v>
+      </c>
+      <c r="CQ90" s="39">
+        <v>99.302767244269162</v>
+      </c>
+      <c r="CR90" s="39">
+        <v>106.13351597761422</v>
+      </c>
+      <c r="CS90" s="39">
+        <v>102.56674580576519</v>
+      </c>
+      <c r="CT90" s="39">
+        <v>101.01061883227169</v>
+      </c>
       <c r="CU90" s="10"/>
       <c r="CV90" s="10"/>
       <c r="CW90" s="10"/>
@@ -34105,194 +34421,245 @@
       <c r="CM91" s="16"/>
       <c r="CN91" s="16"/>
       <c r="CO91" s="16"/>
-      <c r="CP91" s="16"/>
-      <c r="CQ91" s="16"/>
-      <c r="CR91" s="16"/>
-      <c r="CS91" s="16"/>
+      <c r="CP91" s="36"/>
+      <c r="CQ91" s="36"/>
+      <c r="CR91" s="36"/>
+      <c r="CS91" s="36"/>
+      <c r="CT91" s="36"/>
     </row>
     <row r="92" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="CP92" s="28"/>
+      <c r="CQ92" s="28"/>
+      <c r="CR92" s="28"/>
+      <c r="CS92" s="28"/>
+      <c r="CT92" s="28"/>
     </row>
     <row r="95" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CP95" s="28"/>
+      <c r="CQ95" s="28"/>
+      <c r="CR95" s="28"/>
+      <c r="CS95" s="28"/>
+      <c r="CT95" s="28"/>
     </row>
     <row r="96" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CP96" s="28"/>
+      <c r="CQ96" s="28"/>
+      <c r="CR96" s="28"/>
+      <c r="CS96" s="28"/>
+      <c r="CT96" s="28"/>
     </row>
     <row r="97" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="CP97" s="28"/>
+      <c r="CQ97" s="28"/>
+      <c r="CR97" s="28"/>
+      <c r="CS97" s="28"/>
+      <c r="CT97" s="28"/>
     </row>
-    <row r="98" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP98" s="28"/>
+      <c r="CQ98" s="28"/>
+      <c r="CR98" s="28"/>
+      <c r="CS98" s="28"/>
+      <c r="CT98" s="28"/>
+    </row>
     <row r="99" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="CP99" s="28"/>
+      <c r="CQ99" s="28"/>
+      <c r="CR99" s="28"/>
+      <c r="CS99" s="28"/>
+      <c r="CT99" s="28"/>
     </row>
     <row r="100" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="CP100" s="28"/>
+      <c r="CQ100" s="28"/>
+      <c r="CR100" s="28"/>
+      <c r="CS100" s="28"/>
+      <c r="CT100" s="28"/>
     </row>
     <row r="101" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="CP101" s="28"/>
+      <c r="CQ101" s="28"/>
+      <c r="CR101" s="28"/>
+      <c r="CS101" s="28"/>
+      <c r="CT101" s="28"/>
     </row>
-    <row r="102" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP102" s="28"/>
+      <c r="CQ102" s="28"/>
+      <c r="CR102" s="28"/>
+      <c r="CS102" s="28"/>
+      <c r="CT102" s="28"/>
+    </row>
     <row r="103" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
-      <c r="B103" s="32">
+      <c r="B103" s="42">
         <v>2000</v>
       </c>
-      <c r="C103" s="33"/>
-      <c r="D103" s="33"/>
-      <c r="E103" s="33"/>
-      <c r="F103" s="32">
+      <c r="C103" s="43"/>
+      <c r="D103" s="43"/>
+      <c r="E103" s="43"/>
+      <c r="F103" s="42">
         <v>2001</v>
       </c>
-      <c r="G103" s="33"/>
-      <c r="H103" s="33"/>
-      <c r="I103" s="33"/>
-      <c r="J103" s="32">
+      <c r="G103" s="43"/>
+      <c r="H103" s="43"/>
+      <c r="I103" s="43"/>
+      <c r="J103" s="42">
         <v>2002</v>
       </c>
-      <c r="K103" s="33"/>
-      <c r="L103" s="33"/>
-      <c r="M103" s="33"/>
-      <c r="N103" s="32">
+      <c r="K103" s="43"/>
+      <c r="L103" s="43"/>
+      <c r="M103" s="43"/>
+      <c r="N103" s="42">
         <v>2003</v>
       </c>
-      <c r="O103" s="33"/>
-      <c r="P103" s="33"/>
-      <c r="Q103" s="33"/>
-      <c r="R103" s="32">
+      <c r="O103" s="43"/>
+      <c r="P103" s="43"/>
+      <c r="Q103" s="43"/>
+      <c r="R103" s="42">
         <v>2004</v>
       </c>
-      <c r="S103" s="33"/>
-      <c r="T103" s="33"/>
-      <c r="U103" s="33"/>
-      <c r="V103" s="32">
+      <c r="S103" s="43"/>
+      <c r="T103" s="43"/>
+      <c r="U103" s="43"/>
+      <c r="V103" s="42">
         <v>2005</v>
       </c>
-      <c r="W103" s="33"/>
-      <c r="X103" s="33"/>
-      <c r="Y103" s="33"/>
-      <c r="Z103" s="32">
+      <c r="W103" s="43"/>
+      <c r="X103" s="43"/>
+      <c r="Y103" s="43"/>
+      <c r="Z103" s="42">
         <v>2006</v>
       </c>
-      <c r="AA103" s="33"/>
-      <c r="AB103" s="33"/>
-      <c r="AC103" s="33"/>
-      <c r="AD103" s="32">
+      <c r="AA103" s="43"/>
+      <c r="AB103" s="43"/>
+      <c r="AC103" s="43"/>
+      <c r="AD103" s="42">
         <v>2007</v>
       </c>
-      <c r="AE103" s="33"/>
-      <c r="AF103" s="33"/>
-      <c r="AG103" s="33"/>
-      <c r="AH103" s="32">
+      <c r="AE103" s="43"/>
+      <c r="AF103" s="43"/>
+      <c r="AG103" s="43"/>
+      <c r="AH103" s="42">
         <v>2008</v>
       </c>
-      <c r="AI103" s="33"/>
-      <c r="AJ103" s="33"/>
-      <c r="AK103" s="33"/>
-      <c r="AL103" s="32">
+      <c r="AI103" s="43"/>
+      <c r="AJ103" s="43"/>
+      <c r="AK103" s="43"/>
+      <c r="AL103" s="42">
         <v>2009</v>
       </c>
-      <c r="AM103" s="33"/>
-      <c r="AN103" s="33"/>
-      <c r="AO103" s="33"/>
-      <c r="AP103" s="32">
+      <c r="AM103" s="43"/>
+      <c r="AN103" s="43"/>
+      <c r="AO103" s="43"/>
+      <c r="AP103" s="42">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="33"/>
-      <c r="AR103" s="33"/>
-      <c r="AS103" s="33"/>
-      <c r="AT103" s="32">
+      <c r="AQ103" s="43"/>
+      <c r="AR103" s="43"/>
+      <c r="AS103" s="43"/>
+      <c r="AT103" s="42">
         <v>2011</v>
       </c>
-      <c r="AU103" s="33"/>
-      <c r="AV103" s="33"/>
-      <c r="AW103" s="33"/>
-      <c r="AX103" s="32">
+      <c r="AU103" s="43"/>
+      <c r="AV103" s="43"/>
+      <c r="AW103" s="43"/>
+      <c r="AX103" s="42">
         <v>2012</v>
       </c>
-      <c r="AY103" s="33"/>
-      <c r="AZ103" s="33"/>
-      <c r="BA103" s="33"/>
-      <c r="BB103" s="32">
+      <c r="AY103" s="43"/>
+      <c r="AZ103" s="43"/>
+      <c r="BA103" s="43"/>
+      <c r="BB103" s="42">
         <v>2013</v>
       </c>
-      <c r="BC103" s="33"/>
-      <c r="BD103" s="33"/>
-      <c r="BE103" s="33"/>
-      <c r="BF103" s="32">
+      <c r="BC103" s="43"/>
+      <c r="BD103" s="43"/>
+      <c r="BE103" s="43"/>
+      <c r="BF103" s="42">
         <v>2014</v>
       </c>
-      <c r="BG103" s="33"/>
-      <c r="BH103" s="33"/>
-      <c r="BI103" s="33"/>
-      <c r="BJ103" s="32">
+      <c r="BG103" s="43"/>
+      <c r="BH103" s="43"/>
+      <c r="BI103" s="43"/>
+      <c r="BJ103" s="42">
         <v>2015</v>
       </c>
-      <c r="BK103" s="33"/>
-      <c r="BL103" s="33"/>
-      <c r="BM103" s="33"/>
-      <c r="BN103" s="32">
+      <c r="BK103" s="43"/>
+      <c r="BL103" s="43"/>
+      <c r="BM103" s="43"/>
+      <c r="BN103" s="42">
         <v>2016</v>
       </c>
-      <c r="BO103" s="33"/>
-      <c r="BP103" s="33"/>
-      <c r="BQ103" s="33"/>
-      <c r="BR103" s="32">
+      <c r="BO103" s="43"/>
+      <c r="BP103" s="43"/>
+      <c r="BQ103" s="43"/>
+      <c r="BR103" s="42">
         <v>2017</v>
       </c>
-      <c r="BS103" s="33"/>
-      <c r="BT103" s="33"/>
-      <c r="BU103" s="33"/>
-      <c r="BV103" s="32">
+      <c r="BS103" s="43"/>
+      <c r="BT103" s="43"/>
+      <c r="BU103" s="43"/>
+      <c r="BV103" s="42">
         <v>2018</v>
       </c>
-      <c r="BW103" s="33"/>
-      <c r="BX103" s="33"/>
-      <c r="BY103" s="33"/>
-      <c r="BZ103" s="32">
+      <c r="BW103" s="43"/>
+      <c r="BX103" s="43"/>
+      <c r="BY103" s="43"/>
+      <c r="BZ103" s="42">
         <v>2019</v>
       </c>
-      <c r="CA103" s="33"/>
-      <c r="CB103" s="33"/>
-      <c r="CC103" s="33"/>
-      <c r="CD103" s="32">
+      <c r="CA103" s="43"/>
+      <c r="CB103" s="43"/>
+      <c r="CC103" s="43"/>
+      <c r="CD103" s="42">
         <v>2020</v>
       </c>
-      <c r="CE103" s="32"/>
-      <c r="CF103" s="32"/>
-      <c r="CG103" s="32"/>
-      <c r="CH103" s="32">
+      <c r="CE103" s="42"/>
+      <c r="CF103" s="42"/>
+      <c r="CG103" s="42"/>
+      <c r="CH103" s="26">
         <v>2021</v>
       </c>
-      <c r="CI103" s="32"/>
-      <c r="CJ103" s="32"/>
-      <c r="CK103" s="32"/>
-      <c r="CL103" s="31">
+      <c r="CI103" s="26"/>
+      <c r="CJ103" s="26"/>
+      <c r="CK103" s="26"/>
+      <c r="CL103" s="26">
         <v>2022</v>
       </c>
-      <c r="CM103" s="31"/>
-      <c r="CN103" s="31"/>
-      <c r="CO103" s="31"/>
-      <c r="CP103" s="31">
+      <c r="CM103" s="26"/>
+      <c r="CN103" s="26"/>
+      <c r="CO103" s="26"/>
+      <c r="CP103" s="30">
         <v>2023</v>
       </c>
-      <c r="CQ103" s="31"/>
-      <c r="CR103" s="31"/>
-      <c r="CS103" s="31"/>
+      <c r="CQ103" s="30"/>
+      <c r="CR103" s="30"/>
+      <c r="CS103" s="30"/>
+      <c r="CT103" s="30">
+        <v>2024</v>
+      </c>
     </row>
     <row r="104" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
@@ -34574,21 +34941,29 @@
       <c r="CO104" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP104" s="7" t="s">
+      <c r="CP104" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CQ104" s="7" t="s">
+      <c r="CQ104" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="CR104" s="7" t="s">
+      <c r="CR104" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="CS104" s="7" t="s">
+      <c r="CS104" s="31" t="s">
         <v>9</v>
+      </c>
+      <c r="CT104" s="31" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
+      <c r="CP105" s="28"/>
+      <c r="CQ105" s="28"/>
+      <c r="CR105" s="28"/>
+      <c r="CS105" s="28"/>
+      <c r="CT105" s="28"/>
     </row>
     <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
@@ -34859,30 +35234,32 @@
         <v>7.3709094570462348</v>
       </c>
       <c r="CL106" s="18">
-        <v>8.6912133661991415</v>
+        <v>8.6696083603611633</v>
       </c>
       <c r="CM106" s="18">
-        <v>9.0074936866066544</v>
+        <v>8.9960897593264644</v>
       </c>
       <c r="CN106" s="18">
-        <v>7.5052637401018059</v>
+        <v>7.5660056555819546</v>
       </c>
       <c r="CO106" s="18">
-        <v>7.8091597715285381</v>
-      </c>
-      <c r="CP106" s="18">
-        <v>8.082574090846613</v>
-      </c>
-      <c r="CQ106" s="18">
-        <v>8.6872973273223533</v>
-      </c>
-      <c r="CR106" s="18">
-        <v>7.7741462664833367</v>
-      </c>
-      <c r="CS106" s="18">
-        <v>8.1860146218509282</v>
-      </c>
-      <c r="CT106" s="10"/>
+        <v>7.7323637004002075</v>
+      </c>
+      <c r="CP106" s="39">
+        <v>8.0751582041399317</v>
+      </c>
+      <c r="CQ106" s="39">
+        <v>8.7181880707484023</v>
+      </c>
+      <c r="CR106" s="39">
+        <v>7.8342874145234509</v>
+      </c>
+      <c r="CS106" s="39">
+        <v>8.1208389741072065</v>
+      </c>
+      <c r="CT106" s="39">
+        <v>7.9806037239965359</v>
+      </c>
       <c r="CU106" s="10"/>
       <c r="CV106" s="10"/>
       <c r="CW106" s="10"/>
@@ -35210,30 +35587,32 @@
         <v>92.629090542953762</v>
       </c>
       <c r="CL107" s="18">
-        <v>91.30878663380085</v>
+        <v>91.330391639638847</v>
       </c>
       <c r="CM107" s="18">
-        <v>90.992506313393349</v>
+        <v>91.003910240673534</v>
       </c>
       <c r="CN107" s="18">
-        <v>92.49473625989819</v>
+        <v>92.433994344418053</v>
       </c>
       <c r="CO107" s="18">
-        <v>92.190840228471444</v>
-      </c>
-      <c r="CP107" s="18">
-        <v>91.91742590915338</v>
-      </c>
-      <c r="CQ107" s="18">
-        <v>91.312702672677645</v>
-      </c>
-      <c r="CR107" s="18">
-        <v>92.225853733516658</v>
-      </c>
-      <c r="CS107" s="18">
-        <v>91.81398537814907</v>
-      </c>
-      <c r="CT107" s="10"/>
+        <v>92.267636299599786</v>
+      </c>
+      <c r="CP107" s="39">
+        <v>91.924841795860061</v>
+      </c>
+      <c r="CQ107" s="39">
+        <v>91.281811929251603</v>
+      </c>
+      <c r="CR107" s="39">
+        <v>92.165712585476555</v>
+      </c>
+      <c r="CS107" s="39">
+        <v>91.879161025892799</v>
+      </c>
+      <c r="CT107" s="39">
+        <v>92.019396276003462</v>
+      </c>
       <c r="CU107" s="10"/>
       <c r="CV107" s="10"/>
       <c r="CW107" s="10"/>
@@ -35385,11 +35764,11 @@
       <c r="CM108" s="19"/>
       <c r="CN108" s="19"/>
       <c r="CO108" s="19"/>
-      <c r="CP108" s="19"/>
-      <c r="CQ108" s="19"/>
-      <c r="CR108" s="19"/>
-      <c r="CS108" s="19"/>
-      <c r="CT108" s="10"/>
+      <c r="CP108" s="40"/>
+      <c r="CQ108" s="40"/>
+      <c r="CR108" s="40"/>
+      <c r="CS108" s="40"/>
+      <c r="CT108" s="40"/>
       <c r="CU108" s="10"/>
       <c r="CV108" s="10"/>
       <c r="CW108" s="10"/>
@@ -35728,19 +36107,21 @@
       <c r="CO109" s="18">
         <v>100</v>
       </c>
-      <c r="CP109" s="18">
+      <c r="CP109" s="39">
         <v>100</v>
       </c>
-      <c r="CQ109" s="18">
+      <c r="CQ109" s="39">
         <v>100</v>
       </c>
-      <c r="CR109" s="18">
+      <c r="CR109" s="39">
         <v>100</v>
       </c>
-      <c r="CS109" s="18">
+      <c r="CS109" s="39">
         <v>100</v>
       </c>
-      <c r="CT109" s="10"/>
+      <c r="CT109" s="39">
+        <v>100</v>
+      </c>
       <c r="CU109" s="10"/>
       <c r="CV109" s="10"/>
       <c r="CW109" s="10"/>
@@ -35893,15 +36274,21 @@
       <c r="CM110" s="16"/>
       <c r="CN110" s="16"/>
       <c r="CO110" s="16"/>
-      <c r="CP110" s="16"/>
-      <c r="CQ110" s="16"/>
-      <c r="CR110" s="16"/>
-      <c r="CS110" s="16"/>
+      <c r="CP110" s="36"/>
+      <c r="CQ110" s="36"/>
+      <c r="CR110" s="36"/>
+      <c r="CS110" s="36"/>
+      <c r="CT110" s="36"/>
     </row>
     <row r="111" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="CP111" s="28"/>
+      <c r="CQ111" s="28"/>
+      <c r="CR111" s="28"/>
+      <c r="CS111" s="28"/>
+      <c r="CT111" s="28"/>
     </row>
     <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="10"/>
@@ -35996,11 +36383,11 @@
       <c r="CM112" s="10"/>
       <c r="CN112" s="10"/>
       <c r="CO112" s="10"/>
-      <c r="CP112" s="10"/>
-      <c r="CQ112" s="10"/>
-      <c r="CR112" s="10"/>
-      <c r="CS112" s="10"/>
-      <c r="CT112" s="10"/>
+      <c r="CP112" s="37"/>
+      <c r="CQ112" s="37"/>
+      <c r="CR112" s="37"/>
+      <c r="CS112" s="37"/>
+      <c r="CT112" s="37"/>
       <c r="CU112" s="10"/>
       <c r="CV112" s="10"/>
       <c r="CW112" s="10"/>
@@ -36152,11 +36539,11 @@
       <c r="CM113" s="10"/>
       <c r="CN113" s="10"/>
       <c r="CO113" s="10"/>
-      <c r="CP113" s="10"/>
-      <c r="CQ113" s="10"/>
-      <c r="CR113" s="10"/>
-      <c r="CS113" s="10"/>
-      <c r="CT113" s="10"/>
+      <c r="CP113" s="37"/>
+      <c r="CQ113" s="37"/>
+      <c r="CR113" s="37"/>
+      <c r="CS113" s="37"/>
+      <c r="CT113" s="37"/>
       <c r="CU113" s="10"/>
       <c r="CV113" s="10"/>
       <c r="CW113" s="10"/>
@@ -36219,180 +36606,225 @@
       <c r="A114" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CP114" s="28"/>
+      <c r="CQ114" s="28"/>
+      <c r="CR114" s="28"/>
+      <c r="CS114" s="28"/>
+      <c r="CT114" s="28"/>
     </row>
     <row r="115" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CP115" s="28"/>
+      <c r="CQ115" s="28"/>
+      <c r="CR115" s="28"/>
+      <c r="CS115" s="28"/>
+      <c r="CT115" s="28"/>
     </row>
     <row r="116" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="CP116" s="28"/>
+      <c r="CQ116" s="28"/>
+      <c r="CR116" s="28"/>
+      <c r="CS116" s="28"/>
+      <c r="CT116" s="28"/>
     </row>
-    <row r="117" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP117" s="28"/>
+      <c r="CQ117" s="28"/>
+      <c r="CR117" s="28"/>
+      <c r="CS117" s="28"/>
+      <c r="CT117" s="28"/>
+    </row>
     <row r="118" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="CP118" s="28"/>
+      <c r="CQ118" s="28"/>
+      <c r="CR118" s="28"/>
+      <c r="CS118" s="28"/>
+      <c r="CT118" s="28"/>
     </row>
     <row r="119" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="CP119" s="28"/>
+      <c r="CQ119" s="28"/>
+      <c r="CR119" s="28"/>
+      <c r="CS119" s="28"/>
+      <c r="CT119" s="28"/>
     </row>
     <row r="120" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="CP120" s="28"/>
+      <c r="CQ120" s="28"/>
+      <c r="CR120" s="28"/>
+      <c r="CS120" s="28"/>
+      <c r="CT120" s="28"/>
     </row>
-    <row r="121" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP121" s="28"/>
+      <c r="CQ121" s="28"/>
+      <c r="CR121" s="28"/>
+      <c r="CS121" s="28"/>
+      <c r="CT121" s="28"/>
+    </row>
     <row r="122" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
-      <c r="B122" s="32">
+      <c r="B122" s="42">
         <v>2000</v>
       </c>
-      <c r="C122" s="33"/>
-      <c r="D122" s="33"/>
-      <c r="E122" s="33"/>
-      <c r="F122" s="32">
+      <c r="C122" s="43"/>
+      <c r="D122" s="43"/>
+      <c r="E122" s="43"/>
+      <c r="F122" s="42">
         <v>2001</v>
       </c>
-      <c r="G122" s="33"/>
-      <c r="H122" s="33"/>
-      <c r="I122" s="33"/>
-      <c r="J122" s="32">
+      <c r="G122" s="43"/>
+      <c r="H122" s="43"/>
+      <c r="I122" s="43"/>
+      <c r="J122" s="42">
         <v>2002</v>
       </c>
-      <c r="K122" s="33"/>
-      <c r="L122" s="33"/>
-      <c r="M122" s="33"/>
-      <c r="N122" s="32">
+      <c r="K122" s="43"/>
+      <c r="L122" s="43"/>
+      <c r="M122" s="43"/>
+      <c r="N122" s="42">
         <v>2003</v>
       </c>
-      <c r="O122" s="33"/>
-      <c r="P122" s="33"/>
-      <c r="Q122" s="33"/>
-      <c r="R122" s="32">
+      <c r="O122" s="43"/>
+      <c r="P122" s="43"/>
+      <c r="Q122" s="43"/>
+      <c r="R122" s="42">
         <v>2004</v>
       </c>
-      <c r="S122" s="33"/>
-      <c r="T122" s="33"/>
-      <c r="U122" s="33"/>
-      <c r="V122" s="32">
+      <c r="S122" s="43"/>
+      <c r="T122" s="43"/>
+      <c r="U122" s="43"/>
+      <c r="V122" s="42">
         <v>2005</v>
       </c>
-      <c r="W122" s="33"/>
-      <c r="X122" s="33"/>
-      <c r="Y122" s="33"/>
-      <c r="Z122" s="32">
+      <c r="W122" s="43"/>
+      <c r="X122" s="43"/>
+      <c r="Y122" s="43"/>
+      <c r="Z122" s="42">
         <v>2006</v>
       </c>
-      <c r="AA122" s="33"/>
-      <c r="AB122" s="33"/>
-      <c r="AC122" s="33"/>
-      <c r="AD122" s="32">
+      <c r="AA122" s="43"/>
+      <c r="AB122" s="43"/>
+      <c r="AC122" s="43"/>
+      <c r="AD122" s="42">
         <v>2007</v>
       </c>
-      <c r="AE122" s="33"/>
-      <c r="AF122" s="33"/>
-      <c r="AG122" s="33"/>
-      <c r="AH122" s="32">
+      <c r="AE122" s="43"/>
+      <c r="AF122" s="43"/>
+      <c r="AG122" s="43"/>
+      <c r="AH122" s="42">
         <v>2008</v>
       </c>
-      <c r="AI122" s="33"/>
-      <c r="AJ122" s="33"/>
-      <c r="AK122" s="33"/>
-      <c r="AL122" s="32">
+      <c r="AI122" s="43"/>
+      <c r="AJ122" s="43"/>
+      <c r="AK122" s="43"/>
+      <c r="AL122" s="42">
         <v>2009</v>
       </c>
-      <c r="AM122" s="33"/>
-      <c r="AN122" s="33"/>
-      <c r="AO122" s="33"/>
-      <c r="AP122" s="32">
+      <c r="AM122" s="43"/>
+      <c r="AN122" s="43"/>
+      <c r="AO122" s="43"/>
+      <c r="AP122" s="42">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="33"/>
-      <c r="AR122" s="33"/>
-      <c r="AS122" s="33"/>
-      <c r="AT122" s="32">
+      <c r="AQ122" s="43"/>
+      <c r="AR122" s="43"/>
+      <c r="AS122" s="43"/>
+      <c r="AT122" s="42">
         <v>2011</v>
       </c>
-      <c r="AU122" s="33"/>
-      <c r="AV122" s="33"/>
-      <c r="AW122" s="33"/>
-      <c r="AX122" s="32">
+      <c r="AU122" s="43"/>
+      <c r="AV122" s="43"/>
+      <c r="AW122" s="43"/>
+      <c r="AX122" s="42">
         <v>2012</v>
       </c>
-      <c r="AY122" s="33"/>
-      <c r="AZ122" s="33"/>
-      <c r="BA122" s="33"/>
-      <c r="BB122" s="32">
+      <c r="AY122" s="43"/>
+      <c r="AZ122" s="43"/>
+      <c r="BA122" s="43"/>
+      <c r="BB122" s="42">
         <v>2013</v>
       </c>
-      <c r="BC122" s="33"/>
-      <c r="BD122" s="33"/>
-      <c r="BE122" s="33"/>
-      <c r="BF122" s="32">
+      <c r="BC122" s="43"/>
+      <c r="BD122" s="43"/>
+      <c r="BE122" s="43"/>
+      <c r="BF122" s="42">
         <v>2014</v>
       </c>
-      <c r="BG122" s="33"/>
-      <c r="BH122" s="33"/>
-      <c r="BI122" s="33"/>
-      <c r="BJ122" s="32">
+      <c r="BG122" s="43"/>
+      <c r="BH122" s="43"/>
+      <c r="BI122" s="43"/>
+      <c r="BJ122" s="42">
         <v>2015</v>
       </c>
-      <c r="BK122" s="33"/>
-      <c r="BL122" s="33"/>
-      <c r="BM122" s="33"/>
-      <c r="BN122" s="32">
+      <c r="BK122" s="43"/>
+      <c r="BL122" s="43"/>
+      <c r="BM122" s="43"/>
+      <c r="BN122" s="42">
         <v>2016</v>
       </c>
-      <c r="BO122" s="33"/>
-      <c r="BP122" s="33"/>
-      <c r="BQ122" s="33"/>
-      <c r="BR122" s="32">
+      <c r="BO122" s="43"/>
+      <c r="BP122" s="43"/>
+      <c r="BQ122" s="43"/>
+      <c r="BR122" s="42">
         <v>2017</v>
       </c>
-      <c r="BS122" s="33"/>
-      <c r="BT122" s="33"/>
-      <c r="BU122" s="33"/>
-      <c r="BV122" s="32">
+      <c r="BS122" s="43"/>
+      <c r="BT122" s="43"/>
+      <c r="BU122" s="43"/>
+      <c r="BV122" s="42">
         <v>2018</v>
       </c>
-      <c r="BW122" s="33"/>
-      <c r="BX122" s="33"/>
-      <c r="BY122" s="33"/>
-      <c r="BZ122" s="32">
+      <c r="BW122" s="43"/>
+      <c r="BX122" s="43"/>
+      <c r="BY122" s="43"/>
+      <c r="BZ122" s="42">
         <v>2019</v>
       </c>
-      <c r="CA122" s="33"/>
-      <c r="CB122" s="33"/>
-      <c r="CC122" s="33"/>
-      <c r="CD122" s="32">
+      <c r="CA122" s="43"/>
+      <c r="CB122" s="43"/>
+      <c r="CC122" s="43"/>
+      <c r="CD122" s="42">
         <v>2020</v>
       </c>
-      <c r="CE122" s="32"/>
-      <c r="CF122" s="32"/>
-      <c r="CG122" s="32"/>
-      <c r="CH122" s="32">
+      <c r="CE122" s="42"/>
+      <c r="CF122" s="42"/>
+      <c r="CG122" s="42"/>
+      <c r="CH122" s="26">
         <v>2021</v>
       </c>
-      <c r="CI122" s="32"/>
-      <c r="CJ122" s="32"/>
-      <c r="CK122" s="32"/>
-      <c r="CL122" s="31">
+      <c r="CI122" s="26"/>
+      <c r="CJ122" s="26"/>
+      <c r="CK122" s="26"/>
+      <c r="CL122" s="26">
         <v>2022</v>
       </c>
-      <c r="CM122" s="31"/>
-      <c r="CN122" s="31"/>
-      <c r="CO122" s="31"/>
-      <c r="CP122" s="31">
+      <c r="CM122" s="26"/>
+      <c r="CN122" s="26"/>
+      <c r="CO122" s="26"/>
+      <c r="CP122" s="30">
         <v>2023</v>
       </c>
-      <c r="CQ122" s="31"/>
-      <c r="CR122" s="31"/>
-      <c r="CS122" s="31"/>
+      <c r="CQ122" s="30"/>
+      <c r="CR122" s="30"/>
+      <c r="CS122" s="30"/>
+      <c r="CT122" s="30">
+        <v>2024</v>
+      </c>
     </row>
     <row r="123" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
@@ -36674,21 +37106,29 @@
       <c r="CO123" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP123" s="7" t="s">
+      <c r="CP123" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CQ123" s="7" t="s">
+      <c r="CQ123" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="CR123" s="7" t="s">
+      <c r="CR123" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="CS123" s="7" t="s">
+      <c r="CS123" s="31" t="s">
         <v>9</v>
+      </c>
+      <c r="CT123" s="31" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8"/>
+      <c r="CP124" s="28"/>
+      <c r="CQ124" s="28"/>
+      <c r="CR124" s="28"/>
+      <c r="CS124" s="28"/>
+      <c r="CT124" s="28"/>
     </row>
     <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
@@ -36959,30 +37399,32 @@
         <v>6.9520336741136681</v>
       </c>
       <c r="CL125" s="18">
-        <v>8.2144898037647103</v>
+        <v>8.1939635124038261</v>
       </c>
       <c r="CM125" s="18">
-        <v>9.1738127194283745</v>
+        <v>9.162219426643361</v>
       </c>
       <c r="CN125" s="18">
-        <v>7.244318940651266</v>
+        <v>7.3031157153822592</v>
       </c>
       <c r="CO125" s="18">
-        <v>7.1790656138510061</v>
-      </c>
-      <c r="CP125" s="18">
-        <v>7.3444222769547691</v>
-      </c>
-      <c r="CQ125" s="18">
-        <v>8.5735152490666149</v>
-      </c>
-      <c r="CR125" s="18">
-        <v>7.1980919344661141</v>
-      </c>
-      <c r="CS125" s="18">
-        <v>7.1244098029097316</v>
-      </c>
-      <c r="CT125" s="10"/>
+        <v>7.0602382193548809</v>
+      </c>
+      <c r="CP125" s="39">
+        <v>7.3376295908507094</v>
+      </c>
+      <c r="CQ125" s="39">
+        <v>8.5087523999951848</v>
+      </c>
+      <c r="CR125" s="39">
+        <v>7.1674546330513751</v>
+      </c>
+      <c r="CS125" s="39">
+        <v>7.1229115087397528</v>
+      </c>
+      <c r="CT125" s="39">
+        <v>7.1003779164796486</v>
+      </c>
       <c r="CU125" s="10"/>
       <c r="CV125" s="10"/>
       <c r="CW125" s="10"/>
@@ -37310,30 +37752,32 @@
         <v>93.047966325886335</v>
       </c>
       <c r="CL126" s="18">
-        <v>91.785510196235293</v>
+        <v>91.806036487596174</v>
       </c>
       <c r="CM126" s="18">
-        <v>90.826187280571631</v>
+        <v>90.837780573356625</v>
       </c>
       <c r="CN126" s="18">
-        <v>92.755681059348746</v>
+        <v>92.696884284617738</v>
       </c>
       <c r="CO126" s="18">
-        <v>92.820934386149005</v>
-      </c>
-      <c r="CP126" s="18">
-        <v>92.655577723045226</v>
-      </c>
-      <c r="CQ126" s="18">
-        <v>91.426484750933383</v>
-      </c>
-      <c r="CR126" s="18">
-        <v>92.801908065533894</v>
-      </c>
-      <c r="CS126" s="18">
-        <v>92.875590197090261</v>
-      </c>
-      <c r="CT126" s="10"/>
+        <v>92.939761780645114</v>
+      </c>
+      <c r="CP126" s="39">
+        <v>92.66237040914929</v>
+      </c>
+      <c r="CQ126" s="39">
+        <v>91.491247600004812</v>
+      </c>
+      <c r="CR126" s="39">
+        <v>92.832545366948636</v>
+      </c>
+      <c r="CS126" s="39">
+        <v>92.877088491260238</v>
+      </c>
+      <c r="CT126" s="39">
+        <v>92.899622083520356</v>
+      </c>
       <c r="CU126" s="10"/>
       <c r="CV126" s="10"/>
       <c r="CW126" s="10"/>
@@ -37485,11 +37929,11 @@
       <c r="CM127" s="19"/>
       <c r="CN127" s="19"/>
       <c r="CO127" s="19"/>
-      <c r="CP127" s="19"/>
-      <c r="CQ127" s="19"/>
-      <c r="CR127" s="19"/>
-      <c r="CS127" s="19"/>
-      <c r="CT127" s="10"/>
+      <c r="CP127" s="40"/>
+      <c r="CQ127" s="40"/>
+      <c r="CR127" s="40"/>
+      <c r="CS127" s="40"/>
+      <c r="CT127" s="40"/>
       <c r="CU127" s="10"/>
       <c r="CV127" s="10"/>
       <c r="CW127" s="10"/>
@@ -37828,19 +38272,21 @@
       <c r="CO128" s="18">
         <v>100</v>
       </c>
-      <c r="CP128" s="18">
+      <c r="CP128" s="39">
         <v>100</v>
       </c>
-      <c r="CQ128" s="18">
+      <c r="CQ128" s="39">
         <v>100</v>
       </c>
-      <c r="CR128" s="18">
+      <c r="CR128" s="39">
         <v>100</v>
       </c>
-      <c r="CS128" s="18">
+      <c r="CS128" s="39">
         <v>100</v>
       </c>
-      <c r="CT128" s="10"/>
+      <c r="CT128" s="39">
+        <v>100</v>
+      </c>
       <c r="CU128" s="10"/>
       <c r="CV128" s="10"/>
       <c r="CW128" s="10"/>
@@ -37993,15 +38439,21 @@
       <c r="CM129" s="16"/>
       <c r="CN129" s="16"/>
       <c r="CO129" s="16"/>
-      <c r="CP129" s="16"/>
-      <c r="CQ129" s="16"/>
-      <c r="CR129" s="16"/>
-      <c r="CS129" s="16"/>
+      <c r="CP129" s="36"/>
+      <c r="CQ129" s="36"/>
+      <c r="CR129" s="36"/>
+      <c r="CS129" s="36"/>
+      <c r="CT129" s="36"/>
     </row>
     <row r="130" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="CP130" s="28"/>
+      <c r="CQ130" s="28"/>
+      <c r="CR130" s="28"/>
+      <c r="CS130" s="28"/>
+      <c r="CT130" s="28"/>
     </row>
     <row r="131" spans="1:155" s="21" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
@@ -38097,11 +38549,11 @@
       <c r="CM131" s="11"/>
       <c r="CN131" s="11"/>
       <c r="CO131" s="11"/>
-      <c r="CP131" s="11"/>
-      <c r="CQ131" s="11"/>
-      <c r="CR131" s="11"/>
-      <c r="CS131" s="11"/>
-      <c r="CT131" s="20"/>
+      <c r="CP131" s="41"/>
+      <c r="CQ131" s="41"/>
+      <c r="CR131" s="41"/>
+      <c r="CS131" s="41"/>
+      <c r="CT131" s="41"/>
       <c r="CU131" s="20"/>
       <c r="CV131" s="20"/>
       <c r="CW131" s="20"/>
@@ -38254,11 +38706,11 @@
       <c r="CM132" s="11"/>
       <c r="CN132" s="11"/>
       <c r="CO132" s="11"/>
-      <c r="CP132" s="11"/>
-      <c r="CQ132" s="11"/>
-      <c r="CR132" s="11"/>
-      <c r="CS132" s="11"/>
-      <c r="CT132" s="20"/>
+      <c r="CP132" s="41"/>
+      <c r="CQ132" s="41"/>
+      <c r="CR132" s="41"/>
+      <c r="CS132" s="41"/>
+      <c r="CT132" s="41"/>
       <c r="CU132" s="20"/>
       <c r="CV132" s="20"/>
       <c r="CW132" s="20"/>
@@ -38318,19 +38770,12 @@
       <c r="EY132" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="154">
-    <mergeCell ref="CH47:CK47"/>
-    <mergeCell ref="CH66:CK66"/>
+  <mergeCells count="147">
     <mergeCell ref="CD9:CG9"/>
     <mergeCell ref="CD122:CG122"/>
     <mergeCell ref="CD103:CG103"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH28:CK28"/>
     <mergeCell ref="CD47:CG47"/>
     <mergeCell ref="CD66:CG66"/>
-    <mergeCell ref="CH84:CK84"/>
-    <mergeCell ref="CH103:CK103"/>
-    <mergeCell ref="CH122:CK122"/>
     <mergeCell ref="CD28:CG28"/>
     <mergeCell ref="CD84:CG84"/>
     <mergeCell ref="BZ9:CC9"/>
@@ -38347,6 +38792,9 @@
     <mergeCell ref="BR47:BU47"/>
     <mergeCell ref="BR9:BU9"/>
     <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ122:CC122"/>
+    <mergeCell ref="BR103:BU103"/>
+    <mergeCell ref="BV103:BY103"/>
     <mergeCell ref="BJ9:BM9"/>
     <mergeCell ref="BN9:BQ9"/>
     <mergeCell ref="B28:E28"/>
@@ -38439,9 +38887,6 @@
     <mergeCell ref="AP122:AS122"/>
     <mergeCell ref="AL103:AO103"/>
     <mergeCell ref="AP103:AS103"/>
-    <mergeCell ref="BZ122:CC122"/>
-    <mergeCell ref="BR103:BU103"/>
-    <mergeCell ref="BV103:BY103"/>
     <mergeCell ref="BF47:BI47"/>
     <mergeCell ref="BJ47:BM47"/>
     <mergeCell ref="BN47:BQ47"/>
@@ -38451,6 +38896,7 @@
     <mergeCell ref="BJ66:BM66"/>
     <mergeCell ref="BF28:BI28"/>
     <mergeCell ref="BF66:BI66"/>
+    <mergeCell ref="BN66:BQ66"/>
     <mergeCell ref="BN122:BQ122"/>
     <mergeCell ref="BJ103:BM103"/>
     <mergeCell ref="BN103:BQ103"/>
@@ -38462,7 +38908,6 @@
     <mergeCell ref="BB84:BE84"/>
     <mergeCell ref="BF84:BI84"/>
     <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="BN66:BQ66"/>
     <mergeCell ref="BR84:BU84"/>
     <mergeCell ref="BV84:BY84"/>
     <mergeCell ref="BJ122:BM122"/>
@@ -38479,9 +38924,9 @@
   <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="96" man="1"/>
-    <brk id="76" max="96" man="1"/>
-    <brk id="94" max="96" man="1"/>
+    <brk id="38" max="97" man="1"/>
+    <brk id="76" max="97" man="1"/>
+    <brk id="94" max="97" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-16IAC_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-16IAC_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F738C3E0-1B20-4888-9D4E-C2C95E0667EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BC4BBB-BA1C-40C9-9FE1-BA354AC4077B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAC" sheetId="10" r:id="rId1"/>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -619,13 +619,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2024</t>
+    <t>As of August 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2024</t>
+    <t>Q1 2000 to Q2 2024</t>
   </si>
   <si>
-    <t>As of May 2024</t>
+    <t>Q1 2001 to Q2 2024</t>
   </si>
 </sst>
 </file>
@@ -725,7 +725,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -771,33 +771,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23670,73 +23646,42 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BW1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CX29" sqref="CX29"/>
+      <selection pane="topRight" activeCell="CP1" sqref="CP1:CU1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.6640625" style="1" customWidth="1"/>
     <col min="2" max="93" width="11.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="94" max="98" width="9.33203125" style="41" customWidth="1"/>
-    <col min="99" max="16384" width="7.77734375" style="11"/>
+    <col min="94" max="99" width="9.44140625" style="11" customWidth="1"/>
+    <col min="100" max="16384" width="7.77734375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CP1" s="28"/>
-      <c r="CQ1" s="28"/>
-      <c r="CR1" s="28"/>
-      <c r="CS1" s="28"/>
-      <c r="CT1" s="28"/>
     </row>
     <row r="2" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="CP2" s="28"/>
-      <c r="CQ2" s="28"/>
-      <c r="CR2" s="28"/>
-      <c r="CS2" s="28"/>
-      <c r="CT2" s="28"/>
     </row>
     <row r="3" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="CP3" s="28"/>
-      <c r="CQ3" s="28"/>
-      <c r="CR3" s="28"/>
-      <c r="CS3" s="28"/>
-      <c r="CT3" s="28"/>
+        <v>50</v>
+      </c>
     </row>
-    <row r="4" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP4" s="28"/>
-      <c r="CQ4" s="28"/>
-      <c r="CR4" s="28"/>
-      <c r="CS4" s="28"/>
-      <c r="CT4" s="28"/>
-    </row>
+    <row r="4" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="CP5" s="28"/>
-      <c r="CQ5" s="28"/>
-      <c r="CR5" s="28"/>
-      <c r="CS5" s="28"/>
-      <c r="CT5" s="28"/>
     </row>
     <row r="6" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="CP6" s="28"/>
-      <c r="CQ6" s="28"/>
-      <c r="CR6" s="28"/>
-      <c r="CS6" s="28"/>
-      <c r="CT6" s="28"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -23834,11 +23779,12 @@
       <c r="CM7" s="4"/>
       <c r="CN7" s="4"/>
       <c r="CO7" s="4"/>
-      <c r="CP7" s="29"/>
-      <c r="CQ7" s="29"/>
-      <c r="CR7" s="29"/>
-      <c r="CS7" s="29"/>
-      <c r="CT7" s="29"/>
+      <c r="CP7" s="4"/>
+      <c r="CQ7" s="4"/>
+      <c r="CR7" s="4"/>
+      <c r="CS7" s="4"/>
+      <c r="CT7" s="4"/>
+      <c r="CU7" s="4"/>
     </row>
     <row r="8" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
@@ -23933,140 +23879,141 @@
       <c r="CM8" s="4"/>
       <c r="CN8" s="4"/>
       <c r="CO8" s="4"/>
-      <c r="CP8" s="29"/>
-      <c r="CQ8" s="29"/>
-      <c r="CR8" s="29"/>
-      <c r="CS8" s="29"/>
-      <c r="CT8" s="29"/>
+      <c r="CP8" s="4"/>
+      <c r="CQ8" s="4"/>
+      <c r="CR8" s="4"/>
+      <c r="CS8" s="4"/>
+      <c r="CT8" s="4"/>
+      <c r="CU8" s="4"/>
     </row>
     <row r="9" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="42">
+      <c r="B9" s="28">
         <v>2000</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42">
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28">
         <v>2001</v>
       </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42">
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28">
         <v>2002</v>
       </c>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42">
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28">
         <v>2003</v>
       </c>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42">
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28">
         <v>2004</v>
       </c>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42">
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28">
         <v>2005</v>
       </c>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42">
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28">
         <v>2006</v>
       </c>
-      <c r="AA9" s="42"/>
-      <c r="AB9" s="42"/>
-      <c r="AC9" s="42"/>
-      <c r="AD9" s="42">
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28">
         <v>2007</v>
       </c>
-      <c r="AE9" s="42"/>
-      <c r="AF9" s="42"/>
-      <c r="AG9" s="42"/>
-      <c r="AH9" s="42">
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="28"/>
+      <c r="AH9" s="28">
         <v>2008</v>
       </c>
-      <c r="AI9" s="42"/>
-      <c r="AJ9" s="42"/>
-      <c r="AK9" s="42"/>
-      <c r="AL9" s="42">
+      <c r="AI9" s="28"/>
+      <c r="AJ9" s="28"/>
+      <c r="AK9" s="28"/>
+      <c r="AL9" s="28">
         <v>2009</v>
       </c>
-      <c r="AM9" s="42"/>
-      <c r="AN9" s="42"/>
-      <c r="AO9" s="42"/>
-      <c r="AP9" s="42">
+      <c r="AM9" s="28"/>
+      <c r="AN9" s="28"/>
+      <c r="AO9" s="28"/>
+      <c r="AP9" s="28">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="42"/>
-      <c r="AR9" s="42"/>
-      <c r="AS9" s="42"/>
-      <c r="AT9" s="42">
+      <c r="AQ9" s="28"/>
+      <c r="AR9" s="28"/>
+      <c r="AS9" s="28"/>
+      <c r="AT9" s="28">
         <v>2011</v>
       </c>
-      <c r="AU9" s="42"/>
-      <c r="AV9" s="42"/>
-      <c r="AW9" s="42"/>
-      <c r="AX9" s="42">
+      <c r="AU9" s="28"/>
+      <c r="AV9" s="28"/>
+      <c r="AW9" s="28"/>
+      <c r="AX9" s="28">
         <v>2012</v>
       </c>
-      <c r="AY9" s="42"/>
-      <c r="AZ9" s="42"/>
-      <c r="BA9" s="42"/>
-      <c r="BB9" s="42">
+      <c r="AY9" s="28"/>
+      <c r="AZ9" s="28"/>
+      <c r="BA9" s="28"/>
+      <c r="BB9" s="28">
         <v>2013</v>
       </c>
-      <c r="BC9" s="42"/>
-      <c r="BD9" s="42"/>
-      <c r="BE9" s="42"/>
-      <c r="BF9" s="42">
+      <c r="BC9" s="28"/>
+      <c r="BD9" s="28"/>
+      <c r="BE9" s="28"/>
+      <c r="BF9" s="28">
         <v>2014</v>
       </c>
-      <c r="BG9" s="42"/>
-      <c r="BH9" s="42"/>
-      <c r="BI9" s="42"/>
-      <c r="BJ9" s="42">
+      <c r="BG9" s="28"/>
+      <c r="BH9" s="28"/>
+      <c r="BI9" s="28"/>
+      <c r="BJ9" s="28">
         <v>2015</v>
       </c>
-      <c r="BK9" s="42"/>
-      <c r="BL9" s="42"/>
-      <c r="BM9" s="42"/>
-      <c r="BN9" s="42">
+      <c r="BK9" s="28"/>
+      <c r="BL9" s="28"/>
+      <c r="BM9" s="28"/>
+      <c r="BN9" s="28">
         <v>2016</v>
       </c>
-      <c r="BO9" s="42"/>
-      <c r="BP9" s="42"/>
-      <c r="BQ9" s="42"/>
-      <c r="BR9" s="42">
+      <c r="BO9" s="28"/>
+      <c r="BP9" s="28"/>
+      <c r="BQ9" s="28"/>
+      <c r="BR9" s="28">
         <v>2017</v>
       </c>
-      <c r="BS9" s="42"/>
-      <c r="BT9" s="42"/>
-      <c r="BU9" s="42"/>
-      <c r="BV9" s="42">
+      <c r="BS9" s="28"/>
+      <c r="BT9" s="28"/>
+      <c r="BU9" s="28"/>
+      <c r="BV9" s="28">
         <v>2018</v>
       </c>
-      <c r="BW9" s="42"/>
-      <c r="BX9" s="42"/>
-      <c r="BY9" s="42"/>
-      <c r="BZ9" s="42">
+      <c r="BW9" s="28"/>
+      <c r="BX9" s="28"/>
+      <c r="BY9" s="28"/>
+      <c r="BZ9" s="28">
         <v>2019</v>
       </c>
-      <c r="CA9" s="42"/>
-      <c r="CB9" s="42"/>
-      <c r="CC9" s="42"/>
-      <c r="CD9" s="42">
+      <c r="CA9" s="28"/>
+      <c r="CB9" s="28"/>
+      <c r="CC9" s="28"/>
+      <c r="CD9" s="28">
         <v>2020</v>
       </c>
-      <c r="CE9" s="42"/>
-      <c r="CF9" s="42"/>
-      <c r="CG9" s="42"/>
+      <c r="CE9" s="28"/>
+      <c r="CF9" s="28"/>
+      <c r="CG9" s="28"/>
       <c r="CH9" s="26">
         <v>2021</v>
       </c>
@@ -24079,15 +24026,16 @@
       <c r="CM9" s="26"/>
       <c r="CN9" s="26"/>
       <c r="CO9" s="26"/>
-      <c r="CP9" s="30">
+      <c r="CP9" s="26">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="30"/>
-      <c r="CR9" s="30"/>
-      <c r="CS9" s="30"/>
-      <c r="CT9" s="30">
+      <c r="CQ9" s="26"/>
+      <c r="CR9" s="26"/>
+      <c r="CS9" s="26"/>
+      <c r="CT9" s="26">
         <v>2024</v>
       </c>
+      <c r="CU9" s="26"/>
     </row>
     <row r="10" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24369,29 +24317,27 @@
       <c r="CO10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="31" t="s">
+      <c r="CP10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="31" t="s">
+      <c r="CQ10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="31" t="s">
+      <c r="CR10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CS10" s="31" t="s">
+      <c r="CS10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CT10" s="31" t="s">
+      <c r="CT10" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CU10" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
-      <c r="CP11" s="28"/>
-      <c r="CQ11" s="28"/>
-      <c r="CR11" s="28"/>
-      <c r="CS11" s="28"/>
-      <c r="CT11" s="28"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -24673,22 +24619,24 @@
       <c r="CO12" s="22">
         <v>15190.388942085265</v>
       </c>
-      <c r="CP12" s="32">
+      <c r="CP12" s="22">
         <v>13368.965748047689</v>
       </c>
-      <c r="CQ12" s="32">
+      <c r="CQ12" s="22">
         <v>17358.039118818233</v>
       </c>
-      <c r="CR12" s="32">
+      <c r="CR12" s="22">
         <v>12572.294304729996</v>
       </c>
-      <c r="CS12" s="32">
+      <c r="CS12" s="22">
         <v>16914.126620438685</v>
       </c>
-      <c r="CT12" s="32">
-        <v>13847.865207358056</v>
-      </c>
-      <c r="CU12" s="10"/>
+      <c r="CT12" s="22">
+        <v>13497.815102348464</v>
+      </c>
+      <c r="CU12" s="22">
+        <v>18437.201772265205</v>
+      </c>
       <c r="CV12" s="10"/>
       <c r="CW12" s="10"/>
       <c r="CX12" s="10"/>
@@ -25026,22 +24974,24 @@
       <c r="CO13" s="23">
         <v>181261.68613683333</v>
       </c>
-      <c r="CP13" s="33">
+      <c r="CP13" s="23">
         <v>152187.73803509001</v>
       </c>
-      <c r="CQ13" s="33">
+      <c r="CQ13" s="23">
         <v>181743.41382022295</v>
       </c>
-      <c r="CR13" s="33">
+      <c r="CR13" s="23">
         <v>147905.5339840698</v>
       </c>
-      <c r="CS13" s="33">
+      <c r="CS13" s="23">
         <v>191366.4054079433</v>
       </c>
-      <c r="CT13" s="33">
-        <v>159671.15273008822</v>
-      </c>
-      <c r="CU13" s="10"/>
+      <c r="CT13" s="23">
+        <v>159915.96335598713</v>
+      </c>
+      <c r="CU13" s="23">
+        <v>195508.67954014923</v>
+      </c>
       <c r="CV13" s="10"/>
       <c r="CW13" s="10"/>
       <c r="CX13" s="10"/>
@@ -25192,12 +25142,12 @@
       <c r="CM14" s="24"/>
       <c r="CN14" s="24"/>
       <c r="CO14" s="24"/>
-      <c r="CP14" s="34"/>
-      <c r="CQ14" s="34"/>
-      <c r="CR14" s="34"/>
-      <c r="CS14" s="34"/>
-      <c r="CT14" s="34"/>
-      <c r="CU14" s="10"/>
+      <c r="CP14" s="24"/>
+      <c r="CQ14" s="24"/>
+      <c r="CR14" s="24"/>
+      <c r="CS14" s="24"/>
+      <c r="CT14" s="24"/>
+      <c r="CU14" s="24"/>
       <c r="CV14" s="10"/>
       <c r="CW14" s="10"/>
       <c r="CX14" s="10"/>
@@ -25535,22 +25485,24 @@
       <c r="CO15" s="25">
         <v>196452.0750789186</v>
       </c>
-      <c r="CP15" s="35">
+      <c r="CP15" s="25">
         <v>165556.70378313769</v>
       </c>
-      <c r="CQ15" s="35">
+      <c r="CQ15" s="25">
         <v>199101.45293904119</v>
       </c>
-      <c r="CR15" s="35">
+      <c r="CR15" s="25">
         <v>160477.82828879979</v>
       </c>
-      <c r="CS15" s="35">
+      <c r="CS15" s="25">
         <v>208280.53202838197</v>
       </c>
-      <c r="CT15" s="35">
-        <v>173519.01793744628</v>
-      </c>
-      <c r="CU15" s="10"/>
+      <c r="CT15" s="25">
+        <v>173413.77845833558</v>
+      </c>
+      <c r="CU15" s="25">
+        <v>213945.88131241442</v>
+      </c>
       <c r="CV15" s="10"/>
       <c r="CW15" s="10"/>
       <c r="CX15" s="10"/>
@@ -25702,21 +25654,17 @@
       <c r="CM16" s="16"/>
       <c r="CN16" s="16"/>
       <c r="CO16" s="16"/>
-      <c r="CP16" s="36"/>
-      <c r="CQ16" s="36"/>
-      <c r="CR16" s="36"/>
-      <c r="CS16" s="36"/>
-      <c r="CT16" s="36"/>
+      <c r="CP16" s="16"/>
+      <c r="CQ16" s="16"/>
+      <c r="CR16" s="16"/>
+      <c r="CS16" s="16"/>
+      <c r="CT16" s="16"/>
+      <c r="CU16" s="16"/>
     </row>
     <row r="17" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="CP17" s="28"/>
-      <c r="CQ17" s="28"/>
-      <c r="CR17" s="28"/>
-      <c r="CS17" s="28"/>
-      <c r="CT17" s="28"/>
     </row>
     <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
@@ -25811,11 +25759,11 @@
       <c r="CM18" s="10"/>
       <c r="CN18" s="10"/>
       <c r="CO18" s="10"/>
-      <c r="CP18" s="37"/>
-      <c r="CQ18" s="37"/>
-      <c r="CR18" s="37"/>
-      <c r="CS18" s="37"/>
-      <c r="CT18" s="37"/>
+      <c r="CP18" s="10"/>
+      <c r="CQ18" s="10"/>
+      <c r="CR18" s="10"/>
+      <c r="CS18" s="10"/>
+      <c r="CT18" s="10"/>
       <c r="CU18" s="10"/>
       <c r="CV18" s="10"/>
       <c r="CW18" s="10"/>
@@ -25967,11 +25915,11 @@
       <c r="CM19" s="10"/>
       <c r="CN19" s="10"/>
       <c r="CO19" s="10"/>
-      <c r="CP19" s="37"/>
-      <c r="CQ19" s="37"/>
-      <c r="CR19" s="37"/>
-      <c r="CS19" s="37"/>
-      <c r="CT19" s="37"/>
+      <c r="CP19" s="10"/>
+      <c r="CQ19" s="10"/>
+      <c r="CR19" s="10"/>
+      <c r="CS19" s="10"/>
+      <c r="CT19" s="10"/>
       <c r="CU19" s="10"/>
       <c r="CV19" s="10"/>
       <c r="CW19" s="10"/>
@@ -26034,58 +25982,27 @@
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CP20" s="28"/>
-      <c r="CQ20" s="28"/>
-      <c r="CR20" s="28"/>
-      <c r="CS20" s="28"/>
-      <c r="CT20" s="28"/>
     </row>
     <row r="21" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="CP21" s="28"/>
-      <c r="CQ21" s="28"/>
-      <c r="CR21" s="28"/>
-      <c r="CS21" s="28"/>
-      <c r="CT21" s="28"/>
     </row>
     <row r="22" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="CP22" s="28"/>
-      <c r="CQ22" s="28"/>
-      <c r="CR22" s="28"/>
-      <c r="CS22" s="28"/>
-      <c r="CT22" s="28"/>
+        <v>50</v>
+      </c>
     </row>
-    <row r="23" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP23" s="28"/>
-      <c r="CQ23" s="28"/>
-      <c r="CR23" s="28"/>
-      <c r="CS23" s="28"/>
-      <c r="CT23" s="28"/>
-    </row>
+    <row r="23" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="CP24" s="28"/>
-      <c r="CQ24" s="28"/>
-      <c r="CR24" s="28"/>
-      <c r="CS24" s="28"/>
-      <c r="CT24" s="28"/>
     </row>
     <row r="25" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="CP25" s="28"/>
-      <c r="CQ25" s="28"/>
-      <c r="CR25" s="28"/>
-      <c r="CS25" s="28"/>
-      <c r="CT25" s="28"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="26" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -26183,11 +26100,12 @@
       <c r="CM26" s="4"/>
       <c r="CN26" s="4"/>
       <c r="CO26" s="4"/>
-      <c r="CP26" s="29"/>
-      <c r="CQ26" s="29"/>
-      <c r="CR26" s="29"/>
-      <c r="CS26" s="29"/>
-      <c r="CT26" s="29"/>
+      <c r="CP26" s="4"/>
+      <c r="CQ26" s="4"/>
+      <c r="CR26" s="4"/>
+      <c r="CS26" s="4"/>
+      <c r="CT26" s="4"/>
+      <c r="CU26" s="4"/>
     </row>
     <row r="27" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
@@ -26282,140 +26200,141 @@
       <c r="CM27" s="4"/>
       <c r="CN27" s="4"/>
       <c r="CO27" s="4"/>
-      <c r="CP27" s="29"/>
-      <c r="CQ27" s="29"/>
-      <c r="CR27" s="29"/>
-      <c r="CS27" s="29"/>
-      <c r="CT27" s="29"/>
+      <c r="CP27" s="4"/>
+      <c r="CQ27" s="4"/>
+      <c r="CR27" s="4"/>
+      <c r="CS27" s="4"/>
+      <c r="CT27" s="4"/>
+      <c r="CU27" s="4"/>
     </row>
     <row r="28" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="42">
+      <c r="B28" s="28">
         <v>2000</v>
       </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="42">
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="28">
         <v>2001</v>
       </c>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="42">
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="28">
         <v>2002</v>
       </c>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="42">
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="28">
         <v>2003</v>
       </c>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="42">
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="28">
         <v>2004</v>
       </c>
-      <c r="S28" s="43"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="43"/>
-      <c r="V28" s="42">
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="28">
         <v>2005</v>
       </c>
-      <c r="W28" s="43"/>
-      <c r="X28" s="43"/>
-      <c r="Y28" s="43"/>
-      <c r="Z28" s="42">
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="28">
         <v>2006</v>
       </c>
-      <c r="AA28" s="43"/>
-      <c r="AB28" s="43"/>
-      <c r="AC28" s="43"/>
-      <c r="AD28" s="42">
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="28">
         <v>2007</v>
       </c>
-      <c r="AE28" s="43"/>
-      <c r="AF28" s="43"/>
-      <c r="AG28" s="43"/>
-      <c r="AH28" s="42">
+      <c r="AE28" s="29"/>
+      <c r="AF28" s="29"/>
+      <c r="AG28" s="29"/>
+      <c r="AH28" s="28">
         <v>2008</v>
       </c>
-      <c r="AI28" s="43"/>
-      <c r="AJ28" s="43"/>
-      <c r="AK28" s="43"/>
-      <c r="AL28" s="42">
+      <c r="AI28" s="29"/>
+      <c r="AJ28" s="29"/>
+      <c r="AK28" s="29"/>
+      <c r="AL28" s="28">
         <v>2009</v>
       </c>
-      <c r="AM28" s="43"/>
-      <c r="AN28" s="43"/>
-      <c r="AO28" s="43"/>
-      <c r="AP28" s="42">
+      <c r="AM28" s="29"/>
+      <c r="AN28" s="29"/>
+      <c r="AO28" s="29"/>
+      <c r="AP28" s="28">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="43"/>
-      <c r="AR28" s="43"/>
-      <c r="AS28" s="43"/>
-      <c r="AT28" s="42">
+      <c r="AQ28" s="29"/>
+      <c r="AR28" s="29"/>
+      <c r="AS28" s="29"/>
+      <c r="AT28" s="28">
         <v>2011</v>
       </c>
-      <c r="AU28" s="43"/>
-      <c r="AV28" s="43"/>
-      <c r="AW28" s="43"/>
-      <c r="AX28" s="42">
+      <c r="AU28" s="29"/>
+      <c r="AV28" s="29"/>
+      <c r="AW28" s="29"/>
+      <c r="AX28" s="28">
         <v>2012</v>
       </c>
-      <c r="AY28" s="43"/>
-      <c r="AZ28" s="43"/>
-      <c r="BA28" s="43"/>
-      <c r="BB28" s="42">
+      <c r="AY28" s="29"/>
+      <c r="AZ28" s="29"/>
+      <c r="BA28" s="29"/>
+      <c r="BB28" s="28">
         <v>2013</v>
       </c>
-      <c r="BC28" s="43"/>
-      <c r="BD28" s="43"/>
-      <c r="BE28" s="43"/>
-      <c r="BF28" s="42">
+      <c r="BC28" s="29"/>
+      <c r="BD28" s="29"/>
+      <c r="BE28" s="29"/>
+      <c r="BF28" s="28">
         <v>2014</v>
       </c>
-      <c r="BG28" s="43"/>
-      <c r="BH28" s="43"/>
-      <c r="BI28" s="43"/>
-      <c r="BJ28" s="42">
+      <c r="BG28" s="29"/>
+      <c r="BH28" s="29"/>
+      <c r="BI28" s="29"/>
+      <c r="BJ28" s="28">
         <v>2015</v>
       </c>
-      <c r="BK28" s="43"/>
-      <c r="BL28" s="43"/>
-      <c r="BM28" s="43"/>
-      <c r="BN28" s="42">
+      <c r="BK28" s="29"/>
+      <c r="BL28" s="29"/>
+      <c r="BM28" s="29"/>
+      <c r="BN28" s="28">
         <v>2016</v>
       </c>
-      <c r="BO28" s="43"/>
-      <c r="BP28" s="43"/>
-      <c r="BQ28" s="43"/>
-      <c r="BR28" s="42">
+      <c r="BO28" s="29"/>
+      <c r="BP28" s="29"/>
+      <c r="BQ28" s="29"/>
+      <c r="BR28" s="28">
         <v>2017</v>
       </c>
-      <c r="BS28" s="43"/>
-      <c r="BT28" s="43"/>
-      <c r="BU28" s="43"/>
-      <c r="BV28" s="42">
+      <c r="BS28" s="29"/>
+      <c r="BT28" s="29"/>
+      <c r="BU28" s="29"/>
+      <c r="BV28" s="28">
         <v>2018</v>
       </c>
-      <c r="BW28" s="43"/>
-      <c r="BX28" s="43"/>
-      <c r="BY28" s="43"/>
-      <c r="BZ28" s="42">
+      <c r="BW28" s="29"/>
+      <c r="BX28" s="29"/>
+      <c r="BY28" s="29"/>
+      <c r="BZ28" s="28">
         <v>2019</v>
       </c>
-      <c r="CA28" s="43"/>
-      <c r="CB28" s="43"/>
-      <c r="CC28" s="43"/>
-      <c r="CD28" s="42">
+      <c r="CA28" s="29"/>
+      <c r="CB28" s="29"/>
+      <c r="CC28" s="29"/>
+      <c r="CD28" s="28">
         <v>2020</v>
       </c>
-      <c r="CE28" s="42"/>
-      <c r="CF28" s="42"/>
-      <c r="CG28" s="42"/>
+      <c r="CE28" s="28"/>
+      <c r="CF28" s="28"/>
+      <c r="CG28" s="28"/>
       <c r="CH28" s="26">
         <v>2021</v>
       </c>
@@ -26428,15 +26347,16 @@
       <c r="CM28" s="26"/>
       <c r="CN28" s="26"/>
       <c r="CO28" s="26"/>
-      <c r="CP28" s="30">
+      <c r="CP28" s="26">
         <v>2023</v>
       </c>
-      <c r="CQ28" s="30"/>
-      <c r="CR28" s="30"/>
-      <c r="CS28" s="30"/>
-      <c r="CT28" s="30">
+      <c r="CQ28" s="26"/>
+      <c r="CR28" s="26"/>
+      <c r="CS28" s="26"/>
+      <c r="CT28" s="26">
         <v>2024</v>
       </c>
+      <c r="CU28" s="26"/>
     </row>
     <row r="29" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
@@ -26718,29 +26638,27 @@
       <c r="CO29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP29" s="31" t="s">
+      <c r="CP29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ29" s="31" t="s">
+      <c r="CQ29" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR29" s="31" t="s">
+      <c r="CR29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CS29" s="31" t="s">
+      <c r="CS29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CT29" s="31" t="s">
+      <c r="CT29" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CU29" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
-      <c r="CP30" s="28"/>
-      <c r="CQ30" s="28"/>
-      <c r="CR30" s="28"/>
-      <c r="CS30" s="28"/>
-      <c r="CT30" s="28"/>
     </row>
     <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -27022,22 +26940,24 @@
       <c r="CO31" s="22">
         <v>13654.86697409441</v>
       </c>
-      <c r="CP31" s="32">
+      <c r="CP31" s="22">
         <v>12095.637987354556</v>
       </c>
-      <c r="CQ31" s="32">
+      <c r="CQ31" s="22">
         <v>17059.997546396302</v>
       </c>
-      <c r="CR31" s="32">
+      <c r="CR31" s="22">
         <v>10837.458302174649</v>
       </c>
-      <c r="CS31" s="32">
+      <c r="CS31" s="22">
         <v>14464.374266498478</v>
       </c>
-      <c r="CT31" s="32">
-        <v>12197.238441812755</v>
-      </c>
-      <c r="CU31" s="10"/>
+      <c r="CT31" s="22">
+        <v>11962.369867680056</v>
+      </c>
+      <c r="CU31" s="22">
+        <v>17717.720123424566</v>
+      </c>
       <c r="CV31" s="10"/>
       <c r="CW31" s="10"/>
       <c r="CX31" s="10"/>
@@ -27375,22 +27295,24 @@
       <c r="CO32" s="23">
         <v>179750.32063927912</v>
       </c>
-      <c r="CP32" s="33">
+      <c r="CP32" s="23">
         <v>152748.30565401711</v>
       </c>
-      <c r="CQ32" s="33">
+      <c r="CQ32" s="23">
         <v>183439.40288751404</v>
       </c>
-      <c r="CR32" s="33">
+      <c r="CR32" s="23">
         <v>140366.26543260479</v>
       </c>
-      <c r="CS32" s="33">
+      <c r="CS32" s="23">
         <v>188603.91106529051</v>
       </c>
-      <c r="CT32" s="33">
-        <v>159585.70868137528</v>
-      </c>
-      <c r="CU32" s="10"/>
+      <c r="CT32" s="23">
+        <v>159830.38830295255</v>
+      </c>
+      <c r="CU32" s="23">
+        <v>196377.05166952667</v>
+      </c>
       <c r="CV32" s="10"/>
       <c r="CW32" s="10"/>
       <c r="CX32" s="10"/>
@@ -27541,11 +27463,11 @@
       <c r="CM33" s="10"/>
       <c r="CN33" s="10"/>
       <c r="CO33" s="10"/>
-      <c r="CP33" s="37"/>
-      <c r="CQ33" s="37"/>
-      <c r="CR33" s="37"/>
-      <c r="CS33" s="37"/>
-      <c r="CT33" s="37"/>
+      <c r="CP33" s="10"/>
+      <c r="CQ33" s="10"/>
+      <c r="CR33" s="10"/>
+      <c r="CS33" s="10"/>
+      <c r="CT33" s="10"/>
       <c r="CU33" s="10"/>
       <c r="CV33" s="10"/>
       <c r="CW33" s="10"/>
@@ -27884,22 +27806,24 @@
       <c r="CO34" s="25">
         <v>193405.18761337353</v>
       </c>
-      <c r="CP34" s="35">
+      <c r="CP34" s="25">
         <v>164843.94364137168</v>
       </c>
-      <c r="CQ34" s="35">
+      <c r="CQ34" s="25">
         <v>200499.40043391034</v>
       </c>
-      <c r="CR34" s="35">
+      <c r="CR34" s="25">
         <v>151203.72373477943</v>
       </c>
-      <c r="CS34" s="35">
+      <c r="CS34" s="25">
         <v>203068.285331789</v>
       </c>
-      <c r="CT34" s="35">
-        <v>171782.94712318803</v>
-      </c>
-      <c r="CU34" s="10"/>
+      <c r="CT34" s="25">
+        <v>171792.75817063259</v>
+      </c>
+      <c r="CU34" s="25">
+        <v>214094.77179295124</v>
+      </c>
       <c r="CV34" s="10"/>
       <c r="CW34" s="10"/>
       <c r="CX34" s="10"/>
@@ -28051,21 +27975,17 @@
       <c r="CM35" s="16"/>
       <c r="CN35" s="16"/>
       <c r="CO35" s="16"/>
-      <c r="CP35" s="36"/>
-      <c r="CQ35" s="36"/>
-      <c r="CR35" s="36"/>
-      <c r="CS35" s="36"/>
-      <c r="CT35" s="36"/>
+      <c r="CP35" s="16"/>
+      <c r="CQ35" s="16"/>
+      <c r="CR35" s="16"/>
+      <c r="CS35" s="16"/>
+      <c r="CT35" s="16"/>
+      <c r="CU35" s="16"/>
     </row>
     <row r="36" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="CP36" s="28"/>
-      <c r="CQ36" s="28"/>
-      <c r="CR36" s="28"/>
-      <c r="CS36" s="28"/>
-      <c r="CT36" s="28"/>
     </row>
     <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="10"/>
@@ -28160,11 +28080,11 @@
       <c r="CM37" s="10"/>
       <c r="CN37" s="10"/>
       <c r="CO37" s="10"/>
-      <c r="CP37" s="37"/>
-      <c r="CQ37" s="37"/>
-      <c r="CR37" s="37"/>
-      <c r="CS37" s="37"/>
-      <c r="CT37" s="37"/>
+      <c r="CP37" s="10"/>
+      <c r="CQ37" s="10"/>
+      <c r="CR37" s="10"/>
+      <c r="CS37" s="10"/>
+      <c r="CT37" s="10"/>
       <c r="CU37" s="10"/>
       <c r="CV37" s="10"/>
       <c r="CW37" s="10"/>
@@ -28316,11 +28236,11 @@
       <c r="CM38" s="10"/>
       <c r="CN38" s="10"/>
       <c r="CO38" s="10"/>
-      <c r="CP38" s="37"/>
-      <c r="CQ38" s="37"/>
-      <c r="CR38" s="37"/>
-      <c r="CS38" s="37"/>
-      <c r="CT38" s="37"/>
+      <c r="CP38" s="10"/>
+      <c r="CQ38" s="10"/>
+      <c r="CR38" s="10"/>
+      <c r="CS38" s="10"/>
+      <c r="CT38" s="10"/>
       <c r="CU38" s="10"/>
       <c r="CV38" s="10"/>
       <c r="CW38" s="10"/>
@@ -28383,204 +28303,162 @@
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CP39" s="28"/>
-      <c r="CQ39" s="28"/>
-      <c r="CR39" s="28"/>
-      <c r="CS39" s="28"/>
-      <c r="CT39" s="28"/>
     </row>
     <row r="40" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="CP40" s="28"/>
-      <c r="CQ40" s="28"/>
-      <c r="CR40" s="28"/>
-      <c r="CS40" s="28"/>
-      <c r="CT40" s="28"/>
     </row>
     <row r="41" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="CP41" s="28"/>
-      <c r="CQ41" s="28"/>
-      <c r="CR41" s="28"/>
-      <c r="CS41" s="28"/>
-      <c r="CT41" s="28"/>
+        <v>50</v>
+      </c>
     </row>
-    <row r="42" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP42" s="28"/>
-      <c r="CQ42" s="28"/>
-      <c r="CR42" s="28"/>
-      <c r="CS42" s="28"/>
-      <c r="CT42" s="28"/>
-    </row>
+    <row r="42" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="CP43" s="28"/>
-      <c r="CQ43" s="28"/>
-      <c r="CR43" s="28"/>
-      <c r="CS43" s="28"/>
-      <c r="CT43" s="28"/>
     </row>
     <row r="44" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="CP44" s="28"/>
-      <c r="CQ44" s="28"/>
-      <c r="CR44" s="28"/>
-      <c r="CS44" s="28"/>
-      <c r="CT44" s="28"/>
+        <v>52</v>
+      </c>
     </row>
     <row r="45" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="CP45" s="28"/>
-      <c r="CQ45" s="28"/>
-      <c r="CR45" s="28"/>
-      <c r="CS45" s="28"/>
-      <c r="CT45" s="28"/>
     </row>
-    <row r="46" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP46" s="28"/>
-      <c r="CQ46" s="28"/>
-      <c r="CR46" s="28"/>
-      <c r="CS46" s="28"/>
-      <c r="CT46" s="28"/>
-    </row>
+    <row r="46" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42" t="s">
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42" t="s">
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="42"/>
-      <c r="L47" s="42"/>
-      <c r="M47" s="42"/>
-      <c r="N47" s="42" t="s">
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="42"/>
-      <c r="P47" s="42"/>
-      <c r="Q47" s="42"/>
-      <c r="R47" s="42" t="s">
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="42"/>
-      <c r="T47" s="42"/>
-      <c r="U47" s="42"/>
-      <c r="V47" s="42" t="s">
+      <c r="S47" s="28"/>
+      <c r="T47" s="28"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="42"/>
-      <c r="X47" s="42"/>
-      <c r="Y47" s="42"/>
-      <c r="Z47" s="42" t="s">
+      <c r="W47" s="28"/>
+      <c r="X47" s="28"/>
+      <c r="Y47" s="28"/>
+      <c r="Z47" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="42"/>
-      <c r="AB47" s="42"/>
-      <c r="AC47" s="42"/>
-      <c r="AD47" s="42" t="s">
+      <c r="AA47" s="28"/>
+      <c r="AB47" s="28"/>
+      <c r="AC47" s="28"/>
+      <c r="AD47" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="42"/>
-      <c r="AF47" s="42"/>
-      <c r="AG47" s="42"/>
-      <c r="AH47" s="42" t="s">
+      <c r="AE47" s="28"/>
+      <c r="AF47" s="28"/>
+      <c r="AG47" s="28"/>
+      <c r="AH47" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="42"/>
-      <c r="AJ47" s="42"/>
-      <c r="AK47" s="42"/>
-      <c r="AL47" s="42" t="s">
+      <c r="AI47" s="28"/>
+      <c r="AJ47" s="28"/>
+      <c r="AK47" s="28"/>
+      <c r="AL47" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="42"/>
-      <c r="AN47" s="42"/>
-      <c r="AO47" s="42"/>
-      <c r="AP47" s="42" t="s">
+      <c r="AM47" s="28"/>
+      <c r="AN47" s="28"/>
+      <c r="AO47" s="28"/>
+      <c r="AP47" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="42"/>
-      <c r="AR47" s="42"/>
-      <c r="AS47" s="42"/>
-      <c r="AT47" s="42" t="s">
+      <c r="AQ47" s="28"/>
+      <c r="AR47" s="28"/>
+      <c r="AS47" s="28"/>
+      <c r="AT47" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="42"/>
-      <c r="AV47" s="42"/>
-      <c r="AW47" s="42"/>
-      <c r="AX47" s="42" t="s">
+      <c r="AU47" s="28"/>
+      <c r="AV47" s="28"/>
+      <c r="AW47" s="28"/>
+      <c r="AX47" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="42"/>
-      <c r="AZ47" s="42"/>
-      <c r="BA47" s="42"/>
-      <c r="BB47" s="42" t="s">
+      <c r="AY47" s="28"/>
+      <c r="AZ47" s="28"/>
+      <c r="BA47" s="28"/>
+      <c r="BB47" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="42"/>
-      <c r="BD47" s="42"/>
-      <c r="BE47" s="42"/>
-      <c r="BF47" s="42" t="s">
+      <c r="BC47" s="28"/>
+      <c r="BD47" s="28"/>
+      <c r="BE47" s="28"/>
+      <c r="BF47" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="42"/>
-      <c r="BH47" s="42"/>
-      <c r="BI47" s="42"/>
-      <c r="BJ47" s="42" t="s">
+      <c r="BG47" s="28"/>
+      <c r="BH47" s="28"/>
+      <c r="BI47" s="28"/>
+      <c r="BJ47" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="42"/>
-      <c r="BL47" s="42"/>
-      <c r="BM47" s="42"/>
-      <c r="BN47" s="42" t="s">
+      <c r="BK47" s="28"/>
+      <c r="BL47" s="28"/>
+      <c r="BM47" s="28"/>
+      <c r="BN47" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="42"/>
-      <c r="BP47" s="42"/>
-      <c r="BQ47" s="42"/>
-      <c r="BR47" s="42" t="s">
+      <c r="BO47" s="28"/>
+      <c r="BP47" s="28"/>
+      <c r="BQ47" s="28"/>
+      <c r="BR47" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="BS47" s="42"/>
-      <c r="BT47" s="42"/>
-      <c r="BU47" s="42"/>
-      <c r="BV47" s="42" t="s">
+      <c r="BS47" s="28"/>
+      <c r="BT47" s="28"/>
+      <c r="BU47" s="28"/>
+      <c r="BV47" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="BW47" s="42"/>
-      <c r="BX47" s="42"/>
-      <c r="BY47" s="42"/>
-      <c r="BZ47" s="42" t="s">
+      <c r="BW47" s="28"/>
+      <c r="BX47" s="28"/>
+      <c r="BY47" s="28"/>
+      <c r="BZ47" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="CA47" s="42"/>
-      <c r="CB47" s="42"/>
-      <c r="CC47" s="42"/>
-      <c r="CD47" s="42" t="s">
+      <c r="CA47" s="28"/>
+      <c r="CB47" s="28"/>
+      <c r="CC47" s="28"/>
+      <c r="CD47" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="42"/>
-      <c r="CF47" s="42"/>
-      <c r="CG47" s="42"/>
+      <c r="CE47" s="28"/>
+      <c r="CF47" s="28"/>
+      <c r="CG47" s="28"/>
       <c r="CH47" s="26" t="s">
         <v>47</v>
       </c>
@@ -28593,13 +28471,14 @@
       <c r="CM47" s="26"/>
       <c r="CN47" s="26"/>
       <c r="CO47" s="26"/>
-      <c r="CP47" s="30" t="s">
+      <c r="CP47" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="CQ47" s="27"/>
+      <c r="CQ47" s="26"/>
       <c r="CR47" s="27"/>
       <c r="CS47" s="27"/>
-      <c r="CT47" s="27"/>
+      <c r="CT47" s="26"/>
+      <c r="CU47" s="27"/>
     </row>
     <row r="48" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -28881,21 +28760,19 @@
       <c r="CO48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP48" s="38" t="s">
+      <c r="CP48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ48" s="38"/>
-      <c r="CR48" s="38"/>
-      <c r="CS48" s="38"/>
-      <c r="CT48" s="38"/>
+      <c r="CQ48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR48" s="6"/>
+      <c r="CS48" s="6"/>
+      <c r="CT48" s="6"/>
+      <c r="CU48" s="6"/>
     </row>
     <row r="49" spans="1:151" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
-      <c r="CP49" s="28"/>
-      <c r="CQ49" s="28"/>
-      <c r="CR49" s="28"/>
-      <c r="CS49" s="28"/>
-      <c r="CT49" s="28"/>
     </row>
     <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -29177,14 +29054,16 @@
       <c r="CO50" s="18">
         <v>11.347554594719895</v>
       </c>
-      <c r="CP50" s="39">
-        <v>3.5821728347258386</v>
-      </c>
-      <c r="CQ50" s="39"/>
-      <c r="CR50" s="39"/>
-      <c r="CS50" s="39"/>
-      <c r="CT50" s="39"/>
-      <c r="CU50" s="10"/>
+      <c r="CP50" s="18">
+        <v>0.96379448290224445</v>
+      </c>
+      <c r="CQ50" s="18">
+        <v>6.2170769754576156</v>
+      </c>
+      <c r="CR50" s="18"/>
+      <c r="CS50" s="18"/>
+      <c r="CT50" s="18"/>
+      <c r="CU50" s="18"/>
       <c r="CV50" s="10"/>
       <c r="CW50" s="10"/>
       <c r="CX50" s="10"/>
@@ -29518,14 +29397,16 @@
       <c r="CO51" s="18">
         <v>5.5746581014820578</v>
       </c>
-      <c r="CP51" s="39">
-        <v>4.9172257841645433</v>
-      </c>
-      <c r="CQ51" s="39"/>
-      <c r="CR51" s="39"/>
-      <c r="CS51" s="39"/>
-      <c r="CT51" s="39"/>
-      <c r="CU51" s="10"/>
+      <c r="CP51" s="18">
+        <v>5.0780867241191316</v>
+      </c>
+      <c r="CQ51" s="18">
+        <v>7.5740107608755665</v>
+      </c>
+      <c r="CR51" s="18"/>
+      <c r="CS51" s="18"/>
+      <c r="CT51" s="18"/>
+      <c r="CU51" s="18"/>
       <c r="CV51" s="10"/>
       <c r="CW51" s="10"/>
       <c r="CX51" s="10"/>
@@ -29673,12 +29554,12 @@
       <c r="CM52" s="19"/>
       <c r="CN52" s="19"/>
       <c r="CO52" s="19"/>
-      <c r="CP52" s="40"/>
-      <c r="CQ52" s="40"/>
-      <c r="CR52" s="40"/>
-      <c r="CS52" s="40"/>
-      <c r="CT52" s="40"/>
-      <c r="CU52" s="10"/>
+      <c r="CP52" s="19"/>
+      <c r="CQ52" s="19"/>
+      <c r="CR52" s="19"/>
+      <c r="CS52" s="19"/>
+      <c r="CT52" s="19"/>
+      <c r="CU52" s="19"/>
       <c r="CV52" s="10"/>
       <c r="CW52" s="10"/>
       <c r="CX52" s="10"/>
@@ -30012,14 +29893,16 @@
       <c r="CO53" s="18">
         <v>6.0210394543868517</v>
       </c>
-      <c r="CP53" s="39">
-        <v>4.8094181463883103</v>
-      </c>
-      <c r="CQ53" s="39"/>
-      <c r="CR53" s="39"/>
-      <c r="CS53" s="39"/>
-      <c r="CT53" s="39"/>
-      <c r="CU53" s="10"/>
+      <c r="CP53" s="18">
+        <v>4.7458511166602193</v>
+      </c>
+      <c r="CQ53" s="18">
+        <v>7.455710721467284</v>
+      </c>
+      <c r="CR53" s="18"/>
+      <c r="CS53" s="18"/>
+      <c r="CT53" s="18"/>
+      <c r="CU53" s="18"/>
       <c r="CV53" s="10"/>
       <c r="CW53" s="10"/>
       <c r="CX53" s="10"/>
@@ -30167,21 +30050,17 @@
       <c r="CM54" s="16"/>
       <c r="CN54" s="16"/>
       <c r="CO54" s="16"/>
-      <c r="CP54" s="36"/>
-      <c r="CQ54" s="36"/>
-      <c r="CR54" s="36"/>
-      <c r="CS54" s="36"/>
-      <c r="CT54" s="36"/>
+      <c r="CP54" s="16"/>
+      <c r="CQ54" s="16"/>
+      <c r="CR54" s="16"/>
+      <c r="CS54" s="16"/>
+      <c r="CT54" s="16"/>
+      <c r="CU54" s="16"/>
     </row>
     <row r="55" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="CP55" s="28"/>
-      <c r="CQ55" s="28"/>
-      <c r="CR55" s="28"/>
-      <c r="CS55" s="28"/>
-      <c r="CT55" s="28"/>
     </row>
     <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="10"/>
@@ -30276,11 +30155,11 @@
       <c r="CM56" s="10"/>
       <c r="CN56" s="10"/>
       <c r="CO56" s="10"/>
-      <c r="CP56" s="37"/>
-      <c r="CQ56" s="37"/>
-      <c r="CR56" s="37"/>
-      <c r="CS56" s="37"/>
-      <c r="CT56" s="37"/>
+      <c r="CP56" s="10"/>
+      <c r="CQ56" s="10"/>
+      <c r="CR56" s="10"/>
+      <c r="CS56" s="10"/>
+      <c r="CT56" s="10"/>
       <c r="CU56" s="10"/>
       <c r="CV56" s="10"/>
       <c r="CW56" s="10"/>
@@ -30428,11 +30307,11 @@
       <c r="CM57" s="10"/>
       <c r="CN57" s="10"/>
       <c r="CO57" s="10"/>
-      <c r="CP57" s="37"/>
-      <c r="CQ57" s="37"/>
-      <c r="CR57" s="37"/>
-      <c r="CS57" s="37"/>
-      <c r="CT57" s="37"/>
+      <c r="CP57" s="10"/>
+      <c r="CQ57" s="10"/>
+      <c r="CR57" s="10"/>
+      <c r="CS57" s="10"/>
+      <c r="CT57" s="10"/>
       <c r="CU57" s="10"/>
       <c r="CV57" s="10"/>
       <c r="CW57" s="10"/>
@@ -30491,204 +30370,162 @@
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CP58" s="28"/>
-      <c r="CQ58" s="28"/>
-      <c r="CR58" s="28"/>
-      <c r="CS58" s="28"/>
-      <c r="CT58" s="28"/>
     </row>
     <row r="59" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="CP59" s="28"/>
-      <c r="CQ59" s="28"/>
-      <c r="CR59" s="28"/>
-      <c r="CS59" s="28"/>
-      <c r="CT59" s="28"/>
     </row>
     <row r="60" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="CP60" s="28"/>
-      <c r="CQ60" s="28"/>
-      <c r="CR60" s="28"/>
-      <c r="CS60" s="28"/>
-      <c r="CT60" s="28"/>
+        <v>50</v>
+      </c>
     </row>
-    <row r="61" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP61" s="28"/>
-      <c r="CQ61" s="28"/>
-      <c r="CR61" s="28"/>
-      <c r="CS61" s="28"/>
-      <c r="CT61" s="28"/>
-    </row>
+    <row r="61" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="62" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="CP62" s="28"/>
-      <c r="CQ62" s="28"/>
-      <c r="CR62" s="28"/>
-      <c r="CS62" s="28"/>
-      <c r="CT62" s="28"/>
     </row>
     <row r="63" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="CP63" s="28"/>
-      <c r="CQ63" s="28"/>
-      <c r="CR63" s="28"/>
-      <c r="CS63" s="28"/>
-      <c r="CT63" s="28"/>
+        <v>52</v>
+      </c>
     </row>
     <row r="64" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="CP64" s="28"/>
-      <c r="CQ64" s="28"/>
-      <c r="CR64" s="28"/>
-      <c r="CS64" s="28"/>
-      <c r="CT64" s="28"/>
     </row>
-    <row r="65" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP65" s="28"/>
-      <c r="CQ65" s="28"/>
-      <c r="CR65" s="28"/>
-      <c r="CS65" s="28"/>
-      <c r="CT65" s="28"/>
-    </row>
+    <row r="65" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="66" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
-      <c r="B66" s="42" t="s">
+      <c r="B66" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="42" t="s">
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="44"/>
-      <c r="H66" s="44"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="42" t="s">
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="44"/>
-      <c r="L66" s="44"/>
-      <c r="M66" s="44"/>
-      <c r="N66" s="42" t="s">
+      <c r="K66" s="30"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="44"/>
-      <c r="P66" s="44"/>
-      <c r="Q66" s="44"/>
-      <c r="R66" s="42" t="s">
+      <c r="O66" s="30"/>
+      <c r="P66" s="30"/>
+      <c r="Q66" s="30"/>
+      <c r="R66" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="44"/>
-      <c r="T66" s="44"/>
-      <c r="U66" s="44"/>
-      <c r="V66" s="42" t="s">
+      <c r="S66" s="30"/>
+      <c r="T66" s="30"/>
+      <c r="U66" s="30"/>
+      <c r="V66" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="44"/>
-      <c r="X66" s="44"/>
-      <c r="Y66" s="44"/>
-      <c r="Z66" s="42" t="s">
+      <c r="W66" s="30"/>
+      <c r="X66" s="30"/>
+      <c r="Y66" s="30"/>
+      <c r="Z66" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="44"/>
-      <c r="AB66" s="44"/>
-      <c r="AC66" s="44"/>
-      <c r="AD66" s="42" t="s">
+      <c r="AA66" s="30"/>
+      <c r="AB66" s="30"/>
+      <c r="AC66" s="30"/>
+      <c r="AD66" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="44"/>
-      <c r="AF66" s="44"/>
-      <c r="AG66" s="44"/>
-      <c r="AH66" s="42" t="s">
+      <c r="AE66" s="30"/>
+      <c r="AF66" s="30"/>
+      <c r="AG66" s="30"/>
+      <c r="AH66" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="44"/>
-      <c r="AJ66" s="44"/>
-      <c r="AK66" s="44"/>
-      <c r="AL66" s="42" t="s">
+      <c r="AI66" s="30"/>
+      <c r="AJ66" s="30"/>
+      <c r="AK66" s="30"/>
+      <c r="AL66" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="44"/>
-      <c r="AN66" s="44"/>
-      <c r="AO66" s="44"/>
-      <c r="AP66" s="42" t="s">
+      <c r="AM66" s="30"/>
+      <c r="AN66" s="30"/>
+      <c r="AO66" s="30"/>
+      <c r="AP66" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="44"/>
-      <c r="AR66" s="44"/>
-      <c r="AS66" s="44"/>
-      <c r="AT66" s="42" t="s">
+      <c r="AQ66" s="30"/>
+      <c r="AR66" s="30"/>
+      <c r="AS66" s="30"/>
+      <c r="AT66" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="44"/>
-      <c r="AV66" s="44"/>
-      <c r="AW66" s="44"/>
-      <c r="AX66" s="42" t="s">
+      <c r="AU66" s="30"/>
+      <c r="AV66" s="30"/>
+      <c r="AW66" s="30"/>
+      <c r="AX66" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="44"/>
-      <c r="AZ66" s="44"/>
-      <c r="BA66" s="44"/>
-      <c r="BB66" s="42" t="s">
+      <c r="AY66" s="30"/>
+      <c r="AZ66" s="30"/>
+      <c r="BA66" s="30"/>
+      <c r="BB66" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="44"/>
-      <c r="BD66" s="44"/>
-      <c r="BE66" s="44"/>
-      <c r="BF66" s="42" t="s">
+      <c r="BC66" s="30"/>
+      <c r="BD66" s="30"/>
+      <c r="BE66" s="30"/>
+      <c r="BF66" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="44"/>
-      <c r="BH66" s="44"/>
-      <c r="BI66" s="44"/>
-      <c r="BJ66" s="42" t="s">
+      <c r="BG66" s="30"/>
+      <c r="BH66" s="30"/>
+      <c r="BI66" s="30"/>
+      <c r="BJ66" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="44"/>
-      <c r="BL66" s="44"/>
-      <c r="BM66" s="44"/>
-      <c r="BN66" s="42" t="s">
+      <c r="BK66" s="30"/>
+      <c r="BL66" s="30"/>
+      <c r="BM66" s="30"/>
+      <c r="BN66" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="44"/>
-      <c r="BP66" s="44"/>
-      <c r="BQ66" s="44"/>
-      <c r="BR66" s="42" t="s">
+      <c r="BO66" s="30"/>
+      <c r="BP66" s="30"/>
+      <c r="BQ66" s="30"/>
+      <c r="BR66" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="BS66" s="44"/>
-      <c r="BT66" s="44"/>
-      <c r="BU66" s="44"/>
-      <c r="BV66" s="42" t="s">
+      <c r="BS66" s="30"/>
+      <c r="BT66" s="30"/>
+      <c r="BU66" s="30"/>
+      <c r="BV66" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="BW66" s="44"/>
-      <c r="BX66" s="44"/>
-      <c r="BY66" s="44"/>
-      <c r="BZ66" s="42" t="s">
+      <c r="BW66" s="30"/>
+      <c r="BX66" s="30"/>
+      <c r="BY66" s="30"/>
+      <c r="BZ66" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="CA66" s="44"/>
-      <c r="CB66" s="44"/>
-      <c r="CC66" s="44"/>
-      <c r="CD66" s="42" t="s">
+      <c r="CA66" s="30"/>
+      <c r="CB66" s="30"/>
+      <c r="CC66" s="30"/>
+      <c r="CD66" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="42"/>
-      <c r="CF66" s="42"/>
-      <c r="CG66" s="42"/>
+      <c r="CE66" s="28"/>
+      <c r="CF66" s="28"/>
+      <c r="CG66" s="28"/>
       <c r="CH66" s="26" t="s">
         <v>47</v>
       </c>
@@ -30701,13 +30538,14 @@
       <c r="CM66" s="26"/>
       <c r="CN66" s="26"/>
       <c r="CO66" s="26"/>
-      <c r="CP66" s="30" t="s">
+      <c r="CP66" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="CQ66" s="27"/>
+      <c r="CQ66" s="26"/>
       <c r="CR66" s="27"/>
       <c r="CS66" s="27"/>
-      <c r="CT66" s="27"/>
+      <c r="CT66" s="26"/>
+      <c r="CU66" s="27"/>
     </row>
     <row r="67" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
@@ -30989,21 +30827,19 @@
       <c r="CO67" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP67" s="38" t="s">
+      <c r="CP67" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ67" s="38"/>
-      <c r="CR67" s="38"/>
-      <c r="CS67" s="38"/>
-      <c r="CT67" s="38"/>
+      <c r="CQ67" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR67" s="6"/>
+      <c r="CS67" s="6"/>
+      <c r="CT67" s="6"/>
+      <c r="CU67" s="6"/>
     </row>
     <row r="68" spans="1:151" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
-      <c r="CP68" s="28"/>
-      <c r="CQ68" s="28"/>
-      <c r="CR68" s="28"/>
-      <c r="CS68" s="28"/>
-      <c r="CT68" s="28"/>
     </row>
     <row r="69" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
@@ -31285,14 +31121,16 @@
       <c r="CO69" s="18">
         <v>5.9283425751407179</v>
       </c>
-      <c r="CP69" s="39">
-        <v>0.8399759860903373</v>
-      </c>
-      <c r="CQ69" s="39"/>
-      <c r="CR69" s="39"/>
-      <c r="CS69" s="39"/>
-      <c r="CT69" s="39"/>
-      <c r="CU69" s="10"/>
+      <c r="CP69" s="18">
+        <v>-1.1017866094688458</v>
+      </c>
+      <c r="CQ69" s="18">
+        <v>3.8553497750484667</v>
+      </c>
+      <c r="CR69" s="18"/>
+      <c r="CS69" s="18"/>
+      <c r="CT69" s="18"/>
+      <c r="CU69" s="18"/>
       <c r="CV69" s="10"/>
       <c r="CW69" s="10"/>
       <c r="CX69" s="10"/>
@@ -31626,14 +31464,16 @@
       <c r="CO70" s="18">
         <v>4.9254935371039892</v>
       </c>
-      <c r="CP70" s="39">
-        <v>4.47625457976946</v>
-      </c>
-      <c r="CQ70" s="39"/>
-      <c r="CR70" s="39"/>
-      <c r="CS70" s="39"/>
-      <c r="CT70" s="39"/>
-      <c r="CU70" s="10"/>
+      <c r="CP70" s="18">
+        <v>4.6364394149004369</v>
+      </c>
+      <c r="CQ70" s="18">
+        <v>7.052818848274427</v>
+      </c>
+      <c r="CR70" s="18"/>
+      <c r="CS70" s="18"/>
+      <c r="CT70" s="18"/>
+      <c r="CU70" s="18"/>
       <c r="CV70" s="10"/>
       <c r="CW70" s="10"/>
       <c r="CX70" s="10"/>
@@ -31780,12 +31620,12 @@
       <c r="CM71" s="19"/>
       <c r="CN71" s="19"/>
       <c r="CO71" s="19"/>
-      <c r="CP71" s="40"/>
-      <c r="CQ71" s="40"/>
-      <c r="CR71" s="40"/>
-      <c r="CS71" s="40"/>
-      <c r="CT71" s="40"/>
-      <c r="CU71" s="10"/>
+      <c r="CP71" s="19"/>
+      <c r="CQ71" s="19"/>
+      <c r="CR71" s="19"/>
+      <c r="CS71" s="19"/>
+      <c r="CT71" s="19"/>
+      <c r="CU71" s="19"/>
       <c r="CV71" s="10"/>
       <c r="CW71" s="10"/>
       <c r="CX71" s="10"/>
@@ -32119,14 +31959,16 @@
       <c r="CO72" s="18">
         <v>4.9962970681698806</v>
       </c>
-      <c r="CP72" s="39">
-        <v>4.2094379256738819</v>
-      </c>
-      <c r="CQ72" s="39"/>
-      <c r="CR72" s="39"/>
-      <c r="CS72" s="39"/>
-      <c r="CT72" s="39"/>
-      <c r="CU72" s="10"/>
+      <c r="CP72" s="18">
+        <v>4.2153896441463985</v>
+      </c>
+      <c r="CQ72" s="18">
+        <v>6.7807541217672025</v>
+      </c>
+      <c r="CR72" s="18"/>
+      <c r="CS72" s="18"/>
+      <c r="CT72" s="18"/>
+      <c r="CU72" s="18"/>
       <c r="CV72" s="10"/>
       <c r="CW72" s="10"/>
       <c r="CX72" s="10"/>
@@ -32274,21 +32116,17 @@
       <c r="CM73" s="16"/>
       <c r="CN73" s="16"/>
       <c r="CO73" s="16"/>
-      <c r="CP73" s="36"/>
-      <c r="CQ73" s="36"/>
-      <c r="CR73" s="36"/>
-      <c r="CS73" s="36"/>
-      <c r="CT73" s="36"/>
+      <c r="CP73" s="16"/>
+      <c r="CQ73" s="16"/>
+      <c r="CR73" s="16"/>
+      <c r="CS73" s="16"/>
+      <c r="CT73" s="16"/>
+      <c r="CU73" s="16"/>
     </row>
     <row r="74" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="CP74" s="28"/>
-      <c r="CQ74" s="28"/>
-      <c r="CR74" s="28"/>
-      <c r="CS74" s="28"/>
-      <c r="CT74" s="28"/>
     </row>
     <row r="75" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="10"/>
@@ -32383,11 +32221,11 @@
       <c r="CM75" s="10"/>
       <c r="CN75" s="10"/>
       <c r="CO75" s="10"/>
-      <c r="CP75" s="37"/>
-      <c r="CQ75" s="37"/>
-      <c r="CR75" s="37"/>
-      <c r="CS75" s="37"/>
-      <c r="CT75" s="37"/>
+      <c r="CP75" s="10"/>
+      <c r="CQ75" s="10"/>
+      <c r="CR75" s="10"/>
+      <c r="CS75" s="10"/>
+      <c r="CT75" s="10"/>
       <c r="CU75" s="10"/>
       <c r="CV75" s="10"/>
       <c r="CW75" s="10"/>
@@ -32535,11 +32373,11 @@
       <c r="CM76" s="10"/>
       <c r="CN76" s="10"/>
       <c r="CO76" s="10"/>
-      <c r="CP76" s="37"/>
-      <c r="CQ76" s="37"/>
-      <c r="CR76" s="37"/>
-      <c r="CS76" s="37"/>
-      <c r="CT76" s="37"/>
+      <c r="CP76" s="10"/>
+      <c r="CQ76" s="10"/>
+      <c r="CR76" s="10"/>
+      <c r="CS76" s="10"/>
+      <c r="CT76" s="10"/>
       <c r="CU76" s="10"/>
       <c r="CV76" s="10"/>
       <c r="CW76" s="10"/>
@@ -32598,194 +32436,157 @@
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CP77" s="28"/>
-      <c r="CQ77" s="28"/>
-      <c r="CR77" s="28"/>
-      <c r="CS77" s="28"/>
-      <c r="CT77" s="28"/>
     </row>
     <row r="78" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="CP78" s="28"/>
-      <c r="CQ78" s="28"/>
-      <c r="CR78" s="28"/>
-      <c r="CS78" s="28"/>
-      <c r="CT78" s="28"/>
+        <v>50</v>
+      </c>
     </row>
-    <row r="79" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP79" s="28"/>
-      <c r="CQ79" s="28"/>
-      <c r="CR79" s="28"/>
-      <c r="CS79" s="28"/>
-      <c r="CT79" s="28"/>
-    </row>
+    <row r="79" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="80" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="CP80" s="28"/>
-      <c r="CQ80" s="28"/>
-      <c r="CR80" s="28"/>
-      <c r="CS80" s="28"/>
-      <c r="CT80" s="28"/>
     </row>
     <row r="81" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="CP81" s="28"/>
-      <c r="CQ81" s="28"/>
-      <c r="CR81" s="28"/>
-      <c r="CS81" s="28"/>
-      <c r="CT81" s="28"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="82" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="CP82" s="28"/>
-      <c r="CQ82" s="28"/>
-      <c r="CR82" s="28"/>
-      <c r="CS82" s="28"/>
-      <c r="CT82" s="28"/>
     </row>
-    <row r="83" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP83" s="28"/>
-      <c r="CQ83" s="28"/>
-      <c r="CR83" s="28"/>
-      <c r="CS83" s="28"/>
-      <c r="CT83" s="28"/>
-    </row>
+    <row r="83" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="84" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
-      <c r="B84" s="42">
+      <c r="B84" s="28">
         <v>2000</v>
       </c>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="42">
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="28">
         <v>2001</v>
       </c>
-      <c r="G84" s="43"/>
-      <c r="H84" s="43"/>
-      <c r="I84" s="43"/>
-      <c r="J84" s="42">
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="28">
         <v>2002</v>
       </c>
-      <c r="K84" s="43"/>
-      <c r="L84" s="43"/>
-      <c r="M84" s="43"/>
-      <c r="N84" s="42">
+      <c r="K84" s="29"/>
+      <c r="L84" s="29"/>
+      <c r="M84" s="29"/>
+      <c r="N84" s="28">
         <v>2003</v>
       </c>
-      <c r="O84" s="43"/>
-      <c r="P84" s="43"/>
-      <c r="Q84" s="43"/>
-      <c r="R84" s="42">
+      <c r="O84" s="29"/>
+      <c r="P84" s="29"/>
+      <c r="Q84" s="29"/>
+      <c r="R84" s="28">
         <v>2004</v>
       </c>
-      <c r="S84" s="43"/>
-      <c r="T84" s="43"/>
-      <c r="U84" s="43"/>
-      <c r="V84" s="42">
+      <c r="S84" s="29"/>
+      <c r="T84" s="29"/>
+      <c r="U84" s="29"/>
+      <c r="V84" s="28">
         <v>2005</v>
       </c>
-      <c r="W84" s="43"/>
-      <c r="X84" s="43"/>
-      <c r="Y84" s="43"/>
-      <c r="Z84" s="42">
+      <c r="W84" s="29"/>
+      <c r="X84" s="29"/>
+      <c r="Y84" s="29"/>
+      <c r="Z84" s="28">
         <v>2006</v>
       </c>
-      <c r="AA84" s="43"/>
-      <c r="AB84" s="43"/>
-      <c r="AC84" s="43"/>
-      <c r="AD84" s="42">
+      <c r="AA84" s="29"/>
+      <c r="AB84" s="29"/>
+      <c r="AC84" s="29"/>
+      <c r="AD84" s="28">
         <v>2007</v>
       </c>
-      <c r="AE84" s="43"/>
-      <c r="AF84" s="43"/>
-      <c r="AG84" s="43"/>
-      <c r="AH84" s="42">
+      <c r="AE84" s="29"/>
+      <c r="AF84" s="29"/>
+      <c r="AG84" s="29"/>
+      <c r="AH84" s="28">
         <v>2008</v>
       </c>
-      <c r="AI84" s="43"/>
-      <c r="AJ84" s="43"/>
-      <c r="AK84" s="43"/>
-      <c r="AL84" s="42">
+      <c r="AI84" s="29"/>
+      <c r="AJ84" s="29"/>
+      <c r="AK84" s="29"/>
+      <c r="AL84" s="28">
         <v>2009</v>
       </c>
-      <c r="AM84" s="43"/>
-      <c r="AN84" s="43"/>
-      <c r="AO84" s="43"/>
-      <c r="AP84" s="42">
+      <c r="AM84" s="29"/>
+      <c r="AN84" s="29"/>
+      <c r="AO84" s="29"/>
+      <c r="AP84" s="28">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="43"/>
-      <c r="AR84" s="43"/>
-      <c r="AS84" s="43"/>
-      <c r="AT84" s="42">
+      <c r="AQ84" s="29"/>
+      <c r="AR84" s="29"/>
+      <c r="AS84" s="29"/>
+      <c r="AT84" s="28">
         <v>2011</v>
       </c>
-      <c r="AU84" s="43"/>
-      <c r="AV84" s="43"/>
-      <c r="AW84" s="43"/>
-      <c r="AX84" s="42">
+      <c r="AU84" s="29"/>
+      <c r="AV84" s="29"/>
+      <c r="AW84" s="29"/>
+      <c r="AX84" s="28">
         <v>2012</v>
       </c>
-      <c r="AY84" s="43"/>
-      <c r="AZ84" s="43"/>
-      <c r="BA84" s="43"/>
-      <c r="BB84" s="42">
+      <c r="AY84" s="29"/>
+      <c r="AZ84" s="29"/>
+      <c r="BA84" s="29"/>
+      <c r="BB84" s="28">
         <v>2013</v>
       </c>
-      <c r="BC84" s="43"/>
-      <c r="BD84" s="43"/>
-      <c r="BE84" s="43"/>
-      <c r="BF84" s="42">
+      <c r="BC84" s="29"/>
+      <c r="BD84" s="29"/>
+      <c r="BE84" s="29"/>
+      <c r="BF84" s="28">
         <v>2014</v>
       </c>
-      <c r="BG84" s="43"/>
-      <c r="BH84" s="43"/>
-      <c r="BI84" s="43"/>
-      <c r="BJ84" s="42">
+      <c r="BG84" s="29"/>
+      <c r="BH84" s="29"/>
+      <c r="BI84" s="29"/>
+      <c r="BJ84" s="28">
         <v>2015</v>
       </c>
-      <c r="BK84" s="43"/>
-      <c r="BL84" s="43"/>
-      <c r="BM84" s="43"/>
-      <c r="BN84" s="42">
+      <c r="BK84" s="29"/>
+      <c r="BL84" s="29"/>
+      <c r="BM84" s="29"/>
+      <c r="BN84" s="28">
         <v>2016</v>
       </c>
-      <c r="BO84" s="43"/>
-      <c r="BP84" s="43"/>
-      <c r="BQ84" s="43"/>
-      <c r="BR84" s="42">
+      <c r="BO84" s="29"/>
+      <c r="BP84" s="29"/>
+      <c r="BQ84" s="29"/>
+      <c r="BR84" s="28">
         <v>2017</v>
       </c>
-      <c r="BS84" s="43"/>
-      <c r="BT84" s="43"/>
-      <c r="BU84" s="43"/>
-      <c r="BV84" s="42">
+      <c r="BS84" s="29"/>
+      <c r="BT84" s="29"/>
+      <c r="BU84" s="29"/>
+      <c r="BV84" s="28">
         <v>2018</v>
       </c>
-      <c r="BW84" s="43"/>
-      <c r="BX84" s="43"/>
-      <c r="BY84" s="43"/>
-      <c r="BZ84" s="42">
+      <c r="BW84" s="29"/>
+      <c r="BX84" s="29"/>
+      <c r="BY84" s="29"/>
+      <c r="BZ84" s="28">
         <v>2019</v>
       </c>
-      <c r="CA84" s="43"/>
-      <c r="CB84" s="43"/>
-      <c r="CC84" s="43"/>
-      <c r="CD84" s="42">
+      <c r="CA84" s="29"/>
+      <c r="CB84" s="29"/>
+      <c r="CC84" s="29"/>
+      <c r="CD84" s="28">
         <v>2020</v>
       </c>
-      <c r="CE84" s="42"/>
-      <c r="CF84" s="42"/>
-      <c r="CG84" s="42"/>
+      <c r="CE84" s="28"/>
+      <c r="CF84" s="28"/>
+      <c r="CG84" s="28"/>
       <c r="CH84" s="26">
         <v>2021</v>
       </c>
@@ -32798,15 +32599,16 @@
       <c r="CM84" s="26"/>
       <c r="CN84" s="26"/>
       <c r="CO84" s="26"/>
-      <c r="CP84" s="30">
+      <c r="CP84" s="26">
         <v>2023</v>
       </c>
-      <c r="CQ84" s="30"/>
-      <c r="CR84" s="30"/>
-      <c r="CS84" s="30"/>
-      <c r="CT84" s="30">
+      <c r="CQ84" s="26"/>
+      <c r="CR84" s="26"/>
+      <c r="CS84" s="26"/>
+      <c r="CT84" s="26">
         <v>2024</v>
       </c>
+      <c r="CU84" s="26"/>
     </row>
     <row r="85" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
@@ -33088,29 +32890,27 @@
       <c r="CO85" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP85" s="31" t="s">
+      <c r="CP85" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ85" s="31" t="s">
+      <c r="CQ85" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR85" s="31" t="s">
+      <c r="CR85" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CS85" s="31" t="s">
+      <c r="CS85" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CT85" s="31" t="s">
+      <c r="CT85" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CU85" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
-      <c r="CP86" s="28"/>
-      <c r="CQ86" s="28"/>
-      <c r="CR86" s="28"/>
-      <c r="CS86" s="28"/>
-      <c r="CT86" s="28"/>
     </row>
     <row r="87" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
@@ -33392,22 +33192,24 @@
       <c r="CO87" s="18">
         <v>111.24523564311536</v>
       </c>
-      <c r="CP87" s="39">
+      <c r="CP87" s="18">
         <v>110.5271649335433</v>
       </c>
-      <c r="CQ87" s="39">
+      <c r="CQ87" s="18">
         <v>101.74702001926659</v>
       </c>
-      <c r="CR87" s="39">
+      <c r="CR87" s="18">
         <v>116.00777557046965</v>
       </c>
-      <c r="CS87" s="39">
+      <c r="CS87" s="18">
         <v>116.93645579687588</v>
       </c>
-      <c r="CT87" s="39">
-        <v>113.53279083146286</v>
-      </c>
-      <c r="CU87" s="10"/>
+      <c r="CT87" s="18">
+        <v>112.83562748562788</v>
+      </c>
+      <c r="CU87" s="18">
+        <v>104.06080265309876</v>
+      </c>
       <c r="CV87" s="10"/>
       <c r="CW87" s="10"/>
       <c r="CX87" s="10"/>
@@ -33745,22 +33547,24 @@
       <c r="CO88" s="18">
         <v>100.84081379781638</v>
       </c>
-      <c r="CP88" s="39">
+      <c r="CP88" s="18">
         <v>99.633012218023012</v>
       </c>
-      <c r="CQ88" s="39">
+      <c r="CQ88" s="18">
         <v>99.075449962988003</v>
       </c>
-      <c r="CR88" s="39">
+      <c r="CR88" s="18">
         <v>105.37113994465066</v>
       </c>
-      <c r="CS88" s="39">
+      <c r="CS88" s="18">
         <v>101.46470681708</v>
       </c>
-      <c r="CT88" s="39">
-        <v>100.05354116569644</v>
-      </c>
-      <c r="CU88" s="10"/>
+      <c r="CT88" s="18">
+        <v>100.05354116569647</v>
+      </c>
+      <c r="CU88" s="18">
+        <v>99.557803662905187</v>
+      </c>
       <c r="CV88" s="10"/>
       <c r="CW88" s="10"/>
       <c r="CX88" s="10"/>
@@ -33911,12 +33715,12 @@
       <c r="CM89" s="19"/>
       <c r="CN89" s="19"/>
       <c r="CO89" s="19"/>
-      <c r="CP89" s="40"/>
-      <c r="CQ89" s="40"/>
-      <c r="CR89" s="40"/>
-      <c r="CS89" s="40"/>
-      <c r="CT89" s="40"/>
-      <c r="CU89" s="10"/>
+      <c r="CP89" s="19"/>
+      <c r="CQ89" s="19"/>
+      <c r="CR89" s="19"/>
+      <c r="CS89" s="19"/>
+      <c r="CT89" s="19"/>
+      <c r="CU89" s="19"/>
       <c r="CV89" s="10"/>
       <c r="CW89" s="10"/>
       <c r="CX89" s="10"/>
@@ -34254,22 +34058,24 @@
       <c r="CO90" s="18">
         <v>101.57539076544107</v>
       </c>
-      <c r="CP90" s="39">
+      <c r="CP90" s="18">
         <v>100.43238479134948</v>
       </c>
-      <c r="CQ90" s="39">
+      <c r="CQ90" s="18">
         <v>99.302767244269162</v>
       </c>
-      <c r="CR90" s="39">
+      <c r="CR90" s="18">
         <v>106.13351597761422</v>
       </c>
-      <c r="CS90" s="39">
+      <c r="CS90" s="18">
         <v>102.56674580576519</v>
       </c>
-      <c r="CT90" s="39">
-        <v>101.01061883227169</v>
-      </c>
-      <c r="CU90" s="10"/>
+      <c r="CT90" s="18">
+        <v>100.94359058260937</v>
+      </c>
+      <c r="CU90" s="18">
+        <v>99.930455807355813</v>
+      </c>
       <c r="CV90" s="10"/>
       <c r="CW90" s="10"/>
       <c r="CX90" s="10"/>
@@ -34421,224 +34227,178 @@
       <c r="CM91" s="16"/>
       <c r="CN91" s="16"/>
       <c r="CO91" s="16"/>
-      <c r="CP91" s="36"/>
-      <c r="CQ91" s="36"/>
-      <c r="CR91" s="36"/>
-      <c r="CS91" s="36"/>
-      <c r="CT91" s="36"/>
+      <c r="CP91" s="16"/>
+      <c r="CQ91" s="16"/>
+      <c r="CR91" s="16"/>
+      <c r="CS91" s="16"/>
+      <c r="CT91" s="16"/>
+      <c r="CU91" s="16"/>
     </row>
     <row r="92" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="CP92" s="28"/>
-      <c r="CQ92" s="28"/>
-      <c r="CR92" s="28"/>
-      <c r="CS92" s="28"/>
-      <c r="CT92" s="28"/>
     </row>
     <row r="95" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CP95" s="28"/>
-      <c r="CQ95" s="28"/>
-      <c r="CR95" s="28"/>
-      <c r="CS95" s="28"/>
-      <c r="CT95" s="28"/>
     </row>
     <row r="96" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="CP96" s="28"/>
-      <c r="CQ96" s="28"/>
-      <c r="CR96" s="28"/>
-      <c r="CS96" s="28"/>
-      <c r="CT96" s="28"/>
     </row>
     <row r="97" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="CP97" s="28"/>
-      <c r="CQ97" s="28"/>
-      <c r="CR97" s="28"/>
-      <c r="CS97" s="28"/>
-      <c r="CT97" s="28"/>
+        <v>50</v>
+      </c>
     </row>
-    <row r="98" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP98" s="28"/>
-      <c r="CQ98" s="28"/>
-      <c r="CR98" s="28"/>
-      <c r="CS98" s="28"/>
-      <c r="CT98" s="28"/>
-    </row>
+    <row r="98" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="99" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="CP99" s="28"/>
-      <c r="CQ99" s="28"/>
-      <c r="CR99" s="28"/>
-      <c r="CS99" s="28"/>
-      <c r="CT99" s="28"/>
     </row>
     <row r="100" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="CP100" s="28"/>
-      <c r="CQ100" s="28"/>
-      <c r="CR100" s="28"/>
-      <c r="CS100" s="28"/>
-      <c r="CT100" s="28"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="101" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="CP101" s="28"/>
-      <c r="CQ101" s="28"/>
-      <c r="CR101" s="28"/>
-      <c r="CS101" s="28"/>
-      <c r="CT101" s="28"/>
     </row>
-    <row r="102" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP102" s="28"/>
-      <c r="CQ102" s="28"/>
-      <c r="CR102" s="28"/>
-      <c r="CS102" s="28"/>
-      <c r="CT102" s="28"/>
-    </row>
+    <row r="102" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="103" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
-      <c r="B103" s="42">
+      <c r="B103" s="28">
         <v>2000</v>
       </c>
-      <c r="C103" s="43"/>
-      <c r="D103" s="43"/>
-      <c r="E103" s="43"/>
-      <c r="F103" s="42">
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="28">
         <v>2001</v>
       </c>
-      <c r="G103" s="43"/>
-      <c r="H103" s="43"/>
-      <c r="I103" s="43"/>
-      <c r="J103" s="42">
+      <c r="G103" s="29"/>
+      <c r="H103" s="29"/>
+      <c r="I103" s="29"/>
+      <c r="J103" s="28">
         <v>2002</v>
       </c>
-      <c r="K103" s="43"/>
-      <c r="L103" s="43"/>
-      <c r="M103" s="43"/>
-      <c r="N103" s="42">
+      <c r="K103" s="29"/>
+      <c r="L103" s="29"/>
+      <c r="M103" s="29"/>
+      <c r="N103" s="28">
         <v>2003</v>
       </c>
-      <c r="O103" s="43"/>
-      <c r="P103" s="43"/>
-      <c r="Q103" s="43"/>
-      <c r="R103" s="42">
+      <c r="O103" s="29"/>
+      <c r="P103" s="29"/>
+      <c r="Q103" s="29"/>
+      <c r="R103" s="28">
         <v>2004</v>
       </c>
-      <c r="S103" s="43"/>
-      <c r="T103" s="43"/>
-      <c r="U103" s="43"/>
-      <c r="V103" s="42">
+      <c r="S103" s="29"/>
+      <c r="T103" s="29"/>
+      <c r="U103" s="29"/>
+      <c r="V103" s="28">
         <v>2005</v>
       </c>
-      <c r="W103" s="43"/>
-      <c r="X103" s="43"/>
-      <c r="Y103" s="43"/>
-      <c r="Z103" s="42">
+      <c r="W103" s="29"/>
+      <c r="X103" s="29"/>
+      <c r="Y103" s="29"/>
+      <c r="Z103" s="28">
         <v>2006</v>
       </c>
-      <c r="AA103" s="43"/>
-      <c r="AB103" s="43"/>
-      <c r="AC103" s="43"/>
-      <c r="AD103" s="42">
+      <c r="AA103" s="29"/>
+      <c r="AB103" s="29"/>
+      <c r="AC103" s="29"/>
+      <c r="AD103" s="28">
         <v>2007</v>
       </c>
-      <c r="AE103" s="43"/>
-      <c r="AF103" s="43"/>
-      <c r="AG103" s="43"/>
-      <c r="AH103" s="42">
+      <c r="AE103" s="29"/>
+      <c r="AF103" s="29"/>
+      <c r="AG103" s="29"/>
+      <c r="AH103" s="28">
         <v>2008</v>
       </c>
-      <c r="AI103" s="43"/>
-      <c r="AJ103" s="43"/>
-      <c r="AK103" s="43"/>
-      <c r="AL103" s="42">
+      <c r="AI103" s="29"/>
+      <c r="AJ103" s="29"/>
+      <c r="AK103" s="29"/>
+      <c r="AL103" s="28">
         <v>2009</v>
       </c>
-      <c r="AM103" s="43"/>
-      <c r="AN103" s="43"/>
-      <c r="AO103" s="43"/>
-      <c r="AP103" s="42">
+      <c r="AM103" s="29"/>
+      <c r="AN103" s="29"/>
+      <c r="AO103" s="29"/>
+      <c r="AP103" s="28">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="43"/>
-      <c r="AR103" s="43"/>
-      <c r="AS103" s="43"/>
-      <c r="AT103" s="42">
+      <c r="AQ103" s="29"/>
+      <c r="AR103" s="29"/>
+      <c r="AS103" s="29"/>
+      <c r="AT103" s="28">
         <v>2011</v>
       </c>
-      <c r="AU103" s="43"/>
-      <c r="AV103" s="43"/>
-      <c r="AW103" s="43"/>
-      <c r="AX103" s="42">
+      <c r="AU103" s="29"/>
+      <c r="AV103" s="29"/>
+      <c r="AW103" s="29"/>
+      <c r="AX103" s="28">
         <v>2012</v>
       </c>
-      <c r="AY103" s="43"/>
-      <c r="AZ103" s="43"/>
-      <c r="BA103" s="43"/>
-      <c r="BB103" s="42">
+      <c r="AY103" s="29"/>
+      <c r="AZ103" s="29"/>
+      <c r="BA103" s="29"/>
+      <c r="BB103" s="28">
         <v>2013</v>
       </c>
-      <c r="BC103" s="43"/>
-      <c r="BD103" s="43"/>
-      <c r="BE103" s="43"/>
-      <c r="BF103" s="42">
+      <c r="BC103" s="29"/>
+      <c r="BD103" s="29"/>
+      <c r="BE103" s="29"/>
+      <c r="BF103" s="28">
         <v>2014</v>
       </c>
-      <c r="BG103" s="43"/>
-      <c r="BH103" s="43"/>
-      <c r="BI103" s="43"/>
-      <c r="BJ103" s="42">
+      <c r="BG103" s="29"/>
+      <c r="BH103" s="29"/>
+      <c r="BI103" s="29"/>
+      <c r="BJ103" s="28">
         <v>2015</v>
       </c>
-      <c r="BK103" s="43"/>
-      <c r="BL103" s="43"/>
-      <c r="BM103" s="43"/>
-      <c r="BN103" s="42">
+      <c r="BK103" s="29"/>
+      <c r="BL103" s="29"/>
+      <c r="BM103" s="29"/>
+      <c r="BN103" s="28">
         <v>2016</v>
       </c>
-      <c r="BO103" s="43"/>
-      <c r="BP103" s="43"/>
-      <c r="BQ103" s="43"/>
-      <c r="BR103" s="42">
+      <c r="BO103" s="29"/>
+      <c r="BP103" s="29"/>
+      <c r="BQ103" s="29"/>
+      <c r="BR103" s="28">
         <v>2017</v>
       </c>
-      <c r="BS103" s="43"/>
-      <c r="BT103" s="43"/>
-      <c r="BU103" s="43"/>
-      <c r="BV103" s="42">
+      <c r="BS103" s="29"/>
+      <c r="BT103" s="29"/>
+      <c r="BU103" s="29"/>
+      <c r="BV103" s="28">
         <v>2018</v>
       </c>
-      <c r="BW103" s="43"/>
-      <c r="BX103" s="43"/>
-      <c r="BY103" s="43"/>
-      <c r="BZ103" s="42">
+      <c r="BW103" s="29"/>
+      <c r="BX103" s="29"/>
+      <c r="BY103" s="29"/>
+      <c r="BZ103" s="28">
         <v>2019</v>
       </c>
-      <c r="CA103" s="43"/>
-      <c r="CB103" s="43"/>
-      <c r="CC103" s="43"/>
-      <c r="CD103" s="42">
+      <c r="CA103" s="29"/>
+      <c r="CB103" s="29"/>
+      <c r="CC103" s="29"/>
+      <c r="CD103" s="28">
         <v>2020</v>
       </c>
-      <c r="CE103" s="42"/>
-      <c r="CF103" s="42"/>
-      <c r="CG103" s="42"/>
+      <c r="CE103" s="28"/>
+      <c r="CF103" s="28"/>
+      <c r="CG103" s="28"/>
       <c r="CH103" s="26">
         <v>2021</v>
       </c>
@@ -34651,15 +34411,16 @@
       <c r="CM103" s="26"/>
       <c r="CN103" s="26"/>
       <c r="CO103" s="26"/>
-      <c r="CP103" s="30">
+      <c r="CP103" s="26">
         <v>2023</v>
       </c>
-      <c r="CQ103" s="30"/>
-      <c r="CR103" s="30"/>
-      <c r="CS103" s="30"/>
-      <c r="CT103" s="30">
+      <c r="CQ103" s="26"/>
+      <c r="CR103" s="26"/>
+      <c r="CS103" s="26"/>
+      <c r="CT103" s="26">
         <v>2024</v>
       </c>
+      <c r="CU103" s="26"/>
     </row>
     <row r="104" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
@@ -34941,29 +34702,27 @@
       <c r="CO104" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP104" s="31" t="s">
+      <c r="CP104" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ104" s="31" t="s">
+      <c r="CQ104" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR104" s="31" t="s">
+      <c r="CR104" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CS104" s="31" t="s">
+      <c r="CS104" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CT104" s="31" t="s">
+      <c r="CT104" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CU104" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
-      <c r="CP105" s="28"/>
-      <c r="CQ105" s="28"/>
-      <c r="CR105" s="28"/>
-      <c r="CS105" s="28"/>
-      <c r="CT105" s="28"/>
     </row>
     <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
@@ -35245,22 +35004,24 @@
       <c r="CO106" s="18">
         <v>7.7323637004002075</v>
       </c>
-      <c r="CP106" s="39">
+      <c r="CP106" s="18">
         <v>8.0751582041399317</v>
       </c>
-      <c r="CQ106" s="39">
+      <c r="CQ106" s="18">
         <v>8.7181880707484023</v>
       </c>
-      <c r="CR106" s="39">
+      <c r="CR106" s="18">
         <v>7.8342874145234509</v>
       </c>
-      <c r="CS106" s="39">
+      <c r="CS106" s="18">
         <v>8.1208389741072065</v>
       </c>
-      <c r="CT106" s="39">
-        <v>7.9806037239965359</v>
-      </c>
-      <c r="CU106" s="10"/>
+      <c r="CT106" s="18">
+        <v>7.7835886065947477</v>
+      </c>
+      <c r="CU106" s="18">
+        <v>8.6176941847000492</v>
+      </c>
       <c r="CV106" s="10"/>
       <c r="CW106" s="10"/>
       <c r="CX106" s="10"/>
@@ -35598,22 +35359,24 @@
       <c r="CO107" s="18">
         <v>92.267636299599786</v>
       </c>
-      <c r="CP107" s="39">
+      <c r="CP107" s="18">
         <v>91.924841795860061</v>
       </c>
-      <c r="CQ107" s="39">
+      <c r="CQ107" s="18">
         <v>91.281811929251603</v>
       </c>
-      <c r="CR107" s="39">
+      <c r="CR107" s="18">
         <v>92.165712585476555</v>
       </c>
-      <c r="CS107" s="39">
+      <c r="CS107" s="18">
         <v>91.879161025892799</v>
       </c>
-      <c r="CT107" s="39">
-        <v>92.019396276003462</v>
-      </c>
-      <c r="CU107" s="10"/>
+      <c r="CT107" s="18">
+        <v>92.216411393405266</v>
+      </c>
+      <c r="CU107" s="18">
+        <v>91.382305815299958</v>
+      </c>
       <c r="CV107" s="10"/>
       <c r="CW107" s="10"/>
       <c r="CX107" s="10"/>
@@ -35764,12 +35527,12 @@
       <c r="CM108" s="19"/>
       <c r="CN108" s="19"/>
       <c r="CO108" s="19"/>
-      <c r="CP108" s="40"/>
-      <c r="CQ108" s="40"/>
-      <c r="CR108" s="40"/>
-      <c r="CS108" s="40"/>
-      <c r="CT108" s="40"/>
-      <c r="CU108" s="10"/>
+      <c r="CP108" s="19"/>
+      <c r="CQ108" s="19"/>
+      <c r="CR108" s="19"/>
+      <c r="CS108" s="19"/>
+      <c r="CT108" s="19"/>
+      <c r="CU108" s="19"/>
       <c r="CV108" s="10"/>
       <c r="CW108" s="10"/>
       <c r="CX108" s="10"/>
@@ -36107,22 +35870,24 @@
       <c r="CO109" s="18">
         <v>100</v>
       </c>
-      <c r="CP109" s="39">
+      <c r="CP109" s="18">
         <v>100</v>
       </c>
-      <c r="CQ109" s="39">
+      <c r="CQ109" s="18">
         <v>100</v>
       </c>
-      <c r="CR109" s="39">
+      <c r="CR109" s="18">
         <v>100</v>
       </c>
-      <c r="CS109" s="39">
+      <c r="CS109" s="18">
         <v>100</v>
       </c>
-      <c r="CT109" s="39">
+      <c r="CT109" s="18">
         <v>100</v>
       </c>
-      <c r="CU109" s="10"/>
+      <c r="CU109" s="18">
+        <v>100</v>
+      </c>
       <c r="CV109" s="10"/>
       <c r="CW109" s="10"/>
       <c r="CX109" s="10"/>
@@ -36274,21 +36039,17 @@
       <c r="CM110" s="16"/>
       <c r="CN110" s="16"/>
       <c r="CO110" s="16"/>
-      <c r="CP110" s="36"/>
-      <c r="CQ110" s="36"/>
-      <c r="CR110" s="36"/>
-      <c r="CS110" s="36"/>
-      <c r="CT110" s="36"/>
+      <c r="CP110" s="16"/>
+      <c r="CQ110" s="16"/>
+      <c r="CR110" s="16"/>
+      <c r="CS110" s="16"/>
+      <c r="CT110" s="16"/>
+      <c r="CU110" s="16"/>
     </row>
     <row r="111" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="CP111" s="28"/>
-      <c r="CQ111" s="28"/>
-      <c r="CR111" s="28"/>
-      <c r="CS111" s="28"/>
-      <c r="CT111" s="28"/>
     </row>
     <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="10"/>
@@ -36383,11 +36144,11 @@
       <c r="CM112" s="10"/>
       <c r="CN112" s="10"/>
       <c r="CO112" s="10"/>
-      <c r="CP112" s="37"/>
-      <c r="CQ112" s="37"/>
-      <c r="CR112" s="37"/>
-      <c r="CS112" s="37"/>
-      <c r="CT112" s="37"/>
+      <c r="CP112" s="10"/>
+      <c r="CQ112" s="10"/>
+      <c r="CR112" s="10"/>
+      <c r="CS112" s="10"/>
+      <c r="CT112" s="10"/>
       <c r="CU112" s="10"/>
       <c r="CV112" s="10"/>
       <c r="CW112" s="10"/>
@@ -36539,11 +36300,11 @@
       <c r="CM113" s="10"/>
       <c r="CN113" s="10"/>
       <c r="CO113" s="10"/>
-      <c r="CP113" s="37"/>
-      <c r="CQ113" s="37"/>
-      <c r="CR113" s="37"/>
-      <c r="CS113" s="37"/>
-      <c r="CT113" s="37"/>
+      <c r="CP113" s="10"/>
+      <c r="CQ113" s="10"/>
+      <c r="CR113" s="10"/>
+      <c r="CS113" s="10"/>
+      <c r="CT113" s="10"/>
       <c r="CU113" s="10"/>
       <c r="CV113" s="10"/>
       <c r="CW113" s="10"/>
@@ -36606,204 +36367,162 @@
       <c r="A114" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CP114" s="28"/>
-      <c r="CQ114" s="28"/>
-      <c r="CR114" s="28"/>
-      <c r="CS114" s="28"/>
-      <c r="CT114" s="28"/>
     </row>
     <row r="115" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="CP115" s="28"/>
-      <c r="CQ115" s="28"/>
-      <c r="CR115" s="28"/>
-      <c r="CS115" s="28"/>
-      <c r="CT115" s="28"/>
     </row>
     <row r="116" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="CP116" s="28"/>
-      <c r="CQ116" s="28"/>
-      <c r="CR116" s="28"/>
-      <c r="CS116" s="28"/>
-      <c r="CT116" s="28"/>
+        <v>50</v>
+      </c>
     </row>
-    <row r="117" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP117" s="28"/>
-      <c r="CQ117" s="28"/>
-      <c r="CR117" s="28"/>
-      <c r="CS117" s="28"/>
-      <c r="CT117" s="28"/>
-    </row>
+    <row r="117" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="118" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="CP118" s="28"/>
-      <c r="CQ118" s="28"/>
-      <c r="CR118" s="28"/>
-      <c r="CS118" s="28"/>
-      <c r="CT118" s="28"/>
     </row>
     <row r="119" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="CP119" s="28"/>
-      <c r="CQ119" s="28"/>
-      <c r="CR119" s="28"/>
-      <c r="CS119" s="28"/>
-      <c r="CT119" s="28"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="120" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="CP120" s="28"/>
-      <c r="CQ120" s="28"/>
-      <c r="CR120" s="28"/>
-      <c r="CS120" s="28"/>
-      <c r="CT120" s="28"/>
     </row>
-    <row r="121" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP121" s="28"/>
-      <c r="CQ121" s="28"/>
-      <c r="CR121" s="28"/>
-      <c r="CS121" s="28"/>
-      <c r="CT121" s="28"/>
-    </row>
+    <row r="121" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="122" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
-      <c r="B122" s="42">
+      <c r="B122" s="28">
         <v>2000</v>
       </c>
-      <c r="C122" s="43"/>
-      <c r="D122" s="43"/>
-      <c r="E122" s="43"/>
-      <c r="F122" s="42">
+      <c r="C122" s="29"/>
+      <c r="D122" s="29"/>
+      <c r="E122" s="29"/>
+      <c r="F122" s="28">
         <v>2001</v>
       </c>
-      <c r="G122" s="43"/>
-      <c r="H122" s="43"/>
-      <c r="I122" s="43"/>
-      <c r="J122" s="42">
+      <c r="G122" s="29"/>
+      <c r="H122" s="29"/>
+      <c r="I122" s="29"/>
+      <c r="J122" s="28">
         <v>2002</v>
       </c>
-      <c r="K122" s="43"/>
-      <c r="L122" s="43"/>
-      <c r="M122" s="43"/>
-      <c r="N122" s="42">
+      <c r="K122" s="29"/>
+      <c r="L122" s="29"/>
+      <c r="M122" s="29"/>
+      <c r="N122" s="28">
         <v>2003</v>
       </c>
-      <c r="O122" s="43"/>
-      <c r="P122" s="43"/>
-      <c r="Q122" s="43"/>
-      <c r="R122" s="42">
+      <c r="O122" s="29"/>
+      <c r="P122" s="29"/>
+      <c r="Q122" s="29"/>
+      <c r="R122" s="28">
         <v>2004</v>
       </c>
-      <c r="S122" s="43"/>
-      <c r="T122" s="43"/>
-      <c r="U122" s="43"/>
-      <c r="V122" s="42">
+      <c r="S122" s="29"/>
+      <c r="T122" s="29"/>
+      <c r="U122" s="29"/>
+      <c r="V122" s="28">
         <v>2005</v>
       </c>
-      <c r="W122" s="43"/>
-      <c r="X122" s="43"/>
-      <c r="Y122" s="43"/>
-      <c r="Z122" s="42">
+      <c r="W122" s="29"/>
+      <c r="X122" s="29"/>
+      <c r="Y122" s="29"/>
+      <c r="Z122" s="28">
         <v>2006</v>
       </c>
-      <c r="AA122" s="43"/>
-      <c r="AB122" s="43"/>
-      <c r="AC122" s="43"/>
-      <c r="AD122" s="42">
+      <c r="AA122" s="29"/>
+      <c r="AB122" s="29"/>
+      <c r="AC122" s="29"/>
+      <c r="AD122" s="28">
         <v>2007</v>
       </c>
-      <c r="AE122" s="43"/>
-      <c r="AF122" s="43"/>
-      <c r="AG122" s="43"/>
-      <c r="AH122" s="42">
+      <c r="AE122" s="29"/>
+      <c r="AF122" s="29"/>
+      <c r="AG122" s="29"/>
+      <c r="AH122" s="28">
         <v>2008</v>
       </c>
-      <c r="AI122" s="43"/>
-      <c r="AJ122" s="43"/>
-      <c r="AK122" s="43"/>
-      <c r="AL122" s="42">
+      <c r="AI122" s="29"/>
+      <c r="AJ122" s="29"/>
+      <c r="AK122" s="29"/>
+      <c r="AL122" s="28">
         <v>2009</v>
       </c>
-      <c r="AM122" s="43"/>
-      <c r="AN122" s="43"/>
-      <c r="AO122" s="43"/>
-      <c r="AP122" s="42">
+      <c r="AM122" s="29"/>
+      <c r="AN122" s="29"/>
+      <c r="AO122" s="29"/>
+      <c r="AP122" s="28">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="43"/>
-      <c r="AR122" s="43"/>
-      <c r="AS122" s="43"/>
-      <c r="AT122" s="42">
+      <c r="AQ122" s="29"/>
+      <c r="AR122" s="29"/>
+      <c r="AS122" s="29"/>
+      <c r="AT122" s="28">
         <v>2011</v>
       </c>
-      <c r="AU122" s="43"/>
-      <c r="AV122" s="43"/>
-      <c r="AW122" s="43"/>
-      <c r="AX122" s="42">
+      <c r="AU122" s="29"/>
+      <c r="AV122" s="29"/>
+      <c r="AW122" s="29"/>
+      <c r="AX122" s="28">
         <v>2012</v>
       </c>
-      <c r="AY122" s="43"/>
-      <c r="AZ122" s="43"/>
-      <c r="BA122" s="43"/>
-      <c r="BB122" s="42">
+      <c r="AY122" s="29"/>
+      <c r="AZ122" s="29"/>
+      <c r="BA122" s="29"/>
+      <c r="BB122" s="28">
         <v>2013</v>
       </c>
-      <c r="BC122" s="43"/>
-      <c r="BD122" s="43"/>
-      <c r="BE122" s="43"/>
-      <c r="BF122" s="42">
+      <c r="BC122" s="29"/>
+      <c r="BD122" s="29"/>
+      <c r="BE122" s="29"/>
+      <c r="BF122" s="28">
         <v>2014</v>
       </c>
-      <c r="BG122" s="43"/>
-      <c r="BH122" s="43"/>
-      <c r="BI122" s="43"/>
-      <c r="BJ122" s="42">
+      <c r="BG122" s="29"/>
+      <c r="BH122" s="29"/>
+      <c r="BI122" s="29"/>
+      <c r="BJ122" s="28">
         <v>2015</v>
       </c>
-      <c r="BK122" s="43"/>
-      <c r="BL122" s="43"/>
-      <c r="BM122" s="43"/>
-      <c r="BN122" s="42">
+      <c r="BK122" s="29"/>
+      <c r="BL122" s="29"/>
+      <c r="BM122" s="29"/>
+      <c r="BN122" s="28">
         <v>2016</v>
       </c>
-      <c r="BO122" s="43"/>
-      <c r="BP122" s="43"/>
-      <c r="BQ122" s="43"/>
-      <c r="BR122" s="42">
+      <c r="BO122" s="29"/>
+      <c r="BP122" s="29"/>
+      <c r="BQ122" s="29"/>
+      <c r="BR122" s="28">
         <v>2017</v>
       </c>
-      <c r="BS122" s="43"/>
-      <c r="BT122" s="43"/>
-      <c r="BU122" s="43"/>
-      <c r="BV122" s="42">
+      <c r="BS122" s="29"/>
+      <c r="BT122" s="29"/>
+      <c r="BU122" s="29"/>
+      <c r="BV122" s="28">
         <v>2018</v>
       </c>
-      <c r="BW122" s="43"/>
-      <c r="BX122" s="43"/>
-      <c r="BY122" s="43"/>
-      <c r="BZ122" s="42">
+      <c r="BW122" s="29"/>
+      <c r="BX122" s="29"/>
+      <c r="BY122" s="29"/>
+      <c r="BZ122" s="28">
         <v>2019</v>
       </c>
-      <c r="CA122" s="43"/>
-      <c r="CB122" s="43"/>
-      <c r="CC122" s="43"/>
-      <c r="CD122" s="42">
+      <c r="CA122" s="29"/>
+      <c r="CB122" s="29"/>
+      <c r="CC122" s="29"/>
+      <c r="CD122" s="28">
         <v>2020</v>
       </c>
-      <c r="CE122" s="42"/>
-      <c r="CF122" s="42"/>
-      <c r="CG122" s="42"/>
+      <c r="CE122" s="28"/>
+      <c r="CF122" s="28"/>
+      <c r="CG122" s="28"/>
       <c r="CH122" s="26">
         <v>2021</v>
       </c>
@@ -36816,15 +36535,16 @@
       <c r="CM122" s="26"/>
       <c r="CN122" s="26"/>
       <c r="CO122" s="26"/>
-      <c r="CP122" s="30">
+      <c r="CP122" s="26">
         <v>2023</v>
       </c>
-      <c r="CQ122" s="30"/>
-      <c r="CR122" s="30"/>
-      <c r="CS122" s="30"/>
-      <c r="CT122" s="30">
+      <c r="CQ122" s="26"/>
+      <c r="CR122" s="26"/>
+      <c r="CS122" s="26"/>
+      <c r="CT122" s="26">
         <v>2024</v>
       </c>
+      <c r="CU122" s="26"/>
     </row>
     <row r="123" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
@@ -37106,29 +36826,27 @@
       <c r="CO123" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP123" s="31" t="s">
+      <c r="CP123" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ123" s="31" t="s">
+      <c r="CQ123" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR123" s="31" t="s">
+      <c r="CR123" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CS123" s="31" t="s">
+      <c r="CS123" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CT123" s="31" t="s">
+      <c r="CT123" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CU123" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8"/>
-      <c r="CP124" s="28"/>
-      <c r="CQ124" s="28"/>
-      <c r="CR124" s="28"/>
-      <c r="CS124" s="28"/>
-      <c r="CT124" s="28"/>
     </row>
     <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
@@ -37410,22 +37128,24 @@
       <c r="CO125" s="18">
         <v>7.0602382193548809</v>
       </c>
-      <c r="CP125" s="39">
+      <c r="CP125" s="18">
         <v>7.3376295908507094</v>
       </c>
-      <c r="CQ125" s="39">
+      <c r="CQ125" s="18">
         <v>8.5087523999951848</v>
       </c>
-      <c r="CR125" s="39">
+      <c r="CR125" s="18">
         <v>7.1674546330513751</v>
       </c>
-      <c r="CS125" s="39">
+      <c r="CS125" s="18">
         <v>7.1229115087397528</v>
       </c>
-      <c r="CT125" s="39">
-        <v>7.1003779164796486</v>
-      </c>
-      <c r="CU125" s="10"/>
+      <c r="CT125" s="18">
+        <v>6.9632561902280372</v>
+      </c>
+      <c r="CU125" s="18">
+        <v>8.2756435269513187</v>
+      </c>
       <c r="CV125" s="10"/>
       <c r="CW125" s="10"/>
       <c r="CX125" s="10"/>
@@ -37763,22 +37483,24 @@
       <c r="CO126" s="18">
         <v>92.939761780645114</v>
       </c>
-      <c r="CP126" s="39">
+      <c r="CP126" s="18">
         <v>92.66237040914929</v>
       </c>
-      <c r="CQ126" s="39">
+      <c r="CQ126" s="18">
         <v>91.491247600004812</v>
       </c>
-      <c r="CR126" s="39">
+      <c r="CR126" s="18">
         <v>92.832545366948636</v>
       </c>
-      <c r="CS126" s="39">
+      <c r="CS126" s="18">
         <v>92.877088491260238</v>
       </c>
-      <c r="CT126" s="39">
-        <v>92.899622083520356</v>
-      </c>
-      <c r="CU126" s="10"/>
+      <c r="CT126" s="18">
+        <v>93.036743809771977</v>
+      </c>
+      <c r="CU126" s="18">
+        <v>91.724356473048672</v>
+      </c>
       <c r="CV126" s="10"/>
       <c r="CW126" s="10"/>
       <c r="CX126" s="10"/>
@@ -37929,12 +37651,12 @@
       <c r="CM127" s="19"/>
       <c r="CN127" s="19"/>
       <c r="CO127" s="19"/>
-      <c r="CP127" s="40"/>
-      <c r="CQ127" s="40"/>
-      <c r="CR127" s="40"/>
-      <c r="CS127" s="40"/>
-      <c r="CT127" s="40"/>
-      <c r="CU127" s="10"/>
+      <c r="CP127" s="19"/>
+      <c r="CQ127" s="19"/>
+      <c r="CR127" s="19"/>
+      <c r="CS127" s="19"/>
+      <c r="CT127" s="19"/>
+      <c r="CU127" s="19"/>
       <c r="CV127" s="10"/>
       <c r="CW127" s="10"/>
       <c r="CX127" s="10"/>
@@ -38272,22 +37994,24 @@
       <c r="CO128" s="18">
         <v>100</v>
       </c>
-      <c r="CP128" s="39">
+      <c r="CP128" s="18">
         <v>100</v>
       </c>
-      <c r="CQ128" s="39">
+      <c r="CQ128" s="18">
         <v>100</v>
       </c>
-      <c r="CR128" s="39">
+      <c r="CR128" s="18">
         <v>100</v>
       </c>
-      <c r="CS128" s="39">
+      <c r="CS128" s="18">
         <v>100</v>
       </c>
-      <c r="CT128" s="39">
+      <c r="CT128" s="18">
         <v>100</v>
       </c>
-      <c r="CU128" s="10"/>
+      <c r="CU128" s="18">
+        <v>100</v>
+      </c>
       <c r="CV128" s="10"/>
       <c r="CW128" s="10"/>
       <c r="CX128" s="10"/>
@@ -38439,21 +38163,17 @@
       <c r="CM129" s="16"/>
       <c r="CN129" s="16"/>
       <c r="CO129" s="16"/>
-      <c r="CP129" s="36"/>
-      <c r="CQ129" s="36"/>
-      <c r="CR129" s="36"/>
-      <c r="CS129" s="36"/>
-      <c r="CT129" s="36"/>
+      <c r="CP129" s="16"/>
+      <c r="CQ129" s="16"/>
+      <c r="CR129" s="16"/>
+      <c r="CS129" s="16"/>
+      <c r="CT129" s="16"/>
+      <c r="CU129" s="16"/>
     </row>
     <row r="130" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="CP130" s="28"/>
-      <c r="CQ130" s="28"/>
-      <c r="CR130" s="28"/>
-      <c r="CS130" s="28"/>
-      <c r="CT130" s="28"/>
     </row>
     <row r="131" spans="1:155" s="21" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
@@ -38549,12 +38269,12 @@
       <c r="CM131" s="11"/>
       <c r="CN131" s="11"/>
       <c r="CO131" s="11"/>
-      <c r="CP131" s="41"/>
-      <c r="CQ131" s="41"/>
-      <c r="CR131" s="41"/>
-      <c r="CS131" s="41"/>
-      <c r="CT131" s="41"/>
-      <c r="CU131" s="20"/>
+      <c r="CP131" s="11"/>
+      <c r="CQ131" s="11"/>
+      <c r="CR131" s="11"/>
+      <c r="CS131" s="11"/>
+      <c r="CT131" s="11"/>
+      <c r="CU131" s="11"/>
       <c r="CV131" s="20"/>
       <c r="CW131" s="20"/>
       <c r="CX131" s="20"/>
@@ -38706,12 +38426,12 @@
       <c r="CM132" s="11"/>
       <c r="CN132" s="11"/>
       <c r="CO132" s="11"/>
-      <c r="CP132" s="41"/>
-      <c r="CQ132" s="41"/>
-      <c r="CR132" s="41"/>
-      <c r="CS132" s="41"/>
-      <c r="CT132" s="41"/>
-      <c r="CU132" s="20"/>
+      <c r="CP132" s="11"/>
+      <c r="CQ132" s="11"/>
+      <c r="CR132" s="11"/>
+      <c r="CS132" s="11"/>
+      <c r="CT132" s="11"/>
+      <c r="CU132" s="11"/>
       <c r="CV132" s="20"/>
       <c r="CW132" s="20"/>
       <c r="CX132" s="20"/>
@@ -38771,6 +38491,129 @@
     </row>
   </sheetData>
   <mergeCells count="147">
+    <mergeCell ref="BN122:BQ122"/>
+    <mergeCell ref="BJ103:BM103"/>
+    <mergeCell ref="BN103:BQ103"/>
+    <mergeCell ref="BR122:BU122"/>
+    <mergeCell ref="BV122:BY122"/>
+    <mergeCell ref="BF103:BI103"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="BR84:BU84"/>
+    <mergeCell ref="BV84:BY84"/>
+    <mergeCell ref="BJ122:BM122"/>
+    <mergeCell ref="BF122:BI122"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="AX122:BA122"/>
+    <mergeCell ref="BB122:BE122"/>
+    <mergeCell ref="BB103:BE103"/>
+    <mergeCell ref="AT103:AW103"/>
+    <mergeCell ref="AX103:BA103"/>
+    <mergeCell ref="BF47:BI47"/>
+    <mergeCell ref="BJ47:BM47"/>
+    <mergeCell ref="BN47:BQ47"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="BN28:BQ28"/>
+    <mergeCell ref="BJ28:BM28"/>
+    <mergeCell ref="BJ66:BM66"/>
+    <mergeCell ref="BF28:BI28"/>
+    <mergeCell ref="BF66:BI66"/>
+    <mergeCell ref="BN66:BQ66"/>
+    <mergeCell ref="Z103:AC103"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="AH103:AK103"/>
+    <mergeCell ref="AL122:AO122"/>
+    <mergeCell ref="AP122:AS122"/>
+    <mergeCell ref="AL103:AO103"/>
+    <mergeCell ref="AP103:AS103"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="R122:U122"/>
+    <mergeCell ref="V122:Y122"/>
+    <mergeCell ref="Z122:AC122"/>
+    <mergeCell ref="AD122:AG122"/>
+    <mergeCell ref="AH122:AK122"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="V103:Y103"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="R66:U66"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="Z47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="AH47:AK47"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="AL28:AO28"/>
+    <mergeCell ref="AP28:AS28"/>
+    <mergeCell ref="AT28:AW28"/>
+    <mergeCell ref="AX28:BA28"/>
+    <mergeCell ref="BB28:BE28"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="AL47:AO47"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="AX66:BA66"/>
+    <mergeCell ref="BB66:BE66"/>
+    <mergeCell ref="BB47:BE47"/>
+    <mergeCell ref="AT47:AW47"/>
+    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AH28:AK28"/>
     <mergeCell ref="CD9:CG9"/>
     <mergeCell ref="CD122:CG122"/>
     <mergeCell ref="CD103:CG103"/>
@@ -38795,129 +38638,6 @@
     <mergeCell ref="BZ122:CC122"/>
     <mergeCell ref="BR103:BU103"/>
     <mergeCell ref="BV103:BY103"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="AT28:AW28"/>
-    <mergeCell ref="AX28:BA28"/>
-    <mergeCell ref="BB28:BE28"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AP47:AS47"/>
-    <mergeCell ref="AX66:BA66"/>
-    <mergeCell ref="BB66:BE66"/>
-    <mergeCell ref="BB47:BE47"/>
-    <mergeCell ref="AT47:AW47"/>
-    <mergeCell ref="AX47:BA47"/>
-    <mergeCell ref="AT66:AW66"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AL66:AO66"/>
-    <mergeCell ref="AP66:AS66"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="R66:U66"/>
-    <mergeCell ref="V66:Y66"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="R47:U47"/>
-    <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="AL28:AO28"/>
-    <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="V103:Y103"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="R122:U122"/>
-    <mergeCell ref="V122:Y122"/>
-    <mergeCell ref="Z122:AC122"/>
-    <mergeCell ref="AD122:AG122"/>
-    <mergeCell ref="AH122:AK122"/>
-    <mergeCell ref="Z103:AC103"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="AH103:AK103"/>
-    <mergeCell ref="AL122:AO122"/>
-    <mergeCell ref="AP122:AS122"/>
-    <mergeCell ref="AL103:AO103"/>
-    <mergeCell ref="AP103:AS103"/>
-    <mergeCell ref="BF47:BI47"/>
-    <mergeCell ref="BJ47:BM47"/>
-    <mergeCell ref="BN47:BQ47"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="BN28:BQ28"/>
-    <mergeCell ref="BJ28:BM28"/>
-    <mergeCell ref="BJ66:BM66"/>
-    <mergeCell ref="BF28:BI28"/>
-    <mergeCell ref="BF66:BI66"/>
-    <mergeCell ref="BN66:BQ66"/>
-    <mergeCell ref="BN122:BQ122"/>
-    <mergeCell ref="BJ103:BM103"/>
-    <mergeCell ref="BN103:BQ103"/>
-    <mergeCell ref="BR122:BU122"/>
-    <mergeCell ref="BV122:BY122"/>
-    <mergeCell ref="BF103:BI103"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="BR84:BU84"/>
-    <mergeCell ref="BV84:BY84"/>
-    <mergeCell ref="BJ122:BM122"/>
-    <mergeCell ref="BF122:BI122"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="AX122:BA122"/>
-    <mergeCell ref="BB122:BE122"/>
-    <mergeCell ref="BB103:BE103"/>
-    <mergeCell ref="AT103:AW103"/>
-    <mergeCell ref="AX103:BA103"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>

--- a/Data/National Accounts/PSA-16IAC_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-16IAC_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BC4BBB-BA1C-40C9-9FE1-BA354AC4077B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD268CC-F3C2-4060-8364-F4348C814461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="12660" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAC" sheetId="10" r:id="rId1"/>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IAC!$A$1:$CT$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IAC!$A$1:$CV$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -619,13 +619,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>As of August 2024</t>
+    <t>As of November 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2024</t>
+    <t>Q1 2000 to Q3 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2024</t>
+    <t>Q1 2001 to Q3 2024</t>
   </si>
 </sst>
 </file>
@@ -725,7 +725,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -771,9 +771,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23644,44 +23668,87 @@
   <dimension ref="A1:EY132"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BW1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="CH1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CP1" sqref="CP1:CU1048576"/>
+      <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.6640625" style="1" customWidth="1"/>
     <col min="2" max="93" width="11.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="94" max="99" width="9.44140625" style="11" customWidth="1"/>
-    <col min="100" max="16384" width="7.77734375" style="11"/>
+    <col min="94" max="100" width="10.109375" style="41" customWidth="1"/>
+    <col min="101" max="16384" width="7.77734375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CP1" s="28"/>
+      <c r="CQ1" s="28"/>
+      <c r="CR1" s="28"/>
+      <c r="CS1" s="28"/>
+      <c r="CT1" s="28"/>
+      <c r="CU1" s="28"/>
+      <c r="CV1" s="28"/>
     </row>
     <row r="2" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="CP2" s="28"/>
+      <c r="CQ2" s="28"/>
+      <c r="CR2" s="28"/>
+      <c r="CS2" s="28"/>
+      <c r="CT2" s="28"/>
+      <c r="CU2" s="28"/>
+      <c r="CV2" s="28"/>
     </row>
     <row r="3" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="CP3" s="28"/>
+      <c r="CQ3" s="28"/>
+      <c r="CR3" s="28"/>
+      <c r="CS3" s="28"/>
+      <c r="CT3" s="28"/>
+      <c r="CU3" s="28"/>
+      <c r="CV3" s="28"/>
     </row>
-    <row r="4" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP4" s="28"/>
+      <c r="CQ4" s="28"/>
+      <c r="CR4" s="28"/>
+      <c r="CS4" s="28"/>
+      <c r="CT4" s="28"/>
+      <c r="CU4" s="28"/>
+      <c r="CV4" s="28"/>
+    </row>
     <row r="5" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="CP5" s="28"/>
+      <c r="CQ5" s="28"/>
+      <c r="CR5" s="28"/>
+      <c r="CS5" s="28"/>
+      <c r="CT5" s="28"/>
+      <c r="CU5" s="28"/>
+      <c r="CV5" s="28"/>
     </row>
     <row r="6" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="CP6" s="28"/>
+      <c r="CQ6" s="28"/>
+      <c r="CR6" s="28"/>
+      <c r="CS6" s="28"/>
+      <c r="CT6" s="28"/>
+      <c r="CU6" s="28"/>
+      <c r="CV6" s="28"/>
     </row>
     <row r="7" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -23779,12 +23846,13 @@
       <c r="CM7" s="4"/>
       <c r="CN7" s="4"/>
       <c r="CO7" s="4"/>
-      <c r="CP7" s="4"/>
-      <c r="CQ7" s="4"/>
-      <c r="CR7" s="4"/>
-      <c r="CS7" s="4"/>
-      <c r="CT7" s="4"/>
-      <c r="CU7" s="4"/>
+      <c r="CP7" s="29"/>
+      <c r="CQ7" s="29"/>
+      <c r="CR7" s="29"/>
+      <c r="CS7" s="29"/>
+      <c r="CT7" s="29"/>
+      <c r="CU7" s="29"/>
+      <c r="CV7" s="29"/>
     </row>
     <row r="8" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
@@ -23879,141 +23947,142 @@
       <c r="CM8" s="4"/>
       <c r="CN8" s="4"/>
       <c r="CO8" s="4"/>
-      <c r="CP8" s="4"/>
-      <c r="CQ8" s="4"/>
-      <c r="CR8" s="4"/>
-      <c r="CS8" s="4"/>
-      <c r="CT8" s="4"/>
-      <c r="CU8" s="4"/>
+      <c r="CP8" s="29"/>
+      <c r="CQ8" s="29"/>
+      <c r="CR8" s="29"/>
+      <c r="CS8" s="29"/>
+      <c r="CT8" s="29"/>
+      <c r="CU8" s="29"/>
+      <c r="CV8" s="29"/>
     </row>
     <row r="9" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="28">
+      <c r="B9" s="42">
         <v>2000</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28">
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42">
         <v>2001</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28">
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42">
         <v>2002</v>
       </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28">
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42">
         <v>2003</v>
       </c>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28">
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42">
         <v>2004</v>
       </c>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28">
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42">
         <v>2005</v>
       </c>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28">
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42">
         <v>2006</v>
       </c>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="28">
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42">
         <v>2007</v>
       </c>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="28"/>
-      <c r="AG9" s="28"/>
-      <c r="AH9" s="28">
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="42"/>
+      <c r="AG9" s="42"/>
+      <c r="AH9" s="42">
         <v>2008</v>
       </c>
-      <c r="AI9" s="28"/>
-      <c r="AJ9" s="28"/>
-      <c r="AK9" s="28"/>
-      <c r="AL9" s="28">
+      <c r="AI9" s="42"/>
+      <c r="AJ9" s="42"/>
+      <c r="AK9" s="42"/>
+      <c r="AL9" s="42">
         <v>2009</v>
       </c>
-      <c r="AM9" s="28"/>
-      <c r="AN9" s="28"/>
-      <c r="AO9" s="28"/>
-      <c r="AP9" s="28">
+      <c r="AM9" s="42"/>
+      <c r="AN9" s="42"/>
+      <c r="AO9" s="42"/>
+      <c r="AP9" s="42">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="28"/>
-      <c r="AR9" s="28"/>
-      <c r="AS9" s="28"/>
-      <c r="AT9" s="28">
+      <c r="AQ9" s="42"/>
+      <c r="AR9" s="42"/>
+      <c r="AS9" s="42"/>
+      <c r="AT9" s="42">
         <v>2011</v>
       </c>
-      <c r="AU9" s="28"/>
-      <c r="AV9" s="28"/>
-      <c r="AW9" s="28"/>
-      <c r="AX9" s="28">
+      <c r="AU9" s="42"/>
+      <c r="AV9" s="42"/>
+      <c r="AW9" s="42"/>
+      <c r="AX9" s="42">
         <v>2012</v>
       </c>
-      <c r="AY9" s="28"/>
-      <c r="AZ9" s="28"/>
-      <c r="BA9" s="28"/>
-      <c r="BB9" s="28">
+      <c r="AY9" s="42"/>
+      <c r="AZ9" s="42"/>
+      <c r="BA9" s="42"/>
+      <c r="BB9" s="42">
         <v>2013</v>
       </c>
-      <c r="BC9" s="28"/>
-      <c r="BD9" s="28"/>
-      <c r="BE9" s="28"/>
-      <c r="BF9" s="28">
+      <c r="BC9" s="42"/>
+      <c r="BD9" s="42"/>
+      <c r="BE9" s="42"/>
+      <c r="BF9" s="42">
         <v>2014</v>
       </c>
-      <c r="BG9" s="28"/>
-      <c r="BH9" s="28"/>
-      <c r="BI9" s="28"/>
-      <c r="BJ9" s="28">
+      <c r="BG9" s="42"/>
+      <c r="BH9" s="42"/>
+      <c r="BI9" s="42"/>
+      <c r="BJ9" s="42">
         <v>2015</v>
       </c>
-      <c r="BK9" s="28"/>
-      <c r="BL9" s="28"/>
-      <c r="BM9" s="28"/>
-      <c r="BN9" s="28">
+      <c r="BK9" s="42"/>
+      <c r="BL9" s="42"/>
+      <c r="BM9" s="42"/>
+      <c r="BN9" s="42">
         <v>2016</v>
       </c>
-      <c r="BO9" s="28"/>
-      <c r="BP9" s="28"/>
-      <c r="BQ9" s="28"/>
-      <c r="BR9" s="28">
+      <c r="BO9" s="42"/>
+      <c r="BP9" s="42"/>
+      <c r="BQ9" s="42"/>
+      <c r="BR9" s="42">
         <v>2017</v>
       </c>
-      <c r="BS9" s="28"/>
-      <c r="BT9" s="28"/>
-      <c r="BU9" s="28"/>
-      <c r="BV9" s="28">
+      <c r="BS9" s="42"/>
+      <c r="BT9" s="42"/>
+      <c r="BU9" s="42"/>
+      <c r="BV9" s="42">
         <v>2018</v>
       </c>
-      <c r="BW9" s="28"/>
-      <c r="BX9" s="28"/>
-      <c r="BY9" s="28"/>
-      <c r="BZ9" s="28">
+      <c r="BW9" s="42"/>
+      <c r="BX9" s="42"/>
+      <c r="BY9" s="42"/>
+      <c r="BZ9" s="42">
         <v>2019</v>
       </c>
-      <c r="CA9" s="28"/>
-      <c r="CB9" s="28"/>
-      <c r="CC9" s="28"/>
-      <c r="CD9" s="28">
+      <c r="CA9" s="42"/>
+      <c r="CB9" s="42"/>
+      <c r="CC9" s="42"/>
+      <c r="CD9" s="42">
         <v>2020</v>
       </c>
-      <c r="CE9" s="28"/>
-      <c r="CF9" s="28"/>
-      <c r="CG9" s="28"/>
+      <c r="CE9" s="42"/>
+      <c r="CF9" s="42"/>
+      <c r="CG9" s="42"/>
       <c r="CH9" s="26">
         <v>2021</v>
       </c>
@@ -24026,16 +24095,17 @@
       <c r="CM9" s="26"/>
       <c r="CN9" s="26"/>
       <c r="CO9" s="26"/>
-      <c r="CP9" s="26">
+      <c r="CP9" s="30">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="26"/>
-      <c r="CR9" s="26"/>
-      <c r="CS9" s="26"/>
-      <c r="CT9" s="26">
+      <c r="CQ9" s="30"/>
+      <c r="CR9" s="30"/>
+      <c r="CS9" s="30"/>
+      <c r="CT9" s="30">
         <v>2024</v>
       </c>
-      <c r="CU9" s="26"/>
+      <c r="CU9" s="30"/>
+      <c r="CV9" s="30"/>
     </row>
     <row r="10" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24317,27 +24387,37 @@
       <c r="CO10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="7" t="s">
+      <c r="CP10" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="7" t="s">
+      <c r="CQ10" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="7" t="s">
+      <c r="CR10" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="CS10" s="7" t="s">
+      <c r="CS10" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="CT10" s="7" t="s">
+      <c r="CT10" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CU10" s="7" t="s">
+      <c r="CU10" s="31" t="s">
         <v>8</v>
+      </c>
+      <c r="CV10" s="31" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
+      <c r="CP11" s="28"/>
+      <c r="CQ11" s="28"/>
+      <c r="CR11" s="28"/>
+      <c r="CS11" s="28"/>
+      <c r="CT11" s="28"/>
+      <c r="CU11" s="28"/>
+      <c r="CV11" s="28"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -24619,25 +24699,27 @@
       <c r="CO12" s="22">
         <v>15190.388942085265</v>
       </c>
-      <c r="CP12" s="22">
+      <c r="CP12" s="32">
         <v>13368.965748047689</v>
       </c>
-      <c r="CQ12" s="22">
+      <c r="CQ12" s="32">
         <v>17358.039118818233</v>
       </c>
-      <c r="CR12" s="22">
+      <c r="CR12" s="32">
         <v>12572.294304729996</v>
       </c>
-      <c r="CS12" s="22">
+      <c r="CS12" s="32">
         <v>16914.126620438685</v>
       </c>
-      <c r="CT12" s="22">
+      <c r="CT12" s="32">
         <v>13497.815102348464</v>
       </c>
-      <c r="CU12" s="22">
-        <v>18437.201772265205</v>
-      </c>
-      <c r="CV12" s="10"/>
+      <c r="CU12" s="32">
+        <v>18003.844903715129</v>
+      </c>
+      <c r="CV12" s="32">
+        <v>12422.745648618347</v>
+      </c>
       <c r="CW12" s="10"/>
       <c r="CX12" s="10"/>
       <c r="CY12" s="10"/>
@@ -24974,25 +25056,27 @@
       <c r="CO13" s="23">
         <v>181261.68613683333</v>
       </c>
-      <c r="CP13" s="23">
+      <c r="CP13" s="33">
         <v>152187.73803509001</v>
       </c>
-      <c r="CQ13" s="23">
+      <c r="CQ13" s="33">
         <v>181743.41382022295</v>
       </c>
-      <c r="CR13" s="23">
+      <c r="CR13" s="33">
         <v>147905.5339840698</v>
       </c>
-      <c r="CS13" s="23">
+      <c r="CS13" s="33">
         <v>191366.4054079433</v>
       </c>
-      <c r="CT13" s="23">
+      <c r="CT13" s="33">
         <v>159915.96335598713</v>
       </c>
-      <c r="CU13" s="23">
-        <v>195508.67954014923</v>
-      </c>
-      <c r="CV13" s="10"/>
+      <c r="CU13" s="33">
+        <v>195587.70849658945</v>
+      </c>
+      <c r="CV13" s="33">
+        <v>155667.97661350385</v>
+      </c>
       <c r="CW13" s="10"/>
       <c r="CX13" s="10"/>
       <c r="CY13" s="10"/>
@@ -25142,13 +25226,13 @@
       <c r="CM14" s="24"/>
       <c r="CN14" s="24"/>
       <c r="CO14" s="24"/>
-      <c r="CP14" s="24"/>
-      <c r="CQ14" s="24"/>
-      <c r="CR14" s="24"/>
-      <c r="CS14" s="24"/>
-      <c r="CT14" s="24"/>
-      <c r="CU14" s="24"/>
-      <c r="CV14" s="10"/>
+      <c r="CP14" s="34"/>
+      <c r="CQ14" s="34"/>
+      <c r="CR14" s="34"/>
+      <c r="CS14" s="34"/>
+      <c r="CT14" s="34"/>
+      <c r="CU14" s="34"/>
+      <c r="CV14" s="34"/>
       <c r="CW14" s="10"/>
       <c r="CX14" s="10"/>
       <c r="CY14" s="10"/>
@@ -25485,25 +25569,27 @@
       <c r="CO15" s="25">
         <v>196452.0750789186</v>
       </c>
-      <c r="CP15" s="25">
+      <c r="CP15" s="35">
         <v>165556.70378313769</v>
       </c>
-      <c r="CQ15" s="25">
+      <c r="CQ15" s="35">
         <v>199101.45293904119</v>
       </c>
-      <c r="CR15" s="25">
+      <c r="CR15" s="35">
         <v>160477.82828879979</v>
       </c>
-      <c r="CS15" s="25">
+      <c r="CS15" s="35">
         <v>208280.53202838197</v>
       </c>
-      <c r="CT15" s="25">
+      <c r="CT15" s="35">
         <v>173413.77845833558</v>
       </c>
-      <c r="CU15" s="25">
-        <v>213945.88131241442</v>
-      </c>
-      <c r="CV15" s="10"/>
+      <c r="CU15" s="35">
+        <v>213591.55340030458</v>
+      </c>
+      <c r="CV15" s="35">
+        <v>168090.7222621222</v>
+      </c>
       <c r="CW15" s="10"/>
       <c r="CX15" s="10"/>
       <c r="CY15" s="10"/>
@@ -25654,17 +25740,25 @@
       <c r="CM16" s="16"/>
       <c r="CN16" s="16"/>
       <c r="CO16" s="16"/>
-      <c r="CP16" s="16"/>
-      <c r="CQ16" s="16"/>
-      <c r="CR16" s="16"/>
-      <c r="CS16" s="16"/>
-      <c r="CT16" s="16"/>
-      <c r="CU16" s="16"/>
+      <c r="CP16" s="36"/>
+      <c r="CQ16" s="36"/>
+      <c r="CR16" s="36"/>
+      <c r="CS16" s="36"/>
+      <c r="CT16" s="36"/>
+      <c r="CU16" s="36"/>
+      <c r="CV16" s="36"/>
     </row>
     <row r="17" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="CP17" s="28"/>
+      <c r="CQ17" s="28"/>
+      <c r="CR17" s="28"/>
+      <c r="CS17" s="28"/>
+      <c r="CT17" s="28"/>
+      <c r="CU17" s="28"/>
+      <c r="CV17" s="28"/>
     </row>
     <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
@@ -25759,13 +25853,13 @@
       <c r="CM18" s="10"/>
       <c r="CN18" s="10"/>
       <c r="CO18" s="10"/>
-      <c r="CP18" s="10"/>
-      <c r="CQ18" s="10"/>
-      <c r="CR18" s="10"/>
-      <c r="CS18" s="10"/>
-      <c r="CT18" s="10"/>
-      <c r="CU18" s="10"/>
-      <c r="CV18" s="10"/>
+      <c r="CP18" s="37"/>
+      <c r="CQ18" s="37"/>
+      <c r="CR18" s="37"/>
+      <c r="CS18" s="37"/>
+      <c r="CT18" s="37"/>
+      <c r="CU18" s="37"/>
+      <c r="CV18" s="37"/>
       <c r="CW18" s="10"/>
       <c r="CX18" s="10"/>
       <c r="CY18" s="10"/>
@@ -25915,13 +26009,13 @@
       <c r="CM19" s="10"/>
       <c r="CN19" s="10"/>
       <c r="CO19" s="10"/>
-      <c r="CP19" s="10"/>
-      <c r="CQ19" s="10"/>
-      <c r="CR19" s="10"/>
-      <c r="CS19" s="10"/>
-      <c r="CT19" s="10"/>
-      <c r="CU19" s="10"/>
-      <c r="CV19" s="10"/>
+      <c r="CP19" s="37"/>
+      <c r="CQ19" s="37"/>
+      <c r="CR19" s="37"/>
+      <c r="CS19" s="37"/>
+      <c r="CT19" s="37"/>
+      <c r="CU19" s="37"/>
+      <c r="CV19" s="37"/>
       <c r="CW19" s="10"/>
       <c r="CX19" s="10"/>
       <c r="CY19" s="10"/>
@@ -25982,27 +26076,70 @@
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CP20" s="28"/>
+      <c r="CQ20" s="28"/>
+      <c r="CR20" s="28"/>
+      <c r="CS20" s="28"/>
+      <c r="CT20" s="28"/>
+      <c r="CU20" s="28"/>
+      <c r="CV20" s="28"/>
     </row>
     <row r="21" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="CP21" s="28"/>
+      <c r="CQ21" s="28"/>
+      <c r="CR21" s="28"/>
+      <c r="CS21" s="28"/>
+      <c r="CT21" s="28"/>
+      <c r="CU21" s="28"/>
+      <c r="CV21" s="28"/>
     </row>
     <row r="22" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="CP22" s="28"/>
+      <c r="CQ22" s="28"/>
+      <c r="CR22" s="28"/>
+      <c r="CS22" s="28"/>
+      <c r="CT22" s="28"/>
+      <c r="CU22" s="28"/>
+      <c r="CV22" s="28"/>
     </row>
-    <row r="23" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP23" s="28"/>
+      <c r="CQ23" s="28"/>
+      <c r="CR23" s="28"/>
+      <c r="CS23" s="28"/>
+      <c r="CT23" s="28"/>
+      <c r="CU23" s="28"/>
+      <c r="CV23" s="28"/>
+    </row>
     <row r="24" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="CP24" s="28"/>
+      <c r="CQ24" s="28"/>
+      <c r="CR24" s="28"/>
+      <c r="CS24" s="28"/>
+      <c r="CT24" s="28"/>
+      <c r="CU24" s="28"/>
+      <c r="CV24" s="28"/>
     </row>
     <row r="25" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="CP25" s="28"/>
+      <c r="CQ25" s="28"/>
+      <c r="CR25" s="28"/>
+      <c r="CS25" s="28"/>
+      <c r="CT25" s="28"/>
+      <c r="CU25" s="28"/>
+      <c r="CV25" s="28"/>
     </row>
     <row r="26" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -26100,12 +26237,13 @@
       <c r="CM26" s="4"/>
       <c r="CN26" s="4"/>
       <c r="CO26" s="4"/>
-      <c r="CP26" s="4"/>
-      <c r="CQ26" s="4"/>
-      <c r="CR26" s="4"/>
-      <c r="CS26" s="4"/>
-      <c r="CT26" s="4"/>
-      <c r="CU26" s="4"/>
+      <c r="CP26" s="29"/>
+      <c r="CQ26" s="29"/>
+      <c r="CR26" s="29"/>
+      <c r="CS26" s="29"/>
+      <c r="CT26" s="29"/>
+      <c r="CU26" s="29"/>
+      <c r="CV26" s="29"/>
     </row>
     <row r="27" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
@@ -26200,141 +26338,142 @@
       <c r="CM27" s="4"/>
       <c r="CN27" s="4"/>
       <c r="CO27" s="4"/>
-      <c r="CP27" s="4"/>
-      <c r="CQ27" s="4"/>
-      <c r="CR27" s="4"/>
-      <c r="CS27" s="4"/>
-      <c r="CT27" s="4"/>
-      <c r="CU27" s="4"/>
+      <c r="CP27" s="29"/>
+      <c r="CQ27" s="29"/>
+      <c r="CR27" s="29"/>
+      <c r="CS27" s="29"/>
+      <c r="CT27" s="29"/>
+      <c r="CU27" s="29"/>
+      <c r="CV27" s="29"/>
     </row>
     <row r="28" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="28">
+      <c r="B28" s="42">
         <v>2000</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="28">
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="42">
         <v>2001</v>
       </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="28">
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="42">
         <v>2002</v>
       </c>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="28">
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="42">
         <v>2003</v>
       </c>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="28">
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="42">
         <v>2004</v>
       </c>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="28">
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="42">
         <v>2005</v>
       </c>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="28">
+      <c r="W28" s="43"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="42">
         <v>2006</v>
       </c>
-      <c r="AA28" s="29"/>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="29"/>
-      <c r="AD28" s="28">
+      <c r="AA28" s="43"/>
+      <c r="AB28" s="43"/>
+      <c r="AC28" s="43"/>
+      <c r="AD28" s="42">
         <v>2007</v>
       </c>
-      <c r="AE28" s="29"/>
-      <c r="AF28" s="29"/>
-      <c r="AG28" s="29"/>
-      <c r="AH28" s="28">
+      <c r="AE28" s="43"/>
+      <c r="AF28" s="43"/>
+      <c r="AG28" s="43"/>
+      <c r="AH28" s="42">
         <v>2008</v>
       </c>
-      <c r="AI28" s="29"/>
-      <c r="AJ28" s="29"/>
-      <c r="AK28" s="29"/>
-      <c r="AL28" s="28">
+      <c r="AI28" s="43"/>
+      <c r="AJ28" s="43"/>
+      <c r="AK28" s="43"/>
+      <c r="AL28" s="42">
         <v>2009</v>
       </c>
-      <c r="AM28" s="29"/>
-      <c r="AN28" s="29"/>
-      <c r="AO28" s="29"/>
-      <c r="AP28" s="28">
+      <c r="AM28" s="43"/>
+      <c r="AN28" s="43"/>
+      <c r="AO28" s="43"/>
+      <c r="AP28" s="42">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="29"/>
-      <c r="AR28" s="29"/>
-      <c r="AS28" s="29"/>
-      <c r="AT28" s="28">
+      <c r="AQ28" s="43"/>
+      <c r="AR28" s="43"/>
+      <c r="AS28" s="43"/>
+      <c r="AT28" s="42">
         <v>2011</v>
       </c>
-      <c r="AU28" s="29"/>
-      <c r="AV28" s="29"/>
-      <c r="AW28" s="29"/>
-      <c r="AX28" s="28">
+      <c r="AU28" s="43"/>
+      <c r="AV28" s="43"/>
+      <c r="AW28" s="43"/>
+      <c r="AX28" s="42">
         <v>2012</v>
       </c>
-      <c r="AY28" s="29"/>
-      <c r="AZ28" s="29"/>
-      <c r="BA28" s="29"/>
-      <c r="BB28" s="28">
+      <c r="AY28" s="43"/>
+      <c r="AZ28" s="43"/>
+      <c r="BA28" s="43"/>
+      <c r="BB28" s="42">
         <v>2013</v>
       </c>
-      <c r="BC28" s="29"/>
-      <c r="BD28" s="29"/>
-      <c r="BE28" s="29"/>
-      <c r="BF28" s="28">
+      <c r="BC28" s="43"/>
+      <c r="BD28" s="43"/>
+      <c r="BE28" s="43"/>
+      <c r="BF28" s="42">
         <v>2014</v>
       </c>
-      <c r="BG28" s="29"/>
-      <c r="BH28" s="29"/>
-      <c r="BI28" s="29"/>
-      <c r="BJ28" s="28">
+      <c r="BG28" s="43"/>
+      <c r="BH28" s="43"/>
+      <c r="BI28" s="43"/>
+      <c r="BJ28" s="42">
         <v>2015</v>
       </c>
-      <c r="BK28" s="29"/>
-      <c r="BL28" s="29"/>
-      <c r="BM28" s="29"/>
-      <c r="BN28" s="28">
+      <c r="BK28" s="43"/>
+      <c r="BL28" s="43"/>
+      <c r="BM28" s="43"/>
+      <c r="BN28" s="42">
         <v>2016</v>
       </c>
-      <c r="BO28" s="29"/>
-      <c r="BP28" s="29"/>
-      <c r="BQ28" s="29"/>
-      <c r="BR28" s="28">
+      <c r="BO28" s="43"/>
+      <c r="BP28" s="43"/>
+      <c r="BQ28" s="43"/>
+      <c r="BR28" s="42">
         <v>2017</v>
       </c>
-      <c r="BS28" s="29"/>
-      <c r="BT28" s="29"/>
-      <c r="BU28" s="29"/>
-      <c r="BV28" s="28">
+      <c r="BS28" s="43"/>
+      <c r="BT28" s="43"/>
+      <c r="BU28" s="43"/>
+      <c r="BV28" s="42">
         <v>2018</v>
       </c>
-      <c r="BW28" s="29"/>
-      <c r="BX28" s="29"/>
-      <c r="BY28" s="29"/>
-      <c r="BZ28" s="28">
+      <c r="BW28" s="43"/>
+      <c r="BX28" s="43"/>
+      <c r="BY28" s="43"/>
+      <c r="BZ28" s="42">
         <v>2019</v>
       </c>
-      <c r="CA28" s="29"/>
-      <c r="CB28" s="29"/>
-      <c r="CC28" s="29"/>
-      <c r="CD28" s="28">
+      <c r="CA28" s="43"/>
+      <c r="CB28" s="43"/>
+      <c r="CC28" s="43"/>
+      <c r="CD28" s="42">
         <v>2020</v>
       </c>
-      <c r="CE28" s="28"/>
-      <c r="CF28" s="28"/>
-      <c r="CG28" s="28"/>
+      <c r="CE28" s="42"/>
+      <c r="CF28" s="42"/>
+      <c r="CG28" s="42"/>
       <c r="CH28" s="26">
         <v>2021</v>
       </c>
@@ -26347,16 +26486,17 @@
       <c r="CM28" s="26"/>
       <c r="CN28" s="26"/>
       <c r="CO28" s="26"/>
-      <c r="CP28" s="26">
+      <c r="CP28" s="30">
         <v>2023</v>
       </c>
-      <c r="CQ28" s="26"/>
-      <c r="CR28" s="26"/>
-      <c r="CS28" s="26"/>
-      <c r="CT28" s="26">
+      <c r="CQ28" s="30"/>
+      <c r="CR28" s="30"/>
+      <c r="CS28" s="30"/>
+      <c r="CT28" s="30">
         <v>2024</v>
       </c>
-      <c r="CU28" s="26"/>
+      <c r="CU28" s="30"/>
+      <c r="CV28" s="30"/>
     </row>
     <row r="29" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
@@ -26638,27 +26778,37 @@
       <c r="CO29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP29" s="7" t="s">
+      <c r="CP29" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CQ29" s="7" t="s">
+      <c r="CQ29" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="CR29" s="7" t="s">
+      <c r="CR29" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="CS29" s="7" t="s">
+      <c r="CS29" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="CT29" s="7" t="s">
+      <c r="CT29" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CU29" s="7" t="s">
+      <c r="CU29" s="31" t="s">
         <v>8</v>
+      </c>
+      <c r="CV29" s="31" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
+      <c r="CP30" s="28"/>
+      <c r="CQ30" s="28"/>
+      <c r="CR30" s="28"/>
+      <c r="CS30" s="28"/>
+      <c r="CT30" s="28"/>
+      <c r="CU30" s="28"/>
+      <c r="CV30" s="28"/>
     </row>
     <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -26940,25 +27090,27 @@
       <c r="CO31" s="22">
         <v>13654.86697409441</v>
       </c>
-      <c r="CP31" s="22">
+      <c r="CP31" s="32">
         <v>12095.637987354556</v>
       </c>
-      <c r="CQ31" s="22">
+      <c r="CQ31" s="32">
         <v>17059.997546396302</v>
       </c>
-      <c r="CR31" s="22">
+      <c r="CR31" s="32">
         <v>10837.458302174649</v>
       </c>
-      <c r="CS31" s="22">
+      <c r="CS31" s="32">
         <v>14464.374266498478</v>
       </c>
-      <c r="CT31" s="22">
+      <c r="CT31" s="32">
         <v>11962.369867680056</v>
       </c>
-      <c r="CU31" s="22">
-        <v>17717.720123424566</v>
-      </c>
-      <c r="CV31" s="10"/>
+      <c r="CU31" s="32">
+        <v>17358.507568184054</v>
+      </c>
+      <c r="CV31" s="32">
+        <v>10645.422880832873</v>
+      </c>
       <c r="CW31" s="10"/>
       <c r="CX31" s="10"/>
       <c r="CY31" s="10"/>
@@ -27295,25 +27447,27 @@
       <c r="CO32" s="23">
         <v>179750.32063927912</v>
       </c>
-      <c r="CP32" s="23">
+      <c r="CP32" s="33">
         <v>152748.30565401711</v>
       </c>
-      <c r="CQ32" s="23">
+      <c r="CQ32" s="33">
         <v>183439.40288751404</v>
       </c>
-      <c r="CR32" s="23">
+      <c r="CR32" s="33">
         <v>140366.26543260479</v>
       </c>
-      <c r="CS32" s="23">
+      <c r="CS32" s="33">
         <v>188603.91106529051</v>
       </c>
-      <c r="CT32" s="23">
+      <c r="CT32" s="33">
         <v>159830.38830295255</v>
       </c>
-      <c r="CU32" s="23">
-        <v>196377.05166952667</v>
-      </c>
-      <c r="CV32" s="10"/>
+      <c r="CU32" s="33">
+        <v>196456.43164129445</v>
+      </c>
+      <c r="CV32" s="33">
+        <v>147064.9854752039</v>
+      </c>
       <c r="CW32" s="10"/>
       <c r="CX32" s="10"/>
       <c r="CY32" s="10"/>
@@ -27463,13 +27617,13 @@
       <c r="CM33" s="10"/>
       <c r="CN33" s="10"/>
       <c r="CO33" s="10"/>
-      <c r="CP33" s="10"/>
-      <c r="CQ33" s="10"/>
-      <c r="CR33" s="10"/>
-      <c r="CS33" s="10"/>
-      <c r="CT33" s="10"/>
-      <c r="CU33" s="10"/>
-      <c r="CV33" s="10"/>
+      <c r="CP33" s="37"/>
+      <c r="CQ33" s="37"/>
+      <c r="CR33" s="37"/>
+      <c r="CS33" s="37"/>
+      <c r="CT33" s="37"/>
+      <c r="CU33" s="37"/>
+      <c r="CV33" s="37"/>
       <c r="CW33" s="10"/>
       <c r="CX33" s="10"/>
       <c r="CY33" s="10"/>
@@ -27806,25 +27960,27 @@
       <c r="CO34" s="25">
         <v>193405.18761337353</v>
       </c>
-      <c r="CP34" s="25">
+      <c r="CP34" s="35">
         <v>164843.94364137168</v>
       </c>
-      <c r="CQ34" s="25">
+      <c r="CQ34" s="35">
         <v>200499.40043391034</v>
       </c>
-      <c r="CR34" s="25">
+      <c r="CR34" s="35">
         <v>151203.72373477943</v>
       </c>
-      <c r="CS34" s="25">
+      <c r="CS34" s="35">
         <v>203068.285331789</v>
       </c>
-      <c r="CT34" s="25">
+      <c r="CT34" s="35">
         <v>171792.75817063259</v>
       </c>
-      <c r="CU34" s="25">
-        <v>214094.77179295124</v>
-      </c>
-      <c r="CV34" s="10"/>
+      <c r="CU34" s="35">
+        <v>213814.9392094785</v>
+      </c>
+      <c r="CV34" s="35">
+        <v>157710.40835603676</v>
+      </c>
       <c r="CW34" s="10"/>
       <c r="CX34" s="10"/>
       <c r="CY34" s="10"/>
@@ -27975,17 +28131,25 @@
       <c r="CM35" s="16"/>
       <c r="CN35" s="16"/>
       <c r="CO35" s="16"/>
-      <c r="CP35" s="16"/>
-      <c r="CQ35" s="16"/>
-      <c r="CR35" s="16"/>
-      <c r="CS35" s="16"/>
-      <c r="CT35" s="16"/>
-      <c r="CU35" s="16"/>
+      <c r="CP35" s="36"/>
+      <c r="CQ35" s="36"/>
+      <c r="CR35" s="36"/>
+      <c r="CS35" s="36"/>
+      <c r="CT35" s="36"/>
+      <c r="CU35" s="36"/>
+      <c r="CV35" s="36"/>
     </row>
     <row r="36" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="CP36" s="28"/>
+      <c r="CQ36" s="28"/>
+      <c r="CR36" s="28"/>
+      <c r="CS36" s="28"/>
+      <c r="CT36" s="28"/>
+      <c r="CU36" s="28"/>
+      <c r="CV36" s="28"/>
     </row>
     <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="10"/>
@@ -28080,13 +28244,13 @@
       <c r="CM37" s="10"/>
       <c r="CN37" s="10"/>
       <c r="CO37" s="10"/>
-      <c r="CP37" s="10"/>
-      <c r="CQ37" s="10"/>
-      <c r="CR37" s="10"/>
-      <c r="CS37" s="10"/>
-      <c r="CT37" s="10"/>
-      <c r="CU37" s="10"/>
-      <c r="CV37" s="10"/>
+      <c r="CP37" s="37"/>
+      <c r="CQ37" s="37"/>
+      <c r="CR37" s="37"/>
+      <c r="CS37" s="37"/>
+      <c r="CT37" s="37"/>
+      <c r="CU37" s="37"/>
+      <c r="CV37" s="37"/>
       <c r="CW37" s="10"/>
       <c r="CX37" s="10"/>
       <c r="CY37" s="10"/>
@@ -28236,13 +28400,13 @@
       <c r="CM38" s="10"/>
       <c r="CN38" s="10"/>
       <c r="CO38" s="10"/>
-      <c r="CP38" s="10"/>
-      <c r="CQ38" s="10"/>
-      <c r="CR38" s="10"/>
-      <c r="CS38" s="10"/>
-      <c r="CT38" s="10"/>
-      <c r="CU38" s="10"/>
-      <c r="CV38" s="10"/>
+      <c r="CP38" s="37"/>
+      <c r="CQ38" s="37"/>
+      <c r="CR38" s="37"/>
+      <c r="CS38" s="37"/>
+      <c r="CT38" s="37"/>
+      <c r="CU38" s="37"/>
+      <c r="CV38" s="37"/>
       <c r="CW38" s="10"/>
       <c r="CX38" s="10"/>
       <c r="CY38" s="10"/>
@@ -28303,162 +28467,220 @@
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CP39" s="28"/>
+      <c r="CQ39" s="28"/>
+      <c r="CR39" s="28"/>
+      <c r="CS39" s="28"/>
+      <c r="CT39" s="28"/>
+      <c r="CU39" s="28"/>
+      <c r="CV39" s="28"/>
     </row>
     <row r="40" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CP40" s="28"/>
+      <c r="CQ40" s="28"/>
+      <c r="CR40" s="28"/>
+      <c r="CS40" s="28"/>
+      <c r="CT40" s="28"/>
+      <c r="CU40" s="28"/>
+      <c r="CV40" s="28"/>
     </row>
     <row r="41" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="CP41" s="28"/>
+      <c r="CQ41" s="28"/>
+      <c r="CR41" s="28"/>
+      <c r="CS41" s="28"/>
+      <c r="CT41" s="28"/>
+      <c r="CU41" s="28"/>
+      <c r="CV41" s="28"/>
     </row>
-    <row r="42" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP42" s="28"/>
+      <c r="CQ42" s="28"/>
+      <c r="CR42" s="28"/>
+      <c r="CS42" s="28"/>
+      <c r="CT42" s="28"/>
+      <c r="CU42" s="28"/>
+      <c r="CV42" s="28"/>
+    </row>
     <row r="43" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="CP43" s="28"/>
+      <c r="CQ43" s="28"/>
+      <c r="CR43" s="28"/>
+      <c r="CS43" s="28"/>
+      <c r="CT43" s="28"/>
+      <c r="CU43" s="28"/>
+      <c r="CV43" s="28"/>
     </row>
     <row r="44" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="CP44" s="28"/>
+      <c r="CQ44" s="28"/>
+      <c r="CR44" s="28"/>
+      <c r="CS44" s="28"/>
+      <c r="CT44" s="28"/>
+      <c r="CU44" s="28"/>
+      <c r="CV44" s="28"/>
     </row>
     <row r="45" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="CP45" s="28"/>
+      <c r="CQ45" s="28"/>
+      <c r="CR45" s="28"/>
+      <c r="CS45" s="28"/>
+      <c r="CT45" s="28"/>
+      <c r="CU45" s="28"/>
+      <c r="CV45" s="28"/>
     </row>
-    <row r="46" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP46" s="28"/>
+      <c r="CQ46" s="28"/>
+      <c r="CR46" s="28"/>
+      <c r="CS46" s="28"/>
+      <c r="CT46" s="28"/>
+      <c r="CU46" s="28"/>
+      <c r="CV46" s="28"/>
+    </row>
     <row r="47" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28" t="s">
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28" t="s">
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28" t="s">
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="28"/>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="28" t="s">
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="28"/>
-      <c r="T47" s="28"/>
-      <c r="U47" s="28"/>
-      <c r="V47" s="28" t="s">
+      <c r="S47" s="42"/>
+      <c r="T47" s="42"/>
+      <c r="U47" s="42"/>
+      <c r="V47" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="28"/>
-      <c r="X47" s="28"/>
-      <c r="Y47" s="28"/>
-      <c r="Z47" s="28" t="s">
+      <c r="W47" s="42"/>
+      <c r="X47" s="42"/>
+      <c r="Y47" s="42"/>
+      <c r="Z47" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="28"/>
-      <c r="AB47" s="28"/>
-      <c r="AC47" s="28"/>
-      <c r="AD47" s="28" t="s">
+      <c r="AA47" s="42"/>
+      <c r="AB47" s="42"/>
+      <c r="AC47" s="42"/>
+      <c r="AD47" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="28"/>
-      <c r="AF47" s="28"/>
-      <c r="AG47" s="28"/>
-      <c r="AH47" s="28" t="s">
+      <c r="AE47" s="42"/>
+      <c r="AF47" s="42"/>
+      <c r="AG47" s="42"/>
+      <c r="AH47" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="28"/>
-      <c r="AJ47" s="28"/>
-      <c r="AK47" s="28"/>
-      <c r="AL47" s="28" t="s">
+      <c r="AI47" s="42"/>
+      <c r="AJ47" s="42"/>
+      <c r="AK47" s="42"/>
+      <c r="AL47" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="28"/>
-      <c r="AN47" s="28"/>
-      <c r="AO47" s="28"/>
-      <c r="AP47" s="28" t="s">
+      <c r="AM47" s="42"/>
+      <c r="AN47" s="42"/>
+      <c r="AO47" s="42"/>
+      <c r="AP47" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="28"/>
-      <c r="AR47" s="28"/>
-      <c r="AS47" s="28"/>
-      <c r="AT47" s="28" t="s">
+      <c r="AQ47" s="42"/>
+      <c r="AR47" s="42"/>
+      <c r="AS47" s="42"/>
+      <c r="AT47" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="28"/>
-      <c r="AV47" s="28"/>
-      <c r="AW47" s="28"/>
-      <c r="AX47" s="28" t="s">
+      <c r="AU47" s="42"/>
+      <c r="AV47" s="42"/>
+      <c r="AW47" s="42"/>
+      <c r="AX47" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="28"/>
-      <c r="AZ47" s="28"/>
-      <c r="BA47" s="28"/>
-      <c r="BB47" s="28" t="s">
+      <c r="AY47" s="42"/>
+      <c r="AZ47" s="42"/>
+      <c r="BA47" s="42"/>
+      <c r="BB47" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="28"/>
-      <c r="BD47" s="28"/>
-      <c r="BE47" s="28"/>
-      <c r="BF47" s="28" t="s">
+      <c r="BC47" s="42"/>
+      <c r="BD47" s="42"/>
+      <c r="BE47" s="42"/>
+      <c r="BF47" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="28"/>
-      <c r="BH47" s="28"/>
-      <c r="BI47" s="28"/>
-      <c r="BJ47" s="28" t="s">
+      <c r="BG47" s="42"/>
+      <c r="BH47" s="42"/>
+      <c r="BI47" s="42"/>
+      <c r="BJ47" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="28"/>
-      <c r="BL47" s="28"/>
-      <c r="BM47" s="28"/>
-      <c r="BN47" s="28" t="s">
+      <c r="BK47" s="42"/>
+      <c r="BL47" s="42"/>
+      <c r="BM47" s="42"/>
+      <c r="BN47" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="28"/>
-      <c r="BP47" s="28"/>
-      <c r="BQ47" s="28"/>
-      <c r="BR47" s="28" t="s">
+      <c r="BO47" s="42"/>
+      <c r="BP47" s="42"/>
+      <c r="BQ47" s="42"/>
+      <c r="BR47" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="BS47" s="28"/>
-      <c r="BT47" s="28"/>
-      <c r="BU47" s="28"/>
-      <c r="BV47" s="28" t="s">
+      <c r="BS47" s="42"/>
+      <c r="BT47" s="42"/>
+      <c r="BU47" s="42"/>
+      <c r="BV47" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="BW47" s="28"/>
-      <c r="BX47" s="28"/>
-      <c r="BY47" s="28"/>
-      <c r="BZ47" s="28" t="s">
+      <c r="BW47" s="42"/>
+      <c r="BX47" s="42"/>
+      <c r="BY47" s="42"/>
+      <c r="BZ47" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="CA47" s="28"/>
-      <c r="CB47" s="28"/>
-      <c r="CC47" s="28"/>
-      <c r="CD47" s="28" t="s">
+      <c r="CA47" s="42"/>
+      <c r="CB47" s="42"/>
+      <c r="CC47" s="42"/>
+      <c r="CD47" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="28"/>
-      <c r="CF47" s="28"/>
-      <c r="CG47" s="28"/>
+      <c r="CE47" s="42"/>
+      <c r="CF47" s="42"/>
+      <c r="CG47" s="42"/>
       <c r="CH47" s="26" t="s">
         <v>47</v>
       </c>
@@ -28471,14 +28693,15 @@
       <c r="CM47" s="26"/>
       <c r="CN47" s="26"/>
       <c r="CO47" s="26"/>
-      <c r="CP47" s="26" t="s">
+      <c r="CP47" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="CQ47" s="26"/>
-      <c r="CR47" s="27"/>
+      <c r="CQ47" s="30"/>
+      <c r="CR47" s="30"/>
       <c r="CS47" s="27"/>
-      <c r="CT47" s="26"/>
-      <c r="CU47" s="27"/>
+      <c r="CT47" s="30"/>
+      <c r="CU47" s="30"/>
+      <c r="CV47" s="27"/>
     </row>
     <row r="48" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -28760,19 +28983,29 @@
       <c r="CO48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP48" s="6" t="s">
+      <c r="CP48" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="CQ48" s="6" t="s">
+      <c r="CQ48" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="CR48" s="6"/>
-      <c r="CS48" s="6"/>
-      <c r="CT48" s="6"/>
-      <c r="CU48" s="6"/>
+      <c r="CR48" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="CS48" s="38"/>
+      <c r="CT48" s="38"/>
+      <c r="CU48" s="38"/>
+      <c r="CV48" s="38"/>
     </row>
     <row r="49" spans="1:151" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
+      <c r="CP49" s="28"/>
+      <c r="CQ49" s="28"/>
+      <c r="CR49" s="28"/>
+      <c r="CS49" s="28"/>
+      <c r="CT49" s="28"/>
+      <c r="CU49" s="28"/>
+      <c r="CV49" s="28"/>
     </row>
     <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -29054,17 +29287,19 @@
       <c r="CO50" s="18">
         <v>11.347554594719895</v>
       </c>
-      <c r="CP50" s="18">
+      <c r="CP50" s="39">
         <v>0.96379448290224445</v>
       </c>
-      <c r="CQ50" s="18">
-        <v>6.2170769754576156</v>
-      </c>
-      <c r="CR50" s="18"/>
-      <c r="CS50" s="18"/>
-      <c r="CT50" s="18"/>
-      <c r="CU50" s="18"/>
-      <c r="CV50" s="10"/>
+      <c r="CQ50" s="39">
+        <v>3.7204996513503943</v>
+      </c>
+      <c r="CR50" s="39">
+        <v>-1.1895096669458809</v>
+      </c>
+      <c r="CS50" s="39"/>
+      <c r="CT50" s="39"/>
+      <c r="CU50" s="39"/>
+      <c r="CV50" s="39"/>
       <c r="CW50" s="10"/>
       <c r="CX50" s="10"/>
       <c r="CY50" s="10"/>
@@ -29397,17 +29632,19 @@
       <c r="CO51" s="18">
         <v>5.5746581014820578</v>
       </c>
-      <c r="CP51" s="18">
+      <c r="CP51" s="39">
         <v>5.0780867241191316</v>
       </c>
-      <c r="CQ51" s="18">
-        <v>7.5740107608755665</v>
-      </c>
-      <c r="CR51" s="18"/>
-      <c r="CS51" s="18"/>
-      <c r="CT51" s="18"/>
-      <c r="CU51" s="18"/>
-      <c r="CV51" s="10"/>
+      <c r="CQ51" s="39">
+        <v>7.6174945685024937</v>
+      </c>
+      <c r="CR51" s="39">
+        <v>5.248243537844985</v>
+      </c>
+      <c r="CS51" s="39"/>
+      <c r="CT51" s="39"/>
+      <c r="CU51" s="39"/>
+      <c r="CV51" s="39"/>
       <c r="CW51" s="10"/>
       <c r="CX51" s="10"/>
       <c r="CY51" s="10"/>
@@ -29554,13 +29791,13 @@
       <c r="CM52" s="19"/>
       <c r="CN52" s="19"/>
       <c r="CO52" s="19"/>
-      <c r="CP52" s="19"/>
-      <c r="CQ52" s="19"/>
-      <c r="CR52" s="19"/>
-      <c r="CS52" s="19"/>
-      <c r="CT52" s="19"/>
-      <c r="CU52" s="19"/>
-      <c r="CV52" s="10"/>
+      <c r="CP52" s="40"/>
+      <c r="CQ52" s="40"/>
+      <c r="CR52" s="40"/>
+      <c r="CS52" s="40"/>
+      <c r="CT52" s="40"/>
+      <c r="CU52" s="40"/>
+      <c r="CV52" s="40"/>
       <c r="CW52" s="10"/>
       <c r="CX52" s="10"/>
       <c r="CY52" s="10"/>
@@ -29893,17 +30130,19 @@
       <c r="CO53" s="18">
         <v>6.0210394543868517</v>
       </c>
-      <c r="CP53" s="18">
+      <c r="CP53" s="39">
         <v>4.7458511166602193</v>
       </c>
-      <c r="CQ53" s="18">
-        <v>7.455710721467284</v>
-      </c>
-      <c r="CR53" s="18"/>
-      <c r="CS53" s="18"/>
-      <c r="CT53" s="18"/>
-      <c r="CU53" s="18"/>
-      <c r="CV53" s="10"/>
+      <c r="CQ53" s="39">
+        <v>7.2777472225176609</v>
+      </c>
+      <c r="CR53" s="39">
+        <v>4.7438914487439661</v>
+      </c>
+      <c r="CS53" s="39"/>
+      <c r="CT53" s="39"/>
+      <c r="CU53" s="39"/>
+      <c r="CV53" s="39"/>
       <c r="CW53" s="10"/>
       <c r="CX53" s="10"/>
       <c r="CY53" s="10"/>
@@ -30050,17 +30289,25 @@
       <c r="CM54" s="16"/>
       <c r="CN54" s="16"/>
       <c r="CO54" s="16"/>
-      <c r="CP54" s="16"/>
-      <c r="CQ54" s="16"/>
-      <c r="CR54" s="16"/>
-      <c r="CS54" s="16"/>
-      <c r="CT54" s="16"/>
-      <c r="CU54" s="16"/>
+      <c r="CP54" s="36"/>
+      <c r="CQ54" s="36"/>
+      <c r="CR54" s="36"/>
+      <c r="CS54" s="36"/>
+      <c r="CT54" s="36"/>
+      <c r="CU54" s="36"/>
+      <c r="CV54" s="36"/>
     </row>
     <row r="55" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="CP55" s="28"/>
+      <c r="CQ55" s="28"/>
+      <c r="CR55" s="28"/>
+      <c r="CS55" s="28"/>
+      <c r="CT55" s="28"/>
+      <c r="CU55" s="28"/>
+      <c r="CV55" s="28"/>
     </row>
     <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="10"/>
@@ -30155,13 +30402,13 @@
       <c r="CM56" s="10"/>
       <c r="CN56" s="10"/>
       <c r="CO56" s="10"/>
-      <c r="CP56" s="10"/>
-      <c r="CQ56" s="10"/>
-      <c r="CR56" s="10"/>
-      <c r="CS56" s="10"/>
-      <c r="CT56" s="10"/>
-      <c r="CU56" s="10"/>
-      <c r="CV56" s="10"/>
+      <c r="CP56" s="37"/>
+      <c r="CQ56" s="37"/>
+      <c r="CR56" s="37"/>
+      <c r="CS56" s="37"/>
+      <c r="CT56" s="37"/>
+      <c r="CU56" s="37"/>
+      <c r="CV56" s="37"/>
       <c r="CW56" s="10"/>
       <c r="CX56" s="10"/>
       <c r="CY56" s="10"/>
@@ -30307,13 +30554,13 @@
       <c r="CM57" s="10"/>
       <c r="CN57" s="10"/>
       <c r="CO57" s="10"/>
-      <c r="CP57" s="10"/>
-      <c r="CQ57" s="10"/>
-      <c r="CR57" s="10"/>
-      <c r="CS57" s="10"/>
-      <c r="CT57" s="10"/>
-      <c r="CU57" s="10"/>
-      <c r="CV57" s="10"/>
+      <c r="CP57" s="37"/>
+      <c r="CQ57" s="37"/>
+      <c r="CR57" s="37"/>
+      <c r="CS57" s="37"/>
+      <c r="CT57" s="37"/>
+      <c r="CU57" s="37"/>
+      <c r="CV57" s="37"/>
       <c r="CW57" s="10"/>
       <c r="CX57" s="10"/>
       <c r="CY57" s="10"/>
@@ -30370,162 +30617,220 @@
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CP58" s="28"/>
+      <c r="CQ58" s="28"/>
+      <c r="CR58" s="28"/>
+      <c r="CS58" s="28"/>
+      <c r="CT58" s="28"/>
+      <c r="CU58" s="28"/>
+      <c r="CV58" s="28"/>
     </row>
     <row r="59" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CP59" s="28"/>
+      <c r="CQ59" s="28"/>
+      <c r="CR59" s="28"/>
+      <c r="CS59" s="28"/>
+      <c r="CT59" s="28"/>
+      <c r="CU59" s="28"/>
+      <c r="CV59" s="28"/>
     </row>
     <row r="60" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="CP60" s="28"/>
+      <c r="CQ60" s="28"/>
+      <c r="CR60" s="28"/>
+      <c r="CS60" s="28"/>
+      <c r="CT60" s="28"/>
+      <c r="CU60" s="28"/>
+      <c r="CV60" s="28"/>
     </row>
-    <row r="61" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP61" s="28"/>
+      <c r="CQ61" s="28"/>
+      <c r="CR61" s="28"/>
+      <c r="CS61" s="28"/>
+      <c r="CT61" s="28"/>
+      <c r="CU61" s="28"/>
+      <c r="CV61" s="28"/>
+    </row>
     <row r="62" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="CP62" s="28"/>
+      <c r="CQ62" s="28"/>
+      <c r="CR62" s="28"/>
+      <c r="CS62" s="28"/>
+      <c r="CT62" s="28"/>
+      <c r="CU62" s="28"/>
+      <c r="CV62" s="28"/>
     </row>
     <row r="63" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="CP63" s="28"/>
+      <c r="CQ63" s="28"/>
+      <c r="CR63" s="28"/>
+      <c r="CS63" s="28"/>
+      <c r="CT63" s="28"/>
+      <c r="CU63" s="28"/>
+      <c r="CV63" s="28"/>
     </row>
     <row r="64" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="CP64" s="28"/>
+      <c r="CQ64" s="28"/>
+      <c r="CR64" s="28"/>
+      <c r="CS64" s="28"/>
+      <c r="CT64" s="28"/>
+      <c r="CU64" s="28"/>
+      <c r="CV64" s="28"/>
     </row>
-    <row r="65" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP65" s="28"/>
+      <c r="CQ65" s="28"/>
+      <c r="CR65" s="28"/>
+      <c r="CS65" s="28"/>
+      <c r="CT65" s="28"/>
+      <c r="CU65" s="28"/>
+      <c r="CV65" s="28"/>
+    </row>
     <row r="66" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
-      <c r="B66" s="28" t="s">
+      <c r="B66" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="28" t="s">
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="30"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="28" t="s">
+      <c r="G66" s="44"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="30"/>
-      <c r="L66" s="30"/>
-      <c r="M66" s="30"/>
-      <c r="N66" s="28" t="s">
+      <c r="K66" s="44"/>
+      <c r="L66" s="44"/>
+      <c r="M66" s="44"/>
+      <c r="N66" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="30"/>
-      <c r="P66" s="30"/>
-      <c r="Q66" s="30"/>
-      <c r="R66" s="28" t="s">
+      <c r="O66" s="44"/>
+      <c r="P66" s="44"/>
+      <c r="Q66" s="44"/>
+      <c r="R66" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="30"/>
-      <c r="T66" s="30"/>
-      <c r="U66" s="30"/>
-      <c r="V66" s="28" t="s">
+      <c r="S66" s="44"/>
+      <c r="T66" s="44"/>
+      <c r="U66" s="44"/>
+      <c r="V66" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="30"/>
-      <c r="X66" s="30"/>
-      <c r="Y66" s="30"/>
-      <c r="Z66" s="28" t="s">
+      <c r="W66" s="44"/>
+      <c r="X66" s="44"/>
+      <c r="Y66" s="44"/>
+      <c r="Z66" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="30"/>
-      <c r="AB66" s="30"/>
-      <c r="AC66" s="30"/>
-      <c r="AD66" s="28" t="s">
+      <c r="AA66" s="44"/>
+      <c r="AB66" s="44"/>
+      <c r="AC66" s="44"/>
+      <c r="AD66" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="30"/>
-      <c r="AF66" s="30"/>
-      <c r="AG66" s="30"/>
-      <c r="AH66" s="28" t="s">
+      <c r="AE66" s="44"/>
+      <c r="AF66" s="44"/>
+      <c r="AG66" s="44"/>
+      <c r="AH66" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="30"/>
-      <c r="AJ66" s="30"/>
-      <c r="AK66" s="30"/>
-      <c r="AL66" s="28" t="s">
+      <c r="AI66" s="44"/>
+      <c r="AJ66" s="44"/>
+      <c r="AK66" s="44"/>
+      <c r="AL66" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="30"/>
-      <c r="AN66" s="30"/>
-      <c r="AO66" s="30"/>
-      <c r="AP66" s="28" t="s">
+      <c r="AM66" s="44"/>
+      <c r="AN66" s="44"/>
+      <c r="AO66" s="44"/>
+      <c r="AP66" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="30"/>
-      <c r="AR66" s="30"/>
-      <c r="AS66" s="30"/>
-      <c r="AT66" s="28" t="s">
+      <c r="AQ66" s="44"/>
+      <c r="AR66" s="44"/>
+      <c r="AS66" s="44"/>
+      <c r="AT66" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="30"/>
-      <c r="AV66" s="30"/>
-      <c r="AW66" s="30"/>
-      <c r="AX66" s="28" t="s">
+      <c r="AU66" s="44"/>
+      <c r="AV66" s="44"/>
+      <c r="AW66" s="44"/>
+      <c r="AX66" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="30"/>
-      <c r="AZ66" s="30"/>
-      <c r="BA66" s="30"/>
-      <c r="BB66" s="28" t="s">
+      <c r="AY66" s="44"/>
+      <c r="AZ66" s="44"/>
+      <c r="BA66" s="44"/>
+      <c r="BB66" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="30"/>
-      <c r="BD66" s="30"/>
-      <c r="BE66" s="30"/>
-      <c r="BF66" s="28" t="s">
+      <c r="BC66" s="44"/>
+      <c r="BD66" s="44"/>
+      <c r="BE66" s="44"/>
+      <c r="BF66" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="30"/>
-      <c r="BH66" s="30"/>
-      <c r="BI66" s="30"/>
-      <c r="BJ66" s="28" t="s">
+      <c r="BG66" s="44"/>
+      <c r="BH66" s="44"/>
+      <c r="BI66" s="44"/>
+      <c r="BJ66" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="30"/>
-      <c r="BL66" s="30"/>
-      <c r="BM66" s="30"/>
-      <c r="BN66" s="28" t="s">
+      <c r="BK66" s="44"/>
+      <c r="BL66" s="44"/>
+      <c r="BM66" s="44"/>
+      <c r="BN66" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="30"/>
-      <c r="BP66" s="30"/>
-      <c r="BQ66" s="30"/>
-      <c r="BR66" s="28" t="s">
+      <c r="BO66" s="44"/>
+      <c r="BP66" s="44"/>
+      <c r="BQ66" s="44"/>
+      <c r="BR66" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="BS66" s="30"/>
-      <c r="BT66" s="30"/>
-      <c r="BU66" s="30"/>
-      <c r="BV66" s="28" t="s">
+      <c r="BS66" s="44"/>
+      <c r="BT66" s="44"/>
+      <c r="BU66" s="44"/>
+      <c r="BV66" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="BW66" s="30"/>
-      <c r="BX66" s="30"/>
-      <c r="BY66" s="30"/>
-      <c r="BZ66" s="28" t="s">
+      <c r="BW66" s="44"/>
+      <c r="BX66" s="44"/>
+      <c r="BY66" s="44"/>
+      <c r="BZ66" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="CA66" s="30"/>
-      <c r="CB66" s="30"/>
-      <c r="CC66" s="30"/>
-      <c r="CD66" s="28" t="s">
+      <c r="CA66" s="44"/>
+      <c r="CB66" s="44"/>
+      <c r="CC66" s="44"/>
+      <c r="CD66" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="28"/>
-      <c r="CF66" s="28"/>
-      <c r="CG66" s="28"/>
+      <c r="CE66" s="42"/>
+      <c r="CF66" s="42"/>
+      <c r="CG66" s="42"/>
       <c r="CH66" s="26" t="s">
         <v>47</v>
       </c>
@@ -30538,14 +30843,15 @@
       <c r="CM66" s="26"/>
       <c r="CN66" s="26"/>
       <c r="CO66" s="26"/>
-      <c r="CP66" s="26" t="s">
+      <c r="CP66" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="CQ66" s="26"/>
-      <c r="CR66" s="27"/>
+      <c r="CQ66" s="30"/>
+      <c r="CR66" s="30"/>
       <c r="CS66" s="27"/>
-      <c r="CT66" s="26"/>
-      <c r="CU66" s="27"/>
+      <c r="CT66" s="30"/>
+      <c r="CU66" s="30"/>
+      <c r="CV66" s="27"/>
     </row>
     <row r="67" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
@@ -30827,19 +31133,29 @@
       <c r="CO67" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP67" s="6" t="s">
+      <c r="CP67" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="CQ67" s="6" t="s">
+      <c r="CQ67" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="CR67" s="6"/>
-      <c r="CS67" s="6"/>
-      <c r="CT67" s="6"/>
-      <c r="CU67" s="6"/>
+      <c r="CR67" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="CS67" s="38"/>
+      <c r="CT67" s="38"/>
+      <c r="CU67" s="38"/>
+      <c r="CV67" s="38"/>
     </row>
     <row r="68" spans="1:151" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
+      <c r="CP68" s="28"/>
+      <c r="CQ68" s="28"/>
+      <c r="CR68" s="28"/>
+      <c r="CS68" s="28"/>
+      <c r="CT68" s="28"/>
+      <c r="CU68" s="28"/>
+      <c r="CV68" s="28"/>
     </row>
     <row r="69" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
@@ -31121,17 +31437,19 @@
       <c r="CO69" s="18">
         <v>5.9283425751407179</v>
       </c>
-      <c r="CP69" s="18">
+      <c r="CP69" s="39">
         <v>-1.1017866094688458</v>
       </c>
-      <c r="CQ69" s="18">
-        <v>3.8553497750484667</v>
-      </c>
-      <c r="CR69" s="18"/>
-      <c r="CS69" s="18"/>
-      <c r="CT69" s="18"/>
-      <c r="CU69" s="18"/>
-      <c r="CV69" s="10"/>
+      <c r="CQ69" s="39">
+        <v>1.749765912778841</v>
+      </c>
+      <c r="CR69" s="39">
+        <v>-1.7719599558066363</v>
+      </c>
+      <c r="CS69" s="39"/>
+      <c r="CT69" s="39"/>
+      <c r="CU69" s="39"/>
+      <c r="CV69" s="39"/>
       <c r="CW69" s="10"/>
       <c r="CX69" s="10"/>
       <c r="CY69" s="10"/>
@@ -31464,17 +31782,19 @@
       <c r="CO70" s="18">
         <v>4.9254935371039892</v>
       </c>
-      <c r="CP70" s="18">
+      <c r="CP70" s="39">
         <v>4.6364394149004369</v>
       </c>
-      <c r="CQ70" s="18">
-        <v>7.052818848274427</v>
-      </c>
-      <c r="CR70" s="18"/>
-      <c r="CS70" s="18"/>
-      <c r="CT70" s="18"/>
-      <c r="CU70" s="18"/>
-      <c r="CV70" s="10"/>
+      <c r="CQ70" s="39">
+        <v>7.0960919785388228</v>
+      </c>
+      <c r="CR70" s="39">
+        <v>4.7723147879968479</v>
+      </c>
+      <c r="CS70" s="39"/>
+      <c r="CT70" s="39"/>
+      <c r="CU70" s="39"/>
+      <c r="CV70" s="39"/>
       <c r="CW70" s="10"/>
       <c r="CX70" s="10"/>
       <c r="CY70" s="10"/>
@@ -31620,13 +31940,13 @@
       <c r="CM71" s="19"/>
       <c r="CN71" s="19"/>
       <c r="CO71" s="19"/>
-      <c r="CP71" s="19"/>
-      <c r="CQ71" s="19"/>
-      <c r="CR71" s="19"/>
-      <c r="CS71" s="19"/>
-      <c r="CT71" s="19"/>
-      <c r="CU71" s="19"/>
-      <c r="CV71" s="10"/>
+      <c r="CP71" s="40"/>
+      <c r="CQ71" s="40"/>
+      <c r="CR71" s="40"/>
+      <c r="CS71" s="40"/>
+      <c r="CT71" s="40"/>
+      <c r="CU71" s="40"/>
+      <c r="CV71" s="40"/>
       <c r="CW71" s="10"/>
       <c r="CX71" s="10"/>
       <c r="CY71" s="10"/>
@@ -31959,17 +32279,19 @@
       <c r="CO72" s="18">
         <v>4.9962970681698806</v>
       </c>
-      <c r="CP72" s="18">
+      <c r="CP72" s="39">
         <v>4.2153896441463985</v>
       </c>
-      <c r="CQ72" s="18">
-        <v>6.7807541217672025</v>
-      </c>
-      <c r="CR72" s="18"/>
-      <c r="CS72" s="18"/>
-      <c r="CT72" s="18"/>
-      <c r="CU72" s="18"/>
-      <c r="CV72" s="10"/>
+      <c r="CQ72" s="39">
+        <v>6.6411863311069084</v>
+      </c>
+      <c r="CR72" s="39">
+        <v>4.3032568646725053</v>
+      </c>
+      <c r="CS72" s="39"/>
+      <c r="CT72" s="39"/>
+      <c r="CU72" s="39"/>
+      <c r="CV72" s="39"/>
       <c r="CW72" s="10"/>
       <c r="CX72" s="10"/>
       <c r="CY72" s="10"/>
@@ -32116,17 +32438,25 @@
       <c r="CM73" s="16"/>
       <c r="CN73" s="16"/>
       <c r="CO73" s="16"/>
-      <c r="CP73" s="16"/>
-      <c r="CQ73" s="16"/>
-      <c r="CR73" s="16"/>
-      <c r="CS73" s="16"/>
-      <c r="CT73" s="16"/>
-      <c r="CU73" s="16"/>
+      <c r="CP73" s="36"/>
+      <c r="CQ73" s="36"/>
+      <c r="CR73" s="36"/>
+      <c r="CS73" s="36"/>
+      <c r="CT73" s="36"/>
+      <c r="CU73" s="36"/>
+      <c r="CV73" s="36"/>
     </row>
     <row r="74" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="CP74" s="28"/>
+      <c r="CQ74" s="28"/>
+      <c r="CR74" s="28"/>
+      <c r="CS74" s="28"/>
+      <c r="CT74" s="28"/>
+      <c r="CU74" s="28"/>
+      <c r="CV74" s="28"/>
     </row>
     <row r="75" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="10"/>
@@ -32221,13 +32551,13 @@
       <c r="CM75" s="10"/>
       <c r="CN75" s="10"/>
       <c r="CO75" s="10"/>
-      <c r="CP75" s="10"/>
-      <c r="CQ75" s="10"/>
-      <c r="CR75" s="10"/>
-      <c r="CS75" s="10"/>
-      <c r="CT75" s="10"/>
-      <c r="CU75" s="10"/>
-      <c r="CV75" s="10"/>
+      <c r="CP75" s="37"/>
+      <c r="CQ75" s="37"/>
+      <c r="CR75" s="37"/>
+      <c r="CS75" s="37"/>
+      <c r="CT75" s="37"/>
+      <c r="CU75" s="37"/>
+      <c r="CV75" s="37"/>
       <c r="CW75" s="10"/>
       <c r="CX75" s="10"/>
       <c r="CY75" s="10"/>
@@ -32373,13 +32703,13 @@
       <c r="CM76" s="10"/>
       <c r="CN76" s="10"/>
       <c r="CO76" s="10"/>
-      <c r="CP76" s="10"/>
-      <c r="CQ76" s="10"/>
-      <c r="CR76" s="10"/>
-      <c r="CS76" s="10"/>
-      <c r="CT76" s="10"/>
-      <c r="CU76" s="10"/>
-      <c r="CV76" s="10"/>
+      <c r="CP76" s="37"/>
+      <c r="CQ76" s="37"/>
+      <c r="CR76" s="37"/>
+      <c r="CS76" s="37"/>
+      <c r="CT76" s="37"/>
+      <c r="CU76" s="37"/>
+      <c r="CV76" s="37"/>
       <c r="CW76" s="10"/>
       <c r="CX76" s="10"/>
       <c r="CY76" s="10"/>
@@ -32436,157 +32766,208 @@
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CP77" s="28"/>
+      <c r="CQ77" s="28"/>
+      <c r="CR77" s="28"/>
+      <c r="CS77" s="28"/>
+      <c r="CT77" s="28"/>
+      <c r="CU77" s="28"/>
+      <c r="CV77" s="28"/>
     </row>
     <row r="78" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="CP78" s="28"/>
+      <c r="CQ78" s="28"/>
+      <c r="CR78" s="28"/>
+      <c r="CS78" s="28"/>
+      <c r="CT78" s="28"/>
+      <c r="CU78" s="28"/>
+      <c r="CV78" s="28"/>
     </row>
-    <row r="79" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP79" s="28"/>
+      <c r="CQ79" s="28"/>
+      <c r="CR79" s="28"/>
+      <c r="CS79" s="28"/>
+      <c r="CT79" s="28"/>
+      <c r="CU79" s="28"/>
+      <c r="CV79" s="28"/>
+    </row>
     <row r="80" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="CP80" s="28"/>
+      <c r="CQ80" s="28"/>
+      <c r="CR80" s="28"/>
+      <c r="CS80" s="28"/>
+      <c r="CT80" s="28"/>
+      <c r="CU80" s="28"/>
+      <c r="CV80" s="28"/>
     </row>
     <row r="81" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="CP81" s="28"/>
+      <c r="CQ81" s="28"/>
+      <c r="CR81" s="28"/>
+      <c r="CS81" s="28"/>
+      <c r="CT81" s="28"/>
+      <c r="CU81" s="28"/>
+      <c r="CV81" s="28"/>
     </row>
     <row r="82" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="CP82" s="28"/>
+      <c r="CQ82" s="28"/>
+      <c r="CR82" s="28"/>
+      <c r="CS82" s="28"/>
+      <c r="CT82" s="28"/>
+      <c r="CU82" s="28"/>
+      <c r="CV82" s="28"/>
     </row>
-    <row r="83" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP83" s="28"/>
+      <c r="CQ83" s="28"/>
+      <c r="CR83" s="28"/>
+      <c r="CS83" s="28"/>
+      <c r="CT83" s="28"/>
+      <c r="CU83" s="28"/>
+      <c r="CV83" s="28"/>
+    </row>
     <row r="84" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
-      <c r="B84" s="28">
+      <c r="B84" s="42">
         <v>2000</v>
       </c>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="28">
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="42">
         <v>2001</v>
       </c>
-      <c r="G84" s="29"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="29"/>
-      <c r="J84" s="28">
+      <c r="G84" s="43"/>
+      <c r="H84" s="43"/>
+      <c r="I84" s="43"/>
+      <c r="J84" s="42">
         <v>2002</v>
       </c>
-      <c r="K84" s="29"/>
-      <c r="L84" s="29"/>
-      <c r="M84" s="29"/>
-      <c r="N84" s="28">
+      <c r="K84" s="43"/>
+      <c r="L84" s="43"/>
+      <c r="M84" s="43"/>
+      <c r="N84" s="42">
         <v>2003</v>
       </c>
-      <c r="O84" s="29"/>
-      <c r="P84" s="29"/>
-      <c r="Q84" s="29"/>
-      <c r="R84" s="28">
+      <c r="O84" s="43"/>
+      <c r="P84" s="43"/>
+      <c r="Q84" s="43"/>
+      <c r="R84" s="42">
         <v>2004</v>
       </c>
-      <c r="S84" s="29"/>
-      <c r="T84" s="29"/>
-      <c r="U84" s="29"/>
-      <c r="V84" s="28">
+      <c r="S84" s="43"/>
+      <c r="T84" s="43"/>
+      <c r="U84" s="43"/>
+      <c r="V84" s="42">
         <v>2005</v>
       </c>
-      <c r="W84" s="29"/>
-      <c r="X84" s="29"/>
-      <c r="Y84" s="29"/>
-      <c r="Z84" s="28">
+      <c r="W84" s="43"/>
+      <c r="X84" s="43"/>
+      <c r="Y84" s="43"/>
+      <c r="Z84" s="42">
         <v>2006</v>
       </c>
-      <c r="AA84" s="29"/>
-      <c r="AB84" s="29"/>
-      <c r="AC84" s="29"/>
-      <c r="AD84" s="28">
+      <c r="AA84" s="43"/>
+      <c r="AB84" s="43"/>
+      <c r="AC84" s="43"/>
+      <c r="AD84" s="42">
         <v>2007</v>
       </c>
-      <c r="AE84" s="29"/>
-      <c r="AF84" s="29"/>
-      <c r="AG84" s="29"/>
-      <c r="AH84" s="28">
+      <c r="AE84" s="43"/>
+      <c r="AF84" s="43"/>
+      <c r="AG84" s="43"/>
+      <c r="AH84" s="42">
         <v>2008</v>
       </c>
-      <c r="AI84" s="29"/>
-      <c r="AJ84" s="29"/>
-      <c r="AK84" s="29"/>
-      <c r="AL84" s="28">
+      <c r="AI84" s="43"/>
+      <c r="AJ84" s="43"/>
+      <c r="AK84" s="43"/>
+      <c r="AL84" s="42">
         <v>2009</v>
       </c>
-      <c r="AM84" s="29"/>
-      <c r="AN84" s="29"/>
-      <c r="AO84" s="29"/>
-      <c r="AP84" s="28">
+      <c r="AM84" s="43"/>
+      <c r="AN84" s="43"/>
+      <c r="AO84" s="43"/>
+      <c r="AP84" s="42">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="29"/>
-      <c r="AR84" s="29"/>
-      <c r="AS84" s="29"/>
-      <c r="AT84" s="28">
+      <c r="AQ84" s="43"/>
+      <c r="AR84" s="43"/>
+      <c r="AS84" s="43"/>
+      <c r="AT84" s="42">
         <v>2011</v>
       </c>
-      <c r="AU84" s="29"/>
-      <c r="AV84" s="29"/>
-      <c r="AW84" s="29"/>
-      <c r="AX84" s="28">
+      <c r="AU84" s="43"/>
+      <c r="AV84" s="43"/>
+      <c r="AW84" s="43"/>
+      <c r="AX84" s="42">
         <v>2012</v>
       </c>
-      <c r="AY84" s="29"/>
-      <c r="AZ84" s="29"/>
-      <c r="BA84" s="29"/>
-      <c r="BB84" s="28">
+      <c r="AY84" s="43"/>
+      <c r="AZ84" s="43"/>
+      <c r="BA84" s="43"/>
+      <c r="BB84" s="42">
         <v>2013</v>
       </c>
-      <c r="BC84" s="29"/>
-      <c r="BD84" s="29"/>
-      <c r="BE84" s="29"/>
-      <c r="BF84" s="28">
+      <c r="BC84" s="43"/>
+      <c r="BD84" s="43"/>
+      <c r="BE84" s="43"/>
+      <c r="BF84" s="42">
         <v>2014</v>
       </c>
-      <c r="BG84" s="29"/>
-      <c r="BH84" s="29"/>
-      <c r="BI84" s="29"/>
-      <c r="BJ84" s="28">
+      <c r="BG84" s="43"/>
+      <c r="BH84" s="43"/>
+      <c r="BI84" s="43"/>
+      <c r="BJ84" s="42">
         <v>2015</v>
       </c>
-      <c r="BK84" s="29"/>
-      <c r="BL84" s="29"/>
-      <c r="BM84" s="29"/>
-      <c r="BN84" s="28">
+      <c r="BK84" s="43"/>
+      <c r="BL84" s="43"/>
+      <c r="BM84" s="43"/>
+      <c r="BN84" s="42">
         <v>2016</v>
       </c>
-      <c r="BO84" s="29"/>
-      <c r="BP84" s="29"/>
-      <c r="BQ84" s="29"/>
-      <c r="BR84" s="28">
+      <c r="BO84" s="43"/>
+      <c r="BP84" s="43"/>
+      <c r="BQ84" s="43"/>
+      <c r="BR84" s="42">
         <v>2017</v>
       </c>
-      <c r="BS84" s="29"/>
-      <c r="BT84" s="29"/>
-      <c r="BU84" s="29"/>
-      <c r="BV84" s="28">
+      <c r="BS84" s="43"/>
+      <c r="BT84" s="43"/>
+      <c r="BU84" s="43"/>
+      <c r="BV84" s="42">
         <v>2018</v>
       </c>
-      <c r="BW84" s="29"/>
-      <c r="BX84" s="29"/>
-      <c r="BY84" s="29"/>
-      <c r="BZ84" s="28">
+      <c r="BW84" s="43"/>
+      <c r="BX84" s="43"/>
+      <c r="BY84" s="43"/>
+      <c r="BZ84" s="42">
         <v>2019</v>
       </c>
-      <c r="CA84" s="29"/>
-      <c r="CB84" s="29"/>
-      <c r="CC84" s="29"/>
-      <c r="CD84" s="28">
+      <c r="CA84" s="43"/>
+      <c r="CB84" s="43"/>
+      <c r="CC84" s="43"/>
+      <c r="CD84" s="42">
         <v>2020</v>
       </c>
-      <c r="CE84" s="28"/>
-      <c r="CF84" s="28"/>
-      <c r="CG84" s="28"/>
+      <c r="CE84" s="42"/>
+      <c r="CF84" s="42"/>
+      <c r="CG84" s="42"/>
       <c r="CH84" s="26">
         <v>2021</v>
       </c>
@@ -32599,16 +32980,17 @@
       <c r="CM84" s="26"/>
       <c r="CN84" s="26"/>
       <c r="CO84" s="26"/>
-      <c r="CP84" s="26">
+      <c r="CP84" s="30">
         <v>2023</v>
       </c>
-      <c r="CQ84" s="26"/>
-      <c r="CR84" s="26"/>
-      <c r="CS84" s="26"/>
-      <c r="CT84" s="26">
+      <c r="CQ84" s="30"/>
+      <c r="CR84" s="30"/>
+      <c r="CS84" s="30"/>
+      <c r="CT84" s="30">
         <v>2024</v>
       </c>
-      <c r="CU84" s="26"/>
+      <c r="CU84" s="30"/>
+      <c r="CV84" s="30"/>
     </row>
     <row r="85" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
@@ -32890,27 +33272,37 @@
       <c r="CO85" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP85" s="7" t="s">
+      <c r="CP85" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CQ85" s="7" t="s">
+      <c r="CQ85" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="CR85" s="7" t="s">
+      <c r="CR85" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="CS85" s="7" t="s">
+      <c r="CS85" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="CT85" s="7" t="s">
+      <c r="CT85" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CU85" s="7" t="s">
+      <c r="CU85" s="31" t="s">
         <v>8</v>
+      </c>
+      <c r="CV85" s="31" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
+      <c r="CP86" s="28"/>
+      <c r="CQ86" s="28"/>
+      <c r="CR86" s="28"/>
+      <c r="CS86" s="28"/>
+      <c r="CT86" s="28"/>
+      <c r="CU86" s="28"/>
+      <c r="CV86" s="28"/>
     </row>
     <row r="87" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
@@ -33192,25 +33584,27 @@
       <c r="CO87" s="18">
         <v>111.24523564311536</v>
       </c>
-      <c r="CP87" s="18">
+      <c r="CP87" s="39">
         <v>110.5271649335433</v>
       </c>
-      <c r="CQ87" s="18">
+      <c r="CQ87" s="39">
         <v>101.74702001926659</v>
       </c>
-      <c r="CR87" s="18">
+      <c r="CR87" s="39">
         <v>116.00777557046965</v>
       </c>
-      <c r="CS87" s="18">
+      <c r="CS87" s="39">
         <v>116.93645579687588</v>
       </c>
-      <c r="CT87" s="18">
+      <c r="CT87" s="39">
         <v>112.83562748562788</v>
       </c>
-      <c r="CU87" s="18">
-        <v>104.06080265309876</v>
-      </c>
-      <c r="CV87" s="10"/>
+      <c r="CU87" s="39">
+        <v>103.7177005741778</v>
+      </c>
+      <c r="CV87" s="39">
+        <v>116.69565209086763</v>
+      </c>
       <c r="CW87" s="10"/>
       <c r="CX87" s="10"/>
       <c r="CY87" s="10"/>
@@ -33547,25 +33941,27 @@
       <c r="CO88" s="18">
         <v>100.84081379781638</v>
       </c>
-      <c r="CP88" s="18">
+      <c r="CP88" s="39">
         <v>99.633012218023012</v>
       </c>
-      <c r="CQ88" s="18">
+      <c r="CQ88" s="39">
         <v>99.075449962988003</v>
       </c>
-      <c r="CR88" s="18">
+      <c r="CR88" s="39">
         <v>105.37113994465066</v>
       </c>
-      <c r="CS88" s="18">
+      <c r="CS88" s="39">
         <v>101.46470681708</v>
       </c>
-      <c r="CT88" s="18">
+      <c r="CT88" s="39">
         <v>100.05354116569647</v>
       </c>
-      <c r="CU88" s="18">
-        <v>99.557803662905187</v>
-      </c>
-      <c r="CV88" s="10"/>
+      <c r="CU88" s="39">
+        <v>99.557803662905172</v>
+      </c>
+      <c r="CV88" s="39">
+        <v>105.84978886068737</v>
+      </c>
       <c r="CW88" s="10"/>
       <c r="CX88" s="10"/>
       <c r="CY88" s="10"/>
@@ -33715,13 +34111,13 @@
       <c r="CM89" s="19"/>
       <c r="CN89" s="19"/>
       <c r="CO89" s="19"/>
-      <c r="CP89" s="19"/>
-      <c r="CQ89" s="19"/>
-      <c r="CR89" s="19"/>
-      <c r="CS89" s="19"/>
-      <c r="CT89" s="19"/>
-      <c r="CU89" s="19"/>
-      <c r="CV89" s="10"/>
+      <c r="CP89" s="40"/>
+      <c r="CQ89" s="40"/>
+      <c r="CR89" s="40"/>
+      <c r="CS89" s="40"/>
+      <c r="CT89" s="40"/>
+      <c r="CU89" s="40"/>
+      <c r="CV89" s="40"/>
       <c r="CW89" s="10"/>
       <c r="CX89" s="10"/>
       <c r="CY89" s="10"/>
@@ -34058,25 +34454,27 @@
       <c r="CO90" s="18">
         <v>101.57539076544107</v>
       </c>
-      <c r="CP90" s="18">
+      <c r="CP90" s="39">
         <v>100.43238479134948</v>
       </c>
-      <c r="CQ90" s="18">
+      <c r="CQ90" s="39">
         <v>99.302767244269162</v>
       </c>
-      <c r="CR90" s="18">
+      <c r="CR90" s="39">
         <v>106.13351597761422</v>
       </c>
-      <c r="CS90" s="18">
+      <c r="CS90" s="39">
         <v>102.56674580576519</v>
       </c>
-      <c r="CT90" s="18">
+      <c r="CT90" s="39">
         <v>100.94359058260937</v>
       </c>
-      <c r="CU90" s="18">
-        <v>99.930455807355813</v>
-      </c>
-      <c r="CV90" s="10"/>
+      <c r="CU90" s="39">
+        <v>99.895523759939394</v>
+      </c>
+      <c r="CV90" s="39">
+        <v>106.58188258738861</v>
+      </c>
       <c r="CW90" s="10"/>
       <c r="CX90" s="10"/>
       <c r="CY90" s="10"/>
@@ -34227,178 +34625,244 @@
       <c r="CM91" s="16"/>
       <c r="CN91" s="16"/>
       <c r="CO91" s="16"/>
-      <c r="CP91" s="16"/>
-      <c r="CQ91" s="16"/>
-      <c r="CR91" s="16"/>
-      <c r="CS91" s="16"/>
-      <c r="CT91" s="16"/>
-      <c r="CU91" s="16"/>
+      <c r="CP91" s="36"/>
+      <c r="CQ91" s="36"/>
+      <c r="CR91" s="36"/>
+      <c r="CS91" s="36"/>
+      <c r="CT91" s="36"/>
+      <c r="CU91" s="36"/>
+      <c r="CV91" s="36"/>
     </row>
     <row r="92" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="CP92" s="28"/>
+      <c r="CQ92" s="28"/>
+      <c r="CR92" s="28"/>
+      <c r="CS92" s="28"/>
+      <c r="CT92" s="28"/>
+      <c r="CU92" s="28"/>
+      <c r="CV92" s="28"/>
     </row>
     <row r="95" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CP95" s="28"/>
+      <c r="CQ95" s="28"/>
+      <c r="CR95" s="28"/>
+      <c r="CS95" s="28"/>
+      <c r="CT95" s="28"/>
+      <c r="CU95" s="28"/>
+      <c r="CV95" s="28"/>
     </row>
     <row r="96" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CP96" s="28"/>
+      <c r="CQ96" s="28"/>
+      <c r="CR96" s="28"/>
+      <c r="CS96" s="28"/>
+      <c r="CT96" s="28"/>
+      <c r="CU96" s="28"/>
+      <c r="CV96" s="28"/>
     </row>
     <row r="97" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="CP97" s="28"/>
+      <c r="CQ97" s="28"/>
+      <c r="CR97" s="28"/>
+      <c r="CS97" s="28"/>
+      <c r="CT97" s="28"/>
+      <c r="CU97" s="28"/>
+      <c r="CV97" s="28"/>
     </row>
-    <row r="98" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP98" s="28"/>
+      <c r="CQ98" s="28"/>
+      <c r="CR98" s="28"/>
+      <c r="CS98" s="28"/>
+      <c r="CT98" s="28"/>
+      <c r="CU98" s="28"/>
+      <c r="CV98" s="28"/>
+    </row>
     <row r="99" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="CP99" s="28"/>
+      <c r="CQ99" s="28"/>
+      <c r="CR99" s="28"/>
+      <c r="CS99" s="28"/>
+      <c r="CT99" s="28"/>
+      <c r="CU99" s="28"/>
+      <c r="CV99" s="28"/>
     </row>
     <row r="100" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="CP100" s="28"/>
+      <c r="CQ100" s="28"/>
+      <c r="CR100" s="28"/>
+      <c r="CS100" s="28"/>
+      <c r="CT100" s="28"/>
+      <c r="CU100" s="28"/>
+      <c r="CV100" s="28"/>
     </row>
     <row r="101" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="CP101" s="28"/>
+      <c r="CQ101" s="28"/>
+      <c r="CR101" s="28"/>
+      <c r="CS101" s="28"/>
+      <c r="CT101" s="28"/>
+      <c r="CU101" s="28"/>
+      <c r="CV101" s="28"/>
     </row>
-    <row r="102" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP102" s="28"/>
+      <c r="CQ102" s="28"/>
+      <c r="CR102" s="28"/>
+      <c r="CS102" s="28"/>
+      <c r="CT102" s="28"/>
+      <c r="CU102" s="28"/>
+      <c r="CV102" s="28"/>
+    </row>
     <row r="103" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
-      <c r="B103" s="28">
+      <c r="B103" s="42">
         <v>2000</v>
       </c>
-      <c r="C103" s="29"/>
-      <c r="D103" s="29"/>
-      <c r="E103" s="29"/>
-      <c r="F103" s="28">
+      <c r="C103" s="43"/>
+      <c r="D103" s="43"/>
+      <c r="E103" s="43"/>
+      <c r="F103" s="42">
         <v>2001</v>
       </c>
-      <c r="G103" s="29"/>
-      <c r="H103" s="29"/>
-      <c r="I103" s="29"/>
-      <c r="J103" s="28">
+      <c r="G103" s="43"/>
+      <c r="H103" s="43"/>
+      <c r="I103" s="43"/>
+      <c r="J103" s="42">
         <v>2002</v>
       </c>
-      <c r="K103" s="29"/>
-      <c r="L103" s="29"/>
-      <c r="M103" s="29"/>
-      <c r="N103" s="28">
+      <c r="K103" s="43"/>
+      <c r="L103" s="43"/>
+      <c r="M103" s="43"/>
+      <c r="N103" s="42">
         <v>2003</v>
       </c>
-      <c r="O103" s="29"/>
-      <c r="P103" s="29"/>
-      <c r="Q103" s="29"/>
-      <c r="R103" s="28">
+      <c r="O103" s="43"/>
+      <c r="P103" s="43"/>
+      <c r="Q103" s="43"/>
+      <c r="R103" s="42">
         <v>2004</v>
       </c>
-      <c r="S103" s="29"/>
-      <c r="T103" s="29"/>
-      <c r="U103" s="29"/>
-      <c r="V103" s="28">
+      <c r="S103" s="43"/>
+      <c r="T103" s="43"/>
+      <c r="U103" s="43"/>
+      <c r="V103" s="42">
         <v>2005</v>
       </c>
-      <c r="W103" s="29"/>
-      <c r="X103" s="29"/>
-      <c r="Y103" s="29"/>
-      <c r="Z103" s="28">
+      <c r="W103" s="43"/>
+      <c r="X103" s="43"/>
+      <c r="Y103" s="43"/>
+      <c r="Z103" s="42">
         <v>2006</v>
       </c>
-      <c r="AA103" s="29"/>
-      <c r="AB103" s="29"/>
-      <c r="AC103" s="29"/>
-      <c r="AD103" s="28">
+      <c r="AA103" s="43"/>
+      <c r="AB103" s="43"/>
+      <c r="AC103" s="43"/>
+      <c r="AD103" s="42">
         <v>2007</v>
       </c>
-      <c r="AE103" s="29"/>
-      <c r="AF103" s="29"/>
-      <c r="AG103" s="29"/>
-      <c r="AH103" s="28">
+      <c r="AE103" s="43"/>
+      <c r="AF103" s="43"/>
+      <c r="AG103" s="43"/>
+      <c r="AH103" s="42">
         <v>2008</v>
       </c>
-      <c r="AI103" s="29"/>
-      <c r="AJ103" s="29"/>
-      <c r="AK103" s="29"/>
-      <c r="AL103" s="28">
+      <c r="AI103" s="43"/>
+      <c r="AJ103" s="43"/>
+      <c r="AK103" s="43"/>
+      <c r="AL103" s="42">
         <v>2009</v>
       </c>
-      <c r="AM103" s="29"/>
-      <c r="AN103" s="29"/>
-      <c r="AO103" s="29"/>
-      <c r="AP103" s="28">
+      <c r="AM103" s="43"/>
+      <c r="AN103" s="43"/>
+      <c r="AO103" s="43"/>
+      <c r="AP103" s="42">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="29"/>
-      <c r="AR103" s="29"/>
-      <c r="AS103" s="29"/>
-      <c r="AT103" s="28">
+      <c r="AQ103" s="43"/>
+      <c r="AR103" s="43"/>
+      <c r="AS103" s="43"/>
+      <c r="AT103" s="42">
         <v>2011</v>
       </c>
-      <c r="AU103" s="29"/>
-      <c r="AV103" s="29"/>
-      <c r="AW103" s="29"/>
-      <c r="AX103" s="28">
+      <c r="AU103" s="43"/>
+      <c r="AV103" s="43"/>
+      <c r="AW103" s="43"/>
+      <c r="AX103" s="42">
         <v>2012</v>
       </c>
-      <c r="AY103" s="29"/>
-      <c r="AZ103" s="29"/>
-      <c r="BA103" s="29"/>
-      <c r="BB103" s="28">
+      <c r="AY103" s="43"/>
+      <c r="AZ103" s="43"/>
+      <c r="BA103" s="43"/>
+      <c r="BB103" s="42">
         <v>2013</v>
       </c>
-      <c r="BC103" s="29"/>
-      <c r="BD103" s="29"/>
-      <c r="BE103" s="29"/>
-      <c r="BF103" s="28">
+      <c r="BC103" s="43"/>
+      <c r="BD103" s="43"/>
+      <c r="BE103" s="43"/>
+      <c r="BF103" s="42">
         <v>2014</v>
       </c>
-      <c r="BG103" s="29"/>
-      <c r="BH103" s="29"/>
-      <c r="BI103" s="29"/>
-      <c r="BJ103" s="28">
+      <c r="BG103" s="43"/>
+      <c r="BH103" s="43"/>
+      <c r="BI103" s="43"/>
+      <c r="BJ103" s="42">
         <v>2015</v>
       </c>
-      <c r="BK103" s="29"/>
-      <c r="BL103" s="29"/>
-      <c r="BM103" s="29"/>
-      <c r="BN103" s="28">
+      <c r="BK103" s="43"/>
+      <c r="BL103" s="43"/>
+      <c r="BM103" s="43"/>
+      <c r="BN103" s="42">
         <v>2016</v>
       </c>
-      <c r="BO103" s="29"/>
-      <c r="BP103" s="29"/>
-      <c r="BQ103" s="29"/>
-      <c r="BR103" s="28">
+      <c r="BO103" s="43"/>
+      <c r="BP103" s="43"/>
+      <c r="BQ103" s="43"/>
+      <c r="BR103" s="42">
         <v>2017</v>
       </c>
-      <c r="BS103" s="29"/>
-      <c r="BT103" s="29"/>
-      <c r="BU103" s="29"/>
-      <c r="BV103" s="28">
+      <c r="BS103" s="43"/>
+      <c r="BT103" s="43"/>
+      <c r="BU103" s="43"/>
+      <c r="BV103" s="42">
         <v>2018</v>
       </c>
-      <c r="BW103" s="29"/>
-      <c r="BX103" s="29"/>
-      <c r="BY103" s="29"/>
-      <c r="BZ103" s="28">
+      <c r="BW103" s="43"/>
+      <c r="BX103" s="43"/>
+      <c r="BY103" s="43"/>
+      <c r="BZ103" s="42">
         <v>2019</v>
       </c>
-      <c r="CA103" s="29"/>
-      <c r="CB103" s="29"/>
-      <c r="CC103" s="29"/>
-      <c r="CD103" s="28">
+      <c r="CA103" s="43"/>
+      <c r="CB103" s="43"/>
+      <c r="CC103" s="43"/>
+      <c r="CD103" s="42">
         <v>2020</v>
       </c>
-      <c r="CE103" s="28"/>
-      <c r="CF103" s="28"/>
-      <c r="CG103" s="28"/>
+      <c r="CE103" s="42"/>
+      <c r="CF103" s="42"/>
+      <c r="CG103" s="42"/>
       <c r="CH103" s="26">
         <v>2021</v>
       </c>
@@ -34411,16 +34875,17 @@
       <c r="CM103" s="26"/>
       <c r="CN103" s="26"/>
       <c r="CO103" s="26"/>
-      <c r="CP103" s="26">
+      <c r="CP103" s="30">
         <v>2023</v>
       </c>
-      <c r="CQ103" s="26"/>
-      <c r="CR103" s="26"/>
-      <c r="CS103" s="26"/>
-      <c r="CT103" s="26">
+      <c r="CQ103" s="30"/>
+      <c r="CR103" s="30"/>
+      <c r="CS103" s="30"/>
+      <c r="CT103" s="30">
         <v>2024</v>
       </c>
-      <c r="CU103" s="26"/>
+      <c r="CU103" s="30"/>
+      <c r="CV103" s="30"/>
     </row>
     <row r="104" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
@@ -34702,27 +35167,37 @@
       <c r="CO104" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP104" s="7" t="s">
+      <c r="CP104" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CQ104" s="7" t="s">
+      <c r="CQ104" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="CR104" s="7" t="s">
+      <c r="CR104" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="CS104" s="7" t="s">
+      <c r="CS104" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="CT104" s="7" t="s">
+      <c r="CT104" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CU104" s="7" t="s">
+      <c r="CU104" s="31" t="s">
         <v>8</v>
+      </c>
+      <c r="CV104" s="31" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
+      <c r="CP105" s="28"/>
+      <c r="CQ105" s="28"/>
+      <c r="CR105" s="28"/>
+      <c r="CS105" s="28"/>
+      <c r="CT105" s="28"/>
+      <c r="CU105" s="28"/>
+      <c r="CV105" s="28"/>
     </row>
     <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
@@ -35004,25 +35479,27 @@
       <c r="CO106" s="18">
         <v>7.7323637004002075</v>
       </c>
-      <c r="CP106" s="18">
+      <c r="CP106" s="39">
         <v>8.0751582041399317</v>
       </c>
-      <c r="CQ106" s="18">
+      <c r="CQ106" s="39">
         <v>8.7181880707484023</v>
       </c>
-      <c r="CR106" s="18">
+      <c r="CR106" s="39">
         <v>7.8342874145234509</v>
       </c>
-      <c r="CS106" s="18">
+      <c r="CS106" s="39">
         <v>8.1208389741072065</v>
       </c>
-      <c r="CT106" s="18">
+      <c r="CT106" s="39">
         <v>7.7835886065947477</v>
       </c>
-      <c r="CU106" s="18">
-        <v>8.6176941847000492</v>
-      </c>
-      <c r="CV106" s="10"/>
+      <c r="CU106" s="39">
+        <v>8.4290996610587214</v>
+      </c>
+      <c r="CV106" s="39">
+        <v>7.3905004877343581</v>
+      </c>
       <c r="CW106" s="10"/>
       <c r="CX106" s="10"/>
       <c r="CY106" s="10"/>
@@ -35359,25 +35836,27 @@
       <c r="CO107" s="18">
         <v>92.267636299599786</v>
       </c>
-      <c r="CP107" s="18">
+      <c r="CP107" s="39">
         <v>91.924841795860061</v>
       </c>
-      <c r="CQ107" s="18">
+      <c r="CQ107" s="39">
         <v>91.281811929251603</v>
       </c>
-      <c r="CR107" s="18">
+      <c r="CR107" s="39">
         <v>92.165712585476555</v>
       </c>
-      <c r="CS107" s="18">
+      <c r="CS107" s="39">
         <v>91.879161025892799</v>
       </c>
-      <c r="CT107" s="18">
+      <c r="CT107" s="39">
         <v>92.216411393405266</v>
       </c>
-      <c r="CU107" s="18">
-        <v>91.382305815299958</v>
-      </c>
-      <c r="CV107" s="10"/>
+      <c r="CU107" s="39">
+        <v>91.570900338941271</v>
+      </c>
+      <c r="CV107" s="39">
+        <v>92.609499512265643</v>
+      </c>
       <c r="CW107" s="10"/>
       <c r="CX107" s="10"/>
       <c r="CY107" s="10"/>
@@ -35527,13 +36006,13 @@
       <c r="CM108" s="19"/>
       <c r="CN108" s="19"/>
       <c r="CO108" s="19"/>
-      <c r="CP108" s="19"/>
-      <c r="CQ108" s="19"/>
-      <c r="CR108" s="19"/>
-      <c r="CS108" s="19"/>
-      <c r="CT108" s="19"/>
-      <c r="CU108" s="19"/>
-      <c r="CV108" s="10"/>
+      <c r="CP108" s="40"/>
+      <c r="CQ108" s="40"/>
+      <c r="CR108" s="40"/>
+      <c r="CS108" s="40"/>
+      <c r="CT108" s="40"/>
+      <c r="CU108" s="40"/>
+      <c r="CV108" s="40"/>
       <c r="CW108" s="10"/>
       <c r="CX108" s="10"/>
       <c r="CY108" s="10"/>
@@ -35870,25 +36349,27 @@
       <c r="CO109" s="18">
         <v>100</v>
       </c>
-      <c r="CP109" s="18">
+      <c r="CP109" s="39">
         <v>100</v>
       </c>
-      <c r="CQ109" s="18">
+      <c r="CQ109" s="39">
         <v>100</v>
       </c>
-      <c r="CR109" s="18">
+      <c r="CR109" s="39">
         <v>100</v>
       </c>
-      <c r="CS109" s="18">
+      <c r="CS109" s="39">
         <v>100</v>
       </c>
-      <c r="CT109" s="18">
+      <c r="CT109" s="39">
         <v>100</v>
       </c>
-      <c r="CU109" s="18">
+      <c r="CU109" s="39">
         <v>100</v>
       </c>
-      <c r="CV109" s="10"/>
+      <c r="CV109" s="39">
+        <v>100</v>
+      </c>
       <c r="CW109" s="10"/>
       <c r="CX109" s="10"/>
       <c r="CY109" s="10"/>
@@ -36039,17 +36520,25 @@
       <c r="CM110" s="16"/>
       <c r="CN110" s="16"/>
       <c r="CO110" s="16"/>
-      <c r="CP110" s="16"/>
-      <c r="CQ110" s="16"/>
-      <c r="CR110" s="16"/>
-      <c r="CS110" s="16"/>
-      <c r="CT110" s="16"/>
-      <c r="CU110" s="16"/>
+      <c r="CP110" s="36"/>
+      <c r="CQ110" s="36"/>
+      <c r="CR110" s="36"/>
+      <c r="CS110" s="36"/>
+      <c r="CT110" s="36"/>
+      <c r="CU110" s="36"/>
+      <c r="CV110" s="36"/>
     </row>
     <row r="111" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="CP111" s="28"/>
+      <c r="CQ111" s="28"/>
+      <c r="CR111" s="28"/>
+      <c r="CS111" s="28"/>
+      <c r="CT111" s="28"/>
+      <c r="CU111" s="28"/>
+      <c r="CV111" s="28"/>
     </row>
     <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="10"/>
@@ -36144,13 +36633,13 @@
       <c r="CM112" s="10"/>
       <c r="CN112" s="10"/>
       <c r="CO112" s="10"/>
-      <c r="CP112" s="10"/>
-      <c r="CQ112" s="10"/>
-      <c r="CR112" s="10"/>
-      <c r="CS112" s="10"/>
-      <c r="CT112" s="10"/>
-      <c r="CU112" s="10"/>
-      <c r="CV112" s="10"/>
+      <c r="CP112" s="37"/>
+      <c r="CQ112" s="37"/>
+      <c r="CR112" s="37"/>
+      <c r="CS112" s="37"/>
+      <c r="CT112" s="37"/>
+      <c r="CU112" s="37"/>
+      <c r="CV112" s="37"/>
       <c r="CW112" s="10"/>
       <c r="CX112" s="10"/>
       <c r="CY112" s="10"/>
@@ -36300,13 +36789,13 @@
       <c r="CM113" s="10"/>
       <c r="CN113" s="10"/>
       <c r="CO113" s="10"/>
-      <c r="CP113" s="10"/>
-      <c r="CQ113" s="10"/>
-      <c r="CR113" s="10"/>
-      <c r="CS113" s="10"/>
-      <c r="CT113" s="10"/>
-      <c r="CU113" s="10"/>
-      <c r="CV113" s="10"/>
+      <c r="CP113" s="37"/>
+      <c r="CQ113" s="37"/>
+      <c r="CR113" s="37"/>
+      <c r="CS113" s="37"/>
+      <c r="CT113" s="37"/>
+      <c r="CU113" s="37"/>
+      <c r="CV113" s="37"/>
       <c r="CW113" s="10"/>
       <c r="CX113" s="10"/>
       <c r="CY113" s="10"/>
@@ -36367,162 +36856,220 @@
       <c r="A114" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CP114" s="28"/>
+      <c r="CQ114" s="28"/>
+      <c r="CR114" s="28"/>
+      <c r="CS114" s="28"/>
+      <c r="CT114" s="28"/>
+      <c r="CU114" s="28"/>
+      <c r="CV114" s="28"/>
     </row>
     <row r="115" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CP115" s="28"/>
+      <c r="CQ115" s="28"/>
+      <c r="CR115" s="28"/>
+      <c r="CS115" s="28"/>
+      <c r="CT115" s="28"/>
+      <c r="CU115" s="28"/>
+      <c r="CV115" s="28"/>
     </row>
     <row r="116" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="CP116" s="28"/>
+      <c r="CQ116" s="28"/>
+      <c r="CR116" s="28"/>
+      <c r="CS116" s="28"/>
+      <c r="CT116" s="28"/>
+      <c r="CU116" s="28"/>
+      <c r="CV116" s="28"/>
     </row>
-    <row r="117" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP117" s="28"/>
+      <c r="CQ117" s="28"/>
+      <c r="CR117" s="28"/>
+      <c r="CS117" s="28"/>
+      <c r="CT117" s="28"/>
+      <c r="CU117" s="28"/>
+      <c r="CV117" s="28"/>
+    </row>
     <row r="118" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="CP118" s="28"/>
+      <c r="CQ118" s="28"/>
+      <c r="CR118" s="28"/>
+      <c r="CS118" s="28"/>
+      <c r="CT118" s="28"/>
+      <c r="CU118" s="28"/>
+      <c r="CV118" s="28"/>
     </row>
     <row r="119" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="CP119" s="28"/>
+      <c r="CQ119" s="28"/>
+      <c r="CR119" s="28"/>
+      <c r="CS119" s="28"/>
+      <c r="CT119" s="28"/>
+      <c r="CU119" s="28"/>
+      <c r="CV119" s="28"/>
     </row>
     <row r="120" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="CP120" s="28"/>
+      <c r="CQ120" s="28"/>
+      <c r="CR120" s="28"/>
+      <c r="CS120" s="28"/>
+      <c r="CT120" s="28"/>
+      <c r="CU120" s="28"/>
+      <c r="CV120" s="28"/>
     </row>
-    <row r="121" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP121" s="28"/>
+      <c r="CQ121" s="28"/>
+      <c r="CR121" s="28"/>
+      <c r="CS121" s="28"/>
+      <c r="CT121" s="28"/>
+      <c r="CU121" s="28"/>
+      <c r="CV121" s="28"/>
+    </row>
     <row r="122" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
-      <c r="B122" s="28">
+      <c r="B122" s="42">
         <v>2000</v>
       </c>
-      <c r="C122" s="29"/>
-      <c r="D122" s="29"/>
-      <c r="E122" s="29"/>
-      <c r="F122" s="28">
+      <c r="C122" s="43"/>
+      <c r="D122" s="43"/>
+      <c r="E122" s="43"/>
+      <c r="F122" s="42">
         <v>2001</v>
       </c>
-      <c r="G122" s="29"/>
-      <c r="H122" s="29"/>
-      <c r="I122" s="29"/>
-      <c r="J122" s="28">
+      <c r="G122" s="43"/>
+      <c r="H122" s="43"/>
+      <c r="I122" s="43"/>
+      <c r="J122" s="42">
         <v>2002</v>
       </c>
-      <c r="K122" s="29"/>
-      <c r="L122" s="29"/>
-      <c r="M122" s="29"/>
-      <c r="N122" s="28">
+      <c r="K122" s="43"/>
+      <c r="L122" s="43"/>
+      <c r="M122" s="43"/>
+      <c r="N122" s="42">
         <v>2003</v>
       </c>
-      <c r="O122" s="29"/>
-      <c r="P122" s="29"/>
-      <c r="Q122" s="29"/>
-      <c r="R122" s="28">
+      <c r="O122" s="43"/>
+      <c r="P122" s="43"/>
+      <c r="Q122" s="43"/>
+      <c r="R122" s="42">
         <v>2004</v>
       </c>
-      <c r="S122" s="29"/>
-      <c r="T122" s="29"/>
-      <c r="U122" s="29"/>
-      <c r="V122" s="28">
+      <c r="S122" s="43"/>
+      <c r="T122" s="43"/>
+      <c r="U122" s="43"/>
+      <c r="V122" s="42">
         <v>2005</v>
       </c>
-      <c r="W122" s="29"/>
-      <c r="X122" s="29"/>
-      <c r="Y122" s="29"/>
-      <c r="Z122" s="28">
+      <c r="W122" s="43"/>
+      <c r="X122" s="43"/>
+      <c r="Y122" s="43"/>
+      <c r="Z122" s="42">
         <v>2006</v>
       </c>
-      <c r="AA122" s="29"/>
-      <c r="AB122" s="29"/>
-      <c r="AC122" s="29"/>
-      <c r="AD122" s="28">
+      <c r="AA122" s="43"/>
+      <c r="AB122" s="43"/>
+      <c r="AC122" s="43"/>
+      <c r="AD122" s="42">
         <v>2007</v>
       </c>
-      <c r="AE122" s="29"/>
-      <c r="AF122" s="29"/>
-      <c r="AG122" s="29"/>
-      <c r="AH122" s="28">
+      <c r="AE122" s="43"/>
+      <c r="AF122" s="43"/>
+      <c r="AG122" s="43"/>
+      <c r="AH122" s="42">
         <v>2008</v>
       </c>
-      <c r="AI122" s="29"/>
-      <c r="AJ122" s="29"/>
-      <c r="AK122" s="29"/>
-      <c r="AL122" s="28">
+      <c r="AI122" s="43"/>
+      <c r="AJ122" s="43"/>
+      <c r="AK122" s="43"/>
+      <c r="AL122" s="42">
         <v>2009</v>
       </c>
-      <c r="AM122" s="29"/>
-      <c r="AN122" s="29"/>
-      <c r="AO122" s="29"/>
-      <c r="AP122" s="28">
+      <c r="AM122" s="43"/>
+      <c r="AN122" s="43"/>
+      <c r="AO122" s="43"/>
+      <c r="AP122" s="42">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="29"/>
-      <c r="AR122" s="29"/>
-      <c r="AS122" s="29"/>
-      <c r="AT122" s="28">
+      <c r="AQ122" s="43"/>
+      <c r="AR122" s="43"/>
+      <c r="AS122" s="43"/>
+      <c r="AT122" s="42">
         <v>2011</v>
       </c>
-      <c r="AU122" s="29"/>
-      <c r="AV122" s="29"/>
-      <c r="AW122" s="29"/>
-      <c r="AX122" s="28">
+      <c r="AU122" s="43"/>
+      <c r="AV122" s="43"/>
+      <c r="AW122" s="43"/>
+      <c r="AX122" s="42">
         <v>2012</v>
       </c>
-      <c r="AY122" s="29"/>
-      <c r="AZ122" s="29"/>
-      <c r="BA122" s="29"/>
-      <c r="BB122" s="28">
+      <c r="AY122" s="43"/>
+      <c r="AZ122" s="43"/>
+      <c r="BA122" s="43"/>
+      <c r="BB122" s="42">
         <v>2013</v>
       </c>
-      <c r="BC122" s="29"/>
-      <c r="BD122" s="29"/>
-      <c r="BE122" s="29"/>
-      <c r="BF122" s="28">
+      <c r="BC122" s="43"/>
+      <c r="BD122" s="43"/>
+      <c r="BE122" s="43"/>
+      <c r="BF122" s="42">
         <v>2014</v>
       </c>
-      <c r="BG122" s="29"/>
-      <c r="BH122" s="29"/>
-      <c r="BI122" s="29"/>
-      <c r="BJ122" s="28">
+      <c r="BG122" s="43"/>
+      <c r="BH122" s="43"/>
+      <c r="BI122" s="43"/>
+      <c r="BJ122" s="42">
         <v>2015</v>
       </c>
-      <c r="BK122" s="29"/>
-      <c r="BL122" s="29"/>
-      <c r="BM122" s="29"/>
-      <c r="BN122" s="28">
+      <c r="BK122" s="43"/>
+      <c r="BL122" s="43"/>
+      <c r="BM122" s="43"/>
+      <c r="BN122" s="42">
         <v>2016</v>
       </c>
-      <c r="BO122" s="29"/>
-      <c r="BP122" s="29"/>
-      <c r="BQ122" s="29"/>
-      <c r="BR122" s="28">
+      <c r="BO122" s="43"/>
+      <c r="BP122" s="43"/>
+      <c r="BQ122" s="43"/>
+      <c r="BR122" s="42">
         <v>2017</v>
       </c>
-      <c r="BS122" s="29"/>
-      <c r="BT122" s="29"/>
-      <c r="BU122" s="29"/>
-      <c r="BV122" s="28">
+      <c r="BS122" s="43"/>
+      <c r="BT122" s="43"/>
+      <c r="BU122" s="43"/>
+      <c r="BV122" s="42">
         <v>2018</v>
       </c>
-      <c r="BW122" s="29"/>
-      <c r="BX122" s="29"/>
-      <c r="BY122" s="29"/>
-      <c r="BZ122" s="28">
+      <c r="BW122" s="43"/>
+      <c r="BX122" s="43"/>
+      <c r="BY122" s="43"/>
+      <c r="BZ122" s="42">
         <v>2019</v>
       </c>
-      <c r="CA122" s="29"/>
-      <c r="CB122" s="29"/>
-      <c r="CC122" s="29"/>
-      <c r="CD122" s="28">
+      <c r="CA122" s="43"/>
+      <c r="CB122" s="43"/>
+      <c r="CC122" s="43"/>
+      <c r="CD122" s="42">
         <v>2020</v>
       </c>
-      <c r="CE122" s="28"/>
-      <c r="CF122" s="28"/>
-      <c r="CG122" s="28"/>
+      <c r="CE122" s="42"/>
+      <c r="CF122" s="42"/>
+      <c r="CG122" s="42"/>
       <c r="CH122" s="26">
         <v>2021</v>
       </c>
@@ -36535,16 +37082,17 @@
       <c r="CM122" s="26"/>
       <c r="CN122" s="26"/>
       <c r="CO122" s="26"/>
-      <c r="CP122" s="26">
+      <c r="CP122" s="30">
         <v>2023</v>
       </c>
-      <c r="CQ122" s="26"/>
-      <c r="CR122" s="26"/>
-      <c r="CS122" s="26"/>
-      <c r="CT122" s="26">
+      <c r="CQ122" s="30"/>
+      <c r="CR122" s="30"/>
+      <c r="CS122" s="30"/>
+      <c r="CT122" s="30">
         <v>2024</v>
       </c>
-      <c r="CU122" s="26"/>
+      <c r="CU122" s="30"/>
+      <c r="CV122" s="30"/>
     </row>
     <row r="123" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
@@ -36826,27 +37374,37 @@
       <c r="CO123" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP123" s="7" t="s">
+      <c r="CP123" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CQ123" s="7" t="s">
+      <c r="CQ123" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="CR123" s="7" t="s">
+      <c r="CR123" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="CS123" s="7" t="s">
+      <c r="CS123" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="CT123" s="7" t="s">
+      <c r="CT123" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CU123" s="7" t="s">
+      <c r="CU123" s="31" t="s">
         <v>8</v>
+      </c>
+      <c r="CV123" s="31" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8"/>
+      <c r="CP124" s="28"/>
+      <c r="CQ124" s="28"/>
+      <c r="CR124" s="28"/>
+      <c r="CS124" s="28"/>
+      <c r="CT124" s="28"/>
+      <c r="CU124" s="28"/>
+      <c r="CV124" s="28"/>
     </row>
     <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
@@ -37128,25 +37686,27 @@
       <c r="CO125" s="18">
         <v>7.0602382193548809</v>
       </c>
-      <c r="CP125" s="18">
+      <c r="CP125" s="39">
         <v>7.3376295908507094</v>
       </c>
-      <c r="CQ125" s="18">
+      <c r="CQ125" s="39">
         <v>8.5087523999951848</v>
       </c>
-      <c r="CR125" s="18">
+      <c r="CR125" s="39">
         <v>7.1674546330513751</v>
       </c>
-      <c r="CS125" s="18">
+      <c r="CS125" s="39">
         <v>7.1229115087397528</v>
       </c>
-      <c r="CT125" s="18">
+      <c r="CT125" s="39">
         <v>6.9632561902280372</v>
       </c>
-      <c r="CU125" s="18">
-        <v>8.2756435269513187</v>
-      </c>
-      <c r="CV125" s="10"/>
+      <c r="CU125" s="39">
+        <v>8.1184727467417979</v>
+      </c>
+      <c r="CV125" s="39">
+        <v>6.7499811786679675</v>
+      </c>
       <c r="CW125" s="10"/>
       <c r="CX125" s="10"/>
       <c r="CY125" s="10"/>
@@ -37483,25 +38043,27 @@
       <c r="CO126" s="18">
         <v>92.939761780645114</v>
       </c>
-      <c r="CP126" s="18">
+      <c r="CP126" s="39">
         <v>92.66237040914929</v>
       </c>
-      <c r="CQ126" s="18">
+      <c r="CQ126" s="39">
         <v>91.491247600004812</v>
       </c>
-      <c r="CR126" s="18">
+      <c r="CR126" s="39">
         <v>92.832545366948636</v>
       </c>
-      <c r="CS126" s="18">
+      <c r="CS126" s="39">
         <v>92.877088491260238</v>
       </c>
-      <c r="CT126" s="18">
+      <c r="CT126" s="39">
         <v>93.036743809771977</v>
       </c>
-      <c r="CU126" s="18">
-        <v>91.724356473048672</v>
-      </c>
-      <c r="CV126" s="10"/>
+      <c r="CU126" s="39">
+        <v>91.881527253258199</v>
+      </c>
+      <c r="CV126" s="39">
+        <v>93.250018821332034</v>
+      </c>
       <c r="CW126" s="10"/>
       <c r="CX126" s="10"/>
       <c r="CY126" s="10"/>
@@ -37651,13 +38213,13 @@
       <c r="CM127" s="19"/>
       <c r="CN127" s="19"/>
       <c r="CO127" s="19"/>
-      <c r="CP127" s="19"/>
-      <c r="CQ127" s="19"/>
-      <c r="CR127" s="19"/>
-      <c r="CS127" s="19"/>
-      <c r="CT127" s="19"/>
-      <c r="CU127" s="19"/>
-      <c r="CV127" s="10"/>
+      <c r="CP127" s="40"/>
+      <c r="CQ127" s="40"/>
+      <c r="CR127" s="40"/>
+      <c r="CS127" s="40"/>
+      <c r="CT127" s="40"/>
+      <c r="CU127" s="40"/>
+      <c r="CV127" s="40"/>
       <c r="CW127" s="10"/>
       <c r="CX127" s="10"/>
       <c r="CY127" s="10"/>
@@ -37994,25 +38556,27 @@
       <c r="CO128" s="18">
         <v>100</v>
       </c>
-      <c r="CP128" s="18">
+      <c r="CP128" s="39">
         <v>100</v>
       </c>
-      <c r="CQ128" s="18">
+      <c r="CQ128" s="39">
         <v>100</v>
       </c>
-      <c r="CR128" s="18">
+      <c r="CR128" s="39">
         <v>100</v>
       </c>
-      <c r="CS128" s="18">
+      <c r="CS128" s="39">
         <v>100</v>
       </c>
-      <c r="CT128" s="18">
+      <c r="CT128" s="39">
         <v>100</v>
       </c>
-      <c r="CU128" s="18">
+      <c r="CU128" s="39">
         <v>100</v>
       </c>
-      <c r="CV128" s="10"/>
+      <c r="CV128" s="39">
+        <v>100</v>
+      </c>
       <c r="CW128" s="10"/>
       <c r="CX128" s="10"/>
       <c r="CY128" s="10"/>
@@ -38163,17 +38727,25 @@
       <c r="CM129" s="16"/>
       <c r="CN129" s="16"/>
       <c r="CO129" s="16"/>
-      <c r="CP129" s="16"/>
-      <c r="CQ129" s="16"/>
-      <c r="CR129" s="16"/>
-      <c r="CS129" s="16"/>
-      <c r="CT129" s="16"/>
-      <c r="CU129" s="16"/>
+      <c r="CP129" s="36"/>
+      <c r="CQ129" s="36"/>
+      <c r="CR129" s="36"/>
+      <c r="CS129" s="36"/>
+      <c r="CT129" s="36"/>
+      <c r="CU129" s="36"/>
+      <c r="CV129" s="36"/>
     </row>
     <row r="130" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="CP130" s="28"/>
+      <c r="CQ130" s="28"/>
+      <c r="CR130" s="28"/>
+      <c r="CS130" s="28"/>
+      <c r="CT130" s="28"/>
+      <c r="CU130" s="28"/>
+      <c r="CV130" s="28"/>
     </row>
     <row r="131" spans="1:155" s="21" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
@@ -38269,13 +38841,13 @@
       <c r="CM131" s="11"/>
       <c r="CN131" s="11"/>
       <c r="CO131" s="11"/>
-      <c r="CP131" s="11"/>
-      <c r="CQ131" s="11"/>
-      <c r="CR131" s="11"/>
-      <c r="CS131" s="11"/>
-      <c r="CT131" s="11"/>
-      <c r="CU131" s="11"/>
-      <c r="CV131" s="20"/>
+      <c r="CP131" s="41"/>
+      <c r="CQ131" s="41"/>
+      <c r="CR131" s="41"/>
+      <c r="CS131" s="41"/>
+      <c r="CT131" s="41"/>
+      <c r="CU131" s="41"/>
+      <c r="CV131" s="41"/>
       <c r="CW131" s="20"/>
       <c r="CX131" s="20"/>
       <c r="CY131" s="20"/>
@@ -38426,13 +38998,13 @@
       <c r="CM132" s="11"/>
       <c r="CN132" s="11"/>
       <c r="CO132" s="11"/>
-      <c r="CP132" s="11"/>
-      <c r="CQ132" s="11"/>
-      <c r="CR132" s="11"/>
-      <c r="CS132" s="11"/>
-      <c r="CT132" s="11"/>
-      <c r="CU132" s="11"/>
-      <c r="CV132" s="20"/>
+      <c r="CP132" s="41"/>
+      <c r="CQ132" s="41"/>
+      <c r="CR132" s="41"/>
+      <c r="CS132" s="41"/>
+      <c r="CT132" s="41"/>
+      <c r="CU132" s="41"/>
+      <c r="CV132" s="41"/>
       <c r="CW132" s="20"/>
       <c r="CX132" s="20"/>
       <c r="CY132" s="20"/>
@@ -38644,9 +39216,9 @@
   <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="97" man="1"/>
-    <brk id="76" max="97" man="1"/>
-    <brk id="94" max="97" man="1"/>
+    <brk id="38" max="99" man="1"/>
+    <brk id="76" max="99" man="1"/>
+    <brk id="94" max="99" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-16IAC_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-16IAC_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD268CC-F3C2-4060-8364-F4348C814461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3615E6-29CB-47C3-A930-955AB8396524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="12660" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAC" sheetId="10" r:id="rId1"/>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IAC!$A$1:$CV$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IAC!$A$1:$CW$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -619,13 +619,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>As of November 2024</t>
+    <t>Q1 2000 to Q4 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2024</t>
+    <t>Q1 2001 to Q4 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2024</t>
+    <t>As of January 2025</t>
   </si>
 </sst>
 </file>
@@ -725,7 +725,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -798,6 +798,21 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23665,20 +23680,20 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EY132"/>
+  <dimension ref="A1:EY137"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CH1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" sqref="A1:A1048576"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.6640625" style="1" customWidth="1"/>
     <col min="2" max="93" width="11.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="94" max="100" width="10.109375" style="41" customWidth="1"/>
-    <col min="101" max="16384" width="7.77734375" style="11"/>
+    <col min="94" max="101" width="10.109375" style="41" customWidth="1"/>
+    <col min="102" max="16384" width="7.77734375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -23692,6 +23707,7 @@
       <c r="CT1" s="28"/>
       <c r="CU1" s="28"/>
       <c r="CV1" s="28"/>
+      <c r="CW1" s="28"/>
     </row>
     <row r="2" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -23704,10 +23720,11 @@
       <c r="CT2" s="28"/>
       <c r="CU2" s="28"/>
       <c r="CV2" s="28"/>
+      <c r="CW2" s="28"/>
     </row>
     <row r="3" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="CP3" s="28"/>
       <c r="CQ3" s="28"/>
@@ -23716,6 +23733,7 @@
       <c r="CT3" s="28"/>
       <c r="CU3" s="28"/>
       <c r="CV3" s="28"/>
+      <c r="CW3" s="28"/>
     </row>
     <row r="4" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CP4" s="28"/>
@@ -23725,6 +23743,7 @@
       <c r="CT4" s="28"/>
       <c r="CU4" s="28"/>
       <c r="CV4" s="28"/>
+      <c r="CW4" s="28"/>
     </row>
     <row r="5" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -23737,10 +23756,11 @@
       <c r="CT5" s="28"/>
       <c r="CU5" s="28"/>
       <c r="CV5" s="28"/>
+      <c r="CW5" s="28"/>
     </row>
     <row r="6" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="CP6" s="28"/>
       <c r="CQ6" s="28"/>
@@ -23749,6 +23769,7 @@
       <c r="CT6" s="28"/>
       <c r="CU6" s="28"/>
       <c r="CV6" s="28"/>
+      <c r="CW6" s="28"/>
     </row>
     <row r="7" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -23853,6 +23874,7 @@
       <c r="CT7" s="29"/>
       <c r="CU7" s="29"/>
       <c r="CV7" s="29"/>
+      <c r="CW7" s="29"/>
     </row>
     <row r="8" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
@@ -23954,135 +23976,136 @@
       <c r="CT8" s="29"/>
       <c r="CU8" s="29"/>
       <c r="CV8" s="29"/>
+      <c r="CW8" s="29"/>
     </row>
     <row r="9" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="42">
+      <c r="B9" s="47">
         <v>2000</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42">
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47">
         <v>2001</v>
       </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42">
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47">
         <v>2002</v>
       </c>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42">
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47">
         <v>2003</v>
       </c>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42">
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47">
         <v>2004</v>
       </c>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42">
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="47">
         <v>2005</v>
       </c>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42">
+      <c r="W9" s="47"/>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="47">
         <v>2006</v>
       </c>
-      <c r="AA9" s="42"/>
-      <c r="AB9" s="42"/>
-      <c r="AC9" s="42"/>
-      <c r="AD9" s="42">
+      <c r="AA9" s="47"/>
+      <c r="AB9" s="47"/>
+      <c r="AC9" s="47"/>
+      <c r="AD9" s="47">
         <v>2007</v>
       </c>
-      <c r="AE9" s="42"/>
-      <c r="AF9" s="42"/>
-      <c r="AG9" s="42"/>
-      <c r="AH9" s="42">
+      <c r="AE9" s="47"/>
+      <c r="AF9" s="47"/>
+      <c r="AG9" s="47"/>
+      <c r="AH9" s="47">
         <v>2008</v>
       </c>
-      <c r="AI9" s="42"/>
-      <c r="AJ9" s="42"/>
-      <c r="AK9" s="42"/>
-      <c r="AL9" s="42">
+      <c r="AI9" s="47"/>
+      <c r="AJ9" s="47"/>
+      <c r="AK9" s="47"/>
+      <c r="AL9" s="47">
         <v>2009</v>
       </c>
-      <c r="AM9" s="42"/>
-      <c r="AN9" s="42"/>
-      <c r="AO9" s="42"/>
-      <c r="AP9" s="42">
+      <c r="AM9" s="47"/>
+      <c r="AN9" s="47"/>
+      <c r="AO9" s="47"/>
+      <c r="AP9" s="47">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="42"/>
-      <c r="AR9" s="42"/>
-      <c r="AS9" s="42"/>
-      <c r="AT9" s="42">
+      <c r="AQ9" s="47"/>
+      <c r="AR9" s="47"/>
+      <c r="AS9" s="47"/>
+      <c r="AT9" s="47">
         <v>2011</v>
       </c>
-      <c r="AU9" s="42"/>
-      <c r="AV9" s="42"/>
-      <c r="AW9" s="42"/>
-      <c r="AX9" s="42">
+      <c r="AU9" s="47"/>
+      <c r="AV9" s="47"/>
+      <c r="AW9" s="47"/>
+      <c r="AX9" s="47">
         <v>2012</v>
       </c>
-      <c r="AY9" s="42"/>
-      <c r="AZ9" s="42"/>
-      <c r="BA9" s="42"/>
-      <c r="BB9" s="42">
+      <c r="AY9" s="47"/>
+      <c r="AZ9" s="47"/>
+      <c r="BA9" s="47"/>
+      <c r="BB9" s="47">
         <v>2013</v>
       </c>
-      <c r="BC9" s="42"/>
-      <c r="BD9" s="42"/>
-      <c r="BE9" s="42"/>
-      <c r="BF9" s="42">
+      <c r="BC9" s="47"/>
+      <c r="BD9" s="47"/>
+      <c r="BE9" s="47"/>
+      <c r="BF9" s="47">
         <v>2014</v>
       </c>
-      <c r="BG9" s="42"/>
-      <c r="BH9" s="42"/>
-      <c r="BI9" s="42"/>
-      <c r="BJ9" s="42">
+      <c r="BG9" s="47"/>
+      <c r="BH9" s="47"/>
+      <c r="BI9" s="47"/>
+      <c r="BJ9" s="47">
         <v>2015</v>
       </c>
-      <c r="BK9" s="42"/>
-      <c r="BL9" s="42"/>
-      <c r="BM9" s="42"/>
-      <c r="BN9" s="42">
+      <c r="BK9" s="47"/>
+      <c r="BL9" s="47"/>
+      <c r="BM9" s="47"/>
+      <c r="BN9" s="47">
         <v>2016</v>
       </c>
-      <c r="BO9" s="42"/>
-      <c r="BP9" s="42"/>
-      <c r="BQ9" s="42"/>
-      <c r="BR9" s="42">
+      <c r="BO9" s="47"/>
+      <c r="BP9" s="47"/>
+      <c r="BQ9" s="47"/>
+      <c r="BR9" s="47">
         <v>2017</v>
       </c>
-      <c r="BS9" s="42"/>
-      <c r="BT9" s="42"/>
-      <c r="BU9" s="42"/>
-      <c r="BV9" s="42">
+      <c r="BS9" s="47"/>
+      <c r="BT9" s="47"/>
+      <c r="BU9" s="47"/>
+      <c r="BV9" s="47">
         <v>2018</v>
       </c>
-      <c r="BW9" s="42"/>
-      <c r="BX9" s="42"/>
-      <c r="BY9" s="42"/>
-      <c r="BZ9" s="42">
+      <c r="BW9" s="47"/>
+      <c r="BX9" s="47"/>
+      <c r="BY9" s="47"/>
+      <c r="BZ9" s="47">
         <v>2019</v>
       </c>
-      <c r="CA9" s="42"/>
-      <c r="CB9" s="42"/>
-      <c r="CC9" s="42"/>
-      <c r="CD9" s="42">
+      <c r="CA9" s="47"/>
+      <c r="CB9" s="47"/>
+      <c r="CC9" s="47"/>
+      <c r="CD9" s="47">
         <v>2020</v>
       </c>
-      <c r="CE9" s="42"/>
-      <c r="CF9" s="42"/>
-      <c r="CG9" s="42"/>
+      <c r="CE9" s="47"/>
+      <c r="CF9" s="47"/>
+      <c r="CG9" s="47"/>
       <c r="CH9" s="26">
         <v>2021</v>
       </c>
@@ -24106,6 +24129,7 @@
       </c>
       <c r="CU9" s="30"/>
       <c r="CV9" s="30"/>
+      <c r="CW9" s="30"/>
     </row>
     <row r="10" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24407,6 +24431,9 @@
       </c>
       <c r="CV10" s="31" t="s">
         <v>10</v>
+      </c>
+      <c r="CW10" s="31" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24418,6 +24445,7 @@
       <c r="CT11" s="28"/>
       <c r="CU11" s="28"/>
       <c r="CV11" s="28"/>
+      <c r="CW11" s="28"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -24718,9 +24746,11 @@
         <v>18003.844903715129</v>
       </c>
       <c r="CV12" s="32">
-        <v>12422.745648618347</v>
-      </c>
-      <c r="CW12" s="10"/>
+        <v>12783.196664135205</v>
+      </c>
+      <c r="CW12" s="32">
+        <v>18381.583811135737</v>
+      </c>
       <c r="CX12" s="10"/>
       <c r="CY12" s="10"/>
       <c r="CZ12" s="10"/>
@@ -25075,9 +25105,11 @@
         <v>195587.70849658945</v>
       </c>
       <c r="CV13" s="33">
-        <v>155667.97661350385</v>
-      </c>
-      <c r="CW13" s="10"/>
+        <v>154982.0812176567</v>
+      </c>
+      <c r="CW13" s="33">
+        <v>196277.72857253806</v>
+      </c>
       <c r="CX13" s="10"/>
       <c r="CY13" s="10"/>
       <c r="CZ13" s="10"/>
@@ -25233,7 +25265,7 @@
       <c r="CT14" s="34"/>
       <c r="CU14" s="34"/>
       <c r="CV14" s="34"/>
-      <c r="CW14" s="10"/>
+      <c r="CW14" s="34"/>
       <c r="CX14" s="10"/>
       <c r="CY14" s="10"/>
       <c r="CZ14" s="10"/>
@@ -25588,9 +25620,11 @@
         <v>213591.55340030458</v>
       </c>
       <c r="CV15" s="35">
-        <v>168090.7222621222</v>
-      </c>
-      <c r="CW15" s="10"/>
+        <v>167765.2778817919</v>
+      </c>
+      <c r="CW15" s="35">
+        <v>214659.31238367379</v>
+      </c>
       <c r="CX15" s="10"/>
       <c r="CY15" s="10"/>
       <c r="CZ15" s="10"/>
@@ -25747,6 +25781,7 @@
       <c r="CT16" s="36"/>
       <c r="CU16" s="36"/>
       <c r="CV16" s="36"/>
+      <c r="CW16" s="36"/>
     </row>
     <row r="17" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
@@ -25759,6 +25794,7 @@
       <c r="CT17" s="28"/>
       <c r="CU17" s="28"/>
       <c r="CV17" s="28"/>
+      <c r="CW17" s="28"/>
     </row>
     <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
@@ -25860,7 +25896,7 @@
       <c r="CT18" s="37"/>
       <c r="CU18" s="37"/>
       <c r="CV18" s="37"/>
-      <c r="CW18" s="10"/>
+      <c r="CW18" s="37"/>
       <c r="CX18" s="10"/>
       <c r="CY18" s="10"/>
       <c r="CZ18" s="10"/>
@@ -26016,7 +26052,7 @@
       <c r="CT19" s="37"/>
       <c r="CU19" s="37"/>
       <c r="CV19" s="37"/>
-      <c r="CW19" s="10"/>
+      <c r="CW19" s="37"/>
       <c r="CX19" s="10"/>
       <c r="CY19" s="10"/>
       <c r="CZ19" s="10"/>
@@ -26083,6 +26119,7 @@
       <c r="CT20" s="28"/>
       <c r="CU20" s="28"/>
       <c r="CV20" s="28"/>
+      <c r="CW20" s="28"/>
     </row>
     <row r="21" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -26095,10 +26132,11 @@
       <c r="CT21" s="28"/>
       <c r="CU21" s="28"/>
       <c r="CV21" s="28"/>
+      <c r="CW21" s="28"/>
     </row>
     <row r="22" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="CP22" s="28"/>
       <c r="CQ22" s="28"/>
@@ -26107,6 +26145,7 @@
       <c r="CT22" s="28"/>
       <c r="CU22" s="28"/>
       <c r="CV22" s="28"/>
+      <c r="CW22" s="28"/>
     </row>
     <row r="23" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CP23" s="28"/>
@@ -26116,6 +26155,7 @@
       <c r="CT23" s="28"/>
       <c r="CU23" s="28"/>
       <c r="CV23" s="28"/>
+      <c r="CW23" s="28"/>
     </row>
     <row r="24" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -26128,10 +26168,11 @@
       <c r="CT24" s="28"/>
       <c r="CU24" s="28"/>
       <c r="CV24" s="28"/>
+      <c r="CW24" s="28"/>
     </row>
     <row r="25" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="CP25" s="28"/>
       <c r="CQ25" s="28"/>
@@ -26140,6 +26181,7 @@
       <c r="CT25" s="28"/>
       <c r="CU25" s="28"/>
       <c r="CV25" s="28"/>
+      <c r="CW25" s="28"/>
     </row>
     <row r="26" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -26244,6 +26286,7 @@
       <c r="CT26" s="29"/>
       <c r="CU26" s="29"/>
       <c r="CV26" s="29"/>
+      <c r="CW26" s="29"/>
     </row>
     <row r="27" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
@@ -26345,135 +26388,136 @@
       <c r="CT27" s="29"/>
       <c r="CU27" s="29"/>
       <c r="CV27" s="29"/>
+      <c r="CW27" s="29"/>
     </row>
     <row r="28" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="42">
+      <c r="B28" s="47">
         <v>2000</v>
       </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="42">
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="47">
         <v>2001</v>
       </c>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="42">
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="47">
         <v>2002</v>
       </c>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="42">
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="47">
         <v>2003</v>
       </c>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="42">
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="47">
         <v>2004</v>
       </c>
-      <c r="S28" s="43"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="43"/>
-      <c r="V28" s="42">
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="47">
         <v>2005</v>
       </c>
-      <c r="W28" s="43"/>
-      <c r="X28" s="43"/>
-      <c r="Y28" s="43"/>
-      <c r="Z28" s="42">
+      <c r="W28" s="48"/>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="48"/>
+      <c r="Z28" s="47">
         <v>2006</v>
       </c>
-      <c r="AA28" s="43"/>
-      <c r="AB28" s="43"/>
-      <c r="AC28" s="43"/>
-      <c r="AD28" s="42">
+      <c r="AA28" s="48"/>
+      <c r="AB28" s="48"/>
+      <c r="AC28" s="48"/>
+      <c r="AD28" s="47">
         <v>2007</v>
       </c>
-      <c r="AE28" s="43"/>
-      <c r="AF28" s="43"/>
-      <c r="AG28" s="43"/>
-      <c r="AH28" s="42">
+      <c r="AE28" s="48"/>
+      <c r="AF28" s="48"/>
+      <c r="AG28" s="48"/>
+      <c r="AH28" s="47">
         <v>2008</v>
       </c>
-      <c r="AI28" s="43"/>
-      <c r="AJ28" s="43"/>
-      <c r="AK28" s="43"/>
-      <c r="AL28" s="42">
+      <c r="AI28" s="48"/>
+      <c r="AJ28" s="48"/>
+      <c r="AK28" s="48"/>
+      <c r="AL28" s="47">
         <v>2009</v>
       </c>
-      <c r="AM28" s="43"/>
-      <c r="AN28" s="43"/>
-      <c r="AO28" s="43"/>
-      <c r="AP28" s="42">
+      <c r="AM28" s="48"/>
+      <c r="AN28" s="48"/>
+      <c r="AO28" s="48"/>
+      <c r="AP28" s="47">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="43"/>
-      <c r="AR28" s="43"/>
-      <c r="AS28" s="43"/>
-      <c r="AT28" s="42">
+      <c r="AQ28" s="48"/>
+      <c r="AR28" s="48"/>
+      <c r="AS28" s="48"/>
+      <c r="AT28" s="47">
         <v>2011</v>
       </c>
-      <c r="AU28" s="43"/>
-      <c r="AV28" s="43"/>
-      <c r="AW28" s="43"/>
-      <c r="AX28" s="42">
+      <c r="AU28" s="48"/>
+      <c r="AV28" s="48"/>
+      <c r="AW28" s="48"/>
+      <c r="AX28" s="47">
         <v>2012</v>
       </c>
-      <c r="AY28" s="43"/>
-      <c r="AZ28" s="43"/>
-      <c r="BA28" s="43"/>
-      <c r="BB28" s="42">
+      <c r="AY28" s="48"/>
+      <c r="AZ28" s="48"/>
+      <c r="BA28" s="48"/>
+      <c r="BB28" s="47">
         <v>2013</v>
       </c>
-      <c r="BC28" s="43"/>
-      <c r="BD28" s="43"/>
-      <c r="BE28" s="43"/>
-      <c r="BF28" s="42">
+      <c r="BC28" s="48"/>
+      <c r="BD28" s="48"/>
+      <c r="BE28" s="48"/>
+      <c r="BF28" s="47">
         <v>2014</v>
       </c>
-      <c r="BG28" s="43"/>
-      <c r="BH28" s="43"/>
-      <c r="BI28" s="43"/>
-      <c r="BJ28" s="42">
+      <c r="BG28" s="48"/>
+      <c r="BH28" s="48"/>
+      <c r="BI28" s="48"/>
+      <c r="BJ28" s="47">
         <v>2015</v>
       </c>
-      <c r="BK28" s="43"/>
-      <c r="BL28" s="43"/>
-      <c r="BM28" s="43"/>
-      <c r="BN28" s="42">
+      <c r="BK28" s="48"/>
+      <c r="BL28" s="48"/>
+      <c r="BM28" s="48"/>
+      <c r="BN28" s="47">
         <v>2016</v>
       </c>
-      <c r="BO28" s="43"/>
-      <c r="BP28" s="43"/>
-      <c r="BQ28" s="43"/>
-      <c r="BR28" s="42">
+      <c r="BO28" s="48"/>
+      <c r="BP28" s="48"/>
+      <c r="BQ28" s="48"/>
+      <c r="BR28" s="47">
         <v>2017</v>
       </c>
-      <c r="BS28" s="43"/>
-      <c r="BT28" s="43"/>
-      <c r="BU28" s="43"/>
-      <c r="BV28" s="42">
+      <c r="BS28" s="48"/>
+      <c r="BT28" s="48"/>
+      <c r="BU28" s="48"/>
+      <c r="BV28" s="47">
         <v>2018</v>
       </c>
-      <c r="BW28" s="43"/>
-      <c r="BX28" s="43"/>
-      <c r="BY28" s="43"/>
-      <c r="BZ28" s="42">
+      <c r="BW28" s="48"/>
+      <c r="BX28" s="48"/>
+      <c r="BY28" s="48"/>
+      <c r="BZ28" s="47">
         <v>2019</v>
       </c>
-      <c r="CA28" s="43"/>
-      <c r="CB28" s="43"/>
-      <c r="CC28" s="43"/>
-      <c r="CD28" s="42">
+      <c r="CA28" s="48"/>
+      <c r="CB28" s="48"/>
+      <c r="CC28" s="48"/>
+      <c r="CD28" s="47">
         <v>2020</v>
       </c>
-      <c r="CE28" s="42"/>
-      <c r="CF28" s="42"/>
-      <c r="CG28" s="42"/>
+      <c r="CE28" s="47"/>
+      <c r="CF28" s="47"/>
+      <c r="CG28" s="47"/>
       <c r="CH28" s="26">
         <v>2021</v>
       </c>
@@ -26497,6 +26541,7 @@
       </c>
       <c r="CU28" s="30"/>
       <c r="CV28" s="30"/>
+      <c r="CW28" s="30"/>
     </row>
     <row r="29" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
@@ -26798,6 +26843,9 @@
       </c>
       <c r="CV29" s="31" t="s">
         <v>10</v>
+      </c>
+      <c r="CW29" s="31" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26809,6 +26857,7 @@
       <c r="CT30" s="28"/>
       <c r="CU30" s="28"/>
       <c r="CV30" s="28"/>
+      <c r="CW30" s="28"/>
     </row>
     <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -27109,9 +27158,11 @@
         <v>17358.507568184054</v>
       </c>
       <c r="CV31" s="32">
-        <v>10645.422880832873</v>
-      </c>
-      <c r="CW31" s="10"/>
+        <v>10937.793449284705</v>
+      </c>
+      <c r="CW31" s="32">
+        <v>15642.334205418287</v>
+      </c>
       <c r="CX31" s="10"/>
       <c r="CY31" s="10"/>
       <c r="CZ31" s="10"/>
@@ -27466,9 +27517,11 @@
         <v>196456.43164129445</v>
       </c>
       <c r="CV32" s="33">
-        <v>147064.9854752039</v>
-      </c>
-      <c r="CW32" s="10"/>
+        <v>146416.99609021808</v>
+      </c>
+      <c r="CW32" s="33">
+        <v>193069.44406865799</v>
+      </c>
       <c r="CX32" s="10"/>
       <c r="CY32" s="10"/>
       <c r="CZ32" s="10"/>
@@ -27624,7 +27677,7 @@
       <c r="CT33" s="37"/>
       <c r="CU33" s="37"/>
       <c r="CV33" s="37"/>
-      <c r="CW33" s="10"/>
+      <c r="CW33" s="37"/>
       <c r="CX33" s="10"/>
       <c r="CY33" s="10"/>
       <c r="CZ33" s="10"/>
@@ -27979,9 +28032,11 @@
         <v>213814.9392094785</v>
       </c>
       <c r="CV34" s="35">
-        <v>157710.40835603676</v>
-      </c>
-      <c r="CW34" s="10"/>
+        <v>157354.78953950279</v>
+      </c>
+      <c r="CW34" s="35">
+        <v>208711.77827407629</v>
+      </c>
       <c r="CX34" s="10"/>
       <c r="CY34" s="10"/>
       <c r="CZ34" s="10"/>
@@ -28138,6 +28193,7 @@
       <c r="CT35" s="36"/>
       <c r="CU35" s="36"/>
       <c r="CV35" s="36"/>
+      <c r="CW35" s="36"/>
     </row>
     <row r="36" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
@@ -28150,6 +28206,7 @@
       <c r="CT36" s="28"/>
       <c r="CU36" s="28"/>
       <c r="CV36" s="28"/>
+      <c r="CW36" s="28"/>
     </row>
     <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="10"/>
@@ -28251,7 +28308,7 @@
       <c r="CT37" s="37"/>
       <c r="CU37" s="37"/>
       <c r="CV37" s="37"/>
-      <c r="CW37" s="10"/>
+      <c r="CW37" s="37"/>
       <c r="CX37" s="10"/>
       <c r="CY37" s="10"/>
       <c r="CZ37" s="10"/>
@@ -28407,7 +28464,7 @@
       <c r="CT38" s="37"/>
       <c r="CU38" s="37"/>
       <c r="CV38" s="37"/>
-      <c r="CW38" s="10"/>
+      <c r="CW38" s="37"/>
       <c r="CX38" s="10"/>
       <c r="CY38" s="10"/>
       <c r="CZ38" s="10"/>
@@ -28474,6 +28531,7 @@
       <c r="CT39" s="28"/>
       <c r="CU39" s="28"/>
       <c r="CV39" s="28"/>
+      <c r="CW39" s="28"/>
     </row>
     <row r="40" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -28486,10 +28544,11 @@
       <c r="CT40" s="28"/>
       <c r="CU40" s="28"/>
       <c r="CV40" s="28"/>
+      <c r="CW40" s="28"/>
     </row>
     <row r="41" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="CP41" s="28"/>
       <c r="CQ41" s="28"/>
@@ -28498,6 +28557,7 @@
       <c r="CT41" s="28"/>
       <c r="CU41" s="28"/>
       <c r="CV41" s="28"/>
+      <c r="CW41" s="28"/>
     </row>
     <row r="42" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CP42" s="28"/>
@@ -28507,6 +28567,7 @@
       <c r="CT42" s="28"/>
       <c r="CU42" s="28"/>
       <c r="CV42" s="28"/>
+      <c r="CW42" s="28"/>
     </row>
     <row r="43" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -28519,10 +28580,11 @@
       <c r="CT43" s="28"/>
       <c r="CU43" s="28"/>
       <c r="CV43" s="28"/>
+      <c r="CW43" s="28"/>
     </row>
     <row r="44" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="CP44" s="28"/>
       <c r="CQ44" s="28"/>
@@ -28531,6 +28593,7 @@
       <c r="CT44" s="28"/>
       <c r="CU44" s="28"/>
       <c r="CV44" s="28"/>
+      <c r="CW44" s="28"/>
     </row>
     <row r="45" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -28540,147 +28603,149 @@
       <c r="CQ45" s="28"/>
       <c r="CR45" s="28"/>
       <c r="CS45" s="28"/>
-      <c r="CT45" s="28"/>
-      <c r="CU45" s="28"/>
-      <c r="CV45" s="28"/>
+      <c r="CT45" s="42"/>
+      <c r="CU45" s="42"/>
+      <c r="CV45" s="42"/>
+      <c r="CW45" s="28"/>
     </row>
     <row r="46" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CP46" s="28"/>
       <c r="CQ46" s="28"/>
       <c r="CR46" s="28"/>
       <c r="CS46" s="28"/>
-      <c r="CT46" s="28"/>
-      <c r="CU46" s="28"/>
-      <c r="CV46" s="28"/>
+      <c r="CT46" s="42"/>
+      <c r="CU46" s="42"/>
+      <c r="CV46" s="42"/>
+      <c r="CW46" s="28"/>
     </row>
     <row r="47" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42" t="s">
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42" t="s">
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="42"/>
-      <c r="L47" s="42"/>
-      <c r="M47" s="42"/>
-      <c r="N47" s="42" t="s">
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="42"/>
-      <c r="P47" s="42"/>
-      <c r="Q47" s="42"/>
-      <c r="R47" s="42" t="s">
+      <c r="O47" s="47"/>
+      <c r="P47" s="47"/>
+      <c r="Q47" s="47"/>
+      <c r="R47" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="42"/>
-      <c r="T47" s="42"/>
-      <c r="U47" s="42"/>
-      <c r="V47" s="42" t="s">
+      <c r="S47" s="47"/>
+      <c r="T47" s="47"/>
+      <c r="U47" s="47"/>
+      <c r="V47" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="42"/>
-      <c r="X47" s="42"/>
-      <c r="Y47" s="42"/>
-      <c r="Z47" s="42" t="s">
+      <c r="W47" s="47"/>
+      <c r="X47" s="47"/>
+      <c r="Y47" s="47"/>
+      <c r="Z47" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="42"/>
-      <c r="AB47" s="42"/>
-      <c r="AC47" s="42"/>
-      <c r="AD47" s="42" t="s">
+      <c r="AA47" s="47"/>
+      <c r="AB47" s="47"/>
+      <c r="AC47" s="47"/>
+      <c r="AD47" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="42"/>
-      <c r="AF47" s="42"/>
-      <c r="AG47" s="42"/>
-      <c r="AH47" s="42" t="s">
+      <c r="AE47" s="47"/>
+      <c r="AF47" s="47"/>
+      <c r="AG47" s="47"/>
+      <c r="AH47" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="42"/>
-      <c r="AJ47" s="42"/>
-      <c r="AK47" s="42"/>
-      <c r="AL47" s="42" t="s">
+      <c r="AI47" s="47"/>
+      <c r="AJ47" s="47"/>
+      <c r="AK47" s="47"/>
+      <c r="AL47" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="42"/>
-      <c r="AN47" s="42"/>
-      <c r="AO47" s="42"/>
-      <c r="AP47" s="42" t="s">
+      <c r="AM47" s="47"/>
+      <c r="AN47" s="47"/>
+      <c r="AO47" s="47"/>
+      <c r="AP47" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="42"/>
-      <c r="AR47" s="42"/>
-      <c r="AS47" s="42"/>
-      <c r="AT47" s="42" t="s">
+      <c r="AQ47" s="47"/>
+      <c r="AR47" s="47"/>
+      <c r="AS47" s="47"/>
+      <c r="AT47" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="42"/>
-      <c r="AV47" s="42"/>
-      <c r="AW47" s="42"/>
-      <c r="AX47" s="42" t="s">
+      <c r="AU47" s="47"/>
+      <c r="AV47" s="47"/>
+      <c r="AW47" s="47"/>
+      <c r="AX47" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="42"/>
-      <c r="AZ47" s="42"/>
-      <c r="BA47" s="42"/>
-      <c r="BB47" s="42" t="s">
+      <c r="AY47" s="47"/>
+      <c r="AZ47" s="47"/>
+      <c r="BA47" s="47"/>
+      <c r="BB47" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="42"/>
-      <c r="BD47" s="42"/>
-      <c r="BE47" s="42"/>
-      <c r="BF47" s="42" t="s">
+      <c r="BC47" s="47"/>
+      <c r="BD47" s="47"/>
+      <c r="BE47" s="47"/>
+      <c r="BF47" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="42"/>
-      <c r="BH47" s="42"/>
-      <c r="BI47" s="42"/>
-      <c r="BJ47" s="42" t="s">
+      <c r="BG47" s="47"/>
+      <c r="BH47" s="47"/>
+      <c r="BI47" s="47"/>
+      <c r="BJ47" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="42"/>
-      <c r="BL47" s="42"/>
-      <c r="BM47" s="42"/>
-      <c r="BN47" s="42" t="s">
+      <c r="BK47" s="47"/>
+      <c r="BL47" s="47"/>
+      <c r="BM47" s="47"/>
+      <c r="BN47" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="42"/>
-      <c r="BP47" s="42"/>
-      <c r="BQ47" s="42"/>
-      <c r="BR47" s="42" t="s">
+      <c r="BO47" s="47"/>
+      <c r="BP47" s="47"/>
+      <c r="BQ47" s="47"/>
+      <c r="BR47" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="BS47" s="42"/>
-      <c r="BT47" s="42"/>
-      <c r="BU47" s="42"/>
-      <c r="BV47" s="42" t="s">
+      <c r="BS47" s="47"/>
+      <c r="BT47" s="47"/>
+      <c r="BU47" s="47"/>
+      <c r="BV47" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="BW47" s="42"/>
-      <c r="BX47" s="42"/>
-      <c r="BY47" s="42"/>
-      <c r="BZ47" s="42" t="s">
+      <c r="BW47" s="47"/>
+      <c r="BX47" s="47"/>
+      <c r="BY47" s="47"/>
+      <c r="BZ47" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="CA47" s="42"/>
-      <c r="CB47" s="42"/>
-      <c r="CC47" s="42"/>
-      <c r="CD47" s="42" t="s">
+      <c r="CA47" s="47"/>
+      <c r="CB47" s="47"/>
+      <c r="CC47" s="47"/>
+      <c r="CD47" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="42"/>
-      <c r="CF47" s="42"/>
-      <c r="CG47" s="42"/>
+      <c r="CE47" s="47"/>
+      <c r="CF47" s="47"/>
+      <c r="CG47" s="47"/>
       <c r="CH47" s="26" t="s">
         <v>47</v>
       </c>
@@ -28698,10 +28763,11 @@
       </c>
       <c r="CQ47" s="30"/>
       <c r="CR47" s="30"/>
-      <c r="CS47" s="27"/>
-      <c r="CT47" s="30"/>
-      <c r="CU47" s="30"/>
+      <c r="CS47" s="30"/>
+      <c r="CT47" s="27"/>
+      <c r="CU47" s="27"/>
       <c r="CV47" s="27"/>
+      <c r="CW47" s="27"/>
     </row>
     <row r="48" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -28992,10 +29058,13 @@
       <c r="CR48" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="CS48" s="38"/>
+      <c r="CS48" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="CT48" s="38"/>
       <c r="CU48" s="38"/>
       <c r="CV48" s="38"/>
+      <c r="CW48" s="38"/>
     </row>
     <row r="49" spans="1:151" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
@@ -29003,9 +29072,10 @@
       <c r="CQ49" s="28"/>
       <c r="CR49" s="28"/>
       <c r="CS49" s="28"/>
-      <c r="CT49" s="28"/>
-      <c r="CU49" s="28"/>
-      <c r="CV49" s="28"/>
+      <c r="CT49" s="42"/>
+      <c r="CU49" s="42"/>
+      <c r="CV49" s="42"/>
+      <c r="CW49" s="28"/>
     </row>
     <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -29294,13 +29364,15 @@
         <v>3.7204996513503943</v>
       </c>
       <c r="CR50" s="39">
-        <v>-1.1895096669458809</v>
-      </c>
-      <c r="CS50" s="39"/>
-      <c r="CT50" s="39"/>
-      <c r="CU50" s="39"/>
-      <c r="CV50" s="39"/>
-      <c r="CW50" s="10"/>
+        <v>1.6775168819096251</v>
+      </c>
+      <c r="CS50" s="39">
+        <v>8.6759264822092916</v>
+      </c>
+      <c r="CT50" s="43"/>
+      <c r="CU50" s="43"/>
+      <c r="CV50" s="43"/>
+      <c r="CW50" s="39"/>
       <c r="CX50" s="10"/>
       <c r="CY50" s="10"/>
       <c r="CZ50" s="10"/>
@@ -29639,13 +29711,15 @@
         <v>7.6174945685024937</v>
       </c>
       <c r="CR51" s="39">
-        <v>5.248243537844985</v>
-      </c>
-      <c r="CS51" s="39"/>
-      <c r="CT51" s="39"/>
-      <c r="CU51" s="39"/>
-      <c r="CV51" s="39"/>
-      <c r="CW51" s="10"/>
+        <v>4.7845047057868015</v>
+      </c>
+      <c r="CS51" s="39">
+        <v>2.5664500276969306</v>
+      </c>
+      <c r="CT51" s="43"/>
+      <c r="CU51" s="43"/>
+      <c r="CV51" s="43"/>
+      <c r="CW51" s="39"/>
       <c r="CX51" s="10"/>
       <c r="CY51" s="10"/>
       <c r="CZ51" s="10"/>
@@ -29795,10 +29869,10 @@
       <c r="CQ52" s="40"/>
       <c r="CR52" s="40"/>
       <c r="CS52" s="40"/>
-      <c r="CT52" s="40"/>
-      <c r="CU52" s="40"/>
-      <c r="CV52" s="40"/>
-      <c r="CW52" s="10"/>
+      <c r="CT52" s="44"/>
+      <c r="CU52" s="44"/>
+      <c r="CV52" s="44"/>
+      <c r="CW52" s="40"/>
       <c r="CX52" s="10"/>
       <c r="CY52" s="10"/>
       <c r="CZ52" s="10"/>
@@ -30137,13 +30211,15 @@
         <v>7.2777472225176609</v>
       </c>
       <c r="CR53" s="39">
-        <v>4.7438914487439661</v>
-      </c>
-      <c r="CS53" s="39"/>
-      <c r="CT53" s="39"/>
-      <c r="CU53" s="39"/>
-      <c r="CV53" s="39"/>
-      <c r="CW53" s="10"/>
+        <v>4.5410943497300025</v>
+      </c>
+      <c r="CS53" s="39">
+        <v>3.0625907727288535</v>
+      </c>
+      <c r="CT53" s="43"/>
+      <c r="CU53" s="43"/>
+      <c r="CV53" s="43"/>
+      <c r="CW53" s="39"/>
       <c r="CX53" s="10"/>
       <c r="CY53" s="10"/>
       <c r="CZ53" s="10"/>
@@ -30293,9 +30369,10 @@
       <c r="CQ54" s="36"/>
       <c r="CR54" s="36"/>
       <c r="CS54" s="36"/>
-      <c r="CT54" s="36"/>
-      <c r="CU54" s="36"/>
-      <c r="CV54" s="36"/>
+      <c r="CT54" s="31"/>
+      <c r="CU54" s="31"/>
+      <c r="CV54" s="31"/>
+      <c r="CW54" s="36"/>
     </row>
     <row r="55" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
@@ -30305,9 +30382,10 @@
       <c r="CQ55" s="28"/>
       <c r="CR55" s="28"/>
       <c r="CS55" s="28"/>
-      <c r="CT55" s="28"/>
-      <c r="CU55" s="28"/>
-      <c r="CV55" s="28"/>
+      <c r="CT55" s="42"/>
+      <c r="CU55" s="42"/>
+      <c r="CV55" s="42"/>
+      <c r="CW55" s="28"/>
     </row>
     <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="10"/>
@@ -30406,10 +30484,10 @@
       <c r="CQ56" s="37"/>
       <c r="CR56" s="37"/>
       <c r="CS56" s="37"/>
-      <c r="CT56" s="37"/>
-      <c r="CU56" s="37"/>
-      <c r="CV56" s="37"/>
-      <c r="CW56" s="10"/>
+      <c r="CT56" s="45"/>
+      <c r="CU56" s="45"/>
+      <c r="CV56" s="45"/>
+      <c r="CW56" s="37"/>
       <c r="CX56" s="10"/>
       <c r="CY56" s="10"/>
       <c r="CZ56" s="10"/>
@@ -30558,10 +30636,10 @@
       <c r="CQ57" s="37"/>
       <c r="CR57" s="37"/>
       <c r="CS57" s="37"/>
-      <c r="CT57" s="37"/>
-      <c r="CU57" s="37"/>
-      <c r="CV57" s="37"/>
-      <c r="CW57" s="10"/>
+      <c r="CT57" s="45"/>
+      <c r="CU57" s="45"/>
+      <c r="CV57" s="45"/>
+      <c r="CW57" s="37"/>
       <c r="CX57" s="10"/>
       <c r="CY57" s="10"/>
       <c r="CZ57" s="10"/>
@@ -30621,9 +30699,10 @@
       <c r="CQ58" s="28"/>
       <c r="CR58" s="28"/>
       <c r="CS58" s="28"/>
-      <c r="CT58" s="28"/>
-      <c r="CU58" s="28"/>
-      <c r="CV58" s="28"/>
+      <c r="CT58" s="42"/>
+      <c r="CU58" s="42"/>
+      <c r="CV58" s="42"/>
+      <c r="CW58" s="28"/>
     </row>
     <row r="59" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -30633,30 +30712,33 @@
       <c r="CQ59" s="28"/>
       <c r="CR59" s="28"/>
       <c r="CS59" s="28"/>
-      <c r="CT59" s="28"/>
-      <c r="CU59" s="28"/>
-      <c r="CV59" s="28"/>
+      <c r="CT59" s="42"/>
+      <c r="CU59" s="42"/>
+      <c r="CV59" s="42"/>
+      <c r="CW59" s="28"/>
     </row>
     <row r="60" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="CP60" s="28"/>
       <c r="CQ60" s="28"/>
       <c r="CR60" s="28"/>
       <c r="CS60" s="28"/>
-      <c r="CT60" s="28"/>
-      <c r="CU60" s="28"/>
-      <c r="CV60" s="28"/>
+      <c r="CT60" s="42"/>
+      <c r="CU60" s="42"/>
+      <c r="CV60" s="42"/>
+      <c r="CW60" s="28"/>
     </row>
     <row r="61" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CP61" s="28"/>
       <c r="CQ61" s="28"/>
       <c r="CR61" s="28"/>
       <c r="CS61" s="28"/>
-      <c r="CT61" s="28"/>
-      <c r="CU61" s="28"/>
-      <c r="CV61" s="28"/>
+      <c r="CT61" s="42"/>
+      <c r="CU61" s="42"/>
+      <c r="CV61" s="42"/>
+      <c r="CW61" s="28"/>
     </row>
     <row r="62" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -30666,21 +30748,23 @@
       <c r="CQ62" s="28"/>
       <c r="CR62" s="28"/>
       <c r="CS62" s="28"/>
-      <c r="CT62" s="28"/>
-      <c r="CU62" s="28"/>
-      <c r="CV62" s="28"/>
+      <c r="CT62" s="42"/>
+      <c r="CU62" s="42"/>
+      <c r="CV62" s="42"/>
+      <c r="CW62" s="28"/>
     </row>
     <row r="63" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="CP63" s="28"/>
       <c r="CQ63" s="28"/>
       <c r="CR63" s="28"/>
       <c r="CS63" s="28"/>
-      <c r="CT63" s="28"/>
-      <c r="CU63" s="28"/>
-      <c r="CV63" s="28"/>
+      <c r="CT63" s="42"/>
+      <c r="CU63" s="42"/>
+      <c r="CV63" s="42"/>
+      <c r="CW63" s="28"/>
     </row>
     <row r="64" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
@@ -30690,147 +30774,149 @@
       <c r="CQ64" s="28"/>
       <c r="CR64" s="28"/>
       <c r="CS64" s="28"/>
-      <c r="CT64" s="28"/>
-      <c r="CU64" s="28"/>
-      <c r="CV64" s="28"/>
+      <c r="CT64" s="42"/>
+      <c r="CU64" s="42"/>
+      <c r="CV64" s="42"/>
+      <c r="CW64" s="28"/>
     </row>
     <row r="65" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CP65" s="28"/>
       <c r="CQ65" s="28"/>
       <c r="CR65" s="28"/>
       <c r="CS65" s="28"/>
-      <c r="CT65" s="28"/>
-      <c r="CU65" s="28"/>
-      <c r="CV65" s="28"/>
+      <c r="CT65" s="42"/>
+      <c r="CU65" s="42"/>
+      <c r="CV65" s="42"/>
+      <c r="CW65" s="28"/>
     </row>
     <row r="66" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
-      <c r="B66" s="42" t="s">
+      <c r="B66" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="42" t="s">
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="44"/>
-      <c r="H66" s="44"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="42" t="s">
+      <c r="G66" s="49"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="44"/>
-      <c r="L66" s="44"/>
-      <c r="M66" s="44"/>
-      <c r="N66" s="42" t="s">
+      <c r="K66" s="49"/>
+      <c r="L66" s="49"/>
+      <c r="M66" s="49"/>
+      <c r="N66" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="44"/>
-      <c r="P66" s="44"/>
-      <c r="Q66" s="44"/>
-      <c r="R66" s="42" t="s">
+      <c r="O66" s="49"/>
+      <c r="P66" s="49"/>
+      <c r="Q66" s="49"/>
+      <c r="R66" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="44"/>
-      <c r="T66" s="44"/>
-      <c r="U66" s="44"/>
-      <c r="V66" s="42" t="s">
+      <c r="S66" s="49"/>
+      <c r="T66" s="49"/>
+      <c r="U66" s="49"/>
+      <c r="V66" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="44"/>
-      <c r="X66" s="44"/>
-      <c r="Y66" s="44"/>
-      <c r="Z66" s="42" t="s">
+      <c r="W66" s="49"/>
+      <c r="X66" s="49"/>
+      <c r="Y66" s="49"/>
+      <c r="Z66" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="44"/>
-      <c r="AB66" s="44"/>
-      <c r="AC66" s="44"/>
-      <c r="AD66" s="42" t="s">
+      <c r="AA66" s="49"/>
+      <c r="AB66" s="49"/>
+      <c r="AC66" s="49"/>
+      <c r="AD66" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="44"/>
-      <c r="AF66" s="44"/>
-      <c r="AG66" s="44"/>
-      <c r="AH66" s="42" t="s">
+      <c r="AE66" s="49"/>
+      <c r="AF66" s="49"/>
+      <c r="AG66" s="49"/>
+      <c r="AH66" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="44"/>
-      <c r="AJ66" s="44"/>
-      <c r="AK66" s="44"/>
-      <c r="AL66" s="42" t="s">
+      <c r="AI66" s="49"/>
+      <c r="AJ66" s="49"/>
+      <c r="AK66" s="49"/>
+      <c r="AL66" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="44"/>
-      <c r="AN66" s="44"/>
-      <c r="AO66" s="44"/>
-      <c r="AP66" s="42" t="s">
+      <c r="AM66" s="49"/>
+      <c r="AN66" s="49"/>
+      <c r="AO66" s="49"/>
+      <c r="AP66" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="44"/>
-      <c r="AR66" s="44"/>
-      <c r="AS66" s="44"/>
-      <c r="AT66" s="42" t="s">
+      <c r="AQ66" s="49"/>
+      <c r="AR66" s="49"/>
+      <c r="AS66" s="49"/>
+      <c r="AT66" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="44"/>
-      <c r="AV66" s="44"/>
-      <c r="AW66" s="44"/>
-      <c r="AX66" s="42" t="s">
+      <c r="AU66" s="49"/>
+      <c r="AV66" s="49"/>
+      <c r="AW66" s="49"/>
+      <c r="AX66" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="44"/>
-      <c r="AZ66" s="44"/>
-      <c r="BA66" s="44"/>
-      <c r="BB66" s="42" t="s">
+      <c r="AY66" s="49"/>
+      <c r="AZ66" s="49"/>
+      <c r="BA66" s="49"/>
+      <c r="BB66" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="44"/>
-      <c r="BD66" s="44"/>
-      <c r="BE66" s="44"/>
-      <c r="BF66" s="42" t="s">
+      <c r="BC66" s="49"/>
+      <c r="BD66" s="49"/>
+      <c r="BE66" s="49"/>
+      <c r="BF66" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="44"/>
-      <c r="BH66" s="44"/>
-      <c r="BI66" s="44"/>
-      <c r="BJ66" s="42" t="s">
+      <c r="BG66" s="49"/>
+      <c r="BH66" s="49"/>
+      <c r="BI66" s="49"/>
+      <c r="BJ66" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="44"/>
-      <c r="BL66" s="44"/>
-      <c r="BM66" s="44"/>
-      <c r="BN66" s="42" t="s">
+      <c r="BK66" s="49"/>
+      <c r="BL66" s="49"/>
+      <c r="BM66" s="49"/>
+      <c r="BN66" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="44"/>
-      <c r="BP66" s="44"/>
-      <c r="BQ66" s="44"/>
-      <c r="BR66" s="42" t="s">
+      <c r="BO66" s="49"/>
+      <c r="BP66" s="49"/>
+      <c r="BQ66" s="49"/>
+      <c r="BR66" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="BS66" s="44"/>
-      <c r="BT66" s="44"/>
-      <c r="BU66" s="44"/>
-      <c r="BV66" s="42" t="s">
+      <c r="BS66" s="49"/>
+      <c r="BT66" s="49"/>
+      <c r="BU66" s="49"/>
+      <c r="BV66" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="BW66" s="44"/>
-      <c r="BX66" s="44"/>
-      <c r="BY66" s="44"/>
-      <c r="BZ66" s="42" t="s">
+      <c r="BW66" s="49"/>
+      <c r="BX66" s="49"/>
+      <c r="BY66" s="49"/>
+      <c r="BZ66" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="CA66" s="44"/>
-      <c r="CB66" s="44"/>
-      <c r="CC66" s="44"/>
-      <c r="CD66" s="42" t="s">
+      <c r="CA66" s="49"/>
+      <c r="CB66" s="49"/>
+      <c r="CC66" s="49"/>
+      <c r="CD66" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="42"/>
-      <c r="CF66" s="42"/>
-      <c r="CG66" s="42"/>
+      <c r="CE66" s="47"/>
+      <c r="CF66" s="47"/>
+      <c r="CG66" s="47"/>
       <c r="CH66" s="26" t="s">
         <v>47</v>
       </c>
@@ -30848,10 +30934,11 @@
       </c>
       <c r="CQ66" s="30"/>
       <c r="CR66" s="30"/>
-      <c r="CS66" s="27"/>
-      <c r="CT66" s="30"/>
-      <c r="CU66" s="30"/>
+      <c r="CS66" s="30"/>
+      <c r="CT66" s="27"/>
+      <c r="CU66" s="27"/>
       <c r="CV66" s="27"/>
+      <c r="CW66" s="27"/>
     </row>
     <row r="67" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
@@ -31142,10 +31229,13 @@
       <c r="CR67" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="CS67" s="38"/>
+      <c r="CS67" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="CT67" s="38"/>
       <c r="CU67" s="38"/>
       <c r="CV67" s="38"/>
+      <c r="CW67" s="38"/>
     </row>
     <row r="68" spans="1:151" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
@@ -31153,9 +31243,10 @@
       <c r="CQ68" s="28"/>
       <c r="CR68" s="28"/>
       <c r="CS68" s="28"/>
-      <c r="CT68" s="28"/>
-      <c r="CU68" s="28"/>
-      <c r="CV68" s="28"/>
+      <c r="CT68" s="42"/>
+      <c r="CU68" s="42"/>
+      <c r="CV68" s="42"/>
+      <c r="CW68" s="28"/>
     </row>
     <row r="69" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
@@ -31444,13 +31535,15 @@
         <v>1.749765912778841</v>
       </c>
       <c r="CR69" s="39">
-        <v>-1.7719599558066363</v>
-      </c>
-      <c r="CS69" s="39"/>
-      <c r="CT69" s="39"/>
-      <c r="CU69" s="39"/>
-      <c r="CV69" s="39"/>
-      <c r="CW69" s="10"/>
+        <v>0.92581806833732117</v>
+      </c>
+      <c r="CS69" s="39">
+        <v>8.1438707075502776</v>
+      </c>
+      <c r="CT69" s="43"/>
+      <c r="CU69" s="43"/>
+      <c r="CV69" s="43"/>
+      <c r="CW69" s="39"/>
       <c r="CX69" s="10"/>
       <c r="CY69" s="10"/>
       <c r="CZ69" s="10"/>
@@ -31789,13 +31882,15 @@
         <v>7.0960919785388228</v>
       </c>
       <c r="CR70" s="39">
-        <v>4.7723147879968479</v>
-      </c>
-      <c r="CS70" s="39"/>
-      <c r="CT70" s="39"/>
-      <c r="CU70" s="39"/>
-      <c r="CV70" s="39"/>
-      <c r="CW70" s="10"/>
+        <v>4.3106729661611496</v>
+      </c>
+      <c r="CS70" s="39">
+        <v>2.3676778377207768</v>
+      </c>
+      <c r="CT70" s="43"/>
+      <c r="CU70" s="43"/>
+      <c r="CV70" s="43"/>
+      <c r="CW70" s="39"/>
       <c r="CX70" s="10"/>
       <c r="CY70" s="10"/>
       <c r="CZ70" s="10"/>
@@ -31944,10 +32039,10 @@
       <c r="CQ71" s="40"/>
       <c r="CR71" s="40"/>
       <c r="CS71" s="40"/>
-      <c r="CT71" s="40"/>
-      <c r="CU71" s="40"/>
-      <c r="CV71" s="40"/>
-      <c r="CW71" s="10"/>
+      <c r="CT71" s="44"/>
+      <c r="CU71" s="44"/>
+      <c r="CV71" s="44"/>
+      <c r="CW71" s="40"/>
       <c r="CX71" s="10"/>
       <c r="CY71" s="10"/>
       <c r="CZ71" s="10"/>
@@ -32286,13 +32381,15 @@
         <v>6.6411863311069084</v>
       </c>
       <c r="CR72" s="39">
-        <v>4.3032568646725053</v>
-      </c>
-      <c r="CS72" s="39"/>
-      <c r="CT72" s="39"/>
-      <c r="CU72" s="39"/>
-      <c r="CV72" s="39"/>
-      <c r="CW72" s="10"/>
+        <v>4.0680650269650158</v>
+      </c>
+      <c r="CS72" s="39">
+        <v>2.7791109444128779</v>
+      </c>
+      <c r="CT72" s="43"/>
+      <c r="CU72" s="43"/>
+      <c r="CV72" s="43"/>
+      <c r="CW72" s="39"/>
       <c r="CX72" s="10"/>
       <c r="CY72" s="10"/>
       <c r="CZ72" s="10"/>
@@ -32442,9 +32539,10 @@
       <c r="CQ73" s="36"/>
       <c r="CR73" s="36"/>
       <c r="CS73" s="36"/>
-      <c r="CT73" s="36"/>
-      <c r="CU73" s="36"/>
-      <c r="CV73" s="36"/>
+      <c r="CT73" s="31"/>
+      <c r="CU73" s="31"/>
+      <c r="CV73" s="31"/>
+      <c r="CW73" s="36"/>
     </row>
     <row r="74" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
@@ -32454,9 +32552,10 @@
       <c r="CQ74" s="28"/>
       <c r="CR74" s="28"/>
       <c r="CS74" s="28"/>
-      <c r="CT74" s="28"/>
-      <c r="CU74" s="28"/>
-      <c r="CV74" s="28"/>
+      <c r="CT74" s="42"/>
+      <c r="CU74" s="42"/>
+      <c r="CV74" s="42"/>
+      <c r="CW74" s="28"/>
     </row>
     <row r="75" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="10"/>
@@ -32555,10 +32654,10 @@
       <c r="CQ75" s="37"/>
       <c r="CR75" s="37"/>
       <c r="CS75" s="37"/>
-      <c r="CT75" s="37"/>
-      <c r="CU75" s="37"/>
-      <c r="CV75" s="37"/>
-      <c r="CW75" s="10"/>
+      <c r="CT75" s="45"/>
+      <c r="CU75" s="45"/>
+      <c r="CV75" s="45"/>
+      <c r="CW75" s="37"/>
       <c r="CX75" s="10"/>
       <c r="CY75" s="10"/>
       <c r="CZ75" s="10"/>
@@ -32710,7 +32809,7 @@
       <c r="CT76" s="37"/>
       <c r="CU76" s="37"/>
       <c r="CV76" s="37"/>
-      <c r="CW76" s="10"/>
+      <c r="CW76" s="37"/>
       <c r="CX76" s="10"/>
       <c r="CY76" s="10"/>
       <c r="CZ76" s="10"/>
@@ -32773,10 +32872,11 @@
       <c r="CT77" s="28"/>
       <c r="CU77" s="28"/>
       <c r="CV77" s="28"/>
+      <c r="CW77" s="28"/>
     </row>
     <row r="78" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="CP78" s="28"/>
       <c r="CQ78" s="28"/>
@@ -32785,6 +32885,7 @@
       <c r="CT78" s="28"/>
       <c r="CU78" s="28"/>
       <c r="CV78" s="28"/>
+      <c r="CW78" s="28"/>
     </row>
     <row r="79" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CP79" s="28"/>
@@ -32794,6 +32895,7 @@
       <c r="CT79" s="28"/>
       <c r="CU79" s="28"/>
       <c r="CV79" s="28"/>
+      <c r="CW79" s="28"/>
     </row>
     <row r="80" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -32806,10 +32908,11 @@
       <c r="CT80" s="28"/>
       <c r="CU80" s="28"/>
       <c r="CV80" s="28"/>
+      <c r="CW80" s="28"/>
     </row>
     <row r="81" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="CP81" s="28"/>
       <c r="CQ81" s="28"/>
@@ -32818,6 +32921,7 @@
       <c r="CT81" s="28"/>
       <c r="CU81" s="28"/>
       <c r="CV81" s="28"/>
+      <c r="CW81" s="28"/>
     </row>
     <row r="82" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
@@ -32830,6 +32934,7 @@
       <c r="CT82" s="28"/>
       <c r="CU82" s="28"/>
       <c r="CV82" s="28"/>
+      <c r="CW82" s="28"/>
     </row>
     <row r="83" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CP83" s="28"/>
@@ -32839,135 +32944,136 @@
       <c r="CT83" s="28"/>
       <c r="CU83" s="28"/>
       <c r="CV83" s="28"/>
+      <c r="CW83" s="28"/>
     </row>
     <row r="84" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
-      <c r="B84" s="42">
+      <c r="B84" s="47">
         <v>2000</v>
       </c>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="42">
+      <c r="C84" s="48"/>
+      <c r="D84" s="48"/>
+      <c r="E84" s="48"/>
+      <c r="F84" s="47">
         <v>2001</v>
       </c>
-      <c r="G84" s="43"/>
-      <c r="H84" s="43"/>
-      <c r="I84" s="43"/>
-      <c r="J84" s="42">
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="48"/>
+      <c r="J84" s="47">
         <v>2002</v>
       </c>
-      <c r="K84" s="43"/>
-      <c r="L84" s="43"/>
-      <c r="M84" s="43"/>
-      <c r="N84" s="42">
+      <c r="K84" s="48"/>
+      <c r="L84" s="48"/>
+      <c r="M84" s="48"/>
+      <c r="N84" s="47">
         <v>2003</v>
       </c>
-      <c r="O84" s="43"/>
-      <c r="P84" s="43"/>
-      <c r="Q84" s="43"/>
-      <c r="R84" s="42">
+      <c r="O84" s="48"/>
+      <c r="P84" s="48"/>
+      <c r="Q84" s="48"/>
+      <c r="R84" s="47">
         <v>2004</v>
       </c>
-      <c r="S84" s="43"/>
-      <c r="T84" s="43"/>
-      <c r="U84" s="43"/>
-      <c r="V84" s="42">
+      <c r="S84" s="48"/>
+      <c r="T84" s="48"/>
+      <c r="U84" s="48"/>
+      <c r="V84" s="47">
         <v>2005</v>
       </c>
-      <c r="W84" s="43"/>
-      <c r="X84" s="43"/>
-      <c r="Y84" s="43"/>
-      <c r="Z84" s="42">
+      <c r="W84" s="48"/>
+      <c r="X84" s="48"/>
+      <c r="Y84" s="48"/>
+      <c r="Z84" s="47">
         <v>2006</v>
       </c>
-      <c r="AA84" s="43"/>
-      <c r="AB84" s="43"/>
-      <c r="AC84" s="43"/>
-      <c r="AD84" s="42">
+      <c r="AA84" s="48"/>
+      <c r="AB84" s="48"/>
+      <c r="AC84" s="48"/>
+      <c r="AD84" s="47">
         <v>2007</v>
       </c>
-      <c r="AE84" s="43"/>
-      <c r="AF84" s="43"/>
-      <c r="AG84" s="43"/>
-      <c r="AH84" s="42">
+      <c r="AE84" s="48"/>
+      <c r="AF84" s="48"/>
+      <c r="AG84" s="48"/>
+      <c r="AH84" s="47">
         <v>2008</v>
       </c>
-      <c r="AI84" s="43"/>
-      <c r="AJ84" s="43"/>
-      <c r="AK84" s="43"/>
-      <c r="AL84" s="42">
+      <c r="AI84" s="48"/>
+      <c r="AJ84" s="48"/>
+      <c r="AK84" s="48"/>
+      <c r="AL84" s="47">
         <v>2009</v>
       </c>
-      <c r="AM84" s="43"/>
-      <c r="AN84" s="43"/>
-      <c r="AO84" s="43"/>
-      <c r="AP84" s="42">
+      <c r="AM84" s="48"/>
+      <c r="AN84" s="48"/>
+      <c r="AO84" s="48"/>
+      <c r="AP84" s="47">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="43"/>
-      <c r="AR84" s="43"/>
-      <c r="AS84" s="43"/>
-      <c r="AT84" s="42">
+      <c r="AQ84" s="48"/>
+      <c r="AR84" s="48"/>
+      <c r="AS84" s="48"/>
+      <c r="AT84" s="47">
         <v>2011</v>
       </c>
-      <c r="AU84" s="43"/>
-      <c r="AV84" s="43"/>
-      <c r="AW84" s="43"/>
-      <c r="AX84" s="42">
+      <c r="AU84" s="48"/>
+      <c r="AV84" s="48"/>
+      <c r="AW84" s="48"/>
+      <c r="AX84" s="47">
         <v>2012</v>
       </c>
-      <c r="AY84" s="43"/>
-      <c r="AZ84" s="43"/>
-      <c r="BA84" s="43"/>
-      <c r="BB84" s="42">
+      <c r="AY84" s="48"/>
+      <c r="AZ84" s="48"/>
+      <c r="BA84" s="48"/>
+      <c r="BB84" s="47">
         <v>2013</v>
       </c>
-      <c r="BC84" s="43"/>
-      <c r="BD84" s="43"/>
-      <c r="BE84" s="43"/>
-      <c r="BF84" s="42">
+      <c r="BC84" s="48"/>
+      <c r="BD84" s="48"/>
+      <c r="BE84" s="48"/>
+      <c r="BF84" s="47">
         <v>2014</v>
       </c>
-      <c r="BG84" s="43"/>
-      <c r="BH84" s="43"/>
-      <c r="BI84" s="43"/>
-      <c r="BJ84" s="42">
+      <c r="BG84" s="48"/>
+      <c r="BH84" s="48"/>
+      <c r="BI84" s="48"/>
+      <c r="BJ84" s="47">
         <v>2015</v>
       </c>
-      <c r="BK84" s="43"/>
-      <c r="BL84" s="43"/>
-      <c r="BM84" s="43"/>
-      <c r="BN84" s="42">
+      <c r="BK84" s="48"/>
+      <c r="BL84" s="48"/>
+      <c r="BM84" s="48"/>
+      <c r="BN84" s="47">
         <v>2016</v>
       </c>
-      <c r="BO84" s="43"/>
-      <c r="BP84" s="43"/>
-      <c r="BQ84" s="43"/>
-      <c r="BR84" s="42">
+      <c r="BO84" s="48"/>
+      <c r="BP84" s="48"/>
+      <c r="BQ84" s="48"/>
+      <c r="BR84" s="47">
         <v>2017</v>
       </c>
-      <c r="BS84" s="43"/>
-      <c r="BT84" s="43"/>
-      <c r="BU84" s="43"/>
-      <c r="BV84" s="42">
+      <c r="BS84" s="48"/>
+      <c r="BT84" s="48"/>
+      <c r="BU84" s="48"/>
+      <c r="BV84" s="47">
         <v>2018</v>
       </c>
-      <c r="BW84" s="43"/>
-      <c r="BX84" s="43"/>
-      <c r="BY84" s="43"/>
-      <c r="BZ84" s="42">
+      <c r="BW84" s="48"/>
+      <c r="BX84" s="48"/>
+      <c r="BY84" s="48"/>
+      <c r="BZ84" s="47">
         <v>2019</v>
       </c>
-      <c r="CA84" s="43"/>
-      <c r="CB84" s="43"/>
-      <c r="CC84" s="43"/>
-      <c r="CD84" s="42">
+      <c r="CA84" s="48"/>
+      <c r="CB84" s="48"/>
+      <c r="CC84" s="48"/>
+      <c r="CD84" s="47">
         <v>2020</v>
       </c>
-      <c r="CE84" s="42"/>
-      <c r="CF84" s="42"/>
-      <c r="CG84" s="42"/>
+      <c r="CE84" s="47"/>
+      <c r="CF84" s="47"/>
+      <c r="CG84" s="47"/>
       <c r="CH84" s="26">
         <v>2021</v>
       </c>
@@ -32991,6 +33097,7 @@
       </c>
       <c r="CU84" s="30"/>
       <c r="CV84" s="30"/>
+      <c r="CW84" s="30"/>
     </row>
     <row r="85" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
@@ -33292,6 +33399,9 @@
       </c>
       <c r="CV85" s="31" t="s">
         <v>10</v>
+      </c>
+      <c r="CW85" s="31" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -33303,6 +33413,7 @@
       <c r="CT86" s="28"/>
       <c r="CU86" s="28"/>
       <c r="CV86" s="28"/>
+      <c r="CW86" s="28"/>
     </row>
     <row r="87" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
@@ -33603,9 +33714,11 @@
         <v>103.7177005741778</v>
       </c>
       <c r="CV87" s="39">
-        <v>116.69565209086763</v>
-      </c>
-      <c r="CW87" s="10"/>
+        <v>116.87180529973513</v>
+      </c>
+      <c r="CW87" s="39">
+        <v>117.51177010889214</v>
+      </c>
       <c r="CX87" s="10"/>
       <c r="CY87" s="10"/>
       <c r="CZ87" s="10"/>
@@ -33962,7 +34075,9 @@
       <c r="CV88" s="39">
         <v>105.84978886068737</v>
       </c>
-      <c r="CW88" s="10"/>
+      <c r="CW88" s="39">
+        <v>101.66172566526848</v>
+      </c>
       <c r="CX88" s="10"/>
       <c r="CY88" s="10"/>
       <c r="CZ88" s="10"/>
@@ -34118,7 +34233,7 @@
       <c r="CT89" s="40"/>
       <c r="CU89" s="40"/>
       <c r="CV89" s="40"/>
-      <c r="CW89" s="10"/>
+      <c r="CW89" s="40"/>
       <c r="CX89" s="10"/>
       <c r="CY89" s="10"/>
       <c r="CZ89" s="10"/>
@@ -34473,9 +34588,11 @@
         <v>99.895523759939394</v>
       </c>
       <c r="CV90" s="39">
-        <v>106.58188258738861</v>
-      </c>
-      <c r="CW90" s="10"/>
+        <v>106.61593356818391</v>
+      </c>
+      <c r="CW90" s="39">
+        <v>102.84963989995204</v>
+      </c>
       <c r="CX90" s="10"/>
       <c r="CY90" s="10"/>
       <c r="CZ90" s="10"/>
@@ -34632,6 +34749,7 @@
       <c r="CT91" s="36"/>
       <c r="CU91" s="36"/>
       <c r="CV91" s="36"/>
+      <c r="CW91" s="36"/>
     </row>
     <row r="92" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
@@ -34644,6 +34762,7 @@
       <c r="CT92" s="28"/>
       <c r="CU92" s="28"/>
       <c r="CV92" s="28"/>
+      <c r="CW92" s="28"/>
     </row>
     <row r="95" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
@@ -34656,6 +34775,7 @@
       <c r="CT95" s="28"/>
       <c r="CU95" s="28"/>
       <c r="CV95" s="28"/>
+      <c r="CW95" s="28"/>
     </row>
     <row r="96" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
@@ -34668,10 +34788,11 @@
       <c r="CT96" s="28"/>
       <c r="CU96" s="28"/>
       <c r="CV96" s="28"/>
+      <c r="CW96" s="28"/>
     </row>
     <row r="97" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="CP97" s="28"/>
       <c r="CQ97" s="28"/>
@@ -34680,6 +34801,7 @@
       <c r="CT97" s="28"/>
       <c r="CU97" s="28"/>
       <c r="CV97" s="28"/>
+      <c r="CW97" s="28"/>
     </row>
     <row r="98" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CP98" s="28"/>
@@ -34689,6 +34811,7 @@
       <c r="CT98" s="28"/>
       <c r="CU98" s="28"/>
       <c r="CV98" s="28"/>
+      <c r="CW98" s="28"/>
     </row>
     <row r="99" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
@@ -34701,10 +34824,11 @@
       <c r="CT99" s="28"/>
       <c r="CU99" s="28"/>
       <c r="CV99" s="28"/>
+      <c r="CW99" s="28"/>
     </row>
     <row r="100" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="CP100" s="28"/>
       <c r="CQ100" s="28"/>
@@ -34713,6 +34837,7 @@
       <c r="CT100" s="28"/>
       <c r="CU100" s="28"/>
       <c r="CV100" s="28"/>
+      <c r="CW100" s="28"/>
     </row>
     <row r="101" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
@@ -34725,6 +34850,7 @@
       <c r="CT101" s="28"/>
       <c r="CU101" s="28"/>
       <c r="CV101" s="28"/>
+      <c r="CW101" s="28"/>
     </row>
     <row r="102" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CP102" s="28"/>
@@ -34734,135 +34860,136 @@
       <c r="CT102" s="28"/>
       <c r="CU102" s="28"/>
       <c r="CV102" s="28"/>
+      <c r="CW102" s="28"/>
     </row>
     <row r="103" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
-      <c r="B103" s="42">
+      <c r="B103" s="47">
         <v>2000</v>
       </c>
-      <c r="C103" s="43"/>
-      <c r="D103" s="43"/>
-      <c r="E103" s="43"/>
-      <c r="F103" s="42">
+      <c r="C103" s="48"/>
+      <c r="D103" s="48"/>
+      <c r="E103" s="48"/>
+      <c r="F103" s="47">
         <v>2001</v>
       </c>
-      <c r="G103" s="43"/>
-      <c r="H103" s="43"/>
-      <c r="I103" s="43"/>
-      <c r="J103" s="42">
+      <c r="G103" s="48"/>
+      <c r="H103" s="48"/>
+      <c r="I103" s="48"/>
+      <c r="J103" s="47">
         <v>2002</v>
       </c>
-      <c r="K103" s="43"/>
-      <c r="L103" s="43"/>
-      <c r="M103" s="43"/>
-      <c r="N103" s="42">
+      <c r="K103" s="48"/>
+      <c r="L103" s="48"/>
+      <c r="M103" s="48"/>
+      <c r="N103" s="47">
         <v>2003</v>
       </c>
-      <c r="O103" s="43"/>
-      <c r="P103" s="43"/>
-      <c r="Q103" s="43"/>
-      <c r="R103" s="42">
+      <c r="O103" s="48"/>
+      <c r="P103" s="48"/>
+      <c r="Q103" s="48"/>
+      <c r="R103" s="47">
         <v>2004</v>
       </c>
-      <c r="S103" s="43"/>
-      <c r="T103" s="43"/>
-      <c r="U103" s="43"/>
-      <c r="V103" s="42">
+      <c r="S103" s="48"/>
+      <c r="T103" s="48"/>
+      <c r="U103" s="48"/>
+      <c r="V103" s="47">
         <v>2005</v>
       </c>
-      <c r="W103" s="43"/>
-      <c r="X103" s="43"/>
-      <c r="Y103" s="43"/>
-      <c r="Z103" s="42">
+      <c r="W103" s="48"/>
+      <c r="X103" s="48"/>
+      <c r="Y103" s="48"/>
+      <c r="Z103" s="47">
         <v>2006</v>
       </c>
-      <c r="AA103" s="43"/>
-      <c r="AB103" s="43"/>
-      <c r="AC103" s="43"/>
-      <c r="AD103" s="42">
+      <c r="AA103" s="48"/>
+      <c r="AB103" s="48"/>
+      <c r="AC103" s="48"/>
+      <c r="AD103" s="47">
         <v>2007</v>
       </c>
-      <c r="AE103" s="43"/>
-      <c r="AF103" s="43"/>
-      <c r="AG103" s="43"/>
-      <c r="AH103" s="42">
+      <c r="AE103" s="48"/>
+      <c r="AF103" s="48"/>
+      <c r="AG103" s="48"/>
+      <c r="AH103" s="47">
         <v>2008</v>
       </c>
-      <c r="AI103" s="43"/>
-      <c r="AJ103" s="43"/>
-      <c r="AK103" s="43"/>
-      <c r="AL103" s="42">
+      <c r="AI103" s="48"/>
+      <c r="AJ103" s="48"/>
+      <c r="AK103" s="48"/>
+      <c r="AL103" s="47">
         <v>2009</v>
       </c>
-      <c r="AM103" s="43"/>
-      <c r="AN103" s="43"/>
-      <c r="AO103" s="43"/>
-      <c r="AP103" s="42">
+      <c r="AM103" s="48"/>
+      <c r="AN103" s="48"/>
+      <c r="AO103" s="48"/>
+      <c r="AP103" s="47">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="43"/>
-      <c r="AR103" s="43"/>
-      <c r="AS103" s="43"/>
-      <c r="AT103" s="42">
+      <c r="AQ103" s="48"/>
+      <c r="AR103" s="48"/>
+      <c r="AS103" s="48"/>
+      <c r="AT103" s="47">
         <v>2011</v>
       </c>
-      <c r="AU103" s="43"/>
-      <c r="AV103" s="43"/>
-      <c r="AW103" s="43"/>
-      <c r="AX103" s="42">
+      <c r="AU103" s="48"/>
+      <c r="AV103" s="48"/>
+      <c r="AW103" s="48"/>
+      <c r="AX103" s="47">
         <v>2012</v>
       </c>
-      <c r="AY103" s="43"/>
-      <c r="AZ103" s="43"/>
-      <c r="BA103" s="43"/>
-      <c r="BB103" s="42">
+      <c r="AY103" s="48"/>
+      <c r="AZ103" s="48"/>
+      <c r="BA103" s="48"/>
+      <c r="BB103" s="47">
         <v>2013</v>
       </c>
-      <c r="BC103" s="43"/>
-      <c r="BD103" s="43"/>
-      <c r="BE103" s="43"/>
-      <c r="BF103" s="42">
+      <c r="BC103" s="48"/>
+      <c r="BD103" s="48"/>
+      <c r="BE103" s="48"/>
+      <c r="BF103" s="47">
         <v>2014</v>
       </c>
-      <c r="BG103" s="43"/>
-      <c r="BH103" s="43"/>
-      <c r="BI103" s="43"/>
-      <c r="BJ103" s="42">
+      <c r="BG103" s="48"/>
+      <c r="BH103" s="48"/>
+      <c r="BI103" s="48"/>
+      <c r="BJ103" s="47">
         <v>2015</v>
       </c>
-      <c r="BK103" s="43"/>
-      <c r="BL103" s="43"/>
-      <c r="BM103" s="43"/>
-      <c r="BN103" s="42">
+      <c r="BK103" s="48"/>
+      <c r="BL103" s="48"/>
+      <c r="BM103" s="48"/>
+      <c r="BN103" s="47">
         <v>2016</v>
       </c>
-      <c r="BO103" s="43"/>
-      <c r="BP103" s="43"/>
-      <c r="BQ103" s="43"/>
-      <c r="BR103" s="42">
+      <c r="BO103" s="48"/>
+      <c r="BP103" s="48"/>
+      <c r="BQ103" s="48"/>
+      <c r="BR103" s="47">
         <v>2017</v>
       </c>
-      <c r="BS103" s="43"/>
-      <c r="BT103" s="43"/>
-      <c r="BU103" s="43"/>
-      <c r="BV103" s="42">
+      <c r="BS103" s="48"/>
+      <c r="BT103" s="48"/>
+      <c r="BU103" s="48"/>
+      <c r="BV103" s="47">
         <v>2018</v>
       </c>
-      <c r="BW103" s="43"/>
-      <c r="BX103" s="43"/>
-      <c r="BY103" s="43"/>
-      <c r="BZ103" s="42">
+      <c r="BW103" s="48"/>
+      <c r="BX103" s="48"/>
+      <c r="BY103" s="48"/>
+      <c r="BZ103" s="47">
         <v>2019</v>
       </c>
-      <c r="CA103" s="43"/>
-      <c r="CB103" s="43"/>
-      <c r="CC103" s="43"/>
-      <c r="CD103" s="42">
+      <c r="CA103" s="48"/>
+      <c r="CB103" s="48"/>
+      <c r="CC103" s="48"/>
+      <c r="CD103" s="47">
         <v>2020</v>
       </c>
-      <c r="CE103" s="42"/>
-      <c r="CF103" s="42"/>
-      <c r="CG103" s="42"/>
+      <c r="CE103" s="47"/>
+      <c r="CF103" s="47"/>
+      <c r="CG103" s="47"/>
       <c r="CH103" s="26">
         <v>2021</v>
       </c>
@@ -34886,6 +35013,7 @@
       </c>
       <c r="CU103" s="30"/>
       <c r="CV103" s="30"/>
+      <c r="CW103" s="30"/>
     </row>
     <row r="104" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
@@ -35187,6 +35315,9 @@
       </c>
       <c r="CV104" s="31" t="s">
         <v>10</v>
+      </c>
+      <c r="CW104" s="31" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35198,6 +35329,7 @@
       <c r="CT105" s="28"/>
       <c r="CU105" s="28"/>
       <c r="CV105" s="28"/>
+      <c r="CW105" s="28"/>
     </row>
     <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
@@ -35498,9 +35630,11 @@
         <v>8.4290996610587214</v>
       </c>
       <c r="CV106" s="39">
-        <v>7.3905004877343581</v>
-      </c>
-      <c r="CW106" s="10"/>
+        <v>7.619691527076478</v>
+      </c>
+      <c r="CW106" s="39">
+        <v>8.5631429668800951</v>
+      </c>
       <c r="CX106" s="10"/>
       <c r="CY106" s="10"/>
       <c r="CZ106" s="10"/>
@@ -35855,9 +35989,11 @@
         <v>91.570900338941271</v>
       </c>
       <c r="CV107" s="39">
-        <v>92.609499512265643</v>
-      </c>
-      <c r="CW107" s="10"/>
+        <v>92.380308472923517</v>
+      </c>
+      <c r="CW107" s="39">
+        <v>91.436857033119907</v>
+      </c>
       <c r="CX107" s="10"/>
       <c r="CY107" s="10"/>
       <c r="CZ107" s="10"/>
@@ -36013,7 +36149,7 @@
       <c r="CT108" s="40"/>
       <c r="CU108" s="40"/>
       <c r="CV108" s="40"/>
-      <c r="CW108" s="10"/>
+      <c r="CW108" s="40"/>
       <c r="CX108" s="10"/>
       <c r="CY108" s="10"/>
       <c r="CZ108" s="10"/>
@@ -36370,7 +36506,9 @@
       <c r="CV109" s="39">
         <v>100</v>
       </c>
-      <c r="CW109" s="10"/>
+      <c r="CW109" s="39">
+        <v>100</v>
+      </c>
       <c r="CX109" s="10"/>
       <c r="CY109" s="10"/>
       <c r="CZ109" s="10"/>
@@ -36527,6 +36665,7 @@
       <c r="CT110" s="36"/>
       <c r="CU110" s="36"/>
       <c r="CV110" s="36"/>
+      <c r="CW110" s="36"/>
     </row>
     <row r="111" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
@@ -36539,6 +36678,7 @@
       <c r="CT111" s="28"/>
       <c r="CU111" s="28"/>
       <c r="CV111" s="28"/>
+      <c r="CW111" s="28"/>
     </row>
     <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="10"/>
@@ -36640,7 +36780,7 @@
       <c r="CT112" s="37"/>
       <c r="CU112" s="37"/>
       <c r="CV112" s="37"/>
-      <c r="CW112" s="10"/>
+      <c r="CW112" s="37"/>
       <c r="CX112" s="10"/>
       <c r="CY112" s="10"/>
       <c r="CZ112" s="10"/>
@@ -36796,7 +36936,7 @@
       <c r="CT113" s="37"/>
       <c r="CU113" s="37"/>
       <c r="CV113" s="37"/>
-      <c r="CW113" s="10"/>
+      <c r="CW113" s="37"/>
       <c r="CX113" s="10"/>
       <c r="CY113" s="10"/>
       <c r="CZ113" s="10"/>
@@ -36863,6 +37003,7 @@
       <c r="CT114" s="28"/>
       <c r="CU114" s="28"/>
       <c r="CV114" s="28"/>
+      <c r="CW114" s="28"/>
     </row>
     <row r="115" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
@@ -36875,10 +37016,11 @@
       <c r="CT115" s="28"/>
       <c r="CU115" s="28"/>
       <c r="CV115" s="28"/>
+      <c r="CW115" s="28"/>
     </row>
     <row r="116" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="CP116" s="28"/>
       <c r="CQ116" s="28"/>
@@ -36887,6 +37029,7 @@
       <c r="CT116" s="28"/>
       <c r="CU116" s="28"/>
       <c r="CV116" s="28"/>
+      <c r="CW116" s="28"/>
     </row>
     <row r="117" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CP117" s="28"/>
@@ -36896,6 +37039,7 @@
       <c r="CT117" s="28"/>
       <c r="CU117" s="28"/>
       <c r="CV117" s="28"/>
+      <c r="CW117" s="28"/>
     </row>
     <row r="118" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
@@ -36908,10 +37052,11 @@
       <c r="CT118" s="28"/>
       <c r="CU118" s="28"/>
       <c r="CV118" s="28"/>
+      <c r="CW118" s="28"/>
     </row>
     <row r="119" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="CP119" s="28"/>
       <c r="CQ119" s="28"/>
@@ -36920,6 +37065,7 @@
       <c r="CT119" s="28"/>
       <c r="CU119" s="28"/>
       <c r="CV119" s="28"/>
+      <c r="CW119" s="28"/>
     </row>
     <row r="120" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
@@ -36932,6 +37078,7 @@
       <c r="CT120" s="28"/>
       <c r="CU120" s="28"/>
       <c r="CV120" s="28"/>
+      <c r="CW120" s="28"/>
     </row>
     <row r="121" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CP121" s="28"/>
@@ -36941,135 +37088,136 @@
       <c r="CT121" s="28"/>
       <c r="CU121" s="28"/>
       <c r="CV121" s="28"/>
+      <c r="CW121" s="28"/>
     </row>
     <row r="122" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
-      <c r="B122" s="42">
+      <c r="B122" s="47">
         <v>2000</v>
       </c>
-      <c r="C122" s="43"/>
-      <c r="D122" s="43"/>
-      <c r="E122" s="43"/>
-      <c r="F122" s="42">
+      <c r="C122" s="48"/>
+      <c r="D122" s="48"/>
+      <c r="E122" s="48"/>
+      <c r="F122" s="47">
         <v>2001</v>
       </c>
-      <c r="G122" s="43"/>
-      <c r="H122" s="43"/>
-      <c r="I122" s="43"/>
-      <c r="J122" s="42">
+      <c r="G122" s="48"/>
+      <c r="H122" s="48"/>
+      <c r="I122" s="48"/>
+      <c r="J122" s="47">
         <v>2002</v>
       </c>
-      <c r="K122" s="43"/>
-      <c r="L122" s="43"/>
-      <c r="M122" s="43"/>
-      <c r="N122" s="42">
+      <c r="K122" s="48"/>
+      <c r="L122" s="48"/>
+      <c r="M122" s="48"/>
+      <c r="N122" s="47">
         <v>2003</v>
       </c>
-      <c r="O122" s="43"/>
-      <c r="P122" s="43"/>
-      <c r="Q122" s="43"/>
-      <c r="R122" s="42">
+      <c r="O122" s="48"/>
+      <c r="P122" s="48"/>
+      <c r="Q122" s="48"/>
+      <c r="R122" s="47">
         <v>2004</v>
       </c>
-      <c r="S122" s="43"/>
-      <c r="T122" s="43"/>
-      <c r="U122" s="43"/>
-      <c r="V122" s="42">
+      <c r="S122" s="48"/>
+      <c r="T122" s="48"/>
+      <c r="U122" s="48"/>
+      <c r="V122" s="47">
         <v>2005</v>
       </c>
-      <c r="W122" s="43"/>
-      <c r="X122" s="43"/>
-      <c r="Y122" s="43"/>
-      <c r="Z122" s="42">
+      <c r="W122" s="48"/>
+      <c r="X122" s="48"/>
+      <c r="Y122" s="48"/>
+      <c r="Z122" s="47">
         <v>2006</v>
       </c>
-      <c r="AA122" s="43"/>
-      <c r="AB122" s="43"/>
-      <c r="AC122" s="43"/>
-      <c r="AD122" s="42">
+      <c r="AA122" s="48"/>
+      <c r="AB122" s="48"/>
+      <c r="AC122" s="48"/>
+      <c r="AD122" s="47">
         <v>2007</v>
       </c>
-      <c r="AE122" s="43"/>
-      <c r="AF122" s="43"/>
-      <c r="AG122" s="43"/>
-      <c r="AH122" s="42">
+      <c r="AE122" s="48"/>
+      <c r="AF122" s="48"/>
+      <c r="AG122" s="48"/>
+      <c r="AH122" s="47">
         <v>2008</v>
       </c>
-      <c r="AI122" s="43"/>
-      <c r="AJ122" s="43"/>
-      <c r="AK122" s="43"/>
-      <c r="AL122" s="42">
+      <c r="AI122" s="48"/>
+      <c r="AJ122" s="48"/>
+      <c r="AK122" s="48"/>
+      <c r="AL122" s="47">
         <v>2009</v>
       </c>
-      <c r="AM122" s="43"/>
-      <c r="AN122" s="43"/>
-      <c r="AO122" s="43"/>
-      <c r="AP122" s="42">
+      <c r="AM122" s="48"/>
+      <c r="AN122" s="48"/>
+      <c r="AO122" s="48"/>
+      <c r="AP122" s="47">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="43"/>
-      <c r="AR122" s="43"/>
-      <c r="AS122" s="43"/>
-      <c r="AT122" s="42">
+      <c r="AQ122" s="48"/>
+      <c r="AR122" s="48"/>
+      <c r="AS122" s="48"/>
+      <c r="AT122" s="47">
         <v>2011</v>
       </c>
-      <c r="AU122" s="43"/>
-      <c r="AV122" s="43"/>
-      <c r="AW122" s="43"/>
-      <c r="AX122" s="42">
+      <c r="AU122" s="48"/>
+      <c r="AV122" s="48"/>
+      <c r="AW122" s="48"/>
+      <c r="AX122" s="47">
         <v>2012</v>
       </c>
-      <c r="AY122" s="43"/>
-      <c r="AZ122" s="43"/>
-      <c r="BA122" s="43"/>
-      <c r="BB122" s="42">
+      <c r="AY122" s="48"/>
+      <c r="AZ122" s="48"/>
+      <c r="BA122" s="48"/>
+      <c r="BB122" s="47">
         <v>2013</v>
       </c>
-      <c r="BC122" s="43"/>
-      <c r="BD122" s="43"/>
-      <c r="BE122" s="43"/>
-      <c r="BF122" s="42">
+      <c r="BC122" s="48"/>
+      <c r="BD122" s="48"/>
+      <c r="BE122" s="48"/>
+      <c r="BF122" s="47">
         <v>2014</v>
       </c>
-      <c r="BG122" s="43"/>
-      <c r="BH122" s="43"/>
-      <c r="BI122" s="43"/>
-      <c r="BJ122" s="42">
+      <c r="BG122" s="48"/>
+      <c r="BH122" s="48"/>
+      <c r="BI122" s="48"/>
+      <c r="BJ122" s="47">
         <v>2015</v>
       </c>
-      <c r="BK122" s="43"/>
-      <c r="BL122" s="43"/>
-      <c r="BM122" s="43"/>
-      <c r="BN122" s="42">
+      <c r="BK122" s="48"/>
+      <c r="BL122" s="48"/>
+      <c r="BM122" s="48"/>
+      <c r="BN122" s="47">
         <v>2016</v>
       </c>
-      <c r="BO122" s="43"/>
-      <c r="BP122" s="43"/>
-      <c r="BQ122" s="43"/>
-      <c r="BR122" s="42">
+      <c r="BO122" s="48"/>
+      <c r="BP122" s="48"/>
+      <c r="BQ122" s="48"/>
+      <c r="BR122" s="47">
         <v>2017</v>
       </c>
-      <c r="BS122" s="43"/>
-      <c r="BT122" s="43"/>
-      <c r="BU122" s="43"/>
-      <c r="BV122" s="42">
+      <c r="BS122" s="48"/>
+      <c r="BT122" s="48"/>
+      <c r="BU122" s="48"/>
+      <c r="BV122" s="47">
         <v>2018</v>
       </c>
-      <c r="BW122" s="43"/>
-      <c r="BX122" s="43"/>
-      <c r="BY122" s="43"/>
-      <c r="BZ122" s="42">
+      <c r="BW122" s="48"/>
+      <c r="BX122" s="48"/>
+      <c r="BY122" s="48"/>
+      <c r="BZ122" s="47">
         <v>2019</v>
       </c>
-      <c r="CA122" s="43"/>
-      <c r="CB122" s="43"/>
-      <c r="CC122" s="43"/>
-      <c r="CD122" s="42">
+      <c r="CA122" s="48"/>
+      <c r="CB122" s="48"/>
+      <c r="CC122" s="48"/>
+      <c r="CD122" s="47">
         <v>2020</v>
       </c>
-      <c r="CE122" s="42"/>
-      <c r="CF122" s="42"/>
-      <c r="CG122" s="42"/>
+      <c r="CE122" s="47"/>
+      <c r="CF122" s="47"/>
+      <c r="CG122" s="47"/>
       <c r="CH122" s="26">
         <v>2021</v>
       </c>
@@ -37093,6 +37241,7 @@
       </c>
       <c r="CU122" s="30"/>
       <c r="CV122" s="30"/>
+      <c r="CW122" s="30"/>
     </row>
     <row r="123" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
@@ -37394,6 +37543,9 @@
       </c>
       <c r="CV123" s="31" t="s">
         <v>10</v>
+      </c>
+      <c r="CW123" s="31" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37405,6 +37557,7 @@
       <c r="CT124" s="28"/>
       <c r="CU124" s="28"/>
       <c r="CV124" s="28"/>
+      <c r="CW124" s="28"/>
     </row>
     <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
@@ -37705,9 +37858,11 @@
         <v>8.1184727467417979</v>
       </c>
       <c r="CV125" s="39">
-        <v>6.7499811786679675</v>
-      </c>
-      <c r="CW125" s="10"/>
+        <v>6.9510394194508152</v>
+      </c>
+      <c r="CW125" s="39">
+        <v>7.4947060174424251</v>
+      </c>
       <c r="CX125" s="10"/>
       <c r="CY125" s="10"/>
       <c r="CZ125" s="10"/>
@@ -38062,9 +38217,11 @@
         <v>91.881527253258199</v>
       </c>
       <c r="CV126" s="39">
-        <v>93.250018821332034</v>
-      </c>
-      <c r="CW126" s="10"/>
+        <v>93.048960580549178</v>
+      </c>
+      <c r="CW126" s="39">
+        <v>92.505293982557575</v>
+      </c>
       <c r="CX126" s="10"/>
       <c r="CY126" s="10"/>
       <c r="CZ126" s="10"/>
@@ -38220,7 +38377,7 @@
       <c r="CT127" s="40"/>
       <c r="CU127" s="40"/>
       <c r="CV127" s="40"/>
-      <c r="CW127" s="10"/>
+      <c r="CW127" s="40"/>
       <c r="CX127" s="10"/>
       <c r="CY127" s="10"/>
       <c r="CZ127" s="10"/>
@@ -38577,7 +38734,9 @@
       <c r="CV128" s="39">
         <v>100</v>
       </c>
-      <c r="CW128" s="10"/>
+      <c r="CW128" s="39">
+        <v>100</v>
+      </c>
       <c r="CX128" s="10"/>
       <c r="CY128" s="10"/>
       <c r="CZ128" s="10"/>
@@ -38734,6 +38893,7 @@
       <c r="CT129" s="36"/>
       <c r="CU129" s="36"/>
       <c r="CV129" s="36"/>
+      <c r="CW129" s="36"/>
     </row>
     <row r="130" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
@@ -38746,6 +38906,7 @@
       <c r="CT130" s="28"/>
       <c r="CU130" s="28"/>
       <c r="CV130" s="28"/>
+      <c r="CW130" s="28"/>
     </row>
     <row r="131" spans="1:155" s="21" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
@@ -38845,10 +39006,10 @@
       <c r="CQ131" s="41"/>
       <c r="CR131" s="41"/>
       <c r="CS131" s="41"/>
-      <c r="CT131" s="41"/>
-      <c r="CU131" s="41"/>
-      <c r="CV131" s="41"/>
-      <c r="CW131" s="20"/>
+      <c r="CT131" s="46"/>
+      <c r="CU131" s="46"/>
+      <c r="CV131" s="46"/>
+      <c r="CW131" s="41"/>
       <c r="CX131" s="20"/>
       <c r="CY131" s="20"/>
       <c r="CZ131" s="20"/>
@@ -39002,10 +39163,10 @@
       <c r="CQ132" s="41"/>
       <c r="CR132" s="41"/>
       <c r="CS132" s="41"/>
-      <c r="CT132" s="41"/>
-      <c r="CU132" s="41"/>
-      <c r="CV132" s="41"/>
-      <c r="CW132" s="20"/>
+      <c r="CT132" s="46"/>
+      <c r="CU132" s="46"/>
+      <c r="CV132" s="46"/>
+      <c r="CW132" s="41"/>
       <c r="CX132" s="20"/>
       <c r="CY132" s="20"/>
       <c r="CZ132" s="20"/>
@@ -39061,107 +39222,57 @@
       <c r="EX132" s="20"/>
       <c r="EY132" s="20"/>
     </row>
+    <row r="133" spans="1:155" x14ac:dyDescent="0.2">
+      <c r="CT133" s="46"/>
+      <c r="CU133" s="46"/>
+      <c r="CV133" s="46"/>
+    </row>
+    <row r="134" spans="1:155" x14ac:dyDescent="0.2">
+      <c r="CT134" s="46"/>
+      <c r="CU134" s="46"/>
+      <c r="CV134" s="46"/>
+    </row>
+    <row r="135" spans="1:155" x14ac:dyDescent="0.2">
+      <c r="CT135" s="46"/>
+      <c r="CU135" s="46"/>
+      <c r="CV135" s="46"/>
+    </row>
+    <row r="136" spans="1:155" x14ac:dyDescent="0.2">
+      <c r="CT136" s="46"/>
+      <c r="CU136" s="46"/>
+      <c r="CV136" s="46"/>
+    </row>
+    <row r="137" spans="1:155" x14ac:dyDescent="0.2">
+      <c r="CT137" s="46"/>
+      <c r="CU137" s="46"/>
+      <c r="CV137" s="46"/>
+    </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="BN122:BQ122"/>
-    <mergeCell ref="BJ103:BM103"/>
-    <mergeCell ref="BN103:BQ103"/>
-    <mergeCell ref="BR122:BU122"/>
-    <mergeCell ref="BV122:BY122"/>
-    <mergeCell ref="BF103:BI103"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="BR84:BU84"/>
-    <mergeCell ref="BV84:BY84"/>
-    <mergeCell ref="BJ122:BM122"/>
-    <mergeCell ref="BF122:BI122"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="AX122:BA122"/>
-    <mergeCell ref="BB122:BE122"/>
-    <mergeCell ref="BB103:BE103"/>
-    <mergeCell ref="AT103:AW103"/>
-    <mergeCell ref="AX103:BA103"/>
-    <mergeCell ref="BF47:BI47"/>
-    <mergeCell ref="BJ47:BM47"/>
-    <mergeCell ref="BN47:BQ47"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="BN28:BQ28"/>
-    <mergeCell ref="BJ28:BM28"/>
-    <mergeCell ref="BJ66:BM66"/>
-    <mergeCell ref="BF28:BI28"/>
-    <mergeCell ref="BF66:BI66"/>
-    <mergeCell ref="BN66:BQ66"/>
-    <mergeCell ref="Z103:AC103"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="AH103:AK103"/>
-    <mergeCell ref="AL122:AO122"/>
-    <mergeCell ref="AP122:AS122"/>
-    <mergeCell ref="AL103:AO103"/>
-    <mergeCell ref="AP103:AS103"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="R122:U122"/>
-    <mergeCell ref="V122:Y122"/>
-    <mergeCell ref="Z122:AC122"/>
-    <mergeCell ref="AD122:AG122"/>
-    <mergeCell ref="AH122:AK122"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="V103:Y103"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AL66:AO66"/>
-    <mergeCell ref="AP66:AS66"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="R66:U66"/>
-    <mergeCell ref="V66:Y66"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="R47:U47"/>
-    <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="AL28:AO28"/>
-    <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="AT28:AW28"/>
-    <mergeCell ref="AX28:BA28"/>
-    <mergeCell ref="BB28:BE28"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AP47:AS47"/>
-    <mergeCell ref="AX66:BA66"/>
-    <mergeCell ref="BB66:BE66"/>
-    <mergeCell ref="BB47:BE47"/>
-    <mergeCell ref="AT47:AW47"/>
-    <mergeCell ref="AX47:BA47"/>
-    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD122:CG122"/>
+    <mergeCell ref="CD103:CG103"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="CD28:CG28"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR28:BU28"/>
+    <mergeCell ref="BV28:BY28"/>
+    <mergeCell ref="BZ28:CC28"/>
+    <mergeCell ref="BV47:BY47"/>
+    <mergeCell ref="BZ103:CC103"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="BZ47:CC47"/>
+    <mergeCell ref="BZ66:CC66"/>
+    <mergeCell ref="BR66:BU66"/>
+    <mergeCell ref="BV66:BY66"/>
+    <mergeCell ref="BR47:BU47"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ122:CC122"/>
+    <mergeCell ref="BR103:BU103"/>
+    <mergeCell ref="BV103:BY103"/>
     <mergeCell ref="BJ9:BM9"/>
     <mergeCell ref="BN9:BQ9"/>
     <mergeCell ref="B28:E28"/>
@@ -39186,39 +39297,114 @@
     <mergeCell ref="R9:U9"/>
     <mergeCell ref="AD28:AG28"/>
     <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD122:CG122"/>
-    <mergeCell ref="CD103:CG103"/>
-    <mergeCell ref="CD47:CG47"/>
-    <mergeCell ref="CD66:CG66"/>
-    <mergeCell ref="CD28:CG28"/>
-    <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR28:BU28"/>
-    <mergeCell ref="BV28:BY28"/>
-    <mergeCell ref="BZ28:CC28"/>
-    <mergeCell ref="BV47:BY47"/>
-    <mergeCell ref="BZ103:CC103"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="BZ47:CC47"/>
-    <mergeCell ref="BZ66:CC66"/>
-    <mergeCell ref="BR66:BU66"/>
-    <mergeCell ref="BV66:BY66"/>
-    <mergeCell ref="BR47:BU47"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ122:CC122"/>
-    <mergeCell ref="BR103:BU103"/>
-    <mergeCell ref="BV103:BY103"/>
+    <mergeCell ref="AT28:AW28"/>
+    <mergeCell ref="AX28:BA28"/>
+    <mergeCell ref="BB28:BE28"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="AL47:AO47"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="AX66:BA66"/>
+    <mergeCell ref="BB66:BE66"/>
+    <mergeCell ref="BB47:BE47"/>
+    <mergeCell ref="AT47:AW47"/>
+    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="R66:U66"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="Z47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="AH47:AK47"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="AL28:AO28"/>
+    <mergeCell ref="AP28:AS28"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="V103:Y103"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="R122:U122"/>
+    <mergeCell ref="V122:Y122"/>
+    <mergeCell ref="Z122:AC122"/>
+    <mergeCell ref="AD122:AG122"/>
+    <mergeCell ref="AH122:AK122"/>
+    <mergeCell ref="Z103:AC103"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="AH103:AK103"/>
+    <mergeCell ref="AL122:AO122"/>
+    <mergeCell ref="AP122:AS122"/>
+    <mergeCell ref="AL103:AO103"/>
+    <mergeCell ref="AP103:AS103"/>
+    <mergeCell ref="BF47:BI47"/>
+    <mergeCell ref="BJ47:BM47"/>
+    <mergeCell ref="BN47:BQ47"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="BN28:BQ28"/>
+    <mergeCell ref="BJ28:BM28"/>
+    <mergeCell ref="BJ66:BM66"/>
+    <mergeCell ref="BF28:BI28"/>
+    <mergeCell ref="BF66:BI66"/>
+    <mergeCell ref="BN66:BQ66"/>
+    <mergeCell ref="BN122:BQ122"/>
+    <mergeCell ref="BJ103:BM103"/>
+    <mergeCell ref="BN103:BQ103"/>
+    <mergeCell ref="BR122:BU122"/>
+    <mergeCell ref="BV122:BY122"/>
+    <mergeCell ref="BF103:BI103"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="BR84:BU84"/>
+    <mergeCell ref="BV84:BY84"/>
+    <mergeCell ref="BJ122:BM122"/>
+    <mergeCell ref="BF122:BI122"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="AX122:BA122"/>
+    <mergeCell ref="BB122:BE122"/>
+    <mergeCell ref="BB103:BE103"/>
+    <mergeCell ref="AT103:AW103"/>
+    <mergeCell ref="AX103:BA103"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="99" man="1"/>
-    <brk id="76" max="99" man="1"/>
-    <brk id="94" max="99" man="1"/>
+    <brk id="38" max="100" man="1"/>
+    <brk id="76" max="100" man="1"/>
+    <brk id="94" max="100" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-16IAC_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-16IAC_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3615E6-29CB-47C3-A930-955AB8396524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CA04BD-761C-4317-97CD-5D332261ED81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IAC!$A$1:$CW$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IAC!$A$1:$CX$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="55">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -619,13 +619,19 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2024</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2024</t>
+    <t>2024 - 2025</t>
   </si>
   <si>
-    <t>As of January 2025</t>
+    <t>Q1 2000 to Q1 2025</t>
+  </si>
+  <si>
+    <t>Q1 2001 to Q1 2025</t>
+  </si>
+  <si>
+    <t>As of May 2025</t>
   </si>
 </sst>
 </file>
@@ -23680,39 +23686,50 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EY137"/>
+  <dimension ref="A1:EY135"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CH1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="CX1" sqref="CX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.6640625" style="1" customWidth="1"/>
-    <col min="2" max="93" width="11.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="94" max="101" width="10.109375" style="41" customWidth="1"/>
-    <col min="102" max="16384" width="7.77734375" style="11"/>
+    <col min="2" max="89" width="11.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="90" max="102" width="10.109375" style="41" customWidth="1"/>
+    <col min="103" max="16384" width="7.77734375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CL1" s="28"/>
+      <c r="CM1" s="28"/>
+      <c r="CN1" s="28"/>
+      <c r="CO1" s="28"/>
       <c r="CP1" s="28"/>
       <c r="CQ1" s="28"/>
       <c r="CR1" s="28"/>
       <c r="CS1" s="28"/>
-      <c r="CT1" s="28"/>
+      <c r="CT1" s="28" t="s">
+        <v>50</v>
+      </c>
       <c r="CU1" s="28"/>
       <c r="CV1" s="28"/>
       <c r="CW1" s="28"/>
+      <c r="CX1" s="28"/>
     </row>
     <row r="2" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="CL2" s="28"/>
+      <c r="CM2" s="28"/>
+      <c r="CN2" s="28"/>
+      <c r="CO2" s="28"/>
       <c r="CP2" s="28"/>
       <c r="CQ2" s="28"/>
       <c r="CR2" s="28"/>
@@ -23721,11 +23738,16 @@
       <c r="CU2" s="28"/>
       <c r="CV2" s="28"/>
       <c r="CW2" s="28"/>
+      <c r="CX2" s="28"/>
     </row>
     <row r="3" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="CL3" s="28"/>
+      <c r="CM3" s="28"/>
+      <c r="CN3" s="28"/>
+      <c r="CO3" s="28"/>
       <c r="CP3" s="28"/>
       <c r="CQ3" s="28"/>
       <c r="CR3" s="28"/>
@@ -23734,8 +23756,13 @@
       <c r="CU3" s="28"/>
       <c r="CV3" s="28"/>
       <c r="CW3" s="28"/>
+      <c r="CX3" s="28"/>
     </row>
     <row r="4" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL4" s="28"/>
+      <c r="CM4" s="28"/>
+      <c r="CN4" s="28"/>
+      <c r="CO4" s="28"/>
       <c r="CP4" s="28"/>
       <c r="CQ4" s="28"/>
       <c r="CR4" s="28"/>
@@ -23744,11 +23771,16 @@
       <c r="CU4" s="28"/>
       <c r="CV4" s="28"/>
       <c r="CW4" s="28"/>
+      <c r="CX4" s="28"/>
     </row>
     <row r="5" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="CL5" s="28"/>
+      <c r="CM5" s="28"/>
+      <c r="CN5" s="28"/>
+      <c r="CO5" s="28"/>
       <c r="CP5" s="28"/>
       <c r="CQ5" s="28"/>
       <c r="CR5" s="28"/>
@@ -23757,11 +23789,16 @@
       <c r="CU5" s="28"/>
       <c r="CV5" s="28"/>
       <c r="CW5" s="28"/>
+      <c r="CX5" s="28"/>
     </row>
     <row r="6" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="CL6" s="28"/>
+      <c r="CM6" s="28"/>
+      <c r="CN6" s="28"/>
+      <c r="CO6" s="28"/>
       <c r="CP6" s="28"/>
       <c r="CQ6" s="28"/>
       <c r="CR6" s="28"/>
@@ -23770,6 +23807,7 @@
       <c r="CU6" s="28"/>
       <c r="CV6" s="28"/>
       <c r="CW6" s="28"/>
+      <c r="CX6" s="28"/>
     </row>
     <row r="7" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -23863,10 +23901,10 @@
       <c r="CI7" s="4"/>
       <c r="CJ7" s="4"/>
       <c r="CK7" s="4"/>
-      <c r="CL7" s="4"/>
-      <c r="CM7" s="4"/>
-      <c r="CN7" s="4"/>
-      <c r="CO7" s="4"/>
+      <c r="CL7" s="29"/>
+      <c r="CM7" s="29"/>
+      <c r="CN7" s="29"/>
+      <c r="CO7" s="29"/>
       <c r="CP7" s="29"/>
       <c r="CQ7" s="29"/>
       <c r="CR7" s="29"/>
@@ -23875,6 +23913,7 @@
       <c r="CU7" s="29"/>
       <c r="CV7" s="29"/>
       <c r="CW7" s="29"/>
+      <c r="CX7" s="29"/>
     </row>
     <row r="8" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
@@ -23965,10 +24004,10 @@
       <c r="CI8" s="4"/>
       <c r="CJ8" s="4"/>
       <c r="CK8" s="4"/>
-      <c r="CL8" s="4"/>
-      <c r="CM8" s="4"/>
-      <c r="CN8" s="4"/>
-      <c r="CO8" s="4"/>
+      <c r="CL8" s="29"/>
+      <c r="CM8" s="29"/>
+      <c r="CN8" s="29"/>
+      <c r="CO8" s="29"/>
       <c r="CP8" s="29"/>
       <c r="CQ8" s="29"/>
       <c r="CR8" s="29"/>
@@ -23977,6 +24016,7 @@
       <c r="CU8" s="29"/>
       <c r="CV8" s="29"/>
       <c r="CW8" s="29"/>
+      <c r="CX8" s="29"/>
     </row>
     <row r="9" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
@@ -24112,12 +24152,12 @@
       <c r="CI9" s="26"/>
       <c r="CJ9" s="26"/>
       <c r="CK9" s="26"/>
-      <c r="CL9" s="26">
+      <c r="CL9" s="30">
         <v>2022</v>
       </c>
-      <c r="CM9" s="26"/>
-      <c r="CN9" s="26"/>
-      <c r="CO9" s="26"/>
+      <c r="CM9" s="30"/>
+      <c r="CN9" s="30"/>
+      <c r="CO9" s="30"/>
       <c r="CP9" s="30">
         <v>2023</v>
       </c>
@@ -24130,6 +24170,9 @@
       <c r="CU9" s="30"/>
       <c r="CV9" s="30"/>
       <c r="CW9" s="30"/>
+      <c r="CX9" s="30">
+        <v>2025</v>
+      </c>
     </row>
     <row r="10" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24399,16 +24442,16 @@
       <c r="CK10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="7" t="s">
+      <c r="CL10" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CM10" s="7" t="s">
+      <c r="CM10" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="CN10" s="7" t="s">
+      <c r="CN10" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="CO10" s="7" t="s">
+      <c r="CO10" s="31" t="s">
         <v>9</v>
       </c>
       <c r="CP10" s="31" t="s">
@@ -24434,10 +24477,17 @@
       </c>
       <c r="CW10" s="31" t="s">
         <v>9</v>
+      </c>
+      <c r="CX10" s="31" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
+      <c r="CL11" s="28"/>
+      <c r="CM11" s="28"/>
+      <c r="CN11" s="28"/>
+      <c r="CO11" s="28"/>
       <c r="CP11" s="28"/>
       <c r="CQ11" s="28"/>
       <c r="CR11" s="28"/>
@@ -24446,6 +24496,7 @@
       <c r="CU11" s="28"/>
       <c r="CV11" s="28"/>
       <c r="CW11" s="28"/>
+      <c r="CX11" s="28"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -24715,43 +24766,45 @@
       <c r="CK12" s="22">
         <v>13481.466265734161</v>
       </c>
-      <c r="CL12" s="22">
+      <c r="CL12" s="32">
         <v>13597.122816812687</v>
       </c>
-      <c r="CM12" s="22">
+      <c r="CM12" s="32">
         <v>17117.906256862429</v>
       </c>
-      <c r="CN12" s="22">
+      <c r="CN12" s="32">
         <v>11534.474226009246</v>
       </c>
-      <c r="CO12" s="22">
+      <c r="CO12" s="32">
         <v>15190.388942085265</v>
       </c>
       <c r="CP12" s="32">
         <v>13368.965748047689</v>
       </c>
       <c r="CQ12" s="32">
-        <v>17358.039118818233</v>
+        <v>17305.149967569614</v>
       </c>
       <c r="CR12" s="32">
-        <v>12572.294304729996</v>
+        <v>12534.895455099842</v>
       </c>
       <c r="CS12" s="32">
-        <v>16914.126620438685</v>
+        <v>16745.325844222578</v>
       </c>
       <c r="CT12" s="32">
-        <v>13497.815102348464</v>
+        <v>13493.331594321164</v>
       </c>
       <c r="CU12" s="32">
-        <v>18003.844903715129</v>
+        <v>18561.046955314821</v>
       </c>
       <c r="CV12" s="32">
-        <v>12783.196664135205</v>
+        <v>12717.749786684817</v>
       </c>
       <c r="CW12" s="32">
-        <v>18381.583811135737</v>
-      </c>
-      <c r="CX12" s="10"/>
+        <v>18233.999417501887</v>
+      </c>
+      <c r="CX12" s="32">
+        <v>14999.030444131276</v>
+      </c>
       <c r="CY12" s="10"/>
       <c r="CZ12" s="10"/>
       <c r="DA12" s="10"/>
@@ -25074,43 +25127,45 @@
       <c r="CK13" s="23">
         <v>169419.52233407189</v>
       </c>
-      <c r="CL13" s="23">
+      <c r="CL13" s="33">
         <v>143239.52137326292</v>
       </c>
-      <c r="CM13" s="23">
+      <c r="CM13" s="33">
         <v>173163.72403829865</v>
       </c>
-      <c r="CN13" s="23">
+      <c r="CN13" s="33">
         <v>140916.82902538977</v>
       </c>
-      <c r="CO13" s="23">
+      <c r="CO13" s="33">
         <v>181261.68613683333</v>
       </c>
       <c r="CP13" s="33">
-        <v>152187.73803509001</v>
+        <v>152035.74800752371</v>
       </c>
       <c r="CQ13" s="33">
-        <v>181743.41382022295</v>
+        <v>181673.8028110427</v>
       </c>
       <c r="CR13" s="33">
-        <v>147905.5339840698</v>
+        <v>147721.89080569299</v>
       </c>
       <c r="CS13" s="33">
-        <v>191366.4054079433</v>
+        <v>191075.01517086301</v>
       </c>
       <c r="CT13" s="33">
-        <v>159915.96335598713</v>
+        <v>159797.32442856659</v>
       </c>
       <c r="CU13" s="33">
-        <v>195587.70849658945</v>
+        <v>195716.65821643893</v>
       </c>
       <c r="CV13" s="33">
-        <v>154982.0812176567</v>
+        <v>154611.43058883899</v>
       </c>
       <c r="CW13" s="33">
-        <v>196277.72857253806</v>
-      </c>
-      <c r="CX13" s="10"/>
+        <v>195691.20295075249</v>
+      </c>
+      <c r="CX13" s="33">
+        <v>168658.33054342784</v>
+      </c>
       <c r="CY13" s="10"/>
       <c r="CZ13" s="10"/>
       <c r="DA13" s="10"/>
@@ -25254,10 +25309,10 @@
       <c r="CI14" s="24"/>
       <c r="CJ14" s="24"/>
       <c r="CK14" s="24"/>
-      <c r="CL14" s="24"/>
-      <c r="CM14" s="24"/>
-      <c r="CN14" s="24"/>
-      <c r="CO14" s="24"/>
+      <c r="CL14" s="34"/>
+      <c r="CM14" s="34"/>
+      <c r="CN14" s="34"/>
+      <c r="CO14" s="34"/>
       <c r="CP14" s="34"/>
       <c r="CQ14" s="34"/>
       <c r="CR14" s="34"/>
@@ -25266,7 +25321,7 @@
       <c r="CU14" s="34"/>
       <c r="CV14" s="34"/>
       <c r="CW14" s="34"/>
-      <c r="CX14" s="10"/>
+      <c r="CX14" s="34"/>
       <c r="CY14" s="10"/>
       <c r="CZ14" s="10"/>
       <c r="DA14" s="10"/>
@@ -25589,43 +25644,45 @@
       <c r="CK15" s="25">
         <v>182900.98859980606</v>
       </c>
-      <c r="CL15" s="25">
+      <c r="CL15" s="35">
         <v>156836.6441900756</v>
       </c>
-      <c r="CM15" s="25">
+      <c r="CM15" s="35">
         <v>190281.63029516107</v>
       </c>
-      <c r="CN15" s="25">
+      <c r="CN15" s="35">
         <v>152451.30325139902</v>
       </c>
-      <c r="CO15" s="25">
+      <c r="CO15" s="35">
         <v>196452.0750789186</v>
       </c>
       <c r="CP15" s="35">
-        <v>165556.70378313769</v>
+        <v>165404.7137555714</v>
       </c>
       <c r="CQ15" s="35">
-        <v>199101.45293904119</v>
+        <v>198978.95277861232</v>
       </c>
       <c r="CR15" s="35">
-        <v>160477.82828879979</v>
+        <v>160256.78626079284</v>
       </c>
       <c r="CS15" s="35">
-        <v>208280.53202838197</v>
+        <v>207820.34101508558</v>
       </c>
       <c r="CT15" s="35">
-        <v>173413.77845833558</v>
+        <v>173290.65602288774</v>
       </c>
       <c r="CU15" s="35">
-        <v>213591.55340030458</v>
+        <v>214277.70517175374</v>
       </c>
       <c r="CV15" s="35">
-        <v>167765.2778817919</v>
+        <v>167329.18037552381</v>
       </c>
       <c r="CW15" s="35">
-        <v>214659.31238367379</v>
-      </c>
-      <c r="CX15" s="10"/>
+        <v>213925.20236825437</v>
+      </c>
+      <c r="CX15" s="35">
+        <v>183657.36098755914</v>
+      </c>
       <c r="CY15" s="10"/>
       <c r="CZ15" s="10"/>
       <c r="DA15" s="10"/>
@@ -25770,10 +25827,10 @@
       <c r="CI16" s="16"/>
       <c r="CJ16" s="16"/>
       <c r="CK16" s="16"/>
-      <c r="CL16" s="16"/>
-      <c r="CM16" s="16"/>
-      <c r="CN16" s="16"/>
-      <c r="CO16" s="16"/>
+      <c r="CL16" s="36"/>
+      <c r="CM16" s="36"/>
+      <c r="CN16" s="36"/>
+      <c r="CO16" s="36"/>
       <c r="CP16" s="36"/>
       <c r="CQ16" s="36"/>
       <c r="CR16" s="36"/>
@@ -25782,11 +25839,16 @@
       <c r="CU16" s="36"/>
       <c r="CV16" s="36"/>
       <c r="CW16" s="36"/>
+      <c r="CX16" s="36"/>
     </row>
     <row r="17" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="CL17" s="28"/>
+      <c r="CM17" s="28"/>
+      <c r="CN17" s="28"/>
+      <c r="CO17" s="28"/>
       <c r="CP17" s="28"/>
       <c r="CQ17" s="28"/>
       <c r="CR17" s="28"/>
@@ -25795,6 +25857,7 @@
       <c r="CU17" s="28"/>
       <c r="CV17" s="28"/>
       <c r="CW17" s="28"/>
+      <c r="CX17" s="28"/>
     </row>
     <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
@@ -25885,10 +25948,10 @@
       <c r="CI18" s="10"/>
       <c r="CJ18" s="10"/>
       <c r="CK18" s="10"/>
-      <c r="CL18" s="10"/>
-      <c r="CM18" s="10"/>
-      <c r="CN18" s="10"/>
-      <c r="CO18" s="10"/>
+      <c r="CL18" s="37"/>
+      <c r="CM18" s="37"/>
+      <c r="CN18" s="37"/>
+      <c r="CO18" s="37"/>
       <c r="CP18" s="37"/>
       <c r="CQ18" s="37"/>
       <c r="CR18" s="37"/>
@@ -25897,7 +25960,7 @@
       <c r="CU18" s="37"/>
       <c r="CV18" s="37"/>
       <c r="CW18" s="37"/>
-      <c r="CX18" s="10"/>
+      <c r="CX18" s="37"/>
       <c r="CY18" s="10"/>
       <c r="CZ18" s="10"/>
       <c r="DA18" s="10"/>
@@ -26041,10 +26104,10 @@
       <c r="CI19" s="10"/>
       <c r="CJ19" s="10"/>
       <c r="CK19" s="10"/>
-      <c r="CL19" s="10"/>
-      <c r="CM19" s="10"/>
-      <c r="CN19" s="10"/>
-      <c r="CO19" s="10"/>
+      <c r="CL19" s="37"/>
+      <c r="CM19" s="37"/>
+      <c r="CN19" s="37"/>
+      <c r="CO19" s="37"/>
       <c r="CP19" s="37"/>
       <c r="CQ19" s="37"/>
       <c r="CR19" s="37"/>
@@ -26053,7 +26116,7 @@
       <c r="CU19" s="37"/>
       <c r="CV19" s="37"/>
       <c r="CW19" s="37"/>
-      <c r="CX19" s="10"/>
+      <c r="CX19" s="37"/>
       <c r="CY19" s="10"/>
       <c r="CZ19" s="10"/>
       <c r="DA19" s="10"/>
@@ -26112,6 +26175,10 @@
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CL20" s="28"/>
+      <c r="CM20" s="28"/>
+      <c r="CN20" s="28"/>
+      <c r="CO20" s="28"/>
       <c r="CP20" s="28"/>
       <c r="CQ20" s="28"/>
       <c r="CR20" s="28"/>
@@ -26120,11 +26187,16 @@
       <c r="CU20" s="28"/>
       <c r="CV20" s="28"/>
       <c r="CW20" s="28"/>
+      <c r="CX20" s="28"/>
     </row>
     <row r="21" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="CL21" s="28"/>
+      <c r="CM21" s="28"/>
+      <c r="CN21" s="28"/>
+      <c r="CO21" s="28"/>
       <c r="CP21" s="28"/>
       <c r="CQ21" s="28"/>
       <c r="CR21" s="28"/>
@@ -26133,11 +26205,16 @@
       <c r="CU21" s="28"/>
       <c r="CV21" s="28"/>
       <c r="CW21" s="28"/>
+      <c r="CX21" s="28"/>
     </row>
     <row r="22" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="CL22" s="28"/>
+      <c r="CM22" s="28"/>
+      <c r="CN22" s="28"/>
+      <c r="CO22" s="28"/>
       <c r="CP22" s="28"/>
       <c r="CQ22" s="28"/>
       <c r="CR22" s="28"/>
@@ -26146,8 +26223,13 @@
       <c r="CU22" s="28"/>
       <c r="CV22" s="28"/>
       <c r="CW22" s="28"/>
+      <c r="CX22" s="28"/>
     </row>
     <row r="23" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL23" s="28"/>
+      <c r="CM23" s="28"/>
+      <c r="CN23" s="28"/>
+      <c r="CO23" s="28"/>
       <c r="CP23" s="28"/>
       <c r="CQ23" s="28"/>
       <c r="CR23" s="28"/>
@@ -26156,11 +26238,16 @@
       <c r="CU23" s="28"/>
       <c r="CV23" s="28"/>
       <c r="CW23" s="28"/>
+      <c r="CX23" s="28"/>
     </row>
     <row r="24" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="CL24" s="28"/>
+      <c r="CM24" s="28"/>
+      <c r="CN24" s="28"/>
+      <c r="CO24" s="28"/>
       <c r="CP24" s="28"/>
       <c r="CQ24" s="28"/>
       <c r="CR24" s="28"/>
@@ -26169,11 +26256,16 @@
       <c r="CU24" s="28"/>
       <c r="CV24" s="28"/>
       <c r="CW24" s="28"/>
+      <c r="CX24" s="28"/>
     </row>
     <row r="25" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="CL25" s="28"/>
+      <c r="CM25" s="28"/>
+      <c r="CN25" s="28"/>
+      <c r="CO25" s="28"/>
       <c r="CP25" s="28"/>
       <c r="CQ25" s="28"/>
       <c r="CR25" s="28"/>
@@ -26182,6 +26274,7 @@
       <c r="CU25" s="28"/>
       <c r="CV25" s="28"/>
       <c r="CW25" s="28"/>
+      <c r="CX25" s="28"/>
     </row>
     <row r="26" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -26275,10 +26368,10 @@
       <c r="CI26" s="4"/>
       <c r="CJ26" s="4"/>
       <c r="CK26" s="4"/>
-      <c r="CL26" s="4"/>
-      <c r="CM26" s="4"/>
-      <c r="CN26" s="4"/>
-      <c r="CO26" s="4"/>
+      <c r="CL26" s="29"/>
+      <c r="CM26" s="29"/>
+      <c r="CN26" s="29"/>
+      <c r="CO26" s="29"/>
       <c r="CP26" s="29"/>
       <c r="CQ26" s="29"/>
       <c r="CR26" s="29"/>
@@ -26287,6 +26380,7 @@
       <c r="CU26" s="29"/>
       <c r="CV26" s="29"/>
       <c r="CW26" s="29"/>
+      <c r="CX26" s="29"/>
     </row>
     <row r="27" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
@@ -26377,10 +26471,10 @@
       <c r="CI27" s="4"/>
       <c r="CJ27" s="4"/>
       <c r="CK27" s="4"/>
-      <c r="CL27" s="4"/>
-      <c r="CM27" s="4"/>
-      <c r="CN27" s="4"/>
-      <c r="CO27" s="4"/>
+      <c r="CL27" s="29"/>
+      <c r="CM27" s="29"/>
+      <c r="CN27" s="29"/>
+      <c r="CO27" s="29"/>
       <c r="CP27" s="29"/>
       <c r="CQ27" s="29"/>
       <c r="CR27" s="29"/>
@@ -26389,6 +26483,7 @@
       <c r="CU27" s="29"/>
       <c r="CV27" s="29"/>
       <c r="CW27" s="29"/>
+      <c r="CX27" s="29"/>
     </row>
     <row r="28" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
@@ -26524,12 +26619,12 @@
       <c r="CI28" s="26"/>
       <c r="CJ28" s="26"/>
       <c r="CK28" s="26"/>
-      <c r="CL28" s="26">
+      <c r="CL28" s="30">
         <v>2022</v>
       </c>
-      <c r="CM28" s="26"/>
-      <c r="CN28" s="26"/>
-      <c r="CO28" s="26"/>
+      <c r="CM28" s="30"/>
+      <c r="CN28" s="30"/>
+      <c r="CO28" s="30"/>
       <c r="CP28" s="30">
         <v>2023</v>
       </c>
@@ -26542,6 +26637,9 @@
       <c r="CU28" s="30"/>
       <c r="CV28" s="30"/>
       <c r="CW28" s="30"/>
+      <c r="CX28" s="30">
+        <v>2025</v>
+      </c>
     </row>
     <row r="29" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
@@ -26811,16 +26909,16 @@
       <c r="CK29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL29" s="7" t="s">
+      <c r="CL29" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CM29" s="7" t="s">
+      <c r="CM29" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="CN29" s="7" t="s">
+      <c r="CN29" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="CO29" s="7" t="s">
+      <c r="CO29" s="31" t="s">
         <v>9</v>
       </c>
       <c r="CP29" s="31" t="s">
@@ -26846,10 +26944,17 @@
       </c>
       <c r="CW29" s="31" t="s">
         <v>9</v>
+      </c>
+      <c r="CX29" s="31" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
+      <c r="CL30" s="28"/>
+      <c r="CM30" s="28"/>
+      <c r="CN30" s="28"/>
+      <c r="CO30" s="28"/>
       <c r="CP30" s="28"/>
       <c r="CQ30" s="28"/>
       <c r="CR30" s="28"/>
@@ -26858,6 +26963,7 @@
       <c r="CU30" s="28"/>
       <c r="CV30" s="28"/>
       <c r="CW30" s="28"/>
+      <c r="CX30" s="28"/>
     </row>
     <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -27127,43 +27233,45 @@
       <c r="CK31" s="22">
         <v>12630.69882945955</v>
       </c>
-      <c r="CL31" s="22">
+      <c r="CL31" s="32">
         <v>12923.960546844668</v>
       </c>
-      <c r="CM31" s="22">
+      <c r="CM31" s="32">
         <v>17749.875428113057</v>
       </c>
-      <c r="CN31" s="22">
+      <c r="CN31" s="32">
         <v>10605.02450831587</v>
       </c>
-      <c r="CO31" s="22">
+      <c r="CO31" s="32">
         <v>13654.86697409441</v>
       </c>
       <c r="CP31" s="32">
         <v>12095.637987354556</v>
       </c>
       <c r="CQ31" s="32">
-        <v>17059.997546396302</v>
+        <v>17008.016514186602</v>
       </c>
       <c r="CR31" s="32">
-        <v>10837.458302174649</v>
+        <v>10805.220075515925</v>
       </c>
       <c r="CS31" s="32">
-        <v>14464.374266498478</v>
+        <v>14320.021699058496</v>
       </c>
       <c r="CT31" s="32">
-        <v>11962.369867680056</v>
+        <v>11944.723260987335</v>
       </c>
       <c r="CU31" s="32">
-        <v>17358.507568184054</v>
+        <v>17871.593132077411</v>
       </c>
       <c r="CV31" s="32">
-        <v>10937.793449284705</v>
+        <v>10876.154797795662</v>
       </c>
       <c r="CW31" s="32">
-        <v>15642.334205418287</v>
-      </c>
-      <c r="CX31" s="10"/>
+        <v>15523.972260193084</v>
+      </c>
+      <c r="CX31" s="32">
+        <v>13173.052795660733</v>
+      </c>
       <c r="CY31" s="10"/>
       <c r="CZ31" s="10"/>
       <c r="DA31" s="10"/>
@@ -27486,43 +27594,45 @@
       <c r="CK32" s="23">
         <v>169052.81165885623</v>
       </c>
-      <c r="CL32" s="23">
+      <c r="CL32" s="33">
         <v>144801.42506514501</v>
       </c>
-      <c r="CM32" s="23">
+      <c r="CM32" s="33">
         <v>175979.11753288438</v>
       </c>
-      <c r="CN32" s="23">
+      <c r="CN32" s="33">
         <v>134607.30570273273</v>
       </c>
-      <c r="CO32" s="23">
+      <c r="CO32" s="33">
         <v>179750.32063927912</v>
       </c>
       <c r="CP32" s="33">
-        <v>152748.30565401711</v>
+        <v>152595.75578707768</v>
       </c>
       <c r="CQ32" s="33">
-        <v>183439.40288751404</v>
+        <v>183369.14228389703</v>
       </c>
       <c r="CR32" s="33">
-        <v>140366.26543260479</v>
+        <v>140191.9831970009</v>
       </c>
       <c r="CS32" s="33">
-        <v>188603.91106529051</v>
+        <v>188316.72722943159</v>
       </c>
       <c r="CT32" s="33">
-        <v>159830.38830295255</v>
+        <v>159711.81286220526</v>
       </c>
       <c r="CU32" s="33">
-        <v>196456.43164129445</v>
+        <v>196585.95410473298</v>
       </c>
       <c r="CV32" s="33">
-        <v>146416.99609021808</v>
+        <v>146066.82946937997</v>
       </c>
       <c r="CW32" s="33">
-        <v>193069.44406865799</v>
-      </c>
-      <c r="CX32" s="10"/>
+        <v>192492.50558178162</v>
+      </c>
+      <c r="CX32" s="33">
+        <v>168079.00157061251</v>
+      </c>
       <c r="CY32" s="10"/>
       <c r="CZ32" s="10"/>
       <c r="DA32" s="10"/>
@@ -27666,10 +27776,10 @@
       <c r="CI33" s="10"/>
       <c r="CJ33" s="10"/>
       <c r="CK33" s="10"/>
-      <c r="CL33" s="10"/>
-      <c r="CM33" s="10"/>
-      <c r="CN33" s="10"/>
-      <c r="CO33" s="10"/>
+      <c r="CL33" s="37"/>
+      <c r="CM33" s="37"/>
+      <c r="CN33" s="37"/>
+      <c r="CO33" s="37"/>
       <c r="CP33" s="37"/>
       <c r="CQ33" s="37"/>
       <c r="CR33" s="37"/>
@@ -27678,7 +27788,7 @@
       <c r="CU33" s="37"/>
       <c r="CV33" s="37"/>
       <c r="CW33" s="37"/>
-      <c r="CX33" s="10"/>
+      <c r="CX33" s="37"/>
       <c r="CY33" s="10"/>
       <c r="CZ33" s="10"/>
       <c r="DA33" s="10"/>
@@ -28001,43 +28111,45 @@
       <c r="CK34" s="25">
         <v>181683.51048831578</v>
       </c>
-      <c r="CL34" s="25">
+      <c r="CL34" s="35">
         <v>157725.38561198968</v>
       </c>
-      <c r="CM34" s="25">
+      <c r="CM34" s="35">
         <v>193728.99296099745</v>
       </c>
-      <c r="CN34" s="25">
+      <c r="CN34" s="35">
         <v>145212.3302110486</v>
       </c>
-      <c r="CO34" s="25">
+      <c r="CO34" s="35">
         <v>193405.18761337353</v>
       </c>
       <c r="CP34" s="35">
-        <v>164843.94364137168</v>
+        <v>164691.39377443225</v>
       </c>
       <c r="CQ34" s="35">
-        <v>200499.40043391034</v>
+        <v>200377.15879808363</v>
       </c>
       <c r="CR34" s="35">
-        <v>151203.72373477943</v>
+        <v>150997.20327251681</v>
       </c>
       <c r="CS34" s="35">
-        <v>203068.285331789</v>
+        <v>202636.74892849009</v>
       </c>
       <c r="CT34" s="35">
-        <v>171792.75817063259</v>
+        <v>171656.53612319261</v>
       </c>
       <c r="CU34" s="35">
-        <v>213814.9392094785</v>
+        <v>214457.54723681038</v>
       </c>
       <c r="CV34" s="35">
-        <v>157354.78953950279</v>
+        <v>156942.98426717563</v>
       </c>
       <c r="CW34" s="35">
-        <v>208711.77827407629</v>
-      </c>
-      <c r="CX34" s="10"/>
+        <v>208016.4778419747</v>
+      </c>
+      <c r="CX34" s="35">
+        <v>181252.05436627325</v>
+      </c>
       <c r="CY34" s="10"/>
       <c r="CZ34" s="10"/>
       <c r="DA34" s="10"/>
@@ -28182,10 +28294,10 @@
       <c r="CI35" s="16"/>
       <c r="CJ35" s="16"/>
       <c r="CK35" s="16"/>
-      <c r="CL35" s="16"/>
-      <c r="CM35" s="16"/>
-      <c r="CN35" s="16"/>
-      <c r="CO35" s="16"/>
+      <c r="CL35" s="36"/>
+      <c r="CM35" s="36"/>
+      <c r="CN35" s="36"/>
+      <c r="CO35" s="36"/>
       <c r="CP35" s="36"/>
       <c r="CQ35" s="36"/>
       <c r="CR35" s="36"/>
@@ -28194,11 +28306,16 @@
       <c r="CU35" s="36"/>
       <c r="CV35" s="36"/>
       <c r="CW35" s="36"/>
+      <c r="CX35" s="36"/>
     </row>
     <row r="36" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="CL36" s="28"/>
+      <c r="CM36" s="28"/>
+      <c r="CN36" s="28"/>
+      <c r="CO36" s="28"/>
       <c r="CP36" s="28"/>
       <c r="CQ36" s="28"/>
       <c r="CR36" s="28"/>
@@ -28207,6 +28324,7 @@
       <c r="CU36" s="28"/>
       <c r="CV36" s="28"/>
       <c r="CW36" s="28"/>
+      <c r="CX36" s="28"/>
     </row>
     <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="10"/>
@@ -28297,10 +28415,10 @@
       <c r="CI37" s="10"/>
       <c r="CJ37" s="10"/>
       <c r="CK37" s="10"/>
-      <c r="CL37" s="10"/>
-      <c r="CM37" s="10"/>
-      <c r="CN37" s="10"/>
-      <c r="CO37" s="10"/>
+      <c r="CL37" s="37"/>
+      <c r="CM37" s="37"/>
+      <c r="CN37" s="37"/>
+      <c r="CO37" s="37"/>
       <c r="CP37" s="37"/>
       <c r="CQ37" s="37"/>
       <c r="CR37" s="37"/>
@@ -28309,7 +28427,7 @@
       <c r="CU37" s="37"/>
       <c r="CV37" s="37"/>
       <c r="CW37" s="37"/>
-      <c r="CX37" s="10"/>
+      <c r="CX37" s="37"/>
       <c r="CY37" s="10"/>
       <c r="CZ37" s="10"/>
       <c r="DA37" s="10"/>
@@ -28453,10 +28571,10 @@
       <c r="CI38" s="10"/>
       <c r="CJ38" s="10"/>
       <c r="CK38" s="10"/>
-      <c r="CL38" s="10"/>
-      <c r="CM38" s="10"/>
-      <c r="CN38" s="10"/>
-      <c r="CO38" s="10"/>
+      <c r="CL38" s="37"/>
+      <c r="CM38" s="37"/>
+      <c r="CN38" s="37"/>
+      <c r="CO38" s="37"/>
       <c r="CP38" s="37"/>
       <c r="CQ38" s="37"/>
       <c r="CR38" s="37"/>
@@ -28465,7 +28583,7 @@
       <c r="CU38" s="37"/>
       <c r="CV38" s="37"/>
       <c r="CW38" s="37"/>
-      <c r="CX38" s="10"/>
+      <c r="CX38" s="37"/>
       <c r="CY38" s="10"/>
       <c r="CZ38" s="10"/>
       <c r="DA38" s="10"/>
@@ -28524,6 +28642,10 @@
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CL39" s="28"/>
+      <c r="CM39" s="28"/>
+      <c r="CN39" s="28"/>
+      <c r="CO39" s="28"/>
       <c r="CP39" s="28"/>
       <c r="CQ39" s="28"/>
       <c r="CR39" s="28"/>
@@ -28532,11 +28654,16 @@
       <c r="CU39" s="28"/>
       <c r="CV39" s="28"/>
       <c r="CW39" s="28"/>
+      <c r="CX39" s="28"/>
     </row>
     <row r="40" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CL40" s="28"/>
+      <c r="CM40" s="28"/>
+      <c r="CN40" s="28"/>
+      <c r="CO40" s="28"/>
       <c r="CP40" s="28"/>
       <c r="CQ40" s="28"/>
       <c r="CR40" s="28"/>
@@ -28545,11 +28672,16 @@
       <c r="CU40" s="28"/>
       <c r="CV40" s="28"/>
       <c r="CW40" s="28"/>
+      <c r="CX40" s="28"/>
     </row>
     <row r="41" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="CL41" s="28"/>
+      <c r="CM41" s="28"/>
+      <c r="CN41" s="28"/>
+      <c r="CO41" s="28"/>
       <c r="CP41" s="28"/>
       <c r="CQ41" s="28"/>
       <c r="CR41" s="28"/>
@@ -28558,8 +28690,13 @@
       <c r="CU41" s="28"/>
       <c r="CV41" s="28"/>
       <c r="CW41" s="28"/>
+      <c r="CX41" s="28"/>
     </row>
     <row r="42" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL42" s="28"/>
+      <c r="CM42" s="28"/>
+      <c r="CN42" s="28"/>
+      <c r="CO42" s="28"/>
       <c r="CP42" s="28"/>
       <c r="CQ42" s="28"/>
       <c r="CR42" s="28"/>
@@ -28568,11 +28705,16 @@
       <c r="CU42" s="28"/>
       <c r="CV42" s="28"/>
       <c r="CW42" s="28"/>
+      <c r="CX42" s="28"/>
     </row>
     <row r="43" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="CL43" s="28"/>
+      <c r="CM43" s="28"/>
+      <c r="CN43" s="28"/>
+      <c r="CO43" s="28"/>
       <c r="CP43" s="28"/>
       <c r="CQ43" s="28"/>
       <c r="CR43" s="28"/>
@@ -28581,11 +28723,16 @@
       <c r="CU43" s="28"/>
       <c r="CV43" s="28"/>
       <c r="CW43" s="28"/>
+      <c r="CX43" s="28"/>
     </row>
     <row r="44" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="CL44" s="28"/>
+      <c r="CM44" s="28"/>
+      <c r="CN44" s="28"/>
+      <c r="CO44" s="28"/>
       <c r="CP44" s="28"/>
       <c r="CQ44" s="28"/>
       <c r="CR44" s="28"/>
@@ -28594,11 +28741,16 @@
       <c r="CU44" s="28"/>
       <c r="CV44" s="28"/>
       <c r="CW44" s="28"/>
+      <c r="CX44" s="28"/>
     </row>
     <row r="45" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="CL45" s="28"/>
+      <c r="CM45" s="28"/>
+      <c r="CN45" s="28"/>
+      <c r="CO45" s="28"/>
       <c r="CP45" s="28"/>
       <c r="CQ45" s="28"/>
       <c r="CR45" s="28"/>
@@ -28607,16 +28759,22 @@
       <c r="CU45" s="42"/>
       <c r="CV45" s="42"/>
       <c r="CW45" s="28"/>
+      <c r="CX45" s="42"/>
     </row>
     <row r="46" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL46" s="28"/>
+      <c r="CM46" s="28"/>
+      <c r="CN46" s="28"/>
+      <c r="CO46" s="28"/>
       <c r="CP46" s="28"/>
       <c r="CQ46" s="28"/>
       <c r="CR46" s="28"/>
       <c r="CS46" s="28"/>
-      <c r="CT46" s="42"/>
+      <c r="CT46" s="28"/>
       <c r="CU46" s="42"/>
       <c r="CV46" s="42"/>
       <c r="CW46" s="28"/>
+      <c r="CX46" s="42"/>
     </row>
     <row r="47" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
@@ -28752,22 +28910,25 @@
       <c r="CI47" s="26"/>
       <c r="CJ47" s="26"/>
       <c r="CK47" s="26"/>
-      <c r="CL47" s="26" t="s">
+      <c r="CL47" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="CM47" s="26"/>
-      <c r="CN47" s="26"/>
-      <c r="CO47" s="26"/>
+      <c r="CM47" s="30"/>
+      <c r="CN47" s="30"/>
+      <c r="CO47" s="30"/>
       <c r="CP47" s="30" t="s">
         <v>49</v>
       </c>
       <c r="CQ47" s="30"/>
       <c r="CR47" s="30"/>
       <c r="CS47" s="30"/>
-      <c r="CT47" s="27"/>
+      <c r="CT47" s="30" t="s">
+        <v>51</v>
+      </c>
       <c r="CU47" s="27"/>
       <c r="CV47" s="27"/>
       <c r="CW47" s="27"/>
+      <c r="CX47" s="27"/>
     </row>
     <row r="48" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -29037,16 +29198,16 @@
       <c r="CK48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL48" s="6" t="s">
+      <c r="CL48" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="CM48" s="6" t="s">
+      <c r="CM48" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="CN48" s="6" t="s">
+      <c r="CN48" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="CO48" s="6" t="s">
+      <c r="CO48" s="38" t="s">
         <v>9</v>
       </c>
       <c r="CP48" s="38" t="s">
@@ -29061,21 +29222,29 @@
       <c r="CS48" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="CT48" s="38"/>
+      <c r="CT48" s="38" t="s">
+        <v>7</v>
+      </c>
       <c r="CU48" s="38"/>
       <c r="CV48" s="38"/>
       <c r="CW48" s="38"/>
+      <c r="CX48" s="38"/>
     </row>
     <row r="49" spans="1:151" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
+      <c r="CL49" s="28"/>
+      <c r="CM49" s="28"/>
+      <c r="CN49" s="28"/>
+      <c r="CO49" s="28"/>
       <c r="CP49" s="28"/>
       <c r="CQ49" s="28"/>
       <c r="CR49" s="28"/>
       <c r="CS49" s="28"/>
-      <c r="CT49" s="42"/>
+      <c r="CT49" s="28"/>
       <c r="CU49" s="42"/>
       <c r="CV49" s="42"/>
       <c r="CW49" s="28"/>
+      <c r="CX49" s="42"/>
     </row>
     <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -29345,35 +29514,37 @@
       <c r="CK50" s="18">
         <v>12.676089103858629</v>
       </c>
-      <c r="CL50" s="18">
+      <c r="CL50" s="39">
         <v>-1.6779804951300861</v>
       </c>
-      <c r="CM50" s="18">
-        <v>1.4028167835043348</v>
-      </c>
-      <c r="CN50" s="18">
-        <v>8.9975499392989491</v>
-      </c>
-      <c r="CO50" s="18">
-        <v>11.347554594719895</v>
+      <c r="CM50" s="39">
+        <v>1.0938470388697255</v>
+      </c>
+      <c r="CN50" s="39">
+        <v>8.6733145307545243</v>
+      </c>
+      <c r="CO50" s="39">
+        <v>10.236320531789218</v>
       </c>
       <c r="CP50" s="39">
-        <v>0.96379448290224445</v>
+        <v>0.93025779717952162</v>
       </c>
       <c r="CQ50" s="39">
-        <v>3.7204996513503943</v>
+        <v>7.2573597460801977</v>
       </c>
       <c r="CR50" s="39">
-        <v>1.6775168819096251</v>
+        <v>1.4587623186803569</v>
       </c>
       <c r="CS50" s="39">
-        <v>8.6759264822092916</v>
-      </c>
-      <c r="CT50" s="43"/>
+        <v>8.8900842368076667</v>
+      </c>
+      <c r="CT50" s="39">
+        <v>11.158836787527008</v>
+      </c>
       <c r="CU50" s="43"/>
       <c r="CV50" s="43"/>
       <c r="CW50" s="39"/>
-      <c r="CX50" s="10"/>
+      <c r="CX50" s="43"/>
       <c r="CY50" s="10"/>
       <c r="CZ50" s="10"/>
       <c r="DA50" s="10"/>
@@ -29692,35 +29863,37 @@
       <c r="CK51" s="18">
         <v>6.9898460576522723</v>
       </c>
-      <c r="CL51" s="18">
-        <v>6.2470305513722337</v>
-      </c>
-      <c r="CM51" s="18">
-        <v>4.9546692470223945</v>
-      </c>
-      <c r="CN51" s="18">
-        <v>4.9594537480124785</v>
-      </c>
-      <c r="CO51" s="18">
-        <v>5.5746581014820578</v>
+      <c r="CL51" s="39">
+        <v>6.1409215486967383</v>
+      </c>
+      <c r="CM51" s="39">
+        <v>4.9144697135653246</v>
+      </c>
+      <c r="CN51" s="39">
+        <v>4.8291334877235386</v>
+      </c>
+      <c r="CO51" s="39">
+        <v>5.4139014389514415</v>
       </c>
       <c r="CP51" s="39">
-        <v>5.0780867241191316</v>
+        <v>5.1050996379211995</v>
       </c>
       <c r="CQ51" s="39">
-        <v>7.6174945685024937</v>
+        <v>7.7297085149927085</v>
       </c>
       <c r="CR51" s="39">
-        <v>4.7845047057868015</v>
+        <v>4.6638583798038553</v>
       </c>
       <c r="CS51" s="39">
-        <v>2.5664500276969306</v>
-      </c>
-      <c r="CT51" s="43"/>
+        <v>2.4159033957221254</v>
+      </c>
+      <c r="CT51" s="39">
+        <v>5.5451529908577157</v>
+      </c>
       <c r="CU51" s="43"/>
       <c r="CV51" s="43"/>
       <c r="CW51" s="39"/>
-      <c r="CX51" s="10"/>
+      <c r="CX51" s="43"/>
       <c r="CY51" s="10"/>
       <c r="CZ51" s="10"/>
       <c r="DA51" s="10"/>
@@ -29861,19 +30034,19 @@
       <c r="CI52" s="19"/>
       <c r="CJ52" s="19"/>
       <c r="CK52" s="19"/>
-      <c r="CL52" s="19"/>
-      <c r="CM52" s="19"/>
-      <c r="CN52" s="19"/>
-      <c r="CO52" s="19"/>
+      <c r="CL52" s="40"/>
+      <c r="CM52" s="40"/>
+      <c r="CN52" s="40"/>
+      <c r="CO52" s="40"/>
       <c r="CP52" s="40"/>
       <c r="CQ52" s="40"/>
       <c r="CR52" s="40"/>
       <c r="CS52" s="40"/>
-      <c r="CT52" s="44"/>
+      <c r="CT52" s="40"/>
       <c r="CU52" s="44"/>
       <c r="CV52" s="44"/>
       <c r="CW52" s="40"/>
-      <c r="CX52" s="10"/>
+      <c r="CX52" s="44"/>
       <c r="CY52" s="10"/>
       <c r="CZ52" s="10"/>
       <c r="DA52" s="10"/>
@@ -30192,35 +30365,37 @@
       <c r="CK53" s="18">
         <v>7.4089738840957438</v>
       </c>
-      <c r="CL53" s="18">
-        <v>5.5599631311251301</v>
-      </c>
-      <c r="CM53" s="18">
-        <v>4.6351414112854741</v>
-      </c>
-      <c r="CN53" s="18">
-        <v>5.26497633422305</v>
-      </c>
-      <c r="CO53" s="18">
-        <v>6.0210394543868517</v>
+      <c r="CL53" s="39">
+        <v>5.4630533634167051</v>
+      </c>
+      <c r="CM53" s="39">
+        <v>4.5707630683845508</v>
+      </c>
+      <c r="CN53" s="39">
+        <v>5.1199844428500683</v>
+      </c>
+      <c r="CO53" s="39">
+        <v>5.786788422367195</v>
       </c>
       <c r="CP53" s="39">
-        <v>4.7458511166602193</v>
+        <v>4.7676647710112263</v>
       </c>
       <c r="CQ53" s="39">
-        <v>7.2777472225176609</v>
+        <v>7.6886284601985579</v>
       </c>
       <c r="CR53" s="39">
-        <v>4.5410943497300025</v>
+        <v>4.4131635731305323</v>
       </c>
       <c r="CS53" s="39">
-        <v>3.0625907727288535</v>
-      </c>
-      <c r="CT53" s="43"/>
+        <v>2.9375668057082294</v>
+      </c>
+      <c r="CT53" s="39">
+        <v>5.9822642504753389</v>
+      </c>
       <c r="CU53" s="43"/>
       <c r="CV53" s="43"/>
       <c r="CW53" s="39"/>
-      <c r="CX53" s="10"/>
+      <c r="CX53" s="43"/>
       <c r="CY53" s="10"/>
       <c r="CZ53" s="10"/>
       <c r="DA53" s="10"/>
@@ -30361,31 +30536,37 @@
       <c r="CI54" s="16"/>
       <c r="CJ54" s="16"/>
       <c r="CK54" s="16"/>
-      <c r="CL54" s="16"/>
-      <c r="CM54" s="16"/>
-      <c r="CN54" s="16"/>
-      <c r="CO54" s="16"/>
+      <c r="CL54" s="36"/>
+      <c r="CM54" s="36"/>
+      <c r="CN54" s="36"/>
+      <c r="CO54" s="36"/>
       <c r="CP54" s="36"/>
       <c r="CQ54" s="36"/>
       <c r="CR54" s="36"/>
       <c r="CS54" s="36"/>
-      <c r="CT54" s="31"/>
+      <c r="CT54" s="36"/>
       <c r="CU54" s="31"/>
       <c r="CV54" s="31"/>
       <c r="CW54" s="36"/>
+      <c r="CX54" s="31"/>
     </row>
     <row r="55" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="CL55" s="28"/>
+      <c r="CM55" s="28"/>
+      <c r="CN55" s="28"/>
+      <c r="CO55" s="28"/>
       <c r="CP55" s="28"/>
       <c r="CQ55" s="28"/>
       <c r="CR55" s="28"/>
       <c r="CS55" s="28"/>
-      <c r="CT55" s="42"/>
+      <c r="CT55" s="28"/>
       <c r="CU55" s="42"/>
       <c r="CV55" s="42"/>
       <c r="CW55" s="28"/>
+      <c r="CX55" s="42"/>
     </row>
     <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="10"/>
@@ -30476,19 +30657,19 @@
       <c r="CI56" s="10"/>
       <c r="CJ56" s="10"/>
       <c r="CK56" s="10"/>
-      <c r="CL56" s="10"/>
-      <c r="CM56" s="10"/>
-      <c r="CN56" s="10"/>
-      <c r="CO56" s="10"/>
+      <c r="CL56" s="37"/>
+      <c r="CM56" s="37"/>
+      <c r="CN56" s="37"/>
+      <c r="CO56" s="37"/>
       <c r="CP56" s="37"/>
       <c r="CQ56" s="37"/>
       <c r="CR56" s="37"/>
       <c r="CS56" s="37"/>
-      <c r="CT56" s="45"/>
+      <c r="CT56" s="37"/>
       <c r="CU56" s="45"/>
       <c r="CV56" s="45"/>
       <c r="CW56" s="37"/>
-      <c r="CX56" s="10"/>
+      <c r="CX56" s="45"/>
       <c r="CY56" s="10"/>
       <c r="CZ56" s="10"/>
       <c r="DA56" s="10"/>
@@ -30628,19 +30809,19 @@
       <c r="CI57" s="10"/>
       <c r="CJ57" s="10"/>
       <c r="CK57" s="10"/>
-      <c r="CL57" s="10"/>
-      <c r="CM57" s="10"/>
-      <c r="CN57" s="10"/>
-      <c r="CO57" s="10"/>
+      <c r="CL57" s="37"/>
+      <c r="CM57" s="37"/>
+      <c r="CN57" s="37"/>
+      <c r="CO57" s="37"/>
       <c r="CP57" s="37"/>
       <c r="CQ57" s="37"/>
       <c r="CR57" s="37"/>
       <c r="CS57" s="37"/>
-      <c r="CT57" s="45"/>
+      <c r="CT57" s="37"/>
       <c r="CU57" s="45"/>
       <c r="CV57" s="45"/>
       <c r="CW57" s="37"/>
-      <c r="CX57" s="10"/>
+      <c r="CX57" s="45"/>
       <c r="CY57" s="10"/>
       <c r="CZ57" s="10"/>
       <c r="DA57" s="10"/>
@@ -30695,99 +30876,139 @@
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CL58" s="28"/>
+      <c r="CM58" s="28"/>
+      <c r="CN58" s="28"/>
+      <c r="CO58" s="28"/>
       <c r="CP58" s="28"/>
       <c r="CQ58" s="28"/>
       <c r="CR58" s="28"/>
       <c r="CS58" s="28"/>
-      <c r="CT58" s="42"/>
+      <c r="CT58" s="28"/>
       <c r="CU58" s="42"/>
       <c r="CV58" s="42"/>
       <c r="CW58" s="28"/>
+      <c r="CX58" s="42"/>
     </row>
     <row r="59" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CL59" s="28"/>
+      <c r="CM59" s="28"/>
+      <c r="CN59" s="28"/>
+      <c r="CO59" s="28"/>
       <c r="CP59" s="28"/>
       <c r="CQ59" s="28"/>
       <c r="CR59" s="28"/>
       <c r="CS59" s="28"/>
-      <c r="CT59" s="42"/>
+      <c r="CT59" s="28"/>
       <c r="CU59" s="42"/>
       <c r="CV59" s="42"/>
       <c r="CW59" s="28"/>
+      <c r="CX59" s="42"/>
     </row>
     <row r="60" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="CL60" s="28"/>
+      <c r="CM60" s="28"/>
+      <c r="CN60" s="28"/>
+      <c r="CO60" s="28"/>
       <c r="CP60" s="28"/>
       <c r="CQ60" s="28"/>
       <c r="CR60" s="28"/>
       <c r="CS60" s="28"/>
-      <c r="CT60" s="42"/>
+      <c r="CT60" s="28"/>
       <c r="CU60" s="42"/>
       <c r="CV60" s="42"/>
       <c r="CW60" s="28"/>
+      <c r="CX60" s="42"/>
     </row>
     <row r="61" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL61" s="28"/>
+      <c r="CM61" s="28"/>
+      <c r="CN61" s="28"/>
+      <c r="CO61" s="28"/>
       <c r="CP61" s="28"/>
       <c r="CQ61" s="28"/>
       <c r="CR61" s="28"/>
       <c r="CS61" s="28"/>
-      <c r="CT61" s="42"/>
+      <c r="CT61" s="28"/>
       <c r="CU61" s="42"/>
       <c r="CV61" s="42"/>
       <c r="CW61" s="28"/>
+      <c r="CX61" s="42"/>
     </row>
     <row r="62" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="CL62" s="28"/>
+      <c r="CM62" s="28"/>
+      <c r="CN62" s="28"/>
+      <c r="CO62" s="28"/>
       <c r="CP62" s="28"/>
       <c r="CQ62" s="28"/>
       <c r="CR62" s="28"/>
       <c r="CS62" s="28"/>
-      <c r="CT62" s="42"/>
+      <c r="CT62" s="28"/>
       <c r="CU62" s="42"/>
       <c r="CV62" s="42"/>
       <c r="CW62" s="28"/>
+      <c r="CX62" s="42"/>
     </row>
     <row r="63" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="CL63" s="28"/>
+      <c r="CM63" s="28"/>
+      <c r="CN63" s="28"/>
+      <c r="CO63" s="28"/>
       <c r="CP63" s="28"/>
       <c r="CQ63" s="28"/>
       <c r="CR63" s="28"/>
       <c r="CS63" s="28"/>
-      <c r="CT63" s="42"/>
+      <c r="CT63" s="28"/>
       <c r="CU63" s="42"/>
       <c r="CV63" s="42"/>
       <c r="CW63" s="28"/>
+      <c r="CX63" s="42"/>
     </row>
     <row r="64" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="CL64" s="28"/>
+      <c r="CM64" s="28"/>
+      <c r="CN64" s="28"/>
+      <c r="CO64" s="28"/>
       <c r="CP64" s="28"/>
       <c r="CQ64" s="28"/>
       <c r="CR64" s="28"/>
       <c r="CS64" s="28"/>
-      <c r="CT64" s="42"/>
+      <c r="CT64" s="28"/>
       <c r="CU64" s="42"/>
       <c r="CV64" s="42"/>
       <c r="CW64" s="28"/>
+      <c r="CX64" s="42"/>
     </row>
     <row r="65" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL65" s="28"/>
+      <c r="CM65" s="28"/>
+      <c r="CN65" s="28"/>
+      <c r="CO65" s="28"/>
       <c r="CP65" s="28"/>
       <c r="CQ65" s="28"/>
       <c r="CR65" s="28"/>
       <c r="CS65" s="28"/>
-      <c r="CT65" s="42"/>
+      <c r="CT65" s="28"/>
       <c r="CU65" s="42"/>
       <c r="CV65" s="42"/>
       <c r="CW65" s="28"/>
+      <c r="CX65" s="42"/>
     </row>
     <row r="66" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
@@ -30923,22 +31144,25 @@
       <c r="CI66" s="26"/>
       <c r="CJ66" s="26"/>
       <c r="CK66" s="26"/>
-      <c r="CL66" s="26" t="s">
+      <c r="CL66" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="CM66" s="26"/>
-      <c r="CN66" s="26"/>
-      <c r="CO66" s="26"/>
+      <c r="CM66" s="30"/>
+      <c r="CN66" s="30"/>
+      <c r="CO66" s="30"/>
       <c r="CP66" s="30" t="s">
         <v>49</v>
       </c>
       <c r="CQ66" s="30"/>
       <c r="CR66" s="30"/>
       <c r="CS66" s="30"/>
-      <c r="CT66" s="27"/>
+      <c r="CT66" s="30" t="s">
+        <v>51</v>
+      </c>
       <c r="CU66" s="27"/>
       <c r="CV66" s="27"/>
       <c r="CW66" s="27"/>
+      <c r="CX66" s="27"/>
     </row>
     <row r="67" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
@@ -31208,16 +31432,16 @@
       <c r="CK67" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL67" s="6" t="s">
+      <c r="CL67" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="CM67" s="6" t="s">
+      <c r="CM67" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="CN67" s="6" t="s">
+      <c r="CN67" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="CO67" s="6" t="s">
+      <c r="CO67" s="38" t="s">
         <v>9</v>
       </c>
       <c r="CP67" s="38" t="s">
@@ -31232,21 +31456,29 @@
       <c r="CS67" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="CT67" s="38"/>
+      <c r="CT67" s="38" t="s">
+        <v>7</v>
+      </c>
       <c r="CU67" s="38"/>
       <c r="CV67" s="38"/>
       <c r="CW67" s="38"/>
+      <c r="CX67" s="38"/>
     </row>
     <row r="68" spans="1:151" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
+      <c r="CL68" s="28"/>
+      <c r="CM68" s="28"/>
+      <c r="CN68" s="28"/>
+      <c r="CO68" s="28"/>
       <c r="CP68" s="28"/>
       <c r="CQ68" s="28"/>
       <c r="CR68" s="28"/>
       <c r="CS68" s="28"/>
-      <c r="CT68" s="42"/>
+      <c r="CT68" s="28"/>
       <c r="CU68" s="42"/>
       <c r="CV68" s="42"/>
       <c r="CW68" s="28"/>
+      <c r="CX68" s="42"/>
     </row>
     <row r="69" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
@@ -31516,35 +31748,37 @@
       <c r="CK69" s="18">
         <v>8.1085627839222525</v>
       </c>
-      <c r="CL69" s="18">
+      <c r="CL69" s="39">
         <v>-6.4092006199472991</v>
       </c>
-      <c r="CM69" s="18">
-        <v>-3.8866632304590354</v>
-      </c>
-      <c r="CN69" s="18">
-        <v>2.1917327364639192</v>
-      </c>
-      <c r="CO69" s="18">
-        <v>5.9283425751407179</v>
+      <c r="CM69" s="39">
+        <v>-4.1795161714288156</v>
+      </c>
+      <c r="CN69" s="39">
+        <v>1.8877426171252267</v>
+      </c>
+      <c r="CO69" s="39">
+        <v>4.8711915409062243</v>
       </c>
       <c r="CP69" s="39">
-        <v>-1.1017866094688458</v>
+        <v>-1.2476789279324976</v>
       </c>
       <c r="CQ69" s="39">
-        <v>1.749765912778841</v>
+        <v>5.0774681290466077</v>
       </c>
       <c r="CR69" s="39">
-        <v>0.92581806833732117</v>
+        <v>0.65648567807028257</v>
       </c>
       <c r="CS69" s="39">
-        <v>8.1438707075502776</v>
-      </c>
-      <c r="CT69" s="43"/>
+        <v>8.4074632457697049</v>
+      </c>
+      <c r="CT69" s="39">
+        <v>10.28344908320517</v>
+      </c>
       <c r="CU69" s="43"/>
       <c r="CV69" s="43"/>
       <c r="CW69" s="39"/>
-      <c r="CX69" s="10"/>
+      <c r="CX69" s="43"/>
       <c r="CY69" s="10"/>
       <c r="CZ69" s="10"/>
       <c r="DA69" s="10"/>
@@ -31863,35 +32097,37 @@
       <c r="CK70" s="18">
         <v>6.3279095304313415</v>
       </c>
-      <c r="CL70" s="18">
-        <v>5.4881231902910201</v>
-      </c>
-      <c r="CM70" s="18">
-        <v>4.2393014916872716</v>
-      </c>
-      <c r="CN70" s="18">
-        <v>4.278341134462778</v>
-      </c>
-      <c r="CO70" s="18">
-        <v>4.9254935371039892</v>
+      <c r="CL70" s="39">
+        <v>5.3827721090631968</v>
+      </c>
+      <c r="CM70" s="39">
+        <v>4.1993759569976845</v>
+      </c>
+      <c r="CN70" s="39">
+        <v>4.1488665604832704</v>
+      </c>
+      <c r="CO70" s="39">
+        <v>4.7657253459610871</v>
       </c>
       <c r="CP70" s="39">
-        <v>4.6364394149004369</v>
+        <v>4.663338792369089</v>
       </c>
       <c r="CQ70" s="39">
-        <v>7.0960919785388228</v>
+        <v>7.207762252807683</v>
       </c>
       <c r="CR70" s="39">
-        <v>4.3106729661611496</v>
+        <v>4.1905721984998365</v>
       </c>
       <c r="CS70" s="39">
-        <v>2.3676778377207768</v>
-      </c>
-      <c r="CT70" s="43"/>
+        <v>2.2174229627846813</v>
+      </c>
+      <c r="CT70" s="39">
+        <v>5.2389291427217302</v>
+      </c>
       <c r="CU70" s="43"/>
       <c r="CV70" s="43"/>
       <c r="CW70" s="39"/>
-      <c r="CX70" s="10"/>
+      <c r="CX70" s="43"/>
       <c r="CY70" s="10"/>
       <c r="CZ70" s="10"/>
       <c r="DA70" s="10"/>
@@ -32031,19 +32267,19 @@
       <c r="CI71" s="19"/>
       <c r="CJ71" s="19"/>
       <c r="CK71" s="19"/>
-      <c r="CL71" s="19"/>
-      <c r="CM71" s="19"/>
-      <c r="CN71" s="19"/>
-      <c r="CO71" s="19"/>
+      <c r="CL71" s="40"/>
+      <c r="CM71" s="40"/>
+      <c r="CN71" s="40"/>
+      <c r="CO71" s="40"/>
       <c r="CP71" s="40"/>
       <c r="CQ71" s="40"/>
       <c r="CR71" s="40"/>
       <c r="CS71" s="40"/>
-      <c r="CT71" s="44"/>
+      <c r="CT71" s="40"/>
       <c r="CU71" s="44"/>
       <c r="CV71" s="44"/>
       <c r="CW71" s="40"/>
-      <c r="CX71" s="10"/>
+      <c r="CX71" s="44"/>
       <c r="CY71" s="10"/>
       <c r="CZ71" s="10"/>
       <c r="DA71" s="10"/>
@@ -32362,35 +32598,37 @@
       <c r="CK72" s="18">
         <v>6.4517011442332404</v>
       </c>
-      <c r="CL72" s="18">
-        <v>4.5132608183275664</v>
-      </c>
-      <c r="CM72" s="18">
-        <v>3.4947827733125933</v>
-      </c>
-      <c r="CN72" s="18">
-        <v>4.1259537086300213</v>
-      </c>
-      <c r="CO72" s="18">
-        <v>4.9962970681698806</v>
+      <c r="CL72" s="39">
+        <v>4.4165421662554678</v>
+      </c>
+      <c r="CM72" s="39">
+        <v>3.4316834746694838</v>
+      </c>
+      <c r="CN72" s="39">
+        <v>3.9837340624316226</v>
+      </c>
+      <c r="CO72" s="39">
+        <v>4.7731715105651062</v>
       </c>
       <c r="CP72" s="39">
-        <v>4.2153896441463985</v>
+        <v>4.2292084541467148</v>
       </c>
       <c r="CQ72" s="39">
-        <v>6.6411863311069084</v>
+        <v>7.0269428527606266</v>
       </c>
       <c r="CR72" s="39">
-        <v>4.0680650269650158</v>
+        <v>3.9376762388956195</v>
       </c>
       <c r="CS72" s="39">
-        <v>2.7791109444128779</v>
-      </c>
-      <c r="CT72" s="43"/>
+        <v>2.6548634154129189</v>
+      </c>
+      <c r="CT72" s="39">
+        <v>5.5899521566683745</v>
+      </c>
       <c r="CU72" s="43"/>
       <c r="CV72" s="43"/>
       <c r="CW72" s="39"/>
-      <c r="CX72" s="10"/>
+      <c r="CX72" s="43"/>
       <c r="CY72" s="10"/>
       <c r="CZ72" s="10"/>
       <c r="DA72" s="10"/>
@@ -32531,31 +32769,37 @@
       <c r="CI73" s="16"/>
       <c r="CJ73" s="16"/>
       <c r="CK73" s="16"/>
-      <c r="CL73" s="16"/>
-      <c r="CM73" s="16"/>
-      <c r="CN73" s="16"/>
-      <c r="CO73" s="16"/>
+      <c r="CL73" s="36"/>
+      <c r="CM73" s="36"/>
+      <c r="CN73" s="36"/>
+      <c r="CO73" s="36"/>
       <c r="CP73" s="36"/>
       <c r="CQ73" s="36"/>
       <c r="CR73" s="36"/>
       <c r="CS73" s="36"/>
-      <c r="CT73" s="31"/>
+      <c r="CT73" s="36"/>
       <c r="CU73" s="31"/>
       <c r="CV73" s="31"/>
       <c r="CW73" s="36"/>
+      <c r="CX73" s="31"/>
     </row>
     <row r="74" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="CL74" s="28"/>
+      <c r="CM74" s="28"/>
+      <c r="CN74" s="28"/>
+      <c r="CO74" s="28"/>
       <c r="CP74" s="28"/>
       <c r="CQ74" s="28"/>
       <c r="CR74" s="28"/>
       <c r="CS74" s="28"/>
-      <c r="CT74" s="42"/>
+      <c r="CT74" s="28"/>
       <c r="CU74" s="42"/>
       <c r="CV74" s="42"/>
       <c r="CW74" s="28"/>
+      <c r="CX74" s="42"/>
     </row>
     <row r="75" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="10"/>
@@ -32646,19 +32890,19 @@
       <c r="CI75" s="10"/>
       <c r="CJ75" s="10"/>
       <c r="CK75" s="10"/>
-      <c r="CL75" s="10"/>
-      <c r="CM75" s="10"/>
-      <c r="CN75" s="10"/>
-      <c r="CO75" s="10"/>
+      <c r="CL75" s="37"/>
+      <c r="CM75" s="37"/>
+      <c r="CN75" s="37"/>
+      <c r="CO75" s="37"/>
       <c r="CP75" s="37"/>
       <c r="CQ75" s="37"/>
       <c r="CR75" s="37"/>
       <c r="CS75" s="37"/>
-      <c r="CT75" s="45"/>
+      <c r="CT75" s="37"/>
       <c r="CU75" s="45"/>
       <c r="CV75" s="45"/>
       <c r="CW75" s="37"/>
-      <c r="CX75" s="10"/>
+      <c r="CX75" s="45"/>
       <c r="CY75" s="10"/>
       <c r="CZ75" s="10"/>
       <c r="DA75" s="10"/>
@@ -32798,10 +33042,10 @@
       <c r="CI76" s="10"/>
       <c r="CJ76" s="10"/>
       <c r="CK76" s="10"/>
-      <c r="CL76" s="10"/>
-      <c r="CM76" s="10"/>
-      <c r="CN76" s="10"/>
-      <c r="CO76" s="10"/>
+      <c r="CL76" s="37"/>
+      <c r="CM76" s="37"/>
+      <c r="CN76" s="37"/>
+      <c r="CO76" s="37"/>
       <c r="CP76" s="37"/>
       <c r="CQ76" s="37"/>
       <c r="CR76" s="37"/>
@@ -32810,7 +33054,7 @@
       <c r="CU76" s="37"/>
       <c r="CV76" s="37"/>
       <c r="CW76" s="37"/>
-      <c r="CX76" s="10"/>
+      <c r="CX76" s="37"/>
       <c r="CY76" s="10"/>
       <c r="CZ76" s="10"/>
       <c r="DA76" s="10"/>
@@ -32865,6 +33109,10 @@
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CL77" s="28"/>
+      <c r="CM77" s="28"/>
+      <c r="CN77" s="28"/>
+      <c r="CO77" s="28"/>
       <c r="CP77" s="28"/>
       <c r="CQ77" s="28"/>
       <c r="CR77" s="28"/>
@@ -32873,11 +33121,16 @@
       <c r="CU77" s="28"/>
       <c r="CV77" s="28"/>
       <c r="CW77" s="28"/>
+      <c r="CX77" s="28"/>
     </row>
     <row r="78" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="CL78" s="28"/>
+      <c r="CM78" s="28"/>
+      <c r="CN78" s="28"/>
+      <c r="CO78" s="28"/>
       <c r="CP78" s="28"/>
       <c r="CQ78" s="28"/>
       <c r="CR78" s="28"/>
@@ -32886,8 +33139,13 @@
       <c r="CU78" s="28"/>
       <c r="CV78" s="28"/>
       <c r="CW78" s="28"/>
+      <c r="CX78" s="28"/>
     </row>
     <row r="79" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL79" s="28"/>
+      <c r="CM79" s="28"/>
+      <c r="CN79" s="28"/>
+      <c r="CO79" s="28"/>
       <c r="CP79" s="28"/>
       <c r="CQ79" s="28"/>
       <c r="CR79" s="28"/>
@@ -32896,11 +33154,16 @@
       <c r="CU79" s="28"/>
       <c r="CV79" s="28"/>
       <c r="CW79" s="28"/>
+      <c r="CX79" s="28"/>
     </row>
     <row r="80" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="CL80" s="28"/>
+      <c r="CM80" s="28"/>
+      <c r="CN80" s="28"/>
+      <c r="CO80" s="28"/>
       <c r="CP80" s="28"/>
       <c r="CQ80" s="28"/>
       <c r="CR80" s="28"/>
@@ -32909,11 +33172,16 @@
       <c r="CU80" s="28"/>
       <c r="CV80" s="28"/>
       <c r="CW80" s="28"/>
+      <c r="CX80" s="28"/>
     </row>
     <row r="81" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="CL81" s="28"/>
+      <c r="CM81" s="28"/>
+      <c r="CN81" s="28"/>
+      <c r="CO81" s="28"/>
       <c r="CP81" s="28"/>
       <c r="CQ81" s="28"/>
       <c r="CR81" s="28"/>
@@ -32922,11 +33190,16 @@
       <c r="CU81" s="28"/>
       <c r="CV81" s="28"/>
       <c r="CW81" s="28"/>
+      <c r="CX81" s="28"/>
     </row>
     <row r="82" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="CL82" s="28"/>
+      <c r="CM82" s="28"/>
+      <c r="CN82" s="28"/>
+      <c r="CO82" s="28"/>
       <c r="CP82" s="28"/>
       <c r="CQ82" s="28"/>
       <c r="CR82" s="28"/>
@@ -32935,8 +33208,13 @@
       <c r="CU82" s="28"/>
       <c r="CV82" s="28"/>
       <c r="CW82" s="28"/>
+      <c r="CX82" s="28"/>
     </row>
     <row r="83" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL83" s="28"/>
+      <c r="CM83" s="28"/>
+      <c r="CN83" s="28"/>
+      <c r="CO83" s="28"/>
       <c r="CP83" s="28"/>
       <c r="CQ83" s="28"/>
       <c r="CR83" s="28"/>
@@ -32945,6 +33223,7 @@
       <c r="CU83" s="28"/>
       <c r="CV83" s="28"/>
       <c r="CW83" s="28"/>
+      <c r="CX83" s="28"/>
     </row>
     <row r="84" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
@@ -33080,12 +33359,12 @@
       <c r="CI84" s="26"/>
       <c r="CJ84" s="26"/>
       <c r="CK84" s="26"/>
-      <c r="CL84" s="26">
+      <c r="CL84" s="30">
         <v>2022</v>
       </c>
-      <c r="CM84" s="26"/>
-      <c r="CN84" s="26"/>
-      <c r="CO84" s="26"/>
+      <c r="CM84" s="30"/>
+      <c r="CN84" s="30"/>
+      <c r="CO84" s="30"/>
       <c r="CP84" s="30">
         <v>2023</v>
       </c>
@@ -33098,6 +33377,9 @@
       <c r="CU84" s="30"/>
       <c r="CV84" s="30"/>
       <c r="CW84" s="30"/>
+      <c r="CX84" s="30">
+        <v>2025</v>
+      </c>
     </row>
     <row r="85" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
@@ -33367,16 +33649,16 @@
       <c r="CK85" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL85" s="7" t="s">
+      <c r="CL85" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CM85" s="7" t="s">
+      <c r="CM85" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="CN85" s="7" t="s">
+      <c r="CN85" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="CO85" s="7" t="s">
+      <c r="CO85" s="31" t="s">
         <v>9</v>
       </c>
       <c r="CP85" s="31" t="s">
@@ -33402,10 +33684,17 @@
       </c>
       <c r="CW85" s="31" t="s">
         <v>9</v>
+      </c>
+      <c r="CX85" s="31" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
+      <c r="CL86" s="28"/>
+      <c r="CM86" s="28"/>
+      <c r="CN86" s="28"/>
+      <c r="CO86" s="28"/>
       <c r="CP86" s="28"/>
       <c r="CQ86" s="28"/>
       <c r="CR86" s="28"/>
@@ -33414,6 +33703,7 @@
       <c r="CU86" s="28"/>
       <c r="CV86" s="28"/>
       <c r="CW86" s="28"/>
+      <c r="CX86" s="28"/>
     </row>
     <row r="87" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
@@ -33683,43 +33973,45 @@
       <c r="CK87" s="18">
         <v>106.73571152128416</v>
       </c>
-      <c r="CL87" s="18">
+      <c r="CL87" s="39">
         <v>105.20863761172939</v>
       </c>
-      <c r="CM87" s="18">
+      <c r="CM87" s="39">
         <v>96.439585315344317</v>
       </c>
-      <c r="CN87" s="18">
+      <c r="CN87" s="39">
         <v>108.76423922419561</v>
       </c>
-      <c r="CO87" s="18">
+      <c r="CO87" s="39">
         <v>111.24523564311536</v>
       </c>
       <c r="CP87" s="39">
         <v>110.5271649335433</v>
       </c>
       <c r="CQ87" s="39">
-        <v>101.74702001926659</v>
+        <v>101.74702001926661</v>
       </c>
       <c r="CR87" s="39">
-        <v>116.00777557046965</v>
+        <v>116.00777557046962</v>
       </c>
       <c r="CS87" s="39">
-        <v>116.93645579687588</v>
+        <v>116.93645579687593</v>
       </c>
       <c r="CT87" s="39">
-        <v>112.83562748562788</v>
+        <v>112.96479038900583</v>
       </c>
       <c r="CU87" s="39">
-        <v>103.7177005741778</v>
+        <v>103.85781960311039</v>
       </c>
       <c r="CV87" s="39">
-        <v>116.87180529973513</v>
+        <v>116.93240877062917</v>
       </c>
       <c r="CW87" s="39">
-        <v>117.51177010889214</v>
-      </c>
-      <c r="CX87" s="10"/>
+        <v>117.45704715189369</v>
+      </c>
+      <c r="CX87" s="39">
+        <v>113.86146155181302</v>
+      </c>
       <c r="CY87" s="10"/>
       <c r="CZ87" s="10"/>
       <c r="DA87" s="10"/>
@@ -34042,43 +34334,45 @@
       <c r="CK88" s="18">
         <v>100.21692077855273</v>
       </c>
-      <c r="CL88" s="18">
+      <c r="CL88" s="39">
         <v>98.921347845037161</v>
       </c>
-      <c r="CM88" s="18">
+      <c r="CM88" s="39">
         <v>98.400154783103943</v>
       </c>
-      <c r="CN88" s="18">
+      <c r="CN88" s="39">
         <v>104.68735577888395</v>
       </c>
-      <c r="CO88" s="18">
+      <c r="CO88" s="39">
         <v>100.84081379781638</v>
       </c>
       <c r="CP88" s="39">
-        <v>99.633012218023012</v>
+        <v>99.63301221802304</v>
       </c>
       <c r="CQ88" s="39">
-        <v>99.075449962988003</v>
+        <v>99.075449962988017</v>
       </c>
       <c r="CR88" s="39">
-        <v>105.37113994465066</v>
+        <v>105.37113994465068</v>
       </c>
       <c r="CS88" s="39">
         <v>101.46470681708</v>
       </c>
       <c r="CT88" s="39">
-        <v>100.05354116569647</v>
+        <v>100.05354116569643</v>
       </c>
       <c r="CU88" s="39">
-        <v>99.557803662905172</v>
+        <v>99.557803662905158</v>
       </c>
       <c r="CV88" s="39">
-        <v>105.84978886068737</v>
+        <v>105.84978886068738</v>
       </c>
       <c r="CW88" s="39">
-        <v>101.66172566526848</v>
-      </c>
-      <c r="CX88" s="10"/>
+        <v>101.66172566526851</v>
+      </c>
+      <c r="CX88" s="39">
+        <v>100.34467659100888</v>
+      </c>
       <c r="CY88" s="10"/>
       <c r="CZ88" s="10"/>
       <c r="DA88" s="10"/>
@@ -34222,10 +34516,10 @@
       <c r="CI89" s="19"/>
       <c r="CJ89" s="19"/>
       <c r="CK89" s="19"/>
-      <c r="CL89" s="19"/>
-      <c r="CM89" s="19"/>
-      <c r="CN89" s="19"/>
-      <c r="CO89" s="19"/>
+      <c r="CL89" s="40"/>
+      <c r="CM89" s="40"/>
+      <c r="CN89" s="40"/>
+      <c r="CO89" s="40"/>
       <c r="CP89" s="40"/>
       <c r="CQ89" s="40"/>
       <c r="CR89" s="40"/>
@@ -34234,7 +34528,7 @@
       <c r="CU89" s="40"/>
       <c r="CV89" s="40"/>
       <c r="CW89" s="40"/>
-      <c r="CX89" s="10"/>
+      <c r="CX89" s="40"/>
       <c r="CY89" s="10"/>
       <c r="CZ89" s="10"/>
       <c r="DA89" s="10"/>
@@ -34557,43 +34851,45 @@
       <c r="CK90" s="18">
         <v>100.67010930613243</v>
       </c>
-      <c r="CL90" s="18">
+      <c r="CL90" s="39">
         <v>99.436526074439016</v>
       </c>
-      <c r="CM90" s="18">
+      <c r="CM90" s="39">
         <v>98.220523106456028</v>
       </c>
-      <c r="CN90" s="18">
+      <c r="CN90" s="39">
         <v>104.98509529447632</v>
       </c>
-      <c r="CO90" s="18">
+      <c r="CO90" s="39">
         <v>101.57539076544107</v>
       </c>
       <c r="CP90" s="39">
-        <v>100.43238479134948</v>
+        <v>100.4331252318601</v>
       </c>
       <c r="CQ90" s="39">
-        <v>99.302767244269162</v>
+        <v>99.302212873034961</v>
       </c>
       <c r="CR90" s="39">
-        <v>106.13351597761422</v>
+        <v>106.13228774281636</v>
       </c>
       <c r="CS90" s="39">
-        <v>102.56674580576519</v>
+        <v>102.55807108730548</v>
       </c>
       <c r="CT90" s="39">
-        <v>100.94359058260937</v>
+        <v>100.95197068320334</v>
       </c>
       <c r="CU90" s="39">
-        <v>99.895523759939394</v>
+        <v>99.916140948465639</v>
       </c>
       <c r="CV90" s="39">
-        <v>106.61593356818391</v>
+        <v>106.61781484329811</v>
       </c>
       <c r="CW90" s="39">
-        <v>102.84963989995204</v>
-      </c>
-      <c r="CX90" s="10"/>
+        <v>102.84050791916994</v>
+      </c>
+      <c r="CX90" s="39">
+        <v>101.32705068071959</v>
+      </c>
       <c r="CY90" s="10"/>
       <c r="CZ90" s="10"/>
       <c r="DA90" s="10"/>
@@ -34738,10 +35034,10 @@
       <c r="CI91" s="16"/>
       <c r="CJ91" s="16"/>
       <c r="CK91" s="16"/>
-      <c r="CL91" s="16"/>
-      <c r="CM91" s="16"/>
-      <c r="CN91" s="16"/>
-      <c r="CO91" s="16"/>
+      <c r="CL91" s="36"/>
+      <c r="CM91" s="36"/>
+      <c r="CN91" s="36"/>
+      <c r="CO91" s="36"/>
       <c r="CP91" s="36"/>
       <c r="CQ91" s="36"/>
       <c r="CR91" s="36"/>
@@ -34750,11 +35046,16 @@
       <c r="CU91" s="36"/>
       <c r="CV91" s="36"/>
       <c r="CW91" s="36"/>
+      <c r="CX91" s="36"/>
     </row>
     <row r="92" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="CL92" s="28"/>
+      <c r="CM92" s="28"/>
+      <c r="CN92" s="28"/>
+      <c r="CO92" s="28"/>
       <c r="CP92" s="28"/>
       <c r="CQ92" s="28"/>
       <c r="CR92" s="28"/>
@@ -34763,11 +35064,16 @@
       <c r="CU92" s="28"/>
       <c r="CV92" s="28"/>
       <c r="CW92" s="28"/>
+      <c r="CX92" s="28"/>
     </row>
     <row r="95" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CL95" s="28"/>
+      <c r="CM95" s="28"/>
+      <c r="CN95" s="28"/>
+      <c r="CO95" s="28"/>
       <c r="CP95" s="28"/>
       <c r="CQ95" s="28"/>
       <c r="CR95" s="28"/>
@@ -34776,11 +35082,16 @@
       <c r="CU95" s="28"/>
       <c r="CV95" s="28"/>
       <c r="CW95" s="28"/>
+      <c r="CX95" s="28"/>
     </row>
     <row r="96" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CL96" s="28"/>
+      <c r="CM96" s="28"/>
+      <c r="CN96" s="28"/>
+      <c r="CO96" s="28"/>
       <c r="CP96" s="28"/>
       <c r="CQ96" s="28"/>
       <c r="CR96" s="28"/>
@@ -34789,11 +35100,16 @@
       <c r="CU96" s="28"/>
       <c r="CV96" s="28"/>
       <c r="CW96" s="28"/>
+      <c r="CX96" s="28"/>
     </row>
     <row r="97" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="CL97" s="28"/>
+      <c r="CM97" s="28"/>
+      <c r="CN97" s="28"/>
+      <c r="CO97" s="28"/>
       <c r="CP97" s="28"/>
       <c r="CQ97" s="28"/>
       <c r="CR97" s="28"/>
@@ -34802,8 +35118,13 @@
       <c r="CU97" s="28"/>
       <c r="CV97" s="28"/>
       <c r="CW97" s="28"/>
+      <c r="CX97" s="28"/>
     </row>
     <row r="98" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL98" s="28"/>
+      <c r="CM98" s="28"/>
+      <c r="CN98" s="28"/>
+      <c r="CO98" s="28"/>
       <c r="CP98" s="28"/>
       <c r="CQ98" s="28"/>
       <c r="CR98" s="28"/>
@@ -34812,11 +35133,16 @@
       <c r="CU98" s="28"/>
       <c r="CV98" s="28"/>
       <c r="CW98" s="28"/>
+      <c r="CX98" s="28"/>
     </row>
     <row r="99" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="CL99" s="28"/>
+      <c r="CM99" s="28"/>
+      <c r="CN99" s="28"/>
+      <c r="CO99" s="28"/>
       <c r="CP99" s="28"/>
       <c r="CQ99" s="28"/>
       <c r="CR99" s="28"/>
@@ -34825,11 +35151,16 @@
       <c r="CU99" s="28"/>
       <c r="CV99" s="28"/>
       <c r="CW99" s="28"/>
+      <c r="CX99" s="28"/>
     </row>
     <row r="100" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="CL100" s="28"/>
+      <c r="CM100" s="28"/>
+      <c r="CN100" s="28"/>
+      <c r="CO100" s="28"/>
       <c r="CP100" s="28"/>
       <c r="CQ100" s="28"/>
       <c r="CR100" s="28"/>
@@ -34838,11 +35169,16 @@
       <c r="CU100" s="28"/>
       <c r="CV100" s="28"/>
       <c r="CW100" s="28"/>
+      <c r="CX100" s="28"/>
     </row>
     <row r="101" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="CL101" s="28"/>
+      <c r="CM101" s="28"/>
+      <c r="CN101" s="28"/>
+      <c r="CO101" s="28"/>
       <c r="CP101" s="28"/>
       <c r="CQ101" s="28"/>
       <c r="CR101" s="28"/>
@@ -34851,8 +35187,13 @@
       <c r="CU101" s="28"/>
       <c r="CV101" s="28"/>
       <c r="CW101" s="28"/>
+      <c r="CX101" s="28"/>
     </row>
     <row r="102" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL102" s="28"/>
+      <c r="CM102" s="28"/>
+      <c r="CN102" s="28"/>
+      <c r="CO102" s="28"/>
       <c r="CP102" s="28"/>
       <c r="CQ102" s="28"/>
       <c r="CR102" s="28"/>
@@ -34861,6 +35202,7 @@
       <c r="CU102" s="28"/>
       <c r="CV102" s="28"/>
       <c r="CW102" s="28"/>
+      <c r="CX102" s="28"/>
     </row>
     <row r="103" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
@@ -34996,12 +35338,12 @@
       <c r="CI103" s="26"/>
       <c r="CJ103" s="26"/>
       <c r="CK103" s="26"/>
-      <c r="CL103" s="26">
+      <c r="CL103" s="30">
         <v>2022</v>
       </c>
-      <c r="CM103" s="26"/>
-      <c r="CN103" s="26"/>
-      <c r="CO103" s="26"/>
+      <c r="CM103" s="30"/>
+      <c r="CN103" s="30"/>
+      <c r="CO103" s="30"/>
       <c r="CP103" s="30">
         <v>2023</v>
       </c>
@@ -35014,6 +35356,9 @@
       <c r="CU103" s="30"/>
       <c r="CV103" s="30"/>
       <c r="CW103" s="30"/>
+      <c r="CX103" s="30">
+        <v>2025</v>
+      </c>
     </row>
     <row r="104" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
@@ -35283,16 +35628,16 @@
       <c r="CK104" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL104" s="7" t="s">
+      <c r="CL104" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CM104" s="7" t="s">
+      <c r="CM104" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="CN104" s="7" t="s">
+      <c r="CN104" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="CO104" s="7" t="s">
+      <c r="CO104" s="31" t="s">
         <v>9</v>
       </c>
       <c r="CP104" s="31" t="s">
@@ -35318,10 +35663,17 @@
       </c>
       <c r="CW104" s="31" t="s">
         <v>9</v>
+      </c>
+      <c r="CX104" s="31" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
+      <c r="CL105" s="28"/>
+      <c r="CM105" s="28"/>
+      <c r="CN105" s="28"/>
+      <c r="CO105" s="28"/>
       <c r="CP105" s="28"/>
       <c r="CQ105" s="28"/>
       <c r="CR105" s="28"/>
@@ -35330,6 +35682,7 @@
       <c r="CU105" s="28"/>
       <c r="CV105" s="28"/>
       <c r="CW105" s="28"/>
+      <c r="CX105" s="28"/>
     </row>
     <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
@@ -35599,43 +35952,45 @@
       <c r="CK106" s="18">
         <v>7.3709094570462348</v>
       </c>
-      <c r="CL106" s="18">
+      <c r="CL106" s="39">
         <v>8.6696083603611633</v>
       </c>
-      <c r="CM106" s="18">
+      <c r="CM106" s="39">
         <v>8.9960897593264644</v>
       </c>
-      <c r="CN106" s="18">
+      <c r="CN106" s="39">
         <v>7.5660056555819546</v>
       </c>
-      <c r="CO106" s="18">
+      <c r="CO106" s="39">
         <v>7.7323637004002075</v>
       </c>
       <c r="CP106" s="39">
-        <v>8.0751582041399317</v>
+        <v>8.082578449247718</v>
       </c>
       <c r="CQ106" s="39">
-        <v>8.7181880707484023</v>
+        <v>8.6969750950612568</v>
       </c>
       <c r="CR106" s="39">
-        <v>7.8342874145234509</v>
+        <v>7.8217564120506333</v>
       </c>
       <c r="CS106" s="39">
-        <v>8.1208389741072065</v>
+        <v>8.057597135309793</v>
       </c>
       <c r="CT106" s="39">
-        <v>7.7835886065947477</v>
+        <v>7.7865315441699305</v>
       </c>
       <c r="CU106" s="39">
-        <v>8.4290996610587214</v>
+        <v>8.6621456676686268</v>
       </c>
       <c r="CV106" s="39">
-        <v>7.619691527076478</v>
+        <v>7.6004375077576816</v>
       </c>
       <c r="CW106" s="39">
-        <v>8.5631429668800951</v>
-      </c>
-      <c r="CX106" s="10"/>
+        <v>8.5235396370520107</v>
+      </c>
+      <c r="CX106" s="39">
+        <v>8.1668550410823464</v>
+      </c>
       <c r="CY106" s="10"/>
       <c r="CZ106" s="10"/>
       <c r="DA106" s="10"/>
@@ -35958,43 +36313,45 @@
       <c r="CK107" s="18">
         <v>92.629090542953762</v>
       </c>
-      <c r="CL107" s="18">
+      <c r="CL107" s="39">
         <v>91.330391639638847</v>
       </c>
-      <c r="CM107" s="18">
+      <c r="CM107" s="39">
         <v>91.003910240673534</v>
       </c>
-      <c r="CN107" s="18">
+      <c r="CN107" s="39">
         <v>92.433994344418053</v>
       </c>
-      <c r="CO107" s="18">
+      <c r="CO107" s="39">
         <v>92.267636299599786</v>
       </c>
       <c r="CP107" s="39">
-        <v>91.924841795860061</v>
+        <v>91.917421550752294</v>
       </c>
       <c r="CQ107" s="39">
-        <v>91.281811929251603</v>
+        <v>91.303024904938738</v>
       </c>
       <c r="CR107" s="39">
-        <v>92.165712585476555</v>
+        <v>92.178243587949353</v>
       </c>
       <c r="CS107" s="39">
-        <v>91.879161025892799</v>
+        <v>91.942402864690209</v>
       </c>
       <c r="CT107" s="39">
-        <v>92.216411393405266</v>
+        <v>92.213468455830068</v>
       </c>
       <c r="CU107" s="39">
-        <v>91.570900338941271</v>
+        <v>91.337854332331375</v>
       </c>
       <c r="CV107" s="39">
-        <v>92.380308472923517</v>
+        <v>92.39956249224231</v>
       </c>
       <c r="CW107" s="39">
-        <v>91.436857033119907</v>
-      </c>
-      <c r="CX107" s="10"/>
+        <v>91.476460362948004</v>
+      </c>
+      <c r="CX107" s="39">
+        <v>91.833144958917643</v>
+      </c>
       <c r="CY107" s="10"/>
       <c r="CZ107" s="10"/>
       <c r="DA107" s="10"/>
@@ -36138,10 +36495,10 @@
       <c r="CI108" s="19"/>
       <c r="CJ108" s="19"/>
       <c r="CK108" s="19"/>
-      <c r="CL108" s="19"/>
-      <c r="CM108" s="19"/>
-      <c r="CN108" s="19"/>
-      <c r="CO108" s="19"/>
+      <c r="CL108" s="40"/>
+      <c r="CM108" s="40"/>
+      <c r="CN108" s="40"/>
+      <c r="CO108" s="40"/>
       <c r="CP108" s="40"/>
       <c r="CQ108" s="40"/>
       <c r="CR108" s="40"/>
@@ -36150,7 +36507,7 @@
       <c r="CU108" s="40"/>
       <c r="CV108" s="40"/>
       <c r="CW108" s="40"/>
-      <c r="CX108" s="10"/>
+      <c r="CX108" s="40"/>
       <c r="CY108" s="10"/>
       <c r="CZ108" s="10"/>
       <c r="DA108" s="10"/>
@@ -36473,16 +36830,16 @@
       <c r="CK109" s="18">
         <v>100</v>
       </c>
-      <c r="CL109" s="18">
+      <c r="CL109" s="39">
         <v>100</v>
       </c>
-      <c r="CM109" s="18">
+      <c r="CM109" s="39">
         <v>100</v>
       </c>
-      <c r="CN109" s="18">
+      <c r="CN109" s="39">
         <v>100</v>
       </c>
-      <c r="CO109" s="18">
+      <c r="CO109" s="39">
         <v>100</v>
       </c>
       <c r="CP109" s="39">
@@ -36509,7 +36866,9 @@
       <c r="CW109" s="39">
         <v>100</v>
       </c>
-      <c r="CX109" s="10"/>
+      <c r="CX109" s="39">
+        <v>100</v>
+      </c>
       <c r="CY109" s="10"/>
       <c r="CZ109" s="10"/>
       <c r="DA109" s="10"/>
@@ -36654,10 +37013,10 @@
       <c r="CI110" s="16"/>
       <c r="CJ110" s="16"/>
       <c r="CK110" s="16"/>
-      <c r="CL110" s="16"/>
-      <c r="CM110" s="16"/>
-      <c r="CN110" s="16"/>
-      <c r="CO110" s="16"/>
+      <c r="CL110" s="36"/>
+      <c r="CM110" s="36"/>
+      <c r="CN110" s="36"/>
+      <c r="CO110" s="36"/>
       <c r="CP110" s="36"/>
       <c r="CQ110" s="36"/>
       <c r="CR110" s="36"/>
@@ -36666,11 +37025,16 @@
       <c r="CU110" s="36"/>
       <c r="CV110" s="36"/>
       <c r="CW110" s="36"/>
+      <c r="CX110" s="36"/>
     </row>
     <row r="111" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="CL111" s="28"/>
+      <c r="CM111" s="28"/>
+      <c r="CN111" s="28"/>
+      <c r="CO111" s="28"/>
       <c r="CP111" s="28"/>
       <c r="CQ111" s="28"/>
       <c r="CR111" s="28"/>
@@ -36679,6 +37043,7 @@
       <c r="CU111" s="28"/>
       <c r="CV111" s="28"/>
       <c r="CW111" s="28"/>
+      <c r="CX111" s="28"/>
     </row>
     <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="10"/>
@@ -36769,10 +37134,10 @@
       <c r="CI112" s="10"/>
       <c r="CJ112" s="10"/>
       <c r="CK112" s="10"/>
-      <c r="CL112" s="10"/>
-      <c r="CM112" s="10"/>
-      <c r="CN112" s="10"/>
-      <c r="CO112" s="10"/>
+      <c r="CL112" s="37"/>
+      <c r="CM112" s="37"/>
+      <c r="CN112" s="37"/>
+      <c r="CO112" s="37"/>
       <c r="CP112" s="37"/>
       <c r="CQ112" s="37"/>
       <c r="CR112" s="37"/>
@@ -36781,7 +37146,7 @@
       <c r="CU112" s="37"/>
       <c r="CV112" s="37"/>
       <c r="CW112" s="37"/>
-      <c r="CX112" s="10"/>
+      <c r="CX112" s="37"/>
       <c r="CY112" s="10"/>
       <c r="CZ112" s="10"/>
       <c r="DA112" s="10"/>
@@ -36925,10 +37290,10 @@
       <c r="CI113" s="10"/>
       <c r="CJ113" s="10"/>
       <c r="CK113" s="10"/>
-      <c r="CL113" s="10"/>
-      <c r="CM113" s="10"/>
-      <c r="CN113" s="10"/>
-      <c r="CO113" s="10"/>
+      <c r="CL113" s="37"/>
+      <c r="CM113" s="37"/>
+      <c r="CN113" s="37"/>
+      <c r="CO113" s="37"/>
       <c r="CP113" s="37"/>
       <c r="CQ113" s="37"/>
       <c r="CR113" s="37"/>
@@ -36937,7 +37302,7 @@
       <c r="CU113" s="37"/>
       <c r="CV113" s="37"/>
       <c r="CW113" s="37"/>
-      <c r="CX113" s="10"/>
+      <c r="CX113" s="37"/>
       <c r="CY113" s="10"/>
       <c r="CZ113" s="10"/>
       <c r="DA113" s="10"/>
@@ -36996,6 +37361,10 @@
       <c r="A114" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CL114" s="28"/>
+      <c r="CM114" s="28"/>
+      <c r="CN114" s="28"/>
+      <c r="CO114" s="28"/>
       <c r="CP114" s="28"/>
       <c r="CQ114" s="28"/>
       <c r="CR114" s="28"/>
@@ -37004,11 +37373,16 @@
       <c r="CU114" s="28"/>
       <c r="CV114" s="28"/>
       <c r="CW114" s="28"/>
+      <c r="CX114" s="28"/>
     </row>
     <row r="115" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CL115" s="28"/>
+      <c r="CM115" s="28"/>
+      <c r="CN115" s="28"/>
+      <c r="CO115" s="28"/>
       <c r="CP115" s="28"/>
       <c r="CQ115" s="28"/>
       <c r="CR115" s="28"/>
@@ -37017,11 +37391,16 @@
       <c r="CU115" s="28"/>
       <c r="CV115" s="28"/>
       <c r="CW115" s="28"/>
+      <c r="CX115" s="28"/>
     </row>
     <row r="116" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="CL116" s="28"/>
+      <c r="CM116" s="28"/>
+      <c r="CN116" s="28"/>
+      <c r="CO116" s="28"/>
       <c r="CP116" s="28"/>
       <c r="CQ116" s="28"/>
       <c r="CR116" s="28"/>
@@ -37030,8 +37409,13 @@
       <c r="CU116" s="28"/>
       <c r="CV116" s="28"/>
       <c r="CW116" s="28"/>
+      <c r="CX116" s="28"/>
     </row>
     <row r="117" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL117" s="28"/>
+      <c r="CM117" s="28"/>
+      <c r="CN117" s="28"/>
+      <c r="CO117" s="28"/>
       <c r="CP117" s="28"/>
       <c r="CQ117" s="28"/>
       <c r="CR117" s="28"/>
@@ -37040,11 +37424,16 @@
       <c r="CU117" s="28"/>
       <c r="CV117" s="28"/>
       <c r="CW117" s="28"/>
+      <c r="CX117" s="28"/>
     </row>
     <row r="118" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="CL118" s="28"/>
+      <c r="CM118" s="28"/>
+      <c r="CN118" s="28"/>
+      <c r="CO118" s="28"/>
       <c r="CP118" s="28"/>
       <c r="CQ118" s="28"/>
       <c r="CR118" s="28"/>
@@ -37053,11 +37442,16 @@
       <c r="CU118" s="28"/>
       <c r="CV118" s="28"/>
       <c r="CW118" s="28"/>
+      <c r="CX118" s="28"/>
     </row>
     <row r="119" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="CL119" s="28"/>
+      <c r="CM119" s="28"/>
+      <c r="CN119" s="28"/>
+      <c r="CO119" s="28"/>
       <c r="CP119" s="28"/>
       <c r="CQ119" s="28"/>
       <c r="CR119" s="28"/>
@@ -37066,11 +37460,16 @@
       <c r="CU119" s="28"/>
       <c r="CV119" s="28"/>
       <c r="CW119" s="28"/>
+      <c r="CX119" s="28"/>
     </row>
     <row r="120" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="CL120" s="28"/>
+      <c r="CM120" s="28"/>
+      <c r="CN120" s="28"/>
+      <c r="CO120" s="28"/>
       <c r="CP120" s="28"/>
       <c r="CQ120" s="28"/>
       <c r="CR120" s="28"/>
@@ -37079,8 +37478,13 @@
       <c r="CU120" s="28"/>
       <c r="CV120" s="28"/>
       <c r="CW120" s="28"/>
+      <c r="CX120" s="28"/>
     </row>
     <row r="121" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL121" s="28"/>
+      <c r="CM121" s="28"/>
+      <c r="CN121" s="28"/>
+      <c r="CO121" s="28"/>
       <c r="CP121" s="28"/>
       <c r="CQ121" s="28"/>
       <c r="CR121" s="28"/>
@@ -37089,6 +37493,7 @@
       <c r="CU121" s="28"/>
       <c r="CV121" s="28"/>
       <c r="CW121" s="28"/>
+      <c r="CX121" s="28"/>
     </row>
     <row r="122" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
@@ -37224,12 +37629,12 @@
       <c r="CI122" s="26"/>
       <c r="CJ122" s="26"/>
       <c r="CK122" s="26"/>
-      <c r="CL122" s="26">
+      <c r="CL122" s="30">
         <v>2022</v>
       </c>
-      <c r="CM122" s="26"/>
-      <c r="CN122" s="26"/>
-      <c r="CO122" s="26"/>
+      <c r="CM122" s="30"/>
+      <c r="CN122" s="30"/>
+      <c r="CO122" s="30"/>
       <c r="CP122" s="30">
         <v>2023</v>
       </c>
@@ -37242,6 +37647,9 @@
       <c r="CU122" s="30"/>
       <c r="CV122" s="30"/>
       <c r="CW122" s="30"/>
+      <c r="CX122" s="30">
+        <v>2025</v>
+      </c>
     </row>
     <row r="123" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
@@ -37511,16 +37919,16 @@
       <c r="CK123" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL123" s="7" t="s">
+      <c r="CL123" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CM123" s="7" t="s">
+      <c r="CM123" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="CN123" s="7" t="s">
+      <c r="CN123" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="CO123" s="7" t="s">
+      <c r="CO123" s="31" t="s">
         <v>9</v>
       </c>
       <c r="CP123" s="31" t="s">
@@ -37546,10 +37954,17 @@
       </c>
       <c r="CW123" s="31" t="s">
         <v>9</v>
+      </c>
+      <c r="CX123" s="31" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8"/>
+      <c r="CL124" s="28"/>
+      <c r="CM124" s="28"/>
+      <c r="CN124" s="28"/>
+      <c r="CO124" s="28"/>
       <c r="CP124" s="28"/>
       <c r="CQ124" s="28"/>
       <c r="CR124" s="28"/>
@@ -37558,6 +37973,7 @@
       <c r="CU124" s="28"/>
       <c r="CV124" s="28"/>
       <c r="CW124" s="28"/>
+      <c r="CX124" s="28"/>
     </row>
     <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
@@ -37827,43 +38243,45 @@
       <c r="CK125" s="18">
         <v>6.9520336741136681</v>
       </c>
-      <c r="CL125" s="18">
+      <c r="CL125" s="39">
         <v>8.1939635124038261</v>
       </c>
-      <c r="CM125" s="18">
+      <c r="CM125" s="39">
         <v>9.162219426643361</v>
       </c>
-      <c r="CN125" s="18">
+      <c r="CN125" s="39">
         <v>7.3031157153822592</v>
       </c>
-      <c r="CO125" s="18">
+      <c r="CO125" s="39">
         <v>7.0602382193548809</v>
       </c>
       <c r="CP125" s="39">
-        <v>7.3376295908507094</v>
+        <v>7.3444262691232138</v>
       </c>
       <c r="CQ125" s="39">
-        <v>8.5087523999951848</v>
+        <v>8.4880016346200744</v>
       </c>
       <c r="CR125" s="39">
-        <v>7.1674546330513751</v>
+        <v>7.1559074216857335</v>
       </c>
       <c r="CS125" s="39">
-        <v>7.1229115087397528</v>
+        <v>7.0668433908362731</v>
       </c>
       <c r="CT125" s="39">
-        <v>6.9632561902280372</v>
+        <v>6.9585018611904044</v>
       </c>
       <c r="CU125" s="39">
-        <v>8.1184727467417979</v>
+        <v>8.3333943534955512</v>
       </c>
       <c r="CV125" s="39">
-        <v>6.9510394194508152</v>
+        <v>6.9300038154495525</v>
       </c>
       <c r="CW125" s="39">
-        <v>7.4947060174424251</v>
-      </c>
-      <c r="CX125" s="10"/>
+        <v>7.4628569915438554</v>
+      </c>
+      <c r="CX125" s="39">
+        <v>7.267808821102073</v>
+      </c>
       <c r="CY125" s="10"/>
       <c r="CZ125" s="10"/>
       <c r="DA125" s="10"/>
@@ -38186,43 +38604,45 @@
       <c r="CK126" s="18">
         <v>93.047966325886335</v>
       </c>
-      <c r="CL126" s="18">
+      <c r="CL126" s="39">
         <v>91.806036487596174</v>
       </c>
-      <c r="CM126" s="18">
+      <c r="CM126" s="39">
         <v>90.837780573356625</v>
       </c>
-      <c r="CN126" s="18">
+      <c r="CN126" s="39">
         <v>92.696884284617738</v>
       </c>
-      <c r="CO126" s="18">
+      <c r="CO126" s="39">
         <v>92.939761780645114</v>
       </c>
       <c r="CP126" s="39">
-        <v>92.66237040914929</v>
+        <v>92.655573730876782</v>
       </c>
       <c r="CQ126" s="39">
-        <v>91.491247600004812</v>
+        <v>91.511998365379924</v>
       </c>
       <c r="CR126" s="39">
-        <v>92.832545366948636</v>
+        <v>92.844092578314275</v>
       </c>
       <c r="CS126" s="39">
-        <v>92.877088491260238</v>
+        <v>92.933156609163731</v>
       </c>
       <c r="CT126" s="39">
-        <v>93.036743809771977</v>
+        <v>93.041498138809587</v>
       </c>
       <c r="CU126" s="39">
-        <v>91.881527253258199</v>
+        <v>91.666605646504451</v>
       </c>
       <c r="CV126" s="39">
-        <v>93.048960580549178</v>
+        <v>93.069996184550448</v>
       </c>
       <c r="CW126" s="39">
-        <v>92.505293982557575</v>
-      </c>
-      <c r="CX126" s="10"/>
+        <v>92.537143008456141</v>
+      </c>
+      <c r="CX126" s="39">
+        <v>92.732191178897921</v>
+      </c>
       <c r="CY126" s="10"/>
       <c r="CZ126" s="10"/>
       <c r="DA126" s="10"/>
@@ -38366,10 +38786,10 @@
       <c r="CI127" s="19"/>
       <c r="CJ127" s="19"/>
       <c r="CK127" s="19"/>
-      <c r="CL127" s="19"/>
-      <c r="CM127" s="19"/>
-      <c r="CN127" s="19"/>
-      <c r="CO127" s="19"/>
+      <c r="CL127" s="40"/>
+      <c r="CM127" s="40"/>
+      <c r="CN127" s="40"/>
+      <c r="CO127" s="40"/>
       <c r="CP127" s="40"/>
       <c r="CQ127" s="40"/>
       <c r="CR127" s="40"/>
@@ -38378,7 +38798,7 @@
       <c r="CU127" s="40"/>
       <c r="CV127" s="40"/>
       <c r="CW127" s="40"/>
-      <c r="CX127" s="10"/>
+      <c r="CX127" s="40"/>
       <c r="CY127" s="10"/>
       <c r="CZ127" s="10"/>
       <c r="DA127" s="10"/>
@@ -38701,16 +39121,16 @@
       <c r="CK128" s="18">
         <v>100</v>
       </c>
-      <c r="CL128" s="18">
+      <c r="CL128" s="39">
         <v>100</v>
       </c>
-      <c r="CM128" s="18">
+      <c r="CM128" s="39">
         <v>100</v>
       </c>
-      <c r="CN128" s="18">
+      <c r="CN128" s="39">
         <v>100</v>
       </c>
-      <c r="CO128" s="18">
+      <c r="CO128" s="39">
         <v>100</v>
       </c>
       <c r="CP128" s="39">
@@ -38737,7 +39157,9 @@
       <c r="CW128" s="39">
         <v>100</v>
       </c>
-      <c r="CX128" s="10"/>
+      <c r="CX128" s="39">
+        <v>100</v>
+      </c>
       <c r="CY128" s="10"/>
       <c r="CZ128" s="10"/>
       <c r="DA128" s="10"/>
@@ -38882,10 +39304,10 @@
       <c r="CI129" s="16"/>
       <c r="CJ129" s="16"/>
       <c r="CK129" s="16"/>
-      <c r="CL129" s="16"/>
-      <c r="CM129" s="16"/>
-      <c r="CN129" s="16"/>
-      <c r="CO129" s="16"/>
+      <c r="CL129" s="36"/>
+      <c r="CM129" s="36"/>
+      <c r="CN129" s="36"/>
+      <c r="CO129" s="36"/>
       <c r="CP129" s="36"/>
       <c r="CQ129" s="36"/>
       <c r="CR129" s="36"/>
@@ -38894,11 +39316,16 @@
       <c r="CU129" s="36"/>
       <c r="CV129" s="36"/>
       <c r="CW129" s="36"/>
+      <c r="CX129" s="36"/>
     </row>
     <row r="130" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="CL130" s="28"/>
+      <c r="CM130" s="28"/>
+      <c r="CN130" s="28"/>
+      <c r="CO130" s="28"/>
       <c r="CP130" s="28"/>
       <c r="CQ130" s="28"/>
       <c r="CR130" s="28"/>
@@ -38907,6 +39334,7 @@
       <c r="CU130" s="28"/>
       <c r="CV130" s="28"/>
       <c r="CW130" s="28"/>
+      <c r="CX130" s="28"/>
     </row>
     <row r="131" spans="1:155" s="21" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
@@ -38998,10 +39426,10 @@
       <c r="CI131" s="11"/>
       <c r="CJ131" s="11"/>
       <c r="CK131" s="11"/>
-      <c r="CL131" s="11"/>
-      <c r="CM131" s="11"/>
-      <c r="CN131" s="11"/>
-      <c r="CO131" s="11"/>
+      <c r="CL131" s="41"/>
+      <c r="CM131" s="41"/>
+      <c r="CN131" s="41"/>
+      <c r="CO131" s="41"/>
       <c r="CP131" s="41"/>
       <c r="CQ131" s="41"/>
       <c r="CR131" s="41"/>
@@ -39010,7 +39438,7 @@
       <c r="CU131" s="46"/>
       <c r="CV131" s="46"/>
       <c r="CW131" s="41"/>
-      <c r="CX131" s="20"/>
+      <c r="CX131" s="46"/>
       <c r="CY131" s="20"/>
       <c r="CZ131" s="20"/>
       <c r="DA131" s="20"/>
@@ -39155,10 +39583,10 @@
       <c r="CI132" s="11"/>
       <c r="CJ132" s="11"/>
       <c r="CK132" s="11"/>
-      <c r="CL132" s="11"/>
-      <c r="CM132" s="11"/>
-      <c r="CN132" s="11"/>
-      <c r="CO132" s="11"/>
+      <c r="CL132" s="41"/>
+      <c r="CM132" s="41"/>
+      <c r="CN132" s="41"/>
+      <c r="CO132" s="41"/>
       <c r="CP132" s="41"/>
       <c r="CQ132" s="41"/>
       <c r="CR132" s="41"/>
@@ -39167,7 +39595,7 @@
       <c r="CU132" s="46"/>
       <c r="CV132" s="46"/>
       <c r="CW132" s="41"/>
-      <c r="CX132" s="20"/>
+      <c r="CX132" s="46"/>
       <c r="CY132" s="20"/>
       <c r="CZ132" s="20"/>
       <c r="DA132" s="20"/>
@@ -39226,29 +39654,145 @@
       <c r="CT133" s="46"/>
       <c r="CU133" s="46"/>
       <c r="CV133" s="46"/>
+      <c r="CX133" s="46"/>
     </row>
     <row r="134" spans="1:155" x14ac:dyDescent="0.2">
       <c r="CT134" s="46"/>
       <c r="CU134" s="46"/>
       <c r="CV134" s="46"/>
+      <c r="CX134" s="46"/>
     </row>
     <row r="135" spans="1:155" x14ac:dyDescent="0.2">
       <c r="CT135" s="46"/>
       <c r="CU135" s="46"/>
       <c r="CV135" s="46"/>
-    </row>
-    <row r="136" spans="1:155" x14ac:dyDescent="0.2">
-      <c r="CT136" s="46"/>
-      <c r="CU136" s="46"/>
-      <c r="CV136" s="46"/>
-    </row>
-    <row r="137" spans="1:155" x14ac:dyDescent="0.2">
-      <c r="CT137" s="46"/>
-      <c r="CU137" s="46"/>
-      <c r="CV137" s="46"/>
+      <c r="CX135" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="147">
+    <mergeCell ref="BN122:BQ122"/>
+    <mergeCell ref="BJ103:BM103"/>
+    <mergeCell ref="BN103:BQ103"/>
+    <mergeCell ref="BR122:BU122"/>
+    <mergeCell ref="BV122:BY122"/>
+    <mergeCell ref="BF103:BI103"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="BR84:BU84"/>
+    <mergeCell ref="BV84:BY84"/>
+    <mergeCell ref="BJ122:BM122"/>
+    <mergeCell ref="BF122:BI122"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="AX122:BA122"/>
+    <mergeCell ref="BB122:BE122"/>
+    <mergeCell ref="BB103:BE103"/>
+    <mergeCell ref="AT103:AW103"/>
+    <mergeCell ref="AX103:BA103"/>
+    <mergeCell ref="BF47:BI47"/>
+    <mergeCell ref="BJ47:BM47"/>
+    <mergeCell ref="BN47:BQ47"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="BN28:BQ28"/>
+    <mergeCell ref="BJ28:BM28"/>
+    <mergeCell ref="BJ66:BM66"/>
+    <mergeCell ref="BF28:BI28"/>
+    <mergeCell ref="BF66:BI66"/>
+    <mergeCell ref="BN66:BQ66"/>
+    <mergeCell ref="Z103:AC103"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="AH103:AK103"/>
+    <mergeCell ref="AL122:AO122"/>
+    <mergeCell ref="AP122:AS122"/>
+    <mergeCell ref="AL103:AO103"/>
+    <mergeCell ref="AP103:AS103"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="R122:U122"/>
+    <mergeCell ref="V122:Y122"/>
+    <mergeCell ref="Z122:AC122"/>
+    <mergeCell ref="AD122:AG122"/>
+    <mergeCell ref="AH122:AK122"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="V103:Y103"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="R66:U66"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="Z47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="AH47:AK47"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="AL28:AO28"/>
+    <mergeCell ref="AP28:AS28"/>
+    <mergeCell ref="AT28:AW28"/>
+    <mergeCell ref="AX28:BA28"/>
+    <mergeCell ref="BB28:BE28"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="AL47:AO47"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="AX66:BA66"/>
+    <mergeCell ref="BB66:BE66"/>
+    <mergeCell ref="BB47:BE47"/>
+    <mergeCell ref="AT47:AW47"/>
+    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AH28:AK28"/>
     <mergeCell ref="CD9:CG9"/>
     <mergeCell ref="CD122:CG122"/>
     <mergeCell ref="CD103:CG103"/>
@@ -39273,138 +39817,15 @@
     <mergeCell ref="BZ122:CC122"/>
     <mergeCell ref="BR103:BU103"/>
     <mergeCell ref="BV103:BY103"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="AT28:AW28"/>
-    <mergeCell ref="AX28:BA28"/>
-    <mergeCell ref="BB28:BE28"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AP47:AS47"/>
-    <mergeCell ref="AX66:BA66"/>
-    <mergeCell ref="BB66:BE66"/>
-    <mergeCell ref="BB47:BE47"/>
-    <mergeCell ref="AT47:AW47"/>
-    <mergeCell ref="AX47:BA47"/>
-    <mergeCell ref="AT66:AW66"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AL66:AO66"/>
-    <mergeCell ref="AP66:AS66"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="R66:U66"/>
-    <mergeCell ref="V66:Y66"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="R47:U47"/>
-    <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="AL28:AO28"/>
-    <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="V103:Y103"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="R122:U122"/>
-    <mergeCell ref="V122:Y122"/>
-    <mergeCell ref="Z122:AC122"/>
-    <mergeCell ref="AD122:AG122"/>
-    <mergeCell ref="AH122:AK122"/>
-    <mergeCell ref="Z103:AC103"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="AH103:AK103"/>
-    <mergeCell ref="AL122:AO122"/>
-    <mergeCell ref="AP122:AS122"/>
-    <mergeCell ref="AL103:AO103"/>
-    <mergeCell ref="AP103:AS103"/>
-    <mergeCell ref="BF47:BI47"/>
-    <mergeCell ref="BJ47:BM47"/>
-    <mergeCell ref="BN47:BQ47"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="BN28:BQ28"/>
-    <mergeCell ref="BJ28:BM28"/>
-    <mergeCell ref="BJ66:BM66"/>
-    <mergeCell ref="BF28:BI28"/>
-    <mergeCell ref="BF66:BI66"/>
-    <mergeCell ref="BN66:BQ66"/>
-    <mergeCell ref="BN122:BQ122"/>
-    <mergeCell ref="BJ103:BM103"/>
-    <mergeCell ref="BN103:BQ103"/>
-    <mergeCell ref="BR122:BU122"/>
-    <mergeCell ref="BV122:BY122"/>
-    <mergeCell ref="BF103:BI103"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="BR84:BU84"/>
-    <mergeCell ref="BV84:BY84"/>
-    <mergeCell ref="BJ122:BM122"/>
-    <mergeCell ref="BF122:BI122"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="AX122:BA122"/>
-    <mergeCell ref="BB122:BE122"/>
-    <mergeCell ref="BB103:BE103"/>
-    <mergeCell ref="AT103:AW103"/>
-    <mergeCell ref="AX103:BA103"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="100" man="1"/>
-    <brk id="76" max="100" man="1"/>
-    <brk id="94" max="100" man="1"/>
+    <brk id="38" max="101" man="1"/>
+    <brk id="76" max="101" man="1"/>
+    <brk id="94" max="101" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-16IAC_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-16IAC_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2025\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CA04BD-761C-4317-97CD-5D332261ED81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255BF7FD-31B0-483E-A7E5-D74B9BBA7704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IAC!$A$1:$CX$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IAC!$A$1:$CY$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -619,19 +619,16 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>2024 - 2025</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2025</t>
+    <t>As of August 2025</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2025</t>
+    <t>Q1 2000 to Q2 2025</t>
   </si>
   <si>
-    <t>As of May 2025</t>
+    <t>Q1 2001 to Q2 2025</t>
   </si>
 </sst>
 </file>
@@ -639,10 +636,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -727,16 +724,16 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -747,31 +744,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -781,19 +778,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
@@ -801,13 +798,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -23689,17 +23686,17 @@
   <dimension ref="A1:EY135"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CH1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="CK1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CX1" sqref="CX1"/>
+      <selection pane="topRight" activeCell="CY1" sqref="CY1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.6640625" style="1" customWidth="1"/>
     <col min="2" max="89" width="11.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="90" max="102" width="10.109375" style="41" customWidth="1"/>
-    <col min="103" max="16384" width="7.77734375" style="11"/>
+    <col min="90" max="103" width="10.109375" style="41" customWidth="1"/>
+    <col min="104" max="16384" width="7.77734375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -23714,13 +23711,12 @@
       <c r="CQ1" s="28"/>
       <c r="CR1" s="28"/>
       <c r="CS1" s="28"/>
-      <c r="CT1" s="28" t="s">
-        <v>50</v>
-      </c>
+      <c r="CT1" s="28"/>
       <c r="CU1" s="28"/>
       <c r="CV1" s="28"/>
       <c r="CW1" s="28"/>
       <c r="CX1" s="28"/>
+      <c r="CY1" s="28"/>
     </row>
     <row r="2" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -23739,10 +23735,11 @@
       <c r="CV2" s="28"/>
       <c r="CW2" s="28"/>
       <c r="CX2" s="28"/>
+      <c r="CY2" s="28"/>
     </row>
     <row r="3" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="CL3" s="28"/>
       <c r="CM3" s="28"/>
@@ -23757,6 +23754,7 @@
       <c r="CV3" s="28"/>
       <c r="CW3" s="28"/>
       <c r="CX3" s="28"/>
+      <c r="CY3" s="28"/>
     </row>
     <row r="4" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CL4" s="28"/>
@@ -23772,6 +23770,7 @@
       <c r="CV4" s="28"/>
       <c r="CW4" s="28"/>
       <c r="CX4" s="28"/>
+      <c r="CY4" s="28"/>
     </row>
     <row r="5" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -23790,6 +23789,7 @@
       <c r="CV5" s="28"/>
       <c r="CW5" s="28"/>
       <c r="CX5" s="28"/>
+      <c r="CY5" s="28"/>
     </row>
     <row r="6" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -23808,6 +23808,7 @@
       <c r="CV6" s="28"/>
       <c r="CW6" s="28"/>
       <c r="CX6" s="28"/>
+      <c r="CY6" s="28"/>
     </row>
     <row r="7" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -23914,6 +23915,7 @@
       <c r="CV7" s="29"/>
       <c r="CW7" s="29"/>
       <c r="CX7" s="29"/>
+      <c r="CY7" s="29"/>
     </row>
     <row r="8" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
@@ -24017,6 +24019,7 @@
       <c r="CV8" s="29"/>
       <c r="CW8" s="29"/>
       <c r="CX8" s="29"/>
+      <c r="CY8" s="29"/>
     </row>
     <row r="9" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
@@ -24173,6 +24176,7 @@
       <c r="CX9" s="30">
         <v>2025</v>
       </c>
+      <c r="CY9" s="30"/>
     </row>
     <row r="10" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24480,6 +24484,9 @@
       </c>
       <c r="CX10" s="31" t="s">
         <v>7</v>
+      </c>
+      <c r="CY10" s="31" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24497,6 +24504,7 @@
       <c r="CV11" s="28"/>
       <c r="CW11" s="28"/>
       <c r="CX11" s="28"/>
+      <c r="CY11" s="28"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -24803,9 +24811,11 @@
         <v>18233.999417501887</v>
       </c>
       <c r="CX12" s="32">
-        <v>14999.030444131276</v>
-      </c>
-      <c r="CY12" s="10"/>
+        <v>14815.541490678501</v>
+      </c>
+      <c r="CY12" s="32">
+        <v>21558.005593357055</v>
+      </c>
       <c r="CZ12" s="10"/>
       <c r="DA12" s="10"/>
       <c r="DB12" s="10"/>
@@ -25164,9 +25174,11 @@
         <v>195691.20295075249</v>
       </c>
       <c r="CX13" s="33">
-        <v>168658.33054342784</v>
-      </c>
-      <c r="CY13" s="10"/>
+        <v>167288.78395779632</v>
+      </c>
+      <c r="CY13" s="33">
+        <v>203432.18934246944</v>
+      </c>
       <c r="CZ13" s="10"/>
       <c r="DA13" s="10"/>
       <c r="DB13" s="10"/>
@@ -25322,7 +25334,7 @@
       <c r="CV14" s="34"/>
       <c r="CW14" s="34"/>
       <c r="CX14" s="34"/>
-      <c r="CY14" s="10"/>
+      <c r="CY14" s="34"/>
       <c r="CZ14" s="10"/>
       <c r="DA14" s="10"/>
       <c r="DB14" s="10"/>
@@ -25681,9 +25693,11 @@
         <v>213925.20236825437</v>
       </c>
       <c r="CX15" s="35">
-        <v>183657.36098755914</v>
-      </c>
-      <c r="CY15" s="10"/>
+        <v>182104.32544847482</v>
+      </c>
+      <c r="CY15" s="35">
+        <v>224990.1949358265</v>
+      </c>
       <c r="CZ15" s="10"/>
       <c r="DA15" s="10"/>
       <c r="DB15" s="10"/>
@@ -25840,6 +25854,7 @@
       <c r="CV16" s="36"/>
       <c r="CW16" s="36"/>
       <c r="CX16" s="36"/>
+      <c r="CY16" s="36"/>
     </row>
     <row r="17" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
@@ -25858,6 +25873,7 @@
       <c r="CV17" s="28"/>
       <c r="CW17" s="28"/>
       <c r="CX17" s="28"/>
+      <c r="CY17" s="28"/>
     </row>
     <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
@@ -25961,7 +25977,7 @@
       <c r="CV18" s="37"/>
       <c r="CW18" s="37"/>
       <c r="CX18" s="37"/>
-      <c r="CY18" s="10"/>
+      <c r="CY18" s="37"/>
       <c r="CZ18" s="10"/>
       <c r="DA18" s="10"/>
       <c r="DB18" s="10"/>
@@ -26117,7 +26133,7 @@
       <c r="CV19" s="37"/>
       <c r="CW19" s="37"/>
       <c r="CX19" s="37"/>
-      <c r="CY19" s="10"/>
+      <c r="CY19" s="37"/>
       <c r="CZ19" s="10"/>
       <c r="DA19" s="10"/>
       <c r="DB19" s="10"/>
@@ -26188,6 +26204,7 @@
       <c r="CV20" s="28"/>
       <c r="CW20" s="28"/>
       <c r="CX20" s="28"/>
+      <c r="CY20" s="28"/>
     </row>
     <row r="21" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -26206,10 +26223,11 @@
       <c r="CV21" s="28"/>
       <c r="CW21" s="28"/>
       <c r="CX21" s="28"/>
+      <c r="CY21" s="28"/>
     </row>
     <row r="22" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="CL22" s="28"/>
       <c r="CM22" s="28"/>
@@ -26224,6 +26242,7 @@
       <c r="CV22" s="28"/>
       <c r="CW22" s="28"/>
       <c r="CX22" s="28"/>
+      <c r="CY22" s="28"/>
     </row>
     <row r="23" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CL23" s="28"/>
@@ -26239,6 +26258,7 @@
       <c r="CV23" s="28"/>
       <c r="CW23" s="28"/>
       <c r="CX23" s="28"/>
+      <c r="CY23" s="28"/>
     </row>
     <row r="24" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -26257,6 +26277,7 @@
       <c r="CV24" s="28"/>
       <c r="CW24" s="28"/>
       <c r="CX24" s="28"/>
+      <c r="CY24" s="28"/>
     </row>
     <row r="25" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -26275,6 +26296,7 @@
       <c r="CV25" s="28"/>
       <c r="CW25" s="28"/>
       <c r="CX25" s="28"/>
+      <c r="CY25" s="28"/>
     </row>
     <row r="26" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -26381,6 +26403,7 @@
       <c r="CV26" s="29"/>
       <c r="CW26" s="29"/>
       <c r="CX26" s="29"/>
+      <c r="CY26" s="29"/>
     </row>
     <row r="27" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
@@ -26484,6 +26507,7 @@
       <c r="CV27" s="29"/>
       <c r="CW27" s="29"/>
       <c r="CX27" s="29"/>
+      <c r="CY27" s="29"/>
     </row>
     <row r="28" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
@@ -26640,6 +26664,7 @@
       <c r="CX28" s="30">
         <v>2025</v>
       </c>
+      <c r="CY28" s="30"/>
     </row>
     <row r="29" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
@@ -26947,6 +26972,9 @@
       </c>
       <c r="CX29" s="31" t="s">
         <v>7</v>
+      </c>
+      <c r="CY29" s="31" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26964,6 +26992,7 @@
       <c r="CV30" s="28"/>
       <c r="CW30" s="28"/>
       <c r="CX30" s="28"/>
+      <c r="CY30" s="28"/>
     </row>
     <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -27270,9 +27299,11 @@
         <v>15523.972260193084</v>
       </c>
       <c r="CX31" s="32">
-        <v>13173.052795660733</v>
-      </c>
-      <c r="CY31" s="10"/>
+        <v>13030.949836486267</v>
+      </c>
+      <c r="CY31" s="32">
+        <v>20629.337331227202</v>
+      </c>
       <c r="CZ31" s="10"/>
       <c r="DA31" s="10"/>
       <c r="DB31" s="10"/>
@@ -27631,9 +27662,11 @@
         <v>192492.50558178162</v>
       </c>
       <c r="CX32" s="33">
-        <v>168079.00157061251</v>
-      </c>
-      <c r="CY32" s="10"/>
+        <v>166714.15927687171</v>
+      </c>
+      <c r="CY32" s="33">
+        <v>203612.32575853926</v>
+      </c>
       <c r="CZ32" s="10"/>
       <c r="DA32" s="10"/>
       <c r="DB32" s="10"/>
@@ -27789,7 +27822,7 @@
       <c r="CV33" s="37"/>
       <c r="CW33" s="37"/>
       <c r="CX33" s="37"/>
-      <c r="CY33" s="10"/>
+      <c r="CY33" s="37"/>
       <c r="CZ33" s="10"/>
       <c r="DA33" s="10"/>
       <c r="DB33" s="10"/>
@@ -28148,9 +28181,11 @@
         <v>208016.4778419747</v>
       </c>
       <c r="CX34" s="35">
-        <v>181252.05436627325</v>
-      </c>
-      <c r="CY34" s="10"/>
+        <v>179745.10911335796</v>
+      </c>
+      <c r="CY34" s="35">
+        <v>224241.66308976646</v>
+      </c>
       <c r="CZ34" s="10"/>
       <c r="DA34" s="10"/>
       <c r="DB34" s="10"/>
@@ -28307,6 +28342,7 @@
       <c r="CV35" s="36"/>
       <c r="CW35" s="36"/>
       <c r="CX35" s="36"/>
+      <c r="CY35" s="36"/>
     </row>
     <row r="36" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
@@ -28325,6 +28361,7 @@
       <c r="CV36" s="28"/>
       <c r="CW36" s="28"/>
       <c r="CX36" s="28"/>
+      <c r="CY36" s="28"/>
     </row>
     <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="10"/>
@@ -28428,7 +28465,7 @@
       <c r="CV37" s="37"/>
       <c r="CW37" s="37"/>
       <c r="CX37" s="37"/>
-      <c r="CY37" s="10"/>
+      <c r="CY37" s="37"/>
       <c r="CZ37" s="10"/>
       <c r="DA37" s="10"/>
       <c r="DB37" s="10"/>
@@ -28584,7 +28621,7 @@
       <c r="CV38" s="37"/>
       <c r="CW38" s="37"/>
       <c r="CX38" s="37"/>
-      <c r="CY38" s="10"/>
+      <c r="CY38" s="37"/>
       <c r="CZ38" s="10"/>
       <c r="DA38" s="10"/>
       <c r="DB38" s="10"/>
@@ -28655,6 +28692,7 @@
       <c r="CV39" s="28"/>
       <c r="CW39" s="28"/>
       <c r="CX39" s="28"/>
+      <c r="CY39" s="28"/>
     </row>
     <row r="40" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -28673,10 +28711,11 @@
       <c r="CV40" s="28"/>
       <c r="CW40" s="28"/>
       <c r="CX40" s="28"/>
+      <c r="CY40" s="28"/>
     </row>
     <row r="41" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="CL41" s="28"/>
       <c r="CM41" s="28"/>
@@ -28691,6 +28730,7 @@
       <c r="CV41" s="28"/>
       <c r="CW41" s="28"/>
       <c r="CX41" s="28"/>
+      <c r="CY41" s="28"/>
     </row>
     <row r="42" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CL42" s="28"/>
@@ -28706,6 +28746,7 @@
       <c r="CV42" s="28"/>
       <c r="CW42" s="28"/>
       <c r="CX42" s="28"/>
+      <c r="CY42" s="28"/>
     </row>
     <row r="43" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -28724,6 +28765,7 @@
       <c r="CV43" s="28"/>
       <c r="CW43" s="28"/>
       <c r="CX43" s="28"/>
+      <c r="CY43" s="28"/>
     </row>
     <row r="44" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
@@ -28742,6 +28784,7 @@
       <c r="CV44" s="28"/>
       <c r="CW44" s="28"/>
       <c r="CX44" s="28"/>
+      <c r="CY44" s="28"/>
     </row>
     <row r="45" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -28756,10 +28799,11 @@
       <c r="CR45" s="28"/>
       <c r="CS45" s="28"/>
       <c r="CT45" s="42"/>
-      <c r="CU45" s="42"/>
+      <c r="CU45" s="28"/>
       <c r="CV45" s="42"/>
       <c r="CW45" s="28"/>
       <c r="CX45" s="42"/>
+      <c r="CY45" s="42"/>
     </row>
     <row r="46" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CL46" s="28"/>
@@ -28771,10 +28815,11 @@
       <c r="CR46" s="28"/>
       <c r="CS46" s="28"/>
       <c r="CT46" s="28"/>
-      <c r="CU46" s="42"/>
+      <c r="CU46" s="28"/>
       <c r="CV46" s="42"/>
       <c r="CW46" s="28"/>
       <c r="CX46" s="42"/>
+      <c r="CY46" s="42"/>
     </row>
     <row r="47" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
@@ -28923,12 +28968,13 @@
       <c r="CR47" s="30"/>
       <c r="CS47" s="30"/>
       <c r="CT47" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="CU47" s="27"/>
+        <v>50</v>
+      </c>
+      <c r="CU47" s="30"/>
       <c r="CV47" s="27"/>
       <c r="CW47" s="27"/>
       <c r="CX47" s="27"/>
+      <c r="CY47" s="27"/>
     </row>
     <row r="48" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -29225,10 +29271,13 @@
       <c r="CT48" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="CU48" s="38"/>
+      <c r="CU48" s="38" t="s">
+        <v>8</v>
+      </c>
       <c r="CV48" s="38"/>
       <c r="CW48" s="38"/>
       <c r="CX48" s="38"/>
+      <c r="CY48" s="38"/>
     </row>
     <row r="49" spans="1:151" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
@@ -29241,10 +29290,11 @@
       <c r="CR49" s="28"/>
       <c r="CS49" s="28"/>
       <c r="CT49" s="28"/>
-      <c r="CU49" s="42"/>
+      <c r="CU49" s="28"/>
       <c r="CV49" s="42"/>
       <c r="CW49" s="28"/>
       <c r="CX49" s="42"/>
+      <c r="CY49" s="42"/>
     </row>
     <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -29539,13 +29589,15 @@
         <v>8.8900842368076667</v>
       </c>
       <c r="CT50" s="39">
-        <v>11.158836787527008</v>
-      </c>
-      <c r="CU50" s="43"/>
+        <v>9.7989876489347267</v>
+      </c>
+      <c r="CU50" s="39">
+        <v>16.146495643577239</v>
+      </c>
       <c r="CV50" s="43"/>
       <c r="CW50" s="39"/>
       <c r="CX50" s="43"/>
-      <c r="CY50" s="10"/>
+      <c r="CY50" s="43"/>
       <c r="CZ50" s="10"/>
       <c r="DA50" s="10"/>
       <c r="DB50" s="10"/>
@@ -29888,13 +29940,15 @@
         <v>2.4159033957221254</v>
       </c>
       <c r="CT51" s="39">
-        <v>5.5451529908577157</v>
-      </c>
-      <c r="CU51" s="43"/>
+        <v>4.6881007276054874</v>
+      </c>
+      <c r="CU51" s="39">
+        <v>3.9421943928237795</v>
+      </c>
       <c r="CV51" s="43"/>
       <c r="CW51" s="39"/>
       <c r="CX51" s="43"/>
-      <c r="CY51" s="10"/>
+      <c r="CY51" s="43"/>
       <c r="CZ51" s="10"/>
       <c r="DA51" s="10"/>
       <c r="DB51" s="10"/>
@@ -30043,11 +30097,11 @@
       <c r="CR52" s="40"/>
       <c r="CS52" s="40"/>
       <c r="CT52" s="40"/>
-      <c r="CU52" s="44"/>
+      <c r="CU52" s="40"/>
       <c r="CV52" s="44"/>
       <c r="CW52" s="40"/>
       <c r="CX52" s="44"/>
-      <c r="CY52" s="10"/>
+      <c r="CY52" s="44"/>
       <c r="CZ52" s="10"/>
       <c r="DA52" s="10"/>
       <c r="DB52" s="10"/>
@@ -30390,13 +30444,15 @@
         <v>2.9375668057082294</v>
       </c>
       <c r="CT53" s="39">
-        <v>5.9822642504753389</v>
-      </c>
-      <c r="CU53" s="43"/>
+        <v>5.0860615499216664</v>
+      </c>
+      <c r="CU53" s="39">
+        <v>4.9993487448851397</v>
+      </c>
       <c r="CV53" s="43"/>
       <c r="CW53" s="39"/>
       <c r="CX53" s="43"/>
-      <c r="CY53" s="10"/>
+      <c r="CY53" s="43"/>
       <c r="CZ53" s="10"/>
       <c r="DA53" s="10"/>
       <c r="DB53" s="10"/>
@@ -30545,10 +30601,11 @@
       <c r="CR54" s="36"/>
       <c r="CS54" s="36"/>
       <c r="CT54" s="36"/>
-      <c r="CU54" s="31"/>
+      <c r="CU54" s="36"/>
       <c r="CV54" s="31"/>
       <c r="CW54" s="36"/>
       <c r="CX54" s="31"/>
+      <c r="CY54" s="31"/>
     </row>
     <row r="55" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
@@ -30563,10 +30620,11 @@
       <c r="CR55" s="28"/>
       <c r="CS55" s="28"/>
       <c r="CT55" s="28"/>
-      <c r="CU55" s="42"/>
+      <c r="CU55" s="28"/>
       <c r="CV55" s="42"/>
       <c r="CW55" s="28"/>
       <c r="CX55" s="42"/>
+      <c r="CY55" s="42"/>
     </row>
     <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="10"/>
@@ -30666,11 +30724,11 @@
       <c r="CR56" s="37"/>
       <c r="CS56" s="37"/>
       <c r="CT56" s="37"/>
-      <c r="CU56" s="45"/>
+      <c r="CU56" s="37"/>
       <c r="CV56" s="45"/>
       <c r="CW56" s="37"/>
       <c r="CX56" s="45"/>
-      <c r="CY56" s="10"/>
+      <c r="CY56" s="45"/>
       <c r="CZ56" s="10"/>
       <c r="DA56" s="10"/>
       <c r="DB56" s="10"/>
@@ -30818,11 +30876,11 @@
       <c r="CR57" s="37"/>
       <c r="CS57" s="37"/>
       <c r="CT57" s="37"/>
-      <c r="CU57" s="45"/>
+      <c r="CU57" s="37"/>
       <c r="CV57" s="45"/>
       <c r="CW57" s="37"/>
       <c r="CX57" s="45"/>
-      <c r="CY57" s="10"/>
+      <c r="CY57" s="45"/>
       <c r="CZ57" s="10"/>
       <c r="DA57" s="10"/>
       <c r="DB57" s="10"/>
@@ -30885,10 +30943,11 @@
       <c r="CR58" s="28"/>
       <c r="CS58" s="28"/>
       <c r="CT58" s="28"/>
-      <c r="CU58" s="42"/>
+      <c r="CU58" s="28"/>
       <c r="CV58" s="42"/>
       <c r="CW58" s="28"/>
       <c r="CX58" s="42"/>
+      <c r="CY58" s="42"/>
     </row>
     <row r="59" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -30903,14 +30962,15 @@
       <c r="CR59" s="28"/>
       <c r="CS59" s="28"/>
       <c r="CT59" s="28"/>
-      <c r="CU59" s="42"/>
+      <c r="CU59" s="28"/>
       <c r="CV59" s="42"/>
       <c r="CW59" s="28"/>
       <c r="CX59" s="42"/>
+      <c r="CY59" s="42"/>
     </row>
     <row r="60" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="CL60" s="28"/>
       <c r="CM60" s="28"/>
@@ -30921,10 +30981,11 @@
       <c r="CR60" s="28"/>
       <c r="CS60" s="28"/>
       <c r="CT60" s="28"/>
-      <c r="CU60" s="42"/>
+      <c r="CU60" s="28"/>
       <c r="CV60" s="42"/>
       <c r="CW60" s="28"/>
       <c r="CX60" s="42"/>
+      <c r="CY60" s="42"/>
     </row>
     <row r="61" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CL61" s="28"/>
@@ -30936,10 +30997,11 @@
       <c r="CR61" s="28"/>
       <c r="CS61" s="28"/>
       <c r="CT61" s="28"/>
-      <c r="CU61" s="42"/>
+      <c r="CU61" s="28"/>
       <c r="CV61" s="42"/>
       <c r="CW61" s="28"/>
       <c r="CX61" s="42"/>
+      <c r="CY61" s="42"/>
     </row>
     <row r="62" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -30954,10 +31016,11 @@
       <c r="CR62" s="28"/>
       <c r="CS62" s="28"/>
       <c r="CT62" s="28"/>
-      <c r="CU62" s="42"/>
+      <c r="CU62" s="28"/>
       <c r="CV62" s="42"/>
       <c r="CW62" s="28"/>
       <c r="CX62" s="42"/>
+      <c r="CY62" s="42"/>
     </row>
     <row r="63" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
@@ -30972,10 +31035,11 @@
       <c r="CR63" s="28"/>
       <c r="CS63" s="28"/>
       <c r="CT63" s="28"/>
-      <c r="CU63" s="42"/>
+      <c r="CU63" s="28"/>
       <c r="CV63" s="42"/>
       <c r="CW63" s="28"/>
       <c r="CX63" s="42"/>
+      <c r="CY63" s="42"/>
     </row>
     <row r="64" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
@@ -30990,10 +31054,11 @@
       <c r="CR64" s="28"/>
       <c r="CS64" s="28"/>
       <c r="CT64" s="28"/>
-      <c r="CU64" s="42"/>
+      <c r="CU64" s="28"/>
       <c r="CV64" s="42"/>
       <c r="CW64" s="28"/>
       <c r="CX64" s="42"/>
+      <c r="CY64" s="42"/>
     </row>
     <row r="65" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CL65" s="28"/>
@@ -31005,10 +31070,11 @@
       <c r="CR65" s="28"/>
       <c r="CS65" s="28"/>
       <c r="CT65" s="28"/>
-      <c r="CU65" s="42"/>
+      <c r="CU65" s="28"/>
       <c r="CV65" s="42"/>
       <c r="CW65" s="28"/>
       <c r="CX65" s="42"/>
+      <c r="CY65" s="42"/>
     </row>
     <row r="66" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
@@ -31157,12 +31223,13 @@
       <c r="CR66" s="30"/>
       <c r="CS66" s="30"/>
       <c r="CT66" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="CU66" s="27"/>
+        <v>50</v>
+      </c>
+      <c r="CU66" s="30"/>
       <c r="CV66" s="27"/>
       <c r="CW66" s="27"/>
       <c r="CX66" s="27"/>
+      <c r="CY66" s="27"/>
     </row>
     <row r="67" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
@@ -31459,10 +31526,13 @@
       <c r="CT67" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="CU67" s="38"/>
+      <c r="CU67" s="38" t="s">
+        <v>8</v>
+      </c>
       <c r="CV67" s="38"/>
       <c r="CW67" s="38"/>
       <c r="CX67" s="38"/>
+      <c r="CY67" s="38"/>
     </row>
     <row r="68" spans="1:151" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
@@ -31475,10 +31545,11 @@
       <c r="CR68" s="28"/>
       <c r="CS68" s="28"/>
       <c r="CT68" s="28"/>
-      <c r="CU68" s="42"/>
+      <c r="CU68" s="28"/>
       <c r="CV68" s="42"/>
       <c r="CW68" s="28"/>
       <c r="CX68" s="42"/>
+      <c r="CY68" s="42"/>
     </row>
     <row r="69" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
@@ -31773,13 +31844,15 @@
         <v>8.4074632457697049</v>
       </c>
       <c r="CT69" s="39">
-        <v>10.28344908320517</v>
-      </c>
-      <c r="CU69" s="43"/>
+        <v>9.0937776603553004</v>
+      </c>
+      <c r="CU69" s="39">
+        <v>15.430880609070968</v>
+      </c>
       <c r="CV69" s="43"/>
       <c r="CW69" s="39"/>
       <c r="CX69" s="43"/>
-      <c r="CY69" s="10"/>
+      <c r="CY69" s="43"/>
       <c r="CZ69" s="10"/>
       <c r="DA69" s="10"/>
       <c r="DB69" s="10"/>
@@ -32122,13 +32195,15 @@
         <v>2.2174229627846813</v>
       </c>
       <c r="CT70" s="39">
-        <v>5.2389291427217302</v>
-      </c>
-      <c r="CU70" s="43"/>
+        <v>4.3843634914518645</v>
+      </c>
+      <c r="CU70" s="39">
+        <v>3.5741982105511596</v>
+      </c>
       <c r="CV70" s="43"/>
       <c r="CW70" s="39"/>
       <c r="CX70" s="43"/>
-      <c r="CY70" s="10"/>
+      <c r="CY70" s="43"/>
       <c r="CZ70" s="10"/>
       <c r="DA70" s="10"/>
       <c r="DB70" s="10"/>
@@ -32276,11 +32351,11 @@
       <c r="CR71" s="40"/>
       <c r="CS71" s="40"/>
       <c r="CT71" s="40"/>
-      <c r="CU71" s="44"/>
+      <c r="CU71" s="40"/>
       <c r="CV71" s="44"/>
       <c r="CW71" s="40"/>
       <c r="CX71" s="44"/>
-      <c r="CY71" s="10"/>
+      <c r="CY71" s="44"/>
       <c r="CZ71" s="10"/>
       <c r="DA71" s="10"/>
       <c r="DB71" s="10"/>
@@ -32623,13 +32698,15 @@
         <v>2.6548634154129189</v>
       </c>
       <c r="CT72" s="39">
-        <v>5.5899521566683745</v>
-      </c>
-      <c r="CU72" s="43"/>
+        <v>4.7120681640461726</v>
+      </c>
+      <c r="CU72" s="39">
+        <v>4.5622623120613213</v>
+      </c>
       <c r="CV72" s="43"/>
       <c r="CW72" s="39"/>
       <c r="CX72" s="43"/>
-      <c r="CY72" s="10"/>
+      <c r="CY72" s="43"/>
       <c r="CZ72" s="10"/>
       <c r="DA72" s="10"/>
       <c r="DB72" s="10"/>
@@ -32778,10 +32855,11 @@
       <c r="CR73" s="36"/>
       <c r="CS73" s="36"/>
       <c r="CT73" s="36"/>
-      <c r="CU73" s="31"/>
+      <c r="CU73" s="36"/>
       <c r="CV73" s="31"/>
       <c r="CW73" s="36"/>
       <c r="CX73" s="31"/>
+      <c r="CY73" s="31"/>
     </row>
     <row r="74" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
@@ -32796,10 +32874,11 @@
       <c r="CR74" s="28"/>
       <c r="CS74" s="28"/>
       <c r="CT74" s="28"/>
-      <c r="CU74" s="42"/>
+      <c r="CU74" s="28"/>
       <c r="CV74" s="42"/>
       <c r="CW74" s="28"/>
       <c r="CX74" s="42"/>
+      <c r="CY74" s="42"/>
     </row>
     <row r="75" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="10"/>
@@ -32899,11 +32978,11 @@
       <c r="CR75" s="37"/>
       <c r="CS75" s="37"/>
       <c r="CT75" s="37"/>
-      <c r="CU75" s="45"/>
+      <c r="CU75" s="37"/>
       <c r="CV75" s="45"/>
       <c r="CW75" s="37"/>
       <c r="CX75" s="45"/>
-      <c r="CY75" s="10"/>
+      <c r="CY75" s="45"/>
       <c r="CZ75" s="10"/>
       <c r="DA75" s="10"/>
       <c r="DB75" s="10"/>
@@ -33055,7 +33134,7 @@
       <c r="CV76" s="37"/>
       <c r="CW76" s="37"/>
       <c r="CX76" s="37"/>
-      <c r="CY76" s="10"/>
+      <c r="CY76" s="37"/>
       <c r="CZ76" s="10"/>
       <c r="DA76" s="10"/>
       <c r="DB76" s="10"/>
@@ -33122,10 +33201,11 @@
       <c r="CV77" s="28"/>
       <c r="CW77" s="28"/>
       <c r="CX77" s="28"/>
+      <c r="CY77" s="28"/>
     </row>
     <row r="78" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="CL78" s="28"/>
       <c r="CM78" s="28"/>
@@ -33140,6 +33220,7 @@
       <c r="CV78" s="28"/>
       <c r="CW78" s="28"/>
       <c r="CX78" s="28"/>
+      <c r="CY78" s="28"/>
     </row>
     <row r="79" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CL79" s="28"/>
@@ -33155,6 +33236,7 @@
       <c r="CV79" s="28"/>
       <c r="CW79" s="28"/>
       <c r="CX79" s="28"/>
+      <c r="CY79" s="28"/>
     </row>
     <row r="80" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -33173,6 +33255,7 @@
       <c r="CV80" s="28"/>
       <c r="CW80" s="28"/>
       <c r="CX80" s="28"/>
+      <c r="CY80" s="28"/>
     </row>
     <row r="81" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
@@ -33191,6 +33274,7 @@
       <c r="CV81" s="28"/>
       <c r="CW81" s="28"/>
       <c r="CX81" s="28"/>
+      <c r="CY81" s="28"/>
     </row>
     <row r="82" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
@@ -33209,6 +33293,7 @@
       <c r="CV82" s="28"/>
       <c r="CW82" s="28"/>
       <c r="CX82" s="28"/>
+      <c r="CY82" s="28"/>
     </row>
     <row r="83" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CL83" s="28"/>
@@ -33224,6 +33309,7 @@
       <c r="CV83" s="28"/>
       <c r="CW83" s="28"/>
       <c r="CX83" s="28"/>
+      <c r="CY83" s="28"/>
     </row>
     <row r="84" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
@@ -33380,6 +33466,7 @@
       <c r="CX84" s="30">
         <v>2025</v>
       </c>
+      <c r="CY84" s="30"/>
     </row>
     <row r="85" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
@@ -33687,6 +33774,9 @@
       </c>
       <c r="CX85" s="31" t="s">
         <v>7</v>
+      </c>
+      <c r="CY85" s="31" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -33704,6 +33794,7 @@
       <c r="CV86" s="28"/>
       <c r="CW86" s="28"/>
       <c r="CX86" s="28"/>
+      <c r="CY86" s="28"/>
     </row>
     <row r="87" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
@@ -34010,9 +34101,11 @@
         <v>117.45704715189369</v>
       </c>
       <c r="CX87" s="39">
-        <v>113.86146155181302</v>
-      </c>
-      <c r="CY87" s="10"/>
+        <v>113.69502359064749</v>
+      </c>
+      <c r="CY87" s="39">
+        <v>104.50168731655816</v>
+      </c>
       <c r="CZ87" s="10"/>
       <c r="DA87" s="10"/>
       <c r="DB87" s="10"/>
@@ -34371,9 +34464,11 @@
         <v>101.66172566526851</v>
       </c>
       <c r="CX88" s="39">
-        <v>100.34467659100888</v>
-      </c>
-      <c r="CY88" s="10"/>
+        <v>100.34467659100885</v>
+      </c>
+      <c r="CY88" s="39">
+        <v>99.911529709511086</v>
+      </c>
       <c r="CZ88" s="10"/>
       <c r="DA88" s="10"/>
       <c r="DB88" s="10"/>
@@ -34529,7 +34624,7 @@
       <c r="CV89" s="40"/>
       <c r="CW89" s="40"/>
       <c r="CX89" s="40"/>
-      <c r="CY89" s="10"/>
+      <c r="CY89" s="40"/>
       <c r="CZ89" s="10"/>
       <c r="DA89" s="10"/>
       <c r="DB89" s="10"/>
@@ -34888,9 +34983,11 @@
         <v>102.84050791916994</v>
       </c>
       <c r="CX90" s="39">
-        <v>101.32705068071959</v>
-      </c>
-      <c r="CY90" s="10"/>
+        <v>101.31253436978305</v>
+      </c>
+      <c r="CY90" s="39">
+        <v>100.33380587520901</v>
+      </c>
       <c r="CZ90" s="10"/>
       <c r="DA90" s="10"/>
       <c r="DB90" s="10"/>
@@ -35047,6 +35144,7 @@
       <c r="CV91" s="36"/>
       <c r="CW91" s="36"/>
       <c r="CX91" s="36"/>
+      <c r="CY91" s="36"/>
     </row>
     <row r="92" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
@@ -35065,6 +35163,7 @@
       <c r="CV92" s="28"/>
       <c r="CW92" s="28"/>
       <c r="CX92" s="28"/>
+      <c r="CY92" s="28"/>
     </row>
     <row r="95" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
@@ -35083,6 +35182,7 @@
       <c r="CV95" s="28"/>
       <c r="CW95" s="28"/>
       <c r="CX95" s="28"/>
+      <c r="CY95" s="28"/>
     </row>
     <row r="96" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
@@ -35101,10 +35201,11 @@
       <c r="CV96" s="28"/>
       <c r="CW96" s="28"/>
       <c r="CX96" s="28"/>
+      <c r="CY96" s="28"/>
     </row>
     <row r="97" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="CL97" s="28"/>
       <c r="CM97" s="28"/>
@@ -35119,6 +35220,7 @@
       <c r="CV97" s="28"/>
       <c r="CW97" s="28"/>
       <c r="CX97" s="28"/>
+      <c r="CY97" s="28"/>
     </row>
     <row r="98" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CL98" s="28"/>
@@ -35134,6 +35236,7 @@
       <c r="CV98" s="28"/>
       <c r="CW98" s="28"/>
       <c r="CX98" s="28"/>
+      <c r="CY98" s="28"/>
     </row>
     <row r="99" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
@@ -35152,6 +35255,7 @@
       <c r="CV99" s="28"/>
       <c r="CW99" s="28"/>
       <c r="CX99" s="28"/>
+      <c r="CY99" s="28"/>
     </row>
     <row r="100" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
@@ -35170,6 +35274,7 @@
       <c r="CV100" s="28"/>
       <c r="CW100" s="28"/>
       <c r="CX100" s="28"/>
+      <c r="CY100" s="28"/>
     </row>
     <row r="101" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
@@ -35188,6 +35293,7 @@
       <c r="CV101" s="28"/>
       <c r="CW101" s="28"/>
       <c r="CX101" s="28"/>
+      <c r="CY101" s="28"/>
     </row>
     <row r="102" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CL102" s="28"/>
@@ -35203,6 +35309,7 @@
       <c r="CV102" s="28"/>
       <c r="CW102" s="28"/>
       <c r="CX102" s="28"/>
+      <c r="CY102" s="28"/>
     </row>
     <row r="103" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
@@ -35359,6 +35466,7 @@
       <c r="CX103" s="30">
         <v>2025</v>
       </c>
+      <c r="CY103" s="30"/>
     </row>
     <row r="104" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
@@ -35666,6 +35774,9 @@
       </c>
       <c r="CX104" s="31" t="s">
         <v>7</v>
+      </c>
+      <c r="CY104" s="31" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35683,6 +35794,7 @@
       <c r="CV105" s="28"/>
       <c r="CW105" s="28"/>
       <c r="CX105" s="28"/>
+      <c r="CY105" s="28"/>
     </row>
     <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
@@ -35989,9 +36101,11 @@
         <v>8.5235396370520107</v>
       </c>
       <c r="CX106" s="39">
-        <v>8.1668550410823464</v>
-      </c>
-      <c r="CY106" s="10"/>
+        <v>8.1357438678031073</v>
+      </c>
+      <c r="CY106" s="39">
+        <v>9.5817533735219005</v>
+      </c>
       <c r="CZ106" s="10"/>
       <c r="DA106" s="10"/>
       <c r="DB106" s="10"/>
@@ -36350,9 +36464,11 @@
         <v>91.476460362948004</v>
       </c>
       <c r="CX107" s="39">
-        <v>91.833144958917643</v>
-      </c>
-      <c r="CY107" s="10"/>
+        <v>91.8642561321969</v>
+      </c>
+      <c r="CY107" s="39">
+        <v>90.418246626478108</v>
+      </c>
       <c r="CZ107" s="10"/>
       <c r="DA107" s="10"/>
       <c r="DB107" s="10"/>
@@ -36508,7 +36624,7 @@
       <c r="CV108" s="40"/>
       <c r="CW108" s="40"/>
       <c r="CX108" s="40"/>
-      <c r="CY108" s="10"/>
+      <c r="CY108" s="40"/>
       <c r="CZ108" s="10"/>
       <c r="DA108" s="10"/>
       <c r="DB108" s="10"/>
@@ -36869,7 +36985,9 @@
       <c r="CX109" s="39">
         <v>100</v>
       </c>
-      <c r="CY109" s="10"/>
+      <c r="CY109" s="39">
+        <v>100</v>
+      </c>
       <c r="CZ109" s="10"/>
       <c r="DA109" s="10"/>
       <c r="DB109" s="10"/>
@@ -37026,6 +37144,7 @@
       <c r="CV110" s="36"/>
       <c r="CW110" s="36"/>
       <c r="CX110" s="36"/>
+      <c r="CY110" s="36"/>
     </row>
     <row r="111" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
@@ -37044,6 +37163,7 @@
       <c r="CV111" s="28"/>
       <c r="CW111" s="28"/>
       <c r="CX111" s="28"/>
+      <c r="CY111" s="28"/>
     </row>
     <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="10"/>
@@ -37147,7 +37267,7 @@
       <c r="CV112" s="37"/>
       <c r="CW112" s="37"/>
       <c r="CX112" s="37"/>
-      <c r="CY112" s="10"/>
+      <c r="CY112" s="37"/>
       <c r="CZ112" s="10"/>
       <c r="DA112" s="10"/>
       <c r="DB112" s="10"/>
@@ -37303,7 +37423,7 @@
       <c r="CV113" s="37"/>
       <c r="CW113" s="37"/>
       <c r="CX113" s="37"/>
-      <c r="CY113" s="10"/>
+      <c r="CY113" s="37"/>
       <c r="CZ113" s="10"/>
       <c r="DA113" s="10"/>
       <c r="DB113" s="10"/>
@@ -37374,6 +37494,7 @@
       <c r="CV114" s="28"/>
       <c r="CW114" s="28"/>
       <c r="CX114" s="28"/>
+      <c r="CY114" s="28"/>
     </row>
     <row r="115" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
@@ -37392,10 +37513,11 @@
       <c r="CV115" s="28"/>
       <c r="CW115" s="28"/>
       <c r="CX115" s="28"/>
+      <c r="CY115" s="28"/>
     </row>
     <row r="116" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="CL116" s="28"/>
       <c r="CM116" s="28"/>
@@ -37410,6 +37532,7 @@
       <c r="CV116" s="28"/>
       <c r="CW116" s="28"/>
       <c r="CX116" s="28"/>
+      <c r="CY116" s="28"/>
     </row>
     <row r="117" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CL117" s="28"/>
@@ -37425,6 +37548,7 @@
       <c r="CV117" s="28"/>
       <c r="CW117" s="28"/>
       <c r="CX117" s="28"/>
+      <c r="CY117" s="28"/>
     </row>
     <row r="118" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
@@ -37443,6 +37567,7 @@
       <c r="CV118" s="28"/>
       <c r="CW118" s="28"/>
       <c r="CX118" s="28"/>
+      <c r="CY118" s="28"/>
     </row>
     <row r="119" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
@@ -37461,6 +37586,7 @@
       <c r="CV119" s="28"/>
       <c r="CW119" s="28"/>
       <c r="CX119" s="28"/>
+      <c r="CY119" s="28"/>
     </row>
     <row r="120" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
@@ -37479,6 +37605,7 @@
       <c r="CV120" s="28"/>
       <c r="CW120" s="28"/>
       <c r="CX120" s="28"/>
+      <c r="CY120" s="28"/>
     </row>
     <row r="121" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="CL121" s="28"/>
@@ -37494,6 +37621,7 @@
       <c r="CV121" s="28"/>
       <c r="CW121" s="28"/>
       <c r="CX121" s="28"/>
+      <c r="CY121" s="28"/>
     </row>
     <row r="122" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
@@ -37650,6 +37778,7 @@
       <c r="CX122" s="30">
         <v>2025</v>
       </c>
+      <c r="CY122" s="30"/>
     </row>
     <row r="123" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
@@ -37957,6 +38086,9 @@
       </c>
       <c r="CX123" s="31" t="s">
         <v>7</v>
+      </c>
+      <c r="CY123" s="31" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37974,6 +38106,7 @@
       <c r="CV124" s="28"/>
       <c r="CW124" s="28"/>
       <c r="CX124" s="28"/>
+      <c r="CY124" s="28"/>
     </row>
     <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
@@ -38280,9 +38413,11 @@
         <v>7.4628569915438554</v>
       </c>
       <c r="CX125" s="39">
-        <v>7.267808821102073</v>
-      </c>
-      <c r="CY125" s="10"/>
+        <v>7.2496825648080216</v>
+      </c>
+      <c r="CY125" s="39">
+        <v>9.1996005768870202</v>
+      </c>
       <c r="CZ125" s="10"/>
       <c r="DA125" s="10"/>
       <c r="DB125" s="10"/>
@@ -38641,9 +38776,11 @@
         <v>92.537143008456141</v>
       </c>
       <c r="CX126" s="39">
-        <v>92.732191178897921</v>
-      </c>
-      <c r="CY126" s="10"/>
+        <v>92.750317435191988</v>
+      </c>
+      <c r="CY126" s="39">
+        <v>90.800399423112978</v>
+      </c>
       <c r="CZ126" s="10"/>
       <c r="DA126" s="10"/>
       <c r="DB126" s="10"/>
@@ -38799,7 +38936,7 @@
       <c r="CV127" s="40"/>
       <c r="CW127" s="40"/>
       <c r="CX127" s="40"/>
-      <c r="CY127" s="10"/>
+      <c r="CY127" s="40"/>
       <c r="CZ127" s="10"/>
       <c r="DA127" s="10"/>
       <c r="DB127" s="10"/>
@@ -39160,7 +39297,9 @@
       <c r="CX128" s="39">
         <v>100</v>
       </c>
-      <c r="CY128" s="10"/>
+      <c r="CY128" s="39">
+        <v>100</v>
+      </c>
       <c r="CZ128" s="10"/>
       <c r="DA128" s="10"/>
       <c r="DB128" s="10"/>
@@ -39317,6 +39456,7 @@
       <c r="CV129" s="36"/>
       <c r="CW129" s="36"/>
       <c r="CX129" s="36"/>
+      <c r="CY129" s="36"/>
     </row>
     <row r="130" spans="1:155" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
@@ -39335,6 +39475,7 @@
       <c r="CV130" s="28"/>
       <c r="CW130" s="28"/>
       <c r="CX130" s="28"/>
+      <c r="CY130" s="28"/>
     </row>
     <row r="131" spans="1:155" s="21" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
@@ -39439,7 +39580,7 @@
       <c r="CV131" s="46"/>
       <c r="CW131" s="41"/>
       <c r="CX131" s="46"/>
-      <c r="CY131" s="20"/>
+      <c r="CY131" s="46"/>
       <c r="CZ131" s="20"/>
       <c r="DA131" s="20"/>
       <c r="DB131" s="20"/>
@@ -39596,7 +39737,7 @@
       <c r="CV132" s="46"/>
       <c r="CW132" s="41"/>
       <c r="CX132" s="46"/>
-      <c r="CY132" s="20"/>
+      <c r="CY132" s="46"/>
       <c r="CZ132" s="20"/>
       <c r="DA132" s="20"/>
       <c r="DB132" s="20"/>
@@ -39655,18 +39796,21 @@
       <c r="CU133" s="46"/>
       <c r="CV133" s="46"/>
       <c r="CX133" s="46"/>
+      <c r="CY133" s="46"/>
     </row>
     <row r="134" spans="1:155" x14ac:dyDescent="0.2">
       <c r="CT134" s="46"/>
       <c r="CU134" s="46"/>
       <c r="CV134" s="46"/>
       <c r="CX134" s="46"/>
+      <c r="CY134" s="46"/>
     </row>
     <row r="135" spans="1:155" x14ac:dyDescent="0.2">
       <c r="CT135" s="46"/>
       <c r="CU135" s="46"/>
       <c r="CV135" s="46"/>
       <c r="CX135" s="46"/>
+      <c r="CY135" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="147">
@@ -39823,9 +39967,9 @@
   <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="101" man="1"/>
-    <brk id="76" max="101" man="1"/>
-    <brk id="94" max="101" man="1"/>
+    <brk id="38" max="102" man="1"/>
+    <brk id="76" max="102" man="1"/>
+    <brk id="94" max="102" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>